--- a/data/HER.MI.xlsx
+++ b/data/HER.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1605" uniqueCount="1605">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1606" uniqueCount="1606">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,64 +38,64 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">1.8471702337265</t>
+    <t xml:space="preserve">1.84717011451721</t>
   </si>
   <si>
     <t xml:space="preserve">HER.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">1.84868192672729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.845658659935</t>
+    <t xml:space="preserve">1.84868204593658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84565854072571</t>
   </si>
   <si>
     <t xml:space="preserve">1.85019326210022</t>
   </si>
   <si>
-    <t xml:space="preserve">1.82600784301758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86682105064392</t>
+    <t xml:space="preserve">1.82600748538971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86682116985321</t>
   </si>
   <si>
     <t xml:space="preserve">1.93786573410034</t>
   </si>
   <si>
-    <t xml:space="preserve">1.94088900089264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91519212722778</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88949477672577</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8426353931427</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9182151556015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89251804351807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91065728664398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95298206806183</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.936354637146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95147025585175</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.98472511768341</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96507453918457</t>
+    <t xml:space="preserve">1.94088959693909</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9151918888092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88949465751648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84263551235199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91821539402008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89251816272736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91065692901611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95298194885254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93635427951813</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95147037506104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9847252368927</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96507465839386</t>
   </si>
   <si>
     <t xml:space="preserve">1.94995880126953</t>
@@ -104,19 +104,19 @@
     <t xml:space="preserve">1.99984133243561</t>
   </si>
   <si>
-    <t xml:space="preserve">2.007399559021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.99077188968658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.97263252735138</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.97867929935455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86984395980835</t>
+    <t xml:space="preserve">2.00739932060242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.99077200889587</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.97263240814209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9786788225174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86984419822693</t>
   </si>
   <si>
     <t xml:space="preserve">1.88344836235046</t>
@@ -125,187 +125,187 @@
     <t xml:space="preserve">1.9030989408493</t>
   </si>
   <si>
-    <t xml:space="preserve">1.83810067176819</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89856457710266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94240033626556</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9287965297699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92123806476593</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94542396068573</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94844746589661</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96960973739624</t>
+    <t xml:space="preserve">1.83810043334961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89856445789337</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94240093231201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92879641056061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92123854160309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94542348384857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94844710826874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96960949897766</t>
   </si>
   <si>
     <t xml:space="preserve">1.98019051551819</t>
   </si>
   <si>
-    <t xml:space="preserve">1.93484270572662</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90914583206177</t>
+    <t xml:space="preserve">1.9348429441452</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90914559364319</t>
   </si>
   <si>
     <t xml:space="preserve">1.88798320293427</t>
   </si>
   <si>
-    <t xml:space="preserve">1.88193678855896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87135601043701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88647162914276</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87437880039215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9076339006424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92426133155823</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90461087226868</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91972672939301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94391250610352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.98774862289429</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95902800559998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.00891089439392</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.99379456043243</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91216862201691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92728507518768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9333313703537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92274975776672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9257732629776</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95600509643555</t>
+    <t xml:space="preserve">1.88193690776825</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87135577201843</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88647150993347</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87437891960144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90763413906097</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92426145076752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9046106338501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91972684860229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94391238689423</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.98774874210358</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95902824401855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.0089111328125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.99379539489746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9121687412262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92728471755981</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93333113193512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92274987697601</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92577338218689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95600521564484</t>
   </si>
   <si>
     <t xml:space="preserve">1.95751655101776</t>
   </si>
   <si>
-    <t xml:space="preserve">1.93937742710114</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9303081035614</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90007591247559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89100670814514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.97565603256226</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.99681806564331</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.98170232772827</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9953066110611</t>
+    <t xml:space="preserve">1.93937754631042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93030786514282</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90007615089417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89100658893585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.97565567493439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.99681794643402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.98170208930969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.99530673027039</t>
   </si>
   <si>
     <t xml:space="preserve">1.97112107276917</t>
   </si>
   <si>
-    <t xml:space="preserve">1.98321378231049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.97414410114288</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96205151081085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90612244606018</t>
+    <t xml:space="preserve">1.98321390151978</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.97414422035217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96205139160156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90612280368805</t>
   </si>
   <si>
     <t xml:space="preserve">1.87286722660065</t>
   </si>
   <si>
-    <t xml:space="preserve">1.88496017456055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8517050743103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90119743347168</t>
+    <t xml:space="preserve">1.88495993614197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85170495510101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9011971950531</t>
   </si>
   <si>
     <t xml:space="preserve">1.91843807697296</t>
   </si>
   <si>
-    <t xml:space="preserve">1.88238930702209</t>
+    <t xml:space="preserve">1.88238906860352</t>
   </si>
   <si>
     <t xml:space="preserve">1.9027646780014</t>
   </si>
   <si>
-    <t xml:space="preserve">1.84320533275604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81029081344604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84947502613068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88082158565521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9262752532959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.98426711559296</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95605480670929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95918929576874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93097710609436</t>
+    <t xml:space="preserve">1.84320545196533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81029093265533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84947454929352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88082206249237</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92627513408661</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.98426723480225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95605444908142</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95918917655945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9309766292572</t>
   </si>
   <si>
     <t xml:space="preserve">1.9247077703476</t>
@@ -317,28 +317,28 @@
     <t xml:space="preserve">1.90433216094971</t>
   </si>
   <si>
-    <t xml:space="preserve">1.88865852355957</t>
+    <t xml:space="preserve">1.88865864276886</t>
   </si>
   <si>
     <t xml:space="preserve">1.91530346870422</t>
   </si>
   <si>
-    <t xml:space="preserve">1.91060137748718</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90589952468872</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9137362241745</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92000567913055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92940962314606</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.98740184307098</t>
+    <t xml:space="preserve">1.91060161590576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90589928627014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91373610496521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92000555992126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92940926551819</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.98740196228027</t>
   </si>
   <si>
     <t xml:space="preserve">2.00934433937073</t>
@@ -347,19 +347,19 @@
     <t xml:space="preserve">2.00150775909424</t>
   </si>
   <si>
-    <t xml:space="preserve">1.98583447933197</t>
+    <t xml:space="preserve">1.98583424091339</t>
   </si>
   <si>
     <t xml:space="preserve">2.01874876022339</t>
   </si>
   <si>
-    <t xml:space="preserve">1.98113238811493</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.99523818492889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94351577758789</t>
+    <t xml:space="preserve">1.98113203048706</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.99523830413818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94351589679718</t>
   </si>
   <si>
     <t xml:space="preserve">1.96859347820282</t>
@@ -368,46 +368,46 @@
     <t xml:space="preserve">1.96075689792633</t>
   </si>
   <si>
-    <t xml:space="preserve">1.89179337024689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88709127902985</t>
+    <t xml:space="preserve">1.8917932510376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88709115982056</t>
   </si>
   <si>
     <t xml:space="preserve">1.91216886043549</t>
   </si>
   <si>
-    <t xml:space="preserve">1.9215726852417</t>
+    <t xml:space="preserve">1.92157280445099</t>
   </si>
   <si>
     <t xml:space="preserve">1.93724632263184</t>
   </si>
   <si>
-    <t xml:space="preserve">1.9466507434845</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93254423141479</t>
+    <t xml:space="preserve">1.94665038585663</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93254458904266</t>
   </si>
   <si>
     <t xml:space="preserve">1.93567931652069</t>
   </si>
   <si>
-    <t xml:space="preserve">1.96389138698578</t>
+    <t xml:space="preserve">1.96389162540436</t>
   </si>
   <si>
     <t xml:space="preserve">1.89963006973267</t>
   </si>
   <si>
-    <t xml:space="preserve">1.87768685817719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84634006023407</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87925434112549</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89806234836578</t>
+    <t xml:space="preserve">1.87768697738647</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84633994102478</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87925446033478</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89806246757507</t>
   </si>
   <si>
     <t xml:space="preserve">1.85104215145111</t>
@@ -419,94 +419,94 @@
     <t xml:space="preserve">1.84163796901703</t>
   </si>
   <si>
-    <t xml:space="preserve">1.83066666126251</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8573112487793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83536851406097</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76483774185181</t>
+    <t xml:space="preserve">1.8306667804718</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85731112957001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83536839485168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7648378610611</t>
   </si>
   <si>
     <t xml:space="preserve">1.73662543296814</t>
   </si>
   <si>
-    <t xml:space="preserve">1.72251904010773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.70841312408447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73192369937897</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.74132740497589</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.74602949619293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75386619567871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76640510559082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75073182582855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.77267479896545</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.77110719680786</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78521347045898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75543367862701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.74759709835052</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.74916434288025</t>
+    <t xml:space="preserve">1.72251915931702</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.70841300487518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7319233417511</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.74132764339447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.74602937698364</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75386607646942</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76640498638153</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75073158740997</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77267467975616</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77110707759857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78521358966827</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7554337978363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.74759697914124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.74916422367096</t>
   </si>
   <si>
     <t xml:space="preserve">1.75856840610504</t>
   </si>
   <si>
-    <t xml:space="preserve">1.79775202274323</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80558860301971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82596457004547</t>
+    <t xml:space="preserve">1.79775190353394</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80558884143829</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82596445083618</t>
   </si>
   <si>
     <t xml:space="preserve">1.72408664226532</t>
   </si>
   <si>
-    <t xml:space="preserve">1.69430708885193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69117248058319</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.66922962665558</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.57989037036896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5830249786377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.56421673297882</t>
+    <t xml:space="preserve">1.69430685043335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69117212295532</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.66922950744629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.57989025115967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.58302485942841</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.56421685218811</t>
   </si>
   <si>
     <t xml:space="preserve">1.56343305110931</t>
@@ -515,7 +515,7 @@
     <t xml:space="preserve">1.56891882419586</t>
   </si>
   <si>
-    <t xml:space="preserve">1.54697585105896</t>
+    <t xml:space="preserve">1.54697608947754</t>
   </si>
   <si>
     <t xml:space="preserve">1.53835558891296</t>
@@ -530,7 +530,7 @@
     <t xml:space="preserve">1.52424931526184</t>
   </si>
   <si>
-    <t xml:space="preserve">1.52816772460938</t>
+    <t xml:space="preserve">1.52816760540009</t>
   </si>
   <si>
     <t xml:space="preserve">1.51249420642853</t>
@@ -539,7 +539,7 @@
     <t xml:space="preserve">1.51641249656677</t>
   </si>
   <si>
-    <t xml:space="preserve">1.52033090591431</t>
+    <t xml:space="preserve">1.5203310251236</t>
   </si>
   <si>
     <t xml:space="preserve">1.53208601474762</t>
@@ -548,7 +548,7 @@
     <t xml:space="preserve">1.49446952342987</t>
   </si>
   <si>
-    <t xml:space="preserve">1.47017586231232</t>
+    <t xml:space="preserve">1.47017574310303</t>
   </si>
   <si>
     <t xml:space="preserve">1.48976767063141</t>
@@ -557,19 +557,19 @@
     <t xml:space="preserve">1.55638003349304</t>
   </si>
   <si>
-    <t xml:space="preserve">1.60183322429657</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.61437177658081</t>
+    <t xml:space="preserve">1.60183310508728</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6143718957901</t>
   </si>
   <si>
     <t xml:space="preserve">1.60653519630432</t>
   </si>
   <si>
-    <t xml:space="preserve">1.65825772285461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65198850631714</t>
+    <t xml:space="preserve">1.65825796127319</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65198838710785</t>
   </si>
   <si>
     <t xml:space="preserve">1.62377607822418</t>
@@ -578,10 +578,10 @@
     <t xml:space="preserve">1.63004553318024</t>
   </si>
   <si>
-    <t xml:space="preserve">1.67549872398376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.68490302562714</t>
+    <t xml:space="preserve">1.67549884319305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.68490290641785</t>
   </si>
   <si>
     <t xml:space="preserve">1.69900894165039</t>
@@ -590,10 +590,10 @@
     <t xml:space="preserve">1.72095191478729</t>
   </si>
   <si>
-    <t xml:space="preserve">1.69744157791138</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.71781694889069</t>
+    <t xml:space="preserve">1.69744145870209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.71781730651855</t>
   </si>
   <si>
     <t xml:space="preserve">1.73976004123688</t>
@@ -602,7 +602,7 @@
     <t xml:space="preserve">1.72722148895264</t>
   </si>
   <si>
-    <t xml:space="preserve">1.73035597801208</t>
+    <t xml:space="preserve">1.73035609722137</t>
   </si>
   <si>
     <t xml:space="preserve">1.69273972511292</t>
@@ -611,7 +611,7 @@
     <t xml:space="preserve">1.78678071498871</t>
   </si>
   <si>
-    <t xml:space="preserve">1.77580916881561</t>
+    <t xml:space="preserve">1.77580904960632</t>
   </si>
   <si>
     <t xml:space="preserve">1.78834807872772</t>
@@ -620,70 +620,70 @@
     <t xml:space="preserve">1.78991544246674</t>
   </si>
   <si>
-    <t xml:space="preserve">1.7946172952652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.77424168586731</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.77737665176392</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.70371103286743</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.70684576034546</t>
+    <t xml:space="preserve">1.79461741447449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7742418050766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77737653255463</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.70371115207672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.70684587955475</t>
   </si>
   <si>
     <t xml:space="preserve">1.6786333322525</t>
   </si>
   <si>
-    <t xml:space="preserve">1.71624982357025</t>
+    <t xml:space="preserve">1.71625006198883</t>
   </si>
   <si>
     <t xml:space="preserve">1.76327049732208</t>
   </si>
   <si>
-    <t xml:space="preserve">1.81969511508942</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80245423316956</t>
+    <t xml:space="preserve">1.81969487667084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80245399475098</t>
   </si>
   <si>
     <t xml:space="preserve">1.81499290466309</t>
   </si>
   <si>
-    <t xml:space="preserve">1.82909965515137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83223390579224</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83693587779999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83380115032196</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85417664051056</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87141764163971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87611973285675</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86044645309448</t>
+    <t xml:space="preserve">1.8290992975235</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83223378658295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83693623542786</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83380103111267</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85417687892914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87141752243042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87611961364746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86044609546661</t>
   </si>
   <si>
     <t xml:space="preserve">1.86514854431152</t>
   </si>
   <si>
-    <t xml:space="preserve">1.85574424266815</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8588787317276</t>
+    <t xml:space="preserve">1.85574412345886</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85887897014618</t>
   </si>
   <si>
     <t xml:space="preserve">1.88395643234253</t>
@@ -692,37 +692,37 @@
     <t xml:space="preserve">1.92784237861633</t>
   </si>
   <si>
-    <t xml:space="preserve">1.9341117143631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96232390403748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.97956502437592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.02188324928284</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.05479788780212</t>
+    <t xml:space="preserve">1.93411183357239</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96232414245605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.97956490516663</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.02188348770142</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.05479764938354</t>
   </si>
   <si>
     <t xml:space="preserve">2.0704710483551</t>
   </si>
   <si>
-    <t xml:space="preserve">2.0720386505127</t>
+    <t xml:space="preserve">2.07203888893127</t>
   </si>
   <si>
     <t xml:space="preserve">2.03442215919495</t>
   </si>
   <si>
-    <t xml:space="preserve">2.02501845359802</t>
+    <t xml:space="preserve">2.02501821517944</t>
   </si>
   <si>
     <t xml:space="preserve">2.04382634162903</t>
   </si>
   <si>
-    <t xml:space="preserve">2.05636501312256</t>
+    <t xml:space="preserve">2.05636525154114</t>
   </si>
   <si>
     <t xml:space="preserve">2.06106734275818</t>
@@ -737,16 +737,16 @@
     <t xml:space="preserve">2.0955491065979</t>
   </si>
   <si>
-    <t xml:space="preserve">2.03285479545593</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.03755664825439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.08614492416382</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.05323004722595</t>
+    <t xml:space="preserve">2.03285503387451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.03755688667297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.0861451625824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.05323028564453</t>
   </si>
   <si>
     <t xml:space="preserve">2.04225897789001</t>
@@ -761,49 +761,49 @@
     <t xml:space="preserve">2.08144283294678</t>
   </si>
   <si>
-    <t xml:space="preserve">2.09398150444031</t>
+    <t xml:space="preserve">2.09398174285889</t>
   </si>
   <si>
     <t xml:space="preserve">2.09711623191833</t>
   </si>
   <si>
-    <t xml:space="preserve">2.10808777809143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.15824317932129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.19429183006287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.22563862800598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.23817801475525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.21936964988708</t>
+    <t xml:space="preserve">2.10808801651001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.15824270248413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.19429206848145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.22563910484314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.23817753791809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.21937012672424</t>
   </si>
   <si>
     <t xml:space="preserve">2.27422690391541</t>
   </si>
   <si>
-    <t xml:space="preserve">2.23347568511963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.20526313781738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.24287986755371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.25698590278625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.30243945121765</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.2851984500885</t>
+    <t xml:space="preserve">2.23347616195679</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.20526361465454</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.24288010597229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.25698614120483</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.30243921279907</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.28519821166992</t>
   </si>
   <si>
     <t xml:space="preserve">2.28363108634949</t>
@@ -812,10 +812,10 @@
     <t xml:space="preserve">2.27265977859497</t>
   </si>
   <si>
-    <t xml:space="preserve">2.22250437736511</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.26012110710144</t>
+    <t xml:space="preserve">2.22250413894653</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.26012063026428</t>
   </si>
   <si>
     <t xml:space="preserve">2.2961699962616</t>
@@ -824,19 +824,19 @@
     <t xml:space="preserve">2.24914932250977</t>
   </si>
   <si>
-    <t xml:space="preserve">2.275794506073</t>
+    <t xml:space="preserve">2.27579426765442</t>
   </si>
   <si>
     <t xml:space="preserve">2.29303526878357</t>
   </si>
   <si>
-    <t xml:space="preserve">2.28049683570862</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.32281494140625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.30714130401611</t>
+    <t xml:space="preserve">2.28049659729004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.32281517982483</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.30714154243469</t>
   </si>
   <si>
     <t xml:space="preserve">2.33065176010132</t>
@@ -854,19 +854,19 @@
     <t xml:space="preserve">2.3564624786377</t>
   </si>
   <si>
-    <t xml:space="preserve">2.34999752044678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.33221936225891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.27080249786377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.28534841537476</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.24171018600464</t>
+    <t xml:space="preserve">2.34999775886536</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.33221888542175</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.27080225944519</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.28534865379333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.24171042442322</t>
   </si>
   <si>
     <t xml:space="preserve">2.22716426849365</t>
@@ -878,31 +878,31 @@
     <t xml:space="preserve">2.16251492500305</t>
   </si>
   <si>
-    <t xml:space="preserve">2.17544460296631</t>
+    <t xml:space="preserve">2.17544484138489</t>
   </si>
   <si>
     <t xml:space="preserve">2.17221236228943</t>
   </si>
   <si>
-    <t xml:space="preserve">2.1608989238739</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.11079573631287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.13180637359619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16898012161255</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.14473628997803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.19645571708679</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.22069931030273</t>
+    <t xml:space="preserve">2.16089868545532</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.11079549789429</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.13180661201477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16897988319397</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.14473652839661</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.19645595550537</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.22069907188416</t>
   </si>
   <si>
     <t xml:space="preserve">2.20615315437317</t>
@@ -911,22 +911,22 @@
     <t xml:space="preserve">2.19807195663452</t>
   </si>
   <si>
-    <t xml:space="preserve">2.21261787414551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.18999099731445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.23039674758911</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.24655890464783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.19968843460083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.17867755889893</t>
+    <t xml:space="preserve">2.21261811256409</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.18999123573303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.23039650917053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.24655914306641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.19968819618225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.17867732048035</t>
   </si>
   <si>
     <t xml:space="preserve">2.22231531143188</t>
@@ -938,49 +938,49 @@
     <t xml:space="preserve">2.20938563346863</t>
   </si>
   <si>
-    <t xml:space="preserve">2.20292091369629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.21585059165955</t>
+    <t xml:space="preserve">2.20292115211487</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.21585035324097</t>
   </si>
   <si>
     <t xml:space="preserve">2.2174665927887</t>
   </si>
   <si>
-    <t xml:space="preserve">2.16574740409851</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.22393202781677</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.20130443572998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.15766644477844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.13665533065796</t>
+    <t xml:space="preserve">2.16574716567993</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.22393178939819</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.20130467414856</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.15766620635986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.13665556907654</t>
   </si>
   <si>
     <t xml:space="preserve">2.12210917472839</t>
   </si>
   <si>
-    <t xml:space="preserve">2.12857437133789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.19160723686218</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.17706084251404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.17382860183716</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16736364364624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.24817538261414</t>
+    <t xml:space="preserve">2.12857413291931</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1916069984436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.17706108093262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.17382884025574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16736340522766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.24817514419556</t>
   </si>
   <si>
     <t xml:space="preserve">2.18352580070496</t>
@@ -989,7 +989,7 @@
     <t xml:space="preserve">2.16413140296936</t>
   </si>
   <si>
-    <t xml:space="preserve">2.14796900749207</t>
+    <t xml:space="preserve">2.14796924591064</t>
   </si>
   <si>
     <t xml:space="preserve">2.14958524703979</t>
@@ -998,28 +998,28 @@
     <t xml:space="preserve">2.13342308998108</t>
   </si>
   <si>
-    <t xml:space="preserve">2.18675827980042</t>
+    <t xml:space="preserve">2.18675875663757</t>
   </si>
   <si>
     <t xml:space="preserve">2.20453691482544</t>
   </si>
   <si>
-    <t xml:space="preserve">2.2287802696228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.24009394645691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.24332666397095</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.23524522781372</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.23201298713684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.24494290351868</t>
+    <t xml:space="preserve">2.22878050804138</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.24009418487549</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.24332642555237</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.2352454662323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.23201274871826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.2449426651001</t>
   </si>
   <si>
     <t xml:space="preserve">2.25464010238647</t>
@@ -1031,7 +1031,7 @@
     <t xml:space="preserve">2.29827833175659</t>
   </si>
   <si>
-    <t xml:space="preserve">2.32575416564941</t>
+    <t xml:space="preserve">2.32575440406799</t>
   </si>
   <si>
     <t xml:space="preserve">2.33706760406494</t>
@@ -1040,16 +1040,16 @@
     <t xml:space="preserve">2.35969495773315</t>
   </si>
   <si>
-    <t xml:space="preserve">2.37585735321045</t>
+    <t xml:space="preserve">2.37585759162903</t>
   </si>
   <si>
     <t xml:space="preserve">2.36615991592407</t>
   </si>
   <si>
-    <t xml:space="preserve">2.35807847976685</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.34353280067444</t>
+    <t xml:space="preserve">2.35807871818542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.34353256225586</t>
   </si>
   <si>
     <t xml:space="preserve">2.34838128089905</t>
@@ -1061,37 +1061,37 @@
     <t xml:space="preserve">2.37262511253357</t>
   </si>
   <si>
-    <t xml:space="preserve">2.37424111366272</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.40656566619873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.45666861534119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.44050645828247</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.44373893737793</t>
+    <t xml:space="preserve">2.37424087524414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.40656542778015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.45666837692261</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.44050669670105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.44373869895935</t>
   </si>
   <si>
     <t xml:space="preserve">2.46798229217529</t>
   </si>
   <si>
-    <t xml:space="preserve">2.48252820968628</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.49384212493896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.48899340629578</t>
+    <t xml:space="preserve">2.48252844810486</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.49384236335754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.4889931678772</t>
   </si>
   <si>
     <t xml:space="preserve">2.53101539611816</t>
   </si>
   <si>
-    <t xml:space="preserve">2.47606325149536</t>
+    <t xml:space="preserve">2.47606348991394</t>
   </si>
   <si>
     <t xml:space="preserve">2.45990109443665</t>
@@ -1100,13 +1100,13 @@
     <t xml:space="preserve">2.49222612380981</t>
   </si>
   <si>
-    <t xml:space="preserve">2.50515532493591</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.43889021873474</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.4421226978302</t>
+    <t xml:space="preserve">2.50515580177307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.43889045715332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.44212293624878</t>
   </si>
   <si>
     <t xml:space="preserve">2.46474981307983</t>
@@ -1115,40 +1115,40 @@
     <t xml:space="preserve">2.41141438484192</t>
   </si>
   <si>
-    <t xml:space="preserve">2.40818214416504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.40010046958923</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.35161423683167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.33060312271118</t>
+    <t xml:space="preserve">2.40818166732788</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.40010070800781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.35161375999451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.3306028842926</t>
   </si>
   <si>
     <t xml:space="preserve">2.39201951026917</t>
   </si>
   <si>
-    <t xml:space="preserve">2.44535493850708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.50030660629272</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.42434406280518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.45505213737488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.4211118221283</t>
+    <t xml:space="preserve">2.44535517692566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.50030708312988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.42434430122375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.45505285263062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.42111158370972</t>
   </si>
   <si>
     <t xml:space="preserve">2.46313381195068</t>
   </si>
   <si>
-    <t xml:space="preserve">2.47283101081848</t>
+    <t xml:space="preserve">2.4728307723999</t>
   </si>
   <si>
     <t xml:space="preserve">2.48737716674805</t>
@@ -1157,7 +1157,7 @@
     <t xml:space="preserve">2.43080902099609</t>
   </si>
   <si>
-    <t xml:space="preserve">2.46636605262756</t>
+    <t xml:space="preserve">2.46636629104614</t>
   </si>
   <si>
     <t xml:space="preserve">2.42919301986694</t>
@@ -1166,73 +1166,73 @@
     <t xml:space="preserve">2.36292743682861</t>
   </si>
   <si>
-    <t xml:space="preserve">2.3095920085907</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.28373217582703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.22554802894592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.19483947753906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.26595401763916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.29989433288574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.30797576904297</t>
+    <t xml:space="preserve">2.30959177017212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.28373193740845</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.22554779052734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.19483971595764</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.26595377922058</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.29989457130432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.30797553062439</t>
   </si>
   <si>
     <t xml:space="preserve">2.26433753967285</t>
   </si>
   <si>
-    <t xml:space="preserve">2.23847794532776</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.2077693939209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.25625610351562</t>
+    <t xml:space="preserve">2.23847770690918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.20776963233948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.2562563419342</t>
   </si>
   <si>
     <t xml:space="preserve">2.25302386283875</t>
   </si>
   <si>
-    <t xml:space="preserve">2.25140762329102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.27403450012207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.26918649673462</t>
+    <t xml:space="preserve">2.25140786170959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.27403473854065</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.26918625831604</t>
   </si>
   <si>
     <t xml:space="preserve">2.2934296131134</t>
   </si>
   <si>
-    <t xml:space="preserve">2.39363598823547</t>
+    <t xml:space="preserve">2.39363574981689</t>
   </si>
   <si>
     <t xml:space="preserve">2.40333318710327</t>
   </si>
   <si>
-    <t xml:space="preserve">2.41303062438965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.42596077919006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.4485878944397</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.41787934303284</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.43727397918701</t>
+    <t xml:space="preserve">2.41303038597107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.42596054077148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.44858765602112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.41787910461426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.43727421760559</t>
   </si>
   <si>
     <t xml:space="preserve">2.48091220855713</t>
@@ -1250,19 +1250,19 @@
     <t xml:space="preserve">2.4356575012207</t>
   </si>
   <si>
-    <t xml:space="preserve">2.31605672836304</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.29504537582397</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.1883749961853</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.10594701766968</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.12534189224243</t>
+    <t xml:space="preserve">2.31605696678162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.29504585266113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.18837451934814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1059467792511</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.12534213066101</t>
   </si>
   <si>
     <t xml:space="preserve">2.14312028884888</t>
@@ -1271,7 +1271,7 @@
     <t xml:space="preserve">2.13019037246704</t>
   </si>
   <si>
-    <t xml:space="preserve">2.13988757133484</t>
+    <t xml:space="preserve">2.13988780975342</t>
   </si>
   <si>
     <t xml:space="preserve">2.10756325721741</t>
@@ -1292,25 +1292,25 @@
     <t xml:space="preserve">2.20781517028809</t>
   </si>
   <si>
-    <t xml:space="preserve">2.24299287796021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.22791695594788</t>
+    <t xml:space="preserve">2.24299311637878</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.2279167175293</t>
   </si>
   <si>
     <t xml:space="preserve">2.2597439289093</t>
   </si>
   <si>
-    <t xml:space="preserve">2.23629260063171</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.27817058563232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.30999779701233</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.33009958267212</t>
+    <t xml:space="preserve">2.23629236221313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.27817034721375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.30999803543091</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.33009934425354</t>
   </si>
   <si>
     <t xml:space="preserve">2.33679986000061</t>
@@ -1319,13 +1319,13 @@
     <t xml:space="preserve">2.32004857063293</t>
   </si>
   <si>
-    <t xml:space="preserve">2.31167316436768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.32339882850647</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.30832266807556</t>
+    <t xml:space="preserve">2.3116729259491</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.32339906692505</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.30832290649414</t>
   </si>
   <si>
     <t xml:space="preserve">2.34517550468445</t>
@@ -1337,10 +1337,10 @@
     <t xml:space="preserve">2.32842445373535</t>
   </si>
   <si>
-    <t xml:space="preserve">2.27649521827698</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.26309442520142</t>
+    <t xml:space="preserve">2.27649545669556</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.26309418678284</t>
   </si>
   <si>
     <t xml:space="preserve">2.38705372810364</t>
@@ -1364,7 +1364,7 @@
     <t xml:space="preserve">2.36192679405212</t>
   </si>
   <si>
-    <t xml:space="preserve">2.34014987945557</t>
+    <t xml:space="preserve">2.34015011787415</t>
   </si>
   <si>
     <t xml:space="preserve">2.32674908638</t>
@@ -1373,25 +1373,25 @@
     <t xml:space="preserve">2.30664753913879</t>
   </si>
   <si>
-    <t xml:space="preserve">2.29994702339172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.29324626922607</t>
+    <t xml:space="preserve">2.2999472618103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.29324674606323</t>
   </si>
   <si>
     <t xml:space="preserve">2.34350037574768</t>
   </si>
   <si>
-    <t xml:space="preserve">2.33344960212708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.32507419586182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.26811981201172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.27147030830383</t>
+    <t xml:space="preserve">2.33344984054565</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.32507395744324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.26811957359314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.27146983146667</t>
   </si>
   <si>
     <t xml:space="preserve">2.26141929626465</t>
@@ -1409,10 +1409,10 @@
     <t xml:space="preserve">2.36695194244385</t>
   </si>
   <si>
-    <t xml:space="preserve">2.38035321235657</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.37700271606445</t>
+    <t xml:space="preserve">2.38035297393799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.37700295448303</t>
   </si>
   <si>
     <t xml:space="preserve">2.38202834129333</t>
@@ -1421,28 +1421,28 @@
     <t xml:space="preserve">2.38872861862183</t>
   </si>
   <si>
-    <t xml:space="preserve">2.39207911491394</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.35355114936829</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.294921875</t>
+    <t xml:space="preserve">2.39207887649536</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.35355091094971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.29492163658142</t>
   </si>
   <si>
     <t xml:space="preserve">2.28989624977112</t>
   </si>
   <si>
-    <t xml:space="preserve">2.24634313583374</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.23796725273132</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.21954131126404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.17933821678162</t>
+    <t xml:space="preserve">2.24634289741516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.2379674911499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.21954107284546</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.17933797836304</t>
   </si>
   <si>
     <t xml:space="preserve">2.12238383293152</t>
@@ -1451,22 +1451,22 @@
     <t xml:space="preserve">2.1441605091095</t>
   </si>
   <si>
-    <t xml:space="preserve">2.09558176994324</t>
+    <t xml:space="preserve">2.09558200836182</t>
   </si>
   <si>
     <t xml:space="preserve">2.05872917175293</t>
   </si>
   <si>
-    <t xml:space="preserve">2.01517558097839</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.07212996482849</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.025226354599</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.04867815971375</t>
+    <t xml:space="preserve">2.01517581939697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.07213020324707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.02522659301758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.04867839813232</t>
   </si>
   <si>
     <t xml:space="preserve">2.05705404281616</t>
@@ -1475,13 +1475,13 @@
     <t xml:space="preserve">2.02355122566223</t>
   </si>
   <si>
-    <t xml:space="preserve">2.01182579994202</t>
+    <t xml:space="preserve">2.01182532310486</t>
   </si>
   <si>
     <t xml:space="preserve">2.08553099632263</t>
   </si>
   <si>
-    <t xml:space="preserve">2.05202865600586</t>
+    <t xml:space="preserve">2.05202841758728</t>
   </si>
   <si>
     <t xml:space="preserve">2.04532814025879</t>
@@ -1493,13 +1493,13 @@
     <t xml:space="preserve">2.04365301132202</t>
   </si>
   <si>
-    <t xml:space="preserve">2.0419774055481</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.06040453910828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.07883095741272</t>
+    <t xml:space="preserve">2.04197788238525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.0604043006897</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.07883071899414</t>
   </si>
   <si>
     <t xml:space="preserve">2.12740921974182</t>
@@ -1514,28 +1514,28 @@
     <t xml:space="preserve">2.13075923919678</t>
   </si>
   <si>
-    <t xml:space="preserve">2.13913512229919</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.10060715675354</t>
+    <t xml:space="preserve">2.13913488388062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.10060739517212</t>
   </si>
   <si>
     <t xml:space="preserve">2.08888125419617</t>
   </si>
   <si>
-    <t xml:space="preserve">2.0821807384491</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.07715535163879</t>
+    <t xml:space="preserve">2.08218097686768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.07715559005737</t>
   </si>
   <si>
     <t xml:space="preserve">2.04700326919556</t>
   </si>
   <si>
-    <t xml:space="preserve">2.06542944908142</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.03192710876465</t>
+    <t xml:space="preserve">2.0654296875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.03192734718323</t>
   </si>
   <si>
     <t xml:space="preserve">2.09725689888</t>
@@ -1544,7 +1544,7 @@
     <t xml:space="preserve">2.02187633514404</t>
   </si>
   <si>
-    <t xml:space="preserve">2.10730767250061</t>
+    <t xml:space="preserve">2.10730743408203</t>
   </si>
   <si>
     <t xml:space="preserve">2.1491858959198</t>
@@ -1562,16 +1562,16 @@
     <t xml:space="preserve">2.26979517936707</t>
   </si>
   <si>
-    <t xml:space="preserve">2.25304365158081</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.37030243873596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.3736526966095</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.35690116882324</t>
+    <t xml:space="preserve">2.25304388999939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.37030220031738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.37365293502808</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.35690140724182</t>
   </si>
   <si>
     <t xml:space="preserve">2.38537859916687</t>
@@ -1583,10 +1583,10 @@
     <t xml:space="preserve">2.41218066215515</t>
   </si>
   <si>
-    <t xml:space="preserve">2.38370323181152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.37867784500122</t>
+    <t xml:space="preserve">2.3837034702301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.3786780834198</t>
   </si>
   <si>
     <t xml:space="preserve">2.40883016586304</t>
@@ -1595,25 +1595,25 @@
     <t xml:space="preserve">2.44568300247192</t>
   </si>
   <si>
-    <t xml:space="preserve">2.44735836982727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.47248506546021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.48086094856262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.46913433074951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.47081017494202</t>
+    <t xml:space="preserve">2.44735813140869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.47248482704163</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.48086071014404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.46913456916809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.47080993652344</t>
   </si>
   <si>
     <t xml:space="preserve">2.47751021385193</t>
   </si>
   <si>
-    <t xml:space="preserve">2.45573377609253</t>
+    <t xml:space="preserve">2.45573353767395</t>
   </si>
   <si>
     <t xml:space="preserve">2.44065761566162</t>
@@ -1622,61 +1622,61 @@
     <t xml:space="preserve">2.4674596786499</t>
   </si>
   <si>
-    <t xml:space="preserve">2.49091124534607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.4892361164093</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.49593687057495</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.48588585853577</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.47583532333374</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.44400763511658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.51436352729797</t>
+    <t xml:space="preserve">2.49091148376465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.48923635482788</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.49593663215637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.48588609695435</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.47583556175232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.44400787353516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.51436328887939</t>
   </si>
   <si>
     <t xml:space="preserve">2.47918558120728</t>
   </si>
   <si>
-    <t xml:space="preserve">2.43898272514343</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.45405888557434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.45070838928223</t>
+    <t xml:space="preserve">2.43898248672485</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.45405864715576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.45070862770081</t>
   </si>
   <si>
     <t xml:space="preserve">2.48756122589111</t>
   </si>
   <si>
-    <t xml:space="preserve">2.48421096801758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.50263714790344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.5110125541687</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.44233250617981</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.4222309589386</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.53613972663879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.57466769218445</t>
+    <t xml:space="preserve">2.484210729599</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.50263738632202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.51101279258728</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.44233274459839</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.42223119735718</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.53613996505737</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.57466745376587</t>
   </si>
   <si>
     <t xml:space="preserve">2.57634282112122</t>
@@ -1685,7 +1685,7 @@
     <t xml:space="preserve">2.59979462623596</t>
   </si>
   <si>
-    <t xml:space="preserve">2.62659668922424</t>
+    <t xml:space="preserve">2.62659621238708</t>
   </si>
   <si>
     <t xml:space="preserve">2.62994694709778</t>
@@ -1694,16 +1694,16 @@
     <t xml:space="preserve">2.67852544784546</t>
   </si>
   <si>
-    <t xml:space="preserve">2.69862699508667</t>
+    <t xml:space="preserve">2.69862675666809</t>
   </si>
   <si>
     <t xml:space="preserve">2.69360160827637</t>
   </si>
   <si>
-    <t xml:space="preserve">2.70030188560486</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.713702917099</t>
+    <t xml:space="preserve">2.70030212402344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.71370315551758</t>
   </si>
   <si>
     <t xml:space="preserve">2.75725626945496</t>
@@ -1712,34 +1712,34 @@
     <t xml:space="preserve">2.72710418701172</t>
   </si>
   <si>
-    <t xml:space="preserve">2.70700287818909</t>
+    <t xml:space="preserve">2.70700263977051</t>
   </si>
   <si>
     <t xml:space="preserve">2.72207880020142</t>
   </si>
   <si>
-    <t xml:space="preserve">2.66344952583313</t>
+    <t xml:space="preserve">2.66344928741455</t>
   </si>
   <si>
     <t xml:space="preserve">2.68187546730042</t>
   </si>
   <si>
-    <t xml:space="preserve">2.66679954528809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.63329696655273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.65004849433899</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.65339827537537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.66847467422485</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.64669823646545</t>
+    <t xml:space="preserve">2.66679930686951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.63329720497131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.65004825592041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.65339851379395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.66847491264343</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.64669847488403</t>
   </si>
   <si>
     <t xml:space="preserve">2.65842390060425</t>
@@ -1757,22 +1757,22 @@
     <t xml:space="preserve">2.64837312698364</t>
   </si>
   <si>
-    <t xml:space="preserve">2.62827157974243</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.69025135040283</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.73715448379517</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.74553060531616</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.7488808631897</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.75223112106323</t>
+    <t xml:space="preserve">2.62827181816101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.69025111198425</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.73715472221375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.74553036689758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.74888110160828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.75223088264465</t>
   </si>
   <si>
     <t xml:space="preserve">2.76563215255737</t>
@@ -1787,34 +1787,34 @@
     <t xml:space="preserve">2.74218010902405</t>
   </si>
   <si>
-    <t xml:space="preserve">2.73547959327698</t>
+    <t xml:space="preserve">2.73547983169556</t>
   </si>
   <si>
     <t xml:space="preserve">2.72375392913818</t>
   </si>
   <si>
-    <t xml:space="preserve">2.77400779724121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.8024845123291</t>
+    <t xml:space="preserve">2.77400755882263</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.80248475074768</t>
   </si>
   <si>
     <t xml:space="preserve">2.81588578224182</t>
   </si>
   <si>
-    <t xml:space="preserve">2.81756091117859</t>
+    <t xml:space="preserve">2.81756114959717</t>
   </si>
   <si>
     <t xml:space="preserve">2.81253552436829</t>
   </si>
   <si>
-    <t xml:space="preserve">2.81421065330505</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.80080986022949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.79745936393738</t>
+    <t xml:space="preserve">2.81421041488647</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.80080962181091</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.7974591255188</t>
   </si>
   <si>
     <t xml:space="preserve">2.86278915405273</t>
@@ -1826,13 +1826,13 @@
     <t xml:space="preserve">2.90466713905334</t>
   </si>
   <si>
-    <t xml:space="preserve">2.9381697177887</t>
+    <t xml:space="preserve">2.93816995620728</t>
   </si>
   <si>
     <t xml:space="preserve">2.91747879981995</t>
   </si>
   <si>
-    <t xml:space="preserve">2.8985116481781</t>
+    <t xml:space="preserve">2.89851140975952</t>
   </si>
   <si>
     <t xml:space="preserve">2.90195989608765</t>
@@ -1841,7 +1841,7 @@
     <t xml:space="preserve">2.86747455596924</t>
   </si>
   <si>
-    <t xml:space="preserve">2.90023589134216</t>
+    <t xml:space="preserve">2.90023565292358</t>
   </si>
   <si>
     <t xml:space="preserve">2.88471722602844</t>
@@ -1853,13 +1853,13 @@
     <t xml:space="preserve">3.04162669181824</t>
   </si>
   <si>
-    <t xml:space="preserve">3.03817796707153</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.01231360435486</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.00024390220642</t>
+    <t xml:space="preserve">3.03817772865295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.01231384277344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.000244140625</t>
   </si>
   <si>
     <t xml:space="preserve">3.01058959960938</t>
@@ -1877,10 +1877,10 @@
     <t xml:space="preserve">3.03645372390747</t>
   </si>
   <si>
-    <t xml:space="preserve">2.9847252368927</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.96920680999756</t>
+    <t xml:space="preserve">2.98472547531128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.96920704841614</t>
   </si>
   <si>
     <t xml:space="preserve">2.97437977790833</t>
@@ -1895,10 +1895,10 @@
     <t xml:space="preserve">2.9571373462677</t>
   </si>
   <si>
-    <t xml:space="preserve">2.88816595077515</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.90540838241577</t>
+    <t xml:space="preserve">2.88816571235657</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.90540862083435</t>
   </si>
   <si>
     <t xml:space="preserve">2.96058559417725</t>
@@ -1922,22 +1922,22 @@
     <t xml:space="preserve">2.95886135101318</t>
   </si>
   <si>
-    <t xml:space="preserve">2.90713262557983</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.9881739616394</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.01576256752014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.00541710853577</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.01403784751892</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.04335069656372</t>
+    <t xml:space="preserve">2.90713286399841</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.98817420005798</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.01576232910156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.00541687011719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.0140380859375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.0433509349823</t>
   </si>
   <si>
     <t xml:space="preserve">3.11749458312988</t>
@@ -1946,22 +1946,22 @@
     <t xml:space="preserve">3.11404633522034</t>
   </si>
   <si>
-    <t xml:space="preserve">3.15370488166809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.12784051895142</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.12266778945923</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.12439203262329</t>
+    <t xml:space="preserve">3.15370464324951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.12784075737</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.12266755104065</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.12439227104187</t>
   </si>
   <si>
     <t xml:space="preserve">3.15542912483215</t>
   </si>
   <si>
-    <t xml:space="preserve">3.13301348686218</t>
+    <t xml:space="preserve">3.1330132484436</t>
   </si>
   <si>
     <t xml:space="preserve">3.02955651283264</t>
@@ -1970,13 +1970,13 @@
     <t xml:space="preserve">3.02093529701233</t>
   </si>
   <si>
-    <t xml:space="preserve">3.07783651351929</t>
+    <t xml:space="preserve">3.07783627510071</t>
   </si>
   <si>
     <t xml:space="preserve">3.04852390289307</t>
   </si>
   <si>
-    <t xml:space="preserve">3.05197215080261</t>
+    <t xml:space="preserve">3.05197238922119</t>
   </si>
   <si>
     <t xml:space="preserve">3.07956075668335</t>
@@ -1985,10 +1985,10 @@
     <t xml:space="preserve">3.14508318901062</t>
   </si>
   <si>
-    <t xml:space="preserve">3.14163494110107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.1037003993988</t>
+    <t xml:space="preserve">3.1416347026825</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.10370063781738</t>
   </si>
   <si>
     <t xml:space="preserve">3.19336295127869</t>
@@ -2006,28 +2006,28 @@
     <t xml:space="preserve">3.24681568145752</t>
   </si>
   <si>
-    <t xml:space="preserve">3.19853591918945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.21405458450317</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.26233410835266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.26923131942749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.25026416778564</t>
+    <t xml:space="preserve">3.19853615760803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.21405434608459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.26233434677124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.26923108100891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.25026440620422</t>
   </si>
   <si>
     <t xml:space="preserve">3.22267556190491</t>
   </si>
   <si>
-    <t xml:space="preserve">3.24853992462158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.26061010360718</t>
+    <t xml:space="preserve">3.248539686203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.2606098651886</t>
   </si>
   <si>
     <t xml:space="preserve">3.22784852981567</t>
@@ -2045,10 +2045,10 @@
     <t xml:space="preserve">3.23819422721863</t>
   </si>
   <si>
-    <t xml:space="preserve">3.25198841094971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.29509544372559</t>
+    <t xml:space="preserve">3.25198864936829</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.29509568214417</t>
   </si>
   <si>
     <t xml:space="preserve">3.30888962745667</t>
@@ -2057,7 +2057,7 @@
     <t xml:space="preserve">3.29854393005371</t>
   </si>
   <si>
-    <t xml:space="preserve">3.32095980644226</t>
+    <t xml:space="preserve">3.32095956802368</t>
   </si>
   <si>
     <t xml:space="preserve">3.27785277366638</t>
@@ -2066,13 +2066,13 @@
     <t xml:space="preserve">3.30371713638306</t>
   </si>
   <si>
-    <t xml:space="preserve">3.31751132011414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.30199265480042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.32440805435181</t>
+    <t xml:space="preserve">3.31751108169556</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.30199241638184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.32440829277039</t>
   </si>
   <si>
     <t xml:space="preserve">3.32613277435303</t>
@@ -2084,19 +2084,19 @@
     <t xml:space="preserve">3.43303799629211</t>
   </si>
   <si>
-    <t xml:space="preserve">3.45890212059021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.45545339584351</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.48131728172302</t>
+    <t xml:space="preserve">3.45890188217163</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.45545315742493</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.48131775856018</t>
   </si>
   <si>
     <t xml:space="preserve">3.45717787742615</t>
   </si>
   <si>
-    <t xml:space="preserve">3.42096757888794</t>
+    <t xml:space="preserve">3.42096781730652</t>
   </si>
   <si>
     <t xml:space="preserve">3.43993473052979</t>
@@ -2108,7 +2108,7 @@
     <t xml:space="preserve">3.44510769844055</t>
   </si>
   <si>
-    <t xml:space="preserve">3.4347620010376</t>
+    <t xml:space="preserve">3.43476223945618</t>
   </si>
   <si>
     <t xml:space="preserve">3.45200490951538</t>
@@ -2120,10 +2120,10 @@
     <t xml:space="preserve">3.33992671966553</t>
   </si>
   <si>
-    <t xml:space="preserve">3.37958526611328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.35544514656067</t>
+    <t xml:space="preserve">3.3795850276947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.35544538497925</t>
   </si>
   <si>
     <t xml:space="preserve">3.34854817390442</t>
@@ -2132,16 +2132,16 @@
     <t xml:space="preserve">3.32268404960632</t>
   </si>
   <si>
-    <t xml:space="preserve">3.35716938972473</t>
+    <t xml:space="preserve">3.35716962814331</t>
   </si>
   <si>
     <t xml:space="preserve">3.3657910823822</t>
   </si>
   <si>
-    <t xml:space="preserve">3.31061363220215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.38303351402283</t>
+    <t xml:space="preserve">3.31061387062073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.38303375244141</t>
   </si>
   <si>
     <t xml:space="preserve">3.43131351470947</t>
@@ -2159,19 +2159,19 @@
     <t xml:space="preserve">3.41924357414246</t>
   </si>
   <si>
-    <t xml:space="preserve">3.42441630363464</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.36234259605408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.35027265548706</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.36061811447144</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.3330295085907</t>
+    <t xml:space="preserve">3.42441606521606</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.3623423576355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.35027241706848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.36061787605286</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.33302927017212</t>
   </si>
   <si>
     <t xml:space="preserve">3.32958102226257</t>
@@ -2180,13 +2180,13 @@
     <t xml:space="preserve">3.40027642250061</t>
   </si>
   <si>
-    <t xml:space="preserve">3.44683170318604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.44338345527649</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.38820648193359</t>
+    <t xml:space="preserve">3.44683194160461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.44338321685791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.38820672035217</t>
   </si>
   <si>
     <t xml:space="preserve">3.53994297981262</t>
@@ -2198,7 +2198,7 @@
     <t xml:space="preserve">3.58477425575256</t>
   </si>
   <si>
-    <t xml:space="preserve">3.72961378097534</t>
+    <t xml:space="preserve">3.72961354255676</t>
   </si>
   <si>
     <t xml:space="preserve">3.7278892993927</t>
@@ -2210,16 +2210,16 @@
     <t xml:space="preserve">3.53649473190308</t>
   </si>
   <si>
-    <t xml:space="preserve">3.54511618614197</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.55546140670776</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.60546588897705</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.64857244491577</t>
+    <t xml:space="preserve">3.54511594772339</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.55546164512634</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.60546565055847</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.64857220649719</t>
   </si>
   <si>
     <t xml:space="preserve">3.66236686706543</t>
@@ -2231,22 +2231,22 @@
     <t xml:space="preserve">3.70719814300537</t>
   </si>
   <si>
-    <t xml:space="preserve">3.72099232673645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.76237487792969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.73478603363037</t>
+    <t xml:space="preserve">3.72099208831787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.76237463951111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.73478627204895</t>
   </si>
   <si>
     <t xml:space="preserve">3.73995923995972</t>
   </si>
   <si>
-    <t xml:space="preserve">3.7537534236908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.84686422348022</t>
+    <t xml:space="preserve">3.75375318527222</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.8468644618988</t>
   </si>
   <si>
     <t xml:space="preserve">3.82617330551147</t>
@@ -2255,19 +2255,19 @@
     <t xml:space="preserve">3.80375790596008</t>
   </si>
   <si>
-    <t xml:space="preserve">3.61236262321472</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.57960152626038</t>
+    <t xml:space="preserve">3.6123628616333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.5796012878418</t>
   </si>
   <si>
     <t xml:space="preserve">3.61063838005066</t>
   </si>
   <si>
-    <t xml:space="preserve">3.54683995246887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.34337520599365</t>
+    <t xml:space="preserve">3.54683971405029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.34337544441223</t>
   </si>
   <si>
     <t xml:space="preserve">3.36751508712769</t>
@@ -2279,10 +2279,10 @@
     <t xml:space="preserve">3.06404232978821</t>
   </si>
   <si>
-    <t xml:space="preserve">2.87609577178955</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.91058158874512</t>
+    <t xml:space="preserve">2.87609601020813</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.91058135032654</t>
   </si>
   <si>
     <t xml:space="preserve">2.40191960334778</t>
@@ -2291,16 +2291,16 @@
     <t xml:space="preserve">2.76746654510498</t>
   </si>
   <si>
-    <t xml:space="preserve">2.66745805740356</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.71573829650879</t>
+    <t xml:space="preserve">2.66745829582214</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.71573805809021</t>
   </si>
   <si>
     <t xml:space="preserve">2.72263526916504</t>
   </si>
   <si>
-    <t xml:space="preserve">2.66228532791138</t>
+    <t xml:space="preserve">2.66228556632996</t>
   </si>
   <si>
     <t xml:space="preserve">2.79505467414856</t>
@@ -2309,10 +2309,10 @@
     <t xml:space="preserve">2.64159393310547</t>
   </si>
   <si>
-    <t xml:space="preserve">2.61573004722595</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.63986992835999</t>
+    <t xml:space="preserve">2.61572980880737</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.63986968994141</t>
   </si>
   <si>
     <t xml:space="preserve">2.70711660385132</t>
@@ -2321,13 +2321,13 @@
     <t xml:space="preserve">2.83643746376038</t>
   </si>
   <si>
-    <t xml:space="preserve">2.81747007369995</t>
+    <t xml:space="preserve">2.81747031211853</t>
   </si>
   <si>
     <t xml:space="preserve">2.73470497131348</t>
   </si>
   <si>
-    <t xml:space="preserve">2.77436327934265</t>
+    <t xml:space="preserve">2.77436351776123</t>
   </si>
   <si>
     <t xml:space="preserve">2.73815393447876</t>
@@ -2336,7 +2336,7 @@
     <t xml:space="preserve">2.76056909561157</t>
   </si>
   <si>
-    <t xml:space="preserve">2.66056132316589</t>
+    <t xml:space="preserve">2.66056108474731</t>
   </si>
   <si>
     <t xml:space="preserve">2.78643369674683</t>
@@ -2348,7 +2348,7 @@
     <t xml:space="preserve">2.75539636611938</t>
   </si>
   <si>
-    <t xml:space="preserve">2.75194787979126</t>
+    <t xml:space="preserve">2.75194764137268</t>
   </si>
   <si>
     <t xml:space="preserve">2.82091927528381</t>
@@ -2360,61 +2360,61 @@
     <t xml:space="preserve">2.7243595123291</t>
   </si>
   <si>
-    <t xml:space="preserve">2.80195188522339</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.79160618782043</t>
+    <t xml:space="preserve">2.80195212364197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.79160594940186</t>
   </si>
   <si>
     <t xml:space="preserve">2.89161443710327</t>
   </si>
   <si>
-    <t xml:space="preserve">2.91230607032776</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.78988194465637</t>
+    <t xml:space="preserve">2.91230583190918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.78988218307495</t>
   </si>
   <si>
     <t xml:space="preserve">2.78298473358154</t>
   </si>
   <si>
-    <t xml:space="preserve">2.73125648498535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.69677090644836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.80367612838745</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.83298897743225</t>
+    <t xml:space="preserve">2.73125624656677</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.69677114486694</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.80367636680603</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.83298921585083</t>
   </si>
   <si>
     <t xml:space="preserve">2.77091479301453</t>
   </si>
   <si>
-    <t xml:space="preserve">2.67780375480652</t>
+    <t xml:space="preserve">2.6778039932251</t>
   </si>
   <si>
     <t xml:space="preserve">2.66400957107544</t>
   </si>
   <si>
-    <t xml:space="preserve">2.71918678283691</t>
+    <t xml:space="preserve">2.71918654441833</t>
   </si>
   <si>
     <t xml:space="preserve">2.70539236068726</t>
   </si>
   <si>
-    <t xml:space="preserve">2.76229381561279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.75712060928345</t>
+    <t xml:space="preserve">2.76229357719421</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.75712084770203</t>
   </si>
   <si>
     <t xml:space="preserve">2.87437176704407</t>
   </si>
   <si>
-    <t xml:space="preserve">2.87782001495361</t>
+    <t xml:space="preserve">2.87782025337219</t>
   </si>
   <si>
     <t xml:space="preserve">3.08473372459412</t>
@@ -2429,13 +2429,13 @@
     <t xml:space="preserve">3.00369262695312</t>
   </si>
   <si>
-    <t xml:space="preserve">2.89678716659546</t>
+    <t xml:space="preserve">2.89678740501404</t>
   </si>
   <si>
     <t xml:space="preserve">3.03128099441528</t>
   </si>
   <si>
-    <t xml:space="preserve">3.0174868106842</t>
+    <t xml:space="preserve">3.01748657226562</t>
   </si>
   <si>
     <t xml:space="preserve">2.9967954158783</t>
@@ -2444,10 +2444,10 @@
     <t xml:space="preserve">2.98300123214722</t>
   </si>
   <si>
-    <t xml:space="preserve">2.97955250740051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.90885710716248</t>
+    <t xml:space="preserve">2.97955274581909</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.90885734558105</t>
   </si>
   <si>
     <t xml:space="preserve">2.85368037223816</t>
@@ -2456,7 +2456,7 @@
     <t xml:space="preserve">2.92437553405762</t>
   </si>
   <si>
-    <t xml:space="preserve">2.92092680931091</t>
+    <t xml:space="preserve">2.92092704772949</t>
   </si>
   <si>
     <t xml:space="preserve">2.94851565361023</t>
@@ -2468,19 +2468,19 @@
     <t xml:space="preserve">2.92009615898132</t>
   </si>
   <si>
-    <t xml:space="preserve">2.93608212471008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.85792851448059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.84904742240906</t>
+    <t xml:space="preserve">2.93608236312866</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.85792875289917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.84904766082764</t>
   </si>
   <si>
     <t xml:space="preserve">2.89345288276672</t>
   </si>
   <si>
-    <t xml:space="preserve">2.85437631607056</t>
+    <t xml:space="preserve">2.85437607765198</t>
   </si>
   <si>
     <t xml:space="preserve">2.86680960655212</t>
@@ -2489,10 +2489,10 @@
     <t xml:space="preserve">2.91476774215698</t>
   </si>
   <si>
-    <t xml:space="preserve">2.95384407043457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.95739674568176</t>
+    <t xml:space="preserve">2.95384430885315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.95739650726318</t>
   </si>
   <si>
     <t xml:space="preserve">2.95917296409607</t>
@@ -2510,28 +2510,28 @@
     <t xml:space="preserve">2.83306169509888</t>
   </si>
   <si>
-    <t xml:space="preserve">2.85082411766052</t>
+    <t xml:space="preserve">2.85082387924194</t>
   </si>
   <si>
     <t xml:space="preserve">2.92364859580994</t>
   </si>
   <si>
-    <t xml:space="preserve">2.90766263008118</t>
+    <t xml:space="preserve">2.9076623916626</t>
   </si>
   <si>
     <t xml:space="preserve">2.80464243888855</t>
   </si>
   <si>
-    <t xml:space="preserve">2.82418060302734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.81529974937439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.80819463729858</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.79931378364563</t>
+    <t xml:space="preserve">2.82418084144592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.81529951095581</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.80819487571716</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.79931354522705</t>
   </si>
   <si>
     <t xml:space="preserve">2.88634824752808</t>
@@ -2546,7 +2546,7 @@
     <t xml:space="preserve">3.00357818603516</t>
   </si>
   <si>
-    <t xml:space="preserve">2.98403978347778</t>
+    <t xml:space="preserve">2.98404002189636</t>
   </si>
   <si>
     <t xml:space="preserve">2.88457179069519</t>
@@ -2555,16 +2555,16 @@
     <t xml:space="preserve">2.93075346946716</t>
   </si>
   <si>
-    <t xml:space="preserve">2.90233373641968</t>
+    <t xml:space="preserve">2.90233397483826</t>
   </si>
   <si>
     <t xml:space="preserve">2.88101935386658</t>
   </si>
   <si>
-    <t xml:space="preserve">2.97515892982483</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.94496321678162</t>
+    <t xml:space="preserve">2.97515869140625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.94496297836304</t>
   </si>
   <si>
     <t xml:space="preserve">2.86325716972351</t>
@@ -2594,16 +2594,16 @@
     <t xml:space="preserve">2.90055775642395</t>
   </si>
   <si>
-    <t xml:space="preserve">2.88279557228088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.89878129959106</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.91831994056702</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.9343056678772</t>
+    <t xml:space="preserve">2.88279581069946</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.89878153800964</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.9183201789856</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.93430590629578</t>
   </si>
   <si>
     <t xml:space="preserve">2.85260009765625</t>
@@ -2621,7 +2621,7 @@
     <t xml:space="preserve">2.84549522399902</t>
   </si>
   <si>
-    <t xml:space="preserve">2.758460521698</t>
+    <t xml:space="preserve">2.75846076011658</t>
   </si>
   <si>
     <t xml:space="preserve">2.76734161376953</t>
@@ -2630,7 +2630,7 @@
     <t xml:space="preserve">2.75313186645508</t>
   </si>
   <si>
-    <t xml:space="preserve">2.71938419342041</t>
+    <t xml:space="preserve">2.71938395500183</t>
   </si>
   <si>
     <t xml:space="preserve">2.72648882865906</t>
@@ -2639,7 +2639,7 @@
     <t xml:space="preserve">2.70695042610168</t>
   </si>
   <si>
-    <t xml:space="preserve">2.67497897148132</t>
+    <t xml:space="preserve">2.67497873306274</t>
   </si>
   <si>
     <t xml:space="preserve">2.61991620063782</t>
@@ -2654,7 +2654,7 @@
     <t xml:space="preserve">2.57906317710876</t>
   </si>
   <si>
-    <t xml:space="preserve">2.6092586517334</t>
+    <t xml:space="preserve">2.60925841331482</t>
   </si>
   <si>
     <t xml:space="preserve">2.6643214225769</t>
@@ -2672,7 +2672,7 @@
     <t xml:space="preserve">2.50446200370789</t>
   </si>
   <si>
-    <t xml:space="preserve">2.47959518432617</t>
+    <t xml:space="preserve">2.47959494590759</t>
   </si>
   <si>
     <t xml:space="preserve">2.41742730140686</t>
@@ -2681,7 +2681,7 @@
     <t xml:space="preserve">2.37657475471497</t>
   </si>
   <si>
-    <t xml:space="preserve">2.39788913726807</t>
+    <t xml:space="preserve">2.39788937568665</t>
   </si>
   <si>
     <t xml:space="preserve">2.41920375823975</t>
@@ -2690,7 +2690,7 @@
     <t xml:space="preserve">2.43874216079712</t>
   </si>
   <si>
-    <t xml:space="preserve">2.49913334846497</t>
+    <t xml:space="preserve">2.49913311004639</t>
   </si>
   <si>
     <t xml:space="preserve">2.49380493164062</t>
@@ -2699,7 +2699,7 @@
     <t xml:space="preserve">2.46716165542603</t>
   </si>
   <si>
-    <t xml:space="preserve">2.65544033050537</t>
+    <t xml:space="preserve">2.65544009208679</t>
   </si>
   <si>
     <t xml:space="preserve">2.62346839904785</t>
@@ -2711,13 +2711,13 @@
     <t xml:space="preserve">2.69629335403442</t>
   </si>
   <si>
-    <t xml:space="preserve">2.68208336830139</t>
+    <t xml:space="preserve">2.68208360671997</t>
   </si>
   <si>
     <t xml:space="preserve">2.77089405059814</t>
   </si>
   <si>
-    <t xml:space="preserve">2.71405529975891</t>
+    <t xml:space="preserve">2.71405553817749</t>
   </si>
   <si>
     <t xml:space="preserve">2.69984555244446</t>
@@ -2726,7 +2726,7 @@
     <t xml:space="preserve">2.70872664451599</t>
   </si>
   <si>
-    <t xml:space="preserve">2.6838595867157</t>
+    <t xml:space="preserve">2.68385982513428</t>
   </si>
   <si>
     <t xml:space="preserve">2.67853093147278</t>
@@ -2735,7 +2735,7 @@
     <t xml:space="preserve">2.72826504707336</t>
   </si>
   <si>
-    <t xml:space="preserve">2.74247455596924</t>
+    <t xml:space="preserve">2.74247479438782</t>
   </si>
   <si>
     <t xml:space="preserve">2.71760773658752</t>
@@ -2744,7 +2744,7 @@
     <t xml:space="preserve">2.67320251464844</t>
   </si>
   <si>
-    <t xml:space="preserve">2.63945436477661</t>
+    <t xml:space="preserve">2.63945412635803</t>
   </si>
   <si>
     <t xml:space="preserve">2.66965007781982</t>
@@ -2759,7 +2759,7 @@
     <t xml:space="preserve">2.61281085014343</t>
   </si>
   <si>
-    <t xml:space="preserve">2.58439207077026</t>
+    <t xml:space="preserve">2.58439183235168</t>
   </si>
   <si>
     <t xml:space="preserve">2.55774855613708</t>
@@ -2768,22 +2768,22 @@
     <t xml:space="preserve">2.58972024917603</t>
   </si>
   <si>
-    <t xml:space="preserve">2.55952477455139</t>
+    <t xml:space="preserve">2.55952453613281</t>
   </si>
   <si>
     <t xml:space="preserve">2.60037755966187</t>
   </si>
   <si>
-    <t xml:space="preserve">2.65188789367676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.53110527992249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.5826153755188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.65366363525391</t>
+    <t xml:space="preserve">2.65188813209534</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.53110504150391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.58261561393738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.65366387367249</t>
   </si>
   <si>
     <t xml:space="preserve">2.66076898574829</t>
@@ -2795,22 +2795,22 @@
     <t xml:space="preserve">2.71050310134888</t>
   </si>
   <si>
-    <t xml:space="preserve">2.64123058319092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.69451713562012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.68918824195862</t>
+    <t xml:space="preserve">2.64123034477234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.69451689720154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.6891884803772</t>
   </si>
   <si>
     <t xml:space="preserve">2.80641865730286</t>
   </si>
   <si>
-    <t xml:space="preserve">2.74957966804504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.57551074028015</t>
+    <t xml:space="preserve">2.74957942962646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.57551050186157</t>
   </si>
   <si>
     <t xml:space="preserve">2.52755260467529</t>
@@ -2828,7 +2828,7 @@
     <t xml:space="preserve">2.67142605781555</t>
   </si>
   <si>
-    <t xml:space="preserve">2.69806933403015</t>
+    <t xml:space="preserve">2.69806957244873</t>
   </si>
   <si>
     <t xml:space="preserve">2.76201319694519</t>
@@ -2843,13 +2843,13 @@
     <t xml:space="preserve">2.7637894153595</t>
   </si>
   <si>
-    <t xml:space="preserve">2.80109000205994</t>
+    <t xml:space="preserve">2.80108976364136</t>
   </si>
   <si>
     <t xml:space="preserve">2.75490832328796</t>
   </si>
   <si>
-    <t xml:space="preserve">2.74425101280212</t>
+    <t xml:space="preserve">2.74425077438354</t>
   </si>
   <si>
     <t xml:space="preserve">2.73181748390198</t>
@@ -2858,16 +2858,16 @@
     <t xml:space="preserve">2.63057327270508</t>
   </si>
   <si>
-    <t xml:space="preserve">2.59860134124756</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.73536992073059</t>
+    <t xml:space="preserve">2.59860157966614</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.73536968231201</t>
   </si>
   <si>
     <t xml:space="preserve">2.77267026901245</t>
   </si>
   <si>
-    <t xml:space="preserve">2.77977561950684</t>
+    <t xml:space="preserve">2.77977538108826</t>
   </si>
   <si>
     <t xml:space="preserve">2.81707572937012</t>
@@ -2879,10 +2879,10 @@
     <t xml:space="preserve">2.9014458656311</t>
   </si>
   <si>
-    <t xml:space="preserve">2.95206785202026</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.92986559867859</t>
+    <t xml:space="preserve">2.95206809043884</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.92986536026001</t>
   </si>
   <si>
     <t xml:space="preserve">2.91654372215271</t>
@@ -2894,7 +2894,7 @@
     <t xml:space="preserve">2.95562052726746</t>
   </si>
   <si>
-    <t xml:space="preserve">2.99558544158936</t>
+    <t xml:space="preserve">2.99558520317078</t>
   </si>
   <si>
     <t xml:space="preserve">2.98670411109924</t>
@@ -2906,7 +2906,7 @@
     <t xml:space="preserve">2.98048758506775</t>
   </si>
   <si>
-    <t xml:space="preserve">2.9813756942749</t>
+    <t xml:space="preserve">2.98137545585632</t>
   </si>
   <si>
     <t xml:space="preserve">2.97071838378906</t>
@@ -2915,7 +2915,7 @@
     <t xml:space="preserve">3.02222847938538</t>
   </si>
   <si>
-    <t xml:space="preserve">2.98848032951355</t>
+    <t xml:space="preserve">2.98848056793213</t>
   </si>
   <si>
     <t xml:space="preserve">2.99292087554932</t>
@@ -2945,7 +2945,7 @@
     <t xml:space="preserve">3.05331206321716</t>
   </si>
   <si>
-    <t xml:space="preserve">3.09416508674622</t>
+    <t xml:space="preserve">3.09416532516479</t>
   </si>
   <si>
     <t xml:space="preserve">3.11370348930359</t>
@@ -2966,7 +2966,7 @@
     <t xml:space="preserve">3.09505319595337</t>
   </si>
   <si>
-    <t xml:space="preserve">3.10038208961487</t>
+    <t xml:space="preserve">3.10038185119629</t>
   </si>
   <si>
     <t xml:space="preserve">3.09771728515625</t>
@@ -2990,10 +2990,10 @@
     <t xml:space="preserve">3.27267456054688</t>
   </si>
   <si>
-    <t xml:space="preserve">3.25047206878662</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.25402426719666</t>
+    <t xml:space="preserve">3.2504723072052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.25402450561523</t>
   </si>
   <si>
     <t xml:space="preserve">3.28954863548279</t>
@@ -3023,7 +3023,7 @@
     <t xml:space="preserve">3.16254949569702</t>
   </si>
   <si>
-    <t xml:space="preserve">3.13235354423523</t>
+    <t xml:space="preserve">3.13235378265381</t>
   </si>
   <si>
     <t xml:space="preserve">3.12702512741089</t>
@@ -3032,7 +3032,7 @@
     <t xml:space="preserve">3.12791323661804</t>
   </si>
   <si>
-    <t xml:space="preserve">3.10127019882202</t>
+    <t xml:space="preserve">3.10126996040344</t>
   </si>
   <si>
     <t xml:space="preserve">3.13146567344666</t>
@@ -4827,6 +4827,9 @@
   </si>
   <si>
     <t xml:space="preserve">3.46600008010864</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.46000003814697</t>
   </si>
 </sst>
 </file>
@@ -60912,7 +60915,7 @@
     </row>
     <row r="2145">
       <c r="A2145" s="1" t="n">
-        <v>45448.6493055556</v>
+        <v>45448.2916666667</v>
       </c>
       <c r="B2145" t="n">
         <v>2765345</v>
@@ -60933,6 +60936,32 @@
         <v>1604</v>
       </c>
       <c r="H2145" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2146">
+      <c r="A2146" s="1" t="n">
+        <v>45449.6494907407</v>
+      </c>
+      <c r="B2146" t="n">
+        <v>2453942</v>
+      </c>
+      <c r="C2146" t="n">
+        <v>3.53200006484985</v>
+      </c>
+      <c r="D2146" t="n">
+        <v>3.44000005722046</v>
+      </c>
+      <c r="E2146" t="n">
+        <v>3.4760000705719</v>
+      </c>
+      <c r="F2146" t="n">
+        <v>3.46000003814697</v>
+      </c>
+      <c r="G2146" t="s">
+        <v>1605</v>
+      </c>
+      <c r="H2146" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/HER.MI.xlsx
+++ b/data/HER.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1607" uniqueCount="1607">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1608" uniqueCount="1608">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,70 +38,70 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">1.84717011451721</t>
+    <t xml:space="preserve">1.84716999530792</t>
   </si>
   <si>
     <t xml:space="preserve">HER.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">1.84868180751801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84565854072571</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8501935005188</t>
+    <t xml:space="preserve">1.84868204593658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84565842151642</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85019338130951</t>
   </si>
   <si>
     <t xml:space="preserve">1.826007604599</t>
   </si>
   <si>
-    <t xml:space="preserve">1.86682093143463</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93786585330963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94088923931122</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91519200801849</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88949477672577</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8426353931427</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91821527481079</t>
+    <t xml:space="preserve">1.86682105064392</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93786597251892</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94088935852051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9151918888092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88949489593506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84263527393341</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91821503639221</t>
   </si>
   <si>
     <t xml:space="preserve">1.89251804351807</t>
   </si>
   <si>
-    <t xml:space="preserve">1.91065740585327</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95298171043396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93635451793671</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95147037506104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9847252368927</t>
+    <t xml:space="preserve">1.9106570482254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95298194885254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93635416030884</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95147013664246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.98472547531128</t>
   </si>
   <si>
     <t xml:space="preserve">1.96507465839386</t>
   </si>
   <si>
-    <t xml:space="preserve">1.94995880126953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9998414516449</t>
+    <t xml:space="preserve">1.94995832443237</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.99984133243561</t>
   </si>
   <si>
     <t xml:space="preserve">2.00739932060242</t>
@@ -110,25 +110,25 @@
     <t xml:space="preserve">1.99077200889587</t>
   </si>
   <si>
-    <t xml:space="preserve">1.9726322889328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9786788225174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86984407901764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88344836235046</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90309906005859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83810031414032</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89856445789337</t>
+    <t xml:space="preserve">1.97263276576996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.97867894172668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86984431743622</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88344860076904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90309917926788</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8381005525589</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89856469631195</t>
   </si>
   <si>
     <t xml:space="preserve">1.94240069389343</t>
@@ -137,7 +137,7 @@
     <t xml:space="preserve">1.92879641056061</t>
   </si>
   <si>
-    <t xml:space="preserve">1.92123830318451</t>
+    <t xml:space="preserve">1.92123854160309</t>
   </si>
   <si>
     <t xml:space="preserve">1.94542384147644</t>
@@ -146,160 +146,160 @@
     <t xml:space="preserve">1.94844698905945</t>
   </si>
   <si>
-    <t xml:space="preserve">1.96960961818695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.98019063472748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9348429441452</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9091454744339</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88798320293427</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88193702697754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87135589122772</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88647186756134</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87437903881073</t>
+    <t xml:space="preserve">1.96960937976837</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.98019051551819</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93484258651733</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90914559364319</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88798344135284</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88193690776825</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87135577201843</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88647174835205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87437891960144</t>
   </si>
   <si>
     <t xml:space="preserve">1.90763413906097</t>
   </si>
   <si>
-    <t xml:space="preserve">1.92426133155823</t>
+    <t xml:space="preserve">1.92426145076752</t>
   </si>
   <si>
     <t xml:space="preserve">1.90461087226868</t>
   </si>
   <si>
-    <t xml:space="preserve">1.91972672939301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94391250610352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.98774886131287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95902824401855</t>
+    <t xml:space="preserve">1.91972684860229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94391226768494</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.98774862289429</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95902836322784</t>
   </si>
   <si>
     <t xml:space="preserve">2.00891089439392</t>
   </si>
   <si>
-    <t xml:space="preserve">1.9937949180603</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9121687412262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92728459835052</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93333125114441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9227499961853</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92577314376831</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95600509643555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95751667022705</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93937754631042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93030798435211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9000757932663</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89100670814514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.97565615177155</t>
+    <t xml:space="preserve">1.99379539489746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91216862201691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92728495597839</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93333101272583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92274975776672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9257732629776</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95600521564484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95751678943634</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93937730789185</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93030774593353</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90007615089417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89100658893585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.97565579414368</t>
   </si>
   <si>
     <t xml:space="preserve">1.99681806564331</t>
   </si>
   <si>
-    <t xml:space="preserve">1.98170256614685</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.99530649185181</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.97112095355988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.98321378231049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.97414433956146</t>
+    <t xml:space="preserve">1.98170232772827</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.99530673027039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.97112119197845</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9832136631012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.97414445877075</t>
   </si>
   <si>
     <t xml:space="preserve">1.96205151081085</t>
   </si>
   <si>
-    <t xml:space="preserve">1.90612232685089</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87286710739136</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88495993614197</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85170495510101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9011971950531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91843819618225</t>
+    <t xml:space="preserve">1.90612244606018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87286722660065</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88496029376984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85170519351959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90119743347168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91843831539154</t>
   </si>
   <si>
     <t xml:space="preserve">1.88238930702209</t>
   </si>
   <si>
-    <t xml:space="preserve">1.90276479721069</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84320545196533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81029093265533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84947466850281</t>
+    <t xml:space="preserve">1.9027646780014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84320533275604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81029105186462</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84947454929352</t>
   </si>
   <si>
     <t xml:space="preserve">1.88082182407379</t>
   </si>
   <si>
-    <t xml:space="preserve">1.92627501487732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.98426687717438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95605492591858</t>
+    <t xml:space="preserve">1.92627465724945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.98426699638367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9560546875</t>
   </si>
   <si>
     <t xml:space="preserve">1.95918941497803</t>
@@ -314,58 +314,58 @@
     <t xml:space="preserve">1.86828315258026</t>
   </si>
   <si>
-    <t xml:space="preserve">1.904332280159</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88865888118744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91530346870422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91060149669647</t>
+    <t xml:space="preserve">1.90433216094971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88865864276886</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91530323028564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91060137748718</t>
   </si>
   <si>
     <t xml:space="preserve">1.90589928627014</t>
   </si>
   <si>
-    <t xml:space="preserve">1.91373598575592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92000544071198</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92940986156464</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.98740172386169</t>
+    <t xml:space="preserve">1.91373586654663</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92000579833984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92940950393677</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.98740148544312</t>
   </si>
   <si>
     <t xml:space="preserve">2.00934457778931</t>
   </si>
   <si>
-    <t xml:space="preserve">2.00150799751282</t>
+    <t xml:space="preserve">2.00150752067566</t>
   </si>
   <si>
     <t xml:space="preserve">1.98583424091339</t>
   </si>
   <si>
-    <t xml:space="preserve">2.01874852180481</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.98113238811493</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.99523818492889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94351577758789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96859347820282</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96075677871704</t>
+    <t xml:space="preserve">2.01874876022339</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.98113203048706</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.99523830413818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94351589679718</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9685937166214</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96075689792633</t>
   </si>
   <si>
     <t xml:space="preserve">1.89179348945618</t>
@@ -374,37 +374,37 @@
     <t xml:space="preserve">1.88709115982056</t>
   </si>
   <si>
-    <t xml:space="preserve">1.9215726852417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93724632263184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94665050506592</t>
+    <t xml:space="preserve">1.92157316207886</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93724656105042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94665062427521</t>
   </si>
   <si>
     <t xml:space="preserve">1.93254435062408</t>
   </si>
   <si>
-    <t xml:space="preserve">1.93567907810211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96389138698578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89962995052338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87768709659576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84634006023407</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87925457954407</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89806282520294</t>
+    <t xml:space="preserve">1.93567931652069</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96389162540436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89963006973267</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8776867389679</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84633994102478</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8792542219162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89806258678436</t>
   </si>
   <si>
     <t xml:space="preserve">1.85104203224182</t>
@@ -416,25 +416,25 @@
     <t xml:space="preserve">1.84163808822632</t>
   </si>
   <si>
-    <t xml:space="preserve">1.83066654205322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8573112487793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83536863327026</t>
+    <t xml:space="preserve">1.83066630363464</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85731136798859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8353682756424</t>
   </si>
   <si>
     <t xml:space="preserve">1.7648378610611</t>
   </si>
   <si>
-    <t xml:space="preserve">1.73662567138672</t>
+    <t xml:space="preserve">1.73662543296814</t>
   </si>
   <si>
     <t xml:space="preserve">1.72251927852631</t>
   </si>
   <si>
-    <t xml:space="preserve">1.70841324329376</t>
+    <t xml:space="preserve">1.70841300487518</t>
   </si>
   <si>
     <t xml:space="preserve">1.73192346096039</t>
@@ -443,49 +443,49 @@
     <t xml:space="preserve">1.74132752418518</t>
   </si>
   <si>
-    <t xml:space="preserve">1.74602925777435</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.753866314888</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76640510559082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75073170661926</t>
+    <t xml:space="preserve">1.74602949619293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75386643409729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76640498638153</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75073158740997</t>
   </si>
   <si>
     <t xml:space="preserve">1.77267467975616</t>
   </si>
   <si>
-    <t xml:space="preserve">1.77110707759857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78521347045898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75543344020844</t>
+    <t xml:space="preserve">1.77110743522644</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78521323204041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7554337978363</t>
   </si>
   <si>
     <t xml:space="preserve">1.74759685993195</t>
   </si>
   <si>
-    <t xml:space="preserve">1.74916422367096</t>
+    <t xml:space="preserve">1.74916410446167</t>
   </si>
   <si>
     <t xml:space="preserve">1.75856840610504</t>
   </si>
   <si>
-    <t xml:space="preserve">1.7977522611618</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80558907985687</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82596457004547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.72408664226532</t>
+    <t xml:space="preserve">1.79775202274323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80558848381042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82596445083618</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.72408676147461</t>
   </si>
   <si>
     <t xml:space="preserve">1.69430685043335</t>
@@ -494,7 +494,7 @@
     <t xml:space="preserve">1.69117224216461</t>
   </si>
   <si>
-    <t xml:space="preserve">1.66922950744629</t>
+    <t xml:space="preserve">1.669229388237</t>
   </si>
   <si>
     <t xml:space="preserve">1.57989037036896</t>
@@ -503,7 +503,7 @@
     <t xml:space="preserve">1.5830249786377</t>
   </si>
   <si>
-    <t xml:space="preserve">1.56421673297882</t>
+    <t xml:space="preserve">1.5642169713974</t>
   </si>
   <si>
     <t xml:space="preserve">1.56343305110931</t>
@@ -515,16 +515,16 @@
     <t xml:space="preserve">1.54697597026825</t>
   </si>
   <si>
-    <t xml:space="preserve">1.53835570812225</t>
+    <t xml:space="preserve">1.53835535049438</t>
   </si>
   <si>
     <t xml:space="preserve">1.51014316082001</t>
   </si>
   <si>
-    <t xml:space="preserve">1.5085756778717</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.52424919605255</t>
+    <t xml:space="preserve">1.50857591629028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.52424931526184</t>
   </si>
   <si>
     <t xml:space="preserve">1.52816772460938</t>
@@ -539,22 +539,22 @@
     <t xml:space="preserve">1.5203310251236</t>
   </si>
   <si>
-    <t xml:space="preserve">1.53208589553833</t>
+    <t xml:space="preserve">1.53208601474762</t>
   </si>
   <si>
     <t xml:space="preserve">1.49446952342987</t>
   </si>
   <si>
-    <t xml:space="preserve">1.47017574310303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.48976767063141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55637991428375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60183310508728</t>
+    <t xml:space="preserve">1.47017550468445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.48976755142212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55638003349304</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60183322429657</t>
   </si>
   <si>
     <t xml:space="preserve">1.61437201499939</t>
@@ -563,61 +563,61 @@
     <t xml:space="preserve">1.60653531551361</t>
   </si>
   <si>
-    <t xml:space="preserve">1.65825796127319</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65198850631714</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.62377619743347</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.63004541397095</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.67549872398376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.68490290641785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6990088224411</t>
+    <t xml:space="preserve">1.6582578420639</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65198838710785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.62377607822418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.63004553318024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.67549896240234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.68490302562714</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69900894165039</t>
   </si>
   <si>
     <t xml:space="preserve">1.72095203399658</t>
   </si>
   <si>
-    <t xml:space="preserve">1.69744169712067</t>
+    <t xml:space="preserve">1.69744145870209</t>
   </si>
   <si>
     <t xml:space="preserve">1.71781706809998</t>
   </si>
   <si>
-    <t xml:space="preserve">1.73976004123688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.72722136974335</t>
+    <t xml:space="preserve">1.73976016044617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.72722125053406</t>
   </si>
   <si>
     <t xml:space="preserve">1.73035597801208</t>
   </si>
   <si>
-    <t xml:space="preserve">1.69273948669434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78678047657013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7758092880249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78834819793701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78991520404816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79461741447449</t>
+    <t xml:space="preserve">1.6927398443222</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78678059577942</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77580904960632</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78834807872772</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78991532325745</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79461753368378</t>
   </si>
   <si>
     <t xml:space="preserve">1.7742418050766</t>
@@ -626,46 +626,46 @@
     <t xml:space="preserve">1.77737641334534</t>
   </si>
   <si>
-    <t xml:space="preserve">1.70371103286743</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.70684587955475</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.67863321304321</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.71625006198883</t>
+    <t xml:space="preserve">1.70371115207672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.70684576034546</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.67863345146179</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.71625018119812</t>
   </si>
   <si>
     <t xml:space="preserve">1.76327049732208</t>
   </si>
   <si>
-    <t xml:space="preserve">1.81969511508942</t>
+    <t xml:space="preserve">1.81969499588013</t>
   </si>
   <si>
     <t xml:space="preserve">1.80245423316956</t>
   </si>
   <si>
-    <t xml:space="preserve">1.81499302387238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82909917831421</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83223366737366</t>
+    <t xml:space="preserve">1.81499290466309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8290992975235</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83223390579224</t>
   </si>
   <si>
     <t xml:space="preserve">1.83693599700928</t>
   </si>
   <si>
-    <t xml:space="preserve">1.83380138874054</t>
+    <t xml:space="preserve">1.83380115032196</t>
   </si>
   <si>
     <t xml:space="preserve">1.85417664051056</t>
   </si>
   <si>
-    <t xml:space="preserve">1.871417760849</t>
+    <t xml:space="preserve">1.87141788005829</t>
   </si>
   <si>
     <t xml:space="preserve">1.87611961364746</t>
@@ -677,46 +677,46 @@
     <t xml:space="preserve">1.86514830589294</t>
   </si>
   <si>
-    <t xml:space="preserve">1.85574424266815</t>
+    <t xml:space="preserve">1.85574412345886</t>
   </si>
   <si>
     <t xml:space="preserve">1.85887885093689</t>
   </si>
   <si>
-    <t xml:space="preserve">1.88395631313324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92784214019775</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9341117143631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96232390403748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.97956502437592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.02188324928284</t>
+    <t xml:space="preserve">1.88395643234253</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92784237861633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93411159515381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96232414245605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.97956490516663</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.02188301086426</t>
   </si>
   <si>
     <t xml:space="preserve">2.05479788780212</t>
   </si>
   <si>
-    <t xml:space="preserve">2.07047128677368</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.07203841209412</t>
+    <t xml:space="preserve">2.0704710483551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.0720386505127</t>
   </si>
   <si>
     <t xml:space="preserve">2.03442215919495</t>
   </si>
   <si>
-    <t xml:space="preserve">2.02501797676086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.04382658004761</t>
+    <t xml:space="preserve">2.02501821517944</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.04382634162903</t>
   </si>
   <si>
     <t xml:space="preserve">2.05636501312256</t>
@@ -725,13 +725,13 @@
     <t xml:space="preserve">2.06106734275818</t>
   </si>
   <si>
-    <t xml:space="preserve">2.06890392303467</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.10338568687439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.09554886817932</t>
+    <t xml:space="preserve">2.06890416145325</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.10338592529297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.0955491065979</t>
   </si>
   <si>
     <t xml:space="preserve">2.03285503387451</t>
@@ -740,16 +740,16 @@
     <t xml:space="preserve">2.03755688667297</t>
   </si>
   <si>
-    <t xml:space="preserve">2.08614468574524</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.05323028564453</t>
+    <t xml:space="preserve">2.08614492416382</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.05323052406311</t>
   </si>
   <si>
     <t xml:space="preserve">2.04225897789001</t>
   </si>
   <si>
-    <t xml:space="preserve">2.05793237686157</t>
+    <t xml:space="preserve">2.05793261528015</t>
   </si>
   <si>
     <t xml:space="preserve">2.07360601425171</t>
@@ -758,103 +758,103 @@
     <t xml:space="preserve">2.08144283294678</t>
   </si>
   <si>
-    <t xml:space="preserve">2.09398150444031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.09711647033691</t>
+    <t xml:space="preserve">2.09398174285889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.09711623191833</t>
   </si>
   <si>
     <t xml:space="preserve">2.10808777809143</t>
   </si>
   <si>
-    <t xml:space="preserve">2.15824317932129</t>
+    <t xml:space="preserve">2.15824294090271</t>
   </si>
   <si>
     <t xml:space="preserve">2.19429206848145</t>
   </si>
   <si>
-    <t xml:space="preserve">2.22563910484314</t>
+    <t xml:space="preserve">2.22563862800598</t>
   </si>
   <si>
     <t xml:space="preserve">2.23817777633667</t>
   </si>
   <si>
-    <t xml:space="preserve">2.21936964988708</t>
+    <t xml:space="preserve">2.21936988830566</t>
   </si>
   <si>
     <t xml:space="preserve">2.27422714233398</t>
   </si>
   <si>
-    <t xml:space="preserve">2.23347544670105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.20526337623596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.24288010597229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.25698614120483</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.30243921279907</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.2851984500885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.28363108634949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.27265954017639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.22250437736511</t>
+    <t xml:space="preserve">2.23347616195679</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.20526361465454</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.24287962913513</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.25698590278625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.30243945121765</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.28519821166992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.28363132476807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.27265977859497</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.22250413894653</t>
   </si>
   <si>
     <t xml:space="preserve">2.26012086868286</t>
   </si>
   <si>
-    <t xml:space="preserve">2.29616975784302</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.24914932250977</t>
+    <t xml:space="preserve">2.2961699962616</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.24914956092834</t>
   </si>
   <si>
     <t xml:space="preserve">2.275794506073</t>
   </si>
   <si>
-    <t xml:space="preserve">2.29303574562073</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.28049635887146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.32281494140625</t>
+    <t xml:space="preserve">2.29303526878357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.28049659729004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.32281517982483</t>
   </si>
   <si>
     <t xml:space="preserve">2.30714130401611</t>
   </si>
   <si>
-    <t xml:space="preserve">2.33065152168274</t>
+    <t xml:space="preserve">2.33065176010132</t>
   </si>
   <si>
     <t xml:space="preserve">2.31811285018921</t>
   </si>
   <si>
-    <t xml:space="preserve">2.33221888542175</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.34514904022217</t>
+    <t xml:space="preserve">2.33221912384033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.34514880180359</t>
   </si>
   <si>
     <t xml:space="preserve">2.3564624786377</t>
   </si>
   <si>
-    <t xml:space="preserve">2.34999752044678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.27080225944519</t>
+    <t xml:space="preserve">2.34999775886536</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.27080249786377</t>
   </si>
   <si>
     <t xml:space="preserve">2.28534841537476</t>
@@ -863,16 +863,16 @@
     <t xml:space="preserve">2.24171018600464</t>
   </si>
   <si>
-    <t xml:space="preserve">2.22716426849365</t>
+    <t xml:space="preserve">2.22716403007507</t>
   </si>
   <si>
     <t xml:space="preserve">2.18190979957581</t>
   </si>
   <si>
-    <t xml:space="preserve">2.16251516342163</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.17544484138489</t>
+    <t xml:space="preserve">2.16251492500305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.17544460296631</t>
   </si>
   <si>
     <t xml:space="preserve">2.17221236228943</t>
@@ -884,43 +884,43 @@
     <t xml:space="preserve">2.11079573631287</t>
   </si>
   <si>
-    <t xml:space="preserve">2.13180685043335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16898012161255</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.14473652839661</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.19645547866821</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.22069907188416</t>
+    <t xml:space="preserve">2.13180661201477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16897988319397</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.14473676681519</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.19645571708679</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.22069931030273</t>
   </si>
   <si>
     <t xml:space="preserve">2.20615315437317</t>
   </si>
   <si>
-    <t xml:space="preserve">2.1980721950531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.21261787414551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.18999099731445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.23039650917053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.24655914306641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.19968819618225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.17867732048035</t>
+    <t xml:space="preserve">2.19807195663452</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.21261811256409</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.18999123573303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.23039674758911</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.24655890464783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.19968843460083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.17867708206177</t>
   </si>
   <si>
     <t xml:space="preserve">2.22231554985046</t>
@@ -929,28 +929,28 @@
     <t xml:space="preserve">2.21100211143494</t>
   </si>
   <si>
-    <t xml:space="preserve">2.20938563346863</t>
+    <t xml:space="preserve">2.20938587188721</t>
   </si>
   <si>
     <t xml:space="preserve">2.20292091369629</t>
   </si>
   <si>
-    <t xml:space="preserve">2.21585083007812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.21746683120728</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16574716567993</t>
+    <t xml:space="preserve">2.21585059165955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.2174665927887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16574740409851</t>
   </si>
   <si>
     <t xml:space="preserve">2.22393178939819</t>
   </si>
   <si>
-    <t xml:space="preserve">2.2013041973114</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.15766644477844</t>
+    <t xml:space="preserve">2.20130443572998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.15766620635986</t>
   </si>
   <si>
     <t xml:space="preserve">2.13665533065796</t>
@@ -962,49 +962,49 @@
     <t xml:space="preserve">2.12857413291931</t>
   </si>
   <si>
-    <t xml:space="preserve">2.1916069984436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.17706108093262</t>
+    <t xml:space="preserve">2.19160723686218</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.17706084251404</t>
   </si>
   <si>
     <t xml:space="preserve">2.17382860183716</t>
   </si>
   <si>
-    <t xml:space="preserve">2.16736364364624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.24817514419556</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.18352556228638</t>
+    <t xml:space="preserve">2.16736340522766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.24817538261414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.18352580070496</t>
   </si>
   <si>
     <t xml:space="preserve">2.16413116455078</t>
   </si>
   <si>
-    <t xml:space="preserve">2.14796876907349</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.14958548545837</t>
+    <t xml:space="preserve">2.14796900749207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.14958524703979</t>
   </si>
   <si>
     <t xml:space="preserve">2.13342308998108</t>
   </si>
   <si>
-    <t xml:space="preserve">2.18675875663757</t>
+    <t xml:space="preserve">2.18675851821899</t>
   </si>
   <si>
     <t xml:space="preserve">2.20453691482544</t>
   </si>
   <si>
-    <t xml:space="preserve">2.2287802696228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.24009418487549</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.24332666397095</t>
+    <t xml:space="preserve">2.22878050804138</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.24009394645691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.24332642555237</t>
   </si>
   <si>
     <t xml:space="preserve">2.23524522781372</t>
@@ -1022,28 +1022,28 @@
     <t xml:space="preserve">2.27888345718384</t>
   </si>
   <si>
-    <t xml:space="preserve">2.29827833175659</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.32575440406799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.33706784248352</t>
+    <t xml:space="preserve">2.29827857017517</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.32575416564941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.33706760406494</t>
   </si>
   <si>
     <t xml:space="preserve">2.35969495773315</t>
   </si>
   <si>
-    <t xml:space="preserve">2.37585735321045</t>
+    <t xml:space="preserve">2.37585759162903</t>
   </si>
   <si>
     <t xml:space="preserve">2.36615991592407</t>
   </si>
   <si>
-    <t xml:space="preserve">2.358078956604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.34353303909302</t>
+    <t xml:space="preserve">2.35807871818542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.34353256225586</t>
   </si>
   <si>
     <t xml:space="preserve">2.34838128089905</t>
@@ -1052,22 +1052,22 @@
     <t xml:space="preserve">2.37100863456726</t>
   </si>
   <si>
-    <t xml:space="preserve">2.37262487411499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.37424111366272</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.40656542778015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.45666885375977</t>
+    <t xml:space="preserve">2.37262511253357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.37424087524414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.40656566619873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.45666861534119</t>
   </si>
   <si>
     <t xml:space="preserve">2.44050645828247</t>
   </si>
   <si>
-    <t xml:space="preserve">2.44373869895935</t>
+    <t xml:space="preserve">2.44373893737793</t>
   </si>
   <si>
     <t xml:space="preserve">2.46798229217529</t>
@@ -1085,22 +1085,22 @@
     <t xml:space="preserve">2.53101539611816</t>
   </si>
   <si>
-    <t xml:space="preserve">2.47606348991394</t>
+    <t xml:space="preserve">2.47606325149536</t>
   </si>
   <si>
     <t xml:space="preserve">2.45990109443665</t>
   </si>
   <si>
-    <t xml:space="preserve">2.49222612380981</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.50515556335449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.43889021873474</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.44212245941162</t>
+    <t xml:space="preserve">2.49222588539124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.50515580177307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.43888998031616</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.4421226978302</t>
   </si>
   <si>
     <t xml:space="preserve">2.46474981307983</t>
@@ -1115,13 +1115,13 @@
     <t xml:space="preserve">2.40010046958923</t>
   </si>
   <si>
-    <t xml:space="preserve">2.35161375999451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.33060264587402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.39201998710632</t>
+    <t xml:space="preserve">2.35161399841309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.3306028842926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.39201927185059</t>
   </si>
   <si>
     <t xml:space="preserve">2.44535541534424</t>
@@ -1130,25 +1130,25 @@
     <t xml:space="preserve">2.5003068447113</t>
   </si>
   <si>
-    <t xml:space="preserve">2.42434406280518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.45505285263062</t>
+    <t xml:space="preserve">2.42434430122375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.45505261421204</t>
   </si>
   <si>
     <t xml:space="preserve">2.42111158370972</t>
   </si>
   <si>
-    <t xml:space="preserve">2.46313381195068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.47283124923706</t>
+    <t xml:space="preserve">2.46313405036926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.47283101081848</t>
   </si>
   <si>
     <t xml:space="preserve">2.48737716674805</t>
   </si>
   <si>
-    <t xml:space="preserve">2.43080878257751</t>
+    <t xml:space="preserve">2.43080902099609</t>
   </si>
   <si>
     <t xml:space="preserve">2.46636629104614</t>
@@ -1157,13 +1157,13 @@
     <t xml:space="preserve">2.42919301986694</t>
   </si>
   <si>
-    <t xml:space="preserve">2.36292767524719</t>
+    <t xml:space="preserve">2.36292743682861</t>
   </si>
   <si>
     <t xml:space="preserve">2.3095920085907</t>
   </si>
   <si>
-    <t xml:space="preserve">2.28373217582703</t>
+    <t xml:space="preserve">2.28373193740845</t>
   </si>
   <si>
     <t xml:space="preserve">2.22554802894592</t>
@@ -1172,16 +1172,16 @@
     <t xml:space="preserve">2.19483971595764</t>
   </si>
   <si>
-    <t xml:space="preserve">2.26595330238342</t>
+    <t xml:space="preserve">2.265953540802</t>
   </si>
   <si>
     <t xml:space="preserve">2.29989457130432</t>
   </si>
   <si>
-    <t xml:space="preserve">2.30797553062439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.26433777809143</t>
+    <t xml:space="preserve">2.30797576904297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.26433753967285</t>
   </si>
   <si>
     <t xml:space="preserve">2.23847770690918</t>
@@ -1190,7 +1190,7 @@
     <t xml:space="preserve">2.20776963233948</t>
   </si>
   <si>
-    <t xml:space="preserve">2.2562563419342</t>
+    <t xml:space="preserve">2.25625610351562</t>
   </si>
   <si>
     <t xml:space="preserve">2.25302386283875</t>
@@ -1199,7 +1199,7 @@
     <t xml:space="preserve">2.25140786170959</t>
   </si>
   <si>
-    <t xml:space="preserve">2.27403473854065</t>
+    <t xml:space="preserve">2.27403450012207</t>
   </si>
   <si>
     <t xml:space="preserve">2.26918649673462</t>
@@ -1211,25 +1211,25 @@
     <t xml:space="preserve">2.39363574981689</t>
   </si>
   <si>
-    <t xml:space="preserve">2.40333318710327</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.41303062438965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.42596030235291</t>
+    <t xml:space="preserve">2.40333294868469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.41303038597107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.42596054077148</t>
   </si>
   <si>
     <t xml:space="preserve">2.44858765602112</t>
   </si>
   <si>
-    <t xml:space="preserve">2.41787934303284</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.43727397918701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.48091244697571</t>
+    <t xml:space="preserve">2.41787910461426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.43727421760559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.48091197013855</t>
   </si>
   <si>
     <t xml:space="preserve">2.48576092720032</t>
@@ -1238,7 +1238,7 @@
     <t xml:space="preserve">2.47121477127075</t>
   </si>
   <si>
-    <t xml:space="preserve">2.40979838371277</t>
+    <t xml:space="preserve">2.40979814529419</t>
   </si>
   <si>
     <t xml:space="preserve">2.43565773963928</t>
@@ -1250,46 +1250,46 @@
     <t xml:space="preserve">2.29504561424255</t>
   </si>
   <si>
-    <t xml:space="preserve">2.18837475776672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.10594701766968</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.12534165382385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.1431200504303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.13019037246704</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.13988780975342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.10756301879883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.19441390037537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.22959184646606</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.24131798744202</t>
+    <t xml:space="preserve">2.18837451934814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1059467792511</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.12534189224243</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.14312052726746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.13019061088562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.139888048172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.10756325721741</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.19441413879395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.22959208488464</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.24131774902344</t>
   </si>
   <si>
     <t xml:space="preserve">2.20446491241455</t>
   </si>
   <si>
-    <t xml:space="preserve">2.20781517028809</t>
+    <t xml:space="preserve">2.20781540870667</t>
   </si>
   <si>
     <t xml:space="preserve">2.24299287796021</t>
   </si>
   <si>
-    <t xml:space="preserve">2.22791695594788</t>
+    <t xml:space="preserve">2.2279167175293</t>
   </si>
   <si>
     <t xml:space="preserve">2.2597439289093</t>
@@ -1298,22 +1298,22 @@
     <t xml:space="preserve">2.23629236221313</t>
   </si>
   <si>
-    <t xml:space="preserve">2.27817058563232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.30999755859375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.33009934425354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.33679986000061</t>
+    <t xml:space="preserve">2.27817034721375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.30999803543091</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.33009958267212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.33679962158203</t>
   </si>
   <si>
     <t xml:space="preserve">2.32004857063293</t>
   </si>
   <si>
-    <t xml:space="preserve">2.3116729259491</t>
+    <t xml:space="preserve">2.31167316436768</t>
   </si>
   <si>
     <t xml:space="preserve">2.32339882850647</t>
@@ -1322,25 +1322,25 @@
     <t xml:space="preserve">2.30832266807556</t>
   </si>
   <si>
-    <t xml:space="preserve">2.34517550468445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.35020065307617</t>
+    <t xml:space="preserve">2.34517526626587</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.35020112991333</t>
   </si>
   <si>
     <t xml:space="preserve">2.32842421531677</t>
   </si>
   <si>
-    <t xml:space="preserve">2.2764949798584</t>
+    <t xml:space="preserve">2.27649521827698</t>
   </si>
   <si>
     <t xml:space="preserve">2.26309418678284</t>
   </si>
   <si>
-    <t xml:space="preserve">2.38705325126648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.34852528572083</t>
+    <t xml:space="preserve">2.38705372810364</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.3485255241394</t>
   </si>
   <si>
     <t xml:space="preserve">2.37532782554626</t>
@@ -1349,7 +1349,7 @@
     <t xml:space="preserve">2.36527681350708</t>
   </si>
   <si>
-    <t xml:space="preserve">2.39877963066101</t>
+    <t xml:space="preserve">2.39877939224243</t>
   </si>
   <si>
     <t xml:space="preserve">2.39710450172424</t>
@@ -1364,10 +1364,10 @@
     <t xml:space="preserve">2.32674908638</t>
   </si>
   <si>
-    <t xml:space="preserve">2.30664753913879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.29994702339172</t>
+    <t xml:space="preserve">2.30664777755737</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.2999472618103</t>
   </si>
   <si>
     <t xml:space="preserve">2.29324650764465</t>
@@ -1379,28 +1379,28 @@
     <t xml:space="preserve">2.33344984054565</t>
   </si>
   <si>
-    <t xml:space="preserve">2.32507419586182</t>
+    <t xml:space="preserve">2.32507395744324</t>
   </si>
   <si>
     <t xml:space="preserve">2.26811957359314</t>
   </si>
   <si>
-    <t xml:space="preserve">2.27146983146667</t>
+    <t xml:space="preserve">2.27147006988525</t>
   </si>
   <si>
     <t xml:space="preserve">2.26141929626465</t>
   </si>
   <si>
-    <t xml:space="preserve">2.27984547615051</t>
+    <t xml:space="preserve">2.27984571456909</t>
   </si>
   <si>
     <t xml:space="preserve">2.29827189445496</t>
   </si>
   <si>
-    <t xml:space="preserve">2.30162215232849</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.36695218086243</t>
+    <t xml:space="preserve">2.30162239074707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.36695194244385</t>
   </si>
   <si>
     <t xml:space="preserve">2.38035321235657</t>
@@ -1409,73 +1409,73 @@
     <t xml:space="preserve">2.37700295448303</t>
   </si>
   <si>
-    <t xml:space="preserve">2.38202810287476</t>
+    <t xml:space="preserve">2.38202857971191</t>
   </si>
   <si>
     <t xml:space="preserve">2.38872885704041</t>
   </si>
   <si>
-    <t xml:space="preserve">2.39207887649536</t>
+    <t xml:space="preserve">2.39207911491394</t>
   </si>
   <si>
     <t xml:space="preserve">2.35355114936829</t>
   </si>
   <si>
-    <t xml:space="preserve">2.294921875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.28989624977112</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.24634313583374</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.23796725273132</t>
+    <t xml:space="preserve">2.29492163658142</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.2898964881897</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.24634289741516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.2379674911499</t>
   </si>
   <si>
     <t xml:space="preserve">2.21954131126404</t>
   </si>
   <si>
-    <t xml:space="preserve">2.17933821678162</t>
+    <t xml:space="preserve">2.17933797836304</t>
   </si>
   <si>
     <t xml:space="preserve">2.12238383293152</t>
   </si>
   <si>
-    <t xml:space="preserve">2.14416027069092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.09558200836182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.05872893333435</t>
+    <t xml:space="preserve">2.14416074752808</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.09558176994324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.05872917175293</t>
   </si>
   <si>
     <t xml:space="preserve">2.01517581939697</t>
   </si>
   <si>
-    <t xml:space="preserve">2.07213020324707</t>
+    <t xml:space="preserve">2.07212996482849</t>
   </si>
   <si>
     <t xml:space="preserve">2.02522659301758</t>
   </si>
   <si>
-    <t xml:space="preserve">2.04867815971375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.05705404281616</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.02355146408081</t>
+    <t xml:space="preserve">2.04867839813232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.05705428123474</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.02355122566223</t>
   </si>
   <si>
     <t xml:space="preserve">2.01182532310486</t>
   </si>
   <si>
-    <t xml:space="preserve">2.08553123474121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.05202841758728</t>
+    <t xml:space="preserve">2.08553099632263</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.05202865600586</t>
   </si>
   <si>
     <t xml:space="preserve">2.04532814025879</t>
@@ -1484,16 +1484,16 @@
     <t xml:space="preserve">2.03360223770142</t>
   </si>
   <si>
-    <t xml:space="preserve">2.04365301132202</t>
+    <t xml:space="preserve">2.04365277290344</t>
   </si>
   <si>
     <t xml:space="preserve">2.04197764396667</t>
   </si>
   <si>
-    <t xml:space="preserve">2.06040406227112</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.07883048057556</t>
+    <t xml:space="preserve">2.06040453910828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.07883071899414</t>
   </si>
   <si>
     <t xml:space="preserve">2.12740921974182</t>
@@ -1502,10 +1502,10 @@
     <t xml:space="preserve">2.07548022270203</t>
   </si>
   <si>
-    <t xml:space="preserve">2.14081025123596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.13075923919678</t>
+    <t xml:space="preserve">2.14081048965454</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.13075947761536</t>
   </si>
   <si>
     <t xml:space="preserve">2.13913512229919</t>
@@ -1529,13 +1529,13 @@
     <t xml:space="preserve">2.0654296875</t>
   </si>
   <si>
-    <t xml:space="preserve">2.03192710876465</t>
+    <t xml:space="preserve">2.03192734718323</t>
   </si>
   <si>
     <t xml:space="preserve">2.09725689888</t>
   </si>
   <si>
-    <t xml:space="preserve">2.02187657356262</t>
+    <t xml:space="preserve">2.02187609672546</t>
   </si>
   <si>
     <t xml:space="preserve">2.10730767250061</t>
@@ -1544,34 +1544,34 @@
     <t xml:space="preserve">2.1491858959198</t>
   </si>
   <si>
-    <t xml:space="preserve">2.26476979255676</t>
+    <t xml:space="preserve">2.26476955413818</t>
   </si>
   <si>
     <t xml:space="preserve">2.20279002189636</t>
   </si>
   <si>
-    <t xml:space="preserve">2.23461699485779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.26979494094849</t>
+    <t xml:space="preserve">2.23461723327637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.26979517936707</t>
   </si>
   <si>
     <t xml:space="preserve">2.25304365158081</t>
   </si>
   <si>
-    <t xml:space="preserve">2.37030220031738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.3736526966095</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.35690140724182</t>
+    <t xml:space="preserve">2.37030243873596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.37365293502808</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.35690116882324</t>
   </si>
   <si>
     <t xml:space="preserve">2.38537859916687</t>
   </si>
   <si>
-    <t xml:space="preserve">2.39040398597717</t>
+    <t xml:space="preserve">2.39040422439575</t>
   </si>
   <si>
     <t xml:space="preserve">2.41218066215515</t>
@@ -1580,7 +1580,7 @@
     <t xml:space="preserve">2.3837034702301</t>
   </si>
   <si>
-    <t xml:space="preserve">2.3786780834198</t>
+    <t xml:space="preserve">2.37867784500122</t>
   </si>
   <si>
     <t xml:space="preserve">2.40883016586304</t>
@@ -1589,13 +1589,13 @@
     <t xml:space="preserve">2.44568300247192</t>
   </si>
   <si>
-    <t xml:space="preserve">2.44735813140869</t>
+    <t xml:space="preserve">2.44735789299011</t>
   </si>
   <si>
     <t xml:space="preserve">2.47248506546021</t>
   </si>
   <si>
-    <t xml:space="preserve">2.48086047172546</t>
+    <t xml:space="preserve">2.48086071014404</t>
   </si>
   <si>
     <t xml:space="preserve">2.46913480758667</t>
@@ -1607,73 +1607,73 @@
     <t xml:space="preserve">2.47751045227051</t>
   </si>
   <si>
-    <t xml:space="preserve">2.45573353767395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.4406578540802</t>
+    <t xml:space="preserve">2.45573377609253</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.44065761566162</t>
   </si>
   <si>
     <t xml:space="preserve">2.46745991706848</t>
   </si>
   <si>
-    <t xml:space="preserve">2.49091148376465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.48923635482788</t>
+    <t xml:space="preserve">2.49091124534607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.4892361164093</t>
   </si>
   <si>
     <t xml:space="preserve">2.49593687057495</t>
   </si>
   <si>
-    <t xml:space="preserve">2.48588609695435</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.47583532333374</t>
+    <t xml:space="preserve">2.48588585853577</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.47583556175232</t>
   </si>
   <si>
     <t xml:space="preserve">2.44400787353516</t>
   </si>
   <si>
-    <t xml:space="preserve">2.51436305046082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.47918581962585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.43898272514343</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.45405840873718</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.45070862770081</t>
+    <t xml:space="preserve">2.51436328887939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.4791853427887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.43898248672485</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.45405888557434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.45070838928223</t>
   </si>
   <si>
     <t xml:space="preserve">2.48756098747253</t>
   </si>
   <si>
-    <t xml:space="preserve">2.48421096801758</t>
+    <t xml:space="preserve">2.484210729599</t>
   </si>
   <si>
     <t xml:space="preserve">2.50263714790344</t>
   </si>
   <si>
-    <t xml:space="preserve">2.51101279258728</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.44233250617981</t>
+    <t xml:space="preserve">2.5110125541687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.44233274459839</t>
   </si>
   <si>
     <t xml:space="preserve">2.42223119735718</t>
   </si>
   <si>
-    <t xml:space="preserve">2.53613972663879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.57466745376587</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.57634258270264</t>
+    <t xml:space="preserve">2.53613996505737</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.57466769218445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.57634282112122</t>
   </si>
   <si>
     <t xml:space="preserve">2.59979462623596</t>
@@ -1682,31 +1682,31 @@
     <t xml:space="preserve">2.62659668922424</t>
   </si>
   <si>
-    <t xml:space="preserve">2.6299467086792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.67852568626404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.69862699508667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.69360160827637</t>
+    <t xml:space="preserve">2.62994694709778</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.67852544784546</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.69862675666809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.69360136985779</t>
   </si>
   <si>
     <t xml:space="preserve">2.70030212402344</t>
   </si>
   <si>
-    <t xml:space="preserve">2.713702917099</t>
+    <t xml:space="preserve">2.71370315551758</t>
   </si>
   <si>
     <t xml:space="preserve">2.75725626945496</t>
   </si>
   <si>
-    <t xml:space="preserve">2.7271044254303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.70700263977051</t>
+    <t xml:space="preserve">2.72710418701172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.70700287818909</t>
   </si>
   <si>
     <t xml:space="preserve">2.72207880020142</t>
@@ -1718,40 +1718,40 @@
     <t xml:space="preserve">2.68187570571899</t>
   </si>
   <si>
-    <t xml:space="preserve">2.66679978370667</t>
+    <t xml:space="preserve">2.66679954528809</t>
   </si>
   <si>
     <t xml:space="preserve">2.63329720497131</t>
   </si>
   <si>
-    <t xml:space="preserve">2.65004849433899</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.65339851379395</t>
+    <t xml:space="preserve">2.65004825592041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.65339827537537</t>
   </si>
   <si>
     <t xml:space="preserve">2.66847491264343</t>
   </si>
   <si>
-    <t xml:space="preserve">2.64669799804688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.65842413902283</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.67350006103516</t>
+    <t xml:space="preserve">2.64669823646545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.65842390060425</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.67349982261658</t>
   </si>
   <si>
     <t xml:space="preserve">2.66009926795959</t>
   </si>
   <si>
-    <t xml:space="preserve">2.6249213218689</t>
+    <t xml:space="preserve">2.62492179870605</t>
   </si>
   <si>
     <t xml:space="preserve">2.64837312698364</t>
   </si>
   <si>
-    <t xml:space="preserve">2.62827157974243</t>
+    <t xml:space="preserve">2.62827181816101</t>
   </si>
   <si>
     <t xml:space="preserve">2.69025135040283</t>
@@ -1769,10 +1769,10 @@
     <t xml:space="preserve">2.75223088264465</t>
   </si>
   <si>
-    <t xml:space="preserve">2.76563215255737</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.76730704307556</t>
+    <t xml:space="preserve">2.76563191413879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.76730728149414</t>
   </si>
   <si>
     <t xml:space="preserve">2.74385523796082</t>
@@ -1781,7 +1781,7 @@
     <t xml:space="preserve">2.74218010902405</t>
   </si>
   <si>
-    <t xml:space="preserve">2.73547959327698</t>
+    <t xml:space="preserve">2.73547983169556</t>
   </si>
   <si>
     <t xml:space="preserve">2.7237536907196</t>
@@ -1796,19 +1796,19 @@
     <t xml:space="preserve">2.81588578224182</t>
   </si>
   <si>
-    <t xml:space="preserve">2.81756067276001</t>
+    <t xml:space="preserve">2.81756091117859</t>
   </si>
   <si>
     <t xml:space="preserve">2.81253552436829</t>
   </si>
   <si>
-    <t xml:space="preserve">2.81421065330505</t>
+    <t xml:space="preserve">2.81421041488647</t>
   </si>
   <si>
     <t xml:space="preserve">2.80080962181091</t>
   </si>
   <si>
-    <t xml:space="preserve">2.7974591255188</t>
+    <t xml:space="preserve">2.79745936393738</t>
   </si>
   <si>
     <t xml:space="preserve">2.86278915405273</t>
@@ -1817,19 +1817,19 @@
     <t xml:space="preserve">2.86948990821838</t>
   </si>
   <si>
-    <t xml:space="preserve">2.90466737747192</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.93817019462585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.91747856140137</t>
+    <t xml:space="preserve">2.90466713905334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.9381697177887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.91747879981995</t>
   </si>
   <si>
     <t xml:space="preserve">2.8985116481781</t>
   </si>
   <si>
-    <t xml:space="preserve">2.90195989608765</t>
+    <t xml:space="preserve">2.90195965766907</t>
   </si>
   <si>
     <t xml:space="preserve">2.86747431755066</t>
@@ -1841,28 +1841,28 @@
     <t xml:space="preserve">2.88471722602844</t>
   </si>
   <si>
-    <t xml:space="preserve">2.953688621521</t>
+    <t xml:space="preserve">2.95368838310242</t>
   </si>
   <si>
     <t xml:space="preserve">3.04162669181824</t>
   </si>
   <si>
-    <t xml:space="preserve">3.03817796707153</t>
+    <t xml:space="preserve">3.03817772865295</t>
   </si>
   <si>
     <t xml:space="preserve">3.01231384277344</t>
   </si>
   <si>
-    <t xml:space="preserve">3.00024390220642</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.01058959960938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.02610802650452</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.02438402175903</t>
+    <t xml:space="preserve">3.000244140625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.01058983802795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.0261082649231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.02438378334045</t>
   </si>
   <si>
     <t xml:space="preserve">3.05886936187744</t>
@@ -1871,7 +1871,7 @@
     <t xml:space="preserve">3.03645372390747</t>
   </si>
   <si>
-    <t xml:space="preserve">2.98472547531128</t>
+    <t xml:space="preserve">2.9847252368927</t>
   </si>
   <si>
     <t xml:space="preserve">2.96920680999756</t>
@@ -1880,13 +1880,13 @@
     <t xml:space="preserve">2.97437977790833</t>
   </si>
   <si>
-    <t xml:space="preserve">2.95541286468506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.95196390151978</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.95713686943054</t>
+    <t xml:space="preserve">2.9554123878479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.95196413993835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.9571373462677</t>
   </si>
   <si>
     <t xml:space="preserve">2.88816595077515</t>
@@ -1901,19 +1901,19 @@
     <t xml:space="preserve">2.93299698829651</t>
   </si>
   <si>
-    <t xml:space="preserve">2.91575455665588</t>
+    <t xml:space="preserve">2.9157543182373</t>
   </si>
   <si>
     <t xml:space="preserve">2.92782425880432</t>
   </si>
   <si>
-    <t xml:space="preserve">2.95023989677429</t>
+    <t xml:space="preserve">2.95023965835571</t>
   </si>
   <si>
     <t xml:space="preserve">2.92610001564026</t>
   </si>
   <si>
-    <t xml:space="preserve">2.9588611125946</t>
+    <t xml:space="preserve">2.95886135101318</t>
   </si>
   <si>
     <t xml:space="preserve">2.90713286399841</t>
@@ -1928,7 +1928,7 @@
     <t xml:space="preserve">3.00541687011719</t>
   </si>
   <si>
-    <t xml:space="preserve">3.01403832435608</t>
+    <t xml:space="preserve">3.0140380859375</t>
   </si>
   <si>
     <t xml:space="preserve">3.0433509349823</t>
@@ -1937,7 +1937,7 @@
     <t xml:space="preserve">3.11749482154846</t>
   </si>
   <si>
-    <t xml:space="preserve">3.11404633522034</t>
+    <t xml:space="preserve">3.11404657363892</t>
   </si>
   <si>
     <t xml:space="preserve">3.15370464324951</t>
@@ -1946,13 +1946,13 @@
     <t xml:space="preserve">3.12784051895142</t>
   </si>
   <si>
-    <t xml:space="preserve">3.12266778945923</t>
+    <t xml:space="preserve">3.12266755104065</t>
   </si>
   <si>
     <t xml:space="preserve">3.12439203262329</t>
   </si>
   <si>
-    <t xml:space="preserve">3.15542912483215</t>
+    <t xml:space="preserve">3.15542888641357</t>
   </si>
   <si>
     <t xml:space="preserve">3.13301348686218</t>
@@ -1961,16 +1961,16 @@
     <t xml:space="preserve">3.02955675125122</t>
   </si>
   <si>
-    <t xml:space="preserve">3.02093505859375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.07783627510071</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.04852366447449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.05197238922119</t>
+    <t xml:space="preserve">3.02093529701233</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.07783651351929</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.04852390289307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.05197215080261</t>
   </si>
   <si>
     <t xml:space="preserve">3.07956075668335</t>
@@ -1979,28 +1979,28 @@
     <t xml:space="preserve">3.14508318901062</t>
   </si>
   <si>
-    <t xml:space="preserve">3.14163494110107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.10370087623596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.19336318969727</t>
+    <t xml:space="preserve">3.1416347026825</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.10370063781738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.19336295127869</t>
   </si>
   <si>
     <t xml:space="preserve">3.19163870811462</t>
   </si>
   <si>
-    <t xml:space="preserve">3.26750683784485</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.20715737342834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.24681568145752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.19853591918945</t>
+    <t xml:space="preserve">3.26750707626343</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.20715713500977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.24681544303894</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.19853615760803</t>
   </si>
   <si>
     <t xml:space="preserve">3.21405434608459</t>
@@ -2015,16 +2015,16 @@
     <t xml:space="preserve">3.25026440620422</t>
   </si>
   <si>
-    <t xml:space="preserve">3.22267580032349</t>
+    <t xml:space="preserve">3.22267556190491</t>
   </si>
   <si>
     <t xml:space="preserve">3.248539686203</t>
   </si>
   <si>
-    <t xml:space="preserve">3.26061010360718</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.22784852981567</t>
+    <t xml:space="preserve">3.2606098651886</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.22784829139709</t>
   </si>
   <si>
     <t xml:space="preserve">3.27095556259155</t>
@@ -2033,7 +2033,7 @@
     <t xml:space="preserve">3.24164295196533</t>
   </si>
   <si>
-    <t xml:space="preserve">3.20888137817383</t>
+    <t xml:space="preserve">3.20888161659241</t>
   </si>
   <si>
     <t xml:space="preserve">3.23819422721863</t>
@@ -2057,7 +2057,7 @@
     <t xml:space="preserve">3.27785277366638</t>
   </si>
   <si>
-    <t xml:space="preserve">3.30371689796448</t>
+    <t xml:space="preserve">3.30371713638306</t>
   </si>
   <si>
     <t xml:space="preserve">3.31751108169556</t>
@@ -2066,16 +2066,16 @@
     <t xml:space="preserve">3.30199265480042</t>
   </si>
   <si>
-    <t xml:space="preserve">3.32440805435181</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.32613253593445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.35372114181519</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.43303775787354</t>
+    <t xml:space="preserve">3.32440829277039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.32613277435303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.35372090339661</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.43303799629211</t>
   </si>
   <si>
     <t xml:space="preserve">3.45890212059021</t>
@@ -2084,22 +2084,22 @@
     <t xml:space="preserve">3.45545315742493</t>
   </si>
   <si>
-    <t xml:space="preserve">3.48131775856018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.45717763900757</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.42096781730652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.43993473052979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.41407060623169</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.44510746002197</t>
+    <t xml:space="preserve">3.4813175201416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.45717787742615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.42096757888794</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.43993496894836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.41407084465027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.44510769844055</t>
   </si>
   <si>
     <t xml:space="preserve">3.4347620010376</t>
@@ -2108,34 +2108,34 @@
     <t xml:space="preserve">3.45200490951538</t>
   </si>
   <si>
-    <t xml:space="preserve">3.31233835220337</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.33992695808411</t>
+    <t xml:space="preserve">3.31233811378479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.33992671966553</t>
   </si>
   <si>
     <t xml:space="preserve">3.37958526611328</t>
   </si>
   <si>
-    <t xml:space="preserve">3.35544514656067</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.34854793548584</t>
+    <t xml:space="preserve">3.35544538497925</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.34854817390442</t>
   </si>
   <si>
     <t xml:space="preserve">3.32268404960632</t>
   </si>
   <si>
-    <t xml:space="preserve">3.35716938972473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.36579060554504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.31061410903931</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.38303375244141</t>
+    <t xml:space="preserve">3.35716962814331</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.3657910823822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.31061363220215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.38303351402283</t>
   </si>
   <si>
     <t xml:space="preserve">3.43131351470947</t>
@@ -2144,13 +2144,13 @@
     <t xml:space="preserve">3.42786478996277</t>
   </si>
   <si>
-    <t xml:space="preserve">3.422691822052</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.48476600646973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.41924381256104</t>
+    <t xml:space="preserve">3.42269206047058</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.48476576805115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.41924357414246</t>
   </si>
   <si>
     <t xml:space="preserve">3.42441630363464</t>
@@ -2165,13 +2165,13 @@
     <t xml:space="preserve">3.36061811447144</t>
   </si>
   <si>
-    <t xml:space="preserve">3.3330295085907</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.32958126068115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.40027666091919</t>
+    <t xml:space="preserve">3.33302927017212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.32958102226257</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.40027642250061</t>
   </si>
   <si>
     <t xml:space="preserve">3.44683170318604</t>
@@ -2180,13 +2180,13 @@
     <t xml:space="preserve">3.44338345527649</t>
   </si>
   <si>
-    <t xml:space="preserve">3.38820648193359</t>
+    <t xml:space="preserve">3.38820672035217</t>
   </si>
   <si>
     <t xml:space="preserve">3.53994297981262</t>
   </si>
   <si>
-    <t xml:space="preserve">3.65374517440796</t>
+    <t xml:space="preserve">3.65374541282654</t>
   </si>
   <si>
     <t xml:space="preserve">3.58477425575256</t>
@@ -2195,70 +2195,70 @@
     <t xml:space="preserve">3.72961354255676</t>
   </si>
   <si>
-    <t xml:space="preserve">3.72788882255554</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.65546941757202</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.53649425506592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.54511570930481</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.55546140670776</t>
+    <t xml:space="preserve">3.7278892993927</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.65546917915344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.53649473190308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.54511618614197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.55546164512634</t>
   </si>
   <si>
     <t xml:space="preserve">3.60546565055847</t>
   </si>
   <si>
-    <t xml:space="preserve">3.64857268333435</t>
+    <t xml:space="preserve">3.64857220649719</t>
   </si>
   <si>
     <t xml:space="preserve">3.66236686706543</t>
   </si>
   <si>
-    <t xml:space="preserve">3.68823099136353</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.70719838142395</t>
+    <t xml:space="preserve">3.68823075294495</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.70719814300537</t>
   </si>
   <si>
     <t xml:space="preserve">3.72099232673645</t>
   </si>
   <si>
-    <t xml:space="preserve">3.76237440109253</t>
+    <t xml:space="preserve">3.76237487792969</t>
   </si>
   <si>
     <t xml:space="preserve">3.73478627204895</t>
   </si>
   <si>
-    <t xml:space="preserve">3.7399594783783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.75375390052795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.84686422348022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.8261730670929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.80375742912292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.61236262321472</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.5796012878418</t>
+    <t xml:space="preserve">3.73995923995972</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.75375318527222</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.84686398506165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.82617330551147</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.80375790596008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.6123628616333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.57960152626038</t>
   </si>
   <si>
     <t xml:space="preserve">3.61063838005066</t>
   </si>
   <si>
-    <t xml:space="preserve">3.54684019088745</t>
+    <t xml:space="preserve">3.54683995246887</t>
   </si>
   <si>
     <t xml:space="preserve">3.34337520599365</t>
@@ -2267,7 +2267,7 @@
     <t xml:space="preserve">3.36751508712769</t>
   </si>
   <si>
-    <t xml:space="preserve">3.52787327766418</t>
+    <t xml:space="preserve">3.52787303924561</t>
   </si>
   <si>
     <t xml:space="preserve">3.06404232978821</t>
@@ -2276,19 +2276,19 @@
     <t xml:space="preserve">2.87609601020813</t>
   </si>
   <si>
-    <t xml:space="preserve">2.91058158874512</t>
+    <t xml:space="preserve">2.91058135032654</t>
   </si>
   <si>
     <t xml:space="preserve">2.40191960334778</t>
   </si>
   <si>
-    <t xml:space="preserve">2.76746654510498</t>
+    <t xml:space="preserve">2.76746678352356</t>
   </si>
   <si>
     <t xml:space="preserve">2.66745829582214</t>
   </si>
   <si>
-    <t xml:space="preserve">2.71573805809021</t>
+    <t xml:space="preserve">2.71573829650879</t>
   </si>
   <si>
     <t xml:space="preserve">2.72263526916504</t>
@@ -2297,61 +2297,61 @@
     <t xml:space="preserve">2.66228532791138</t>
   </si>
   <si>
-    <t xml:space="preserve">2.79505491256714</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.64159417152405</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.61572980880737</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.63986968994141</t>
+    <t xml:space="preserve">2.79505467414856</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.64159393310547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.61573004722595</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.63986992835999</t>
   </si>
   <si>
     <t xml:space="preserve">2.70711660385132</t>
   </si>
   <si>
-    <t xml:space="preserve">2.83643770217896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.81747031211853</t>
+    <t xml:space="preserve">2.83643746376038</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.81747007369995</t>
   </si>
   <si>
     <t xml:space="preserve">2.73470497131348</t>
   </si>
   <si>
-    <t xml:space="preserve">2.77436351776123</t>
+    <t xml:space="preserve">2.77436327934265</t>
   </si>
   <si>
     <t xml:space="preserve">2.73815393447876</t>
   </si>
   <si>
-    <t xml:space="preserve">2.76056933403015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.66056132316589</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.78643345832825</t>
+    <t xml:space="preserve">2.76056909561157</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.66056108474731</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.78643369674683</t>
   </si>
   <si>
     <t xml:space="preserve">2.77781200408936</t>
   </si>
   <si>
-    <t xml:space="preserve">2.75539660453796</t>
+    <t xml:space="preserve">2.75539636611938</t>
   </si>
   <si>
     <t xml:space="preserve">2.75194787979126</t>
   </si>
   <si>
-    <t xml:space="preserve">2.82091903686523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.83471345901489</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.72435927391052</t>
+    <t xml:space="preserve">2.82091927528381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.83471322059631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.7243595123291</t>
   </si>
   <si>
     <t xml:space="preserve">2.80195212364197</t>
@@ -2363,7 +2363,7 @@
     <t xml:space="preserve">2.89161443710327</t>
   </si>
   <si>
-    <t xml:space="preserve">2.9123055934906</t>
+    <t xml:space="preserve">2.91230583190918</t>
   </si>
   <si>
     <t xml:space="preserve">2.78988218307495</t>
@@ -2372,28 +2372,28 @@
     <t xml:space="preserve">2.78298473358154</t>
   </si>
   <si>
-    <t xml:space="preserve">2.73125648498535</t>
+    <t xml:space="preserve">2.73125624656677</t>
   </si>
   <si>
     <t xml:space="preserve">2.69677090644836</t>
   </si>
   <si>
-    <t xml:space="preserve">2.80367612838745</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.83298873901367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.77091479301453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.6778039932251</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.66400957107544</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.71918654441833</t>
+    <t xml:space="preserve">2.80367636680603</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.83298897743225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.77091503143311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.67780375480652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.66400980949402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.71918678283691</t>
   </si>
   <si>
     <t xml:space="preserve">2.70539236068726</t>
@@ -2405,10 +2405,10 @@
     <t xml:space="preserve">2.75712084770203</t>
   </si>
   <si>
-    <t xml:space="preserve">2.87437176704407</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.87782025337219</t>
+    <t xml:space="preserve">2.87437200546265</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.87782001495361</t>
   </si>
   <si>
     <t xml:space="preserve">3.08473372459412</t>
@@ -2417,7 +2417,7 @@
     <t xml:space="preserve">3.0899064540863</t>
   </si>
   <si>
-    <t xml:space="preserve">3.046799659729</t>
+    <t xml:space="preserve">3.04679942131042</t>
   </si>
   <si>
     <t xml:space="preserve">3.00369238853455</t>
@@ -2426,7 +2426,7 @@
     <t xml:space="preserve">2.89678716659546</t>
   </si>
   <si>
-    <t xml:space="preserve">3.0312807559967</t>
+    <t xml:space="preserve">3.03128099441528</t>
   </si>
   <si>
     <t xml:space="preserve">3.01748657226562</t>
@@ -2438,19 +2438,19 @@
     <t xml:space="preserve">2.98300123214722</t>
   </si>
   <si>
-    <t xml:space="preserve">2.97955250740051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.90885710716248</t>
+    <t xml:space="preserve">2.97955274581909</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.90885734558105</t>
   </si>
   <si>
     <t xml:space="preserve">2.85368037223816</t>
   </si>
   <si>
-    <t xml:space="preserve">2.9243757724762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.92092728614807</t>
+    <t xml:space="preserve">2.92437553405762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.92092680931091</t>
   </si>
   <si>
     <t xml:space="preserve">2.94851565361023</t>
@@ -2459,7 +2459,7 @@
     <t xml:space="preserve">2.96627759933472</t>
   </si>
   <si>
-    <t xml:space="preserve">2.9200963973999</t>
+    <t xml:space="preserve">2.92009615898132</t>
   </si>
   <si>
     <t xml:space="preserve">2.93608212471008</t>
@@ -2468,13 +2468,13 @@
     <t xml:space="preserve">2.85792851448059</t>
   </si>
   <si>
-    <t xml:space="preserve">2.84904766082764</t>
+    <t xml:space="preserve">2.84904742240906</t>
   </si>
   <si>
     <t xml:space="preserve">2.89345288276672</t>
   </si>
   <si>
-    <t xml:space="preserve">2.85437607765198</t>
+    <t xml:space="preserve">2.85437631607056</t>
   </si>
   <si>
     <t xml:space="preserve">2.86680960655212</t>
@@ -2483,13 +2483,13 @@
     <t xml:space="preserve">2.91476774215698</t>
   </si>
   <si>
-    <t xml:space="preserve">2.95384430885315</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.95739650726318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.95917272567749</t>
+    <t xml:space="preserve">2.95384407043457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.95739674568176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.95917296409607</t>
   </si>
   <si>
     <t xml:space="preserve">2.99114465713501</t>
@@ -2498,22 +2498,22 @@
     <t xml:space="preserve">2.94851541519165</t>
   </si>
   <si>
-    <t xml:space="preserve">2.87924337387085</t>
+    <t xml:space="preserve">2.87924313545227</t>
   </si>
   <si>
     <t xml:space="preserve">2.83306169509888</t>
   </si>
   <si>
-    <t xml:space="preserve">2.85082387924194</t>
+    <t xml:space="preserve">2.85082411766052</t>
   </si>
   <si>
     <t xml:space="preserve">2.92364859580994</t>
   </si>
   <si>
-    <t xml:space="preserve">2.9076623916626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.80464220046997</t>
+    <t xml:space="preserve">2.90766263008118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.80464243888855</t>
   </si>
   <si>
     <t xml:space="preserve">2.82418060302734</t>
@@ -2525,10 +2525,10 @@
     <t xml:space="preserve">2.80819463729858</t>
   </si>
   <si>
-    <t xml:space="preserve">2.79931354522705</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.8863480091095</t>
+    <t xml:space="preserve">2.79931378364563</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.88634824752808</t>
   </si>
   <si>
     <t xml:space="preserve">2.94673943519592</t>
@@ -2537,7 +2537,7 @@
     <t xml:space="preserve">3.014235496521</t>
   </si>
   <si>
-    <t xml:space="preserve">3.00357842445374</t>
+    <t xml:space="preserve">3.00357818603516</t>
   </si>
   <si>
     <t xml:space="preserve">2.98403978347778</t>
@@ -2549,34 +2549,34 @@
     <t xml:space="preserve">2.93075346946716</t>
   </si>
   <si>
-    <t xml:space="preserve">2.90233397483826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.88101959228516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.97515869140625</t>
+    <t xml:space="preserve">2.90233373641968</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.88101935386658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.97515892982483</t>
   </si>
   <si>
     <t xml:space="preserve">2.94496321678162</t>
   </si>
   <si>
-    <t xml:space="preserve">2.86325740814209</t>
+    <t xml:space="preserve">2.86325716972351</t>
   </si>
   <si>
     <t xml:space="preserve">2.84194278717041</t>
   </si>
   <si>
-    <t xml:space="preserve">2.84371900558472</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.82950949668884</t>
+    <t xml:space="preserve">2.84371876716614</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.82950925827026</t>
   </si>
   <si>
     <t xml:space="preserve">2.9129912853241</t>
   </si>
   <si>
-    <t xml:space="preserve">2.80997109413147</t>
+    <t xml:space="preserve">2.80997085571289</t>
   </si>
   <si>
     <t xml:space="preserve">2.8650336265564</t>
@@ -2585,22 +2585,22 @@
     <t xml:space="preserve">2.85615253448486</t>
   </si>
   <si>
-    <t xml:space="preserve">2.90055799484253</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.88279581069946</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.89878153800964</t>
+    <t xml:space="preserve">2.90055775642395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.88279557228088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.89878129959106</t>
   </si>
   <si>
     <t xml:space="preserve">2.91831994056702</t>
   </si>
   <si>
-    <t xml:space="preserve">2.93430590629578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.85259985923767</t>
+    <t xml:space="preserve">2.9343056678772</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.85260009765625</t>
   </si>
   <si>
     <t xml:space="preserve">2.8383903503418</t>
@@ -2609,49 +2609,49 @@
     <t xml:space="preserve">2.82062840461731</t>
   </si>
   <si>
-    <t xml:space="preserve">2.86148118972778</t>
+    <t xml:space="preserve">2.8614809513092</t>
   </si>
   <si>
     <t xml:space="preserve">2.84549522399902</t>
   </si>
   <si>
-    <t xml:space="preserve">2.75846076011658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.76734185218811</t>
+    <t xml:space="preserve">2.758460521698</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.76734161376953</t>
   </si>
   <si>
     <t xml:space="preserve">2.75313186645508</t>
   </si>
   <si>
-    <t xml:space="preserve">2.71938395500183</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.72648906707764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.70695066452026</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.67497873306274</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.61991596221924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.64300656318665</t>
+    <t xml:space="preserve">2.71938419342041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.72648882865906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.70695042610168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.67497897148132</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.61991620063782</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.64300680160522</t>
   </si>
   <si>
     <t xml:space="preserve">2.55241990089417</t>
   </si>
   <si>
-    <t xml:space="preserve">2.57906293869019</t>
+    <t xml:space="preserve">2.57906317710876</t>
   </si>
   <si>
     <t xml:space="preserve">2.6092586517334</t>
   </si>
   <si>
-    <t xml:space="preserve">2.66432118415833</t>
+    <t xml:space="preserve">2.6643214225769</t>
   </si>
   <si>
     <t xml:space="preserve">2.59149646759033</t>
@@ -2678,7 +2678,7 @@
     <t xml:space="preserve">2.39788913726807</t>
   </si>
   <si>
-    <t xml:space="preserve">2.41920351982117</t>
+    <t xml:space="preserve">2.41920375823975</t>
   </si>
   <si>
     <t xml:space="preserve">2.43874216079712</t>
@@ -2702,7 +2702,7 @@
     <t xml:space="preserve">2.65011167526245</t>
   </si>
   <si>
-    <t xml:space="preserve">2.69629311561584</t>
+    <t xml:space="preserve">2.69629335403442</t>
   </si>
   <si>
     <t xml:space="preserve">2.68208336830139</t>
@@ -2711,13 +2711,13 @@
     <t xml:space="preserve">2.77089405059814</t>
   </si>
   <si>
-    <t xml:space="preserve">2.71405506134033</t>
+    <t xml:space="preserve">2.71405529975891</t>
   </si>
   <si>
     <t xml:space="preserve">2.69984555244446</t>
   </si>
   <si>
-    <t xml:space="preserve">2.70872688293457</t>
+    <t xml:space="preserve">2.70872664451599</t>
   </si>
   <si>
     <t xml:space="preserve">2.6838595867157</t>
@@ -2726,10 +2726,10 @@
     <t xml:space="preserve">2.67853093147278</t>
   </si>
   <si>
-    <t xml:space="preserve">2.72826528549194</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.74247479438782</t>
+    <t xml:space="preserve">2.72826504707336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.74247455596924</t>
   </si>
   <si>
     <t xml:space="preserve">2.71760773658752</t>
@@ -2744,7 +2744,7 @@
     <t xml:space="preserve">2.66965007781982</t>
   </si>
   <si>
-    <t xml:space="preserve">2.64478278160095</t>
+    <t xml:space="preserve">2.64478302001953</t>
   </si>
   <si>
     <t xml:space="preserve">2.62879705429077</t>
@@ -2753,7 +2753,7 @@
     <t xml:space="preserve">2.61281085014343</t>
   </si>
   <si>
-    <t xml:space="preserve">2.58439183235168</t>
+    <t xml:space="preserve">2.58439207077026</t>
   </si>
   <si>
     <t xml:space="preserve">2.55774855613708</t>
@@ -2762,7 +2762,7 @@
     <t xml:space="preserve">2.58972024917603</t>
   </si>
   <si>
-    <t xml:space="preserve">2.55952453613281</t>
+    <t xml:space="preserve">2.55952477455139</t>
   </si>
   <si>
     <t xml:space="preserve">2.60037755966187</t>
@@ -2771,16 +2771,16 @@
     <t xml:space="preserve">2.65188789367676</t>
   </si>
   <si>
-    <t xml:space="preserve">2.53110504150391</t>
+    <t xml:space="preserve">2.53110527992249</t>
   </si>
   <si>
     <t xml:space="preserve">2.5826153755188</t>
   </si>
   <si>
-    <t xml:space="preserve">2.65366387367249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.66076874732971</t>
+    <t xml:space="preserve">2.65366363525391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.66076898574829</t>
   </si>
   <si>
     <t xml:space="preserve">2.64655923843384</t>
@@ -2792,13 +2792,13 @@
     <t xml:space="preserve">2.64123058319092</t>
   </si>
   <si>
-    <t xml:space="preserve">2.69451665878296</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.6891884803772</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.80641841888428</t>
+    <t xml:space="preserve">2.69451713562012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.68918824195862</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.80641865730286</t>
   </si>
   <si>
     <t xml:space="preserve">2.74957966804504</t>
@@ -2807,13 +2807,13 @@
     <t xml:space="preserve">2.57551074028015</t>
   </si>
   <si>
-    <t xml:space="preserve">2.52755284309387</t>
+    <t xml:space="preserve">2.52755260467529</t>
   </si>
   <si>
     <t xml:space="preserve">2.55064368247986</t>
   </si>
   <si>
-    <t xml:space="preserve">2.56130075454712</t>
+    <t xml:space="preserve">2.5613009929657</t>
   </si>
   <si>
     <t xml:space="preserve">2.52044796943665</t>
@@ -2822,40 +2822,40 @@
     <t xml:space="preserve">2.67142605781555</t>
   </si>
   <si>
-    <t xml:space="preserve">2.69806957244873</t>
+    <t xml:space="preserve">2.69806933403015</t>
   </si>
   <si>
     <t xml:space="preserve">2.76201319694519</t>
   </si>
   <si>
-    <t xml:space="preserve">2.71583151817322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.73004102706909</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.76378917694092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.80108976364136</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.75490808486938</t>
+    <t xml:space="preserve">2.7158317565918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.73004126548767</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.7637894153595</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.80109000205994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.75490832328796</t>
   </si>
   <si>
     <t xml:space="preserve">2.74425101280212</t>
   </si>
   <si>
-    <t xml:space="preserve">2.7318172454834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.6305730342865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.59860157966614</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.73536968231201</t>
+    <t xml:space="preserve">2.73181748390198</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.63057327270508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.59860134124756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.73536992073059</t>
   </si>
   <si>
     <t xml:space="preserve">2.77267026901245</t>
@@ -2864,7 +2864,7 @@
     <t xml:space="preserve">2.77977561950684</t>
   </si>
   <si>
-    <t xml:space="preserve">2.81707549095154</t>
+    <t xml:space="preserve">2.81707572937012</t>
   </si>
   <si>
     <t xml:space="preserve">2.93785834312439</t>
@@ -2873,37 +2873,37 @@
     <t xml:space="preserve">2.9014458656311</t>
   </si>
   <si>
-    <t xml:space="preserve">2.95206809043884</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.92986512184143</t>
+    <t xml:space="preserve">2.95206785202026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.92986559867859</t>
   </si>
   <si>
     <t xml:space="preserve">2.91654372215271</t>
   </si>
   <si>
-    <t xml:space="preserve">2.93341779708862</t>
+    <t xml:space="preserve">2.93341755867004</t>
   </si>
   <si>
     <t xml:space="preserve">2.95562052726746</t>
   </si>
   <si>
-    <t xml:space="preserve">2.99558520317078</t>
+    <t xml:space="preserve">2.99558544158936</t>
   </si>
   <si>
     <t xml:space="preserve">2.98670411109924</t>
   </si>
   <si>
-    <t xml:space="preserve">2.9795994758606</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.98048734664917</t>
+    <t xml:space="preserve">2.97959923744202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.98048758506775</t>
   </si>
   <si>
     <t xml:space="preserve">2.9813756942749</t>
   </si>
   <si>
-    <t xml:space="preserve">2.97071814537048</t>
+    <t xml:space="preserve">2.97071838378906</t>
   </si>
   <si>
     <t xml:space="preserve">3.02222847938538</t>
@@ -2918,7 +2918,7 @@
     <t xml:space="preserve">3.02578091621399</t>
   </si>
   <si>
-    <t xml:space="preserve">3.07018613815308</t>
+    <t xml:space="preserve">3.07018637657166</t>
   </si>
   <si>
     <t xml:space="preserve">2.99736166000366</t>
@@ -2927,28 +2927,28 @@
     <t xml:space="preserve">2.99913763999939</t>
   </si>
   <si>
-    <t xml:space="preserve">2.99025654792786</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.09682965278625</t>
+    <t xml:space="preserve">2.99025678634644</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.09682941436768</t>
   </si>
   <si>
     <t xml:space="preserve">3.06396961212158</t>
   </si>
   <si>
-    <t xml:space="preserve">3.05331230163574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.09416532516479</t>
+    <t xml:space="preserve">3.05331206321716</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.09416508674622</t>
   </si>
   <si>
     <t xml:space="preserve">3.11370348930359</t>
   </si>
   <si>
-    <t xml:space="preserve">3.11903214454651</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.1234724521637</t>
+    <t xml:space="preserve">3.11903238296509</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.12347269058228</t>
   </si>
   <si>
     <t xml:space="preserve">3.11814403533936</t>
@@ -2960,31 +2960,31 @@
     <t xml:space="preserve">3.09505319595337</t>
   </si>
   <si>
-    <t xml:space="preserve">3.10038185119629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.09771752357483</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.10926294326782</t>
+    <t xml:space="preserve">3.10038208961487</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.09771728515625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.10926270484924</t>
   </si>
   <si>
     <t xml:space="preserve">3.13413000106812</t>
   </si>
   <si>
-    <t xml:space="preserve">3.17231845855713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.20073795318604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.21494770050049</t>
+    <t xml:space="preserve">3.17231869697571</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.20073819160461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.21494746208191</t>
   </si>
   <si>
     <t xml:space="preserve">3.27267456054688</t>
   </si>
   <si>
-    <t xml:space="preserve">3.2504723072052</t>
+    <t xml:space="preserve">3.25047206878662</t>
   </si>
   <si>
     <t xml:space="preserve">3.25402426719666</t>
@@ -2996,10 +2996,10 @@
     <t xml:space="preserve">3.26468181610107</t>
   </si>
   <si>
-    <t xml:space="preserve">3.29487729072571</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.26823449134827</t>
+    <t xml:space="preserve">3.29487752914429</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.26823425292969</t>
   </si>
   <si>
     <t xml:space="preserve">3.25313639640808</t>
@@ -3008,7 +3008,7 @@
     <t xml:space="preserve">3.23359799385071</t>
   </si>
   <si>
-    <t xml:space="preserve">3.19984984397888</t>
+    <t xml:space="preserve">3.1998496055603</t>
   </si>
   <si>
     <t xml:space="preserve">3.13945865631104</t>
@@ -3017,19 +3017,19 @@
     <t xml:space="preserve">3.16254949569702</t>
   </si>
   <si>
-    <t xml:space="preserve">3.13235378265381</t>
+    <t xml:space="preserve">3.13235354423523</t>
   </si>
   <si>
     <t xml:space="preserve">3.12702512741089</t>
   </si>
   <si>
-    <t xml:space="preserve">3.12791347503662</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.10126996040344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.13146543502808</t>
+    <t xml:space="preserve">3.12791323661804</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.10127019882202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.13146567344666</t>
   </si>
   <si>
     <t xml:space="preserve">3.14704966545105</t>
@@ -3044,7 +3044,7 @@
     <t xml:space="preserve">3.10029768943787</t>
   </si>
   <si>
-    <t xml:space="preserve">3.09846425056458</t>
+    <t xml:space="preserve">3.09846448898315</t>
   </si>
   <si>
     <t xml:space="preserve">3.1718008518219</t>
@@ -3065,13 +3065,13 @@
     <t xml:space="preserve">3.07463002204895</t>
   </si>
   <si>
-    <t xml:space="preserve">3.08379721641541</t>
+    <t xml:space="preserve">3.08379697799683</t>
   </si>
   <si>
     <t xml:space="preserve">3.18830132484436</t>
   </si>
   <si>
-    <t xml:space="preserve">3.24513721466064</t>
+    <t xml:space="preserve">3.24513697624207</t>
   </si>
   <si>
     <t xml:space="preserve">3.22130274772644</t>
@@ -3086,7 +3086,7 @@
     <t xml:space="preserve">3.31480669975281</t>
   </si>
   <si>
-    <t xml:space="preserve">3.28913927078247</t>
+    <t xml:space="preserve">3.28913903236389</t>
   </si>
   <si>
     <t xml:space="preserve">3.29372262954712</t>
@@ -3095,7 +3095,7 @@
     <t xml:space="preserve">3.26988816261292</t>
   </si>
   <si>
-    <t xml:space="preserve">3.25613784790039</t>
+    <t xml:space="preserve">3.25613760948181</t>
   </si>
   <si>
     <t xml:space="preserve">3.24697065353394</t>
@@ -3107,7 +3107,7 @@
     <t xml:space="preserve">3.29555606842041</t>
   </si>
   <si>
-    <t xml:space="preserve">3.28363871574402</t>
+    <t xml:space="preserve">3.2836389541626</t>
   </si>
   <si>
     <t xml:space="preserve">3.33772444725037</t>
@@ -3116,10 +3116,10 @@
     <t xml:space="preserve">3.35055828094482</t>
   </si>
   <si>
-    <t xml:space="preserve">3.38722634315491</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.4028103351593</t>
+    <t xml:space="preserve">3.38722658157349</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.40281057357788</t>
   </si>
   <si>
     <t xml:space="preserve">3.41472768783569</t>
@@ -3134,10 +3134,10 @@
     <t xml:space="preserve">3.44589567184448</t>
   </si>
   <si>
-    <t xml:space="preserve">3.44772911071777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.42572832107544</t>
+    <t xml:space="preserve">3.44772887229919</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.42572808265686</t>
   </si>
   <si>
     <t xml:space="preserve">3.3853931427002</t>
@@ -3164,7 +3164,7 @@
     <t xml:space="preserve">3.36430883407593</t>
   </si>
   <si>
-    <t xml:space="preserve">3.38080954551697</t>
+    <t xml:space="preserve">3.38080930709839</t>
   </si>
   <si>
     <t xml:space="preserve">3.33314085006714</t>
@@ -3179,58 +3179,58 @@
     <t xml:space="preserve">3.35239171981812</t>
   </si>
   <si>
-    <t xml:space="preserve">3.29922270774841</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.3358907699585</t>
+    <t xml:space="preserve">3.29922294616699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.33589100837708</t>
   </si>
   <si>
     <t xml:space="preserve">3.29005575180054</t>
   </si>
   <si>
-    <t xml:space="preserve">3.33864116668701</t>
+    <t xml:space="preserve">3.33864092826843</t>
   </si>
   <si>
     <t xml:space="preserve">3.33497428894043</t>
   </si>
   <si>
-    <t xml:space="preserve">3.34505796432495</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.27080512046814</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.21763586997986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.26072120666504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.24147033691406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.240553855896</t>
+    <t xml:space="preserve">3.34505820274353</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.27080488204956</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.21763610839844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.26072096824646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.24147057533264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.24055361747742</t>
   </si>
   <si>
     <t xml:space="preserve">3.24330377578735</t>
   </si>
   <si>
-    <t xml:space="preserve">3.24972057342529</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.20296883583069</t>
+    <t xml:space="preserve">3.24972081184387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.20296859741211</t>
   </si>
   <si>
     <t xml:space="preserve">3.22955322265625</t>
   </si>
   <si>
-    <t xml:space="preserve">3.14888286590576</t>
+    <t xml:space="preserve">3.14888310432434</t>
   </si>
   <si>
     <t xml:space="preserve">3.11313152313232</t>
   </si>
   <si>
-    <t xml:space="preserve">3.14979982376099</t>
+    <t xml:space="preserve">3.14980006217957</t>
   </si>
   <si>
     <t xml:space="preserve">3.18646812438965</t>
@@ -3242,19 +3242,19 @@
     <t xml:space="preserve">3.19471836090088</t>
   </si>
   <si>
-    <t xml:space="preserve">3.16355037689209</t>
+    <t xml:space="preserve">3.16355013847351</t>
   </si>
   <si>
     <t xml:space="preserve">3.18463468551636</t>
   </si>
   <si>
-    <t xml:space="preserve">3.247887134552</t>
+    <t xml:space="preserve">3.24788737297058</t>
   </si>
   <si>
     <t xml:space="preserve">3.28180527687073</t>
   </si>
   <si>
-    <t xml:space="preserve">3.29830598831177</t>
+    <t xml:space="preserve">3.29830622673035</t>
   </si>
   <si>
     <t xml:space="preserve">3.26438808441162</t>
@@ -3272,34 +3272,34 @@
     <t xml:space="preserve">3.23963689804077</t>
   </si>
   <si>
-    <t xml:space="preserve">3.28272199630737</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.36705899238586</t>
+    <t xml:space="preserve">3.28272223472595</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.36705923080444</t>
   </si>
   <si>
     <t xml:space="preserve">3.34597492218018</t>
   </si>
   <si>
-    <t xml:space="preserve">3.30655670166016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.2634711265564</t>
+    <t xml:space="preserve">3.30655646324158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.26347136497498</t>
   </si>
   <si>
     <t xml:space="preserve">3.30747318267822</t>
   </si>
   <si>
-    <t xml:space="preserve">3.3203067779541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.32397389411926</t>
+    <t xml:space="preserve">3.32030701637268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.32397365570068</t>
   </si>
   <si>
     <t xml:space="preserve">3.27997207641602</t>
   </si>
   <si>
-    <t xml:space="preserve">3.27722191810608</t>
+    <t xml:space="preserve">3.2772216796875</t>
   </si>
   <si>
     <t xml:space="preserve">3.24605369567871</t>
@@ -3311,7 +3311,7 @@
     <t xml:space="preserve">3.10488128662109</t>
   </si>
   <si>
-    <t xml:space="preserve">3.12138199806213</t>
+    <t xml:space="preserve">3.12138175964355</t>
   </si>
   <si>
     <t xml:space="preserve">3.19930171966553</t>
@@ -3323,7 +3323,7 @@
     <t xml:space="preserve">3.27263832092285</t>
   </si>
   <si>
-    <t xml:space="preserve">3.22588634490967</t>
+    <t xml:space="preserve">3.22588658332825</t>
   </si>
   <si>
     <t xml:space="preserve">3.25430417060852</t>
@@ -3335,7 +3335,7 @@
     <t xml:space="preserve">3.24880385398865</t>
   </si>
   <si>
-    <t xml:space="preserve">3.27172183990479</t>
+    <t xml:space="preserve">3.27172160148621</t>
   </si>
   <si>
     <t xml:space="preserve">3.29463934898376</t>
@@ -3347,13 +3347,13 @@
     <t xml:space="preserve">3.3111400604248</t>
   </si>
   <si>
-    <t xml:space="preserve">3.37164235115051</t>
+    <t xml:space="preserve">3.37164258956909</t>
   </si>
   <si>
     <t xml:space="preserve">3.3560585975647</t>
   </si>
   <si>
-    <t xml:space="preserve">3.39731025695801</t>
+    <t xml:space="preserve">3.39731049537659</t>
   </si>
   <si>
     <t xml:space="preserve">3.36614227294922</t>
@@ -3368,13 +3368,13 @@
     <t xml:space="preserve">3.25980448722839</t>
   </si>
   <si>
-    <t xml:space="preserve">3.23872041702271</t>
+    <t xml:space="preserve">3.23872017860413</t>
   </si>
   <si>
     <t xml:space="preserve">3.21396923065186</t>
   </si>
   <si>
-    <t xml:space="preserve">3.22496962547302</t>
+    <t xml:space="preserve">3.22496938705444</t>
   </si>
   <si>
     <t xml:space="preserve">3.19013500213623</t>
@@ -3386,7 +3386,7 @@
     <t xml:space="preserve">3.1562168598175</t>
   </si>
   <si>
-    <t xml:space="preserve">3.21671915054321</t>
+    <t xml:space="preserve">3.21671938896179</t>
   </si>
   <si>
     <t xml:space="preserve">3.32764077186584</t>
@@ -3395,7 +3395,7 @@
     <t xml:space="preserve">3.40556049346924</t>
   </si>
   <si>
-    <t xml:space="preserve">3.38997673988342</t>
+    <t xml:space="preserve">3.38997650146484</t>
   </si>
   <si>
     <t xml:space="preserve">3.32122373580933</t>
@@ -3407,16 +3407,16 @@
     <t xml:space="preserve">3.11588168144226</t>
   </si>
   <si>
-    <t xml:space="preserve">3.15713357925415</t>
+    <t xml:space="preserve">3.15713334083557</t>
   </si>
   <si>
     <t xml:space="preserve">3.17821764945984</t>
   </si>
   <si>
-    <t xml:space="preserve">3.16446685791016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.09388065338135</t>
+    <t xml:space="preserve">3.16446709632874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.09388089179993</t>
   </si>
   <si>
     <t xml:space="preserve">3.12321543693542</t>
@@ -3425,7 +3425,7 @@
     <t xml:space="preserve">3.10763144493103</t>
   </si>
   <si>
-    <t xml:space="preserve">3.0755467414856</t>
+    <t xml:space="preserve">3.07554650306702</t>
   </si>
   <si>
     <t xml:space="preserve">3.07004642486572</t>
@@ -3434,7 +3434,7 @@
     <t xml:space="preserve">3.02604460716248</t>
   </si>
   <si>
-    <t xml:space="preserve">3.03796172142029</t>
+    <t xml:space="preserve">3.03796148300171</t>
   </si>
   <si>
     <t xml:space="preserve">3.05537915229797</t>
@@ -3449,10 +3449,10 @@
     <t xml:space="preserve">3.0636293888092</t>
   </si>
   <si>
-    <t xml:space="preserve">3.01779437065125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.98845958709717</t>
+    <t xml:space="preserve">3.01779413223267</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.98845982551575</t>
   </si>
   <si>
     <t xml:space="preserve">2.91970658302307</t>
@@ -3464,7 +3464,7 @@
     <t xml:space="preserve">3.00129342079163</t>
   </si>
   <si>
-    <t xml:space="preserve">3.11221480369568</t>
+    <t xml:space="preserve">3.11221504211426</t>
   </si>
   <si>
     <t xml:space="preserve">3.09754753112793</t>
@@ -3482,13 +3482,13 @@
     <t xml:space="preserve">3.08746385574341</t>
   </si>
   <si>
-    <t xml:space="preserve">3.12779879570007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.01596093177795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.98204278945923</t>
+    <t xml:space="preserve">3.12779903411865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.01596069335938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.98204255104065</t>
   </si>
   <si>
     <t xml:space="preserve">3.04437875747681</t>
@@ -3518,10 +3518,10 @@
     <t xml:space="preserve">3.25063729286194</t>
   </si>
   <si>
-    <t xml:space="preserve">3.29280591011047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.30838990211487</t>
+    <t xml:space="preserve">3.29280567169189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.30838966369629</t>
   </si>
   <si>
     <t xml:space="preserve">3.26255464553833</t>
@@ -3530,7 +3530,7 @@
     <t xml:space="preserve">3.29738926887512</t>
   </si>
   <si>
-    <t xml:space="preserve">3.21580243110657</t>
+    <t xml:space="preserve">3.21580266952515</t>
   </si>
   <si>
     <t xml:space="preserve">3.22771978378296</t>
@@ -3542,13 +3542,13 @@
     <t xml:space="preserve">3.23046970367432</t>
   </si>
   <si>
-    <t xml:space="preserve">3.31388998031616</t>
+    <t xml:space="preserve">3.31389021873474</t>
   </si>
   <si>
     <t xml:space="preserve">3.07371306419373</t>
   </si>
   <si>
-    <t xml:space="preserve">3.0993812084198</t>
+    <t xml:space="preserve">3.09938097000122</t>
   </si>
   <si>
     <t xml:space="preserve">3.16905069351196</t>
@@ -3560,7 +3560,7 @@
     <t xml:space="preserve">3.28638887405396</t>
   </si>
   <si>
-    <t xml:space="preserve">3.23230314254761</t>
+    <t xml:space="preserve">3.23230338096619</t>
   </si>
   <si>
     <t xml:space="preserve">3.20846891403198</t>
@@ -3569,7 +3569,7 @@
     <t xml:space="preserve">3.12688207626343</t>
   </si>
   <si>
-    <t xml:space="preserve">3.10121440887451</t>
+    <t xml:space="preserve">3.10121417045593</t>
   </si>
   <si>
     <t xml:space="preserve">3.05904579162598</t>
@@ -3578,13 +3578,13 @@
     <t xml:space="preserve">3.09571409225464</t>
   </si>
   <si>
-    <t xml:space="preserve">3.06912994384766</t>
+    <t xml:space="preserve">3.06912970542908</t>
   </si>
   <si>
     <t xml:space="preserve">3.07096314430237</t>
   </si>
   <si>
-    <t xml:space="preserve">2.94995808601379</t>
+    <t xml:space="preserve">2.94995784759521</t>
   </si>
   <si>
     <t xml:space="preserve">2.73819899559021</t>
@@ -3596,7 +3596,7 @@
     <t xml:space="preserve">2.54935765266418</t>
   </si>
   <si>
-    <t xml:space="preserve">2.65936255455017</t>
+    <t xml:space="preserve">2.65936231613159</t>
   </si>
   <si>
     <t xml:space="preserve">2.58419251441956</t>
@@ -4833,6 +4833,9 @@
   </si>
   <si>
     <t xml:space="preserve">3.40599989891052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.24600005149841</t>
   </si>
 </sst>
 </file>
@@ -61100,7 +61103,7 @@
     </row>
     <row r="2152">
       <c r="A2152" s="1" t="n">
-        <v>45457.649525463</v>
+        <v>45457.2916666667</v>
       </c>
       <c r="B2152" t="n">
         <v>3750063</v>
@@ -61121,6 +61124,32 @@
         <v>1575</v>
       </c>
       <c r="H2152" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2153">
+      <c r="A2153" s="1" t="n">
+        <v>45460.6495486111</v>
+      </c>
+      <c r="B2153" t="n">
+        <v>2321874</v>
+      </c>
+      <c r="C2153" t="n">
+        <v>3.30599999427795</v>
+      </c>
+      <c r="D2153" t="n">
+        <v>3.22199988365173</v>
+      </c>
+      <c r="E2153" t="n">
+        <v>3.28999996185303</v>
+      </c>
+      <c r="F2153" t="n">
+        <v>3.24600005149841</v>
+      </c>
+      <c r="G2153" t="s">
+        <v>1607</v>
+      </c>
+      <c r="H2153" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/HER.MI.xlsx
+++ b/data/HER.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1620" uniqueCount="1620">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1621" uniqueCount="1621">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,7 +38,7 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">1.77115511894226</t>
+    <t xml:space="preserve">1.77115499973297</t>
   </si>
   <si>
     <t xml:space="preserve">HER.MI</t>
@@ -50,169 +50,169 @@
     <t xml:space="preserve">1.76970565319061</t>
   </si>
   <si>
-    <t xml:space="preserve">1.7740535736084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75086343288422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78999733924866</t>
+    <t xml:space="preserve">1.77405381202698</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75086331367493</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78999722003937</t>
   </si>
   <si>
     <t xml:space="preserve">1.85811817646027</t>
   </si>
   <si>
-    <t xml:space="preserve">1.86101710796356</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83637750148773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81173825263977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76680672168732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83927619457245</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81463646888733</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83202958106995</t>
+    <t xml:space="preserve">1.86101698875427</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83637762069702</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8117378950119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7668069601059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83927643299103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81463658809662</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83202934265137</t>
   </si>
   <si>
     <t xml:space="preserve">1.87261247634888</t>
   </si>
   <si>
-    <t xml:space="preserve">1.85666882991791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87116324901581</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90304934978485</t>
+    <t xml:space="preserve">1.85666930675507</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87116301059723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90304958820343</t>
   </si>
   <si>
     <t xml:space="preserve">1.88420724868774</t>
   </si>
   <si>
-    <t xml:space="preserve">1.86971342563629</t>
+    <t xml:space="preserve">1.86971366405487</t>
   </si>
   <si>
     <t xml:space="preserve">1.91754341125488</t>
   </si>
   <si>
-    <t xml:space="preserve">1.92479026317596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90884721279144</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89145410060883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89725196361542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79289615154266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80594027042389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82478249073029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76245880126953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82043421268463</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8624666929245</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84942209720612</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84217524528503</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86536538600922</t>
+    <t xml:space="preserve">1.92479038238525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90884709358215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89145445823669</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89725184440613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79289603233337</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80594074726105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82478213310242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76245844364166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82043445110321</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86246657371521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84942197799683</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84217512607574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86536502838135</t>
   </si>
   <si>
     <t xml:space="preserve">1.86826431751251</t>
   </si>
   <si>
-    <t xml:space="preserve">1.88855540752411</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89870131015778</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85521936416626</t>
+    <t xml:space="preserve">1.88855576515198</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8987010717392</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85521972179413</t>
   </si>
   <si>
     <t xml:space="preserve">1.83058023452759</t>
   </si>
   <si>
-    <t xml:space="preserve">1.81028854846954</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80449104309082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79434514045715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80883920192719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79724407196045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82913041114807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84507393836975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82623171806335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84072554111481</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86391603946686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90594828128815</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87840986251831</t>
+    <t xml:space="preserve">1.81028866767883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80449116230011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79434525966644</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80883896350861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79724395275116</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82913053035736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84507417678833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82623183727264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84072542190552</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86391592025757</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90594851970673</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87840950489044</t>
   </si>
   <si>
     <t xml:space="preserve">1.92623972892761</t>
   </si>
   <si>
-    <t xml:space="preserve">1.91174614429474</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8334789276123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84797239303589</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85376989841461</t>
+    <t xml:space="preserve">1.91174554824829</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83347856998444</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84797263145447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85377061367035</t>
   </si>
   <si>
     <t xml:space="preserve">1.84362459182739</t>
   </si>
   <si>
-    <t xml:space="preserve">1.84652328491211</t>
+    <t xml:space="preserve">1.84652364253998</t>
   </si>
   <si>
     <t xml:space="preserve">1.8755110502243</t>
@@ -221,61 +221,61 @@
     <t xml:space="preserve">1.87696039676666</t>
   </si>
   <si>
-    <t xml:space="preserve">1.85956752300262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8508712053299</t>
+    <t xml:space="preserve">1.8595677614212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85087144374847</t>
   </si>
   <si>
     <t xml:space="preserve">1.82188367843628</t>
   </si>
   <si>
-    <t xml:space="preserve">1.81318747997284</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8943532705307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91464471817017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90015065670013</t>
+    <t xml:space="preserve">1.81318736076355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89435315132141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91464447975159</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.900151014328</t>
   </si>
   <si>
     <t xml:space="preserve">1.91319537162781</t>
   </si>
   <si>
-    <t xml:space="preserve">1.89000487327576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90160000324249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89290380477905</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88130855560303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82768130302429</t>
+    <t xml:space="preserve">1.89000535011292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90160024166107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89290404319763</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88130843639374</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.827681183815</t>
   </si>
   <si>
     <t xml:space="preserve">1.7957946062088</t>
   </si>
   <si>
-    <t xml:space="preserve">1.80738949775696</t>
+    <t xml:space="preserve">1.80738973617554</t>
   </si>
   <si>
     <t xml:space="preserve">1.77550327777863</t>
   </si>
   <si>
-    <t xml:space="preserve">1.82295882701874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83949017524719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80492472648621</t>
+    <t xml:space="preserve">1.82295894622803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8394900560379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8049248456955</t>
   </si>
   <si>
     <t xml:space="preserve">1.82446157932281</t>
@@ -284,223 +284,226 @@
     <t xml:space="preserve">1.76735329627991</t>
   </si>
   <si>
-    <t xml:space="preserve">1.73579347133636</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.77336478233337</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80342197418213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84700441360474</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90260982513428</t>
+    <t xml:space="preserve">1.73579335212708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77336442470551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80342173576355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84700429439545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90260994434357</t>
   </si>
   <si>
     <t xml:space="preserve">1.87555861473083</t>
   </si>
   <si>
-    <t xml:space="preserve">1.87856447696686</t>
+    <t xml:space="preserve">1.87856435775757</t>
   </si>
   <si>
     <t xml:space="preserve">1.85151302814484</t>
   </si>
   <si>
-    <t xml:space="preserve">1.84550166130066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79139876365662</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82596468925476</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81093621253967</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83648443222046</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83197581768036</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82746744155884</t>
+    <t xml:space="preserve">1.84550154209137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79139912128448</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82596457004547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81093597412109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83648455142975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83197605609894</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82746732234955</t>
   </si>
   <si>
     <t xml:space="preserve">1.83498167991638</t>
   </si>
   <si>
-    <t xml:space="preserve">1.84099304676056</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85001027584076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9056156873703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92665576934814</t>
+    <t xml:space="preserve">1.84099316596985</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85001015663147</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90561544895172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92665553092957</t>
   </si>
   <si>
     <t xml:space="preserve">1.91914141178131</t>
   </si>
   <si>
-    <t xml:space="preserve">1.90411269664764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93567276000977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89960443973541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91313028335571</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86353600025177</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88758146762848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88006734848022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81394159793854</t>
+    <t xml:space="preserve">1.90411293506622</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93567299842834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89960396289825</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91313004493713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8635356426239</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88758170604706</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88006711006165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81394171714783</t>
   </si>
   <si>
     <t xml:space="preserve">1.80943310260773</t>
   </si>
   <si>
+    <t xml:space="preserve">1.83347880840302</t>
+  </si>
+  <si>
     <t xml:space="preserve">1.84249603748322</t>
   </si>
   <si>
     <t xml:space="preserve">1.85752403736115</t>
   </si>
   <si>
-    <t xml:space="preserve">1.86654126644135</t>
+    <t xml:space="preserve">1.86654138565063</t>
   </si>
   <si>
     <t xml:space="preserve">1.85301601886749</t>
   </si>
   <si>
-    <t xml:space="preserve">1.85602188110352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88307297229767</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82145607471466</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80041587352753</t>
+    <t xml:space="preserve">1.85602152347565</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8830726146698</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82145595550537</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80041611194611</t>
   </si>
   <si>
     <t xml:space="preserve">1.77035915851593</t>
   </si>
   <si>
-    <t xml:space="preserve">1.80191886425018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81995320320129</t>
+    <t xml:space="preserve">1.80191898345947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81995296478271</t>
   </si>
   <si>
     <t xml:space="preserve">1.77486753463745</t>
   </si>
   <si>
-    <t xml:space="preserve">1.77186179161072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76585030555725</t>
+    <t xml:space="preserve">1.7718620300293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76585054397583</t>
   </si>
   <si>
     <t xml:space="preserve">1.75533044338226</t>
   </si>
   <si>
-    <t xml:space="preserve">1.78087890148163</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75983929634094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69221079349518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.66515958309174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65163362026215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.638108253479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.66065084934235</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.66966795921326</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.67417657375336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.68169057369232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69371342658997</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.67868506908417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69972491264343</t>
+    <t xml:space="preserve">1.78087866306305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75983905792236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69221067428589</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.66515946388245</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65163373947144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.63810813426971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.66065096855164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.66966807842255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.67417645454407</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6816908121109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69371330738068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.67868494987488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69972515106201</t>
   </si>
   <si>
     <t xml:space="preserve">1.69822216033936</t>
   </si>
   <si>
-    <t xml:space="preserve">1.71174800395966</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.68319356441498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.67567944526672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.67718231678009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.68619930744171</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.72377014160156</t>
+    <t xml:space="preserve">1.71174788475037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.68319368362427</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.67567920684814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6771821975708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.686199426651</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.72377073764801</t>
   </si>
   <si>
     <t xml:space="preserve">1.73128485679626</t>
   </si>
   <si>
-    <t xml:space="preserve">1.75082159042358</t>
+    <t xml:space="preserve">1.75082218647003</t>
   </si>
   <si>
     <t xml:space="preserve">1.6531366109848</t>
   </si>
   <si>
-    <t xml:space="preserve">1.62458229064941</t>
+    <t xml:space="preserve">1.62458252906799</t>
   </si>
   <si>
     <t xml:space="preserve">1.62157666683197</t>
   </si>
   <si>
-    <t xml:space="preserve">1.60053682327271</t>
+    <t xml:space="preserve">1.60053694248199</t>
   </si>
   <si>
     <t xml:space="preserve">1.5148743391037</t>
   </si>
   <si>
-    <t xml:space="preserve">1.51788020133972</t>
+    <t xml:space="preserve">1.51787996292114</t>
   </si>
   <si>
     <t xml:space="preserve">1.49984574317932</t>
@@ -518,52 +521,52 @@
     <t xml:space="preserve">1.47504866123199</t>
   </si>
   <si>
-    <t xml:space="preserve">1.44799733161926</t>
+    <t xml:space="preserve">1.44799745082855</t>
   </si>
   <si>
     <t xml:space="preserve">1.44649457931519</t>
   </si>
   <si>
-    <t xml:space="preserve">1.46152317523956</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.46528017520905</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.45025157928467</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.45400893688202</t>
+    <t xml:space="preserve">1.46152305603027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.46528029441833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.45025146007538</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.45400881767273</t>
   </si>
   <si>
     <t xml:space="preserve">1.45776605606079</t>
   </si>
   <si>
-    <t xml:space="preserve">1.46903717517853</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.43296885490417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.40967488288879</t>
+    <t xml:space="preserve">1.46903729438782</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.43296873569489</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.40967464447021</t>
   </si>
   <si>
     <t xml:space="preserve">1.42846035957336</t>
   </si>
   <si>
-    <t xml:space="preserve">1.49233138561249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53591418266296</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54793679714203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54042279720306</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59001684188843</t>
+    <t xml:space="preserve">1.49233150482178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53591394424438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5479371547699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54042267799377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59001696109772</t>
   </si>
   <si>
     <t xml:space="preserve">1.58400547504425</t>
@@ -572,22 +575,22 @@
     <t xml:space="preserve">1.55695414543152</t>
   </si>
   <si>
-    <t xml:space="preserve">1.5629655122757</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60654842853546</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.61556529998779</t>
+    <t xml:space="preserve">1.56296527385712</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60654830932617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.61556553840637</t>
   </si>
   <si>
     <t xml:space="preserve">1.6290910243988</t>
   </si>
   <si>
-    <t xml:space="preserve">1.65013074874878</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.62758803367615</t>
+    <t xml:space="preserve">1.65013086795807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.62758815288544</t>
   </si>
   <si>
     <t xml:space="preserve">1.64712512493134</t>
@@ -596,31 +599,31 @@
     <t xml:space="preserve">1.66816508769989</t>
   </si>
   <si>
-    <t xml:space="preserve">1.65614223480225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65914797782898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.62307965755463</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.71325075626373</t>
+    <t xml:space="preserve">1.65614235401154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65914785861969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.62307941913605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.71325063705444</t>
   </si>
   <si>
     <t xml:space="preserve">1.70273077487946</t>
   </si>
   <si>
-    <t xml:space="preserve">1.71475350856781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.71625626087189</t>
+    <t xml:space="preserve">1.71475374698639</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.71625649929047</t>
   </si>
   <si>
     <t xml:space="preserve">1.72076487541199</t>
   </si>
   <si>
-    <t xml:space="preserve">1.70122790336609</t>
+    <t xml:space="preserve">1.70122766494751</t>
   </si>
   <si>
     <t xml:space="preserve">1.70423340797424</t>
@@ -629,37 +632,37 @@
     <t xml:space="preserve">1.63359975814819</t>
   </si>
   <si>
-    <t xml:space="preserve">1.63660514354706</t>
+    <t xml:space="preserve">1.63660538196564</t>
   </si>
   <si>
     <t xml:space="preserve">1.60955393314362</t>
   </si>
   <si>
-    <t xml:space="preserve">1.64562225341797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69070792198181</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.74481046199799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.72827923297882</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.74030196666718</t>
+    <t xml:space="preserve">1.64562237262726</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69070780277252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.74481070041656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.72827899456024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.74030184745789</t>
   </si>
   <si>
     <t xml:space="preserve">1.75382792949677</t>
   </si>
   <si>
-    <t xml:space="preserve">1.75683307647705</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76134192943573</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75833630561829</t>
+    <t xml:space="preserve">1.75683343410492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76134204864502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75833606719971</t>
   </si>
   <si>
     <t xml:space="preserve">1.77787327766418</t>
@@ -668,13 +671,13 @@
     <t xml:space="preserve">1.79440462589264</t>
   </si>
   <si>
-    <t xml:space="preserve">1.79891347885132</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78388476371765</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78839325904846</t>
+    <t xml:space="preserve">1.79891324043274</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78388452529907</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78839361667633</t>
   </si>
   <si>
     <t xml:space="preserve">1.77937614917755</t>
@@ -683,133 +686,133 @@
     <t xml:space="preserve">1.78238189220428</t>
   </si>
   <si>
-    <t xml:space="preserve">1.80642783641815</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84850740432739</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85451829433441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88156998157501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89810132980347</t>
+    <t xml:space="preserve">1.80642735958099</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84850716590881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85451853275299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8815701007843</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89810144901276</t>
   </si>
   <si>
     <t xml:space="preserve">1.93867826461792</t>
   </si>
   <si>
-    <t xml:space="preserve">1.97023832798004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.98526668548584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9867696762085</t>
+    <t xml:space="preserve">1.97023856639862</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.98526656627655</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.98676979541779</t>
   </si>
   <si>
     <t xml:space="preserve">1.95070087909698</t>
   </si>
   <si>
-    <t xml:space="preserve">1.94168412685394</t>
+    <t xml:space="preserve">1.94168436527252</t>
   </si>
   <si>
     <t xml:space="preserve">1.95971834659576</t>
   </si>
   <si>
-    <t xml:space="preserve">1.97174108028412</t>
+    <t xml:space="preserve">1.97174096107483</t>
   </si>
   <si>
     <t xml:space="preserve">1.97624981403351</t>
   </si>
   <si>
-    <t xml:space="preserve">1.98376441001892</t>
+    <t xml:space="preserve">1.98376393318176</t>
   </si>
   <si>
     <t xml:space="preserve">2.01682662963867</t>
   </si>
   <si>
-    <t xml:space="preserve">2.00931239128113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94919860363007</t>
+    <t xml:space="preserve">2.00931262969971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94919848442078</t>
   </si>
   <si>
     <t xml:space="preserve">1.9537068605423</t>
   </si>
   <si>
-    <t xml:space="preserve">2.00029563903809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96873533725739</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95821535587311</t>
+    <t xml:space="preserve">2.00029516220093</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9687352180481</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95821571350098</t>
   </si>
   <si>
     <t xml:space="preserve">1.9732438325882</t>
   </si>
   <si>
-    <t xml:space="preserve">1.98827242851257</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.99578642845154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.00780916213989</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.01081538200378</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.02133512496948</t>
+    <t xml:space="preserve">1.98827230930328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.99578678607941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.00780940055847</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.01081514358521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.02133536338806</t>
   </si>
   <si>
     <t xml:space="preserve">2.06942629814148</t>
   </si>
   <si>
-    <t xml:space="preserve">2.10399222373962</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.1340491771698</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.14607167243958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.12803769111633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.18063759803772</t>
+    <t xml:space="preserve">2.10399198532104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.13404893875122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.14607191085815</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.12803792953491</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.18063735961914</t>
   </si>
   <si>
     <t xml:space="preserve">2.14156341552734</t>
   </si>
   <si>
-    <t xml:space="preserve">2.1145122051239</t>
+    <t xml:space="preserve">2.11451196670532</t>
   </si>
   <si>
     <t xml:space="preserve">2.15058040618896</t>
   </si>
   <si>
-    <t xml:space="preserve">2.16410613059998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.20768880844116</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.19115734100342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.18965482711792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.17913460731506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.13104343414307</t>
+    <t xml:space="preserve">2.1641058921814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.20768857002258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.19115710258484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.18965458869934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.17913508415222</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.13104319572449</t>
   </si>
   <si>
     <t xml:space="preserve">2.16711211204529</t>
@@ -821,16 +824,16 @@
     <t xml:space="preserve">2.15659189224243</t>
   </si>
   <si>
-    <t xml:space="preserve">2.18214058876038</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.19867205619812</t>
+    <t xml:space="preserve">2.1821403503418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.19867157936096</t>
   </si>
   <si>
     <t xml:space="preserve">2.18664884567261</t>
   </si>
   <si>
-    <t xml:space="preserve">2.22722578048706</t>
+    <t xml:space="preserve">2.22722601890564</t>
   </si>
   <si>
     <t xml:space="preserve">2.21219754219055</t>
@@ -839,7 +842,7 @@
     <t xml:space="preserve">2.2347400188446</t>
   </si>
   <si>
-    <t xml:space="preserve">2.22271704673767</t>
+    <t xml:space="preserve">2.22271728515625</t>
   </si>
   <si>
     <t xml:space="preserve">2.23624277114868</t>
@@ -851,19 +854,16 @@
     <t xml:space="preserve">2.25948882102966</t>
   </si>
   <si>
-    <t xml:space="preserve">2.25328993797302</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.2362425327301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.1773533821106</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.1913013458252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.14945864677429</t>
+    <t xml:space="preserve">2.2532901763916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.17735362052917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.19130110740662</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.14945912361145</t>
   </si>
   <si>
     <t xml:space="preserve">2.13551115989685</t>
@@ -872,106 +872,106 @@
     <t xml:space="preserve">2.09211921691895</t>
   </si>
   <si>
-    <t xml:space="preserve">2.07352304458618</t>
+    <t xml:space="preserve">2.07352256774902</t>
   </si>
   <si>
     <t xml:space="preserve">2.08592009544373</t>
   </si>
   <si>
-    <t xml:space="preserve">2.08282113075256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.07197308540344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.02393198013306</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.04407835006714</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.07972168922424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.05647563934326</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.10606646537781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.12931227684021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.11536502838135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.10761642456055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.12156414985657</t>
+    <t xml:space="preserve">2.08282065391541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.07197284698486</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.0239315032959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.04407811164856</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.07972145080566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.05647587776184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.10606694221497</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.12931203842163</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.11536526679993</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.10761666297913</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.12156391143799</t>
   </si>
   <si>
     <t xml:space="preserve">2.09986782073975</t>
   </si>
   <si>
-    <t xml:space="preserve">2.13861083984375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.15410804748535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.10916614532471</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.0890200138092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.13086223602295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.12001442909241</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.11846423149109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.11226558685303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.12466359138489</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.12621307373047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.07662224769592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.13241219520569</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.11071586608887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.06887364387512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.04872703552246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.0347797870636</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.04097843170166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.10141730308533</t>
+    <t xml:space="preserve">2.13861060142517</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.15410828590393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.10916638374329</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.08901953697205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.13086199760437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.12001419067383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.11846446990967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.11226606369019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.12466335296631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.12621283531189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.07662200927734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.13241195678711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.11071610450745</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.06887340545654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.04872727394104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.03477931022644</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.04097867012024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.10141754150391</t>
   </si>
   <si>
     <t xml:space="preserve">2.08747005462646</t>
   </si>
   <si>
-    <t xml:space="preserve">2.08437061309814</t>
+    <t xml:space="preserve">2.08437085151672</t>
   </si>
   <si>
     <t xml:space="preserve">2.07817149162292</t>
@@ -980,7 +980,7 @@
     <t xml:space="preserve">2.15565776824951</t>
   </si>
   <si>
-    <t xml:space="preserve">2.09366917610168</t>
+    <t xml:space="preserve">2.09366893768311</t>
   </si>
   <si>
     <t xml:space="preserve">2.07507228851318</t>
@@ -989,40 +989,40 @@
     <t xml:space="preserve">2.05957531929016</t>
   </si>
   <si>
-    <t xml:space="preserve">2.06112504005432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.0456280708313</t>
+    <t xml:space="preserve">2.0611252784729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.04562783241272</t>
   </si>
   <si>
     <t xml:space="preserve">2.09676861763</t>
   </si>
   <si>
-    <t xml:space="preserve">2.11381530761719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.13706088066101</t>
+    <t xml:space="preserve">2.11381554603577</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.13706064224243</t>
   </si>
   <si>
     <t xml:space="preserve">2.14790916442871</t>
   </si>
   <si>
-    <t xml:space="preserve">2.15100860595703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.14326000213623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.14016056060791</t>
+    <t xml:space="preserve">2.15100884437561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.14325976371765</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.14016032218933</t>
   </si>
   <si>
     <t xml:space="preserve">2.15255856513977</t>
   </si>
   <si>
-    <t xml:space="preserve">2.16185665130615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.18510246276855</t>
+    <t xml:space="preserve">2.16185688972473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.18510174751282</t>
   </si>
   <si>
     <t xml:space="preserve">2.20369911193848</t>
@@ -1031,16 +1031,16 @@
     <t xml:space="preserve">2.23004412651062</t>
   </si>
   <si>
-    <t xml:space="preserve">2.24089217185974</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.26258826255798</t>
+    <t xml:space="preserve">2.24089193344116</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.26258850097656</t>
   </si>
   <si>
     <t xml:space="preserve">2.27808547019958</t>
   </si>
   <si>
-    <t xml:space="preserve">2.2687873840332</t>
+    <t xml:space="preserve">2.26878690719604</t>
   </si>
   <si>
     <t xml:space="preserve">2.26103854179382</t>
@@ -1049,31 +1049,31 @@
     <t xml:space="preserve">2.24709105491638</t>
   </si>
   <si>
-    <t xml:space="preserve">2.25173997879028</t>
+    <t xml:space="preserve">2.25174021720886</t>
   </si>
   <si>
     <t xml:space="preserve">2.27343606948853</t>
   </si>
   <si>
-    <t xml:space="preserve">2.27498626708984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.27653574943542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.30752992630005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.35557150840759</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.34007430076599</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.34317326545715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.36641907691956</t>
+    <t xml:space="preserve">2.27498602867126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.27653551101685</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.30753016471863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.35557126998901</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.34007406234741</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.34317350387573</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.36641955375671</t>
   </si>
   <si>
     <t xml:space="preserve">2.38036680221558</t>
@@ -1082,10 +1082,10 @@
     <t xml:space="preserve">2.3912148475647</t>
   </si>
   <si>
-    <t xml:space="preserve">2.38656568527222</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.42685842514038</t>
+    <t xml:space="preserve">2.38656544685364</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.4268581867218</t>
   </si>
   <si>
     <t xml:space="preserve">2.37416791915894</t>
@@ -1094,19 +1094,19 @@
     <t xml:space="preserve">2.35867071151733</t>
   </si>
   <si>
-    <t xml:space="preserve">2.38966512680054</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.40206265449524</t>
+    <t xml:space="preserve">2.38966488838196</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.40206289291382</t>
   </si>
   <si>
     <t xml:space="preserve">2.33852434158325</t>
   </si>
   <si>
-    <t xml:space="preserve">2.34162402153015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.36331987380981</t>
+    <t xml:space="preserve">2.34162378311157</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.36332011222839</t>
   </si>
   <si>
     <t xml:space="preserve">2.31217908859253</t>
@@ -1115,22 +1115,22 @@
     <t xml:space="preserve">2.30907988548279</t>
   </si>
   <si>
-    <t xml:space="preserve">2.30133080482483</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.25483965873718</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.23469352722168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.29358267784119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.34472322463989</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.39741396903992</t>
+    <t xml:space="preserve">2.30133104324341</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.25483989715576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.2346932888031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.29358243942261</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.34472346305847</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.39741373062134</t>
   </si>
   <si>
     <t xml:space="preserve">2.32457685470581</t>
@@ -1142,22 +1142,22 @@
     <t xml:space="preserve">2.32147765159607</t>
   </si>
   <si>
-    <t xml:space="preserve">2.36177039146423</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.37106847763062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.38501620292664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.33077573776245</t>
+    <t xml:space="preserve">2.36177015304565</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.37106871604919</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.38501596450806</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.33077549934387</t>
   </si>
   <si>
     <t xml:space="preserve">2.36486983299255</t>
   </si>
   <si>
-    <t xml:space="preserve">2.32922601699829</t>
+    <t xml:space="preserve">2.32922625541687</t>
   </si>
   <si>
     <t xml:space="preserve">2.2656877040863</t>
@@ -1166,43 +1166,43 @@
     <t xml:space="preserve">2.2145471572876</t>
   </si>
   <si>
-    <t xml:space="preserve">2.18975162506104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.13396167755127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.10451722145081</t>
+    <t xml:space="preserve">2.18975138664246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.13396143913269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.10451745986938</t>
   </si>
   <si>
     <t xml:space="preserve">2.17270445823669</t>
   </si>
   <si>
-    <t xml:space="preserve">2.20524859428406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.21299719810486</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.17115473747253</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.14635920524597</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.11691474914551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16340637207031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16030693054199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.15875720977783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.18045330047607</t>
+    <t xml:space="preserve">2.20524907112122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.21299743652344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.17115497589111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.14635968208313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.11691498756409</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16340661048889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16030716896057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.15875744819641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.18045282363892</t>
   </si>
   <si>
     <t xml:space="preserve">2.17580413818359</t>
@@ -1211,7 +1211,7 @@
     <t xml:space="preserve">2.199049949646</t>
   </si>
   <si>
-    <t xml:space="preserve">2.29513192176819</t>
+    <t xml:space="preserve">2.29513216018677</t>
   </si>
   <si>
     <t xml:space="preserve">2.30443072319031</t>
@@ -1229,28 +1229,28 @@
     <t xml:space="preserve">2.31837821006775</t>
   </si>
   <si>
-    <t xml:space="preserve">2.33697462081909</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.37881708145142</t>
+    <t xml:space="preserve">2.33697485923767</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.37881684303284</t>
   </si>
   <si>
     <t xml:space="preserve">2.3834662437439</t>
   </si>
   <si>
-    <t xml:space="preserve">2.36951923370361</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.31062984466553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.33542513847351</t>
+    <t xml:space="preserve">2.36951899528503</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.31062960624695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.33542490005493</t>
   </si>
   <si>
     <t xml:space="preserve">2.22074580192566</t>
   </si>
   <si>
-    <t xml:space="preserve">2.20059943199158</t>
+    <t xml:space="preserve">2.20059967041016</t>
   </si>
   <si>
     <t xml:space="preserve">2.09831809997559</t>
@@ -1259,7 +1259,7 @@
     <t xml:space="preserve">2.01928234100342</t>
   </si>
   <si>
-    <t xml:space="preserve">2.0378794670105</t>
+    <t xml:space="preserve">2.03787922859192</t>
   </si>
   <si>
     <t xml:space="preserve">2.05492615699768</t>
@@ -1271,7 +1271,7 @@
     <t xml:space="preserve">2.05182671546936</t>
   </si>
   <si>
-    <t xml:space="preserve">2.02083206176758</t>
+    <t xml:space="preserve">2.02083230018616</t>
   </si>
   <si>
     <t xml:space="preserve">2.10410904884338</t>
@@ -1280,28 +1280,28 @@
     <t xml:space="preserve">2.13783931732178</t>
   </si>
   <si>
-    <t xml:space="preserve">2.14908266067505</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.11374640464783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.11695837974548</t>
+    <t xml:space="preserve">2.14908242225647</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.11374616622925</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.11695861816406</t>
   </si>
   <si>
     <t xml:space="preserve">2.15068864822388</t>
   </si>
   <si>
-    <t xml:space="preserve">2.13623332977295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16675066947937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.14426374435425</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.18441843986511</t>
+    <t xml:space="preserve">2.13623309135437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16675043106079</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.14426398277283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.18441867828369</t>
   </si>
   <si>
     <t xml:space="preserve">2.21493601799011</t>
@@ -1310,37 +1310,37 @@
     <t xml:space="preserve">2.23421049118042</t>
   </si>
   <si>
-    <t xml:space="preserve">2.24063515663147</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.22457337379456</t>
+    <t xml:space="preserve">2.24063563346863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.22457361221313</t>
   </si>
   <si>
     <t xml:space="preserve">2.2165424823761</t>
   </si>
   <si>
-    <t xml:space="preserve">2.22778558731079</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.21333026885986</t>
+    <t xml:space="preserve">2.22778606414795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.21333003044128</t>
   </si>
   <si>
     <t xml:space="preserve">2.24866628646851</t>
   </si>
   <si>
-    <t xml:space="preserve">2.25348496437073</t>
+    <t xml:space="preserve">2.25348472595215</t>
   </si>
   <si>
     <t xml:space="preserve">2.23260450363159</t>
   </si>
   <si>
-    <t xml:space="preserve">2.18281245231628</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16996264457703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.28882098197937</t>
+    <t xml:space="preserve">2.18281269073486</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16996288299561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.28882122039795</t>
   </si>
   <si>
     <t xml:space="preserve">2.25187849998474</t>
@@ -1349,16 +1349,16 @@
     <t xml:space="preserve">2.27757787704468</t>
   </si>
   <si>
-    <t xml:space="preserve">2.26794052124023</t>
+    <t xml:space="preserve">2.26794028282166</t>
   </si>
   <si>
     <t xml:space="preserve">2.30006456375122</t>
   </si>
   <si>
-    <t xml:space="preserve">2.29845809936523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.26472806930542</t>
+    <t xml:space="preserve">2.29845833778381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.26472783088684</t>
   </si>
   <si>
     <t xml:space="preserve">2.24384760856628</t>
@@ -1373,31 +1373,31 @@
     <t xml:space="preserve">2.20529913902283</t>
   </si>
   <si>
-    <t xml:space="preserve">2.1988742351532</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.24706029891968</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.23742294311523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.22939205169678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.17478156089783</t>
+    <t xml:space="preserve">2.19887447357178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.2470600605011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.23742318153381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.22939229011536</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.17478132247925</t>
   </si>
   <si>
     <t xml:space="preserve">2.17799377441406</t>
   </si>
   <si>
-    <t xml:space="preserve">2.1683566570282</t>
+    <t xml:space="preserve">2.16835689544678</t>
   </si>
   <si>
     <t xml:space="preserve">2.1860249042511</t>
   </si>
   <si>
-    <t xml:space="preserve">2.203693151474</t>
+    <t xml:space="preserve">2.20369291305542</t>
   </si>
   <si>
     <t xml:space="preserve">2.20690512657166</t>
@@ -1406,106 +1406,106 @@
     <t xml:space="preserve">2.26954674720764</t>
   </si>
   <si>
-    <t xml:space="preserve">2.2823965549469</t>
+    <t xml:space="preserve">2.28239631652832</t>
   </si>
   <si>
     <t xml:space="preserve">2.27918386459351</t>
   </si>
   <si>
-    <t xml:space="preserve">2.28400230407715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.29042720794678</t>
+    <t xml:space="preserve">2.28400254249573</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.2904269695282</t>
   </si>
   <si>
     <t xml:space="preserve">2.29363965988159</t>
   </si>
   <si>
-    <t xml:space="preserve">2.25669717788696</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.20048069953918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.19566202163696</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.15390110015869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.14586973190308</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.12820219993591</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.08965349197388</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.03504276275635</t>
+    <t xml:space="preserve">2.25669693946838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.20048046112061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.19566178321838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.15390086174011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.14586997032166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.12820196151733</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.0896532535553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.03504300117493</t>
   </si>
   <si>
     <t xml:space="preserve">2.05592346191406</t>
   </si>
   <si>
-    <t xml:space="preserve">2.00934410095215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.97400796413422</t>
+    <t xml:space="preserve">2.00934386253357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.97400784492493</t>
   </si>
   <si>
     <t xml:space="preserve">1.93224656581879</t>
   </si>
   <si>
-    <t xml:space="preserve">1.98685741424561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94188404083252</t>
+    <t xml:space="preserve">1.98685717582703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94188380241394</t>
   </si>
   <si>
     <t xml:space="preserve">1.96437072753906</t>
   </si>
   <si>
-    <t xml:space="preserve">1.97240173816681</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94027757644653</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92903435230255</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.99970686435699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96758317947388</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96115803718567</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94991505146027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95955204963684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95794582366943</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.97561419010162</t>
+    <t xml:space="preserve">1.97240161895752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94027781486511</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92903447151184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.99970698356628</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96758306026459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96115827560425</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9499146938324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95955228805542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95794594287872</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.97561383247375</t>
   </si>
   <si>
     <t xml:space="preserve">1.99328196048737</t>
   </si>
   <si>
-    <t xml:space="preserve">2.03986144065857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.99006962776184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.05271124839783</t>
+    <t xml:space="preserve">2.03986120223999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.99006950855255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.05271077156067</t>
   </si>
   <si>
     <t xml:space="preserve">2.04307389259338</t>
@@ -1514,25 +1514,25 @@
     <t xml:space="preserve">2.05110478401184</t>
   </si>
   <si>
-    <t xml:space="preserve">2.01416254043579</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.0029194355011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.99649465084076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.99167585372925</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96276426315308</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.98043274879456</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94830858707428</t>
+    <t xml:space="preserve">2.01416230201721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.00291919708252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.99649429321289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.99167573451996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96276450157166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.98043262958527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94830894470215</t>
   </si>
   <si>
     <t xml:space="preserve">2.01095008850098</t>
@@ -1550,94 +1550,94 @@
     <t xml:space="preserve">2.17156910896301</t>
   </si>
   <si>
-    <t xml:space="preserve">2.112140417099</t>
+    <t xml:space="preserve">2.11214017868042</t>
   </si>
   <si>
     <t xml:space="preserve">2.14265775680542</t>
   </si>
   <si>
-    <t xml:space="preserve">2.17638778686523</t>
+    <t xml:space="preserve">2.17638754844666</t>
   </si>
   <si>
     <t xml:space="preserve">2.16032600402832</t>
   </si>
   <si>
-    <t xml:space="preserve">2.27275896072388</t>
+    <t xml:space="preserve">2.27275919914246</t>
   </si>
   <si>
     <t xml:space="preserve">2.27597188949585</t>
   </si>
   <si>
-    <t xml:space="preserve">2.25990986824036</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.28721475601196</t>
+    <t xml:space="preserve">2.25990915298462</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.28721499443054</t>
   </si>
   <si>
     <t xml:space="preserve">2.29203343391418</t>
   </si>
   <si>
-    <t xml:space="preserve">2.3129141330719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.28560853004456</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.28078985214233</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.30970144271851</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.34503746032715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.34664368629456</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.37073659896851</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.37876772880554</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.36752390861511</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.3691303730011</t>
+    <t xml:space="preserve">2.31291365623474</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.28560900688171</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.28079009056091</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.30970120429993</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.34503793716431</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.34664392471313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.37073683738708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.37876749038696</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.36752438545227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.36913061141968</t>
   </si>
   <si>
     <t xml:space="preserve">2.37555527687073</t>
   </si>
   <si>
-    <t xml:space="preserve">2.35467481613159</t>
+    <t xml:space="preserve">2.35467457771301</t>
   </si>
   <si>
     <t xml:space="preserve">2.34021902084351</t>
   </si>
   <si>
-    <t xml:space="preserve">2.36591839790344</t>
+    <t xml:space="preserve">2.36591815948486</t>
   </si>
   <si>
     <t xml:space="preserve">2.38840484619141</t>
   </si>
   <si>
-    <t xml:space="preserve">2.38679885864258</t>
+    <t xml:space="preserve">2.38679838180542</t>
   </si>
   <si>
     <t xml:space="preserve">2.39322352409363</t>
   </si>
   <si>
-    <t xml:space="preserve">2.38358616828918</t>
+    <t xml:space="preserve">2.38358640670776</t>
   </si>
   <si>
     <t xml:space="preserve">2.37394905090332</t>
   </si>
   <si>
-    <t xml:space="preserve">2.3434317111969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.41089177131653</t>
+    <t xml:space="preserve">2.34343147277832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.41089153289795</t>
   </si>
   <si>
     <t xml:space="preserve">2.37716150283813</t>
@@ -1646,19 +1646,19 @@
     <t xml:space="preserve">2.3386127948761</t>
   </si>
   <si>
-    <t xml:space="preserve">2.35306882858276</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.34985661506653</t>
+    <t xml:space="preserve">2.35306859016418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.34985637664795</t>
   </si>
   <si>
     <t xml:space="preserve">2.38519239425659</t>
   </si>
   <si>
-    <t xml:space="preserve">2.38198041915894</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.3996479511261</t>
+    <t xml:space="preserve">2.38198018074036</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.39964818954468</t>
   </si>
   <si>
     <t xml:space="preserve">2.40767908096313</t>
@@ -1676,19 +1676,19 @@
     <t xml:space="preserve">2.46871423721313</t>
   </si>
   <si>
-    <t xml:space="preserve">2.47032022476196</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.49280738830566</t>
+    <t xml:space="preserve">2.47032046318054</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.49280714988708</t>
   </si>
   <si>
     <t xml:space="preserve">2.51850605010986</t>
   </si>
   <si>
-    <t xml:space="preserve">2.52171874046326</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.56829810142517</t>
+    <t xml:space="preserve">2.52171850204468</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.56829786300659</t>
   </si>
   <si>
     <t xml:space="preserve">2.5875723361969</t>
@@ -1703,7 +1703,7 @@
     <t xml:space="preserve">2.60202813148499</t>
   </si>
   <si>
-    <t xml:space="preserve">2.64378881454468</t>
+    <t xml:space="preserve">2.64378929138184</t>
   </si>
   <si>
     <t xml:space="preserve">2.61487770080566</t>
@@ -1715,52 +1715,52 @@
     <t xml:space="preserve">2.61005902290344</t>
   </si>
   <si>
-    <t xml:space="preserve">2.55384230613708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.57151055335999</t>
+    <t xml:space="preserve">2.55384254455566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.57151007652283</t>
   </si>
   <si>
     <t xml:space="preserve">2.55705499649048</t>
   </si>
   <si>
-    <t xml:space="preserve">2.52493071556091</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.54099297523499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.54420518875122</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.55866098403931</t>
+    <t xml:space="preserve">2.52493119239807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.54099273681641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.5442054271698</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.55866122245789</t>
   </si>
   <si>
     <t xml:space="preserve">2.53778052330017</t>
   </si>
   <si>
-    <t xml:space="preserve">2.54902410507202</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.56347942352295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.55063009262085</t>
+    <t xml:space="preserve">2.54902386665344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.56347966194153</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.55063033103943</t>
   </si>
   <si>
     <t xml:space="preserve">2.51690006256104</t>
   </si>
   <si>
-    <t xml:space="preserve">2.53938674926758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.52011251449585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.57954168319702</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.62451457977295</t>
+    <t xml:space="preserve">2.53938698768616</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.52011227607727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.57954096794128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.62451434135437</t>
   </si>
   <si>
     <t xml:space="preserve">2.63254594802856</t>
@@ -1772,7 +1772,7 @@
     <t xml:space="preserve">2.63897061347961</t>
   </si>
   <si>
-    <t xml:space="preserve">2.65181994438171</t>
+    <t xml:space="preserve">2.65182018280029</t>
   </si>
   <si>
     <t xml:space="preserve">2.65342617034912</t>
@@ -1781,10 +1781,10 @@
     <t xml:space="preserve">2.63093972206116</t>
   </si>
   <si>
-    <t xml:space="preserve">2.62933349609375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.6229088306427</t>
+    <t xml:space="preserve">2.62933325767517</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.62290859222412</t>
   </si>
   <si>
     <t xml:space="preserve">2.61166548728943</t>
@@ -1796,19 +1796,19 @@
     <t xml:space="preserve">2.68715620040894</t>
   </si>
   <si>
-    <t xml:space="preserve">2.70000553131104</t>
+    <t xml:space="preserve">2.70000576972961</t>
   </si>
   <si>
     <t xml:space="preserve">2.70161199569702</t>
   </si>
   <si>
-    <t xml:space="preserve">2.6967933177948</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.69839930534363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.68555045127869</t>
+    <t xml:space="preserve">2.69679307937622</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.69839954376221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.68554997444153</t>
   </si>
   <si>
     <t xml:space="preserve">2.68233776092529</t>
@@ -1817,10 +1817,10 @@
     <t xml:space="preserve">2.74497890472412</t>
   </si>
   <si>
-    <t xml:space="preserve">2.75140380859375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.78513407707214</t>
+    <t xml:space="preserve">2.75140404701233</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.78513383865356</t>
   </si>
   <si>
     <t xml:space="preserve">2.81725764274597</t>
@@ -1829,22 +1829,22 @@
     <t xml:space="preserve">2.79741787910461</t>
   </si>
   <si>
-    <t xml:space="preserve">2.77923107147217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.78253793716431</t>
+    <t xml:space="preserve">2.77923130989075</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.78253769874573</t>
   </si>
   <si>
     <t xml:space="preserve">2.74947142601013</t>
   </si>
   <si>
-    <t xml:space="preserve">2.78088474273682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.76600480079651</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.8321373462677</t>
+    <t xml:space="preserve">2.78088450431824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.76600456237793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.83213758468628</t>
   </si>
   <si>
     <t xml:space="preserve">2.91645693778992</t>
@@ -1856,7 +1856,7 @@
     <t xml:space="preserve">2.88835048675537</t>
   </si>
   <si>
-    <t xml:space="preserve">2.87677717208862</t>
+    <t xml:space="preserve">2.8767774105072</t>
   </si>
   <si>
     <t xml:space="preserve">2.8866970539093</t>
@@ -1868,7 +1868,7 @@
     <t xml:space="preserve">2.89992380142212</t>
   </si>
   <si>
-    <t xml:space="preserve">2.93299007415771</t>
+    <t xml:space="preserve">2.93298983573914</t>
   </si>
   <si>
     <t xml:space="preserve">2.91149687767029</t>
@@ -1880,7 +1880,7 @@
     <t xml:space="preserve">2.84701752662659</t>
   </si>
   <si>
-    <t xml:space="preserve">2.85197758674622</t>
+    <t xml:space="preserve">2.85197734832764</t>
   </si>
   <si>
     <t xml:space="preserve">2.83379077911377</t>
@@ -1889,25 +1889,25 @@
     <t xml:space="preserve">2.83048415184021</t>
   </si>
   <si>
-    <t xml:space="preserve">2.83544421195984</t>
+    <t xml:space="preserve">2.83544397354126</t>
   </si>
   <si>
     <t xml:space="preserve">2.76931142807007</t>
   </si>
   <si>
-    <t xml:space="preserve">2.78584456443787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.83875060081482</t>
+    <t xml:space="preserve">2.78584432601929</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.8387508392334</t>
   </si>
   <si>
     <t xml:space="preserve">2.81229782104492</t>
   </si>
   <si>
-    <t xml:space="preserve">2.79576444625854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.80733752250671</t>
+    <t xml:space="preserve">2.79576420783997</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.80733799934387</t>
   </si>
   <si>
     <t xml:space="preserve">2.82883095741272</t>
@@ -1925,13 +1925,13 @@
     <t xml:space="preserve">2.86520385742188</t>
   </si>
   <si>
-    <t xml:space="preserve">2.89165711402893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.88173699378967</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.89000391960144</t>
+    <t xml:space="preserve">2.89165687561035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.88173723220825</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.89000368118286</t>
   </si>
   <si>
     <t xml:space="preserve">2.91811013221741</t>
@@ -1940,7 +1940,7 @@
     <t xml:space="preserve">2.98920297622681</t>
   </si>
   <si>
-    <t xml:space="preserve">2.98589634895325</t>
+    <t xml:space="preserve">2.98589658737183</t>
   </si>
   <si>
     <t xml:space="preserve">3.02392268180847</t>
@@ -1949,13 +1949,13 @@
     <t xml:space="preserve">2.99912285804749</t>
   </si>
   <si>
-    <t xml:space="preserve">2.99416303634644</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.99581623077393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.02557635307312</t>
+    <t xml:space="preserve">2.99416279792786</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.9958164691925</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.02557587623596</t>
   </si>
   <si>
     <t xml:space="preserve">3.00408267974854</t>
@@ -1964,43 +1964,43 @@
     <t xml:space="preserve">2.90488338470459</t>
   </si>
   <si>
-    <t xml:space="preserve">2.89661717414856</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.95117664337158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.92307019233704</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.92637658119202</t>
+    <t xml:space="preserve">2.89661693572998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.951176404953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.92306995391846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.9263768196106</t>
   </si>
   <si>
     <t xml:space="preserve">2.95282983779907</t>
   </si>
   <si>
-    <t xml:space="preserve">3.01565623283386</t>
+    <t xml:space="preserve">3.01565599441528</t>
   </si>
   <si>
     <t xml:space="preserve">3.01234936714172</t>
   </si>
   <si>
-    <t xml:space="preserve">2.97597622871399</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.06194877624512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.06029582023621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.13304162025452</t>
+    <t xml:space="preserve">2.97597646713257</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.0619490146637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.06029558181763</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.1330418586731</t>
   </si>
   <si>
     <t xml:space="preserve">3.07517552375793</t>
   </si>
   <si>
-    <t xml:space="preserve">3.11320209503174</t>
+    <t xml:space="preserve">3.11320161819458</t>
   </si>
   <si>
     <t xml:space="preserve">3.06690907478333</t>
@@ -2009,7 +2009,7 @@
     <t xml:space="preserve">3.08178877830505</t>
   </si>
   <si>
-    <t xml:space="preserve">3.12808179855347</t>
+    <t xml:space="preserve">3.12808203697205</t>
   </si>
   <si>
     <t xml:space="preserve">3.13469505310059</t>
@@ -2018,70 +2018,70 @@
     <t xml:space="preserve">3.11650848388672</t>
   </si>
   <si>
-    <t xml:space="preserve">3.09005522727966</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.11485505104065</t>
+    <t xml:space="preserve">3.09005546569824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.11485528945923</t>
   </si>
   <si>
     <t xml:space="preserve">3.12642860412598</t>
   </si>
   <si>
-    <t xml:space="preserve">3.09501528739929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.13634824752808</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.10824203491211</t>
+    <t xml:space="preserve">3.09501552581787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.13634848594666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.10824179649353</t>
   </si>
   <si>
     <t xml:space="preserve">3.076828956604</t>
   </si>
   <si>
-    <t xml:space="preserve">3.10493564605713</t>
+    <t xml:space="preserve">3.10493540763855</t>
   </si>
   <si>
     <t xml:space="preserve">3.11816191673279</t>
   </si>
   <si>
-    <t xml:space="preserve">3.15949511528015</t>
+    <t xml:space="preserve">3.15949487686157</t>
   </si>
   <si>
     <t xml:space="preserve">3.17272138595581</t>
   </si>
   <si>
-    <t xml:space="preserve">3.16280150413513</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.18429493904114</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.14296197891235</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.16776132583618</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.18098831176758</t>
+    <t xml:space="preserve">3.16280126571655</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.18429470062256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.14296174049377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.16776156425476</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.180988073349</t>
   </si>
   <si>
     <t xml:space="preserve">3.16610813140869</t>
   </si>
   <si>
-    <t xml:space="preserve">3.18760132789612</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.18925476074219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.21570777893066</t>
+    <t xml:space="preserve">3.1876015663147</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.18925452232361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.21570825576782</t>
   </si>
   <si>
     <t xml:space="preserve">3.29176068305969</t>
   </si>
   <si>
-    <t xml:space="preserve">3.31656074523926</t>
+    <t xml:space="preserve">3.31656050682068</t>
   </si>
   <si>
     <t xml:space="preserve">3.31325364112854</t>
@@ -2102,7 +2102,7 @@
     <t xml:space="preserve">3.27357411384583</t>
   </si>
   <si>
-    <t xml:space="preserve">3.30333352088928</t>
+    <t xml:space="preserve">3.30333375930786</t>
   </si>
   <si>
     <t xml:space="preserve">3.29341387748718</t>
@@ -2111,10 +2111,10 @@
     <t xml:space="preserve">3.30994725227356</t>
   </si>
   <si>
-    <t xml:space="preserve">3.17602801322937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.202481508255</t>
+    <t xml:space="preserve">3.17602825164795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.20248126983643</t>
   </si>
   <si>
     <t xml:space="preserve">3.24050760269165</t>
@@ -2123,13 +2123,13 @@
     <t xml:space="preserve">3.21736097335815</t>
   </si>
   <si>
-    <t xml:space="preserve">3.21074795722961</t>
+    <t xml:space="preserve">3.21074771881104</t>
   </si>
   <si>
     <t xml:space="preserve">3.18594813346863</t>
   </si>
   <si>
-    <t xml:space="preserve">3.21901440620422</t>
+    <t xml:space="preserve">3.2190146446228</t>
   </si>
   <si>
     <t xml:space="preserve">3.22728109359741</t>
@@ -2141,25 +2141,25 @@
     <t xml:space="preserve">3.24381422996521</t>
   </si>
   <si>
-    <t xml:space="preserve">3.29010725021362</t>
+    <t xml:space="preserve">3.29010701179504</t>
   </si>
   <si>
     <t xml:space="preserve">3.28680062294006</t>
   </si>
   <si>
-    <t xml:space="preserve">3.28184056282043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.34135985374451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.27853417396545</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.28349375724792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.22397446632385</t>
+    <t xml:space="preserve">3.28184032440186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.34136009216309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.27853393554688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.2834939956665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.22397470474243</t>
   </si>
   <si>
     <t xml:space="preserve">3.21240091323853</t>
@@ -2180,31 +2180,31 @@
     <t xml:space="preserve">3.30498695373535</t>
   </si>
   <si>
-    <t xml:space="preserve">3.30168032646179</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.24877405166626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.3942666053772</t>
+    <t xml:space="preserve">3.30168056488037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.24877429008484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.39426636695862</t>
   </si>
   <si>
     <t xml:space="preserve">3.50338530540466</t>
   </si>
   <si>
-    <t xml:space="preserve">3.43725275993347</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.57613182067871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.57447838783264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.50503849983215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.39095973968506</t>
+    <t xml:space="preserve">3.43725252151489</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.57613158226013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.57447862625122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.50503873825073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.39095950126648</t>
   </si>
   <si>
     <t xml:space="preserve">3.39922642707825</t>
@@ -2216,94 +2216,94 @@
     <t xml:space="preserve">3.45709276199341</t>
   </si>
   <si>
-    <t xml:space="preserve">3.49842548370361</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.51165223121643</t>
+    <t xml:space="preserve">3.49842572212219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.51165199279785</t>
   </si>
   <si>
     <t xml:space="preserve">3.53645205497742</t>
   </si>
   <si>
-    <t xml:space="preserve">3.55463862419128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.56786489486694</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.60754489898682</t>
+    <t xml:space="preserve">3.55463886260986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.56786513328552</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.60754442214966</t>
   </si>
   <si>
     <t xml:space="preserve">3.58109140396118</t>
   </si>
   <si>
-    <t xml:space="preserve">3.58605170249939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.59927821159363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.68855738639832</t>
+    <t xml:space="preserve">3.58605146408081</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.59927773475647</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.68855714797974</t>
   </si>
   <si>
     <t xml:space="preserve">3.66871762275696</t>
   </si>
   <si>
-    <t xml:space="preserve">3.64722466468811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.46370601654053</t>
+    <t xml:space="preserve">3.64722418785095</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.46370577812195</t>
   </si>
   <si>
     <t xml:space="preserve">3.43229269981384</t>
   </si>
   <si>
-    <t xml:space="preserve">3.46205258369446</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.40087962150574</t>
+    <t xml:space="preserve">3.46205282211304</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.40087985992432</t>
   </si>
   <si>
     <t xml:space="preserve">3.20578789710999</t>
   </si>
   <si>
-    <t xml:space="preserve">3.22893452644348</t>
+    <t xml:space="preserve">3.2289342880249</t>
   </si>
   <si>
     <t xml:space="preserve">3.38269305229187</t>
   </si>
   <si>
-    <t xml:space="preserve">2.93794989585876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.75773811340332</t>
+    <t xml:space="preserve">2.93795013427734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.7577383518219</t>
   </si>
   <si>
     <t xml:space="preserve">2.79080438613892</t>
   </si>
   <si>
-    <t xml:space="preserve">2.30307507514954</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.65357899665833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.55768632888794</t>
+    <t xml:space="preserve">2.30307531356812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.65357875823975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.55768609046936</t>
   </si>
   <si>
     <t xml:space="preserve">2.60397934913635</t>
   </si>
   <si>
-    <t xml:space="preserve">2.61059260368347</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.55272650718689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.68003249168396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.53288626670837</t>
+    <t xml:space="preserve">2.61059284210205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.55272626876831</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.68003225326538</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.53288674354553</t>
   </si>
   <si>
     <t xml:space="preserve">2.50808668136597</t>
@@ -2318,13 +2318,13 @@
     <t xml:space="preserve">2.71971201896667</t>
   </si>
   <si>
-    <t xml:space="preserve">2.70152497291565</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.62216567993164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.66019225120544</t>
+    <t xml:space="preserve">2.70152521133423</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.62216591835022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.66019248962402</t>
   </si>
   <si>
     <t xml:space="preserve">2.62547254562378</t>
@@ -2336,19 +2336,19 @@
     <t xml:space="preserve">2.5510733127594</t>
   </si>
   <si>
-    <t xml:space="preserve">2.67176580429077</t>
+    <t xml:space="preserve">2.67176556587219</t>
   </si>
   <si>
     <t xml:space="preserve">2.663498878479</t>
   </si>
   <si>
-    <t xml:space="preserve">2.64200568199158</t>
+    <t xml:space="preserve">2.64200592041016</t>
   </si>
   <si>
     <t xml:space="preserve">2.63869905471802</t>
   </si>
   <si>
-    <t xml:space="preserve">2.70483183860779</t>
+    <t xml:space="preserve">2.70483160018921</t>
   </si>
   <si>
     <t xml:space="preserve">2.71805858612061</t>
@@ -2357,70 +2357,70 @@
     <t xml:space="preserve">2.61224579811096</t>
   </si>
   <si>
-    <t xml:space="preserve">2.6866455078125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.67672562599182</t>
+    <t xml:space="preserve">2.68664526939392</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.67672538757324</t>
   </si>
   <si>
     <t xml:space="preserve">2.77261805534363</t>
   </si>
   <si>
-    <t xml:space="preserve">2.79245781898499</t>
+    <t xml:space="preserve">2.79245758056641</t>
   </si>
   <si>
     <t xml:space="preserve">2.67507219314575</t>
   </si>
   <si>
-    <t xml:space="preserve">2.66845870018005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.61885905265808</t>
+    <t xml:space="preserve">2.66845893859863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.61885929107666</t>
   </si>
   <si>
     <t xml:space="preserve">2.58579277992249</t>
   </si>
   <si>
-    <t xml:space="preserve">2.68829917907715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.71640491485596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.65688562393188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.56760621070862</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.55437994003296</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.60728597640991</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.59405970573425</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.64861917495728</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.64365911483765</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.75608468055725</t>
+    <t xml:space="preserve">2.68829870223999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.71640515327454</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.65688538551331</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.5676064491272</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.55437970161438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.60728573799133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.59405946731567</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.6486189365387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.64365887641907</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.75608491897583</t>
   </si>
   <si>
     <t xml:space="preserve">2.75939154624939</t>
   </si>
   <si>
-    <t xml:space="preserve">2.95778965950012</t>
+    <t xml:space="preserve">2.95779013633728</t>
   </si>
   <si>
     <t xml:space="preserve">2.96274995803833</t>
   </si>
   <si>
-    <t xml:space="preserve">2.92141652107239</t>
+    <t xml:space="preserve">2.92141675949097</t>
   </si>
   <si>
     <t xml:space="preserve">2.88008379936218</t>
@@ -2432,28 +2432,28 @@
     <t xml:space="preserve">2.90653705596924</t>
   </si>
   <si>
-    <t xml:space="preserve">2.89331030845642</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.87347054481506</t>
+    <t xml:space="preserve">2.893310546875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.87347030639648</t>
   </si>
   <si>
     <t xml:space="preserve">2.86024403572083</t>
   </si>
   <si>
-    <t xml:space="preserve">2.85693764686584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.78915119171143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.73624467849731</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.80403113365173</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.80072426795959</t>
+    <t xml:space="preserve">2.85693740844727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.78915143013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.73624491691589</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.80403089523315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.80072450637817</t>
   </si>
   <si>
     <t xml:space="preserve">2.82717752456665</t>
@@ -2465,7 +2465,7 @@
     <t xml:space="preserve">2.7999279499054</t>
   </si>
   <si>
-    <t xml:space="preserve">2.81525564193726</t>
+    <t xml:space="preserve">2.81525588035583</t>
   </si>
   <si>
     <t xml:space="preserve">2.74031853675842</t>
@@ -2477,16 +2477,16 @@
     <t xml:space="preserve">2.7743809223175</t>
   </si>
   <si>
-    <t xml:space="preserve">2.73691248893738</t>
+    <t xml:space="preserve">2.73691201210022</t>
   </si>
   <si>
     <t xml:space="preserve">2.74883413314819</t>
   </si>
   <si>
-    <t xml:space="preserve">2.79481840133667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.8322868347168</t>
+    <t xml:space="preserve">2.79481863975525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.83228707313538</t>
   </si>
   <si>
     <t xml:space="preserve">2.83569312095642</t>
@@ -2495,7 +2495,7 @@
     <t xml:space="preserve">2.83739614486694</t>
   </si>
   <si>
-    <t xml:space="preserve">2.86805248260498</t>
+    <t xml:space="preserve">2.8680522441864</t>
   </si>
   <si>
     <t xml:space="preserve">2.82717728614807</t>
@@ -2504,10 +2504,10 @@
     <t xml:space="preserve">2.76075601577759</t>
   </si>
   <si>
-    <t xml:space="preserve">2.71647500991821</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.73350596427917</t>
+    <t xml:space="preserve">2.71647477149963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.73350620269775</t>
   </si>
   <si>
     <t xml:space="preserve">2.80333399772644</t>
@@ -2519,16 +2519,16 @@
     <t xml:space="preserve">2.6892249584198</t>
   </si>
   <si>
-    <t xml:space="preserve">2.70795917510986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.69944357872009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.69263100624084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.68411564826965</t>
+    <t xml:space="preserve">2.70795941352844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.69944381713867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.69263124465942</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.68411540985107</t>
   </si>
   <si>
     <t xml:space="preserve">2.76756834983826</t>
@@ -2537,43 +2537,43 @@
     <t xml:space="preserve">2.82547450065613</t>
   </si>
   <si>
-    <t xml:space="preserve">2.89019322395325</t>
+    <t xml:space="preserve">2.89019298553467</t>
   </si>
   <si>
     <t xml:space="preserve">2.8799741268158</t>
   </si>
   <si>
-    <t xml:space="preserve">2.86123991012573</t>
+    <t xml:space="preserve">2.86124014854431</t>
   </si>
   <si>
     <t xml:space="preserve">2.76586508750916</t>
   </si>
   <si>
-    <t xml:space="preserve">2.81014657020569</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.7828962802887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.76245880126953</t>
+    <t xml:space="preserve">2.81014633178711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.78289651870728</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.76245927810669</t>
   </si>
   <si>
     <t xml:space="preserve">2.85272431373596</t>
   </si>
   <si>
-    <t xml:space="preserve">2.82377123832703</t>
+    <t xml:space="preserve">2.82377147674561</t>
   </si>
   <si>
     <t xml:space="preserve">2.74542784690857</t>
   </si>
   <si>
-    <t xml:space="preserve">2.72499060630798</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.72669363021851</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.71306848526001</t>
+    <t xml:space="preserve">2.7249903678894</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.72669339179993</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.71306896209717</t>
   </si>
   <si>
     <t xml:space="preserve">2.79311513900757</t>
@@ -2585,46 +2585,46 @@
     <t xml:space="preserve">2.74713110923767</t>
   </si>
   <si>
-    <t xml:space="preserve">2.73861527442932</t>
+    <t xml:space="preserve">2.7386155128479</t>
   </si>
   <si>
     <t xml:space="preserve">2.78119349479675</t>
   </si>
   <si>
-    <t xml:space="preserve">2.76416206359863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.77949023246765</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.79822468757629</t>
+    <t xml:space="preserve">2.76416230201721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.77949047088623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.79822444915771</t>
   </si>
   <si>
     <t xml:space="preserve">2.81355261802673</t>
   </si>
   <si>
-    <t xml:space="preserve">2.73520922660828</t>
+    <t xml:space="preserve">2.7352089881897</t>
   </si>
   <si>
     <t xml:space="preserve">2.72158432006836</t>
   </si>
   <si>
-    <t xml:space="preserve">2.70455312728882</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.74372482299805</t>
+    <t xml:space="preserve">2.70455288887024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.74372458457947</t>
   </si>
   <si>
     <t xml:space="preserve">2.72839665412903</t>
   </si>
   <si>
-    <t xml:space="preserve">2.64494395256042</t>
+    <t xml:space="preserve">2.64494371414185</t>
   </si>
   <si>
     <t xml:space="preserve">2.65345931053162</t>
   </si>
   <si>
-    <t xml:space="preserve">2.63983464241028</t>
+    <t xml:space="preserve">2.6398344039917</t>
   </si>
   <si>
     <t xml:space="preserve">2.60747528076172</t>
@@ -2633,7 +2633,7 @@
     <t xml:space="preserve">2.61428761482239</t>
   </si>
   <si>
-    <t xml:space="preserve">2.5955536365509</t>
+    <t xml:space="preserve">2.59555339813232</t>
   </si>
   <si>
     <t xml:space="preserve">2.56489729881287</t>
@@ -2642,16 +2642,16 @@
     <t xml:space="preserve">2.51210045814514</t>
   </si>
   <si>
-    <t xml:space="preserve">2.53424119949341</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.4473819732666</t>
+    <t xml:space="preserve">2.53424096107483</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.44738221168518</t>
   </si>
   <si>
     <t xml:space="preserve">2.47292876243591</t>
   </si>
   <si>
-    <t xml:space="preserve">2.50188207626343</t>
+    <t xml:space="preserve">2.50188159942627</t>
   </si>
   <si>
     <t xml:space="preserve">2.55467844009399</t>
@@ -2660,19 +2660,19 @@
     <t xml:space="preserve">2.48485064506531</t>
   </si>
   <si>
-    <t xml:space="preserve">2.46441316604614</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.46611642837524</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.40139770507812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.37755441665649</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.31794500350952</t>
+    <t xml:space="preserve">2.46441340446472</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.46611618995667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.40139746665955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.37755417823792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.31794476509094</t>
   </si>
   <si>
     <t xml:space="preserve">2.27877330780029</t>
@@ -2681,7 +2681,7 @@
     <t xml:space="preserve">2.29921054840088</t>
   </si>
   <si>
-    <t xml:space="preserve">2.31964802742004</t>
+    <t xml:space="preserve">2.31964778900146</t>
   </si>
   <si>
     <t xml:space="preserve">2.33838248252869</t>
@@ -2699,13 +2699,13 @@
     <t xml:space="preserve">2.5461630821228</t>
   </si>
   <si>
-    <t xml:space="preserve">2.51550674438477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.54105377197266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.58533477783203</t>
+    <t xml:space="preserve">2.51550698280334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.54105353355408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.58533453941345</t>
   </si>
   <si>
     <t xml:space="preserve">2.57170963287354</t>
@@ -2714,61 +2714,61 @@
     <t xml:space="preserve">2.65686559677124</t>
   </si>
   <si>
-    <t xml:space="preserve">2.60236597061157</t>
+    <t xml:space="preserve">2.60236573219299</t>
   </si>
   <si>
     <t xml:space="preserve">2.58874082565308</t>
   </si>
   <si>
-    <t xml:space="preserve">2.59725642204285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.57341289520264</t>
+    <t xml:space="preserve">2.59725666046143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.57341265678406</t>
   </si>
   <si>
     <t xml:space="preserve">2.56830334663391</t>
   </si>
   <si>
-    <t xml:space="preserve">2.61599087715149</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.62961578369141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.6057722568512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.56319427490234</t>
+    <t xml:space="preserve">2.61599111557007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.62961602210999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.60577201843262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.56319403648376</t>
   </si>
   <si>
     <t xml:space="preserve">2.53083491325378</t>
   </si>
   <si>
-    <t xml:space="preserve">2.55978775024414</t>
+    <t xml:space="preserve">2.55978798866272</t>
   </si>
   <si>
     <t xml:space="preserve">2.53594422340393</t>
   </si>
   <si>
-    <t xml:space="preserve">2.52061629295349</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.50528788566589</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.47803807258606</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.45249152183533</t>
+    <t xml:space="preserve">2.52061605453491</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.50528812408447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.47803831100464</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.45249128341675</t>
   </si>
   <si>
     <t xml:space="preserve">2.48314738273621</t>
   </si>
   <si>
-    <t xml:space="preserve">2.45419430732727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.49336647987366</t>
+    <t xml:space="preserve">2.45419454574585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.49336624145508</t>
   </si>
   <si>
     <t xml:space="preserve">2.54275679588318</t>
@@ -2780,16 +2780,16 @@
     <t xml:space="preserve">2.47633528709412</t>
   </si>
   <si>
-    <t xml:space="preserve">2.54445958137512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.55127239227295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.53764724731445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.59895968437195</t>
+    <t xml:space="preserve">2.5444598197937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.55127215385437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.53764748573303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.59895992279053</t>
   </si>
   <si>
     <t xml:space="preserve">2.53253793716431</t>
@@ -2798,76 +2798,76 @@
     <t xml:space="preserve">2.58363127708435</t>
   </si>
   <si>
-    <t xml:space="preserve">2.57852220535278</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.69092798233032</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.63642811775208</t>
+    <t xml:space="preserve">2.57852244377136</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.6909282207489</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.63642835617065</t>
   </si>
   <si>
     <t xml:space="preserve">2.46952247619629</t>
   </si>
   <si>
-    <t xml:space="preserve">2.42353820800781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.4456787109375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.45589756965637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.41672611236572</t>
+    <t xml:space="preserve">2.42353844642639</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.44567894935608</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.45589780807495</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.41672587394714</t>
   </si>
   <si>
     <t xml:space="preserve">2.56149101257324</t>
   </si>
   <si>
-    <t xml:space="preserve">2.58703780174255</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.64834976196289</t>
+    <t xml:space="preserve">2.58703804016113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.64835023880005</t>
   </si>
   <si>
     <t xml:space="preserve">2.60406899452209</t>
   </si>
   <si>
-    <t xml:space="preserve">2.61769390106201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.65005326271057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.68581891059875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.64153742790222</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.63131880760193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.61939692497253</t>
+    <t xml:space="preserve">2.61769366264343</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.65005302429199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.68581867218018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.6415376663208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.63131904602051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.61939716339111</t>
   </si>
   <si>
     <t xml:space="preserve">2.52231907844543</t>
   </si>
   <si>
-    <t xml:space="preserve">2.49166345596313</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.62280344963074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.65856862068176</t>
+    <t xml:space="preserve">2.49166297912598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.62280321121216</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.65856885910034</t>
   </si>
   <si>
     <t xml:space="preserve">2.66538143157959</t>
   </si>
   <si>
-    <t xml:space="preserve">2.70114660263062</t>
+    <t xml:space="preserve">2.70114684104919</t>
   </si>
   <si>
     <t xml:space="preserve">2.81695890426636</t>
@@ -2885,7 +2885,7 @@
     <t xml:space="preserve">2.79652142524719</t>
   </si>
   <si>
-    <t xml:space="preserve">2.81270098686218</t>
+    <t xml:space="preserve">2.8127007484436</t>
   </si>
   <si>
     <t xml:space="preserve">2.8339900970459</t>
@@ -2900,31 +2900,31 @@
     <t xml:space="preserve">2.85698223114014</t>
   </si>
   <si>
-    <t xml:space="preserve">2.85783386230469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.85868525505066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.84846639633179</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.89785695075989</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.86549782752991</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.8697555065155</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.90126347541809</t>
+    <t xml:space="preserve">2.85783362388611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.85868549346924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.84846663475037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.89785718917847</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.86549758911133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.86975526809692</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.90126323699951</t>
   </si>
   <si>
     <t xml:space="preserve">2.94384121894836</t>
   </si>
   <si>
-    <t xml:space="preserve">2.87401342391968</t>
+    <t xml:space="preserve">2.8740131855011</t>
   </si>
   <si>
     <t xml:space="preserve">2.8757164478302</t>
@@ -2933,7 +2933,7 @@
     <t xml:space="preserve">2.86720108985901</t>
   </si>
   <si>
-    <t xml:space="preserve">2.96938800811768</t>
+    <t xml:space="preserve">2.96938824653625</t>
   </si>
   <si>
     <t xml:space="preserve">2.93788027763367</t>
@@ -2942,31 +2942,31 @@
     <t xml:space="preserve">2.92766165733337</t>
   </si>
   <si>
-    <t xml:space="preserve">2.9668333530426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.98556780815125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.99067711830139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.99493479728699</t>
+    <t xml:space="preserve">2.96683359146118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.98556756973267</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.99067687988281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.99493455886841</t>
   </si>
   <si>
     <t xml:space="preserve">2.98982548713684</t>
   </si>
   <si>
-    <t xml:space="preserve">2.97194290161133</t>
+    <t xml:space="preserve">2.97194266319275</t>
   </si>
   <si>
     <t xml:space="preserve">2.96768474578857</t>
   </si>
   <si>
-    <t xml:space="preserve">2.97279405593872</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.97023963928223</t>
+    <t xml:space="preserve">2.9727942943573</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.97023940086365</t>
   </si>
   <si>
     <t xml:space="preserve">2.98130989074707</t>
@@ -2975,13 +2975,13 @@
     <t xml:space="preserve">3.00515341758728</t>
   </si>
   <si>
-    <t xml:space="preserve">3.04177069664001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.06902074813843</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.08264517784119</t>
+    <t xml:space="preserve">3.04177045822144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.06902050971985</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.08264541625977</t>
   </si>
   <si>
     <t xml:space="preserve">3.13799667358398</t>
@@ -2993,25 +2993,25 @@
     <t xml:space="preserve">3.12011408805847</t>
   </si>
   <si>
-    <t xml:space="preserve">3.15417647361755</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.13033270835876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.1592857837677</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.13373923301697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.1192626953125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.10052824020386</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.06816864013672</t>
+    <t xml:space="preserve">3.15417623519897</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.13033294677734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.15928602218628</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.13373899459839</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.11926245689392</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.10052847862244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.0681688785553</t>
   </si>
   <si>
     <t xml:space="preserve">3.01026296615601</t>
@@ -3020,7 +3020,7 @@
     <t xml:space="preserve">3.03240346908569</t>
   </si>
   <si>
-    <t xml:space="preserve">3.00345015525818</t>
+    <t xml:space="preserve">3.00345039367676</t>
   </si>
   <si>
     <t xml:space="preserve">2.99834108352661</t>
@@ -3029,10 +3029,10 @@
     <t xml:space="preserve">2.99919271469116</t>
   </si>
   <si>
-    <t xml:space="preserve">2.97364568710327</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.00259876251221</t>
+    <t xml:space="preserve">2.97364592552185</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.00259852409363</t>
   </si>
   <si>
     <t xml:space="preserve">3.01754140853882</t>
@@ -3059,13 +3059,13 @@
     <t xml:space="preserve">3.03072619438171</t>
   </si>
   <si>
-    <t xml:space="preserve">3.00347805023193</t>
+    <t xml:space="preserve">3.00347781181335</t>
   </si>
   <si>
     <t xml:space="preserve">3.03512120246887</t>
   </si>
   <si>
-    <t xml:space="preserve">2.94810223579407</t>
+    <t xml:space="preserve">2.94810199737549</t>
   </si>
   <si>
     <t xml:space="preserve">2.9568920135498</t>
@@ -3083,16 +3083,16 @@
     <t xml:space="preserve">3.10192370414734</t>
   </si>
   <si>
-    <t xml:space="preserve">3.1458728313446</t>
+    <t xml:space="preserve">3.14587259292603</t>
   </si>
   <si>
     <t xml:space="preserve">3.17839503288269</t>
   </si>
   <si>
-    <t xml:space="preserve">3.15378355979919</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.15817832946777</t>
+    <t xml:space="preserve">3.15378379821777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.15817856788635</t>
   </si>
   <si>
     <t xml:space="preserve">3.13532495498657</t>
@@ -3101,13 +3101,13 @@
     <t xml:space="preserve">3.12214040756226</t>
   </si>
   <si>
-    <t xml:space="preserve">3.11335039138794</t>
+    <t xml:space="preserve">3.11335062980652</t>
   </si>
   <si>
     <t xml:space="preserve">3.13268804550171</t>
   </si>
   <si>
-    <t xml:space="preserve">3.15993642807007</t>
+    <t xml:space="preserve">3.15993666648865</t>
   </si>
   <si>
     <t xml:space="preserve">3.14850974082947</t>
@@ -3125,10 +3125,10 @@
     <t xml:space="preserve">3.26277709007263</t>
   </si>
   <si>
-    <t xml:space="preserve">3.27420377731323</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.29881525039673</t>
+    <t xml:space="preserve">3.27420401573181</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.29881548881531</t>
   </si>
   <si>
     <t xml:space="preserve">3.31551599502563</t>
@@ -3137,19 +3137,19 @@
     <t xml:space="preserve">3.30408930778503</t>
   </si>
   <si>
-    <t xml:space="preserve">3.30584716796875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.28475165367126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.24607682228088</t>
+    <t xml:space="preserve">3.30584740638733</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.28475189208984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.2460765838623</t>
   </si>
   <si>
     <t xml:space="preserve">3.21707034111023</t>
   </si>
   <si>
-    <t xml:space="preserve">3.23201274871826</t>
+    <t xml:space="preserve">3.23201298713684</t>
   </si>
   <si>
     <t xml:space="preserve">3.22673892974854</t>
@@ -3158,16 +3158,16 @@
     <t xml:space="preserve">3.21970725059509</t>
   </si>
   <si>
-    <t xml:space="preserve">3.25398707389832</t>
+    <t xml:space="preserve">3.25398731231689</t>
   </si>
   <si>
     <t xml:space="preserve">3.23904466629028</t>
   </si>
   <si>
-    <t xml:space="preserve">3.22586011886597</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.24168181419373</t>
+    <t xml:space="preserve">3.22585988044739</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.24168157577515</t>
   </si>
   <si>
     <t xml:space="preserve">3.19597458839417</t>
@@ -3176,13 +3176,13 @@
     <t xml:space="preserve">3.14938855171204</t>
   </si>
   <si>
-    <t xml:space="preserve">3.18806409835815</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.21443343162537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.16345262527466</t>
+    <t xml:space="preserve">3.18806385993958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.21443319320679</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.16345238685608</t>
   </si>
   <si>
     <t xml:space="preserve">3.19861149787903</t>
@@ -3194,13 +3194,13 @@
     <t xml:space="preserve">3.20124864578247</t>
   </si>
   <si>
-    <t xml:space="preserve">3.19773244857788</t>
+    <t xml:space="preserve">3.19773268699646</t>
   </si>
   <si>
     <t xml:space="preserve">3.20740127563477</t>
   </si>
   <si>
-    <t xml:space="preserve">3.13620376586914</t>
+    <t xml:space="preserve">3.1362042427063</t>
   </si>
   <si>
     <t xml:space="preserve">3.08522295951843</t>
@@ -3215,22 +3215,22 @@
     <t xml:space="preserve">3.10719776153564</t>
   </si>
   <si>
-    <t xml:space="preserve">3.10983443260193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.11598753929138</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.07115936279297</t>
+    <t xml:space="preserve">3.10983467102051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.1159873008728</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.07115960121155</t>
   </si>
   <si>
     <t xml:space="preserve">3.09664988517761</t>
   </si>
   <si>
-    <t xml:space="preserve">3.01929950714111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.98501896858215</t>
+    <t xml:space="preserve">3.01929926872253</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.98501920700073</t>
   </si>
   <si>
     <t xml:space="preserve">3.02017855644226</t>
@@ -3242,22 +3242,22 @@
     <t xml:space="preserve">3.08610200881958</t>
   </si>
   <si>
-    <t xml:space="preserve">3.0632483959198</t>
+    <t xml:space="preserve">3.06324863433838</t>
   </si>
   <si>
     <t xml:space="preserve">3.03336310386658</t>
   </si>
   <si>
-    <t xml:space="preserve">3.05357956886292</t>
+    <t xml:space="preserve">3.05357980728149</t>
   </si>
   <si>
     <t xml:space="preserve">3.11422920227051</t>
   </si>
   <si>
-    <t xml:space="preserve">3.14675188064575</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.16257357597351</t>
+    <t xml:space="preserve">3.14675164222717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.16257333755493</t>
   </si>
   <si>
     <t xml:space="preserve">3.13005113601685</t>
@@ -3266,13 +3266,13 @@
     <t xml:space="preserve">3.16608929634094</t>
   </si>
   <si>
-    <t xml:space="preserve">3.10895538330078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.12477707862854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.1063187122345</t>
+    <t xml:space="preserve">3.10895562171936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.12477731704712</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.10631847381592</t>
   </si>
   <si>
     <t xml:space="preserve">3.14763069152832</t>
@@ -3284,19 +3284,19 @@
     <t xml:space="preserve">3.20828056335449</t>
   </si>
   <si>
-    <t xml:space="preserve">3.1704843044281</t>
+    <t xml:space="preserve">3.17048454284668</t>
   </si>
   <si>
     <t xml:space="preserve">3.1291720867157</t>
   </si>
   <si>
-    <t xml:space="preserve">3.17136311531067</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.183669090271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.18718457221985</t>
+    <t xml:space="preserve">3.17136335372925</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.18366861343384</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.18718481063843</t>
   </si>
   <si>
     <t xml:space="preserve">3.14499378204346</t>
@@ -3305,22 +3305,22 @@
     <t xml:space="preserve">3.14235687255859</t>
   </si>
   <si>
-    <t xml:space="preserve">3.11247158050537</t>
+    <t xml:space="preserve">3.11247134208679</t>
   </si>
   <si>
     <t xml:space="preserve">2.96216559410095</t>
   </si>
   <si>
-    <t xml:space="preserve">2.97710871696472</t>
+    <t xml:space="preserve">2.97710847854614</t>
   </si>
   <si>
     <t xml:space="preserve">2.9929301738739</t>
   </si>
   <si>
-    <t xml:space="preserve">3.06764364242554</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.99732494354248</t>
+    <t xml:space="preserve">3.06764340400696</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.99732518196106</t>
   </si>
   <si>
     <t xml:space="preserve">3.13796186447144</t>
@@ -3329,10 +3329,10 @@
     <t xml:space="preserve">3.0931339263916</t>
   </si>
   <si>
-    <t xml:space="preserve">3.12038207054138</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.08961796760559</t>
+    <t xml:space="preserve">3.12038230895996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.08961820602417</t>
   </si>
   <si>
     <t xml:space="preserve">3.11510825157166</t>
@@ -3347,22 +3347,22 @@
     <t xml:space="preserve">3.16433119773865</t>
   </si>
   <si>
-    <t xml:space="preserve">3.17487907409668</t>
+    <t xml:space="preserve">3.17487931251526</t>
   </si>
   <si>
     <t xml:space="preserve">3.23289179801941</t>
   </si>
   <si>
-    <t xml:space="preserve">3.2179491519928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.25750350952148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.2276177406311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.20212745666504</t>
+    <t xml:space="preserve">3.21794939041138</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.25750327110291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.22761797904968</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.20212769508362</t>
   </si>
   <si>
     <t xml:space="preserve">3.13971996307373</t>
@@ -3371,7 +3371,7 @@
     <t xml:space="preserve">3.12565612792969</t>
   </si>
   <si>
-    <t xml:space="preserve">3.10543966293335</t>
+    <t xml:space="preserve">3.10543990135193</t>
   </si>
   <si>
     <t xml:space="preserve">3.081707239151</t>
@@ -3380,7 +3380,7 @@
     <t xml:space="preserve">3.09225487709045</t>
   </si>
   <si>
-    <t xml:space="preserve">3.05885362625122</t>
+    <t xml:space="preserve">3.0588538646698</t>
   </si>
   <si>
     <t xml:space="preserve">3.01666259765625</t>
@@ -3389,7 +3389,7 @@
     <t xml:space="preserve">3.02633142471313</t>
   </si>
   <si>
-    <t xml:space="preserve">3.08434414863586</t>
+    <t xml:space="preserve">3.08434391021729</t>
   </si>
   <si>
     <t xml:space="preserve">3.19070100784302</t>
@@ -3404,25 +3404,25 @@
     <t xml:space="preserve">3.18454790115356</t>
   </si>
   <si>
-    <t xml:space="preserve">3.04830574989319</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.98765635490417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.0272102355957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.04742670059204</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.0342423915863</t>
+    <t xml:space="preserve">3.04830598831177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.9876561164856</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.02721047401428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.04742693901062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.03424191474915</t>
   </si>
   <si>
     <t xml:space="preserve">2.96656060218811</t>
   </si>
   <si>
-    <t xml:space="preserve">2.9946882724762</t>
+    <t xml:space="preserve">2.99468803405762</t>
   </si>
   <si>
     <t xml:space="preserve">2.97974538803101</t>
@@ -3437,25 +3437,25 @@
     <t xml:space="preserve">2.90151619911194</t>
   </si>
   <si>
-    <t xml:space="preserve">2.91294264793396</t>
+    <t xml:space="preserve">2.91294288635254</t>
   </si>
   <si>
     <t xml:space="preserve">2.92964339256287</t>
   </si>
   <si>
-    <t xml:space="preserve">2.84262418746948</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.0456690788269</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.93755435943604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.89360523223877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.86547803878784</t>
+    <t xml:space="preserve">2.84262442588806</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.04566884040833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.93755412101746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.89360547065735</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.86547780036926</t>
   </si>
   <si>
     <t xml:space="preserve">2.79955410957336</t>
@@ -3464,7 +3464,7 @@
     <t xml:space="preserve">2.81273913383484</t>
   </si>
   <si>
-    <t xml:space="preserve">2.87778329849243</t>
+    <t xml:space="preserve">2.87778353691101</t>
   </si>
   <si>
     <t xml:space="preserve">2.98414015769958</t>
@@ -3479,13 +3479,13 @@
     <t xml:space="preserve">2.95777082443237</t>
   </si>
   <si>
-    <t xml:space="preserve">2.92436933517456</t>
+    <t xml:space="preserve">2.92436957359314</t>
   </si>
   <si>
     <t xml:space="preserve">2.96040773391724</t>
   </si>
   <si>
-    <t xml:space="preserve">2.99908304214478</t>
+    <t xml:space="preserve">2.9990828037262</t>
   </si>
   <si>
     <t xml:space="preserve">2.89184737205505</t>
@@ -3503,10 +3503,10 @@
     <t xml:space="preserve">2.95952892303467</t>
   </si>
   <si>
-    <t xml:space="preserve">2.94107031822205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.9832615852356</t>
+    <t xml:space="preserve">2.94107007980347</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.98326110839844</t>
   </si>
   <si>
     <t xml:space="preserve">3.0157835483551</t>
@@ -3518,10 +3518,10 @@
     <t xml:space="preserve">3.16081523895264</t>
   </si>
   <si>
-    <t xml:space="preserve">3.11686658859253</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.15729975700378</t>
+    <t xml:space="preserve">3.11686635017395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.15729951858521</t>
   </si>
   <si>
     <t xml:space="preserve">3.17224216461182</t>
@@ -3533,7 +3533,7 @@
     <t xml:space="preserve">3.16169428825378</t>
   </si>
   <si>
-    <t xml:space="preserve">3.08346509933472</t>
+    <t xml:space="preserve">3.08346486091614</t>
   </si>
   <si>
     <t xml:space="preserve">3.09489178657532</t>
@@ -3563,7 +3563,7 @@
     <t xml:space="preserve">3.15114665031433</t>
   </si>
   <si>
-    <t xml:space="preserve">3.09928679466248</t>
+    <t xml:space="preserve">3.0992865562439</t>
   </si>
   <si>
     <t xml:space="preserve">3.0764331817627</t>
@@ -3572,16 +3572,16 @@
     <t xml:space="preserve">2.99820399284363</t>
   </si>
   <si>
-    <t xml:space="preserve">2.97359228134155</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.93315935134888</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.96831870079041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.94282817840576</t>
+    <t xml:space="preserve">2.97359251976013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.9331591129303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.96831846237183</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.94282841682434</t>
   </si>
   <si>
     <t xml:space="preserve">2.94458603858948</t>
@@ -3596,16 +3596,16 @@
     <t xml:space="preserve">2.50685358047485</t>
   </si>
   <si>
-    <t xml:space="preserve">2.44444608688354</t>
+    <t xml:space="preserve">2.44444584846497</t>
   </si>
   <si>
     <t xml:space="preserve">2.54992389678955</t>
   </si>
   <si>
-    <t xml:space="preserve">2.47784733772278</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.50773239135742</t>
+    <t xml:space="preserve">2.4778470993042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.507732629776</t>
   </si>
   <si>
     <t xml:space="preserve">2.47102975845337</t>
@@ -3632,19 +3632,19 @@
     <t xml:space="preserve">2.56829261779785</t>
   </si>
   <si>
-    <t xml:space="preserve">2.53250694274902</t>
+    <t xml:space="preserve">2.5325071811676</t>
   </si>
   <si>
     <t xml:space="preserve">2.58022117614746</t>
   </si>
   <si>
-    <t xml:space="preserve">2.57746839523315</t>
+    <t xml:space="preserve">2.57746815681458</t>
   </si>
   <si>
     <t xml:space="preserve">2.50314474105835</t>
   </si>
   <si>
-    <t xml:space="preserve">2.54902338981628</t>
+    <t xml:space="preserve">2.54902362823486</t>
   </si>
   <si>
     <t xml:space="preserve">2.58389115333557</t>
@@ -3656,7 +3656,7 @@
     <t xml:space="preserve">2.55085849761963</t>
   </si>
   <si>
-    <t xml:space="preserve">2.46368908882141</t>
+    <t xml:space="preserve">2.46368885040283</t>
   </si>
   <si>
     <t xml:space="preserve">2.39028286933899</t>
@@ -3689,10 +3689,10 @@
     <t xml:space="preserve">2.52057862281799</t>
   </si>
   <si>
-    <t xml:space="preserve">2.53801274299622</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.60316038131714</t>
+    <t xml:space="preserve">2.53801250457764</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.60316014289856</t>
   </si>
   <si>
     <t xml:space="preserve">2.59857249259949</t>
@@ -3707,10 +3707,10 @@
     <t xml:space="preserve">2.53067183494568</t>
   </si>
   <si>
-    <t xml:space="preserve">2.53434228897095</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.56095170974731</t>
+    <t xml:space="preserve">2.53434252738953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.56095194816589</t>
   </si>
   <si>
     <t xml:space="preserve">2.56737494468689</t>
@@ -3728,13 +3728,13 @@
     <t xml:space="preserve">2.51323819160461</t>
   </si>
   <si>
-    <t xml:space="preserve">2.49396896362305</t>
+    <t xml:space="preserve">2.49396872520447</t>
   </si>
   <si>
     <t xml:space="preserve">2.45726585388184</t>
   </si>
   <si>
-    <t xml:space="preserve">2.38202452659607</t>
+    <t xml:space="preserve">2.38202476501465</t>
   </si>
   <si>
     <t xml:space="preserve">2.44074964523315</t>
@@ -3743,7 +3743,7 @@
     <t xml:space="preserve">2.29393768310547</t>
   </si>
   <si>
-    <t xml:space="preserve">2.29485511779785</t>
+    <t xml:space="preserve">2.29485487937927</t>
   </si>
   <si>
     <t xml:space="preserve">2.32697033882141</t>
@@ -3752,10 +3752,10 @@
     <t xml:space="preserve">2.26641035079956</t>
   </si>
   <si>
-    <t xml:space="preserve">2.14987802505493</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.20768523216248</t>
+    <t xml:space="preserve">2.14987826347351</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.20768547058105</t>
   </si>
   <si>
     <t xml:space="preserve">2.19483947753906</t>
@@ -3773,7 +3773,7 @@
     <t xml:space="preserve">2.22970747947693</t>
   </si>
   <si>
-    <t xml:space="preserve">2.22695469856262</t>
+    <t xml:space="preserve">2.22695446014404</t>
   </si>
   <si>
     <t xml:space="preserve">2.19850969314575</t>
@@ -3791,31 +3791,31 @@
     <t xml:space="preserve">2.11868071556091</t>
   </si>
   <si>
-    <t xml:space="preserve">2.05169773101807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.05812072753906</t>
+    <t xml:space="preserve">2.05169796943665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.05812096595764</t>
   </si>
   <si>
     <t xml:space="preserve">1.94892942905426</t>
   </si>
   <si>
-    <t xml:space="preserve">1.9975608587265</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.98746752738953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.00581908226013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.0168297290802</t>
+    <t xml:space="preserve">1.99756073951721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.98746728897095</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.00581932067871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.01682996749878</t>
   </si>
   <si>
     <t xml:space="preserve">2.07647228240967</t>
   </si>
   <si>
-    <t xml:space="preserve">1.97095108032227</t>
+    <t xml:space="preserve">1.97095119953156</t>
   </si>
   <si>
     <t xml:space="preserve">1.90855598449707</t>
@@ -3827,16 +3827,16 @@
     <t xml:space="preserve">1.93975365161896</t>
   </si>
   <si>
-    <t xml:space="preserve">1.87185311317444</t>
+    <t xml:space="preserve">1.87185299396515</t>
   </si>
   <si>
     <t xml:space="preserve">1.83882033824921</t>
   </si>
   <si>
-    <t xml:space="preserve">1.86726534366608</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89846277236938</t>
+    <t xml:space="preserve">1.86726522445679</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8984626531601</t>
   </si>
   <si>
     <t xml:space="preserve">1.9480117559433</t>
@@ -3854,7 +3854,7 @@
     <t xml:space="preserve">1.92048454284668</t>
   </si>
   <si>
-    <t xml:space="preserve">1.98379719257355</t>
+    <t xml:space="preserve">1.98379731178284</t>
   </si>
   <si>
     <t xml:space="preserve">2.07280206680298</t>
@@ -3869,10 +3869,10 @@
     <t xml:space="preserve">2.21319103240967</t>
   </si>
   <si>
-    <t xml:space="preserve">2.22420167922974</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.22236680984497</t>
+    <t xml:space="preserve">2.22420191764832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.22236657142639</t>
   </si>
   <si>
     <t xml:space="preserve">2.21135592460632</t>
@@ -3887,13 +3887,13 @@
     <t xml:space="preserve">2.31595921516418</t>
   </si>
   <si>
-    <t xml:space="preserve">2.364590883255</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.39395332336426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.36550831794739</t>
+    <t xml:space="preserve">2.36459064483643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.39395308494568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.36550855636597</t>
   </si>
   <si>
     <t xml:space="preserve">2.38477754592896</t>
@@ -3920,10 +3920,10 @@
     <t xml:space="preserve">2.43249130249023</t>
   </si>
   <si>
-    <t xml:space="preserve">2.43799710273743</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.41872763633728</t>
+    <t xml:space="preserve">2.43799686431885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.41872787475586</t>
   </si>
   <si>
     <t xml:space="preserve">2.43065619468689</t>
@@ -3935,16 +3935,16 @@
     <t xml:space="preserve">2.46001863479614</t>
   </si>
   <si>
-    <t xml:space="preserve">2.46827697753906</t>
+    <t xml:space="preserve">2.46827673912048</t>
   </si>
   <si>
     <t xml:space="preserve">2.46460676193237</t>
   </si>
   <si>
-    <t xml:space="preserve">2.52333116531372</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.5728805065155</t>
+    <t xml:space="preserve">2.5233314037323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.57288026809692</t>
   </si>
   <si>
     <t xml:space="preserve">2.59673738479614</t>
@@ -3965,7 +3965,7 @@
     <t xml:space="preserve">2.3462393283844</t>
   </si>
   <si>
-    <t xml:space="preserve">2.32513499259949</t>
+    <t xml:space="preserve">2.32513523101807</t>
   </si>
   <si>
     <t xml:space="preserve">2.34165143966675</t>
@@ -3974,7 +3974,7 @@
     <t xml:space="preserve">2.33889889717102</t>
   </si>
   <si>
-    <t xml:space="preserve">2.28476190567017</t>
+    <t xml:space="preserve">2.28476166725159</t>
   </si>
   <si>
     <t xml:space="preserve">2.33614611625671</t>
@@ -3989,7 +3989,7 @@
     <t xml:space="preserve">2.37468409538269</t>
   </si>
   <si>
-    <t xml:space="preserve">2.42239832878113</t>
+    <t xml:space="preserve">2.42239809036255</t>
   </si>
   <si>
     <t xml:space="preserve">2.40955185890198</t>
@@ -4001,25 +4001,25 @@
     <t xml:space="preserve">2.54260039329529</t>
   </si>
   <si>
-    <t xml:space="preserve">2.514155626297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.51966118812561</t>
+    <t xml:space="preserve">2.51415538787842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.51966094970703</t>
   </si>
   <si>
     <t xml:space="preserve">2.49672174453735</t>
   </si>
   <si>
-    <t xml:space="preserve">2.43524408340454</t>
+    <t xml:space="preserve">2.43524432182312</t>
   </si>
   <si>
     <t xml:space="preserve">2.47745251655579</t>
   </si>
   <si>
-    <t xml:space="preserve">2.50406241416931</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.49121594429016</t>
+    <t xml:space="preserve">2.50406217575073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.49121618270874</t>
   </si>
   <si>
     <t xml:space="preserve">2.48571085929871</t>
@@ -4034,7 +4034,7 @@
     <t xml:space="preserve">2.43157386779785</t>
   </si>
   <si>
-    <t xml:space="preserve">2.50039172172546</t>
+    <t xml:space="preserve">2.50039196014404</t>
   </si>
   <si>
     <t xml:space="preserve">2.45910120010376</t>
@@ -4052,16 +4052,16 @@
     <t xml:space="preserve">2.38569498062134</t>
   </si>
   <si>
-    <t xml:space="preserve">2.38018989562988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.35082721710205</t>
+    <t xml:space="preserve">2.3801896572113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.35082745552063</t>
   </si>
   <si>
     <t xml:space="preserve">2.31779456138611</t>
   </si>
   <si>
-    <t xml:space="preserve">2.30953621864319</t>
+    <t xml:space="preserve">2.30953645706177</t>
   </si>
   <si>
     <t xml:space="preserve">2.30494856834412</t>
@@ -4094,7 +4094,7 @@
     <t xml:space="preserve">2.21686100959778</t>
   </si>
   <si>
-    <t xml:space="preserve">2.20676803588867</t>
+    <t xml:space="preserve">2.20676779747009</t>
   </si>
   <si>
     <t xml:space="preserve">2.19575691223145</t>
@@ -4112,7 +4112,7 @@
     <t xml:space="preserve">2.28567934036255</t>
   </si>
   <si>
-    <t xml:space="preserve">2.29669046401978</t>
+    <t xml:space="preserve">2.2966902256012</t>
   </si>
   <si>
     <t xml:space="preserve">2.32605266571045</t>
@@ -4127,10 +4127,10 @@
     <t xml:space="preserve">2.4921338558197</t>
   </si>
   <si>
-    <t xml:space="preserve">2.51232051849365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.40588188171387</t>
+    <t xml:space="preserve">2.51232028007507</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.40588164329529</t>
   </si>
   <si>
     <t xml:space="preserve">2.48479318618774</t>
@@ -4139,19 +4139,19 @@
     <t xml:space="preserve">2.47928762435913</t>
   </si>
   <si>
-    <t xml:space="preserve">2.56186962127686</t>
+    <t xml:space="preserve">2.56186938285828</t>
   </si>
   <si>
     <t xml:space="preserve">2.59123182296753</t>
   </si>
   <si>
-    <t xml:space="preserve">2.53617739677429</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.58939695358276</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.62609958648682</t>
+    <t xml:space="preserve">2.53617715835571</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.58939671516418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.6260998249054</t>
   </si>
   <si>
     <t xml:space="preserve">2.61692404747009</t>
@@ -4160,10 +4160,10 @@
     <t xml:space="preserve">2.63527536392212</t>
   </si>
   <si>
-    <t xml:space="preserve">2.72152781486511</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.74905467033386</t>
+    <t xml:space="preserve">2.72152757644653</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.74905490875244</t>
   </si>
   <si>
     <t xml:space="preserve">2.77658200263977</t>
@@ -4184,10 +4184,10 @@
     <t xml:space="preserve">2.73070335388184</t>
   </si>
   <si>
-    <t xml:space="preserve">2.71969246864319</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.64445114135742</t>
+    <t xml:space="preserve">2.71969223022461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.644451379776</t>
   </si>
   <si>
     <t xml:space="preserve">2.62242960929871</t>
@@ -4196,10 +4196,10 @@
     <t xml:space="preserve">2.67564868927002</t>
   </si>
   <si>
-    <t xml:space="preserve">2.67748403549194</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.70684623718262</t>
+    <t xml:space="preserve">2.67748379707336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.7068464756012</t>
   </si>
   <si>
     <t xml:space="preserve">2.68298935890198</t>
@@ -4217,7 +4217,7 @@
     <t xml:space="preserve">2.63894581794739</t>
   </si>
   <si>
-    <t xml:space="preserve">2.64812135696411</t>
+    <t xml:space="preserve">2.64812159538269</t>
   </si>
   <si>
     <t xml:space="preserve">2.65913248062134</t>
@@ -4229,7 +4229,7 @@
     <t xml:space="preserve">2.62426447868347</t>
   </si>
   <si>
-    <t xml:space="preserve">2.66463780403137</t>
+    <t xml:space="preserve">2.66463804244995</t>
   </si>
   <si>
     <t xml:space="preserve">2.61190128326416</t>
@@ -4872,6 +4872,9 @@
   </si>
   <si>
     <t xml:space="preserve">3.21199989318848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.25799989700317</t>
   </si>
 </sst>
 </file>
@@ -9521,7 +9524,7 @@
         <v>2.44000005722046</v>
       </c>
       <c r="G166" t="s">
-        <v>62</v>
+        <v>120</v>
       </c>
       <c r="H166" t="s">
         <v>9</v>
@@ -9573,7 +9576,7 @@
         <v>2.45199990272522</v>
       </c>
       <c r="G168" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H168" t="s">
         <v>9</v>
@@ -9625,7 +9628,7 @@
         <v>2.47199988365173</v>
       </c>
       <c r="G170" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="H170" t="s">
         <v>9</v>
@@ -9651,7 +9654,7 @@
         <v>2.48399996757507</v>
       </c>
       <c r="G171" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="H171" t="s">
         <v>9</v>
@@ -9703,7 +9706,7 @@
         <v>2.46600008010864</v>
       </c>
       <c r="G173" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H173" t="s">
         <v>9</v>
@@ -9729,7 +9732,7 @@
         <v>2.47199988365173</v>
       </c>
       <c r="G174" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="H174" t="s">
         <v>9</v>
@@ -9755,7 +9758,7 @@
         <v>2.47000002861023</v>
       </c>
       <c r="G175" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H175" t="s">
         <v>9</v>
@@ -9781,7 +9784,7 @@
         <v>2.50600004196167</v>
       </c>
       <c r="G176" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H176" t="s">
         <v>9</v>
@@ -9859,7 +9862,7 @@
         <v>2.42400002479553</v>
       </c>
       <c r="G179" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H179" t="s">
         <v>9</v>
@@ -9885,7 +9888,7 @@
         <v>2.39599990844727</v>
       </c>
       <c r="G180" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H180" t="s">
         <v>9</v>
@@ -9937,7 +9940,7 @@
         <v>2.39599990844727</v>
       </c>
       <c r="G182" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H182" t="s">
         <v>9</v>
@@ -9963,7 +9966,7 @@
         <v>2.35599994659424</v>
       </c>
       <c r="G183" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="H183" t="s">
         <v>9</v>
@@ -9989,7 +9992,7 @@
         <v>2.39800000190735</v>
       </c>
       <c r="G184" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H184" t="s">
         <v>9</v>
@@ -10015,7 +10018,7 @@
         <v>2.42199993133545</v>
       </c>
       <c r="G185" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H185" t="s">
         <v>9</v>
@@ -10041,7 +10044,7 @@
         <v>2.39800000190735</v>
       </c>
       <c r="G186" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H186" t="s">
         <v>9</v>
@@ -10067,7 +10070,7 @@
         <v>2.42199993133545</v>
       </c>
       <c r="G187" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H187" t="s">
         <v>9</v>
@@ -10093,7 +10096,7 @@
         <v>2.36199998855591</v>
       </c>
       <c r="G188" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="H188" t="s">
         <v>9</v>
@@ -10119,7 +10122,7 @@
         <v>2.35800004005432</v>
       </c>
       <c r="G189" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H189" t="s">
         <v>9</v>
@@ -10145,7 +10148,7 @@
         <v>2.34999990463257</v>
       </c>
       <c r="G190" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H190" t="s">
         <v>9</v>
@@ -10171,7 +10174,7 @@
         <v>2.33599996566772</v>
       </c>
       <c r="G191" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H191" t="s">
         <v>9</v>
@@ -10197,7 +10200,7 @@
         <v>2.36999988555908</v>
       </c>
       <c r="G192" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H192" t="s">
         <v>9</v>
@@ -10223,7 +10226,7 @@
         <v>2.39800000190735</v>
       </c>
       <c r="G193" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H193" t="s">
         <v>9</v>
@@ -10249,7 +10252,7 @@
         <v>2.34200000762939</v>
       </c>
       <c r="G194" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="H194" t="s">
         <v>9</v>
@@ -10275,7 +10278,7 @@
         <v>2.25200009346008</v>
       </c>
       <c r="G195" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="H195" t="s">
         <v>9</v>
@@ -10301,7 +10304,7 @@
         <v>2.21600008010864</v>
       </c>
       <c r="G196" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="H196" t="s">
         <v>9</v>
@@ -10327,7 +10330,7 @@
         <v>2.19799995422363</v>
       </c>
       <c r="G197" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="H197" t="s">
         <v>9</v>
@@ -10353,7 +10356,7 @@
         <v>2.1800000667572</v>
       </c>
       <c r="G198" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H198" t="s">
         <v>9</v>
@@ -10379,7 +10382,7 @@
         <v>2.21000003814697</v>
       </c>
       <c r="G199" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="H199" t="s">
         <v>9</v>
@@ -10405,7 +10408,7 @@
         <v>2.22199988365173</v>
       </c>
       <c r="G200" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="H200" t="s">
         <v>9</v>
@@ -10431,7 +10434,7 @@
         <v>2.2279999256134</v>
       </c>
       <c r="G201" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H201" t="s">
         <v>9</v>
@@ -10457,7 +10460,7 @@
         <v>2.23799991607666</v>
       </c>
       <c r="G202" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H202" t="s">
         <v>9</v>
@@ -10483,7 +10486,7 @@
         <v>2.25399994850159</v>
       </c>
       <c r="G203" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="H203" t="s">
         <v>9</v>
@@ -10509,7 +10512,7 @@
         <v>2.23399996757507</v>
       </c>
       <c r="G204" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="H204" t="s">
         <v>9</v>
@@ -10535,7 +10538,7 @@
         <v>2.26200008392334</v>
       </c>
       <c r="G205" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="H205" t="s">
         <v>9</v>
@@ -10561,7 +10564,7 @@
         <v>2.25999999046326</v>
       </c>
       <c r="G206" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="H206" t="s">
         <v>9</v>
@@ -10587,7 +10590,7 @@
         <v>2.27800011634827</v>
       </c>
       <c r="G207" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="H207" t="s">
         <v>9</v>
@@ -10613,7 +10616,7 @@
         <v>2.24000000953674</v>
       </c>
       <c r="G208" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="H208" t="s">
         <v>9</v>
@@ -10639,7 +10642,7 @@
         <v>2.23000001907349</v>
       </c>
       <c r="G209" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H209" t="s">
         <v>9</v>
@@ -10665,7 +10668,7 @@
         <v>2.23200011253357</v>
       </c>
       <c r="G210" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H210" t="s">
         <v>9</v>
@@ -10691,7 +10694,7 @@
         <v>2.24399995803833</v>
       </c>
       <c r="G211" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H211" t="s">
         <v>9</v>
@@ -10717,7 +10720,7 @@
         <v>2.29399991035461</v>
       </c>
       <c r="G212" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="H212" t="s">
         <v>9</v>
@@ -10743,7 +10746,7 @@
         <v>2.30399990081787</v>
       </c>
       <c r="G213" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="H213" t="s">
         <v>9</v>
@@ -10769,7 +10772,7 @@
         <v>2.32999992370605</v>
       </c>
       <c r="G214" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="H214" t="s">
         <v>9</v>
@@ -10821,7 +10824,7 @@
         <v>2.23200011253357</v>
       </c>
       <c r="G216" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H216" t="s">
         <v>9</v>
@@ -10847,7 +10850,7 @@
         <v>2.24000000953674</v>
       </c>
       <c r="G217" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="H217" t="s">
         <v>9</v>
@@ -10873,7 +10876,7 @@
         <v>2.20000004768372</v>
       </c>
       <c r="G218" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="H218" t="s">
         <v>9</v>
@@ -10899,7 +10902,7 @@
         <v>2.16199994087219</v>
       </c>
       <c r="G219" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="H219" t="s">
         <v>9</v>
@@ -10925,7 +10928,7 @@
         <v>2.15799999237061</v>
       </c>
       <c r="G220" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="H220" t="s">
         <v>9</v>
@@ -10951,7 +10954,7 @@
         <v>2.13000011444092</v>
       </c>
       <c r="G221" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="H221" t="s">
         <v>9</v>
@@ -10977,7 +10980,7 @@
         <v>2.01600003242493</v>
       </c>
       <c r="G222" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="H222" t="s">
         <v>9</v>
@@ -11003,7 +11006,7 @@
         <v>2.01999998092651</v>
       </c>
       <c r="G223" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="H223" t="s">
         <v>9</v>
@@ -11029,7 +11032,7 @@
         <v>1.99600005149841</v>
       </c>
       <c r="G224" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="H224" t="s">
         <v>9</v>
@@ -11055,7 +11058,7 @@
         <v>1.99500000476837</v>
       </c>
       <c r="G225" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="H225" t="s">
         <v>9</v>
@@ -11081,7 +11084,7 @@
         <v>2.00200009346008</v>
       </c>
       <c r="G226" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="H226" t="s">
         <v>9</v>
@@ -11107,7 +11110,7 @@
         <v>1.97399997711182</v>
       </c>
       <c r="G227" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="H227" t="s">
         <v>9</v>
@@ -11133,7 +11136,7 @@
         <v>1.96300005912781</v>
       </c>
       <c r="G228" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H228" t="s">
         <v>9</v>
@@ -11159,7 +11162,7 @@
         <v>1.92700004577637</v>
       </c>
       <c r="G229" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="H229" t="s">
         <v>9</v>
@@ -11185,7 +11188,7 @@
         <v>1.92499995231628</v>
       </c>
       <c r="G230" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H230" t="s">
         <v>9</v>
@@ -11211,7 +11214,7 @@
         <v>1.94500005245209</v>
       </c>
       <c r="G231" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="H231" t="s">
         <v>9</v>
@@ -11237,7 +11240,7 @@
         <v>1.95000004768372</v>
       </c>
       <c r="G232" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="H232" t="s">
         <v>9</v>
@@ -11263,7 +11266,7 @@
         <v>1.92999994754791</v>
       </c>
       <c r="G233" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="H233" t="s">
         <v>9</v>
@@ -11289,7 +11292,7 @@
         <v>1.93499994277954</v>
       </c>
       <c r="G234" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="H234" t="s">
         <v>9</v>
@@ -11315,7 +11318,7 @@
         <v>1.94000005722046</v>
       </c>
       <c r="G235" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="H235" t="s">
         <v>9</v>
@@ -11341,7 +11344,7 @@
         <v>1.95500004291534</v>
       </c>
       <c r="G236" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="H236" t="s">
         <v>9</v>
@@ -11367,7 +11370,7 @@
         <v>1.90699994564056</v>
       </c>
       <c r="G237" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H237" t="s">
         <v>9</v>
@@ -11393,7 +11396,7 @@
         <v>1.87600004673004</v>
       </c>
       <c r="G238" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H238" t="s">
         <v>9</v>
@@ -11419,7 +11422,7 @@
         <v>1.90100002288818</v>
       </c>
       <c r="G239" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="H239" t="s">
         <v>9</v>
@@ -11445,7 +11448,7 @@
         <v>1.98599994182587</v>
       </c>
       <c r="G240" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="H240" t="s">
         <v>9</v>
@@ -11471,7 +11474,7 @@
         <v>2.01999998092651</v>
       </c>
       <c r="G241" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="H241" t="s">
         <v>9</v>
@@ -11497,7 +11500,7 @@
         <v>2.04399991035461</v>
       </c>
       <c r="G242" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H242" t="s">
         <v>9</v>
@@ -11523,7 +11526,7 @@
         <v>2.05999994277954</v>
       </c>
       <c r="G243" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H243" t="s">
         <v>9</v>
@@ -11549,7 +11552,7 @@
         <v>2.04999995231628</v>
       </c>
       <c r="G244" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H244" t="s">
         <v>9</v>
@@ -11575,7 +11578,7 @@
         <v>2.1159999370575</v>
       </c>
       <c r="G245" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="H245" t="s">
         <v>9</v>
@@ -11601,7 +11604,7 @@
         <v>2.10800004005432</v>
       </c>
       <c r="G246" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="H246" t="s">
         <v>9</v>
@@ -11627,7 +11630,7 @@
         <v>2.07200002670288</v>
       </c>
       <c r="G247" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="H247" t="s">
         <v>9</v>
@@ -11653,7 +11656,7 @@
         <v>2.07999992370605</v>
       </c>
       <c r="G248" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="H248" t="s">
         <v>9</v>
@@ -11679,7 +11682,7 @@
         <v>2.13800001144409</v>
       </c>
       <c r="G249" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="H249" t="s">
         <v>9</v>
@@ -11705,7 +11708,7 @@
         <v>2.15000009536743</v>
       </c>
       <c r="G250" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="H250" t="s">
         <v>9</v>
@@ -11731,7 +11734,7 @@
         <v>2.16799998283386</v>
       </c>
       <c r="G251" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="H251" t="s">
         <v>9</v>
@@ -11757,7 +11760,7 @@
         <v>2.16799998283386</v>
       </c>
       <c r="G252" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="H252" t="s">
         <v>9</v>
@@ -11783,7 +11786,7 @@
         <v>2.16799998283386</v>
       </c>
       <c r="G253" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="H253" t="s">
         <v>9</v>
@@ -11809,7 +11812,7 @@
         <v>2.19600009918213</v>
       </c>
       <c r="G254" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="H254" t="s">
         <v>9</v>
@@ -11835,7 +11838,7 @@
         <v>2.16599988937378</v>
       </c>
       <c r="G255" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="H255" t="s">
         <v>9</v>
@@ -11861,7 +11864,7 @@
         <v>2.1800000667572</v>
       </c>
       <c r="G256" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H256" t="s">
         <v>9</v>
@@ -11887,7 +11890,7 @@
         <v>2.19199991226196</v>
       </c>
       <c r="G257" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="H257" t="s">
         <v>9</v>
@@ -11913,7 +11916,7 @@
         <v>2.22000002861023</v>
       </c>
       <c r="G258" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="H258" t="s">
         <v>9</v>
@@ -11939,7 +11942,7 @@
         <v>2.21600008010864</v>
       </c>
       <c r="G259" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="H259" t="s">
         <v>9</v>
@@ -11965,7 +11968,7 @@
         <v>2.2039999961853</v>
       </c>
       <c r="G260" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="H260" t="s">
         <v>9</v>
@@ -11991,7 +11994,7 @@
         <v>2.20799994468689</v>
       </c>
       <c r="G261" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="H261" t="s">
         <v>9</v>
@@ -12017,7 +12020,7 @@
         <v>2.19199991226196</v>
       </c>
       <c r="G262" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="H262" t="s">
         <v>9</v>
@@ -12043,7 +12046,7 @@
         <v>2.16000008583069</v>
       </c>
       <c r="G263" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="H263" t="s">
         <v>9</v>
@@ -12069,7 +12072,7 @@
         <v>2.16199994087219</v>
       </c>
       <c r="G264" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="H264" t="s">
         <v>9</v>
@@ -12095,7 +12098,7 @@
         <v>2.23200011253357</v>
       </c>
       <c r="G265" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H265" t="s">
         <v>9</v>
@@ -12121,7 +12124,7 @@
         <v>2.30399990081787</v>
       </c>
       <c r="G266" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="H266" t="s">
         <v>9</v>
@@ -12147,7 +12150,7 @@
         <v>2.27999997138977</v>
       </c>
       <c r="G267" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="H267" t="s">
         <v>9</v>
@@ -12173,7 +12176,7 @@
         <v>2.27999997138977</v>
       </c>
       <c r="G268" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="H268" t="s">
         <v>9</v>
@@ -12199,7 +12202,7 @@
         <v>2.26600003242493</v>
       </c>
       <c r="G269" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="H269" t="s">
         <v>9</v>
@@ -12225,7 +12228,7 @@
         <v>2.28200006484985</v>
       </c>
       <c r="G270" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="H270" t="s">
         <v>9</v>
@@ -12251,7 +12254,7 @@
         <v>2.28399991989136</v>
       </c>
       <c r="G271" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="H271" t="s">
         <v>9</v>
@@ -12277,7 +12280,7 @@
         <v>2.28999996185303</v>
       </c>
       <c r="G272" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="H272" t="s">
         <v>9</v>
@@ -12303,7 +12306,7 @@
         <v>2.26399993896484</v>
       </c>
       <c r="G273" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="H273" t="s">
         <v>9</v>
@@ -12329,7 +12332,7 @@
         <v>2.29399991035461</v>
       </c>
       <c r="G274" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="H274" t="s">
         <v>9</v>
@@ -12355,7 +12358,7 @@
         <v>2.25999999046326</v>
       </c>
       <c r="G275" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="H275" t="s">
         <v>9</v>
@@ -12381,7 +12384,7 @@
         <v>2.26799988746643</v>
       </c>
       <c r="G276" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="H276" t="s">
         <v>9</v>
@@ -12407,7 +12410,7 @@
         <v>2.24399995803833</v>
       </c>
       <c r="G277" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H277" t="s">
         <v>9</v>
@@ -12433,7 +12436,7 @@
         <v>2.17400002479553</v>
       </c>
       <c r="G278" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="H278" t="s">
         <v>9</v>
@@ -12459,7 +12462,7 @@
         <v>2.15799999237061</v>
       </c>
       <c r="G279" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="H279" t="s">
         <v>9</v>
@@ -12485,7 +12488,7 @@
         <v>2.1800000667572</v>
       </c>
       <c r="G280" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H280" t="s">
         <v>9</v>
@@ -12511,7 +12514,7 @@
         <v>2.17799997329712</v>
       </c>
       <c r="G281" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="H281" t="s">
         <v>9</v>
@@ -12537,7 +12540,7 @@
         <v>2.1800000667572</v>
       </c>
       <c r="G282" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H282" t="s">
         <v>9</v>
@@ -12563,7 +12566,7 @@
         <v>2.14199995994568</v>
       </c>
       <c r="G283" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="H283" t="s">
         <v>9</v>
@@ -12589,7 +12592,7 @@
         <v>2.19000005722046</v>
       </c>
       <c r="G284" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="H284" t="s">
         <v>9</v>
@@ -12615,7 +12618,7 @@
         <v>2.25</v>
       </c>
       <c r="G285" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="H285" t="s">
         <v>9</v>
@@ -12641,7 +12644,7 @@
         <v>2.25</v>
       </c>
       <c r="G286" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="H286" t="s">
         <v>9</v>
@@ -12667,7 +12670,7 @@
         <v>2.22000002861023</v>
       </c>
       <c r="G287" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="H287" t="s">
         <v>9</v>
@@ -12693,7 +12696,7 @@
         <v>2.25999999046326</v>
       </c>
       <c r="G288" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="H288" t="s">
         <v>9</v>
@@ -12719,7 +12722,7 @@
         <v>2.27999997138977</v>
       </c>
       <c r="G289" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="H289" t="s">
         <v>9</v>
@@ -12745,7 +12748,7 @@
         <v>2.27800011634827</v>
       </c>
       <c r="G290" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="H290" t="s">
         <v>9</v>
@@ -12771,7 +12774,7 @@
         <v>2.32200002670288</v>
       </c>
       <c r="G291" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="H291" t="s">
         <v>9</v>
@@ -12797,7 +12800,7 @@
         <v>2.29999995231628</v>
       </c>
       <c r="G292" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="H292" t="s">
         <v>9</v>
@@ -12823,7 +12826,7 @@
         <v>2.31599998474121</v>
       </c>
       <c r="G293" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="H293" t="s">
         <v>9</v>
@@ -12849,7 +12852,7 @@
         <v>2.34999990463257</v>
       </c>
       <c r="G294" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H294" t="s">
         <v>9</v>
@@ -12875,7 +12878,7 @@
         <v>2.35800004005432</v>
       </c>
       <c r="G295" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H295" t="s">
         <v>9</v>
@@ -12901,7 +12904,7 @@
         <v>2.33400011062622</v>
       </c>
       <c r="G296" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="H296" t="s">
         <v>9</v>
@@ -12927,7 +12930,7 @@
         <v>2.33800005912781</v>
       </c>
       <c r="G297" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="H297" t="s">
         <v>9</v>
@@ -12953,7 +12956,7 @@
         <v>2.34400010108948</v>
       </c>
       <c r="G298" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="H298" t="s">
         <v>9</v>
@@ -12979,7 +12982,7 @@
         <v>2.33999991416931</v>
       </c>
       <c r="G299" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H299" t="s">
         <v>9</v>
@@ -13031,7 +13034,7 @@
         <v>2.3659999370575</v>
       </c>
       <c r="G301" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H301" t="s">
         <v>9</v>
@@ -13057,7 +13060,7 @@
         <v>2.36999988555908</v>
       </c>
       <c r="G302" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H302" t="s">
         <v>9</v>
@@ -13083,7 +13086,7 @@
         <v>2.38800001144409</v>
       </c>
       <c r="G303" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H303" t="s">
         <v>9</v>
@@ -13109,7 +13112,7 @@
         <v>2.39400005340576</v>
       </c>
       <c r="G304" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="H304" t="s">
         <v>9</v>
@@ -13135,7 +13138,7 @@
         <v>2.37400007247925</v>
       </c>
       <c r="G305" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="H305" t="s">
         <v>9</v>
@@ -13161,7 +13164,7 @@
         <v>2.38000011444092</v>
       </c>
       <c r="G306" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="H306" t="s">
         <v>9</v>
@@ -13187,7 +13190,7 @@
         <v>2.36800003051758</v>
       </c>
       <c r="G307" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="H307" t="s">
         <v>9</v>
@@ -13213,7 +13216,7 @@
         <v>2.37199997901917</v>
       </c>
       <c r="G308" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="H308" t="s">
         <v>9</v>
@@ -13239,7 +13242,7 @@
         <v>2.40400004386902</v>
       </c>
       <c r="G309" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="H309" t="s">
         <v>9</v>
@@ -13265,7 +13268,7 @@
         <v>2.39800000190735</v>
       </c>
       <c r="G310" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H310" t="s">
         <v>9</v>
@@ -13291,7 +13294,7 @@
         <v>2.46000003814697</v>
       </c>
       <c r="G311" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="H311" t="s">
         <v>9</v>
@@ -13317,7 +13320,7 @@
         <v>2.46799993515015</v>
       </c>
       <c r="G312" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="H312" t="s">
         <v>9</v>
@@ -13343,7 +13346,7 @@
         <v>2.50399994850159</v>
       </c>
       <c r="G313" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="H313" t="s">
         <v>9</v>
@@ -13369,7 +13372,7 @@
         <v>2.52600002288818</v>
       </c>
       <c r="G314" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="H314" t="s">
         <v>9</v>
@@ -13395,7 +13398,7 @@
         <v>2.57999992370605</v>
       </c>
       <c r="G315" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="H315" t="s">
         <v>9</v>
@@ -13421,7 +13424,7 @@
         <v>2.57999992370605</v>
       </c>
       <c r="G316" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="H316" t="s">
         <v>9</v>
@@ -13447,7 +13450,7 @@
         <v>2.62199997901917</v>
       </c>
       <c r="G317" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="H317" t="s">
         <v>9</v>
@@ -13473,7 +13476,7 @@
         <v>2.64199995994568</v>
       </c>
       <c r="G318" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="H318" t="s">
         <v>9</v>
@@ -13499,7 +13502,7 @@
         <v>2.64400005340576</v>
       </c>
       <c r="G319" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="H319" t="s">
         <v>9</v>
@@ -13525,7 +13528,7 @@
         <v>2.59599995613098</v>
       </c>
       <c r="G320" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="H320" t="s">
         <v>9</v>
@@ -13551,7 +13554,7 @@
         <v>2.58400011062622</v>
       </c>
       <c r="G321" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="H321" t="s">
         <v>9</v>
@@ -13577,7 +13580,7 @@
         <v>2.60800004005432</v>
       </c>
       <c r="G322" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="H322" t="s">
         <v>9</v>
@@ -13603,7 +13606,7 @@
         <v>2.62400007247925</v>
       </c>
       <c r="G323" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="H323" t="s">
         <v>9</v>
@@ -13629,7 +13632,7 @@
         <v>2.63000011444092</v>
       </c>
       <c r="G324" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H324" t="s">
         <v>9</v>
@@ -13655,7 +13658,7 @@
         <v>2.64400005340576</v>
       </c>
       <c r="G325" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="H325" t="s">
         <v>9</v>
@@ -13681,7 +13684,7 @@
         <v>2.64400005340576</v>
       </c>
       <c r="G326" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="H326" t="s">
         <v>9</v>
@@ -13707,7 +13710,7 @@
         <v>2.64400005340576</v>
       </c>
       <c r="G327" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="H327" t="s">
         <v>9</v>
@@ -13733,7 +13736,7 @@
         <v>2.64000010490417</v>
       </c>
       <c r="G328" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="H328" t="s">
         <v>9</v>
@@ -13759,7 +13762,7 @@
         <v>2.68400001525879</v>
       </c>
       <c r="G329" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H329" t="s">
         <v>9</v>
@@ -13785,7 +13788,7 @@
         <v>2.67400002479553</v>
       </c>
       <c r="G330" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="H330" t="s">
         <v>9</v>
@@ -13811,7 +13814,7 @@
         <v>2.64000010490417</v>
       </c>
       <c r="G331" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="H331" t="s">
         <v>9</v>
@@ -13837,7 +13840,7 @@
         <v>2.64400005340576</v>
       </c>
       <c r="G332" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="H332" t="s">
         <v>9</v>
@@ -13863,7 +13866,7 @@
         <v>2.59400010108948</v>
       </c>
       <c r="G333" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="H333" t="s">
         <v>9</v>
@@ -13889,7 +13892,7 @@
         <v>2.57999992370605</v>
       </c>
       <c r="G334" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="H334" t="s">
         <v>9</v>
@@ -13915,7 +13918,7 @@
         <v>2.59999990463257</v>
       </c>
       <c r="G335" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="H335" t="s">
         <v>9</v>
@@ -13941,7 +13944,7 @@
         <v>2.66199994087219</v>
       </c>
       <c r="G336" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="H336" t="s">
         <v>9</v>
@@ -13967,7 +13970,7 @@
         <v>2.61999988555908</v>
       </c>
       <c r="G337" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="H337" t="s">
         <v>9</v>
@@ -13993,7 +13996,7 @@
         <v>2.60599994659424</v>
       </c>
       <c r="G338" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="H338" t="s">
         <v>9</v>
@@ -14019,7 +14022,7 @@
         <v>2.62400007247925</v>
       </c>
       <c r="G339" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="H339" t="s">
         <v>9</v>
@@ -14045,7 +14048,7 @@
         <v>2.62599992752075</v>
       </c>
       <c r="G340" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="H340" t="s">
         <v>9</v>
@@ -14071,7 +14074,7 @@
         <v>2.64599990844727</v>
       </c>
       <c r="G341" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="H341" t="s">
         <v>9</v>
@@ -14097,7 +14100,7 @@
         <v>2.65599989891052</v>
       </c>
       <c r="G342" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="H342" t="s">
         <v>9</v>
@@ -14123,7 +14126,7 @@
         <v>2.67199993133545</v>
       </c>
       <c r="G343" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="H343" t="s">
         <v>9</v>
@@ -14149,7 +14152,7 @@
         <v>2.67600011825562</v>
       </c>
       <c r="G344" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="H344" t="s">
         <v>9</v>
@@ -14175,7 +14178,7 @@
         <v>2.69000005722046</v>
       </c>
       <c r="G345" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="H345" t="s">
         <v>9</v>
@@ -14201,7 +14204,7 @@
         <v>2.75399994850159</v>
       </c>
       <c r="G346" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="H346" t="s">
         <v>9</v>
@@ -14227,7 +14230,7 @@
         <v>2.79999995231628</v>
       </c>
       <c r="G347" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="H347" t="s">
         <v>9</v>
@@ -14253,7 +14256,7 @@
         <v>2.83999991416931</v>
       </c>
       <c r="G348" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="H348" t="s">
         <v>9</v>
@@ -14279,7 +14282,7 @@
         <v>2.85599994659424</v>
       </c>
       <c r="G349" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="H349" t="s">
         <v>9</v>
@@ -14305,7 +14308,7 @@
         <v>2.83200001716614</v>
       </c>
       <c r="G350" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="H350" t="s">
         <v>9</v>
@@ -14331,7 +14334,7 @@
         <v>2.90199995040894</v>
       </c>
       <c r="G351" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="H351" t="s">
         <v>9</v>
@@ -14357,7 +14360,7 @@
         <v>2.84999990463257</v>
       </c>
       <c r="G352" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="H352" t="s">
         <v>9</v>
@@ -14383,7 +14386,7 @@
         <v>2.81399989128113</v>
       </c>
       <c r="G353" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="H353" t="s">
         <v>9</v>
@@ -14409,7 +14412,7 @@
         <v>2.86199998855591</v>
       </c>
       <c r="G354" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="H354" t="s">
         <v>9</v>
@@ -14435,7 +14438,7 @@
         <v>2.88000011444092</v>
       </c>
       <c r="G355" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="H355" t="s">
         <v>9</v>
@@ -14461,7 +14464,7 @@
         <v>2.93799996376038</v>
       </c>
       <c r="G356" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="H356" t="s">
         <v>9</v>
@@ -14487,7 +14490,7 @@
         <v>2.91599988937378</v>
       </c>
       <c r="G357" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="H357" t="s">
         <v>9</v>
@@ -14513,7 +14516,7 @@
         <v>2.91400003433228</v>
       </c>
       <c r="G358" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="H358" t="s">
         <v>9</v>
@@ -14539,7 +14542,7 @@
         <v>2.90000009536743</v>
       </c>
       <c r="G359" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="H359" t="s">
         <v>9</v>
@@ -14565,7 +14568,7 @@
         <v>2.83599996566772</v>
       </c>
       <c r="G360" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="H360" t="s">
         <v>9</v>
@@ -14591,7 +14594,7 @@
         <v>2.8840000629425</v>
       </c>
       <c r="G361" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="H361" t="s">
         <v>9</v>
@@ -14617,7 +14620,7 @@
         <v>2.9300000667572</v>
       </c>
       <c r="G362" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="H362" t="s">
         <v>9</v>
@@ -14643,7 +14646,7 @@
         <v>2.86999988555908</v>
       </c>
       <c r="G363" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="H363" t="s">
         <v>9</v>
@@ -14669,7 +14672,7 @@
         <v>2.88000011444092</v>
       </c>
       <c r="G364" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="H364" t="s">
         <v>9</v>
@@ -14695,7 +14698,7 @@
         <v>2.86199998855591</v>
       </c>
       <c r="G365" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="H365" t="s">
         <v>9</v>
@@ -14721,7 +14724,7 @@
         <v>2.90400004386902</v>
       </c>
       <c r="G366" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H366" t="s">
         <v>9</v>
@@ -14747,7 +14750,7 @@
         <v>2.90000009536743</v>
       </c>
       <c r="G367" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="H367" t="s">
         <v>9</v>
@@ -14773,7 +14776,7 @@
         <v>2.92600011825562</v>
       </c>
       <c r="G368" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="H368" t="s">
         <v>9</v>
@@ -14799,7 +14802,7 @@
         <v>2.91000008583069</v>
       </c>
       <c r="G369" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="H369" t="s">
         <v>9</v>
@@ -14825,7 +14828,7 @@
         <v>2.96399998664856</v>
       </c>
       <c r="G370" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="H370" t="s">
         <v>9</v>
@@ -14851,7 +14854,7 @@
         <v>2.94400000572205</v>
       </c>
       <c r="G371" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="H371" t="s">
         <v>9</v>
@@ -14877,7 +14880,7 @@
         <v>2.97399997711182</v>
       </c>
       <c r="G372" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="H372" t="s">
         <v>9</v>
@@ -14903,7 +14906,7 @@
         <v>2.95799994468689</v>
       </c>
       <c r="G373" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="H373" t="s">
         <v>9</v>
@@ -14929,7 +14932,7 @@
         <v>2.9760000705719</v>
       </c>
       <c r="G374" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H374" t="s">
         <v>9</v>
@@ -14955,7 +14958,7 @@
         <v>2.90199995040894</v>
       </c>
       <c r="G375" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="H375" t="s">
         <v>9</v>
@@ -14981,7 +14984,7 @@
         <v>2.91599988937378</v>
       </c>
       <c r="G376" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="H376" t="s">
         <v>9</v>
@@ -15007,7 +15010,7 @@
         <v>2.90799999237061</v>
       </c>
       <c r="G377" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="H377" t="s">
         <v>9</v>
@@ -15033,7 +15036,7 @@
         <v>2.88599991798401</v>
       </c>
       <c r="G378" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="H378" t="s">
         <v>9</v>
@@ -17789,7 +17792,7 @@
         <v>2.90199995040894</v>
       </c>
       <c r="G484" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="H484" t="s">
         <v>9</v>
@@ -17841,7 +17844,7 @@
         <v>2.90799999237061</v>
       </c>
       <c r="G486" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="H486" t="s">
         <v>9</v>
@@ -61477,7 +61480,7 @@
     </row>
     <row r="2165">
       <c r="A2165" s="1" t="n">
-        <v>45476.649537037</v>
+        <v>45476.2916666667</v>
       </c>
       <c r="B2165" t="n">
         <v>2398965</v>
@@ -61498,6 +61501,32 @@
         <v>1619</v>
       </c>
       <c r="H2165" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2166">
+      <c r="A2166" s="1" t="n">
+        <v>45477.6493981481</v>
+      </c>
+      <c r="B2166" t="n">
+        <v>1254253</v>
+      </c>
+      <c r="C2166" t="n">
+        <v>3.26399993896484</v>
+      </c>
+      <c r="D2166" t="n">
+        <v>3.2039999961853</v>
+      </c>
+      <c r="E2166" t="n">
+        <v>3.20799994468689</v>
+      </c>
+      <c r="F2166" t="n">
+        <v>3.25799989700317</v>
+      </c>
+      <c r="G2166" t="s">
+        <v>1620</v>
+      </c>
+      <c r="H2166" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/HER.MI.xlsx
+++ b/data/HER.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1623" uniqueCount="1623">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1624" uniqueCount="1624">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,52 +38,52 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">1.77115535736084</t>
+    <t xml:space="preserve">1.77115499973297</t>
   </si>
   <si>
     <t xml:space="preserve">HER.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">1.77260434627533</t>
+    <t xml:space="preserve">1.77260482311249</t>
   </si>
   <si>
     <t xml:space="preserve">1.76970553398132</t>
   </si>
   <si>
-    <t xml:space="preserve">1.77405369281769</t>
+    <t xml:space="preserve">1.7740535736084</t>
   </si>
   <si>
     <t xml:space="preserve">1.75086331367493</t>
   </si>
   <si>
-    <t xml:space="preserve">1.78999698162079</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85811865329742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86101734638214</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8363778591156</t>
+    <t xml:space="preserve">1.78999722003937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85811805725098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86101710796356</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83637750148773</t>
   </si>
   <si>
     <t xml:space="preserve">1.8117378950119</t>
   </si>
   <si>
-    <t xml:space="preserve">1.76680707931519</t>
+    <t xml:space="preserve">1.76680684089661</t>
   </si>
   <si>
     <t xml:space="preserve">1.83927655220032</t>
   </si>
   <si>
-    <t xml:space="preserve">1.81463670730591</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83202934265137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87261247634888</t>
+    <t xml:space="preserve">1.81463694572449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83202946186066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8726122379303</t>
   </si>
   <si>
     <t xml:space="preserve">1.85666906833649</t>
@@ -92,46 +92,46 @@
     <t xml:space="preserve">1.87116312980652</t>
   </si>
   <si>
-    <t xml:space="preserve">1.90304899215698</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88420760631561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86971366405487</t>
+    <t xml:space="preserve">1.90304970741272</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88420701026917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86971342563629</t>
   </si>
   <si>
     <t xml:space="preserve">1.91754341125488</t>
   </si>
   <si>
-    <t xml:space="preserve">1.92479062080383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90884709358215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89145445823669</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89725196361542</t>
+    <t xml:space="preserve">1.92479026317596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90884673595428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89145457744598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89725208282471</t>
   </si>
   <si>
     <t xml:space="preserve">1.79289591312408</t>
   </si>
   <si>
-    <t xml:space="preserve">1.80594050884247</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.824782371521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76245856285095</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82043397426605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86246645450592</t>
+    <t xml:space="preserve">1.80594027042389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82478225231171</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76245868206024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82043421268463</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86246633529663</t>
   </si>
   <si>
     <t xml:space="preserve">1.84942221641541</t>
@@ -140,13 +140,13 @@
     <t xml:space="preserve">1.84217512607574</t>
   </si>
   <si>
-    <t xml:space="preserve">1.86536514759064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86826431751251</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88855564594269</t>
+    <t xml:space="preserve">1.86536526679993</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8682644367218</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8885555267334</t>
   </si>
   <si>
     <t xml:space="preserve">1.8987010717392</t>
@@ -155,31 +155,31 @@
     <t xml:space="preserve">1.85521960258484</t>
   </si>
   <si>
-    <t xml:space="preserve">1.8305801153183</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81028842926025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80449116230011</t>
+    <t xml:space="preserve">1.83057987689972</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81028831005096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80449080467224</t>
   </si>
   <si>
     <t xml:space="preserve">1.79434537887573</t>
   </si>
   <si>
-    <t xml:space="preserve">1.80883932113647</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79724395275116</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82913029193878</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84507417678833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82623183727264</t>
+    <t xml:space="preserve">1.80883944034576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79724407196045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82913088798523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84507393836975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82623195648193</t>
   </si>
   <si>
     <t xml:space="preserve">1.84072589874268</t>
@@ -200,13 +200,13 @@
     <t xml:space="preserve">1.91174590587616</t>
   </si>
   <si>
-    <t xml:space="preserve">1.83347856998444</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84797251224518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85377049446106</t>
+    <t xml:space="preserve">1.83347868919373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84797275066376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85377037525177</t>
   </si>
   <si>
     <t xml:space="preserve">1.84362435340881</t>
@@ -215,64 +215,64 @@
     <t xml:space="preserve">1.8465234041214</t>
   </si>
   <si>
-    <t xml:space="preserve">1.8755110502243</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87696039676666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8595677614212</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85087156295776</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82188367843628</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81318759918213</t>
+    <t xml:space="preserve">1.87551140785217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87696027755737</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85956788063049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85087132453918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82188355922699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81318736076355</t>
   </si>
   <si>
     <t xml:space="preserve">1.89435315132141</t>
   </si>
   <si>
-    <t xml:space="preserve">1.91464447975159</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90015089511871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9131954908371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89000475406647</t>
+    <t xml:space="preserve">1.91464459896088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90015113353729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91319501399994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89000511169434</t>
   </si>
   <si>
     <t xml:space="preserve">1.90160012245178</t>
   </si>
   <si>
-    <t xml:space="preserve">1.89290368556976</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88130867481232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82768142223358</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79579448699951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80738961696625</t>
+    <t xml:space="preserve">1.89290392398834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88130855560303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.827681183815</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79579436779022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80738973617554</t>
   </si>
   <si>
     <t xml:space="preserve">1.77550327777863</t>
   </si>
   <si>
-    <t xml:space="preserve">1.82295906543732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8394900560379</t>
+    <t xml:space="preserve">1.82295894622803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83949017524719</t>
   </si>
   <si>
     <t xml:space="preserve">1.80492448806763</t>
@@ -284,250 +284,250 @@
     <t xml:space="preserve">1.76735329627991</t>
   </si>
   <si>
-    <t xml:space="preserve">1.73579335212708</t>
+    <t xml:space="preserve">1.73579347133636</t>
   </si>
   <si>
     <t xml:space="preserve">1.77336454391479</t>
   </si>
   <si>
-    <t xml:space="preserve">1.80342173576355</t>
+    <t xml:space="preserve">1.80342185497284</t>
   </si>
   <si>
     <t xml:space="preserve">1.84700453281403</t>
   </si>
   <si>
-    <t xml:space="preserve">1.90260982513428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87555861473083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87856423854828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85151302814484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84550178050995</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7913990020752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82596445083618</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81093597412109</t>
+    <t xml:space="preserve">1.90260994434357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87555873394012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87856447696686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85151314735413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84550189971924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79139912128448</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82596433162689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81093609333038</t>
   </si>
   <si>
     <t xml:space="preserve">1.83648467063904</t>
   </si>
   <si>
-    <t xml:space="preserve">1.83197581768036</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82746708393097</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83498167991638</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84099316596985</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85001015663147</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90561604499817</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92665576934814</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91914129257202</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90411269664764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93567228317261</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8996045589447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91312992572784</t>
+    <t xml:space="preserve">1.83197593688965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82746696472168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83498179912567</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84099340438843</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85001003742218</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9056156873703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92665529251099</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91914141178131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90411245822906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93567264080048</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89960408210754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91313028335571</t>
   </si>
   <si>
     <t xml:space="preserve">1.86353600025177</t>
   </si>
   <si>
-    <t xml:space="preserve">1.8875812292099</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88006711006165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81394159793854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80943322181702</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84249591827393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8575245141983</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86654150485992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85301566123962</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85602176189423</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88307309150696</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82145583629608</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80041599273682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.77035880088806</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80191910266876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.819953083992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.77486777305603</t>
+    <t xml:space="preserve">1.88758134841919</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88006746768951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81394195556641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80943298339844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84249603748322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85752439498901</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86654102802277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85301601886749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85602128505707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8830726146698</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82145571708679</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80041587352753</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77035892009735</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80191898345947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81995320320129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77486741542816</t>
   </si>
   <si>
     <t xml:space="preserve">1.77186191082001</t>
   </si>
   <si>
-    <t xml:space="preserve">1.76585054397583</t>
+    <t xml:space="preserve">1.76585042476654</t>
   </si>
   <si>
     <t xml:space="preserve">1.75533056259155</t>
   </si>
   <si>
-    <t xml:space="preserve">1.78087902069092</t>
+    <t xml:space="preserve">1.78087878227234</t>
   </si>
   <si>
     <t xml:space="preserve">1.75983905792236</t>
   </si>
   <si>
-    <t xml:space="preserve">1.69221067428589</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.66515946388245</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65163350105286</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.63810801506042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.66065096855164</t>
+    <t xml:space="preserve">1.69221079349518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.66515970230103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65163373947144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.638108253479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.66065084934235</t>
   </si>
   <si>
     <t xml:space="preserve">1.66966795921326</t>
   </si>
   <si>
-    <t xml:space="preserve">1.67417621612549</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.68169093132019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69371366500854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.67868518829346</t>
+    <t xml:space="preserve">1.67417645454407</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.68169069290161</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69371342658997</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.67868506908417</t>
   </si>
   <si>
     <t xml:space="preserve">1.69972503185272</t>
   </si>
   <si>
-    <t xml:space="preserve">1.69822227954865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.71174776554108</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.68319380283356</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.67567932605743</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.67718231678009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.68619918823242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.72377038002014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73128497600555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75082182884216</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65313673019409</t>
+    <t xml:space="preserve">1.69822204113007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.71174800395966</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.68319368362427</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.67567920684814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6771821975708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.68619930744171</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.72377061843872</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73128461837769</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75082206726074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6531366109848</t>
   </si>
   <si>
     <t xml:space="preserve">1.62458252906799</t>
   </si>
   <si>
-    <t xml:space="preserve">1.62157690525055</t>
+    <t xml:space="preserve">1.62157678604126</t>
   </si>
   <si>
     <t xml:space="preserve">1.60053694248199</t>
   </si>
   <si>
-    <t xml:space="preserve">1.51487445831299</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.51788008213043</t>
+    <t xml:space="preserve">1.5148743391037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.51787972450256</t>
   </si>
   <si>
     <t xml:space="preserve">1.49984574317932</t>
   </si>
   <si>
-    <t xml:space="preserve">1.49909436702728</t>
+    <t xml:space="preserve">1.49909424781799</t>
   </si>
   <si>
     <t xml:space="preserve">1.50435435771942</t>
   </si>
   <si>
-    <t xml:space="preserve">1.48331439495087</t>
+    <t xml:space="preserve">1.48331451416016</t>
   </si>
   <si>
     <t xml:space="preserve">1.47504878044128</t>
   </si>
   <si>
-    <t xml:space="preserve">1.44799733161926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.44649469852448</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.46152305603027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.46528005599976</t>
+    <t xml:space="preserve">1.44799745082855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.4464944601059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.46152317523956</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.46528029441833</t>
   </si>
   <si>
     <t xml:space="preserve">1.45025157928467</t>
@@ -536,127 +536,127 @@
     <t xml:space="preserve">1.45400857925415</t>
   </si>
   <si>
-    <t xml:space="preserve">1.45776605606079</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.46903741359711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.43296885490417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.4096747636795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.42846035957336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.49233138561249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53591406345367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54793679714203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54042279720306</t>
+    <t xml:space="preserve">1.4577659368515</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.46903729438782</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.43296873569489</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.40967464447021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.42846024036407</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.49233150482178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53591418266296</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54793703556061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54042255878448</t>
   </si>
   <si>
     <t xml:space="preserve">1.59001696109772</t>
   </si>
   <si>
-    <t xml:space="preserve">1.58400547504425</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55695402622223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5629655122757</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60654819011688</t>
+    <t xml:space="preserve">1.58400559425354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55695414543152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.56296527385712</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60654830932617</t>
   </si>
   <si>
     <t xml:space="preserve">1.61556541919708</t>
   </si>
   <si>
-    <t xml:space="preserve">1.62909090518951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65013086795807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.62758803367615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.64712512493134</t>
+    <t xml:space="preserve">1.62909114360809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65013074874878</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.62758815288544</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.64712500572205</t>
   </si>
   <si>
     <t xml:space="preserve">1.66816508769989</t>
   </si>
   <si>
-    <t xml:space="preserve">1.65614247322083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65914821624756</t>
+    <t xml:space="preserve">1.65614223480225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6591477394104</t>
   </si>
   <si>
     <t xml:space="preserve">1.62307953834534</t>
   </si>
   <si>
-    <t xml:space="preserve">1.71325051784515</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.70273065567017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7147536277771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7162561416626</t>
+    <t xml:space="preserve">1.71325063705444</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.70273089408875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.71475374698639</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.71625638008118</t>
   </si>
   <si>
     <t xml:space="preserve">1.7207647562027</t>
   </si>
   <si>
-    <t xml:space="preserve">1.70122790336609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.70423376560211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.63359951972961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.63660514354706</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60955393314362</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.64562225341797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69070780277252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7448103427887</t>
+    <t xml:space="preserve">1.70122766494751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.70423328876495</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6335996389389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.63660526275635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60955405235291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.64562237262726</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69070792198181</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.74481070041656</t>
   </si>
   <si>
     <t xml:space="preserve">1.72827911376953</t>
   </si>
   <si>
-    <t xml:space="preserve">1.74030184745789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75382792949677</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75683319568634</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76134204864502</t>
+    <t xml:space="preserve">1.74030196666718</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7538275718689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75683343410492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76134216785431</t>
   </si>
   <si>
     <t xml:space="preserve">1.758336186409</t>
@@ -665,28 +665,28 @@
     <t xml:space="preserve">1.77787327766418</t>
   </si>
   <si>
-    <t xml:space="preserve">1.79440462589264</t>
+    <t xml:space="preserve">1.79440474510193</t>
   </si>
   <si>
     <t xml:space="preserve">1.79891312122345</t>
   </si>
   <si>
-    <t xml:space="preserve">1.78388464450836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78839349746704</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.77937614917755</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.782381772995</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80642735958099</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84850740432739</t>
+    <t xml:space="preserve">1.78388452529907</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78839337825775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77937626838684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78238153457642</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80642747879028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84850716590881</t>
   </si>
   <si>
     <t xml:space="preserve">1.8545184135437</t>
@@ -695,28 +695,28 @@
     <t xml:space="preserve">1.88156986236572</t>
   </si>
   <si>
-    <t xml:space="preserve">1.89810121059418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93867826461792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.97023808956146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.98526656627655</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9867696762085</t>
+    <t xml:space="preserve">1.89810144901276</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93867838382721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.97023832798004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.98526668548584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.98676955699921</t>
   </si>
   <si>
     <t xml:space="preserve">1.95070111751556</t>
   </si>
   <si>
-    <t xml:space="preserve">1.94168400764465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95971834659576</t>
+    <t xml:space="preserve">1.94168436527252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95971822738647</t>
   </si>
   <si>
     <t xml:space="preserve">1.97174119949341</t>
@@ -725,19 +725,19 @@
     <t xml:space="preserve">1.97624981403351</t>
   </si>
   <si>
-    <t xml:space="preserve">1.98376393318176</t>
+    <t xml:space="preserve">1.98376381397247</t>
   </si>
   <si>
     <t xml:space="preserve">2.01682662963867</t>
   </si>
   <si>
-    <t xml:space="preserve">2.00931262969971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9491982460022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9537068605423</t>
+    <t xml:space="preserve">2.00931286811829</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94919872283936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95370662212372</t>
   </si>
   <si>
     <t xml:space="preserve">2.00029540061951</t>
@@ -746,22 +746,22 @@
     <t xml:space="preserve">1.9687352180481</t>
   </si>
   <si>
-    <t xml:space="preserve">1.95821523666382</t>
+    <t xml:space="preserve">1.95821559429169</t>
   </si>
   <si>
     <t xml:space="preserve">1.9732438325882</t>
   </si>
   <si>
-    <t xml:space="preserve">1.98827266693115</t>
+    <t xml:space="preserve">1.98827242851257</t>
   </si>
   <si>
     <t xml:space="preserve">1.99578654766083</t>
   </si>
   <si>
-    <t xml:space="preserve">2.00780963897705</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.01081514358521</t>
+    <t xml:space="preserve">2.00780940055847</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.01081538200378</t>
   </si>
   <si>
     <t xml:space="preserve">2.02133536338806</t>
@@ -770,49 +770,49 @@
     <t xml:space="preserve">2.06942653656006</t>
   </si>
   <si>
-    <t xml:space="preserve">2.10399174690247</t>
+    <t xml:space="preserve">2.10399198532104</t>
   </si>
   <si>
     <t xml:space="preserve">2.1340491771698</t>
   </si>
   <si>
-    <t xml:space="preserve">2.14607167243958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.12803769111633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.18063712120056</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.14156317710876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.11451172828674</t>
+    <t xml:space="preserve">2.14607191085815</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.12803745269775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.18063735961914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.14156341552734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.11451196670532</t>
   </si>
   <si>
     <t xml:space="preserve">2.15058064460754</t>
   </si>
   <si>
-    <t xml:space="preserve">2.16410613059998</t>
+    <t xml:space="preserve">2.1641058921814</t>
   </si>
   <si>
     <t xml:space="preserve">2.20768880844116</t>
   </si>
   <si>
-    <t xml:space="preserve">2.19115710258484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.18965482711792</t>
+    <t xml:space="preserve">2.191157579422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.18965458869934</t>
   </si>
   <si>
     <t xml:space="preserve">2.17913484573364</t>
   </si>
   <si>
-    <t xml:space="preserve">2.13104343414307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16711187362671</t>
+    <t xml:space="preserve">2.13104367256165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16711235046387</t>
   </si>
   <si>
     <t xml:space="preserve">2.20167756080627</t>
@@ -821,10 +821,10 @@
     <t xml:space="preserve">2.15659189224243</t>
   </si>
   <si>
-    <t xml:space="preserve">2.18214058876038</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.19867205619812</t>
+    <t xml:space="preserve">2.18214011192322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.19867157936096</t>
   </si>
   <si>
     <t xml:space="preserve">2.18664884567261</t>
@@ -833,31 +833,31 @@
     <t xml:space="preserve">2.22722601890564</t>
   </si>
   <si>
-    <t xml:space="preserve">2.21219730377197</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.23474025726318</t>
+    <t xml:space="preserve">2.21219754219055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.2347400188446</t>
   </si>
   <si>
     <t xml:space="preserve">2.22271728515625</t>
   </si>
   <si>
+    <t xml:space="preserve">2.23624300956726</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.24864077568054</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.25948882102966</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.2532901763916</t>
+  </si>
+  <si>
     <t xml:space="preserve">2.23624324798584</t>
   </si>
   <si>
-    <t xml:space="preserve">2.24864053726196</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.25948858261108</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.25328993797302</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.23624277114868</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.17735385894775</t>
+    <t xml:space="preserve">2.17735362052917</t>
   </si>
   <si>
     <t xml:space="preserve">2.1913013458252</t>
@@ -869,19 +869,19 @@
     <t xml:space="preserve">2.13551163673401</t>
   </si>
   <si>
-    <t xml:space="preserve">2.09211921691895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.07352256774902</t>
+    <t xml:space="preserve">2.09211897850037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.0735228061676</t>
   </si>
   <si>
     <t xml:space="preserve">2.0859203338623</t>
   </si>
   <si>
-    <t xml:space="preserve">2.08282113075256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.07197308540344</t>
+    <t xml:space="preserve">2.08282089233398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.07197332382202</t>
   </si>
   <si>
     <t xml:space="preserve">2.02393174171448</t>
@@ -896,55 +896,55 @@
     <t xml:space="preserve">2.05647587776184</t>
   </si>
   <si>
-    <t xml:space="preserve">2.10606670379639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.12931251525879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.11536526679993</t>
+    <t xml:space="preserve">2.10606694221497</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.12931227684021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.11536502838135</t>
   </si>
   <si>
     <t xml:space="preserve">2.10761666297913</t>
   </si>
   <si>
-    <t xml:space="preserve">2.12156414985657</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.09986805915833</t>
+    <t xml:space="preserve">2.12156367301941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.09986782073975</t>
   </si>
   <si>
     <t xml:space="preserve">2.13861060142517</t>
   </si>
   <si>
-    <t xml:space="preserve">2.15410804748535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.10916614532471</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.08901977539062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.13086199760437</t>
+    <t xml:space="preserve">2.15410780906677</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.10916590690613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.08902025222778</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.13086223602295</t>
   </si>
   <si>
     <t xml:space="preserve">2.12001419067383</t>
   </si>
   <si>
-    <t xml:space="preserve">2.11846446990967</t>
+    <t xml:space="preserve">2.11846470832825</t>
   </si>
   <si>
     <t xml:space="preserve">2.11226582527161</t>
   </si>
   <si>
-    <t xml:space="preserve">2.12466311454773</t>
+    <t xml:space="preserve">2.12466335296631</t>
   </si>
   <si>
     <t xml:space="preserve">2.12621283531189</t>
   </si>
   <si>
-    <t xml:space="preserve">2.07662224769592</t>
+    <t xml:space="preserve">2.07662200927734</t>
   </si>
   <si>
     <t xml:space="preserve">2.13241195678711</t>
@@ -953,7 +953,7 @@
     <t xml:space="preserve">2.11071586608887</t>
   </si>
   <si>
-    <t xml:space="preserve">2.06887340545654</t>
+    <t xml:space="preserve">2.06887364387512</t>
   </si>
   <si>
     <t xml:space="preserve">2.04872727394104</t>
@@ -968,34 +968,34 @@
     <t xml:space="preserve">2.10141754150391</t>
   </si>
   <si>
-    <t xml:space="preserve">2.08747005462646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.08437061309814</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.07817149162292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.15565800666809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.09366893768311</t>
+    <t xml:space="preserve">2.08746981620789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.08437085151672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.07817220687866</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.15565776824951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.09366869926453</t>
   </si>
   <si>
     <t xml:space="preserve">2.07507228851318</t>
   </si>
   <si>
-    <t xml:space="preserve">2.05957531929016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.06112504005432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.04562783241272</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.09676861763</t>
+    <t xml:space="preserve">2.05957508087158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.0611252784729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.04562759399414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.09676837921143</t>
   </si>
   <si>
     <t xml:space="preserve">2.11381530761719</t>
@@ -1004,40 +1004,40 @@
     <t xml:space="preserve">2.13706088066101</t>
   </si>
   <si>
-    <t xml:space="preserve">2.14790940284729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.15100860595703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.14326000213623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.14016056060791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.15255832672119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16185665130615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.18510246276855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.2036988735199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.2300443649292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.24089217185974</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.26258850097656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.27808570861816</t>
+    <t xml:space="preserve">2.14790916442871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.15100884437561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.14325976371765</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.14016079902649</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.15255856513977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16185688972473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.18510222434998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.20369911193848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.23004412651062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.24089241027832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.26258826255798</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.27808547019958</t>
   </si>
   <si>
     <t xml:space="preserve">2.26878690719604</t>
@@ -1061,31 +1061,31 @@
     <t xml:space="preserve">2.27653574943542</t>
   </si>
   <si>
-    <t xml:space="preserve">2.30752992630005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.35557126998901</t>
+    <t xml:space="preserve">2.30753016471863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.35557103157043</t>
   </si>
   <si>
     <t xml:space="preserve">2.34007406234741</t>
   </si>
   <si>
-    <t xml:space="preserve">2.34317326545715</t>
+    <t xml:space="preserve">2.34317350387573</t>
   </si>
   <si>
     <t xml:space="preserve">2.36641931533813</t>
   </si>
   <si>
-    <t xml:space="preserve">2.380366563797</t>
+    <t xml:space="preserve">2.38036704063416</t>
   </si>
   <si>
     <t xml:space="preserve">2.3912148475647</t>
   </si>
   <si>
-    <t xml:space="preserve">2.38656544685364</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.42685842514038</t>
+    <t xml:space="preserve">2.3865659236908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.42685866355896</t>
   </si>
   <si>
     <t xml:space="preserve">2.37416791915894</t>
@@ -1094,10 +1094,10 @@
     <t xml:space="preserve">2.35867071151733</t>
   </si>
   <si>
-    <t xml:space="preserve">2.38966536521912</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.40206289291382</t>
+    <t xml:space="preserve">2.38966488838196</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.40206241607666</t>
   </si>
   <si>
     <t xml:space="preserve">2.33852410316467</t>
@@ -1109,64 +1109,64 @@
     <t xml:space="preserve">2.36332011222839</t>
   </si>
   <si>
-    <t xml:space="preserve">2.31217932701111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.30907988548279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.30133128166199</t>
+    <t xml:space="preserve">2.31217908859253</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.30907964706421</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.30133104324341</t>
   </si>
   <si>
     <t xml:space="preserve">2.25483965873718</t>
   </si>
   <si>
-    <t xml:space="preserve">2.2346932888031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.29358243942261</t>
+    <t xml:space="preserve">2.23469376564026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.29358267784119</t>
   </si>
   <si>
     <t xml:space="preserve">2.34472322463989</t>
   </si>
   <si>
-    <t xml:space="preserve">2.39741373062134</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.32457685470581</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.35402178764343</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.32147765159607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.36177062988281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.37106823921204</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.38501620292664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.33077573776245</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.36486959457397</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.32922625541687</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.26568746566772</t>
+    <t xml:space="preserve">2.39741349220276</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.32457733154297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.35402202606201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.32147741317749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.36176991462708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.37106871604919</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.38501572608948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.33077597618103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.36487007141113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.32922601699829</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.2656877040863</t>
   </si>
   <si>
     <t xml:space="preserve">2.2145471572876</t>
   </si>
   <si>
-    <t xml:space="preserve">2.18975114822388</t>
+    <t xml:space="preserve">2.18975186347961</t>
   </si>
   <si>
     <t xml:space="preserve">2.13396167755127</t>
@@ -1178,43 +1178,43 @@
     <t xml:space="preserve">2.17270469665527</t>
   </si>
   <si>
-    <t xml:space="preserve">2.20524883270264</t>
+    <t xml:space="preserve">2.20524835586548</t>
   </si>
   <si>
     <t xml:space="preserve">2.21299719810486</t>
   </si>
   <si>
-    <t xml:space="preserve">2.17115521430969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.14635968208313</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.11691474914551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16340613365173</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16030716896057</t>
+    <t xml:space="preserve">2.17115473747253</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.14635944366455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.11691498756409</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16340637207031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16030693054199</t>
   </si>
   <si>
     <t xml:space="preserve">2.15875720977783</t>
   </si>
   <si>
-    <t xml:space="preserve">2.18045282363892</t>
+    <t xml:space="preserve">2.1804530620575</t>
   </si>
   <si>
     <t xml:space="preserve">2.17580389976501</t>
   </si>
   <si>
-    <t xml:space="preserve">2.19905018806458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.29513239860535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.30443072319031</t>
+    <t xml:space="preserve">2.19904971122742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.29513216018677</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.30443048477173</t>
   </si>
   <si>
     <t xml:space="preserve">2.31372904777527</t>
@@ -1226,19 +1226,19 @@
     <t xml:space="preserve">2.34782290458679</t>
   </si>
   <si>
-    <t xml:space="preserve">2.31837797164917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.33697462081909</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.37881708145142</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.38346600532532</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.36951875686646</t>
+    <t xml:space="preserve">2.31837821006775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.33697485923767</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.37881684303284</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.3834662437439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.36951899528503</t>
   </si>
   <si>
     <t xml:space="preserve">2.31062960624695</t>
@@ -1247,22 +1247,22 @@
     <t xml:space="preserve">2.33542513847351</t>
   </si>
   <si>
-    <t xml:space="preserve">2.22074604034424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.20059967041016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.09831833839417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.01928234100342</t>
+    <t xml:space="preserve">2.22074556350708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.20059943199158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.09831786155701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.01928281784058</t>
   </si>
   <si>
     <t xml:space="preserve">2.03787922859192</t>
   </si>
   <si>
-    <t xml:space="preserve">2.0549259185791</t>
+    <t xml:space="preserve">2.05492615699768</t>
   </si>
   <si>
     <t xml:space="preserve">2.04252815246582</t>
@@ -1271,19 +1271,19 @@
     <t xml:space="preserve">2.05182647705078</t>
   </si>
   <si>
-    <t xml:space="preserve">2.02083230018616</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.10410904884338</t>
+    <t xml:space="preserve">2.02083206176758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.10410928726196</t>
   </si>
   <si>
     <t xml:space="preserve">2.1378390789032</t>
   </si>
   <si>
-    <t xml:space="preserve">2.14908242225647</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.11374616622925</t>
+    <t xml:space="preserve">2.14908266067505</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.11374640464783</t>
   </si>
   <si>
     <t xml:space="preserve">2.11695861816406</t>
@@ -1295,16 +1295,16 @@
     <t xml:space="preserve">2.13623309135437</t>
   </si>
   <si>
-    <t xml:space="preserve">2.16675019264221</t>
+    <t xml:space="preserve">2.16675043106079</t>
   </si>
   <si>
     <t xml:space="preserve">2.14426422119141</t>
   </si>
   <si>
-    <t xml:space="preserve">2.18441891670227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.21493625640869</t>
+    <t xml:space="preserve">2.18441867828369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.21493601799011</t>
   </si>
   <si>
     <t xml:space="preserve">2.234210729599</t>
@@ -1313,10 +1313,10 @@
     <t xml:space="preserve">2.24063539505005</t>
   </si>
   <si>
-    <t xml:space="preserve">2.22457361221313</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.2165424823761</t>
+    <t xml:space="preserve">2.22457337379456</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.21654224395752</t>
   </si>
   <si>
     <t xml:space="preserve">2.22778582572937</t>
@@ -1328,7 +1328,7 @@
     <t xml:space="preserve">2.24866628646851</t>
   </si>
   <si>
-    <t xml:space="preserve">2.25348496437073</t>
+    <t xml:space="preserve">2.25348472595215</t>
   </si>
   <si>
     <t xml:space="preserve">2.23260426521301</t>
@@ -1337,10 +1337,10 @@
     <t xml:space="preserve">2.18281269073486</t>
   </si>
   <si>
-    <t xml:space="preserve">2.16996312141418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.28882122039795</t>
+    <t xml:space="preserve">2.16996288299561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.28882074356079</t>
   </si>
   <si>
     <t xml:space="preserve">2.25187849998474</t>
@@ -1352,19 +1352,19 @@
     <t xml:space="preserve">2.26794052124023</t>
   </si>
   <si>
-    <t xml:space="preserve">2.30006456375122</t>
+    <t xml:space="preserve">2.30006432533264</t>
   </si>
   <si>
     <t xml:space="preserve">2.29845809936523</t>
   </si>
   <si>
-    <t xml:space="preserve">2.264728307724</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.24384737014771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.23099803924561</t>
+    <t xml:space="preserve">2.26472806930542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.24384760856628</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.23099827766418</t>
   </si>
   <si>
     <t xml:space="preserve">2.21172380447388</t>
@@ -1376,7 +1376,7 @@
     <t xml:space="preserve">2.1988742351532</t>
   </si>
   <si>
-    <t xml:space="preserve">2.2470600605011</t>
+    <t xml:space="preserve">2.24706029891968</t>
   </si>
   <si>
     <t xml:space="preserve">2.23742294311523</t>
@@ -1385,16 +1385,16 @@
     <t xml:space="preserve">2.22939205169678</t>
   </si>
   <si>
-    <t xml:space="preserve">2.17478156089783</t>
+    <t xml:space="preserve">2.17478132247925</t>
   </si>
   <si>
     <t xml:space="preserve">2.17799377441406</t>
   </si>
   <si>
-    <t xml:space="preserve">2.16835689544678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.18602466583252</t>
+    <t xml:space="preserve">2.1683566570282</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1860249042511</t>
   </si>
   <si>
     <t xml:space="preserve">2.20369291305542</t>
@@ -1403,25 +1403,25 @@
     <t xml:space="preserve">2.20690512657166</t>
   </si>
   <si>
-    <t xml:space="preserve">2.26954650878906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.28239631652832</t>
+    <t xml:space="preserve">2.26954698562622</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.28239607810974</t>
   </si>
   <si>
     <t xml:space="preserve">2.27918386459351</t>
   </si>
   <si>
-    <t xml:space="preserve">2.28400254249573</t>
+    <t xml:space="preserve">2.28400230407715</t>
   </si>
   <si>
     <t xml:space="preserve">2.2904269695282</t>
   </si>
   <si>
-    <t xml:space="preserve">2.29363965988159</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.25669693946838</t>
+    <t xml:space="preserve">2.29363918304443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.25669741630554</t>
   </si>
   <si>
     <t xml:space="preserve">2.20048046112061</t>
@@ -1439,22 +1439,22 @@
     <t xml:space="preserve">2.12820196151733</t>
   </si>
   <si>
-    <t xml:space="preserve">2.08965349197388</t>
+    <t xml:space="preserve">2.0896532535553</t>
   </si>
   <si>
     <t xml:space="preserve">2.03504300117493</t>
   </si>
   <si>
-    <t xml:space="preserve">2.05592322349548</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.00934386253357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.97400760650635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93224680423737</t>
+    <t xml:space="preserve">2.05592346191406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.00934433937073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.97400748729706</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93224668502808</t>
   </si>
   <si>
     <t xml:space="preserve">1.98685741424561</t>
@@ -1463,16 +1463,16 @@
     <t xml:space="preserve">1.94188404083252</t>
   </si>
   <si>
-    <t xml:space="preserve">1.96437048912048</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.97240161895752</t>
+    <t xml:space="preserve">1.96437084674835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.97240173816681</t>
   </si>
   <si>
     <t xml:space="preserve">1.94027781486511</t>
   </si>
   <si>
-    <t xml:space="preserve">1.92903447151184</t>
+    <t xml:space="preserve">1.92903470993042</t>
   </si>
   <si>
     <t xml:space="preserve">1.99970698356628</t>
@@ -1481,34 +1481,34 @@
     <t xml:space="preserve">1.96758306026459</t>
   </si>
   <si>
-    <t xml:space="preserve">1.96115827560425</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94991517066956</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95955193042755</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95794570446014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.97561430931091</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.99328219890594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.03986167907715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.99006950855255</t>
+    <t xml:space="preserve">1.96115839481354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94991505146027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95955216884613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9579461812973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.97561371326447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.99328207969666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.03986144065857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.99006938934326</t>
   </si>
   <si>
     <t xml:space="preserve">2.05271100997925</t>
   </si>
   <si>
-    <t xml:space="preserve">2.0430736541748</t>
+    <t xml:space="preserve">2.04307389259338</t>
   </si>
   <si>
     <t xml:space="preserve">2.05110478401184</t>
@@ -1517,22 +1517,22 @@
     <t xml:space="preserve">2.01416254043579</t>
   </si>
   <si>
-    <t xml:space="preserve">2.00291895866394</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.99649453163147</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.99167573451996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96276450157166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.98043262958527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94830894470215</t>
+    <t xml:space="preserve">2.00291919708252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.99649429321289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.99167585372925</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96276462078094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.98043251037598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94830882549286</t>
   </si>
   <si>
     <t xml:space="preserve">2.01095008850098</t>
@@ -1544,7 +1544,7 @@
     <t xml:space="preserve">2.02058744430542</t>
   </si>
   <si>
-    <t xml:space="preserve">2.06074213981628</t>
+    <t xml:space="preserve">2.06074190139771</t>
   </si>
   <si>
     <t xml:space="preserve">2.17156910896301</t>
@@ -1556,34 +1556,34 @@
     <t xml:space="preserve">2.14265775680542</t>
   </si>
   <si>
-    <t xml:space="preserve">2.17638802528381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16032576560974</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.27275896072388</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.27597165107727</t>
+    <t xml:space="preserve">2.17638778686523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16032600402832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.27275919914246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.27597188949585</t>
   </si>
   <si>
     <t xml:space="preserve">2.25990962982178</t>
   </si>
   <si>
-    <t xml:space="preserve">2.28721499443054</t>
+    <t xml:space="preserve">2.28721475601196</t>
   </si>
   <si>
     <t xml:space="preserve">2.29203343391418</t>
   </si>
   <si>
-    <t xml:space="preserve">2.3129141330719</t>
+    <t xml:space="preserve">2.31291389465332</t>
   </si>
   <si>
     <t xml:space="preserve">2.28560876846313</t>
   </si>
   <si>
-    <t xml:space="preserve">2.28078985214233</t>
+    <t xml:space="preserve">2.28079009056091</t>
   </si>
   <si>
     <t xml:space="preserve">2.30970120429993</t>
@@ -1592,10 +1592,10 @@
     <t xml:space="preserve">2.34503769874573</t>
   </si>
   <si>
-    <t xml:space="preserve">2.34664392471313</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.37073659896851</t>
+    <t xml:space="preserve">2.34664368629456</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.37073683738708</t>
   </si>
   <si>
     <t xml:space="preserve">2.37876749038696</t>
@@ -1604,7 +1604,7 @@
     <t xml:space="preserve">2.36752414703369</t>
   </si>
   <si>
-    <t xml:space="preserve">2.36913061141968</t>
+    <t xml:space="preserve">2.3691303730011</t>
   </si>
   <si>
     <t xml:space="preserve">2.37555527687073</t>
@@ -1619,70 +1619,70 @@
     <t xml:space="preserve">2.36591815948486</t>
   </si>
   <si>
-    <t xml:space="preserve">2.38840484619141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.38679838180542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.39322328567505</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.38358640670776</t>
+    <t xml:space="preserve">2.38840460777283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.386798620224</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.39322352409363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.38358616828918</t>
   </si>
   <si>
     <t xml:space="preserve">2.37394905090332</t>
   </si>
   <si>
-    <t xml:space="preserve">2.34343147277832</t>
+    <t xml:space="preserve">2.3434317111969</t>
   </si>
   <si>
     <t xml:space="preserve">2.41089153289795</t>
   </si>
   <si>
-    <t xml:space="preserve">2.37716174125671</t>
+    <t xml:space="preserve">2.37716150283813</t>
   </si>
   <si>
     <t xml:space="preserve">2.33861303329468</t>
   </si>
   <si>
-    <t xml:space="preserve">2.35306859016418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.34985613822937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.38519239425659</t>
+    <t xml:space="preserve">2.35306835174561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.34985637664795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.38519263267517</t>
   </si>
   <si>
     <t xml:space="preserve">2.38198018074036</t>
   </si>
   <si>
-    <t xml:space="preserve">2.3996479511261</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.40767884254456</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.34182500839233</t>
+    <t xml:space="preserve">2.39964818954468</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.40767908096313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.34182548522949</t>
   </si>
   <si>
     <t xml:space="preserve">2.32255101203918</t>
   </si>
   <si>
-    <t xml:space="preserve">2.43177247047424</t>
+    <t xml:space="preserve">2.43177175521851</t>
   </si>
   <si>
     <t xml:space="preserve">2.46871423721313</t>
   </si>
   <si>
-    <t xml:space="preserve">2.47032046318054</t>
+    <t xml:space="preserve">2.47032070159912</t>
   </si>
   <si>
     <t xml:space="preserve">2.49280714988708</t>
   </si>
   <si>
-    <t xml:space="preserve">2.51850605010986</t>
+    <t xml:space="preserve">2.51850628852844</t>
   </si>
   <si>
     <t xml:space="preserve">2.52171874046326</t>
@@ -1700,67 +1700,67 @@
     <t xml:space="preserve">2.58917856216431</t>
   </si>
   <si>
-    <t xml:space="preserve">2.60202789306641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.64378905296326</t>
+    <t xml:space="preserve">2.60202813148499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.64378929138184</t>
   </si>
   <si>
     <t xml:space="preserve">2.61487746238708</t>
   </si>
   <si>
-    <t xml:space="preserve">2.59560346603394</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.61005926132202</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.55384230613708</t>
+    <t xml:space="preserve">2.59560370445251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.61005878448486</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.55384278297424</t>
   </si>
   <si>
     <t xml:space="preserve">2.57151031494141</t>
   </si>
   <si>
-    <t xml:space="preserve">2.55705451965332</t>
+    <t xml:space="preserve">2.5570547580719</t>
   </si>
   <si>
     <t xml:space="preserve">2.52493119239807</t>
   </si>
   <si>
-    <t xml:space="preserve">2.54099297523499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.54420518875122</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.55866098403931</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.53778076171875</t>
+    <t xml:space="preserve">2.54099273681641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.5442054271698</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.55866122245789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.53778052330017</t>
   </si>
   <si>
     <t xml:space="preserve">2.54902386665344</t>
   </si>
   <si>
-    <t xml:space="preserve">2.56347966194153</t>
+    <t xml:space="preserve">2.56347942352295</t>
   </si>
   <si>
     <t xml:space="preserve">2.55063009262085</t>
   </si>
   <si>
-    <t xml:space="preserve">2.51689982414246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.53938698768616</t>
+    <t xml:space="preserve">2.51690030097961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.53938674926758</t>
   </si>
   <si>
     <t xml:space="preserve">2.52011227607727</t>
   </si>
   <si>
-    <t xml:space="preserve">2.57954120635986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.62451481819153</t>
+    <t xml:space="preserve">2.57954144477844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.62451457977295</t>
   </si>
   <si>
     <t xml:space="preserve">2.63254618644714</t>
@@ -1769,34 +1769,34 @@
     <t xml:space="preserve">2.6357581615448</t>
   </si>
   <si>
-    <t xml:space="preserve">2.63897085189819</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.65181994438171</t>
+    <t xml:space="preserve">2.63897061347961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.65182018280029</t>
   </si>
   <si>
     <t xml:space="preserve">2.6534264087677</t>
   </si>
   <si>
-    <t xml:space="preserve">2.63093948364258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.62933301925659</t>
+    <t xml:space="preserve">2.63093972206116</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.62933325767517</t>
   </si>
   <si>
     <t xml:space="preserve">2.62290859222412</t>
   </si>
   <si>
-    <t xml:space="preserve">2.61166524887085</t>
+    <t xml:space="preserve">2.61166548728943</t>
   </si>
   <si>
     <t xml:space="preserve">2.65985107421875</t>
   </si>
   <si>
-    <t xml:space="preserve">2.68715620040894</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.70000553131104</t>
+    <t xml:space="preserve">2.68715596199036</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.70000576972961</t>
   </si>
   <si>
     <t xml:space="preserve">2.70161199569702</t>
@@ -1811,37 +1811,37 @@
     <t xml:space="preserve">2.68555021286011</t>
   </si>
   <si>
-    <t xml:space="preserve">2.68233776092529</t>
+    <t xml:space="preserve">2.68233752250671</t>
   </si>
   <si>
     <t xml:space="preserve">2.74497866630554</t>
   </si>
   <si>
-    <t xml:space="preserve">2.75140380859375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.78513383865356</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.81725764274597</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.79741811752319</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.77923107147217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.78253793716431</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.74947190284729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.7808849811554</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.76600456237793</t>
+    <t xml:space="preserve">2.75140357017517</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.78513407707214</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.81725740432739</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.79741787910461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.77923130989075</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.78253769874573</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.74947142601013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.78088450431824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.76600480079651</t>
   </si>
   <si>
     <t xml:space="preserve">2.83213758468628</t>
@@ -1859,16 +1859,16 @@
     <t xml:space="preserve">2.87677717208862</t>
   </si>
   <si>
-    <t xml:space="preserve">2.8866970539093</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.90157699584961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.89992332458496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.93298983573914</t>
+    <t xml:space="preserve">2.88669729232788</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.90157675743103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.89992356300354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.93299007415771</t>
   </si>
   <si>
     <t xml:space="preserve">2.91149687767029</t>
@@ -1877,19 +1877,19 @@
     <t xml:space="preserve">2.86189723014832</t>
   </si>
   <si>
-    <t xml:space="preserve">2.84701752662659</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.85197734832764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.83379077911377</t>
+    <t xml:space="preserve">2.84701776504517</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.85197758674622</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.83379054069519</t>
   </si>
   <si>
     <t xml:space="preserve">2.83048415184021</t>
   </si>
   <si>
-    <t xml:space="preserve">2.83544421195984</t>
+    <t xml:space="preserve">2.83544397354126</t>
   </si>
   <si>
     <t xml:space="preserve">2.76931142807007</t>
@@ -1898,49 +1898,49 @@
     <t xml:space="preserve">2.78584432601929</t>
   </si>
   <si>
-    <t xml:space="preserve">2.8387508392334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.81229758262634</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.79576444625854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.80733776092529</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.82883095741272</t>
+    <t xml:space="preserve">2.83875060081482</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.81229782104492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.79576420783997</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.80733799934387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.82883071899414</t>
   </si>
   <si>
     <t xml:space="preserve">2.8056845664978</t>
   </si>
   <si>
-    <t xml:space="preserve">2.83709764480591</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.78749775886536</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.86520385742188</t>
+    <t xml:space="preserve">2.83709740638733</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.78749799728394</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.86520409584045</t>
   </si>
   <si>
     <t xml:space="preserve">2.89165711402893</t>
   </si>
   <si>
-    <t xml:space="preserve">2.88173723220825</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.89000368118286</t>
+    <t xml:space="preserve">2.88173699378967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.89000391960144</t>
   </si>
   <si>
     <t xml:space="preserve">2.91811013221741</t>
   </si>
   <si>
-    <t xml:space="preserve">2.98920273780823</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.98589634895325</t>
+    <t xml:space="preserve">2.98920297622681</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.98589658737183</t>
   </si>
   <si>
     <t xml:space="preserve">3.02392268180847</t>
@@ -1952,16 +1952,16 @@
     <t xml:space="preserve">2.99416279792786</t>
   </si>
   <si>
-    <t xml:space="preserve">2.9958164691925</t>
+    <t xml:space="preserve">2.99581623077393</t>
   </si>
   <si>
     <t xml:space="preserve">3.02557611465454</t>
   </si>
   <si>
-    <t xml:space="preserve">3.00408267974854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.90488338470459</t>
+    <t xml:space="preserve">3.00408291816711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.90488362312317</t>
   </si>
   <si>
     <t xml:space="preserve">2.89661693572998</t>
@@ -1970,7 +1970,7 @@
     <t xml:space="preserve">2.95117664337158</t>
   </si>
   <si>
-    <t xml:space="preserve">2.92307019233704</t>
+    <t xml:space="preserve">2.92306995391846</t>
   </si>
   <si>
     <t xml:space="preserve">2.9263768196106</t>
@@ -1979,25 +1979,25 @@
     <t xml:space="preserve">2.95282983779907</t>
   </si>
   <si>
-    <t xml:space="preserve">3.01565623283386</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.0123496055603</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.97597622871399</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.0619490146637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.06029558181763</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.13304162025452</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.07517576217651</t>
+    <t xml:space="preserve">3.01565599441528</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.01234936714172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.97597646713257</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.06194877624512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.06029534339905</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.1330418586731</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.07517552375793</t>
   </si>
   <si>
     <t xml:space="preserve">3.11320185661316</t>
@@ -2009,10 +2009,10 @@
     <t xml:space="preserve">3.08178877830505</t>
   </si>
   <si>
-    <t xml:space="preserve">3.12808179855347</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.13469529151917</t>
+    <t xml:space="preserve">3.12808203697205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.13469505310059</t>
   </si>
   <si>
     <t xml:space="preserve">3.11650848388672</t>
@@ -2024,49 +2024,49 @@
     <t xml:space="preserve">3.11485528945923</t>
   </si>
   <si>
-    <t xml:space="preserve">3.12642860412598</t>
+    <t xml:space="preserve">3.12642884254456</t>
   </si>
   <si>
     <t xml:space="preserve">3.09501552581787</t>
   </si>
   <si>
-    <t xml:space="preserve">3.13634848594666</t>
+    <t xml:space="preserve">3.13634824752808</t>
   </si>
   <si>
     <t xml:space="preserve">3.10824203491211</t>
   </si>
   <si>
-    <t xml:space="preserve">3.07682871818542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.10493540763855</t>
+    <t xml:space="preserve">3.076828956604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.10493564605713</t>
   </si>
   <si>
     <t xml:space="preserve">3.11816191673279</t>
   </si>
   <si>
-    <t xml:space="preserve">3.15949487686157</t>
+    <t xml:space="preserve">3.15949463844299</t>
   </si>
   <si>
     <t xml:space="preserve">3.17272138595581</t>
   </si>
   <si>
-    <t xml:space="preserve">3.16280126571655</t>
+    <t xml:space="preserve">3.16280150413513</t>
   </si>
   <si>
     <t xml:space="preserve">3.18429493904114</t>
   </si>
   <si>
-    <t xml:space="preserve">3.1429615020752</t>
+    <t xml:space="preserve">3.14296174049377</t>
   </si>
   <si>
     <t xml:space="preserve">3.16776180267334</t>
   </si>
   <si>
-    <t xml:space="preserve">3.18098831176758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.16610836982727</t>
+    <t xml:space="preserve">3.180988073349</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.16610813140869</t>
   </si>
   <si>
     <t xml:space="preserve">3.18760132789612</t>
@@ -2075,7 +2075,7 @@
     <t xml:space="preserve">3.18925476074219</t>
   </si>
   <si>
-    <t xml:space="preserve">3.21570801734924</t>
+    <t xml:space="preserve">3.21570777893066</t>
   </si>
   <si>
     <t xml:space="preserve">3.29176068305969</t>
@@ -2096,13 +2096,13 @@
     <t xml:space="preserve">3.28018712997437</t>
   </si>
   <si>
-    <t xml:space="preserve">3.29837369918823</t>
+    <t xml:space="preserve">3.29837346076965</t>
   </si>
   <si>
     <t xml:space="preserve">3.27357411384583</t>
   </si>
   <si>
-    <t xml:space="preserve">3.30333399772644</t>
+    <t xml:space="preserve">3.30333375930786</t>
   </si>
   <si>
     <t xml:space="preserve">3.29341387748718</t>
@@ -2111,13 +2111,13 @@
     <t xml:space="preserve">3.30994725227356</t>
   </si>
   <si>
-    <t xml:space="preserve">3.17602801322937</t>
+    <t xml:space="preserve">3.17602825164795</t>
   </si>
   <si>
     <t xml:space="preserve">3.20248126983643</t>
   </si>
   <si>
-    <t xml:space="preserve">3.24050760269165</t>
+    <t xml:space="preserve">3.24050736427307</t>
   </si>
   <si>
     <t xml:space="preserve">3.21736097335815</t>
@@ -2126,28 +2126,28 @@
     <t xml:space="preserve">3.21074795722961</t>
   </si>
   <si>
-    <t xml:space="preserve">3.18594813346863</t>
+    <t xml:space="preserve">3.18594837188721</t>
   </si>
   <si>
     <t xml:space="preserve">3.21901440620422</t>
   </si>
   <si>
-    <t xml:space="preserve">3.22728133201599</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.1743745803833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.24381422996521</t>
+    <t xml:space="preserve">3.22728109359741</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.17437481880188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.24381446838379</t>
   </si>
   <si>
     <t xml:space="preserve">3.29010725021362</t>
   </si>
   <si>
-    <t xml:space="preserve">3.28680038452148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.28184056282043</t>
+    <t xml:space="preserve">3.28680086135864</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.28184080123901</t>
   </si>
   <si>
     <t xml:space="preserve">3.34136009216309</t>
@@ -2177,7 +2177,7 @@
     <t xml:space="preserve">3.26034736633301</t>
   </si>
   <si>
-    <t xml:space="preserve">3.30498719215393</t>
+    <t xml:space="preserve">3.30498695373535</t>
   </si>
   <si>
     <t xml:space="preserve">3.30168056488037</t>
@@ -2195,7 +2195,7 @@
     <t xml:space="preserve">3.43725252151489</t>
   </si>
   <si>
-    <t xml:space="preserve">3.57613182067871</t>
+    <t xml:space="preserve">3.57613158226013</t>
   </si>
   <si>
     <t xml:space="preserve">3.57447838783264</t>
@@ -2207,55 +2207,55 @@
     <t xml:space="preserve">3.39095973968506</t>
   </si>
   <si>
-    <t xml:space="preserve">3.39922642707825</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.40914607048035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.45709300041199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.49842572212219</t>
+    <t xml:space="preserve">3.39922618865967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.40914630889893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.45709252357483</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.49842548370361</t>
   </si>
   <si>
     <t xml:space="preserve">3.51165223121643</t>
   </si>
   <si>
-    <t xml:space="preserve">3.53645181655884</t>
+    <t xml:space="preserve">3.53645157814026</t>
   </si>
   <si>
     <t xml:space="preserve">3.55463886260986</t>
   </si>
   <si>
-    <t xml:space="preserve">3.56786489486694</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.60754418373108</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.58109140396118</t>
+    <t xml:space="preserve">3.56786513328552</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.60754466056824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.58109164237976</t>
   </si>
   <si>
     <t xml:space="preserve">3.58605146408081</t>
   </si>
   <si>
-    <t xml:space="preserve">3.59927821159363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.68855762481689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.66871762275696</t>
+    <t xml:space="preserve">3.59927797317505</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.68855738639832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.66871786117554</t>
   </si>
   <si>
     <t xml:space="preserve">3.64722418785095</t>
   </si>
   <si>
-    <t xml:space="preserve">3.46370553970337</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.43229293823242</t>
+    <t xml:space="preserve">3.46370577812195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.43229269981384</t>
   </si>
   <si>
     <t xml:space="preserve">3.46205282211304</t>
@@ -2264,7 +2264,7 @@
     <t xml:space="preserve">3.40087985992432</t>
   </si>
   <si>
-    <t xml:space="preserve">3.20578789710999</t>
+    <t xml:space="preserve">3.20578813552856</t>
   </si>
   <si>
     <t xml:space="preserve">3.2289342880249</t>
@@ -2276,25 +2276,25 @@
     <t xml:space="preserve">2.93795013427734</t>
   </si>
   <si>
-    <t xml:space="preserve">2.75773787498474</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.7908046245575</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.30307531356812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.65357875823975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.55768609046936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.60397958755493</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.61059284210205</t>
+    <t xml:space="preserve">2.75773811340332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.79080438613892</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.30307507514954</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.65357899665833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.55768632888794</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.60397911071777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.61059260368347</t>
   </si>
   <si>
     <t xml:space="preserve">2.55272650718689</t>
@@ -2303,25 +2303,25 @@
     <t xml:space="preserve">2.68003225326538</t>
   </si>
   <si>
-    <t xml:space="preserve">2.53288674354553</t>
+    <t xml:space="preserve">2.53288650512695</t>
   </si>
   <si>
     <t xml:space="preserve">2.50808668136597</t>
   </si>
   <si>
-    <t xml:space="preserve">2.53123331069946</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.59571290016174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.71971201896667</t>
+    <t xml:space="preserve">2.53123354911804</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.59571266174316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.7197117805481</t>
   </si>
   <si>
     <t xml:space="preserve">2.70152497291565</t>
   </si>
   <si>
-    <t xml:space="preserve">2.62216567993164</t>
+    <t xml:space="preserve">2.62216591835022</t>
   </si>
   <si>
     <t xml:space="preserve">2.66019225120544</t>
@@ -2333,25 +2333,25 @@
     <t xml:space="preserve">2.64696550369263</t>
   </si>
   <si>
-    <t xml:space="preserve">2.5510733127594</t>
+    <t xml:space="preserve">2.55107307434082</t>
   </si>
   <si>
     <t xml:space="preserve">2.67176556587219</t>
   </si>
   <si>
-    <t xml:space="preserve">2.663498878479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.64200592041016</t>
+    <t xml:space="preserve">2.66349864006042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.64200568199158</t>
   </si>
   <si>
     <t xml:space="preserve">2.63869905471802</t>
   </si>
   <si>
-    <t xml:space="preserve">2.70483207702637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.71805834770203</t>
+    <t xml:space="preserve">2.70483160018921</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.71805882453918</t>
   </si>
   <si>
     <t xml:space="preserve">2.61224603652954</t>
@@ -2360,7 +2360,7 @@
     <t xml:space="preserve">2.68664526939392</t>
   </si>
   <si>
-    <t xml:space="preserve">2.67672538757324</t>
+    <t xml:space="preserve">2.67672514915466</t>
   </si>
   <si>
     <t xml:space="preserve">2.77261805534363</t>
@@ -2369,28 +2369,28 @@
     <t xml:space="preserve">2.79245781898499</t>
   </si>
   <si>
-    <t xml:space="preserve">2.67507195472717</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.66845870018005</t>
+    <t xml:space="preserve">2.67507219314575</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.66845893859863</t>
   </si>
   <si>
     <t xml:space="preserve">2.61885929107666</t>
   </si>
   <si>
-    <t xml:space="preserve">2.58579277992249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.68829870223999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.71640491485596</t>
+    <t xml:space="preserve">2.58579254150391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.68829894065857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.71640515327454</t>
   </si>
   <si>
     <t xml:space="preserve">2.65688538551331</t>
   </si>
   <si>
-    <t xml:space="preserve">2.56760621070862</t>
+    <t xml:space="preserve">2.5676064491272</t>
   </si>
   <si>
     <t xml:space="preserve">2.55437970161438</t>
@@ -2408,28 +2408,28 @@
     <t xml:space="preserve">2.64365887641907</t>
   </si>
   <si>
-    <t xml:space="preserve">2.75608468055725</t>
+    <t xml:space="preserve">2.75608491897583</t>
   </si>
   <si>
     <t xml:space="preserve">2.75939154624939</t>
   </si>
   <si>
-    <t xml:space="preserve">2.95779013633728</t>
+    <t xml:space="preserve">2.9577898979187</t>
   </si>
   <si>
     <t xml:space="preserve">2.96274971961975</t>
   </si>
   <si>
-    <t xml:space="preserve">2.92141675949097</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.88008403778076</t>
+    <t xml:space="preserve">2.92141652107239</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.88008379936218</t>
   </si>
   <si>
     <t xml:space="preserve">2.77757787704468</t>
   </si>
   <si>
-    <t xml:space="preserve">2.90653729438782</t>
+    <t xml:space="preserve">2.90653705596924</t>
   </si>
   <si>
     <t xml:space="preserve">2.893310546875</t>
@@ -2441,19 +2441,19 @@
     <t xml:space="preserve">2.86024403572083</t>
   </si>
   <si>
-    <t xml:space="preserve">2.85693740844727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.78915119171143</t>
+    <t xml:space="preserve">2.85693764686584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.78915143013</t>
   </si>
   <si>
     <t xml:space="preserve">2.73624491691589</t>
   </si>
   <si>
-    <t xml:space="preserve">2.80403089523315</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.80072426795959</t>
+    <t xml:space="preserve">2.80403113365173</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.80072450637817</t>
   </si>
   <si>
     <t xml:space="preserve">2.82717776298523</t>
@@ -2462,7 +2462,7 @@
     <t xml:space="preserve">2.84420871734619</t>
   </si>
   <si>
-    <t xml:space="preserve">2.79992771148682</t>
+    <t xml:space="preserve">2.7999279499054</t>
   </si>
   <si>
     <t xml:space="preserve">2.81525564193726</t>
@@ -2471,16 +2471,16 @@
     <t xml:space="preserve">2.74031853675842</t>
   </si>
   <si>
-    <t xml:space="preserve">2.73180270195007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.7743809223175</t>
+    <t xml:space="preserve">2.73180294036865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.77438068389893</t>
   </si>
   <si>
     <t xml:space="preserve">2.7369122505188</t>
   </si>
   <si>
-    <t xml:space="preserve">2.74883389472961</t>
+    <t xml:space="preserve">2.74883413314819</t>
   </si>
   <si>
     <t xml:space="preserve">2.79481840133667</t>
@@ -2489,16 +2489,16 @@
     <t xml:space="preserve">2.83228707313538</t>
   </si>
   <si>
-    <t xml:space="preserve">2.835693359375</t>
+    <t xml:space="preserve">2.83569312095642</t>
   </si>
   <si>
     <t xml:space="preserve">2.83739638328552</t>
   </si>
   <si>
-    <t xml:space="preserve">2.8680522441864</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.82717728614807</t>
+    <t xml:space="preserve">2.86805248260498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.82717752456665</t>
   </si>
   <si>
     <t xml:space="preserve">2.76075601577759</t>
@@ -2507,16 +2507,16 @@
     <t xml:space="preserve">2.71647477149963</t>
   </si>
   <si>
-    <t xml:space="preserve">2.73350620269775</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.80333423614502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.78800582885742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.68922519683838</t>
+    <t xml:space="preserve">2.73350596427917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.80333399772644</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.78800559043884</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.6892249584198</t>
   </si>
   <si>
     <t xml:space="preserve">2.70795941352844</t>
@@ -2525,7 +2525,7 @@
     <t xml:space="preserve">2.69944381713867</t>
   </si>
   <si>
-    <t xml:space="preserve">2.69263124465942</t>
+    <t xml:space="preserve">2.69263100624084</t>
   </si>
   <si>
     <t xml:space="preserve">2.68411540985107</t>
@@ -2552,19 +2552,19 @@
     <t xml:space="preserve">2.81014633178711</t>
   </si>
   <si>
-    <t xml:space="preserve">2.7828962802887</t>
+    <t xml:space="preserve">2.78289651870728</t>
   </si>
   <si>
     <t xml:space="preserve">2.76245903968811</t>
   </si>
   <si>
-    <t xml:space="preserve">2.85272455215454</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.82377147674561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.74542760848999</t>
+    <t xml:space="preserve">2.85272431373596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.82377123832703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.74542808532715</t>
   </si>
   <si>
     <t xml:space="preserve">2.7249903678894</t>
@@ -2585,31 +2585,31 @@
     <t xml:space="preserve">2.74713087081909</t>
   </si>
   <si>
-    <t xml:space="preserve">2.73861575126648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.78119325637817</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.76416206359863</t>
+    <t xml:space="preserve">2.7386155128479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.78119349479675</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.76416230201721</t>
   </si>
   <si>
     <t xml:space="preserve">2.77949023246765</t>
   </si>
   <si>
-    <t xml:space="preserve">2.79822421073914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.81355237960815</t>
+    <t xml:space="preserve">2.79822444915771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.81355261802673</t>
   </si>
   <si>
     <t xml:space="preserve">2.7352089881897</t>
   </si>
   <si>
-    <t xml:space="preserve">2.72158455848694</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.70455288887024</t>
+    <t xml:space="preserve">2.72158432006836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.70455312728882</t>
   </si>
   <si>
     <t xml:space="preserve">2.74372458457947</t>
@@ -2630,7 +2630,7 @@
     <t xml:space="preserve">2.60747528076172</t>
   </si>
   <si>
-    <t xml:space="preserve">2.61428761482239</t>
+    <t xml:space="preserve">2.61428785324097</t>
   </si>
   <si>
     <t xml:space="preserve">2.59555339813232</t>
@@ -2642,37 +2642,37 @@
     <t xml:space="preserve">2.51210045814514</t>
   </si>
   <si>
-    <t xml:space="preserve">2.53424119949341</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.44738221168518</t>
+    <t xml:space="preserve">2.53424096107483</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.4473819732666</t>
   </si>
   <si>
     <t xml:space="preserve">2.47292876243591</t>
   </si>
   <si>
-    <t xml:space="preserve">2.50188183784485</t>
+    <t xml:space="preserve">2.50188159942627</t>
   </si>
   <si>
     <t xml:space="preserve">2.55467844009399</t>
   </si>
   <si>
-    <t xml:space="preserve">2.48485088348389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.46441340446472</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.46611618995667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.40139746665955</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.37755417823792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.31794476509094</t>
+    <t xml:space="preserve">2.48485064506531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.46441316604614</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.46611642837524</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.40139770507812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.37755441665649</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.31794500350952</t>
   </si>
   <si>
     <t xml:space="preserve">2.27877330780029</t>
@@ -2681,7 +2681,7 @@
     <t xml:space="preserve">2.29921054840088</t>
   </si>
   <si>
-    <t xml:space="preserve">2.31964778900146</t>
+    <t xml:space="preserve">2.31964802742004</t>
   </si>
   <si>
     <t xml:space="preserve">2.33838224411011</t>
@@ -2693,10 +2693,10 @@
     <t xml:space="preserve">2.39117908477783</t>
   </si>
   <si>
-    <t xml:space="preserve">2.3656325340271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.54616332054138</t>
+    <t xml:space="preserve">2.36563229560852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.5461630821228</t>
   </si>
   <si>
     <t xml:space="preserve">2.51550698280334</t>
@@ -2711,7 +2711,7 @@
     <t xml:space="preserve">2.57170963287354</t>
   </si>
   <si>
-    <t xml:space="preserve">2.65686583518982</t>
+    <t xml:space="preserve">2.65686559677124</t>
   </si>
   <si>
     <t xml:space="preserve">2.60236573219299</t>
@@ -2723,13 +2723,13 @@
     <t xml:space="preserve">2.59725666046143</t>
   </si>
   <si>
-    <t xml:space="preserve">2.57341265678406</t>
+    <t xml:space="preserve">2.57341289520264</t>
   </si>
   <si>
     <t xml:space="preserve">2.56830358505249</t>
   </si>
   <si>
-    <t xml:space="preserve">2.61599111557007</t>
+    <t xml:space="preserve">2.61599087715149</t>
   </si>
   <si>
     <t xml:space="preserve">2.62961578369141</t>
@@ -2738,19 +2738,19 @@
     <t xml:space="preserve">2.60577201843262</t>
   </si>
   <si>
-    <t xml:space="preserve">2.56319427490234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.53083491325378</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.55978775024414</t>
+    <t xml:space="preserve">2.56319403648376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.53083467483521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.55978798866272</t>
   </si>
   <si>
     <t xml:space="preserve">2.53594422340393</t>
   </si>
   <si>
-    <t xml:space="preserve">2.52061605453491</t>
+    <t xml:space="preserve">2.52061629295349</t>
   </si>
   <si>
     <t xml:space="preserve">2.50528812408447</t>
@@ -2759,46 +2759,46 @@
     <t xml:space="preserve">2.47803831100464</t>
   </si>
   <si>
-    <t xml:space="preserve">2.45249152183533</t>
+    <t xml:space="preserve">2.45249128341675</t>
   </si>
   <si>
     <t xml:space="preserve">2.48314762115479</t>
   </si>
   <si>
-    <t xml:space="preserve">2.45419454574585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.4933660030365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.5427565574646</t>
+    <t xml:space="preserve">2.45419478416443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.49336624145508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.54275679588318</t>
   </si>
   <si>
     <t xml:space="preserve">2.42694473266602</t>
   </si>
   <si>
-    <t xml:space="preserve">2.47633504867554</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.54445958137512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.55127239227295</t>
+    <t xml:space="preserve">2.47633528709412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.5444598197937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.55127215385437</t>
   </si>
   <si>
     <t xml:space="preserve">2.53764748573303</t>
   </si>
   <si>
-    <t xml:space="preserve">2.59895992279053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.53253793716431</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.58363151550293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.57852244377136</t>
+    <t xml:space="preserve">2.59895968437195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.53253817558289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.58363127708435</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.57852220535278</t>
   </si>
   <si>
     <t xml:space="preserve">2.6909282207489</t>
@@ -2807,10 +2807,10 @@
     <t xml:space="preserve">2.63642835617065</t>
   </si>
   <si>
-    <t xml:space="preserve">2.46952271461487</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.42353844642639</t>
+    <t xml:space="preserve">2.46952247619629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.42353820800781</t>
   </si>
   <si>
     <t xml:space="preserve">2.44567894935608</t>
@@ -2819,16 +2819,16 @@
     <t xml:space="preserve">2.45589780807495</t>
   </si>
   <si>
-    <t xml:space="preserve">2.41672587394714</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.56149101257324</t>
+    <t xml:space="preserve">2.41672611236572</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.56149077415466</t>
   </si>
   <si>
     <t xml:space="preserve">2.58703804016113</t>
   </si>
   <si>
-    <t xml:space="preserve">2.64835023880005</t>
+    <t xml:space="preserve">2.64835000038147</t>
   </si>
   <si>
     <t xml:space="preserve">2.60406899452209</t>
@@ -2843,10 +2843,10 @@
     <t xml:space="preserve">2.68581867218018</t>
   </si>
   <si>
-    <t xml:space="preserve">2.6415376663208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.63131904602051</t>
+    <t xml:space="preserve">2.64153790473938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.63131880760193</t>
   </si>
   <si>
     <t xml:space="preserve">2.61939716339111</t>
@@ -2864,28 +2864,28 @@
     <t xml:space="preserve">2.65856885910034</t>
   </si>
   <si>
-    <t xml:space="preserve">2.66538143157959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.70114684104919</t>
+    <t xml:space="preserve">2.66538119316101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.70114660263062</t>
   </si>
   <si>
     <t xml:space="preserve">2.81695890426636</t>
   </si>
   <si>
-    <t xml:space="preserve">2.78204464912415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.8305835723877</t>
+    <t xml:space="preserve">2.78204488754272</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.83058381080627</t>
   </si>
   <si>
     <t xml:space="preserve">2.80929493904114</t>
   </si>
   <si>
-    <t xml:space="preserve">2.79652118682861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.8127007484436</t>
+    <t xml:space="preserve">2.79652142524719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.81270098686218</t>
   </si>
   <si>
     <t xml:space="preserve">2.8339900970459</t>
@@ -2915,7 +2915,7 @@
     <t xml:space="preserve">2.86549758911133</t>
   </si>
   <si>
-    <t xml:space="preserve">2.8697555065155</t>
+    <t xml:space="preserve">2.86975526809692</t>
   </si>
   <si>
     <t xml:space="preserve">2.90126323699951</t>
@@ -2936,7 +2936,7 @@
     <t xml:space="preserve">2.96938800811768</t>
   </si>
   <si>
-    <t xml:space="preserve">2.93788051605225</t>
+    <t xml:space="preserve">2.93788027763367</t>
   </si>
   <si>
     <t xml:space="preserve">2.92766165733337</t>
@@ -2945,16 +2945,16 @@
     <t xml:space="preserve">2.9668333530426</t>
   </si>
   <si>
-    <t xml:space="preserve">2.98556756973267</t>
+    <t xml:space="preserve">2.98556780815125</t>
   </si>
   <si>
     <t xml:space="preserve">2.99067711830139</t>
   </si>
   <si>
-    <t xml:space="preserve">2.99493479728699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.98982548713684</t>
+    <t xml:space="preserve">2.99493455886841</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.98982524871826</t>
   </si>
   <si>
     <t xml:space="preserve">2.97194266319275</t>
@@ -2963,37 +2963,37 @@
     <t xml:space="preserve">2.96768474578857</t>
   </si>
   <si>
-    <t xml:space="preserve">2.9727942943573</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.97023940086365</t>
+    <t xml:space="preserve">2.97279405593872</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.97023916244507</t>
   </si>
   <si>
     <t xml:space="preserve">2.98130989074707</t>
   </si>
   <si>
-    <t xml:space="preserve">3.00515341758728</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.04177069664001</t>
+    <t xml:space="preserve">3.00515365600586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.04177045822144</t>
   </si>
   <si>
     <t xml:space="preserve">3.06902050971985</t>
   </si>
   <si>
-    <t xml:space="preserve">3.08264517784119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.13799667358398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.11670780181885</t>
+    <t xml:space="preserve">3.08264541625977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.13799643516541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.11670804023743</t>
   </si>
   <si>
     <t xml:space="preserve">3.12011408805847</t>
   </si>
   <si>
-    <t xml:space="preserve">3.15417623519897</t>
+    <t xml:space="preserve">3.15417647361755</t>
   </si>
   <si>
     <t xml:space="preserve">3.13033294677734</t>
@@ -3005,22 +3005,22 @@
     <t xml:space="preserve">3.13373899459839</t>
   </si>
   <si>
-    <t xml:space="preserve">3.11926245689392</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.10052824020386</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.06816864013672</t>
+    <t xml:space="preserve">3.1192626953125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.10052847862244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.0681688785553</t>
   </si>
   <si>
     <t xml:space="preserve">3.01026320457458</t>
   </si>
   <si>
-    <t xml:space="preserve">3.03240346908569</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.00345015525818</t>
+    <t xml:space="preserve">3.03240370750427</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.00345039367676</t>
   </si>
   <si>
     <t xml:space="preserve">2.99834108352661</t>
@@ -3029,10 +3029,10 @@
     <t xml:space="preserve">2.99919271469116</t>
   </si>
   <si>
-    <t xml:space="preserve">2.97364592552185</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.00259852409363</t>
+    <t xml:space="preserve">2.97364616394043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.00259876251221</t>
   </si>
   <si>
     <t xml:space="preserve">3.01754140853882</t>
@@ -3059,13 +3059,13 @@
     <t xml:space="preserve">3.03072619438171</t>
   </si>
   <si>
-    <t xml:space="preserve">3.00347781181335</t>
+    <t xml:space="preserve">3.00347805023193</t>
   </si>
   <si>
     <t xml:space="preserve">3.03512120246887</t>
   </si>
   <si>
-    <t xml:space="preserve">2.94810199737549</t>
+    <t xml:space="preserve">2.94810223579407</t>
   </si>
   <si>
     <t xml:space="preserve">2.9568920135498</t>
@@ -3077,7 +3077,7 @@
     <t xml:space="preserve">3.11159253120422</t>
   </si>
   <si>
-    <t xml:space="preserve">3.08873891830444</t>
+    <t xml:space="preserve">3.08873867988586</t>
   </si>
   <si>
     <t xml:space="preserve">3.10192370414734</t>
@@ -3095,7 +3095,7 @@
     <t xml:space="preserve">3.15817856788635</t>
   </si>
   <si>
-    <t xml:space="preserve">3.13532495498657</t>
+    <t xml:space="preserve">3.13532471656799</t>
   </si>
   <si>
     <t xml:space="preserve">3.12214040756226</t>
@@ -3107,13 +3107,13 @@
     <t xml:space="preserve">3.13268804550171</t>
   </si>
   <si>
-    <t xml:space="preserve">3.15993666648865</t>
+    <t xml:space="preserve">3.15993642807007</t>
   </si>
   <si>
     <t xml:space="preserve">3.14850974082947</t>
   </si>
   <si>
-    <t xml:space="preserve">3.20036959648132</t>
+    <t xml:space="preserve">3.2003698348999</t>
   </si>
   <si>
     <t xml:space="preserve">3.21267533302307</t>
@@ -3137,13 +3137,13 @@
     <t xml:space="preserve">3.30408930778503</t>
   </si>
   <si>
-    <t xml:space="preserve">3.30584740638733</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.28475189208984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.2460765838623</t>
+    <t xml:space="preserve">3.30584716796875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.28475165367126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.24607682228088</t>
   </si>
   <si>
     <t xml:space="preserve">3.21707034111023</t>
@@ -3161,10 +3161,10 @@
     <t xml:space="preserve">3.25398731231689</t>
   </si>
   <si>
-    <t xml:space="preserve">3.23904466629028</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.22585988044739</t>
+    <t xml:space="preserve">3.2390444278717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.22586011886597</t>
   </si>
   <si>
     <t xml:space="preserve">3.24168157577515</t>
@@ -3173,13 +3173,13 @@
     <t xml:space="preserve">3.19597458839417</t>
   </si>
   <si>
-    <t xml:space="preserve">3.14938855171204</t>
+    <t xml:space="preserve">3.14938879013062</t>
   </si>
   <si>
     <t xml:space="preserve">3.18806385993958</t>
   </si>
   <si>
-    <t xml:space="preserve">3.21443319320679</t>
+    <t xml:space="preserve">3.21443343162537</t>
   </si>
   <si>
     <t xml:space="preserve">3.16345238685608</t>
@@ -3191,7 +3191,7 @@
     <t xml:space="preserve">3.15466260910034</t>
   </si>
   <si>
-    <t xml:space="preserve">3.20124864578247</t>
+    <t xml:space="preserve">3.20124840736389</t>
   </si>
   <si>
     <t xml:space="preserve">3.19773268699646</t>
@@ -3200,13 +3200,13 @@
     <t xml:space="preserve">3.20740127563477</t>
   </si>
   <si>
-    <t xml:space="preserve">3.1362042427063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.08522295951843</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.12653517723083</t>
+    <t xml:space="preserve">3.13620400428772</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.08522319793701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.12653541564941</t>
   </si>
   <si>
     <t xml:space="preserve">3.10807657241821</t>
@@ -3215,19 +3215,19 @@
     <t xml:space="preserve">3.10719776153564</t>
   </si>
   <si>
-    <t xml:space="preserve">3.10983467102051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.1159873008728</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.07115960121155</t>
+    <t xml:space="preserve">3.10983443260193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.11598753929138</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.07115936279297</t>
   </si>
   <si>
     <t xml:space="preserve">3.09664988517761</t>
   </si>
   <si>
-    <t xml:space="preserve">3.01929926872253</t>
+    <t xml:space="preserve">3.01929950714111</t>
   </si>
   <si>
     <t xml:space="preserve">2.98501920700073</t>
@@ -3242,19 +3242,19 @@
     <t xml:space="preserve">3.08610200881958</t>
   </si>
   <si>
-    <t xml:space="preserve">3.06324863433838</t>
+    <t xml:space="preserve">3.0632483959198</t>
   </si>
   <si>
     <t xml:space="preserve">3.03336310386658</t>
   </si>
   <si>
-    <t xml:space="preserve">3.05357980728149</t>
+    <t xml:space="preserve">3.05357956886292</t>
   </si>
   <si>
     <t xml:space="preserve">3.11422920227051</t>
   </si>
   <si>
-    <t xml:space="preserve">3.14675164222717</t>
+    <t xml:space="preserve">3.14675188064575</t>
   </si>
   <si>
     <t xml:space="preserve">3.16257333755493</t>
@@ -3269,10 +3269,10 @@
     <t xml:space="preserve">3.10895562171936</t>
   </si>
   <si>
-    <t xml:space="preserve">3.12477731704712</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.10631847381592</t>
+    <t xml:space="preserve">3.12477707862854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.1063187122345</t>
   </si>
   <si>
     <t xml:space="preserve">3.14763069152832</t>
@@ -3281,19 +3281,19 @@
     <t xml:space="preserve">3.22849702835083</t>
   </si>
   <si>
-    <t xml:space="preserve">3.20828056335449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.17048454284668</t>
+    <t xml:space="preserve">3.20828032493591</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.1704843044281</t>
   </si>
   <si>
     <t xml:space="preserve">3.1291720867157</t>
   </si>
   <si>
-    <t xml:space="preserve">3.17136335372925</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.18366861343384</t>
+    <t xml:space="preserve">3.17136311531067</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.18366885185242</t>
   </si>
   <si>
     <t xml:space="preserve">3.18718481063843</t>
@@ -3320,7 +3320,7 @@
     <t xml:space="preserve">3.06764340400696</t>
   </si>
   <si>
-    <t xml:space="preserve">2.99732518196106</t>
+    <t xml:space="preserve">2.99732494354248</t>
   </si>
   <si>
     <t xml:space="preserve">3.13796186447144</t>
@@ -3329,10 +3329,10 @@
     <t xml:space="preserve">3.0931339263916</t>
   </si>
   <si>
-    <t xml:space="preserve">3.12038230895996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.08961820602417</t>
+    <t xml:space="preserve">3.12038207054138</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.08961796760559</t>
   </si>
   <si>
     <t xml:space="preserve">3.11510825157166</t>
@@ -3344,7 +3344,7 @@
     <t xml:space="preserve">3.1590576171875</t>
   </si>
   <si>
-    <t xml:space="preserve">3.16433119773865</t>
+    <t xml:space="preserve">3.16433143615723</t>
   </si>
   <si>
     <t xml:space="preserve">3.17487931251526</t>
@@ -3353,7 +3353,7 @@
     <t xml:space="preserve">3.23289179801941</t>
   </si>
   <si>
-    <t xml:space="preserve">3.21794939041138</t>
+    <t xml:space="preserve">3.2179491519928</t>
   </si>
   <si>
     <t xml:space="preserve">3.25750327110291</t>
@@ -3362,16 +3362,16 @@
     <t xml:space="preserve">3.22761797904968</t>
   </si>
   <si>
-    <t xml:space="preserve">3.20212769508362</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.13971996307373</t>
+    <t xml:space="preserve">3.20212745666504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.13971972465515</t>
   </si>
   <si>
     <t xml:space="preserve">3.12565612792969</t>
   </si>
   <si>
-    <t xml:space="preserve">3.10543990135193</t>
+    <t xml:space="preserve">3.10543966293335</t>
   </si>
   <si>
     <t xml:space="preserve">3.081707239151</t>
@@ -3380,7 +3380,7 @@
     <t xml:space="preserve">3.09225487709045</t>
   </si>
   <si>
-    <t xml:space="preserve">3.0588538646698</t>
+    <t xml:space="preserve">3.05885362625122</t>
   </si>
   <si>
     <t xml:space="preserve">3.01666259765625</t>
@@ -3392,10 +3392,10 @@
     <t xml:space="preserve">3.08434391021729</t>
   </si>
   <si>
-    <t xml:space="preserve">3.19070100784302</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.2654139995575</t>
+    <t xml:space="preserve">3.19070076942444</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.26541423797607</t>
   </si>
   <si>
     <t xml:space="preserve">3.25047159194946</t>
@@ -3404,7 +3404,7 @@
     <t xml:space="preserve">3.18454790115356</t>
   </si>
   <si>
-    <t xml:space="preserve">3.04830598831177</t>
+    <t xml:space="preserve">3.04830574989319</t>
   </si>
   <si>
     <t xml:space="preserve">2.9876561164856</t>
@@ -3416,7 +3416,7 @@
     <t xml:space="preserve">3.04742693901062</t>
   </si>
   <si>
-    <t xml:space="preserve">3.03424191474915</t>
+    <t xml:space="preserve">3.03424215316772</t>
   </si>
   <si>
     <t xml:space="preserve">2.96656060218811</t>
@@ -3431,28 +3431,28 @@
     <t xml:space="preserve">2.94898104667664</t>
   </si>
   <si>
-    <t xml:space="preserve">2.94370722770691</t>
+    <t xml:space="preserve">2.94370698928833</t>
   </si>
   <si>
     <t xml:space="preserve">2.90151619911194</t>
   </si>
   <si>
-    <t xml:space="preserve">2.91294288635254</t>
+    <t xml:space="preserve">2.91294264793396</t>
   </si>
   <si>
     <t xml:space="preserve">2.92964339256287</t>
   </si>
   <si>
-    <t xml:space="preserve">2.84262442588806</t>
+    <t xml:space="preserve">2.84262418746948</t>
   </si>
   <si>
     <t xml:space="preserve">3.04566884040833</t>
   </si>
   <si>
-    <t xml:space="preserve">2.93755412101746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.89360547065735</t>
+    <t xml:space="preserve">2.93755435943604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.89360523223877</t>
   </si>
   <si>
     <t xml:space="preserve">2.86547780036926</t>
@@ -3464,10 +3464,10 @@
     <t xml:space="preserve">2.81273913383484</t>
   </si>
   <si>
-    <t xml:space="preserve">2.87778353691101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.98414015769958</t>
+    <t xml:space="preserve">2.87778329849243</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.98414039611816</t>
   </si>
   <si>
     <t xml:space="preserve">2.97007656097412</t>
@@ -3479,13 +3479,13 @@
     <t xml:space="preserve">2.95777082443237</t>
   </si>
   <si>
-    <t xml:space="preserve">2.92436957359314</t>
+    <t xml:space="preserve">2.92436933517456</t>
   </si>
   <si>
     <t xml:space="preserve">2.96040773391724</t>
   </si>
   <si>
-    <t xml:space="preserve">2.9990828037262</t>
+    <t xml:space="preserve">2.99908304214478</t>
   </si>
   <si>
     <t xml:space="preserve">2.89184737205505</t>
@@ -3506,7 +3506,7 @@
     <t xml:space="preserve">2.94107007980347</t>
   </si>
   <si>
-    <t xml:space="preserve">2.98326110839844</t>
+    <t xml:space="preserve">2.98326134681702</t>
   </si>
   <si>
     <t xml:space="preserve">3.0157835483551</t>
@@ -3521,7 +3521,7 @@
     <t xml:space="preserve">3.11686635017395</t>
   </si>
   <si>
-    <t xml:space="preserve">3.15729951858521</t>
+    <t xml:space="preserve">3.15729975700378</t>
   </si>
   <si>
     <t xml:space="preserve">3.17224216461182</t>
@@ -3533,7 +3533,7 @@
     <t xml:space="preserve">3.16169428825378</t>
   </si>
   <si>
-    <t xml:space="preserve">3.08346486091614</t>
+    <t xml:space="preserve">3.08346509933472</t>
   </si>
   <si>
     <t xml:space="preserve">3.09489178657532</t>
@@ -3575,10 +3575,10 @@
     <t xml:space="preserve">2.97359251976013</t>
   </si>
   <si>
-    <t xml:space="preserve">2.9331591129303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.96831846237183</t>
+    <t xml:space="preserve">2.93315935134888</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.96831870079041</t>
   </si>
   <si>
     <t xml:space="preserve">2.94282841682434</t>
@@ -3587,7 +3587,7 @@
     <t xml:space="preserve">2.94458603858948</t>
   </si>
   <si>
-    <t xml:space="preserve">2.82856059074402</t>
+    <t xml:space="preserve">2.8285608291626</t>
   </si>
   <si>
     <t xml:space="preserve">2.62551593780518</t>
@@ -3602,7 +3602,7 @@
     <t xml:space="preserve">2.54992389678955</t>
   </si>
   <si>
-    <t xml:space="preserve">2.4778470993042</t>
+    <t xml:space="preserve">2.47784733772278</t>
   </si>
   <si>
     <t xml:space="preserve">2.507732629776</t>
@@ -3632,19 +3632,19 @@
     <t xml:space="preserve">2.56829261779785</t>
   </si>
   <si>
-    <t xml:space="preserve">2.5325071811676</t>
+    <t xml:space="preserve">2.53250694274902</t>
   </si>
   <si>
     <t xml:space="preserve">2.58022117614746</t>
   </si>
   <si>
-    <t xml:space="preserve">2.57746815681458</t>
+    <t xml:space="preserve">2.57746839523315</t>
   </si>
   <si>
     <t xml:space="preserve">2.50314474105835</t>
   </si>
   <si>
-    <t xml:space="preserve">2.54902362823486</t>
+    <t xml:space="preserve">2.54902338981628</t>
   </si>
   <si>
     <t xml:space="preserve">2.58389115333557</t>
@@ -3656,7 +3656,7 @@
     <t xml:space="preserve">2.55085849761963</t>
   </si>
   <si>
-    <t xml:space="preserve">2.46368885040283</t>
+    <t xml:space="preserve">2.46368908882141</t>
   </si>
   <si>
     <t xml:space="preserve">2.39028286933899</t>
@@ -3689,10 +3689,10 @@
     <t xml:space="preserve">2.52057862281799</t>
   </si>
   <si>
-    <t xml:space="preserve">2.53801250457764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.60316014289856</t>
+    <t xml:space="preserve">2.53801274299622</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.60316038131714</t>
   </si>
   <si>
     <t xml:space="preserve">2.59857249259949</t>
@@ -3707,10 +3707,10 @@
     <t xml:space="preserve">2.53067183494568</t>
   </si>
   <si>
-    <t xml:space="preserve">2.53434252738953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.56095194816589</t>
+    <t xml:space="preserve">2.53434228897095</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.56095170974731</t>
   </si>
   <si>
     <t xml:space="preserve">2.56737494468689</t>
@@ -3728,13 +3728,13 @@
     <t xml:space="preserve">2.51323819160461</t>
   </si>
   <si>
-    <t xml:space="preserve">2.49396872520447</t>
+    <t xml:space="preserve">2.49396896362305</t>
   </si>
   <si>
     <t xml:space="preserve">2.45726585388184</t>
   </si>
   <si>
-    <t xml:space="preserve">2.38202476501465</t>
+    <t xml:space="preserve">2.38202452659607</t>
   </si>
   <si>
     <t xml:space="preserve">2.44074964523315</t>
@@ -3743,7 +3743,7 @@
     <t xml:space="preserve">2.29393768310547</t>
   </si>
   <si>
-    <t xml:space="preserve">2.29485487937927</t>
+    <t xml:space="preserve">2.29485511779785</t>
   </si>
   <si>
     <t xml:space="preserve">2.32697033882141</t>
@@ -3752,10 +3752,10 @@
     <t xml:space="preserve">2.26641035079956</t>
   </si>
   <si>
-    <t xml:space="preserve">2.14987826347351</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.20768547058105</t>
+    <t xml:space="preserve">2.14987802505493</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.20768523216248</t>
   </si>
   <si>
     <t xml:space="preserve">2.19483947753906</t>
@@ -3773,7 +3773,7 @@
     <t xml:space="preserve">2.22970747947693</t>
   </si>
   <si>
-    <t xml:space="preserve">2.22695446014404</t>
+    <t xml:space="preserve">2.22695469856262</t>
   </si>
   <si>
     <t xml:space="preserve">2.19850969314575</t>
@@ -3791,31 +3791,31 @@
     <t xml:space="preserve">2.11868071556091</t>
   </si>
   <si>
-    <t xml:space="preserve">2.05169796943665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.05812096595764</t>
+    <t xml:space="preserve">2.05169773101807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.05812072753906</t>
   </si>
   <si>
     <t xml:space="preserve">1.94892942905426</t>
   </si>
   <si>
-    <t xml:space="preserve">1.99756073951721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.98746728897095</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.00581932067871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.01682996749878</t>
+    <t xml:space="preserve">1.9975608587265</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.98746752738953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.00581908226013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.0168297290802</t>
   </si>
   <si>
     <t xml:space="preserve">2.07647228240967</t>
   </si>
   <si>
-    <t xml:space="preserve">1.97095119953156</t>
+    <t xml:space="preserve">1.97095108032227</t>
   </si>
   <si>
     <t xml:space="preserve">1.90855598449707</t>
@@ -3827,16 +3827,16 @@
     <t xml:space="preserve">1.93975365161896</t>
   </si>
   <si>
-    <t xml:space="preserve">1.87185299396515</t>
+    <t xml:space="preserve">1.87185311317444</t>
   </si>
   <si>
     <t xml:space="preserve">1.83882033824921</t>
   </si>
   <si>
-    <t xml:space="preserve">1.86726522445679</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8984626531601</t>
+    <t xml:space="preserve">1.86726534366608</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89846277236938</t>
   </si>
   <si>
     <t xml:space="preserve">1.9480117559433</t>
@@ -3854,7 +3854,7 @@
     <t xml:space="preserve">1.92048454284668</t>
   </si>
   <si>
-    <t xml:space="preserve">1.98379731178284</t>
+    <t xml:space="preserve">1.98379719257355</t>
   </si>
   <si>
     <t xml:space="preserve">2.07280206680298</t>
@@ -3869,10 +3869,10 @@
     <t xml:space="preserve">2.21319103240967</t>
   </si>
   <si>
-    <t xml:space="preserve">2.22420191764832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.22236657142639</t>
+    <t xml:space="preserve">2.22420167922974</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.22236680984497</t>
   </si>
   <si>
     <t xml:space="preserve">2.21135592460632</t>
@@ -3887,13 +3887,13 @@
     <t xml:space="preserve">2.31595921516418</t>
   </si>
   <si>
-    <t xml:space="preserve">2.36459064483643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.39395308494568</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.36550855636597</t>
+    <t xml:space="preserve">2.364590883255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.39395332336426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.36550831794739</t>
   </si>
   <si>
     <t xml:space="preserve">2.38477754592896</t>
@@ -3920,10 +3920,10 @@
     <t xml:space="preserve">2.43249130249023</t>
   </si>
   <si>
-    <t xml:space="preserve">2.43799686431885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.41872787475586</t>
+    <t xml:space="preserve">2.43799710273743</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.41872763633728</t>
   </si>
   <si>
     <t xml:space="preserve">2.43065619468689</t>
@@ -3935,16 +3935,16 @@
     <t xml:space="preserve">2.46001863479614</t>
   </si>
   <si>
-    <t xml:space="preserve">2.46827673912048</t>
+    <t xml:space="preserve">2.46827697753906</t>
   </si>
   <si>
     <t xml:space="preserve">2.46460676193237</t>
   </si>
   <si>
-    <t xml:space="preserve">2.5233314037323</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.57288026809692</t>
+    <t xml:space="preserve">2.52333116531372</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.5728805065155</t>
   </si>
   <si>
     <t xml:space="preserve">2.59673738479614</t>
@@ -3965,7 +3965,7 @@
     <t xml:space="preserve">2.3462393283844</t>
   </si>
   <si>
-    <t xml:space="preserve">2.32513523101807</t>
+    <t xml:space="preserve">2.32513499259949</t>
   </si>
   <si>
     <t xml:space="preserve">2.34165143966675</t>
@@ -3974,7 +3974,7 @@
     <t xml:space="preserve">2.33889889717102</t>
   </si>
   <si>
-    <t xml:space="preserve">2.28476166725159</t>
+    <t xml:space="preserve">2.28476190567017</t>
   </si>
   <si>
     <t xml:space="preserve">2.33614611625671</t>
@@ -3989,7 +3989,7 @@
     <t xml:space="preserve">2.37468409538269</t>
   </si>
   <si>
-    <t xml:space="preserve">2.42239809036255</t>
+    <t xml:space="preserve">2.42239832878113</t>
   </si>
   <si>
     <t xml:space="preserve">2.40955185890198</t>
@@ -4001,25 +4001,25 @@
     <t xml:space="preserve">2.54260039329529</t>
   </si>
   <si>
-    <t xml:space="preserve">2.51415538787842</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.51966094970703</t>
+    <t xml:space="preserve">2.514155626297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.51966118812561</t>
   </si>
   <si>
     <t xml:space="preserve">2.49672174453735</t>
   </si>
   <si>
-    <t xml:space="preserve">2.43524432182312</t>
+    <t xml:space="preserve">2.43524408340454</t>
   </si>
   <si>
     <t xml:space="preserve">2.47745251655579</t>
   </si>
   <si>
-    <t xml:space="preserve">2.50406217575073</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.49121618270874</t>
+    <t xml:space="preserve">2.50406241416931</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.49121594429016</t>
   </si>
   <si>
     <t xml:space="preserve">2.48571085929871</t>
@@ -4034,7 +4034,7 @@
     <t xml:space="preserve">2.43157386779785</t>
   </si>
   <si>
-    <t xml:space="preserve">2.50039196014404</t>
+    <t xml:space="preserve">2.50039172172546</t>
   </si>
   <si>
     <t xml:space="preserve">2.45910120010376</t>
@@ -4052,16 +4052,16 @@
     <t xml:space="preserve">2.38569498062134</t>
   </si>
   <si>
-    <t xml:space="preserve">2.3801896572113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.35082745552063</t>
+    <t xml:space="preserve">2.38018989562988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.35082721710205</t>
   </si>
   <si>
     <t xml:space="preserve">2.31779456138611</t>
   </si>
   <si>
-    <t xml:space="preserve">2.30953645706177</t>
+    <t xml:space="preserve">2.30953621864319</t>
   </si>
   <si>
     <t xml:space="preserve">2.30494856834412</t>
@@ -4094,7 +4094,7 @@
     <t xml:space="preserve">2.21686100959778</t>
   </si>
   <si>
-    <t xml:space="preserve">2.20676779747009</t>
+    <t xml:space="preserve">2.20676803588867</t>
   </si>
   <si>
     <t xml:space="preserve">2.19575691223145</t>
@@ -4112,7 +4112,7 @@
     <t xml:space="preserve">2.28567934036255</t>
   </si>
   <si>
-    <t xml:space="preserve">2.2966902256012</t>
+    <t xml:space="preserve">2.29669046401978</t>
   </si>
   <si>
     <t xml:space="preserve">2.32605266571045</t>
@@ -4127,10 +4127,10 @@
     <t xml:space="preserve">2.4921338558197</t>
   </si>
   <si>
-    <t xml:space="preserve">2.51232028007507</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.40588164329529</t>
+    <t xml:space="preserve">2.51232051849365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.40588188171387</t>
   </si>
   <si>
     <t xml:space="preserve">2.48479318618774</t>
@@ -4139,19 +4139,19 @@
     <t xml:space="preserve">2.47928762435913</t>
   </si>
   <si>
-    <t xml:space="preserve">2.56186938285828</t>
+    <t xml:space="preserve">2.56186962127686</t>
   </si>
   <si>
     <t xml:space="preserve">2.59123182296753</t>
   </si>
   <si>
-    <t xml:space="preserve">2.53617715835571</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.58939671516418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.6260998249054</t>
+    <t xml:space="preserve">2.53617739677429</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.58939695358276</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.62609958648682</t>
   </si>
   <si>
     <t xml:space="preserve">2.61692404747009</t>
@@ -4160,10 +4160,10 @@
     <t xml:space="preserve">2.63527536392212</t>
   </si>
   <si>
-    <t xml:space="preserve">2.72152757644653</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.74905490875244</t>
+    <t xml:space="preserve">2.72152781486511</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.74905467033386</t>
   </si>
   <si>
     <t xml:space="preserve">2.77658200263977</t>
@@ -4184,10 +4184,10 @@
     <t xml:space="preserve">2.73070335388184</t>
   </si>
   <si>
-    <t xml:space="preserve">2.71969223022461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.644451379776</t>
+    <t xml:space="preserve">2.71969246864319</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.64445114135742</t>
   </si>
   <si>
     <t xml:space="preserve">2.62242960929871</t>
@@ -4196,10 +4196,10 @@
     <t xml:space="preserve">2.67564868927002</t>
   </si>
   <si>
-    <t xml:space="preserve">2.67748379707336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.7068464756012</t>
+    <t xml:space="preserve">2.67748403549194</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.70684623718262</t>
   </si>
   <si>
     <t xml:space="preserve">2.68298935890198</t>
@@ -4217,7 +4217,7 @@
     <t xml:space="preserve">2.63894581794739</t>
   </si>
   <si>
-    <t xml:space="preserve">2.64812159538269</t>
+    <t xml:space="preserve">2.64812135696411</t>
   </si>
   <si>
     <t xml:space="preserve">2.65913248062134</t>
@@ -4229,7 +4229,7 @@
     <t xml:space="preserve">2.62426447868347</t>
   </si>
   <si>
-    <t xml:space="preserve">2.66463804244995</t>
+    <t xml:space="preserve">2.66463780403137</t>
   </si>
   <si>
     <t xml:space="preserve">2.61190128326416</t>
@@ -4881,6 +4881,9 @@
   </si>
   <si>
     <t xml:space="preserve">3.2720000743866</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.25999999046326</t>
   </si>
 </sst>
 </file>
@@ -61564,7 +61567,7 @@
     </row>
     <row r="2168">
       <c r="A2168" s="1" t="n">
-        <v>45481.6495138889</v>
+        <v>45481.2916666667</v>
       </c>
       <c r="B2168" t="n">
         <v>1915081</v>
@@ -61585,6 +61588,32 @@
         <v>1622</v>
       </c>
       <c r="H2168" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2169">
+      <c r="A2169" s="1" t="n">
+        <v>45482.649375</v>
+      </c>
+      <c r="B2169" t="n">
+        <v>1689189</v>
+      </c>
+      <c r="C2169" t="n">
+        <v>3.27600002288818</v>
+      </c>
+      <c r="D2169" t="n">
+        <v>3.24200010299683</v>
+      </c>
+      <c r="E2169" t="n">
+        <v>3.25999999046326</v>
+      </c>
+      <c r="F2169" t="n">
+        <v>3.25999999046326</v>
+      </c>
+      <c r="G2169" t="s">
+        <v>1623</v>
+      </c>
+      <c r="H2169" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/HER.MI.xlsx
+++ b/data/HER.MI.xlsx
@@ -38,25 +38,25 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">1.77115499973297</t>
+    <t xml:space="preserve">1.77115488052368</t>
   </si>
   <si>
     <t xml:space="preserve">HER.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">1.7726047039032</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76970565319061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7740535736084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75086343288422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78999722003937</t>
+    <t xml:space="preserve">1.77260446548462</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76970541477203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77405393123627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75086331367493</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7899968624115</t>
   </si>
   <si>
     <t xml:space="preserve">1.85811829566956</t>
@@ -65,88 +65,88 @@
     <t xml:space="preserve">1.86101734638214</t>
   </si>
   <si>
-    <t xml:space="preserve">1.83637750148773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81173765659332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76680672168732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83927643299103</t>
+    <t xml:space="preserve">1.83637773990631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81173813343048</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76680684089661</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83927667140961</t>
   </si>
   <si>
     <t xml:space="preserve">1.81463694572449</t>
   </si>
   <si>
-    <t xml:space="preserve">1.83202958106995</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87261247634888</t>
+    <t xml:space="preserve">1.83202970027924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87261235713959</t>
   </si>
   <si>
     <t xml:space="preserve">1.85666906833649</t>
   </si>
   <si>
-    <t xml:space="preserve">1.87116301059723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90304946899414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88420724868774</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86971366405487</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91754353046417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92479002475739</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90884721279144</t>
+    <t xml:space="preserve">1.87116289138794</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90304958820343</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88420760631561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.869713306427</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9175431728363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92479038238525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90884697437286</t>
   </si>
   <si>
     <t xml:space="preserve">1.8914543390274</t>
   </si>
   <si>
-    <t xml:space="preserve">1.89725196361542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79289579391479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80594050884247</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82478249073029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76245844364166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82043409347534</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8624666929245</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84942233562469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84217524528503</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86536502838135</t>
+    <t xml:space="preserve">1.89725160598755</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79289591312408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80594038963318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82478201389313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76245832443237</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82043421268463</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86246645450592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84942209720612</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84217512607574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86536526679993</t>
   </si>
   <si>
     <t xml:space="preserve">1.86826407909393</t>
   </si>
   <si>
-    <t xml:space="preserve">1.88855576515198</t>
+    <t xml:space="preserve">1.88855588436127</t>
   </si>
   <si>
     <t xml:space="preserve">1.89870131015778</t>
@@ -155,85 +155,85 @@
     <t xml:space="preserve">1.85521948337555</t>
   </si>
   <si>
-    <t xml:space="preserve">1.83057963848114</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81028842926025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80449092388153</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79434525966644</t>
+    <t xml:space="preserve">1.8305801153183</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81028866767883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80449104309082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79434537887573</t>
   </si>
   <si>
     <t xml:space="preserve">1.80883896350861</t>
   </si>
   <si>
-    <t xml:space="preserve">1.79724371433258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82913053035736</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84507381916046</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82623195648193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84072554111481</t>
+    <t xml:space="preserve">1.79724395275116</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82913064956665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84507393836975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82623183727264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8407256603241</t>
   </si>
   <si>
     <t xml:space="preserve">1.86391615867615</t>
   </si>
   <si>
-    <t xml:space="preserve">1.90594840049744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87840974330902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9262398481369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91174602508545</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83347904682159</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84797251224518</t>
+    <t xml:space="preserve">1.90594816207886</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8784099817276</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92623972892761</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91174590587616</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83347868919373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84797286987305</t>
   </si>
   <si>
     <t xml:space="preserve">1.85377025604248</t>
   </si>
   <si>
-    <t xml:space="preserve">1.84362459182739</t>
+    <t xml:space="preserve">1.8436244726181</t>
   </si>
   <si>
     <t xml:space="preserve">1.84652328491211</t>
   </si>
   <si>
-    <t xml:space="preserve">1.8755110502243</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87696039676666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85956799983978</t>
+    <t xml:space="preserve">1.87551128864288</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87696027755737</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85956752300262</t>
   </si>
   <si>
     <t xml:space="preserve">1.85087132453918</t>
   </si>
   <si>
-    <t xml:space="preserve">1.82188379764557</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81318771839142</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89435303211212</t>
+    <t xml:space="preserve">1.82188367843628</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81318724155426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89435338973999</t>
   </si>
   <si>
     <t xml:space="preserve">1.91464447975159</t>
@@ -245,124 +245,124 @@
     <t xml:space="preserve">1.91319513320923</t>
   </si>
   <si>
-    <t xml:space="preserve">1.89000511169434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90160024166107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89290392398834</t>
+    <t xml:space="preserve">1.89000499248505</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90160036087036</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89290356636047</t>
   </si>
   <si>
     <t xml:space="preserve">1.88130855560303</t>
   </si>
   <si>
-    <t xml:space="preserve">1.82768094539642</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79579496383667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80738961696625</t>
+    <t xml:space="preserve">1.82768130302429</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79579472541809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80738985538483</t>
   </si>
   <si>
     <t xml:space="preserve">1.77550315856934</t>
   </si>
   <si>
-    <t xml:space="preserve">1.82295894622803</t>
+    <t xml:space="preserve">1.82295882701874</t>
   </si>
   <si>
     <t xml:space="preserve">1.83949017524719</t>
   </si>
   <si>
-    <t xml:space="preserve">1.80492460727692</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8244616985321</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76735353469849</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73579347133636</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.77336454391479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80342161655426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84700453281403</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90260994434357</t>
+    <t xml:space="preserve">1.80492472648621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82446157932281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7673534154892</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73579335212708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77336478233337</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80342185497284</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84700417518616</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90261006355286</t>
   </si>
   <si>
     <t xml:space="preserve">1.87555861473083</t>
   </si>
   <si>
-    <t xml:space="preserve">1.87856411933899</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85151314735413</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84550189971924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7913990020752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82596468925476</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81093633174896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83648455142975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83197605609894</t>
+    <t xml:space="preserve">1.87856447696686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85151302814484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84550166130066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79139912128448</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82596433162689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81093609333038</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83648431301117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83197593688965</t>
   </si>
   <si>
     <t xml:space="preserve">1.82746720314026</t>
   </si>
   <si>
-    <t xml:space="preserve">1.83498156070709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84099292755127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85001015663147</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90561544895172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92665565013885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91914117336273</t>
+    <t xml:space="preserve">1.8349814414978</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84099316596985</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85001003742218</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9056156873703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92665553092957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91914129257202</t>
   </si>
   <si>
     <t xml:space="preserve">1.90411281585693</t>
   </si>
   <si>
-    <t xml:space="preserve">1.93567264080048</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89960443973541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91313004493713</t>
+    <t xml:space="preserve">1.93567287921906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89960432052612</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91312980651855</t>
   </si>
   <si>
     <t xml:space="preserve">1.86353576183319</t>
   </si>
   <si>
-    <t xml:space="preserve">1.88758146762848</t>
+    <t xml:space="preserve">1.88758134841919</t>
   </si>
   <si>
     <t xml:space="preserve">1.88006722927094</t>
@@ -371,7 +371,7 @@
     <t xml:space="preserve">1.81394183635712</t>
   </si>
   <si>
-    <t xml:space="preserve">1.80943310260773</t>
+    <t xml:space="preserve">1.80943322181702</t>
   </si>
   <si>
     <t xml:space="preserve">1.84249591827393</t>
@@ -380,25 +380,25 @@
     <t xml:space="preserve">1.8575245141983</t>
   </si>
   <si>
-    <t xml:space="preserve">1.86654150485992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8530158996582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85602152347565</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88307285308838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82145595550537</t>
+    <t xml:space="preserve">1.86654186248779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85301601886749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85602164268494</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88307297229767</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82145607471466</t>
   </si>
   <si>
     <t xml:space="preserve">1.80041599273682</t>
   </si>
   <si>
-    <t xml:space="preserve">1.77035903930664</t>
+    <t xml:space="preserve">1.77035892009735</t>
   </si>
   <si>
     <t xml:space="preserve">1.80191898345947</t>
@@ -407,25 +407,25 @@
     <t xml:space="preserve">1.81995320320129</t>
   </si>
   <si>
-    <t xml:space="preserve">1.77486741542816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7718620300293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76585042476654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75533032417297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78087902069092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75983905792236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69221079349518</t>
+    <t xml:space="preserve">1.77486765384674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77186167240143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76585054397583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75533044338226</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78087890148163</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75983881950378</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69221091270447</t>
   </si>
   <si>
     <t xml:space="preserve">1.66515958309174</t>
@@ -434,25 +434,25 @@
     <t xml:space="preserve">1.65163373947144</t>
   </si>
   <si>
-    <t xml:space="preserve">1.63810801506042</t>
+    <t xml:space="preserve">1.63810813426971</t>
   </si>
   <si>
     <t xml:space="preserve">1.66065108776093</t>
   </si>
   <si>
-    <t xml:space="preserve">1.66966807842255</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.67417657375336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.68169057369232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69371366500854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.67868494987488</t>
+    <t xml:space="preserve">1.66966795921326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.67417645454407</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6816908121109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69371354579926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.67868518829346</t>
   </si>
   <si>
     <t xml:space="preserve">1.69972503185272</t>
@@ -461,10 +461,10 @@
     <t xml:space="preserve">1.69822227954865</t>
   </si>
   <si>
-    <t xml:space="preserve">1.71174764633179</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.68319344520569</t>
+    <t xml:space="preserve">1.71174776554108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.68319368362427</t>
   </si>
   <si>
     <t xml:space="preserve">1.67567944526672</t>
@@ -473,10 +473,10 @@
     <t xml:space="preserve">1.67718231678009</t>
   </si>
   <si>
-    <t xml:space="preserve">1.68619906902313</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.72377049922943</t>
+    <t xml:space="preserve">1.686199426651</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.72377061843872</t>
   </si>
   <si>
     <t xml:space="preserve">1.73128473758698</t>
@@ -491,31 +491,31 @@
     <t xml:space="preserve">1.6245824098587</t>
   </si>
   <si>
-    <t xml:space="preserve">1.62157678604126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60053682327271</t>
+    <t xml:space="preserve">1.62157666683197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60053694248199</t>
   </si>
   <si>
     <t xml:space="preserve">1.5148743391037</t>
   </si>
   <si>
-    <t xml:space="preserve">1.51787996292114</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.49984586238861</t>
+    <t xml:space="preserve">1.51787984371185</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.49984574317932</t>
   </si>
   <si>
     <t xml:space="preserve">1.49909424781799</t>
   </si>
   <si>
-    <t xml:space="preserve">1.50435435771942</t>
+    <t xml:space="preserve">1.50435447692871</t>
   </si>
   <si>
     <t xml:space="preserve">1.48331439495087</t>
   </si>
   <si>
-    <t xml:space="preserve">1.47504889965057</t>
+    <t xml:space="preserve">1.47504878044128</t>
   </si>
   <si>
     <t xml:space="preserve">1.44799745082855</t>
@@ -524,7 +524,7 @@
     <t xml:space="preserve">1.44649469852448</t>
   </si>
   <si>
-    <t xml:space="preserve">1.46152305603027</t>
+    <t xml:space="preserve">1.46152293682098</t>
   </si>
   <si>
     <t xml:space="preserve">1.46528017520905</t>
@@ -539,79 +539,79 @@
     <t xml:space="preserve">1.4577659368515</t>
   </si>
   <si>
-    <t xml:space="preserve">1.46903729438782</t>
+    <t xml:space="preserve">1.4690375328064</t>
   </si>
   <si>
     <t xml:space="preserve">1.43296873569489</t>
   </si>
   <si>
-    <t xml:space="preserve">1.4096747636795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.42846047878265</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.49233162403107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53591418266296</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54793703556061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54042279720306</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59001684188843</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.58400547504425</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55695414543152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.56296539306641</t>
+    <t xml:space="preserve">1.40967464447021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.42846024036407</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.49233150482178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53591430187225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54793691635132</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54042267799377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59001672267914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.58400535583496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55695390701294</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5629655122757</t>
   </si>
   <si>
     <t xml:space="preserve">1.60654819011688</t>
   </si>
   <si>
-    <t xml:space="preserve">1.61556529998779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6290910243988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65013098716736</t>
+    <t xml:space="preserve">1.61556541919708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.62909090518951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65013110637665</t>
   </si>
   <si>
     <t xml:space="preserve">1.62758803367615</t>
   </si>
   <si>
-    <t xml:space="preserve">1.64712524414062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.66816508769989</t>
+    <t xml:space="preserve">1.64712512493134</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6681649684906</t>
   </si>
   <si>
     <t xml:space="preserve">1.65614235401154</t>
   </si>
   <si>
-    <t xml:space="preserve">1.65914809703827</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.62307977676392</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.71325075626373</t>
+    <t xml:space="preserve">1.65914797782898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.62307965755463</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.71325051784515</t>
   </si>
   <si>
     <t xml:space="preserve">1.70273065567017</t>
   </si>
   <si>
-    <t xml:space="preserve">1.71475350856781</t>
+    <t xml:space="preserve">1.7147536277771</t>
   </si>
   <si>
     <t xml:space="preserve">1.71625626087189</t>
@@ -620,124 +620,124 @@
     <t xml:space="preserve">1.7207647562027</t>
   </si>
   <si>
-    <t xml:space="preserve">1.70122766494751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.70423352718353</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.63359940052032</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.63660514354706</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60955381393433</t>
+    <t xml:space="preserve">1.7012277841568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.70423340797424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6335996389389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.63660550117493</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60955393314362</t>
   </si>
   <si>
     <t xml:space="preserve">1.64562249183655</t>
   </si>
   <si>
-    <t xml:space="preserve">1.69070780277252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.74481058120728</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.72827899456024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.74030196666718</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75382781028748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7568336725235</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76134216785431</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75833630561829</t>
+    <t xml:space="preserve">1.6907080411911</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.74481046199799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.72827935218811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.74030184745789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75382792949677</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75683355331421</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76134192943573</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75833606719971</t>
   </si>
   <si>
     <t xml:space="preserve">1.77787327766418</t>
   </si>
   <si>
-    <t xml:space="preserve">1.79440462589264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79891300201416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78388452529907</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78839313983917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.77937614917755</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78238165378571</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80642747879028</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84850752353668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85451889038086</t>
+    <t xml:space="preserve">1.79440474510193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79891312122345</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78388476371765</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78839325904846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77937602996826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.782381772995</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80642759799957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84850740432739</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85451865196228</t>
   </si>
   <si>
     <t xml:space="preserve">1.88156998157501</t>
   </si>
   <si>
-    <t xml:space="preserve">1.89810144901276</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93867826461792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.97023820877075</t>
+    <t xml:space="preserve">1.89810168743134</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93867790699005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.97023844718933</t>
   </si>
   <si>
     <t xml:space="preserve">1.98526680469513</t>
   </si>
   <si>
-    <t xml:space="preserve">1.98676955699921</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95070135593414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94168424606323</t>
+    <t xml:space="preserve">1.98676979541779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9507007598877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94168412685394</t>
   </si>
   <si>
     <t xml:space="preserve">1.95971822738647</t>
   </si>
   <si>
-    <t xml:space="preserve">1.97174084186554</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.97624981403351</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.98376405239105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.01682686805725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.00931239128113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94919836521149</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95370674133301</t>
+    <t xml:space="preserve">1.97174096107483</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.97624957561493</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.98376393318176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.01682639122009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.00931262969971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94919848442078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95370709896088</t>
   </si>
   <si>
     <t xml:space="preserve">2.00029516220093</t>
@@ -746,43 +746,43 @@
     <t xml:space="preserve">1.9687352180481</t>
   </si>
   <si>
-    <t xml:space="preserve">1.95821523666382</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.97324419021606</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.98827254772186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9957869052887</t>
+    <t xml:space="preserve">1.95821571350098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.97324395179749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.98827230930328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.99578654766083</t>
   </si>
   <si>
     <t xml:space="preserve">2.00780963897705</t>
   </si>
   <si>
-    <t xml:space="preserve">2.01081514358521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.02133560180664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.06942677497864</t>
+    <t xml:space="preserve">2.01081562042236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.02133536338806</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.06942629814148</t>
   </si>
   <si>
     <t xml:space="preserve">2.10399222373962</t>
   </si>
   <si>
-    <t xml:space="preserve">2.1340491771698</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.14607214927673</t>
+    <t xml:space="preserve">2.13404893875122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.14607167243958</t>
   </si>
   <si>
     <t xml:space="preserve">2.12803769111633</t>
   </si>
   <si>
-    <t xml:space="preserve">2.18063759803772</t>
+    <t xml:space="preserve">2.18063735961914</t>
   </si>
   <si>
     <t xml:space="preserve">2.14156341552734</t>
@@ -791,7 +791,7 @@
     <t xml:space="preserve">2.11451196670532</t>
   </si>
   <si>
-    <t xml:space="preserve">2.15058016777039</t>
+    <t xml:space="preserve">2.15058040618896</t>
   </si>
   <si>
     <t xml:space="preserve">2.16410613059998</t>
@@ -806,10 +806,10 @@
     <t xml:space="preserve">2.18965482711792</t>
   </si>
   <si>
-    <t xml:space="preserve">2.17913460731506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.13104319572449</t>
+    <t xml:space="preserve">2.17913484573364</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.13104367256165</t>
   </si>
   <si>
     <t xml:space="preserve">2.16711187362671</t>
@@ -818,85 +818,85 @@
     <t xml:space="preserve">2.2016773223877</t>
   </si>
   <si>
-    <t xml:space="preserve">2.15659165382385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.18214058876038</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.19867134094238</t>
+    <t xml:space="preserve">2.15659189224243</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1821403503418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.19867205619812</t>
   </si>
   <si>
     <t xml:space="preserve">2.18664884567261</t>
   </si>
   <si>
-    <t xml:space="preserve">2.2272253036499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.21219754219055</t>
+    <t xml:space="preserve">2.22722601890564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.21219730377197</t>
   </si>
   <si>
     <t xml:space="preserve">2.2347400188446</t>
   </si>
   <si>
-    <t xml:space="preserve">2.22271728515625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.2362425327301</t>
+    <t xml:space="preserve">2.22271704673767</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.23624324798584</t>
   </si>
   <si>
     <t xml:space="preserve">2.24864077568054</t>
   </si>
   <si>
-    <t xml:space="preserve">2.2594883441925</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.25328993797302</t>
+    <t xml:space="preserve">2.25948882102966</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.2532901763916</t>
   </si>
   <si>
     <t xml:space="preserve">2.17735385894775</t>
   </si>
   <si>
-    <t xml:space="preserve">2.19130086898804</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.14945912361145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.13551115989685</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.09211945533752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.07352304458618</t>
+    <t xml:space="preserve">2.1913013458252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.14945864677429</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.13551139831543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.09211921691895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.0735228061676</t>
   </si>
   <si>
     <t xml:space="preserve">2.08592009544373</t>
   </si>
   <si>
-    <t xml:space="preserve">2.08282113075256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.07197308540344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.02393198013306</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.04407835006714</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.07972168922424</t>
+    <t xml:space="preserve">2.08282089233398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.07197284698486</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.02393174171448</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.04407787322998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.07972145080566</t>
   </si>
   <si>
     <t xml:space="preserve">2.05647587776184</t>
   </si>
   <si>
-    <t xml:space="preserve">2.10606646537781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.12931251525879</t>
+    <t xml:space="preserve">2.10606670379639</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.12931227684021</t>
   </si>
   <si>
     <t xml:space="preserve">2.11536502838135</t>
@@ -905,7 +905,7 @@
     <t xml:space="preserve">2.10761642456055</t>
   </si>
   <si>
-    <t xml:space="preserve">2.12156414985657</t>
+    <t xml:space="preserve">2.12156367301941</t>
   </si>
   <si>
     <t xml:space="preserve">2.09986782073975</t>
@@ -917,31 +917,31 @@
     <t xml:space="preserve">2.15410804748535</t>
   </si>
   <si>
-    <t xml:space="preserve">2.10916614532471</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.08901953697205</t>
+    <t xml:space="preserve">2.10916590690613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.08901977539062</t>
   </si>
   <si>
     <t xml:space="preserve">2.13086247444153</t>
   </si>
   <si>
-    <t xml:space="preserve">2.12001442909241</t>
+    <t xml:space="preserve">2.12001419067383</t>
   </si>
   <si>
     <t xml:space="preserve">2.11846446990967</t>
   </si>
   <si>
-    <t xml:space="preserve">2.11226582527161</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.12466335296631</t>
+    <t xml:space="preserve">2.11226558685303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.12466359138489</t>
   </si>
   <si>
     <t xml:space="preserve">2.12621307373047</t>
   </si>
   <si>
-    <t xml:space="preserve">2.07662200927734</t>
+    <t xml:space="preserve">2.07662224769592</t>
   </si>
   <si>
     <t xml:space="preserve">2.13241195678711</t>
@@ -953,7 +953,7 @@
     <t xml:space="preserve">2.06887364387512</t>
   </si>
   <si>
-    <t xml:space="preserve">2.04872727394104</t>
+    <t xml:space="preserve">2.04872703552246</t>
   </si>
   <si>
     <t xml:space="preserve">2.0347797870636</t>
@@ -968,28 +968,28 @@
     <t xml:space="preserve">2.08747005462646</t>
   </si>
   <si>
-    <t xml:space="preserve">2.08437085151672</t>
+    <t xml:space="preserve">2.08437061309814</t>
   </si>
   <si>
     <t xml:space="preserve">2.0781717300415</t>
   </si>
   <si>
-    <t xml:space="preserve">2.15565776824951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.09366917610168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.07507228851318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.05957531929016</t>
+    <t xml:space="preserve">2.15565800666809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.09366893768311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.07507252693176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.05957508087158</t>
   </si>
   <si>
     <t xml:space="preserve">2.06112504005432</t>
   </si>
   <si>
-    <t xml:space="preserve">2.04562783241272</t>
+    <t xml:space="preserve">2.0456280708313</t>
   </si>
   <si>
     <t xml:space="preserve">2.09676861763</t>
@@ -998,25 +998,25 @@
     <t xml:space="preserve">2.11381530761719</t>
   </si>
   <si>
-    <t xml:space="preserve">2.13706111907959</t>
+    <t xml:space="preserve">2.13706088066101</t>
   </si>
   <si>
     <t xml:space="preserve">2.14790916442871</t>
   </si>
   <si>
-    <t xml:space="preserve">2.15100836753845</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.14326024055481</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.14016056060791</t>
+    <t xml:space="preserve">2.15100860595703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.14326000213623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.14016079902649</t>
   </si>
   <si>
     <t xml:space="preserve">2.15255856513977</t>
   </si>
   <si>
-    <t xml:space="preserve">2.16185665130615</t>
+    <t xml:space="preserve">2.16185641288757</t>
   </si>
   <si>
     <t xml:space="preserve">2.1851019859314</t>
@@ -1031,10 +1031,10 @@
     <t xml:space="preserve">2.24089217185974</t>
   </si>
   <si>
-    <t xml:space="preserve">2.26258826255798</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.27808570861816</t>
+    <t xml:space="preserve">2.26258850097656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.27808523178101</t>
   </si>
   <si>
     <t xml:space="preserve">2.26878714561462</t>
@@ -1052,7 +1052,7 @@
     <t xml:space="preserve">2.2734363079071</t>
   </si>
   <si>
-    <t xml:space="preserve">2.27498579025269</t>
+    <t xml:space="preserve">2.27498650550842</t>
   </si>
   <si>
     <t xml:space="preserve">2.27653551101685</t>
@@ -1061,19 +1061,19 @@
     <t xml:space="preserve">2.30752992630005</t>
   </si>
   <si>
-    <t xml:space="preserve">2.35557103157043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.34007430076599</t>
+    <t xml:space="preserve">2.35557126998901</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.34007382392883</t>
   </si>
   <si>
     <t xml:space="preserve">2.34317350387573</t>
   </si>
   <si>
-    <t xml:space="preserve">2.36641907691956</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.38036704063416</t>
+    <t xml:space="preserve">2.36641931533813</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.38036680221558</t>
   </si>
   <si>
     <t xml:space="preserve">2.3912148475647</t>
@@ -1091,19 +1091,19 @@
     <t xml:space="preserve">2.35867071151733</t>
   </si>
   <si>
-    <t xml:space="preserve">2.38966512680054</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.40206289291382</t>
+    <t xml:space="preserve">2.38966536521912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.40206265449524</t>
   </si>
   <si>
     <t xml:space="preserve">2.33852434158325</t>
   </si>
   <si>
-    <t xml:space="preserve">2.34162402153015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.36332011222839</t>
+    <t xml:space="preserve">2.34162378311157</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.36331987380981</t>
   </si>
   <si>
     <t xml:space="preserve">2.31217932701111</t>
@@ -1112,34 +1112,34 @@
     <t xml:space="preserve">2.30907964706421</t>
   </si>
   <si>
-    <t xml:space="preserve">2.30133152008057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.25483965873718</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.2346932888031</t>
+    <t xml:space="preserve">2.30133128166199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.25483989715576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.23469352722168</t>
   </si>
   <si>
     <t xml:space="preserve">2.29358267784119</t>
   </si>
   <si>
-    <t xml:space="preserve">2.34472298622131</t>
+    <t xml:space="preserve">2.34472346305847</t>
   </si>
   <si>
     <t xml:space="preserve">2.39741373062134</t>
   </si>
   <si>
-    <t xml:space="preserve">2.32457709312439</t>
+    <t xml:space="preserve">2.32457733154297</t>
   </si>
   <si>
     <t xml:space="preserve">2.35402178764343</t>
   </si>
   <si>
-    <t xml:space="preserve">2.32147741317749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.36177039146423</t>
+    <t xml:space="preserve">2.32147765159607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.36177015304565</t>
   </si>
   <si>
     <t xml:space="preserve">2.37106847763062</t>
@@ -1151,13 +1151,13 @@
     <t xml:space="preserve">2.33077573776245</t>
   </si>
   <si>
-    <t xml:space="preserve">2.36486983299255</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.32922625541687</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.2656877040863</t>
+    <t xml:space="preserve">2.36486959457397</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.32922601699829</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.26568794250488</t>
   </si>
   <si>
     <t xml:space="preserve">2.2145471572876</t>
@@ -1166,28 +1166,28 @@
     <t xml:space="preserve">2.18975138664246</t>
   </si>
   <si>
-    <t xml:space="preserve">2.13396143913269</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.10451698303223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.17270469665527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.20524859428406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.21299695968628</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.17115497589111</t>
+    <t xml:space="preserve">2.13396167755127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.10451722145081</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.17270445823669</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.20524883270264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.21299743652344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.17115473747253</t>
   </si>
   <si>
     <t xml:space="preserve">2.14635944366455</t>
   </si>
   <si>
-    <t xml:space="preserve">2.11691451072693</t>
+    <t xml:space="preserve">2.11691498756409</t>
   </si>
   <si>
     <t xml:space="preserve">2.16340637207031</t>
@@ -1199,76 +1199,76 @@
     <t xml:space="preserve">2.15875720977783</t>
   </si>
   <si>
-    <t xml:space="preserve">2.1804530620575</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.17580413818359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.199049949646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.29513216018677</t>
+    <t xml:space="preserve">2.18045330047607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.17580437660217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.19904971122742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.29513263702393</t>
   </si>
   <si>
     <t xml:space="preserve">2.30443048477173</t>
   </si>
   <si>
-    <t xml:space="preserve">2.31372928619385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.32612657546997</t>
+    <t xml:space="preserve">2.31372904777527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.32612681388855</t>
   </si>
   <si>
     <t xml:space="preserve">2.34782290458679</t>
   </si>
   <si>
-    <t xml:space="preserve">2.31837844848633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.33697485923767</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.37881660461426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.3834662437439</t>
+    <t xml:space="preserve">2.31837797164917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.33697462081909</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.37881684303284</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.38346648216248</t>
   </si>
   <si>
     <t xml:space="preserve">2.36951899528503</t>
   </si>
   <si>
-    <t xml:space="preserve">2.31062960624695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.33542490005493</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.22074604034424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.20059943199158</t>
+    <t xml:space="preserve">2.31062984466553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.33542466163635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.22074556350708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.200599193573</t>
   </si>
   <si>
     <t xml:space="preserve">2.09831809997559</t>
   </si>
   <si>
-    <t xml:space="preserve">2.01928234100342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.03787899017334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.05492568016052</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.04252815246582</t>
+    <t xml:space="preserve">2.019282579422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.03787922859192</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.05492615699768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.0425283908844</t>
   </si>
   <si>
     <t xml:space="preserve">2.05182671546936</t>
   </si>
   <si>
-    <t xml:space="preserve">2.02083206176758</t>
+    <t xml:space="preserve">2.02083230018616</t>
   </si>
   <si>
     <t xml:space="preserve">2.10410904884338</t>
@@ -1277,40 +1277,40 @@
     <t xml:space="preserve">2.1378390789032</t>
   </si>
   <si>
-    <t xml:space="preserve">2.14908242225647</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.11374616622925</t>
+    <t xml:space="preserve">2.14908266067505</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.11374640464783</t>
   </si>
   <si>
     <t xml:space="preserve">2.11695861816406</t>
   </si>
   <si>
-    <t xml:space="preserve">2.15068888664246</t>
+    <t xml:space="preserve">2.15068864822388</t>
   </si>
   <si>
     <t xml:space="preserve">2.13623309135437</t>
   </si>
   <si>
-    <t xml:space="preserve">2.16675043106079</t>
+    <t xml:space="preserve">2.16675066947937</t>
   </si>
   <si>
     <t xml:space="preserve">2.14426398277283</t>
   </si>
   <si>
-    <t xml:space="preserve">2.18441867828369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.21493601799011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.23421049118042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.24063539505005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.22457361221313</t>
+    <t xml:space="preserve">2.18441891670227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.21493625640869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.234210729599</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.24063515663147</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.22457337379456</t>
   </si>
   <si>
     <t xml:space="preserve">2.2165424823761</t>
@@ -1322,31 +1322,31 @@
     <t xml:space="preserve">2.21333003044128</t>
   </si>
   <si>
-    <t xml:space="preserve">2.24866604804993</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.25348472595215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.23260450363159</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.18281221389771</t>
+    <t xml:space="preserve">2.24866628646851</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.25348496437073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.23260426521301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.18281245231628</t>
   </si>
   <si>
     <t xml:space="preserve">2.16996312141418</t>
   </si>
   <si>
-    <t xml:space="preserve">2.28882074356079</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.25187826156616</t>
+    <t xml:space="preserve">2.28882098197937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.25187849998474</t>
   </si>
   <si>
     <t xml:space="preserve">2.2775776386261</t>
   </si>
   <si>
-    <t xml:space="preserve">2.26794028282166</t>
+    <t xml:space="preserve">2.26794052124023</t>
   </si>
   <si>
     <t xml:space="preserve">2.30006432533264</t>
@@ -1355,31 +1355,31 @@
     <t xml:space="preserve">2.29845809936523</t>
   </si>
   <si>
-    <t xml:space="preserve">2.264728307724</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.24384737014771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.23099803924561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.21172404289246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.20529913902283</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.1988742351532</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.2470600605011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.23742318153381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.22939229011536</t>
+    <t xml:space="preserve">2.26472783088684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.24384760856628</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.23099851608276</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.21172380447388</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.20529937744141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.19887399673462</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.24706029891968</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.23742294311523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.22939205169678</t>
   </si>
   <si>
     <t xml:space="preserve">2.17478156089783</t>
@@ -1391,37 +1391,37 @@
     <t xml:space="preserve">2.1683566570282</t>
   </si>
   <si>
-    <t xml:space="preserve">2.1860249042511</t>
+    <t xml:space="preserve">2.18602466583252</t>
   </si>
   <si>
     <t xml:space="preserve">2.20369291305542</t>
   </si>
   <si>
-    <t xml:space="preserve">2.20690512657166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.26954674720764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.28239607810974</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.27918410301208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.28400254249573</t>
+    <t xml:space="preserve">2.20690536499023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.26954650878906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.28239631652832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.27918386459351</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.28400278091431</t>
   </si>
   <si>
     <t xml:space="preserve">2.29042720794678</t>
   </si>
   <si>
-    <t xml:space="preserve">2.29363942146301</t>
+    <t xml:space="preserve">2.29363965988159</t>
   </si>
   <si>
     <t xml:space="preserve">2.25669717788696</t>
   </si>
   <si>
-    <t xml:space="preserve">2.20048069953918</t>
+    <t xml:space="preserve">2.20048046112061</t>
   </si>
   <si>
     <t xml:space="preserve">2.19566202163696</t>
@@ -1430,7 +1430,7 @@
     <t xml:space="preserve">2.15390110015869</t>
   </si>
   <si>
-    <t xml:space="preserve">2.14586997032166</t>
+    <t xml:space="preserve">2.14587020874023</t>
   </si>
   <si>
     <t xml:space="preserve">2.12820219993591</t>
@@ -1442,7 +1442,7 @@
     <t xml:space="preserve">2.03504300117493</t>
   </si>
   <si>
-    <t xml:space="preserve">2.05592370033264</t>
+    <t xml:space="preserve">2.05592346191406</t>
   </si>
   <si>
     <t xml:space="preserve">2.00934410095215</t>
@@ -1454,64 +1454,64 @@
     <t xml:space="preserve">1.93224680423737</t>
   </si>
   <si>
-    <t xml:space="preserve">1.98685717582703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94188416004181</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96437084674835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9724018573761</t>
+    <t xml:space="preserve">1.98685729503632</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94188380241394</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96437048912048</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.97240149974823</t>
   </si>
   <si>
     <t xml:space="preserve">1.94027757644653</t>
   </si>
   <si>
-    <t xml:space="preserve">1.92903435230255</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.99970686435699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9675829410553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96115815639496</t>
+    <t xml:space="preserve">1.92903447151184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.99970674514771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96758306026459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96115803718567</t>
   </si>
   <si>
     <t xml:space="preserve">1.94991481304169</t>
   </si>
   <si>
-    <t xml:space="preserve">1.95955216884613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95794558525085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.97561395168304</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.99328207969666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.03986144065857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.99006974697113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.05271100997925</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.04307389259338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.05110502243042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.01416230201721</t>
+    <t xml:space="preserve">1.95955181121826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95794582366943</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.97561430931091</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.99328219890594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.03986167907715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.99006950855255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.05271124839783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.0430736541748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.05110478401184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.01416254043579</t>
   </si>
   <si>
     <t xml:space="preserve">2.00291919708252</t>
@@ -1520,28 +1520,28 @@
     <t xml:space="preserve">1.99649453163147</t>
   </si>
   <si>
-    <t xml:space="preserve">1.99167585372925</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96276450157166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.98043262958527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94830870628357</t>
+    <t xml:space="preserve">1.99167597293854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96276426315308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.98043274879456</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94830906391144</t>
   </si>
   <si>
     <t xml:space="preserve">2.01095008850098</t>
   </si>
   <si>
-    <t xml:space="preserve">1.93867182731628</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.02058744430542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.06074213981628</t>
+    <t xml:space="preserve">1.93867170810699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.02058720588684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.06074190139771</t>
   </si>
   <si>
     <t xml:space="preserve">2.17156934738159</t>
@@ -1550,22 +1550,22 @@
     <t xml:space="preserve">2.11214017868042</t>
   </si>
   <si>
-    <t xml:space="preserve">2.14265775680542</t>
+    <t xml:space="preserve">2.14265751838684</t>
   </si>
   <si>
     <t xml:space="preserve">2.17638778686523</t>
   </si>
   <si>
-    <t xml:space="preserve">2.16032600402832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.2727587223053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.27597188949585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.25990962982178</t>
+    <t xml:space="preserve">2.16032552719116</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.27275919914246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.27597165107727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.2599093914032</t>
   </si>
   <si>
     <t xml:space="preserve">2.28721475601196</t>
@@ -1574,7 +1574,7 @@
     <t xml:space="preserve">2.29203343391418</t>
   </si>
   <si>
-    <t xml:space="preserve">2.3129141330719</t>
+    <t xml:space="preserve">2.31291389465332</t>
   </si>
   <si>
     <t xml:space="preserve">2.28560876846313</t>
@@ -1583,7 +1583,7 @@
     <t xml:space="preserve">2.28079009056091</t>
   </si>
   <si>
-    <t xml:space="preserve">2.30970144271851</t>
+    <t xml:space="preserve">2.30970168113708</t>
   </si>
   <si>
     <t xml:space="preserve">2.34503793716431</t>
@@ -1595,7 +1595,7 @@
     <t xml:space="preserve">2.37073683738708</t>
   </si>
   <si>
-    <t xml:space="preserve">2.37876749038696</t>
+    <t xml:space="preserve">2.37876772880554</t>
   </si>
   <si>
     <t xml:space="preserve">2.36752438545227</t>
@@ -1607,25 +1607,25 @@
     <t xml:space="preserve">2.37555527687073</t>
   </si>
   <si>
-    <t xml:space="preserve">2.35467505455017</t>
+    <t xml:space="preserve">2.35467481613159</t>
   </si>
   <si>
     <t xml:space="preserve">2.34021925926208</t>
   </si>
   <si>
-    <t xml:space="preserve">2.36591815948486</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.38840484619141</t>
+    <t xml:space="preserve">2.36591792106628</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.38840460777283</t>
   </si>
   <si>
     <t xml:space="preserve">2.38679838180542</t>
   </si>
   <si>
-    <t xml:space="preserve">2.39322352409363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.38358616828918</t>
+    <t xml:space="preserve">2.39322328567505</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.38358640670776</t>
   </si>
   <si>
     <t xml:space="preserve">2.37394905090332</t>
@@ -1634,22 +1634,22 @@
     <t xml:space="preserve">2.34343147277832</t>
   </si>
   <si>
-    <t xml:space="preserve">2.41089153289795</t>
+    <t xml:space="preserve">2.41089177131653</t>
   </si>
   <si>
     <t xml:space="preserve">2.37716150283813</t>
   </si>
   <si>
-    <t xml:space="preserve">2.3386127948761</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.35306859016418</t>
+    <t xml:space="preserve">2.33861303329468</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.35306882858276</t>
   </si>
   <si>
     <t xml:space="preserve">2.34985637664795</t>
   </si>
   <si>
-    <t xml:space="preserve">2.38519239425659</t>
+    <t xml:space="preserve">2.38519263267517</t>
   </si>
   <si>
     <t xml:space="preserve">2.38198018074036</t>
@@ -1661,13 +1661,13 @@
     <t xml:space="preserve">2.40767908096313</t>
   </si>
   <si>
-    <t xml:space="preserve">2.34182500839233</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.32255101203918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.43177199363708</t>
+    <t xml:space="preserve">2.34182524681091</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.32255125045776</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.43177223205566</t>
   </si>
   <si>
     <t xml:space="preserve">2.46871423721313</t>
@@ -1685,25 +1685,25 @@
     <t xml:space="preserve">2.52171850204468</t>
   </si>
   <si>
-    <t xml:space="preserve">2.56829833984375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.58757257461548</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.58275413513184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.58917880058289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.60202789306641</t>
+    <t xml:space="preserve">2.56829786300659</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.5875723361969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.58275389671326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.58917856216431</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.60202813148499</t>
   </si>
   <si>
     <t xml:space="preserve">2.64378905296326</t>
   </si>
   <si>
-    <t xml:space="preserve">2.61487770080566</t>
+    <t xml:space="preserve">2.61487793922424</t>
   </si>
   <si>
     <t xml:space="preserve">2.59560346603394</t>
@@ -1718,34 +1718,34 @@
     <t xml:space="preserve">2.57151055335999</t>
   </si>
   <si>
-    <t xml:space="preserve">2.5570547580719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.52493119239807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.54099321365356</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.54420518875122</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.55866098403931</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.53778028488159</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.54902386665344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.56347966194153</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.55063033103943</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.51689982414246</t>
+    <t xml:space="preserve">2.55705499649048</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.52493095397949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.54099297523499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.54420495033264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.55866122245789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.53778076171875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.54902362823486</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.56347918510437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.55063009262085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.51690006256104</t>
   </si>
   <si>
     <t xml:space="preserve">2.539386510849</t>
@@ -1757,73 +1757,73 @@
     <t xml:space="preserve">2.57954144477844</t>
   </si>
   <si>
-    <t xml:space="preserve">2.62451457977295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.63254547119141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.63575839996338</t>
+    <t xml:space="preserve">2.62451481819153</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.63254594802856</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.6357581615448</t>
   </si>
   <si>
     <t xml:space="preserve">2.63897061347961</t>
   </si>
   <si>
-    <t xml:space="preserve">2.65181994438171</t>
+    <t xml:space="preserve">2.65182018280029</t>
   </si>
   <si>
     <t xml:space="preserve">2.65342617034912</t>
   </si>
   <si>
-    <t xml:space="preserve">2.63093972206116</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.62933325767517</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.62290859222412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.61166501045227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.65985083580017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.68715596199036</t>
+    <t xml:space="preserve">2.63093948364258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.62933349609375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.62290835380554</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.61166572570801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.65985107421875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.68715620040894</t>
   </si>
   <si>
     <t xml:space="preserve">2.70000576972961</t>
   </si>
   <si>
-    <t xml:space="preserve">2.70161199569702</t>
+    <t xml:space="preserve">2.70161151885986</t>
   </si>
   <si>
     <t xml:space="preserve">2.6967933177948</t>
   </si>
   <si>
-    <t xml:space="preserve">2.69839930534363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.68554997444153</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.68233752250671</t>
+    <t xml:space="preserve">2.69839978218079</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.68555021286011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.68233728408813</t>
   </si>
   <si>
     <t xml:space="preserve">2.74497890472412</t>
   </si>
   <si>
-    <t xml:space="preserve">2.75140404701233</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.78513383865356</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.81725788116455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.79741787910461</t>
+    <t xml:space="preserve">2.75140380859375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.78513407707214</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.81725764274597</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.79741811752319</t>
   </si>
   <si>
     <t xml:space="preserve">2.77923130989075</t>
@@ -1832,16 +1832,16 @@
     <t xml:space="preserve">2.78253769874573</t>
   </si>
   <si>
-    <t xml:space="preserve">2.74947142601013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.78088474273682</t>
+    <t xml:space="preserve">2.74947166442871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.78088426589966</t>
   </si>
   <si>
     <t xml:space="preserve">2.76600456237793</t>
   </si>
   <si>
-    <t xml:space="preserve">2.83213782310486</t>
+    <t xml:space="preserve">2.8321373462677</t>
   </si>
   <si>
     <t xml:space="preserve">2.91645693778992</t>
@@ -1850,13 +1850,13 @@
     <t xml:space="preserve">2.91315007209778</t>
   </si>
   <si>
-    <t xml:space="preserve">2.88835072517395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.87677717208862</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.8866970539093</t>
+    <t xml:space="preserve">2.88835024833679</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.8767774105072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.88669729232788</t>
   </si>
   <si>
     <t xml:space="preserve">2.90157699584961</t>
@@ -1865,13 +1865,13 @@
     <t xml:space="preserve">2.89992380142212</t>
   </si>
   <si>
-    <t xml:space="preserve">2.93299007415771</t>
+    <t xml:space="preserve">2.93299031257629</t>
   </si>
   <si>
     <t xml:space="preserve">2.91149687767029</t>
   </si>
   <si>
-    <t xml:space="preserve">2.86189723014832</t>
+    <t xml:space="preserve">2.86189746856689</t>
   </si>
   <si>
     <t xml:space="preserve">2.84701728820801</t>
@@ -1880,13 +1880,13 @@
     <t xml:space="preserve">2.85197734832764</t>
   </si>
   <si>
-    <t xml:space="preserve">2.83379101753235</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.83048415184021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.83544397354126</t>
+    <t xml:space="preserve">2.83379077911377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.83048439025879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.83544421195984</t>
   </si>
   <si>
     <t xml:space="preserve">2.76931118965149</t>
@@ -1895,16 +1895,16 @@
     <t xml:space="preserve">2.78584456443787</t>
   </si>
   <si>
-    <t xml:space="preserve">2.8387508392334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.81229782104492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.79576444625854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.80733776092529</t>
+    <t xml:space="preserve">2.83875107765198</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.81229758262634</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.79576468467712</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.80733728408813</t>
   </si>
   <si>
     <t xml:space="preserve">2.82883095741272</t>
@@ -1916,16 +1916,16 @@
     <t xml:space="preserve">2.83709740638733</t>
   </si>
   <si>
-    <t xml:space="preserve">2.78749752044678</t>
+    <t xml:space="preserve">2.78749799728394</t>
   </si>
   <si>
     <t xml:space="preserve">2.86520385742188</t>
   </si>
   <si>
-    <t xml:space="preserve">2.89165687561035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.88173723220825</t>
+    <t xml:space="preserve">2.89165711402893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.88173747062683</t>
   </si>
   <si>
     <t xml:space="preserve">2.89000368118286</t>
@@ -1934,10 +1934,10 @@
     <t xml:space="preserve">2.91811013221741</t>
   </si>
   <si>
-    <t xml:space="preserve">2.98920297622681</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.98589634895325</t>
+    <t xml:space="preserve">2.98920273780823</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.98589658737183</t>
   </si>
   <si>
     <t xml:space="preserve">3.02392268180847</t>
@@ -1955,7 +1955,7 @@
     <t xml:space="preserve">3.02557611465454</t>
   </si>
   <si>
-    <t xml:space="preserve">3.00408267974854</t>
+    <t xml:space="preserve">3.00408315658569</t>
   </si>
   <si>
     <t xml:space="preserve">2.90488362312317</t>
@@ -1967,22 +1967,22 @@
     <t xml:space="preserve">2.951176404953</t>
   </si>
   <si>
-    <t xml:space="preserve">2.92307019233704</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.9263768196106</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.95282983779907</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.01565623283386</t>
+    <t xml:space="preserve">2.92306995391846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.92637658119202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.95283007621765</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.01565599441528</t>
   </si>
   <si>
     <t xml:space="preserve">3.01234936714172</t>
   </si>
   <si>
-    <t xml:space="preserve">2.97597670555115</t>
+    <t xml:space="preserve">2.97597646713257</t>
   </si>
   <si>
     <t xml:space="preserve">3.0619490146637</t>
@@ -1991,7 +1991,7 @@
     <t xml:space="preserve">3.06029558181763</t>
   </si>
   <si>
-    <t xml:space="preserve">3.1330418586731</t>
+    <t xml:space="preserve">3.13304162025452</t>
   </si>
   <si>
     <t xml:space="preserve">3.07517576217651</t>
@@ -2018,19 +2018,19 @@
     <t xml:space="preserve">3.09005522727966</t>
   </si>
   <si>
-    <t xml:space="preserve">3.11485528945923</t>
+    <t xml:space="preserve">3.11485505104065</t>
   </si>
   <si>
     <t xml:space="preserve">3.12642860412598</t>
   </si>
   <si>
-    <t xml:space="preserve">3.09501552581787</t>
+    <t xml:space="preserve">3.09501528739929</t>
   </si>
   <si>
     <t xml:space="preserve">3.13634848594666</t>
   </si>
   <si>
-    <t xml:space="preserve">3.10824179649353</t>
+    <t xml:space="preserve">3.10824227333069</t>
   </si>
   <si>
     <t xml:space="preserve">3.07682871818542</t>
@@ -2045,16 +2045,16 @@
     <t xml:space="preserve">3.15949487686157</t>
   </si>
   <si>
-    <t xml:space="preserve">3.17272162437439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.16280174255371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.18429493904114</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.14296174049377</t>
+    <t xml:space="preserve">3.17272138595581</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.16280150413513</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.18429470062256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.14296197891235</t>
   </si>
   <si>
     <t xml:space="preserve">3.16776156425476</t>
@@ -2072,55 +2072,55 @@
     <t xml:space="preserve">3.18925476074219</t>
   </si>
   <si>
-    <t xml:space="preserve">3.21570801734924</t>
+    <t xml:space="preserve">3.21570777893066</t>
   </si>
   <si>
     <t xml:space="preserve">3.29176068305969</t>
   </si>
   <si>
-    <t xml:space="preserve">3.3165602684021</t>
+    <t xml:space="preserve">3.31656050682068</t>
   </si>
   <si>
     <t xml:space="preserve">3.31325364112854</t>
   </si>
   <si>
-    <t xml:space="preserve">3.33805370330811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.31490707397461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.28018736839294</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.29837369918823</t>
+    <t xml:space="preserve">3.33805346488953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.31490731239319</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.28018712997437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.29837393760681</t>
   </si>
   <si>
     <t xml:space="preserve">3.27357411384583</t>
   </si>
   <si>
-    <t xml:space="preserve">3.30333352088928</t>
+    <t xml:space="preserve">3.30333375930786</t>
   </si>
   <si>
     <t xml:space="preserve">3.29341387748718</t>
   </si>
   <si>
-    <t xml:space="preserve">3.30994749069214</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.17602825164795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.202481508255</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.24050784111023</t>
+    <t xml:space="preserve">3.30994725227356</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.17602801322937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.20248126983643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.24050760269165</t>
   </si>
   <si>
     <t xml:space="preserve">3.21736097335815</t>
   </si>
   <si>
-    <t xml:space="preserve">3.21074771881104</t>
+    <t xml:space="preserve">3.21074795722961</t>
   </si>
   <si>
     <t xml:space="preserve">3.18594813346863</t>
@@ -2129,10 +2129,10 @@
     <t xml:space="preserve">3.21901440620422</t>
   </si>
   <si>
-    <t xml:space="preserve">3.22728085517883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.1743745803833</t>
+    <t xml:space="preserve">3.22728109359741</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.17437481880188</t>
   </si>
   <si>
     <t xml:space="preserve">3.24381422996521</t>
@@ -2144,16 +2144,16 @@
     <t xml:space="preserve">3.28680062294006</t>
   </si>
   <si>
-    <t xml:space="preserve">3.28184032440186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.34136009216309</t>
+    <t xml:space="preserve">3.28184056282043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.34135985374451</t>
   </si>
   <si>
     <t xml:space="preserve">3.27853393554688</t>
   </si>
   <si>
-    <t xml:space="preserve">3.2834939956665</t>
+    <t xml:space="preserve">3.28349375724792</t>
   </si>
   <si>
     <t xml:space="preserve">3.22397446632385</t>
@@ -2162,7 +2162,7 @@
     <t xml:space="preserve">3.2124011516571</t>
   </si>
   <si>
-    <t xml:space="preserve">3.22232127189636</t>
+    <t xml:space="preserve">3.22232103347778</t>
   </si>
   <si>
     <t xml:space="preserve">3.19586777687073</t>
@@ -2171,13 +2171,13 @@
     <t xml:space="preserve">3.19256138801575</t>
   </si>
   <si>
-    <t xml:space="preserve">3.26034760475159</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.30498719215393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.30168056488037</t>
+    <t xml:space="preserve">3.26034736633301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.30498695373535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.30168032646179</t>
   </si>
   <si>
     <t xml:space="preserve">3.24877429008484</t>
@@ -2186,49 +2186,49 @@
     <t xml:space="preserve">3.39426636695862</t>
   </si>
   <si>
-    <t xml:space="preserve">3.50338554382324</t>
+    <t xml:space="preserve">3.50338578224182</t>
   </si>
   <si>
     <t xml:space="preserve">3.43725275993347</t>
   </si>
   <si>
-    <t xml:space="preserve">3.57613182067871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.57447814941406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.50503873825073</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.39095973968506</t>
+    <t xml:space="preserve">3.57613158226013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.57447838783264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.50503849983215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.39095997810364</t>
   </si>
   <si>
     <t xml:space="preserve">3.39922642707825</t>
   </si>
   <si>
-    <t xml:space="preserve">3.4091465473175</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.45709300041199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.49842572212219</t>
+    <t xml:space="preserve">3.40914630889893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.45709276199341</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.49842524528503</t>
   </si>
   <si>
     <t xml:space="preserve">3.51165223121643</t>
   </si>
   <si>
-    <t xml:space="preserve">3.53645205497742</t>
+    <t xml:space="preserve">3.53645181655884</t>
   </si>
   <si>
     <t xml:space="preserve">3.55463886260986</t>
   </si>
   <si>
-    <t xml:space="preserve">3.56786489486694</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.60754442214966</t>
+    <t xml:space="preserve">3.5678653717041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.60754466056824</t>
   </si>
   <si>
     <t xml:space="preserve">3.58109140396118</t>
@@ -2237,22 +2237,22 @@
     <t xml:space="preserve">3.58605146408081</t>
   </si>
   <si>
-    <t xml:space="preserve">3.59927821159363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.68855762481689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.66871762275696</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.64722418785095</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.46370553970337</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.43229246139526</t>
+    <t xml:space="preserve">3.59927773475647</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.68855714797974</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.66871786117554</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.64722466468811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.46370601654053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.43229269981384</t>
   </si>
   <si>
     <t xml:space="preserve">3.46205258369446</t>
@@ -2273,13 +2273,13 @@
     <t xml:space="preserve">2.93795013427734</t>
   </si>
   <si>
-    <t xml:space="preserve">2.75773811340332</t>
+    <t xml:space="preserve">2.7577383518219</t>
   </si>
   <si>
     <t xml:space="preserve">2.7908046245575</t>
   </si>
   <si>
-    <t xml:space="preserve">2.30307531356812</t>
+    <t xml:space="preserve">2.30307507514954</t>
   </si>
   <si>
     <t xml:space="preserve">2.65357899665833</t>
@@ -2288,25 +2288,25 @@
     <t xml:space="preserve">2.55768632888794</t>
   </si>
   <si>
-    <t xml:space="preserve">2.60397934913635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.61059284210205</t>
+    <t xml:space="preserve">2.60397958755493</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.61059260368347</t>
   </si>
   <si>
     <t xml:space="preserve">2.55272626876831</t>
   </si>
   <si>
-    <t xml:space="preserve">2.68003225326538</t>
+    <t xml:space="preserve">2.6800320148468</t>
   </si>
   <si>
     <t xml:space="preserve">2.53288650512695</t>
   </si>
   <si>
-    <t xml:space="preserve">2.50808668136597</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.53123307228088</t>
+    <t xml:space="preserve">2.50808691978455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.53123354911804</t>
   </si>
   <si>
     <t xml:space="preserve">2.59571266174316</t>
@@ -2315,19 +2315,19 @@
     <t xml:space="preserve">2.7197117805481</t>
   </si>
   <si>
-    <t xml:space="preserve">2.70152497291565</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.62216567993164</t>
+    <t xml:space="preserve">2.70152521133423</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.62216591835022</t>
   </si>
   <si>
     <t xml:space="preserve">2.66019225120544</t>
   </si>
   <si>
-    <t xml:space="preserve">2.62547278404236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.64696574211121</t>
+    <t xml:space="preserve">2.62547254562378</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.64696550369263</t>
   </si>
   <si>
     <t xml:space="preserve">2.55107307434082</t>
@@ -2336,40 +2336,40 @@
     <t xml:space="preserve">2.67176556587219</t>
   </si>
   <si>
-    <t xml:space="preserve">2.66349911689758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.64200592041016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.63869905471802</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.70483183860779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.71805834770203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.61224579811096</t>
+    <t xml:space="preserve">2.663498878479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.64200568199158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.63869857788086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.70483160018921</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.71805810928345</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.61224603652954</t>
   </si>
   <si>
     <t xml:space="preserve">2.6866455078125</t>
   </si>
   <si>
-    <t xml:space="preserve">2.67672562599182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.77261805534363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.79245781898499</t>
+    <t xml:space="preserve">2.67672514915466</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.77261829376221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.79245805740356</t>
   </si>
   <si>
     <t xml:space="preserve">2.67507219314575</t>
   </si>
   <si>
-    <t xml:space="preserve">2.66845870018005</t>
+    <t xml:space="preserve">2.66845893859863</t>
   </si>
   <si>
     <t xml:space="preserve">2.61885905265808</t>
@@ -2378,7 +2378,7 @@
     <t xml:space="preserve">2.58579277992249</t>
   </si>
   <si>
-    <t xml:space="preserve">2.68829846382141</t>
+    <t xml:space="preserve">2.68829894065857</t>
   </si>
   <si>
     <t xml:space="preserve">2.71640515327454</t>
@@ -2387,13 +2387,13 @@
     <t xml:space="preserve">2.65688538551331</t>
   </si>
   <si>
-    <t xml:space="preserve">2.5676064491272</t>
+    <t xml:space="preserve">2.56760621070862</t>
   </si>
   <si>
     <t xml:space="preserve">2.55437970161438</t>
   </si>
   <si>
-    <t xml:space="preserve">2.60728597640991</t>
+    <t xml:space="preserve">2.60728621482849</t>
   </si>
   <si>
     <t xml:space="preserve">2.59405946731567</t>
@@ -2402,28 +2402,28 @@
     <t xml:space="preserve">2.6486189365387</t>
   </si>
   <si>
-    <t xml:space="preserve">2.64365911483765</t>
+    <t xml:space="preserve">2.64365887641907</t>
   </si>
   <si>
     <t xml:space="preserve">2.75608468055725</t>
   </si>
   <si>
-    <t xml:space="preserve">2.75939130783081</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.95779013633728</t>
+    <t xml:space="preserve">2.75939154624939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.9577898979187</t>
   </si>
   <si>
     <t xml:space="preserve">2.96274995803833</t>
   </si>
   <si>
-    <t xml:space="preserve">2.92141699790955</t>
+    <t xml:space="preserve">2.92141675949097</t>
   </si>
   <si>
     <t xml:space="preserve">2.88008379936218</t>
   </si>
   <si>
-    <t xml:space="preserve">2.7775776386261</t>
+    <t xml:space="preserve">2.77757811546326</t>
   </si>
   <si>
     <t xml:space="preserve">2.90653681755066</t>
@@ -2438,13 +2438,13 @@
     <t xml:space="preserve">2.86024403572083</t>
   </si>
   <si>
-    <t xml:space="preserve">2.85693717002869</t>
+    <t xml:space="preserve">2.85693740844727</t>
   </si>
   <si>
     <t xml:space="preserve">2.78915119171143</t>
   </si>
   <si>
-    <t xml:space="preserve">2.73624491691589</t>
+    <t xml:space="preserve">2.73624515533447</t>
   </si>
   <si>
     <t xml:space="preserve">2.80403089523315</t>
@@ -2453,22 +2453,22 @@
     <t xml:space="preserve">2.80072450637817</t>
   </si>
   <si>
-    <t xml:space="preserve">2.82717728614807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.84420871734619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.7999279499054</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.81525588035583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.74031829833984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.73180294036865</t>
+    <t xml:space="preserve">2.82717752456665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.84420847892761</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.79992747306824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.81525564193726</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.74031853675842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.73180270195007</t>
   </si>
   <si>
     <t xml:space="preserve">2.7743809223175</t>
@@ -2477,10 +2477,10 @@
     <t xml:space="preserve">2.73691201210022</t>
   </si>
   <si>
-    <t xml:space="preserve">2.74883389472961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.79481863975525</t>
+    <t xml:space="preserve">2.74883413314819</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.79481840133667</t>
   </si>
   <si>
     <t xml:space="preserve">2.83228707313538</t>
@@ -2489,16 +2489,16 @@
     <t xml:space="preserve">2.83569312095642</t>
   </si>
   <si>
-    <t xml:space="preserve">2.83739614486694</t>
+    <t xml:space="preserve">2.83739638328552</t>
   </si>
   <si>
     <t xml:space="preserve">2.8680522441864</t>
   </si>
   <si>
-    <t xml:space="preserve">2.76075601577759</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.71647477149963</t>
+    <t xml:space="preserve">2.76075577735901</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.71647500991821</t>
   </si>
   <si>
     <t xml:space="preserve">2.73350620269775</t>
@@ -2507,7 +2507,7 @@
     <t xml:space="preserve">2.80333399772644</t>
   </si>
   <si>
-    <t xml:space="preserve">2.78800559043884</t>
+    <t xml:space="preserve">2.78800582885742</t>
   </si>
   <si>
     <t xml:space="preserve">2.6892249584198</t>
@@ -2519,25 +2519,25 @@
     <t xml:space="preserve">2.69944381713867</t>
   </si>
   <si>
-    <t xml:space="preserve">2.69263124465942</t>
+    <t xml:space="preserve">2.69263100624084</t>
   </si>
   <si>
     <t xml:space="preserve">2.68411540985107</t>
   </si>
   <si>
-    <t xml:space="preserve">2.76756834983826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.82547450065613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.89019298553467</t>
+    <t xml:space="preserve">2.76756858825684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.82547426223755</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.89019322395325</t>
   </si>
   <si>
     <t xml:space="preserve">2.87997436523438</t>
   </si>
   <si>
-    <t xml:space="preserve">2.86123991012573</t>
+    <t xml:space="preserve">2.86124014854431</t>
   </si>
   <si>
     <t xml:space="preserve">2.76586508750916</t>
@@ -2549,40 +2549,40 @@
     <t xml:space="preserve">2.78289651870728</t>
   </si>
   <si>
-    <t xml:space="preserve">2.76245927810669</t>
+    <t xml:space="preserve">2.76245903968811</t>
   </si>
   <si>
     <t xml:space="preserve">2.85272431373596</t>
   </si>
   <si>
-    <t xml:space="preserve">2.82377147674561</t>
+    <t xml:space="preserve">2.82377123832703</t>
   </si>
   <si>
     <t xml:space="preserve">2.74542784690857</t>
   </si>
   <si>
-    <t xml:space="preserve">2.7249903678894</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.72669363021851</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.71306896209717</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.79311513900757</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.69433450698853</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.74713110923767</t>
+    <t xml:space="preserve">2.72499060630798</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.72669339179993</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.71306872367859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.79311537742615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.69433426856995</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.74713087081909</t>
   </si>
   <si>
     <t xml:space="preserve">2.7386155128479</t>
   </si>
   <si>
-    <t xml:space="preserve">2.78119349479675</t>
+    <t xml:space="preserve">2.78119325637817</t>
   </si>
   <si>
     <t xml:space="preserve">2.76416230201721</t>
@@ -2591,16 +2591,16 @@
     <t xml:space="preserve">2.77949023246765</t>
   </si>
   <si>
-    <t xml:space="preserve">2.79822444915771</t>
+    <t xml:space="preserve">2.79822468757629</t>
   </si>
   <si>
     <t xml:space="preserve">2.81355261802673</t>
   </si>
   <si>
-    <t xml:space="preserve">2.7352089881897</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.72158432006836</t>
+    <t xml:space="preserve">2.73520922660828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.72158408164978</t>
   </si>
   <si>
     <t xml:space="preserve">2.70455312728882</t>
@@ -2612,55 +2612,55 @@
     <t xml:space="preserve">2.72839665412903</t>
   </si>
   <si>
-    <t xml:space="preserve">2.64494395256042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.6534595489502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.6398344039917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.60747528076172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.61428785324097</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.5955536365509</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.56489729881287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.51210045814514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.53424096107483</t>
+    <t xml:space="preserve">2.64494371414185</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.65345931053162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.63983416557312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.6074755191803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.61428761482239</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.59555339813232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.56489753723145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.51210069656372</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.53424119949341</t>
   </si>
   <si>
     <t xml:space="preserve">2.44738221168518</t>
   </si>
   <si>
-    <t xml:space="preserve">2.47292876243591</t>
+    <t xml:space="preserve">2.47292900085449</t>
   </si>
   <si>
     <t xml:space="preserve">2.50188183784485</t>
   </si>
   <si>
-    <t xml:space="preserve">2.55467844009399</t>
+    <t xml:space="preserve">2.55467867851257</t>
   </si>
   <si>
     <t xml:space="preserve">2.48485064506531</t>
   </si>
   <si>
-    <t xml:space="preserve">2.46441340446472</t>
+    <t xml:space="preserve">2.46441292762756</t>
   </si>
   <si>
     <t xml:space="preserve">2.46611618995667</t>
   </si>
   <si>
-    <t xml:space="preserve">2.40139770507812</t>
+    <t xml:space="preserve">2.40139746665955</t>
   </si>
   <si>
     <t xml:space="preserve">2.37755417823792</t>
@@ -2675,7 +2675,7 @@
     <t xml:space="preserve">2.29921054840088</t>
   </si>
   <si>
-    <t xml:space="preserve">2.31964778900146</t>
+    <t xml:space="preserve">2.31964802742004</t>
   </si>
   <si>
     <t xml:space="preserve">2.33838248252869</t>
@@ -2690,43 +2690,43 @@
     <t xml:space="preserve">2.3656325340271</t>
   </si>
   <si>
-    <t xml:space="preserve">2.5461630821228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.51550674438477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.54105353355408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.58533453941345</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.57170963287354</t>
+    <t xml:space="preserve">2.54616284370422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.51550698280334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.54105377197266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.58533477783203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.57170939445496</t>
   </si>
   <si>
     <t xml:space="preserve">2.65686559677124</t>
   </si>
   <si>
-    <t xml:space="preserve">2.60236573219299</t>
+    <t xml:space="preserve">2.60236597061157</t>
   </si>
   <si>
     <t xml:space="preserve">2.58874082565308</t>
   </si>
   <si>
-    <t xml:space="preserve">2.59725666046143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.57341265678406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.56830334663391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.61599111557007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.62961578369141</t>
+    <t xml:space="preserve">2.59725642204285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.57341289520264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.56830358505249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.61599063873291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.62961554527283</t>
   </si>
   <si>
     <t xml:space="preserve">2.60577201843262</t>
@@ -2735,16 +2735,16 @@
     <t xml:space="preserve">2.56319427490234</t>
   </si>
   <si>
-    <t xml:space="preserve">2.53083491325378</t>
+    <t xml:space="preserve">2.53083467483521</t>
   </si>
   <si>
     <t xml:space="preserve">2.55978798866272</t>
   </si>
   <si>
-    <t xml:space="preserve">2.53594398498535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.52061605453491</t>
+    <t xml:space="preserve">2.53594422340393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.52061629295349</t>
   </si>
   <si>
     <t xml:space="preserve">2.50528788566589</t>
@@ -2759,7 +2759,7 @@
     <t xml:space="preserve">2.48314738273621</t>
   </si>
   <si>
-    <t xml:space="preserve">2.45419430732727</t>
+    <t xml:space="preserve">2.45419454574585</t>
   </si>
   <si>
     <t xml:space="preserve">2.49336624145508</t>
@@ -2771,37 +2771,37 @@
     <t xml:space="preserve">2.42694449424744</t>
   </si>
   <si>
-    <t xml:space="preserve">2.47633504867554</t>
+    <t xml:space="preserve">2.47633528709412</t>
   </si>
   <si>
     <t xml:space="preserve">2.54445958137512</t>
   </si>
   <si>
-    <t xml:space="preserve">2.55127215385437</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.53764748573303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.59895992279053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.53253793716431</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.58363127708435</t>
+    <t xml:space="preserve">2.55127239227295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.53764724731445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.59895968437195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.53253769874573</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.58363175392151</t>
   </si>
   <si>
     <t xml:space="preserve">2.57852244377136</t>
   </si>
   <si>
-    <t xml:space="preserve">2.69092798233032</t>
+    <t xml:space="preserve">2.6909282207489</t>
   </si>
   <si>
     <t xml:space="preserve">2.63642835617065</t>
   </si>
   <si>
-    <t xml:space="preserve">2.46952271461487</t>
+    <t xml:space="preserve">2.46952247619629</t>
   </si>
   <si>
     <t xml:space="preserve">2.42353844642639</t>
@@ -2810,70 +2810,70 @@
     <t xml:space="preserve">2.44567894935608</t>
   </si>
   <si>
-    <t xml:space="preserve">2.45589756965637</t>
+    <t xml:space="preserve">2.45589780807495</t>
   </si>
   <si>
     <t xml:space="preserve">2.41672587394714</t>
   </si>
   <si>
-    <t xml:space="preserve">2.56149101257324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.58703804016113</t>
+    <t xml:space="preserve">2.56149077415466</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.58703780174255</t>
   </si>
   <si>
     <t xml:space="preserve">2.64835023880005</t>
   </si>
   <si>
-    <t xml:space="preserve">2.60406899452209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.61769366264343</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.65005302429199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.68581867218018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.64153742790222</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.63131904602051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.61939692497253</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.52231907844543</t>
+    <t xml:space="preserve">2.60406923294067</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.61769390106201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.65005326271057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.68581891059875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.6415376663208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.63131880760193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.61939716339111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.52231931686401</t>
   </si>
   <si>
     <t xml:space="preserve">2.49166321754456</t>
   </si>
   <si>
-    <t xml:space="preserve">2.62280321121216</t>
+    <t xml:space="preserve">2.62280344963074</t>
   </si>
   <si>
     <t xml:space="preserve">2.65856862068176</t>
   </si>
   <si>
-    <t xml:space="preserve">2.66538166999817</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.70114660263062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.81695890426636</t>
+    <t xml:space="preserve">2.66538143157959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.70114684104919</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.81695914268494</t>
   </si>
   <si>
     <t xml:space="preserve">2.78204488754272</t>
   </si>
   <si>
-    <t xml:space="preserve">2.83058381080627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.80929470062256</t>
+    <t xml:space="preserve">2.8305835723877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.80929493904114</t>
   </si>
   <si>
     <t xml:space="preserve">2.79652142524719</t>
@@ -2897,16 +2897,16 @@
     <t xml:space="preserve">2.85783362388611</t>
   </si>
   <si>
-    <t xml:space="preserve">2.85868549346924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.84846639633179</t>
+    <t xml:space="preserve">2.85868525505066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.84846663475037</t>
   </si>
   <si>
     <t xml:space="preserve">2.89785695075989</t>
   </si>
   <si>
-    <t xml:space="preserve">2.86549758911133</t>
+    <t xml:space="preserve">2.86549782752991</t>
   </si>
   <si>
     <t xml:space="preserve">2.8697555065155</t>
@@ -2915,46 +2915,46 @@
     <t xml:space="preserve">2.90126323699951</t>
   </si>
   <si>
-    <t xml:space="preserve">2.94384121894836</t>
+    <t xml:space="preserve">2.94384145736694</t>
   </si>
   <si>
     <t xml:space="preserve">2.87401342391968</t>
   </si>
   <si>
-    <t xml:space="preserve">2.8757164478302</t>
+    <t xml:space="preserve">2.87571668624878</t>
   </si>
   <si>
     <t xml:space="preserve">2.86720085144043</t>
   </si>
   <si>
-    <t xml:space="preserve">2.96938824653625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.93788051605225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.92766165733337</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.96683359146118</t>
+    <t xml:space="preserve">2.96938800811768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.93788027763367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.92766141891479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.9668333530426</t>
   </si>
   <si>
     <t xml:space="preserve">2.98556756973267</t>
   </si>
   <si>
-    <t xml:space="preserve">2.99067687988281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.99493455886841</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.98982548713684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.97194266319275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.96768474578857</t>
+    <t xml:space="preserve">2.99067711830139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.99493479728699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.98982524871826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.97194242477417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.96768498420715</t>
   </si>
   <si>
     <t xml:space="preserve">2.9727942943573</t>
@@ -2963,19 +2963,19 @@
     <t xml:space="preserve">2.97023940086365</t>
   </si>
   <si>
-    <t xml:space="preserve">2.98130989074707</t>
+    <t xml:space="preserve">2.98130965232849</t>
   </si>
   <si>
     <t xml:space="preserve">3.00515341758728</t>
   </si>
   <si>
-    <t xml:space="preserve">3.04177045822144</t>
+    <t xml:space="preserve">3.04177069664001</t>
   </si>
   <si>
     <t xml:space="preserve">3.06902050971985</t>
   </si>
   <si>
-    <t xml:space="preserve">3.08264541625977</t>
+    <t xml:space="preserve">3.08264517784119</t>
   </si>
   <si>
     <t xml:space="preserve">3.13799667358398</t>
@@ -2987,7 +2987,7 @@
     <t xml:space="preserve">3.12011384963989</t>
   </si>
   <si>
-    <t xml:space="preserve">3.15417623519897</t>
+    <t xml:space="preserve">3.15417647361755</t>
   </si>
   <si>
     <t xml:space="preserve">3.13033294677734</t>
@@ -2999,13 +2999,13 @@
     <t xml:space="preserve">3.13373923301697</t>
   </si>
   <si>
-    <t xml:space="preserve">3.11926245689392</t>
+    <t xml:space="preserve">3.1192626953125</t>
   </si>
   <si>
     <t xml:space="preserve">3.10052824020386</t>
   </si>
   <si>
-    <t xml:space="preserve">3.0681688785553</t>
+    <t xml:space="preserve">3.06816864013672</t>
   </si>
   <si>
     <t xml:space="preserve">3.01026296615601</t>
@@ -3014,28 +3014,28 @@
     <t xml:space="preserve">3.03240346908569</t>
   </si>
   <si>
-    <t xml:space="preserve">3.00345039367676</t>
+    <t xml:space="preserve">3.00345015525818</t>
   </si>
   <si>
     <t xml:space="preserve">2.99834108352661</t>
   </si>
   <si>
-    <t xml:space="preserve">2.99919271469116</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.97364568710327</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.00259852409363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.01754140853882</t>
+    <t xml:space="preserve">2.99919247627258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.97364592552185</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.00259900093079</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.0175416469574</t>
   </si>
   <si>
     <t xml:space="preserve">3.0043568611145</t>
   </si>
   <si>
-    <t xml:space="preserve">3.0702805519104</t>
+    <t xml:space="preserve">3.07028031349182</t>
   </si>
   <si>
     <t xml:space="preserve">2.97271347045898</t>
@@ -3053,22 +3053,22 @@
     <t xml:space="preserve">3.03072619438171</t>
   </si>
   <si>
-    <t xml:space="preserve">3.00347781181335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.03512120246887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.94810199737549</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.9568920135498</t>
+    <t xml:space="preserve">3.00347805023193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.03512096405029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.94810223579407</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.95689177513123</t>
   </si>
   <si>
     <t xml:space="preserve">3.05709552764893</t>
   </si>
   <si>
-    <t xml:space="preserve">3.11159253120422</t>
+    <t xml:space="preserve">3.11159229278564</t>
   </si>
   <si>
     <t xml:space="preserve">3.08873891830444</t>
@@ -3083,7 +3083,7 @@
     <t xml:space="preserve">3.17839503288269</t>
   </si>
   <si>
-    <t xml:space="preserve">3.15378379821777</t>
+    <t xml:space="preserve">3.15378355979919</t>
   </si>
   <si>
     <t xml:space="preserve">3.15817856788635</t>
@@ -3095,10 +3095,10 @@
     <t xml:space="preserve">3.12214040756226</t>
   </si>
   <si>
-    <t xml:space="preserve">3.11335062980652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.13268804550171</t>
+    <t xml:space="preserve">3.11335039138794</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.13268780708313</t>
   </si>
   <si>
     <t xml:space="preserve">3.15993666648865</t>
@@ -3116,7 +3116,7 @@
     <t xml:space="preserve">3.24783444404602</t>
   </si>
   <si>
-    <t xml:space="preserve">3.26277709007263</t>
+    <t xml:space="preserve">3.26277732849121</t>
   </si>
   <si>
     <t xml:space="preserve">3.27420401573181</t>
@@ -3131,7 +3131,7 @@
     <t xml:space="preserve">3.30408930778503</t>
   </si>
   <si>
-    <t xml:space="preserve">3.30584740638733</t>
+    <t xml:space="preserve">3.30584716796875</t>
   </si>
   <si>
     <t xml:space="preserve">3.28475189208984</t>
@@ -3143,7 +3143,7 @@
     <t xml:space="preserve">3.21707034111023</t>
   </si>
   <si>
-    <t xml:space="preserve">3.23201298713684</t>
+    <t xml:space="preserve">3.23201274871826</t>
   </si>
   <si>
     <t xml:space="preserve">3.22673892974854</t>
@@ -3167,43 +3167,43 @@
     <t xml:space="preserve">3.19597458839417</t>
   </si>
   <si>
-    <t xml:space="preserve">3.14938855171204</t>
+    <t xml:space="preserve">3.14938879013062</t>
   </si>
   <si>
     <t xml:space="preserve">3.18806385993958</t>
   </si>
   <si>
-    <t xml:space="preserve">3.21443319320679</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.16345238685608</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.19861149787903</t>
+    <t xml:space="preserve">3.21443343162537</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.16345262527466</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.19861173629761</t>
   </si>
   <si>
     <t xml:space="preserve">3.15466260910034</t>
   </si>
   <si>
-    <t xml:space="preserve">3.20124864578247</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.19773268699646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.20740127563477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.1362042427063</t>
+    <t xml:space="preserve">3.20124840736389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.19773244857788</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.20740151405334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.13620400428772</t>
   </si>
   <si>
     <t xml:space="preserve">3.08522295951843</t>
   </si>
   <si>
-    <t xml:space="preserve">3.12653517723083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.10807657241821</t>
+    <t xml:space="preserve">3.12653493881226</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.10807681083679</t>
   </si>
   <si>
     <t xml:space="preserve">3.10719776153564</t>
@@ -3212,31 +3212,31 @@
     <t xml:space="preserve">3.10983467102051</t>
   </si>
   <si>
-    <t xml:space="preserve">3.1159873008728</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.07115960121155</t>
+    <t xml:space="preserve">3.11598753929138</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.07115912437439</t>
   </si>
   <si>
     <t xml:space="preserve">3.09664988517761</t>
   </si>
   <si>
-    <t xml:space="preserve">3.01929926872253</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.98501920700073</t>
+    <t xml:space="preserve">3.01929950714111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.98501896858215</t>
   </si>
   <si>
     <t xml:space="preserve">3.02017855644226</t>
   </si>
   <si>
-    <t xml:space="preserve">3.05533790588379</t>
+    <t xml:space="preserve">3.05533766746521</t>
   </si>
   <si>
     <t xml:space="preserve">3.08610200881958</t>
   </si>
   <si>
-    <t xml:space="preserve">3.06324863433838</t>
+    <t xml:space="preserve">3.0632483959198</t>
   </si>
   <si>
     <t xml:space="preserve">3.03336310386658</t>
@@ -3245,7 +3245,7 @@
     <t xml:space="preserve">3.05357980728149</t>
   </si>
   <si>
-    <t xml:space="preserve">3.11422920227051</t>
+    <t xml:space="preserve">3.11422967910767</t>
   </si>
   <si>
     <t xml:space="preserve">3.14675164222717</t>
@@ -3272,22 +3272,22 @@
     <t xml:space="preserve">3.14763069152832</t>
   </si>
   <si>
-    <t xml:space="preserve">3.22849702835083</t>
+    <t xml:space="preserve">3.22849726676941</t>
   </si>
   <si>
     <t xml:space="preserve">3.20828056335449</t>
   </si>
   <si>
-    <t xml:space="preserve">3.17048454284668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.1291720867157</t>
+    <t xml:space="preserve">3.1704843044281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.12917232513428</t>
   </si>
   <si>
     <t xml:space="preserve">3.17136335372925</t>
   </si>
   <si>
-    <t xml:space="preserve">3.18366861343384</t>
+    <t xml:space="preserve">3.18366885185242</t>
   </si>
   <si>
     <t xml:space="preserve">3.18718481063843</t>
@@ -3308,7 +3308,7 @@
     <t xml:space="preserve">2.97710847854614</t>
   </si>
   <si>
-    <t xml:space="preserve">2.9929301738739</t>
+    <t xml:space="preserve">2.99292993545532</t>
   </si>
   <si>
     <t xml:space="preserve">3.06764340400696</t>
@@ -3320,10 +3320,10 @@
     <t xml:space="preserve">3.13796186447144</t>
   </si>
   <si>
-    <t xml:space="preserve">3.0931339263916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.12038230895996</t>
+    <t xml:space="preserve">3.09313416481018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.12038207054138</t>
   </si>
   <si>
     <t xml:space="preserve">3.08961820602417</t>
@@ -3338,7 +3338,7 @@
     <t xml:space="preserve">3.1590576171875</t>
   </si>
   <si>
-    <t xml:space="preserve">3.16433119773865</t>
+    <t xml:space="preserve">3.16433143615723</t>
   </si>
   <si>
     <t xml:space="preserve">3.17487931251526</t>
@@ -3347,16 +3347,16 @@
     <t xml:space="preserve">3.23289179801941</t>
   </si>
   <si>
-    <t xml:space="preserve">3.21794939041138</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.25750327110291</t>
+    <t xml:space="preserve">3.2179491519928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.25750350952148</t>
   </si>
   <si>
     <t xml:space="preserve">3.22761797904968</t>
   </si>
   <si>
-    <t xml:space="preserve">3.20212769508362</t>
+    <t xml:space="preserve">3.20212745666504</t>
   </si>
   <si>
     <t xml:space="preserve">3.13971996307373</t>
@@ -3365,13 +3365,13 @@
     <t xml:space="preserve">3.12565612792969</t>
   </si>
   <si>
-    <t xml:space="preserve">3.10543990135193</t>
+    <t xml:space="preserve">3.10543942451477</t>
   </si>
   <si>
     <t xml:space="preserve">3.081707239151</t>
   </si>
   <si>
-    <t xml:space="preserve">3.09225487709045</t>
+    <t xml:space="preserve">3.09225463867188</t>
   </si>
   <si>
     <t xml:space="preserve">3.0588538646698</t>
@@ -3383,43 +3383,43 @@
     <t xml:space="preserve">3.02633142471313</t>
   </si>
   <si>
-    <t xml:space="preserve">3.08434391021729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.19070100784302</t>
+    <t xml:space="preserve">3.08434414863586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.19070076942444</t>
   </si>
   <si>
     <t xml:space="preserve">3.2654139995575</t>
   </si>
   <si>
-    <t xml:space="preserve">3.25047159194946</t>
+    <t xml:space="preserve">3.25047135353088</t>
   </si>
   <si>
     <t xml:space="preserve">3.18454790115356</t>
   </si>
   <si>
-    <t xml:space="preserve">3.04830598831177</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.9876561164856</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.02721047401428</t>
+    <t xml:space="preserve">3.04830574989319</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.98765635490417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.0272102355957</t>
   </si>
   <si>
     <t xml:space="preserve">3.04742693901062</t>
   </si>
   <si>
-    <t xml:space="preserve">3.03424191474915</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.96656060218811</t>
+    <t xml:space="preserve">3.03424215316772</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.96656084060669</t>
   </si>
   <si>
     <t xml:space="preserve">2.99468803405762</t>
   </si>
   <si>
-    <t xml:space="preserve">2.97974538803101</t>
+    <t xml:space="preserve">2.97974514961243</t>
   </si>
   <si>
     <t xml:space="preserve">2.94898104667664</t>
@@ -3428,13 +3428,13 @@
     <t xml:space="preserve">2.94370722770691</t>
   </si>
   <si>
-    <t xml:space="preserve">2.90151619911194</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.91294288635254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.92964339256287</t>
+    <t xml:space="preserve">2.90151596069336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.91294264793396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.92964315414429</t>
   </si>
   <si>
     <t xml:space="preserve">2.84262442588806</t>
@@ -3443,10 +3443,10 @@
     <t xml:space="preserve">3.04566884040833</t>
   </si>
   <si>
-    <t xml:space="preserve">2.93755412101746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.89360547065735</t>
+    <t xml:space="preserve">2.93755435943604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.89360523223877</t>
   </si>
   <si>
     <t xml:space="preserve">2.86547780036926</t>
@@ -3461,10 +3461,10 @@
     <t xml:space="preserve">2.87778353691101</t>
   </si>
   <si>
-    <t xml:space="preserve">2.98414015769958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.97007656097412</t>
+    <t xml:space="preserve">2.98414039611816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.97007632255554</t>
   </si>
   <si>
     <t xml:space="preserve">2.96304488182068</t>
@@ -3479,16 +3479,16 @@
     <t xml:space="preserve">2.96040773391724</t>
   </si>
   <si>
-    <t xml:space="preserve">2.9990828037262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.89184737205505</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.85932517051697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.91909575462341</t>
+    <t xml:space="preserve">2.99908304214478</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.89184713363647</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.85932493209839</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.91909599304199</t>
   </si>
   <si>
     <t xml:space="preserve">2.93228054046631</t>
@@ -3500,7 +3500,7 @@
     <t xml:space="preserve">2.94107007980347</t>
   </si>
   <si>
-    <t xml:space="preserve">2.98326110839844</t>
+    <t xml:space="preserve">2.98326134681702</t>
   </si>
   <si>
     <t xml:space="preserve">3.0157835483551</t>
@@ -3527,10 +3527,10 @@
     <t xml:space="preserve">3.16169428825378</t>
   </si>
   <si>
-    <t xml:space="preserve">3.08346486091614</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.09489178657532</t>
+    <t xml:space="preserve">3.08346509933472</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.0948920249939</t>
   </si>
   <si>
     <t xml:space="preserve">3.06236958503723</t>
@@ -3539,13 +3539,13 @@
     <t xml:space="preserve">3.09752869606018</t>
   </si>
   <si>
-    <t xml:space="preserve">3.17751598358154</t>
+    <t xml:space="preserve">3.17751622200012</t>
   </si>
   <si>
     <t xml:space="preserve">2.94722294807434</t>
   </si>
   <si>
-    <t xml:space="preserve">2.97183465957642</t>
+    <t xml:space="preserve">2.97183442115784</t>
   </si>
   <si>
     <t xml:space="preserve">3.03863716125488</t>
@@ -3557,7 +3557,7 @@
     <t xml:space="preserve">3.15114665031433</t>
   </si>
   <si>
-    <t xml:space="preserve">3.0992865562439</t>
+    <t xml:space="preserve">3.09928679466248</t>
   </si>
   <si>
     <t xml:space="preserve">3.0764331817627</t>
@@ -3569,13 +3569,13 @@
     <t xml:space="preserve">2.97359251976013</t>
   </si>
   <si>
-    <t xml:space="preserve">2.9331591129303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.96831846237183</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.94282841682434</t>
+    <t xml:space="preserve">2.93315935134888</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.96831870079041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.94282817840576</t>
   </si>
   <si>
     <t xml:space="preserve">2.94458603858948</t>
@@ -3593,10 +3593,10 @@
     <t xml:space="preserve">2.44444584846497</t>
   </si>
   <si>
-    <t xml:space="preserve">2.54992389678955</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.4778470993042</t>
+    <t xml:space="preserve">2.54992365837097</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.47784733772278</t>
   </si>
   <si>
     <t xml:space="preserve">2.507732629776</t>
@@ -3638,9 +3638,6 @@
     <t xml:space="preserve">2.50314474105835</t>
   </si>
   <si>
-    <t xml:space="preserve">2.54902362823486</t>
-  </si>
-  <si>
     <t xml:space="preserve">2.58389115333557</t>
   </si>
   <si>
@@ -4890,6 +4887,9 @@
   </si>
   <si>
     <t xml:space="preserve">3.2960000038147</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.31599998474121</t>
   </si>
 </sst>
 </file>
@@ -48305,7 +48305,7 @@
         <v>2.77800011634827</v>
       </c>
       <c r="G1657" t="s">
-        <v>1208</v>
+        <v>574</v>
       </c>
       <c r="H1657" t="s">
         <v>9</v>
@@ -48357,7 +48357,7 @@
         <v>2.81599998474121</v>
       </c>
       <c r="G1659" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="H1659" t="s">
         <v>9</v>
@@ -48383,7 +48383,7 @@
         <v>2.79999995231628</v>
       </c>
       <c r="G1660" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="H1660" t="s">
         <v>9</v>
@@ -48409,7 +48409,7 @@
         <v>2.77999997138977</v>
       </c>
       <c r="G1661" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="H1661" t="s">
         <v>9</v>
@@ -48435,7 +48435,7 @@
         <v>2.68499994277954</v>
       </c>
       <c r="G1662" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="H1662" t="s">
         <v>9</v>
@@ -48461,7 +48461,7 @@
         <v>2.60500001907349</v>
       </c>
       <c r="G1663" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="H1663" t="s">
         <v>9</v>
@@ -48487,7 +48487,7 @@
         <v>2.68799996376038</v>
       </c>
       <c r="G1664" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="H1664" t="s">
         <v>9</v>
@@ -48513,7 +48513,7 @@
         <v>2.69799995422363</v>
       </c>
       <c r="G1665" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="H1665" t="s">
         <v>9</v>
@@ -48539,7 +48539,7 @@
         <v>2.7260000705719</v>
       </c>
       <c r="G1666" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="H1666" t="s">
         <v>9</v>
@@ -48565,7 +48565,7 @@
         <v>2.69799995422363</v>
       </c>
       <c r="G1667" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="H1667" t="s">
         <v>9</v>
@@ -48591,7 +48591,7 @@
         <v>2.69400000572205</v>
       </c>
       <c r="G1668" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="H1668" t="s">
         <v>9</v>
@@ -48617,7 +48617,7 @@
         <v>2.72000002861023</v>
       </c>
       <c r="G1669" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="H1669" t="s">
         <v>9</v>
@@ -48643,7 +48643,7 @@
         <v>2.73499989509583</v>
       </c>
       <c r="G1670" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="H1670" t="s">
         <v>9</v>
@@ -48669,7 +48669,7 @@
         <v>2.71399998664856</v>
       </c>
       <c r="G1671" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="H1671" t="s">
         <v>9</v>
@@ -48695,7 +48695,7 @@
         <v>2.73499989509583</v>
       </c>
       <c r="G1672" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="H1672" t="s">
         <v>9</v>
@@ -48721,7 +48721,7 @@
         <v>2.77800011634827</v>
       </c>
       <c r="G1673" t="s">
-        <v>1208</v>
+        <v>574</v>
       </c>
       <c r="H1673" t="s">
         <v>9</v>
@@ -48747,7 +48747,7 @@
         <v>2.80200004577637</v>
       </c>
       <c r="G1674" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="H1674" t="s">
         <v>9</v>
@@ -48773,7 +48773,7 @@
         <v>2.74699997901917</v>
       </c>
       <c r="G1675" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="H1675" t="s">
         <v>9</v>
@@ -48799,7 +48799,7 @@
         <v>2.76600003242493</v>
       </c>
       <c r="G1676" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="H1676" t="s">
         <v>9</v>
@@ -48825,7 +48825,7 @@
         <v>2.83699989318848</v>
       </c>
       <c r="G1677" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="H1677" t="s">
         <v>9</v>
@@ -48851,7 +48851,7 @@
         <v>2.83200001716614</v>
       </c>
       <c r="G1678" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="H1678" t="s">
         <v>9</v>
@@ -48877,7 +48877,7 @@
         <v>2.74699997901917</v>
       </c>
       <c r="G1679" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="H1679" t="s">
         <v>9</v>
@@ -48903,7 +48903,7 @@
         <v>2.79299998283386</v>
       </c>
       <c r="G1680" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="H1680" t="s">
         <v>9</v>
@@ -48929,7 +48929,7 @@
         <v>2.76099991798401</v>
       </c>
       <c r="G1681" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="H1681" t="s">
         <v>9</v>
@@ -48955,7 +48955,7 @@
         <v>2.75799989700317</v>
       </c>
       <c r="G1682" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="H1682" t="s">
         <v>9</v>
@@ -48981,7 +48981,7 @@
         <v>2.76200008392334</v>
       </c>
       <c r="G1683" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="H1683" t="s">
         <v>9</v>
@@ -49007,7 +49007,7 @@
         <v>2.79099988937378</v>
       </c>
       <c r="G1684" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="H1684" t="s">
         <v>9</v>
@@ -49033,7 +49033,7 @@
         <v>2.79800009727478</v>
       </c>
       <c r="G1685" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="H1685" t="s">
         <v>9</v>
@@ -49059,7 +49059,7 @@
         <v>2.76900005340576</v>
       </c>
       <c r="G1686" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="H1686" t="s">
         <v>9</v>
@@ -49085,7 +49085,7 @@
         <v>2.75600004196167</v>
       </c>
       <c r="G1687" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="H1687" t="s">
         <v>9</v>
@@ -49111,7 +49111,7 @@
         <v>2.75200009346008</v>
       </c>
       <c r="G1688" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="H1688" t="s">
         <v>9</v>
@@ -49137,7 +49137,7 @@
         <v>2.72000002861023</v>
       </c>
       <c r="G1689" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="H1689" t="s">
         <v>9</v>
@@ -49163,7 +49163,7 @@
         <v>2.73900008201599</v>
       </c>
       <c r="G1690" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="H1690" t="s">
         <v>9</v>
@@ -49189,7 +49189,7 @@
         <v>2.72000002861023</v>
       </c>
       <c r="G1691" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="H1691" t="s">
         <v>9</v>
@@ -49215,7 +49215,7 @@
         <v>2.71799993515015</v>
       </c>
       <c r="G1692" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="H1692" t="s">
         <v>9</v>
@@ -49241,7 +49241,7 @@
         <v>2.67799997329712</v>
       </c>
       <c r="G1693" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="H1693" t="s">
         <v>9</v>
@@ -49267,7 +49267,7 @@
         <v>2.59599995613098</v>
       </c>
       <c r="G1694" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="H1694" t="s">
         <v>9</v>
@@ -49293,7 +49293,7 @@
         <v>2.66000008583069</v>
       </c>
       <c r="G1695" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="H1695" t="s">
         <v>9</v>
@@ -49319,7 +49319,7 @@
         <v>2.5</v>
       </c>
       <c r="G1696" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="H1696" t="s">
         <v>9</v>
@@ -49345,7 +49345,7 @@
         <v>2.50099992752075</v>
       </c>
       <c r="G1697" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="H1697" t="s">
         <v>9</v>
@@ -49371,7 +49371,7 @@
         <v>2.53600001335144</v>
       </c>
       <c r="G1698" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="H1698" t="s">
         <v>9</v>
@@ -49397,7 +49397,7 @@
         <v>2.47000002861023</v>
       </c>
       <c r="G1699" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="H1699" t="s">
         <v>9</v>
@@ -49423,7 +49423,7 @@
         <v>2.34299993515015</v>
       </c>
       <c r="G1700" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="H1700" t="s">
         <v>9</v>
@@ -49449,7 +49449,7 @@
         <v>2.40599989891052</v>
       </c>
       <c r="G1701" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="H1701" t="s">
         <v>9</v>
@@ -49475,7 +49475,7 @@
         <v>2.39199995994568</v>
       </c>
       <c r="G1702" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="H1702" t="s">
         <v>9</v>
@@ -49501,7 +49501,7 @@
         <v>2.48799991607666</v>
       </c>
       <c r="G1703" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="H1703" t="s">
         <v>9</v>
@@ -49527,7 +49527,7 @@
         <v>2.55399990081787</v>
       </c>
       <c r="G1704" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="H1704" t="s">
         <v>9</v>
@@ -49553,7 +49553,7 @@
         <v>2.52099990844727</v>
       </c>
       <c r="G1705" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="H1705" t="s">
         <v>9</v>
@@ -49579,7 +49579,7 @@
         <v>2.4300000667572</v>
       </c>
       <c r="G1706" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="H1706" t="s">
         <v>9</v>
@@ -49605,7 +49605,7 @@
         <v>2.42700004577637</v>
       </c>
       <c r="G1707" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="H1707" t="s">
         <v>9</v>
@@ -49631,7 +49631,7 @@
         <v>2.39599990844727</v>
       </c>
       <c r="G1708" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="H1708" t="s">
         <v>9</v>
@@ -49657,7 +49657,7 @@
         <v>2.38100004196167</v>
       </c>
       <c r="G1709" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="H1709" t="s">
         <v>9</v>
@@ -49683,7 +49683,7 @@
         <v>2.34899997711182</v>
       </c>
       <c r="G1710" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="H1710" t="s">
         <v>9</v>
@@ -49709,7 +49709,7 @@
         <v>2.34400010108948</v>
       </c>
       <c r="G1711" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="H1711" t="s">
         <v>9</v>
@@ -49735,7 +49735,7 @@
         <v>2.30900001525879</v>
       </c>
       <c r="G1712" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="H1712" t="s">
         <v>9</v>
@@ -49761,7 +49761,7 @@
         <v>2.23600006103516</v>
       </c>
       <c r="G1713" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="H1713" t="s">
         <v>9</v>
@@ -49787,7 +49787,7 @@
         <v>2.24300003051758</v>
       </c>
       <c r="G1714" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="H1714" t="s">
         <v>9</v>
@@ -49813,7 +49813,7 @@
         <v>2.12400007247925</v>
       </c>
       <c r="G1715" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="H1715" t="s">
         <v>9</v>
@@ -49839,7 +49839,7 @@
         <v>2.17700004577637</v>
       </c>
       <c r="G1716" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="H1716" t="s">
         <v>9</v>
@@ -49865,7 +49865,7 @@
         <v>2.16599988937378</v>
       </c>
       <c r="G1717" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="H1717" t="s">
         <v>9</v>
@@ -49891,7 +49891,7 @@
         <v>2.18600010871887</v>
       </c>
       <c r="G1718" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="H1718" t="s">
         <v>9</v>
@@ -49917,7 +49917,7 @@
         <v>2.19799995422363</v>
       </c>
       <c r="G1719" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="H1719" t="s">
         <v>9</v>
@@ -49943,7 +49943,7 @@
         <v>2.26300001144409</v>
       </c>
       <c r="G1720" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="H1720" t="s">
         <v>9</v>
@@ -49969,7 +49969,7 @@
         <v>2.14800000190735</v>
       </c>
       <c r="G1721" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="H1721" t="s">
         <v>9</v>
@@ -49995,7 +49995,7 @@
         <v>2.07999992370605</v>
       </c>
       <c r="G1722" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="H1722" t="s">
         <v>9</v>
@@ -50021,7 +50021,7 @@
         <v>2.06399989128113</v>
       </c>
       <c r="G1723" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="H1723" t="s">
         <v>9</v>
@@ -50047,7 +50047,7 @@
         <v>2.11400008201599</v>
       </c>
       <c r="G1724" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="H1724" t="s">
         <v>9</v>
@@ -50073,7 +50073,7 @@
         <v>2.03999996185303</v>
       </c>
       <c r="G1725" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="H1725" t="s">
         <v>9</v>
@@ -50099,7 +50099,7 @@
         <v>2.00399994850159</v>
       </c>
       <c r="G1726" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="H1726" t="s">
         <v>9</v>
@@ -50125,7 +50125,7 @@
         <v>2.03500008583069</v>
       </c>
       <c r="G1727" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="H1727" t="s">
         <v>9</v>
@@ -50151,7 +50151,7 @@
         <v>2.06900000572205</v>
       </c>
       <c r="G1728" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="H1728" t="s">
         <v>9</v>
@@ -50177,7 +50177,7 @@
         <v>2.12299990653992</v>
       </c>
       <c r="G1729" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="H1729" t="s">
         <v>9</v>
@@ -50203,7 +50203,7 @@
         <v>2.12800002098083</v>
       </c>
       <c r="G1730" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="H1730" t="s">
         <v>9</v>
@@ -50229,7 +50229,7 @@
         <v>2.10599994659424</v>
       </c>
       <c r="G1731" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="H1731" t="s">
         <v>9</v>
@@ -50255,7 +50255,7 @@
         <v>2.11999988555908</v>
       </c>
       <c r="G1732" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="H1732" t="s">
         <v>9</v>
@@ -50281,7 +50281,7 @@
         <v>2.09299993515015</v>
       </c>
       <c r="G1733" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="H1733" t="s">
         <v>9</v>
@@ -50307,7 +50307,7 @@
         <v>2.16199994087219</v>
       </c>
       <c r="G1734" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="H1734" t="s">
         <v>9</v>
@@ -50333,7 +50333,7 @@
         <v>2.2590000629425</v>
       </c>
       <c r="G1735" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="H1735" t="s">
         <v>9</v>
@@ -50359,7 +50359,7 @@
         <v>2.27999997138977</v>
       </c>
       <c r="G1736" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="H1736" t="s">
         <v>9</v>
@@ -50385,7 +50385,7 @@
         <v>2.39599990844727</v>
       </c>
       <c r="G1737" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="H1737" t="s">
         <v>9</v>
@@ -50411,7 +50411,7 @@
         <v>2.40300011634827</v>
       </c>
       <c r="G1738" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="H1738" t="s">
         <v>9</v>
@@ -50437,7 +50437,7 @@
         <v>2.41199994087219</v>
       </c>
       <c r="G1739" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="H1739" t="s">
         <v>9</v>
@@ -50463,7 +50463,7 @@
         <v>2.42400002479553</v>
       </c>
       <c r="G1740" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="H1740" t="s">
         <v>9</v>
@@ -50489,7 +50489,7 @@
         <v>2.42199993133545</v>
       </c>
       <c r="G1741" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="H1741" t="s">
         <v>9</v>
@@ -50515,7 +50515,7 @@
         <v>2.41000008583069</v>
       </c>
       <c r="G1742" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="H1742" t="s">
         <v>9</v>
@@ -50541,7 +50541,7 @@
         <v>2.46199989318848</v>
       </c>
       <c r="G1743" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="H1743" t="s">
         <v>9</v>
@@ -50567,7 +50567,7 @@
         <v>2.4760000705719</v>
       </c>
       <c r="G1744" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="H1744" t="s">
         <v>9</v>
@@ -50593,7 +50593,7 @@
         <v>2.5239999294281</v>
       </c>
       <c r="G1745" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="H1745" t="s">
         <v>9</v>
@@ -50619,7 +50619,7 @@
         <v>2.57699990272522</v>
       </c>
       <c r="G1746" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="H1746" t="s">
         <v>9</v>
@@ -50645,7 +50645,7 @@
         <v>2.60899996757507</v>
       </c>
       <c r="G1747" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="H1747" t="s">
         <v>9</v>
@@ -50671,7 +50671,7 @@
         <v>2.60899996757507</v>
       </c>
       <c r="G1748" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="H1748" t="s">
         <v>9</v>
@@ -50697,7 +50697,7 @@
         <v>2.57800006866455</v>
       </c>
       <c r="G1749" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="H1749" t="s">
         <v>9</v>
@@ -50723,7 +50723,7 @@
         <v>2.59899997711182</v>
       </c>
       <c r="G1750" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="H1750" t="s">
         <v>9</v>
@@ -50749,7 +50749,7 @@
         <v>2.63899993896484</v>
       </c>
       <c r="G1751" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="H1751" t="s">
         <v>9</v>
@@ -50775,7 +50775,7 @@
         <v>2.61999988555908</v>
       </c>
       <c r="G1752" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="H1752" t="s">
         <v>9</v>
@@ -50801,7 +50801,7 @@
         <v>2.64100003242493</v>
       </c>
       <c r="G1753" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="H1753" t="s">
         <v>9</v>
@@ -50827,7 +50827,7 @@
         <v>2.63199996948242</v>
       </c>
       <c r="G1754" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="H1754" t="s">
         <v>9</v>
@@ -50853,7 +50853,7 @@
         <v>2.63100004196167</v>
       </c>
       <c r="G1755" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="H1755" t="s">
         <v>9</v>
@@ -50879,7 +50879,7 @@
         <v>2.60700011253357</v>
       </c>
       <c r="G1756" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="H1756" t="s">
         <v>9</v>
@@ -50905,7 +50905,7 @@
         <v>2.65100002288818</v>
       </c>
       <c r="G1757" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="H1757" t="s">
         <v>9</v>
@@ -50931,7 +50931,7 @@
         <v>2.65700006484985</v>
       </c>
       <c r="G1758" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="H1758" t="s">
         <v>9</v>
@@ -50957,7 +50957,7 @@
         <v>2.63599991798401</v>
       </c>
       <c r="G1759" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="H1759" t="s">
         <v>9</v>
@@ -50983,7 +50983,7 @@
         <v>2.6489999294281</v>
       </c>
       <c r="G1760" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="H1760" t="s">
         <v>9</v>
@@ -51009,7 +51009,7 @@
         <v>2.63899993896484</v>
       </c>
       <c r="G1761" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="H1761" t="s">
         <v>9</v>
@@ -51035,7 +51035,7 @@
         <v>2.66100001335144</v>
       </c>
       <c r="G1762" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="H1762" t="s">
         <v>9</v>
@@ -51061,7 +51061,7 @@
         <v>2.68099999427795</v>
       </c>
       <c r="G1763" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="H1763" t="s">
         <v>9</v>
@@ -51087,7 +51087,7 @@
         <v>2.69000005722046</v>
       </c>
       <c r="G1764" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
       <c r="H1764" t="s">
         <v>9</v>
@@ -51113,7 +51113,7 @@
         <v>2.68600010871887</v>
       </c>
       <c r="G1765" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="H1765" t="s">
         <v>9</v>
@@ -51139,7 +51139,7 @@
         <v>2.75</v>
       </c>
       <c r="G1766" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="H1766" t="s">
         <v>9</v>
@@ -51165,7 +51165,7 @@
         <v>2.80399990081787</v>
       </c>
       <c r="G1767" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="H1767" t="s">
         <v>9</v>
@@ -51191,7 +51191,7 @@
         <v>2.82999992370605</v>
       </c>
       <c r="G1768" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="H1768" t="s">
         <v>9</v>
@@ -51217,7 +51217,7 @@
         <v>2.77800011634827</v>
       </c>
       <c r="G1769" t="s">
-        <v>1208</v>
+        <v>574</v>
       </c>
       <c r="H1769" t="s">
         <v>9</v>
@@ -51243,7 +51243,7 @@
         <v>2.76500010490417</v>
       </c>
       <c r="G1770" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
       <c r="H1770" t="s">
         <v>9</v>
@@ -51269,7 +51269,7 @@
         <v>2.75</v>
       </c>
       <c r="G1771" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="H1771" t="s">
         <v>9</v>
@@ -51295,7 +51295,7 @@
         <v>2.61199998855591</v>
       </c>
       <c r="G1772" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="H1772" t="s">
         <v>9</v>
@@ -51321,7 +51321,7 @@
         <v>2.55100011825562</v>
       </c>
       <c r="G1773" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="H1773" t="s">
         <v>9</v>
@@ -51347,7 +51347,7 @@
         <v>2.56900000572205</v>
       </c>
       <c r="G1774" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="H1774" t="s">
         <v>9</v>
@@ -51373,7 +51373,7 @@
         <v>2.5239999294281</v>
       </c>
       <c r="G1775" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="H1775" t="s">
         <v>9</v>
@@ -51399,7 +51399,7 @@
         <v>2.55699992179871</v>
       </c>
       <c r="G1776" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="H1776" t="s">
         <v>9</v>
@@ -51425,7 +51425,7 @@
         <v>2.53399991989136</v>
       </c>
       <c r="G1777" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="H1777" t="s">
         <v>9</v>
@@ -51451,7 +51451,7 @@
         <v>2.55200004577637</v>
       </c>
       <c r="G1778" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="H1778" t="s">
         <v>9</v>
@@ -51477,7 +51477,7 @@
         <v>2.54900002479553</v>
       </c>
       <c r="G1779" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="H1779" t="s">
         <v>9</v>
@@ -51503,7 +51503,7 @@
         <v>2.49000000953674</v>
       </c>
       <c r="G1780" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="H1780" t="s">
         <v>9</v>
@@ -51529,7 +51529,7 @@
         <v>2.5460000038147</v>
       </c>
       <c r="G1781" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="H1781" t="s">
         <v>9</v>
@@ -51555,7 +51555,7 @@
         <v>2.51900005340576</v>
       </c>
       <c r="G1782" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="H1782" t="s">
         <v>9</v>
@@ -51581,7 +51581,7 @@
         <v>2.58599996566772</v>
       </c>
       <c r="G1783" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="H1783" t="s">
         <v>9</v>
@@ -51607,7 +51607,7 @@
         <v>2.58800005912781</v>
       </c>
       <c r="G1784" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="H1784" t="s">
         <v>9</v>
@@ -51633,7 +51633,7 @@
         <v>2.68799996376038</v>
       </c>
       <c r="G1785" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="H1785" t="s">
         <v>9</v>
@@ -51659,7 +51659,7 @@
         <v>2.59599995613098</v>
       </c>
       <c r="G1786" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="H1786" t="s">
         <v>9</v>
@@ -51685,7 +51685,7 @@
         <v>2.63199996948242</v>
       </c>
       <c r="G1787" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="H1787" t="s">
         <v>9</v>
@@ -51711,7 +51711,7 @@
         <v>2.64000010490417</v>
       </c>
       <c r="G1788" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
       <c r="H1788" t="s">
         <v>9</v>
@@ -51737,7 +51737,7 @@
         <v>2.62599992752075</v>
       </c>
       <c r="G1789" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="H1789" t="s">
         <v>9</v>
@@ -51763,7 +51763,7 @@
         <v>2.76999998092651</v>
       </c>
       <c r="G1790" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
       <c r="H1790" t="s">
         <v>9</v>
@@ -51789,7 +51789,7 @@
         <v>2.77999997138977</v>
       </c>
       <c r="G1791" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="H1791" t="s">
         <v>9</v>
@@ -51815,7 +51815,7 @@
         <v>2.77099990844727</v>
       </c>
       <c r="G1792" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
       <c r="H1792" t="s">
         <v>9</v>
@@ -51841,7 +51841,7 @@
         <v>2.74000000953674</v>
       </c>
       <c r="G1793" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="H1793" t="s">
         <v>9</v>
@@ -51867,7 +51867,7 @@
         <v>2.74600005149841</v>
       </c>
       <c r="G1794" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
       <c r="H1794" t="s">
         <v>9</v>
@@ -51893,7 +51893,7 @@
         <v>2.72099995613098</v>
       </c>
       <c r="G1795" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
       <c r="H1795" t="s">
         <v>9</v>
@@ -51919,7 +51919,7 @@
         <v>2.67799997329712</v>
       </c>
       <c r="G1796" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="H1796" t="s">
         <v>9</v>
@@ -51945,7 +51945,7 @@
         <v>2.65400004386902</v>
       </c>
       <c r="G1797" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="H1797" t="s">
         <v>9</v>
@@ -51997,7 +51997,7 @@
         <v>2.70000004768372</v>
       </c>
       <c r="G1799" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="H1799" t="s">
         <v>9</v>
@@ -52023,7 +52023,7 @@
         <v>2.72900009155273</v>
       </c>
       <c r="G1800" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="H1800" t="s">
         <v>9</v>
@@ -52049,7 +52049,7 @@
         <v>2.71499991416931</v>
       </c>
       <c r="G1801" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
       <c r="H1801" t="s">
         <v>9</v>
@@ -52075,7 +52075,7 @@
         <v>2.70900011062622</v>
       </c>
       <c r="G1802" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
       <c r="H1802" t="s">
         <v>9</v>
@@ -52101,7 +52101,7 @@
         <v>2.65300011634827</v>
       </c>
       <c r="G1803" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
       <c r="H1803" t="s">
         <v>9</v>
@@ -52127,7 +52127,7 @@
         <v>2.63100004196167</v>
       </c>
       <c r="G1804" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="H1804" t="s">
         <v>9</v>
@@ -52153,7 +52153,7 @@
         <v>2.64599990844727</v>
       </c>
       <c r="G1805" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
       <c r="H1805" t="s">
         <v>9</v>
@@ -52179,7 +52179,7 @@
         <v>2.7260000705719</v>
       </c>
       <c r="G1806" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="H1806" t="s">
         <v>9</v>
@@ -52205,7 +52205,7 @@
         <v>2.65000009536743</v>
       </c>
       <c r="G1807" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
       <c r="H1807" t="s">
         <v>9</v>
@@ -52231,7 +52231,7 @@
         <v>2.67799997329712</v>
       </c>
       <c r="G1808" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="H1808" t="s">
         <v>9</v>
@@ -52257,7 +52257,7 @@
         <v>2.72499990463257</v>
       </c>
       <c r="G1809" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="H1809" t="s">
         <v>9</v>
@@ -52283,7 +52283,7 @@
         <v>2.71799993515015</v>
       </c>
       <c r="G1810" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="H1810" t="s">
         <v>9</v>
@@ -52309,7 +52309,7 @@
         <v>2.6800000667572</v>
       </c>
       <c r="G1811" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="H1811" t="s">
         <v>9</v>
@@ -52335,7 +52335,7 @@
         <v>2.61800003051758</v>
       </c>
       <c r="G1812" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="H1812" t="s">
         <v>9</v>
@@ -52361,7 +52361,7 @@
         <v>2.58699989318848</v>
       </c>
       <c r="G1813" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="H1813" t="s">
         <v>9</v>
@@ -52387,7 +52387,7 @@
         <v>2.58800005912781</v>
       </c>
       <c r="G1814" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="H1814" t="s">
         <v>9</v>
@@ -52413,7 +52413,7 @@
         <v>2.59500002861023</v>
       </c>
       <c r="G1815" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="H1815" t="s">
         <v>9</v>
@@ -52439,7 +52439,7 @@
         <v>2.59999990463257</v>
       </c>
       <c r="G1816" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="H1816" t="s">
         <v>9</v>
@@ -52465,7 +52465,7 @@
         <v>2.61199998855591</v>
       </c>
       <c r="G1817" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="H1817" t="s">
         <v>9</v>
@@ -52491,7 +52491,7 @@
         <v>2.59400010108948</v>
       </c>
       <c r="G1818" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="H1818" t="s">
         <v>9</v>
@@ -52517,7 +52517,7 @@
         <v>2.56200003623962</v>
       </c>
       <c r="G1819" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="H1819" t="s">
         <v>9</v>
@@ -52543,7 +52543,7 @@
         <v>2.52600002288818</v>
       </c>
       <c r="G1820" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="H1820" t="s">
         <v>9</v>
@@ -52569,7 +52569,7 @@
         <v>2.51699995994568</v>
       </c>
       <c r="G1821" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="H1821" t="s">
         <v>9</v>
@@ -52595,7 +52595,7 @@
         <v>2.51200008392334</v>
       </c>
       <c r="G1822" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="H1822" t="s">
         <v>9</v>
@@ -52621,7 +52621,7 @@
         <v>2.55699992179871</v>
       </c>
       <c r="G1823" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="H1823" t="s">
         <v>9</v>
@@ -52647,7 +52647,7 @@
         <v>2.52300000190735</v>
       </c>
       <c r="G1824" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="H1824" t="s">
         <v>9</v>
@@ -52673,7 +52673,7 @@
         <v>2.45900011062622</v>
       </c>
       <c r="G1825" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="H1825" t="s">
         <v>9</v>
@@ -52699,7 +52699,7 @@
         <v>2.48099994659424</v>
       </c>
       <c r="G1826" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="H1826" t="s">
         <v>9</v>
@@ -52725,7 +52725,7 @@
         <v>2.52099990844727</v>
       </c>
       <c r="G1827" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="H1827" t="s">
         <v>9</v>
@@ -52751,7 +52751,7 @@
         <v>2.51600003242493</v>
       </c>
       <c r="G1828" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="H1828" t="s">
         <v>9</v>
@@ -52777,7 +52777,7 @@
         <v>2.49000000953674</v>
       </c>
       <c r="G1829" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="H1829" t="s">
         <v>9</v>
@@ -52803,7 +52803,7 @@
         <v>2.46600008010864</v>
       </c>
       <c r="G1830" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
       <c r="H1830" t="s">
         <v>9</v>
@@ -52829,7 +52829,7 @@
         <v>2.43099999427795</v>
       </c>
       <c r="G1831" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
       <c r="H1831" t="s">
         <v>9</v>
@@ -52855,7 +52855,7 @@
         <v>2.38800001144409</v>
       </c>
       <c r="G1832" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
       <c r="H1832" t="s">
         <v>9</v>
@@ -52881,7 +52881,7 @@
         <v>2.38299989700317</v>
       </c>
       <c r="G1833" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
       <c r="H1833" t="s">
         <v>9</v>
@@ -52907,7 +52907,7 @@
         <v>2.41599988937378</v>
       </c>
       <c r="G1834" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
       <c r="H1834" t="s">
         <v>9</v>
@@ -52933,7 +52933,7 @@
         <v>2.40499997138977</v>
       </c>
       <c r="G1835" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="H1835" t="s">
         <v>9</v>
@@ -52959,7 +52959,7 @@
         <v>2.42700004577637</v>
       </c>
       <c r="G1836" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="H1836" t="s">
         <v>9</v>
@@ -52985,7 +52985,7 @@
         <v>2.39299988746643</v>
       </c>
       <c r="G1837" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="H1837" t="s">
         <v>9</v>
@@ -53011,7 +53011,7 @@
         <v>2.47399997711182</v>
       </c>
       <c r="G1838" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="H1838" t="s">
         <v>9</v>
@@ -53037,7 +53037,7 @@
         <v>2.49399995803833</v>
       </c>
       <c r="G1839" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="H1839" t="s">
         <v>9</v>
@@ -53063,7 +53063,7 @@
         <v>2.51099991798401</v>
       </c>
       <c r="G1840" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="H1840" t="s">
         <v>9</v>
@@ -53089,7 +53089,7 @@
         <v>2.52300000190735</v>
       </c>
       <c r="G1841" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="H1841" t="s">
         <v>9</v>
@@ -53115,7 +53115,7 @@
         <v>2.4909999370575</v>
       </c>
       <c r="G1842" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="H1842" t="s">
         <v>9</v>
@@ -53141,7 +53141,7 @@
         <v>2.52099990844727</v>
       </c>
       <c r="G1843" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="H1843" t="s">
         <v>9</v>
@@ -53167,7 +53167,7 @@
         <v>2.50300002098083</v>
       </c>
       <c r="G1844" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
       <c r="H1844" t="s">
         <v>9</v>
@@ -53193,7 +53193,7 @@
         <v>2.53500008583069</v>
       </c>
       <c r="G1845" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
       <c r="H1845" t="s">
         <v>9</v>
@@ -53219,7 +53219,7 @@
         <v>2.58599996566772</v>
       </c>
       <c r="G1846" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="H1846" t="s">
         <v>9</v>
@@ -53245,7 +53245,7 @@
         <v>2.60199999809265</v>
       </c>
       <c r="G1847" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
       <c r="H1847" t="s">
         <v>9</v>
@@ -53271,7 +53271,7 @@
         <v>2.59800004959106</v>
       </c>
       <c r="G1848" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
       <c r="H1848" t="s">
         <v>9</v>
@@ -53297,7 +53297,7 @@
         <v>2.59400010108948</v>
       </c>
       <c r="G1849" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="H1849" t="s">
         <v>9</v>
@@ -53323,7 +53323,7 @@
         <v>2.65000009536743</v>
       </c>
       <c r="G1850" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
       <c r="H1850" t="s">
         <v>9</v>
@@ -53349,7 +53349,7 @@
         <v>2.71600008010864</v>
       </c>
       <c r="G1851" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="H1851" t="s">
         <v>9</v>
@@ -53375,7 +53375,7 @@
         <v>2.7260000705719</v>
       </c>
       <c r="G1852" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="H1852" t="s">
         <v>9</v>
@@ -53401,7 +53401,7 @@
         <v>2.73799991607666</v>
       </c>
       <c r="G1853" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
       <c r="H1853" t="s">
         <v>9</v>
@@ -53427,7 +53427,7 @@
         <v>2.69799995422363</v>
       </c>
       <c r="G1854" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="H1854" t="s">
         <v>9</v>
@@ -53453,7 +53453,7 @@
         <v>2.62199997901917</v>
       </c>
       <c r="G1855" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
       <c r="H1855" t="s">
         <v>9</v>
@@ -53479,7 +53479,7 @@
         <v>2.65000009536743</v>
       </c>
       <c r="G1856" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
       <c r="H1856" t="s">
         <v>9</v>
@@ -53531,7 +53531,7 @@
         <v>2.71600008010864</v>
       </c>
       <c r="G1858" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="H1858" t="s">
         <v>9</v>
@@ -53557,7 +53557,7 @@
         <v>2.68799996376038</v>
       </c>
       <c r="G1859" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="H1859" t="s">
         <v>9</v>
@@ -53583,7 +53583,7 @@
         <v>2.70799994468689</v>
       </c>
       <c r="G1860" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
       <c r="H1860" t="s">
         <v>9</v>
@@ -53609,7 +53609,7 @@
         <v>2.69000005722046</v>
       </c>
       <c r="G1861" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
       <c r="H1861" t="s">
         <v>9</v>
@@ -53635,7 +53635,7 @@
         <v>2.67799997329712</v>
       </c>
       <c r="G1862" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="H1862" t="s">
         <v>9</v>
@@ -53661,7 +53661,7 @@
         <v>2.70199990272522</v>
       </c>
       <c r="G1863" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
       <c r="H1863" t="s">
         <v>9</v>
@@ -53687,7 +53687,7 @@
         <v>2.79200005531311</v>
       </c>
       <c r="G1864" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
       <c r="H1864" t="s">
         <v>9</v>
@@ -53713,7 +53713,7 @@
         <v>2.82399988174438</v>
       </c>
       <c r="G1865" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
       <c r="H1865" t="s">
         <v>9</v>
@@ -53739,7 +53739,7 @@
         <v>2.7260000705719</v>
       </c>
       <c r="G1866" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="H1866" t="s">
         <v>9</v>
@@ -53765,7 +53765,7 @@
         <v>2.76399993896484</v>
       </c>
       <c r="G1867" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
       <c r="H1867" t="s">
         <v>9</v>
@@ -53817,7 +53817,7 @@
         <v>2.82200002670288</v>
       </c>
       <c r="G1869" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
       <c r="H1869" t="s">
         <v>9</v>
@@ -53843,7 +53843,7 @@
         <v>2.86199998855591</v>
       </c>
       <c r="G1870" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
       <c r="H1870" t="s">
         <v>9</v>
@@ -53869,7 +53869,7 @@
         <v>2.85199999809265</v>
       </c>
       <c r="G1871" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="H1871" t="s">
         <v>9</v>
@@ -53895,7 +53895,7 @@
         <v>2.87199997901917</v>
       </c>
       <c r="G1872" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
       <c r="H1872" t="s">
         <v>9</v>
@@ -53921,7 +53921,7 @@
         <v>2.96600008010864</v>
       </c>
       <c r="G1873" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="H1873" t="s">
         <v>9</v>
@@ -53947,7 +53947,7 @@
         <v>2.99600005149841</v>
       </c>
       <c r="G1874" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
       <c r="H1874" t="s">
         <v>9</v>
@@ -53973,7 +53973,7 @@
         <v>3.02600002288818</v>
       </c>
       <c r="G1875" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="H1875" t="s">
         <v>9</v>
@@ -53999,7 +53999,7 @@
         <v>3.02800011634827</v>
       </c>
       <c r="G1876" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="H1876" t="s">
         <v>9</v>
@@ -54025,7 +54025,7 @@
         <v>2.98200011253357</v>
       </c>
       <c r="G1877" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
       <c r="H1877" t="s">
         <v>9</v>
@@ -54051,7 +54051,7 @@
         <v>2.86800003051758</v>
       </c>
       <c r="G1878" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="H1878" t="s">
         <v>9</v>
@@ -54077,7 +54077,7 @@
         <v>2.95600008964539</v>
       </c>
       <c r="G1879" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="H1879" t="s">
         <v>9</v>
@@ -54103,7 +54103,7 @@
         <v>2.9760000705719</v>
       </c>
       <c r="G1880" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="H1880" t="s">
         <v>9</v>
@@ -54129,7 +54129,7 @@
         <v>2.96399998664856</v>
       </c>
       <c r="G1881" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="H1881" t="s">
         <v>9</v>
@@ -54155,7 +54155,7 @@
         <v>2.88199996948242</v>
       </c>
       <c r="G1882" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="H1882" t="s">
         <v>9</v>
@@ -54181,7 +54181,7 @@
         <v>2.85800004005432</v>
       </c>
       <c r="G1883" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
       <c r="H1883" t="s">
         <v>9</v>
@@ -54207,7 +54207,7 @@
         <v>2.91599988937378</v>
       </c>
       <c r="G1884" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="H1884" t="s">
         <v>9</v>
@@ -54233,7 +54233,7 @@
         <v>2.91799998283386</v>
       </c>
       <c r="G1885" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
       <c r="H1885" t="s">
         <v>9</v>
@@ -54259,7 +54259,7 @@
         <v>2.95000004768372</v>
       </c>
       <c r="G1886" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="H1886" t="s">
         <v>9</v>
@@ -54285,7 +54285,7 @@
         <v>2.92400002479553</v>
       </c>
       <c r="G1887" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="H1887" t="s">
         <v>9</v>
@@ -54311,7 +54311,7 @@
         <v>2.92799997329712</v>
       </c>
       <c r="G1888" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
       <c r="H1888" t="s">
         <v>9</v>
@@ -54337,7 +54337,7 @@
         <v>2.95600008964539</v>
       </c>
       <c r="G1889" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="H1889" t="s">
         <v>9</v>
@@ -54363,7 +54363,7 @@
         <v>2.86999988555908</v>
       </c>
       <c r="G1890" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="H1890" t="s">
         <v>9</v>
@@ -54389,7 +54389,7 @@
         <v>2.90799999237061</v>
       </c>
       <c r="G1891" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="H1891" t="s">
         <v>9</v>
@@ -54415,7 +54415,7 @@
         <v>2.87599992752075</v>
       </c>
       <c r="G1892" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="H1892" t="s">
         <v>9</v>
@@ -54441,7 +54441,7 @@
         <v>2.88599991798401</v>
       </c>
       <c r="G1893" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="H1893" t="s">
         <v>9</v>
@@ -54467,7 +54467,7 @@
         <v>2.88599991798401</v>
       </c>
       <c r="G1894" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="H1894" t="s">
         <v>9</v>
@@ -54493,7 +54493,7 @@
         <v>2.89800000190735</v>
       </c>
       <c r="G1895" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="H1895" t="s">
         <v>9</v>
@@ -54519,7 +54519,7 @@
         <v>2.88199996948242</v>
       </c>
       <c r="G1896" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="H1896" t="s">
         <v>9</v>
@@ -54545,7 +54545,7 @@
         <v>2.8840000629425</v>
       </c>
       <c r="G1897" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
       <c r="H1897" t="s">
         <v>9</v>
@@ -54571,7 +54571,7 @@
         <v>2.85999989509583</v>
       </c>
       <c r="G1898" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
       <c r="H1898" t="s">
         <v>9</v>
@@ -54597,7 +54597,7 @@
         <v>2.90400004386902</v>
       </c>
       <c r="G1899" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
       <c r="H1899" t="s">
         <v>9</v>
@@ -54623,7 +54623,7 @@
         <v>2.72399997711182</v>
       </c>
       <c r="G1900" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
       <c r="H1900" t="s">
         <v>9</v>
@@ -54649,7 +54649,7 @@
         <v>2.73600006103516</v>
       </c>
       <c r="G1901" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="H1901" t="s">
         <v>9</v>
@@ -54675,7 +54675,7 @@
         <v>2.74399995803833</v>
       </c>
       <c r="G1902" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="H1902" t="s">
         <v>9</v>
@@ -54701,7 +54701,7 @@
         <v>2.71399998664856</v>
       </c>
       <c r="G1903" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="H1903" t="s">
         <v>9</v>
@@ -54727,7 +54727,7 @@
         <v>2.73200011253357</v>
       </c>
       <c r="G1904" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="H1904" t="s">
         <v>9</v>
@@ -54753,7 +54753,7 @@
         <v>2.71399998664856</v>
       </c>
       <c r="G1905" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="H1905" t="s">
         <v>9</v>
@@ -54779,7 +54779,7 @@
         <v>2.73000001907349</v>
       </c>
       <c r="G1906" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="H1906" t="s">
         <v>9</v>
@@ -54805,7 +54805,7 @@
         <v>2.73799991607666</v>
       </c>
       <c r="G1907" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="H1907" t="s">
         <v>9</v>
@@ -54831,7 +54831,7 @@
         <v>2.71399998664856</v>
       </c>
       <c r="G1908" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="H1908" t="s">
         <v>9</v>
@@ -54857,7 +54857,7 @@
         <v>2.72199988365173</v>
       </c>
       <c r="G1909" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="H1909" t="s">
         <v>9</v>
@@ -54883,7 +54883,7 @@
         <v>2.74200010299683</v>
       </c>
       <c r="G1910" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="H1910" t="s">
         <v>9</v>
@@ -54909,7 +54909,7 @@
         <v>2.73000001907349</v>
       </c>
       <c r="G1911" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="H1911" t="s">
         <v>9</v>
@@ -54935,7 +54935,7 @@
         <v>2.66599988937378</v>
       </c>
       <c r="G1912" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="H1912" t="s">
         <v>9</v>
@@ -54961,7 +54961,7 @@
         <v>2.60999989509583</v>
       </c>
       <c r="G1913" t="s">
-        <v>1414</v>
+        <v>1413</v>
       </c>
       <c r="H1913" t="s">
         <v>9</v>
@@ -54987,7 +54987,7 @@
         <v>2.60599994659424</v>
       </c>
       <c r="G1914" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="H1914" t="s">
         <v>9</v>
@@ -55013,7 +55013,7 @@
         <v>2.61800003051758</v>
       </c>
       <c r="G1915" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
       <c r="H1915" t="s">
         <v>9</v>
@@ -55039,7 +55039,7 @@
         <v>2.64800000190735</v>
       </c>
       <c r="G1916" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="H1916" t="s">
         <v>9</v>
@@ -55065,7 +55065,7 @@
         <v>2.67600011825562</v>
       </c>
       <c r="G1917" t="s">
-        <v>1418</v>
+        <v>1417</v>
       </c>
       <c r="H1917" t="s">
         <v>9</v>
@@ -55091,7 +55091,7 @@
         <v>2.70799994468689</v>
       </c>
       <c r="G1918" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="H1918" t="s">
         <v>9</v>
@@ -55117,7 +55117,7 @@
         <v>2.7039999961853</v>
       </c>
       <c r="G1919" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
       <c r="H1919" t="s">
         <v>9</v>
@@ -55143,7 +55143,7 @@
         <v>2.70600008964539</v>
       </c>
       <c r="G1920" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="H1920" t="s">
         <v>9</v>
@@ -55169,7 +55169,7 @@
         <v>2.71000003814697</v>
       </c>
       <c r="G1921" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
       <c r="H1921" t="s">
         <v>9</v>
@@ -55195,7 +55195,7 @@
         <v>2.73399996757507</v>
       </c>
       <c r="G1922" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
       <c r="H1922" t="s">
         <v>9</v>
@@ -55221,7 +55221,7 @@
         <v>2.75</v>
       </c>
       <c r="G1923" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="H1923" t="s">
         <v>9</v>
@@ -55247,7 +55247,7 @@
         <v>2.74600005149841</v>
       </c>
       <c r="G1924" t="s">
-        <v>1425</v>
+        <v>1424</v>
       </c>
       <c r="H1924" t="s">
         <v>9</v>
@@ -55273,7 +55273,7 @@
         <v>2.79800009727478</v>
       </c>
       <c r="G1925" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
       <c r="H1925" t="s">
         <v>9</v>
@@ -55299,7 +55299,7 @@
         <v>2.7720000743866</v>
       </c>
       <c r="G1926" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
       <c r="H1926" t="s">
         <v>9</v>
@@ -55325,7 +55325,7 @@
         <v>2.80599999427795</v>
       </c>
       <c r="G1927" t="s">
-        <v>1428</v>
+        <v>1427</v>
       </c>
       <c r="H1927" t="s">
         <v>9</v>
@@ -55351,7 +55351,7 @@
         <v>2.84800004959106</v>
       </c>
       <c r="G1928" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
       <c r="H1928" t="s">
         <v>9</v>
@@ -55377,7 +55377,7 @@
         <v>2.83599996566772</v>
       </c>
       <c r="G1929" t="s">
-        <v>1430</v>
+        <v>1429</v>
       </c>
       <c r="H1929" t="s">
         <v>9</v>
@@ -55403,7 +55403,7 @@
         <v>2.82399988174438</v>
       </c>
       <c r="G1930" t="s">
-        <v>1431</v>
+        <v>1430</v>
       </c>
       <c r="H1930" t="s">
         <v>9</v>
@@ -55429,7 +55429,7 @@
         <v>2.81399989128113</v>
       </c>
       <c r="G1931" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
       <c r="H1931" t="s">
         <v>9</v>
@@ -55455,7 +55455,7 @@
         <v>2.75</v>
       </c>
       <c r="G1932" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="H1932" t="s">
         <v>9</v>
@@ -55481,7 +55481,7 @@
         <v>2.71399998664856</v>
       </c>
       <c r="G1933" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="H1933" t="s">
         <v>9</v>
@@ -55507,7 +55507,7 @@
         <v>2.65799999237061</v>
       </c>
       <c r="G1934" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
       <c r="H1934" t="s">
         <v>9</v>
@@ -55533,7 +55533,7 @@
         <v>2.59599995613098</v>
       </c>
       <c r="G1935" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="H1935" t="s">
         <v>9</v>
@@ -55559,7 +55559,7 @@
         <v>2.64599990844727</v>
       </c>
       <c r="G1936" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="H1936" t="s">
         <v>9</v>
@@ -55585,7 +55585,7 @@
         <v>2.66599988937378</v>
       </c>
       <c r="G1937" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="H1937" t="s">
         <v>9</v>
@@ -55611,7 +55611,7 @@
         <v>2.69199991226196</v>
       </c>
       <c r="G1938" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
       <c r="H1938" t="s">
         <v>9</v>
@@ -55637,7 +55637,7 @@
         <v>2.67400002479553</v>
       </c>
       <c r="G1939" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="H1939" t="s">
         <v>9</v>
@@ -55663,7 +55663,7 @@
         <v>2.67199993133545</v>
       </c>
       <c r="G1940" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
       <c r="H1940" t="s">
         <v>9</v>
@@ -55689,7 +55689,7 @@
         <v>2.62199997901917</v>
       </c>
       <c r="G1941" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
       <c r="H1941" t="s">
         <v>9</v>
@@ -55715,7 +55715,7 @@
         <v>2.57800006866455</v>
       </c>
       <c r="G1942" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
       <c r="H1942" t="s">
         <v>9</v>
@@ -55741,7 +55741,7 @@
         <v>2.60999989509583</v>
       </c>
       <c r="G1943" t="s">
-        <v>1414</v>
+        <v>1413</v>
       </c>
       <c r="H1943" t="s">
         <v>9</v>
@@ -55767,7 +55767,7 @@
         <v>2.60599994659424</v>
       </c>
       <c r="G1944" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="H1944" t="s">
         <v>9</v>
@@ -55793,7 +55793,7 @@
         <v>2.63199996948242</v>
       </c>
       <c r="G1945" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="H1945" t="s">
         <v>9</v>
@@ -55819,7 +55819,7 @@
         <v>2.70000004768372</v>
       </c>
       <c r="G1946" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
       <c r="H1946" t="s">
         <v>9</v>
@@ -55845,7 +55845,7 @@
         <v>2.7279999256134</v>
       </c>
       <c r="G1947" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="H1947" t="s">
         <v>9</v>
@@ -55871,7 +55871,7 @@
         <v>2.74799990653992</v>
       </c>
       <c r="G1948" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="H1948" t="s">
         <v>9</v>
@@ -55897,7 +55897,7 @@
         <v>2.75999999046326</v>
       </c>
       <c r="G1949" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="H1949" t="s">
         <v>9</v>
@@ -55923,7 +55923,7 @@
         <v>2.78999996185303</v>
       </c>
       <c r="G1950" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
       <c r="H1950" t="s">
         <v>9</v>
@@ -55949,7 +55949,7 @@
         <v>2.77800011634827</v>
       </c>
       <c r="G1951" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
       <c r="H1951" t="s">
         <v>9</v>
@@ -55975,7 +55975,7 @@
         <v>2.7960000038147</v>
       </c>
       <c r="G1952" t="s">
-        <v>1448</v>
+        <v>1447</v>
       </c>
       <c r="H1952" t="s">
         <v>9</v>
@@ -56001,7 +56001,7 @@
         <v>2.78600001335144</v>
       </c>
       <c r="G1953" t="s">
-        <v>1449</v>
+        <v>1448</v>
       </c>
       <c r="H1953" t="s">
         <v>9</v>
@@ -56027,7 +56027,7 @@
         <v>2.7720000743866</v>
       </c>
       <c r="G1954" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
       <c r="H1954" t="s">
         <v>9</v>
@@ -56053,7 +56053,7 @@
         <v>2.75600004196167</v>
       </c>
       <c r="G1955" t="s">
-        <v>1450</v>
+        <v>1449</v>
       </c>
       <c r="H1955" t="s">
         <v>9</v>
@@ -56079,7 +56079,7 @@
         <v>2.73200011253357</v>
       </c>
       <c r="G1956" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="H1956" t="s">
         <v>9</v>
@@ -56105,7 +56105,7 @@
         <v>2.8199999332428</v>
       </c>
       <c r="G1957" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
       <c r="H1957" t="s">
         <v>9</v>
@@ -56131,7 +56131,7 @@
         <v>2.81599998474121</v>
       </c>
       <c r="G1958" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="H1958" t="s">
         <v>9</v>
@@ -56157,7 +56157,7 @@
         <v>2.86199998855591</v>
       </c>
       <c r="G1959" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="H1959" t="s">
         <v>9</v>
@@ -56183,7 +56183,7 @@
         <v>2.85400009155273</v>
       </c>
       <c r="G1960" t="s">
-        <v>1454</v>
+        <v>1453</v>
       </c>
       <c r="H1960" t="s">
         <v>9</v>
@@ -56209,7 +56209,7 @@
         <v>2.86999988555908</v>
       </c>
       <c r="G1961" t="s">
-        <v>1455</v>
+        <v>1454</v>
       </c>
       <c r="H1961" t="s">
         <v>9</v>
@@ -56235,7 +56235,7 @@
         <v>2.93799996376038</v>
       </c>
       <c r="G1962" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
       <c r="H1962" t="s">
         <v>9</v>
@@ -56261,7 +56261,7 @@
         <v>2.92600011825562</v>
       </c>
       <c r="G1963" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="H1963" t="s">
         <v>9</v>
@@ -56287,7 +56287,7 @@
         <v>2.85800004005432</v>
       </c>
       <c r="G1964" t="s">
-        <v>1458</v>
+        <v>1457</v>
       </c>
       <c r="H1964" t="s">
         <v>9</v>
@@ -56313,7 +56313,7 @@
         <v>2.88599991798401</v>
       </c>
       <c r="G1965" t="s">
-        <v>1459</v>
+        <v>1458</v>
       </c>
       <c r="H1965" t="s">
         <v>9</v>
@@ -56339,7 +56339,7 @@
         <v>2.91400003433228</v>
       </c>
       <c r="G1966" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
       <c r="H1966" t="s">
         <v>9</v>
@@ -56365,7 +56365,7 @@
         <v>2.7739999294281</v>
       </c>
       <c r="G1967" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="H1967" t="s">
         <v>9</v>
@@ -56391,7 +56391,7 @@
         <v>2.71399998664856</v>
       </c>
       <c r="G1968" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="H1968" t="s">
         <v>9</v>
@@ -56417,7 +56417,7 @@
         <v>2.68600010871887</v>
       </c>
       <c r="G1969" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="H1969" t="s">
         <v>9</v>
@@ -56443,7 +56443,7 @@
         <v>2.68799996376038</v>
       </c>
       <c r="G1970" t="s">
-        <v>1463</v>
+        <v>1462</v>
       </c>
       <c r="H1970" t="s">
         <v>9</v>
@@ -56469,7 +56469,7 @@
         <v>2.60599994659424</v>
       </c>
       <c r="G1971" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="H1971" t="s">
         <v>9</v>
@@ -56495,7 +56495,7 @@
         <v>2.5699999332428</v>
       </c>
       <c r="G1972" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
       <c r="H1972" t="s">
         <v>9</v>
@@ -56521,7 +56521,7 @@
         <v>2.58999991416931</v>
       </c>
       <c r="G1973" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
       <c r="H1973" t="s">
         <v>9</v>
@@ -56547,7 +56547,7 @@
         <v>2.51399993896484</v>
       </c>
       <c r="G1974" t="s">
-        <v>1466</v>
+        <v>1465</v>
       </c>
       <c r="H1974" t="s">
         <v>9</v>
@@ -56573,7 +56573,7 @@
         <v>2.4779999256134</v>
       </c>
       <c r="G1975" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
       <c r="H1975" t="s">
         <v>9</v>
@@ -56599,7 +56599,7 @@
         <v>2.54399991035461</v>
       </c>
       <c r="G1976" t="s">
-        <v>1468</v>
+        <v>1467</v>
       </c>
       <c r="H1976" t="s">
         <v>9</v>
@@ -56625,7 +56625,7 @@
         <v>2.56200003623962</v>
       </c>
       <c r="G1977" t="s">
-        <v>1469</v>
+        <v>1468</v>
       </c>
       <c r="H1977" t="s">
         <v>9</v>
@@ -56651,7 +56651,7 @@
         <v>2.54399991035461</v>
       </c>
       <c r="G1978" t="s">
-        <v>1468</v>
+        <v>1467</v>
       </c>
       <c r="H1978" t="s">
         <v>9</v>
@@ -56677,7 +56677,7 @@
         <v>2.5460000038147</v>
       </c>
       <c r="G1979" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
       <c r="H1979" t="s">
         <v>9</v>
@@ -56703,7 +56703,7 @@
         <v>2.59400010108948</v>
       </c>
       <c r="G1980" t="s">
-        <v>1471</v>
+        <v>1470</v>
       </c>
       <c r="H1980" t="s">
         <v>9</v>
@@ -56729,7 +56729,7 @@
         <v>2.60599994659424</v>
       </c>
       <c r="G1981" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="H1981" t="s">
         <v>9</v>
@@ -56755,7 +56755,7 @@
         <v>2.60800004005432</v>
       </c>
       <c r="G1982" t="s">
-        <v>1472</v>
+        <v>1471</v>
       </c>
       <c r="H1982" t="s">
         <v>9</v>
@@ -56781,7 +56781,7 @@
         <v>2.59400010108948</v>
       </c>
       <c r="G1983" t="s">
-        <v>1471</v>
+        <v>1470</v>
       </c>
       <c r="H1983" t="s">
         <v>9</v>
@@ -56807,7 +56807,7 @@
         <v>2.63199996948242</v>
       </c>
       <c r="G1984" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="H1984" t="s">
         <v>9</v>
@@ -56833,7 +56833,7 @@
         <v>2.62599992752075</v>
       </c>
       <c r="G1985" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
       <c r="H1985" t="s">
         <v>9</v>
@@ -56859,7 +56859,7 @@
         <v>2.60199999809265</v>
       </c>
       <c r="G1986" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
       <c r="H1986" t="s">
         <v>9</v>
@@ -56885,7 +56885,7 @@
         <v>2.58800005912781</v>
       </c>
       <c r="G1987" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
       <c r="H1987" t="s">
         <v>9</v>
@@ -56911,7 +56911,7 @@
         <v>2.56599998474121</v>
       </c>
       <c r="G1988" t="s">
-        <v>1476</v>
+        <v>1475</v>
       </c>
       <c r="H1988" t="s">
         <v>9</v>
@@ -56937,7 +56937,7 @@
         <v>2.54200005531311</v>
       </c>
       <c r="G1989" t="s">
-        <v>1477</v>
+        <v>1476</v>
       </c>
       <c r="H1989" t="s">
         <v>9</v>
@@ -56963,7 +56963,7 @@
         <v>2.5699999332428</v>
       </c>
       <c r="G1990" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
       <c r="H1990" t="s">
         <v>9</v>
@@ -56989,7 +56989,7 @@
         <v>2.53200006484985</v>
       </c>
       <c r="G1991" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
       <c r="H1991" t="s">
         <v>9</v>
@@ -57015,7 +57015,7 @@
         <v>2.54800009727478</v>
       </c>
       <c r="G1992" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
       <c r="H1992" t="s">
         <v>9</v>
@@ -57041,7 +57041,7 @@
         <v>2.53999996185303</v>
       </c>
       <c r="G1993" t="s">
-        <v>1480</v>
+        <v>1479</v>
       </c>
       <c r="H1993" t="s">
         <v>9</v>
@@ -57067,7 +57067,7 @@
         <v>2.57800006866455</v>
       </c>
       <c r="G1994" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
       <c r="H1994" t="s">
         <v>9</v>
@@ -57093,7 +57093,7 @@
         <v>2.65400004386902</v>
       </c>
       <c r="G1995" t="s">
-        <v>1481</v>
+        <v>1480</v>
       </c>
       <c r="H1995" t="s">
         <v>9</v>
@@ -57119,7 +57119,7 @@
         <v>2.69600009918213</v>
       </c>
       <c r="G1996" t="s">
-        <v>1482</v>
+        <v>1481</v>
       </c>
       <c r="H1996" t="s">
         <v>9</v>
@@ -57145,7 +57145,7 @@
         <v>2.7739999294281</v>
       </c>
       <c r="G1997" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="H1997" t="s">
         <v>9</v>
@@ -57171,7 +57171,7 @@
         <v>2.75600004196167</v>
       </c>
       <c r="G1998" t="s">
-        <v>1450</v>
+        <v>1449</v>
       </c>
       <c r="H1998" t="s">
         <v>9</v>
@@ -57197,7 +57197,7 @@
         <v>2.72000002861023</v>
       </c>
       <c r="G1999" t="s">
-        <v>1483</v>
+        <v>1482</v>
       </c>
       <c r="H1999" t="s">
         <v>9</v>
@@ -57223,7 +57223,7 @@
         <v>2.73200011253357</v>
       </c>
       <c r="G2000" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="H2000" t="s">
         <v>9</v>
@@ -57249,7 +57249,7 @@
         <v>2.70199990272522</v>
       </c>
       <c r="G2001" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
       <c r="H2001" t="s">
         <v>9</v>
@@ -57275,7 +57275,7 @@
         <v>2.66400003433228</v>
       </c>
       <c r="G2002" t="s">
-        <v>1485</v>
+        <v>1484</v>
       </c>
       <c r="H2002" t="s">
         <v>9</v>
@@ -57301,7 +57301,7 @@
         <v>2.65599989891052</v>
       </c>
       <c r="G2003" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
       <c r="H2003" t="s">
         <v>9</v>
@@ -57327,7 +57327,7 @@
         <v>2.67400002479553</v>
       </c>
       <c r="G2004" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="H2004" t="s">
         <v>9</v>
@@ -57353,7 +57353,7 @@
         <v>2.78399991989136</v>
       </c>
       <c r="G2005" t="s">
-        <v>1487</v>
+        <v>1486</v>
       </c>
       <c r="H2005" t="s">
         <v>9</v>
@@ -57379,7 +57379,7 @@
         <v>2.7960000038147</v>
       </c>
       <c r="G2006" t="s">
-        <v>1448</v>
+        <v>1447</v>
       </c>
       <c r="H2006" t="s">
         <v>9</v>
@@ -57405,7 +57405,7 @@
         <v>2.83400011062622</v>
       </c>
       <c r="G2007" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
       <c r="H2007" t="s">
         <v>9</v>
@@ -57431,7 +57431,7 @@
         <v>2.83999991416931</v>
       </c>
       <c r="G2008" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="H2008" t="s">
         <v>9</v>
@@ -57457,7 +57457,7 @@
         <v>2.85599994659424</v>
       </c>
       <c r="G2009" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="H2009" t="s">
         <v>9</v>
@@ -57483,7 +57483,7 @@
         <v>2.83999991416931</v>
       </c>
       <c r="G2010" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="H2010" t="s">
         <v>9</v>
@@ -57509,7 +57509,7 @@
         <v>2.84200000762939</v>
       </c>
       <c r="G2011" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="H2011" t="s">
         <v>9</v>
@@ -57535,7 +57535,7 @@
         <v>2.83400011062622</v>
       </c>
       <c r="G2012" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
       <c r="H2012" t="s">
         <v>9</v>
@@ -57561,7 +57561,7 @@
         <v>2.84599995613098</v>
       </c>
       <c r="G2013" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="H2013" t="s">
         <v>9</v>
@@ -57587,7 +57587,7 @@
         <v>2.88599991798401</v>
       </c>
       <c r="G2014" t="s">
-        <v>1459</v>
+        <v>1458</v>
       </c>
       <c r="H2014" t="s">
         <v>9</v>
@@ -57613,7 +57613,7 @@
         <v>2.90000009536743</v>
       </c>
       <c r="G2015" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="H2015" t="s">
         <v>9</v>
@@ -57639,7 +57639,7 @@
         <v>2.90599989891052</v>
       </c>
       <c r="G2016" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
       <c r="H2016" t="s">
         <v>9</v>
@@ -57665,7 +57665,7 @@
         <v>2.90000009536743</v>
       </c>
       <c r="G2017" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="H2017" t="s">
         <v>9</v>
@@ -57691,7 +57691,7 @@
         <v>2.90799999237061</v>
       </c>
       <c r="G2018" t="s">
-        <v>1495</v>
+        <v>1494</v>
       </c>
       <c r="H2018" t="s">
         <v>9</v>
@@ -57717,7 +57717,7 @@
         <v>2.8840000629425</v>
       </c>
       <c r="G2019" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="H2019" t="s">
         <v>9</v>
@@ -57743,7 +57743,7 @@
         <v>2.90199995040894</v>
       </c>
       <c r="G2020" t="s">
-        <v>1497</v>
+        <v>1496</v>
       </c>
       <c r="H2020" t="s">
         <v>9</v>
@@ -57769,7 +57769,7 @@
         <v>2.90400004386902</v>
       </c>
       <c r="G2021" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
       <c r="H2021" t="s">
         <v>9</v>
@@ -57795,7 +57795,7 @@
         <v>2.91000008583069</v>
       </c>
       <c r="G2022" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="H2022" t="s">
         <v>9</v>
@@ -57821,7 +57821,7 @@
         <v>2.96799993515015</v>
       </c>
       <c r="G2023" t="s">
-        <v>1500</v>
+        <v>1499</v>
       </c>
       <c r="H2023" t="s">
         <v>9</v>
@@ -57847,7 +57847,7 @@
         <v>2.93400001525879</v>
       </c>
       <c r="G2024" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
       <c r="H2024" t="s">
         <v>9</v>
@@ -57873,7 +57873,7 @@
         <v>2.91599988937378</v>
       </c>
       <c r="G2025" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
       <c r="H2025" t="s">
         <v>9</v>
@@ -57899,7 +57899,7 @@
         <v>2.95799994468689</v>
       </c>
       <c r="G2026" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="H2026" t="s">
         <v>9</v>
@@ -57925,7 +57925,7 @@
         <v>3.02999997138977</v>
       </c>
       <c r="G2027" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
       <c r="H2027" t="s">
         <v>9</v>
@@ -57951,7 +57951,7 @@
         <v>3.01799988746643</v>
       </c>
       <c r="G2028" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
       <c r="H2028" t="s">
         <v>9</v>
@@ -57977,7 +57977,7 @@
         <v>2.98000001907349</v>
       </c>
       <c r="G2029" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
       <c r="H2029" t="s">
         <v>9</v>
@@ -58003,7 +58003,7 @@
         <v>3.0239999294281</v>
       </c>
       <c r="G2030" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
       <c r="H2030" t="s">
         <v>9</v>
@@ -58029,7 +58029,7 @@
         <v>3.01399993896484</v>
       </c>
       <c r="G2031" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
       <c r="H2031" t="s">
         <v>9</v>
@@ -58055,7 +58055,7 @@
         <v>2.99399995803833</v>
       </c>
       <c r="G2032" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
       <c r="H2032" t="s">
         <v>9</v>
@@ -58081,7 +58081,7 @@
         <v>3.00999999046326</v>
       </c>
       <c r="G2033" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
       <c r="H2033" t="s">
         <v>9</v>
@@ -58107,7 +58107,7 @@
         <v>2.98200011253357</v>
       </c>
       <c r="G2034" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
       <c r="H2034" t="s">
         <v>9</v>
@@ -58133,7 +58133,7 @@
         <v>2.96399998664856</v>
       </c>
       <c r="G2035" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
       <c r="H2035" t="s">
         <v>9</v>
@@ -58159,7 +58159,7 @@
         <v>2.97199988365173</v>
       </c>
       <c r="G2036" t="s">
-        <v>1513</v>
+        <v>1512</v>
       </c>
       <c r="H2036" t="s">
         <v>9</v>
@@ -58185,7 +58185,7 @@
         <v>2.96000003814697</v>
       </c>
       <c r="G2037" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
       <c r="H2037" t="s">
         <v>9</v>
@@ -58211,7 +58211,7 @@
         <v>2.90599989891052</v>
       </c>
       <c r="G2038" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
       <c r="H2038" t="s">
         <v>9</v>
@@ -58237,7 +58237,7 @@
         <v>2.96199989318848</v>
       </c>
       <c r="G2039" t="s">
-        <v>1515</v>
+        <v>1514</v>
       </c>
       <c r="H2039" t="s">
         <v>9</v>
@@ -58263,7 +58263,7 @@
         <v>2.96799993515015</v>
       </c>
       <c r="G2040" t="s">
-        <v>1500</v>
+        <v>1499</v>
       </c>
       <c r="H2040" t="s">
         <v>9</v>
@@ -58289,7 +58289,7 @@
         <v>2.98399996757507</v>
       </c>
       <c r="G2041" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
       <c r="H2041" t="s">
         <v>9</v>
@@ -58315,7 +58315,7 @@
         <v>3.00600004196167</v>
       </c>
       <c r="G2042" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
       <c r="H2042" t="s">
         <v>9</v>
@@ -58341,7 +58341,7 @@
         <v>3.03999996185303</v>
       </c>
       <c r="G2043" t="s">
-        <v>1518</v>
+        <v>1517</v>
       </c>
       <c r="H2043" t="s">
         <v>9</v>
@@ -58367,7 +58367,7 @@
         <v>2.96600008010864</v>
       </c>
       <c r="G2044" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
       <c r="H2044" t="s">
         <v>9</v>
@@ -58393,7 +58393,7 @@
         <v>3.03999996185303</v>
       </c>
       <c r="G2045" t="s">
-        <v>1518</v>
+        <v>1517</v>
       </c>
       <c r="H2045" t="s">
         <v>9</v>
@@ -58419,7 +58419,7 @@
         <v>3.02999997138977</v>
       </c>
       <c r="G2046" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
       <c r="H2046" t="s">
         <v>9</v>
@@ -58445,7 +58445,7 @@
         <v>3.02600002288818</v>
       </c>
       <c r="G2047" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
       <c r="H2047" t="s">
         <v>9</v>
@@ -58471,7 +58471,7 @@
         <v>2.97000002861023</v>
       </c>
       <c r="G2048" t="s">
-        <v>1521</v>
+        <v>1520</v>
       </c>
       <c r="H2048" t="s">
         <v>9</v>
@@ -58497,7 +58497,7 @@
         <v>2.97000002861023</v>
       </c>
       <c r="G2049" t="s">
-        <v>1521</v>
+        <v>1520</v>
       </c>
       <c r="H2049" t="s">
         <v>9</v>
@@ -58523,7 +58523,7 @@
         <v>2.9760000705719</v>
       </c>
       <c r="G2050" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
       <c r="H2050" t="s">
         <v>9</v>
@@ -58549,7 +58549,7 @@
         <v>2.95600008964539</v>
       </c>
       <c r="G2051" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
       <c r="H2051" t="s">
         <v>9</v>
@@ -58575,7 +58575,7 @@
         <v>2.87199997901917</v>
       </c>
       <c r="G2052" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
       <c r="H2052" t="s">
         <v>9</v>
@@ -58601,7 +58601,7 @@
         <v>2.96199989318848</v>
       </c>
       <c r="G2053" t="s">
-        <v>1515</v>
+        <v>1514</v>
       </c>
       <c r="H2053" t="s">
         <v>9</v>
@@ -58627,7 +58627,7 @@
         <v>3.09999990463257</v>
       </c>
       <c r="G2054" t="s">
-        <v>1525</v>
+        <v>1524</v>
       </c>
       <c r="H2054" t="s">
         <v>9</v>
@@ -58653,7 +58653,7 @@
         <v>3.23600006103516</v>
       </c>
       <c r="G2055" t="s">
-        <v>1526</v>
+        <v>1525</v>
       </c>
       <c r="H2055" t="s">
         <v>9</v>
@@ -58679,7 +58679,7 @@
         <v>3.22399997711182</v>
       </c>
       <c r="G2056" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
       <c r="H2056" t="s">
         <v>9</v>
@@ -58705,7 +58705,7 @@
         <v>3.21199989318848</v>
       </c>
       <c r="G2057" t="s">
-        <v>1528</v>
+        <v>1527</v>
       </c>
       <c r="H2057" t="s">
         <v>9</v>
@@ -58731,7 +58731,7 @@
         <v>3.26999998092651</v>
       </c>
       <c r="G2058" t="s">
-        <v>1529</v>
+        <v>1528</v>
       </c>
       <c r="H2058" t="s">
         <v>9</v>
@@ -58757,7 +58757,7 @@
         <v>3.16599988937378</v>
       </c>
       <c r="G2059" t="s">
-        <v>1530</v>
+        <v>1529</v>
       </c>
       <c r="H2059" t="s">
         <v>9</v>
@@ -58783,7 +58783,7 @@
         <v>3.15400004386902</v>
       </c>
       <c r="G2060" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="H2060" t="s">
         <v>9</v>
@@ -58809,7 +58809,7 @@
         <v>3.10999989509583</v>
       </c>
       <c r="G2061" t="s">
-        <v>1532</v>
+        <v>1531</v>
       </c>
       <c r="H2061" t="s">
         <v>9</v>
@@ -58835,7 +58835,7 @@
         <v>3.13800001144409</v>
       </c>
       <c r="G2062" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
       <c r="H2062" t="s">
         <v>9</v>
@@ -58861,7 +58861,7 @@
         <v>3.15799999237061</v>
       </c>
       <c r="G2063" t="s">
-        <v>1534</v>
+        <v>1533</v>
       </c>
       <c r="H2063" t="s">
         <v>9</v>
@@ -58887,7 +58887,7 @@
         <v>3.13199996948242</v>
       </c>
       <c r="G2064" t="s">
-        <v>1535</v>
+        <v>1534</v>
       </c>
       <c r="H2064" t="s">
         <v>9</v>
@@ -58913,7 +58913,7 @@
         <v>3.05599999427795</v>
       </c>
       <c r="G2065" t="s">
-        <v>1536</v>
+        <v>1535</v>
       </c>
       <c r="H2065" t="s">
         <v>9</v>
@@ -58939,7 +58939,7 @@
         <v>3.09800004959106</v>
       </c>
       <c r="G2066" t="s">
-        <v>1537</v>
+        <v>1536</v>
       </c>
       <c r="H2066" t="s">
         <v>9</v>
@@ -58965,7 +58965,7 @@
         <v>3.1340000629425</v>
       </c>
       <c r="G2067" t="s">
-        <v>1538</v>
+        <v>1537</v>
       </c>
       <c r="H2067" t="s">
         <v>9</v>
@@ -58991,7 +58991,7 @@
         <v>3.14000010490417</v>
       </c>
       <c r="G2068" t="s">
-        <v>1539</v>
+        <v>1538</v>
       </c>
       <c r="H2068" t="s">
         <v>9</v>
@@ -59017,7 +59017,7 @@
         <v>3.16599988937378</v>
       </c>
       <c r="G2069" t="s">
-        <v>1530</v>
+        <v>1529</v>
       </c>
       <c r="H2069" t="s">
         <v>9</v>
@@ -59043,7 +59043,7 @@
         <v>3.13800001144409</v>
       </c>
       <c r="G2070" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
       <c r="H2070" t="s">
         <v>9</v>
@@ -59069,7 +59069,7 @@
         <v>3.17000007629395</v>
       </c>
       <c r="G2071" t="s">
-        <v>1540</v>
+        <v>1539</v>
       </c>
       <c r="H2071" t="s">
         <v>9</v>
@@ -59095,7 +59095,7 @@
         <v>3.22399997711182</v>
       </c>
       <c r="G2072" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
       <c r="H2072" t="s">
         <v>9</v>
@@ -59121,7 +59121,7 @@
         <v>3.24000000953674</v>
       </c>
       <c r="G2073" t="s">
-        <v>1541</v>
+        <v>1540</v>
       </c>
       <c r="H2073" t="s">
         <v>9</v>
@@ -59147,7 +59147,7 @@
         <v>3.23200011253357</v>
       </c>
       <c r="G2074" t="s">
-        <v>1542</v>
+        <v>1541</v>
       </c>
       <c r="H2074" t="s">
         <v>9</v>
@@ -59173,7 +59173,7 @@
         <v>3.23399996757507</v>
       </c>
       <c r="G2075" t="s">
-        <v>1543</v>
+        <v>1542</v>
       </c>
       <c r="H2075" t="s">
         <v>9</v>
@@ -59199,7 +59199,7 @@
         <v>3.17400002479553</v>
       </c>
       <c r="G2076" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
       <c r="H2076" t="s">
         <v>9</v>
@@ -59225,7 +59225,7 @@
         <v>3.20199990272522</v>
       </c>
       <c r="G2077" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="H2077" t="s">
         <v>9</v>
@@ -59251,7 +59251,7 @@
         <v>3.19000005722046</v>
       </c>
       <c r="G2078" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="H2078" t="s">
         <v>9</v>
@@ -59277,7 +59277,7 @@
         <v>3.19600009918213</v>
       </c>
       <c r="G2079" t="s">
-        <v>1547</v>
+        <v>1546</v>
       </c>
       <c r="H2079" t="s">
         <v>9</v>
@@ -59303,7 +59303,7 @@
         <v>3.22199988365173</v>
       </c>
       <c r="G2080" t="s">
-        <v>1548</v>
+        <v>1547</v>
       </c>
       <c r="H2080" t="s">
         <v>9</v>
@@ -59329,7 +59329,7 @@
         <v>3.19400000572205</v>
       </c>
       <c r="G2081" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="H2081" t="s">
         <v>9</v>
@@ -59355,7 +59355,7 @@
         <v>3.27999997138977</v>
       </c>
       <c r="G2082" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
       <c r="H2082" t="s">
         <v>9</v>
@@ -59381,7 +59381,7 @@
         <v>3.29200005531311</v>
       </c>
       <c r="G2083" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
       <c r="H2083" t="s">
         <v>9</v>
@@ -59407,7 +59407,7 @@
         <v>3.31399989128113</v>
       </c>
       <c r="G2084" t="s">
-        <v>1552</v>
+        <v>1551</v>
       </c>
       <c r="H2084" t="s">
         <v>9</v>
@@ -59433,7 +59433,7 @@
         <v>3.34599995613098</v>
       </c>
       <c r="G2085" t="s">
-        <v>1553</v>
+        <v>1552</v>
       </c>
       <c r="H2085" t="s">
         <v>9</v>
@@ -59459,7 +59459,7 @@
         <v>3.33400011062622</v>
       </c>
       <c r="G2086" t="s">
-        <v>1554</v>
+        <v>1553</v>
       </c>
       <c r="H2086" t="s">
         <v>9</v>
@@ -59485,7 +59485,7 @@
         <v>3.33800005912781</v>
       </c>
       <c r="G2087" t="s">
-        <v>1555</v>
+        <v>1554</v>
       </c>
       <c r="H2087" t="s">
         <v>9</v>
@@ -59511,7 +59511,7 @@
         <v>3.33400011062622</v>
       </c>
       <c r="G2088" t="s">
-        <v>1554</v>
+        <v>1553</v>
       </c>
       <c r="H2088" t="s">
         <v>9</v>
@@ -59537,7 +59537,7 @@
         <v>3.34800004959106</v>
       </c>
       <c r="G2089" t="s">
-        <v>1556</v>
+        <v>1555</v>
       </c>
       <c r="H2089" t="s">
         <v>9</v>
@@ -59563,7 +59563,7 @@
         <v>3.37400007247925</v>
       </c>
       <c r="G2090" t="s">
-        <v>1557</v>
+        <v>1556</v>
       </c>
       <c r="H2090" t="s">
         <v>9</v>
@@ -59589,7 +59589,7 @@
         <v>3.30999994277954</v>
       </c>
       <c r="G2091" t="s">
-        <v>1558</v>
+        <v>1557</v>
       </c>
       <c r="H2091" t="s">
         <v>9</v>
@@ -59615,7 +59615,7 @@
         <v>3.28800010681152</v>
       </c>
       <c r="G2092" t="s">
-        <v>1559</v>
+        <v>1558</v>
       </c>
       <c r="H2092" t="s">
         <v>9</v>
@@ -59641,7 +59641,7 @@
         <v>3.27999997138977</v>
       </c>
       <c r="G2093" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
       <c r="H2093" t="s">
         <v>9</v>
@@ -59667,7 +59667,7 @@
         <v>3.25200009346008</v>
       </c>
       <c r="G2094" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
       <c r="H2094" t="s">
         <v>9</v>
@@ -59693,7 +59693,7 @@
         <v>3.28999996185303</v>
       </c>
       <c r="G2095" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="H2095" t="s">
         <v>9</v>
@@ -59719,7 +59719,7 @@
         <v>3.3199999332428</v>
       </c>
       <c r="G2096" t="s">
-        <v>1562</v>
+        <v>1561</v>
       </c>
       <c r="H2096" t="s">
         <v>9</v>
@@ -59745,7 +59745,7 @@
         <v>3.2720000743866</v>
       </c>
       <c r="G2097" t="s">
-        <v>1563</v>
+        <v>1562</v>
       </c>
       <c r="H2097" t="s">
         <v>9</v>
@@ -59771,7 +59771,7 @@
         <v>3.28800010681152</v>
       </c>
       <c r="G2098" t="s">
-        <v>1559</v>
+        <v>1558</v>
       </c>
       <c r="H2098" t="s">
         <v>9</v>
@@ -59797,7 +59797,7 @@
         <v>3.26600003242493</v>
       </c>
       <c r="G2099" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
       <c r="H2099" t="s">
         <v>9</v>
@@ -59823,7 +59823,7 @@
         <v>3.21799993515015</v>
       </c>
       <c r="G2100" t="s">
-        <v>1565</v>
+        <v>1564</v>
       </c>
       <c r="H2100" t="s">
         <v>9</v>
@@ -59849,7 +59849,7 @@
         <v>3.16199994087219</v>
       </c>
       <c r="G2101" t="s">
-        <v>1566</v>
+        <v>1565</v>
       </c>
       <c r="H2101" t="s">
         <v>9</v>
@@ -59875,7 +59875,7 @@
         <v>3.17799997329712</v>
       </c>
       <c r="G2102" t="s">
-        <v>1567</v>
+        <v>1566</v>
       </c>
       <c r="H2102" t="s">
         <v>9</v>
@@ -59901,7 +59901,7 @@
         <v>3.11999988555908</v>
       </c>
       <c r="G2103" t="s">
-        <v>1568</v>
+        <v>1567</v>
       </c>
       <c r="H2103" t="s">
         <v>9</v>
@@ -59927,7 +59927,7 @@
         <v>3.14599990844727</v>
       </c>
       <c r="G2104" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
       <c r="H2104" t="s">
         <v>9</v>
@@ -59953,7 +59953,7 @@
         <v>3.1340000629425</v>
       </c>
       <c r="G2105" t="s">
-        <v>1538</v>
+        <v>1537</v>
       </c>
       <c r="H2105" t="s">
         <v>9</v>
@@ -59979,7 +59979,7 @@
         <v>3.1340000629425</v>
       </c>
       <c r="G2106" t="s">
-        <v>1538</v>
+        <v>1537</v>
       </c>
       <c r="H2106" t="s">
         <v>9</v>
@@ -60005,7 +60005,7 @@
         <v>3.14400005340576</v>
       </c>
       <c r="G2107" t="s">
-        <v>1570</v>
+        <v>1569</v>
       </c>
       <c r="H2107" t="s">
         <v>9</v>
@@ -60031,7 +60031,7 @@
         <v>3.16599988937378</v>
       </c>
       <c r="G2108" t="s">
-        <v>1530</v>
+        <v>1529</v>
       </c>
       <c r="H2108" t="s">
         <v>9</v>
@@ -60057,7 +60057,7 @@
         <v>3.16400003433228</v>
       </c>
       <c r="G2109" t="s">
-        <v>1571</v>
+        <v>1570</v>
       </c>
       <c r="H2109" t="s">
         <v>9</v>
@@ -60083,7 +60083,7 @@
         <v>3.11999988555908</v>
       </c>
       <c r="G2110" t="s">
-        <v>1568</v>
+        <v>1567</v>
       </c>
       <c r="H2110" t="s">
         <v>9</v>
@@ -60109,7 +60109,7 @@
         <v>3.13199996948242</v>
       </c>
       <c r="G2111" t="s">
-        <v>1535</v>
+        <v>1534</v>
       </c>
       <c r="H2111" t="s">
         <v>9</v>
@@ -60135,7 +60135,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G2112" t="s">
-        <v>1572</v>
+        <v>1571</v>
       </c>
       <c r="H2112" t="s">
         <v>9</v>
@@ -60161,7 +60161,7 @@
         <v>3.21399998664856</v>
       </c>
       <c r="G2113" t="s">
-        <v>1573</v>
+        <v>1572</v>
       </c>
       <c r="H2113" t="s">
         <v>9</v>
@@ -60187,7 +60187,7 @@
         <v>3.26200008392334</v>
       </c>
       <c r="G2114" t="s">
-        <v>1574</v>
+        <v>1573</v>
       </c>
       <c r="H2114" t="s">
         <v>9</v>
@@ -60213,7 +60213,7 @@
         <v>3.34599995613098</v>
       </c>
       <c r="G2115" t="s">
-        <v>1553</v>
+        <v>1552</v>
       </c>
       <c r="H2115" t="s">
         <v>9</v>
@@ -60239,7 +60239,7 @@
         <v>3.36800003051758</v>
       </c>
       <c r="G2116" t="s">
-        <v>1575</v>
+        <v>1574</v>
       </c>
       <c r="H2116" t="s">
         <v>9</v>
@@ -60265,7 +60265,7 @@
         <v>3.39599990844727</v>
       </c>
       <c r="G2117" t="s">
-        <v>1576</v>
+        <v>1575</v>
       </c>
       <c r="H2117" t="s">
         <v>9</v>
@@ -60291,7 +60291,7 @@
         <v>3.36400008201599</v>
       </c>
       <c r="G2118" t="s">
-        <v>1577</v>
+        <v>1576</v>
       </c>
       <c r="H2118" t="s">
         <v>9</v>
@@ -60317,7 +60317,7 @@
         <v>3.42199993133545</v>
       </c>
       <c r="G2119" t="s">
-        <v>1578</v>
+        <v>1577</v>
       </c>
       <c r="H2119" t="s">
         <v>9</v>
@@ -60343,7 +60343,7 @@
         <v>3.39000010490417</v>
       </c>
       <c r="G2120" t="s">
-        <v>1579</v>
+        <v>1578</v>
       </c>
       <c r="H2120" t="s">
         <v>9</v>
@@ -60369,7 +60369,7 @@
         <v>3.41599988937378</v>
       </c>
       <c r="G2121" t="s">
-        <v>1580</v>
+        <v>1579</v>
       </c>
       <c r="H2121" t="s">
         <v>9</v>
@@ -60395,7 +60395,7 @@
         <v>3.42799997329712</v>
       </c>
       <c r="G2122" t="s">
-        <v>1581</v>
+        <v>1580</v>
       </c>
       <c r="H2122" t="s">
         <v>9</v>
@@ -60421,7 +60421,7 @@
         <v>3.45600008964539</v>
       </c>
       <c r="G2123" t="s">
-        <v>1582</v>
+        <v>1581</v>
       </c>
       <c r="H2123" t="s">
         <v>9</v>
@@ -60447,7 +60447,7 @@
         <v>3.50799989700317</v>
       </c>
       <c r="G2124" t="s">
-        <v>1583</v>
+        <v>1582</v>
       </c>
       <c r="H2124" t="s">
         <v>9</v>
@@ -60473,7 +60473,7 @@
         <v>3.47199988365173</v>
       </c>
       <c r="G2125" t="s">
-        <v>1584</v>
+        <v>1583</v>
       </c>
       <c r="H2125" t="s">
         <v>9</v>
@@ -60499,7 +60499,7 @@
         <v>3.46799993515015</v>
       </c>
       <c r="G2126" t="s">
-        <v>1585</v>
+        <v>1584</v>
       </c>
       <c r="H2126" t="s">
         <v>9</v>
@@ -60525,7 +60525,7 @@
         <v>3.5</v>
       </c>
       <c r="G2127" t="s">
-        <v>1586</v>
+        <v>1585</v>
       </c>
       <c r="H2127" t="s">
         <v>9</v>
@@ -60551,7 +60551,7 @@
         <v>3.56399989128113</v>
       </c>
       <c r="G2128" t="s">
-        <v>1587</v>
+        <v>1586</v>
       </c>
       <c r="H2128" t="s">
         <v>9</v>
@@ -60577,7 +60577,7 @@
         <v>3.53600001335144</v>
       </c>
       <c r="G2129" t="s">
-        <v>1588</v>
+        <v>1587</v>
       </c>
       <c r="H2129" t="s">
         <v>9</v>
@@ -60603,7 +60603,7 @@
         <v>3.49399995803833</v>
       </c>
       <c r="G2130" t="s">
-        <v>1589</v>
+        <v>1588</v>
       </c>
       <c r="H2130" t="s">
         <v>9</v>
@@ -60629,7 +60629,7 @@
         <v>3.47199988365173</v>
       </c>
       <c r="G2131" t="s">
-        <v>1584</v>
+        <v>1583</v>
       </c>
       <c r="H2131" t="s">
         <v>9</v>
@@ -60655,7 +60655,7 @@
         <v>3.47000002861023</v>
       </c>
       <c r="G2132" t="s">
-        <v>1590</v>
+        <v>1589</v>
       </c>
       <c r="H2132" t="s">
         <v>9</v>
@@ -60681,7 +60681,7 @@
         <v>3.43400001525879</v>
       </c>
       <c r="G2133" t="s">
-        <v>1591</v>
+        <v>1590</v>
       </c>
       <c r="H2133" t="s">
         <v>9</v>
@@ -60707,7 +60707,7 @@
         <v>3.41599988937378</v>
       </c>
       <c r="G2134" t="s">
-        <v>1580</v>
+        <v>1579</v>
       </c>
       <c r="H2134" t="s">
         <v>9</v>
@@ -60733,7 +60733,7 @@
         <v>3.37599992752075</v>
       </c>
       <c r="G2135" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
       <c r="H2135" t="s">
         <v>9</v>
@@ -60759,7 +60759,7 @@
         <v>3.32999992370605</v>
       </c>
       <c r="G2136" t="s">
-        <v>1593</v>
+        <v>1592</v>
       </c>
       <c r="H2136" t="s">
         <v>9</v>
@@ -60785,7 +60785,7 @@
         <v>3.33200001716614</v>
       </c>
       <c r="G2137" t="s">
-        <v>1594</v>
+        <v>1593</v>
       </c>
       <c r="H2137" t="s">
         <v>9</v>
@@ -60811,7 +60811,7 @@
         <v>3.35199999809265</v>
       </c>
       <c r="G2138" t="s">
-        <v>1595</v>
+        <v>1594</v>
       </c>
       <c r="H2138" t="s">
         <v>9</v>
@@ -60837,7 +60837,7 @@
         <v>3.32800006866455</v>
       </c>
       <c r="G2139" t="s">
-        <v>1596</v>
+        <v>1595</v>
       </c>
       <c r="H2139" t="s">
         <v>9</v>
@@ -60863,7 +60863,7 @@
         <v>3.31800007820129</v>
       </c>
       <c r="G2140" t="s">
-        <v>1597</v>
+        <v>1596</v>
       </c>
       <c r="H2140" t="s">
         <v>9</v>
@@ -60889,7 +60889,7 @@
         <v>3.34999990463257</v>
       </c>
       <c r="G2141" t="s">
-        <v>1598</v>
+        <v>1597</v>
       </c>
       <c r="H2141" t="s">
         <v>9</v>
@@ -60915,7 +60915,7 @@
         <v>3.39000010490417</v>
       </c>
       <c r="G2142" t="s">
-        <v>1579</v>
+        <v>1578</v>
       </c>
       <c r="H2142" t="s">
         <v>9</v>
@@ -60941,7 +60941,7 @@
         <v>3.43199992179871</v>
       </c>
       <c r="G2143" t="s">
-        <v>1599</v>
+        <v>1598</v>
       </c>
       <c r="H2143" t="s">
         <v>9</v>
@@ -60967,7 +60967,7 @@
         <v>3.45799994468689</v>
       </c>
       <c r="G2144" t="s">
-        <v>1600</v>
+        <v>1599</v>
       </c>
       <c r="H2144" t="s">
         <v>9</v>
@@ -60993,7 +60993,7 @@
         <v>3.46600008010864</v>
       </c>
       <c r="G2145" t="s">
-        <v>1601</v>
+        <v>1600</v>
       </c>
       <c r="H2145" t="s">
         <v>9</v>
@@ -61019,7 +61019,7 @@
         <v>3.46000003814697</v>
       </c>
       <c r="G2146" t="s">
-        <v>1602</v>
+        <v>1601</v>
       </c>
       <c r="H2146" t="s">
         <v>9</v>
@@ -61045,7 +61045,7 @@
         <v>3.38000011444092</v>
       </c>
       <c r="G2147" t="s">
-        <v>1603</v>
+        <v>1602</v>
       </c>
       <c r="H2147" t="s">
         <v>9</v>
@@ -61071,7 +61071,7 @@
         <v>3.42600011825562</v>
       </c>
       <c r="G2148" t="s">
-        <v>1604</v>
+        <v>1603</v>
       </c>
       <c r="H2148" t="s">
         <v>9</v>
@@ -61097,7 +61097,7 @@
         <v>3.31399989128113</v>
       </c>
       <c r="G2149" t="s">
-        <v>1552</v>
+        <v>1551</v>
       </c>
       <c r="H2149" t="s">
         <v>9</v>
@@ -61123,7 +61123,7 @@
         <v>3.39000010490417</v>
       </c>
       <c r="G2150" t="s">
-        <v>1579</v>
+        <v>1578</v>
       </c>
       <c r="H2150" t="s">
         <v>9</v>
@@ -61149,7 +61149,7 @@
         <v>3.40599989891052</v>
       </c>
       <c r="G2151" t="s">
-        <v>1605</v>
+        <v>1604</v>
       </c>
       <c r="H2151" t="s">
         <v>9</v>
@@ -61175,7 +61175,7 @@
         <v>3.26200008392334</v>
       </c>
       <c r="G2152" t="s">
-        <v>1574</v>
+        <v>1573</v>
       </c>
       <c r="H2152" t="s">
         <v>9</v>
@@ -61201,7 +61201,7 @@
         <v>3.24600005149841</v>
       </c>
       <c r="G2153" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="H2153" t="s">
         <v>9</v>
@@ -61227,7 +61227,7 @@
         <v>3.29800009727478</v>
       </c>
       <c r="G2154" t="s">
-        <v>1607</v>
+        <v>1606</v>
       </c>
       <c r="H2154" t="s">
         <v>9</v>
@@ -61253,7 +61253,7 @@
         <v>3.28800010681152</v>
       </c>
       <c r="G2155" t="s">
-        <v>1559</v>
+        <v>1558</v>
       </c>
       <c r="H2155" t="s">
         <v>9</v>
@@ -61279,7 +61279,7 @@
         <v>3.35400009155273</v>
       </c>
       <c r="G2156" t="s">
-        <v>1608</v>
+        <v>1607</v>
       </c>
       <c r="H2156" t="s">
         <v>9</v>
@@ -61305,7 +61305,7 @@
         <v>3.40199995040894</v>
       </c>
       <c r="G2157" t="s">
-        <v>1609</v>
+        <v>1608</v>
       </c>
       <c r="H2157" t="s">
         <v>9</v>
@@ -61331,7 +61331,7 @@
         <v>3.24200010299683</v>
       </c>
       <c r="G2158" t="s">
-        <v>1610</v>
+        <v>1609</v>
       </c>
       <c r="H2158" t="s">
         <v>9</v>
@@ -61357,7 +61357,7 @@
         <v>3.23200011253357</v>
       </c>
       <c r="G2159" t="s">
-        <v>1611</v>
+        <v>1610</v>
       </c>
       <c r="H2159" t="s">
         <v>9</v>
@@ -61383,7 +61383,7 @@
         <v>3.20799994468689</v>
       </c>
       <c r="G2160" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
       <c r="H2160" t="s">
         <v>9</v>
@@ -61409,7 +61409,7 @@
         <v>3.2039999961853</v>
       </c>
       <c r="G2161" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
       <c r="H2161" t="s">
         <v>9</v>
@@ -61435,7 +61435,7 @@
         <v>3.19400000572205</v>
       </c>
       <c r="G2162" t="s">
-        <v>1614</v>
+        <v>1613</v>
       </c>
       <c r="H2162" t="s">
         <v>9</v>
@@ -61461,7 +61461,7 @@
         <v>3.23600006103516</v>
       </c>
       <c r="G2163" t="s">
-        <v>1615</v>
+        <v>1614</v>
       </c>
       <c r="H2163" t="s">
         <v>9</v>
@@ -61487,7 +61487,7 @@
         <v>3.19000005722046</v>
       </c>
       <c r="G2164" t="s">
-        <v>1616</v>
+        <v>1615</v>
       </c>
       <c r="H2164" t="s">
         <v>9</v>
@@ -61513,7 +61513,7 @@
         <v>3.21199989318848</v>
       </c>
       <c r="G2165" t="s">
-        <v>1617</v>
+        <v>1616</v>
       </c>
       <c r="H2165" t="s">
         <v>9</v>
@@ -61539,7 +61539,7 @@
         <v>3.25799989700317</v>
       </c>
       <c r="G2166" t="s">
-        <v>1618</v>
+        <v>1617</v>
       </c>
       <c r="H2166" t="s">
         <v>9</v>
@@ -61565,7 +61565,7 @@
         <v>3.27999997138977</v>
       </c>
       <c r="G2167" t="s">
-        <v>1619</v>
+        <v>1618</v>
       </c>
       <c r="H2167" t="s">
         <v>9</v>
@@ -61591,7 +61591,7 @@
         <v>3.2720000743866</v>
       </c>
       <c r="G2168" t="s">
-        <v>1620</v>
+        <v>1619</v>
       </c>
       <c r="H2168" t="s">
         <v>9</v>
@@ -61617,7 +61617,7 @@
         <v>3.25999999046326</v>
       </c>
       <c r="G2169" t="s">
-        <v>1621</v>
+        <v>1620</v>
       </c>
       <c r="H2169" t="s">
         <v>9</v>
@@ -61643,7 +61643,7 @@
         <v>3.33200001716614</v>
       </c>
       <c r="G2170" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
       <c r="H2170" t="s">
         <v>9</v>
@@ -61669,7 +61669,7 @@
         <v>3.35400009155273</v>
       </c>
       <c r="G2171" t="s">
-        <v>1623</v>
+        <v>1622</v>
       </c>
       <c r="H2171" t="s">
         <v>9</v>
@@ -61695,7 +61695,7 @@
         <v>3.34200000762939</v>
       </c>
       <c r="G2172" t="s">
-        <v>1624</v>
+        <v>1623</v>
       </c>
       <c r="H2172" t="s">
         <v>9</v>
@@ -61703,7 +61703,7 @@
     </row>
     <row r="2173">
       <c r="A2173" s="1" t="n">
-        <v>45488.6494212963</v>
+        <v>45488.2916666667</v>
       </c>
       <c r="B2173" t="n">
         <v>1323645</v>
@@ -61721,9 +61721,35 @@
         <v>3.2960000038147</v>
       </c>
       <c r="G2173" t="s">
+        <v>1624</v>
+      </c>
+      <c r="H2173" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2174">
+      <c r="A2174" s="1" t="n">
+        <v>45489.6493518519</v>
+      </c>
+      <c r="B2174" t="n">
+        <v>1376839</v>
+      </c>
+      <c r="C2174" t="n">
+        <v>3.32399988174438</v>
+      </c>
+      <c r="D2174" t="n">
+        <v>3.25200009346008</v>
+      </c>
+      <c r="E2174" t="n">
+        <v>3.28600001335144</v>
+      </c>
+      <c r="F2174" t="n">
+        <v>3.31599998474121</v>
+      </c>
+      <c r="G2174" t="s">
         <v>1625</v>
       </c>
-      <c r="H2173" t="s">
+      <c r="H2174" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/HER.MI.xlsx
+++ b/data/HER.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1631" uniqueCount="1631">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1632" uniqueCount="1632">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -44,82 +44,82 @@
     <t xml:space="preserve">HER.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">1.77260434627533</t>
+    <t xml:space="preserve">1.77260446548462</t>
   </si>
   <si>
     <t xml:space="preserve">1.76970553398132</t>
   </si>
   <si>
-    <t xml:space="preserve">1.77405345439911</t>
+    <t xml:space="preserve">1.77405369281769</t>
   </si>
   <si>
     <t xml:space="preserve">1.75086343288422</t>
   </si>
   <si>
-    <t xml:space="preserve">1.78999710083008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85811841487885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86101722717285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83637762069702</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81173837184906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76680672168732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83927631378174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81463694572449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83202958106995</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87261235713959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8566689491272</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87116289138794</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90304934978485</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88420748710632</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86971318721771</t>
+    <t xml:space="preserve">1.78999722003937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85811853408813</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86101710796356</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83637750148773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81173825263977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7668069601059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83927643299103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81463623046875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83202946186066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87261259555817</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85666906833649</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87116265296936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90304958820343</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88420724868774</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86971342563629</t>
   </si>
   <si>
     <t xml:space="preserve">1.91754329204559</t>
   </si>
   <si>
-    <t xml:space="preserve">1.92479050159454</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90884721279144</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89145421981812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.897252202034</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79289603233337</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80594027042389</t>
+    <t xml:space="preserve">1.92479002475739</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90884697437286</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89145445823669</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89725196361542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79289579391479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80594050884247</t>
   </si>
   <si>
     <t xml:space="preserve">1.824782371521</t>
@@ -131,85 +131,85 @@
     <t xml:space="preserve">1.82043421268463</t>
   </si>
   <si>
-    <t xml:space="preserve">1.86246657371521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84942221641541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84217488765717</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86536550521851</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86826395988464</t>
+    <t xml:space="preserve">1.86246645450592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84942197799683</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84217512607574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86536526679993</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86826431751251</t>
   </si>
   <si>
     <t xml:space="preserve">1.88855564594269</t>
   </si>
   <si>
-    <t xml:space="preserve">1.89870142936707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85521948337555</t>
+    <t xml:space="preserve">1.89870119094849</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85521960258484</t>
   </si>
   <si>
     <t xml:space="preserve">1.83058035373688</t>
   </si>
   <si>
-    <t xml:space="preserve">1.81028854846954</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80449104309082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79434525966644</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80883920192719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79724395275116</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82913064956665</t>
+    <t xml:space="preserve">1.81028831005096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80449080467224</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79434549808502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8088390827179</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79724407196045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82913053035736</t>
   </si>
   <si>
     <t xml:space="preserve">1.84507381916046</t>
   </si>
   <si>
-    <t xml:space="preserve">1.82623171806335</t>
+    <t xml:space="preserve">1.82623183727264</t>
   </si>
   <si>
     <t xml:space="preserve">1.8407256603241</t>
   </si>
   <si>
-    <t xml:space="preserve">1.86391615867615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90594828128815</t>
+    <t xml:space="preserve">1.86391603946686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90594816207886</t>
   </si>
   <si>
     <t xml:space="preserve">1.87840986251831</t>
   </si>
   <si>
-    <t xml:space="preserve">1.9262398481369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91174626350403</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83347880840302</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84797263145447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85377025604248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84362423419952</t>
+    <t xml:space="preserve">1.92623960971832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91174578666687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83347904682159</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84797275066376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85376989841461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84362471103668</t>
   </si>
   <si>
     <t xml:space="preserve">1.8465234041214</t>
@@ -221,10 +221,10 @@
     <t xml:space="preserve">1.87696051597595</t>
   </si>
   <si>
-    <t xml:space="preserve">1.85956752300262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85087132453918</t>
+    <t xml:space="preserve">1.8595677614212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85087156295776</t>
   </si>
   <si>
     <t xml:space="preserve">1.82188367843628</t>
@@ -233,76 +233,76 @@
     <t xml:space="preserve">1.81318736076355</t>
   </si>
   <si>
-    <t xml:space="preserve">1.89435303211212</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91464471817017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90015077590942</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91319513320923</t>
+    <t xml:space="preserve">1.8943532705307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91464447975159</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.900151014328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91319525241852</t>
   </si>
   <si>
     <t xml:space="preserve">1.89000499248505</t>
   </si>
   <si>
-    <t xml:space="preserve">1.90160024166107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89290392398834</t>
+    <t xml:space="preserve">1.90160000324249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89290404319763</t>
   </si>
   <si>
     <t xml:space="preserve">1.88130867481232</t>
   </si>
   <si>
-    <t xml:space="preserve">1.82768154144287</t>
+    <t xml:space="preserve">1.82768130302429</t>
   </si>
   <si>
     <t xml:space="preserve">1.7957946062088</t>
   </si>
   <si>
-    <t xml:space="preserve">1.80738961696625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.77550315856934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82295894622803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83948981761932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80492472648621</t>
+    <t xml:space="preserve">1.80738973617554</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77550303936005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82295870780945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8394900560379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80492460727692</t>
   </si>
   <si>
     <t xml:space="preserve">1.82446146011353</t>
   </si>
   <si>
-    <t xml:space="preserve">1.7673534154892</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73579347133636</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.77336466312408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80342185497284</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84700429439545</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90260994434357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87555861473083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87856471538544</t>
+    <t xml:space="preserve">1.76735329627991</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73579323291779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77336478233337</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80342197418213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84700453281403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90261006355286</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87555849552155</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87856459617615</t>
   </si>
   <si>
     <t xml:space="preserve">1.85151314735413</t>
@@ -314,16 +314,16 @@
     <t xml:space="preserve">1.79139888286591</t>
   </si>
   <si>
-    <t xml:space="preserve">1.82596457004547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81093597412109</t>
+    <t xml:space="preserve">1.82596468925476</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81093621253967</t>
   </si>
   <si>
     <t xml:space="preserve">1.83648431301117</t>
   </si>
   <si>
-    <t xml:space="preserve">1.83197569847107</t>
+    <t xml:space="preserve">1.83197593688965</t>
   </si>
   <si>
     <t xml:space="preserve">1.82746732234955</t>
@@ -332,49 +332,49 @@
     <t xml:space="preserve">1.83498156070709</t>
   </si>
   <si>
-    <t xml:space="preserve">1.84099304676056</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85001039505005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9056156873703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92665553092957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91914117336273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90411281585693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93567252159119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8996045589447</t>
+    <t xml:space="preserve">1.84099292755127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85001003742218</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90561592578888</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92665565013885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91914141178131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90411269664764</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93567264080048</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89960443973541</t>
   </si>
   <si>
     <t xml:space="preserve">1.91312992572784</t>
   </si>
   <si>
-    <t xml:space="preserve">1.86353576183319</t>
+    <t xml:space="preserve">1.86353588104248</t>
   </si>
   <si>
     <t xml:space="preserve">1.88758134841919</t>
   </si>
   <si>
-    <t xml:space="preserve">1.88006722927094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81394171714783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80943334102631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8334789276123</t>
+    <t xml:space="preserve">1.88006734848022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81394183635712</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80943298339844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83347868919373</t>
   </si>
   <si>
     <t xml:space="preserve">1.84249579906464</t>
@@ -383,34 +383,34 @@
     <t xml:space="preserve">1.85752439498901</t>
   </si>
   <si>
-    <t xml:space="preserve">1.86654138565063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85301578044891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85602152347565</t>
+    <t xml:space="preserve">1.86654150485992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8530158996582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85602176189423</t>
   </si>
   <si>
     <t xml:space="preserve">1.88307297229767</t>
   </si>
   <si>
-    <t xml:space="preserve">1.82145571708679</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80041599273682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.77035892009735</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80191898345947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81995296478271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.77486765384674</t>
+    <t xml:space="preserve">1.82145583629608</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80041587352753</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77035915851593</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80191886425018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81995332241058</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77486753463745</t>
   </si>
   <si>
     <t xml:space="preserve">1.77186179161072</t>
@@ -425,22 +425,22 @@
     <t xml:space="preserve">1.78087890148163</t>
   </si>
   <si>
-    <t xml:space="preserve">1.75983917713165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69221079349518</t>
+    <t xml:space="preserve">1.75983905792236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69221091270447</t>
   </si>
   <si>
     <t xml:space="preserve">1.66515946388245</t>
   </si>
   <si>
-    <t xml:space="preserve">1.65163385868073</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.63810837268829</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.66065096855164</t>
+    <t xml:space="preserve">1.65163373947144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.63810813426971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.66065073013306</t>
   </si>
   <si>
     <t xml:space="preserve">1.66966795921326</t>
@@ -449,61 +449,61 @@
     <t xml:space="preserve">1.67417657375336</t>
   </si>
   <si>
-    <t xml:space="preserve">1.6816908121109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69371366500854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.67868506908417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69972503185272</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69822227954865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.71174800395966</t>
+    <t xml:space="preserve">1.68169069290161</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69371342658997</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.67868494987488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69972491264343</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69822204113007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.71174812316895</t>
   </si>
   <si>
     <t xml:space="preserve">1.68319368362427</t>
   </si>
   <si>
-    <t xml:space="preserve">1.67567932605743</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.67718231678009</t>
+    <t xml:space="preserve">1.67567956447601</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.67718243598938</t>
   </si>
   <si>
     <t xml:space="preserve">1.68619930744171</t>
   </si>
   <si>
-    <t xml:space="preserve">1.72377061843872</t>
+    <t xml:space="preserve">1.72377038002014</t>
   </si>
   <si>
     <t xml:space="preserve">1.73128473758698</t>
   </si>
   <si>
-    <t xml:space="preserve">1.75082194805145</t>
+    <t xml:space="preserve">1.75082182884216</t>
   </si>
   <si>
     <t xml:space="preserve">1.65313673019409</t>
   </si>
   <si>
-    <t xml:space="preserve">1.6245824098587</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.62157690525055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60053706169128</t>
+    <t xml:space="preserve">1.62458217144012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.62157678604126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60053694248199</t>
   </si>
   <si>
     <t xml:space="preserve">1.51487421989441</t>
   </si>
   <si>
-    <t xml:space="preserve">1.51787996292114</t>
+    <t xml:space="preserve">1.51788008213043</t>
   </si>
   <si>
     <t xml:space="preserve">1.49984586238861</t>
@@ -512,10 +512,10 @@
     <t xml:space="preserve">1.49909436702728</t>
   </si>
   <si>
-    <t xml:space="preserve">1.50435447692871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.48331439495087</t>
+    <t xml:space="preserve">1.50435435771942</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.48331427574158</t>
   </si>
   <si>
     <t xml:space="preserve">1.47504878044128</t>
@@ -524,37 +524,37 @@
     <t xml:space="preserve">1.44799745082855</t>
   </si>
   <si>
-    <t xml:space="preserve">1.4464944601059</t>
+    <t xml:space="preserve">1.44649457931519</t>
   </si>
   <si>
     <t xml:space="preserve">1.46152317523956</t>
   </si>
   <si>
-    <t xml:space="preserve">1.46528029441833</t>
+    <t xml:space="preserve">1.46528017520905</t>
   </si>
   <si>
     <t xml:space="preserve">1.45025157928467</t>
   </si>
   <si>
-    <t xml:space="preserve">1.45400857925415</t>
+    <t xml:space="preserve">1.45400869846344</t>
   </si>
   <si>
     <t xml:space="preserve">1.4577659368515</t>
   </si>
   <si>
-    <t xml:space="preserve">1.46903717517853</t>
+    <t xml:space="preserve">1.46903729438782</t>
   </si>
   <si>
     <t xml:space="preserve">1.43296873569489</t>
   </si>
   <si>
-    <t xml:space="preserve">1.40967464447021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.42846024036407</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.49233150482178</t>
+    <t xml:space="preserve">1.4096747636795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.42846047878265</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.49233138561249</t>
   </si>
   <si>
     <t xml:space="preserve">1.53591418266296</t>
@@ -563,25 +563,25 @@
     <t xml:space="preserve">1.54793703556061</t>
   </si>
   <si>
-    <t xml:space="preserve">1.54042267799377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59001696109772</t>
+    <t xml:space="preserve">1.54042279720306</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59001672267914</t>
   </si>
   <si>
     <t xml:space="preserve">1.58400547504425</t>
   </si>
   <si>
-    <t xml:space="preserve">1.55695402622223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.56296527385712</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60654819011688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.61556541919708</t>
+    <t xml:space="preserve">1.55695414543152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.56296539306641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60654830932617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.61556529998779</t>
   </si>
   <si>
     <t xml:space="preserve">1.6290910243988</t>
@@ -590,40 +590,40 @@
     <t xml:space="preserve">1.65013086795807</t>
   </si>
   <si>
-    <t xml:space="preserve">1.62758803367615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.64712500572205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6681649684906</t>
+    <t xml:space="preserve">1.62758827209473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.64712512493134</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.66816520690918</t>
   </si>
   <si>
     <t xml:space="preserve">1.65614223480225</t>
   </si>
   <si>
-    <t xml:space="preserve">1.6591477394104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.62307953834534</t>
+    <t xml:space="preserve">1.65914797782898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.62307977676392</t>
   </si>
   <si>
     <t xml:space="preserve">1.71325063705444</t>
   </si>
   <si>
-    <t xml:space="preserve">1.70273077487946</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.71475374698639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.71625661849976</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.72076487541199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7012277841568</t>
+    <t xml:space="preserve">1.70273065567017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7147536277771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.71625638008118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.72076499462128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.70122790336609</t>
   </si>
   <si>
     <t xml:space="preserve">1.70423352718353</t>
@@ -638,22 +638,22 @@
     <t xml:space="preserve">1.60955393314362</t>
   </si>
   <si>
-    <t xml:space="preserve">1.64562261104584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6907080411911</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.74481058120728</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.72827911376953</t>
+    <t xml:space="preserve">1.64562237262726</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69070780277252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.74481046199799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7282794713974</t>
   </si>
   <si>
     <t xml:space="preserve">1.7403017282486</t>
   </si>
   <si>
-    <t xml:space="preserve">1.75382781028748</t>
+    <t xml:space="preserve">1.75382792949677</t>
   </si>
   <si>
     <t xml:space="preserve">1.75683343410492</t>
@@ -671,10 +671,10 @@
     <t xml:space="preserve">1.79440462589264</t>
   </si>
   <si>
-    <t xml:space="preserve">1.79891347885132</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78388464450836</t>
+    <t xml:space="preserve">1.79891324043274</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78388476371765</t>
   </si>
   <si>
     <t xml:space="preserve">1.78839349746704</t>
@@ -683,88 +683,88 @@
     <t xml:space="preserve">1.77937626838684</t>
   </si>
   <si>
-    <t xml:space="preserve">1.78238201141357</t>
+    <t xml:space="preserve">1.78238165378571</t>
   </si>
   <si>
     <t xml:space="preserve">1.80642771720886</t>
   </si>
   <si>
-    <t xml:space="preserve">1.84850704669952</t>
+    <t xml:space="preserve">1.84850764274597</t>
   </si>
   <si>
     <t xml:space="preserve">1.85451865196228</t>
   </si>
   <si>
-    <t xml:space="preserve">1.88157033920288</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89810180664062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93867802619934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.97023832798004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.98526692390442</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.98676991462708</t>
+    <t xml:space="preserve">1.88156962394714</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89810168743134</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93867826461792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.97023856639862</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.98526668548584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.98676955699921</t>
   </si>
   <si>
     <t xml:space="preserve">1.95070123672485</t>
   </si>
   <si>
-    <t xml:space="preserve">1.94168412685394</t>
+    <t xml:space="preserve">1.94168436527252</t>
   </si>
   <si>
     <t xml:space="preserve">1.95971834659576</t>
   </si>
   <si>
-    <t xml:space="preserve">1.97174119949341</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.97624969482422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.98376381397247</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.01682686805725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.00931215286255</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94919836521149</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95370697975159</t>
+    <t xml:space="preserve">1.97174096107483</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.97624957561493</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.98376405239105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.01682639122009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.00931239128113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94919860363007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95370674133301</t>
   </si>
   <si>
     <t xml:space="preserve">2.00029540061951</t>
   </si>
   <si>
-    <t xml:space="preserve">1.96873545646667</t>
+    <t xml:space="preserve">1.9687352180481</t>
   </si>
   <si>
     <t xml:space="preserve">1.9582154750824</t>
   </si>
   <si>
-    <t xml:space="preserve">1.9732438325882</t>
+    <t xml:space="preserve">1.97324407100677</t>
   </si>
   <si>
     <t xml:space="preserve">1.98827230930328</t>
   </si>
   <si>
-    <t xml:space="preserve">1.9957869052887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.00780916213989</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.01081514358521</t>
+    <t xml:space="preserve">1.99578642845154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.00780940055847</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.01081562042236</t>
   </si>
   <si>
     <t xml:space="preserve">2.02133536338806</t>
@@ -779,10 +779,10 @@
     <t xml:space="preserve">2.13404893875122</t>
   </si>
   <si>
-    <t xml:space="preserve">2.14607167243958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.12803745269775</t>
+    <t xml:space="preserve">2.14607191085815</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.12803792953491</t>
   </si>
   <si>
     <t xml:space="preserve">2.18063735961914</t>
@@ -791,19 +791,19 @@
     <t xml:space="preserve">2.14156317710876</t>
   </si>
   <si>
-    <t xml:space="preserve">2.11451196670532</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.15058064460754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16410613059998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.20768857002258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.19115734100342</t>
+    <t xml:space="preserve">2.1145122051239</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.15058040618896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16410636901855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.20768880844116</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.19115710258484</t>
   </si>
   <si>
     <t xml:space="preserve">2.18965458869934</t>
@@ -812,16 +812,16 @@
     <t xml:space="preserve">2.17913460731506</t>
   </si>
   <si>
-    <t xml:space="preserve">2.13104319572449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16711235046387</t>
+    <t xml:space="preserve">2.13104343414307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16711187362671</t>
   </si>
   <si>
     <t xml:space="preserve">2.2016773223877</t>
   </si>
   <si>
-    <t xml:space="preserve">2.15659189224243</t>
+    <t xml:space="preserve">2.15659213066101</t>
   </si>
   <si>
     <t xml:space="preserve">2.1821403503418</t>
@@ -830,19 +830,19 @@
     <t xml:space="preserve">2.19867181777954</t>
   </si>
   <si>
-    <t xml:space="preserve">2.18664908409119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.22722601890564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.21219706535339</t>
+    <t xml:space="preserve">2.18664860725403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.22722578048706</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.21219754219055</t>
   </si>
   <si>
     <t xml:space="preserve">2.23474025726318</t>
   </si>
   <si>
-    <t xml:space="preserve">2.22271728515625</t>
+    <t xml:space="preserve">2.22271704673767</t>
   </si>
   <si>
     <t xml:space="preserve">2.23624277114868</t>
@@ -851,22 +851,22 @@
     <t xml:space="preserve">2.24864077568054</t>
   </si>
   <si>
-    <t xml:space="preserve">2.25948882102966</t>
+    <t xml:space="preserve">2.25948858261108</t>
   </si>
   <si>
     <t xml:space="preserve">2.25328993797302</t>
   </si>
   <si>
-    <t xml:space="preserve">2.23624300956726</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.17735362052917</t>
+    <t xml:space="preserve">2.23624324798584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.17735385894775</t>
   </si>
   <si>
     <t xml:space="preserve">2.1913013458252</t>
   </si>
   <si>
-    <t xml:space="preserve">2.14945912361145</t>
+    <t xml:space="preserve">2.14945888519287</t>
   </si>
   <si>
     <t xml:space="preserve">2.13551163673401</t>
@@ -875,34 +875,34 @@
     <t xml:space="preserve">2.09211921691895</t>
   </si>
   <si>
-    <t xml:space="preserve">2.07352256774902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.0859203338623</t>
+    <t xml:space="preserve">2.07352304458618</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.08592009544373</t>
   </si>
   <si>
     <t xml:space="preserve">2.08282089233398</t>
   </si>
   <si>
-    <t xml:space="preserve">2.07197260856628</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.02393174171448</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.04407835006714</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.07972168922424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.05647611618042</t>
+    <t xml:space="preserve">2.07197284698486</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.02393198013306</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.04407787322998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.07972121238708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.05647563934326</t>
   </si>
   <si>
     <t xml:space="preserve">2.10606670379639</t>
   </si>
   <si>
-    <t xml:space="preserve">2.12931251525879</t>
+    <t xml:space="preserve">2.12931227684021</t>
   </si>
   <si>
     <t xml:space="preserve">2.11536526679993</t>
@@ -911,40 +911,40 @@
     <t xml:space="preserve">2.10761642456055</t>
   </si>
   <si>
-    <t xml:space="preserve">2.12156367301941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.09986805915833</t>
+    <t xml:space="preserve">2.12156391143799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.09986782073975</t>
   </si>
   <si>
     <t xml:space="preserve">2.13861083984375</t>
   </si>
   <si>
-    <t xml:space="preserve">2.15410804748535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.10916590690613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.08901977539062</t>
+    <t xml:space="preserve">2.15410780906677</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.10916566848755</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.0890200138092</t>
   </si>
   <si>
     <t xml:space="preserve">2.13086223602295</t>
   </si>
   <si>
-    <t xml:space="preserve">2.12001442909241</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.11846470832825</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.11226582527161</t>
+    <t xml:space="preserve">2.12001466751099</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.11846446990967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.11226534843445</t>
   </si>
   <si>
     <t xml:space="preserve">2.12466335296631</t>
   </si>
   <si>
-    <t xml:space="preserve">2.12621283531189</t>
+    <t xml:space="preserve">2.12621331214905</t>
   </si>
   <si>
     <t xml:space="preserve">2.07662200927734</t>
@@ -953,52 +953,52 @@
     <t xml:space="preserve">2.13241219520569</t>
   </si>
   <si>
-    <t xml:space="preserve">2.11071562767029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.06887340545654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.04872751235962</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.03477954864502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.04097867012024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.10141754150391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.08746981620789</t>
+    <t xml:space="preserve">2.11071610450745</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.06887364387512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.04872703552246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.0347797870636</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.04097843170166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.10141730308533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.08747005462646</t>
   </si>
   <si>
     <t xml:space="preserve">2.08437085151672</t>
   </si>
   <si>
-    <t xml:space="preserve">2.0781717300415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.15565800666809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.09366917610168</t>
+    <t xml:space="preserve">2.07817196846008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.15565752983093</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.09366893768311</t>
   </si>
   <si>
     <t xml:space="preserve">2.07507228851318</t>
   </si>
   <si>
-    <t xml:space="preserve">2.05957531929016</t>
+    <t xml:space="preserve">2.05957508087158</t>
   </si>
   <si>
     <t xml:space="preserve">2.06112504005432</t>
   </si>
   <si>
-    <t xml:space="preserve">2.04562759399414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.09676837921143</t>
+    <t xml:space="preserve">2.04562783241272</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.09676861763</t>
   </si>
   <si>
     <t xml:space="preserve">2.11381530761719</t>
@@ -1010,7 +1010,7 @@
     <t xml:space="preserve">2.14790916442871</t>
   </si>
   <si>
-    <t xml:space="preserve">2.15100860595703</t>
+    <t xml:space="preserve">2.15100836753845</t>
   </si>
   <si>
     <t xml:space="preserve">2.14326024055481</t>
@@ -1022,25 +1022,25 @@
     <t xml:space="preserve">2.15255856513977</t>
   </si>
   <si>
-    <t xml:space="preserve">2.16185641288757</t>
+    <t xml:space="preserve">2.16185665130615</t>
   </si>
   <si>
     <t xml:space="preserve">2.18510246276855</t>
   </si>
   <si>
-    <t xml:space="preserve">2.2036988735199</t>
+    <t xml:space="preserve">2.20369911193848</t>
   </si>
   <si>
     <t xml:space="preserve">2.23004412651062</t>
   </si>
   <si>
-    <t xml:space="preserve">2.24089217185974</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.26258826255798</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.27808547019958</t>
+    <t xml:space="preserve">2.24089241027832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.2625880241394</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.27808570861816</t>
   </si>
   <si>
     <t xml:space="preserve">2.26878690719604</t>
@@ -1052,43 +1052,43 @@
     <t xml:space="preserve">2.24709105491638</t>
   </si>
   <si>
-    <t xml:space="preserve">2.25174021720886</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.27343606948853</t>
+    <t xml:space="preserve">2.25173997879028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.2734363079071</t>
   </si>
   <si>
     <t xml:space="preserve">2.27498602867126</t>
   </si>
   <si>
-    <t xml:space="preserve">2.27653551101685</t>
+    <t xml:space="preserve">2.27653574943542</t>
   </si>
   <si>
     <t xml:space="preserve">2.30753016471863</t>
   </si>
   <si>
-    <t xml:space="preserve">2.35557126998901</t>
+    <t xml:space="preserve">2.35557103157043</t>
   </si>
   <si>
     <t xml:space="preserve">2.34007430076599</t>
   </si>
   <si>
-    <t xml:space="preserve">2.34317374229431</t>
+    <t xml:space="preserve">2.34317350387573</t>
   </si>
   <si>
     <t xml:space="preserve">2.36641907691956</t>
   </si>
   <si>
-    <t xml:space="preserve">2.38036704063416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.3912148475647</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.38656544685364</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.42685842514038</t>
+    <t xml:space="preserve">2.380366563797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.39121508598328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.3865659236908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.42685794830322</t>
   </si>
   <si>
     <t xml:space="preserve">2.37416768074036</t>
@@ -1100,31 +1100,31 @@
     <t xml:space="preserve">2.38966512680054</t>
   </si>
   <si>
-    <t xml:space="preserve">2.40206265449524</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.33852434158325</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.34162378311157</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.36332011222839</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.31217908859253</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.30907988548279</t>
+    <t xml:space="preserve">2.4020631313324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.33852410316467</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.34162402153015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.36331987380981</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.31217932701111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.30907964706421</t>
   </si>
   <si>
     <t xml:space="preserve">2.30133104324341</t>
   </si>
   <si>
-    <t xml:space="preserve">2.25483989715576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.23469376564026</t>
+    <t xml:space="preserve">2.2548394203186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.2346932888031</t>
   </si>
   <si>
     <t xml:space="preserve">2.29358267784119</t>
@@ -1139,13 +1139,13 @@
     <t xml:space="preserve">2.32457685470581</t>
   </si>
   <si>
-    <t xml:space="preserve">2.35402154922485</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.32147765159607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.36176991462708</t>
+    <t xml:space="preserve">2.35402202606201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.32147741317749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.36177015304565</t>
   </si>
   <si>
     <t xml:space="preserve">2.37106847763062</t>
@@ -1160,16 +1160,16 @@
     <t xml:space="preserve">2.36486959457397</t>
   </si>
   <si>
-    <t xml:space="preserve">2.32922625541687</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.26568746566772</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.21454739570618</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.18975162506104</t>
+    <t xml:space="preserve">2.32922601699829</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.26568794250488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.21454691886902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.18975138664246</t>
   </si>
   <si>
     <t xml:space="preserve">2.13396167755127</t>
@@ -1181,13 +1181,13 @@
     <t xml:space="preserve">2.17270469665527</t>
   </si>
   <si>
-    <t xml:space="preserve">2.20524907112122</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.21299695968628</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.17115473747253</t>
+    <t xml:space="preserve">2.20524859428406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.21299719810486</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.17115521430969</t>
   </si>
   <si>
     <t xml:space="preserve">2.14635920524597</t>
@@ -1199,16 +1199,16 @@
     <t xml:space="preserve">2.16340613365173</t>
   </si>
   <si>
-    <t xml:space="preserve">2.16030693054199</t>
+    <t xml:space="preserve">2.16030669212341</t>
   </si>
   <si>
     <t xml:space="preserve">2.15875697135925</t>
   </si>
   <si>
-    <t xml:space="preserve">2.1804530620575</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.17580366134644</t>
+    <t xml:space="preserve">2.18045330047607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.17580437660217</t>
   </si>
   <si>
     <t xml:space="preserve">2.199049949646</t>
@@ -1220,31 +1220,31 @@
     <t xml:space="preserve">2.30443072319031</t>
   </si>
   <si>
-    <t xml:space="preserve">2.31372928619385</t>
+    <t xml:space="preserve">2.31372880935669</t>
   </si>
   <si>
     <t xml:space="preserve">2.32612681388855</t>
   </si>
   <si>
-    <t xml:space="preserve">2.34782290458679</t>
+    <t xml:space="preserve">2.34782266616821</t>
   </si>
   <si>
     <t xml:space="preserve">2.31837821006775</t>
   </si>
   <si>
-    <t xml:space="preserve">2.33697462081909</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.37881684303284</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.38346648216248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.36951875686646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.31062984466553</t>
+    <t xml:space="preserve">2.33697485923767</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.37881731987</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.3834662437439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.36951899528503</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.31062960624695</t>
   </si>
   <si>
     <t xml:space="preserve">2.33542513847351</t>
@@ -1262,16 +1262,16 @@
     <t xml:space="preserve">2.019282579422</t>
   </si>
   <si>
-    <t xml:space="preserve">2.03787922859192</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.0549259185791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.0425283908844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.05182647705078</t>
+    <t xml:space="preserve">2.03787899017334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.05492615699768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.04252791404724</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.05182671546936</t>
   </si>
   <si>
     <t xml:space="preserve">2.02083230018616</t>
@@ -1280,19 +1280,19 @@
     <t xml:space="preserve">2.10410904884338</t>
   </si>
   <si>
-    <t xml:space="preserve">2.1378390789032</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.14908242225647</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.11374640464783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.11695861816406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.15068888664246</t>
+    <t xml:space="preserve">2.13783931732178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.14908266067505</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.11374616622925</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.11695837974548</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.15068864822388</t>
   </si>
   <si>
     <t xml:space="preserve">2.13623332977295</t>
@@ -1301,34 +1301,34 @@
     <t xml:space="preserve">2.16675043106079</t>
   </si>
   <si>
-    <t xml:space="preserve">2.14426374435425</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.18441891670227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.21493601799011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.234210729599</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.24063515663147</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.22457337379456</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.21654224395752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.22778606414795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.21333003044128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.24866604804993</t>
+    <t xml:space="preserve">2.14426422119141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.18441867828369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.21493625640869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.23421049118042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.24063539505005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.22457313537598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.2165424823761</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.22778558731079</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.21333026885986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.24866628646851</t>
   </si>
   <si>
     <t xml:space="preserve">2.25348496437073</t>
@@ -1337,16 +1337,16 @@
     <t xml:space="preserve">2.23260426521301</t>
   </si>
   <si>
-    <t xml:space="preserve">2.18281245231628</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16996264457703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.28882098197937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.25187849998474</t>
+    <t xml:space="preserve">2.18281269073486</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16996288299561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.28882122039795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.25187873840332</t>
   </si>
   <si>
     <t xml:space="preserve">2.27757787704468</t>
@@ -1361,31 +1361,31 @@
     <t xml:space="preserve">2.29845809936523</t>
   </si>
   <si>
-    <t xml:space="preserve">2.26472783088684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.24384737014771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.23099851608276</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.21172380447388</t>
+    <t xml:space="preserve">2.264728307724</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.24384784698486</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.23099827766418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.21172404289246</t>
   </si>
   <si>
     <t xml:space="preserve">2.20529913902283</t>
   </si>
   <si>
-    <t xml:space="preserve">2.1988742351532</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.2470600605011</t>
+    <t xml:space="preserve">2.19887447357178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.24706029891968</t>
   </si>
   <si>
     <t xml:space="preserve">2.23742294311523</t>
   </si>
   <si>
-    <t xml:space="preserve">2.22939205169678</t>
+    <t xml:space="preserve">2.2293918132782</t>
   </si>
   <si>
     <t xml:space="preserve">2.17478156089783</t>
@@ -1397,49 +1397,49 @@
     <t xml:space="preserve">2.1683566570282</t>
   </si>
   <si>
-    <t xml:space="preserve">2.1860249042511</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.20369291305542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.20690512657166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.26954650878906</t>
+    <t xml:space="preserve">2.18602442741394</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.203693151474</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.20690536499023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.26954674720764</t>
   </si>
   <si>
     <t xml:space="preserve">2.28239631652832</t>
   </si>
   <si>
-    <t xml:space="preserve">2.27918410301208</t>
+    <t xml:space="preserve">2.27918386459351</t>
   </si>
   <si>
     <t xml:space="preserve">2.28400254249573</t>
   </si>
   <si>
-    <t xml:space="preserve">2.29042720794678</t>
+    <t xml:space="preserve">2.29042744636536</t>
   </si>
   <si>
     <t xml:space="preserve">2.29363942146301</t>
   </si>
   <si>
-    <t xml:space="preserve">2.25669741630554</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.20048069953918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.19566202163696</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.15390110015869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.14586997032166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.12820219993591</t>
+    <t xml:space="preserve">2.25669717788696</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.20048046112061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.19566178321838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.15390086174011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.14587020874023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.12820196151733</t>
   </si>
   <si>
     <t xml:space="preserve">2.08965349197388</t>
@@ -1448,106 +1448,106 @@
     <t xml:space="preserve">2.03504300117493</t>
   </si>
   <si>
-    <t xml:space="preserve">2.05592322349548</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.00934386253357</t>
+    <t xml:space="preserve">2.05592346191406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.00934410095215</t>
   </si>
   <si>
     <t xml:space="preserve">1.97400772571564</t>
   </si>
   <si>
-    <t xml:space="preserve">1.93224692344666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.98685741424561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94188392162323</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96437048912048</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.97240173816681</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94027781486511</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92903459072113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.99970710277557</t>
+    <t xml:space="preserve">1.93224668502808</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.98685717582703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94188404083252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96437084674835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.97240149974823</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94027757644653</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92903447151184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.99970698356628</t>
   </si>
   <si>
     <t xml:space="preserve">1.96758306026459</t>
   </si>
   <si>
-    <t xml:space="preserve">1.96115803718567</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94991505146027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95955204963684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95794606208801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.97561395168304</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.99328219890594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.03986167907715</t>
+    <t xml:space="preserve">1.96115839481354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94991481304169</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95955216884613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95794594287872</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.97561407089233</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.99328207969666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.03986144065857</t>
   </si>
   <si>
     <t xml:space="preserve">1.99006962776184</t>
   </si>
   <si>
-    <t xml:space="preserve">2.05271077156067</t>
+    <t xml:space="preserve">2.05271124839783</t>
   </si>
   <si>
     <t xml:space="preserve">2.04307389259338</t>
   </si>
   <si>
-    <t xml:space="preserve">2.05110502243042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.01416230201721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.00291919708252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.99649465084076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.99167585372925</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96276426315308</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.98043274879456</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94830882549286</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.01095008850098</t>
+    <t xml:space="preserve">2.05110478401184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.01416254043579</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.0029194355011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.99649453163147</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.99167609214783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96276438236237</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.98043251037598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94830858707428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.0109498500824</t>
   </si>
   <si>
     <t xml:space="preserve">1.93867158889771</t>
   </si>
   <si>
-    <t xml:space="preserve">2.02058720588684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.06074190139771</t>
+    <t xml:space="preserve">2.02058744430542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.06074213981628</t>
   </si>
   <si>
     <t xml:space="preserve">2.17156910896301</t>
@@ -1562,16 +1562,16 @@
     <t xml:space="preserve">2.17638778686523</t>
   </si>
   <si>
-    <t xml:space="preserve">2.16032600402832</t>
+    <t xml:space="preserve">2.16032576560974</t>
   </si>
   <si>
     <t xml:space="preserve">2.27275896072388</t>
   </si>
   <si>
-    <t xml:space="preserve">2.27597188949585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.2599093914032</t>
+    <t xml:space="preserve">2.27597165107727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.25990962982178</t>
   </si>
   <si>
     <t xml:space="preserve">2.28721499443054</t>
@@ -1583,7 +1583,7 @@
     <t xml:space="preserve">2.31291389465332</t>
   </si>
   <si>
-    <t xml:space="preserve">2.28560876846313</t>
+    <t xml:space="preserve">2.28560853004456</t>
   </si>
   <si>
     <t xml:space="preserve">2.28079009056091</t>
@@ -1592,28 +1592,28 @@
     <t xml:space="preserve">2.30970144271851</t>
   </si>
   <si>
-    <t xml:space="preserve">2.34503769874573</t>
+    <t xml:space="preserve">2.34503746032715</t>
   </si>
   <si>
     <t xml:space="preserve">2.34664368629456</t>
   </si>
   <si>
-    <t xml:space="preserve">2.37073683738708</t>
+    <t xml:space="preserve">2.37073636054993</t>
   </si>
   <si>
     <t xml:space="preserve">2.37876749038696</t>
   </si>
   <si>
-    <t xml:space="preserve">2.36752438545227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.36913061141968</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.37555527687073</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.35467457771301</t>
+    <t xml:space="preserve">2.36752390861511</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.3691303730011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.37555503845215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.35467481613159</t>
   </si>
   <si>
     <t xml:space="preserve">2.34021902084351</t>
@@ -1622,7 +1622,7 @@
     <t xml:space="preserve">2.36591815948486</t>
   </si>
   <si>
-    <t xml:space="preserve">2.38840484619141</t>
+    <t xml:space="preserve">2.38840508460999</t>
   </si>
   <si>
     <t xml:space="preserve">2.386798620224</t>
@@ -1631,7 +1631,7 @@
     <t xml:space="preserve">2.39322352409363</t>
   </si>
   <si>
-    <t xml:space="preserve">2.38358640670776</t>
+    <t xml:space="preserve">2.38358616828918</t>
   </si>
   <si>
     <t xml:space="preserve">2.37394905090332</t>
@@ -1649,46 +1649,46 @@
     <t xml:space="preserve">2.33861303329468</t>
   </si>
   <si>
-    <t xml:space="preserve">2.35306882858276</t>
+    <t xml:space="preserve">2.35306859016418</t>
   </si>
   <si>
     <t xml:space="preserve">2.34985637664795</t>
   </si>
   <si>
-    <t xml:space="preserve">2.38519263267517</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.38198018074036</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.3996479511261</t>
+    <t xml:space="preserve">2.38519239425659</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.38198041915894</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.39964818954468</t>
   </si>
   <si>
     <t xml:space="preserve">2.40767884254456</t>
   </si>
   <si>
-    <t xml:space="preserve">2.34182548522949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.32255077362061</t>
+    <t xml:space="preserve">2.34182524681091</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.32255125045776</t>
   </si>
   <si>
     <t xml:space="preserve">2.43177223205566</t>
   </si>
   <si>
-    <t xml:space="preserve">2.46871423721313</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.47032046318054</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.49280714988708</t>
+    <t xml:space="preserve">2.46871447563171</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.47032070159912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.49280738830566</t>
   </si>
   <si>
     <t xml:space="preserve">2.51850605010986</t>
   </si>
   <si>
-    <t xml:space="preserve">2.52171850204468</t>
+    <t xml:space="preserve">2.52171874046326</t>
   </si>
   <si>
     <t xml:space="preserve">2.56829810142517</t>
@@ -1697,34 +1697,34 @@
     <t xml:space="preserve">2.5875723361969</t>
   </si>
   <si>
-    <t xml:space="preserve">2.58275413513184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.58917856216431</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.60202813148499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.64378905296326</t>
+    <t xml:space="preserve">2.58275389671326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.58917832374573</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.60202789306641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.64378929138184</t>
   </si>
   <si>
     <t xml:space="preserve">2.61487770080566</t>
   </si>
   <si>
-    <t xml:space="preserve">2.59560322761536</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.61005878448486</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.55384254455566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.57151031494141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.5570547580719</t>
+    <t xml:space="preserve">2.59560370445251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.61005926132202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.55384230613708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.57151055335999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.55705499649048</t>
   </si>
   <si>
     <t xml:space="preserve">2.52493095397949</t>
@@ -1736,13 +1736,13 @@
     <t xml:space="preserve">2.54420518875122</t>
   </si>
   <si>
-    <t xml:space="preserve">2.55866098403931</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.53778076171875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.54902386665344</t>
+    <t xml:space="preserve">2.55866074562073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.53778052330017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.54902362823486</t>
   </si>
   <si>
     <t xml:space="preserve">2.56347942352295</t>
@@ -1754,7 +1754,7 @@
     <t xml:space="preserve">2.51690030097961</t>
   </si>
   <si>
-    <t xml:space="preserve">2.539386510849</t>
+    <t xml:space="preserve">2.53938674926758</t>
   </si>
   <si>
     <t xml:space="preserve">2.52011251449585</t>
@@ -1766,46 +1766,46 @@
     <t xml:space="preserve">2.62451457977295</t>
   </si>
   <si>
-    <t xml:space="preserve">2.63254594802856</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.6357581615448</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.63897037506104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.65181994438171</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.65342617034912</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.63093996047974</t>
+    <t xml:space="preserve">2.63254570960999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.63575792312622</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.63897061347961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.65182018280029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.6534264087677</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.63093948364258</t>
   </si>
   <si>
     <t xml:space="preserve">2.62933325767517</t>
   </si>
   <si>
-    <t xml:space="preserve">2.6229088306427</t>
+    <t xml:space="preserve">2.62290835380554</t>
   </si>
   <si>
     <t xml:space="preserve">2.61166548728943</t>
   </si>
   <si>
-    <t xml:space="preserve">2.65985107421875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.68715620040894</t>
+    <t xml:space="preserve">2.65985083580017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.68715643882751</t>
   </si>
   <si>
     <t xml:space="preserve">2.70000553131104</t>
   </si>
   <si>
-    <t xml:space="preserve">2.70161199569702</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.69679307937622</t>
+    <t xml:space="preserve">2.7016122341156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.6967933177948</t>
   </si>
   <si>
     <t xml:space="preserve">2.69839930534363</t>
@@ -1814,13 +1814,13 @@
     <t xml:space="preserve">2.68555021286011</t>
   </si>
   <si>
-    <t xml:space="preserve">2.68233776092529</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.74497890472412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.75140380859375</t>
+    <t xml:space="preserve">2.68233752250671</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.7449791431427</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.75140404701233</t>
   </si>
   <si>
     <t xml:space="preserve">2.78513407707214</t>
@@ -1829,7 +1829,7 @@
     <t xml:space="preserve">2.81725740432739</t>
   </si>
   <si>
-    <t xml:space="preserve">2.79741811752319</t>
+    <t xml:space="preserve">2.79741787910461</t>
   </si>
   <si>
     <t xml:space="preserve">2.77923130989075</t>
@@ -1844,13 +1844,13 @@
     <t xml:space="preserve">2.78088474273682</t>
   </si>
   <si>
-    <t xml:space="preserve">2.76600456237793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.83213758468628</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.91645693778992</t>
+    <t xml:space="preserve">2.76600480079651</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.83213782310486</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.9164571762085</t>
   </si>
   <si>
     <t xml:space="preserve">2.91315031051636</t>
@@ -1859,22 +1859,22 @@
     <t xml:space="preserve">2.88835048675537</t>
   </si>
   <si>
-    <t xml:space="preserve">2.8767774105072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.8866970539093</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.90157699584961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.89992332458496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.93298983573914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.91149687767029</t>
+    <t xml:space="preserve">2.87677717208862</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.88669729232788</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.90157651901245</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.89992380142212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.93299007415771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.91149711608887</t>
   </si>
   <si>
     <t xml:space="preserve">2.86189723014832</t>
@@ -1883,31 +1883,31 @@
     <t xml:space="preserve">2.84701752662659</t>
   </si>
   <si>
-    <t xml:space="preserve">2.85197758674622</t>
+    <t xml:space="preserve">2.85197734832764</t>
   </si>
   <si>
     <t xml:space="preserve">2.83379077911377</t>
   </si>
   <si>
-    <t xml:space="preserve">2.83048439025879</t>
+    <t xml:space="preserve">2.83048415184021</t>
   </si>
   <si>
     <t xml:space="preserve">2.83544421195984</t>
   </si>
   <si>
-    <t xml:space="preserve">2.76931118965149</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.78584456443787</t>
+    <t xml:space="preserve">2.76931142807007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.78584432601929</t>
   </si>
   <si>
     <t xml:space="preserve">2.83875060081482</t>
   </si>
   <si>
-    <t xml:space="preserve">2.81229782104492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.79576444625854</t>
+    <t xml:space="preserve">2.81229758262634</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.79576420783997</t>
   </si>
   <si>
     <t xml:space="preserve">2.80733776092529</t>
@@ -1916,10 +1916,10 @@
     <t xml:space="preserve">2.82883095741272</t>
   </si>
   <si>
-    <t xml:space="preserve">2.80568408966064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.83709740638733</t>
+    <t xml:space="preserve">2.8056845664978</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.83709764480591</t>
   </si>
   <si>
     <t xml:space="preserve">2.78749799728394</t>
@@ -1928,34 +1928,34 @@
     <t xml:space="preserve">2.86520385742188</t>
   </si>
   <si>
-    <t xml:space="preserve">2.89165711402893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.88173699378967</t>
+    <t xml:space="preserve">2.89165687561035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.88173723220825</t>
   </si>
   <si>
     <t xml:space="preserve">2.89000391960144</t>
   </si>
   <si>
-    <t xml:space="preserve">2.91811037063599</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.98920297622681</t>
+    <t xml:space="preserve">2.91810989379883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.98920273780823</t>
   </si>
   <si>
     <t xml:space="preserve">2.98589634895325</t>
   </si>
   <si>
-    <t xml:space="preserve">3.02392244338989</t>
+    <t xml:space="preserve">3.02392292022705</t>
   </si>
   <si>
     <t xml:space="preserve">2.99912285804749</t>
   </si>
   <si>
-    <t xml:space="preserve">2.99416255950928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.9958164691925</t>
+    <t xml:space="preserve">2.99416279792786</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.99581623077393</t>
   </si>
   <si>
     <t xml:space="preserve">3.02557611465454</t>
@@ -1967,19 +1967,19 @@
     <t xml:space="preserve">2.90488362312317</t>
   </si>
   <si>
-    <t xml:space="preserve">2.89661693572998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.95117664337158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.92307019233704</t>
+    <t xml:space="preserve">2.8966166973114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.951176404953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.92306995391846</t>
   </si>
   <si>
     <t xml:space="preserve">2.9263768196106</t>
   </si>
   <si>
-    <t xml:space="preserve">2.95282983779907</t>
+    <t xml:space="preserve">2.95283007621765</t>
   </si>
   <si>
     <t xml:space="preserve">3.01565599441528</t>
@@ -1988,19 +1988,19 @@
     <t xml:space="preserve">3.01234936714172</t>
   </si>
   <si>
-    <t xml:space="preserve">2.97597622871399</t>
+    <t xml:space="preserve">2.97597599029541</t>
   </si>
   <si>
     <t xml:space="preserve">3.0619490146637</t>
   </si>
   <si>
-    <t xml:space="preserve">3.06029558181763</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.13304162025452</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.07517576217651</t>
+    <t xml:space="preserve">3.06029534339905</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.1330418586731</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.07517552375793</t>
   </si>
   <si>
     <t xml:space="preserve">3.11320185661316</t>
@@ -2012,34 +2012,34 @@
     <t xml:space="preserve">3.08178877830505</t>
   </si>
   <si>
-    <t xml:space="preserve">3.12808179855347</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.13469529151917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.11650848388672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.09005546569824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.11485528945923</t>
+    <t xml:space="preserve">3.12808203697205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.13469505310059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.1165087223053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.09005570411682</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.11485505104065</t>
   </si>
   <si>
     <t xml:space="preserve">3.12642860412598</t>
   </si>
   <si>
-    <t xml:space="preserve">3.09501552581787</t>
+    <t xml:space="preserve">3.09501528739929</t>
   </si>
   <si>
     <t xml:space="preserve">3.13634848594666</t>
   </si>
   <si>
-    <t xml:space="preserve">3.10824203491211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.076828956604</t>
+    <t xml:space="preserve">3.10824179649353</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.07682871818542</t>
   </si>
   <si>
     <t xml:space="preserve">3.10493564605713</t>
@@ -2051,94 +2051,94 @@
     <t xml:space="preserve">3.15949511528015</t>
   </si>
   <si>
-    <t xml:space="preserve">3.17272138595581</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.16280126571655</t>
+    <t xml:space="preserve">3.17272162437439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.16280150413513</t>
   </si>
   <si>
     <t xml:space="preserve">3.18429493904114</t>
   </si>
   <si>
-    <t xml:space="preserve">3.14296174049377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.16776180267334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.18098831176758</t>
+    <t xml:space="preserve">3.14296197891235</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.16776156425476</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.180988073349</t>
   </si>
   <si>
     <t xml:space="preserve">3.16610813140869</t>
   </si>
   <si>
-    <t xml:space="preserve">3.18760132789612</t>
+    <t xml:space="preserve">3.18760108947754</t>
   </si>
   <si>
     <t xml:space="preserve">3.18925476074219</t>
   </si>
   <si>
-    <t xml:space="preserve">3.21570777893066</t>
+    <t xml:space="preserve">3.21570801734924</t>
   </si>
   <si>
     <t xml:space="preserve">3.29176068305969</t>
   </si>
   <si>
-    <t xml:space="preserve">3.31656050682068</t>
+    <t xml:space="preserve">3.3165602684021</t>
   </si>
   <si>
     <t xml:space="preserve">3.31325364112854</t>
   </si>
   <si>
-    <t xml:space="preserve">3.33805370330811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.31490707397461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.28018736839294</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.29837369918823</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.27357411384583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.30333399772644</t>
+    <t xml:space="preserve">3.33805346488953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.31490731239319</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.28018712997437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.29837346076965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.27357387542725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.30333375930786</t>
   </si>
   <si>
     <t xml:space="preserve">3.29341387748718</t>
   </si>
   <si>
-    <t xml:space="preserve">3.30994701385498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.17602825164795</t>
+    <t xml:space="preserve">3.30994749069214</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.17602801322937</t>
   </si>
   <si>
     <t xml:space="preserve">3.20248126983643</t>
   </si>
   <si>
-    <t xml:space="preserve">3.24050760269165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.21736121177673</t>
+    <t xml:space="preserve">3.24050736427307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.21736097335815</t>
   </si>
   <si>
     <t xml:space="preserve">3.21074795722961</t>
   </si>
   <si>
-    <t xml:space="preserve">3.18594813346863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.21901440620422</t>
+    <t xml:space="preserve">3.18594837188721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.21901416778564</t>
   </si>
   <si>
     <t xml:space="preserve">3.22728109359741</t>
   </si>
   <si>
-    <t xml:space="preserve">3.17437481880188</t>
+    <t xml:space="preserve">3.1743745803833</t>
   </si>
   <si>
     <t xml:space="preserve">3.24381446838379</t>
@@ -2150,10 +2150,10 @@
     <t xml:space="preserve">3.28680062294006</t>
   </si>
   <si>
-    <t xml:space="preserve">3.28184032440186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.34136009216309</t>
+    <t xml:space="preserve">3.28184056282043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.34136033058167</t>
   </si>
   <si>
     <t xml:space="preserve">3.27853417396545</t>
@@ -2162,31 +2162,31 @@
     <t xml:space="preserve">3.2834939956665</t>
   </si>
   <si>
-    <t xml:space="preserve">3.22397446632385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.21240091323853</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.22232103347778</t>
+    <t xml:space="preserve">3.22397422790527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.2124011516571</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.22232127189636</t>
   </si>
   <si>
     <t xml:space="preserve">3.19586801528931</t>
   </si>
   <si>
-    <t xml:space="preserve">3.19256138801575</t>
+    <t xml:space="preserve">3.19256114959717</t>
   </si>
   <si>
     <t xml:space="preserve">3.26034736633301</t>
   </si>
   <si>
-    <t xml:space="preserve">3.30498719215393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.30168056488037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.24877405166626</t>
+    <t xml:space="preserve">3.30498695373535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.30168080329895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.24877429008484</t>
   </si>
   <si>
     <t xml:space="preserve">3.39426636695862</t>
@@ -2198,40 +2198,40 @@
     <t xml:space="preserve">3.43725252151489</t>
   </si>
   <si>
-    <t xml:space="preserve">3.57613182067871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.57447838783264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.50503897666931</t>
+    <t xml:space="preserve">3.57613158226013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.57447814941406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.50503849983215</t>
   </si>
   <si>
     <t xml:space="preserve">3.39095973968506</t>
   </si>
   <si>
-    <t xml:space="preserve">3.39922642707825</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.40914607048035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.45709276199341</t>
+    <t xml:space="preserve">3.39922618865967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.40914630889893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.45709252357483</t>
   </si>
   <si>
     <t xml:space="preserve">3.49842548370361</t>
   </si>
   <si>
-    <t xml:space="preserve">3.51165199279785</t>
+    <t xml:space="preserve">3.51165223121643</t>
   </si>
   <si>
     <t xml:space="preserve">3.53645181655884</t>
   </si>
   <si>
-    <t xml:space="preserve">3.55463886260986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.56786489486694</t>
+    <t xml:space="preserve">3.55463838577271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.56786465644836</t>
   </si>
   <si>
     <t xml:space="preserve">3.60754442214966</t>
@@ -2252,13 +2252,13 @@
     <t xml:space="preserve">3.66871786117554</t>
   </si>
   <si>
-    <t xml:space="preserve">3.64722418785095</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.46370577812195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.43229293823242</t>
+    <t xml:space="preserve">3.64722442626953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.46370625495911</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.43229269981384</t>
   </si>
   <si>
     <t xml:space="preserve">3.46205258369446</t>
@@ -2273,7 +2273,7 @@
     <t xml:space="preserve">3.2289342880249</t>
   </si>
   <si>
-    <t xml:space="preserve">3.38269329071045</t>
+    <t xml:space="preserve">3.38269305229187</t>
   </si>
   <si>
     <t xml:space="preserve">2.93795013427734</t>
@@ -2285,34 +2285,34 @@
     <t xml:space="preserve">2.79080438613892</t>
   </si>
   <si>
-    <t xml:space="preserve">2.30307531356812</t>
+    <t xml:space="preserve">2.30307507514954</t>
   </si>
   <si>
     <t xml:space="preserve">2.65357875823975</t>
   </si>
   <si>
-    <t xml:space="preserve">2.55768632888794</t>
+    <t xml:space="preserve">2.55768656730652</t>
   </si>
   <si>
     <t xml:space="preserve">2.60397934913635</t>
   </si>
   <si>
-    <t xml:space="preserve">2.61059284210205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.55272650718689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.68003225326538</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.53288674354553</t>
+    <t xml:space="preserve">2.61059260368347</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.55272674560547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.6800320148468</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.53288650512695</t>
   </si>
   <si>
     <t xml:space="preserve">2.50808668136597</t>
   </si>
   <si>
-    <t xml:space="preserve">2.53123307228088</t>
+    <t xml:space="preserve">2.53123331069946</t>
   </si>
   <si>
     <t xml:space="preserve">2.59571266174316</t>
@@ -2321,19 +2321,19 @@
     <t xml:space="preserve">2.7197117805481</t>
   </si>
   <si>
-    <t xml:space="preserve">2.70152497291565</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.62216591835022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.66019225120544</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.6254723072052</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.64696550369263</t>
+    <t xml:space="preserve">2.70152521133423</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.62216544151306</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.66019201278687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.62547254562378</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.64696574211121</t>
   </si>
   <si>
     <t xml:space="preserve">2.5510733127594</t>
@@ -2351,7 +2351,7 @@
     <t xml:space="preserve">2.63869905471802</t>
   </si>
   <si>
-    <t xml:space="preserve">2.70483207702637</t>
+    <t xml:space="preserve">2.70483183860779</t>
   </si>
   <si>
     <t xml:space="preserve">2.71805858612061</t>
@@ -2360,61 +2360,61 @@
     <t xml:space="preserve">2.61224603652954</t>
   </si>
   <si>
-    <t xml:space="preserve">2.68664526939392</t>
+    <t xml:space="preserve">2.6866455078125</t>
   </si>
   <si>
     <t xml:space="preserve">2.67672538757324</t>
   </si>
   <si>
-    <t xml:space="preserve">2.77261781692505</t>
+    <t xml:space="preserve">2.77261805534363</t>
   </si>
   <si>
     <t xml:space="preserve">2.79245781898499</t>
   </si>
   <si>
-    <t xml:space="preserve">2.67507219314575</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.66845870018005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.61885929107666</t>
+    <t xml:space="preserve">2.67507195472717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.66845893859863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.61885905265808</t>
   </si>
   <si>
     <t xml:space="preserve">2.58579277992249</t>
   </si>
   <si>
-    <t xml:space="preserve">2.68829917907715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.71640491485596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.65688538551331</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.56760621070862</t>
+    <t xml:space="preserve">2.68829894065857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.71640515327454</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.65688586235046</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.5676064491272</t>
   </si>
   <si>
     <t xml:space="preserve">2.55437970161438</t>
   </si>
   <si>
-    <t xml:space="preserve">2.60728573799133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.59405946731567</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.64861917495728</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.64365911483765</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.75608468055725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.75939154624939</t>
+    <t xml:space="preserve">2.60728621482849</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.59405970573425</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.6486189365387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.64365887641907</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.75608491897583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.75939106941223</t>
   </si>
   <si>
     <t xml:space="preserve">2.95778965950012</t>
@@ -2429,7 +2429,7 @@
     <t xml:space="preserve">2.88008379936218</t>
   </si>
   <si>
-    <t xml:space="preserve">2.77757787704468</t>
+    <t xml:space="preserve">2.7775776386261</t>
   </si>
   <si>
     <t xml:space="preserve">2.90653729438782</t>
@@ -2444,10 +2444,10 @@
     <t xml:space="preserve">2.86024403572083</t>
   </si>
   <si>
-    <t xml:space="preserve">2.85693764686584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.78915119171143</t>
+    <t xml:space="preserve">2.85693740844727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.78915143013</t>
   </si>
   <si>
     <t xml:space="preserve">2.73624491691589</t>
@@ -2468,7 +2468,7 @@
     <t xml:space="preserve">2.7999279499054</t>
   </si>
   <si>
-    <t xml:space="preserve">2.81525540351868</t>
+    <t xml:space="preserve">2.81525564193726</t>
   </si>
   <si>
     <t xml:space="preserve">2.74031853675842</t>
@@ -2480,7 +2480,7 @@
     <t xml:space="preserve">2.77438068389893</t>
   </si>
   <si>
-    <t xml:space="preserve">2.7369122505188</t>
+    <t xml:space="preserve">2.73691248893738</t>
   </si>
   <si>
     <t xml:space="preserve">2.74883413314819</t>
@@ -2501,31 +2501,31 @@
     <t xml:space="preserve">2.86805248260498</t>
   </si>
   <si>
-    <t xml:space="preserve">2.82717728614807</t>
+    <t xml:space="preserve">2.82717752456665</t>
   </si>
   <si>
     <t xml:space="preserve">2.76075601577759</t>
   </si>
   <si>
-    <t xml:space="preserve">2.71647477149963</t>
+    <t xml:space="preserve">2.71647500991821</t>
   </si>
   <si>
     <t xml:space="preserve">2.73350596427917</t>
   </si>
   <si>
-    <t xml:space="preserve">2.80333423614502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.78800582885742</t>
+    <t xml:space="preserve">2.80333399772644</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.78800559043884</t>
   </si>
   <si>
     <t xml:space="preserve">2.6892249584198</t>
   </si>
   <si>
-    <t xml:space="preserve">2.70795941352844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.69944357872009</t>
+    <t xml:space="preserve">2.70795917510986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.69944381713867</t>
   </si>
   <si>
     <t xml:space="preserve">2.69263100624084</t>
@@ -2534,31 +2534,31 @@
     <t xml:space="preserve">2.68411564826965</t>
   </si>
   <si>
-    <t xml:space="preserve">2.76756834983826</t>
+    <t xml:space="preserve">2.76756858825684</t>
   </si>
   <si>
     <t xml:space="preserve">2.82547450065613</t>
   </si>
   <si>
-    <t xml:space="preserve">2.89019274711609</t>
+    <t xml:space="preserve">2.89019322395325</t>
   </si>
   <si>
     <t xml:space="preserve">2.8799741268158</t>
   </si>
   <si>
-    <t xml:space="preserve">2.86123991012573</t>
+    <t xml:space="preserve">2.86123967170715</t>
   </si>
   <si>
     <t xml:space="preserve">2.76586508750916</t>
   </si>
   <si>
-    <t xml:space="preserve">2.81014657020569</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.7828962802887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.76245903968811</t>
+    <t xml:space="preserve">2.81014633178711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.78289651870728</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.76245880126953</t>
   </si>
   <si>
     <t xml:space="preserve">2.85272431373596</t>
@@ -2570,37 +2570,37 @@
     <t xml:space="preserve">2.74542784690857</t>
   </si>
   <si>
-    <t xml:space="preserve">2.72499060630798</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.72669339179993</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.71306872367859</t>
+    <t xml:space="preserve">2.7249903678894</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.72669363021851</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.71306848526001</t>
   </si>
   <si>
     <t xml:space="preserve">2.79311513900757</t>
   </si>
   <si>
-    <t xml:space="preserve">2.69433426856995</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.74713110923767</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.73861575126648</t>
+    <t xml:space="preserve">2.69433450698853</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.74713087081909</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.73861527442932</t>
   </si>
   <si>
     <t xml:space="preserve">2.78119349479675</t>
   </si>
   <si>
-    <t xml:space="preserve">2.76416206359863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.77949023246765</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.79822444915771</t>
+    <t xml:space="preserve">2.76416230201721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.77948999404907</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.79822468757629</t>
   </si>
   <si>
     <t xml:space="preserve">2.81355261802673</t>
@@ -2612,31 +2612,31 @@
     <t xml:space="preserve">2.72158432006836</t>
   </si>
   <si>
-    <t xml:space="preserve">2.70455288887024</t>
+    <t xml:space="preserve">2.70455312728882</t>
   </si>
   <si>
     <t xml:space="preserve">2.74372482299805</t>
   </si>
   <si>
-    <t xml:space="preserve">2.72839689254761</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.64494371414185</t>
+    <t xml:space="preserve">2.72839665412903</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.64494395256042</t>
   </si>
   <si>
     <t xml:space="preserve">2.65345931053162</t>
   </si>
   <si>
-    <t xml:space="preserve">2.63983416557312</t>
+    <t xml:space="preserve">2.63983464241028</t>
   </si>
   <si>
     <t xml:space="preserve">2.60747528076172</t>
   </si>
   <si>
-    <t xml:space="preserve">2.61428761482239</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.59555339813232</t>
+    <t xml:space="preserve">2.61428785324097</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.5955536365509</t>
   </si>
   <si>
     <t xml:space="preserve">2.56489729881287</t>
@@ -2660,16 +2660,16 @@
     <t xml:space="preserve">2.55467844009399</t>
   </si>
   <si>
-    <t xml:space="preserve">2.48485088348389</t>
+    <t xml:space="preserve">2.48485064506531</t>
   </si>
   <si>
     <t xml:space="preserve">2.46441316604614</t>
   </si>
   <si>
-    <t xml:space="preserve">2.46611618995667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.40139746665955</t>
+    <t xml:space="preserve">2.46611642837524</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.40139770507812</t>
   </si>
   <si>
     <t xml:space="preserve">2.37755441665649</t>
@@ -2681,13 +2681,13 @@
     <t xml:space="preserve">2.27877330780029</t>
   </si>
   <si>
-    <t xml:space="preserve">2.29921078681946</t>
+    <t xml:space="preserve">2.29921054840088</t>
   </si>
   <si>
     <t xml:space="preserve">2.31964802742004</t>
   </si>
   <si>
-    <t xml:space="preserve">2.33838224411011</t>
+    <t xml:space="preserve">2.33838248252869</t>
   </si>
   <si>
     <t xml:space="preserve">2.39628839492798</t>
@@ -2696,16 +2696,16 @@
     <t xml:space="preserve">2.39117908477783</t>
   </si>
   <si>
-    <t xml:space="preserve">2.3656325340271</t>
+    <t xml:space="preserve">2.36563229560852</t>
   </si>
   <si>
     <t xml:space="preserve">2.5461630821228</t>
   </si>
   <si>
-    <t xml:space="preserve">2.51550698280334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.54105353355408</t>
+    <t xml:space="preserve">2.51550674438477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.54105377197266</t>
   </si>
   <si>
     <t xml:space="preserve">2.58533477783203</t>
@@ -2714,31 +2714,31 @@
     <t xml:space="preserve">2.57170963287354</t>
   </si>
   <si>
-    <t xml:space="preserve">2.65686583518982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.60236573219299</t>
+    <t xml:space="preserve">2.65686559677124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.60236597061157</t>
   </si>
   <si>
     <t xml:space="preserve">2.58874082565308</t>
   </si>
   <si>
-    <t xml:space="preserve">2.59725666046143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.57341265678406</t>
+    <t xml:space="preserve">2.59725642204285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.57341289520264</t>
   </si>
   <si>
     <t xml:space="preserve">2.56830358505249</t>
   </si>
   <si>
-    <t xml:space="preserve">2.61599111557007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.62961578369141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.6057722568512</t>
+    <t xml:space="preserve">2.61599063873291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.62961602210999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.60577201843262</t>
   </si>
   <si>
     <t xml:space="preserve">2.56319427490234</t>
@@ -2753,85 +2753,85 @@
     <t xml:space="preserve">2.53594422340393</t>
   </si>
   <si>
-    <t xml:space="preserve">2.52061605453491</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.50528788566589</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.47803831100464</t>
+    <t xml:space="preserve">2.52061629295349</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.50528812408447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.47803807258606</t>
   </si>
   <si>
     <t xml:space="preserve">2.45249152183533</t>
   </si>
   <si>
-    <t xml:space="preserve">2.48314762115479</t>
+    <t xml:space="preserve">2.48314738273621</t>
   </si>
   <si>
     <t xml:space="preserve">2.45419454574585</t>
   </si>
   <si>
-    <t xml:space="preserve">2.49336624145508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.5427565574646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.42694449424744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.47633504867554</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.5444598197937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.55127239227295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.53764748573303</t>
+    <t xml:space="preserve">2.49336647987366</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.54275679588318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.42694473266602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.47633528709412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.54445958137512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.55127215385437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.53764724731445</t>
   </si>
   <si>
     <t xml:space="preserve">2.59895968437195</t>
   </si>
   <si>
-    <t xml:space="preserve">2.53253793716431</t>
+    <t xml:space="preserve">2.53253817558289</t>
   </si>
   <si>
     <t xml:space="preserve">2.58363127708435</t>
   </si>
   <si>
-    <t xml:space="preserve">2.57852244377136</t>
+    <t xml:space="preserve">2.57852220535278</t>
   </si>
   <si>
     <t xml:space="preserve">2.6909282207489</t>
   </si>
   <si>
-    <t xml:space="preserve">2.63642811775208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.46952271461487</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.42353844642639</t>
+    <t xml:space="preserve">2.63642835617065</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.46952247619629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.42353820800781</t>
   </si>
   <si>
     <t xml:space="preserve">2.4456787109375</t>
   </si>
   <si>
-    <t xml:space="preserve">2.45589780807495</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.41672587394714</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.56149101257324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.58703780174255</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.64835000038147</t>
+    <t xml:space="preserve">2.45589756965637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.41672611236572</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.56149077415466</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.58703804016113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.64834976196289</t>
   </si>
   <si>
     <t xml:space="preserve">2.60406899452209</t>
@@ -2852,7 +2852,7 @@
     <t xml:space="preserve">2.63131880760193</t>
   </si>
   <si>
-    <t xml:space="preserve">2.61939716339111</t>
+    <t xml:space="preserve">2.61939692497253</t>
   </si>
   <si>
     <t xml:space="preserve">2.52231907844543</t>
@@ -2861,13 +2861,13 @@
     <t xml:space="preserve">2.49166321754456</t>
   </si>
   <si>
-    <t xml:space="preserve">2.62280321121216</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.65856885910034</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.66538143157959</t>
+    <t xml:space="preserve">2.62280344963074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.65856862068176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.66538119316101</t>
   </si>
   <si>
     <t xml:space="preserve">2.70114660263062</t>
@@ -2876,19 +2876,19 @@
     <t xml:space="preserve">2.81695890426636</t>
   </si>
   <si>
-    <t xml:space="preserve">2.78204464912415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.8305835723877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.80929493904114</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.79652118682861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.81270098686218</t>
+    <t xml:space="preserve">2.78204488754272</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.83058381080627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.80929470062256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.79652142524719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.81270122528076</t>
   </si>
   <si>
     <t xml:space="preserve">2.8339900970459</t>
@@ -2897,40 +2897,40 @@
     <t xml:space="preserve">2.87231016159058</t>
   </si>
   <si>
-    <t xml:space="preserve">2.86379456520081</t>
+    <t xml:space="preserve">2.86379432678223</t>
   </si>
   <si>
     <t xml:space="preserve">2.85698223114014</t>
   </si>
   <si>
-    <t xml:space="preserve">2.85783362388611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.85868549346924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.84846687316895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.89785718917847</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.86549782752991</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.8697555065155</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.90126323699951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.94384121894836</t>
+    <t xml:space="preserve">2.85783386230469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.85868525505066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.84846639633179</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.89785695075989</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.86549758911133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.86975526809692</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.90126347541809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.94384145736694</t>
   </si>
   <si>
     <t xml:space="preserve">2.87401342391968</t>
   </si>
   <si>
-    <t xml:space="preserve">2.87571620941162</t>
+    <t xml:space="preserve">2.8757164478302</t>
   </si>
   <si>
     <t xml:space="preserve">2.86720108985901</t>
@@ -2954,16 +2954,16 @@
     <t xml:space="preserve">2.99067711830139</t>
   </si>
   <si>
-    <t xml:space="preserve">2.99493479728699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.98982548713684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.97194266319275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.96768498420715</t>
+    <t xml:space="preserve">2.99493455886841</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.98982524871826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.97194290161133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.96768474578857</t>
   </si>
   <si>
     <t xml:space="preserve">2.97279405593872</t>
@@ -2975,16 +2975,16 @@
     <t xml:space="preserve">2.98130989074707</t>
   </si>
   <si>
-    <t xml:space="preserve">3.00515341758728</t>
+    <t xml:space="preserve">3.00515365600586</t>
   </si>
   <si>
     <t xml:space="preserve">3.04177069664001</t>
   </si>
   <si>
-    <t xml:space="preserve">3.06902050971985</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.08264517784119</t>
+    <t xml:space="preserve">3.06902074813843</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.08264541625977</t>
   </si>
   <si>
     <t xml:space="preserve">3.13799667358398</t>
@@ -2993,7 +2993,7 @@
     <t xml:space="preserve">3.11670804023743</t>
   </si>
   <si>
-    <t xml:space="preserve">3.12011432647705</t>
+    <t xml:space="preserve">3.12011384963989</t>
   </si>
   <si>
     <t xml:space="preserve">3.15417647361755</t>
@@ -3014,28 +3014,28 @@
     <t xml:space="preserve">3.10052824020386</t>
   </si>
   <si>
-    <t xml:space="preserve">3.06816864013672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.01026296615601</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.03240346908569</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.00345015525818</t>
+    <t xml:space="preserve">3.0681688785553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.01026320457458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.03240370750427</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.00345039367676</t>
   </si>
   <si>
     <t xml:space="preserve">2.99834108352661</t>
   </si>
   <si>
-    <t xml:space="preserve">2.99919247627258</t>
+    <t xml:space="preserve">2.99919271469116</t>
   </si>
   <si>
     <t xml:space="preserve">2.97364592552185</t>
   </si>
   <si>
-    <t xml:space="preserve">3.00259852409363</t>
+    <t xml:space="preserve">3.00259900093079</t>
   </si>
   <si>
     <t xml:space="preserve">3.01754140853882</t>
@@ -3062,13 +3062,13 @@
     <t xml:space="preserve">3.03072619438171</t>
   </si>
   <si>
-    <t xml:space="preserve">3.00347781181335</t>
+    <t xml:space="preserve">3.00347805023193</t>
   </si>
   <si>
     <t xml:space="preserve">3.03512120246887</t>
   </si>
   <si>
-    <t xml:space="preserve">2.94810199737549</t>
+    <t xml:space="preserve">2.94810223579407</t>
   </si>
   <si>
     <t xml:space="preserve">2.9568920135498</t>
@@ -3086,16 +3086,16 @@
     <t xml:space="preserve">3.10192370414734</t>
   </si>
   <si>
-    <t xml:space="preserve">3.14587259292603</t>
+    <t xml:space="preserve">3.1458728313446</t>
   </si>
   <si>
     <t xml:space="preserve">3.17839503288269</t>
   </si>
   <si>
-    <t xml:space="preserve">3.15378379821777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.15817856788635</t>
+    <t xml:space="preserve">3.15378355979919</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.15817832946777</t>
   </si>
   <si>
     <t xml:space="preserve">3.13532495498657</t>
@@ -3104,13 +3104,13 @@
     <t xml:space="preserve">3.12214040756226</t>
   </si>
   <si>
-    <t xml:space="preserve">3.11335062980652</t>
+    <t xml:space="preserve">3.11335039138794</t>
   </si>
   <si>
     <t xml:space="preserve">3.13268804550171</t>
   </si>
   <si>
-    <t xml:space="preserve">3.15993666648865</t>
+    <t xml:space="preserve">3.15993642807007</t>
   </si>
   <si>
     <t xml:space="preserve">3.14850974082947</t>
@@ -3128,10 +3128,10 @@
     <t xml:space="preserve">3.26277709007263</t>
   </si>
   <si>
-    <t xml:space="preserve">3.27420401573181</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.29881548881531</t>
+    <t xml:space="preserve">3.27420377731323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.29881525039673</t>
   </si>
   <si>
     <t xml:space="preserve">3.31551599502563</t>
@@ -3140,19 +3140,19 @@
     <t xml:space="preserve">3.30408930778503</t>
   </si>
   <si>
-    <t xml:space="preserve">3.30584740638733</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.28475189208984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.2460765838623</t>
+    <t xml:space="preserve">3.30584716796875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.28475165367126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.24607682228088</t>
   </si>
   <si>
     <t xml:space="preserve">3.21707034111023</t>
   </si>
   <si>
-    <t xml:space="preserve">3.23201298713684</t>
+    <t xml:space="preserve">3.23201274871826</t>
   </si>
   <si>
     <t xml:space="preserve">3.22673892974854</t>
@@ -3161,16 +3161,16 @@
     <t xml:space="preserve">3.21970725059509</t>
   </si>
   <si>
-    <t xml:space="preserve">3.25398731231689</t>
+    <t xml:space="preserve">3.25398707389832</t>
   </si>
   <si>
     <t xml:space="preserve">3.23904466629028</t>
   </si>
   <si>
-    <t xml:space="preserve">3.22585988044739</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.24168157577515</t>
+    <t xml:space="preserve">3.22586011886597</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.24168181419373</t>
   </si>
   <si>
     <t xml:space="preserve">3.19597458839417</t>
@@ -3179,13 +3179,13 @@
     <t xml:space="preserve">3.14938855171204</t>
   </si>
   <si>
-    <t xml:space="preserve">3.18806385993958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.21443319320679</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.16345238685608</t>
+    <t xml:space="preserve">3.18806409835815</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.21443343162537</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.16345262527466</t>
   </si>
   <si>
     <t xml:space="preserve">3.19861149787903</t>
@@ -3197,13 +3197,13 @@
     <t xml:space="preserve">3.20124864578247</t>
   </si>
   <si>
-    <t xml:space="preserve">3.19773268699646</t>
+    <t xml:space="preserve">3.19773244857788</t>
   </si>
   <si>
     <t xml:space="preserve">3.20740127563477</t>
   </si>
   <si>
-    <t xml:space="preserve">3.1362042427063</t>
+    <t xml:space="preserve">3.13620376586914</t>
   </si>
   <si>
     <t xml:space="preserve">3.08522295951843</t>
@@ -3218,22 +3218,22 @@
     <t xml:space="preserve">3.10719776153564</t>
   </si>
   <si>
-    <t xml:space="preserve">3.10983467102051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.1159873008728</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.07115960121155</t>
+    <t xml:space="preserve">3.10983443260193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.11598753929138</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.07115936279297</t>
   </si>
   <si>
     <t xml:space="preserve">3.09664988517761</t>
   </si>
   <si>
-    <t xml:space="preserve">3.01929926872253</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.98501920700073</t>
+    <t xml:space="preserve">3.01929950714111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.98501896858215</t>
   </si>
   <si>
     <t xml:space="preserve">3.02017855644226</t>
@@ -3245,22 +3245,22 @@
     <t xml:space="preserve">3.08610200881958</t>
   </si>
   <si>
-    <t xml:space="preserve">3.06324863433838</t>
+    <t xml:space="preserve">3.0632483959198</t>
   </si>
   <si>
     <t xml:space="preserve">3.03336310386658</t>
   </si>
   <si>
-    <t xml:space="preserve">3.05357980728149</t>
+    <t xml:space="preserve">3.05357956886292</t>
   </si>
   <si>
     <t xml:space="preserve">3.11422920227051</t>
   </si>
   <si>
-    <t xml:space="preserve">3.14675164222717</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.16257333755493</t>
+    <t xml:space="preserve">3.14675188064575</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.16257357597351</t>
   </si>
   <si>
     <t xml:space="preserve">3.13005113601685</t>
@@ -3269,13 +3269,13 @@
     <t xml:space="preserve">3.16608929634094</t>
   </si>
   <si>
-    <t xml:space="preserve">3.10895562171936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.12477731704712</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.10631847381592</t>
+    <t xml:space="preserve">3.10895538330078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.12477707862854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.1063187122345</t>
   </si>
   <si>
     <t xml:space="preserve">3.14763069152832</t>
@@ -3287,19 +3287,19 @@
     <t xml:space="preserve">3.20828056335449</t>
   </si>
   <si>
-    <t xml:space="preserve">3.17048454284668</t>
+    <t xml:space="preserve">3.1704843044281</t>
   </si>
   <si>
     <t xml:space="preserve">3.1291720867157</t>
   </si>
   <si>
-    <t xml:space="preserve">3.17136335372925</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.18366861343384</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.18718481063843</t>
+    <t xml:space="preserve">3.17136311531067</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.183669090271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.18718457221985</t>
   </si>
   <si>
     <t xml:space="preserve">3.14499378204346</t>
@@ -3308,22 +3308,22 @@
     <t xml:space="preserve">3.14235687255859</t>
   </si>
   <si>
-    <t xml:space="preserve">3.11247134208679</t>
+    <t xml:space="preserve">3.11247158050537</t>
   </si>
   <si>
     <t xml:space="preserve">2.96216559410095</t>
   </si>
   <si>
-    <t xml:space="preserve">2.97710847854614</t>
+    <t xml:space="preserve">2.97710871696472</t>
   </si>
   <si>
     <t xml:space="preserve">2.9929301738739</t>
   </si>
   <si>
-    <t xml:space="preserve">3.06764340400696</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.99732518196106</t>
+    <t xml:space="preserve">3.06764364242554</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.99732494354248</t>
   </si>
   <si>
     <t xml:space="preserve">3.13796186447144</t>
@@ -3332,10 +3332,10 @@
     <t xml:space="preserve">3.0931339263916</t>
   </si>
   <si>
-    <t xml:space="preserve">3.12038230895996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.08961820602417</t>
+    <t xml:space="preserve">3.12038207054138</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.08961796760559</t>
   </si>
   <si>
     <t xml:space="preserve">3.11510825157166</t>
@@ -3350,22 +3350,22 @@
     <t xml:space="preserve">3.16433119773865</t>
   </si>
   <si>
-    <t xml:space="preserve">3.17487931251526</t>
+    <t xml:space="preserve">3.17487907409668</t>
   </si>
   <si>
     <t xml:space="preserve">3.23289179801941</t>
   </si>
   <si>
-    <t xml:space="preserve">3.21794939041138</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.25750327110291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.22761797904968</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.20212769508362</t>
+    <t xml:space="preserve">3.2179491519928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.25750350952148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.2276177406311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.20212745666504</t>
   </si>
   <si>
     <t xml:space="preserve">3.13971996307373</t>
@@ -3374,7 +3374,7 @@
     <t xml:space="preserve">3.12565612792969</t>
   </si>
   <si>
-    <t xml:space="preserve">3.10543990135193</t>
+    <t xml:space="preserve">3.10543966293335</t>
   </si>
   <si>
     <t xml:space="preserve">3.081707239151</t>
@@ -3383,7 +3383,7 @@
     <t xml:space="preserve">3.09225487709045</t>
   </si>
   <si>
-    <t xml:space="preserve">3.0588538646698</t>
+    <t xml:space="preserve">3.05885362625122</t>
   </si>
   <si>
     <t xml:space="preserve">3.01666259765625</t>
@@ -3392,7 +3392,7 @@
     <t xml:space="preserve">3.02633142471313</t>
   </si>
   <si>
-    <t xml:space="preserve">3.08434391021729</t>
+    <t xml:space="preserve">3.08434414863586</t>
   </si>
   <si>
     <t xml:space="preserve">3.19070100784302</t>
@@ -3407,25 +3407,25 @@
     <t xml:space="preserve">3.18454790115356</t>
   </si>
   <si>
-    <t xml:space="preserve">3.04830598831177</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.9876561164856</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.02721047401428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.04742693901062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.03424191474915</t>
+    <t xml:space="preserve">3.04830574989319</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.98765635490417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.0272102355957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.04742670059204</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.0342423915863</t>
   </si>
   <si>
     <t xml:space="preserve">2.96656060218811</t>
   </si>
   <si>
-    <t xml:space="preserve">2.99468803405762</t>
+    <t xml:space="preserve">2.9946882724762</t>
   </si>
   <si>
     <t xml:space="preserve">2.97974538803101</t>
@@ -3440,25 +3440,25 @@
     <t xml:space="preserve">2.90151619911194</t>
   </si>
   <si>
-    <t xml:space="preserve">2.91294288635254</t>
+    <t xml:space="preserve">2.91294264793396</t>
   </si>
   <si>
     <t xml:space="preserve">2.92964339256287</t>
   </si>
   <si>
-    <t xml:space="preserve">2.84262442588806</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.04566884040833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.93755412101746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.89360547065735</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.86547780036926</t>
+    <t xml:space="preserve">2.84262418746948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.0456690788269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.93755435943604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.89360523223877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.86547803878784</t>
   </si>
   <si>
     <t xml:space="preserve">2.79955410957336</t>
@@ -3467,7 +3467,7 @@
     <t xml:space="preserve">2.81273913383484</t>
   </si>
   <si>
-    <t xml:space="preserve">2.87778353691101</t>
+    <t xml:space="preserve">2.87778329849243</t>
   </si>
   <si>
     <t xml:space="preserve">2.98414015769958</t>
@@ -3482,13 +3482,13 @@
     <t xml:space="preserve">2.95777082443237</t>
   </si>
   <si>
-    <t xml:space="preserve">2.92436957359314</t>
+    <t xml:space="preserve">2.92436933517456</t>
   </si>
   <si>
     <t xml:space="preserve">2.96040773391724</t>
   </si>
   <si>
-    <t xml:space="preserve">2.9990828037262</t>
+    <t xml:space="preserve">2.99908304214478</t>
   </si>
   <si>
     <t xml:space="preserve">2.89184737205505</t>
@@ -3506,10 +3506,10 @@
     <t xml:space="preserve">2.95952892303467</t>
   </si>
   <si>
-    <t xml:space="preserve">2.94107007980347</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.98326110839844</t>
+    <t xml:space="preserve">2.94107031822205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.9832615852356</t>
   </si>
   <si>
     <t xml:space="preserve">3.0157835483551</t>
@@ -3521,10 +3521,10 @@
     <t xml:space="preserve">3.16081523895264</t>
   </si>
   <si>
-    <t xml:space="preserve">3.11686635017395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.15729951858521</t>
+    <t xml:space="preserve">3.11686658859253</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.15729975700378</t>
   </si>
   <si>
     <t xml:space="preserve">3.17224216461182</t>
@@ -3536,7 +3536,7 @@
     <t xml:space="preserve">3.16169428825378</t>
   </si>
   <si>
-    <t xml:space="preserve">3.08346486091614</t>
+    <t xml:space="preserve">3.08346509933472</t>
   </si>
   <si>
     <t xml:space="preserve">3.09489178657532</t>
@@ -3566,7 +3566,7 @@
     <t xml:space="preserve">3.15114665031433</t>
   </si>
   <si>
-    <t xml:space="preserve">3.0992865562439</t>
+    <t xml:space="preserve">3.09928679466248</t>
   </si>
   <si>
     <t xml:space="preserve">3.0764331817627</t>
@@ -3575,16 +3575,16 @@
     <t xml:space="preserve">2.99820399284363</t>
   </si>
   <si>
-    <t xml:space="preserve">2.97359251976013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.9331591129303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.96831846237183</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.94282841682434</t>
+    <t xml:space="preserve">2.97359228134155</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.93315935134888</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.96831870079041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.94282817840576</t>
   </si>
   <si>
     <t xml:space="preserve">2.94458603858948</t>
@@ -3599,16 +3599,16 @@
     <t xml:space="preserve">2.50685358047485</t>
   </si>
   <si>
-    <t xml:space="preserve">2.44444584846497</t>
+    <t xml:space="preserve">2.44444608688354</t>
   </si>
   <si>
     <t xml:space="preserve">2.54992389678955</t>
   </si>
   <si>
-    <t xml:space="preserve">2.4778470993042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.507732629776</t>
+    <t xml:space="preserve">2.47784733772278</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.50773239135742</t>
   </si>
   <si>
     <t xml:space="preserve">2.47102975845337</t>
@@ -3635,19 +3635,19 @@
     <t xml:space="preserve">2.56829261779785</t>
   </si>
   <si>
-    <t xml:space="preserve">2.5325071811676</t>
+    <t xml:space="preserve">2.53250694274902</t>
   </si>
   <si>
     <t xml:space="preserve">2.58022117614746</t>
   </si>
   <si>
-    <t xml:space="preserve">2.57746815681458</t>
+    <t xml:space="preserve">2.57746839523315</t>
   </si>
   <si>
     <t xml:space="preserve">2.50314474105835</t>
   </si>
   <si>
-    <t xml:space="preserve">2.54902362823486</t>
+    <t xml:space="preserve">2.54902338981628</t>
   </si>
   <si>
     <t xml:space="preserve">2.58389115333557</t>
@@ -3659,7 +3659,7 @@
     <t xml:space="preserve">2.55085849761963</t>
   </si>
   <si>
-    <t xml:space="preserve">2.46368885040283</t>
+    <t xml:space="preserve">2.46368908882141</t>
   </si>
   <si>
     <t xml:space="preserve">2.39028286933899</t>
@@ -3692,10 +3692,10 @@
     <t xml:space="preserve">2.52057862281799</t>
   </si>
   <si>
-    <t xml:space="preserve">2.53801250457764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.60316014289856</t>
+    <t xml:space="preserve">2.53801274299622</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.60316038131714</t>
   </si>
   <si>
     <t xml:space="preserve">2.59857249259949</t>
@@ -3710,10 +3710,10 @@
     <t xml:space="preserve">2.53067183494568</t>
   </si>
   <si>
-    <t xml:space="preserve">2.53434252738953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.56095194816589</t>
+    <t xml:space="preserve">2.53434228897095</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.56095170974731</t>
   </si>
   <si>
     <t xml:space="preserve">2.56737494468689</t>
@@ -3731,13 +3731,13 @@
     <t xml:space="preserve">2.51323819160461</t>
   </si>
   <si>
-    <t xml:space="preserve">2.49396872520447</t>
+    <t xml:space="preserve">2.49396896362305</t>
   </si>
   <si>
     <t xml:space="preserve">2.45726585388184</t>
   </si>
   <si>
-    <t xml:space="preserve">2.38202476501465</t>
+    <t xml:space="preserve">2.38202452659607</t>
   </si>
   <si>
     <t xml:space="preserve">2.44074964523315</t>
@@ -3746,7 +3746,7 @@
     <t xml:space="preserve">2.29393768310547</t>
   </si>
   <si>
-    <t xml:space="preserve">2.29485487937927</t>
+    <t xml:space="preserve">2.29485511779785</t>
   </si>
   <si>
     <t xml:space="preserve">2.32697033882141</t>
@@ -3755,10 +3755,10 @@
     <t xml:space="preserve">2.26641035079956</t>
   </si>
   <si>
-    <t xml:space="preserve">2.14987826347351</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.20768547058105</t>
+    <t xml:space="preserve">2.14987802505493</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.20768523216248</t>
   </si>
   <si>
     <t xml:space="preserve">2.19483947753906</t>
@@ -3776,7 +3776,7 @@
     <t xml:space="preserve">2.22970747947693</t>
   </si>
   <si>
-    <t xml:space="preserve">2.22695446014404</t>
+    <t xml:space="preserve">2.22695469856262</t>
   </si>
   <si>
     <t xml:space="preserve">2.19850969314575</t>
@@ -3794,31 +3794,31 @@
     <t xml:space="preserve">2.11868071556091</t>
   </si>
   <si>
-    <t xml:space="preserve">2.05169796943665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.05812096595764</t>
+    <t xml:space="preserve">2.05169773101807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.05812072753906</t>
   </si>
   <si>
     <t xml:space="preserve">1.94892942905426</t>
   </si>
   <si>
-    <t xml:space="preserve">1.99756073951721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.98746728897095</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.00581932067871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.01682996749878</t>
+    <t xml:space="preserve">1.9975608587265</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.98746752738953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.00581908226013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.0168297290802</t>
   </si>
   <si>
     <t xml:space="preserve">2.07647228240967</t>
   </si>
   <si>
-    <t xml:space="preserve">1.97095119953156</t>
+    <t xml:space="preserve">1.97095108032227</t>
   </si>
   <si>
     <t xml:space="preserve">1.90855598449707</t>
@@ -3830,16 +3830,16 @@
     <t xml:space="preserve">1.93975365161896</t>
   </si>
   <si>
-    <t xml:space="preserve">1.87185299396515</t>
+    <t xml:space="preserve">1.87185311317444</t>
   </si>
   <si>
     <t xml:space="preserve">1.83882033824921</t>
   </si>
   <si>
-    <t xml:space="preserve">1.86726522445679</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8984626531601</t>
+    <t xml:space="preserve">1.86726534366608</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89846277236938</t>
   </si>
   <si>
     <t xml:space="preserve">1.9480117559433</t>
@@ -3857,7 +3857,7 @@
     <t xml:space="preserve">1.92048454284668</t>
   </si>
   <si>
-    <t xml:space="preserve">1.98379731178284</t>
+    <t xml:space="preserve">1.98379719257355</t>
   </si>
   <si>
     <t xml:space="preserve">2.07280206680298</t>
@@ -3872,10 +3872,10 @@
     <t xml:space="preserve">2.21319103240967</t>
   </si>
   <si>
-    <t xml:space="preserve">2.22420191764832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.22236657142639</t>
+    <t xml:space="preserve">2.22420167922974</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.22236680984497</t>
   </si>
   <si>
     <t xml:space="preserve">2.21135592460632</t>
@@ -3890,13 +3890,13 @@
     <t xml:space="preserve">2.31595921516418</t>
   </si>
   <si>
-    <t xml:space="preserve">2.36459064483643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.39395308494568</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.36550855636597</t>
+    <t xml:space="preserve">2.364590883255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.39395332336426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.36550831794739</t>
   </si>
   <si>
     <t xml:space="preserve">2.38477754592896</t>
@@ -3923,10 +3923,10 @@
     <t xml:space="preserve">2.43249130249023</t>
   </si>
   <si>
-    <t xml:space="preserve">2.43799686431885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.41872787475586</t>
+    <t xml:space="preserve">2.43799710273743</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.41872763633728</t>
   </si>
   <si>
     <t xml:space="preserve">2.43065619468689</t>
@@ -3938,16 +3938,16 @@
     <t xml:space="preserve">2.46001863479614</t>
   </si>
   <si>
-    <t xml:space="preserve">2.46827673912048</t>
+    <t xml:space="preserve">2.46827697753906</t>
   </si>
   <si>
     <t xml:space="preserve">2.46460676193237</t>
   </si>
   <si>
-    <t xml:space="preserve">2.5233314037323</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.57288026809692</t>
+    <t xml:space="preserve">2.52333116531372</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.5728805065155</t>
   </si>
   <si>
     <t xml:space="preserve">2.59673738479614</t>
@@ -3968,7 +3968,7 @@
     <t xml:space="preserve">2.3462393283844</t>
   </si>
   <si>
-    <t xml:space="preserve">2.32513523101807</t>
+    <t xml:space="preserve">2.32513499259949</t>
   </si>
   <si>
     <t xml:space="preserve">2.34165143966675</t>
@@ -3977,7 +3977,7 @@
     <t xml:space="preserve">2.33889889717102</t>
   </si>
   <si>
-    <t xml:space="preserve">2.28476166725159</t>
+    <t xml:space="preserve">2.28476190567017</t>
   </si>
   <si>
     <t xml:space="preserve">2.33614611625671</t>
@@ -3992,7 +3992,7 @@
     <t xml:space="preserve">2.37468409538269</t>
   </si>
   <si>
-    <t xml:space="preserve">2.42239809036255</t>
+    <t xml:space="preserve">2.42239832878113</t>
   </si>
   <si>
     <t xml:space="preserve">2.40955185890198</t>
@@ -4004,25 +4004,25 @@
     <t xml:space="preserve">2.54260039329529</t>
   </si>
   <si>
-    <t xml:space="preserve">2.51415538787842</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.51966094970703</t>
+    <t xml:space="preserve">2.514155626297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.51966118812561</t>
   </si>
   <si>
     <t xml:space="preserve">2.49672174453735</t>
   </si>
   <si>
-    <t xml:space="preserve">2.43524432182312</t>
+    <t xml:space="preserve">2.43524408340454</t>
   </si>
   <si>
     <t xml:space="preserve">2.47745251655579</t>
   </si>
   <si>
-    <t xml:space="preserve">2.50406217575073</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.49121618270874</t>
+    <t xml:space="preserve">2.50406241416931</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.49121594429016</t>
   </si>
   <si>
     <t xml:space="preserve">2.48571085929871</t>
@@ -4037,7 +4037,7 @@
     <t xml:space="preserve">2.43157386779785</t>
   </si>
   <si>
-    <t xml:space="preserve">2.50039196014404</t>
+    <t xml:space="preserve">2.50039172172546</t>
   </si>
   <si>
     <t xml:space="preserve">2.45910120010376</t>
@@ -4055,16 +4055,16 @@
     <t xml:space="preserve">2.38569498062134</t>
   </si>
   <si>
-    <t xml:space="preserve">2.3801896572113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.35082745552063</t>
+    <t xml:space="preserve">2.38018989562988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.35082721710205</t>
   </si>
   <si>
     <t xml:space="preserve">2.31779456138611</t>
   </si>
   <si>
-    <t xml:space="preserve">2.30953645706177</t>
+    <t xml:space="preserve">2.30953621864319</t>
   </si>
   <si>
     <t xml:space="preserve">2.30494856834412</t>
@@ -4097,7 +4097,7 @@
     <t xml:space="preserve">2.21686100959778</t>
   </si>
   <si>
-    <t xml:space="preserve">2.20676779747009</t>
+    <t xml:space="preserve">2.20676803588867</t>
   </si>
   <si>
     <t xml:space="preserve">2.19575691223145</t>
@@ -4115,7 +4115,7 @@
     <t xml:space="preserve">2.28567934036255</t>
   </si>
   <si>
-    <t xml:space="preserve">2.2966902256012</t>
+    <t xml:space="preserve">2.29669046401978</t>
   </si>
   <si>
     <t xml:space="preserve">2.32605266571045</t>
@@ -4130,10 +4130,10 @@
     <t xml:space="preserve">2.4921338558197</t>
   </si>
   <si>
-    <t xml:space="preserve">2.51232028007507</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.40588164329529</t>
+    <t xml:space="preserve">2.51232051849365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.40588188171387</t>
   </si>
   <si>
     <t xml:space="preserve">2.48479318618774</t>
@@ -4142,19 +4142,19 @@
     <t xml:space="preserve">2.47928762435913</t>
   </si>
   <si>
-    <t xml:space="preserve">2.56186938285828</t>
+    <t xml:space="preserve">2.56186962127686</t>
   </si>
   <si>
     <t xml:space="preserve">2.59123182296753</t>
   </si>
   <si>
-    <t xml:space="preserve">2.53617715835571</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.58939671516418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.6260998249054</t>
+    <t xml:space="preserve">2.53617739677429</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.58939695358276</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.62609958648682</t>
   </si>
   <si>
     <t xml:space="preserve">2.61692404747009</t>
@@ -4163,10 +4163,10 @@
     <t xml:space="preserve">2.63527536392212</t>
   </si>
   <si>
-    <t xml:space="preserve">2.72152757644653</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.74905490875244</t>
+    <t xml:space="preserve">2.72152781486511</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.74905467033386</t>
   </si>
   <si>
     <t xml:space="preserve">2.77658200263977</t>
@@ -4187,10 +4187,10 @@
     <t xml:space="preserve">2.73070335388184</t>
   </si>
   <si>
-    <t xml:space="preserve">2.71969223022461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.644451379776</t>
+    <t xml:space="preserve">2.71969246864319</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.64445114135742</t>
   </si>
   <si>
     <t xml:space="preserve">2.62242960929871</t>
@@ -4199,10 +4199,10 @@
     <t xml:space="preserve">2.67564868927002</t>
   </si>
   <si>
-    <t xml:space="preserve">2.67748379707336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.7068464756012</t>
+    <t xml:space="preserve">2.67748403549194</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.70684623718262</t>
   </si>
   <si>
     <t xml:space="preserve">2.68298935890198</t>
@@ -4220,7 +4220,7 @@
     <t xml:space="preserve">2.63894581794739</t>
   </si>
   <si>
-    <t xml:space="preserve">2.64812159538269</t>
+    <t xml:space="preserve">2.64812135696411</t>
   </si>
   <si>
     <t xml:space="preserve">2.65913248062134</t>
@@ -4232,7 +4232,7 @@
     <t xml:space="preserve">2.62426447868347</t>
   </si>
   <si>
-    <t xml:space="preserve">2.66463804244995</t>
+    <t xml:space="preserve">2.66463780403137</t>
   </si>
   <si>
     <t xml:space="preserve">2.61190128326416</t>
@@ -4905,6 +4905,9 @@
   </si>
   <si>
     <t xml:space="preserve">3.33999991416931</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.39199995994568</t>
   </si>
 </sst>
 </file>
@@ -61770,7 +61773,7 @@
     </row>
     <row r="2175">
       <c r="A2175" s="1" t="n">
-        <v>45490.6502199074</v>
+        <v>45490.2916666667</v>
       </c>
       <c r="B2175" t="n">
         <v>1352179</v>
@@ -61791,6 +61794,32 @@
         <v>1630</v>
       </c>
       <c r="H2175" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2176">
+      <c r="A2176" s="1" t="n">
+        <v>45491.6502314815</v>
+      </c>
+      <c r="B2176" t="n">
+        <v>1926530</v>
+      </c>
+      <c r="C2176" t="n">
+        <v>3.40199995040894</v>
+      </c>
+      <c r="D2176" t="n">
+        <v>3.34200000762939</v>
+      </c>
+      <c r="E2176" t="n">
+        <v>3.34999990463257</v>
+      </c>
+      <c r="F2176" t="n">
+        <v>3.39199995994568</v>
+      </c>
+      <c r="G2176" t="s">
+        <v>1631</v>
+      </c>
+      <c r="H2176" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/HER.MI.xlsx
+++ b/data/HER.MI.xlsx
@@ -38,28 +38,28 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">1.77115476131439</t>
+    <t xml:space="preserve">1.77115511894226</t>
   </si>
   <si>
     <t xml:space="preserve">HER.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">1.77260422706604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76970541477203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7740535736084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75086319446564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7899968624115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85811841487885</t>
+    <t xml:space="preserve">1.77260410785675</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76970553398132</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77405369281769</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75086343288422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78999722003937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85811829566956</t>
   </si>
   <si>
     <t xml:space="preserve">1.86101722717285</t>
@@ -74,127 +74,127 @@
     <t xml:space="preserve">1.76680672168732</t>
   </si>
   <si>
-    <t xml:space="preserve">1.83927619457245</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81463670730591</t>
+    <t xml:space="preserve">1.83927631378174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81463658809662</t>
   </si>
   <si>
     <t xml:space="preserve">1.83202970027924</t>
   </si>
   <si>
-    <t xml:space="preserve">1.87261259555817</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85666906833649</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87116324901581</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90304970741272</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88420724868774</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86971354484558</t>
+    <t xml:space="preserve">1.87261235713959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85666930675507</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87116301059723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90304946899414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88420736789703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.869713306427</t>
   </si>
   <si>
     <t xml:space="preserve">1.91754341125488</t>
   </si>
   <si>
-    <t xml:space="preserve">1.92479014396667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90884685516357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89145457744598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89725196361542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79289555549622</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80594038963318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82478249073029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76245868206024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82043433189392</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86246621608734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84942233562469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84217500686646</t>
+    <t xml:space="preserve">1.92479026317596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90884733200073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8914543390274</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89725184440613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79289579391479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80594062805176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.824782371521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76245856285095</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82043445110321</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86246657371521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84942197799683</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84217536449432</t>
   </si>
   <si>
     <t xml:space="preserve">1.86536514759064</t>
   </si>
   <si>
-    <t xml:space="preserve">1.86826419830322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88855576515198</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89870119094849</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85521972179413</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83058035373688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81028854846954</t>
+    <t xml:space="preserve">1.86826407909393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88855540752411</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8987010717392</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85521984100342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83058023452759</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81028842926025</t>
   </si>
   <si>
     <t xml:space="preserve">1.80449104309082</t>
   </si>
   <si>
-    <t xml:space="preserve">1.79434490203857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80883896350861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79724383354187</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82913064956665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84507393836975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82623207569122</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8407256603241</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86391580104828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90594840049744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87840974330902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92623960971832</t>
+    <t xml:space="preserve">1.79434514045715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80883920192719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79724371433258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82913041114807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84507358074188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82623159885406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84072542190552</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86391603946686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90594863891602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87840986251831</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92623972892761</t>
   </si>
   <si>
     <t xml:space="preserve">1.91174578666687</t>
@@ -203,13 +203,13 @@
     <t xml:space="preserve">1.83347880840302</t>
   </si>
   <si>
-    <t xml:space="preserve">1.84797286987305</t>
+    <t xml:space="preserve">1.84797251224518</t>
   </si>
   <si>
     <t xml:space="preserve">1.85377037525177</t>
   </si>
   <si>
-    <t xml:space="preserve">1.84362459182739</t>
+    <t xml:space="preserve">1.84362435340881</t>
   </si>
   <si>
     <t xml:space="preserve">1.84652352333069</t>
@@ -218,70 +218,70 @@
     <t xml:space="preserve">1.87551128864288</t>
   </si>
   <si>
-    <t xml:space="preserve">1.87696051597595</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85956788063049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85087156295776</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82188367843628</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81318747997284</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8943532705307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91464471817017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90015113353729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91319525241852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89000499248505</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90160036087036</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89290368556976</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88130831718445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82768142223358</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79579436779022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80738973617554</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.77550292015076</t>
+    <t xml:space="preserve">1.87696039676666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8595677614212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85087144374847</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8218834400177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81318759918213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89435338973999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91464459896088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90015029907227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91319537162781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89000511169434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90160024166107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89290392398834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88130867481232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82768130302429</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79579448699951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80738997459412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77550315856934</t>
   </si>
   <si>
     <t xml:space="preserve">1.82295894622803</t>
   </si>
   <si>
-    <t xml:space="preserve">1.83949017524719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80492448806763</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82446181774139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76735365390778</t>
+    <t xml:space="preserve">1.8394900560379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80492460727692</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8244616985321</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76735317707062</t>
   </si>
   <si>
     <t xml:space="preserve">1.73579347133636</t>
@@ -290,82 +290,82 @@
     <t xml:space="preserve">1.77336490154266</t>
   </si>
   <si>
-    <t xml:space="preserve">1.80342173576355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84700453281403</t>
+    <t xml:space="preserve">1.80342161655426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84700441360474</t>
   </si>
   <si>
     <t xml:space="preserve">1.90261006355286</t>
   </si>
   <si>
-    <t xml:space="preserve">1.87555885314941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87856423854828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85151314735413</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84550166130066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7913990020752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82596457004547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8109358549118</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83648443222046</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83197593688965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82746708393097</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83498167991638</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84099304676056</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85001003742218</t>
+    <t xml:space="preserve">1.8755589723587</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87856435775757</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85151302814484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84550178050995</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79139912128448</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82596480846405</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81093597412109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83648467063904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83197569847107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82746720314026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83498156070709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84099316596985</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85001015663147</t>
   </si>
   <si>
     <t xml:space="preserve">1.9056156873703</t>
   </si>
   <si>
-    <t xml:space="preserve">1.92665529251099</t>
+    <t xml:space="preserve">1.92665553092957</t>
   </si>
   <si>
     <t xml:space="preserve">1.91914117336273</t>
   </si>
   <si>
-    <t xml:space="preserve">1.90411269664764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93567252159119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8996045589447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91312992572784</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8635356426239</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88758182525635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88006746768951</t>
+    <t xml:space="preserve">1.90411257743835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93567264080048</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89960443973541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91312956809998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86353576183319</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88758146762848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88006711006165</t>
   </si>
   <si>
     <t xml:space="preserve">1.81394171714783</t>
@@ -374,97 +374,97 @@
     <t xml:space="preserve">1.80943322181702</t>
   </si>
   <si>
-    <t xml:space="preserve">1.84249579906464</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85752415657043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86654150485992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85301601886749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85602152347565</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88307285308838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82145607471466</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80041611194611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.77035892009735</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80191910266876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81995296478271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.77486801147461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.77186167240143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76585054397583</t>
+    <t xml:space="preserve">1.84249544143677</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85752427577972</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86654114723206</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85301578044891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85602140426636</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88307297229767</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82145619392395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80041599273682</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77035915851593</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80191898345947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81995332241058</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77486765384674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77186179161072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76585042476654</t>
   </si>
   <si>
     <t xml:space="preserve">1.75533056259155</t>
   </si>
   <si>
-    <t xml:space="preserve">1.78087902069092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75983905792236</t>
+    <t xml:space="preserve">1.78087890148163</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75983893871307</t>
   </si>
   <si>
     <t xml:space="preserve">1.69221079349518</t>
   </si>
   <si>
-    <t xml:space="preserve">1.66515970230103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65163362026215</t>
+    <t xml:space="preserve">1.66515958309174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65163373947144</t>
   </si>
   <si>
     <t xml:space="preserve">1.638108253479</t>
   </si>
   <si>
-    <t xml:space="preserve">1.66065108776093</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.66966795921326</t>
+    <t xml:space="preserve">1.66065096855164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.66966784000397</t>
   </si>
   <si>
     <t xml:space="preserve">1.67417645454407</t>
   </si>
   <si>
-    <t xml:space="preserve">1.6816908121109</t>
+    <t xml:space="preserve">1.68169105052948</t>
   </si>
   <si>
     <t xml:space="preserve">1.69371342658997</t>
   </si>
   <si>
-    <t xml:space="preserve">1.6786847114563</t>
+    <t xml:space="preserve">1.67868494987488</t>
   </si>
   <si>
     <t xml:space="preserve">1.69972503185272</t>
   </si>
   <si>
-    <t xml:space="preserve">1.69822204113007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.71174800395966</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.68319368362427</t>
+    <t xml:space="preserve">1.69822192192078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.71174788475037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.68319356441498</t>
   </si>
   <si>
     <t xml:space="preserve">1.67567932605743</t>
@@ -473,94 +473,94 @@
     <t xml:space="preserve">1.6771821975708</t>
   </si>
   <si>
-    <t xml:space="preserve">1.68619906902313</t>
+    <t xml:space="preserve">1.68619954586029</t>
   </si>
   <si>
     <t xml:space="preserve">1.72377049922943</t>
   </si>
   <si>
-    <t xml:space="preserve">1.73128497600555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75082206726074</t>
+    <t xml:space="preserve">1.73128473758698</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75082194805145</t>
   </si>
   <si>
     <t xml:space="preserve">1.65313649177551</t>
   </si>
   <si>
-    <t xml:space="preserve">1.6245824098587</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.62157678604126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60053694248199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5148743391037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.51787996292114</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.4998459815979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.49909424781799</t>
+    <t xml:space="preserve">1.62458229064941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.62157666683197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60053670406342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.51487410068512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.51787984371185</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.49984574317932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.49909436702728</t>
   </si>
   <si>
     <t xml:space="preserve">1.50435435771942</t>
   </si>
   <si>
-    <t xml:space="preserve">1.48331451416016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.47504878044128</t>
+    <t xml:space="preserve">1.48331439495087</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.47504866123199</t>
   </si>
   <si>
     <t xml:space="preserve">1.44799745082855</t>
   </si>
   <si>
-    <t xml:space="preserve">1.44649457931519</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.46152317523956</t>
+    <t xml:space="preserve">1.4464944601059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.46152305603027</t>
   </si>
   <si>
     <t xml:space="preserve">1.46528017520905</t>
   </si>
   <si>
-    <t xml:space="preserve">1.45025169849396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.45400893688202</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.45776605606079</t>
+    <t xml:space="preserve">1.45025181770325</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.45400869846344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.45776617527008</t>
   </si>
   <si>
     <t xml:space="preserve">1.46903729438782</t>
   </si>
   <si>
-    <t xml:space="preserve">1.43296873569489</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.4096747636795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.42846035957336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.49233150482178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53591418266296</t>
+    <t xml:space="preserve">1.43296885490417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.40967464447021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.42846024036407</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.4923312664032</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53591430187225</t>
   </si>
   <si>
     <t xml:space="preserve">1.54793691635132</t>
   </si>
   <si>
-    <t xml:space="preserve">1.54042267799377</t>
+    <t xml:space="preserve">1.54042255878448</t>
   </si>
   <si>
     <t xml:space="preserve">1.59001696109772</t>
@@ -572,25 +572,25 @@
     <t xml:space="preserve">1.55695426464081</t>
   </si>
   <si>
-    <t xml:space="preserve">1.56296563148499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60654807090759</t>
+    <t xml:space="preserve">1.5629655122757</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60654830932617</t>
   </si>
   <si>
     <t xml:space="preserve">1.61556553840637</t>
   </si>
   <si>
-    <t xml:space="preserve">1.62909090518951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65013098716736</t>
+    <t xml:space="preserve">1.6290910243988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65013074874878</t>
   </si>
   <si>
     <t xml:space="preserve">1.62758791446686</t>
   </si>
   <si>
-    <t xml:space="preserve">1.64712500572205</t>
+    <t xml:space="preserve">1.64712512493134</t>
   </si>
   <si>
     <t xml:space="preserve">1.66816520690918</t>
@@ -599,16 +599,16 @@
     <t xml:space="preserve">1.65614235401154</t>
   </si>
   <si>
-    <t xml:space="preserve">1.65914809703827</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.62307965755463</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.71325063705444</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.70273089408875</t>
+    <t xml:space="preserve">1.65914821624756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.62307953834534</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.71325087547302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.70273065567017</t>
   </si>
   <si>
     <t xml:space="preserve">1.71475350856781</t>
@@ -617,16 +617,16 @@
     <t xml:space="preserve">1.71625649929047</t>
   </si>
   <si>
-    <t xml:space="preserve">1.7207647562027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7012277841568</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.70423364639282</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.63359975814819</t>
+    <t xml:space="preserve">1.72076499462128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.70122766494751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.70423340797424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6335996389389</t>
   </si>
   <si>
     <t xml:space="preserve">1.63660526275635</t>
@@ -635,55 +635,55 @@
     <t xml:space="preserve">1.60955405235291</t>
   </si>
   <si>
-    <t xml:space="preserve">1.64562237262726</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69070780277252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.74481046199799</t>
+    <t xml:space="preserve">1.64562225341797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69070792198181</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.74481058120728</t>
   </si>
   <si>
     <t xml:space="preserve">1.72827923297882</t>
   </si>
   <si>
-    <t xml:space="preserve">1.74030184745789</t>
+    <t xml:space="preserve">1.74030208587646</t>
   </si>
   <si>
     <t xml:space="preserve">1.75382781028748</t>
   </si>
   <si>
-    <t xml:space="preserve">1.75683331489563</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76134192943573</t>
+    <t xml:space="preserve">1.75683343410492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76134204864502</t>
   </si>
   <si>
     <t xml:space="preserve">1.758336186409</t>
   </si>
   <si>
-    <t xml:space="preserve">1.77787327766418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79440474510193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79891335964203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78388476371765</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78839337825775</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.77937602996826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78238213062286</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80642759799957</t>
+    <t xml:space="preserve">1.77787303924561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79440462589264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79891324043274</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78388488292694</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78839325904846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77937626838684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78238189220428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80642747879028</t>
   </si>
   <si>
     <t xml:space="preserve">1.84850740432739</t>
@@ -692,115 +692,115 @@
     <t xml:space="preserve">1.85451865196228</t>
   </si>
   <si>
-    <t xml:space="preserve">1.8815701007843</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89810132980347</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93867826461792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.97023832798004</t>
+    <t xml:space="preserve">1.88156974315643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89810144901276</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93867838382721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.97023808956146</t>
   </si>
   <si>
     <t xml:space="preserve">1.98526692390442</t>
   </si>
   <si>
-    <t xml:space="preserve">1.98676991462708</t>
+    <t xml:space="preserve">1.98676955699921</t>
   </si>
   <si>
     <t xml:space="preserve">1.95070135593414</t>
   </si>
   <si>
-    <t xml:space="preserve">1.94168412685394</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95971810817719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.97174108028412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.97624957561493</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.98376393318176</t>
+    <t xml:space="preserve">1.94168436527252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95971846580505</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.97174143791199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.97624981403351</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.98376381397247</t>
   </si>
   <si>
     <t xml:space="preserve">2.01682662963867</t>
   </si>
   <si>
-    <t xml:space="preserve">2.00931262969971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94919836521149</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9537068605423</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.00029516220093</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96873533725739</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95821559429169</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.97324407100677</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.98827266693115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9957869052887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.00780940055847</t>
+    <t xml:space="preserve">2.00931215286255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94919848442078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95370674133301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.00029540061951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9687352180481</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95821511745453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9732438325882</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.98827242851257</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.99578654766083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.00780963897705</t>
   </si>
   <si>
     <t xml:space="preserve">2.01081538200378</t>
   </si>
   <si>
-    <t xml:space="preserve">2.02133512496948</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.06942629814148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.10399222373962</t>
+    <t xml:space="preserve">2.02133536338806</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.06942653656006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.10399198532104</t>
   </si>
   <si>
     <t xml:space="preserve">2.1340491771698</t>
   </si>
   <si>
-    <t xml:space="preserve">2.14607167243958</t>
+    <t xml:space="preserve">2.14607191085815</t>
   </si>
   <si>
     <t xml:space="preserve">2.12803745269775</t>
   </si>
   <si>
-    <t xml:space="preserve">2.18063759803772</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.14156317710876</t>
+    <t xml:space="preserve">2.18063735961914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.14156341552734</t>
   </si>
   <si>
     <t xml:space="preserve">2.11451172828674</t>
   </si>
   <si>
-    <t xml:space="preserve">2.15058016777039</t>
+    <t xml:space="preserve">2.15058064460754</t>
   </si>
   <si>
     <t xml:space="preserve">2.16410613059998</t>
   </si>
   <si>
-    <t xml:space="preserve">2.20768880844116</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.19115710258484</t>
+    <t xml:space="preserve">2.20768904685974</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.191157579422</t>
   </si>
   <si>
     <t xml:space="preserve">2.18965458869934</t>
@@ -809,10 +809,10 @@
     <t xml:space="preserve">2.17913484573364</t>
   </si>
   <si>
-    <t xml:space="preserve">2.13104319572449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16711187362671</t>
+    <t xml:space="preserve">2.13104367256165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16711163520813</t>
   </si>
   <si>
     <t xml:space="preserve">2.20167756080627</t>
@@ -821,7 +821,7 @@
     <t xml:space="preserve">2.15659165382385</t>
   </si>
   <si>
-    <t xml:space="preserve">2.18214058876038</t>
+    <t xml:space="preserve">2.1821403503418</t>
   </si>
   <si>
     <t xml:space="preserve">2.19867181777954</t>
@@ -830,22 +830,22 @@
     <t xml:space="preserve">2.18664908409119</t>
   </si>
   <si>
-    <t xml:space="preserve">2.22722578048706</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.21219730377197</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.23473978042603</t>
+    <t xml:space="preserve">2.22722601890564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.21219754219055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.2347400188446</t>
   </si>
   <si>
     <t xml:space="preserve">2.22271728515625</t>
   </si>
   <si>
-    <t xml:space="preserve">2.23624277114868</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.24864077568054</t>
+    <t xml:space="preserve">2.23624300956726</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.24864101409912</t>
   </si>
   <si>
     <t xml:space="preserve">2.25948858261108</t>
@@ -857,7 +857,7 @@
     <t xml:space="preserve">2.17735362052917</t>
   </si>
   <si>
-    <t xml:space="preserve">2.19130086898804</t>
+    <t xml:space="preserve">2.19130110740662</t>
   </si>
   <si>
     <t xml:space="preserve">2.14945888519287</t>
@@ -866,16 +866,16 @@
     <t xml:space="preserve">2.13551139831543</t>
   </si>
   <si>
-    <t xml:space="preserve">2.09211921691895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.0735228061676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.08592009544373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.08282089233398</t>
+    <t xml:space="preserve">2.09211945533752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.07352256774902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.08592057228088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.08282113075256</t>
   </si>
   <si>
     <t xml:space="preserve">2.07197308540344</t>
@@ -887,13 +887,13 @@
     <t xml:space="preserve">2.04407811164856</t>
   </si>
   <si>
-    <t xml:space="preserve">2.07972168922424</t>
+    <t xml:space="preserve">2.07972121238708</t>
   </si>
   <si>
     <t xml:space="preserve">2.05647587776184</t>
   </si>
   <si>
-    <t xml:space="preserve">2.10606646537781</t>
+    <t xml:space="preserve">2.10606670379639</t>
   </si>
   <si>
     <t xml:space="preserve">2.12931227684021</t>
@@ -905,13 +905,13 @@
     <t xml:space="preserve">2.10761666297913</t>
   </si>
   <si>
-    <t xml:space="preserve">2.12156367301941</t>
+    <t xml:space="preserve">2.12156391143799</t>
   </si>
   <si>
     <t xml:space="preserve">2.09986805915833</t>
   </si>
   <si>
-    <t xml:space="preserve">2.13861083984375</t>
+    <t xml:space="preserve">2.13861060142517</t>
   </si>
   <si>
     <t xml:space="preserve">2.15410804748535</t>
@@ -944,19 +944,19 @@
     <t xml:space="preserve">2.07662200927734</t>
   </si>
   <si>
-    <t xml:space="preserve">2.13241219520569</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.11071562767029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.06887364387512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.04872751235962</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.0347797870636</t>
+    <t xml:space="preserve">2.13241195678711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.11071610450745</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.06887340545654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.04872727394104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.03477931022644</t>
   </si>
   <si>
     <t xml:space="preserve">2.04097843170166</t>
@@ -971,64 +971,64 @@
     <t xml:space="preserve">2.08437085151672</t>
   </si>
   <si>
-    <t xml:space="preserve">2.0781717300415</t>
+    <t xml:space="preserve">2.07817196846008</t>
   </si>
   <si>
     <t xml:space="preserve">2.15565776824951</t>
   </si>
   <si>
-    <t xml:space="preserve">2.09366893768311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.07507228851318</t>
+    <t xml:space="preserve">2.09366869926453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.0750720500946</t>
   </si>
   <si>
     <t xml:space="preserve">2.05957531929016</t>
   </si>
   <si>
-    <t xml:space="preserve">2.06112504005432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.04562759399414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.09676837921143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.11381506919861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.13706088066101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.14790940284729</t>
+    <t xml:space="preserve">2.06112480163574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.04562783241272</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.09676885604858</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.11381530761719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.13706111907959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.14790916442871</t>
   </si>
   <si>
     <t xml:space="preserve">2.15100860595703</t>
   </si>
   <si>
-    <t xml:space="preserve">2.14326024055481</t>
+    <t xml:space="preserve">2.14326000213623</t>
   </si>
   <si>
     <t xml:space="preserve">2.14016056060791</t>
   </si>
   <si>
-    <t xml:space="preserve">2.15255856513977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16185665130615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.18510246276855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.20369935035706</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.2300443649292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.24089217185974</t>
+    <t xml:space="preserve">2.15255832672119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16185641288757</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1851019859314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.20369911193848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.23004388809204</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.24089241027832</t>
   </si>
   <si>
     <t xml:space="preserve">2.26258826255798</t>
@@ -1037,13 +1037,13 @@
     <t xml:space="preserve">2.27808547019958</t>
   </si>
   <si>
-    <t xml:space="preserve">2.2687873840332</t>
+    <t xml:space="preserve">2.26878714561462</t>
   </si>
   <si>
     <t xml:space="preserve">2.26103854179382</t>
   </si>
   <si>
-    <t xml:space="preserve">2.24709105491638</t>
+    <t xml:space="preserve">2.24709129333496</t>
   </si>
   <si>
     <t xml:space="preserve">2.25173997879028</t>
@@ -1058,22 +1058,22 @@
     <t xml:space="preserve">2.27653574943542</t>
   </si>
   <si>
-    <t xml:space="preserve">2.30752992630005</t>
+    <t xml:space="preserve">2.30753016471863</t>
   </si>
   <si>
     <t xml:space="preserve">2.35557126998901</t>
   </si>
   <si>
-    <t xml:space="preserve">2.34007430076599</t>
+    <t xml:space="preserve">2.34007453918457</t>
   </si>
   <si>
     <t xml:space="preserve">2.34317350387573</t>
   </si>
   <si>
-    <t xml:space="preserve">2.36641931533813</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.38036704063416</t>
+    <t xml:space="preserve">2.36641955375671</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.38036680221558</t>
   </si>
   <si>
     <t xml:space="preserve">2.3912148475647</t>
@@ -1085,7 +1085,7 @@
     <t xml:space="preserve">2.4268581867218</t>
   </si>
   <si>
-    <t xml:space="preserve">2.37416815757751</t>
+    <t xml:space="preserve">2.37416768074036</t>
   </si>
   <si>
     <t xml:space="preserve">2.35867071151733</t>
@@ -1094,7 +1094,7 @@
     <t xml:space="preserve">2.38966536521912</t>
   </si>
   <si>
-    <t xml:space="preserve">2.40206265449524</t>
+    <t xml:space="preserve">2.40206241607666</t>
   </si>
   <si>
     <t xml:space="preserve">2.33852434158325</t>
@@ -1106,25 +1106,25 @@
     <t xml:space="preserve">2.36331987380981</t>
   </si>
   <si>
-    <t xml:space="preserve">2.31217885017395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.30907964706421</t>
+    <t xml:space="preserve">2.31217932701111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.30907940864563</t>
   </si>
   <si>
     <t xml:space="preserve">2.30133104324341</t>
   </si>
   <si>
-    <t xml:space="preserve">2.25483989715576</t>
+    <t xml:space="preserve">2.25483965873718</t>
   </si>
   <si>
     <t xml:space="preserve">2.23469352722168</t>
   </si>
   <si>
-    <t xml:space="preserve">2.29358267784119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.34472346305847</t>
+    <t xml:space="preserve">2.29358243942261</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.34472370147705</t>
   </si>
   <si>
     <t xml:space="preserve">2.39741373062134</t>
@@ -1139,40 +1139,40 @@
     <t xml:space="preserve">2.32147765159607</t>
   </si>
   <si>
-    <t xml:space="preserve">2.36177039146423</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.37106847763062</t>
+    <t xml:space="preserve">2.36177015304565</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.37106871604919</t>
   </si>
   <si>
     <t xml:space="preserve">2.38501620292664</t>
   </si>
   <si>
-    <t xml:space="preserve">2.33077573776245</t>
+    <t xml:space="preserve">2.33077597618103</t>
   </si>
   <si>
     <t xml:space="preserve">2.36486983299255</t>
   </si>
   <si>
-    <t xml:space="preserve">2.32922625541687</t>
+    <t xml:space="preserve">2.32922601699829</t>
   </si>
   <si>
     <t xml:space="preserve">2.2656877040863</t>
   </si>
   <si>
-    <t xml:space="preserve">2.21454691886902</t>
+    <t xml:space="preserve">2.2145471572876</t>
   </si>
   <si>
     <t xml:space="preserve">2.18975138664246</t>
   </si>
   <si>
-    <t xml:space="preserve">2.13396167755127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.10451698303223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.17270469665527</t>
+    <t xml:space="preserve">2.13396143913269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.10451722145081</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.17270445823669</t>
   </si>
   <si>
     <t xml:space="preserve">2.20524883270264</t>
@@ -1181,7 +1181,7 @@
     <t xml:space="preserve">2.21299719810486</t>
   </si>
   <si>
-    <t xml:space="preserve">2.17115497589111</t>
+    <t xml:space="preserve">2.17115473747253</t>
   </si>
   <si>
     <t xml:space="preserve">2.14635944366455</t>
@@ -1196,40 +1196,40 @@
     <t xml:space="preserve">2.16030693054199</t>
   </si>
   <si>
-    <t xml:space="preserve">2.15875720977783</t>
+    <t xml:space="preserve">2.15875697135925</t>
   </si>
   <si>
     <t xml:space="preserve">2.1804530620575</t>
   </si>
   <si>
-    <t xml:space="preserve">2.17580389976501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.19904971122742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.29513239860535</t>
+    <t xml:space="preserve">2.17580413818359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.199049949646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.29513216018677</t>
   </si>
   <si>
     <t xml:space="preserve">2.30443048477173</t>
   </si>
   <si>
-    <t xml:space="preserve">2.31372928619385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.32612657546997</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.34782266616821</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.31837821006775</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.33697485923767</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.37881684303284</t>
+    <t xml:space="preserve">2.31372904777527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.32612705230713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.34782242774963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.31837797164917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.33697509765625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.37881708145142</t>
   </si>
   <si>
     <t xml:space="preserve">2.3834662437439</t>
@@ -1238,7 +1238,7 @@
     <t xml:space="preserve">2.36951899528503</t>
   </si>
   <si>
-    <t xml:space="preserve">2.31062960624695</t>
+    <t xml:space="preserve">2.31062936782837</t>
   </si>
   <si>
     <t xml:space="preserve">2.33542490005493</t>
@@ -1250,52 +1250,52 @@
     <t xml:space="preserve">2.20059943199158</t>
   </si>
   <si>
-    <t xml:space="preserve">2.09831809997559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.01928281784058</t>
+    <t xml:space="preserve">2.09831833839417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.019282579422</t>
   </si>
   <si>
     <t xml:space="preserve">2.03787922859192</t>
   </si>
   <si>
-    <t xml:space="preserve">2.05492615699768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.0425283908844</t>
+    <t xml:space="preserve">2.0549259185791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.04252815246582</t>
   </si>
   <si>
     <t xml:space="preserve">2.05182671546936</t>
   </si>
   <si>
-    <t xml:space="preserve">2.02083206176758</t>
+    <t xml:space="preserve">2.020831823349</t>
   </si>
   <si>
     <t xml:space="preserve">2.10410904884338</t>
   </si>
   <si>
-    <t xml:space="preserve">2.1378390789032</t>
+    <t xml:space="preserve">2.13783931732178</t>
   </si>
   <si>
     <t xml:space="preserve">2.14908266067505</t>
   </si>
   <si>
-    <t xml:space="preserve">2.11374640464783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.11695885658264</t>
+    <t xml:space="preserve">2.11374616622925</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.11695861816406</t>
   </si>
   <si>
     <t xml:space="preserve">2.15068864822388</t>
   </si>
   <si>
-    <t xml:space="preserve">2.13623285293579</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16675066947937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.14426374435425</t>
+    <t xml:space="preserve">2.13623309135437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16675043106079</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.14426398277283</t>
   </si>
   <si>
     <t xml:space="preserve">2.18441867828369</t>
@@ -1304,10 +1304,10 @@
     <t xml:space="preserve">2.21493625640869</t>
   </si>
   <si>
-    <t xml:space="preserve">2.234210729599</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.24063491821289</t>
+    <t xml:space="preserve">2.23421049118042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.24063539505005</t>
   </si>
   <si>
     <t xml:space="preserve">2.22457337379456</t>
@@ -1316,55 +1316,55 @@
     <t xml:space="preserve">2.2165424823761</t>
   </si>
   <si>
-    <t xml:space="preserve">2.22778606414795</t>
+    <t xml:space="preserve">2.22778558731079</t>
   </si>
   <si>
     <t xml:space="preserve">2.21333026885986</t>
   </si>
   <si>
-    <t xml:space="preserve">2.24866628646851</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.25348520278931</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.23260450363159</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.18281245231628</t>
+    <t xml:space="preserve">2.24866652488708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.25348472595215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.23260426521301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.18281221389771</t>
   </si>
   <si>
     <t xml:space="preserve">2.16996288299561</t>
   </si>
   <si>
-    <t xml:space="preserve">2.28882098197937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.25187849998474</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.27757811546326</t>
+    <t xml:space="preserve">2.28882074356079</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.25187873840332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.27757787704468</t>
   </si>
   <si>
     <t xml:space="preserve">2.26794052124023</t>
   </si>
   <si>
-    <t xml:space="preserve">2.30006432533264</t>
+    <t xml:space="preserve">2.30006456375122</t>
   </si>
   <si>
     <t xml:space="preserve">2.29845809936523</t>
   </si>
   <si>
-    <t xml:space="preserve">2.26472806930542</t>
+    <t xml:space="preserve">2.264728307724</t>
   </si>
   <si>
     <t xml:space="preserve">2.24384760856628</t>
   </si>
   <si>
-    <t xml:space="preserve">2.23099851608276</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.21172380447388</t>
+    <t xml:space="preserve">2.23099827766418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.21172404289246</t>
   </si>
   <si>
     <t xml:space="preserve">2.20529913902283</t>
@@ -1373,25 +1373,25 @@
     <t xml:space="preserve">2.1988742351532</t>
   </si>
   <si>
-    <t xml:space="preserve">2.2470600605011</t>
+    <t xml:space="preserve">2.24706029891968</t>
   </si>
   <si>
     <t xml:space="preserve">2.23742294311523</t>
   </si>
   <si>
-    <t xml:space="preserve">2.22939229011536</t>
+    <t xml:space="preserve">2.22939205169678</t>
   </si>
   <si>
     <t xml:space="preserve">2.17478156089783</t>
   </si>
   <si>
-    <t xml:space="preserve">2.17799425125122</t>
+    <t xml:space="preserve">2.17799401283264</t>
   </si>
   <si>
     <t xml:space="preserve">2.16835689544678</t>
   </si>
   <si>
-    <t xml:space="preserve">2.18602466583252</t>
+    <t xml:space="preserve">2.1860249042511</t>
   </si>
   <si>
     <t xml:space="preserve">2.20369291305542</t>
@@ -1400,7 +1400,7 @@
     <t xml:space="preserve">2.20690536499023</t>
   </si>
   <si>
-    <t xml:space="preserve">2.26954650878906</t>
+    <t xml:space="preserve">2.26954674720764</t>
   </si>
   <si>
     <t xml:space="preserve">2.28239631652832</t>
@@ -1409,40 +1409,40 @@
     <t xml:space="preserve">2.27918386459351</t>
   </si>
   <si>
-    <t xml:space="preserve">2.28400230407715</t>
+    <t xml:space="preserve">2.28400254249573</t>
   </si>
   <si>
     <t xml:space="preserve">2.2904269695282</t>
   </si>
   <si>
-    <t xml:space="preserve">2.29363965988159</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.25669741630554</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.20048046112061</t>
+    <t xml:space="preserve">2.29363942146301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.25669717788696</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.20048069953918</t>
   </si>
   <si>
     <t xml:space="preserve">2.19566202163696</t>
   </si>
   <si>
-    <t xml:space="preserve">2.15390110015869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.14586997032166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.12820243835449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.08965349197388</t>
+    <t xml:space="preserve">2.15390086174011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.14587044715881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.12820219993591</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.0896532535553</t>
   </si>
   <si>
     <t xml:space="preserve">2.03504300117493</t>
   </si>
   <si>
-    <t xml:space="preserve">2.05592346191406</t>
+    <t xml:space="preserve">2.05592322349548</t>
   </si>
   <si>
     <t xml:space="preserve">2.00934386253357</t>
@@ -1451,109 +1451,109 @@
     <t xml:space="preserve">1.97400772571564</t>
   </si>
   <si>
-    <t xml:space="preserve">1.93224680423737</t>
+    <t xml:space="preserve">1.93224668502808</t>
   </si>
   <si>
     <t xml:space="preserve">1.98685717582703</t>
   </si>
   <si>
-    <t xml:space="preserve">1.94188392162323</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96437072753906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.97240197658539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94027733802795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92903447151184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.99970662593842</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96758317947388</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96115827560425</t>
+    <t xml:space="preserve">1.94188380241394</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96437084674835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.97240173816681</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94027781486511</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92903470993042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.99970698356628</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96758329868317</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96115815639496</t>
   </si>
   <si>
     <t xml:space="preserve">1.94991481304169</t>
   </si>
   <si>
-    <t xml:space="preserve">1.95955181121826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95794582366943</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.97561419010162</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.99328219890594</t>
+    <t xml:space="preserve">1.95955216884613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95794570446014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.97561383247375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.99328184127808</t>
   </si>
   <si>
     <t xml:space="preserve">2.03986144065857</t>
   </si>
   <si>
-    <t xml:space="preserve">1.99006938934326</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.05271124839783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.0430736541748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.05110502243042</t>
+    <t xml:space="preserve">1.99006962776184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.05271100997925</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.04307389259338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.05110478401184</t>
   </si>
   <si>
     <t xml:space="preserve">2.01416254043579</t>
   </si>
   <si>
-    <t xml:space="preserve">2.00291919708252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.99649465084076</t>
+    <t xml:space="preserve">2.0029194355011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.99649453163147</t>
   </si>
   <si>
     <t xml:space="preserve">1.99167585372925</t>
   </si>
   <si>
-    <t xml:space="preserve">1.96276450157166</t>
+    <t xml:space="preserve">1.96276438236237</t>
   </si>
   <si>
     <t xml:space="preserve">1.98043274879456</t>
   </si>
   <si>
-    <t xml:space="preserve">1.94830858707428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.01095032691956</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93867135047913</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.02058744430542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.06074213981628</t>
+    <t xml:space="preserve">1.94830882549286</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.01095008850098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93867158889771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.02058720588684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.06074190139771</t>
   </si>
   <si>
     <t xml:space="preserve">2.17156910896301</t>
   </si>
   <si>
-    <t xml:space="preserve">2.11214017868042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.14265751838684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.17638802528381</t>
+    <t xml:space="preserve">2.11213994026184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.14265775680542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.17638778686523</t>
   </si>
   <si>
     <t xml:space="preserve">2.16032576560974</t>
@@ -1565,16 +1565,16 @@
     <t xml:space="preserve">2.27597188949585</t>
   </si>
   <si>
-    <t xml:space="preserve">2.2599093914032</t>
+    <t xml:space="preserve">2.25990962982178</t>
   </si>
   <si>
     <t xml:space="preserve">2.28721475601196</t>
   </si>
   <si>
-    <t xml:space="preserve">2.29203367233276</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.3129141330719</t>
+    <t xml:space="preserve">2.29203343391418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.31291389465332</t>
   </si>
   <si>
     <t xml:space="preserve">2.28560853004456</t>
@@ -1592,7 +1592,7 @@
     <t xml:space="preserve">2.34664368629456</t>
   </si>
   <si>
-    <t xml:space="preserve">2.37073683738708</t>
+    <t xml:space="preserve">2.37073659896851</t>
   </si>
   <si>
     <t xml:space="preserve">2.37876772880554</t>
@@ -1601,7 +1601,7 @@
     <t xml:space="preserve">2.36752438545227</t>
   </si>
   <si>
-    <t xml:space="preserve">2.3691303730011</t>
+    <t xml:space="preserve">2.36913061141968</t>
   </si>
   <si>
     <t xml:space="preserve">2.37555527687073</t>
@@ -1610,64 +1610,64 @@
     <t xml:space="preserve">2.35467481613159</t>
   </si>
   <si>
-    <t xml:space="preserve">2.34021878242493</t>
+    <t xml:space="preserve">2.34021925926208</t>
   </si>
   <si>
     <t xml:space="preserve">2.36591815948486</t>
   </si>
   <si>
-    <t xml:space="preserve">2.38840460777283</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.38679838180542</t>
+    <t xml:space="preserve">2.38840484619141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.386798620224</t>
   </si>
   <si>
     <t xml:space="preserve">2.39322328567505</t>
   </si>
   <si>
-    <t xml:space="preserve">2.38358592987061</t>
+    <t xml:space="preserve">2.38358616828918</t>
   </si>
   <si>
     <t xml:space="preserve">2.3739492893219</t>
   </si>
   <si>
-    <t xml:space="preserve">2.34343123435974</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.41089177131653</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.37716174125671</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.3386127948761</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.35306882858276</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.34985613822937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.38519239425659</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.38198041915894</t>
+    <t xml:space="preserve">2.34343147277832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.41089153289795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.37716150283813</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.33861303329468</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.35306859016418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.34985637664795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.38519263267517</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.38198018074036</t>
   </si>
   <si>
     <t xml:space="preserve">2.3996479511261</t>
   </si>
   <si>
-    <t xml:space="preserve">2.40767884254456</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.34182524681091</t>
+    <t xml:space="preserve">2.40767908096313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.34182548522949</t>
   </si>
   <si>
     <t xml:space="preserve">2.32255101203918</t>
   </si>
   <si>
-    <t xml:space="preserve">2.43177223205566</t>
+    <t xml:space="preserve">2.43177199363708</t>
   </si>
   <si>
     <t xml:space="preserve">2.46871423721313</t>
@@ -1676,13 +1676,13 @@
     <t xml:space="preserve">2.47032070159912</t>
   </si>
   <si>
-    <t xml:space="preserve">2.49280714988708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.51850628852844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.52171850204468</t>
+    <t xml:space="preserve">2.49280738830566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.51850605010986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.52171874046326</t>
   </si>
   <si>
     <t xml:space="preserve">2.56829810142517</t>
@@ -1697,7 +1697,7 @@
     <t xml:space="preserve">2.58917856216431</t>
   </si>
   <si>
-    <t xml:space="preserve">2.60202813148499</t>
+    <t xml:space="preserve">2.60202789306641</t>
   </si>
   <si>
     <t xml:space="preserve">2.64378905296326</t>
@@ -1706,43 +1706,43 @@
     <t xml:space="preserve">2.61487770080566</t>
   </si>
   <si>
-    <t xml:space="preserve">2.59560346603394</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.61005902290344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.55384254455566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.57151031494141</t>
+    <t xml:space="preserve">2.59560370445251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.61005878448486</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.55384230613708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.57151055335999</t>
   </si>
   <si>
     <t xml:space="preserve">2.55705499649048</t>
   </si>
   <si>
-    <t xml:space="preserve">2.52493095397949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.54099249839783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.54420495033264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.55866122245789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.53778076171875</t>
+    <t xml:space="preserve">2.52493143081665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.54099273681641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.54420518875122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.55866098403931</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.53778028488159</t>
   </si>
   <si>
     <t xml:space="preserve">2.54902386665344</t>
   </si>
   <si>
-    <t xml:space="preserve">2.56347942352295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.55062985420227</t>
+    <t xml:space="preserve">2.56347966194153</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.55063009262085</t>
   </si>
   <si>
     <t xml:space="preserve">2.51690030097961</t>
@@ -1754,31 +1754,31 @@
     <t xml:space="preserve">2.52011251449585</t>
   </si>
   <si>
-    <t xml:space="preserve">2.57954168319702</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.62451481819153</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.63254594802856</t>
+    <t xml:space="preserve">2.57954144477844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.62451457977295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.63254570960999</t>
   </si>
   <si>
     <t xml:space="preserve">2.6357581615448</t>
   </si>
   <si>
-    <t xml:space="preserve">2.63897061347961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.65181994438171</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.6534264087677</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.63093972206116</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.62933349609375</t>
+    <t xml:space="preserve">2.63897037506104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.65182018280029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.65342617034912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.63093996047974</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.62933325767517</t>
   </si>
   <si>
     <t xml:space="preserve">2.62290859222412</t>
@@ -1787,16 +1787,16 @@
     <t xml:space="preserve">2.61166524887085</t>
   </si>
   <si>
-    <t xml:space="preserve">2.65985107421875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.68715596199036</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.70000553131104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.70161175727844</t>
+    <t xml:space="preserve">2.65985131263733</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.68715620040894</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.70000576972961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.70161199569702</t>
   </si>
   <si>
     <t xml:space="preserve">2.6967933177948</t>
@@ -1808,7 +1808,7 @@
     <t xml:space="preserve">2.68554997444153</t>
   </si>
   <si>
-    <t xml:space="preserve">2.68233776092529</t>
+    <t xml:space="preserve">2.68233752250671</t>
   </si>
   <si>
     <t xml:space="preserve">2.74497890472412</t>
@@ -1817,7 +1817,7 @@
     <t xml:space="preserve">2.75140380859375</t>
   </si>
   <si>
-    <t xml:space="preserve">2.78513360023499</t>
+    <t xml:space="preserve">2.78513383865356</t>
   </si>
   <si>
     <t xml:space="preserve">2.81725740432739</t>
@@ -1829,43 +1829,43 @@
     <t xml:space="preserve">2.77923130989075</t>
   </si>
   <si>
-    <t xml:space="preserve">2.78253746032715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.74947118759155</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.78088474273682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.76600432395935</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.83213758468628</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.91645669937134</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.91315031051636</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.88835024833679</t>
+    <t xml:space="preserve">2.78253793716431</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.74947166442871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.78088450431824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.76600480079651</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.83213782310486</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.91645693778992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.91315007209778</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.88835048675537</t>
   </si>
   <si>
     <t xml:space="preserve">2.87677717208862</t>
   </si>
   <si>
-    <t xml:space="preserve">2.8866970539093</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.90157723426819</t>
+    <t xml:space="preserve">2.88669729232788</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.90157675743103</t>
   </si>
   <si>
     <t xml:space="preserve">2.89992356300354</t>
   </si>
   <si>
-    <t xml:space="preserve">2.93299031257629</t>
+    <t xml:space="preserve">2.93298983573914</t>
   </si>
   <si>
     <t xml:space="preserve">2.91149687767029</t>
@@ -1874,22 +1874,22 @@
     <t xml:space="preserve">2.86189723014832</t>
   </si>
   <si>
-    <t xml:space="preserve">2.84701728820801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.85197734832764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.83379101753235</t>
+    <t xml:space="preserve">2.84701752662659</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.85197758674622</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.83379077911377</t>
   </si>
   <si>
     <t xml:space="preserve">2.83048415184021</t>
   </si>
   <si>
-    <t xml:space="preserve">2.83544421195984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.76931142807007</t>
+    <t xml:space="preserve">2.83544397354126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.76931118965149</t>
   </si>
   <si>
     <t xml:space="preserve">2.78584456443787</t>
@@ -1898,19 +1898,19 @@
     <t xml:space="preserve">2.8387508392334</t>
   </si>
   <si>
-    <t xml:space="preserve">2.81229758262634</t>
+    <t xml:space="preserve">2.81229782104492</t>
   </si>
   <si>
     <t xml:space="preserve">2.79576444625854</t>
   </si>
   <si>
-    <t xml:space="preserve">2.80733752250671</t>
+    <t xml:space="preserve">2.80733776092529</t>
   </si>
   <si>
     <t xml:space="preserve">2.82883071899414</t>
   </si>
   <si>
-    <t xml:space="preserve">2.80568432807922</t>
+    <t xml:space="preserve">2.8056845664978</t>
   </si>
   <si>
     <t xml:space="preserve">2.83709740638733</t>
@@ -1928,58 +1928,58 @@
     <t xml:space="preserve">2.88173723220825</t>
   </si>
   <si>
-    <t xml:space="preserve">2.89000368118286</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.91811037063599</t>
+    <t xml:space="preserve">2.89000415802002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.91811013221741</t>
   </si>
   <si>
     <t xml:space="preserve">2.98920297622681</t>
   </si>
   <si>
-    <t xml:space="preserve">2.98589611053467</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.02392244338989</t>
+    <t xml:space="preserve">2.98589658737183</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.02392268180847</t>
   </si>
   <si>
     <t xml:space="preserve">2.99912285804749</t>
   </si>
   <si>
-    <t xml:space="preserve">2.99416279792786</t>
+    <t xml:space="preserve">2.99416303634644</t>
   </si>
   <si>
     <t xml:space="preserve">2.99581623077393</t>
   </si>
   <si>
-    <t xml:space="preserve">3.02557635307312</t>
+    <t xml:space="preserve">3.02557611465454</t>
   </si>
   <si>
     <t xml:space="preserve">3.00408291816711</t>
   </si>
   <si>
-    <t xml:space="preserve">2.90488338470459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.89661717414856</t>
+    <t xml:space="preserve">2.90488362312317</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.89661693572998</t>
   </si>
   <si>
     <t xml:space="preserve">2.951176404953</t>
   </si>
   <si>
-    <t xml:space="preserve">2.92307043075562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.92637658119202</t>
+    <t xml:space="preserve">2.92306995391846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.92637705802917</t>
   </si>
   <si>
     <t xml:space="preserve">2.95282983779907</t>
   </si>
   <si>
-    <t xml:space="preserve">3.01565599441528</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.01234936714172</t>
+    <t xml:space="preserve">3.0156557559967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.0123496055603</t>
   </si>
   <si>
     <t xml:space="preserve">2.97597622871399</t>
@@ -1988,13 +1988,13 @@
     <t xml:space="preserve">3.0619490146637</t>
   </si>
   <si>
-    <t xml:space="preserve">3.06029582023621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.13304162025452</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.07517552375793</t>
+    <t xml:space="preserve">3.06029558181763</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.1330418586731</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.07517528533936</t>
   </si>
   <si>
     <t xml:space="preserve">3.11320185661316</t>
@@ -2006,10 +2006,10 @@
     <t xml:space="preserve">3.08178877830505</t>
   </si>
   <si>
-    <t xml:space="preserve">3.12808179855347</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.13469505310059</t>
+    <t xml:space="preserve">3.12808156013489</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.13469529151917</t>
   </si>
   <si>
     <t xml:space="preserve">3.11650848388672</t>
@@ -2018,13 +2018,13 @@
     <t xml:space="preserve">3.09005546569824</t>
   </si>
   <si>
-    <t xml:space="preserve">3.11485505104065</t>
+    <t xml:space="preserve">3.11485528945923</t>
   </si>
   <si>
     <t xml:space="preserve">3.12642884254456</t>
   </si>
   <si>
-    <t xml:space="preserve">3.09501528739929</t>
+    <t xml:space="preserve">3.09501552581787</t>
   </si>
   <si>
     <t xml:space="preserve">3.13634848594666</t>
@@ -2042,34 +2042,34 @@
     <t xml:space="preserve">3.11816191673279</t>
   </si>
   <si>
-    <t xml:space="preserve">3.15949511528015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.17272114753723</t>
+    <t xml:space="preserve">3.15949487686157</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.17272162437439</t>
   </si>
   <si>
     <t xml:space="preserve">3.16280150413513</t>
   </si>
   <si>
-    <t xml:space="preserve">3.18429446220398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.14296174049377</t>
+    <t xml:space="preserve">3.18429470062256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.14296197891235</t>
   </si>
   <si>
     <t xml:space="preserve">3.16776156425476</t>
   </si>
   <si>
-    <t xml:space="preserve">3.18098831176758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.16610789299011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.1876015663147</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.18925452232361</t>
+    <t xml:space="preserve">3.18098783493042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.16610813140869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.18760132789612</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.18925476074219</t>
   </si>
   <si>
     <t xml:space="preserve">3.21570777893066</t>
@@ -2078,7 +2078,7 @@
     <t xml:space="preserve">3.29176068305969</t>
   </si>
   <si>
-    <t xml:space="preserve">3.31656050682068</t>
+    <t xml:space="preserve">3.3165602684021</t>
   </si>
   <si>
     <t xml:space="preserve">3.31325364112854</t>
@@ -2093,67 +2093,67 @@
     <t xml:space="preserve">3.28018712997437</t>
   </si>
   <si>
-    <t xml:space="preserve">3.29837369918823</t>
+    <t xml:space="preserve">3.29837346076965</t>
   </si>
   <si>
     <t xml:space="preserve">3.27357411384583</t>
   </si>
   <si>
-    <t xml:space="preserve">3.30333375930786</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.29341411590576</t>
+    <t xml:space="preserve">3.30333399772644</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.2934136390686</t>
   </si>
   <si>
     <t xml:space="preserve">3.30994725227356</t>
   </si>
   <si>
-    <t xml:space="preserve">3.17602825164795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.20248126983643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.24050784111023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.21736121177673</t>
+    <t xml:space="preserve">3.17602801322937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.202481508255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.24050760269165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.21736097335815</t>
   </si>
   <si>
     <t xml:space="preserve">3.21074795722961</t>
   </si>
   <si>
-    <t xml:space="preserve">3.18594837188721</t>
+    <t xml:space="preserve">3.18594813346863</t>
   </si>
   <si>
     <t xml:space="preserve">3.21901440620422</t>
   </si>
   <si>
-    <t xml:space="preserve">3.22728085517883</t>
+    <t xml:space="preserve">3.22728109359741</t>
   </si>
   <si>
     <t xml:space="preserve">3.17437481880188</t>
   </si>
   <si>
-    <t xml:space="preserve">3.24381422996521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.29010725021362</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.28680062294006</t>
+    <t xml:space="preserve">3.24381446838379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.29010701179504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.28680086135864</t>
   </si>
   <si>
     <t xml:space="preserve">3.28184080123901</t>
   </si>
   <si>
-    <t xml:space="preserve">3.34135985374451</t>
+    <t xml:space="preserve">3.34136009216309</t>
   </si>
   <si>
     <t xml:space="preserve">3.27853393554688</t>
   </si>
   <si>
-    <t xml:space="preserve">3.28349375724792</t>
+    <t xml:space="preserve">3.2834939956665</t>
   </si>
   <si>
     <t xml:space="preserve">3.22397446632385</t>
@@ -2162,13 +2162,13 @@
     <t xml:space="preserve">3.2124011516571</t>
   </si>
   <si>
-    <t xml:space="preserve">3.22232127189636</t>
+    <t xml:space="preserve">3.22232103347778</t>
   </si>
   <si>
     <t xml:space="preserve">3.19586777687073</t>
   </si>
   <si>
-    <t xml:space="preserve">3.19256162643433</t>
+    <t xml:space="preserve">3.19256138801575</t>
   </si>
   <si>
     <t xml:space="preserve">3.26034736633301</t>
@@ -2177,46 +2177,46 @@
     <t xml:space="preserve">3.30498719215393</t>
   </si>
   <si>
-    <t xml:space="preserve">3.30168032646179</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.24877405166626</t>
+    <t xml:space="preserve">3.30168056488037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.24877452850342</t>
   </si>
   <si>
     <t xml:space="preserve">3.39426636695862</t>
   </si>
   <si>
-    <t xml:space="preserve">3.50338554382324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.43725299835205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.57613205909729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.57447814941406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.50503849983215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.39095997810364</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.39922642707825</t>
+    <t xml:space="preserve">3.50338578224182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.43725252151489</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.57613182067871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.57447791099548</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.50503873825073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.39096021652222</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.39922618865967</t>
   </si>
   <si>
     <t xml:space="preserve">3.40914630889893</t>
   </si>
   <si>
-    <t xml:space="preserve">3.45709252357483</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.49842524528503</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.51165223121643</t>
+    <t xml:space="preserve">3.45709276199341</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.49842548370361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.51165246963501</t>
   </si>
   <si>
     <t xml:space="preserve">3.53645181655884</t>
@@ -2225,10 +2225,10 @@
     <t xml:space="preserve">3.55463886260986</t>
   </si>
   <si>
-    <t xml:space="preserve">3.56786513328552</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.60754466056824</t>
+    <t xml:space="preserve">3.56786489486694</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.60754442214966</t>
   </si>
   <si>
     <t xml:space="preserve">3.58109140396118</t>
@@ -2237,25 +2237,25 @@
     <t xml:space="preserve">3.58605146408081</t>
   </si>
   <si>
-    <t xml:space="preserve">3.59927797317505</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.68855714797974</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.66871809959412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.64722466468811</t>
+    <t xml:space="preserve">3.59927845001221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.68855738639832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.66871786117554</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.64722442626953</t>
   </si>
   <si>
     <t xml:space="preserve">3.46370601654053</t>
   </si>
   <si>
-    <t xml:space="preserve">3.43229293823242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.46205258369446</t>
+    <t xml:space="preserve">3.43229269981384</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.46205306053162</t>
   </si>
   <si>
     <t xml:space="preserve">3.40087962150574</t>
@@ -2264,7 +2264,7 @@
     <t xml:space="preserve">3.20578789710999</t>
   </si>
   <si>
-    <t xml:space="preserve">3.22893452644348</t>
+    <t xml:space="preserve">3.2289342880249</t>
   </si>
   <si>
     <t xml:space="preserve">3.38269305229187</t>
@@ -2273,25 +2273,25 @@
     <t xml:space="preserve">2.93794989585876</t>
   </si>
   <si>
-    <t xml:space="preserve">2.7577383518219</t>
+    <t xml:space="preserve">2.75773811340332</t>
   </si>
   <si>
     <t xml:space="preserve">2.79080438613892</t>
   </si>
   <si>
-    <t xml:space="preserve">2.30307531356812</t>
+    <t xml:space="preserve">2.30307507514954</t>
   </si>
   <si>
     <t xml:space="preserve">2.65357899665833</t>
   </si>
   <si>
-    <t xml:space="preserve">2.55768609046936</t>
+    <t xml:space="preserve">2.55768656730652</t>
   </si>
   <si>
     <t xml:space="preserve">2.60397934913635</t>
   </si>
   <si>
-    <t xml:space="preserve">2.61059260368347</t>
+    <t xml:space="preserve">2.61059236526489</t>
   </si>
   <si>
     <t xml:space="preserve">2.55272650718689</t>
@@ -2300,13 +2300,13 @@
     <t xml:space="preserve">2.6800320148468</t>
   </si>
   <si>
-    <t xml:space="preserve">2.53288626670837</t>
+    <t xml:space="preserve">2.53288674354553</t>
   </si>
   <si>
     <t xml:space="preserve">2.50808668136597</t>
   </si>
   <si>
-    <t xml:space="preserve">2.53123331069946</t>
+    <t xml:space="preserve">2.53123354911804</t>
   </si>
   <si>
     <t xml:space="preserve">2.59571290016174</t>
@@ -2315,10 +2315,10 @@
     <t xml:space="preserve">2.7197117805481</t>
   </si>
   <si>
-    <t xml:space="preserve">2.70152473449707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.62216591835022</t>
+    <t xml:space="preserve">2.70152521133423</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.62216567993164</t>
   </si>
   <si>
     <t xml:space="preserve">2.66019225120544</t>
@@ -2333,7 +2333,7 @@
     <t xml:space="preserve">2.55107307434082</t>
   </si>
   <si>
-    <t xml:space="preserve">2.67176556587219</t>
+    <t xml:space="preserve">2.67176580429077</t>
   </si>
   <si>
     <t xml:space="preserve">2.66349864006042</t>
@@ -2345,7 +2345,7 @@
     <t xml:space="preserve">2.63869905471802</t>
   </si>
   <si>
-    <t xml:space="preserve">2.70483207702637</t>
+    <t xml:space="preserve">2.70483183860779</t>
   </si>
   <si>
     <t xml:space="preserve">2.71805834770203</t>
@@ -2354,16 +2354,16 @@
     <t xml:space="preserve">2.61224603652954</t>
   </si>
   <si>
-    <t xml:space="preserve">2.6866455078125</t>
+    <t xml:space="preserve">2.68664526939392</t>
   </si>
   <si>
     <t xml:space="preserve">2.67672538757324</t>
   </si>
   <si>
-    <t xml:space="preserve">2.77261805534363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.79245805740356</t>
+    <t xml:space="preserve">2.77261829376221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.79245781898499</t>
   </si>
   <si>
     <t xml:space="preserve">2.67507219314575</t>
@@ -2372,22 +2372,22 @@
     <t xml:space="preserve">2.66845870018005</t>
   </si>
   <si>
-    <t xml:space="preserve">2.61885929107666</t>
+    <t xml:space="preserve">2.61885905265808</t>
   </si>
   <si>
     <t xml:space="preserve">2.58579277992249</t>
   </si>
   <si>
-    <t xml:space="preserve">2.68829894065857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.71640515327454</t>
+    <t xml:space="preserve">2.68829870223999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.71640491485596</t>
   </si>
   <si>
     <t xml:space="preserve">2.65688538551331</t>
   </si>
   <si>
-    <t xml:space="preserve">2.56760621070862</t>
+    <t xml:space="preserve">2.5676064491272</t>
   </si>
   <si>
     <t xml:space="preserve">2.55437970161438</t>
@@ -2396,49 +2396,49 @@
     <t xml:space="preserve">2.60728621482849</t>
   </si>
   <si>
-    <t xml:space="preserve">2.59405922889709</t>
+    <t xml:space="preserve">2.59405946731567</t>
   </si>
   <si>
     <t xml:space="preserve">2.6486189365387</t>
   </si>
   <si>
-    <t xml:space="preserve">2.64365911483765</t>
+    <t xml:space="preserve">2.64365887641907</t>
   </si>
   <si>
     <t xml:space="preserve">2.75608491897583</t>
   </si>
   <si>
-    <t xml:space="preserve">2.75939130783081</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.95778965950012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.96274995803833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.92141675949097</t>
+    <t xml:space="preserve">2.75939154624939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.9577898979187</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.96274971961975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.92141652107239</t>
   </si>
   <si>
     <t xml:space="preserve">2.88008403778076</t>
   </si>
   <si>
-    <t xml:space="preserve">2.77757787704468</t>
+    <t xml:space="preserve">2.77757811546326</t>
   </si>
   <si>
     <t xml:space="preserve">2.90653705596924</t>
   </si>
   <si>
-    <t xml:space="preserve">2.89331030845642</t>
+    <t xml:space="preserve">2.89331007003784</t>
   </si>
   <si>
     <t xml:space="preserve">2.87347054481506</t>
   </si>
   <si>
-    <t xml:space="preserve">2.86024403572083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.85693740844727</t>
+    <t xml:space="preserve">2.86024379730225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.85693717002869</t>
   </si>
   <si>
     <t xml:space="preserve">2.78915119171143</t>
@@ -2456,28 +2456,28 @@
     <t xml:space="preserve">2.82717752456665</t>
   </si>
   <si>
-    <t xml:space="preserve">2.84420847892761</t>
+    <t xml:space="preserve">2.84420871734619</t>
   </si>
   <si>
     <t xml:space="preserve">2.79992771148682</t>
   </si>
   <si>
-    <t xml:space="preserve">2.81525564193726</t>
+    <t xml:space="preserve">2.81525588035583</t>
   </si>
   <si>
     <t xml:space="preserve">2.74031853675842</t>
   </si>
   <si>
-    <t xml:space="preserve">2.73180294036865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.7743809223175</t>
+    <t xml:space="preserve">2.73180270195007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.77438068389893</t>
   </si>
   <si>
     <t xml:space="preserve">2.7369122505188</t>
   </si>
   <si>
-    <t xml:space="preserve">2.74883413314819</t>
+    <t xml:space="preserve">2.74883389472961</t>
   </si>
   <si>
     <t xml:space="preserve">2.79481840133667</t>
@@ -2486,7 +2486,7 @@
     <t xml:space="preserve">2.8322868347168</t>
   </si>
   <si>
-    <t xml:space="preserve">2.83569312095642</t>
+    <t xml:space="preserve">2.835693359375</t>
   </si>
   <si>
     <t xml:space="preserve">2.83739638328552</t>
@@ -2495,7 +2495,7 @@
     <t xml:space="preserve">2.86805248260498</t>
   </si>
   <si>
-    <t xml:space="preserve">2.76075577735901</t>
+    <t xml:space="preserve">2.76075625419617</t>
   </si>
   <si>
     <t xml:space="preserve">2.71647500991821</t>
@@ -2516,7 +2516,7 @@
     <t xml:space="preserve">2.70795917510986</t>
   </si>
   <si>
-    <t xml:space="preserve">2.69944357872009</t>
+    <t xml:space="preserve">2.69944381713867</t>
   </si>
   <si>
     <t xml:space="preserve">2.69263100624084</t>
@@ -2525,22 +2525,22 @@
     <t xml:space="preserve">2.68411564826965</t>
   </si>
   <si>
-    <t xml:space="preserve">2.76756834983826</t>
+    <t xml:space="preserve">2.76756858825684</t>
   </si>
   <si>
     <t xml:space="preserve">2.82547450065613</t>
   </si>
   <si>
-    <t xml:space="preserve">2.89019298553467</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.8799741268158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.86124014854431</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.76586508750916</t>
+    <t xml:space="preserve">2.89019274711609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.87997436523438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.86123967170715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.76586532592773</t>
   </si>
   <si>
     <t xml:space="preserve">2.81014633178711</t>
@@ -2555,52 +2555,52 @@
     <t xml:space="preserve">2.85272431373596</t>
   </si>
   <si>
-    <t xml:space="preserve">2.82377099990845</t>
+    <t xml:space="preserve">2.82377147674561</t>
   </si>
   <si>
     <t xml:space="preserve">2.74542808532715</t>
   </si>
   <si>
-    <t xml:space="preserve">2.72499060630798</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.72669339179993</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.71306872367859</t>
+    <t xml:space="preserve">2.7249903678894</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.72669363021851</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.71306848526001</t>
   </si>
   <si>
     <t xml:space="preserve">2.79311537742615</t>
   </si>
   <si>
-    <t xml:space="preserve">2.69433403015137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.74713110923767</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.7386155128479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.78119325637817</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.76416230201721</t>
+    <t xml:space="preserve">2.69433450698853</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.74713087081909</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.73861575126648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.78119349479675</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.76416206359863</t>
   </si>
   <si>
     <t xml:space="preserve">2.77949023246765</t>
   </si>
   <si>
-    <t xml:space="preserve">2.79822468757629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.81355261802673</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.73520922660828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.72158408164978</t>
+    <t xml:space="preserve">2.79822444915771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.81355237960815</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.7352089881897</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.72158432006836</t>
   </si>
   <si>
     <t xml:space="preserve">2.70455312728882</t>
@@ -2612,85 +2612,85 @@
     <t xml:space="preserve">2.72839665412903</t>
   </si>
   <si>
-    <t xml:space="preserve">2.64494371414185</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.65345931053162</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.63983416557312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.6074755191803</t>
+    <t xml:space="preserve">2.64494395256042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.6534595489502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.6398344039917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.60747528076172</t>
   </si>
   <si>
     <t xml:space="preserve">2.61428785324097</t>
   </si>
   <si>
-    <t xml:space="preserve">2.59555339813232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.56489729881287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.51210069656372</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.53424119949341</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.4473819732666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.47292900085449</t>
+    <t xml:space="preserve">2.5955536365509</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.56489753723145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.51210045814514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.53424096107483</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.44738221168518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.47292852401733</t>
   </si>
   <si>
     <t xml:space="preserve">2.50188183784485</t>
   </si>
   <si>
-    <t xml:space="preserve">2.55467867851257</t>
+    <t xml:space="preserve">2.55467844009399</t>
   </si>
   <si>
     <t xml:space="preserve">2.48485064506531</t>
   </si>
   <si>
-    <t xml:space="preserve">2.46441316604614</t>
+    <t xml:space="preserve">2.46441340446472</t>
   </si>
   <si>
     <t xml:space="preserve">2.46611618995667</t>
   </si>
   <si>
-    <t xml:space="preserve">2.40139746665955</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.37755417823792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.31794500350952</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.27877330780029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.29921054840088</t>
+    <t xml:space="preserve">2.4013979434967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.37755441665649</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.31794476509094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.27877354621887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.29921078681946</t>
   </si>
   <si>
     <t xml:space="preserve">2.31964802742004</t>
   </si>
   <si>
-    <t xml:space="preserve">2.33838224411011</t>
+    <t xml:space="preserve">2.33838248252869</t>
   </si>
   <si>
     <t xml:space="preserve">2.39628839492798</t>
   </si>
   <si>
-    <t xml:space="preserve">2.39117932319641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.3656325340271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.5461630821228</t>
+    <t xml:space="preserve">2.39117908477783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.36563229560852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.54616284370422</t>
   </si>
   <si>
     <t xml:space="preserve">2.51550674438477</t>
@@ -2699,10 +2699,10 @@
     <t xml:space="preserve">2.54105377197266</t>
   </si>
   <si>
-    <t xml:space="preserve">2.58533477783203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.57170939445496</t>
+    <t xml:space="preserve">2.58533453941345</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.57170963287354</t>
   </si>
   <si>
     <t xml:space="preserve">2.65686559677124</t>
@@ -2714,19 +2714,19 @@
     <t xml:space="preserve">2.58874082565308</t>
   </si>
   <si>
-    <t xml:space="preserve">2.59725642204285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.57341289520264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.56830334663391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.61599087715149</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.62961554527283</t>
+    <t xml:space="preserve">2.59725666046143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.57341265678406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.56830358505249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.61599063873291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.62961578369141</t>
   </si>
   <si>
     <t xml:space="preserve">2.60577201843262</t>
@@ -2738,7 +2738,7 @@
     <t xml:space="preserve">2.53083467483521</t>
   </si>
   <si>
-    <t xml:space="preserve">2.5597882270813</t>
+    <t xml:space="preserve">2.55978798866272</t>
   </si>
   <si>
     <t xml:space="preserve">2.53594422340393</t>
@@ -2747,22 +2747,22 @@
     <t xml:space="preserve">2.52061629295349</t>
   </si>
   <si>
-    <t xml:space="preserve">2.50528788566589</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.47803854942322</t>
+    <t xml:space="preserve">2.50528812408447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.47803831100464</t>
   </si>
   <si>
     <t xml:space="preserve">2.45249152183533</t>
   </si>
   <si>
-    <t xml:space="preserve">2.48314738273621</t>
+    <t xml:space="preserve">2.48314762115479</t>
   </si>
   <si>
     <t xml:space="preserve">2.45419454574585</t>
   </si>
   <si>
-    <t xml:space="preserve">2.49336647987366</t>
+    <t xml:space="preserve">2.49336624145508</t>
   </si>
   <si>
     <t xml:space="preserve">2.54275679588318</t>
@@ -2777,16 +2777,16 @@
     <t xml:space="preserve">2.54445958137512</t>
   </si>
   <si>
-    <t xml:space="preserve">2.55127239227295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.53764724731445</t>
+    <t xml:space="preserve">2.55127215385437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.53764748573303</t>
   </si>
   <si>
     <t xml:space="preserve">2.59895968437195</t>
   </si>
   <si>
-    <t xml:space="preserve">2.53253793716431</t>
+    <t xml:space="preserve">2.53253817558289</t>
   </si>
   <si>
     <t xml:space="preserve">2.58363151550293</t>
@@ -2798,34 +2798,34 @@
     <t xml:space="preserve">2.6909282207489</t>
   </si>
   <si>
-    <t xml:space="preserve">2.63642811775208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.46952247619629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.42353844642639</t>
+    <t xml:space="preserve">2.63642835617065</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.46952271461487</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.42353820800781</t>
   </si>
   <si>
     <t xml:space="preserve">2.4456787109375</t>
   </si>
   <si>
-    <t xml:space="preserve">2.45589756965637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.41672587394714</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.56149101257324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.58703780174255</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.64835023880005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.60406923294067</t>
+    <t xml:space="preserve">2.45589780807495</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.41672611236572</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.56149077415466</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.58703804016113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.64835000038147</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.60406899452209</t>
   </si>
   <si>
     <t xml:space="preserve">2.61769390106201</t>
@@ -2834,25 +2834,25 @@
     <t xml:space="preserve">2.65005326271057</t>
   </si>
   <si>
-    <t xml:space="preserve">2.68581891059875</t>
+    <t xml:space="preserve">2.68581867218018</t>
   </si>
   <si>
     <t xml:space="preserve">2.6415376663208</t>
   </si>
   <si>
-    <t xml:space="preserve">2.63131856918335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.61939716339111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.52231931686401</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.49166345596313</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.62280344963074</t>
+    <t xml:space="preserve">2.63131880760193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.61939692497253</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.52231907844543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.49166321754456</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.62280321121216</t>
   </si>
   <si>
     <t xml:space="preserve">2.65856862068176</t>
@@ -2861,19 +2861,19 @@
     <t xml:space="preserve">2.66538143157959</t>
   </si>
   <si>
-    <t xml:space="preserve">2.70114660263062</t>
+    <t xml:space="preserve">2.70114684104919</t>
   </si>
   <si>
     <t xml:space="preserve">2.81695890426636</t>
   </si>
   <si>
-    <t xml:space="preserve">2.78204488754272</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.8305835723877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.80929493904114</t>
+    <t xml:space="preserve">2.78204464912415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.83058381080627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.80929470062256</t>
   </si>
   <si>
     <t xml:space="preserve">2.79652142524719</t>
@@ -2891,16 +2891,16 @@
     <t xml:space="preserve">2.86379456520081</t>
   </si>
   <si>
-    <t xml:space="preserve">2.85698223114014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.85783362388611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.85868525505066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.84846663475037</t>
+    <t xml:space="preserve">2.85698246955872</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.85783386230469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.85868549346924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.84846639633179</t>
   </si>
   <si>
     <t xml:space="preserve">2.89785695075989</t>
@@ -2912,19 +2912,19 @@
     <t xml:space="preserve">2.8697555065155</t>
   </si>
   <si>
-    <t xml:space="preserve">2.90126323699951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.94384121894836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.87401342391968</t>
+    <t xml:space="preserve">2.90126347541809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.94384145736694</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.87401366233826</t>
   </si>
   <si>
     <t xml:space="preserve">2.8757164478302</t>
   </si>
   <si>
-    <t xml:space="preserve">2.86720108985901</t>
+    <t xml:space="preserve">2.86720085144043</t>
   </si>
   <si>
     <t xml:space="preserve">2.96938800811768</t>
@@ -2933,7 +2933,7 @@
     <t xml:space="preserve">2.93788027763367</t>
   </si>
   <si>
-    <t xml:space="preserve">2.92766141891479</t>
+    <t xml:space="preserve">2.92766165733337</t>
   </si>
   <si>
     <t xml:space="preserve">2.9668333530426</t>
@@ -2942,43 +2942,43 @@
     <t xml:space="preserve">2.98556780815125</t>
   </si>
   <si>
-    <t xml:space="preserve">2.99067735671997</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.99493479728699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.98982548713684</t>
+    <t xml:space="preserve">2.99067711830139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.99493455886841</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.98982524871826</t>
   </si>
   <si>
     <t xml:space="preserve">2.97194266319275</t>
   </si>
   <si>
-    <t xml:space="preserve">2.96768474578857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.9727942943573</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.97023940086365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.98130965232849</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.00515341758728</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.04177069664001</t>
+    <t xml:space="preserve">2.96768450737</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.97279405593872</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.97023963928223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.98130989074707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.00515365600586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.04177045822144</t>
   </si>
   <si>
     <t xml:space="preserve">3.06902050971985</t>
   </si>
   <si>
-    <t xml:space="preserve">3.08264517784119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.13799667358398</t>
+    <t xml:space="preserve">3.08264541625977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.13799643516541</t>
   </si>
   <si>
     <t xml:space="preserve">3.11670804023743</t>
@@ -2996,7 +2996,7 @@
     <t xml:space="preserve">3.1592857837677</t>
   </si>
   <si>
-    <t xml:space="preserve">3.13373923301697</t>
+    <t xml:space="preserve">3.13373899459839</t>
   </si>
   <si>
     <t xml:space="preserve">3.1192626953125</t>
@@ -3011,16 +3011,16 @@
     <t xml:space="preserve">3.01026296615601</t>
   </si>
   <si>
-    <t xml:space="preserve">3.03240346908569</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.00345015525818</t>
+    <t xml:space="preserve">3.03240370750427</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.00345039367676</t>
   </si>
   <si>
     <t xml:space="preserve">2.99834108352661</t>
   </si>
   <si>
-    <t xml:space="preserve">2.99919247627258</t>
+    <t xml:space="preserve">2.99919271469116</t>
   </si>
   <si>
     <t xml:space="preserve">2.97364592552185</t>
@@ -3029,13 +3029,13 @@
     <t xml:space="preserve">3.00259876251221</t>
   </si>
   <si>
-    <t xml:space="preserve">3.0175416469574</t>
+    <t xml:space="preserve">3.01754140853882</t>
   </si>
   <si>
     <t xml:space="preserve">3.0043568611145</t>
   </si>
   <si>
-    <t xml:space="preserve">3.07028031349182</t>
+    <t xml:space="preserve">3.0702805519104</t>
   </si>
   <si>
     <t xml:space="preserve">2.97271347045898</t>
@@ -3056,19 +3056,19 @@
     <t xml:space="preserve">3.00347805023193</t>
   </si>
   <si>
-    <t xml:space="preserve">3.03512096405029</t>
+    <t xml:space="preserve">3.03512120246887</t>
   </si>
   <si>
     <t xml:space="preserve">2.94810223579407</t>
   </si>
   <si>
-    <t xml:space="preserve">2.95689177513123</t>
+    <t xml:space="preserve">2.9568920135498</t>
   </si>
   <si>
     <t xml:space="preserve">3.05709552764893</t>
   </si>
   <si>
-    <t xml:space="preserve">3.11159229278564</t>
+    <t xml:space="preserve">3.11159253120422</t>
   </si>
   <si>
     <t xml:space="preserve">3.08873891830444</t>
@@ -3077,7 +3077,7 @@
     <t xml:space="preserve">3.10192370414734</t>
   </si>
   <si>
-    <t xml:space="preserve">3.14587259292603</t>
+    <t xml:space="preserve">3.1458728313446</t>
   </si>
   <si>
     <t xml:space="preserve">3.17839503288269</t>
@@ -3086,7 +3086,7 @@
     <t xml:space="preserve">3.15378355979919</t>
   </si>
   <si>
-    <t xml:space="preserve">3.15817856788635</t>
+    <t xml:space="preserve">3.15817832946777</t>
   </si>
   <si>
     <t xml:space="preserve">3.13532495498657</t>
@@ -3098,10 +3098,10 @@
     <t xml:space="preserve">3.11335039138794</t>
   </si>
   <si>
-    <t xml:space="preserve">3.13268780708313</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.15993666648865</t>
+    <t xml:space="preserve">3.13268804550171</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.15993642807007</t>
   </si>
   <si>
     <t xml:space="preserve">3.14850974082947</t>
@@ -3116,13 +3116,13 @@
     <t xml:space="preserve">3.24783444404602</t>
   </si>
   <si>
-    <t xml:space="preserve">3.26277732849121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.27420401573181</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.29881548881531</t>
+    <t xml:space="preserve">3.26277709007263</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.27420377731323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.29881525039673</t>
   </si>
   <si>
     <t xml:space="preserve">3.31551599502563</t>
@@ -3134,10 +3134,10 @@
     <t xml:space="preserve">3.30584716796875</t>
   </si>
   <si>
-    <t xml:space="preserve">3.28475189208984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.2460765838623</t>
+    <t xml:space="preserve">3.28475165367126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.24607682228088</t>
   </si>
   <si>
     <t xml:space="preserve">3.21707034111023</t>
@@ -3152,25 +3152,25 @@
     <t xml:space="preserve">3.21970725059509</t>
   </si>
   <si>
-    <t xml:space="preserve">3.25398731231689</t>
+    <t xml:space="preserve">3.25398707389832</t>
   </si>
   <si>
     <t xml:space="preserve">3.23904466629028</t>
   </si>
   <si>
-    <t xml:space="preserve">3.22585988044739</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.24168157577515</t>
+    <t xml:space="preserve">3.22586011886597</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.24168181419373</t>
   </si>
   <si>
     <t xml:space="preserve">3.19597458839417</t>
   </si>
   <si>
-    <t xml:space="preserve">3.14938879013062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.18806385993958</t>
+    <t xml:space="preserve">3.14938855171204</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.18806409835815</t>
   </si>
   <si>
     <t xml:space="preserve">3.21443343162537</t>
@@ -3179,43 +3179,43 @@
     <t xml:space="preserve">3.16345262527466</t>
   </si>
   <si>
-    <t xml:space="preserve">3.19861173629761</t>
+    <t xml:space="preserve">3.19861149787903</t>
   </si>
   <si>
     <t xml:space="preserve">3.15466260910034</t>
   </si>
   <si>
-    <t xml:space="preserve">3.20124840736389</t>
+    <t xml:space="preserve">3.20124864578247</t>
   </si>
   <si>
     <t xml:space="preserve">3.19773244857788</t>
   </si>
   <si>
-    <t xml:space="preserve">3.20740151405334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.13620400428772</t>
+    <t xml:space="preserve">3.20740127563477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.13620376586914</t>
   </si>
   <si>
     <t xml:space="preserve">3.08522295951843</t>
   </si>
   <si>
-    <t xml:space="preserve">3.12653493881226</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.10807681083679</t>
+    <t xml:space="preserve">3.12653517723083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.10807657241821</t>
   </si>
   <si>
     <t xml:space="preserve">3.10719776153564</t>
   </si>
   <si>
-    <t xml:space="preserve">3.10983467102051</t>
+    <t xml:space="preserve">3.10983443260193</t>
   </si>
   <si>
     <t xml:space="preserve">3.11598753929138</t>
   </si>
   <si>
-    <t xml:space="preserve">3.07115912437439</t>
+    <t xml:space="preserve">3.07115936279297</t>
   </si>
   <si>
     <t xml:space="preserve">3.09664988517761</t>
@@ -3230,7 +3230,7 @@
     <t xml:space="preserve">3.02017855644226</t>
   </si>
   <si>
-    <t xml:space="preserve">3.05533766746521</t>
+    <t xml:space="preserve">3.05533790588379</t>
   </si>
   <si>
     <t xml:space="preserve">3.08610200881958</t>
@@ -3242,16 +3242,16 @@
     <t xml:space="preserve">3.03336310386658</t>
   </si>
   <si>
-    <t xml:space="preserve">3.05357980728149</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.11422967910767</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.14675164222717</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.16257333755493</t>
+    <t xml:space="preserve">3.05357956886292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.11422920227051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.14675188064575</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.16257357597351</t>
   </si>
   <si>
     <t xml:space="preserve">3.13005113601685</t>
@@ -3260,19 +3260,19 @@
     <t xml:space="preserve">3.16608929634094</t>
   </si>
   <si>
-    <t xml:space="preserve">3.10895562171936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.12477731704712</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.10631847381592</t>
+    <t xml:space="preserve">3.10895538330078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.12477707862854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.1063187122345</t>
   </si>
   <si>
     <t xml:space="preserve">3.14763069152832</t>
   </si>
   <si>
-    <t xml:space="preserve">3.22849726676941</t>
+    <t xml:space="preserve">3.22849702835083</t>
   </si>
   <si>
     <t xml:space="preserve">3.20828056335449</t>
@@ -3281,16 +3281,16 @@
     <t xml:space="preserve">3.1704843044281</t>
   </si>
   <si>
-    <t xml:space="preserve">3.12917232513428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.17136335372925</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.18366885185242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.18718481063843</t>
+    <t xml:space="preserve">3.1291720867157</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.17136311531067</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.183669090271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.18718457221985</t>
   </si>
   <si>
     <t xml:space="preserve">3.14499378204346</t>
@@ -3299,34 +3299,34 @@
     <t xml:space="preserve">3.14235687255859</t>
   </si>
   <si>
-    <t xml:space="preserve">3.11247134208679</t>
+    <t xml:space="preserve">3.11247158050537</t>
   </si>
   <si>
     <t xml:space="preserve">2.96216559410095</t>
   </si>
   <si>
-    <t xml:space="preserve">2.97710847854614</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.99292993545532</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.06764340400696</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.99732518196106</t>
+    <t xml:space="preserve">2.97710871696472</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.9929301738739</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.06764364242554</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.99732494354248</t>
   </si>
   <si>
     <t xml:space="preserve">3.13796186447144</t>
   </si>
   <si>
-    <t xml:space="preserve">3.09313416481018</t>
+    <t xml:space="preserve">3.0931339263916</t>
   </si>
   <si>
     <t xml:space="preserve">3.12038207054138</t>
   </si>
   <si>
-    <t xml:space="preserve">3.08961820602417</t>
+    <t xml:space="preserve">3.08961796760559</t>
   </si>
   <si>
     <t xml:space="preserve">3.11510825157166</t>
@@ -3338,10 +3338,10 @@
     <t xml:space="preserve">3.1590576171875</t>
   </si>
   <si>
-    <t xml:space="preserve">3.16433143615723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.17487931251526</t>
+    <t xml:space="preserve">3.16433119773865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.17487907409668</t>
   </si>
   <si>
     <t xml:space="preserve">3.23289179801941</t>
@@ -3353,7 +3353,7 @@
     <t xml:space="preserve">3.25750350952148</t>
   </si>
   <si>
-    <t xml:space="preserve">3.22761797904968</t>
+    <t xml:space="preserve">3.2276177406311</t>
   </si>
   <si>
     <t xml:space="preserve">3.20212745666504</t>
@@ -3365,16 +3365,16 @@
     <t xml:space="preserve">3.12565612792969</t>
   </si>
   <si>
-    <t xml:space="preserve">3.10543942451477</t>
+    <t xml:space="preserve">3.10543966293335</t>
   </si>
   <si>
     <t xml:space="preserve">3.081707239151</t>
   </si>
   <si>
-    <t xml:space="preserve">3.09225463867188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.0588538646698</t>
+    <t xml:space="preserve">3.09225487709045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.05885362625122</t>
   </si>
   <si>
     <t xml:space="preserve">3.01666259765625</t>
@@ -3386,13 +3386,13 @@
     <t xml:space="preserve">3.08434414863586</t>
   </si>
   <si>
-    <t xml:space="preserve">3.19070076942444</t>
+    <t xml:space="preserve">3.19070100784302</t>
   </si>
   <si>
     <t xml:space="preserve">3.2654139995575</t>
   </si>
   <si>
-    <t xml:space="preserve">3.25047135353088</t>
+    <t xml:space="preserve">3.25047159194946</t>
   </si>
   <si>
     <t xml:space="preserve">3.18454790115356</t>
@@ -3407,19 +3407,19 @@
     <t xml:space="preserve">3.0272102355957</t>
   </si>
   <si>
-    <t xml:space="preserve">3.04742693901062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.03424215316772</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.96656084060669</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.99468803405762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.97974514961243</t>
+    <t xml:space="preserve">3.04742670059204</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.0342423915863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.96656060218811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.9946882724762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.97974538803101</t>
   </si>
   <si>
     <t xml:space="preserve">2.94898104667664</t>
@@ -3428,19 +3428,19 @@
     <t xml:space="preserve">2.94370722770691</t>
   </si>
   <si>
-    <t xml:space="preserve">2.90151596069336</t>
+    <t xml:space="preserve">2.90151619911194</t>
   </si>
   <si>
     <t xml:space="preserve">2.91294264793396</t>
   </si>
   <si>
-    <t xml:space="preserve">2.92964315414429</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.84262442588806</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.04566884040833</t>
+    <t xml:space="preserve">2.92964339256287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.84262418746948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.0456690788269</t>
   </si>
   <si>
     <t xml:space="preserve">2.93755435943604</t>
@@ -3449,7 +3449,7 @@
     <t xml:space="preserve">2.89360523223877</t>
   </si>
   <si>
-    <t xml:space="preserve">2.86547780036926</t>
+    <t xml:space="preserve">2.86547803878784</t>
   </si>
   <si>
     <t xml:space="preserve">2.79955410957336</t>
@@ -3458,13 +3458,13 @@
     <t xml:space="preserve">2.81273913383484</t>
   </si>
   <si>
-    <t xml:space="preserve">2.87778353691101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.98414039611816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.97007632255554</t>
+    <t xml:space="preserve">2.87778329849243</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.98414015769958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.97007656097412</t>
   </si>
   <si>
     <t xml:space="preserve">2.96304488182068</t>
@@ -3473,7 +3473,7 @@
     <t xml:space="preserve">2.95777082443237</t>
   </si>
   <si>
-    <t xml:space="preserve">2.92436957359314</t>
+    <t xml:space="preserve">2.92436933517456</t>
   </si>
   <si>
     <t xml:space="preserve">2.96040773391724</t>
@@ -3482,13 +3482,13 @@
     <t xml:space="preserve">2.99908304214478</t>
   </si>
   <si>
-    <t xml:space="preserve">2.89184713363647</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.85932493209839</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.91909599304199</t>
+    <t xml:space="preserve">2.89184737205505</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.85932517051697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.91909575462341</t>
   </si>
   <si>
     <t xml:space="preserve">2.93228054046631</t>
@@ -3497,10 +3497,10 @@
     <t xml:space="preserve">2.95952892303467</t>
   </si>
   <si>
-    <t xml:space="preserve">2.94107007980347</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.98326134681702</t>
+    <t xml:space="preserve">2.94107031822205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.9832615852356</t>
   </si>
   <si>
     <t xml:space="preserve">3.0157835483551</t>
@@ -3512,10 +3512,10 @@
     <t xml:space="preserve">3.16081523895264</t>
   </si>
   <si>
-    <t xml:space="preserve">3.11686635017395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.15729951858521</t>
+    <t xml:space="preserve">3.11686658859253</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.15729975700378</t>
   </si>
   <si>
     <t xml:space="preserve">3.17224216461182</t>
@@ -3530,7 +3530,7 @@
     <t xml:space="preserve">3.08346509933472</t>
   </si>
   <si>
-    <t xml:space="preserve">3.0948920249939</t>
+    <t xml:space="preserve">3.09489178657532</t>
   </si>
   <si>
     <t xml:space="preserve">3.06236958503723</t>
@@ -3539,13 +3539,13 @@
     <t xml:space="preserve">3.09752869606018</t>
   </si>
   <si>
-    <t xml:space="preserve">3.17751622200012</t>
+    <t xml:space="preserve">3.17751598358154</t>
   </si>
   <si>
     <t xml:space="preserve">2.94722294807434</t>
   </si>
   <si>
-    <t xml:space="preserve">2.97183442115784</t>
+    <t xml:space="preserve">2.97183465957642</t>
   </si>
   <si>
     <t xml:space="preserve">3.03863716125488</t>
@@ -3566,7 +3566,7 @@
     <t xml:space="preserve">2.99820399284363</t>
   </si>
   <si>
-    <t xml:space="preserve">2.97359251976013</t>
+    <t xml:space="preserve">2.97359228134155</t>
   </si>
   <si>
     <t xml:space="preserve">2.93315935134888</t>
@@ -3590,16 +3590,16 @@
     <t xml:space="preserve">2.50685358047485</t>
   </si>
   <si>
-    <t xml:space="preserve">2.44444584846497</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.54992365837097</t>
+    <t xml:space="preserve">2.44444608688354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.54992389678955</t>
   </si>
   <si>
     <t xml:space="preserve">2.47784733772278</t>
   </si>
   <si>
-    <t xml:space="preserve">2.507732629776</t>
+    <t xml:space="preserve">2.50773239135742</t>
   </si>
   <si>
     <t xml:space="preserve">2.47102975845337</t>
@@ -3626,19 +3626,19 @@
     <t xml:space="preserve">2.56829261779785</t>
   </si>
   <si>
-    <t xml:space="preserve">2.5325071811676</t>
+    <t xml:space="preserve">2.53250694274902</t>
   </si>
   <si>
     <t xml:space="preserve">2.58022117614746</t>
   </si>
   <si>
-    <t xml:space="preserve">2.57746815681458</t>
+    <t xml:space="preserve">2.57746839523315</t>
   </si>
   <si>
     <t xml:space="preserve">2.50314474105835</t>
   </si>
   <si>
-    <t xml:space="preserve">2.54902362823486</t>
+    <t xml:space="preserve">2.54902338981628</t>
   </si>
   <si>
     <t xml:space="preserve">2.58389115333557</t>
@@ -3650,7 +3650,7 @@
     <t xml:space="preserve">2.55085849761963</t>
   </si>
   <si>
-    <t xml:space="preserve">2.46368885040283</t>
+    <t xml:space="preserve">2.46368908882141</t>
   </si>
   <si>
     <t xml:space="preserve">2.39028286933899</t>
@@ -3683,10 +3683,10 @@
     <t xml:space="preserve">2.52057862281799</t>
   </si>
   <si>
-    <t xml:space="preserve">2.53801250457764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.60316014289856</t>
+    <t xml:space="preserve">2.53801274299622</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.60316038131714</t>
   </si>
   <si>
     <t xml:space="preserve">2.59857249259949</t>
@@ -3701,10 +3701,10 @@
     <t xml:space="preserve">2.53067183494568</t>
   </si>
   <si>
-    <t xml:space="preserve">2.53434252738953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.56095194816589</t>
+    <t xml:space="preserve">2.53434228897095</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.56095170974731</t>
   </si>
   <si>
     <t xml:space="preserve">2.56737494468689</t>
@@ -3722,13 +3722,13 @@
     <t xml:space="preserve">2.51323819160461</t>
   </si>
   <si>
-    <t xml:space="preserve">2.49396872520447</t>
+    <t xml:space="preserve">2.49396896362305</t>
   </si>
   <si>
     <t xml:space="preserve">2.45726585388184</t>
   </si>
   <si>
-    <t xml:space="preserve">2.38202476501465</t>
+    <t xml:space="preserve">2.38202452659607</t>
   </si>
   <si>
     <t xml:space="preserve">2.44074964523315</t>
@@ -3737,7 +3737,7 @@
     <t xml:space="preserve">2.29393768310547</t>
   </si>
   <si>
-    <t xml:space="preserve">2.29485487937927</t>
+    <t xml:space="preserve">2.29485511779785</t>
   </si>
   <si>
     <t xml:space="preserve">2.32697033882141</t>
@@ -3746,10 +3746,10 @@
     <t xml:space="preserve">2.26641035079956</t>
   </si>
   <si>
-    <t xml:space="preserve">2.14987826347351</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.20768547058105</t>
+    <t xml:space="preserve">2.14987802505493</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.20768523216248</t>
   </si>
   <si>
     <t xml:space="preserve">2.19483947753906</t>
@@ -3767,7 +3767,7 @@
     <t xml:space="preserve">2.22970747947693</t>
   </si>
   <si>
-    <t xml:space="preserve">2.22695446014404</t>
+    <t xml:space="preserve">2.22695469856262</t>
   </si>
   <si>
     <t xml:space="preserve">2.19850969314575</t>
@@ -3785,31 +3785,31 @@
     <t xml:space="preserve">2.11868071556091</t>
   </si>
   <si>
-    <t xml:space="preserve">2.05169796943665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.05812096595764</t>
+    <t xml:space="preserve">2.05169773101807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.05812072753906</t>
   </si>
   <si>
     <t xml:space="preserve">1.94892942905426</t>
   </si>
   <si>
-    <t xml:space="preserve">1.99756073951721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.98746728897095</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.00581932067871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.01682996749878</t>
+    <t xml:space="preserve">1.9975608587265</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.98746752738953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.00581908226013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.0168297290802</t>
   </si>
   <si>
     <t xml:space="preserve">2.07647228240967</t>
   </si>
   <si>
-    <t xml:space="preserve">1.97095119953156</t>
+    <t xml:space="preserve">1.97095108032227</t>
   </si>
   <si>
     <t xml:space="preserve">1.90855598449707</t>
@@ -3821,16 +3821,16 @@
     <t xml:space="preserve">1.93975365161896</t>
   </si>
   <si>
-    <t xml:space="preserve">1.87185299396515</t>
+    <t xml:space="preserve">1.87185311317444</t>
   </si>
   <si>
     <t xml:space="preserve">1.83882033824921</t>
   </si>
   <si>
-    <t xml:space="preserve">1.86726522445679</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8984626531601</t>
+    <t xml:space="preserve">1.86726534366608</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89846277236938</t>
   </si>
   <si>
     <t xml:space="preserve">1.9480117559433</t>
@@ -3848,7 +3848,7 @@
     <t xml:space="preserve">1.92048454284668</t>
   </si>
   <si>
-    <t xml:space="preserve">1.98379731178284</t>
+    <t xml:space="preserve">1.98379719257355</t>
   </si>
   <si>
     <t xml:space="preserve">2.07280206680298</t>
@@ -3863,10 +3863,10 @@
     <t xml:space="preserve">2.21319103240967</t>
   </si>
   <si>
-    <t xml:space="preserve">2.22420191764832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.22236657142639</t>
+    <t xml:space="preserve">2.22420167922974</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.22236680984497</t>
   </si>
   <si>
     <t xml:space="preserve">2.21135592460632</t>
@@ -3881,13 +3881,13 @@
     <t xml:space="preserve">2.31595921516418</t>
   </si>
   <si>
-    <t xml:space="preserve">2.36459064483643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.39395308494568</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.36550855636597</t>
+    <t xml:space="preserve">2.364590883255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.39395332336426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.36550831794739</t>
   </si>
   <si>
     <t xml:space="preserve">2.38477754592896</t>
@@ -3914,10 +3914,10 @@
     <t xml:space="preserve">2.43249130249023</t>
   </si>
   <si>
-    <t xml:space="preserve">2.43799686431885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.41872787475586</t>
+    <t xml:space="preserve">2.43799710273743</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.41872763633728</t>
   </si>
   <si>
     <t xml:space="preserve">2.43065619468689</t>
@@ -3929,16 +3929,16 @@
     <t xml:space="preserve">2.46001863479614</t>
   </si>
   <si>
-    <t xml:space="preserve">2.46827673912048</t>
+    <t xml:space="preserve">2.46827697753906</t>
   </si>
   <si>
     <t xml:space="preserve">2.46460676193237</t>
   </si>
   <si>
-    <t xml:space="preserve">2.5233314037323</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.57288026809692</t>
+    <t xml:space="preserve">2.52333116531372</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.5728805065155</t>
   </si>
   <si>
     <t xml:space="preserve">2.59673738479614</t>
@@ -3959,7 +3959,7 @@
     <t xml:space="preserve">2.3462393283844</t>
   </si>
   <si>
-    <t xml:space="preserve">2.32513523101807</t>
+    <t xml:space="preserve">2.32513499259949</t>
   </si>
   <si>
     <t xml:space="preserve">2.34165143966675</t>
@@ -3968,7 +3968,7 @@
     <t xml:space="preserve">2.33889889717102</t>
   </si>
   <si>
-    <t xml:space="preserve">2.28476166725159</t>
+    <t xml:space="preserve">2.28476190567017</t>
   </si>
   <si>
     <t xml:space="preserve">2.33614611625671</t>
@@ -3983,7 +3983,7 @@
     <t xml:space="preserve">2.37468409538269</t>
   </si>
   <si>
-    <t xml:space="preserve">2.42239809036255</t>
+    <t xml:space="preserve">2.42239832878113</t>
   </si>
   <si>
     <t xml:space="preserve">2.40955185890198</t>
@@ -3995,25 +3995,25 @@
     <t xml:space="preserve">2.54260039329529</t>
   </si>
   <si>
-    <t xml:space="preserve">2.51415538787842</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.51966094970703</t>
+    <t xml:space="preserve">2.514155626297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.51966118812561</t>
   </si>
   <si>
     <t xml:space="preserve">2.49672174453735</t>
   </si>
   <si>
-    <t xml:space="preserve">2.43524432182312</t>
+    <t xml:space="preserve">2.43524408340454</t>
   </si>
   <si>
     <t xml:space="preserve">2.47745251655579</t>
   </si>
   <si>
-    <t xml:space="preserve">2.50406217575073</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.49121618270874</t>
+    <t xml:space="preserve">2.50406241416931</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.49121594429016</t>
   </si>
   <si>
     <t xml:space="preserve">2.48571085929871</t>
@@ -4028,7 +4028,7 @@
     <t xml:space="preserve">2.43157386779785</t>
   </si>
   <si>
-    <t xml:space="preserve">2.50039196014404</t>
+    <t xml:space="preserve">2.50039172172546</t>
   </si>
   <si>
     <t xml:space="preserve">2.45910120010376</t>
@@ -4046,16 +4046,16 @@
     <t xml:space="preserve">2.38569498062134</t>
   </si>
   <si>
-    <t xml:space="preserve">2.3801896572113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.35082745552063</t>
+    <t xml:space="preserve">2.38018989562988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.35082721710205</t>
   </si>
   <si>
     <t xml:space="preserve">2.31779456138611</t>
   </si>
   <si>
-    <t xml:space="preserve">2.30953645706177</t>
+    <t xml:space="preserve">2.30953621864319</t>
   </si>
   <si>
     <t xml:space="preserve">2.30494856834412</t>
@@ -4088,7 +4088,7 @@
     <t xml:space="preserve">2.21686100959778</t>
   </si>
   <si>
-    <t xml:space="preserve">2.20676779747009</t>
+    <t xml:space="preserve">2.20676803588867</t>
   </si>
   <si>
     <t xml:space="preserve">2.19575691223145</t>
@@ -4106,7 +4106,7 @@
     <t xml:space="preserve">2.28567934036255</t>
   </si>
   <si>
-    <t xml:space="preserve">2.2966902256012</t>
+    <t xml:space="preserve">2.29669046401978</t>
   </si>
   <si>
     <t xml:space="preserve">2.32605266571045</t>
@@ -4121,10 +4121,10 @@
     <t xml:space="preserve">2.4921338558197</t>
   </si>
   <si>
-    <t xml:space="preserve">2.51232028007507</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.40588164329529</t>
+    <t xml:space="preserve">2.51232051849365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.40588188171387</t>
   </si>
   <si>
     <t xml:space="preserve">2.48479318618774</t>
@@ -4133,19 +4133,19 @@
     <t xml:space="preserve">2.47928762435913</t>
   </si>
   <si>
-    <t xml:space="preserve">2.56186938285828</t>
+    <t xml:space="preserve">2.56186962127686</t>
   </si>
   <si>
     <t xml:space="preserve">2.59123182296753</t>
   </si>
   <si>
-    <t xml:space="preserve">2.53617715835571</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.58939671516418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.6260998249054</t>
+    <t xml:space="preserve">2.53617739677429</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.58939695358276</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.62609958648682</t>
   </si>
   <si>
     <t xml:space="preserve">2.61692404747009</t>
@@ -4154,10 +4154,10 @@
     <t xml:space="preserve">2.63527536392212</t>
   </si>
   <si>
-    <t xml:space="preserve">2.72152757644653</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.74905490875244</t>
+    <t xml:space="preserve">2.72152781486511</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.74905467033386</t>
   </si>
   <si>
     <t xml:space="preserve">2.77658200263977</t>
@@ -4178,10 +4178,10 @@
     <t xml:space="preserve">2.73070335388184</t>
   </si>
   <si>
-    <t xml:space="preserve">2.71969223022461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.644451379776</t>
+    <t xml:space="preserve">2.71969246864319</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.64445114135742</t>
   </si>
   <si>
     <t xml:space="preserve">2.62242960929871</t>
@@ -4190,10 +4190,10 @@
     <t xml:space="preserve">2.67564868927002</t>
   </si>
   <si>
-    <t xml:space="preserve">2.67748379707336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.7068464756012</t>
+    <t xml:space="preserve">2.67748403549194</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.70684623718262</t>
   </si>
   <si>
     <t xml:space="preserve">2.68298935890198</t>
@@ -4211,7 +4211,7 @@
     <t xml:space="preserve">2.63894581794739</t>
   </si>
   <si>
-    <t xml:space="preserve">2.64812159538269</t>
+    <t xml:space="preserve">2.64812135696411</t>
   </si>
   <si>
     <t xml:space="preserve">2.65913248062134</t>
@@ -4223,7 +4223,7 @@
     <t xml:space="preserve">2.62426447868347</t>
   </si>
   <si>
-    <t xml:space="preserve">2.66463804244995</t>
+    <t xml:space="preserve">2.66463780403137</t>
   </si>
   <si>
     <t xml:space="preserve">2.61190128326416</t>
@@ -62048,7 +62048,7 @@
     </row>
     <row r="2185">
       <c r="A2185" s="1" t="n">
-        <v>45504.6494212963</v>
+        <v>45504.2916666667</v>
       </c>
       <c r="B2185" t="n">
         <v>3766049</v>
@@ -62069,6 +62069,32 @@
         <v>1636</v>
       </c>
       <c r="H2185" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2186">
+      <c r="A2186" s="1" t="n">
+        <v>45505.6507291667</v>
+      </c>
+      <c r="B2186" t="n">
+        <v>2947160</v>
+      </c>
+      <c r="C2186" t="n">
+        <v>3.39800000190735</v>
+      </c>
+      <c r="D2186" t="n">
+        <v>3.28399991989136</v>
+      </c>
+      <c r="E2186" t="n">
+        <v>3.37400007247925</v>
+      </c>
+      <c r="F2186" t="n">
+        <v>3.2960000038147</v>
+      </c>
+      <c r="G2186" t="s">
+        <v>1625</v>
+      </c>
+      <c r="H2186" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/HER.MI.xlsx
+++ b/data/HER.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1637" uniqueCount="1637">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1638" uniqueCount="1638">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,46 +38,46 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">1.77115511894226</t>
+    <t xml:space="preserve">1.77115488052368</t>
   </si>
   <si>
     <t xml:space="preserve">HER.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">1.77260410785675</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76970553398132</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.77405369281769</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75086343288422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78999722003937</t>
+    <t xml:space="preserve">1.77260422706604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76970541477203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77405381202698</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75086355209351</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78999698162079</t>
   </si>
   <si>
     <t xml:space="preserve">1.85811829566956</t>
   </si>
   <si>
-    <t xml:space="preserve">1.86101722717285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83637750148773</t>
+    <t xml:space="preserve">1.86101734638214</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83637773990631</t>
   </si>
   <si>
     <t xml:space="preserve">1.81173801422119</t>
   </si>
   <si>
-    <t xml:space="preserve">1.76680672168732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83927631378174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81463658809662</t>
+    <t xml:space="preserve">1.76680684089661</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83927655220032</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8146368265152</t>
   </si>
   <si>
     <t xml:space="preserve">1.83202970027924</t>
@@ -86,103 +86,103 @@
     <t xml:space="preserve">1.87261235713959</t>
   </si>
   <si>
-    <t xml:space="preserve">1.85666930675507</t>
+    <t xml:space="preserve">1.85666918754578</t>
   </si>
   <si>
     <t xml:space="preserve">1.87116301059723</t>
   </si>
   <si>
-    <t xml:space="preserve">1.90304946899414</t>
+    <t xml:space="preserve">1.90304970741272</t>
   </si>
   <si>
     <t xml:space="preserve">1.88420736789703</t>
   </si>
   <si>
-    <t xml:space="preserve">1.869713306427</t>
+    <t xml:space="preserve">1.86971354484558</t>
   </si>
   <si>
     <t xml:space="preserve">1.91754341125488</t>
   </si>
   <si>
-    <t xml:space="preserve">1.92479026317596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90884733200073</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8914543390274</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89725184440613</t>
+    <t xml:space="preserve">1.92479038238525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90884709358215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89145457744598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.897252202034</t>
   </si>
   <si>
     <t xml:space="preserve">1.79289579391479</t>
   </si>
   <si>
-    <t xml:space="preserve">1.80594062805176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.824782371521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76245856285095</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82043445110321</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86246657371521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84942197799683</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84217536449432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86536514759064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86826407909393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88855540752411</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8987010717392</t>
+    <t xml:space="preserve">1.80594050884247</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82478249073029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76245832443237</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8204345703125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8624666929245</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84942221641541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84217524528503</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86536538600922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86826431751251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88855588436127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89870166778564</t>
   </si>
   <si>
     <t xml:space="preserve">1.85521984100342</t>
   </si>
   <si>
-    <t xml:space="preserve">1.83058023452759</t>
+    <t xml:space="preserve">1.83057999610901</t>
   </si>
   <si>
     <t xml:space="preserve">1.81028842926025</t>
   </si>
   <si>
-    <t xml:space="preserve">1.80449104309082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79434514045715</t>
+    <t xml:space="preserve">1.80449092388153</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79434525966644</t>
   </si>
   <si>
     <t xml:space="preserve">1.80883920192719</t>
   </si>
   <si>
-    <t xml:space="preserve">1.79724371433258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82913041114807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84507358074188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82623159885406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84072542190552</t>
+    <t xml:space="preserve">1.79724407196045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82913053035736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84507381916046</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82623195648193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84072589874268</t>
   </si>
   <si>
     <t xml:space="preserve">1.86391603946686</t>
@@ -194,43 +194,43 @@
     <t xml:space="preserve">1.87840986251831</t>
   </si>
   <si>
-    <t xml:space="preserve">1.92623972892761</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91174578666687</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83347880840302</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84797251224518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85377037525177</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84362435340881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84652352333069</t>
+    <t xml:space="preserve">1.92623960971832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91174602508545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8334789276123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84797286987305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85377025604248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84362423419952</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8465234041214</t>
   </si>
   <si>
     <t xml:space="preserve">1.87551128864288</t>
   </si>
   <si>
-    <t xml:space="preserve">1.87696039676666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8595677614212</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85087144374847</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8218834400177</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81318759918213</t>
+    <t xml:space="preserve">1.87696051597595</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85956764221191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85087168216705</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82188379764557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81318736076355</t>
   </si>
   <si>
     <t xml:space="preserve">1.89435338973999</t>
@@ -239,19 +239,19 @@
     <t xml:space="preserve">1.91464459896088</t>
   </si>
   <si>
-    <t xml:space="preserve">1.90015029907227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91319537162781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89000511169434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90160024166107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89290392398834</t>
+    <t xml:space="preserve">1.90015077590942</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9131954908371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89000523090363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90160000324249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89290380477905</t>
   </si>
   <si>
     <t xml:space="preserve">1.88130867481232</t>
@@ -260,46 +260,46 @@
     <t xml:space="preserve">1.82768130302429</t>
   </si>
   <si>
-    <t xml:space="preserve">1.79579448699951</t>
+    <t xml:space="preserve">1.79579472541809</t>
   </si>
   <si>
     <t xml:space="preserve">1.80738997459412</t>
   </si>
   <si>
-    <t xml:space="preserve">1.77550315856934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82295894622803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8394900560379</t>
+    <t xml:space="preserve">1.77550303936005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82295882701874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83949041366577</t>
   </si>
   <si>
     <t xml:space="preserve">1.80492460727692</t>
   </si>
   <si>
-    <t xml:space="preserve">1.8244616985321</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76735317707062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73579347133636</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.77336490154266</t>
+    <t xml:space="preserve">1.82446157932281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76735329627991</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73579335212708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77336454391479</t>
   </si>
   <si>
     <t xml:space="preserve">1.80342161655426</t>
   </si>
   <si>
-    <t xml:space="preserve">1.84700441360474</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90261006355286</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8755589723587</t>
+    <t xml:space="preserve">1.84700453281403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90261018276215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87555861473083</t>
   </si>
   <si>
     <t xml:space="preserve">1.87856435775757</t>
@@ -308,22 +308,22 @@
     <t xml:space="preserve">1.85151302814484</t>
   </si>
   <si>
-    <t xml:space="preserve">1.84550178050995</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79139912128448</t>
+    <t xml:space="preserve">1.84550189971924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79139888286591</t>
   </si>
   <si>
     <t xml:space="preserve">1.82596480846405</t>
   </si>
   <si>
-    <t xml:space="preserve">1.81093597412109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83648467063904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83197569847107</t>
+    <t xml:space="preserve">1.81093621253967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83648443222046</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83197581768036</t>
   </si>
   <si>
     <t xml:space="preserve">1.82746720314026</t>
@@ -332,55 +332,55 @@
     <t xml:space="preserve">1.83498156070709</t>
   </si>
   <si>
-    <t xml:space="preserve">1.84099316596985</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85001015663147</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9056156873703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92665553092957</t>
+    <t xml:space="preserve">1.84099292755127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85001003742218</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90561556816101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92665541172028</t>
   </si>
   <si>
     <t xml:space="preserve">1.91914117336273</t>
   </si>
   <si>
-    <t xml:space="preserve">1.90411257743835</t>
+    <t xml:space="preserve">1.90411281585693</t>
   </si>
   <si>
     <t xml:space="preserve">1.93567264080048</t>
   </si>
   <si>
-    <t xml:space="preserve">1.89960443973541</t>
+    <t xml:space="preserve">1.89960432052612</t>
   </si>
   <si>
     <t xml:space="preserve">1.91312956809998</t>
   </si>
   <si>
-    <t xml:space="preserve">1.86353576183319</t>
+    <t xml:space="preserve">1.8635356426239</t>
   </si>
   <si>
     <t xml:space="preserve">1.88758146762848</t>
   </si>
   <si>
-    <t xml:space="preserve">1.88006711006165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81394171714783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80943322181702</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84249544143677</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85752427577972</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86654114723206</t>
+    <t xml:space="preserve">1.88006722927094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81394195556641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80943334102631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84249567985535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8575245141983</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86654150485992</t>
   </si>
   <si>
     <t xml:space="preserve">1.85301578044891</t>
@@ -389,13 +389,13 @@
     <t xml:space="preserve">1.85602140426636</t>
   </si>
   <si>
-    <t xml:space="preserve">1.88307297229767</t>
+    <t xml:space="preserve">1.88307309150696</t>
   </si>
   <si>
     <t xml:space="preserve">1.82145619392395</t>
   </si>
   <si>
-    <t xml:space="preserve">1.80041599273682</t>
+    <t xml:space="preserve">1.80041587352753</t>
   </si>
   <si>
     <t xml:space="preserve">1.77035915851593</t>
@@ -404,25 +404,25 @@
     <t xml:space="preserve">1.80191898345947</t>
   </si>
   <si>
-    <t xml:space="preserve">1.81995332241058</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.77486765384674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.77186179161072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76585042476654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75533056259155</t>
+    <t xml:space="preserve">1.81995320320129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77486777305603</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77186191082001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76585018634796</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75533032417297</t>
   </si>
   <si>
     <t xml:space="preserve">1.78087890148163</t>
   </si>
   <si>
-    <t xml:space="preserve">1.75983893871307</t>
+    <t xml:space="preserve">1.75983905792236</t>
   </si>
   <si>
     <t xml:space="preserve">1.69221079349518</t>
@@ -431,22 +431,22 @@
     <t xml:space="preserve">1.66515958309174</t>
   </si>
   <si>
-    <t xml:space="preserve">1.65163373947144</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.638108253479</t>
+    <t xml:space="preserve">1.65163385868073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.63810813426971</t>
   </si>
   <si>
     <t xml:space="preserve">1.66065096855164</t>
   </si>
   <si>
-    <t xml:space="preserve">1.66966784000397</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.67417645454407</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.68169105052948</t>
+    <t xml:space="preserve">1.66966795921326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.67417633533478</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.68169069290161</t>
   </si>
   <si>
     <t xml:space="preserve">1.69371342658997</t>
@@ -455,49 +455,49 @@
     <t xml:space="preserve">1.67868494987488</t>
   </si>
   <si>
-    <t xml:space="preserve">1.69972503185272</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69822192192078</t>
+    <t xml:space="preserve">1.69972515106201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69822216033936</t>
   </si>
   <si>
     <t xml:space="preserve">1.71174788475037</t>
   </si>
   <si>
-    <t xml:space="preserve">1.68319356441498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.67567932605743</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6771821975708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.68619954586029</t>
+    <t xml:space="preserve">1.68319368362427</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6756796836853</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.67718231678009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.68619906902313</t>
   </si>
   <si>
     <t xml:space="preserve">1.72377049922943</t>
   </si>
   <si>
-    <t xml:space="preserve">1.73128473758698</t>
+    <t xml:space="preserve">1.73128485679626</t>
   </si>
   <si>
     <t xml:space="preserve">1.75082194805145</t>
   </si>
   <si>
-    <t xml:space="preserve">1.65313649177551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.62458229064941</t>
+    <t xml:space="preserve">1.6531366109848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6245824098587</t>
   </si>
   <si>
     <t xml:space="preserve">1.62157666683197</t>
   </si>
   <si>
-    <t xml:space="preserve">1.60053670406342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.51487410068512</t>
+    <t xml:space="preserve">1.60053694248199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.51487445831299</t>
   </si>
   <si>
     <t xml:space="preserve">1.51787984371185</t>
@@ -506,16 +506,16 @@
     <t xml:space="preserve">1.49984574317932</t>
   </si>
   <si>
-    <t xml:space="preserve">1.49909436702728</t>
+    <t xml:space="preserve">1.49909424781799</t>
   </si>
   <si>
     <t xml:space="preserve">1.50435435771942</t>
   </si>
   <si>
-    <t xml:space="preserve">1.48331439495087</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.47504866123199</t>
+    <t xml:space="preserve">1.48331415653229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.47504889965057</t>
   </si>
   <si>
     <t xml:space="preserve">1.44799745082855</t>
@@ -530,37 +530,37 @@
     <t xml:space="preserve">1.46528017520905</t>
   </si>
   <si>
-    <t xml:space="preserve">1.45025181770325</t>
+    <t xml:space="preserve">1.45025157928467</t>
   </si>
   <si>
     <t xml:space="preserve">1.45400869846344</t>
   </si>
   <si>
-    <t xml:space="preserve">1.45776617527008</t>
+    <t xml:space="preserve">1.45776605606079</t>
   </si>
   <si>
     <t xml:space="preserve">1.46903729438782</t>
   </si>
   <si>
-    <t xml:space="preserve">1.43296885490417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.40967464447021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.42846024036407</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.4923312664032</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53591430187225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54793691635132</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54042255878448</t>
+    <t xml:space="preserve">1.43296873569489</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.4096747636795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.42846035957336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.49233150482178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53591406345367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5479371547699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54042267799377</t>
   </si>
   <si>
     <t xml:space="preserve">1.59001696109772</t>
@@ -569,10 +569,10 @@
     <t xml:space="preserve">1.58400535583496</t>
   </si>
   <si>
-    <t xml:space="preserve">1.55695426464081</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5629655122757</t>
+    <t xml:space="preserve">1.55695414543152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.56296539306641</t>
   </si>
   <si>
     <t xml:space="preserve">1.60654830932617</t>
@@ -581,37 +581,37 @@
     <t xml:space="preserve">1.61556553840637</t>
   </si>
   <si>
-    <t xml:space="preserve">1.6290910243988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65013074874878</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.62758791446686</t>
+    <t xml:space="preserve">1.62909090518951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65013098716736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.62758827209473</t>
   </si>
   <si>
     <t xml:space="preserve">1.64712512493134</t>
   </si>
   <si>
-    <t xml:space="preserve">1.66816520690918</t>
+    <t xml:space="preserve">1.66816508769989</t>
   </si>
   <si>
     <t xml:space="preserve">1.65614235401154</t>
   </si>
   <si>
-    <t xml:space="preserve">1.65914821624756</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.62307953834534</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.71325087547302</t>
+    <t xml:space="preserve">1.65914797782898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.62307965755463</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.71325063705444</t>
   </si>
   <si>
     <t xml:space="preserve">1.70273065567017</t>
   </si>
   <si>
-    <t xml:space="preserve">1.71475350856781</t>
+    <t xml:space="preserve">1.7147536277771</t>
   </si>
   <si>
     <t xml:space="preserve">1.71625649929047</t>
@@ -620,64 +620,64 @@
     <t xml:space="preserve">1.72076499462128</t>
   </si>
   <si>
-    <t xml:space="preserve">1.70122766494751</t>
+    <t xml:space="preserve">1.70122802257538</t>
   </si>
   <si>
     <t xml:space="preserve">1.70423340797424</t>
   </si>
   <si>
-    <t xml:space="preserve">1.6335996389389</t>
+    <t xml:space="preserve">1.63359940052032</t>
   </si>
   <si>
     <t xml:space="preserve">1.63660526275635</t>
   </si>
   <si>
-    <t xml:space="preserve">1.60955405235291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.64562225341797</t>
+    <t xml:space="preserve">1.60955369472504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.64562249183655</t>
   </si>
   <si>
     <t xml:space="preserve">1.69070792198181</t>
   </si>
   <si>
-    <t xml:space="preserve">1.74481058120728</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.72827923297882</t>
+    <t xml:space="preserve">1.74481081962585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.72827911376953</t>
   </si>
   <si>
     <t xml:space="preserve">1.74030208587646</t>
   </si>
   <si>
-    <t xml:space="preserve">1.75382781028748</t>
+    <t xml:space="preserve">1.75382769107819</t>
   </si>
   <si>
     <t xml:space="preserve">1.75683343410492</t>
   </si>
   <si>
-    <t xml:space="preserve">1.76134204864502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.758336186409</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.77787303924561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79440462589264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79891324043274</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78388488292694</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78839325904846</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.77937626838684</t>
+    <t xml:space="preserve">1.76134216785431</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75833606719971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77787339687347</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79440474510193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79891312122345</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78388452529907</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78839337825775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77937602996826</t>
   </si>
   <si>
     <t xml:space="preserve">1.78238189220428</t>
@@ -686,55 +686,55 @@
     <t xml:space="preserve">1.80642747879028</t>
   </si>
   <si>
-    <t xml:space="preserve">1.84850740432739</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85451865196228</t>
+    <t xml:space="preserve">1.84850716590881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85451877117157</t>
   </si>
   <si>
     <t xml:space="preserve">1.88156974315643</t>
   </si>
   <si>
-    <t xml:space="preserve">1.89810144901276</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93867838382721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.97023808956146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.98526692390442</t>
+    <t xml:space="preserve">1.89810156822205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93867862224579</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.97023820877075</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.98526680469513</t>
   </si>
   <si>
     <t xml:space="preserve">1.98676955699921</t>
   </si>
   <si>
-    <t xml:space="preserve">1.95070135593414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94168436527252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95971846580505</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.97174143791199</t>
+    <t xml:space="preserve">1.95070111751556</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94168412685394</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95971870422363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.97174096107483</t>
   </si>
   <si>
     <t xml:space="preserve">1.97624981403351</t>
   </si>
   <si>
-    <t xml:space="preserve">1.98376381397247</t>
+    <t xml:space="preserve">1.98376405239105</t>
   </si>
   <si>
     <t xml:space="preserve">2.01682662963867</t>
   </si>
   <si>
-    <t xml:space="preserve">2.00931215286255</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94919848442078</t>
+    <t xml:space="preserve">2.00931239128113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94919836521149</t>
   </si>
   <si>
     <t xml:space="preserve">1.95370674133301</t>
@@ -746,31 +746,31 @@
     <t xml:space="preserve">1.9687352180481</t>
   </si>
   <si>
-    <t xml:space="preserve">1.95821511745453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9732438325882</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.98827242851257</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.99578654766083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.00780963897705</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.01081538200378</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.02133536338806</t>
+    <t xml:space="preserve">1.95821523666382</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.97324407100677</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.98827230930328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9957869052887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.00780916213989</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.01081562042236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.02133512496948</t>
   </si>
   <si>
     <t xml:space="preserve">2.06942653656006</t>
   </si>
   <si>
-    <t xml:space="preserve">2.10399198532104</t>
+    <t xml:space="preserve">2.10399174690247</t>
   </si>
   <si>
     <t xml:space="preserve">2.1340491771698</t>
@@ -782,10 +782,10 @@
     <t xml:space="preserve">2.12803745269775</t>
   </si>
   <si>
-    <t xml:space="preserve">2.18063735961914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.14156341552734</t>
+    <t xml:space="preserve">2.18063712120056</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.14156317710876</t>
   </si>
   <si>
     <t xml:space="preserve">2.11451172828674</t>
@@ -794,40 +794,40 @@
     <t xml:space="preserve">2.15058064460754</t>
   </si>
   <si>
-    <t xml:space="preserve">2.16410613059998</t>
+    <t xml:space="preserve">2.16410636901855</t>
   </si>
   <si>
     <t xml:space="preserve">2.20768904685974</t>
   </si>
   <si>
-    <t xml:space="preserve">2.191157579422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.18965458869934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.17913484573364</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.13104367256165</t>
+    <t xml:space="preserve">2.19115734100342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.18965482711792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.17913460731506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.13104343414307</t>
   </si>
   <si>
     <t xml:space="preserve">2.16711163520813</t>
   </si>
   <si>
-    <t xml:space="preserve">2.20167756080627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.15659165382385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.1821403503418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.19867181777954</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.18664908409119</t>
+    <t xml:space="preserve">2.2016773223877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.15659189224243</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.18214058876038</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.19867157936096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.18664884567261</t>
   </si>
   <si>
     <t xml:space="preserve">2.22722601890564</t>
@@ -839,25 +839,25 @@
     <t xml:space="preserve">2.2347400188446</t>
   </si>
   <si>
-    <t xml:space="preserve">2.22271728515625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.23624300956726</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.24864101409912</t>
+    <t xml:space="preserve">2.22271752357483</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.23624277114868</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.24864053726196</t>
   </si>
   <si>
     <t xml:space="preserve">2.25948858261108</t>
   </si>
   <si>
-    <t xml:space="preserve">2.2532901763916</t>
+    <t xml:space="preserve">2.25328969955444</t>
   </si>
   <si>
     <t xml:space="preserve">2.17735362052917</t>
   </si>
   <si>
-    <t xml:space="preserve">2.19130110740662</t>
+    <t xml:space="preserve">2.1913013458252</t>
   </si>
   <si>
     <t xml:space="preserve">2.14945888519287</t>
@@ -866,43 +866,43 @@
     <t xml:space="preserve">2.13551139831543</t>
   </si>
   <si>
-    <t xml:space="preserve">2.09211945533752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.07352256774902</t>
+    <t xml:space="preserve">2.09211921691895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.07352304458618</t>
   </si>
   <si>
     <t xml:space="preserve">2.08592057228088</t>
   </si>
   <si>
-    <t xml:space="preserve">2.08282113075256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.07197308540344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.02393198013306</t>
+    <t xml:space="preserve">2.08282089233398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.07197284698486</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.02393174171448</t>
   </si>
   <si>
     <t xml:space="preserve">2.04407811164856</t>
   </si>
   <si>
-    <t xml:space="preserve">2.07972121238708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.05647587776184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.10606670379639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.12931227684021</t>
+    <t xml:space="preserve">2.07972168922424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.05647563934326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.10606646537781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.12931275367737</t>
   </si>
   <si>
     <t xml:space="preserve">2.11536502838135</t>
   </si>
   <si>
-    <t xml:space="preserve">2.10761666297913</t>
+    <t xml:space="preserve">2.10761690139771</t>
   </si>
   <si>
     <t xml:space="preserve">2.12156391143799</t>
@@ -911,19 +911,19 @@
     <t xml:space="preserve">2.09986805915833</t>
   </si>
   <si>
-    <t xml:space="preserve">2.13861060142517</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.15410804748535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.10916614532471</t>
+    <t xml:space="preserve">2.13861083984375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.15410828590393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.10916590690613</t>
   </si>
   <si>
     <t xml:space="preserve">2.08901977539062</t>
   </si>
   <si>
-    <t xml:space="preserve">2.13086223602295</t>
+    <t xml:space="preserve">2.13086199760437</t>
   </si>
   <si>
     <t xml:space="preserve">2.12001442909241</t>
@@ -932,67 +932,67 @@
     <t xml:space="preserve">2.11846446990967</t>
   </si>
   <si>
-    <t xml:space="preserve">2.11226558685303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.12466359138489</t>
+    <t xml:space="preserve">2.11226582527161</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.12466335296631</t>
   </si>
   <si>
     <t xml:space="preserve">2.12621307373047</t>
   </si>
   <si>
-    <t xml:space="preserve">2.07662200927734</t>
+    <t xml:space="preserve">2.07662224769592</t>
   </si>
   <si>
     <t xml:space="preserve">2.13241195678711</t>
   </si>
   <si>
-    <t xml:space="preserve">2.11071610450745</t>
+    <t xml:space="preserve">2.11071562767029</t>
   </si>
   <si>
     <t xml:space="preserve">2.06887340545654</t>
   </si>
   <si>
-    <t xml:space="preserve">2.04872727394104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.03477931022644</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.04097843170166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.10141754150391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.08747005462646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.08437085151672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.07817196846008</t>
+    <t xml:space="preserve">2.04872703552246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.0347797870636</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.04097890853882</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.10141777992249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.08747029304504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.08437061309814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.0781717300415</t>
   </si>
   <si>
     <t xml:space="preserve">2.15565776824951</t>
   </si>
   <si>
-    <t xml:space="preserve">2.09366869926453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.0750720500946</t>
+    <t xml:space="preserve">2.09366893768311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.07507228851318</t>
   </si>
   <si>
     <t xml:space="preserve">2.05957531929016</t>
   </si>
   <si>
-    <t xml:space="preserve">2.06112480163574</t>
+    <t xml:space="preserve">2.06112504005432</t>
   </si>
   <si>
     <t xml:space="preserve">2.04562783241272</t>
   </si>
   <si>
-    <t xml:space="preserve">2.09676885604858</t>
+    <t xml:space="preserve">2.09676861763</t>
   </si>
   <si>
     <t xml:space="preserve">2.11381530761719</t>
@@ -1001,16 +1001,16 @@
     <t xml:space="preserve">2.13706111907959</t>
   </si>
   <si>
-    <t xml:space="preserve">2.14790916442871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.15100860595703</t>
+    <t xml:space="preserve">2.14790940284729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.15100836753845</t>
   </si>
   <si>
     <t xml:space="preserve">2.14326000213623</t>
   </si>
   <si>
-    <t xml:space="preserve">2.14016056060791</t>
+    <t xml:space="preserve">2.14016032218933</t>
   </si>
   <si>
     <t xml:space="preserve">2.15255832672119</t>
@@ -1019,16 +1019,16 @@
     <t xml:space="preserve">2.16185641288757</t>
   </si>
   <si>
-    <t xml:space="preserve">2.1851019859314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.20369911193848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.23004388809204</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.24089241027832</t>
+    <t xml:space="preserve">2.18510222434998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.20369935035706</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.2300443649292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.24089193344116</t>
   </si>
   <si>
     <t xml:space="preserve">2.26258826255798</t>
@@ -1037,55 +1037,55 @@
     <t xml:space="preserve">2.27808547019958</t>
   </si>
   <si>
-    <t xml:space="preserve">2.26878714561462</t>
+    <t xml:space="preserve">2.26878690719604</t>
   </si>
   <si>
     <t xml:space="preserve">2.26103854179382</t>
   </si>
   <si>
-    <t xml:space="preserve">2.24709129333496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.25173997879028</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.27343654632568</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.27498602867126</t>
+    <t xml:space="preserve">2.24709105491638</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.25174021720886</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.2734363079071</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.27498579025269</t>
   </si>
   <si>
     <t xml:space="preserve">2.27653574943542</t>
   </si>
   <si>
-    <t xml:space="preserve">2.30753016471863</t>
+    <t xml:space="preserve">2.30752992630005</t>
   </si>
   <si>
     <t xml:space="preserve">2.35557126998901</t>
   </si>
   <si>
-    <t xml:space="preserve">2.34007453918457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.34317350387573</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.36641955375671</t>
+    <t xml:space="preserve">2.34007430076599</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.34317374229431</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.36641907691956</t>
   </si>
   <si>
     <t xml:space="preserve">2.38036680221558</t>
   </si>
   <si>
-    <t xml:space="preserve">2.3912148475647</t>
+    <t xml:space="preserve">2.39121460914612</t>
   </si>
   <si>
     <t xml:space="preserve">2.38656544685364</t>
   </si>
   <si>
-    <t xml:space="preserve">2.4268581867218</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.37416768074036</t>
+    <t xml:space="preserve">2.42685842514038</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.37416815757751</t>
   </si>
   <si>
     <t xml:space="preserve">2.35867071151733</t>
@@ -1094,22 +1094,22 @@
     <t xml:space="preserve">2.38966536521912</t>
   </si>
   <si>
-    <t xml:space="preserve">2.40206241607666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.33852434158325</t>
+    <t xml:space="preserve">2.40206289291382</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.33852410316467</t>
   </si>
   <si>
     <t xml:space="preserve">2.34162402153015</t>
   </si>
   <si>
-    <t xml:space="preserve">2.36331987380981</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.31217932701111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.30907940864563</t>
+    <t xml:space="preserve">2.36332011222839</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.31217956542969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.30907988548279</t>
   </si>
   <si>
     <t xml:space="preserve">2.30133104324341</t>
@@ -1118,19 +1118,19 @@
     <t xml:space="preserve">2.25483965873718</t>
   </si>
   <si>
-    <t xml:space="preserve">2.23469352722168</t>
+    <t xml:space="preserve">2.2346932888031</t>
   </si>
   <si>
     <t xml:space="preserve">2.29358243942261</t>
   </si>
   <si>
-    <t xml:space="preserve">2.34472370147705</t>
+    <t xml:space="preserve">2.34472298622131</t>
   </si>
   <si>
     <t xml:space="preserve">2.39741373062134</t>
   </si>
   <si>
-    <t xml:space="preserve">2.32457709312439</t>
+    <t xml:space="preserve">2.32457685470581</t>
   </si>
   <si>
     <t xml:space="preserve">2.35402178764343</t>
@@ -1139,40 +1139,40 @@
     <t xml:space="preserve">2.32147765159607</t>
   </si>
   <si>
-    <t xml:space="preserve">2.36177015304565</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.37106871604919</t>
+    <t xml:space="preserve">2.36177039146423</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.37106847763062</t>
   </si>
   <si>
     <t xml:space="preserve">2.38501620292664</t>
   </si>
   <si>
-    <t xml:space="preserve">2.33077597618103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.36486983299255</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.32922601699829</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.2656877040863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.2145471572876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.18975138664246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.13396143913269</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.10451722145081</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.17270445823669</t>
+    <t xml:space="preserve">2.33077549934387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.36486959457397</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.32922649383545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.26568794250488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.21454691886902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.18975162506104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.13396167755127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.10451698303223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.17270421981812</t>
   </si>
   <si>
     <t xml:space="preserve">2.20524883270264</t>
@@ -1181,7 +1181,7 @@
     <t xml:space="preserve">2.21299719810486</t>
   </si>
   <si>
-    <t xml:space="preserve">2.17115473747253</t>
+    <t xml:space="preserve">2.17115521430969</t>
   </si>
   <si>
     <t xml:space="preserve">2.14635944366455</t>
@@ -1190,13 +1190,13 @@
     <t xml:space="preserve">2.11691474914551</t>
   </si>
   <si>
-    <t xml:space="preserve">2.16340637207031</t>
+    <t xml:space="preserve">2.16340661048889</t>
   </si>
   <si>
     <t xml:space="preserve">2.16030693054199</t>
   </si>
   <si>
-    <t xml:space="preserve">2.15875697135925</t>
+    <t xml:space="preserve">2.15875720977783</t>
   </si>
   <si>
     <t xml:space="preserve">2.1804530620575</t>
@@ -1208,7 +1208,7 @@
     <t xml:space="preserve">2.199049949646</t>
   </si>
   <si>
-    <t xml:space="preserve">2.29513216018677</t>
+    <t xml:space="preserve">2.29513239860535</t>
   </si>
   <si>
     <t xml:space="preserve">2.30443048477173</t>
@@ -1217,22 +1217,22 @@
     <t xml:space="preserve">2.31372904777527</t>
   </si>
   <si>
-    <t xml:space="preserve">2.32612705230713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.34782242774963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.31837797164917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.33697509765625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.37881708145142</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.3834662437439</t>
+    <t xml:space="preserve">2.32612681388855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.34782314300537</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.31837821006775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.33697462081909</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.37881684303284</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.38346600532532</t>
   </si>
   <si>
     <t xml:space="preserve">2.36951899528503</t>
@@ -1241,19 +1241,19 @@
     <t xml:space="preserve">2.31062936782837</t>
   </si>
   <si>
-    <t xml:space="preserve">2.33542490005493</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.22074580192566</t>
+    <t xml:space="preserve">2.33542513847351</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.22074604034424</t>
   </si>
   <si>
     <t xml:space="preserve">2.20059943199158</t>
   </si>
   <si>
-    <t xml:space="preserve">2.09831833839417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.019282579422</t>
+    <t xml:space="preserve">2.09831786155701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.01928234100342</t>
   </si>
   <si>
     <t xml:space="preserve">2.03787922859192</t>
@@ -1262,13 +1262,13 @@
     <t xml:space="preserve">2.0549259185791</t>
   </si>
   <si>
-    <t xml:space="preserve">2.04252815246582</t>
+    <t xml:space="preserve">2.04252791404724</t>
   </si>
   <si>
     <t xml:space="preserve">2.05182671546936</t>
   </si>
   <si>
-    <t xml:space="preserve">2.020831823349</t>
+    <t xml:space="preserve">2.02083253860474</t>
   </si>
   <si>
     <t xml:space="preserve">2.10410904884338</t>
@@ -1277,7 +1277,7 @@
     <t xml:space="preserve">2.13783931732178</t>
   </si>
   <si>
-    <t xml:space="preserve">2.14908266067505</t>
+    <t xml:space="preserve">2.14908242225647</t>
   </si>
   <si>
     <t xml:space="preserve">2.11374616622925</t>
@@ -1295,34 +1295,34 @@
     <t xml:space="preserve">2.16675043106079</t>
   </si>
   <si>
-    <t xml:space="preserve">2.14426398277283</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.18441867828369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.21493625640869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.23421049118042</t>
+    <t xml:space="preserve">2.14426374435425</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.18441891670227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.21493649482727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.234210729599</t>
   </si>
   <si>
     <t xml:space="preserve">2.24063539505005</t>
   </si>
   <si>
-    <t xml:space="preserve">2.22457337379456</t>
+    <t xml:space="preserve">2.22457361221313</t>
   </si>
   <si>
     <t xml:space="preserve">2.2165424823761</t>
   </si>
   <si>
-    <t xml:space="preserve">2.22778558731079</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.21333026885986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.24866652488708</t>
+    <t xml:space="preserve">2.22778582572937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.21333003044128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.24866604804993</t>
   </si>
   <si>
     <t xml:space="preserve">2.25348472595215</t>
@@ -1340,16 +1340,16 @@
     <t xml:space="preserve">2.28882074356079</t>
   </si>
   <si>
-    <t xml:space="preserve">2.25187873840332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.27757787704468</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.26794052124023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.30006456375122</t>
+    <t xml:space="preserve">2.25187849998474</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.2775776386261</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.26794028282166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.30006432533264</t>
   </si>
   <si>
     <t xml:space="preserve">2.29845809936523</t>
@@ -1364,7 +1364,7 @@
     <t xml:space="preserve">2.23099827766418</t>
   </si>
   <si>
-    <t xml:space="preserve">2.21172404289246</t>
+    <t xml:space="preserve">2.21172380447388</t>
   </si>
   <si>
     <t xml:space="preserve">2.20529913902283</t>
@@ -1373,7 +1373,7 @@
     <t xml:space="preserve">2.1988742351532</t>
   </si>
   <si>
-    <t xml:space="preserve">2.24706029891968</t>
+    <t xml:space="preserve">2.2470600605011</t>
   </si>
   <si>
     <t xml:space="preserve">2.23742294311523</t>
@@ -1391,7 +1391,7 @@
     <t xml:space="preserve">2.16835689544678</t>
   </si>
   <si>
-    <t xml:space="preserve">2.1860249042511</t>
+    <t xml:space="preserve">2.18602466583252</t>
   </si>
   <si>
     <t xml:space="preserve">2.20369291305542</t>
@@ -1400,25 +1400,25 @@
     <t xml:space="preserve">2.20690536499023</t>
   </si>
   <si>
-    <t xml:space="preserve">2.26954674720764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.28239631652832</t>
+    <t xml:space="preserve">2.26954698562622</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.28239607810974</t>
   </si>
   <si>
     <t xml:space="preserve">2.27918386459351</t>
   </si>
   <si>
-    <t xml:space="preserve">2.28400254249573</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.2904269695282</t>
+    <t xml:space="preserve">2.28400230407715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.29042744636536</t>
   </si>
   <si>
     <t xml:space="preserve">2.29363942146301</t>
   </si>
   <si>
-    <t xml:space="preserve">2.25669717788696</t>
+    <t xml:space="preserve">2.25669693946838</t>
   </si>
   <si>
     <t xml:space="preserve">2.20048069953918</t>
@@ -1427,13 +1427,13 @@
     <t xml:space="preserve">2.19566202163696</t>
   </si>
   <si>
-    <t xml:space="preserve">2.15390086174011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.14587044715881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.12820219993591</t>
+    <t xml:space="preserve">2.15390110015869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.14586997032166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.12820196151733</t>
   </si>
   <si>
     <t xml:space="preserve">2.0896532535553</t>
@@ -1442,10 +1442,10 @@
     <t xml:space="preserve">2.03504300117493</t>
   </si>
   <si>
-    <t xml:space="preserve">2.05592322349548</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.00934386253357</t>
+    <t xml:space="preserve">2.05592370033264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.00934410095215</t>
   </si>
   <si>
     <t xml:space="preserve">1.97400772571564</t>
@@ -1454,31 +1454,31 @@
     <t xml:space="preserve">1.93224668502808</t>
   </si>
   <si>
-    <t xml:space="preserve">1.98685717582703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94188380241394</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96437084674835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.97240173816681</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94027781486511</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92903470993042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.99970698356628</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96758329868317</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96115815639496</t>
+    <t xml:space="preserve">1.98685741424561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94188404083252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96437060832977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9724018573761</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94027757644653</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92903447151184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.99970686435699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9675829410553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96115791797638</t>
   </si>
   <si>
     <t xml:space="preserve">1.94991481304169</t>
@@ -1487,67 +1487,67 @@
     <t xml:space="preserve">1.95955216884613</t>
   </si>
   <si>
-    <t xml:space="preserve">1.95794570446014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.97561383247375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.99328184127808</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.03986144065857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.99006962776184</t>
+    <t xml:space="preserve">1.95794582366943</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.97561371326447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.99328231811523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.03986167907715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.99006974697113</t>
   </si>
   <si>
     <t xml:space="preserve">2.05271100997925</t>
   </si>
   <si>
-    <t xml:space="preserve">2.04307389259338</t>
+    <t xml:space="preserve">2.0430736541748</t>
   </si>
   <si>
     <t xml:space="preserve">2.05110478401184</t>
   </si>
   <si>
-    <t xml:space="preserve">2.01416254043579</t>
+    <t xml:space="preserve">2.01416230201721</t>
   </si>
   <si>
     <t xml:space="preserve">2.0029194355011</t>
   </si>
   <si>
-    <t xml:space="preserve">1.99649453163147</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.99167585372925</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96276438236237</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.98043274879456</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94830882549286</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.01095008850098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93867158889771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.02058720588684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.06074190139771</t>
+    <t xml:space="preserve">1.99649429321289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.99167561531067</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96276450157166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.98043239116669</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94830870628357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.0109498500824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93867182731628</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.020587682724</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.06074213981628</t>
   </si>
   <si>
     <t xml:space="preserve">2.17156910896301</t>
   </si>
   <si>
-    <t xml:space="preserve">2.11213994026184</t>
+    <t xml:space="preserve">2.11214017868042</t>
   </si>
   <si>
     <t xml:space="preserve">2.14265775680542</t>
@@ -1556,13 +1556,13 @@
     <t xml:space="preserve">2.17638778686523</t>
   </si>
   <si>
-    <t xml:space="preserve">2.16032576560974</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.27275919914246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.27597188949585</t>
+    <t xml:space="preserve">2.16032600402832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.27275896072388</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.27597165107727</t>
   </si>
   <si>
     <t xml:space="preserve">2.25990962982178</t>
@@ -1577,22 +1577,22 @@
     <t xml:space="preserve">2.31291389465332</t>
   </si>
   <si>
-    <t xml:space="preserve">2.28560853004456</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.28079009056091</t>
+    <t xml:space="preserve">2.28560876846313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.28079032897949</t>
   </si>
   <si>
     <t xml:space="preserve">2.30970144271851</t>
   </si>
   <si>
-    <t xml:space="preserve">2.34503769874573</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.34664368629456</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.37073659896851</t>
+    <t xml:space="preserve">2.34503793716431</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.34664392471313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.37073683738708</t>
   </si>
   <si>
     <t xml:space="preserve">2.37876772880554</t>
@@ -1604,22 +1604,22 @@
     <t xml:space="preserve">2.36913061141968</t>
   </si>
   <si>
-    <t xml:space="preserve">2.37555527687073</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.35467481613159</t>
+    <t xml:space="preserve">2.37555551528931</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.35467505455017</t>
   </si>
   <si>
     <t xml:space="preserve">2.34021925926208</t>
   </si>
   <si>
-    <t xml:space="preserve">2.36591815948486</t>
+    <t xml:space="preserve">2.36591792106628</t>
   </si>
   <si>
     <t xml:space="preserve">2.38840484619141</t>
   </si>
   <si>
-    <t xml:space="preserve">2.386798620224</t>
+    <t xml:space="preserve">2.38679838180542</t>
   </si>
   <si>
     <t xml:space="preserve">2.39322328567505</t>
@@ -1640,7 +1640,7 @@
     <t xml:space="preserve">2.37716150283813</t>
   </si>
   <si>
-    <t xml:space="preserve">2.33861303329468</t>
+    <t xml:space="preserve">2.3386127948761</t>
   </si>
   <si>
     <t xml:space="preserve">2.35306859016418</t>
@@ -1649,7 +1649,7 @@
     <t xml:space="preserve">2.34985637664795</t>
   </si>
   <si>
-    <t xml:space="preserve">2.38519263267517</t>
+    <t xml:space="preserve">2.38519239425659</t>
   </si>
   <si>
     <t xml:space="preserve">2.38198018074036</t>
@@ -1658,13 +1658,13 @@
     <t xml:space="preserve">2.3996479511261</t>
   </si>
   <si>
-    <t xml:space="preserve">2.40767908096313</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.34182548522949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.32255101203918</t>
+    <t xml:space="preserve">2.40767884254456</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.34182524681091</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.32255077362061</t>
   </si>
   <si>
     <t xml:space="preserve">2.43177199363708</t>
@@ -1673,28 +1673,28 @@
     <t xml:space="preserve">2.46871423721313</t>
   </si>
   <si>
-    <t xml:space="preserve">2.47032070159912</t>
+    <t xml:space="preserve">2.47032046318054</t>
   </si>
   <si>
     <t xml:space="preserve">2.49280738830566</t>
   </si>
   <si>
-    <t xml:space="preserve">2.51850605010986</t>
+    <t xml:space="preserve">2.51850652694702</t>
   </si>
   <si>
     <t xml:space="preserve">2.52171874046326</t>
   </si>
   <si>
-    <t xml:space="preserve">2.56829810142517</t>
+    <t xml:space="preserve">2.56829833984375</t>
   </si>
   <si>
     <t xml:space="preserve">2.5875723361969</t>
   </si>
   <si>
-    <t xml:space="preserve">2.58275389671326</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.58917856216431</t>
+    <t xml:space="preserve">2.58275413513184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.58917880058289</t>
   </si>
   <si>
     <t xml:space="preserve">2.60202789306641</t>
@@ -1706,22 +1706,22 @@
     <t xml:space="preserve">2.61487770080566</t>
   </si>
   <si>
-    <t xml:space="preserve">2.59560370445251</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.61005878448486</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.55384230613708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.57151055335999</t>
+    <t xml:space="preserve">2.59560346603394</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.61005926132202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.55384254455566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.57151031494141</t>
   </si>
   <si>
     <t xml:space="preserve">2.55705499649048</t>
   </si>
   <si>
-    <t xml:space="preserve">2.52493143081665</t>
+    <t xml:space="preserve">2.52493095397949</t>
   </si>
   <si>
     <t xml:space="preserve">2.54099273681641</t>
@@ -1730,28 +1730,28 @@
     <t xml:space="preserve">2.54420518875122</t>
   </si>
   <si>
-    <t xml:space="preserve">2.55866098403931</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.53778028488159</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.54902386665344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.56347966194153</t>
+    <t xml:space="preserve">2.55866122245789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.53778052330017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.54902410507202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.56347942352295</t>
   </si>
   <si>
     <t xml:space="preserve">2.55063009262085</t>
   </si>
   <si>
-    <t xml:space="preserve">2.51690030097961</t>
+    <t xml:space="preserve">2.51689982414246</t>
   </si>
   <si>
     <t xml:space="preserve">2.53938674926758</t>
   </si>
   <si>
-    <t xml:space="preserve">2.52011251449585</t>
+    <t xml:space="preserve">2.52011227607727</t>
   </si>
   <si>
     <t xml:space="preserve">2.57954144477844</t>
@@ -1763,31 +1763,31 @@
     <t xml:space="preserve">2.63254570960999</t>
   </si>
   <si>
-    <t xml:space="preserve">2.6357581615448</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.63897037506104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.65182018280029</t>
+    <t xml:space="preserve">2.63575839996338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.63897085189819</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.65181994438171</t>
   </si>
   <si>
     <t xml:space="preserve">2.65342617034912</t>
   </si>
   <si>
-    <t xml:space="preserve">2.63093996047974</t>
+    <t xml:space="preserve">2.63093972206116</t>
   </si>
   <si>
     <t xml:space="preserve">2.62933325767517</t>
   </si>
   <si>
-    <t xml:space="preserve">2.62290859222412</t>
+    <t xml:space="preserve">2.6229088306427</t>
   </si>
   <si>
     <t xml:space="preserve">2.61166524887085</t>
   </si>
   <si>
-    <t xml:space="preserve">2.65985131263733</t>
+    <t xml:space="preserve">2.65985107421875</t>
   </si>
   <si>
     <t xml:space="preserve">2.68715620040894</t>
@@ -1799,13 +1799,13 @@
     <t xml:space="preserve">2.70161199569702</t>
   </si>
   <si>
-    <t xml:space="preserve">2.6967933177948</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.69839954376221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.68554997444153</t>
+    <t xml:space="preserve">2.69679355621338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.69839930534363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.68555021286011</t>
   </si>
   <si>
     <t xml:space="preserve">2.68233752250671</t>
@@ -1817,10 +1817,10 @@
     <t xml:space="preserve">2.75140380859375</t>
   </si>
   <si>
-    <t xml:space="preserve">2.78513383865356</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.81725740432739</t>
+    <t xml:space="preserve">2.78513360023499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.81725788116455</t>
   </si>
   <si>
     <t xml:space="preserve">2.79741787910461</t>
@@ -1829,25 +1829,25 @@
     <t xml:space="preserve">2.77923130989075</t>
   </si>
   <si>
-    <t xml:space="preserve">2.78253793716431</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.74947166442871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.78088450431824</t>
+    <t xml:space="preserve">2.78253769874573</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.74947142601013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.78088474273682</t>
   </si>
   <si>
     <t xml:space="preserve">2.76600480079651</t>
   </si>
   <si>
-    <t xml:space="preserve">2.83213782310486</t>
+    <t xml:space="preserve">2.83213758468628</t>
   </si>
   <si>
     <t xml:space="preserve">2.91645693778992</t>
   </si>
   <si>
-    <t xml:space="preserve">2.91315007209778</t>
+    <t xml:space="preserve">2.91315031051636</t>
   </si>
   <si>
     <t xml:space="preserve">2.88835048675537</t>
@@ -1856,16 +1856,16 @@
     <t xml:space="preserve">2.87677717208862</t>
   </si>
   <si>
-    <t xml:space="preserve">2.88669729232788</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.90157675743103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.89992356300354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.93298983573914</t>
+    <t xml:space="preserve">2.8866970539093</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.90157699584961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.89992380142212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.93299031257629</t>
   </si>
   <si>
     <t xml:space="preserve">2.91149687767029</t>
@@ -1874,13 +1874,13 @@
     <t xml:space="preserve">2.86189723014832</t>
   </si>
   <si>
-    <t xml:space="preserve">2.84701752662659</t>
+    <t xml:space="preserve">2.84701728820801</t>
   </si>
   <si>
     <t xml:space="preserve">2.85197758674622</t>
   </si>
   <si>
-    <t xml:space="preserve">2.83379077911377</t>
+    <t xml:space="preserve">2.83379101753235</t>
   </si>
   <si>
     <t xml:space="preserve">2.83048415184021</t>
@@ -1889,7 +1889,7 @@
     <t xml:space="preserve">2.83544397354126</t>
   </si>
   <si>
-    <t xml:space="preserve">2.76931118965149</t>
+    <t xml:space="preserve">2.76931142807007</t>
   </si>
   <si>
     <t xml:space="preserve">2.78584456443787</t>
@@ -1901,34 +1901,34 @@
     <t xml:space="preserve">2.81229782104492</t>
   </si>
   <si>
-    <t xml:space="preserve">2.79576444625854</t>
+    <t xml:space="preserve">2.79576468467712</t>
   </si>
   <si>
     <t xml:space="preserve">2.80733776092529</t>
   </si>
   <si>
-    <t xml:space="preserve">2.82883071899414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.8056845664978</t>
+    <t xml:space="preserve">2.82883095741272</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.80568432807922</t>
   </si>
   <si>
     <t xml:space="preserve">2.83709740638733</t>
   </si>
   <si>
-    <t xml:space="preserve">2.78749799728394</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.86520385742188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.89165711402893</t>
+    <t xml:space="preserve">2.78749752044678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.86520409584045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.89165687561035</t>
   </si>
   <si>
     <t xml:space="preserve">2.88173723220825</t>
   </si>
   <si>
-    <t xml:space="preserve">2.89000415802002</t>
+    <t xml:space="preserve">2.89000368118286</t>
   </si>
   <si>
     <t xml:space="preserve">2.91811013221741</t>
@@ -1937,16 +1937,16 @@
     <t xml:space="preserve">2.98920297622681</t>
   </si>
   <si>
-    <t xml:space="preserve">2.98589658737183</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.02392268180847</t>
+    <t xml:space="preserve">2.98589634895325</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.02392292022705</t>
   </si>
   <si>
     <t xml:space="preserve">2.99912285804749</t>
   </si>
   <si>
-    <t xml:space="preserve">2.99416303634644</t>
+    <t xml:space="preserve">2.99416279792786</t>
   </si>
   <si>
     <t xml:space="preserve">2.99581623077393</t>
@@ -1961,52 +1961,52 @@
     <t xml:space="preserve">2.90488362312317</t>
   </si>
   <si>
-    <t xml:space="preserve">2.89661693572998</t>
+    <t xml:space="preserve">2.89661717414856</t>
   </si>
   <si>
     <t xml:space="preserve">2.951176404953</t>
   </si>
   <si>
-    <t xml:space="preserve">2.92306995391846</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.92637705802917</t>
+    <t xml:space="preserve">2.92307019233704</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.9263768196106</t>
   </si>
   <si>
     <t xml:space="preserve">2.95282983779907</t>
   </si>
   <si>
-    <t xml:space="preserve">3.0156557559967</t>
+    <t xml:space="preserve">3.01565599441528</t>
   </si>
   <si>
     <t xml:space="preserve">3.0123496055603</t>
   </si>
   <si>
-    <t xml:space="preserve">2.97597622871399</t>
+    <t xml:space="preserve">2.97597670555115</t>
   </si>
   <si>
     <t xml:space="preserve">3.0619490146637</t>
   </si>
   <si>
-    <t xml:space="preserve">3.06029558181763</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.1330418586731</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.07517528533936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.11320185661316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.0669093132019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.08178877830505</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.12808156013489</t>
+    <t xml:space="preserve">3.06029582023621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.13304162025452</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.07517576217651</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.11320233345032</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.06690883636475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.08178901672363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.12808179855347</t>
   </si>
   <si>
     <t xml:space="preserve">3.13469529151917</t>
@@ -2015,16 +2015,16 @@
     <t xml:space="preserve">3.11650848388672</t>
   </si>
   <si>
-    <t xml:space="preserve">3.09005546569824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.11485528945923</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.12642884254456</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.09501552581787</t>
+    <t xml:space="preserve">3.09005522727966</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.11485505104065</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.12642860412598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.09501528739929</t>
   </si>
   <si>
     <t xml:space="preserve">3.13634848594666</t>
@@ -2036,10 +2036,10 @@
     <t xml:space="preserve">3.07682871818542</t>
   </si>
   <si>
-    <t xml:space="preserve">3.10493564605713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.11816191673279</t>
+    <t xml:space="preserve">3.10493540763855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.11816215515137</t>
   </si>
   <si>
     <t xml:space="preserve">3.15949487686157</t>
@@ -2051,25 +2051,25 @@
     <t xml:space="preserve">3.16280150413513</t>
   </si>
   <si>
-    <t xml:space="preserve">3.18429470062256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.14296197891235</t>
+    <t xml:space="preserve">3.18429493904114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.1429615020752</t>
   </si>
   <si>
     <t xml:space="preserve">3.16776156425476</t>
   </si>
   <si>
-    <t xml:space="preserve">3.18098783493042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.16610813140869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.18760132789612</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.18925476074219</t>
+    <t xml:space="preserve">3.18098831176758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.16610789299011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.18760108947754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.18925499916077</t>
   </si>
   <si>
     <t xml:space="preserve">3.21570777893066</t>
@@ -2078,49 +2078,49 @@
     <t xml:space="preserve">3.29176068305969</t>
   </si>
   <si>
-    <t xml:space="preserve">3.3165602684021</t>
+    <t xml:space="preserve">3.31656050682068</t>
   </si>
   <si>
     <t xml:space="preserve">3.31325364112854</t>
   </si>
   <si>
-    <t xml:space="preserve">3.33805346488953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.31490731239319</t>
+    <t xml:space="preserve">3.33805370330811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.31490707397461</t>
   </si>
   <si>
     <t xml:space="preserve">3.28018712997437</t>
   </si>
   <si>
-    <t xml:space="preserve">3.29837346076965</t>
+    <t xml:space="preserve">3.29837369918823</t>
   </si>
   <si>
     <t xml:space="preserve">3.27357411384583</t>
   </si>
   <si>
-    <t xml:space="preserve">3.30333399772644</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.2934136390686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.30994725227356</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.17602801322937</t>
+    <t xml:space="preserve">3.30333375930786</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.29341387748718</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.30994749069214</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.17602825164795</t>
   </si>
   <si>
     <t xml:space="preserve">3.202481508255</t>
   </si>
   <si>
-    <t xml:space="preserve">3.24050760269165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.21736097335815</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.21074795722961</t>
+    <t xml:space="preserve">3.24050784111023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.21736121177673</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.21074771881104</t>
   </si>
   <si>
     <t xml:space="preserve">3.18594813346863</t>
@@ -2129,37 +2129,37 @@
     <t xml:space="preserve">3.21901440620422</t>
   </si>
   <si>
-    <t xml:space="preserve">3.22728109359741</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.17437481880188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.24381446838379</t>
+    <t xml:space="preserve">3.22728085517883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.1743745803833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.24381422996521</t>
   </si>
   <si>
     <t xml:space="preserve">3.29010701179504</t>
   </si>
   <si>
-    <t xml:space="preserve">3.28680086135864</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.28184080123901</t>
+    <t xml:space="preserve">3.28680062294006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.28184056282043</t>
   </si>
   <si>
     <t xml:space="preserve">3.34136009216309</t>
   </si>
   <si>
-    <t xml:space="preserve">3.27853393554688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.2834939956665</t>
+    <t xml:space="preserve">3.27853417396545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.28349375724792</t>
   </si>
   <si>
     <t xml:space="preserve">3.22397446632385</t>
   </si>
   <si>
-    <t xml:space="preserve">3.2124011516571</t>
+    <t xml:space="preserve">3.21240139007568</t>
   </si>
   <si>
     <t xml:space="preserve">3.22232103347778</t>
@@ -2171,28 +2171,28 @@
     <t xml:space="preserve">3.19256138801575</t>
   </si>
   <si>
-    <t xml:space="preserve">3.26034736633301</t>
+    <t xml:space="preserve">3.26034784317017</t>
   </si>
   <si>
     <t xml:space="preserve">3.30498719215393</t>
   </si>
   <si>
-    <t xml:space="preserve">3.30168056488037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.24877452850342</t>
+    <t xml:space="preserve">3.30168032646179</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.24877405166626</t>
   </si>
   <si>
     <t xml:space="preserve">3.39426636695862</t>
   </si>
   <si>
-    <t xml:space="preserve">3.50338578224182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.43725252151489</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.57613182067871</t>
+    <t xml:space="preserve">3.50338554382324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.43725275993347</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.57613158226013</t>
   </si>
   <si>
     <t xml:space="preserve">3.57447791099548</t>
@@ -2201,25 +2201,25 @@
     <t xml:space="preserve">3.50503873825073</t>
   </si>
   <si>
-    <t xml:space="preserve">3.39096021652222</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.39922618865967</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.40914630889893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.45709276199341</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.49842548370361</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.51165246963501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.53645181655884</t>
+    <t xml:space="preserve">3.39095973968506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.39922642707825</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.4091465473175</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.45709300041199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.49842572212219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.51165223121643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.53645205497742</t>
   </si>
   <si>
     <t xml:space="preserve">3.55463886260986</t>
@@ -2228,7 +2228,7 @@
     <t xml:space="preserve">3.56786489486694</t>
   </si>
   <si>
-    <t xml:space="preserve">3.60754442214966</t>
+    <t xml:space="preserve">3.60754418373108</t>
   </si>
   <si>
     <t xml:space="preserve">3.58109140396118</t>
@@ -2240,37 +2240,37 @@
     <t xml:space="preserve">3.59927845001221</t>
   </si>
   <si>
-    <t xml:space="preserve">3.68855738639832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.66871786117554</t>
+    <t xml:space="preserve">3.68855762481689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.66871809959412</t>
   </si>
   <si>
     <t xml:space="preserve">3.64722442626953</t>
   </si>
   <si>
-    <t xml:space="preserve">3.46370601654053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.43229269981384</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.46205306053162</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.40087962150574</t>
+    <t xml:space="preserve">3.46370553970337</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.43229246139526</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.46205282211304</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.40087938308716</t>
   </si>
   <si>
     <t xml:space="preserve">3.20578789710999</t>
   </si>
   <si>
-    <t xml:space="preserve">3.2289342880249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.38269305229187</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.93794989585876</t>
+    <t xml:space="preserve">3.22893452644348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.38269329071045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.93795013427734</t>
   </si>
   <si>
     <t xml:space="preserve">2.75773811340332</t>
@@ -2285,28 +2285,28 @@
     <t xml:space="preserve">2.65357899665833</t>
   </si>
   <si>
-    <t xml:space="preserve">2.55768656730652</t>
+    <t xml:space="preserve">2.55768632888794</t>
   </si>
   <si>
     <t xml:space="preserve">2.60397934913635</t>
   </si>
   <si>
-    <t xml:space="preserve">2.61059236526489</t>
+    <t xml:space="preserve">2.61059284210205</t>
   </si>
   <si>
     <t xml:space="preserve">2.55272650718689</t>
   </si>
   <si>
-    <t xml:space="preserve">2.6800320148468</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.53288674354553</t>
+    <t xml:space="preserve">2.68003225326538</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.53288650512695</t>
   </si>
   <si>
     <t xml:space="preserve">2.50808668136597</t>
   </si>
   <si>
-    <t xml:space="preserve">2.53123354911804</t>
+    <t xml:space="preserve">2.53123331069946</t>
   </si>
   <si>
     <t xml:space="preserve">2.59571290016174</t>
@@ -2315,7 +2315,7 @@
     <t xml:space="preserve">2.7197117805481</t>
   </si>
   <si>
-    <t xml:space="preserve">2.70152521133423</t>
+    <t xml:space="preserve">2.70152497291565</t>
   </si>
   <si>
     <t xml:space="preserve">2.62216567993164</t>
@@ -2330,19 +2330,19 @@
     <t xml:space="preserve">2.64696550369263</t>
   </si>
   <si>
-    <t xml:space="preserve">2.55107307434082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.67176580429077</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.66349864006042</t>
+    <t xml:space="preserve">2.55107283592224</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.67176556587219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.663498878479</t>
   </si>
   <si>
     <t xml:space="preserve">2.64200568199158</t>
   </si>
   <si>
-    <t xml:space="preserve">2.63869905471802</t>
+    <t xml:space="preserve">2.63869881629944</t>
   </si>
   <si>
     <t xml:space="preserve">2.70483183860779</t>
@@ -2354,16 +2354,16 @@
     <t xml:space="preserve">2.61224603652954</t>
   </si>
   <si>
-    <t xml:space="preserve">2.68664526939392</t>
+    <t xml:space="preserve">2.6866455078125</t>
   </si>
   <si>
     <t xml:space="preserve">2.67672538757324</t>
   </si>
   <si>
-    <t xml:space="preserve">2.77261829376221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.79245781898499</t>
+    <t xml:space="preserve">2.77261805534363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.79245805740356</t>
   </si>
   <si>
     <t xml:space="preserve">2.67507219314575</t>
@@ -2381,34 +2381,34 @@
     <t xml:space="preserve">2.68829870223999</t>
   </si>
   <si>
-    <t xml:space="preserve">2.71640491485596</t>
+    <t xml:space="preserve">2.71640539169312</t>
   </si>
   <si>
     <t xml:space="preserve">2.65688538551331</t>
   </si>
   <si>
-    <t xml:space="preserve">2.5676064491272</t>
+    <t xml:space="preserve">2.56760621070862</t>
   </si>
   <si>
     <t xml:space="preserve">2.55437970161438</t>
   </si>
   <si>
-    <t xml:space="preserve">2.60728621482849</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.59405946731567</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.6486189365387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.64365887641907</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.75608491897583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.75939154624939</t>
+    <t xml:space="preserve">2.60728597640991</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.59405922889709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.64861917495728</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.64365911483765</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.75608468055725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.75939130783081</t>
   </si>
   <si>
     <t xml:space="preserve">2.9577898979187</t>
@@ -2417,28 +2417,28 @@
     <t xml:space="preserve">2.96274971961975</t>
   </si>
   <si>
-    <t xml:space="preserve">2.92141652107239</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.88008403778076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.77757811546326</t>
+    <t xml:space="preserve">2.92141675949097</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.88008379936218</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.7775776386261</t>
   </si>
   <si>
     <t xml:space="preserve">2.90653705596924</t>
   </si>
   <si>
-    <t xml:space="preserve">2.89331007003784</t>
+    <t xml:space="preserve">2.89331030845642</t>
   </si>
   <si>
     <t xml:space="preserve">2.87347054481506</t>
   </si>
   <si>
-    <t xml:space="preserve">2.86024379730225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.85693717002869</t>
+    <t xml:space="preserve">2.86024403572083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.85693740844727</t>
   </si>
   <si>
     <t xml:space="preserve">2.78915119171143</t>
@@ -2450,19 +2450,19 @@
     <t xml:space="preserve">2.80403089523315</t>
   </si>
   <si>
-    <t xml:space="preserve">2.80072426795959</t>
+    <t xml:space="preserve">2.80072450637817</t>
   </si>
   <si>
     <t xml:space="preserve">2.82717752456665</t>
   </si>
   <si>
-    <t xml:space="preserve">2.84420871734619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.79992771148682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.81525588035583</t>
+    <t xml:space="preserve">2.84420847892761</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.79992747306824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.81525564193726</t>
   </si>
   <si>
     <t xml:space="preserve">2.74031853675842</t>
@@ -2471,13 +2471,13 @@
     <t xml:space="preserve">2.73180270195007</t>
   </si>
   <si>
-    <t xml:space="preserve">2.77438068389893</t>
+    <t xml:space="preserve">2.7743809223175</t>
   </si>
   <si>
     <t xml:space="preserve">2.7369122505188</t>
   </si>
   <si>
-    <t xml:space="preserve">2.74883389472961</t>
+    <t xml:space="preserve">2.74883413314819</t>
   </si>
   <si>
     <t xml:space="preserve">2.79481840133667</t>
@@ -2486,19 +2486,19 @@
     <t xml:space="preserve">2.8322868347168</t>
   </si>
   <si>
-    <t xml:space="preserve">2.835693359375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.83739638328552</t>
+    <t xml:space="preserve">2.83569312095642</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.83739614486694</t>
   </si>
   <si>
     <t xml:space="preserve">2.86805248260498</t>
   </si>
   <si>
-    <t xml:space="preserve">2.76075625419617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.71647500991821</t>
+    <t xml:space="preserve">2.76075601577759</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.71647477149963</t>
   </si>
   <si>
     <t xml:space="preserve">2.73350620269775</t>
@@ -2510,7 +2510,7 @@
     <t xml:space="preserve">2.78800582885742</t>
   </si>
   <si>
-    <t xml:space="preserve">2.6892249584198</t>
+    <t xml:space="preserve">2.68922472000122</t>
   </si>
   <si>
     <t xml:space="preserve">2.70795917510986</t>
@@ -2522,7 +2522,7 @@
     <t xml:space="preserve">2.69263100624084</t>
   </si>
   <si>
-    <t xml:space="preserve">2.68411564826965</t>
+    <t xml:space="preserve">2.68411540985107</t>
   </si>
   <si>
     <t xml:space="preserve">2.76756858825684</t>
@@ -2531,25 +2531,25 @@
     <t xml:space="preserve">2.82547450065613</t>
   </si>
   <si>
-    <t xml:space="preserve">2.89019274711609</t>
+    <t xml:space="preserve">2.89019298553467</t>
   </si>
   <si>
     <t xml:space="preserve">2.87997436523438</t>
   </si>
   <si>
-    <t xml:space="preserve">2.86123967170715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.76586532592773</t>
+    <t xml:space="preserve">2.86123991012573</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.76586508750916</t>
   </si>
   <si>
     <t xml:space="preserve">2.81014633178711</t>
   </si>
   <si>
-    <t xml:space="preserve">2.7828962802887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.76245880126953</t>
+    <t xml:space="preserve">2.78289651870728</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.76245903968811</t>
   </si>
   <si>
     <t xml:space="preserve">2.85272431373596</t>
@@ -2558,34 +2558,34 @@
     <t xml:space="preserve">2.82377147674561</t>
   </si>
   <si>
-    <t xml:space="preserve">2.74542808532715</t>
+    <t xml:space="preserve">2.74542784690857</t>
   </si>
   <si>
     <t xml:space="preserve">2.7249903678894</t>
   </si>
   <si>
-    <t xml:space="preserve">2.72669363021851</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.71306848526001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.79311537742615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.69433450698853</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.74713087081909</t>
+    <t xml:space="preserve">2.72669339179993</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.71306872367859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.79311513900757</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.69433426856995</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.74713110923767</t>
   </si>
   <si>
     <t xml:space="preserve">2.73861575126648</t>
   </si>
   <si>
-    <t xml:space="preserve">2.78119349479675</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.76416206359863</t>
+    <t xml:space="preserve">2.78119325637817</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.76416230201721</t>
   </si>
   <si>
     <t xml:space="preserve">2.77949023246765</t>
@@ -2594,7 +2594,7 @@
     <t xml:space="preserve">2.79822444915771</t>
   </si>
   <si>
-    <t xml:space="preserve">2.81355237960815</t>
+    <t xml:space="preserve">2.81355261802673</t>
   </si>
   <si>
     <t xml:space="preserve">2.7352089881897</t>
@@ -2603,7 +2603,7 @@
     <t xml:space="preserve">2.72158432006836</t>
   </si>
   <si>
-    <t xml:space="preserve">2.70455312728882</t>
+    <t xml:space="preserve">2.7045533657074</t>
   </si>
   <si>
     <t xml:space="preserve">2.74372482299805</t>
@@ -2612,7 +2612,7 @@
     <t xml:space="preserve">2.72839665412903</t>
   </si>
   <si>
-    <t xml:space="preserve">2.64494395256042</t>
+    <t xml:space="preserve">2.64494371414185</t>
   </si>
   <si>
     <t xml:space="preserve">2.6534595489502</t>
@@ -2624,43 +2624,43 @@
     <t xml:space="preserve">2.60747528076172</t>
   </si>
   <si>
-    <t xml:space="preserve">2.61428785324097</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.5955536365509</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.56489753723145</t>
+    <t xml:space="preserve">2.61428761482239</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.59555339813232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.56489729881287</t>
   </si>
   <si>
     <t xml:space="preserve">2.51210045814514</t>
   </si>
   <si>
-    <t xml:space="preserve">2.53424096107483</t>
+    <t xml:space="preserve">2.53424119949341</t>
   </si>
   <si>
     <t xml:space="preserve">2.44738221168518</t>
   </si>
   <si>
-    <t xml:space="preserve">2.47292852401733</t>
+    <t xml:space="preserve">2.47292876243591</t>
   </si>
   <si>
     <t xml:space="preserve">2.50188183784485</t>
   </si>
   <si>
-    <t xml:space="preserve">2.55467844009399</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.48485064506531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.46441340446472</t>
+    <t xml:space="preserve">2.55467867851257</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.48485088348389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.46441316604614</t>
   </si>
   <si>
     <t xml:space="preserve">2.46611618995667</t>
   </si>
   <si>
-    <t xml:space="preserve">2.4013979434967</t>
+    <t xml:space="preserve">2.40139770507812</t>
   </si>
   <si>
     <t xml:space="preserve">2.37755441665649</t>
@@ -2669,10 +2669,10 @@
     <t xml:space="preserve">2.31794476509094</t>
   </si>
   <si>
-    <t xml:space="preserve">2.27877354621887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.29921078681946</t>
+    <t xml:space="preserve">2.27877330780029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.29921054840088</t>
   </si>
   <si>
     <t xml:space="preserve">2.31964802742004</t>
@@ -2693,10 +2693,10 @@
     <t xml:space="preserve">2.54616284370422</t>
   </si>
   <si>
-    <t xml:space="preserve">2.51550674438477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.54105377197266</t>
+    <t xml:space="preserve">2.51550698280334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.54105353355408</t>
   </si>
   <si>
     <t xml:space="preserve">2.58533453941345</t>
@@ -2708,19 +2708,19 @@
     <t xml:space="preserve">2.65686559677124</t>
   </si>
   <si>
-    <t xml:space="preserve">2.60236597061157</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.58874082565308</t>
+    <t xml:space="preserve">2.60236573219299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.58874106407166</t>
   </si>
   <si>
     <t xml:space="preserve">2.59725666046143</t>
   </si>
   <si>
-    <t xml:space="preserve">2.57341265678406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.56830358505249</t>
+    <t xml:space="preserve">2.57341289520264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.56830334663391</t>
   </si>
   <si>
     <t xml:space="preserve">2.61599063873291</t>
@@ -2729,7 +2729,7 @@
     <t xml:space="preserve">2.62961578369141</t>
   </si>
   <si>
-    <t xml:space="preserve">2.60577201843262</t>
+    <t xml:space="preserve">2.60577178001404</t>
   </si>
   <si>
     <t xml:space="preserve">2.56319427490234</t>
@@ -2756,13 +2756,13 @@
     <t xml:space="preserve">2.45249152183533</t>
   </si>
   <si>
-    <t xml:space="preserve">2.48314762115479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.45419454574585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.49336624145508</t>
+    <t xml:space="preserve">2.48314738273621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.45419430732727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.4933660030365</t>
   </si>
   <si>
     <t xml:space="preserve">2.54275679588318</t>
@@ -2774,19 +2774,19 @@
     <t xml:space="preserve">2.47633504867554</t>
   </si>
   <si>
-    <t xml:space="preserve">2.54445958137512</t>
+    <t xml:space="preserve">2.5444598197937</t>
   </si>
   <si>
     <t xml:space="preserve">2.55127215385437</t>
   </si>
   <si>
-    <t xml:space="preserve">2.53764748573303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.59895968437195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.53253817558289</t>
+    <t xml:space="preserve">2.53764724731445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.59895992279053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.53253769874573</t>
   </si>
   <si>
     <t xml:space="preserve">2.58363151550293</t>
@@ -2798,28 +2798,28 @@
     <t xml:space="preserve">2.6909282207489</t>
   </si>
   <si>
-    <t xml:space="preserve">2.63642835617065</t>
+    <t xml:space="preserve">2.63642859458923</t>
   </si>
   <si>
     <t xml:space="preserve">2.46952271461487</t>
   </si>
   <si>
-    <t xml:space="preserve">2.42353820800781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.4456787109375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.45589780807495</t>
+    <t xml:space="preserve">2.42353844642639</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.44567894935608</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.45589756965637</t>
   </si>
   <si>
     <t xml:space="preserve">2.41672611236572</t>
   </si>
   <si>
-    <t xml:space="preserve">2.56149077415466</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.58703804016113</t>
+    <t xml:space="preserve">2.56149101257324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.58703780174255</t>
   </si>
   <si>
     <t xml:space="preserve">2.64835000038147</t>
@@ -2831,16 +2831,16 @@
     <t xml:space="preserve">2.61769390106201</t>
   </si>
   <si>
-    <t xml:space="preserve">2.65005326271057</t>
+    <t xml:space="preserve">2.65005302429199</t>
   </si>
   <si>
     <t xml:space="preserve">2.68581867218018</t>
   </si>
   <si>
-    <t xml:space="preserve">2.6415376663208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.63131880760193</t>
+    <t xml:space="preserve">2.64153742790222</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.63131904602051</t>
   </si>
   <si>
     <t xml:space="preserve">2.61939692497253</t>
@@ -2858,7 +2858,7 @@
     <t xml:space="preserve">2.65856862068176</t>
   </si>
   <si>
-    <t xml:space="preserve">2.66538143157959</t>
+    <t xml:space="preserve">2.66538166999817</t>
   </si>
   <si>
     <t xml:space="preserve">2.70114684104919</t>
@@ -2867,25 +2867,25 @@
     <t xml:space="preserve">2.81695890426636</t>
   </si>
   <si>
-    <t xml:space="preserve">2.78204464912415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.83058381080627</t>
+    <t xml:space="preserve">2.78204488754272</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.8305835723877</t>
   </si>
   <si>
     <t xml:space="preserve">2.80929470062256</t>
   </si>
   <si>
-    <t xml:space="preserve">2.79652142524719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.81270098686218</t>
+    <t xml:space="preserve">2.79652118682861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.81270122528076</t>
   </si>
   <si>
     <t xml:space="preserve">2.8339900970459</t>
   </si>
   <si>
-    <t xml:space="preserve">2.87231016159058</t>
+    <t xml:space="preserve">2.872309923172</t>
   </si>
   <si>
     <t xml:space="preserve">2.86379456520081</t>
@@ -2900,52 +2900,52 @@
     <t xml:space="preserve">2.85868549346924</t>
   </si>
   <si>
-    <t xml:space="preserve">2.84846639633179</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.89785695075989</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.86549782752991</t>
+    <t xml:space="preserve">2.84846663475037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.89785718917847</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.86549806594849</t>
   </si>
   <si>
     <t xml:space="preserve">2.8697555065155</t>
   </si>
   <si>
-    <t xml:space="preserve">2.90126347541809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.94384145736694</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.87401366233826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.8757164478302</t>
+    <t xml:space="preserve">2.90126323699951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.94384121894836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.8740131855011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.87571668624878</t>
   </si>
   <si>
     <t xml:space="preserve">2.86720085144043</t>
   </si>
   <si>
-    <t xml:space="preserve">2.96938800811768</t>
+    <t xml:space="preserve">2.96938824653625</t>
   </si>
   <si>
     <t xml:space="preserve">2.93788027763367</t>
   </si>
   <si>
-    <t xml:space="preserve">2.92766165733337</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.9668333530426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.98556780815125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.99067711830139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.99493455886841</t>
+    <t xml:space="preserve">2.92766141891479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.96683311462402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.98556756973267</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.99067687988281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.99493479728699</t>
   </si>
   <si>
     <t xml:space="preserve">2.98982524871826</t>
@@ -2954,22 +2954,22 @@
     <t xml:space="preserve">2.97194266319275</t>
   </si>
   <si>
-    <t xml:space="preserve">2.96768450737</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.97279405593872</t>
+    <t xml:space="preserve">2.96768498420715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.9727942943573</t>
   </si>
   <si>
     <t xml:space="preserve">2.97023963928223</t>
   </si>
   <si>
-    <t xml:space="preserve">2.98130989074707</t>
+    <t xml:space="preserve">2.98130965232849</t>
   </si>
   <si>
     <t xml:space="preserve">3.00515365600586</t>
   </si>
   <si>
-    <t xml:space="preserve">3.04177045822144</t>
+    <t xml:space="preserve">3.04177069664001</t>
   </si>
   <si>
     <t xml:space="preserve">3.06902050971985</t>
@@ -2978,7 +2978,7 @@
     <t xml:space="preserve">3.08264541625977</t>
   </si>
   <si>
-    <t xml:space="preserve">3.13799643516541</t>
+    <t xml:space="preserve">3.13799667358398</t>
   </si>
   <si>
     <t xml:space="preserve">3.11670804023743</t>
@@ -2990,13 +2990,13 @@
     <t xml:space="preserve">3.15417647361755</t>
   </si>
   <si>
-    <t xml:space="preserve">3.13033270835876</t>
+    <t xml:space="preserve">3.13033294677734</t>
   </si>
   <si>
     <t xml:space="preserve">3.1592857837677</t>
   </si>
   <si>
-    <t xml:space="preserve">3.13373899459839</t>
+    <t xml:space="preserve">3.13373923301697</t>
   </si>
   <si>
     <t xml:space="preserve">3.1192626953125</t>
@@ -3029,13 +3029,13 @@
     <t xml:space="preserve">3.00259876251221</t>
   </si>
   <si>
-    <t xml:space="preserve">3.01754140853882</t>
+    <t xml:space="preserve">3.0175416469574</t>
   </si>
   <si>
     <t xml:space="preserve">3.0043568611145</t>
   </si>
   <si>
-    <t xml:space="preserve">3.0702805519104</t>
+    <t xml:space="preserve">3.07028031349182</t>
   </si>
   <si>
     <t xml:space="preserve">2.97271347045898</t>
@@ -3056,19 +3056,19 @@
     <t xml:space="preserve">3.00347805023193</t>
   </si>
   <si>
-    <t xml:space="preserve">3.03512120246887</t>
+    <t xml:space="preserve">3.03512096405029</t>
   </si>
   <si>
     <t xml:space="preserve">2.94810223579407</t>
   </si>
   <si>
-    <t xml:space="preserve">2.9568920135498</t>
+    <t xml:space="preserve">2.95689177513123</t>
   </si>
   <si>
     <t xml:space="preserve">3.05709552764893</t>
   </si>
   <si>
-    <t xml:space="preserve">3.11159253120422</t>
+    <t xml:space="preserve">3.11159229278564</t>
   </si>
   <si>
     <t xml:space="preserve">3.08873891830444</t>
@@ -3077,7 +3077,7 @@
     <t xml:space="preserve">3.10192370414734</t>
   </si>
   <si>
-    <t xml:space="preserve">3.1458728313446</t>
+    <t xml:space="preserve">3.14587259292603</t>
   </si>
   <si>
     <t xml:space="preserve">3.17839503288269</t>
@@ -3086,7 +3086,7 @@
     <t xml:space="preserve">3.15378355979919</t>
   </si>
   <si>
-    <t xml:space="preserve">3.15817832946777</t>
+    <t xml:space="preserve">3.15817856788635</t>
   </si>
   <si>
     <t xml:space="preserve">3.13532495498657</t>
@@ -3098,10 +3098,10 @@
     <t xml:space="preserve">3.11335039138794</t>
   </si>
   <si>
-    <t xml:space="preserve">3.13268804550171</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.15993642807007</t>
+    <t xml:space="preserve">3.13268780708313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.15993666648865</t>
   </si>
   <si>
     <t xml:space="preserve">3.14850974082947</t>
@@ -3116,13 +3116,13 @@
     <t xml:space="preserve">3.24783444404602</t>
   </si>
   <si>
-    <t xml:space="preserve">3.26277709007263</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.27420377731323</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.29881525039673</t>
+    <t xml:space="preserve">3.26277732849121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.27420401573181</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.29881548881531</t>
   </si>
   <si>
     <t xml:space="preserve">3.31551599502563</t>
@@ -3134,10 +3134,10 @@
     <t xml:space="preserve">3.30584716796875</t>
   </si>
   <si>
-    <t xml:space="preserve">3.28475165367126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.24607682228088</t>
+    <t xml:space="preserve">3.28475189208984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.2460765838623</t>
   </si>
   <si>
     <t xml:space="preserve">3.21707034111023</t>
@@ -3152,25 +3152,25 @@
     <t xml:space="preserve">3.21970725059509</t>
   </si>
   <si>
-    <t xml:space="preserve">3.25398707389832</t>
+    <t xml:space="preserve">3.25398731231689</t>
   </si>
   <si>
     <t xml:space="preserve">3.23904466629028</t>
   </si>
   <si>
-    <t xml:space="preserve">3.22586011886597</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.24168181419373</t>
+    <t xml:space="preserve">3.22585988044739</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.24168157577515</t>
   </si>
   <si>
     <t xml:space="preserve">3.19597458839417</t>
   </si>
   <si>
-    <t xml:space="preserve">3.14938855171204</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.18806409835815</t>
+    <t xml:space="preserve">3.14938879013062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.18806385993958</t>
   </si>
   <si>
     <t xml:space="preserve">3.21443343162537</t>
@@ -3179,43 +3179,43 @@
     <t xml:space="preserve">3.16345262527466</t>
   </si>
   <si>
-    <t xml:space="preserve">3.19861149787903</t>
+    <t xml:space="preserve">3.19861173629761</t>
   </si>
   <si>
     <t xml:space="preserve">3.15466260910034</t>
   </si>
   <si>
-    <t xml:space="preserve">3.20124864578247</t>
+    <t xml:space="preserve">3.20124840736389</t>
   </si>
   <si>
     <t xml:space="preserve">3.19773244857788</t>
   </si>
   <si>
-    <t xml:space="preserve">3.20740127563477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.13620376586914</t>
+    <t xml:space="preserve">3.20740151405334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.13620400428772</t>
   </si>
   <si>
     <t xml:space="preserve">3.08522295951843</t>
   </si>
   <si>
-    <t xml:space="preserve">3.12653517723083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.10807657241821</t>
+    <t xml:space="preserve">3.12653493881226</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.10807681083679</t>
   </si>
   <si>
     <t xml:space="preserve">3.10719776153564</t>
   </si>
   <si>
-    <t xml:space="preserve">3.10983443260193</t>
+    <t xml:space="preserve">3.10983467102051</t>
   </si>
   <si>
     <t xml:space="preserve">3.11598753929138</t>
   </si>
   <si>
-    <t xml:space="preserve">3.07115936279297</t>
+    <t xml:space="preserve">3.07115912437439</t>
   </si>
   <si>
     <t xml:space="preserve">3.09664988517761</t>
@@ -3230,7 +3230,7 @@
     <t xml:space="preserve">3.02017855644226</t>
   </si>
   <si>
-    <t xml:space="preserve">3.05533790588379</t>
+    <t xml:space="preserve">3.05533766746521</t>
   </si>
   <si>
     <t xml:space="preserve">3.08610200881958</t>
@@ -3242,16 +3242,16 @@
     <t xml:space="preserve">3.03336310386658</t>
   </si>
   <si>
-    <t xml:space="preserve">3.05357956886292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.11422920227051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.14675188064575</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.16257357597351</t>
+    <t xml:space="preserve">3.05357980728149</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.11422967910767</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.14675164222717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.16257333755493</t>
   </si>
   <si>
     <t xml:space="preserve">3.13005113601685</t>
@@ -3260,19 +3260,19 @@
     <t xml:space="preserve">3.16608929634094</t>
   </si>
   <si>
-    <t xml:space="preserve">3.10895538330078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.12477707862854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.1063187122345</t>
+    <t xml:space="preserve">3.10895562171936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.12477731704712</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.10631847381592</t>
   </si>
   <si>
     <t xml:space="preserve">3.14763069152832</t>
   </si>
   <si>
-    <t xml:space="preserve">3.22849702835083</t>
+    <t xml:space="preserve">3.22849726676941</t>
   </si>
   <si>
     <t xml:space="preserve">3.20828056335449</t>
@@ -3281,16 +3281,16 @@
     <t xml:space="preserve">3.1704843044281</t>
   </si>
   <si>
-    <t xml:space="preserve">3.1291720867157</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.17136311531067</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.183669090271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.18718457221985</t>
+    <t xml:space="preserve">3.12917232513428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.17136335372925</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.18366885185242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.18718481063843</t>
   </si>
   <si>
     <t xml:space="preserve">3.14499378204346</t>
@@ -3299,34 +3299,34 @@
     <t xml:space="preserve">3.14235687255859</t>
   </si>
   <si>
-    <t xml:space="preserve">3.11247158050537</t>
+    <t xml:space="preserve">3.11247134208679</t>
   </si>
   <si>
     <t xml:space="preserve">2.96216559410095</t>
   </si>
   <si>
-    <t xml:space="preserve">2.97710871696472</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.9929301738739</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.06764364242554</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.99732494354248</t>
+    <t xml:space="preserve">2.97710847854614</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.99292993545532</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.06764340400696</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.99732518196106</t>
   </si>
   <si>
     <t xml:space="preserve">3.13796186447144</t>
   </si>
   <si>
-    <t xml:space="preserve">3.0931339263916</t>
+    <t xml:space="preserve">3.09313416481018</t>
   </si>
   <si>
     <t xml:space="preserve">3.12038207054138</t>
   </si>
   <si>
-    <t xml:space="preserve">3.08961796760559</t>
+    <t xml:space="preserve">3.08961820602417</t>
   </si>
   <si>
     <t xml:space="preserve">3.11510825157166</t>
@@ -3338,10 +3338,10 @@
     <t xml:space="preserve">3.1590576171875</t>
   </si>
   <si>
-    <t xml:space="preserve">3.16433119773865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.17487907409668</t>
+    <t xml:space="preserve">3.16433143615723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.17487931251526</t>
   </si>
   <si>
     <t xml:space="preserve">3.23289179801941</t>
@@ -3353,7 +3353,7 @@
     <t xml:space="preserve">3.25750350952148</t>
   </si>
   <si>
-    <t xml:space="preserve">3.2276177406311</t>
+    <t xml:space="preserve">3.22761797904968</t>
   </si>
   <si>
     <t xml:space="preserve">3.20212745666504</t>
@@ -3365,16 +3365,16 @@
     <t xml:space="preserve">3.12565612792969</t>
   </si>
   <si>
-    <t xml:space="preserve">3.10543966293335</t>
+    <t xml:space="preserve">3.10543942451477</t>
   </si>
   <si>
     <t xml:space="preserve">3.081707239151</t>
   </si>
   <si>
-    <t xml:space="preserve">3.09225487709045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.05885362625122</t>
+    <t xml:space="preserve">3.09225463867188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.0588538646698</t>
   </si>
   <si>
     <t xml:space="preserve">3.01666259765625</t>
@@ -3386,13 +3386,13 @@
     <t xml:space="preserve">3.08434414863586</t>
   </si>
   <si>
-    <t xml:space="preserve">3.19070100784302</t>
+    <t xml:space="preserve">3.19070076942444</t>
   </si>
   <si>
     <t xml:space="preserve">3.2654139995575</t>
   </si>
   <si>
-    <t xml:space="preserve">3.25047159194946</t>
+    <t xml:space="preserve">3.25047135353088</t>
   </si>
   <si>
     <t xml:space="preserve">3.18454790115356</t>
@@ -3407,19 +3407,19 @@
     <t xml:space="preserve">3.0272102355957</t>
   </si>
   <si>
-    <t xml:space="preserve">3.04742670059204</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.0342423915863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.96656060218811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.9946882724762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.97974538803101</t>
+    <t xml:space="preserve">3.04742693901062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.03424215316772</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.96656084060669</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.99468803405762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.97974514961243</t>
   </si>
   <si>
     <t xml:space="preserve">2.94898104667664</t>
@@ -3428,19 +3428,19 @@
     <t xml:space="preserve">2.94370722770691</t>
   </si>
   <si>
-    <t xml:space="preserve">2.90151619911194</t>
+    <t xml:space="preserve">2.90151596069336</t>
   </si>
   <si>
     <t xml:space="preserve">2.91294264793396</t>
   </si>
   <si>
-    <t xml:space="preserve">2.92964339256287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.84262418746948</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.0456690788269</t>
+    <t xml:space="preserve">2.92964315414429</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.84262442588806</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.04566884040833</t>
   </si>
   <si>
     <t xml:space="preserve">2.93755435943604</t>
@@ -3449,7 +3449,7 @@
     <t xml:space="preserve">2.89360523223877</t>
   </si>
   <si>
-    <t xml:space="preserve">2.86547803878784</t>
+    <t xml:space="preserve">2.86547780036926</t>
   </si>
   <si>
     <t xml:space="preserve">2.79955410957336</t>
@@ -3458,13 +3458,13 @@
     <t xml:space="preserve">2.81273913383484</t>
   </si>
   <si>
-    <t xml:space="preserve">2.87778329849243</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.98414015769958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.97007656097412</t>
+    <t xml:space="preserve">2.87778353691101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.98414039611816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.97007632255554</t>
   </si>
   <si>
     <t xml:space="preserve">2.96304488182068</t>
@@ -3473,7 +3473,7 @@
     <t xml:space="preserve">2.95777082443237</t>
   </si>
   <si>
-    <t xml:space="preserve">2.92436933517456</t>
+    <t xml:space="preserve">2.92436957359314</t>
   </si>
   <si>
     <t xml:space="preserve">2.96040773391724</t>
@@ -3482,13 +3482,13 @@
     <t xml:space="preserve">2.99908304214478</t>
   </si>
   <si>
-    <t xml:space="preserve">2.89184737205505</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.85932517051697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.91909575462341</t>
+    <t xml:space="preserve">2.89184713363647</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.85932493209839</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.91909599304199</t>
   </si>
   <si>
     <t xml:space="preserve">2.93228054046631</t>
@@ -3497,10 +3497,10 @@
     <t xml:space="preserve">2.95952892303467</t>
   </si>
   <si>
-    <t xml:space="preserve">2.94107031822205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.9832615852356</t>
+    <t xml:space="preserve">2.94107007980347</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.98326134681702</t>
   </si>
   <si>
     <t xml:space="preserve">3.0157835483551</t>
@@ -3512,10 +3512,10 @@
     <t xml:space="preserve">3.16081523895264</t>
   </si>
   <si>
-    <t xml:space="preserve">3.11686658859253</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.15729975700378</t>
+    <t xml:space="preserve">3.11686635017395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.15729951858521</t>
   </si>
   <si>
     <t xml:space="preserve">3.17224216461182</t>
@@ -3530,7 +3530,7 @@
     <t xml:space="preserve">3.08346509933472</t>
   </si>
   <si>
-    <t xml:space="preserve">3.09489178657532</t>
+    <t xml:space="preserve">3.0948920249939</t>
   </si>
   <si>
     <t xml:space="preserve">3.06236958503723</t>
@@ -3539,13 +3539,13 @@
     <t xml:space="preserve">3.09752869606018</t>
   </si>
   <si>
-    <t xml:space="preserve">3.17751598358154</t>
+    <t xml:space="preserve">3.17751622200012</t>
   </si>
   <si>
     <t xml:space="preserve">2.94722294807434</t>
   </si>
   <si>
-    <t xml:space="preserve">2.97183465957642</t>
+    <t xml:space="preserve">2.97183442115784</t>
   </si>
   <si>
     <t xml:space="preserve">3.03863716125488</t>
@@ -3566,7 +3566,7 @@
     <t xml:space="preserve">2.99820399284363</t>
   </si>
   <si>
-    <t xml:space="preserve">2.97359228134155</t>
+    <t xml:space="preserve">2.97359251976013</t>
   </si>
   <si>
     <t xml:space="preserve">2.93315935134888</t>
@@ -3590,16 +3590,16 @@
     <t xml:space="preserve">2.50685358047485</t>
   </si>
   <si>
-    <t xml:space="preserve">2.44444608688354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.54992389678955</t>
+    <t xml:space="preserve">2.44444584846497</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.54992365837097</t>
   </si>
   <si>
     <t xml:space="preserve">2.47784733772278</t>
   </si>
   <si>
-    <t xml:space="preserve">2.50773239135742</t>
+    <t xml:space="preserve">2.507732629776</t>
   </si>
   <si>
     <t xml:space="preserve">2.47102975845337</t>
@@ -3626,19 +3626,19 @@
     <t xml:space="preserve">2.56829261779785</t>
   </si>
   <si>
-    <t xml:space="preserve">2.53250694274902</t>
+    <t xml:space="preserve">2.5325071811676</t>
   </si>
   <si>
     <t xml:space="preserve">2.58022117614746</t>
   </si>
   <si>
-    <t xml:space="preserve">2.57746839523315</t>
+    <t xml:space="preserve">2.57746815681458</t>
   </si>
   <si>
     <t xml:space="preserve">2.50314474105835</t>
   </si>
   <si>
-    <t xml:space="preserve">2.54902338981628</t>
+    <t xml:space="preserve">2.54902362823486</t>
   </si>
   <si>
     <t xml:space="preserve">2.58389115333557</t>
@@ -3650,7 +3650,7 @@
     <t xml:space="preserve">2.55085849761963</t>
   </si>
   <si>
-    <t xml:space="preserve">2.46368908882141</t>
+    <t xml:space="preserve">2.46368885040283</t>
   </si>
   <si>
     <t xml:space="preserve">2.39028286933899</t>
@@ -3683,10 +3683,10 @@
     <t xml:space="preserve">2.52057862281799</t>
   </si>
   <si>
-    <t xml:space="preserve">2.53801274299622</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.60316038131714</t>
+    <t xml:space="preserve">2.53801250457764</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.60316014289856</t>
   </si>
   <si>
     <t xml:space="preserve">2.59857249259949</t>
@@ -3701,10 +3701,10 @@
     <t xml:space="preserve">2.53067183494568</t>
   </si>
   <si>
-    <t xml:space="preserve">2.53434228897095</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.56095170974731</t>
+    <t xml:space="preserve">2.53434252738953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.56095194816589</t>
   </si>
   <si>
     <t xml:space="preserve">2.56737494468689</t>
@@ -3722,13 +3722,13 @@
     <t xml:space="preserve">2.51323819160461</t>
   </si>
   <si>
-    <t xml:space="preserve">2.49396896362305</t>
+    <t xml:space="preserve">2.49396872520447</t>
   </si>
   <si>
     <t xml:space="preserve">2.45726585388184</t>
   </si>
   <si>
-    <t xml:space="preserve">2.38202452659607</t>
+    <t xml:space="preserve">2.38202476501465</t>
   </si>
   <si>
     <t xml:space="preserve">2.44074964523315</t>
@@ -3737,7 +3737,7 @@
     <t xml:space="preserve">2.29393768310547</t>
   </si>
   <si>
-    <t xml:space="preserve">2.29485511779785</t>
+    <t xml:space="preserve">2.29485487937927</t>
   </si>
   <si>
     <t xml:space="preserve">2.32697033882141</t>
@@ -3746,10 +3746,10 @@
     <t xml:space="preserve">2.26641035079956</t>
   </si>
   <si>
-    <t xml:space="preserve">2.14987802505493</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.20768523216248</t>
+    <t xml:space="preserve">2.14987826347351</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.20768547058105</t>
   </si>
   <si>
     <t xml:space="preserve">2.19483947753906</t>
@@ -3767,7 +3767,7 @@
     <t xml:space="preserve">2.22970747947693</t>
   </si>
   <si>
-    <t xml:space="preserve">2.22695469856262</t>
+    <t xml:space="preserve">2.22695446014404</t>
   </si>
   <si>
     <t xml:space="preserve">2.19850969314575</t>
@@ -3785,31 +3785,31 @@
     <t xml:space="preserve">2.11868071556091</t>
   </si>
   <si>
-    <t xml:space="preserve">2.05169773101807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.05812072753906</t>
+    <t xml:space="preserve">2.05169796943665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.05812096595764</t>
   </si>
   <si>
     <t xml:space="preserve">1.94892942905426</t>
   </si>
   <si>
-    <t xml:space="preserve">1.9975608587265</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.98746752738953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.00581908226013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.0168297290802</t>
+    <t xml:space="preserve">1.99756073951721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.98746728897095</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.00581932067871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.01682996749878</t>
   </si>
   <si>
     <t xml:space="preserve">2.07647228240967</t>
   </si>
   <si>
-    <t xml:space="preserve">1.97095108032227</t>
+    <t xml:space="preserve">1.97095119953156</t>
   </si>
   <si>
     <t xml:space="preserve">1.90855598449707</t>
@@ -3821,16 +3821,16 @@
     <t xml:space="preserve">1.93975365161896</t>
   </si>
   <si>
-    <t xml:space="preserve">1.87185311317444</t>
+    <t xml:space="preserve">1.87185299396515</t>
   </si>
   <si>
     <t xml:space="preserve">1.83882033824921</t>
   </si>
   <si>
-    <t xml:space="preserve">1.86726534366608</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89846277236938</t>
+    <t xml:space="preserve">1.86726522445679</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8984626531601</t>
   </si>
   <si>
     <t xml:space="preserve">1.9480117559433</t>
@@ -3848,7 +3848,7 @@
     <t xml:space="preserve">1.92048454284668</t>
   </si>
   <si>
-    <t xml:space="preserve">1.98379719257355</t>
+    <t xml:space="preserve">1.98379731178284</t>
   </si>
   <si>
     <t xml:space="preserve">2.07280206680298</t>
@@ -3863,10 +3863,10 @@
     <t xml:space="preserve">2.21319103240967</t>
   </si>
   <si>
-    <t xml:space="preserve">2.22420167922974</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.22236680984497</t>
+    <t xml:space="preserve">2.22420191764832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.22236657142639</t>
   </si>
   <si>
     <t xml:space="preserve">2.21135592460632</t>
@@ -3881,13 +3881,13 @@
     <t xml:space="preserve">2.31595921516418</t>
   </si>
   <si>
-    <t xml:space="preserve">2.364590883255</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.39395332336426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.36550831794739</t>
+    <t xml:space="preserve">2.36459064483643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.39395308494568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.36550855636597</t>
   </si>
   <si>
     <t xml:space="preserve">2.38477754592896</t>
@@ -3914,10 +3914,10 @@
     <t xml:space="preserve">2.43249130249023</t>
   </si>
   <si>
-    <t xml:space="preserve">2.43799710273743</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.41872763633728</t>
+    <t xml:space="preserve">2.43799686431885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.41872787475586</t>
   </si>
   <si>
     <t xml:space="preserve">2.43065619468689</t>
@@ -3929,16 +3929,16 @@
     <t xml:space="preserve">2.46001863479614</t>
   </si>
   <si>
-    <t xml:space="preserve">2.46827697753906</t>
+    <t xml:space="preserve">2.46827673912048</t>
   </si>
   <si>
     <t xml:space="preserve">2.46460676193237</t>
   </si>
   <si>
-    <t xml:space="preserve">2.52333116531372</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.5728805065155</t>
+    <t xml:space="preserve">2.5233314037323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.57288026809692</t>
   </si>
   <si>
     <t xml:space="preserve">2.59673738479614</t>
@@ -3959,7 +3959,7 @@
     <t xml:space="preserve">2.3462393283844</t>
   </si>
   <si>
-    <t xml:space="preserve">2.32513499259949</t>
+    <t xml:space="preserve">2.32513523101807</t>
   </si>
   <si>
     <t xml:space="preserve">2.34165143966675</t>
@@ -3968,7 +3968,7 @@
     <t xml:space="preserve">2.33889889717102</t>
   </si>
   <si>
-    <t xml:space="preserve">2.28476190567017</t>
+    <t xml:space="preserve">2.28476166725159</t>
   </si>
   <si>
     <t xml:space="preserve">2.33614611625671</t>
@@ -3983,7 +3983,7 @@
     <t xml:space="preserve">2.37468409538269</t>
   </si>
   <si>
-    <t xml:space="preserve">2.42239832878113</t>
+    <t xml:space="preserve">2.42239809036255</t>
   </si>
   <si>
     <t xml:space="preserve">2.40955185890198</t>
@@ -3995,25 +3995,25 @@
     <t xml:space="preserve">2.54260039329529</t>
   </si>
   <si>
-    <t xml:space="preserve">2.514155626297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.51966118812561</t>
+    <t xml:space="preserve">2.51415538787842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.51966094970703</t>
   </si>
   <si>
     <t xml:space="preserve">2.49672174453735</t>
   </si>
   <si>
-    <t xml:space="preserve">2.43524408340454</t>
+    <t xml:space="preserve">2.43524432182312</t>
   </si>
   <si>
     <t xml:space="preserve">2.47745251655579</t>
   </si>
   <si>
-    <t xml:space="preserve">2.50406241416931</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.49121594429016</t>
+    <t xml:space="preserve">2.50406217575073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.49121618270874</t>
   </si>
   <si>
     <t xml:space="preserve">2.48571085929871</t>
@@ -4028,7 +4028,7 @@
     <t xml:space="preserve">2.43157386779785</t>
   </si>
   <si>
-    <t xml:space="preserve">2.50039172172546</t>
+    <t xml:space="preserve">2.50039196014404</t>
   </si>
   <si>
     <t xml:space="preserve">2.45910120010376</t>
@@ -4046,16 +4046,16 @@
     <t xml:space="preserve">2.38569498062134</t>
   </si>
   <si>
-    <t xml:space="preserve">2.38018989562988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.35082721710205</t>
+    <t xml:space="preserve">2.3801896572113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.35082745552063</t>
   </si>
   <si>
     <t xml:space="preserve">2.31779456138611</t>
   </si>
   <si>
-    <t xml:space="preserve">2.30953621864319</t>
+    <t xml:space="preserve">2.30953645706177</t>
   </si>
   <si>
     <t xml:space="preserve">2.30494856834412</t>
@@ -4088,7 +4088,7 @@
     <t xml:space="preserve">2.21686100959778</t>
   </si>
   <si>
-    <t xml:space="preserve">2.20676803588867</t>
+    <t xml:space="preserve">2.20676779747009</t>
   </si>
   <si>
     <t xml:space="preserve">2.19575691223145</t>
@@ -4106,7 +4106,7 @@
     <t xml:space="preserve">2.28567934036255</t>
   </si>
   <si>
-    <t xml:space="preserve">2.29669046401978</t>
+    <t xml:space="preserve">2.2966902256012</t>
   </si>
   <si>
     <t xml:space="preserve">2.32605266571045</t>
@@ -4121,10 +4121,10 @@
     <t xml:space="preserve">2.4921338558197</t>
   </si>
   <si>
-    <t xml:space="preserve">2.51232051849365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.40588188171387</t>
+    <t xml:space="preserve">2.51232028007507</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.40588164329529</t>
   </si>
   <si>
     <t xml:space="preserve">2.48479318618774</t>
@@ -4133,19 +4133,19 @@
     <t xml:space="preserve">2.47928762435913</t>
   </si>
   <si>
-    <t xml:space="preserve">2.56186962127686</t>
+    <t xml:space="preserve">2.56186938285828</t>
   </si>
   <si>
     <t xml:space="preserve">2.59123182296753</t>
   </si>
   <si>
-    <t xml:space="preserve">2.53617739677429</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.58939695358276</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.62609958648682</t>
+    <t xml:space="preserve">2.53617715835571</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.58939671516418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.6260998249054</t>
   </si>
   <si>
     <t xml:space="preserve">2.61692404747009</t>
@@ -4154,10 +4154,10 @@
     <t xml:space="preserve">2.63527536392212</t>
   </si>
   <si>
-    <t xml:space="preserve">2.72152781486511</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.74905467033386</t>
+    <t xml:space="preserve">2.72152757644653</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.74905490875244</t>
   </si>
   <si>
     <t xml:space="preserve">2.77658200263977</t>
@@ -4178,10 +4178,10 @@
     <t xml:space="preserve">2.73070335388184</t>
   </si>
   <si>
-    <t xml:space="preserve">2.71969246864319</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.64445114135742</t>
+    <t xml:space="preserve">2.71969223022461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.644451379776</t>
   </si>
   <si>
     <t xml:space="preserve">2.62242960929871</t>
@@ -4190,10 +4190,10 @@
     <t xml:space="preserve">2.67564868927002</t>
   </si>
   <si>
-    <t xml:space="preserve">2.67748403549194</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.70684623718262</t>
+    <t xml:space="preserve">2.67748379707336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.7068464756012</t>
   </si>
   <si>
     <t xml:space="preserve">2.68298935890198</t>
@@ -4211,7 +4211,7 @@
     <t xml:space="preserve">2.63894581794739</t>
   </si>
   <si>
-    <t xml:space="preserve">2.64812135696411</t>
+    <t xml:space="preserve">2.64812159538269</t>
   </si>
   <si>
     <t xml:space="preserve">2.65913248062134</t>
@@ -4223,7 +4223,7 @@
     <t xml:space="preserve">2.62426447868347</t>
   </si>
   <si>
-    <t xml:space="preserve">2.66463780403137</t>
+    <t xml:space="preserve">2.66463804244995</t>
   </si>
   <si>
     <t xml:space="preserve">2.61190128326416</t>
@@ -4923,6 +4923,9 @@
   </si>
   <si>
     <t xml:space="preserve">3.38000011444092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.29399991035461</t>
   </si>
 </sst>
 </file>
@@ -62074,7 +62077,7 @@
     </row>
     <row r="2186">
       <c r="A2186" s="1" t="n">
-        <v>45505.6507291667</v>
+        <v>45505.2916666667</v>
       </c>
       <c r="B2186" t="n">
         <v>2947160</v>
@@ -62095,6 +62098,32 @@
         <v>1625</v>
       </c>
       <c r="H2186" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2187">
+      <c r="A2187" s="1" t="n">
+        <v>45506.6496064815</v>
+      </c>
+      <c r="B2187" t="n">
+        <v>2517892</v>
+      </c>
+      <c r="C2187" t="n">
+        <v>3.32800006866455</v>
+      </c>
+      <c r="D2187" t="n">
+        <v>3.21600008010864</v>
+      </c>
+      <c r="E2187" t="n">
+        <v>3.24799990653992</v>
+      </c>
+      <c r="F2187" t="n">
+        <v>3.29399991035461</v>
+      </c>
+      <c r="G2187" t="s">
+        <v>1637</v>
+      </c>
+      <c r="H2187" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/HER.MI.xlsx
+++ b/data/HER.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1645" uniqueCount="1645">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1646" uniqueCount="1646">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,79 +38,79 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">1.77115499973297</t>
+    <t xml:space="preserve">1.77115511894226</t>
   </si>
   <si>
     <t xml:space="preserve">HER.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">1.77260422706604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7697057723999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.77405381202698</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75086343288422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78999698162079</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85811805725098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86101734638214</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83637750148773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8117378950119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76680684089661</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83927643299103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8146368265152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83202970027924</t>
+    <t xml:space="preserve">1.77260446548462</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76970553398132</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7740535736084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75086355209351</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78999722003937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85811853408813</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86101722717285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83637738227844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81173801422119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7668069601059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83927631378174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81463694572449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83202958106995</t>
   </si>
   <si>
     <t xml:space="preserve">1.87261247634888</t>
   </si>
   <si>
-    <t xml:space="preserve">1.8566689491272</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87116301059723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90304958820343</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88420736789703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86971354484558</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91754341125488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92479038238525</t>
+    <t xml:space="preserve">1.85666906833649</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87116289138794</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90304946899414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88420724868774</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86971342563629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9175431728363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92479002475739</t>
   </si>
   <si>
     <t xml:space="preserve">1.90884721279144</t>
   </si>
   <si>
-    <t xml:space="preserve">1.8914543390274</t>
+    <t xml:space="preserve">1.89145445823669</t>
   </si>
   <si>
     <t xml:space="preserve">1.89725196361542</t>
@@ -122,124 +122,124 @@
     <t xml:space="preserve">1.80594038963318</t>
   </si>
   <si>
-    <t xml:space="preserve">1.82478260993958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76245844364166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82043421268463</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86246681213379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84942209720612</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84217512607574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8653656244278</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86826395988464</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88855528831482</t>
+    <t xml:space="preserve">1.82478249073029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76245868206024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82043445110321</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8624666929245</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84942233562469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84217524528503</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86536514759064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86826419830322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88855588436127</t>
   </si>
   <si>
     <t xml:space="preserve">1.89870119094849</t>
   </si>
   <si>
-    <t xml:space="preserve">1.85521948337555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83057999610901</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81028854846954</t>
+    <t xml:space="preserve">1.85521972179413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83058035373688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81028842926025</t>
   </si>
   <si>
     <t xml:space="preserve">1.80449116230011</t>
   </si>
   <si>
-    <t xml:space="preserve">1.79434549808502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8088390827179</t>
+    <t xml:space="preserve">1.79434525966644</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80883932113647</t>
   </si>
   <si>
     <t xml:space="preserve">1.79724419116974</t>
   </si>
   <si>
-    <t xml:space="preserve">1.82913064956665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84507393836975</t>
+    <t xml:space="preserve">1.82913041114807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84507381916046</t>
   </si>
   <si>
     <t xml:space="preserve">1.82623171806335</t>
   </si>
   <si>
-    <t xml:space="preserve">1.84072542190552</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86391615867615</t>
+    <t xml:space="preserve">1.84072589874268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86391603946686</t>
   </si>
   <si>
     <t xml:space="preserve">1.90594840049744</t>
   </si>
   <si>
-    <t xml:space="preserve">1.87840974330902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92623960971832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91174578666687</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83347856998444</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84797239303589</t>
+    <t xml:space="preserve">1.8784099817276</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9262398481369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91174590587616</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83347868919373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84797275066376</t>
   </si>
   <si>
     <t xml:space="preserve">1.85377025604248</t>
   </si>
   <si>
-    <t xml:space="preserve">1.84362435340881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84652328491211</t>
+    <t xml:space="preserve">1.84362411499023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84652316570282</t>
   </si>
   <si>
     <t xml:space="preserve">1.8755110502243</t>
   </si>
   <si>
-    <t xml:space="preserve">1.87696051597595</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8595677614212</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85087156295776</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8218834400177</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81318747997284</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89435362815857</t>
+    <t xml:space="preserve">1.87696027755737</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85956788063049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8508712053299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82188355922699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81318736076355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89435338973999</t>
   </si>
   <si>
     <t xml:space="preserve">1.91464471817017</t>
   </si>
   <si>
-    <t xml:space="preserve">1.90015077590942</t>
+    <t xml:space="preserve">1.90015089511871</t>
   </si>
   <si>
     <t xml:space="preserve">1.91319525241852</t>
@@ -248,43 +248,43 @@
     <t xml:space="preserve">1.89000499248505</t>
   </si>
   <si>
-    <t xml:space="preserve">1.90159976482391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89290404319763</t>
+    <t xml:space="preserve">1.90160048007965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89290368556976</t>
   </si>
   <si>
     <t xml:space="preserve">1.88130855560303</t>
   </si>
   <si>
-    <t xml:space="preserve">1.82768130302429</t>
+    <t xml:space="preserve">1.82768142223358</t>
   </si>
   <si>
     <t xml:space="preserve">1.79579448699951</t>
   </si>
   <si>
-    <t xml:space="preserve">1.80738961696625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.77550315856934</t>
+    <t xml:space="preserve">1.80738985538483</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77550303936005</t>
   </si>
   <si>
     <t xml:space="preserve">1.82295858860016</t>
   </si>
   <si>
-    <t xml:space="preserve">1.8394900560379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8049248456955</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82446157932281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7673534154892</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73579335212708</t>
+    <t xml:space="preserve">1.83949029445648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80492496490479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8244616985321</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76735317707062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73579347133636</t>
   </si>
   <si>
     <t xml:space="preserve">1.77336454391479</t>
@@ -293,55 +293,55 @@
     <t xml:space="preserve">1.80342173576355</t>
   </si>
   <si>
-    <t xml:space="preserve">1.84700465202332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90260982513428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87555849552155</t>
+    <t xml:space="preserve">1.84700429439545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90260970592499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87555873394012</t>
   </si>
   <si>
     <t xml:space="preserve">1.87856435775757</t>
   </si>
   <si>
-    <t xml:space="preserve">1.85151290893555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84550178050995</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7913990020752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82596445083618</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81093645095825</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83648443222046</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83197569847107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82746744155884</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83498167991638</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84099292755127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85001003742218</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90561592578888</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92665565013885</t>
+    <t xml:space="preserve">1.85151302814484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84550166130066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79139912128448</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82596457004547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81093633174896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83648467063904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83197605609894</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82746720314026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83498156070709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84099316596985</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85001015663147</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90561556816101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92665541172028</t>
   </si>
   <si>
     <t xml:space="preserve">1.91914129257202</t>
@@ -350,64 +350,64 @@
     <t xml:space="preserve">1.90411269664764</t>
   </si>
   <si>
-    <t xml:space="preserve">1.93567264080048</t>
+    <t xml:space="preserve">1.93567276000977</t>
   </si>
   <si>
     <t xml:space="preserve">1.89960443973541</t>
   </si>
   <si>
-    <t xml:space="preserve">1.91312992572784</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86353611946106</t>
+    <t xml:space="preserve">1.91313016414642</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8635356426239</t>
   </si>
   <si>
     <t xml:space="preserve">1.88758170604706</t>
   </si>
   <si>
-    <t xml:space="preserve">1.88006734848022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81394171714783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80943322181702</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83347868919373</t>
+    <t xml:space="preserve">1.88006746768951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81394195556641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80943298339844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8334789276123</t>
   </si>
   <si>
     <t xml:space="preserve">1.84249603748322</t>
   </si>
   <si>
-    <t xml:space="preserve">1.85752415657043</t>
+    <t xml:space="preserve">1.85752391815186</t>
   </si>
   <si>
     <t xml:space="preserve">1.86654138565063</t>
   </si>
   <si>
-    <t xml:space="preserve">1.85301613807678</t>
+    <t xml:space="preserve">1.85301601886749</t>
   </si>
   <si>
     <t xml:space="preserve">1.85602152347565</t>
   </si>
   <si>
-    <t xml:space="preserve">1.88307285308838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82145595550537</t>
+    <t xml:space="preserve">1.88307273387909</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82145571708679</t>
   </si>
   <si>
     <t xml:space="preserve">1.80041611194611</t>
   </si>
   <si>
-    <t xml:space="preserve">1.77035927772522</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8019186258316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81995332241058</t>
+    <t xml:space="preserve">1.77035915851593</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80191898345947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81995284557343</t>
   </si>
   <si>
     <t xml:space="preserve">1.77486753463745</t>
@@ -416,10 +416,10 @@
     <t xml:space="preserve">1.77186191082001</t>
   </si>
   <si>
-    <t xml:space="preserve">1.76585030555725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75533044338226</t>
+    <t xml:space="preserve">1.76585042476654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75533056259155</t>
   </si>
   <si>
     <t xml:space="preserve">1.78087890148163</t>
@@ -428,25 +428,25 @@
     <t xml:space="preserve">1.75983905792236</t>
   </si>
   <si>
-    <t xml:space="preserve">1.69221067428589</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.66515958309174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65163362026215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.63810813426971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.66065084934235</t>
+    <t xml:space="preserve">1.69221079349518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.66515946388245</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65163373947144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.63810801506042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.66065096855164</t>
   </si>
   <si>
     <t xml:space="preserve">1.66966795921326</t>
   </si>
   <si>
-    <t xml:space="preserve">1.67417633533478</t>
+    <t xml:space="preserve">1.67417657375336</t>
   </si>
   <si>
     <t xml:space="preserve">1.68169069290161</t>
@@ -455,76 +455,76 @@
     <t xml:space="preserve">1.69371342658997</t>
   </si>
   <si>
-    <t xml:space="preserve">1.67868483066559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69972515106201</t>
+    <t xml:space="preserve">1.67868506908417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69972491264343</t>
   </si>
   <si>
     <t xml:space="preserve">1.69822216033936</t>
   </si>
   <si>
-    <t xml:space="preserve">1.71174788475037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.68319356441498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.67567956447601</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6771821975708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.68619930744171</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.72377049922943</t>
+    <t xml:space="preserve">1.71174800395966</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.68319368362427</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.67567932605743</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.67718231678009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.68619918823242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.72377061843872</t>
   </si>
   <si>
     <t xml:space="preserve">1.73128473758698</t>
   </si>
   <si>
-    <t xml:space="preserve">1.75082170963287</t>
+    <t xml:space="preserve">1.75082206726074</t>
   </si>
   <si>
     <t xml:space="preserve">1.6531366109848</t>
   </si>
   <si>
-    <t xml:space="preserve">1.6245824098587</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.62157666683197</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60053682327271</t>
+    <t xml:space="preserve">1.62458264827728</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.62157678604126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60053694248199</t>
   </si>
   <si>
     <t xml:space="preserve">1.5148743391037</t>
   </si>
   <si>
-    <t xml:space="preserve">1.51788020133972</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.49984574317932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.49909436702728</t>
+    <t xml:space="preserve">1.51787996292114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.49984586238861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.49909424781799</t>
   </si>
   <si>
     <t xml:space="preserve">1.50435435771942</t>
   </si>
   <si>
-    <t xml:space="preserve">1.48331439495087</t>
+    <t xml:space="preserve">1.48331451416016</t>
   </si>
   <si>
     <t xml:space="preserve">1.47504878044128</t>
   </si>
   <si>
-    <t xml:space="preserve">1.44799733161926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.4464944601059</t>
+    <t xml:space="preserve">1.44799745082855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.44649457931519</t>
   </si>
   <si>
     <t xml:space="preserve">1.46152317523956</t>
@@ -533,28 +533,28 @@
     <t xml:space="preserve">1.46528017520905</t>
   </si>
   <si>
-    <t xml:space="preserve">1.45025157928467</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.45400881767273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.45776605606079</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.46903717517853</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.43296885490417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.4096747636795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.42846035957336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.49233150482178</t>
+    <t xml:space="preserve">1.45025169849396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.45400869846344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.4577659368515</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.46903729438782</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.43296873569489</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.40967464447021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.42846024036407</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.49233138561249</t>
   </si>
   <si>
     <t xml:space="preserve">1.53591406345367</t>
@@ -566,43 +566,43 @@
     <t xml:space="preserve">1.54042267799377</t>
   </si>
   <si>
-    <t xml:space="preserve">1.59001672267914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.58400547504425</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55695414543152</t>
+    <t xml:space="preserve">1.59001696109772</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.58400535583496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55695402622223</t>
   </si>
   <si>
     <t xml:space="preserve">1.56296539306641</t>
   </si>
   <si>
-    <t xml:space="preserve">1.60654830932617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.61556529998779</t>
+    <t xml:space="preserve">1.60654819011688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.61556541919708</t>
   </si>
   <si>
     <t xml:space="preserve">1.6290910243988</t>
   </si>
   <si>
-    <t xml:space="preserve">1.65013074874878</t>
+    <t xml:space="preserve">1.65013086795807</t>
   </si>
   <si>
     <t xml:space="preserve">1.62758815288544</t>
   </si>
   <si>
-    <t xml:space="preserve">1.64712524414062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.66816508769989</t>
+    <t xml:space="preserve">1.64712500572205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.66816520690918</t>
   </si>
   <si>
     <t xml:space="preserve">1.65614223480225</t>
   </si>
   <si>
-    <t xml:space="preserve">1.65914809703827</t>
+    <t xml:space="preserve">1.65914785861969</t>
   </si>
   <si>
     <t xml:space="preserve">1.62307977676392</t>
@@ -611,58 +611,58 @@
     <t xml:space="preserve">1.71325063705444</t>
   </si>
   <si>
-    <t xml:space="preserve">1.70273065567017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.71475350856781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7162561416626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.72076487541199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7012277841568</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.70423352718353</t>
+    <t xml:space="preserve">1.70273089408875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7147536277771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.71625649929047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7207647562027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.70122766494751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.70423364639282</t>
   </si>
   <si>
     <t xml:space="preserve">1.63359975814819</t>
   </si>
   <si>
-    <t xml:space="preserve">1.63660502433777</t>
+    <t xml:space="preserve">1.63660526275635</t>
   </si>
   <si>
     <t xml:space="preserve">1.60955393314362</t>
   </si>
   <si>
-    <t xml:space="preserve">1.64562225341797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69070792198181</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.74481046199799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.72827923297882</t>
+    <t xml:space="preserve">1.64562237262726</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69070768356323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.74481070041656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.72827911376953</t>
   </si>
   <si>
     <t xml:space="preserve">1.74030184745789</t>
   </si>
   <si>
-    <t xml:space="preserve">1.75382781028748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75683319568634</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76134204864502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.758336186409</t>
+    <t xml:space="preserve">1.75382769107819</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75683355331421</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76134181022644</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75833606719971</t>
   </si>
   <si>
     <t xml:space="preserve">1.77787327766418</t>
@@ -671,49 +671,49 @@
     <t xml:space="preserve">1.79440462589264</t>
   </si>
   <si>
-    <t xml:space="preserve">1.79891324043274</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78388476371765</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78839325904846</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.77937626838684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78238189220428</t>
+    <t xml:space="preserve">1.79891335964203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78388464450836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78839337825775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77937602996826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78238165378571</t>
   </si>
   <si>
     <t xml:space="preserve">1.80642759799957</t>
   </si>
   <si>
-    <t xml:space="preserve">1.84850764274597</t>
+    <t xml:space="preserve">1.84850716590881</t>
   </si>
   <si>
     <t xml:space="preserve">1.85451865196228</t>
   </si>
   <si>
-    <t xml:space="preserve">1.88156998157501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89810132980347</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93867826461792</t>
+    <t xml:space="preserve">1.8815701007843</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89810144901276</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93867802619934</t>
   </si>
   <si>
     <t xml:space="preserve">1.97023832798004</t>
   </si>
   <si>
-    <t xml:space="preserve">1.98526668548584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.98676943778992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95070087909698</t>
+    <t xml:space="preserve">1.98526692390442</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9867696762085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95070111751556</t>
   </si>
   <si>
     <t xml:space="preserve">1.94168424606323</t>
@@ -722,13 +722,13 @@
     <t xml:space="preserve">1.95971834659576</t>
   </si>
   <si>
-    <t xml:space="preserve">1.97174108028412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.97624957561493</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.98376417160034</t>
+    <t xml:space="preserve">1.97174084186554</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.97624981403351</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.98376393318176</t>
   </si>
   <si>
     <t xml:space="preserve">2.01682662963867</t>
@@ -737,13 +737,13 @@
     <t xml:space="preserve">2.00931239128113</t>
   </si>
   <si>
-    <t xml:space="preserve">1.94919836521149</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95370662212372</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.00029540061951</t>
+    <t xml:space="preserve">1.94919860363007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95370709896088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.00029516220093</t>
   </si>
   <si>
     <t xml:space="preserve">1.96873533725739</t>
@@ -758,10 +758,10 @@
     <t xml:space="preserve">1.98827242851257</t>
   </si>
   <si>
-    <t xml:space="preserve">1.99578666687012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.00780916213989</t>
+    <t xml:space="preserve">1.99578642845154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.00780963897705</t>
   </si>
   <si>
     <t xml:space="preserve">2.01081538200378</t>
@@ -773,58 +773,58 @@
     <t xml:space="preserve">2.06942653656006</t>
   </si>
   <si>
-    <t xml:space="preserve">2.10399198532104</t>
+    <t xml:space="preserve">2.10399222373962</t>
   </si>
   <si>
     <t xml:space="preserve">2.13404893875122</t>
   </si>
   <si>
-    <t xml:space="preserve">2.14607214927673</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.12803769111633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.18063712120056</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.14156317710876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.1145122051239</t>
+    <t xml:space="preserve">2.14607191085815</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.12803792953491</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.18063735961914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.14156341552734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.11451196670532</t>
   </si>
   <si>
     <t xml:space="preserve">2.15058040618896</t>
   </si>
   <si>
-    <t xml:space="preserve">2.16410636901855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.20768880844116</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.191157579422</t>
+    <t xml:space="preserve">2.16410613059998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.20768904685974</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.19115734100342</t>
   </si>
   <si>
     <t xml:space="preserve">2.18965458869934</t>
   </si>
   <si>
-    <t xml:space="preserve">2.17913460731506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.13104367256165</t>
+    <t xml:space="preserve">2.17913508415222</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.13104343414307</t>
   </si>
   <si>
     <t xml:space="preserve">2.16711187362671</t>
   </si>
   <si>
-    <t xml:space="preserve">2.2016773223877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.15659189224243</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.18214058876038</t>
+    <t xml:space="preserve">2.20167756080627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.15659141540527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1821403503418</t>
   </si>
   <si>
     <t xml:space="preserve">2.19867181777954</t>
@@ -836,58 +836,58 @@
     <t xml:space="preserve">2.22722578048706</t>
   </si>
   <si>
-    <t xml:space="preserve">2.21219730377197</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.23474025726318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.22271728515625</t>
+    <t xml:space="preserve">2.21219754219055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.2347400188446</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.22271704673767</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.23624277114868</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.24864077568054</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.25948905944824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.25328993797302</t>
   </si>
   <si>
     <t xml:space="preserve">2.23624300956726</t>
   </si>
   <si>
-    <t xml:space="preserve">2.24864053726196</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.25948882102966</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.25328993797302</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.23624277114868</t>
-  </si>
-  <si>
     <t xml:space="preserve">2.17735362052917</t>
   </si>
   <si>
-    <t xml:space="preserve">2.19130110740662</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.14945888519287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.13551139831543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.09211921691895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.07352304458618</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.08592009544373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.08282113075256</t>
+    <t xml:space="preserve">2.1913013458252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.14945936203003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.13551115989685</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.09211945533752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.07352256774902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.0859203338623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.08282089233398</t>
   </si>
   <si>
     <t xml:space="preserve">2.07197308540344</t>
   </si>
   <si>
-    <t xml:space="preserve">2.02393198013306</t>
+    <t xml:space="preserve">2.02393174171448</t>
   </si>
   <si>
     <t xml:space="preserve">2.04407811164856</t>
@@ -899,16 +899,16 @@
     <t xml:space="preserve">2.05647587776184</t>
   </si>
   <si>
-    <t xml:space="preserve">2.10606670379639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.12931227684021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.11536478996277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.10761642456055</t>
+    <t xml:space="preserve">2.10606694221497</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.12931251525879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.11536526679993</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.10761666297913</t>
   </si>
   <si>
     <t xml:space="preserve">2.12156391143799</t>
@@ -917,19 +917,19 @@
     <t xml:space="preserve">2.09986782073975</t>
   </si>
   <si>
-    <t xml:space="preserve">2.13861060142517</t>
+    <t xml:space="preserve">2.13861083984375</t>
   </si>
   <si>
     <t xml:space="preserve">2.15410804748535</t>
   </si>
   <si>
-    <t xml:space="preserve">2.10916638374329</t>
+    <t xml:space="preserve">2.10916614532471</t>
   </si>
   <si>
     <t xml:space="preserve">2.08901977539062</t>
   </si>
   <si>
-    <t xml:space="preserve">2.13086199760437</t>
+    <t xml:space="preserve">2.13086223602295</t>
   </si>
   <si>
     <t xml:space="preserve">2.12001419067383</t>
@@ -941,31 +941,31 @@
     <t xml:space="preserve">2.11226558685303</t>
   </si>
   <si>
-    <t xml:space="preserve">2.12466359138489</t>
+    <t xml:space="preserve">2.12466335296631</t>
   </si>
   <si>
     <t xml:space="preserve">2.12621307373047</t>
   </si>
   <si>
-    <t xml:space="preserve">2.07662224769592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.13241219520569</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.11071610450745</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.06887364387512</t>
+    <t xml:space="preserve">2.07662200927734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.13241195678711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.11071562767029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.0688738822937</t>
   </si>
   <si>
     <t xml:space="preserve">2.04872727394104</t>
   </si>
   <si>
-    <t xml:space="preserve">2.0347797870636</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.04097867012024</t>
+    <t xml:space="preserve">2.03477954864502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.04097843170166</t>
   </si>
   <si>
     <t xml:space="preserve">2.10141754150391</t>
@@ -977,19 +977,19 @@
     <t xml:space="preserve">2.08437085151672</t>
   </si>
   <si>
-    <t xml:space="preserve">2.0781717300415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.15565752983093</t>
+    <t xml:space="preserve">2.07817196846008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.15565776824951</t>
   </si>
   <si>
     <t xml:space="preserve">2.09366893768311</t>
   </si>
   <si>
-    <t xml:space="preserve">2.07507252693176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.05957508087158</t>
+    <t xml:space="preserve">2.07507228851318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.05957531929016</t>
   </si>
   <si>
     <t xml:space="preserve">2.06112504005432</t>
@@ -998,7 +998,7 @@
     <t xml:space="preserve">2.04562783241272</t>
   </si>
   <si>
-    <t xml:space="preserve">2.09676837921143</t>
+    <t xml:space="preserve">2.09676814079285</t>
   </si>
   <si>
     <t xml:space="preserve">2.11381554603577</t>
@@ -1007,43 +1007,43 @@
     <t xml:space="preserve">2.13706088066101</t>
   </si>
   <si>
-    <t xml:space="preserve">2.14790940284729</t>
+    <t xml:space="preserve">2.14790916442871</t>
   </si>
   <si>
     <t xml:space="preserve">2.15100860595703</t>
   </si>
   <si>
-    <t xml:space="preserve">2.14326047897339</t>
+    <t xml:space="preserve">2.14325976371765</t>
   </si>
   <si>
     <t xml:space="preserve">2.14016056060791</t>
   </si>
   <si>
-    <t xml:space="preserve">2.15255832672119</t>
+    <t xml:space="preserve">2.15255856513977</t>
   </si>
   <si>
     <t xml:space="preserve">2.16185665130615</t>
   </si>
   <si>
-    <t xml:space="preserve">2.18510270118713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.2036988735199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.23004460334778</t>
+    <t xml:space="preserve">2.18510246276855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.20369911193848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.23004412651062</t>
   </si>
   <si>
     <t xml:space="preserve">2.24089193344116</t>
   </si>
   <si>
-    <t xml:space="preserve">2.2625880241394</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.27808547019958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.2687873840332</t>
+    <t xml:space="preserve">2.26258826255798</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.27808523178101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.26878714561462</t>
   </si>
   <si>
     <t xml:space="preserve">2.26103854179382</t>
@@ -1067,19 +1067,19 @@
     <t xml:space="preserve">2.30752992630005</t>
   </si>
   <si>
-    <t xml:space="preserve">2.35557150840759</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.34007453918457</t>
+    <t xml:space="preserve">2.35557126998901</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.34007430076599</t>
   </si>
   <si>
     <t xml:space="preserve">2.34317350387573</t>
   </si>
   <si>
-    <t xml:space="preserve">2.36641907691956</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.38036680221558</t>
+    <t xml:space="preserve">2.36641931533813</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.38036704063416</t>
   </si>
   <si>
     <t xml:space="preserve">2.3912148475647</t>
@@ -1094,22 +1094,22 @@
     <t xml:space="preserve">2.37416791915894</t>
   </si>
   <si>
-    <t xml:space="preserve">2.35867071151733</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.38966536521912</t>
+    <t xml:space="preserve">2.35867047309875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.38966512680054</t>
   </si>
   <si>
     <t xml:space="preserve">2.40206265449524</t>
   </si>
   <si>
-    <t xml:space="preserve">2.33852434158325</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.34162402153015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.36331987380981</t>
+    <t xml:space="preserve">2.33852458000183</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.34162378311157</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.36332011222839</t>
   </si>
   <si>
     <t xml:space="preserve">2.31217908859253</t>
@@ -1118,13 +1118,13 @@
     <t xml:space="preserve">2.30907988548279</t>
   </si>
   <si>
-    <t xml:space="preserve">2.30133104324341</t>
+    <t xml:space="preserve">2.30133080482483</t>
   </si>
   <si>
     <t xml:space="preserve">2.25483965873718</t>
   </si>
   <si>
-    <t xml:space="preserve">2.23469352722168</t>
+    <t xml:space="preserve">2.23469376564026</t>
   </si>
   <si>
     <t xml:space="preserve">2.29358243942261</t>
@@ -1133,55 +1133,55 @@
     <t xml:space="preserve">2.34472346305847</t>
   </si>
   <si>
-    <t xml:space="preserve">2.39741373062134</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.32457709312439</t>
+    <t xml:space="preserve">2.39741349220276</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.32457685470581</t>
   </si>
   <si>
     <t xml:space="preserve">2.35402178764343</t>
   </si>
   <si>
-    <t xml:space="preserve">2.32147765159607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.36177015304565</t>
+    <t xml:space="preserve">2.32147741317749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.36176991462708</t>
   </si>
   <si>
     <t xml:space="preserve">2.37106847763062</t>
   </si>
   <si>
-    <t xml:space="preserve">2.38501620292664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.33077573776245</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.36486959457397</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.32922601699829</t>
+    <t xml:space="preserve">2.38501596450806</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.33077597618103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.36487007141113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.32922625541687</t>
   </si>
   <si>
     <t xml:space="preserve">2.2656877040863</t>
   </si>
   <si>
-    <t xml:space="preserve">2.21454691886902</t>
+    <t xml:space="preserve">2.2145471572876</t>
   </si>
   <si>
     <t xml:space="preserve">2.18975162506104</t>
   </si>
   <si>
-    <t xml:space="preserve">2.13396143913269</t>
+    <t xml:space="preserve">2.13396167755127</t>
   </si>
   <si>
     <t xml:space="preserve">2.10451722145081</t>
   </si>
   <si>
-    <t xml:space="preserve">2.17270445823669</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.20524859428406</t>
+    <t xml:space="preserve">2.17270469665527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.20524883270264</t>
   </si>
   <si>
     <t xml:space="preserve">2.21299719810486</t>
@@ -1196,7 +1196,7 @@
     <t xml:space="preserve">2.11691474914551</t>
   </si>
   <si>
-    <t xml:space="preserve">2.16340661048889</t>
+    <t xml:space="preserve">2.16340637207031</t>
   </si>
   <si>
     <t xml:space="preserve">2.16030693054199</t>
@@ -1205,52 +1205,52 @@
     <t xml:space="preserve">2.15875720977783</t>
   </si>
   <si>
-    <t xml:space="preserve">2.18045330047607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.17580389976501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.199049949646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.29513216018677</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.30443096160889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.31372904777527</t>
+    <t xml:space="preserve">2.1804530620575</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.17580413818359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.19905018806458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.29513239860535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.30443072319031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.31372857093811</t>
   </si>
   <si>
     <t xml:space="preserve">2.32612681388855</t>
   </si>
   <si>
-    <t xml:space="preserve">2.34782290458679</t>
+    <t xml:space="preserve">2.34782242774963</t>
   </si>
   <si>
     <t xml:space="preserve">2.31837821006775</t>
   </si>
   <si>
-    <t xml:space="preserve">2.33697485923767</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.37881731987</t>
+    <t xml:space="preserve">2.33697462081909</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.37881708145142</t>
   </si>
   <si>
     <t xml:space="preserve">2.3834662437439</t>
   </si>
   <si>
-    <t xml:space="preserve">2.36951875686646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.31062984466553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.33542513847351</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.22074580192566</t>
+    <t xml:space="preserve">2.36951899528503</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.31062960624695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.33542490005493</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.22074556350708</t>
   </si>
   <si>
     <t xml:space="preserve">2.20059943199158</t>
@@ -1259,37 +1259,37 @@
     <t xml:space="preserve">2.09831809997559</t>
   </si>
   <si>
-    <t xml:space="preserve">2.01928234100342</t>
+    <t xml:space="preserve">2.01928281784058</t>
   </si>
   <si>
     <t xml:space="preserve">2.0378794670105</t>
   </si>
   <si>
-    <t xml:space="preserve">2.05492615699768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.04252815246582</t>
+    <t xml:space="preserve">2.0549259185791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.0425283908844</t>
   </si>
   <si>
     <t xml:space="preserve">2.05182647705078</t>
   </si>
   <si>
-    <t xml:space="preserve">2.02083206176758</t>
+    <t xml:space="preserve">2.02083230018616</t>
   </si>
   <si>
     <t xml:space="preserve">2.10410928726196</t>
   </si>
   <si>
-    <t xml:space="preserve">2.13783931732178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.14908266067505</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.11374640464783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.11695837974548</t>
+    <t xml:space="preserve">2.1378390789032</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.14908242225647</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.11374616622925</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.11695861816406</t>
   </si>
   <si>
     <t xml:space="preserve">2.15068864822388</t>
@@ -1298,10 +1298,10 @@
     <t xml:space="preserve">2.13623309135437</t>
   </si>
   <si>
-    <t xml:space="preserve">2.16675043106079</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.14426398277283</t>
+    <t xml:space="preserve">2.16675019264221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.14426374435425</t>
   </si>
   <si>
     <t xml:space="preserve">2.18441867828369</t>
@@ -1313,7 +1313,7 @@
     <t xml:space="preserve">2.234210729599</t>
   </si>
   <si>
-    <t xml:space="preserve">2.24063515663147</t>
+    <t xml:space="preserve">2.24063539505005</t>
   </si>
   <si>
     <t xml:space="preserve">2.22457337379456</t>
@@ -1322,7 +1322,7 @@
     <t xml:space="preserve">2.21654224395752</t>
   </si>
   <si>
-    <t xml:space="preserve">2.22778582572937</t>
+    <t xml:space="preserve">2.22778606414795</t>
   </si>
   <si>
     <t xml:space="preserve">2.21333026885986</t>
@@ -1334,7 +1334,7 @@
     <t xml:space="preserve">2.25348496437073</t>
   </si>
   <si>
-    <t xml:space="preserve">2.23260450363159</t>
+    <t xml:space="preserve">2.23260426521301</t>
   </si>
   <si>
     <t xml:space="preserve">2.18281245231628</t>
@@ -1346,13 +1346,13 @@
     <t xml:space="preserve">2.28882098197937</t>
   </si>
   <si>
-    <t xml:space="preserve">2.2518789768219</t>
+    <t xml:space="preserve">2.25187873840332</t>
   </si>
   <si>
     <t xml:space="preserve">2.27757787704468</t>
   </si>
   <si>
-    <t xml:space="preserve">2.26794052124023</t>
+    <t xml:space="preserve">2.26794028282166</t>
   </si>
   <si>
     <t xml:space="preserve">2.30006432533264</t>
@@ -1361,28 +1361,28 @@
     <t xml:space="preserve">2.29845809936523</t>
   </si>
   <si>
-    <t xml:space="preserve">2.26472806930542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.24384784698486</t>
+    <t xml:space="preserve">2.26472783088684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.24384760856628</t>
   </si>
   <si>
     <t xml:space="preserve">2.23099827766418</t>
   </si>
   <si>
-    <t xml:space="preserve">2.21172380447388</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.20529913902283</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.19887447357178</t>
+    <t xml:space="preserve">2.21172404289246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.20529937744141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1988742351532</t>
   </si>
   <si>
     <t xml:space="preserve">2.2470600605011</t>
   </si>
   <si>
-    <t xml:space="preserve">2.23742294311523</t>
+    <t xml:space="preserve">2.23742318153381</t>
   </si>
   <si>
     <t xml:space="preserve">2.22939229011536</t>
@@ -1391,7 +1391,7 @@
     <t xml:space="preserve">2.17478156089783</t>
   </si>
   <si>
-    <t xml:space="preserve">2.17799377441406</t>
+    <t xml:space="preserve">2.17799401283264</t>
   </si>
   <si>
     <t xml:space="preserve">2.1683566570282</t>
@@ -1400,34 +1400,34 @@
     <t xml:space="preserve">2.18602466583252</t>
   </si>
   <si>
-    <t xml:space="preserve">2.203693151474</t>
+    <t xml:space="preserve">2.20369291305542</t>
   </si>
   <si>
     <t xml:space="preserve">2.20690512657166</t>
   </si>
   <si>
-    <t xml:space="preserve">2.26954650878906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.2823965549469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.27918386459351</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.28400230407715</t>
+    <t xml:space="preserve">2.26954674720764</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.28239631652832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.27918410301208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.28400278091431</t>
   </si>
   <si>
     <t xml:space="preserve">2.29042720794678</t>
   </si>
   <si>
-    <t xml:space="preserve">2.29363965988159</t>
+    <t xml:space="preserve">2.29363942146301</t>
   </si>
   <si>
     <t xml:space="preserve">2.25669717788696</t>
   </si>
   <si>
-    <t xml:space="preserve">2.20048046112061</t>
+    <t xml:space="preserve">2.20048069953918</t>
   </si>
   <si>
     <t xml:space="preserve">2.19566178321838</t>
@@ -1436,16 +1436,16 @@
     <t xml:space="preserve">2.15390110015869</t>
   </si>
   <si>
-    <t xml:space="preserve">2.14586973190308</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.12820219993591</t>
+    <t xml:space="preserve">2.14586997032166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.12820196151733</t>
   </si>
   <si>
     <t xml:space="preserve">2.08965349197388</t>
   </si>
   <si>
-    <t xml:space="preserve">2.03504300117493</t>
+    <t xml:space="preserve">2.03504276275635</t>
   </si>
   <si>
     <t xml:space="preserve">2.05592346191406</t>
@@ -1457,16 +1457,16 @@
     <t xml:space="preserve">1.97400772571564</t>
   </si>
   <si>
-    <t xml:space="preserve">1.93224656581879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.98685717582703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94188404083252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96437048912048</t>
+    <t xml:space="preserve">1.93224668502808</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.98685741424561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94188392162323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96437072753906</t>
   </si>
   <si>
     <t xml:space="preserve">1.97240173816681</t>
@@ -1484,25 +1484,25 @@
     <t xml:space="preserve">1.96758317947388</t>
   </si>
   <si>
-    <t xml:space="preserve">1.96115827560425</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94991481304169</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95955181121826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95794582366943</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.97561419010162</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.99328196048737</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.03986144065857</t>
+    <t xml:space="preserve">1.96115803718567</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94991505146027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95955228805542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95794606208801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.97561395168304</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.99328219890594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.03986120223999</t>
   </si>
   <si>
     <t xml:space="preserve">1.99006962776184</t>
@@ -1511,10 +1511,10 @@
     <t xml:space="preserve">2.05271124839783</t>
   </si>
   <si>
-    <t xml:space="preserve">2.04307389259338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.05110502243042</t>
+    <t xml:space="preserve">2.0430736541748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.05110478401184</t>
   </si>
   <si>
     <t xml:space="preserve">2.01416230201721</t>
@@ -1523,19 +1523,19 @@
     <t xml:space="preserve">2.00291919708252</t>
   </si>
   <si>
-    <t xml:space="preserve">1.99649465084076</t>
+    <t xml:space="preserve">1.99649441242218</t>
   </si>
   <si>
     <t xml:space="preserve">1.99167585372925</t>
   </si>
   <si>
-    <t xml:space="preserve">1.96276450157166</t>
+    <t xml:space="preserve">1.96276426315308</t>
   </si>
   <si>
     <t xml:space="preserve">1.98043274879456</t>
   </si>
   <si>
-    <t xml:space="preserve">1.94830858707428</t>
+    <t xml:space="preserve">1.94830882549286</t>
   </si>
   <si>
     <t xml:space="preserve">2.01095008850098</t>
@@ -1544,7 +1544,7 @@
     <t xml:space="preserve">1.93867158889771</t>
   </si>
   <si>
-    <t xml:space="preserve">2.02058744430542</t>
+    <t xml:space="preserve">2.02058720588684</t>
   </si>
   <si>
     <t xml:space="preserve">2.06074213981628</t>
@@ -1568,43 +1568,43 @@
     <t xml:space="preserve">2.27275896072388</t>
   </si>
   <si>
-    <t xml:space="preserve">2.27597165107727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.25990962982178</t>
+    <t xml:space="preserve">2.27597188949585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.2599093914032</t>
   </si>
   <si>
     <t xml:space="preserve">2.28721499443054</t>
   </si>
   <si>
-    <t xml:space="preserve">2.29203343391418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.3129141330719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.28560853004456</t>
+    <t xml:space="preserve">2.29203367233276</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.31291389465332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.28560876846313</t>
   </si>
   <si>
     <t xml:space="preserve">2.28079009056091</t>
   </si>
   <si>
-    <t xml:space="preserve">2.30970144271851</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.34503746032715</t>
+    <t xml:space="preserve">2.30970120429993</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.34503769874573</t>
   </si>
   <si>
     <t xml:space="preserve">2.34664368629456</t>
   </si>
   <si>
-    <t xml:space="preserve">2.37073683738708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.37876749038696</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.36752414703369</t>
+    <t xml:space="preserve">2.37073659896851</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.37876772880554</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.36752438545227</t>
   </si>
   <si>
     <t xml:space="preserve">2.3691303730011</t>
@@ -1622,13 +1622,13 @@
     <t xml:space="preserve">2.36591839790344</t>
   </si>
   <si>
-    <t xml:space="preserve">2.38840484619141</t>
+    <t xml:space="preserve">2.38840460777283</t>
   </si>
   <si>
     <t xml:space="preserve">2.386798620224</t>
   </si>
   <si>
-    <t xml:space="preserve">2.39322328567505</t>
+    <t xml:space="preserve">2.39322352409363</t>
   </si>
   <si>
     <t xml:space="preserve">2.38358616828918</t>
@@ -1643,28 +1643,28 @@
     <t xml:space="preserve">2.41089177131653</t>
   </si>
   <si>
-    <t xml:space="preserve">2.37716174125671</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.33861303329468</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.35306859016418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.34985637664795</t>
+    <t xml:space="preserve">2.37716150283813</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.3386127948761</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.35306882858276</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.34985613822937</t>
   </si>
   <si>
     <t xml:space="preserve">2.38519239425659</t>
   </si>
   <si>
-    <t xml:space="preserve">2.38198041915894</t>
+    <t xml:space="preserve">2.38198018074036</t>
   </si>
   <si>
     <t xml:space="preserve">2.3996479511261</t>
   </si>
   <si>
-    <t xml:space="preserve">2.40767884254456</t>
+    <t xml:space="preserve">2.40767908096313</t>
   </si>
   <si>
     <t xml:space="preserve">2.34182524681091</t>
@@ -1676,13 +1676,13 @@
     <t xml:space="preserve">2.43177223205566</t>
   </si>
   <si>
-    <t xml:space="preserve">2.46871399879456</t>
+    <t xml:space="preserve">2.46871423721313</t>
   </si>
   <si>
     <t xml:space="preserve">2.47032046318054</t>
   </si>
   <si>
-    <t xml:space="preserve">2.49280714988708</t>
+    <t xml:space="preserve">2.49280691146851</t>
   </si>
   <si>
     <t xml:space="preserve">2.51850605010986</t>
@@ -1697,10 +1697,10 @@
     <t xml:space="preserve">2.5875723361969</t>
   </si>
   <si>
-    <t xml:space="preserve">2.58275389671326</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.58917856216431</t>
+    <t xml:space="preserve">2.58275413513184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.58917880058289</t>
   </si>
   <si>
     <t xml:space="preserve">2.60202813148499</t>
@@ -1709,28 +1709,28 @@
     <t xml:space="preserve">2.64378905296326</t>
   </si>
   <si>
-    <t xml:space="preserve">2.61487746238708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.59560346603394</t>
+    <t xml:space="preserve">2.61487770080566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.59560322761536</t>
   </si>
   <si>
     <t xml:space="preserve">2.61005902290344</t>
   </si>
   <si>
-    <t xml:space="preserve">2.55384254455566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.57151055335999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.55705499649048</t>
+    <t xml:space="preserve">2.55384278297424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.57151007652283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.5570547580719</t>
   </si>
   <si>
     <t xml:space="preserve">2.52493095397949</t>
   </si>
   <si>
-    <t xml:space="preserve">2.54099273681641</t>
+    <t xml:space="preserve">2.54099297523499</t>
   </si>
   <si>
     <t xml:space="preserve">2.5442054271698</t>
@@ -1748,19 +1748,19 @@
     <t xml:space="preserve">2.56347942352295</t>
   </si>
   <si>
-    <t xml:space="preserve">2.55062985420227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.51690030097961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.53938698768616</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.52011251449585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.57954168319702</t>
+    <t xml:space="preserve">2.55063009262085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.51690006256104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.53938674926758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.52011227607727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.57954120635986</t>
   </si>
   <si>
     <t xml:space="preserve">2.62451457977295</t>
@@ -1772,19 +1772,19 @@
     <t xml:space="preserve">2.6357581615448</t>
   </si>
   <si>
-    <t xml:space="preserve">2.63897061347961</t>
+    <t xml:space="preserve">2.63897037506104</t>
   </si>
   <si>
     <t xml:space="preserve">2.65181994438171</t>
   </si>
   <si>
-    <t xml:space="preserve">2.6534264087677</t>
+    <t xml:space="preserve">2.65342617034912</t>
   </si>
   <si>
     <t xml:space="preserve">2.63093972206116</t>
   </si>
   <si>
-    <t xml:space="preserve">2.62933349609375</t>
+    <t xml:space="preserve">2.62933325767517</t>
   </si>
   <si>
     <t xml:space="preserve">2.62290859222412</t>
@@ -1793,13 +1793,13 @@
     <t xml:space="preserve">2.61166548728943</t>
   </si>
   <si>
-    <t xml:space="preserve">2.65985083580017</t>
+    <t xml:space="preserve">2.65985107421875</t>
   </si>
   <si>
     <t xml:space="preserve">2.68715620040894</t>
   </si>
   <si>
-    <t xml:space="preserve">2.70000553131104</t>
+    <t xml:space="preserve">2.70000576972961</t>
   </si>
   <si>
     <t xml:space="preserve">2.70161199569702</t>
@@ -1808,16 +1808,16 @@
     <t xml:space="preserve">2.6967933177948</t>
   </si>
   <si>
-    <t xml:space="preserve">2.69839930534363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.68555045127869</t>
+    <t xml:space="preserve">2.69839954376221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.68555021286011</t>
   </si>
   <si>
     <t xml:space="preserve">2.68233752250671</t>
   </si>
   <si>
-    <t xml:space="preserve">2.7449791431427</t>
+    <t xml:space="preserve">2.74497866630554</t>
   </si>
   <si>
     <t xml:space="preserve">2.75140380859375</t>
@@ -1841,7 +1841,7 @@
     <t xml:space="preserve">2.74947142601013</t>
   </si>
   <si>
-    <t xml:space="preserve">2.7808849811554</t>
+    <t xml:space="preserve">2.78088474273682</t>
   </si>
   <si>
     <t xml:space="preserve">2.76600456237793</t>
@@ -1850,7 +1850,7 @@
     <t xml:space="preserve">2.83213758468628</t>
   </si>
   <si>
-    <t xml:space="preserve">2.9164571762085</t>
+    <t xml:space="preserve">2.91645693778992</t>
   </si>
   <si>
     <t xml:space="preserve">2.91315031051636</t>
@@ -1871,46 +1871,46 @@
     <t xml:space="preserve">2.89992356300354</t>
   </si>
   <si>
-    <t xml:space="preserve">2.93299007415771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.91149687767029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.86189746856689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.84701728820801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.85197734832764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.83379101753235</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.83048415184021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.83544421195984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.76931118965149</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.78584456443787</t>
+    <t xml:space="preserve">2.93298983573914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.91149711608887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.86189723014832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.84701776504517</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.85197758674622</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.83379054069519</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.83048439025879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.83544397354126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.76931142807007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.78584432601929</t>
   </si>
   <si>
     <t xml:space="preserve">2.8387508392334</t>
   </si>
   <si>
-    <t xml:space="preserve">2.81229782104492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.79576444625854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.80733752250671</t>
+    <t xml:space="preserve">2.81229758262634</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.79576420783997</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.80733799934387</t>
   </si>
   <si>
     <t xml:space="preserve">2.82883071899414</t>
@@ -1931,7 +1931,7 @@
     <t xml:space="preserve">2.89165711402893</t>
   </si>
   <si>
-    <t xml:space="preserve">2.88173699378967</t>
+    <t xml:space="preserve">2.88173723220825</t>
   </si>
   <si>
     <t xml:space="preserve">2.89000391960144</t>
@@ -1943,7 +1943,7 @@
     <t xml:space="preserve">2.98920297622681</t>
   </si>
   <si>
-    <t xml:space="preserve">2.98589611053467</t>
+    <t xml:space="preserve">2.98589634895325</t>
   </si>
   <si>
     <t xml:space="preserve">3.02392244338989</t>
@@ -1955,28 +1955,28 @@
     <t xml:space="preserve">2.99416303634644</t>
   </si>
   <si>
-    <t xml:space="preserve">2.99581623077393</t>
+    <t xml:space="preserve">2.9958164691925</t>
   </si>
   <si>
     <t xml:space="preserve">3.02557611465454</t>
   </si>
   <si>
-    <t xml:space="preserve">3.00408267974854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.90488338470459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.89661693572998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.951176404953</t>
+    <t xml:space="preserve">3.00408291816711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.90488362312317</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.89661741256714</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.95117664337158</t>
   </si>
   <si>
     <t xml:space="preserve">2.92307019233704</t>
   </si>
   <si>
-    <t xml:space="preserve">2.92637658119202</t>
+    <t xml:space="preserve">2.9263768196106</t>
   </si>
   <si>
     <t xml:space="preserve">2.95282983779907</t>
@@ -2000,97 +2000,97 @@
     <t xml:space="preserve">3.13304162025452</t>
   </si>
   <si>
-    <t xml:space="preserve">3.07517528533936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.11320209503174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.0669093132019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.08178901672363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.12808156013489</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.13469505310059</t>
+    <t xml:space="preserve">3.07517552375793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.11320185661316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.06690907478333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.08178877830505</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.12808179855347</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.13469529151917</t>
   </si>
   <si>
     <t xml:space="preserve">3.11650848388672</t>
   </si>
   <si>
-    <t xml:space="preserve">3.09005546569824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.11485505104065</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.12642860412598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.09501552581787</t>
+    <t xml:space="preserve">3.09005522727966</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.11485528945923</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.12642884254456</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.09501528739929</t>
   </si>
   <si>
     <t xml:space="preserve">3.13634848594666</t>
   </si>
   <si>
-    <t xml:space="preserve">3.10824179649353</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.07682871818542</t>
+    <t xml:space="preserve">3.10824203491211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.07682919502258</t>
   </si>
   <si>
     <t xml:space="preserve">3.10493540763855</t>
   </si>
   <si>
-    <t xml:space="preserve">3.11816215515137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.15949511528015</t>
+    <t xml:space="preserve">3.11816191673279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.15949487686157</t>
   </si>
   <si>
     <t xml:space="preserve">3.17272138595581</t>
   </si>
   <si>
-    <t xml:space="preserve">3.16280150413513</t>
+    <t xml:space="preserve">3.16280126571655</t>
   </si>
   <si>
     <t xml:space="preserve">3.18429470062256</t>
   </si>
   <si>
-    <t xml:space="preserve">3.14296174049377</t>
+    <t xml:space="preserve">3.14296197891235</t>
   </si>
   <si>
     <t xml:space="preserve">3.16776156425476</t>
   </si>
   <si>
-    <t xml:space="preserve">3.180988073349</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.16610789299011</t>
+    <t xml:space="preserve">3.18098831176758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.16610813140869</t>
   </si>
   <si>
     <t xml:space="preserve">3.18760132789612</t>
   </si>
   <si>
-    <t xml:space="preserve">3.18925452232361</t>
+    <t xml:space="preserve">3.18925476074219</t>
   </si>
   <si>
     <t xml:space="preserve">3.21570801734924</t>
   </si>
   <si>
-    <t xml:space="preserve">3.29176068305969</t>
+    <t xml:space="preserve">3.29176044464111</t>
   </si>
   <si>
     <t xml:space="preserve">3.31656050682068</t>
   </si>
   <si>
-    <t xml:space="preserve">3.31325364112854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.33805346488953</t>
+    <t xml:space="preserve">3.31325387954712</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.33805370330811</t>
   </si>
   <si>
     <t xml:space="preserve">3.31490707397461</t>
@@ -2099,7 +2099,7 @@
     <t xml:space="preserve">3.28018736839294</t>
   </si>
   <si>
-    <t xml:space="preserve">3.29837393760681</t>
+    <t xml:space="preserve">3.29837346076965</t>
   </si>
   <si>
     <t xml:space="preserve">3.27357411384583</t>
@@ -2114,13 +2114,13 @@
     <t xml:space="preserve">3.30994725227356</t>
   </si>
   <si>
-    <t xml:space="preserve">3.17602849006653</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.20248126983643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.24050760269165</t>
+    <t xml:space="preserve">3.17602825164795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.20248103141785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.24050784111023</t>
   </si>
   <si>
     <t xml:space="preserve">3.21736097335815</t>
@@ -2132,25 +2132,25 @@
     <t xml:space="preserve">3.18594813346863</t>
   </si>
   <si>
-    <t xml:space="preserve">3.21901440620422</t>
+    <t xml:space="preserve">3.2190146446228</t>
   </si>
   <si>
     <t xml:space="preserve">3.22728109359741</t>
   </si>
   <si>
-    <t xml:space="preserve">3.17437481880188</t>
+    <t xml:space="preserve">3.17437505722046</t>
   </si>
   <si>
     <t xml:space="preserve">3.24381422996521</t>
   </si>
   <si>
-    <t xml:space="preserve">3.29010725021362</t>
+    <t xml:space="preserve">3.29010701179504</t>
   </si>
   <si>
     <t xml:space="preserve">3.28680062294006</t>
   </si>
   <si>
-    <t xml:space="preserve">3.28184080123901</t>
+    <t xml:space="preserve">3.28184056282043</t>
   </si>
   <si>
     <t xml:space="preserve">3.34135985374451</t>
@@ -2162,31 +2162,31 @@
     <t xml:space="preserve">3.28349375724792</t>
   </si>
   <si>
-    <t xml:space="preserve">3.22397446632385</t>
+    <t xml:space="preserve">3.22397470474243</t>
   </si>
   <si>
     <t xml:space="preserve">3.2124011516571</t>
   </si>
   <si>
-    <t xml:space="preserve">3.22232127189636</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.19586777687073</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.19256138801575</t>
+    <t xml:space="preserve">3.22232103347778</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.19586801528931</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.19256114959717</t>
   </si>
   <si>
     <t xml:space="preserve">3.26034736633301</t>
   </si>
   <si>
-    <t xml:space="preserve">3.30498719215393</t>
+    <t xml:space="preserve">3.30498695373535</t>
   </si>
   <si>
     <t xml:space="preserve">3.30168056488037</t>
   </si>
   <si>
-    <t xml:space="preserve">3.24877405166626</t>
+    <t xml:space="preserve">3.24877429008484</t>
   </si>
   <si>
     <t xml:space="preserve">3.39426636695862</t>
@@ -2195,40 +2195,40 @@
     <t xml:space="preserve">3.50338530540466</t>
   </si>
   <si>
-    <t xml:space="preserve">3.43725275993347</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.57613182067871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.57447814941406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.50503849983215</t>
+    <t xml:space="preserve">3.43725252151489</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.57613158226013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.57447862625122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.50503873825073</t>
   </si>
   <si>
     <t xml:space="preserve">3.39095973968506</t>
   </si>
   <si>
-    <t xml:space="preserve">3.39922618865967</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.4091465473175</t>
+    <t xml:space="preserve">3.39922642707825</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.40914630889893</t>
   </si>
   <si>
     <t xml:space="preserve">3.45709252357483</t>
   </si>
   <si>
-    <t xml:space="preserve">3.49842548370361</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.51165223121643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.53645205497742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.55463862419128</t>
+    <t xml:space="preserve">3.49842572212219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.51165199279785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.53645181655884</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.55463886260986</t>
   </si>
   <si>
     <t xml:space="preserve">3.56786489486694</t>
@@ -2249,31 +2249,31 @@
     <t xml:space="preserve">3.68855738639832</t>
   </si>
   <si>
-    <t xml:space="preserve">3.66871762275696</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.64722466468811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.46370577812195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.43229293823242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.46205282211304</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.40087962150574</t>
+    <t xml:space="preserve">3.66871786117554</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.64722442626953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.46370553970337</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.43229269981384</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.46205258369446</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.40087985992432</t>
   </si>
   <si>
     <t xml:space="preserve">3.20578789710999</t>
   </si>
   <si>
-    <t xml:space="preserve">3.22893452644348</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.38269305229187</t>
+    <t xml:space="preserve">3.2289342880249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.38269329071045</t>
   </si>
   <si>
     <t xml:space="preserve">2.93795013427734</t>
@@ -2285,10 +2285,10 @@
     <t xml:space="preserve">2.79080438613892</t>
   </si>
   <si>
-    <t xml:space="preserve">2.30307507514954</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.6535792350769</t>
+    <t xml:space="preserve">2.30307531356812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.65357899665833</t>
   </si>
   <si>
     <t xml:space="preserve">2.55768609046936</t>
@@ -2297,7 +2297,7 @@
     <t xml:space="preserve">2.60397934913635</t>
   </si>
   <si>
-    <t xml:space="preserve">2.61059236526489</t>
+    <t xml:space="preserve">2.61059260368347</t>
   </si>
   <si>
     <t xml:space="preserve">2.55272650718689</t>
@@ -2306,13 +2306,13 @@
     <t xml:space="preserve">2.68003225326538</t>
   </si>
   <si>
-    <t xml:space="preserve">2.53288626670837</t>
+    <t xml:space="preserve">2.53288650512695</t>
   </si>
   <si>
     <t xml:space="preserve">2.50808668136597</t>
   </si>
   <si>
-    <t xml:space="preserve">2.53123307228088</t>
+    <t xml:space="preserve">2.53123354911804</t>
   </si>
   <si>
     <t xml:space="preserve">2.59571266174316</t>
@@ -2327,13 +2327,13 @@
     <t xml:space="preserve">2.62216591835022</t>
   </si>
   <si>
-    <t xml:space="preserve">2.66019225120544</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.6254723072052</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.64696574211121</t>
+    <t xml:space="preserve">2.66019248962402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.62547254562378</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.64696526527405</t>
   </si>
   <si>
     <t xml:space="preserve">2.55107307434082</t>
@@ -2351,10 +2351,10 @@
     <t xml:space="preserve">2.63869905471802</t>
   </si>
   <si>
-    <t xml:space="preserve">2.70483207702637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.71805858612061</t>
+    <t xml:space="preserve">2.70483183860779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.71805882453918</t>
   </si>
   <si>
     <t xml:space="preserve">2.61224579811096</t>
@@ -2363,22 +2363,22 @@
     <t xml:space="preserve">2.68664526939392</t>
   </si>
   <si>
-    <t xml:space="preserve">2.67672562599182</t>
+    <t xml:space="preserve">2.67672538757324</t>
   </si>
   <si>
     <t xml:space="preserve">2.77261805534363</t>
   </si>
   <si>
-    <t xml:space="preserve">2.79245781898499</t>
+    <t xml:space="preserve">2.79245805740356</t>
   </si>
   <si>
     <t xml:space="preserve">2.67507219314575</t>
   </si>
   <si>
-    <t xml:space="preserve">2.66845870018005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.61885905265808</t>
+    <t xml:space="preserve">2.66845893859863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.61885929107666</t>
   </si>
   <si>
     <t xml:space="preserve">2.58579277992249</t>
@@ -2390,34 +2390,34 @@
     <t xml:space="preserve">2.71640491485596</t>
   </si>
   <si>
-    <t xml:space="preserve">2.65688562393188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.56760621070862</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.55437994003296</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.60728597640991</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.59405970573425</t>
+    <t xml:space="preserve">2.65688538551331</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.5676064491272</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.55437970161438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.60728573799133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.59405946731567</t>
   </si>
   <si>
     <t xml:space="preserve">2.6486189365387</t>
   </si>
   <si>
-    <t xml:space="preserve">2.64365887641907</t>
+    <t xml:space="preserve">2.64365911483765</t>
   </si>
   <si>
     <t xml:space="preserve">2.75608491897583</t>
   </si>
   <si>
-    <t xml:space="preserve">2.75939154624939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.95778965950012</t>
+    <t xml:space="preserve">2.75939178466797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.9577898979187</t>
   </si>
   <si>
     <t xml:space="preserve">2.96274995803833</t>
@@ -2429,13 +2429,13 @@
     <t xml:space="preserve">2.88008379936218</t>
   </si>
   <si>
-    <t xml:space="preserve">2.7775776386261</t>
+    <t xml:space="preserve">2.77757787704468</t>
   </si>
   <si>
     <t xml:space="preserve">2.90653705596924</t>
   </si>
   <si>
-    <t xml:space="preserve">2.89331007003784</t>
+    <t xml:space="preserve">2.89331030845642</t>
   </si>
   <si>
     <t xml:space="preserve">2.87347054481506</t>
@@ -2450,25 +2450,25 @@
     <t xml:space="preserve">2.78915119171143</t>
   </si>
   <si>
-    <t xml:space="preserve">2.73624491691589</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.80403113365173</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.80072426795959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.82717776298523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.84420847892761</t>
+    <t xml:space="preserve">2.73624467849731</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.80403089523315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.80072450637817</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.82717752456665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.84420871734619</t>
   </si>
   <si>
     <t xml:space="preserve">2.7999279499054</t>
   </si>
   <si>
-    <t xml:space="preserve">2.81525564193726</t>
+    <t xml:space="preserve">2.81525540351868</t>
   </si>
   <si>
     <t xml:space="preserve">2.74031853675842</t>
@@ -2480,7 +2480,7 @@
     <t xml:space="preserve">2.77438068389893</t>
   </si>
   <si>
-    <t xml:space="preserve">2.73691248893738</t>
+    <t xml:space="preserve">2.7369122505188</t>
   </si>
   <si>
     <t xml:space="preserve">2.74883413314819</t>
@@ -2489,31 +2489,31 @@
     <t xml:space="preserve">2.79481840133667</t>
   </si>
   <si>
-    <t xml:space="preserve">2.8322868347168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.83569288253784</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.83739614486694</t>
+    <t xml:space="preserve">2.83228707313538</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.83569312095642</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.83739638328552</t>
   </si>
   <si>
     <t xml:space="preserve">2.86805248260498</t>
   </si>
   <si>
-    <t xml:space="preserve">2.82717752456665</t>
+    <t xml:space="preserve">2.82717728614807</t>
   </si>
   <si>
     <t xml:space="preserve">2.76075601577759</t>
   </si>
   <si>
-    <t xml:space="preserve">2.71647500991821</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.73350620269775</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.80333399772644</t>
+    <t xml:space="preserve">2.71647477149963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.73350596427917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.80333423614502</t>
   </si>
   <si>
     <t xml:space="preserve">2.78800582885742</t>
@@ -2522,7 +2522,7 @@
     <t xml:space="preserve">2.6892249584198</t>
   </si>
   <si>
-    <t xml:space="preserve">2.70795917510986</t>
+    <t xml:space="preserve">2.70795941352844</t>
   </si>
   <si>
     <t xml:space="preserve">2.69944357872009</t>
@@ -2540,7 +2540,7 @@
     <t xml:space="preserve">2.82547450065613</t>
   </si>
   <si>
-    <t xml:space="preserve">2.89019298553467</t>
+    <t xml:space="preserve">2.89019274711609</t>
   </si>
   <si>
     <t xml:space="preserve">2.8799741268158</t>
@@ -2549,7 +2549,7 @@
     <t xml:space="preserve">2.86123991012573</t>
   </si>
   <si>
-    <t xml:space="preserve">2.76586532592773</t>
+    <t xml:space="preserve">2.76586508750916</t>
   </si>
   <si>
     <t xml:space="preserve">2.81014657020569</t>
@@ -2558,7 +2558,7 @@
     <t xml:space="preserve">2.7828962802887</t>
   </si>
   <si>
-    <t xml:space="preserve">2.76245880126953</t>
+    <t xml:space="preserve">2.76245903968811</t>
   </si>
   <si>
     <t xml:space="preserve">2.85272431373596</t>
@@ -2573,13 +2573,13 @@
     <t xml:space="preserve">2.72499060630798</t>
   </si>
   <si>
-    <t xml:space="preserve">2.72669363021851</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.71306848526001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.79311537742615</t>
+    <t xml:space="preserve">2.72669339179993</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.71306872367859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.79311513900757</t>
   </si>
   <si>
     <t xml:space="preserve">2.69433426856995</t>
@@ -2588,19 +2588,19 @@
     <t xml:space="preserve">2.74713110923767</t>
   </si>
   <si>
-    <t xml:space="preserve">2.7386155128479</t>
+    <t xml:space="preserve">2.73861575126648</t>
   </si>
   <si>
     <t xml:space="preserve">2.78119349479675</t>
   </si>
   <si>
-    <t xml:space="preserve">2.76416230201721</t>
+    <t xml:space="preserve">2.76416206359863</t>
   </si>
   <si>
     <t xml:space="preserve">2.77949023246765</t>
   </si>
   <si>
-    <t xml:space="preserve">2.79822468757629</t>
+    <t xml:space="preserve">2.79822444915771</t>
   </si>
   <si>
     <t xml:space="preserve">2.81355261802673</t>
@@ -2609,7 +2609,7 @@
     <t xml:space="preserve">2.7352089881897</t>
   </si>
   <si>
-    <t xml:space="preserve">2.72158408164978</t>
+    <t xml:space="preserve">2.72158432006836</t>
   </si>
   <si>
     <t xml:space="preserve">2.70455288887024</t>
@@ -2618,7 +2618,7 @@
     <t xml:space="preserve">2.74372482299805</t>
   </si>
   <si>
-    <t xml:space="preserve">2.72839665412903</t>
+    <t xml:space="preserve">2.72839689254761</t>
   </si>
   <si>
     <t xml:space="preserve">2.64494371414185</t>
@@ -2627,16 +2627,16 @@
     <t xml:space="preserve">2.65345931053162</t>
   </si>
   <si>
-    <t xml:space="preserve">2.6398344039917</t>
+    <t xml:space="preserve">2.63983416557312</t>
   </si>
   <si>
     <t xml:space="preserve">2.60747528076172</t>
   </si>
   <si>
-    <t xml:space="preserve">2.61428785324097</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.5955536365509</t>
+    <t xml:space="preserve">2.61428761482239</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.59555339813232</t>
   </si>
   <si>
     <t xml:space="preserve">2.56489729881287</t>
@@ -2654,22 +2654,22 @@
     <t xml:space="preserve">2.47292876243591</t>
   </si>
   <si>
-    <t xml:space="preserve">2.50188207626343</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.55467867851257</t>
+    <t xml:space="preserve">2.50188183784485</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.55467844009399</t>
   </si>
   <si>
     <t xml:space="preserve">2.48485088348389</t>
   </si>
   <si>
-    <t xml:space="preserve">2.46441340446472</t>
+    <t xml:space="preserve">2.46441316604614</t>
   </si>
   <si>
     <t xml:space="preserve">2.46611618995667</t>
   </si>
   <si>
-    <t xml:space="preserve">2.40139770507812</t>
+    <t xml:space="preserve">2.40139746665955</t>
   </si>
   <si>
     <t xml:space="preserve">2.37755441665649</t>
@@ -2681,13 +2681,13 @@
     <t xml:space="preserve">2.27877330780029</t>
   </si>
   <si>
-    <t xml:space="preserve">2.29921054840088</t>
+    <t xml:space="preserve">2.29921078681946</t>
   </si>
   <si>
     <t xml:space="preserve">2.31964802742004</t>
   </si>
   <si>
-    <t xml:space="preserve">2.33838248252869</t>
+    <t xml:space="preserve">2.33838224411011</t>
   </si>
   <si>
     <t xml:space="preserve">2.39628839492798</t>
@@ -2696,61 +2696,61 @@
     <t xml:space="preserve">2.39117908477783</t>
   </si>
   <si>
-    <t xml:space="preserve">2.36563229560852</t>
+    <t xml:space="preserve">2.3656325340271</t>
   </si>
   <si>
     <t xml:space="preserve">2.5461630821228</t>
   </si>
   <si>
-    <t xml:space="preserve">2.51550674438477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.54105377197266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.58533453941345</t>
+    <t xml:space="preserve">2.51550698280334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.54105353355408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.58533477783203</t>
   </si>
   <si>
     <t xml:space="preserve">2.57170963287354</t>
   </si>
   <si>
-    <t xml:space="preserve">2.65686559677124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.60236597061157</t>
+    <t xml:space="preserve">2.65686583518982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.60236573219299</t>
   </si>
   <si>
     <t xml:space="preserve">2.58874082565308</t>
   </si>
   <si>
-    <t xml:space="preserve">2.59725642204285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.57341289520264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.56830334663391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.61599087715149</t>
+    <t xml:space="preserve">2.59725666046143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.57341265678406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.56830358505249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.61599111557007</t>
   </si>
   <si>
     <t xml:space="preserve">2.62961578369141</t>
   </si>
   <si>
-    <t xml:space="preserve">2.60577201843262</t>
+    <t xml:space="preserve">2.6057722568512</t>
   </si>
   <si>
     <t xml:space="preserve">2.56319427490234</t>
   </si>
   <si>
-    <t xml:space="preserve">2.53083467483521</t>
+    <t xml:space="preserve">2.53083491325378</t>
   </si>
   <si>
     <t xml:space="preserve">2.55978798866272</t>
   </si>
   <si>
-    <t xml:space="preserve">2.53594398498535</t>
+    <t xml:space="preserve">2.53594422340393</t>
   </si>
   <si>
     <t xml:space="preserve">2.52061605453491</t>
@@ -2765,13 +2765,13 @@
     <t xml:space="preserve">2.45249152183533</t>
   </si>
   <si>
-    <t xml:space="preserve">2.48314738273621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.45419430732727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.49336647987366</t>
+    <t xml:space="preserve">2.48314762115479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.45419454574585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.49336624145508</t>
   </si>
   <si>
     <t xml:space="preserve">2.5427565574646</t>
@@ -2783,34 +2783,34 @@
     <t xml:space="preserve">2.47633504867554</t>
   </si>
   <si>
-    <t xml:space="preserve">2.54445958137512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.55127215385437</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.53764724731445</t>
+    <t xml:space="preserve">2.5444598197937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.55127239227295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.53764748573303</t>
   </si>
   <si>
     <t xml:space="preserve">2.59895968437195</t>
   </si>
   <si>
-    <t xml:space="preserve">2.53253817558289</t>
+    <t xml:space="preserve">2.53253793716431</t>
   </si>
   <si>
     <t xml:space="preserve">2.58363127708435</t>
   </si>
   <si>
-    <t xml:space="preserve">2.57852220535278</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.69092798233032</t>
+    <t xml:space="preserve">2.57852244377136</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.6909282207489</t>
   </si>
   <si>
     <t xml:space="preserve">2.63642811775208</t>
   </si>
   <si>
-    <t xml:space="preserve">2.46952247619629</t>
+    <t xml:space="preserve">2.46952271461487</t>
   </si>
   <si>
     <t xml:space="preserve">2.42353844642639</t>
@@ -2819,16 +2819,16 @@
     <t xml:space="preserve">2.4456787109375</t>
   </si>
   <si>
-    <t xml:space="preserve">2.45589756965637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.41672611236572</t>
+    <t xml:space="preserve">2.45589780807495</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.41672587394714</t>
   </si>
   <si>
     <t xml:space="preserve">2.56149101257324</t>
   </si>
   <si>
-    <t xml:space="preserve">2.58703804016113</t>
+    <t xml:space="preserve">2.58703780174255</t>
   </si>
   <si>
     <t xml:space="preserve">2.64835000038147</t>
@@ -2843,7 +2843,7 @@
     <t xml:space="preserve">2.65005326271057</t>
   </si>
   <si>
-    <t xml:space="preserve">2.68581891059875</t>
+    <t xml:space="preserve">2.68581867218018</t>
   </si>
   <si>
     <t xml:space="preserve">2.6415376663208</t>
@@ -2852,19 +2852,19 @@
     <t xml:space="preserve">2.63131880760193</t>
   </si>
   <si>
-    <t xml:space="preserve">2.61939692497253</t>
+    <t xml:space="preserve">2.61939716339111</t>
   </si>
   <si>
     <t xml:space="preserve">2.52231907844543</t>
   </si>
   <si>
-    <t xml:space="preserve">2.49166345596313</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.62280344963074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.65856862068176</t>
+    <t xml:space="preserve">2.49166321754456</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.62280321121216</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.65856885910034</t>
   </si>
   <si>
     <t xml:space="preserve">2.66538143157959</t>
@@ -2885,13 +2885,13 @@
     <t xml:space="preserve">2.80929493904114</t>
   </si>
   <si>
-    <t xml:space="preserve">2.79652142524719</t>
+    <t xml:space="preserve">2.79652118682861</t>
   </si>
   <si>
     <t xml:space="preserve">2.81270098686218</t>
   </si>
   <si>
-    <t xml:space="preserve">2.83399033546448</t>
+    <t xml:space="preserve">2.8339900970459</t>
   </si>
   <si>
     <t xml:space="preserve">2.87231016159058</t>
@@ -2903,16 +2903,16 @@
     <t xml:space="preserve">2.85698223114014</t>
   </si>
   <si>
-    <t xml:space="preserve">2.85783386230469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.85868525505066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.84846663475037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.89785695075989</t>
+    <t xml:space="preserve">2.85783362388611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.85868549346924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.84846687316895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.89785718917847</t>
   </si>
   <si>
     <t xml:space="preserve">2.86549782752991</t>
@@ -2921,7 +2921,7 @@
     <t xml:space="preserve">2.8697555065155</t>
   </si>
   <si>
-    <t xml:space="preserve">2.90126347541809</t>
+    <t xml:space="preserve">2.90126323699951</t>
   </si>
   <si>
     <t xml:space="preserve">2.94384121894836</t>
@@ -2930,7 +2930,7 @@
     <t xml:space="preserve">2.87401342391968</t>
   </si>
   <si>
-    <t xml:space="preserve">2.8757164478302</t>
+    <t xml:space="preserve">2.87571620941162</t>
   </si>
   <si>
     <t xml:space="preserve">2.86720108985901</t>
@@ -2945,7 +2945,7 @@
     <t xml:space="preserve">2.92766165733337</t>
   </si>
   <si>
-    <t xml:space="preserve">2.96683311462402</t>
+    <t xml:space="preserve">2.9668333530426</t>
   </si>
   <si>
     <t xml:space="preserve">2.98556780815125</t>
@@ -2960,16 +2960,16 @@
     <t xml:space="preserve">2.98982548713684</t>
   </si>
   <si>
-    <t xml:space="preserve">2.97194290161133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.96768474578857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.9727942943573</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.97023963928223</t>
+    <t xml:space="preserve">2.97194266319275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.96768498420715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.97279405593872</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.97023940086365</t>
   </si>
   <si>
     <t xml:space="preserve">2.98130989074707</t>
@@ -3005,7 +3005,7 @@
     <t xml:space="preserve">3.1592857837677</t>
   </si>
   <si>
-    <t xml:space="preserve">3.13373923301697</t>
+    <t xml:space="preserve">3.13373899459839</t>
   </si>
   <si>
     <t xml:space="preserve">3.1192626953125</t>
@@ -3020,10 +3020,10 @@
     <t xml:space="preserve">3.01026296615601</t>
   </si>
   <si>
-    <t xml:space="preserve">3.03240370750427</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.00345039367676</t>
+    <t xml:space="preserve">3.03240346908569</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.00345015525818</t>
   </si>
   <si>
     <t xml:space="preserve">2.99834108352661</t>
@@ -3035,16 +3035,16 @@
     <t xml:space="preserve">2.97364592552185</t>
   </si>
   <si>
-    <t xml:space="preserve">3.00259876251221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.0175416469574</t>
+    <t xml:space="preserve">3.00259852409363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.01754140853882</t>
   </si>
   <si>
     <t xml:space="preserve">3.0043568611145</t>
   </si>
   <si>
-    <t xml:space="preserve">3.07028031349182</t>
+    <t xml:space="preserve">3.0702805519104</t>
   </si>
   <si>
     <t xml:space="preserve">2.97271347045898</t>
@@ -3062,13 +3062,13 @@
     <t xml:space="preserve">3.03072619438171</t>
   </si>
   <si>
-    <t xml:space="preserve">3.00347805023193</t>
+    <t xml:space="preserve">3.00347781181335</t>
   </si>
   <si>
     <t xml:space="preserve">3.03512120246887</t>
   </si>
   <si>
-    <t xml:space="preserve">2.94810223579407</t>
+    <t xml:space="preserve">2.94810199737549</t>
   </si>
   <si>
     <t xml:space="preserve">2.9568920135498</t>
@@ -3077,7 +3077,7 @@
     <t xml:space="preserve">3.05709552764893</t>
   </si>
   <si>
-    <t xml:space="preserve">3.11159229278564</t>
+    <t xml:space="preserve">3.11159253120422</t>
   </si>
   <si>
     <t xml:space="preserve">3.08873891830444</t>
@@ -3086,16 +3086,16 @@
     <t xml:space="preserve">3.10192370414734</t>
   </si>
   <si>
-    <t xml:space="preserve">3.1458728313446</t>
+    <t xml:space="preserve">3.14587259292603</t>
   </si>
   <si>
     <t xml:space="preserve">3.17839503288269</t>
   </si>
   <si>
-    <t xml:space="preserve">3.15378355979919</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.15817832946777</t>
+    <t xml:space="preserve">3.15378379821777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.15817856788635</t>
   </si>
   <si>
     <t xml:space="preserve">3.13532495498657</t>
@@ -3104,13 +3104,13 @@
     <t xml:space="preserve">3.12214040756226</t>
   </si>
   <si>
-    <t xml:space="preserve">3.11335039138794</t>
+    <t xml:space="preserve">3.11335062980652</t>
   </si>
   <si>
     <t xml:space="preserve">3.13268804550171</t>
   </si>
   <si>
-    <t xml:space="preserve">3.15993642807007</t>
+    <t xml:space="preserve">3.15993666648865</t>
   </si>
   <si>
     <t xml:space="preserve">3.14850974082947</t>
@@ -3128,13 +3128,13 @@
     <t xml:space="preserve">3.26277709007263</t>
   </si>
   <si>
-    <t xml:space="preserve">3.27420377731323</t>
+    <t xml:space="preserve">3.27420401573181</t>
   </si>
   <si>
     <t xml:space="preserve">3.29881548881531</t>
   </si>
   <si>
-    <t xml:space="preserve">3.31551623344421</t>
+    <t xml:space="preserve">3.31551599502563</t>
   </si>
   <si>
     <t xml:space="preserve">3.30408930778503</t>
@@ -3152,7 +3152,7 @@
     <t xml:space="preserve">3.21707034111023</t>
   </si>
   <si>
-    <t xml:space="preserve">3.23201274871826</t>
+    <t xml:space="preserve">3.23201298713684</t>
   </si>
   <si>
     <t xml:space="preserve">3.22673892974854</t>
@@ -3161,31 +3161,31 @@
     <t xml:space="preserve">3.21970725059509</t>
   </si>
   <si>
-    <t xml:space="preserve">3.25398707389832</t>
+    <t xml:space="preserve">3.25398731231689</t>
   </si>
   <si>
     <t xml:space="preserve">3.23904466629028</t>
   </si>
   <si>
-    <t xml:space="preserve">3.22586011886597</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.24168181419373</t>
+    <t xml:space="preserve">3.22585988044739</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.24168157577515</t>
   </si>
   <si>
     <t xml:space="preserve">3.19597458839417</t>
   </si>
   <si>
-    <t xml:space="preserve">3.14938879013062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.18806409835815</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.21443343162537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.16345262527466</t>
+    <t xml:space="preserve">3.14938855171204</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.18806385993958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.21443319320679</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.16345238685608</t>
   </si>
   <si>
     <t xml:space="preserve">3.19861149787903</t>
@@ -3197,55 +3197,55 @@
     <t xml:space="preserve">3.20124864578247</t>
   </si>
   <si>
-    <t xml:space="preserve">3.19773244857788</t>
+    <t xml:space="preserve">3.19773268699646</t>
   </si>
   <si>
     <t xml:space="preserve">3.20740127563477</t>
   </si>
   <si>
-    <t xml:space="preserve">3.13620400428772</t>
+    <t xml:space="preserve">3.1362042427063</t>
   </si>
   <si>
     <t xml:space="preserve">3.08522295951843</t>
   </si>
   <si>
-    <t xml:space="preserve">3.12653493881226</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.10807681083679</t>
+    <t xml:space="preserve">3.12653517723083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.10807657241821</t>
   </si>
   <si>
     <t xml:space="preserve">3.10719776153564</t>
   </si>
   <si>
-    <t xml:space="preserve">3.10983443260193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.11598753929138</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.07115912437439</t>
+    <t xml:space="preserve">3.10983467102051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.1159873008728</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.07115960121155</t>
   </si>
   <si>
     <t xml:space="preserve">3.09664988517761</t>
   </si>
   <si>
-    <t xml:space="preserve">3.01929950714111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.98501896858215</t>
+    <t xml:space="preserve">3.01929926872253</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.98501920700073</t>
   </si>
   <si>
     <t xml:space="preserve">3.02017855644226</t>
   </si>
   <si>
-    <t xml:space="preserve">3.05533766746521</t>
+    <t xml:space="preserve">3.05533790588379</t>
   </si>
   <si>
     <t xml:space="preserve">3.08610200881958</t>
   </si>
   <si>
-    <t xml:space="preserve">3.0632483959198</t>
+    <t xml:space="preserve">3.06324863433838</t>
   </si>
   <si>
     <t xml:space="preserve">3.03336310386658</t>
@@ -3254,7 +3254,7 @@
     <t xml:space="preserve">3.05357980728149</t>
   </si>
   <si>
-    <t xml:space="preserve">3.11422944068909</t>
+    <t xml:space="preserve">3.11422920227051</t>
   </si>
   <si>
     <t xml:space="preserve">3.14675164222717</t>
@@ -3263,7 +3263,7 @@
     <t xml:space="preserve">3.16257333755493</t>
   </si>
   <si>
-    <t xml:space="preserve">3.13005137443542</t>
+    <t xml:space="preserve">3.13005113601685</t>
   </si>
   <si>
     <t xml:space="preserve">3.16608929634094</t>
@@ -3281,13 +3281,13 @@
     <t xml:space="preserve">3.14763069152832</t>
   </si>
   <si>
-    <t xml:space="preserve">3.22849726676941</t>
+    <t xml:space="preserve">3.22849702835083</t>
   </si>
   <si>
     <t xml:space="preserve">3.20828056335449</t>
   </si>
   <si>
-    <t xml:space="preserve">3.1704843044281</t>
+    <t xml:space="preserve">3.17048454284668</t>
   </si>
   <si>
     <t xml:space="preserve">3.1291720867157</t>
@@ -3296,7 +3296,7 @@
     <t xml:space="preserve">3.17136335372925</t>
   </si>
   <si>
-    <t xml:space="preserve">3.18366885185242</t>
+    <t xml:space="preserve">3.18366861343384</t>
   </si>
   <si>
     <t xml:space="preserve">3.18718481063843</t>
@@ -3317,10 +3317,10 @@
     <t xml:space="preserve">2.97710847854614</t>
   </si>
   <si>
-    <t xml:space="preserve">2.99292993545532</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.06764364242554</t>
+    <t xml:space="preserve">2.9929301738739</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.06764340400696</t>
   </si>
   <si>
     <t xml:space="preserve">2.99732518196106</t>
@@ -3329,16 +3329,16 @@
     <t xml:space="preserve">3.13796186447144</t>
   </si>
   <si>
-    <t xml:space="preserve">3.09313416481018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.12038207054138</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.08961796760559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.11510848999023</t>
+    <t xml:space="preserve">3.0931339263916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.12038230895996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.08961820602417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.11510825157166</t>
   </si>
   <si>
     <t xml:space="preserve">3.13708305358887</t>
@@ -3347,25 +3347,25 @@
     <t xml:space="preserve">3.1590576171875</t>
   </si>
   <si>
-    <t xml:space="preserve">3.16433143615723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.17487907409668</t>
+    <t xml:space="preserve">3.16433119773865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.17487931251526</t>
   </si>
   <si>
     <t xml:space="preserve">3.23289179801941</t>
   </si>
   <si>
-    <t xml:space="preserve">3.2179491519928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.25750350952148</t>
+    <t xml:space="preserve">3.21794939041138</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.25750327110291</t>
   </si>
   <si>
     <t xml:space="preserve">3.22761797904968</t>
   </si>
   <si>
-    <t xml:space="preserve">3.20212745666504</t>
+    <t xml:space="preserve">3.20212769508362</t>
   </si>
   <si>
     <t xml:space="preserve">3.13971996307373</t>
@@ -3374,7 +3374,7 @@
     <t xml:space="preserve">3.12565612792969</t>
   </si>
   <si>
-    <t xml:space="preserve">3.10543966293335</t>
+    <t xml:space="preserve">3.10543990135193</t>
   </si>
   <si>
     <t xml:space="preserve">3.081707239151</t>
@@ -3392,10 +3392,10 @@
     <t xml:space="preserve">3.02633142471313</t>
   </si>
   <si>
-    <t xml:space="preserve">3.08434414863586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.19070076942444</t>
+    <t xml:space="preserve">3.08434391021729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.19070100784302</t>
   </si>
   <si>
     <t xml:space="preserve">3.2654139995575</t>
@@ -3407,25 +3407,25 @@
     <t xml:space="preserve">3.18454790115356</t>
   </si>
   <si>
-    <t xml:space="preserve">3.04830574989319</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.98765635490417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.0272102355957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.04742670059204</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.03424215316772</t>
+    <t xml:space="preserve">3.04830598831177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.9876561164856</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.02721047401428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.04742693901062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.03424191474915</t>
   </si>
   <si>
     <t xml:space="preserve">2.96656060218811</t>
   </si>
   <si>
-    <t xml:space="preserve">2.9946882724762</t>
+    <t xml:space="preserve">2.99468803405762</t>
   </si>
   <si>
     <t xml:space="preserve">2.97974538803101</t>
@@ -3434,28 +3434,28 @@
     <t xml:space="preserve">2.94898104667664</t>
   </si>
   <si>
-    <t xml:space="preserve">2.94370698928833</t>
+    <t xml:space="preserve">2.94370722770691</t>
   </si>
   <si>
     <t xml:space="preserve">2.90151619911194</t>
   </si>
   <si>
-    <t xml:space="preserve">2.91294264793396</t>
+    <t xml:space="preserve">2.91294288635254</t>
   </si>
   <si>
     <t xml:space="preserve">2.92964339256287</t>
   </si>
   <si>
-    <t xml:space="preserve">2.84262418746948</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.0456690788269</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.93755435943604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.89360523223877</t>
+    <t xml:space="preserve">2.84262442588806</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.04566884040833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.93755412101746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.89360547065735</t>
   </si>
   <si>
     <t xml:space="preserve">2.86547780036926</t>
@@ -3494,7 +3494,7 @@
     <t xml:space="preserve">2.89184737205505</t>
   </si>
   <si>
-    <t xml:space="preserve">2.85932493209839</t>
+    <t xml:space="preserve">2.85932517051697</t>
   </si>
   <si>
     <t xml:space="preserve">2.91909575462341</t>
@@ -3506,10 +3506,10 @@
     <t xml:space="preserve">2.95952892303467</t>
   </si>
   <si>
-    <t xml:space="preserve">2.94107031822205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.98326134681702</t>
+    <t xml:space="preserve">2.94107007980347</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.98326110839844</t>
   </si>
   <si>
     <t xml:space="preserve">3.0157835483551</t>
@@ -3521,13 +3521,13 @@
     <t xml:space="preserve">3.16081523895264</t>
   </si>
   <si>
-    <t xml:space="preserve">3.11686658859253</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.15729975700378</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.1722424030304</t>
+    <t xml:space="preserve">3.11686635017395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.15729951858521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.17224216461182</t>
   </si>
   <si>
     <t xml:space="preserve">3.12829327583313</t>
@@ -3536,25 +3536,25 @@
     <t xml:space="preserve">3.16169428825378</t>
   </si>
   <si>
-    <t xml:space="preserve">3.08346509933472</t>
+    <t xml:space="preserve">3.08346486091614</t>
   </si>
   <si>
     <t xml:space="preserve">3.09489178657532</t>
   </si>
   <si>
-    <t xml:space="preserve">3.06236934661865</t>
+    <t xml:space="preserve">3.06236958503723</t>
   </si>
   <si>
     <t xml:space="preserve">3.09752869606018</t>
   </si>
   <si>
-    <t xml:space="preserve">3.17751622200012</t>
+    <t xml:space="preserve">3.17751598358154</t>
   </si>
   <si>
     <t xml:space="preserve">2.94722294807434</t>
   </si>
   <si>
-    <t xml:space="preserve">2.97183442115784</t>
+    <t xml:space="preserve">2.97183465957642</t>
   </si>
   <si>
     <t xml:space="preserve">3.03863716125488</t>
@@ -3566,7 +3566,7 @@
     <t xml:space="preserve">3.15114665031433</t>
   </si>
   <si>
-    <t xml:space="preserve">3.09928679466248</t>
+    <t xml:space="preserve">3.0992865562439</t>
   </si>
   <si>
     <t xml:space="preserve">3.0764331817627</t>
@@ -3578,13 +3578,13 @@
     <t xml:space="preserve">2.97359251976013</t>
   </si>
   <si>
-    <t xml:space="preserve">2.93315935134888</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.96831870079041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.94282793998718</t>
+    <t xml:space="preserve">2.9331591129303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.96831846237183</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.94282841682434</t>
   </si>
   <si>
     <t xml:space="preserve">2.94458603858948</t>
@@ -3599,13 +3599,13 @@
     <t xml:space="preserve">2.50685358047485</t>
   </si>
   <si>
-    <t xml:space="preserve">2.44444608688354</t>
+    <t xml:space="preserve">2.44444584846497</t>
   </si>
   <si>
     <t xml:space="preserve">2.54992389678955</t>
   </si>
   <si>
-    <t xml:space="preserve">2.47784733772278</t>
+    <t xml:space="preserve">2.4778470993042</t>
   </si>
   <si>
     <t xml:space="preserve">2.507732629776</t>
@@ -3635,19 +3635,19 @@
     <t xml:space="preserve">2.56829261779785</t>
   </si>
   <si>
-    <t xml:space="preserve">2.53250694274902</t>
+    <t xml:space="preserve">2.5325071811676</t>
   </si>
   <si>
     <t xml:space="preserve">2.58022117614746</t>
   </si>
   <si>
-    <t xml:space="preserve">2.57746839523315</t>
+    <t xml:space="preserve">2.57746815681458</t>
   </si>
   <si>
     <t xml:space="preserve">2.50314474105835</t>
   </si>
   <si>
-    <t xml:space="preserve">2.54902338981628</t>
+    <t xml:space="preserve">2.54902362823486</t>
   </si>
   <si>
     <t xml:space="preserve">2.58389115333557</t>
@@ -3659,7 +3659,7 @@
     <t xml:space="preserve">2.55085849761963</t>
   </si>
   <si>
-    <t xml:space="preserve">2.46368908882141</t>
+    <t xml:space="preserve">2.46368885040283</t>
   </si>
   <si>
     <t xml:space="preserve">2.39028286933899</t>
@@ -3692,10 +3692,10 @@
     <t xml:space="preserve">2.52057862281799</t>
   </si>
   <si>
-    <t xml:space="preserve">2.53801274299622</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.60316038131714</t>
+    <t xml:space="preserve">2.53801250457764</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.60316014289856</t>
   </si>
   <si>
     <t xml:space="preserve">2.59857249259949</t>
@@ -3710,10 +3710,10 @@
     <t xml:space="preserve">2.53067183494568</t>
   </si>
   <si>
-    <t xml:space="preserve">2.53434228897095</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.56095170974731</t>
+    <t xml:space="preserve">2.53434252738953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.56095194816589</t>
   </si>
   <si>
     <t xml:space="preserve">2.56737494468689</t>
@@ -3731,13 +3731,13 @@
     <t xml:space="preserve">2.51323819160461</t>
   </si>
   <si>
-    <t xml:space="preserve">2.49396896362305</t>
+    <t xml:space="preserve">2.49396872520447</t>
   </si>
   <si>
     <t xml:space="preserve">2.45726585388184</t>
   </si>
   <si>
-    <t xml:space="preserve">2.38202452659607</t>
+    <t xml:space="preserve">2.38202476501465</t>
   </si>
   <si>
     <t xml:space="preserve">2.44074964523315</t>
@@ -3746,7 +3746,7 @@
     <t xml:space="preserve">2.29393768310547</t>
   </si>
   <si>
-    <t xml:space="preserve">2.29485511779785</t>
+    <t xml:space="preserve">2.29485487937927</t>
   </si>
   <si>
     <t xml:space="preserve">2.32697033882141</t>
@@ -3755,10 +3755,10 @@
     <t xml:space="preserve">2.26641035079956</t>
   </si>
   <si>
-    <t xml:space="preserve">2.14987802505493</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.20768523216248</t>
+    <t xml:space="preserve">2.14987826347351</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.20768547058105</t>
   </si>
   <si>
     <t xml:space="preserve">2.19483947753906</t>
@@ -3776,7 +3776,7 @@
     <t xml:space="preserve">2.22970747947693</t>
   </si>
   <si>
-    <t xml:space="preserve">2.22695469856262</t>
+    <t xml:space="preserve">2.22695446014404</t>
   </si>
   <si>
     <t xml:space="preserve">2.19850969314575</t>
@@ -3794,31 +3794,31 @@
     <t xml:space="preserve">2.11868071556091</t>
   </si>
   <si>
-    <t xml:space="preserve">2.05169773101807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.05812072753906</t>
+    <t xml:space="preserve">2.05169796943665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.05812096595764</t>
   </si>
   <si>
     <t xml:space="preserve">1.94892942905426</t>
   </si>
   <si>
-    <t xml:space="preserve">1.9975608587265</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.98746752738953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.00581908226013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.0168297290802</t>
+    <t xml:space="preserve">1.99756073951721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.98746728897095</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.00581932067871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.01682996749878</t>
   </si>
   <si>
     <t xml:space="preserve">2.07647228240967</t>
   </si>
   <si>
-    <t xml:space="preserve">1.97095108032227</t>
+    <t xml:space="preserve">1.97095119953156</t>
   </si>
   <si>
     <t xml:space="preserve">1.90855598449707</t>
@@ -3830,16 +3830,16 @@
     <t xml:space="preserve">1.93975365161896</t>
   </si>
   <si>
-    <t xml:space="preserve">1.87185311317444</t>
+    <t xml:space="preserve">1.87185299396515</t>
   </si>
   <si>
     <t xml:space="preserve">1.83882033824921</t>
   </si>
   <si>
-    <t xml:space="preserve">1.86726534366608</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89846277236938</t>
+    <t xml:space="preserve">1.86726522445679</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8984626531601</t>
   </si>
   <si>
     <t xml:space="preserve">1.9480117559433</t>
@@ -3857,7 +3857,7 @@
     <t xml:space="preserve">1.92048454284668</t>
   </si>
   <si>
-    <t xml:space="preserve">1.98379719257355</t>
+    <t xml:space="preserve">1.98379731178284</t>
   </si>
   <si>
     <t xml:space="preserve">2.07280206680298</t>
@@ -3872,10 +3872,10 @@
     <t xml:space="preserve">2.21319103240967</t>
   </si>
   <si>
-    <t xml:space="preserve">2.22420167922974</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.22236680984497</t>
+    <t xml:space="preserve">2.22420191764832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.22236657142639</t>
   </si>
   <si>
     <t xml:space="preserve">2.21135592460632</t>
@@ -3890,13 +3890,13 @@
     <t xml:space="preserve">2.31595921516418</t>
   </si>
   <si>
-    <t xml:space="preserve">2.364590883255</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.39395332336426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.36550831794739</t>
+    <t xml:space="preserve">2.36459064483643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.39395308494568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.36550855636597</t>
   </si>
   <si>
     <t xml:space="preserve">2.38477754592896</t>
@@ -3923,10 +3923,10 @@
     <t xml:space="preserve">2.43249130249023</t>
   </si>
   <si>
-    <t xml:space="preserve">2.43799710273743</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.41872763633728</t>
+    <t xml:space="preserve">2.43799686431885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.41872787475586</t>
   </si>
   <si>
     <t xml:space="preserve">2.43065619468689</t>
@@ -3938,16 +3938,16 @@
     <t xml:space="preserve">2.46001863479614</t>
   </si>
   <si>
-    <t xml:space="preserve">2.46827697753906</t>
+    <t xml:space="preserve">2.46827673912048</t>
   </si>
   <si>
     <t xml:space="preserve">2.46460676193237</t>
   </si>
   <si>
-    <t xml:space="preserve">2.52333116531372</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.5728805065155</t>
+    <t xml:space="preserve">2.5233314037323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.57288026809692</t>
   </si>
   <si>
     <t xml:space="preserve">2.59673738479614</t>
@@ -3968,7 +3968,7 @@
     <t xml:space="preserve">2.3462393283844</t>
   </si>
   <si>
-    <t xml:space="preserve">2.32513499259949</t>
+    <t xml:space="preserve">2.32513523101807</t>
   </si>
   <si>
     <t xml:space="preserve">2.34165143966675</t>
@@ -3977,7 +3977,7 @@
     <t xml:space="preserve">2.33889889717102</t>
   </si>
   <si>
-    <t xml:space="preserve">2.28476190567017</t>
+    <t xml:space="preserve">2.28476166725159</t>
   </si>
   <si>
     <t xml:space="preserve">2.33614611625671</t>
@@ -3992,7 +3992,7 @@
     <t xml:space="preserve">2.37468409538269</t>
   </si>
   <si>
-    <t xml:space="preserve">2.42239832878113</t>
+    <t xml:space="preserve">2.42239809036255</t>
   </si>
   <si>
     <t xml:space="preserve">2.40955185890198</t>
@@ -4004,25 +4004,25 @@
     <t xml:space="preserve">2.54260039329529</t>
   </si>
   <si>
-    <t xml:space="preserve">2.514155626297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.51966118812561</t>
+    <t xml:space="preserve">2.51415538787842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.51966094970703</t>
   </si>
   <si>
     <t xml:space="preserve">2.49672174453735</t>
   </si>
   <si>
-    <t xml:space="preserve">2.43524408340454</t>
+    <t xml:space="preserve">2.43524432182312</t>
   </si>
   <si>
     <t xml:space="preserve">2.47745251655579</t>
   </si>
   <si>
-    <t xml:space="preserve">2.50406241416931</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.49121594429016</t>
+    <t xml:space="preserve">2.50406217575073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.49121618270874</t>
   </si>
   <si>
     <t xml:space="preserve">2.48571085929871</t>
@@ -4037,7 +4037,7 @@
     <t xml:space="preserve">2.43157386779785</t>
   </si>
   <si>
-    <t xml:space="preserve">2.50039172172546</t>
+    <t xml:space="preserve">2.50039196014404</t>
   </si>
   <si>
     <t xml:space="preserve">2.45910120010376</t>
@@ -4055,16 +4055,16 @@
     <t xml:space="preserve">2.38569498062134</t>
   </si>
   <si>
-    <t xml:space="preserve">2.38018989562988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.35082721710205</t>
+    <t xml:space="preserve">2.3801896572113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.35082745552063</t>
   </si>
   <si>
     <t xml:space="preserve">2.31779456138611</t>
   </si>
   <si>
-    <t xml:space="preserve">2.30953621864319</t>
+    <t xml:space="preserve">2.30953645706177</t>
   </si>
   <si>
     <t xml:space="preserve">2.30494856834412</t>
@@ -4097,7 +4097,7 @@
     <t xml:space="preserve">2.21686100959778</t>
   </si>
   <si>
-    <t xml:space="preserve">2.20676803588867</t>
+    <t xml:space="preserve">2.20676779747009</t>
   </si>
   <si>
     <t xml:space="preserve">2.19575691223145</t>
@@ -4115,7 +4115,7 @@
     <t xml:space="preserve">2.28567934036255</t>
   </si>
   <si>
-    <t xml:space="preserve">2.29669046401978</t>
+    <t xml:space="preserve">2.2966902256012</t>
   </si>
   <si>
     <t xml:space="preserve">2.32605266571045</t>
@@ -4130,10 +4130,10 @@
     <t xml:space="preserve">2.4921338558197</t>
   </si>
   <si>
-    <t xml:space="preserve">2.51232051849365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.40588188171387</t>
+    <t xml:space="preserve">2.51232028007507</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.40588164329529</t>
   </si>
   <si>
     <t xml:space="preserve">2.48479318618774</t>
@@ -4142,19 +4142,19 @@
     <t xml:space="preserve">2.47928762435913</t>
   </si>
   <si>
-    <t xml:space="preserve">2.56186962127686</t>
+    <t xml:space="preserve">2.56186938285828</t>
   </si>
   <si>
     <t xml:space="preserve">2.59123182296753</t>
   </si>
   <si>
-    <t xml:space="preserve">2.53617739677429</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.58939695358276</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.62609958648682</t>
+    <t xml:space="preserve">2.53617715835571</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.58939671516418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.6260998249054</t>
   </si>
   <si>
     <t xml:space="preserve">2.61692404747009</t>
@@ -4163,10 +4163,10 @@
     <t xml:space="preserve">2.63527536392212</t>
   </si>
   <si>
-    <t xml:space="preserve">2.72152781486511</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.74905467033386</t>
+    <t xml:space="preserve">2.72152757644653</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.74905490875244</t>
   </si>
   <si>
     <t xml:space="preserve">2.77658200263977</t>
@@ -4187,10 +4187,10 @@
     <t xml:space="preserve">2.73070335388184</t>
   </si>
   <si>
-    <t xml:space="preserve">2.71969246864319</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.64445114135742</t>
+    <t xml:space="preserve">2.71969223022461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.644451379776</t>
   </si>
   <si>
     <t xml:space="preserve">2.62242960929871</t>
@@ -4199,10 +4199,10 @@
     <t xml:space="preserve">2.67564868927002</t>
   </si>
   <si>
-    <t xml:space="preserve">2.67748403549194</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.70684623718262</t>
+    <t xml:space="preserve">2.67748379707336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.7068464756012</t>
   </si>
   <si>
     <t xml:space="preserve">2.68298935890198</t>
@@ -4220,7 +4220,7 @@
     <t xml:space="preserve">2.63894581794739</t>
   </si>
   <si>
-    <t xml:space="preserve">2.64812135696411</t>
+    <t xml:space="preserve">2.64812159538269</t>
   </si>
   <si>
     <t xml:space="preserve">2.65913248062134</t>
@@ -4232,7 +4232,7 @@
     <t xml:space="preserve">2.62426447868347</t>
   </si>
   <si>
-    <t xml:space="preserve">2.66463780403137</t>
+    <t xml:space="preserve">2.66463804244995</t>
   </si>
   <si>
     <t xml:space="preserve">2.61190128326416</t>
@@ -4947,6 +4947,9 @@
   </si>
   <si>
     <t xml:space="preserve">3.26600003242493</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.28200006484985</t>
   </si>
 </sst>
 </file>
@@ -62228,7 +62231,7 @@
     </row>
     <row r="2191">
       <c r="A2191" s="1" t="n">
-        <v>45512.6494097222</v>
+        <v>45512.2916666667</v>
       </c>
       <c r="B2191" t="n">
         <v>1688551</v>
@@ -62249,6 +62252,32 @@
         <v>1644</v>
       </c>
       <c r="H2191" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2192">
+      <c r="A2192" s="1" t="n">
+        <v>45513.6495601852</v>
+      </c>
+      <c r="B2192" t="n">
+        <v>1016848</v>
+      </c>
+      <c r="C2192" t="n">
+        <v>3.31200003623962</v>
+      </c>
+      <c r="D2192" t="n">
+        <v>3.25600004196167</v>
+      </c>
+      <c r="E2192" t="n">
+        <v>3.27600002288818</v>
+      </c>
+      <c r="F2192" t="n">
+        <v>3.28200006484985</v>
+      </c>
+      <c r="G2192" t="s">
+        <v>1645</v>
+      </c>
+      <c r="H2192" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/HER.MI.xlsx
+++ b/data/HER.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1642" uniqueCount="1642">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1643" uniqueCount="1643">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -44,10 +44,10 @@
     <t xml:space="preserve">HER.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">1.77260434627533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76970529556274</t>
+    <t xml:space="preserve">1.77260446548462</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7697057723999</t>
   </si>
   <si>
     <t xml:space="preserve">1.7740535736084</t>
@@ -56,79 +56,79 @@
     <t xml:space="preserve">1.75086331367493</t>
   </si>
   <si>
-    <t xml:space="preserve">1.78999722003937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85811829566956</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86101698875427</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83637738227844</t>
+    <t xml:space="preserve">1.78999698162079</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85811805725098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86101710796356</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83637750148773</t>
   </si>
   <si>
     <t xml:space="preserve">1.81173801422119</t>
   </si>
   <si>
-    <t xml:space="preserve">1.76680672168732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83927643299103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81463670730591</t>
+    <t xml:space="preserve">1.76680660247803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83927631378174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81463658809662</t>
   </si>
   <si>
     <t xml:space="preserve">1.83202958106995</t>
   </si>
   <si>
-    <t xml:space="preserve">1.87261247634888</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85666918754578</t>
+    <t xml:space="preserve">1.8726122379303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85666930675507</t>
   </si>
   <si>
     <t xml:space="preserve">1.87116289138794</t>
   </si>
   <si>
-    <t xml:space="preserve">1.90304923057556</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88420724868774</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86971342563629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91754341125488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92479050159454</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90884733200073</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89145445823669</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89725196361542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79289567470551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8059401512146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82478249073029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76245844364166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82043445110321</t>
+    <t xml:space="preserve">1.90304970741272</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88420748710632</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86971366405487</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91754353046417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9247899055481</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90884697437286</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89145421981812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.897252202034</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79289579391479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80594062805176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82478225231171</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76245832443237</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82043433189392</t>
   </si>
   <si>
     <t xml:space="preserve">1.86246657371521</t>
@@ -137,13 +137,13 @@
     <t xml:space="preserve">1.84942221641541</t>
   </si>
   <si>
-    <t xml:space="preserve">1.84217524528503</t>
+    <t xml:space="preserve">1.84217500686646</t>
   </si>
   <si>
     <t xml:space="preserve">1.86536538600922</t>
   </si>
   <si>
-    <t xml:space="preserve">1.86826431751251</t>
+    <t xml:space="preserve">1.86826419830322</t>
   </si>
   <si>
     <t xml:space="preserve">1.88855564594269</t>
@@ -152,25 +152,25 @@
     <t xml:space="preserve">1.89870131015778</t>
   </si>
   <si>
-    <t xml:space="preserve">1.85521996021271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83057999610901</t>
+    <t xml:space="preserve">1.85521972179413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83057987689972</t>
   </si>
   <si>
     <t xml:space="preserve">1.81028842926025</t>
   </si>
   <si>
-    <t xml:space="preserve">1.80449092388153</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79434525966644</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8088390827179</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79724407196045</t>
+    <t xml:space="preserve">1.80449104309082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79434514045715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80883932113647</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79724383354187</t>
   </si>
   <si>
     <t xml:space="preserve">1.82913053035736</t>
@@ -179,34 +179,34 @@
     <t xml:space="preserve">1.84507393836975</t>
   </si>
   <si>
-    <t xml:space="preserve">1.82623171806335</t>
+    <t xml:space="preserve">1.82623195648193</t>
   </si>
   <si>
     <t xml:space="preserve">1.8407256603241</t>
   </si>
   <si>
-    <t xml:space="preserve">1.86391580104828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90594840049744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87841022014618</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9262398481369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91174590587616</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83347904682159</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84797275066376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85377025604248</t>
+    <t xml:space="preserve">1.86391603946686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90594828128815</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87840986251831</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92623949050903</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91174602508545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83347856998444</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84797263145447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85377049446106</t>
   </si>
   <si>
     <t xml:space="preserve">1.84362435340881</t>
@@ -215,61 +215,61 @@
     <t xml:space="preserve">1.8465234041214</t>
   </si>
   <si>
-    <t xml:space="preserve">1.87551116943359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87696027755737</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85956764221191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8508712053299</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82188355922699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81318736076355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89435338973999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9146443605423</t>
+    <t xml:space="preserve">1.8755110502243</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87696015834808</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8595677614212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85087144374847</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82188367843628</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81318747997284</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89435315132141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91464447975159</t>
   </si>
   <si>
     <t xml:space="preserve">1.90015089511871</t>
   </si>
   <si>
-    <t xml:space="preserve">1.91319501399994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89000499248505</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90160048007965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89290404319763</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88130867481232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82768130302429</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7957946062088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80738961696625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.77550303936005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82295882701874</t>
+    <t xml:space="preserve">1.91319561004639</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89000523090363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90160012245178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89290380477905</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88130831718445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.827681183815</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79579412937164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80738997459412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77550315856934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82295894622803</t>
   </si>
   <si>
     <t xml:space="preserve">1.83949017524719</t>
@@ -278,52 +278,52 @@
     <t xml:space="preserve">1.80492460727692</t>
   </si>
   <si>
-    <t xml:space="preserve">1.82446157932281</t>
+    <t xml:space="preserve">1.82446181774139</t>
   </si>
   <si>
     <t xml:space="preserve">1.7673534154892</t>
   </si>
   <si>
-    <t xml:space="preserve">1.73579335212708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.77336478233337</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80342185497284</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84700429439545</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90260982513428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87555849552155</t>
+    <t xml:space="preserve">1.73579347133636</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77336454391479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80342173576355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84700441360474</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90261018276215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87555909156799</t>
   </si>
   <si>
     <t xml:space="preserve">1.87856423854828</t>
   </si>
   <si>
-    <t xml:space="preserve">1.85151290893555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84550189971924</t>
+    <t xml:space="preserve">1.85151314735413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84550154209137</t>
   </si>
   <si>
     <t xml:space="preserve">1.7913990020752</t>
   </si>
   <si>
-    <t xml:space="preserve">1.82596480846405</t>
+    <t xml:space="preserve">1.82596445083618</t>
   </si>
   <si>
     <t xml:space="preserve">1.81093609333038</t>
   </si>
   <si>
-    <t xml:space="preserve">1.83648431301117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83197569847107</t>
+    <t xml:space="preserve">1.83648467063904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83197581768036</t>
   </si>
   <si>
     <t xml:space="preserve">1.82746720314026</t>
@@ -335,22 +335,22 @@
     <t xml:space="preserve">1.84099316596985</t>
   </si>
   <si>
-    <t xml:space="preserve">1.85001015663147</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90561604499817</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9266551733017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91914129257202</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90411281585693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93567276000977</t>
+    <t xml:space="preserve">1.85001027584076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90561556816101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92665553092957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91914105415344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90411293506622</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9356724023819</t>
   </si>
   <si>
     <t xml:space="preserve">1.89960432052612</t>
@@ -362,43 +362,43 @@
     <t xml:space="preserve">1.86353600025177</t>
   </si>
   <si>
-    <t xml:space="preserve">1.88758158683777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88006711006165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81394171714783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8094334602356</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84249579906464</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85752415657043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8665417432785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85301601886749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85602128505707</t>
+    <t xml:space="preserve">1.88758134841919</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88006734848022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81394183635712</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80943322181702</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84249591827393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85752427577972</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86654138565063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8530158996582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85602164268494</t>
   </si>
   <si>
     <t xml:space="preserve">1.88307273387909</t>
   </si>
   <si>
-    <t xml:space="preserve">1.82145595550537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80041587352753</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.77035903930664</t>
+    <t xml:space="preserve">1.82145571708679</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80041599273682</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77035892009735</t>
   </si>
   <si>
     <t xml:space="preserve">1.80191886425018</t>
@@ -407,10 +407,10 @@
     <t xml:space="preserve">1.819953083992</t>
   </si>
   <si>
-    <t xml:space="preserve">1.77486777305603</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7718620300293</t>
+    <t xml:space="preserve">1.77486765384674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77186226844788</t>
   </si>
   <si>
     <t xml:space="preserve">1.76585030555725</t>
@@ -419,46 +419,46 @@
     <t xml:space="preserve">1.75533056259155</t>
   </si>
   <si>
-    <t xml:space="preserve">1.78087866306305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75983881950378</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69221091270447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.66515946388245</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65163373947144</t>
+    <t xml:space="preserve">1.78087913990021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75983893871307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69221067428589</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.66515958309174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65163385868073</t>
   </si>
   <si>
     <t xml:space="preserve">1.638108253479</t>
   </si>
   <si>
-    <t xml:space="preserve">1.66065096855164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.66966795921326</t>
+    <t xml:space="preserve">1.66065108776093</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.66966784000397</t>
   </si>
   <si>
     <t xml:space="preserve">1.67417633533478</t>
   </si>
   <si>
-    <t xml:space="preserve">1.68169069290161</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69371354579926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.67868506908417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69972503185272</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69822216033936</t>
+    <t xml:space="preserve">1.68169093132019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69371366500854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.67868494987488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6997252702713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69822227954865</t>
   </si>
   <si>
     <t xml:space="preserve">1.71174788475037</t>
@@ -467,10 +467,10 @@
     <t xml:space="preserve">1.68319368362427</t>
   </si>
   <si>
-    <t xml:space="preserve">1.67567920684814</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.67718243598938</t>
+    <t xml:space="preserve">1.67567944526672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.67718231678009</t>
   </si>
   <si>
     <t xml:space="preserve">1.68619918823242</t>
@@ -479,7 +479,7 @@
     <t xml:space="preserve">1.72377038002014</t>
   </si>
   <si>
-    <t xml:space="preserve">1.73128485679626</t>
+    <t xml:space="preserve">1.73128473758698</t>
   </si>
   <si>
     <t xml:space="preserve">1.75082194805145</t>
@@ -488,43 +488,43 @@
     <t xml:space="preserve">1.6531366109848</t>
   </si>
   <si>
-    <t xml:space="preserve">1.62458264827728</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.62157690525055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60053694248199</t>
+    <t xml:space="preserve">1.6245824098587</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.62157678604126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60053706169128</t>
   </si>
   <si>
     <t xml:space="preserve">1.5148743391037</t>
   </si>
   <si>
-    <t xml:space="preserve">1.51787996292114</t>
+    <t xml:space="preserve">1.51787984371185</t>
   </si>
   <si>
     <t xml:space="preserve">1.49984574317932</t>
   </si>
   <si>
-    <t xml:space="preserve">1.49909424781799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.50435435771942</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.48331439495087</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.47504889965057</t>
+    <t xml:space="preserve">1.49909436702728</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.50435447692871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.48331427574158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.47504878044128</t>
   </si>
   <si>
     <t xml:space="preserve">1.44799745082855</t>
   </si>
   <si>
-    <t xml:space="preserve">1.4464944601059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.46152305603027</t>
+    <t xml:space="preserve">1.44649457931519</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.46152293682098</t>
   </si>
   <si>
     <t xml:space="preserve">1.46528029441833</t>
@@ -533,28 +533,28 @@
     <t xml:space="preserve">1.45025157928467</t>
   </si>
   <si>
-    <t xml:space="preserve">1.45400857925415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.45776605606079</t>
+    <t xml:space="preserve">1.45400869846344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.4577659368515</t>
   </si>
   <si>
     <t xml:space="preserve">1.46903729438782</t>
   </si>
   <si>
-    <t xml:space="preserve">1.43296873569489</t>
+    <t xml:space="preserve">1.43296885490417</t>
   </si>
   <si>
     <t xml:space="preserve">1.40967464447021</t>
   </si>
   <si>
-    <t xml:space="preserve">1.42846024036407</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.49233138561249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53591430187225</t>
+    <t xml:space="preserve">1.42846035957336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.49233150482178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53591406345367</t>
   </si>
   <si>
     <t xml:space="preserve">1.54793691635132</t>
@@ -563,31 +563,31 @@
     <t xml:space="preserve">1.54042267799377</t>
   </si>
   <si>
-    <t xml:space="preserve">1.59001672267914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.58400547504425</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55695402622223</t>
+    <t xml:space="preserve">1.59001696109772</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.58400535583496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55695414543152</t>
   </si>
   <si>
     <t xml:space="preserve">1.56296539306641</t>
   </si>
   <si>
-    <t xml:space="preserve">1.60654819011688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.61556541919708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.62909078598022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65013074874878</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.62758803367615</t>
+    <t xml:space="preserve">1.60654830932617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.61556553840637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.62909090518951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65013098716736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.62758791446686</t>
   </si>
   <si>
     <t xml:space="preserve">1.64712512493134</t>
@@ -599,34 +599,34 @@
     <t xml:space="preserve">1.65614235401154</t>
   </si>
   <si>
-    <t xml:space="preserve">1.65914821624756</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.62307977676392</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.71325063705444</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.70273077487946</t>
+    <t xml:space="preserve">1.65914797782898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.62307965755463</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.71325051784515</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.70273065567017</t>
   </si>
   <si>
     <t xml:space="preserve">1.71475350856781</t>
   </si>
   <si>
-    <t xml:space="preserve">1.71625661849976</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.72076487541199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7012277841568</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.70423340797424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6335996389389</t>
+    <t xml:space="preserve">1.71625649929047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.72076499462128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.70122790336609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.70423352718353</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.63359951972961</t>
   </si>
   <si>
     <t xml:space="preserve">1.63660514354706</t>
@@ -635,103 +635,103 @@
     <t xml:space="preserve">1.60955381393433</t>
   </si>
   <si>
-    <t xml:space="preserve">1.64562249183655</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6907080411911</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7448103427887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.72827923297882</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7403017282486</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75382792949677</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75683331489563</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76134204864502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75833606719971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.77787327766418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79440474510193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79891312122345</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78388464450836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78839337825775</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.77937602996826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78238189220428</t>
+    <t xml:space="preserve">1.64562237262726</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69070792198181</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.74481070041656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.72827911376953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.74030196666718</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75382769107819</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75683343410492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76134216785431</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.758336186409</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7778731584549</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79440462589264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79891288280487</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78388488292694</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78839302062988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77937626838684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.782381772995</t>
   </si>
   <si>
     <t xml:space="preserve">1.80642759799957</t>
   </si>
   <si>
-    <t xml:space="preserve">1.84850740432739</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85451865196228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8815701007843</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89810144901276</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93867838382721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.97023797035217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.98526632785797</t>
+    <t xml:space="preserve">1.8485072851181</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85451853275299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88156998157501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89810156822205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9386785030365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.97023844718933</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.98526668548584</t>
   </si>
   <si>
     <t xml:space="preserve">1.98676955699921</t>
   </si>
   <si>
-    <t xml:space="preserve">1.95070111751556</t>
+    <t xml:space="preserve">1.95070099830627</t>
   </si>
   <si>
     <t xml:space="preserve">1.94168412685394</t>
   </si>
   <si>
-    <t xml:space="preserve">1.95971846580505</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.97174119949341</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.97625005245209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.98376405239105</t>
+    <t xml:space="preserve">1.95971834659576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.97174096107483</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9762499332428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.98376441001892</t>
   </si>
   <si>
     <t xml:space="preserve">2.01682662963867</t>
   </si>
   <si>
-    <t xml:space="preserve">2.00931215286255</t>
+    <t xml:space="preserve">2.00931262969971</t>
   </si>
   <si>
     <t xml:space="preserve">1.94919836521149</t>
@@ -743,46 +743,46 @@
     <t xml:space="preserve">2.00029540061951</t>
   </si>
   <si>
-    <t xml:space="preserve">1.9687352180481</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9582154750824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.97324407100677</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.98827230930328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.99578666687012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.00780963897705</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.01081514358521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.02133536338806</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.06942653656006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.10399198532104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.1340491771698</t>
+    <t xml:space="preserve">1.96873509883881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95821523666382</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9732438325882</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.98827278614044</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9957869052887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.00780940055847</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.01081538200378</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.02133560180664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.06942629814148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.10399174690247</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.13404941558838</t>
   </si>
   <si>
     <t xml:space="preserve">2.14607191085815</t>
   </si>
   <si>
-    <t xml:space="preserve">2.12803745269775</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.18063735961914</t>
+    <t xml:space="preserve">2.12803769111633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.18063759803772</t>
   </si>
   <si>
     <t xml:space="preserve">2.14156317710876</t>
@@ -791,10 +791,10 @@
     <t xml:space="preserve">2.1145122051239</t>
   </si>
   <si>
-    <t xml:space="preserve">2.15058064460754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16410613059998</t>
+    <t xml:space="preserve">2.15058040618896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16410636901855</t>
   </si>
   <si>
     <t xml:space="preserve">2.20768880844116</t>
@@ -803,7 +803,7 @@
     <t xml:space="preserve">2.19115734100342</t>
   </si>
   <si>
-    <t xml:space="preserve">2.18965435028076</t>
+    <t xml:space="preserve">2.18965482711792</t>
   </si>
   <si>
     <t xml:space="preserve">2.17913460731506</t>
@@ -821,16 +821,16 @@
     <t xml:space="preserve">2.15659165382385</t>
   </si>
   <si>
-    <t xml:space="preserve">2.18214082717896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.19867157936096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.18664932250977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.22722578048706</t>
+    <t xml:space="preserve">2.1821403503418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.19867181777954</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.18664884567261</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.22722601890564</t>
   </si>
   <si>
     <t xml:space="preserve">2.21219730377197</t>
@@ -842,25 +842,25 @@
     <t xml:space="preserve">2.22271728515625</t>
   </si>
   <si>
-    <t xml:space="preserve">2.23624300956726</t>
+    <t xml:space="preserve">2.23624277114868</t>
   </si>
   <si>
     <t xml:space="preserve">2.24864077568054</t>
   </si>
   <si>
-    <t xml:space="preserve">2.2594883441925</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.25328993797302</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.17735385894775</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.1913013458252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.14945888519287</t>
+    <t xml:space="preserve">2.25948858261108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.25328969955444</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.17735362052917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.19130110740662</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.14945912361145</t>
   </si>
   <si>
     <t xml:space="preserve">2.13551139831543</t>
@@ -869,10 +869,10 @@
     <t xml:space="preserve">2.09211945533752</t>
   </si>
   <si>
-    <t xml:space="preserve">2.0735228061676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.0859203338623</t>
+    <t xml:space="preserve">2.07352304458618</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.08592057228088</t>
   </si>
   <si>
     <t xml:space="preserve">2.08282089233398</t>
@@ -881,55 +881,55 @@
     <t xml:space="preserve">2.07197284698486</t>
   </si>
   <si>
-    <t xml:space="preserve">2.02393198013306</t>
+    <t xml:space="preserve">2.02393174171448</t>
   </si>
   <si>
     <t xml:space="preserve">2.04407811164856</t>
   </si>
   <si>
-    <t xml:space="preserve">2.07972168922424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.05647611618042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.10606670379639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.12931251525879</t>
+    <t xml:space="preserve">2.07972145080566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.05647587776184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.10606646537781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.12931227684021</t>
   </si>
   <si>
     <t xml:space="preserve">2.11536502838135</t>
   </si>
   <si>
-    <t xml:space="preserve">2.10761666297913</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.12156367301941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.0998682975769</t>
+    <t xml:space="preserve">2.10761642456055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.12156391143799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.09986782073975</t>
   </si>
   <si>
     <t xml:space="preserve">2.13861083984375</t>
   </si>
   <si>
-    <t xml:space="preserve">2.15410804748535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.10916590690613</t>
+    <t xml:space="preserve">2.15410780906677</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.10916614532471</t>
   </si>
   <si>
     <t xml:space="preserve">2.08901977539062</t>
   </si>
   <si>
-    <t xml:space="preserve">2.13086247444153</t>
+    <t xml:space="preserve">2.13086223602295</t>
   </si>
   <si>
     <t xml:space="preserve">2.12001442909241</t>
   </si>
   <si>
-    <t xml:space="preserve">2.11846470832825</t>
+    <t xml:space="preserve">2.11846446990967</t>
   </si>
   <si>
     <t xml:space="preserve">2.11226582527161</t>
@@ -938,7 +938,7 @@
     <t xml:space="preserve">2.12466335296631</t>
   </si>
   <si>
-    <t xml:space="preserve">2.12621331214905</t>
+    <t xml:space="preserve">2.12621283531189</t>
   </si>
   <si>
     <t xml:space="preserve">2.07662224769592</t>
@@ -947,40 +947,40 @@
     <t xml:space="preserve">2.13241219520569</t>
   </si>
   <si>
-    <t xml:space="preserve">2.11071562767029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.0688738822937</t>
+    <t xml:space="preserve">2.11071586608887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.06887364387512</t>
   </si>
   <si>
     <t xml:space="preserve">2.04872703552246</t>
   </si>
   <si>
-    <t xml:space="preserve">2.03477954864502</t>
+    <t xml:space="preserve">2.0347797870636</t>
   </si>
   <si>
     <t xml:space="preserve">2.04097867012024</t>
   </si>
   <si>
-    <t xml:space="preserve">2.10141777992249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.08747005462646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.08437061309814</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.0781717300415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.15565776824951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.09366869926453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.07507252693176</t>
+    <t xml:space="preserve">2.10141754150391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.08747029304504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.08437085151672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.07817149162292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.15565800666809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.09366917610168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.07507228851318</t>
   </si>
   <si>
     <t xml:space="preserve">2.05957508087158</t>
@@ -989,31 +989,31 @@
     <t xml:space="preserve">2.0611252784729</t>
   </si>
   <si>
-    <t xml:space="preserve">2.04562783241272</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.09676814079285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.11381530761719</t>
+    <t xml:space="preserve">2.0456280708313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.09676861763</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.11381506919861</t>
   </si>
   <si>
     <t xml:space="preserve">2.13706111907959</t>
   </si>
   <si>
-    <t xml:space="preserve">2.14790916442871</t>
+    <t xml:space="preserve">2.14790940284729</t>
   </si>
   <si>
     <t xml:space="preserve">2.15100860595703</t>
   </si>
   <si>
-    <t xml:space="preserve">2.14325976371765</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.14016032218933</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.15255856513977</t>
+    <t xml:space="preserve">2.14326024055481</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.14016056060791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.15255808830261</t>
   </si>
   <si>
     <t xml:space="preserve">2.16185665130615</t>
@@ -1022,37 +1022,37 @@
     <t xml:space="preserve">2.18510222434998</t>
   </si>
   <si>
-    <t xml:space="preserve">2.20369911193848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.2300443649292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.24089217185974</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.26258826255798</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.27808523178101</t>
+    <t xml:space="preserve">2.2036988735199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.23004388809204</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.24089241027832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.26258850097656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.27808547019958</t>
   </si>
   <si>
     <t xml:space="preserve">2.26878714561462</t>
   </si>
   <si>
-    <t xml:space="preserve">2.2610387802124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.24709105491638</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.25173997879028</t>
+    <t xml:space="preserve">2.26103854179382</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.2470908164978</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.25174021720886</t>
   </si>
   <si>
     <t xml:space="preserve">2.27343654632568</t>
   </si>
   <si>
-    <t xml:space="preserve">2.27498626708984</t>
+    <t xml:space="preserve">2.27498602867126</t>
   </si>
   <si>
     <t xml:space="preserve">2.27653551101685</t>
@@ -1061,7 +1061,7 @@
     <t xml:space="preserve">2.30753016471863</t>
   </si>
   <si>
-    <t xml:space="preserve">2.35557103157043</t>
+    <t xml:space="preserve">2.35557126998901</t>
   </si>
   <si>
     <t xml:space="preserve">2.34007406234741</t>
@@ -1070,25 +1070,25 @@
     <t xml:space="preserve">2.34317350387573</t>
   </si>
   <si>
-    <t xml:space="preserve">2.36641907691956</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.38036680221558</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.39121508598328</t>
+    <t xml:space="preserve">2.36641931533813</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.38036704063416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.3912148475647</t>
   </si>
   <si>
     <t xml:space="preserve">2.38656568527222</t>
   </si>
   <si>
-    <t xml:space="preserve">2.42685842514038</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.37416768074036</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.35867047309875</t>
+    <t xml:space="preserve">2.42685866355896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.37416791915894</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.35867071151733</t>
   </si>
   <si>
     <t xml:space="preserve">2.38966512680054</t>
@@ -1100,52 +1100,52 @@
     <t xml:space="preserve">2.33852434158325</t>
   </si>
   <si>
-    <t xml:space="preserve">2.34162378311157</t>
+    <t xml:space="preserve">2.34162402153015</t>
   </si>
   <si>
     <t xml:space="preserve">2.36332011222839</t>
   </si>
   <si>
-    <t xml:space="preserve">2.31217932701111</t>
+    <t xml:space="preserve">2.31217908859253</t>
   </si>
   <si>
     <t xml:space="preserve">2.30907964706421</t>
   </si>
   <si>
-    <t xml:space="preserve">2.30133104324341</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.25483989715576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.23469352722168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.29358267784119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.34472322463989</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.39741373062134</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.32457685470581</t>
+    <t xml:space="preserve">2.30133152008057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.25483965873718</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.2346932888031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.29358243942261</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.34472346305847</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.39741349220276</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.32457709312439</t>
   </si>
   <si>
     <t xml:space="preserve">2.35402154922485</t>
   </si>
   <si>
-    <t xml:space="preserve">2.32147717475891</t>
+    <t xml:space="preserve">2.32147741317749</t>
   </si>
   <si>
     <t xml:space="preserve">2.36177015304565</t>
   </si>
   <si>
-    <t xml:space="preserve">2.37106847763062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.38501620292664</t>
+    <t xml:space="preserve">2.37106823921204</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.38501596450806</t>
   </si>
   <si>
     <t xml:space="preserve">2.33077573776245</t>
@@ -1160,37 +1160,37 @@
     <t xml:space="preserve">2.2656877040863</t>
   </si>
   <si>
-    <t xml:space="preserve">2.2145471572876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.18975138664246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.13396167755127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.10451674461365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.17270421981812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.20524859428406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.21299719810486</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.17115497589111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.14635944366455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.11691474914551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16340637207031</t>
+    <t xml:space="preserve">2.21454691886902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.18975162506104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.13396143913269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.10451722145081</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.17270445823669</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.20524883270264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.21299743652344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.17115473747253</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.14635920524597</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.11691498756409</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16340661048889</t>
   </si>
   <si>
     <t xml:space="preserve">2.16030669212341</t>
@@ -1217,25 +1217,25 @@
     <t xml:space="preserve">2.31372928619385</t>
   </si>
   <si>
-    <t xml:space="preserve">2.32612705230713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.34782266616821</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.31837821006775</t>
+    <t xml:space="preserve">2.32612681388855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.34782314300537</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.31837844848633</t>
   </si>
   <si>
     <t xml:space="preserve">2.33697485923767</t>
   </si>
   <si>
-    <t xml:space="preserve">2.37881684303284</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.38346600532532</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.36951923370361</t>
+    <t xml:space="preserve">2.37881708145142</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.3834662437439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.36951875686646</t>
   </si>
   <si>
     <t xml:space="preserve">2.31062960624695</t>
@@ -1247,7 +1247,7 @@
     <t xml:space="preserve">2.22074580192566</t>
   </si>
   <si>
-    <t xml:space="preserve">2.200599193573</t>
+    <t xml:space="preserve">2.20059943199158</t>
   </si>
   <si>
     <t xml:space="preserve">2.09831809997559</t>
@@ -1256,31 +1256,31 @@
     <t xml:space="preserve">2.01928234100342</t>
   </si>
   <si>
-    <t xml:space="preserve">2.03787922859192</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.0549259185791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.04252815246582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.05182671546936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.02083230018616</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.1041088104248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.13783931732178</t>
+    <t xml:space="preserve">2.03787899017334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.05492615699768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.0425283908844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.05182647705078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.02083206176758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.10410904884338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1378390789032</t>
   </si>
   <si>
     <t xml:space="preserve">2.14908242225647</t>
   </si>
   <si>
-    <t xml:space="preserve">2.11374616622925</t>
+    <t xml:space="preserve">2.11374592781067</t>
   </si>
   <si>
     <t xml:space="preserve">2.11695861816406</t>
@@ -1295,7 +1295,7 @@
     <t xml:space="preserve">2.16675043106079</t>
   </si>
   <si>
-    <t xml:space="preserve">2.14426374435425</t>
+    <t xml:space="preserve">2.14426398277283</t>
   </si>
   <si>
     <t xml:space="preserve">2.18441867828369</t>
@@ -1307,7 +1307,7 @@
     <t xml:space="preserve">2.23421049118042</t>
   </si>
   <si>
-    <t xml:space="preserve">2.24063515663147</t>
+    <t xml:space="preserve">2.24063539505005</t>
   </si>
   <si>
     <t xml:space="preserve">2.22457337379456</t>
@@ -1319,7 +1319,7 @@
     <t xml:space="preserve">2.22778582572937</t>
   </si>
   <si>
-    <t xml:space="preserve">2.21333026885986</t>
+    <t xml:space="preserve">2.21333003044128</t>
   </si>
   <si>
     <t xml:space="preserve">2.24866628646851</t>
@@ -1331,10 +1331,10 @@
     <t xml:space="preserve">2.23260450363159</t>
   </si>
   <si>
-    <t xml:space="preserve">2.18281221389771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16996312141418</t>
+    <t xml:space="preserve">2.18281245231628</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16996264457703</t>
   </si>
   <si>
     <t xml:space="preserve">2.28882098197937</t>
@@ -1349,7 +1349,7 @@
     <t xml:space="preserve">2.26794052124023</t>
   </si>
   <si>
-    <t xml:space="preserve">2.30006456375122</t>
+    <t xml:space="preserve">2.30006432533264</t>
   </si>
   <si>
     <t xml:space="preserve">2.29845809936523</t>
@@ -1364,43 +1364,43 @@
     <t xml:space="preserve">2.23099827766418</t>
   </si>
   <si>
-    <t xml:space="preserve">2.21172404289246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.20529937744141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.19887399673462</t>
+    <t xml:space="preserve">2.21172380447388</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.20529913902283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1988742351532</t>
   </si>
   <si>
     <t xml:space="preserve">2.2470600605011</t>
   </si>
   <si>
-    <t xml:space="preserve">2.23742318153381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.22939205169678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.17478156089783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.17799377441406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16835689544678</t>
+    <t xml:space="preserve">2.23742270469666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.2293918132782</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.17478132247925</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.17799401283264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16835713386536</t>
   </si>
   <si>
     <t xml:space="preserve">2.1860249042511</t>
   </si>
   <si>
-    <t xml:space="preserve">2.20369291305542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.20690512657166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.26954674720764</t>
+    <t xml:space="preserve">2.20369267463684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.20690536499023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.26954650878906</t>
   </si>
   <si>
     <t xml:space="preserve">2.28239607810974</t>
@@ -1409,37 +1409,37 @@
     <t xml:space="preserve">2.27918386459351</t>
   </si>
   <si>
-    <t xml:space="preserve">2.28400254249573</t>
+    <t xml:space="preserve">2.28400230407715</t>
   </si>
   <si>
     <t xml:space="preserve">2.29042744636536</t>
   </si>
   <si>
-    <t xml:space="preserve">2.29363918304443</t>
+    <t xml:space="preserve">2.29363942146301</t>
   </si>
   <si>
     <t xml:space="preserve">2.25669717788696</t>
   </si>
   <si>
-    <t xml:space="preserve">2.20048046112061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.19566226005554</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.15390086174011</t>
+    <t xml:space="preserve">2.20048069953918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.19566202163696</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.15390110015869</t>
   </si>
   <si>
     <t xml:space="preserve">2.14586997032166</t>
   </si>
   <si>
-    <t xml:space="preserve">2.12820196151733</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.0896532535553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.03504300117493</t>
+    <t xml:space="preserve">2.12820219993591</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.08965349197388</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.03504276275635</t>
   </si>
   <si>
     <t xml:space="preserve">2.05592346191406</t>
@@ -1451,52 +1451,52 @@
     <t xml:space="preserve">1.97400772571564</t>
   </si>
   <si>
-    <t xml:space="preserve">1.93224668502808</t>
+    <t xml:space="preserve">1.93224656581879</t>
   </si>
   <si>
     <t xml:space="preserve">1.98685741424561</t>
   </si>
   <si>
-    <t xml:space="preserve">1.94188416004181</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96437084674835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9724018573761</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94027757644653</t>
+    <t xml:space="preserve">1.94188392162323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96437060832977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.97240173816681</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9402779340744</t>
   </si>
   <si>
     <t xml:space="preserve">1.92903447151184</t>
   </si>
   <si>
-    <t xml:space="preserve">1.99970686435699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96758317947388</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96115791797638</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94991505146027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95955216884613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95794582366943</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.97561419010162</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.99328231811523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.03986144065857</t>
+    <t xml:space="preserve">1.99970674514771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9675829410553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96115827560425</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94991481304169</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95955204963684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95794594287872</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.97561383247375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.99328207969666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.03986167907715</t>
   </si>
   <si>
     <t xml:space="preserve">1.99006950855255</t>
@@ -1508,34 +1508,34 @@
     <t xml:space="preserve">2.0430736541748</t>
   </si>
   <si>
-    <t xml:space="preserve">2.05110502243042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.01416254043579</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.00291895866394</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.99649453163147</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.99167609214783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9627640247345</t>
+    <t xml:space="preserve">2.05110478401184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.01416230201721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.0029194355011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.99649441242218</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.99167585372925</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96276462078094</t>
   </si>
   <si>
     <t xml:space="preserve">1.98043239116669</t>
   </si>
   <si>
-    <t xml:space="preserve">1.94830870628357</t>
+    <t xml:space="preserve">1.94830882549286</t>
   </si>
   <si>
     <t xml:space="preserve">2.01095008850098</t>
   </si>
   <si>
-    <t xml:space="preserve">1.93867135047913</t>
+    <t xml:space="preserve">1.93867170810699</t>
   </si>
   <si>
     <t xml:space="preserve">2.02058744430542</t>
@@ -1556,31 +1556,31 @@
     <t xml:space="preserve">2.17638778686523</t>
   </si>
   <si>
-    <t xml:space="preserve">2.16032552719116</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.27275896072388</t>
+    <t xml:space="preserve">2.16032600402832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.27275919914246</t>
   </si>
   <si>
     <t xml:space="preserve">2.27597188949585</t>
   </si>
   <si>
-    <t xml:space="preserve">2.25990962982178</t>
+    <t xml:space="preserve">2.2599093914032</t>
   </si>
   <si>
     <t xml:space="preserve">2.28721475601196</t>
   </si>
   <si>
-    <t xml:space="preserve">2.29203367233276</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.3129141330719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.28560853004456</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.28078985214233</t>
+    <t xml:space="preserve">2.29203319549561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.31291389465332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.28560876846313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.28079032897949</t>
   </si>
   <si>
     <t xml:space="preserve">2.30970144271851</t>
@@ -1589,31 +1589,31 @@
     <t xml:space="preserve">2.34503793716431</t>
   </si>
   <si>
-    <t xml:space="preserve">2.34664392471313</t>
+    <t xml:space="preserve">2.34664368629456</t>
   </si>
   <si>
     <t xml:space="preserve">2.37073683738708</t>
   </si>
   <si>
-    <t xml:space="preserve">2.37876772880554</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.36752414703369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.36913061141968</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.37555551528931</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.35467505455017</t>
+    <t xml:space="preserve">2.37876725196838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.36752462387085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.3691303730011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.37555575370789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.35467481613159</t>
   </si>
   <si>
     <t xml:space="preserve">2.34021925926208</t>
   </si>
   <si>
-    <t xml:space="preserve">2.36591815948486</t>
+    <t xml:space="preserve">2.36591792106628</t>
   </si>
   <si>
     <t xml:space="preserve">2.38840484619141</t>
@@ -1625,19 +1625,19 @@
     <t xml:space="preserve">2.39322352409363</t>
   </si>
   <si>
-    <t xml:space="preserve">2.38358616828918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.3739492893219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.34343123435974</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.41089177131653</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.37716174125671</t>
+    <t xml:space="preserve">2.38358640670776</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.37394881248474</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.3434317111969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.41089153289795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.37716150283813</t>
   </si>
   <si>
     <t xml:space="preserve">2.33861303329468</t>
@@ -1646,37 +1646,37 @@
     <t xml:space="preserve">2.35306882858276</t>
   </si>
   <si>
-    <t xml:space="preserve">2.34985637664795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.38519239425659</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.38198018074036</t>
+    <t xml:space="preserve">2.34985613822937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.38519263267517</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.38197994232178</t>
   </si>
   <si>
     <t xml:space="preserve">2.3996479511261</t>
   </si>
   <si>
-    <t xml:space="preserve">2.40767884254456</t>
+    <t xml:space="preserve">2.40767908096313</t>
   </si>
   <si>
     <t xml:space="preserve">2.34182500839233</t>
   </si>
   <si>
-    <t xml:space="preserve">2.32255077362061</t>
+    <t xml:space="preserve">2.32255101203918</t>
   </si>
   <si>
     <t xml:space="preserve">2.43177199363708</t>
   </si>
   <si>
-    <t xml:space="preserve">2.46871423721313</t>
+    <t xml:space="preserve">2.46871399879456</t>
   </si>
   <si>
     <t xml:space="preserve">2.47032046318054</t>
   </si>
   <si>
-    <t xml:space="preserve">2.49280714988708</t>
+    <t xml:space="preserve">2.49280738830566</t>
   </si>
   <si>
     <t xml:space="preserve">2.51850628852844</t>
@@ -1685,13 +1685,13 @@
     <t xml:space="preserve">2.52171850204468</t>
   </si>
   <si>
-    <t xml:space="preserve">2.56829833984375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.58757209777832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.58275365829468</t>
+    <t xml:space="preserve">2.56829810142517</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.58757257461548</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.58275413513184</t>
   </si>
   <si>
     <t xml:space="preserve">2.58917856216431</t>
@@ -1700,73 +1700,73 @@
     <t xml:space="preserve">2.60202789306641</t>
   </si>
   <si>
-    <t xml:space="preserve">2.64378929138184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.61487793922424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.59560346603394</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.61005902290344</t>
+    <t xml:space="preserve">2.64378905296326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.61487770080566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.59560370445251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.61005926132202</t>
   </si>
   <si>
     <t xml:space="preserve">2.55384254455566</t>
   </si>
   <si>
-    <t xml:space="preserve">2.57151031494141</t>
+    <t xml:space="preserve">2.57151055335999</t>
   </si>
   <si>
     <t xml:space="preserve">2.5570547580719</t>
   </si>
   <si>
-    <t xml:space="preserve">2.52493095397949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.54099273681641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.5442054271698</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.55866146087646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.53778052330017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.54902362823486</t>
+    <t xml:space="preserve">2.52493119239807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.54099297523499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.54420518875122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.55866098403931</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.53778076171875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.54902386665344</t>
   </si>
   <si>
     <t xml:space="preserve">2.56347942352295</t>
   </si>
   <si>
-    <t xml:space="preserve">2.55063033103943</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.51690006256104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.53938674926758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.52011227607727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.57954168319702</t>
+    <t xml:space="preserve">2.55063009262085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.51689982414246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.539386510849</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.52011275291443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.57954144477844</t>
   </si>
   <si>
     <t xml:space="preserve">2.62451457977295</t>
   </si>
   <si>
-    <t xml:space="preserve">2.63254594802856</t>
+    <t xml:space="preserve">2.63254618644714</t>
   </si>
   <si>
     <t xml:space="preserve">2.6357581615448</t>
   </si>
   <si>
-    <t xml:space="preserve">2.63897061347961</t>
+    <t xml:space="preserve">2.63897037506104</t>
   </si>
   <si>
     <t xml:space="preserve">2.65181994438171</t>
@@ -1775,10 +1775,10 @@
     <t xml:space="preserve">2.65342617034912</t>
   </si>
   <si>
-    <t xml:space="preserve">2.63093972206116</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.62933325767517</t>
+    <t xml:space="preserve">2.63093948364258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.62933301925659</t>
   </si>
   <si>
     <t xml:space="preserve">2.62290859222412</t>
@@ -1787,58 +1787,58 @@
     <t xml:space="preserve">2.61166524887085</t>
   </si>
   <si>
-    <t xml:space="preserve">2.65985131263733</t>
+    <t xml:space="preserve">2.65985083580017</t>
   </si>
   <si>
     <t xml:space="preserve">2.68715596199036</t>
   </si>
   <si>
-    <t xml:space="preserve">2.70000576972961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.70161199569702</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.69679355621338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.69839930534363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.68555021286011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.68233728408813</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.74497890472412</t>
+    <t xml:space="preserve">2.70000600814819</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.70161175727844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.6967933177948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.69839954376221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.68554997444153</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.68233776092529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.7449791431427</t>
   </si>
   <si>
     <t xml:space="preserve">2.75140380859375</t>
   </si>
   <si>
-    <t xml:space="preserve">2.78513360023499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.81725764274597</t>
+    <t xml:space="preserve">2.78513407707214</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.81725788116455</t>
   </si>
   <si>
     <t xml:space="preserve">2.79741787910461</t>
   </si>
   <si>
-    <t xml:space="preserve">2.77923130989075</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.78253769874573</t>
+    <t xml:space="preserve">2.77923154830933</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.78253793716431</t>
   </si>
   <si>
     <t xml:space="preserve">2.74947142601013</t>
   </si>
   <si>
-    <t xml:space="preserve">2.78088474273682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.76600456237793</t>
+    <t xml:space="preserve">2.78088450431824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.76600480079651</t>
   </si>
   <si>
     <t xml:space="preserve">2.83213758468628</t>
@@ -1847,7 +1847,7 @@
     <t xml:space="preserve">2.91645693778992</t>
   </si>
   <si>
-    <t xml:space="preserve">2.91315031051636</t>
+    <t xml:space="preserve">2.91315007209778</t>
   </si>
   <si>
     <t xml:space="preserve">2.88835048675537</t>
@@ -1856,19 +1856,19 @@
     <t xml:space="preserve">2.87677717208862</t>
   </si>
   <si>
-    <t xml:space="preserve">2.88669681549072</t>
+    <t xml:space="preserve">2.8866970539093</t>
   </si>
   <si>
     <t xml:space="preserve">2.90157699584961</t>
   </si>
   <si>
-    <t xml:space="preserve">2.89992356300354</t>
+    <t xml:space="preserve">2.89992380142212</t>
   </si>
   <si>
     <t xml:space="preserve">2.93299007415771</t>
   </si>
   <si>
-    <t xml:space="preserve">2.91149711608887</t>
+    <t xml:space="preserve">2.91149687767029</t>
   </si>
   <si>
     <t xml:space="preserve">2.86189723014832</t>
@@ -1880,16 +1880,16 @@
     <t xml:space="preserve">2.85197758674622</t>
   </si>
   <si>
-    <t xml:space="preserve">2.83379077911377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.83048439025879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.83544421195984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.76931118965149</t>
+    <t xml:space="preserve">2.83379101753235</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.83048415184021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.83544397354126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.76931142807007</t>
   </si>
   <si>
     <t xml:space="preserve">2.78584456443787</t>
@@ -1898,7 +1898,7 @@
     <t xml:space="preserve">2.8387508392334</t>
   </si>
   <si>
-    <t xml:space="preserve">2.81229758262634</t>
+    <t xml:space="preserve">2.81229782104492</t>
   </si>
   <si>
     <t xml:space="preserve">2.79576444625854</t>
@@ -1913,10 +1913,10 @@
     <t xml:space="preserve">2.80568432807922</t>
   </si>
   <si>
-    <t xml:space="preserve">2.83709740638733</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.78749799728394</t>
+    <t xml:space="preserve">2.83709764480591</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.78749775886536</t>
   </si>
   <si>
     <t xml:space="preserve">2.86520385742188</t>
@@ -1925,25 +1925,25 @@
     <t xml:space="preserve">2.89165687561035</t>
   </si>
   <si>
-    <t xml:space="preserve">2.88173747062683</t>
+    <t xml:space="preserve">2.88173723220825</t>
   </si>
   <si>
     <t xml:space="preserve">2.89000391960144</t>
   </si>
   <si>
-    <t xml:space="preserve">2.91811037063599</t>
+    <t xml:space="preserve">2.91811013221741</t>
   </si>
   <si>
     <t xml:space="preserve">2.98920297622681</t>
   </si>
   <si>
-    <t xml:space="preserve">2.98589634895325</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.02392244338989</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.99912285804749</t>
+    <t xml:space="preserve">2.98589611053467</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.02392268180847</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.99912309646606</t>
   </si>
   <si>
     <t xml:space="preserve">2.99416279792786</t>
@@ -1955,7 +1955,7 @@
     <t xml:space="preserve">3.02557611465454</t>
   </si>
   <si>
-    <t xml:space="preserve">3.00408315658569</t>
+    <t xml:space="preserve">3.00408291816711</t>
   </si>
   <si>
     <t xml:space="preserve">2.90488362312317</t>
@@ -1970,10 +1970,10 @@
     <t xml:space="preserve">2.92307019233704</t>
   </si>
   <si>
-    <t xml:space="preserve">2.92637658119202</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.95283007621765</t>
+    <t xml:space="preserve">2.9263768196106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.95282983779907</t>
   </si>
   <si>
     <t xml:space="preserve">3.01565599441528</t>
@@ -1982,13 +1982,13 @@
     <t xml:space="preserve">3.0123496055603</t>
   </si>
   <si>
-    <t xml:space="preserve">2.97597622871399</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.06194877624512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.06029582023621</t>
+    <t xml:space="preserve">2.97597646713257</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.0619490146637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.06029558181763</t>
   </si>
   <si>
     <t xml:space="preserve">3.13304162025452</t>
@@ -1997,16 +1997,16 @@
     <t xml:space="preserve">3.07517552375793</t>
   </si>
   <si>
-    <t xml:space="preserve">3.11320185661316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.0669093132019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.08178877830505</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.12808179855347</t>
+    <t xml:space="preserve">3.11320209503174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.06690883636475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.08178901672363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.12808156013489</t>
   </si>
   <si>
     <t xml:space="preserve">3.13469529151917</t>
@@ -2015,25 +2015,25 @@
     <t xml:space="preserve">3.11650848388672</t>
   </si>
   <si>
-    <t xml:space="preserve">3.09005522727966</t>
+    <t xml:space="preserve">3.09005546569824</t>
   </si>
   <si>
     <t xml:space="preserve">3.11485528945923</t>
   </si>
   <si>
-    <t xml:space="preserve">3.12642884254456</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.09501504898071</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.13634824752808</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.10824227333069</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.076828956604</t>
+    <t xml:space="preserve">3.12642860412598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.09501552581787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.13634848594666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.10824179649353</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.07682871818542</t>
   </si>
   <si>
     <t xml:space="preserve">3.10493540763855</t>
@@ -2051,49 +2051,49 @@
     <t xml:space="preserve">3.16280150413513</t>
   </si>
   <si>
-    <t xml:space="preserve">3.18429446220398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.14296197891235</t>
+    <t xml:space="preserve">3.18429493904114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.1429615020752</t>
   </si>
   <si>
     <t xml:space="preserve">3.16776156425476</t>
   </si>
   <si>
-    <t xml:space="preserve">3.18098831176758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.16610813140869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.1876015663147</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.18925476074219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.21570801734924</t>
+    <t xml:space="preserve">3.180988073349</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.16610789299011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.18760132789612</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.18925499916077</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.21570777893066</t>
   </si>
   <si>
     <t xml:space="preserve">3.29176068305969</t>
   </si>
   <si>
-    <t xml:space="preserve">3.3165602684021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.31325387954712</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.33805346488953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.31490707397461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.28018736839294</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.29837346076965</t>
+    <t xml:space="preserve">3.31656050682068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.31325340270996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.33805370330811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.31490731239319</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.28018712997437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.29837369918823</t>
   </si>
   <si>
     <t xml:space="preserve">3.27357411384583</t>
@@ -2108,19 +2108,19 @@
     <t xml:space="preserve">3.30994725227356</t>
   </si>
   <si>
-    <t xml:space="preserve">3.17602801322937</t>
+    <t xml:space="preserve">3.17602825164795</t>
   </si>
   <si>
     <t xml:space="preserve">3.20248126983643</t>
   </si>
   <si>
-    <t xml:space="preserve">3.24050784111023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.21736097335815</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.21074795722961</t>
+    <t xml:space="preserve">3.24050760269165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.21736145019531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.21074771881104</t>
   </si>
   <si>
     <t xml:space="preserve">3.18594813346863</t>
@@ -2129,58 +2129,58 @@
     <t xml:space="preserve">3.21901440620422</t>
   </si>
   <si>
-    <t xml:space="preserve">3.22728085517883</t>
+    <t xml:space="preserve">3.22728109359741</t>
   </si>
   <si>
     <t xml:space="preserve">3.17437481880188</t>
   </si>
   <si>
-    <t xml:space="preserve">3.24381399154663</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.29010725021362</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.28680038452148</t>
+    <t xml:space="preserve">3.24381446838379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.29010701179504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.28680062294006</t>
   </si>
   <si>
     <t xml:space="preserve">3.28184056282043</t>
   </si>
   <si>
-    <t xml:space="preserve">3.34135985374451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.27853393554688</t>
+    <t xml:space="preserve">3.34136009216309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.27853417396545</t>
   </si>
   <si>
     <t xml:space="preserve">3.28349375724792</t>
   </si>
   <si>
-    <t xml:space="preserve">3.22397470474243</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.2124011516571</t>
+    <t xml:space="preserve">3.22397446632385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.21240139007568</t>
   </si>
   <si>
     <t xml:space="preserve">3.22232127189636</t>
   </si>
   <si>
-    <t xml:space="preserve">3.19586777687073</t>
+    <t xml:space="preserve">3.19586801528931</t>
   </si>
   <si>
     <t xml:space="preserve">3.19256138801575</t>
   </si>
   <si>
-    <t xml:space="preserve">3.26034736633301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.30498719215393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.30168032646179</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.24877429008484</t>
+    <t xml:space="preserve">3.26034760475159</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.30498695373535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.30168056488037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.24877405166626</t>
   </si>
   <si>
     <t xml:space="preserve">3.39426636695862</t>
@@ -2195,40 +2195,40 @@
     <t xml:space="preserve">3.57613182067871</t>
   </si>
   <si>
-    <t xml:space="preserve">3.57447838783264</t>
+    <t xml:space="preserve">3.57447814941406</t>
   </si>
   <si>
     <t xml:space="preserve">3.50503849983215</t>
   </si>
   <si>
-    <t xml:space="preserve">3.39095997810364</t>
+    <t xml:space="preserve">3.39095973968506</t>
   </si>
   <si>
     <t xml:space="preserve">3.39922642707825</t>
   </si>
   <si>
-    <t xml:space="preserve">3.40914630889893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.45709276199341</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.49842548370361</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.51165199279785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.53645181655884</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.55463862419128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.56786513328552</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.60754466056824</t>
+    <t xml:space="preserve">3.4091465473175</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.45709300041199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.49842572212219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.51165246963501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.53645205497742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.55463910102844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.56786489486694</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.60754418373108</t>
   </si>
   <si>
     <t xml:space="preserve">3.58109140396118</t>
@@ -2237,10 +2237,10 @@
     <t xml:space="preserve">3.58605146408081</t>
   </si>
   <si>
-    <t xml:space="preserve">3.59927797317505</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.68855714797974</t>
+    <t xml:space="preserve">3.59927845001221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.68855738639832</t>
   </si>
   <si>
     <t xml:space="preserve">3.66871809959412</t>
@@ -2249,16 +2249,16 @@
     <t xml:space="preserve">3.64722466468811</t>
   </si>
   <si>
-    <t xml:space="preserve">3.46370601654053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.43229269981384</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.46205234527588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.40087962150574</t>
+    <t xml:space="preserve">3.46370577812195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.43229246139526</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.46205282211304</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.40087938308716</t>
   </si>
   <si>
     <t xml:space="preserve">3.20578789710999</t>
@@ -2273,40 +2273,40 @@
     <t xml:space="preserve">2.93794989585876</t>
   </si>
   <si>
-    <t xml:space="preserve">2.7577383518219</t>
+    <t xml:space="preserve">2.75773811340332</t>
   </si>
   <si>
     <t xml:space="preserve">2.79080438613892</t>
   </si>
   <si>
-    <t xml:space="preserve">2.30307531356812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.65357899665833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.55768609046936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.60397958755493</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.61059284210205</t>
+    <t xml:space="preserve">2.30307507514954</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.65357875823975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.55768656730652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.60397934913635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.61059260368347</t>
   </si>
   <si>
     <t xml:space="preserve">2.55272650718689</t>
   </si>
   <si>
-    <t xml:space="preserve">2.6800320148468</t>
+    <t xml:space="preserve">2.68003225326538</t>
   </si>
   <si>
     <t xml:space="preserve">2.53288626670837</t>
   </si>
   <si>
-    <t xml:space="preserve">2.50808668136597</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.53123354911804</t>
+    <t xml:space="preserve">2.50808644294739</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.53123331069946</t>
   </si>
   <si>
     <t xml:space="preserve">2.59571266174316</t>
@@ -2324,22 +2324,22 @@
     <t xml:space="preserve">2.66019225120544</t>
   </si>
   <si>
-    <t xml:space="preserve">2.62547278404236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.64696550369263</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.55107307434082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.67176556587219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.66349864006042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.64200568199158</t>
+    <t xml:space="preserve">2.62547254562378</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.64696574211121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.55107283592224</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.67176580429077</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.663498878479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.64200592041016</t>
   </si>
   <si>
     <t xml:space="preserve">2.63869881629944</t>
@@ -2354,7 +2354,7 @@
     <t xml:space="preserve">2.61224603652954</t>
   </si>
   <si>
-    <t xml:space="preserve">2.68664526939392</t>
+    <t xml:space="preserve">2.6866455078125</t>
   </si>
   <si>
     <t xml:space="preserve">2.67672538757324</t>
@@ -2372,7 +2372,7 @@
     <t xml:space="preserve">2.66845870018005</t>
   </si>
   <si>
-    <t xml:space="preserve">2.61885929107666</t>
+    <t xml:space="preserve">2.61885905265808</t>
   </si>
   <si>
     <t xml:space="preserve">2.58579277992249</t>
@@ -2387,43 +2387,43 @@
     <t xml:space="preserve">2.65688538551331</t>
   </si>
   <si>
-    <t xml:space="preserve">2.5676064491272</t>
+    <t xml:space="preserve">2.56760621070862</t>
   </si>
   <si>
     <t xml:space="preserve">2.55437970161438</t>
   </si>
   <si>
-    <t xml:space="preserve">2.60728597640991</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.59405922889709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.64861917495728</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.64365911483765</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.75608491897583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.75939154624939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.95778965950012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.96274995803833</t>
+    <t xml:space="preserve">2.60728621482849</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.59405946731567</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.6486189365387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.64365887641907</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.75608468055725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.75939130783081</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.9577898979187</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.96274971961975</t>
   </si>
   <si>
     <t xml:space="preserve">2.92141675949097</t>
   </si>
   <si>
-    <t xml:space="preserve">2.88008403778076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.7775776386261</t>
+    <t xml:space="preserve">2.88008379936218</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.77757787704468</t>
   </si>
   <si>
     <t xml:space="preserve">2.90653705596924</t>
@@ -2432,10 +2432,10 @@
     <t xml:space="preserve">2.89331030845642</t>
   </si>
   <si>
-    <t xml:space="preserve">2.87347078323364</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.86024403572083</t>
+    <t xml:space="preserve">2.87347054481506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.86024379730225</t>
   </si>
   <si>
     <t xml:space="preserve">2.85693740844727</t>
@@ -2453,13 +2453,13 @@
     <t xml:space="preserve">2.80072426795959</t>
   </si>
   <si>
-    <t xml:space="preserve">2.82717728614807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.84420871734619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.7999279499054</t>
+    <t xml:space="preserve">2.82717752456665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.84420847892761</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.79992771148682</t>
   </si>
   <si>
     <t xml:space="preserve">2.81525564193726</t>
@@ -2468,19 +2468,19 @@
     <t xml:space="preserve">2.74031853675842</t>
   </si>
   <si>
-    <t xml:space="preserve">2.73180294036865</t>
+    <t xml:space="preserve">2.73180270195007</t>
   </si>
   <si>
     <t xml:space="preserve">2.77438068389893</t>
   </si>
   <si>
-    <t xml:space="preserve">2.7369122505188</t>
+    <t xml:space="preserve">2.73691201210022</t>
   </si>
   <si>
     <t xml:space="preserve">2.74883413314819</t>
   </si>
   <si>
-    <t xml:space="preserve">2.79481863975525</t>
+    <t xml:space="preserve">2.79481840133667</t>
   </si>
   <si>
     <t xml:space="preserve">2.8322868347168</t>
@@ -2495,7 +2495,7 @@
     <t xml:space="preserve">2.86805248260498</t>
   </si>
   <si>
-    <t xml:space="preserve">2.76075577735901</t>
+    <t xml:space="preserve">2.76075625419617</t>
   </si>
   <si>
     <t xml:space="preserve">2.71647477149963</t>
@@ -2510,40 +2510,40 @@
     <t xml:space="preserve">2.78800582885742</t>
   </si>
   <si>
-    <t xml:space="preserve">2.6892249584198</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.70795917510986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.69944357872009</t>
+    <t xml:space="preserve">2.68922472000122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.70795941352844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.69944405555725</t>
   </si>
   <si>
     <t xml:space="preserve">2.69263100624084</t>
   </si>
   <si>
-    <t xml:space="preserve">2.68411588668823</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.76756834983826</t>
+    <t xml:space="preserve">2.68411540985107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.76756858825684</t>
   </si>
   <si>
     <t xml:space="preserve">2.82547450065613</t>
   </si>
   <si>
-    <t xml:space="preserve">2.89019274711609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.8799741268158</t>
+    <t xml:space="preserve">2.89019298553467</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.87997436523438</t>
   </si>
   <si>
     <t xml:space="preserve">2.86123991012573</t>
   </si>
   <si>
-    <t xml:space="preserve">2.76586532592773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.81014657020569</t>
+    <t xml:space="preserve">2.76586508750916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.81014609336853</t>
   </si>
   <si>
     <t xml:space="preserve">2.7828962802887</t>
@@ -2555,43 +2555,43 @@
     <t xml:space="preserve">2.85272431373596</t>
   </si>
   <si>
-    <t xml:space="preserve">2.82377123832703</t>
+    <t xml:space="preserve">2.82377147674561</t>
   </si>
   <si>
     <t xml:space="preserve">2.74542784690857</t>
   </si>
   <si>
-    <t xml:space="preserve">2.72499060630798</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.72669339179993</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.71306872367859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.79311513900757</t>
+    <t xml:space="preserve">2.7249903678894</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.72669363021851</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.71306848526001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.79311537742615</t>
   </si>
   <si>
     <t xml:space="preserve">2.69433426856995</t>
   </si>
   <si>
-    <t xml:space="preserve">2.74713134765625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.7386155128479</t>
+    <t xml:space="preserve">2.74713087081909</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.73861575126648</t>
   </si>
   <si>
     <t xml:space="preserve">2.78119349479675</t>
   </si>
   <si>
-    <t xml:space="preserve">2.76416206359863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.77948999404907</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.79822468757629</t>
+    <t xml:space="preserve">2.76416230201721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.77949023246765</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.79822444915771</t>
   </si>
   <si>
     <t xml:space="preserve">2.81355261802673</t>
@@ -2609,52 +2609,52 @@
     <t xml:space="preserve">2.74372482299805</t>
   </si>
   <si>
-    <t xml:space="preserve">2.72839689254761</t>
+    <t xml:space="preserve">2.72839665412903</t>
   </si>
   <si>
     <t xml:space="preserve">2.64494371414185</t>
   </si>
   <si>
-    <t xml:space="preserve">2.65345931053162</t>
+    <t xml:space="preserve">2.6534595489502</t>
   </si>
   <si>
     <t xml:space="preserve">2.63983416557312</t>
   </si>
   <si>
-    <t xml:space="preserve">2.6074755191803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.61428761482239</t>
+    <t xml:space="preserve">2.60747528076172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.61428785324097</t>
   </si>
   <si>
     <t xml:space="preserve">2.59555339813232</t>
   </si>
   <si>
-    <t xml:space="preserve">2.56489729881287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.51210069656372</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.53424119949341</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.4473819732666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.47292900085449</t>
+    <t xml:space="preserve">2.56489753723145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.51210045814514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.53424096107483</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.44738221168518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.47292876243591</t>
   </si>
   <si>
     <t xml:space="preserve">2.50188183784485</t>
   </si>
   <si>
-    <t xml:space="preserve">2.55467867851257</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.48485064506531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.46441316604614</t>
+    <t xml:space="preserve">2.55467844009399</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.48485088348389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.46441340446472</t>
   </si>
   <si>
     <t xml:space="preserve">2.46611618995667</t>
@@ -2666,13 +2666,13 @@
     <t xml:space="preserve">2.37755441665649</t>
   </si>
   <si>
-    <t xml:space="preserve">2.31794500350952</t>
+    <t xml:space="preserve">2.31794476509094</t>
   </si>
   <si>
     <t xml:space="preserve">2.27877330780029</t>
   </si>
   <si>
-    <t xml:space="preserve">2.29921078681946</t>
+    <t xml:space="preserve">2.29921054840088</t>
   </si>
   <si>
     <t xml:space="preserve">2.31964802742004</t>
@@ -2681,16 +2681,16 @@
     <t xml:space="preserve">2.33838248252869</t>
   </si>
   <si>
-    <t xml:space="preserve">2.39628839492798</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.39117932319641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.3656325340271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.54616284370422</t>
+    <t xml:space="preserve">2.3962881565094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.39117908477783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.36563229560852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.54616260528564</t>
   </si>
   <si>
     <t xml:space="preserve">2.51550674438477</t>
@@ -2699,7 +2699,7 @@
     <t xml:space="preserve">2.54105377197266</t>
   </si>
   <si>
-    <t xml:space="preserve">2.58533477783203</t>
+    <t xml:space="preserve">2.58533453941345</t>
   </si>
   <si>
     <t xml:space="preserve">2.57170963287354</t>
@@ -2708,64 +2708,64 @@
     <t xml:space="preserve">2.65686559677124</t>
   </si>
   <si>
-    <t xml:space="preserve">2.60236573219299</t>
+    <t xml:space="preserve">2.60236597061157</t>
   </si>
   <si>
     <t xml:space="preserve">2.58874082565308</t>
   </si>
   <si>
-    <t xml:space="preserve">2.59725642204285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.57341265678406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.56830334663391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.61599087715149</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.62961554527283</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.6057722568512</t>
+    <t xml:space="preserve">2.59725666046143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.57341289520264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.56830358505249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.61599063873291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.62961578369141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.60577201843262</t>
   </si>
   <si>
     <t xml:space="preserve">2.56319427490234</t>
   </si>
   <si>
-    <t xml:space="preserve">2.53083491325378</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.5597882270813</t>
+    <t xml:space="preserve">2.53083467483521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.55978798866272</t>
   </si>
   <si>
     <t xml:space="preserve">2.53594422340393</t>
   </si>
   <si>
-    <t xml:space="preserve">2.52061605453491</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.50528788566589</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.47803854942322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.45249152183533</t>
+    <t xml:space="preserve">2.52061629295349</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.50528812408447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.47803807258606</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.45249176025391</t>
   </si>
   <si>
     <t xml:space="preserve">2.48314738273621</t>
   </si>
   <si>
-    <t xml:space="preserve">2.45419454574585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.49336647987366</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.54275679588318</t>
+    <t xml:space="preserve">2.45419430732727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.4933660030365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.5427565574646</t>
   </si>
   <si>
     <t xml:space="preserve">2.42694449424744</t>
@@ -2774,10 +2774,10 @@
     <t xml:space="preserve">2.47633504867554</t>
   </si>
   <si>
-    <t xml:space="preserve">2.54445958137512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.55127239227295</t>
+    <t xml:space="preserve">2.5444598197937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.55127215385437</t>
   </si>
   <si>
     <t xml:space="preserve">2.53764748573303</t>
@@ -2798,25 +2798,25 @@
     <t xml:space="preserve">2.6909282207489</t>
   </si>
   <si>
-    <t xml:space="preserve">2.63642811775208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.46952271461487</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.42353820800781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.4456787109375</t>
+    <t xml:space="preserve">2.63642835617065</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.46952247619629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.42353844642639</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.44567894935608</t>
   </si>
   <si>
     <t xml:space="preserve">2.45589780807495</t>
   </si>
   <si>
-    <t xml:space="preserve">2.41672587394714</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.56149101257324</t>
+    <t xml:space="preserve">2.41672611236572</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.56149077415466</t>
   </si>
   <si>
     <t xml:space="preserve">2.58703780174255</t>
@@ -2825,7 +2825,7 @@
     <t xml:space="preserve">2.64835000038147</t>
   </si>
   <si>
-    <t xml:space="preserve">2.60406923294067</t>
+    <t xml:space="preserve">2.60406899452209</t>
   </si>
   <si>
     <t xml:space="preserve">2.61769390106201</t>
@@ -2834,7 +2834,7 @@
     <t xml:space="preserve">2.65005326271057</t>
   </si>
   <si>
-    <t xml:space="preserve">2.68581891059875</t>
+    <t xml:space="preserve">2.68581867218018</t>
   </si>
   <si>
     <t xml:space="preserve">2.6415376663208</t>
@@ -2843,10 +2843,10 @@
     <t xml:space="preserve">2.63131880760193</t>
   </si>
   <si>
-    <t xml:space="preserve">2.61939716339111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.52231931686401</t>
+    <t xml:space="preserve">2.61939668655396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.52231907844543</t>
   </si>
   <si>
     <t xml:space="preserve">2.49166321754456</t>
@@ -2873,7 +2873,7 @@
     <t xml:space="preserve">2.8305835723877</t>
   </si>
   <si>
-    <t xml:space="preserve">2.80929517745972</t>
+    <t xml:space="preserve">2.80929470062256</t>
   </si>
   <si>
     <t xml:space="preserve">2.79652142524719</t>
@@ -2885,13 +2885,13 @@
     <t xml:space="preserve">2.8339900970459</t>
   </si>
   <si>
-    <t xml:space="preserve">2.87231040000916</t>
+    <t xml:space="preserve">2.87231016159058</t>
   </si>
   <si>
     <t xml:space="preserve">2.86379456520081</t>
   </si>
   <si>
-    <t xml:space="preserve">2.85698199272156</t>
+    <t xml:space="preserve">2.85698223114014</t>
   </si>
   <si>
     <t xml:space="preserve">2.85783386230469</t>
@@ -2900,7 +2900,7 @@
     <t xml:space="preserve">2.85868549346924</t>
   </si>
   <si>
-    <t xml:space="preserve">2.84846687316895</t>
+    <t xml:space="preserve">2.84846639633179</t>
   </si>
   <si>
     <t xml:space="preserve">2.89785695075989</t>
@@ -2915,19 +2915,19 @@
     <t xml:space="preserve">2.90126323699951</t>
   </si>
   <si>
-    <t xml:space="preserve">2.94384121894836</t>
+    <t xml:space="preserve">2.94384145736694</t>
   </si>
   <si>
     <t xml:space="preserve">2.87401342391968</t>
   </si>
   <si>
-    <t xml:space="preserve">2.87571620941162</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.86720108985901</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.96938800811768</t>
+    <t xml:space="preserve">2.87571668624878</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.86720085144043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.96938824653625</t>
   </si>
   <si>
     <t xml:space="preserve">2.93788027763367</t>
@@ -2939,13 +2939,13 @@
     <t xml:space="preserve">2.9668333530426</t>
   </si>
   <si>
-    <t xml:space="preserve">2.98556780815125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.99067711830139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.99493479728699</t>
+    <t xml:space="preserve">2.98556756973267</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.99067687988281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.99493455886841</t>
   </si>
   <si>
     <t xml:space="preserve">2.98982548713684</t>
@@ -2954,28 +2954,28 @@
     <t xml:space="preserve">2.97194266319275</t>
   </si>
   <si>
-    <t xml:space="preserve">2.96768498420715</t>
+    <t xml:space="preserve">2.96768474578857</t>
   </si>
   <si>
     <t xml:space="preserve">2.9727942943573</t>
   </si>
   <si>
-    <t xml:space="preserve">2.97023940086365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.98130965232849</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.00515341758728</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.04177069664001</t>
+    <t xml:space="preserve">2.97023963928223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.98130989074707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.00515365600586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.04177045822144</t>
   </si>
   <si>
     <t xml:space="preserve">3.06902050971985</t>
   </si>
   <si>
-    <t xml:space="preserve">3.08264517784119</t>
+    <t xml:space="preserve">3.08264541625977</t>
   </si>
   <si>
     <t xml:space="preserve">3.13799667358398</t>
@@ -2996,7 +2996,7 @@
     <t xml:space="preserve">3.1592857837677</t>
   </si>
   <si>
-    <t xml:space="preserve">3.13373899459839</t>
+    <t xml:space="preserve">3.13373923301697</t>
   </si>
   <si>
     <t xml:space="preserve">3.1192626953125</t>
@@ -3008,19 +3008,19 @@
     <t xml:space="preserve">3.06816864013672</t>
   </si>
   <si>
-    <t xml:space="preserve">3.01026272773743</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.03240346908569</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.00345015525818</t>
+    <t xml:space="preserve">3.01026296615601</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.03240370750427</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.00345039367676</t>
   </si>
   <si>
     <t xml:space="preserve">2.99834108352661</t>
   </si>
   <si>
-    <t xml:space="preserve">2.99919247627258</t>
+    <t xml:space="preserve">2.99919271469116</t>
   </si>
   <si>
     <t xml:space="preserve">2.97364592552185</t>
@@ -3029,19 +3029,19 @@
     <t xml:space="preserve">3.00259876251221</t>
   </si>
   <si>
-    <t xml:space="preserve">3.01754140853882</t>
+    <t xml:space="preserve">3.0175416469574</t>
   </si>
   <si>
     <t xml:space="preserve">3.0043568611145</t>
   </si>
   <si>
-    <t xml:space="preserve">3.0702805519104</t>
+    <t xml:space="preserve">3.07028031349182</t>
   </si>
   <si>
     <t xml:space="preserve">2.97271347045898</t>
   </si>
   <si>
-    <t xml:space="preserve">2.97095584869385</t>
+    <t xml:space="preserve">2.97095561027527</t>
   </si>
   <si>
     <t xml:space="preserve">3.04127407073975</t>
@@ -3053,16 +3053,16 @@
     <t xml:space="preserve">3.03072619438171</t>
   </si>
   <si>
-    <t xml:space="preserve">3.00347781181335</t>
+    <t xml:space="preserve">3.00347805023193</t>
   </si>
   <si>
     <t xml:space="preserve">3.03512120246887</t>
   </si>
   <si>
-    <t xml:space="preserve">2.94810199737549</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.95689177513123</t>
+    <t xml:space="preserve">2.94810223579407</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.9568920135498</t>
   </si>
   <si>
     <t xml:space="preserve">3.05709552764893</t>
@@ -3077,7 +3077,7 @@
     <t xml:space="preserve">3.10192370414734</t>
   </si>
   <si>
-    <t xml:space="preserve">3.14587259292603</t>
+    <t xml:space="preserve">3.1458728313446</t>
   </si>
   <si>
     <t xml:space="preserve">3.17839503288269</t>
@@ -3086,22 +3086,22 @@
     <t xml:space="preserve">3.15378355979919</t>
   </si>
   <si>
-    <t xml:space="preserve">3.15817856788635</t>
+    <t xml:space="preserve">3.15817832946777</t>
   </si>
   <si>
     <t xml:space="preserve">3.13532495498657</t>
   </si>
   <si>
-    <t xml:space="preserve">3.12214016914368</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.11335062980652</t>
+    <t xml:space="preserve">3.12214040756226</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.11335039138794</t>
   </si>
   <si>
     <t xml:space="preserve">3.13268804550171</t>
   </si>
   <si>
-    <t xml:space="preserve">3.15993666648865</t>
+    <t xml:space="preserve">3.15993642807007</t>
   </si>
   <si>
     <t xml:space="preserve">3.14850974082947</t>
@@ -3113,28 +3113,28 @@
     <t xml:space="preserve">3.21267533302307</t>
   </si>
   <si>
-    <t xml:space="preserve">3.2478346824646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.26277732849121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.27420401573181</t>
+    <t xml:space="preserve">3.24783444404602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.26277709007263</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.27420377731323</t>
   </si>
   <si>
     <t xml:space="preserve">3.29881548881531</t>
   </si>
   <si>
-    <t xml:space="preserve">3.31551599502563</t>
+    <t xml:space="preserve">3.31551623344421</t>
   </si>
   <si>
     <t xml:space="preserve">3.30408930778503</t>
   </si>
   <si>
-    <t xml:space="preserve">3.30584716796875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.28475165367126</t>
+    <t xml:space="preserve">3.30584740638733</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.28475189208984</t>
   </si>
   <si>
     <t xml:space="preserve">3.2460765838623</t>
@@ -3143,7 +3143,7 @@
     <t xml:space="preserve">3.21707034111023</t>
   </si>
   <si>
-    <t xml:space="preserve">3.23201298713684</t>
+    <t xml:space="preserve">3.23201274871826</t>
   </si>
   <si>
     <t xml:space="preserve">3.22673892974854</t>
@@ -3152,52 +3152,52 @@
     <t xml:space="preserve">3.21970725059509</t>
   </si>
   <si>
-    <t xml:space="preserve">3.25398731231689</t>
+    <t xml:space="preserve">3.25398707389832</t>
   </si>
   <si>
     <t xml:space="preserve">3.23904466629028</t>
   </si>
   <si>
-    <t xml:space="preserve">3.22585988044739</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.24168133735657</t>
+    <t xml:space="preserve">3.22586011886597</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.24168181419373</t>
   </si>
   <si>
     <t xml:space="preserve">3.19597458839417</t>
   </si>
   <si>
-    <t xml:space="preserve">3.14938855171204</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.18806385993958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.21443319320679</t>
+    <t xml:space="preserve">3.14938879013062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.18806409835815</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.21443343162537</t>
   </si>
   <si>
     <t xml:space="preserve">3.16345262527466</t>
   </si>
   <si>
-    <t xml:space="preserve">3.19861173629761</t>
+    <t xml:space="preserve">3.19861149787903</t>
   </si>
   <si>
     <t xml:space="preserve">3.15466260910034</t>
   </si>
   <si>
-    <t xml:space="preserve">3.20124840736389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.19773268699646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.20740151405334</t>
+    <t xml:space="preserve">3.20124864578247</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.19773244857788</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.20740127563477</t>
   </si>
   <si>
     <t xml:space="preserve">3.13620400428772</t>
   </si>
   <si>
-    <t xml:space="preserve">3.08522319793701</t>
+    <t xml:space="preserve">3.08522295951843</t>
   </si>
   <si>
     <t xml:space="preserve">3.12653493881226</t>
@@ -3206,16 +3206,16 @@
     <t xml:space="preserve">3.10807681083679</t>
   </si>
   <si>
-    <t xml:space="preserve">3.10719752311707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.10983467102051</t>
+    <t xml:space="preserve">3.10719776153564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.10983443260193</t>
   </si>
   <si>
     <t xml:space="preserve">3.11598753929138</t>
   </si>
   <si>
-    <t xml:space="preserve">3.07115936279297</t>
+    <t xml:space="preserve">3.07115912437439</t>
   </si>
   <si>
     <t xml:space="preserve">3.09664988517761</t>
@@ -3224,22 +3224,22 @@
     <t xml:space="preserve">3.01929950714111</t>
   </si>
   <si>
-    <t xml:space="preserve">2.98501920700073</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.02017879486084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.05533790588379</t>
+    <t xml:space="preserve">2.98501896858215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.02017855644226</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.05533766746521</t>
   </si>
   <si>
     <t xml:space="preserve">3.08610200881958</t>
   </si>
   <si>
-    <t xml:space="preserve">3.06324863433838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.033362865448</t>
+    <t xml:space="preserve">3.0632483959198</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.03336310386658</t>
   </si>
   <si>
     <t xml:space="preserve">3.05357980728149</t>
@@ -3251,10 +3251,10 @@
     <t xml:space="preserve">3.14675164222717</t>
   </si>
   <si>
-    <t xml:space="preserve">3.16257357597351</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.13005113601685</t>
+    <t xml:space="preserve">3.16257333755493</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.13005137443542</t>
   </si>
   <si>
     <t xml:space="preserve">3.16608929634094</t>
@@ -3269,7 +3269,7 @@
     <t xml:space="preserve">3.10631847381592</t>
   </si>
   <si>
-    <t xml:space="preserve">3.1476309299469</t>
+    <t xml:space="preserve">3.14763069152832</t>
   </si>
   <si>
     <t xml:space="preserve">3.22849726676941</t>
@@ -3281,7 +3281,7 @@
     <t xml:space="preserve">3.1704843044281</t>
   </si>
   <si>
-    <t xml:space="preserve">3.12917232513428</t>
+    <t xml:space="preserve">3.1291720867157</t>
   </si>
   <si>
     <t xml:space="preserve">3.17136335372925</t>
@@ -3296,7 +3296,7 @@
     <t xml:space="preserve">3.14499378204346</t>
   </si>
   <si>
-    <t xml:space="preserve">3.14235663414001</t>
+    <t xml:space="preserve">3.14235687255859</t>
   </si>
   <si>
     <t xml:space="preserve">3.11247134208679</t>
@@ -3311,7 +3311,7 @@
     <t xml:space="preserve">2.99292993545532</t>
   </si>
   <si>
-    <t xml:space="preserve">3.06764340400696</t>
+    <t xml:space="preserve">3.06764364242554</t>
   </si>
   <si>
     <t xml:space="preserve">2.99732518196106</t>
@@ -3323,31 +3323,31 @@
     <t xml:space="preserve">3.09313416481018</t>
   </si>
   <si>
-    <t xml:space="preserve">3.12038230895996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.08961820602417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.11510825157166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.13708281517029</t>
+    <t xml:space="preserve">3.12038207054138</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.08961796760559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.11510848999023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.13708305358887</t>
   </si>
   <si>
     <t xml:space="preserve">3.1590576171875</t>
   </si>
   <si>
-    <t xml:space="preserve">3.16433119773865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.17487931251526</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.23289203643799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.21794939041138</t>
+    <t xml:space="preserve">3.16433143615723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.17487907409668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.23289179801941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.2179491519928</t>
   </si>
   <si>
     <t xml:space="preserve">3.25750350952148</t>
@@ -3356,7 +3356,7 @@
     <t xml:space="preserve">3.22761797904968</t>
   </si>
   <si>
-    <t xml:space="preserve">3.20212769508362</t>
+    <t xml:space="preserve">3.20212745666504</t>
   </si>
   <si>
     <t xml:space="preserve">3.13971996307373</t>
@@ -3371,7 +3371,7 @@
     <t xml:space="preserve">3.081707239151</t>
   </si>
   <si>
-    <t xml:space="preserve">3.09225463867188</t>
+    <t xml:space="preserve">3.09225487709045</t>
   </si>
   <si>
     <t xml:space="preserve">3.0588538646698</t>
@@ -3386,46 +3386,46 @@
     <t xml:space="preserve">3.08434414863586</t>
   </si>
   <si>
-    <t xml:space="preserve">3.19070100784302</t>
+    <t xml:space="preserve">3.19070076942444</t>
   </si>
   <si>
     <t xml:space="preserve">3.2654139995575</t>
   </si>
   <si>
-    <t xml:space="preserve">3.25047135353088</t>
+    <t xml:space="preserve">3.25047159194946</t>
   </si>
   <si>
     <t xml:space="preserve">3.18454790115356</t>
   </si>
   <si>
-    <t xml:space="preserve">3.04830598831177</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.9876561164856</t>
+    <t xml:space="preserve">3.04830574989319</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.98765635490417</t>
   </si>
   <si>
     <t xml:space="preserve">3.0272102355957</t>
   </si>
   <si>
-    <t xml:space="preserve">3.04742693901062</t>
+    <t xml:space="preserve">3.04742670059204</t>
   </si>
   <si>
     <t xml:space="preserve">3.03424215316772</t>
   </si>
   <si>
-    <t xml:space="preserve">2.96656084060669</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.99468803405762</t>
+    <t xml:space="preserve">2.96656060218811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.9946882724762</t>
   </si>
   <si>
     <t xml:space="preserve">2.97974538803101</t>
   </si>
   <si>
-    <t xml:space="preserve">2.94898080825806</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.94370722770691</t>
+    <t xml:space="preserve">2.94898104667664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.94370698928833</t>
   </si>
   <si>
     <t xml:space="preserve">2.90151619911194</t>
@@ -3437,19 +3437,19 @@
     <t xml:space="preserve">2.92964339256287</t>
   </si>
   <si>
-    <t xml:space="preserve">2.84262442588806</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.04566884040833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.93755412101746</t>
+    <t xml:space="preserve">2.84262418746948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.0456690788269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.93755435943604</t>
   </si>
   <si>
     <t xml:space="preserve">2.89360523223877</t>
   </si>
   <si>
-    <t xml:space="preserve">2.86547803878784</t>
+    <t xml:space="preserve">2.86547780036926</t>
   </si>
   <si>
     <t xml:space="preserve">2.79955410957336</t>
@@ -3461,7 +3461,7 @@
     <t xml:space="preserve">2.87778353691101</t>
   </si>
   <si>
-    <t xml:space="preserve">2.98414039611816</t>
+    <t xml:space="preserve">2.98414015769958</t>
   </si>
   <si>
     <t xml:space="preserve">2.97007656097412</t>
@@ -3479,10 +3479,10 @@
     <t xml:space="preserve">2.96040773391724</t>
   </si>
   <si>
-    <t xml:space="preserve">2.99908304214478</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.89184713363647</t>
+    <t xml:space="preserve">2.9990828037262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.89184737205505</t>
   </si>
   <si>
     <t xml:space="preserve">2.85932493209839</t>
@@ -3497,10 +3497,10 @@
     <t xml:space="preserve">2.95952892303467</t>
   </si>
   <si>
-    <t xml:space="preserve">2.94107007980347</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.98326110839844</t>
+    <t xml:space="preserve">2.94107031822205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.98326134681702</t>
   </si>
   <si>
     <t xml:space="preserve">3.0157835483551</t>
@@ -3512,13 +3512,13 @@
     <t xml:space="preserve">3.16081523895264</t>
   </si>
   <si>
-    <t xml:space="preserve">3.11686635017395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.15729928016663</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.17224192619324</t>
+    <t xml:space="preserve">3.11686658859253</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.15729975700378</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.1722424030304</t>
   </si>
   <si>
     <t xml:space="preserve">3.12829327583313</t>
@@ -3533,7 +3533,7 @@
     <t xml:space="preserve">3.09489178657532</t>
   </si>
   <si>
-    <t xml:space="preserve">3.06236958503723</t>
+    <t xml:space="preserve">3.06236934661865</t>
   </si>
   <si>
     <t xml:space="preserve">3.09752869606018</t>
@@ -3566,16 +3566,16 @@
     <t xml:space="preserve">2.99820399284363</t>
   </si>
   <si>
-    <t xml:space="preserve">2.97359228134155</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.9331591129303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.96831846237183</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.94282817840576</t>
+    <t xml:space="preserve">2.97359251976013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.93315935134888</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.96831870079041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.94282793998718</t>
   </si>
   <si>
     <t xml:space="preserve">2.94458603858948</t>
@@ -3590,13 +3590,13 @@
     <t xml:space="preserve">2.50685358047485</t>
   </si>
   <si>
-    <t xml:space="preserve">2.44444584846497</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.54992365837097</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.4778470993042</t>
+    <t xml:space="preserve">2.44444608688354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.54992389678955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.47784733772278</t>
   </si>
   <si>
     <t xml:space="preserve">2.507732629776</t>
@@ -3626,18 +3626,21 @@
     <t xml:space="preserve">2.56829261779785</t>
   </si>
   <si>
-    <t xml:space="preserve">2.5325071811676</t>
+    <t xml:space="preserve">2.53250694274902</t>
   </si>
   <si>
     <t xml:space="preserve">2.58022117614746</t>
   </si>
   <si>
-    <t xml:space="preserve">2.57746815681458</t>
+    <t xml:space="preserve">2.57746839523315</t>
   </si>
   <si>
     <t xml:space="preserve">2.50314474105835</t>
   </si>
   <si>
+    <t xml:space="preserve">2.54902338981628</t>
+  </si>
+  <si>
     <t xml:space="preserve">2.58389115333557</t>
   </si>
   <si>
@@ -3647,7 +3650,7 @@
     <t xml:space="preserve">2.55085849761963</t>
   </si>
   <si>
-    <t xml:space="preserve">2.46368885040283</t>
+    <t xml:space="preserve">2.46368908882141</t>
   </si>
   <si>
     <t xml:space="preserve">2.39028286933899</t>
@@ -3680,10 +3683,10 @@
     <t xml:space="preserve">2.52057862281799</t>
   </si>
   <si>
-    <t xml:space="preserve">2.53801250457764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.60316014289856</t>
+    <t xml:space="preserve">2.53801274299622</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.60316038131714</t>
   </si>
   <si>
     <t xml:space="preserve">2.59857249259949</t>
@@ -3698,10 +3701,10 @@
     <t xml:space="preserve">2.53067183494568</t>
   </si>
   <si>
-    <t xml:space="preserve">2.53434252738953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.56095194816589</t>
+    <t xml:space="preserve">2.53434228897095</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.56095170974731</t>
   </si>
   <si>
     <t xml:space="preserve">2.56737494468689</t>
@@ -3719,13 +3722,13 @@
     <t xml:space="preserve">2.51323819160461</t>
   </si>
   <si>
-    <t xml:space="preserve">2.49396872520447</t>
+    <t xml:space="preserve">2.49396896362305</t>
   </si>
   <si>
     <t xml:space="preserve">2.45726585388184</t>
   </si>
   <si>
-    <t xml:space="preserve">2.38202476501465</t>
+    <t xml:space="preserve">2.38202452659607</t>
   </si>
   <si>
     <t xml:space="preserve">2.44074964523315</t>
@@ -3734,7 +3737,7 @@
     <t xml:space="preserve">2.29393768310547</t>
   </si>
   <si>
-    <t xml:space="preserve">2.29485487937927</t>
+    <t xml:space="preserve">2.29485511779785</t>
   </si>
   <si>
     <t xml:space="preserve">2.32697033882141</t>
@@ -3743,10 +3746,10 @@
     <t xml:space="preserve">2.26641035079956</t>
   </si>
   <si>
-    <t xml:space="preserve">2.14987826347351</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.20768547058105</t>
+    <t xml:space="preserve">2.14987802505493</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.20768523216248</t>
   </si>
   <si>
     <t xml:space="preserve">2.19483947753906</t>
@@ -3764,7 +3767,7 @@
     <t xml:space="preserve">2.22970747947693</t>
   </si>
   <si>
-    <t xml:space="preserve">2.22695446014404</t>
+    <t xml:space="preserve">2.22695469856262</t>
   </si>
   <si>
     <t xml:space="preserve">2.19850969314575</t>
@@ -3782,31 +3785,31 @@
     <t xml:space="preserve">2.11868071556091</t>
   </si>
   <si>
-    <t xml:space="preserve">2.05169796943665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.05812096595764</t>
+    <t xml:space="preserve">2.05169773101807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.05812072753906</t>
   </si>
   <si>
     <t xml:space="preserve">1.94892942905426</t>
   </si>
   <si>
-    <t xml:space="preserve">1.99756073951721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.98746728897095</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.00581932067871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.01682996749878</t>
+    <t xml:space="preserve">1.9975608587265</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.98746752738953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.00581908226013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.0168297290802</t>
   </si>
   <si>
     <t xml:space="preserve">2.07647228240967</t>
   </si>
   <si>
-    <t xml:space="preserve">1.97095119953156</t>
+    <t xml:space="preserve">1.97095108032227</t>
   </si>
   <si>
     <t xml:space="preserve">1.90855598449707</t>
@@ -3818,16 +3821,16 @@
     <t xml:space="preserve">1.93975365161896</t>
   </si>
   <si>
-    <t xml:space="preserve">1.87185299396515</t>
+    <t xml:space="preserve">1.87185311317444</t>
   </si>
   <si>
     <t xml:space="preserve">1.83882033824921</t>
   </si>
   <si>
-    <t xml:space="preserve">1.86726522445679</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8984626531601</t>
+    <t xml:space="preserve">1.86726534366608</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89846277236938</t>
   </si>
   <si>
     <t xml:space="preserve">1.9480117559433</t>
@@ -3845,7 +3848,7 @@
     <t xml:space="preserve">1.92048454284668</t>
   </si>
   <si>
-    <t xml:space="preserve">1.98379731178284</t>
+    <t xml:space="preserve">1.98379719257355</t>
   </si>
   <si>
     <t xml:space="preserve">2.07280206680298</t>
@@ -3860,10 +3863,10 @@
     <t xml:space="preserve">2.21319103240967</t>
   </si>
   <si>
-    <t xml:space="preserve">2.22420191764832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.22236657142639</t>
+    <t xml:space="preserve">2.22420167922974</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.22236680984497</t>
   </si>
   <si>
     <t xml:space="preserve">2.21135592460632</t>
@@ -3878,13 +3881,13 @@
     <t xml:space="preserve">2.31595921516418</t>
   </si>
   <si>
-    <t xml:space="preserve">2.36459064483643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.39395308494568</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.36550855636597</t>
+    <t xml:space="preserve">2.364590883255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.39395332336426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.36550831794739</t>
   </si>
   <si>
     <t xml:space="preserve">2.38477754592896</t>
@@ -3911,10 +3914,10 @@
     <t xml:space="preserve">2.43249130249023</t>
   </si>
   <si>
-    <t xml:space="preserve">2.43799686431885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.41872787475586</t>
+    <t xml:space="preserve">2.43799710273743</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.41872763633728</t>
   </si>
   <si>
     <t xml:space="preserve">2.43065619468689</t>
@@ -3926,16 +3929,16 @@
     <t xml:space="preserve">2.46001863479614</t>
   </si>
   <si>
-    <t xml:space="preserve">2.46827673912048</t>
+    <t xml:space="preserve">2.46827697753906</t>
   </si>
   <si>
     <t xml:space="preserve">2.46460676193237</t>
   </si>
   <si>
-    <t xml:space="preserve">2.5233314037323</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.57288026809692</t>
+    <t xml:space="preserve">2.52333116531372</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.5728805065155</t>
   </si>
   <si>
     <t xml:space="preserve">2.59673738479614</t>
@@ -3956,7 +3959,7 @@
     <t xml:space="preserve">2.3462393283844</t>
   </si>
   <si>
-    <t xml:space="preserve">2.32513523101807</t>
+    <t xml:space="preserve">2.32513499259949</t>
   </si>
   <si>
     <t xml:space="preserve">2.34165143966675</t>
@@ -3965,7 +3968,7 @@
     <t xml:space="preserve">2.33889889717102</t>
   </si>
   <si>
-    <t xml:space="preserve">2.28476166725159</t>
+    <t xml:space="preserve">2.28476190567017</t>
   </si>
   <si>
     <t xml:space="preserve">2.33614611625671</t>
@@ -3980,7 +3983,7 @@
     <t xml:space="preserve">2.37468409538269</t>
   </si>
   <si>
-    <t xml:space="preserve">2.42239809036255</t>
+    <t xml:space="preserve">2.42239832878113</t>
   </si>
   <si>
     <t xml:space="preserve">2.40955185890198</t>
@@ -3992,25 +3995,25 @@
     <t xml:space="preserve">2.54260039329529</t>
   </si>
   <si>
-    <t xml:space="preserve">2.51415538787842</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.51966094970703</t>
+    <t xml:space="preserve">2.514155626297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.51966118812561</t>
   </si>
   <si>
     <t xml:space="preserve">2.49672174453735</t>
   </si>
   <si>
-    <t xml:space="preserve">2.43524432182312</t>
+    <t xml:space="preserve">2.43524408340454</t>
   </si>
   <si>
     <t xml:space="preserve">2.47745251655579</t>
   </si>
   <si>
-    <t xml:space="preserve">2.50406217575073</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.49121618270874</t>
+    <t xml:space="preserve">2.50406241416931</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.49121594429016</t>
   </si>
   <si>
     <t xml:space="preserve">2.48571085929871</t>
@@ -4025,7 +4028,7 @@
     <t xml:space="preserve">2.43157386779785</t>
   </si>
   <si>
-    <t xml:space="preserve">2.50039196014404</t>
+    <t xml:space="preserve">2.50039172172546</t>
   </si>
   <si>
     <t xml:space="preserve">2.45910120010376</t>
@@ -4043,16 +4046,16 @@
     <t xml:space="preserve">2.38569498062134</t>
   </si>
   <si>
-    <t xml:space="preserve">2.3801896572113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.35082745552063</t>
+    <t xml:space="preserve">2.38018989562988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.35082721710205</t>
   </si>
   <si>
     <t xml:space="preserve">2.31779456138611</t>
   </si>
   <si>
-    <t xml:space="preserve">2.30953645706177</t>
+    <t xml:space="preserve">2.30953621864319</t>
   </si>
   <si>
     <t xml:space="preserve">2.30494856834412</t>
@@ -4085,7 +4088,7 @@
     <t xml:space="preserve">2.21686100959778</t>
   </si>
   <si>
-    <t xml:space="preserve">2.20676779747009</t>
+    <t xml:space="preserve">2.20676803588867</t>
   </si>
   <si>
     <t xml:space="preserve">2.19575691223145</t>
@@ -4103,7 +4106,7 @@
     <t xml:space="preserve">2.28567934036255</t>
   </si>
   <si>
-    <t xml:space="preserve">2.2966902256012</t>
+    <t xml:space="preserve">2.29669046401978</t>
   </si>
   <si>
     <t xml:space="preserve">2.32605266571045</t>
@@ -4118,10 +4121,10 @@
     <t xml:space="preserve">2.4921338558197</t>
   </si>
   <si>
-    <t xml:space="preserve">2.51232028007507</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.40588164329529</t>
+    <t xml:space="preserve">2.51232051849365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.40588188171387</t>
   </si>
   <si>
     <t xml:space="preserve">2.48479318618774</t>
@@ -4130,19 +4133,19 @@
     <t xml:space="preserve">2.47928762435913</t>
   </si>
   <si>
-    <t xml:space="preserve">2.56186938285828</t>
+    <t xml:space="preserve">2.56186962127686</t>
   </si>
   <si>
     <t xml:space="preserve">2.59123182296753</t>
   </si>
   <si>
-    <t xml:space="preserve">2.53617715835571</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.58939671516418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.6260998249054</t>
+    <t xml:space="preserve">2.53617739677429</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.58939695358276</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.62609958648682</t>
   </si>
   <si>
     <t xml:space="preserve">2.61692404747009</t>
@@ -4151,10 +4154,10 @@
     <t xml:space="preserve">2.63527536392212</t>
   </si>
   <si>
-    <t xml:space="preserve">2.72152757644653</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.74905490875244</t>
+    <t xml:space="preserve">2.72152781486511</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.74905467033386</t>
   </si>
   <si>
     <t xml:space="preserve">2.77658200263977</t>
@@ -4175,10 +4178,10 @@
     <t xml:space="preserve">2.73070335388184</t>
   </si>
   <si>
-    <t xml:space="preserve">2.71969223022461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.644451379776</t>
+    <t xml:space="preserve">2.71969246864319</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.64445114135742</t>
   </si>
   <si>
     <t xml:space="preserve">2.62242960929871</t>
@@ -4187,10 +4190,10 @@
     <t xml:space="preserve">2.67564868927002</t>
   </si>
   <si>
-    <t xml:space="preserve">2.67748379707336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.7068464756012</t>
+    <t xml:space="preserve">2.67748403549194</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.70684623718262</t>
   </si>
   <si>
     <t xml:space="preserve">2.68298935890198</t>
@@ -4208,7 +4211,7 @@
     <t xml:space="preserve">2.63894581794739</t>
   </si>
   <si>
-    <t xml:space="preserve">2.64812159538269</t>
+    <t xml:space="preserve">2.64812135696411</t>
   </si>
   <si>
     <t xml:space="preserve">2.65913248062134</t>
@@ -4220,7 +4223,7 @@
     <t xml:space="preserve">2.62426447868347</t>
   </si>
   <si>
-    <t xml:space="preserve">2.66463804244995</t>
+    <t xml:space="preserve">2.66463780403137</t>
   </si>
   <si>
     <t xml:space="preserve">2.61190128326416</t>
@@ -48353,7 +48356,7 @@
         <v>2.77800011634827</v>
       </c>
       <c r="G1657" t="s">
-        <v>574</v>
+        <v>1208</v>
       </c>
       <c r="H1657" t="s">
         <v>9</v>
@@ -48405,7 +48408,7 @@
         <v>2.81599998474121</v>
       </c>
       <c r="G1659" t="s">
-        <v>1208</v>
+        <v>1209</v>
       </c>
       <c r="H1659" t="s">
         <v>9</v>
@@ -48431,7 +48434,7 @@
         <v>2.79999995231628</v>
       </c>
       <c r="G1660" t="s">
-        <v>1209</v>
+        <v>1210</v>
       </c>
       <c r="H1660" t="s">
         <v>9</v>
@@ -48457,7 +48460,7 @@
         <v>2.77999997138977</v>
       </c>
       <c r="G1661" t="s">
-        <v>1210</v>
+        <v>1211</v>
       </c>
       <c r="H1661" t="s">
         <v>9</v>
@@ -48483,7 +48486,7 @@
         <v>2.68499994277954</v>
       </c>
       <c r="G1662" t="s">
-        <v>1211</v>
+        <v>1212</v>
       </c>
       <c r="H1662" t="s">
         <v>9</v>
@@ -48509,7 +48512,7 @@
         <v>2.60500001907349</v>
       </c>
       <c r="G1663" t="s">
-        <v>1212</v>
+        <v>1213</v>
       </c>
       <c r="H1663" t="s">
         <v>9</v>
@@ -48535,7 +48538,7 @@
         <v>2.68799996376038</v>
       </c>
       <c r="G1664" t="s">
-        <v>1213</v>
+        <v>1214</v>
       </c>
       <c r="H1664" t="s">
         <v>9</v>
@@ -48561,7 +48564,7 @@
         <v>2.69799995422363</v>
       </c>
       <c r="G1665" t="s">
-        <v>1214</v>
+        <v>1215</v>
       </c>
       <c r="H1665" t="s">
         <v>9</v>
@@ -48587,7 +48590,7 @@
         <v>2.7260000705719</v>
       </c>
       <c r="G1666" t="s">
-        <v>1215</v>
+        <v>1216</v>
       </c>
       <c r="H1666" t="s">
         <v>9</v>
@@ -48613,7 +48616,7 @@
         <v>2.69799995422363</v>
       </c>
       <c r="G1667" t="s">
-        <v>1214</v>
+        <v>1215</v>
       </c>
       <c r="H1667" t="s">
         <v>9</v>
@@ -48639,7 +48642,7 @@
         <v>2.69400000572205</v>
       </c>
       <c r="G1668" t="s">
-        <v>1216</v>
+        <v>1217</v>
       </c>
       <c r="H1668" t="s">
         <v>9</v>
@@ -48665,7 +48668,7 @@
         <v>2.72000002861023</v>
       </c>
       <c r="G1669" t="s">
-        <v>1217</v>
+        <v>1218</v>
       </c>
       <c r="H1669" t="s">
         <v>9</v>
@@ -48691,7 +48694,7 @@
         <v>2.73499989509583</v>
       </c>
       <c r="G1670" t="s">
-        <v>1218</v>
+        <v>1219</v>
       </c>
       <c r="H1670" t="s">
         <v>9</v>
@@ -48717,7 +48720,7 @@
         <v>2.71399998664856</v>
       </c>
       <c r="G1671" t="s">
-        <v>1219</v>
+        <v>1220</v>
       </c>
       <c r="H1671" t="s">
         <v>9</v>
@@ -48743,7 +48746,7 @@
         <v>2.73499989509583</v>
       </c>
       <c r="G1672" t="s">
-        <v>1218</v>
+        <v>1219</v>
       </c>
       <c r="H1672" t="s">
         <v>9</v>
@@ -48769,7 +48772,7 @@
         <v>2.77800011634827</v>
       </c>
       <c r="G1673" t="s">
-        <v>574</v>
+        <v>1208</v>
       </c>
       <c r="H1673" t="s">
         <v>9</v>
@@ -48795,7 +48798,7 @@
         <v>2.80200004577637</v>
       </c>
       <c r="G1674" t="s">
-        <v>1220</v>
+        <v>1221</v>
       </c>
       <c r="H1674" t="s">
         <v>9</v>
@@ -48821,7 +48824,7 @@
         <v>2.74699997901917</v>
       </c>
       <c r="G1675" t="s">
-        <v>1221</v>
+        <v>1222</v>
       </c>
       <c r="H1675" t="s">
         <v>9</v>
@@ -48847,7 +48850,7 @@
         <v>2.76600003242493</v>
       </c>
       <c r="G1676" t="s">
-        <v>1222</v>
+        <v>1223</v>
       </c>
       <c r="H1676" t="s">
         <v>9</v>
@@ -48873,7 +48876,7 @@
         <v>2.83699989318848</v>
       </c>
       <c r="G1677" t="s">
-        <v>1223</v>
+        <v>1224</v>
       </c>
       <c r="H1677" t="s">
         <v>9</v>
@@ -48899,7 +48902,7 @@
         <v>2.83200001716614</v>
       </c>
       <c r="G1678" t="s">
-        <v>1224</v>
+        <v>1225</v>
       </c>
       <c r="H1678" t="s">
         <v>9</v>
@@ -48925,7 +48928,7 @@
         <v>2.74699997901917</v>
       </c>
       <c r="G1679" t="s">
-        <v>1221</v>
+        <v>1222</v>
       </c>
       <c r="H1679" t="s">
         <v>9</v>
@@ -48951,7 +48954,7 @@
         <v>2.79299998283386</v>
       </c>
       <c r="G1680" t="s">
-        <v>1225</v>
+        <v>1226</v>
       </c>
       <c r="H1680" t="s">
         <v>9</v>
@@ -48977,7 +48980,7 @@
         <v>2.76099991798401</v>
       </c>
       <c r="G1681" t="s">
-        <v>1226</v>
+        <v>1227</v>
       </c>
       <c r="H1681" t="s">
         <v>9</v>
@@ -49003,7 +49006,7 @@
         <v>2.75799989700317</v>
       </c>
       <c r="G1682" t="s">
-        <v>1227</v>
+        <v>1228</v>
       </c>
       <c r="H1682" t="s">
         <v>9</v>
@@ -49029,7 +49032,7 @@
         <v>2.76200008392334</v>
       </c>
       <c r="G1683" t="s">
-        <v>1228</v>
+        <v>1229</v>
       </c>
       <c r="H1683" t="s">
         <v>9</v>
@@ -49055,7 +49058,7 @@
         <v>2.79099988937378</v>
       </c>
       <c r="G1684" t="s">
-        <v>1229</v>
+        <v>1230</v>
       </c>
       <c r="H1684" t="s">
         <v>9</v>
@@ -49081,7 +49084,7 @@
         <v>2.79800009727478</v>
       </c>
       <c r="G1685" t="s">
-        <v>1230</v>
+        <v>1231</v>
       </c>
       <c r="H1685" t="s">
         <v>9</v>
@@ -49107,7 +49110,7 @@
         <v>2.76900005340576</v>
       </c>
       <c r="G1686" t="s">
-        <v>1231</v>
+        <v>1232</v>
       </c>
       <c r="H1686" t="s">
         <v>9</v>
@@ -49133,7 +49136,7 @@
         <v>2.75600004196167</v>
       </c>
       <c r="G1687" t="s">
-        <v>1232</v>
+        <v>1233</v>
       </c>
       <c r="H1687" t="s">
         <v>9</v>
@@ -49159,7 +49162,7 @@
         <v>2.75200009346008</v>
       </c>
       <c r="G1688" t="s">
-        <v>1233</v>
+        <v>1234</v>
       </c>
       <c r="H1688" t="s">
         <v>9</v>
@@ -49185,7 +49188,7 @@
         <v>2.72000002861023</v>
       </c>
       <c r="G1689" t="s">
-        <v>1217</v>
+        <v>1218</v>
       </c>
       <c r="H1689" t="s">
         <v>9</v>
@@ -49211,7 +49214,7 @@
         <v>2.73900008201599</v>
       </c>
       <c r="G1690" t="s">
-        <v>1234</v>
+        <v>1235</v>
       </c>
       <c r="H1690" t="s">
         <v>9</v>
@@ -49237,7 +49240,7 @@
         <v>2.72000002861023</v>
       </c>
       <c r="G1691" t="s">
-        <v>1217</v>
+        <v>1218</v>
       </c>
       <c r="H1691" t="s">
         <v>9</v>
@@ -49263,7 +49266,7 @@
         <v>2.71799993515015</v>
       </c>
       <c r="G1692" t="s">
-        <v>1235</v>
+        <v>1236</v>
       </c>
       <c r="H1692" t="s">
         <v>9</v>
@@ -49289,7 +49292,7 @@
         <v>2.67799997329712</v>
       </c>
       <c r="G1693" t="s">
-        <v>1236</v>
+        <v>1237</v>
       </c>
       <c r="H1693" t="s">
         <v>9</v>
@@ -49315,7 +49318,7 @@
         <v>2.59599995613098</v>
       </c>
       <c r="G1694" t="s">
-        <v>1237</v>
+        <v>1238</v>
       </c>
       <c r="H1694" t="s">
         <v>9</v>
@@ -49341,7 +49344,7 @@
         <v>2.66000008583069</v>
       </c>
       <c r="G1695" t="s">
-        <v>1238</v>
+        <v>1239</v>
       </c>
       <c r="H1695" t="s">
         <v>9</v>
@@ -49367,7 +49370,7 @@
         <v>2.5</v>
       </c>
       <c r="G1696" t="s">
-        <v>1239</v>
+        <v>1240</v>
       </c>
       <c r="H1696" t="s">
         <v>9</v>
@@ -49393,7 +49396,7 @@
         <v>2.50099992752075</v>
       </c>
       <c r="G1697" t="s">
-        <v>1240</v>
+        <v>1241</v>
       </c>
       <c r="H1697" t="s">
         <v>9</v>
@@ -49419,7 +49422,7 @@
         <v>2.53600001335144</v>
       </c>
       <c r="G1698" t="s">
-        <v>1241</v>
+        <v>1242</v>
       </c>
       <c r="H1698" t="s">
         <v>9</v>
@@ -49445,7 +49448,7 @@
         <v>2.47000002861023</v>
       </c>
       <c r="G1699" t="s">
-        <v>1242</v>
+        <v>1243</v>
       </c>
       <c r="H1699" t="s">
         <v>9</v>
@@ -49471,7 +49474,7 @@
         <v>2.34299993515015</v>
       </c>
       <c r="G1700" t="s">
-        <v>1243</v>
+        <v>1244</v>
       </c>
       <c r="H1700" t="s">
         <v>9</v>
@@ -49497,7 +49500,7 @@
         <v>2.40599989891052</v>
       </c>
       <c r="G1701" t="s">
-        <v>1244</v>
+        <v>1245</v>
       </c>
       <c r="H1701" t="s">
         <v>9</v>
@@ -49523,7 +49526,7 @@
         <v>2.39199995994568</v>
       </c>
       <c r="G1702" t="s">
-        <v>1245</v>
+        <v>1246</v>
       </c>
       <c r="H1702" t="s">
         <v>9</v>
@@ -49549,7 +49552,7 @@
         <v>2.48799991607666</v>
       </c>
       <c r="G1703" t="s">
-        <v>1246</v>
+        <v>1247</v>
       </c>
       <c r="H1703" t="s">
         <v>9</v>
@@ -49575,7 +49578,7 @@
         <v>2.55399990081787</v>
       </c>
       <c r="G1704" t="s">
-        <v>1247</v>
+        <v>1248</v>
       </c>
       <c r="H1704" t="s">
         <v>9</v>
@@ -49601,7 +49604,7 @@
         <v>2.52099990844727</v>
       </c>
       <c r="G1705" t="s">
-        <v>1248</v>
+        <v>1249</v>
       </c>
       <c r="H1705" t="s">
         <v>9</v>
@@ -49627,7 +49630,7 @@
         <v>2.4300000667572</v>
       </c>
       <c r="G1706" t="s">
-        <v>1249</v>
+        <v>1250</v>
       </c>
       <c r="H1706" t="s">
         <v>9</v>
@@ -49653,7 +49656,7 @@
         <v>2.42700004577637</v>
       </c>
       <c r="G1707" t="s">
-        <v>1250</v>
+        <v>1251</v>
       </c>
       <c r="H1707" t="s">
         <v>9</v>
@@ -49679,7 +49682,7 @@
         <v>2.39599990844727</v>
       </c>
       <c r="G1708" t="s">
-        <v>1251</v>
+        <v>1252</v>
       </c>
       <c r="H1708" t="s">
         <v>9</v>
@@ -49705,7 +49708,7 @@
         <v>2.38100004196167</v>
       </c>
       <c r="G1709" t="s">
-        <v>1252</v>
+        <v>1253</v>
       </c>
       <c r="H1709" t="s">
         <v>9</v>
@@ -49731,7 +49734,7 @@
         <v>2.34899997711182</v>
       </c>
       <c r="G1710" t="s">
-        <v>1253</v>
+        <v>1254</v>
       </c>
       <c r="H1710" t="s">
         <v>9</v>
@@ -49757,7 +49760,7 @@
         <v>2.34400010108948</v>
       </c>
       <c r="G1711" t="s">
-        <v>1254</v>
+        <v>1255</v>
       </c>
       <c r="H1711" t="s">
         <v>9</v>
@@ -49783,7 +49786,7 @@
         <v>2.30900001525879</v>
       </c>
       <c r="G1712" t="s">
-        <v>1255</v>
+        <v>1256</v>
       </c>
       <c r="H1712" t="s">
         <v>9</v>
@@ -49809,7 +49812,7 @@
         <v>2.23600006103516</v>
       </c>
       <c r="G1713" t="s">
-        <v>1256</v>
+        <v>1257</v>
       </c>
       <c r="H1713" t="s">
         <v>9</v>
@@ -49835,7 +49838,7 @@
         <v>2.24300003051758</v>
       </c>
       <c r="G1714" t="s">
-        <v>1257</v>
+        <v>1258</v>
       </c>
       <c r="H1714" t="s">
         <v>9</v>
@@ -49861,7 +49864,7 @@
         <v>2.12400007247925</v>
       </c>
       <c r="G1715" t="s">
-        <v>1258</v>
+        <v>1259</v>
       </c>
       <c r="H1715" t="s">
         <v>9</v>
@@ -49887,7 +49890,7 @@
         <v>2.17700004577637</v>
       </c>
       <c r="G1716" t="s">
-        <v>1259</v>
+        <v>1260</v>
       </c>
       <c r="H1716" t="s">
         <v>9</v>
@@ -49913,7 +49916,7 @@
         <v>2.16599988937378</v>
       </c>
       <c r="G1717" t="s">
-        <v>1260</v>
+        <v>1261</v>
       </c>
       <c r="H1717" t="s">
         <v>9</v>
@@ -49939,7 +49942,7 @@
         <v>2.18600010871887</v>
       </c>
       <c r="G1718" t="s">
-        <v>1261</v>
+        <v>1262</v>
       </c>
       <c r="H1718" t="s">
         <v>9</v>
@@ -49965,7 +49968,7 @@
         <v>2.19799995422363</v>
       </c>
       <c r="G1719" t="s">
-        <v>1262</v>
+        <v>1263</v>
       </c>
       <c r="H1719" t="s">
         <v>9</v>
@@ -49991,7 +49994,7 @@
         <v>2.26300001144409</v>
       </c>
       <c r="G1720" t="s">
-        <v>1263</v>
+        <v>1264</v>
       </c>
       <c r="H1720" t="s">
         <v>9</v>
@@ -50017,7 +50020,7 @@
         <v>2.14800000190735</v>
       </c>
       <c r="G1721" t="s">
-        <v>1264</v>
+        <v>1265</v>
       </c>
       <c r="H1721" t="s">
         <v>9</v>
@@ -50043,7 +50046,7 @@
         <v>2.07999992370605</v>
       </c>
       <c r="G1722" t="s">
-        <v>1265</v>
+        <v>1266</v>
       </c>
       <c r="H1722" t="s">
         <v>9</v>
@@ -50069,7 +50072,7 @@
         <v>2.06399989128113</v>
       </c>
       <c r="G1723" t="s">
-        <v>1266</v>
+        <v>1267</v>
       </c>
       <c r="H1723" t="s">
         <v>9</v>
@@ -50095,7 +50098,7 @@
         <v>2.11400008201599</v>
       </c>
       <c r="G1724" t="s">
-        <v>1267</v>
+        <v>1268</v>
       </c>
       <c r="H1724" t="s">
         <v>9</v>
@@ -50121,7 +50124,7 @@
         <v>2.03999996185303</v>
       </c>
       <c r="G1725" t="s">
-        <v>1268</v>
+        <v>1269</v>
       </c>
       <c r="H1725" t="s">
         <v>9</v>
@@ -50147,7 +50150,7 @@
         <v>2.00399994850159</v>
       </c>
       <c r="G1726" t="s">
-        <v>1269</v>
+        <v>1270</v>
       </c>
       <c r="H1726" t="s">
         <v>9</v>
@@ -50173,7 +50176,7 @@
         <v>2.03500008583069</v>
       </c>
       <c r="G1727" t="s">
-        <v>1270</v>
+        <v>1271</v>
       </c>
       <c r="H1727" t="s">
         <v>9</v>
@@ -50199,7 +50202,7 @@
         <v>2.06900000572205</v>
       </c>
       <c r="G1728" t="s">
-        <v>1271</v>
+        <v>1272</v>
       </c>
       <c r="H1728" t="s">
         <v>9</v>
@@ -50225,7 +50228,7 @@
         <v>2.12299990653992</v>
       </c>
       <c r="G1729" t="s">
-        <v>1272</v>
+        <v>1273</v>
       </c>
       <c r="H1729" t="s">
         <v>9</v>
@@ -50251,7 +50254,7 @@
         <v>2.12800002098083</v>
       </c>
       <c r="G1730" t="s">
-        <v>1273</v>
+        <v>1274</v>
       </c>
       <c r="H1730" t="s">
         <v>9</v>
@@ -50277,7 +50280,7 @@
         <v>2.10599994659424</v>
       </c>
       <c r="G1731" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
       <c r="H1731" t="s">
         <v>9</v>
@@ -50303,7 +50306,7 @@
         <v>2.11999988555908</v>
       </c>
       <c r="G1732" t="s">
-        <v>1275</v>
+        <v>1276</v>
       </c>
       <c r="H1732" t="s">
         <v>9</v>
@@ -50329,7 +50332,7 @@
         <v>2.09299993515015</v>
       </c>
       <c r="G1733" t="s">
-        <v>1276</v>
+        <v>1277</v>
       </c>
       <c r="H1733" t="s">
         <v>9</v>
@@ -50355,7 +50358,7 @@
         <v>2.16199994087219</v>
       </c>
       <c r="G1734" t="s">
-        <v>1277</v>
+        <v>1278</v>
       </c>
       <c r="H1734" t="s">
         <v>9</v>
@@ -50381,7 +50384,7 @@
         <v>2.2590000629425</v>
       </c>
       <c r="G1735" t="s">
-        <v>1278</v>
+        <v>1279</v>
       </c>
       <c r="H1735" t="s">
         <v>9</v>
@@ -50407,7 +50410,7 @@
         <v>2.27999997138977</v>
       </c>
       <c r="G1736" t="s">
-        <v>1279</v>
+        <v>1280</v>
       </c>
       <c r="H1736" t="s">
         <v>9</v>
@@ -50433,7 +50436,7 @@
         <v>2.39599990844727</v>
       </c>
       <c r="G1737" t="s">
-        <v>1251</v>
+        <v>1252</v>
       </c>
       <c r="H1737" t="s">
         <v>9</v>
@@ -50459,7 +50462,7 @@
         <v>2.40300011634827</v>
       </c>
       <c r="G1738" t="s">
-        <v>1280</v>
+        <v>1281</v>
       </c>
       <c r="H1738" t="s">
         <v>9</v>
@@ -50485,7 +50488,7 @@
         <v>2.41199994087219</v>
       </c>
       <c r="G1739" t="s">
-        <v>1281</v>
+        <v>1282</v>
       </c>
       <c r="H1739" t="s">
         <v>9</v>
@@ -50511,7 +50514,7 @@
         <v>2.42400002479553</v>
       </c>
       <c r="G1740" t="s">
-        <v>1282</v>
+        <v>1283</v>
       </c>
       <c r="H1740" t="s">
         <v>9</v>
@@ -50537,7 +50540,7 @@
         <v>2.42199993133545</v>
       </c>
       <c r="G1741" t="s">
-        <v>1283</v>
+        <v>1284</v>
       </c>
       <c r="H1741" t="s">
         <v>9</v>
@@ -50563,7 +50566,7 @@
         <v>2.41000008583069</v>
       </c>
       <c r="G1742" t="s">
-        <v>1284</v>
+        <v>1285</v>
       </c>
       <c r="H1742" t="s">
         <v>9</v>
@@ -50589,7 +50592,7 @@
         <v>2.46199989318848</v>
       </c>
       <c r="G1743" t="s">
-        <v>1285</v>
+        <v>1286</v>
       </c>
       <c r="H1743" t="s">
         <v>9</v>
@@ -50615,7 +50618,7 @@
         <v>2.4760000705719</v>
       </c>
       <c r="G1744" t="s">
-        <v>1286</v>
+        <v>1287</v>
       </c>
       <c r="H1744" t="s">
         <v>9</v>
@@ -50641,7 +50644,7 @@
         <v>2.5239999294281</v>
       </c>
       <c r="G1745" t="s">
-        <v>1287</v>
+        <v>1288</v>
       </c>
       <c r="H1745" t="s">
         <v>9</v>
@@ -50667,7 +50670,7 @@
         <v>2.57699990272522</v>
       </c>
       <c r="G1746" t="s">
-        <v>1288</v>
+        <v>1289</v>
       </c>
       <c r="H1746" t="s">
         <v>9</v>
@@ -50693,7 +50696,7 @@
         <v>2.60899996757507</v>
       </c>
       <c r="G1747" t="s">
-        <v>1289</v>
+        <v>1290</v>
       </c>
       <c r="H1747" t="s">
         <v>9</v>
@@ -50719,7 +50722,7 @@
         <v>2.60899996757507</v>
       </c>
       <c r="G1748" t="s">
-        <v>1289</v>
+        <v>1290</v>
       </c>
       <c r="H1748" t="s">
         <v>9</v>
@@ -50745,7 +50748,7 @@
         <v>2.57800006866455</v>
       </c>
       <c r="G1749" t="s">
-        <v>1290</v>
+        <v>1291</v>
       </c>
       <c r="H1749" t="s">
         <v>9</v>
@@ -50771,7 +50774,7 @@
         <v>2.59899997711182</v>
       </c>
       <c r="G1750" t="s">
-        <v>1291</v>
+        <v>1292</v>
       </c>
       <c r="H1750" t="s">
         <v>9</v>
@@ -50797,7 +50800,7 @@
         <v>2.63899993896484</v>
       </c>
       <c r="G1751" t="s">
-        <v>1292</v>
+        <v>1293</v>
       </c>
       <c r="H1751" t="s">
         <v>9</v>
@@ -50823,7 +50826,7 @@
         <v>2.61999988555908</v>
       </c>
       <c r="G1752" t="s">
-        <v>1293</v>
+        <v>1294</v>
       </c>
       <c r="H1752" t="s">
         <v>9</v>
@@ -50849,7 +50852,7 @@
         <v>2.64100003242493</v>
       </c>
       <c r="G1753" t="s">
-        <v>1294</v>
+        <v>1295</v>
       </c>
       <c r="H1753" t="s">
         <v>9</v>
@@ -50875,7 +50878,7 @@
         <v>2.63199996948242</v>
       </c>
       <c r="G1754" t="s">
-        <v>1295</v>
+        <v>1296</v>
       </c>
       <c r="H1754" t="s">
         <v>9</v>
@@ -50901,7 +50904,7 @@
         <v>2.63100004196167</v>
       </c>
       <c r="G1755" t="s">
-        <v>1296</v>
+        <v>1297</v>
       </c>
       <c r="H1755" t="s">
         <v>9</v>
@@ -50927,7 +50930,7 @@
         <v>2.60700011253357</v>
       </c>
       <c r="G1756" t="s">
-        <v>1297</v>
+        <v>1298</v>
       </c>
       <c r="H1756" t="s">
         <v>9</v>
@@ -50953,7 +50956,7 @@
         <v>2.65100002288818</v>
       </c>
       <c r="G1757" t="s">
-        <v>1298</v>
+        <v>1299</v>
       </c>
       <c r="H1757" t="s">
         <v>9</v>
@@ -50979,7 +50982,7 @@
         <v>2.65700006484985</v>
       </c>
       <c r="G1758" t="s">
-        <v>1299</v>
+        <v>1300</v>
       </c>
       <c r="H1758" t="s">
         <v>9</v>
@@ -51005,7 +51008,7 @@
         <v>2.63599991798401</v>
       </c>
       <c r="G1759" t="s">
-        <v>1300</v>
+        <v>1301</v>
       </c>
       <c r="H1759" t="s">
         <v>9</v>
@@ -51031,7 +51034,7 @@
         <v>2.6489999294281</v>
       </c>
       <c r="G1760" t="s">
-        <v>1301</v>
+        <v>1302</v>
       </c>
       <c r="H1760" t="s">
         <v>9</v>
@@ -51057,7 +51060,7 @@
         <v>2.63899993896484</v>
       </c>
       <c r="G1761" t="s">
-        <v>1292</v>
+        <v>1293</v>
       </c>
       <c r="H1761" t="s">
         <v>9</v>
@@ -51083,7 +51086,7 @@
         <v>2.66100001335144</v>
       </c>
       <c r="G1762" t="s">
-        <v>1302</v>
+        <v>1303</v>
       </c>
       <c r="H1762" t="s">
         <v>9</v>
@@ -51109,7 +51112,7 @@
         <v>2.68099999427795</v>
       </c>
       <c r="G1763" t="s">
-        <v>1303</v>
+        <v>1304</v>
       </c>
       <c r="H1763" t="s">
         <v>9</v>
@@ -51135,7 +51138,7 @@
         <v>2.69000005722046</v>
       </c>
       <c r="G1764" t="s">
-        <v>1304</v>
+        <v>1305</v>
       </c>
       <c r="H1764" t="s">
         <v>9</v>
@@ -51161,7 +51164,7 @@
         <v>2.68600010871887</v>
       </c>
       <c r="G1765" t="s">
-        <v>1305</v>
+        <v>1306</v>
       </c>
       <c r="H1765" t="s">
         <v>9</v>
@@ -51187,7 +51190,7 @@
         <v>2.75</v>
       </c>
       <c r="G1766" t="s">
-        <v>1306</v>
+        <v>1307</v>
       </c>
       <c r="H1766" t="s">
         <v>9</v>
@@ -51213,7 +51216,7 @@
         <v>2.80399990081787</v>
       </c>
       <c r="G1767" t="s">
-        <v>1307</v>
+        <v>1308</v>
       </c>
       <c r="H1767" t="s">
         <v>9</v>
@@ -51239,7 +51242,7 @@
         <v>2.82999992370605</v>
       </c>
       <c r="G1768" t="s">
-        <v>1308</v>
+        <v>1309</v>
       </c>
       <c r="H1768" t="s">
         <v>9</v>
@@ -51265,7 +51268,7 @@
         <v>2.77800011634827</v>
       </c>
       <c r="G1769" t="s">
-        <v>574</v>
+        <v>1208</v>
       </c>
       <c r="H1769" t="s">
         <v>9</v>
@@ -51291,7 +51294,7 @@
         <v>2.76500010490417</v>
       </c>
       <c r="G1770" t="s">
-        <v>1309</v>
+        <v>1310</v>
       </c>
       <c r="H1770" t="s">
         <v>9</v>
@@ -51317,7 +51320,7 @@
         <v>2.75</v>
       </c>
       <c r="G1771" t="s">
-        <v>1306</v>
+        <v>1307</v>
       </c>
       <c r="H1771" t="s">
         <v>9</v>
@@ -51343,7 +51346,7 @@
         <v>2.61199998855591</v>
       </c>
       <c r="G1772" t="s">
-        <v>1310</v>
+        <v>1311</v>
       </c>
       <c r="H1772" t="s">
         <v>9</v>
@@ -51369,7 +51372,7 @@
         <v>2.55100011825562</v>
       </c>
       <c r="G1773" t="s">
-        <v>1311</v>
+        <v>1312</v>
       </c>
       <c r="H1773" t="s">
         <v>9</v>
@@ -51395,7 +51398,7 @@
         <v>2.56900000572205</v>
       </c>
       <c r="G1774" t="s">
-        <v>1312</v>
+        <v>1313</v>
       </c>
       <c r="H1774" t="s">
         <v>9</v>
@@ -51421,7 +51424,7 @@
         <v>2.5239999294281</v>
       </c>
       <c r="G1775" t="s">
-        <v>1287</v>
+        <v>1288</v>
       </c>
       <c r="H1775" t="s">
         <v>9</v>
@@ -51447,7 +51450,7 @@
         <v>2.55699992179871</v>
       </c>
       <c r="G1776" t="s">
-        <v>1313</v>
+        <v>1314</v>
       </c>
       <c r="H1776" t="s">
         <v>9</v>
@@ -51473,7 +51476,7 @@
         <v>2.53399991989136</v>
       </c>
       <c r="G1777" t="s">
-        <v>1314</v>
+        <v>1315</v>
       </c>
       <c r="H1777" t="s">
         <v>9</v>
@@ -51499,7 +51502,7 @@
         <v>2.55200004577637</v>
       </c>
       <c r="G1778" t="s">
-        <v>1315</v>
+        <v>1316</v>
       </c>
       <c r="H1778" t="s">
         <v>9</v>
@@ -51525,7 +51528,7 @@
         <v>2.54900002479553</v>
       </c>
       <c r="G1779" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
       <c r="H1779" t="s">
         <v>9</v>
@@ -51551,7 +51554,7 @@
         <v>2.49000000953674</v>
       </c>
       <c r="G1780" t="s">
-        <v>1317</v>
+        <v>1318</v>
       </c>
       <c r="H1780" t="s">
         <v>9</v>
@@ -51577,7 +51580,7 @@
         <v>2.5460000038147</v>
       </c>
       <c r="G1781" t="s">
-        <v>1318</v>
+        <v>1319</v>
       </c>
       <c r="H1781" t="s">
         <v>9</v>
@@ -51603,7 +51606,7 @@
         <v>2.51900005340576</v>
       </c>
       <c r="G1782" t="s">
-        <v>1319</v>
+        <v>1320</v>
       </c>
       <c r="H1782" t="s">
         <v>9</v>
@@ -51629,7 +51632,7 @@
         <v>2.58599996566772</v>
       </c>
       <c r="G1783" t="s">
-        <v>1320</v>
+        <v>1321</v>
       </c>
       <c r="H1783" t="s">
         <v>9</v>
@@ -51655,7 +51658,7 @@
         <v>2.58800005912781</v>
       </c>
       <c r="G1784" t="s">
-        <v>1321</v>
+        <v>1322</v>
       </c>
       <c r="H1784" t="s">
         <v>9</v>
@@ -51681,7 +51684,7 @@
         <v>2.68799996376038</v>
       </c>
       <c r="G1785" t="s">
-        <v>1213</v>
+        <v>1214</v>
       </c>
       <c r="H1785" t="s">
         <v>9</v>
@@ -51707,7 +51710,7 @@
         <v>2.59599995613098</v>
       </c>
       <c r="G1786" t="s">
-        <v>1237</v>
+        <v>1238</v>
       </c>
       <c r="H1786" t="s">
         <v>9</v>
@@ -51733,7 +51736,7 @@
         <v>2.63199996948242</v>
       </c>
       <c r="G1787" t="s">
-        <v>1295</v>
+        <v>1296</v>
       </c>
       <c r="H1787" t="s">
         <v>9</v>
@@ -51759,7 +51762,7 @@
         <v>2.64000010490417</v>
       </c>
       <c r="G1788" t="s">
-        <v>1322</v>
+        <v>1323</v>
       </c>
       <c r="H1788" t="s">
         <v>9</v>
@@ -51785,7 +51788,7 @@
         <v>2.62599992752075</v>
       </c>
       <c r="G1789" t="s">
-        <v>1323</v>
+        <v>1324</v>
       </c>
       <c r="H1789" t="s">
         <v>9</v>
@@ -51811,7 +51814,7 @@
         <v>2.76999998092651</v>
       </c>
       <c r="G1790" t="s">
-        <v>1324</v>
+        <v>1325</v>
       </c>
       <c r="H1790" t="s">
         <v>9</v>
@@ -51837,7 +51840,7 @@
         <v>2.77999997138977</v>
       </c>
       <c r="G1791" t="s">
-        <v>1210</v>
+        <v>1211</v>
       </c>
       <c r="H1791" t="s">
         <v>9</v>
@@ -51863,7 +51866,7 @@
         <v>2.77099990844727</v>
       </c>
       <c r="G1792" t="s">
-        <v>1325</v>
+        <v>1326</v>
       </c>
       <c r="H1792" t="s">
         <v>9</v>
@@ -51889,7 +51892,7 @@
         <v>2.74000000953674</v>
       </c>
       <c r="G1793" t="s">
-        <v>1326</v>
+        <v>1327</v>
       </c>
       <c r="H1793" t="s">
         <v>9</v>
@@ -51915,7 +51918,7 @@
         <v>2.74600005149841</v>
       </c>
       <c r="G1794" t="s">
-        <v>1327</v>
+        <v>1328</v>
       </c>
       <c r="H1794" t="s">
         <v>9</v>
@@ -51941,7 +51944,7 @@
         <v>2.72099995613098</v>
       </c>
       <c r="G1795" t="s">
-        <v>1328</v>
+        <v>1329</v>
       </c>
       <c r="H1795" t="s">
         <v>9</v>
@@ -51967,7 +51970,7 @@
         <v>2.67799997329712</v>
       </c>
       <c r="G1796" t="s">
-        <v>1236</v>
+        <v>1237</v>
       </c>
       <c r="H1796" t="s">
         <v>9</v>
@@ -51993,7 +51996,7 @@
         <v>2.65400004386902</v>
       </c>
       <c r="G1797" t="s">
-        <v>1329</v>
+        <v>1330</v>
       </c>
       <c r="H1797" t="s">
         <v>9</v>
@@ -52045,7 +52048,7 @@
         <v>2.70000004768372</v>
       </c>
       <c r="G1799" t="s">
-        <v>1330</v>
+        <v>1331</v>
       </c>
       <c r="H1799" t="s">
         <v>9</v>
@@ -52071,7 +52074,7 @@
         <v>2.72900009155273</v>
       </c>
       <c r="G1800" t="s">
-        <v>1331</v>
+        <v>1332</v>
       </c>
       <c r="H1800" t="s">
         <v>9</v>
@@ -52097,7 +52100,7 @@
         <v>2.71499991416931</v>
       </c>
       <c r="G1801" t="s">
-        <v>1332</v>
+        <v>1333</v>
       </c>
       <c r="H1801" t="s">
         <v>9</v>
@@ -52123,7 +52126,7 @@
         <v>2.70900011062622</v>
       </c>
       <c r="G1802" t="s">
-        <v>1333</v>
+        <v>1334</v>
       </c>
       <c r="H1802" t="s">
         <v>9</v>
@@ -52149,7 +52152,7 @@
         <v>2.65300011634827</v>
       </c>
       <c r="G1803" t="s">
-        <v>1334</v>
+        <v>1335</v>
       </c>
       <c r="H1803" t="s">
         <v>9</v>
@@ -52175,7 +52178,7 @@
         <v>2.63100004196167</v>
       </c>
       <c r="G1804" t="s">
-        <v>1296</v>
+        <v>1297</v>
       </c>
       <c r="H1804" t="s">
         <v>9</v>
@@ -52201,7 +52204,7 @@
         <v>2.64599990844727</v>
       </c>
       <c r="G1805" t="s">
-        <v>1335</v>
+        <v>1336</v>
       </c>
       <c r="H1805" t="s">
         <v>9</v>
@@ -52227,7 +52230,7 @@
         <v>2.7260000705719</v>
       </c>
       <c r="G1806" t="s">
-        <v>1215</v>
+        <v>1216</v>
       </c>
       <c r="H1806" t="s">
         <v>9</v>
@@ -52253,7 +52256,7 @@
         <v>2.65000009536743</v>
       </c>
       <c r="G1807" t="s">
-        <v>1336</v>
+        <v>1337</v>
       </c>
       <c r="H1807" t="s">
         <v>9</v>
@@ -52279,7 +52282,7 @@
         <v>2.67799997329712</v>
       </c>
       <c r="G1808" t="s">
-        <v>1236</v>
+        <v>1237</v>
       </c>
       <c r="H1808" t="s">
         <v>9</v>
@@ -52305,7 +52308,7 @@
         <v>2.72499990463257</v>
       </c>
       <c r="G1809" t="s">
-        <v>1337</v>
+        <v>1338</v>
       </c>
       <c r="H1809" t="s">
         <v>9</v>
@@ -52331,7 +52334,7 @@
         <v>2.71799993515015</v>
       </c>
       <c r="G1810" t="s">
-        <v>1235</v>
+        <v>1236</v>
       </c>
       <c r="H1810" t="s">
         <v>9</v>
@@ -52357,7 +52360,7 @@
         <v>2.6800000667572</v>
       </c>
       <c r="G1811" t="s">
-        <v>1338</v>
+        <v>1339</v>
       </c>
       <c r="H1811" t="s">
         <v>9</v>
@@ -52383,7 +52386,7 @@
         <v>2.61800003051758</v>
       </c>
       <c r="G1812" t="s">
-        <v>1339</v>
+        <v>1340</v>
       </c>
       <c r="H1812" t="s">
         <v>9</v>
@@ -52409,7 +52412,7 @@
         <v>2.58699989318848</v>
       </c>
       <c r="G1813" t="s">
-        <v>1340</v>
+        <v>1341</v>
       </c>
       <c r="H1813" t="s">
         <v>9</v>
@@ -52435,7 +52438,7 @@
         <v>2.58800005912781</v>
       </c>
       <c r="G1814" t="s">
-        <v>1321</v>
+        <v>1322</v>
       </c>
       <c r="H1814" t="s">
         <v>9</v>
@@ -52461,7 +52464,7 @@
         <v>2.59500002861023</v>
       </c>
       <c r="G1815" t="s">
-        <v>1341</v>
+        <v>1342</v>
       </c>
       <c r="H1815" t="s">
         <v>9</v>
@@ -52487,7 +52490,7 @@
         <v>2.59999990463257</v>
       </c>
       <c r="G1816" t="s">
-        <v>1342</v>
+        <v>1343</v>
       </c>
       <c r="H1816" t="s">
         <v>9</v>
@@ -52513,7 +52516,7 @@
         <v>2.61199998855591</v>
       </c>
       <c r="G1817" t="s">
-        <v>1310</v>
+        <v>1311</v>
       </c>
       <c r="H1817" t="s">
         <v>9</v>
@@ -52539,7 +52542,7 @@
         <v>2.59400010108948</v>
       </c>
       <c r="G1818" t="s">
-        <v>1343</v>
+        <v>1344</v>
       </c>
       <c r="H1818" t="s">
         <v>9</v>
@@ -52565,7 +52568,7 @@
         <v>2.56200003623962</v>
       </c>
       <c r="G1819" t="s">
-        <v>1344</v>
+        <v>1345</v>
       </c>
       <c r="H1819" t="s">
         <v>9</v>
@@ -52591,7 +52594,7 @@
         <v>2.52600002288818</v>
       </c>
       <c r="G1820" t="s">
-        <v>1345</v>
+        <v>1346</v>
       </c>
       <c r="H1820" t="s">
         <v>9</v>
@@ -52617,7 +52620,7 @@
         <v>2.51699995994568</v>
       </c>
       <c r="G1821" t="s">
-        <v>1346</v>
+        <v>1347</v>
       </c>
       <c r="H1821" t="s">
         <v>9</v>
@@ -52643,7 +52646,7 @@
         <v>2.51200008392334</v>
       </c>
       <c r="G1822" t="s">
-        <v>1347</v>
+        <v>1348</v>
       </c>
       <c r="H1822" t="s">
         <v>9</v>
@@ -52669,7 +52672,7 @@
         <v>2.55699992179871</v>
       </c>
       <c r="G1823" t="s">
-        <v>1313</v>
+        <v>1314</v>
       </c>
       <c r="H1823" t="s">
         <v>9</v>
@@ -52695,7 +52698,7 @@
         <v>2.52300000190735</v>
       </c>
       <c r="G1824" t="s">
-        <v>1348</v>
+        <v>1349</v>
       </c>
       <c r="H1824" t="s">
         <v>9</v>
@@ -52721,7 +52724,7 @@
         <v>2.45900011062622</v>
       </c>
       <c r="G1825" t="s">
-        <v>1349</v>
+        <v>1350</v>
       </c>
       <c r="H1825" t="s">
         <v>9</v>
@@ -52747,7 +52750,7 @@
         <v>2.48099994659424</v>
       </c>
       <c r="G1826" t="s">
-        <v>1350</v>
+        <v>1351</v>
       </c>
       <c r="H1826" t="s">
         <v>9</v>
@@ -52773,7 +52776,7 @@
         <v>2.52099990844727</v>
       </c>
       <c r="G1827" t="s">
-        <v>1248</v>
+        <v>1249</v>
       </c>
       <c r="H1827" t="s">
         <v>9</v>
@@ -52799,7 +52802,7 @@
         <v>2.51600003242493</v>
       </c>
       <c r="G1828" t="s">
-        <v>1351</v>
+        <v>1352</v>
       </c>
       <c r="H1828" t="s">
         <v>9</v>
@@ -52825,7 +52828,7 @@
         <v>2.49000000953674</v>
       </c>
       <c r="G1829" t="s">
-        <v>1317</v>
+        <v>1318</v>
       </c>
       <c r="H1829" t="s">
         <v>9</v>
@@ -52851,7 +52854,7 @@
         <v>2.46600008010864</v>
       </c>
       <c r="G1830" t="s">
-        <v>1352</v>
+        <v>1353</v>
       </c>
       <c r="H1830" t="s">
         <v>9</v>
@@ -52877,7 +52880,7 @@
         <v>2.43099999427795</v>
       </c>
       <c r="G1831" t="s">
-        <v>1353</v>
+        <v>1354</v>
       </c>
       <c r="H1831" t="s">
         <v>9</v>
@@ -52903,7 +52906,7 @@
         <v>2.38800001144409</v>
       </c>
       <c r="G1832" t="s">
-        <v>1354</v>
+        <v>1355</v>
       </c>
       <c r="H1832" t="s">
         <v>9</v>
@@ -52929,7 +52932,7 @@
         <v>2.38299989700317</v>
       </c>
       <c r="G1833" t="s">
-        <v>1355</v>
+        <v>1356</v>
       </c>
       <c r="H1833" t="s">
         <v>9</v>
@@ -52955,7 +52958,7 @@
         <v>2.41599988937378</v>
       </c>
       <c r="G1834" t="s">
-        <v>1356</v>
+        <v>1357</v>
       </c>
       <c r="H1834" t="s">
         <v>9</v>
@@ -52981,7 +52984,7 @@
         <v>2.40499997138977</v>
       </c>
       <c r="G1835" t="s">
-        <v>1357</v>
+        <v>1358</v>
       </c>
       <c r="H1835" t="s">
         <v>9</v>
@@ -53007,7 +53010,7 @@
         <v>2.42700004577637</v>
       </c>
       <c r="G1836" t="s">
-        <v>1250</v>
+        <v>1251</v>
       </c>
       <c r="H1836" t="s">
         <v>9</v>
@@ -53033,7 +53036,7 @@
         <v>2.39299988746643</v>
       </c>
       <c r="G1837" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
       <c r="H1837" t="s">
         <v>9</v>
@@ -53059,7 +53062,7 @@
         <v>2.47399997711182</v>
       </c>
       <c r="G1838" t="s">
-        <v>1359</v>
+        <v>1360</v>
       </c>
       <c r="H1838" t="s">
         <v>9</v>
@@ -53085,7 +53088,7 @@
         <v>2.49399995803833</v>
       </c>
       <c r="G1839" t="s">
-        <v>1360</v>
+        <v>1361</v>
       </c>
       <c r="H1839" t="s">
         <v>9</v>
@@ -53111,7 +53114,7 @@
         <v>2.51099991798401</v>
       </c>
       <c r="G1840" t="s">
-        <v>1361</v>
+        <v>1362</v>
       </c>
       <c r="H1840" t="s">
         <v>9</v>
@@ -53137,7 +53140,7 @@
         <v>2.52300000190735</v>
       </c>
       <c r="G1841" t="s">
-        <v>1348</v>
+        <v>1349</v>
       </c>
       <c r="H1841" t="s">
         <v>9</v>
@@ -53163,7 +53166,7 @@
         <v>2.4909999370575</v>
       </c>
       <c r="G1842" t="s">
-        <v>1362</v>
+        <v>1363</v>
       </c>
       <c r="H1842" t="s">
         <v>9</v>
@@ -53189,7 +53192,7 @@
         <v>2.52099990844727</v>
       </c>
       <c r="G1843" t="s">
-        <v>1248</v>
+        <v>1249</v>
       </c>
       <c r="H1843" t="s">
         <v>9</v>
@@ -53215,7 +53218,7 @@
         <v>2.50300002098083</v>
       </c>
       <c r="G1844" t="s">
-        <v>1363</v>
+        <v>1364</v>
       </c>
       <c r="H1844" t="s">
         <v>9</v>
@@ -53241,7 +53244,7 @@
         <v>2.53500008583069</v>
       </c>
       <c r="G1845" t="s">
-        <v>1364</v>
+        <v>1365</v>
       </c>
       <c r="H1845" t="s">
         <v>9</v>
@@ -53267,7 +53270,7 @@
         <v>2.58599996566772</v>
       </c>
       <c r="G1846" t="s">
-        <v>1320</v>
+        <v>1321</v>
       </c>
       <c r="H1846" t="s">
         <v>9</v>
@@ -53293,7 +53296,7 @@
         <v>2.60199999809265</v>
       </c>
       <c r="G1847" t="s">
-        <v>1365</v>
+        <v>1366</v>
       </c>
       <c r="H1847" t="s">
         <v>9</v>
@@ -53319,7 +53322,7 @@
         <v>2.59800004959106</v>
       </c>
       <c r="G1848" t="s">
-        <v>1366</v>
+        <v>1367</v>
       </c>
       <c r="H1848" t="s">
         <v>9</v>
@@ -53345,7 +53348,7 @@
         <v>2.59400010108948</v>
       </c>
       <c r="G1849" t="s">
-        <v>1343</v>
+        <v>1344</v>
       </c>
       <c r="H1849" t="s">
         <v>9</v>
@@ -53371,7 +53374,7 @@
         <v>2.65000009536743</v>
       </c>
       <c r="G1850" t="s">
-        <v>1336</v>
+        <v>1337</v>
       </c>
       <c r="H1850" t="s">
         <v>9</v>
@@ -53397,7 +53400,7 @@
         <v>2.71600008010864</v>
       </c>
       <c r="G1851" t="s">
-        <v>1367</v>
+        <v>1368</v>
       </c>
       <c r="H1851" t="s">
         <v>9</v>
@@ -53423,7 +53426,7 @@
         <v>2.7260000705719</v>
       </c>
       <c r="G1852" t="s">
-        <v>1215</v>
+        <v>1216</v>
       </c>
       <c r="H1852" t="s">
         <v>9</v>
@@ -53449,7 +53452,7 @@
         <v>2.73799991607666</v>
       </c>
       <c r="G1853" t="s">
-        <v>1368</v>
+        <v>1369</v>
       </c>
       <c r="H1853" t="s">
         <v>9</v>
@@ -53475,7 +53478,7 @@
         <v>2.69799995422363</v>
       </c>
       <c r="G1854" t="s">
-        <v>1214</v>
+        <v>1215</v>
       </c>
       <c r="H1854" t="s">
         <v>9</v>
@@ -53501,7 +53504,7 @@
         <v>2.62199997901917</v>
       </c>
       <c r="G1855" t="s">
-        <v>1369</v>
+        <v>1370</v>
       </c>
       <c r="H1855" t="s">
         <v>9</v>
@@ -53527,7 +53530,7 @@
         <v>2.65000009536743</v>
       </c>
       <c r="G1856" t="s">
-        <v>1336</v>
+        <v>1337</v>
       </c>
       <c r="H1856" t="s">
         <v>9</v>
@@ -53579,7 +53582,7 @@
         <v>2.71600008010864</v>
       </c>
       <c r="G1858" t="s">
-        <v>1367</v>
+        <v>1368</v>
       </c>
       <c r="H1858" t="s">
         <v>9</v>
@@ -53605,7 +53608,7 @@
         <v>2.68799996376038</v>
       </c>
       <c r="G1859" t="s">
-        <v>1213</v>
+        <v>1214</v>
       </c>
       <c r="H1859" t="s">
         <v>9</v>
@@ -53631,7 +53634,7 @@
         <v>2.70799994468689</v>
       </c>
       <c r="G1860" t="s">
-        <v>1370</v>
+        <v>1371</v>
       </c>
       <c r="H1860" t="s">
         <v>9</v>
@@ -53657,7 +53660,7 @@
         <v>2.69000005722046</v>
       </c>
       <c r="G1861" t="s">
-        <v>1304</v>
+        <v>1305</v>
       </c>
       <c r="H1861" t="s">
         <v>9</v>
@@ -53683,7 +53686,7 @@
         <v>2.67799997329712</v>
       </c>
       <c r="G1862" t="s">
-        <v>1236</v>
+        <v>1237</v>
       </c>
       <c r="H1862" t="s">
         <v>9</v>
@@ -53709,7 +53712,7 @@
         <v>2.70199990272522</v>
       </c>
       <c r="G1863" t="s">
-        <v>1371</v>
+        <v>1372</v>
       </c>
       <c r="H1863" t="s">
         <v>9</v>
@@ -53735,7 +53738,7 @@
         <v>2.79200005531311</v>
       </c>
       <c r="G1864" t="s">
-        <v>1372</v>
+        <v>1373</v>
       </c>
       <c r="H1864" t="s">
         <v>9</v>
@@ -53761,7 +53764,7 @@
         <v>2.82399988174438</v>
       </c>
       <c r="G1865" t="s">
-        <v>1373</v>
+        <v>1374</v>
       </c>
       <c r="H1865" t="s">
         <v>9</v>
@@ -53787,7 +53790,7 @@
         <v>2.7260000705719</v>
       </c>
       <c r="G1866" t="s">
-        <v>1215</v>
+        <v>1216</v>
       </c>
       <c r="H1866" t="s">
         <v>9</v>
@@ -53813,7 +53816,7 @@
         <v>2.76399993896484</v>
       </c>
       <c r="G1867" t="s">
-        <v>1374</v>
+        <v>1375</v>
       </c>
       <c r="H1867" t="s">
         <v>9</v>
@@ -53865,7 +53868,7 @@
         <v>2.82200002670288</v>
       </c>
       <c r="G1869" t="s">
-        <v>1375</v>
+        <v>1376</v>
       </c>
       <c r="H1869" t="s">
         <v>9</v>
@@ -53891,7 +53894,7 @@
         <v>2.86199998855591</v>
       </c>
       <c r="G1870" t="s">
-        <v>1376</v>
+        <v>1377</v>
       </c>
       <c r="H1870" t="s">
         <v>9</v>
@@ -53917,7 +53920,7 @@
         <v>2.85199999809265</v>
       </c>
       <c r="G1871" t="s">
-        <v>1377</v>
+        <v>1378</v>
       </c>
       <c r="H1871" t="s">
         <v>9</v>
@@ -53943,7 +53946,7 @@
         <v>2.87199997901917</v>
       </c>
       <c r="G1872" t="s">
-        <v>1378</v>
+        <v>1379</v>
       </c>
       <c r="H1872" t="s">
         <v>9</v>
@@ -53969,7 +53972,7 @@
         <v>2.96600008010864</v>
       </c>
       <c r="G1873" t="s">
-        <v>1379</v>
+        <v>1380</v>
       </c>
       <c r="H1873" t="s">
         <v>9</v>
@@ -53995,7 +53998,7 @@
         <v>2.99600005149841</v>
       </c>
       <c r="G1874" t="s">
-        <v>1380</v>
+        <v>1381</v>
       </c>
       <c r="H1874" t="s">
         <v>9</v>
@@ -54021,7 +54024,7 @@
         <v>3.02600002288818</v>
       </c>
       <c r="G1875" t="s">
-        <v>1381</v>
+        <v>1382</v>
       </c>
       <c r="H1875" t="s">
         <v>9</v>
@@ -54047,7 +54050,7 @@
         <v>3.02800011634827</v>
       </c>
       <c r="G1876" t="s">
-        <v>1382</v>
+        <v>1383</v>
       </c>
       <c r="H1876" t="s">
         <v>9</v>
@@ -54073,7 +54076,7 @@
         <v>2.98200011253357</v>
       </c>
       <c r="G1877" t="s">
-        <v>1383</v>
+        <v>1384</v>
       </c>
       <c r="H1877" t="s">
         <v>9</v>
@@ -54099,7 +54102,7 @@
         <v>2.86800003051758</v>
       </c>
       <c r="G1878" t="s">
-        <v>1384</v>
+        <v>1385</v>
       </c>
       <c r="H1878" t="s">
         <v>9</v>
@@ -54125,7 +54128,7 @@
         <v>2.95600008964539</v>
       </c>
       <c r="G1879" t="s">
-        <v>1385</v>
+        <v>1386</v>
       </c>
       <c r="H1879" t="s">
         <v>9</v>
@@ -54151,7 +54154,7 @@
         <v>2.9760000705719</v>
       </c>
       <c r="G1880" t="s">
-        <v>1386</v>
+        <v>1387</v>
       </c>
       <c r="H1880" t="s">
         <v>9</v>
@@ -54177,7 +54180,7 @@
         <v>2.96399998664856</v>
       </c>
       <c r="G1881" t="s">
-        <v>1387</v>
+        <v>1388</v>
       </c>
       <c r="H1881" t="s">
         <v>9</v>
@@ -54203,7 +54206,7 @@
         <v>2.88199996948242</v>
       </c>
       <c r="G1882" t="s">
-        <v>1388</v>
+        <v>1389</v>
       </c>
       <c r="H1882" t="s">
         <v>9</v>
@@ -54229,7 +54232,7 @@
         <v>2.85800004005432</v>
       </c>
       <c r="G1883" t="s">
-        <v>1389</v>
+        <v>1390</v>
       </c>
       <c r="H1883" t="s">
         <v>9</v>
@@ -54255,7 +54258,7 @@
         <v>2.91599988937378</v>
       </c>
       <c r="G1884" t="s">
-        <v>1390</v>
+        <v>1391</v>
       </c>
       <c r="H1884" t="s">
         <v>9</v>
@@ -54281,7 +54284,7 @@
         <v>2.91799998283386</v>
       </c>
       <c r="G1885" t="s">
-        <v>1391</v>
+        <v>1392</v>
       </c>
       <c r="H1885" t="s">
         <v>9</v>
@@ -54307,7 +54310,7 @@
         <v>2.95000004768372</v>
       </c>
       <c r="G1886" t="s">
-        <v>1392</v>
+        <v>1393</v>
       </c>
       <c r="H1886" t="s">
         <v>9</v>
@@ -54333,7 +54336,7 @@
         <v>2.92400002479553</v>
       </c>
       <c r="G1887" t="s">
-        <v>1393</v>
+        <v>1394</v>
       </c>
       <c r="H1887" t="s">
         <v>9</v>
@@ -54359,7 +54362,7 @@
         <v>2.92799997329712</v>
       </c>
       <c r="G1888" t="s">
-        <v>1394</v>
+        <v>1395</v>
       </c>
       <c r="H1888" t="s">
         <v>9</v>
@@ -54385,7 +54388,7 @@
         <v>2.95600008964539</v>
       </c>
       <c r="G1889" t="s">
-        <v>1385</v>
+        <v>1386</v>
       </c>
       <c r="H1889" t="s">
         <v>9</v>
@@ -54411,7 +54414,7 @@
         <v>2.86999988555908</v>
       </c>
       <c r="G1890" t="s">
-        <v>1395</v>
+        <v>1396</v>
       </c>
       <c r="H1890" t="s">
         <v>9</v>
@@ -54437,7 +54440,7 @@
         <v>2.90799999237061</v>
       </c>
       <c r="G1891" t="s">
-        <v>1396</v>
+        <v>1397</v>
       </c>
       <c r="H1891" t="s">
         <v>9</v>
@@ -54463,7 +54466,7 @@
         <v>2.87599992752075</v>
       </c>
       <c r="G1892" t="s">
-        <v>1397</v>
+        <v>1398</v>
       </c>
       <c r="H1892" t="s">
         <v>9</v>
@@ -54489,7 +54492,7 @@
         <v>2.88599991798401</v>
       </c>
       <c r="G1893" t="s">
-        <v>1398</v>
+        <v>1399</v>
       </c>
       <c r="H1893" t="s">
         <v>9</v>
@@ -54515,7 +54518,7 @@
         <v>2.88599991798401</v>
       </c>
       <c r="G1894" t="s">
-        <v>1398</v>
+        <v>1399</v>
       </c>
       <c r="H1894" t="s">
         <v>9</v>
@@ -54541,7 +54544,7 @@
         <v>2.89800000190735</v>
       </c>
       <c r="G1895" t="s">
-        <v>1399</v>
+        <v>1400</v>
       </c>
       <c r="H1895" t="s">
         <v>9</v>
@@ -54567,7 +54570,7 @@
         <v>2.88199996948242</v>
       </c>
       <c r="G1896" t="s">
-        <v>1388</v>
+        <v>1389</v>
       </c>
       <c r="H1896" t="s">
         <v>9</v>
@@ -54593,7 +54596,7 @@
         <v>2.8840000629425</v>
       </c>
       <c r="G1897" t="s">
-        <v>1400</v>
+        <v>1401</v>
       </c>
       <c r="H1897" t="s">
         <v>9</v>
@@ -54619,7 +54622,7 @@
         <v>2.85999989509583</v>
       </c>
       <c r="G1898" t="s">
-        <v>1401</v>
+        <v>1402</v>
       </c>
       <c r="H1898" t="s">
         <v>9</v>
@@ -54645,7 +54648,7 @@
         <v>2.90400004386902</v>
       </c>
       <c r="G1899" t="s">
-        <v>1402</v>
+        <v>1403</v>
       </c>
       <c r="H1899" t="s">
         <v>9</v>
@@ -54671,7 +54674,7 @@
         <v>2.72399997711182</v>
       </c>
       <c r="G1900" t="s">
-        <v>1403</v>
+        <v>1404</v>
       </c>
       <c r="H1900" t="s">
         <v>9</v>
@@ -54697,7 +54700,7 @@
         <v>2.73600006103516</v>
       </c>
       <c r="G1901" t="s">
-        <v>1404</v>
+        <v>1405</v>
       </c>
       <c r="H1901" t="s">
         <v>9</v>
@@ -54723,7 +54726,7 @@
         <v>2.74399995803833</v>
       </c>
       <c r="G1902" t="s">
-        <v>1405</v>
+        <v>1406</v>
       </c>
       <c r="H1902" t="s">
         <v>9</v>
@@ -54749,7 +54752,7 @@
         <v>2.71399998664856</v>
       </c>
       <c r="G1903" t="s">
-        <v>1406</v>
+        <v>1407</v>
       </c>
       <c r="H1903" t="s">
         <v>9</v>
@@ -54775,7 +54778,7 @@
         <v>2.73200011253357</v>
       </c>
       <c r="G1904" t="s">
-        <v>1407</v>
+        <v>1408</v>
       </c>
       <c r="H1904" t="s">
         <v>9</v>
@@ -54801,7 +54804,7 @@
         <v>2.71399998664856</v>
       </c>
       <c r="G1905" t="s">
-        <v>1406</v>
+        <v>1407</v>
       </c>
       <c r="H1905" t="s">
         <v>9</v>
@@ -54827,7 +54830,7 @@
         <v>2.73000001907349</v>
       </c>
       <c r="G1906" t="s">
-        <v>1408</v>
+        <v>1409</v>
       </c>
       <c r="H1906" t="s">
         <v>9</v>
@@ -54853,7 +54856,7 @@
         <v>2.73799991607666</v>
       </c>
       <c r="G1907" t="s">
-        <v>1409</v>
+        <v>1410</v>
       </c>
       <c r="H1907" t="s">
         <v>9</v>
@@ -54879,7 +54882,7 @@
         <v>2.71399998664856</v>
       </c>
       <c r="G1908" t="s">
-        <v>1406</v>
+        <v>1407</v>
       </c>
       <c r="H1908" t="s">
         <v>9</v>
@@ -54905,7 +54908,7 @@
         <v>2.72199988365173</v>
       </c>
       <c r="G1909" t="s">
-        <v>1410</v>
+        <v>1411</v>
       </c>
       <c r="H1909" t="s">
         <v>9</v>
@@ -54931,7 +54934,7 @@
         <v>2.74200010299683</v>
       </c>
       <c r="G1910" t="s">
-        <v>1411</v>
+        <v>1412</v>
       </c>
       <c r="H1910" t="s">
         <v>9</v>
@@ -54957,7 +54960,7 @@
         <v>2.73000001907349</v>
       </c>
       <c r="G1911" t="s">
-        <v>1408</v>
+        <v>1409</v>
       </c>
       <c r="H1911" t="s">
         <v>9</v>
@@ -54983,7 +54986,7 @@
         <v>2.66599988937378</v>
       </c>
       <c r="G1912" t="s">
-        <v>1412</v>
+        <v>1413</v>
       </c>
       <c r="H1912" t="s">
         <v>9</v>
@@ -55009,7 +55012,7 @@
         <v>2.60999989509583</v>
       </c>
       <c r="G1913" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
       <c r="H1913" t="s">
         <v>9</v>
@@ -55035,7 +55038,7 @@
         <v>2.60599994659424</v>
       </c>
       <c r="G1914" t="s">
-        <v>1414</v>
+        <v>1415</v>
       </c>
       <c r="H1914" t="s">
         <v>9</v>
@@ -55061,7 +55064,7 @@
         <v>2.61800003051758</v>
       </c>
       <c r="G1915" t="s">
-        <v>1415</v>
+        <v>1416</v>
       </c>
       <c r="H1915" t="s">
         <v>9</v>
@@ -55087,7 +55090,7 @@
         <v>2.64800000190735</v>
       </c>
       <c r="G1916" t="s">
-        <v>1416</v>
+        <v>1417</v>
       </c>
       <c r="H1916" t="s">
         <v>9</v>
@@ -55113,7 +55116,7 @@
         <v>2.67600011825562</v>
       </c>
       <c r="G1917" t="s">
-        <v>1417</v>
+        <v>1418</v>
       </c>
       <c r="H1917" t="s">
         <v>9</v>
@@ -55139,7 +55142,7 @@
         <v>2.70799994468689</v>
       </c>
       <c r="G1918" t="s">
-        <v>1418</v>
+        <v>1419</v>
       </c>
       <c r="H1918" t="s">
         <v>9</v>
@@ -55165,7 +55168,7 @@
         <v>2.7039999961853</v>
       </c>
       <c r="G1919" t="s">
-        <v>1419</v>
+        <v>1420</v>
       </c>
       <c r="H1919" t="s">
         <v>9</v>
@@ -55191,7 +55194,7 @@
         <v>2.70600008964539</v>
       </c>
       <c r="G1920" t="s">
-        <v>1420</v>
+        <v>1421</v>
       </c>
       <c r="H1920" t="s">
         <v>9</v>
@@ -55217,7 +55220,7 @@
         <v>2.71000003814697</v>
       </c>
       <c r="G1921" t="s">
-        <v>1421</v>
+        <v>1422</v>
       </c>
       <c r="H1921" t="s">
         <v>9</v>
@@ -55243,7 +55246,7 @@
         <v>2.73399996757507</v>
       </c>
       <c r="G1922" t="s">
-        <v>1422</v>
+        <v>1423</v>
       </c>
       <c r="H1922" t="s">
         <v>9</v>
@@ -55269,7 +55272,7 @@
         <v>2.75</v>
       </c>
       <c r="G1923" t="s">
-        <v>1423</v>
+        <v>1424</v>
       </c>
       <c r="H1923" t="s">
         <v>9</v>
@@ -55295,7 +55298,7 @@
         <v>2.74600005149841</v>
       </c>
       <c r="G1924" t="s">
-        <v>1424</v>
+        <v>1425</v>
       </c>
       <c r="H1924" t="s">
         <v>9</v>
@@ -55321,7 +55324,7 @@
         <v>2.79800009727478</v>
       </c>
       <c r="G1925" t="s">
-        <v>1425</v>
+        <v>1426</v>
       </c>
       <c r="H1925" t="s">
         <v>9</v>
@@ -55347,7 +55350,7 @@
         <v>2.7720000743866</v>
       </c>
       <c r="G1926" t="s">
-        <v>1426</v>
+        <v>1427</v>
       </c>
       <c r="H1926" t="s">
         <v>9</v>
@@ -55373,7 +55376,7 @@
         <v>2.80599999427795</v>
       </c>
       <c r="G1927" t="s">
-        <v>1427</v>
+        <v>1428</v>
       </c>
       <c r="H1927" t="s">
         <v>9</v>
@@ -55399,7 +55402,7 @@
         <v>2.84800004959106</v>
       </c>
       <c r="G1928" t="s">
-        <v>1428</v>
+        <v>1429</v>
       </c>
       <c r="H1928" t="s">
         <v>9</v>
@@ -55425,7 +55428,7 @@
         <v>2.83599996566772</v>
       </c>
       <c r="G1929" t="s">
-        <v>1429</v>
+        <v>1430</v>
       </c>
       <c r="H1929" t="s">
         <v>9</v>
@@ -55451,7 +55454,7 @@
         <v>2.82399988174438</v>
       </c>
       <c r="G1930" t="s">
-        <v>1430</v>
+        <v>1431</v>
       </c>
       <c r="H1930" t="s">
         <v>9</v>
@@ -55477,7 +55480,7 @@
         <v>2.81399989128113</v>
       </c>
       <c r="G1931" t="s">
-        <v>1431</v>
+        <v>1432</v>
       </c>
       <c r="H1931" t="s">
         <v>9</v>
@@ -55503,7 +55506,7 @@
         <v>2.75</v>
       </c>
       <c r="G1932" t="s">
-        <v>1423</v>
+        <v>1424</v>
       </c>
       <c r="H1932" t="s">
         <v>9</v>
@@ -55529,7 +55532,7 @@
         <v>2.71399998664856</v>
       </c>
       <c r="G1933" t="s">
-        <v>1406</v>
+        <v>1407</v>
       </c>
       <c r="H1933" t="s">
         <v>9</v>
@@ -55555,7 +55558,7 @@
         <v>2.65799999237061</v>
       </c>
       <c r="G1934" t="s">
-        <v>1432</v>
+        <v>1433</v>
       </c>
       <c r="H1934" t="s">
         <v>9</v>
@@ -55581,7 +55584,7 @@
         <v>2.59599995613098</v>
       </c>
       <c r="G1935" t="s">
-        <v>1433</v>
+        <v>1434</v>
       </c>
       <c r="H1935" t="s">
         <v>9</v>
@@ -55607,7 +55610,7 @@
         <v>2.64599990844727</v>
       </c>
       <c r="G1936" t="s">
-        <v>1434</v>
+        <v>1435</v>
       </c>
       <c r="H1936" t="s">
         <v>9</v>
@@ -55633,7 +55636,7 @@
         <v>2.66599988937378</v>
       </c>
       <c r="G1937" t="s">
-        <v>1412</v>
+        <v>1413</v>
       </c>
       <c r="H1937" t="s">
         <v>9</v>
@@ -55659,7 +55662,7 @@
         <v>2.69199991226196</v>
       </c>
       <c r="G1938" t="s">
-        <v>1435</v>
+        <v>1436</v>
       </c>
       <c r="H1938" t="s">
         <v>9</v>
@@ -55685,7 +55688,7 @@
         <v>2.67400002479553</v>
       </c>
       <c r="G1939" t="s">
-        <v>1436</v>
+        <v>1437</v>
       </c>
       <c r="H1939" t="s">
         <v>9</v>
@@ -55711,7 +55714,7 @@
         <v>2.67199993133545</v>
       </c>
       <c r="G1940" t="s">
-        <v>1437</v>
+        <v>1438</v>
       </c>
       <c r="H1940" t="s">
         <v>9</v>
@@ -55737,7 +55740,7 @@
         <v>2.62199997901917</v>
       </c>
       <c r="G1941" t="s">
-        <v>1438</v>
+        <v>1439</v>
       </c>
       <c r="H1941" t="s">
         <v>9</v>
@@ -55763,7 +55766,7 @@
         <v>2.57800006866455</v>
       </c>
       <c r="G1942" t="s">
-        <v>1439</v>
+        <v>1440</v>
       </c>
       <c r="H1942" t="s">
         <v>9</v>
@@ -55789,7 +55792,7 @@
         <v>2.60999989509583</v>
       </c>
       <c r="G1943" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
       <c r="H1943" t="s">
         <v>9</v>
@@ -55815,7 +55818,7 @@
         <v>2.60599994659424</v>
       </c>
       <c r="G1944" t="s">
-        <v>1414</v>
+        <v>1415</v>
       </c>
       <c r="H1944" t="s">
         <v>9</v>
@@ -55841,7 +55844,7 @@
         <v>2.63199996948242</v>
       </c>
       <c r="G1945" t="s">
-        <v>1440</v>
+        <v>1441</v>
       </c>
       <c r="H1945" t="s">
         <v>9</v>
@@ -55867,7 +55870,7 @@
         <v>2.70000004768372</v>
       </c>
       <c r="G1946" t="s">
-        <v>1441</v>
+        <v>1442</v>
       </c>
       <c r="H1946" t="s">
         <v>9</v>
@@ -55893,7 +55896,7 @@
         <v>2.7279999256134</v>
       </c>
       <c r="G1947" t="s">
-        <v>1442</v>
+        <v>1443</v>
       </c>
       <c r="H1947" t="s">
         <v>9</v>
@@ -55919,7 +55922,7 @@
         <v>2.74799990653992</v>
       </c>
       <c r="G1948" t="s">
-        <v>1443</v>
+        <v>1444</v>
       </c>
       <c r="H1948" t="s">
         <v>9</v>
@@ -55945,7 +55948,7 @@
         <v>2.75999999046326</v>
       </c>
       <c r="G1949" t="s">
-        <v>1444</v>
+        <v>1445</v>
       </c>
       <c r="H1949" t="s">
         <v>9</v>
@@ -55971,7 +55974,7 @@
         <v>2.78999996185303</v>
       </c>
       <c r="G1950" t="s">
-        <v>1445</v>
+        <v>1446</v>
       </c>
       <c r="H1950" t="s">
         <v>9</v>
@@ -55997,7 +56000,7 @@
         <v>2.77800011634827</v>
       </c>
       <c r="G1951" t="s">
-        <v>1446</v>
+        <v>1447</v>
       </c>
       <c r="H1951" t="s">
         <v>9</v>
@@ -56023,7 +56026,7 @@
         <v>2.7960000038147</v>
       </c>
       <c r="G1952" t="s">
-        <v>1447</v>
+        <v>1448</v>
       </c>
       <c r="H1952" t="s">
         <v>9</v>
@@ -56049,7 +56052,7 @@
         <v>2.78600001335144</v>
       </c>
       <c r="G1953" t="s">
-        <v>1448</v>
+        <v>1449</v>
       </c>
       <c r="H1953" t="s">
         <v>9</v>
@@ -56075,7 +56078,7 @@
         <v>2.7720000743866</v>
       </c>
       <c r="G1954" t="s">
-        <v>1426</v>
+        <v>1427</v>
       </c>
       <c r="H1954" t="s">
         <v>9</v>
@@ -56101,7 +56104,7 @@
         <v>2.75600004196167</v>
       </c>
       <c r="G1955" t="s">
-        <v>1449</v>
+        <v>1450</v>
       </c>
       <c r="H1955" t="s">
         <v>9</v>
@@ -56127,7 +56130,7 @@
         <v>2.73200011253357</v>
       </c>
       <c r="G1956" t="s">
-        <v>1407</v>
+        <v>1408</v>
       </c>
       <c r="H1956" t="s">
         <v>9</v>
@@ -56153,7 +56156,7 @@
         <v>2.8199999332428</v>
       </c>
       <c r="G1957" t="s">
-        <v>1450</v>
+        <v>1451</v>
       </c>
       <c r="H1957" t="s">
         <v>9</v>
@@ -56179,7 +56182,7 @@
         <v>2.81599998474121</v>
       </c>
       <c r="G1958" t="s">
-        <v>1451</v>
+        <v>1452</v>
       </c>
       <c r="H1958" t="s">
         <v>9</v>
@@ -56205,7 +56208,7 @@
         <v>2.86199998855591</v>
       </c>
       <c r="G1959" t="s">
-        <v>1452</v>
+        <v>1453</v>
       </c>
       <c r="H1959" t="s">
         <v>9</v>
@@ -56231,7 +56234,7 @@
         <v>2.85400009155273</v>
       </c>
       <c r="G1960" t="s">
-        <v>1453</v>
+        <v>1454</v>
       </c>
       <c r="H1960" t="s">
         <v>9</v>
@@ -56257,7 +56260,7 @@
         <v>2.86999988555908</v>
       </c>
       <c r="G1961" t="s">
-        <v>1454</v>
+        <v>1455</v>
       </c>
       <c r="H1961" t="s">
         <v>9</v>
@@ -56283,7 +56286,7 @@
         <v>2.93799996376038</v>
       </c>
       <c r="G1962" t="s">
-        <v>1455</v>
+        <v>1456</v>
       </c>
       <c r="H1962" t="s">
         <v>9</v>
@@ -56309,7 +56312,7 @@
         <v>2.92600011825562</v>
       </c>
       <c r="G1963" t="s">
-        <v>1456</v>
+        <v>1457</v>
       </c>
       <c r="H1963" t="s">
         <v>9</v>
@@ -56335,7 +56338,7 @@
         <v>2.85800004005432</v>
       </c>
       <c r="G1964" t="s">
-        <v>1457</v>
+        <v>1458</v>
       </c>
       <c r="H1964" t="s">
         <v>9</v>
@@ -56361,7 +56364,7 @@
         <v>2.88599991798401</v>
       </c>
       <c r="G1965" t="s">
-        <v>1458</v>
+        <v>1459</v>
       </c>
       <c r="H1965" t="s">
         <v>9</v>
@@ -56387,7 +56390,7 @@
         <v>2.91400003433228</v>
       </c>
       <c r="G1966" t="s">
-        <v>1459</v>
+        <v>1460</v>
       </c>
       <c r="H1966" t="s">
         <v>9</v>
@@ -56413,7 +56416,7 @@
         <v>2.7739999294281</v>
       </c>
       <c r="G1967" t="s">
-        <v>1460</v>
+        <v>1461</v>
       </c>
       <c r="H1967" t="s">
         <v>9</v>
@@ -56439,7 +56442,7 @@
         <v>2.71399998664856</v>
       </c>
       <c r="G1968" t="s">
-        <v>1406</v>
+        <v>1407</v>
       </c>
       <c r="H1968" t="s">
         <v>9</v>
@@ -56465,7 +56468,7 @@
         <v>2.68600010871887</v>
       </c>
       <c r="G1969" t="s">
-        <v>1461</v>
+        <v>1462</v>
       </c>
       <c r="H1969" t="s">
         <v>9</v>
@@ -56491,7 +56494,7 @@
         <v>2.68799996376038</v>
       </c>
       <c r="G1970" t="s">
-        <v>1462</v>
+        <v>1463</v>
       </c>
       <c r="H1970" t="s">
         <v>9</v>
@@ -56517,7 +56520,7 @@
         <v>2.60599994659424</v>
       </c>
       <c r="G1971" t="s">
-        <v>1414</v>
+        <v>1415</v>
       </c>
       <c r="H1971" t="s">
         <v>9</v>
@@ -56543,7 +56546,7 @@
         <v>2.5699999332428</v>
       </c>
       <c r="G1972" t="s">
-        <v>1463</v>
+        <v>1464</v>
       </c>
       <c r="H1972" t="s">
         <v>9</v>
@@ -56569,7 +56572,7 @@
         <v>2.58999991416931</v>
       </c>
       <c r="G1973" t="s">
-        <v>1464</v>
+        <v>1465</v>
       </c>
       <c r="H1973" t="s">
         <v>9</v>
@@ -56595,7 +56598,7 @@
         <v>2.51399993896484</v>
       </c>
       <c r="G1974" t="s">
-        <v>1465</v>
+        <v>1466</v>
       </c>
       <c r="H1974" t="s">
         <v>9</v>
@@ -56621,7 +56624,7 @@
         <v>2.4779999256134</v>
       </c>
       <c r="G1975" t="s">
-        <v>1466</v>
+        <v>1467</v>
       </c>
       <c r="H1975" t="s">
         <v>9</v>
@@ -56647,7 +56650,7 @@
         <v>2.54399991035461</v>
       </c>
       <c r="G1976" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="H1976" t="s">
         <v>9</v>
@@ -56673,7 +56676,7 @@
         <v>2.56200003623962</v>
       </c>
       <c r="G1977" t="s">
-        <v>1468</v>
+        <v>1469</v>
       </c>
       <c r="H1977" t="s">
         <v>9</v>
@@ -56699,7 +56702,7 @@
         <v>2.54399991035461</v>
       </c>
       <c r="G1978" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="H1978" t="s">
         <v>9</v>
@@ -56725,7 +56728,7 @@
         <v>2.5460000038147</v>
       </c>
       <c r="G1979" t="s">
-        <v>1469</v>
+        <v>1470</v>
       </c>
       <c r="H1979" t="s">
         <v>9</v>
@@ -56751,7 +56754,7 @@
         <v>2.59400010108948</v>
       </c>
       <c r="G1980" t="s">
-        <v>1470</v>
+        <v>1471</v>
       </c>
       <c r="H1980" t="s">
         <v>9</v>
@@ -56777,7 +56780,7 @@
         <v>2.60599994659424</v>
       </c>
       <c r="G1981" t="s">
-        <v>1414</v>
+        <v>1415</v>
       </c>
       <c r="H1981" t="s">
         <v>9</v>
@@ -56803,7 +56806,7 @@
         <v>2.60800004005432</v>
       </c>
       <c r="G1982" t="s">
-        <v>1471</v>
+        <v>1472</v>
       </c>
       <c r="H1982" t="s">
         <v>9</v>
@@ -56829,7 +56832,7 @@
         <v>2.59400010108948</v>
       </c>
       <c r="G1983" t="s">
-        <v>1470</v>
+        <v>1471</v>
       </c>
       <c r="H1983" t="s">
         <v>9</v>
@@ -56855,7 +56858,7 @@
         <v>2.63199996948242</v>
       </c>
       <c r="G1984" t="s">
-        <v>1440</v>
+        <v>1441</v>
       </c>
       <c r="H1984" t="s">
         <v>9</v>
@@ -56881,7 +56884,7 @@
         <v>2.62599992752075</v>
       </c>
       <c r="G1985" t="s">
-        <v>1472</v>
+        <v>1473</v>
       </c>
       <c r="H1985" t="s">
         <v>9</v>
@@ -56907,7 +56910,7 @@
         <v>2.60199999809265</v>
       </c>
       <c r="G1986" t="s">
-        <v>1473</v>
+        <v>1474</v>
       </c>
       <c r="H1986" t="s">
         <v>9</v>
@@ -56933,7 +56936,7 @@
         <v>2.58800005912781</v>
       </c>
       <c r="G1987" t="s">
-        <v>1474</v>
+        <v>1475</v>
       </c>
       <c r="H1987" t="s">
         <v>9</v>
@@ -56959,7 +56962,7 @@
         <v>2.56599998474121</v>
       </c>
       <c r="G1988" t="s">
-        <v>1475</v>
+        <v>1476</v>
       </c>
       <c r="H1988" t="s">
         <v>9</v>
@@ -56985,7 +56988,7 @@
         <v>2.54200005531311</v>
       </c>
       <c r="G1989" t="s">
-        <v>1476</v>
+        <v>1477</v>
       </c>
       <c r="H1989" t="s">
         <v>9</v>
@@ -57011,7 +57014,7 @@
         <v>2.5699999332428</v>
       </c>
       <c r="G1990" t="s">
-        <v>1463</v>
+        <v>1464</v>
       </c>
       <c r="H1990" t="s">
         <v>9</v>
@@ -57037,7 +57040,7 @@
         <v>2.53200006484985</v>
       </c>
       <c r="G1991" t="s">
-        <v>1477</v>
+        <v>1478</v>
       </c>
       <c r="H1991" t="s">
         <v>9</v>
@@ -57063,7 +57066,7 @@
         <v>2.54800009727478</v>
       </c>
       <c r="G1992" t="s">
-        <v>1478</v>
+        <v>1479</v>
       </c>
       <c r="H1992" t="s">
         <v>9</v>
@@ -57089,7 +57092,7 @@
         <v>2.53999996185303</v>
       </c>
       <c r="G1993" t="s">
-        <v>1479</v>
+        <v>1480</v>
       </c>
       <c r="H1993" t="s">
         <v>9</v>
@@ -57115,7 +57118,7 @@
         <v>2.57800006866455</v>
       </c>
       <c r="G1994" t="s">
-        <v>1439</v>
+        <v>1440</v>
       </c>
       <c r="H1994" t="s">
         <v>9</v>
@@ -57141,7 +57144,7 @@
         <v>2.65400004386902</v>
       </c>
       <c r="G1995" t="s">
-        <v>1480</v>
+        <v>1481</v>
       </c>
       <c r="H1995" t="s">
         <v>9</v>
@@ -57167,7 +57170,7 @@
         <v>2.69600009918213</v>
       </c>
       <c r="G1996" t="s">
-        <v>1481</v>
+        <v>1482</v>
       </c>
       <c r="H1996" t="s">
         <v>9</v>
@@ -57193,7 +57196,7 @@
         <v>2.7739999294281</v>
       </c>
       <c r="G1997" t="s">
-        <v>1460</v>
+        <v>1461</v>
       </c>
       <c r="H1997" t="s">
         <v>9</v>
@@ -57219,7 +57222,7 @@
         <v>2.75600004196167</v>
       </c>
       <c r="G1998" t="s">
-        <v>1449</v>
+        <v>1450</v>
       </c>
       <c r="H1998" t="s">
         <v>9</v>
@@ -57245,7 +57248,7 @@
         <v>2.72000002861023</v>
       </c>
       <c r="G1999" t="s">
-        <v>1482</v>
+        <v>1483</v>
       </c>
       <c r="H1999" t="s">
         <v>9</v>
@@ -57271,7 +57274,7 @@
         <v>2.73200011253357</v>
       </c>
       <c r="G2000" t="s">
-        <v>1407</v>
+        <v>1408</v>
       </c>
       <c r="H2000" t="s">
         <v>9</v>
@@ -57297,7 +57300,7 @@
         <v>2.70199990272522</v>
       </c>
       <c r="G2001" t="s">
-        <v>1483</v>
+        <v>1484</v>
       </c>
       <c r="H2001" t="s">
         <v>9</v>
@@ -57323,7 +57326,7 @@
         <v>2.66400003433228</v>
       </c>
       <c r="G2002" t="s">
-        <v>1484</v>
+        <v>1485</v>
       </c>
       <c r="H2002" t="s">
         <v>9</v>
@@ -57349,7 +57352,7 @@
         <v>2.65599989891052</v>
       </c>
       <c r="G2003" t="s">
-        <v>1485</v>
+        <v>1486</v>
       </c>
       <c r="H2003" t="s">
         <v>9</v>
@@ -57375,7 +57378,7 @@
         <v>2.67400002479553</v>
       </c>
       <c r="G2004" t="s">
-        <v>1436</v>
+        <v>1437</v>
       </c>
       <c r="H2004" t="s">
         <v>9</v>
@@ -57401,7 +57404,7 @@
         <v>2.78399991989136</v>
       </c>
       <c r="G2005" t="s">
-        <v>1486</v>
+        <v>1487</v>
       </c>
       <c r="H2005" t="s">
         <v>9</v>
@@ -57427,7 +57430,7 @@
         <v>2.7960000038147</v>
       </c>
       <c r="G2006" t="s">
-        <v>1447</v>
+        <v>1448</v>
       </c>
       <c r="H2006" t="s">
         <v>9</v>
@@ -57453,7 +57456,7 @@
         <v>2.83400011062622</v>
       </c>
       <c r="G2007" t="s">
-        <v>1487</v>
+        <v>1488</v>
       </c>
       <c r="H2007" t="s">
         <v>9</v>
@@ -57479,7 +57482,7 @@
         <v>2.83999991416931</v>
       </c>
       <c r="G2008" t="s">
-        <v>1488</v>
+        <v>1489</v>
       </c>
       <c r="H2008" t="s">
         <v>9</v>
@@ -57505,7 +57508,7 @@
         <v>2.85599994659424</v>
       </c>
       <c r="G2009" t="s">
-        <v>1489</v>
+        <v>1490</v>
       </c>
       <c r="H2009" t="s">
         <v>9</v>
@@ -57531,7 +57534,7 @@
         <v>2.83999991416931</v>
       </c>
       <c r="G2010" t="s">
-        <v>1488</v>
+        <v>1489</v>
       </c>
       <c r="H2010" t="s">
         <v>9</v>
@@ -57557,7 +57560,7 @@
         <v>2.84200000762939</v>
       </c>
       <c r="G2011" t="s">
-        <v>1490</v>
+        <v>1491</v>
       </c>
       <c r="H2011" t="s">
         <v>9</v>
@@ -57583,7 +57586,7 @@
         <v>2.83400011062622</v>
       </c>
       <c r="G2012" t="s">
-        <v>1487</v>
+        <v>1488</v>
       </c>
       <c r="H2012" t="s">
         <v>9</v>
@@ -57609,7 +57612,7 @@
         <v>2.84599995613098</v>
       </c>
       <c r="G2013" t="s">
-        <v>1491</v>
+        <v>1492</v>
       </c>
       <c r="H2013" t="s">
         <v>9</v>
@@ -57635,7 +57638,7 @@
         <v>2.88599991798401</v>
       </c>
       <c r="G2014" t="s">
-        <v>1458</v>
+        <v>1459</v>
       </c>
       <c r="H2014" t="s">
         <v>9</v>
@@ -57661,7 +57664,7 @@
         <v>2.90000009536743</v>
       </c>
       <c r="G2015" t="s">
-        <v>1492</v>
+        <v>1493</v>
       </c>
       <c r="H2015" t="s">
         <v>9</v>
@@ -57687,7 +57690,7 @@
         <v>2.90599989891052</v>
       </c>
       <c r="G2016" t="s">
-        <v>1493</v>
+        <v>1494</v>
       </c>
       <c r="H2016" t="s">
         <v>9</v>
@@ -57713,7 +57716,7 @@
         <v>2.90000009536743</v>
       </c>
       <c r="G2017" t="s">
-        <v>1492</v>
+        <v>1493</v>
       </c>
       <c r="H2017" t="s">
         <v>9</v>
@@ -57739,7 +57742,7 @@
         <v>2.90799999237061</v>
       </c>
       <c r="G2018" t="s">
-        <v>1494</v>
+        <v>1495</v>
       </c>
       <c r="H2018" t="s">
         <v>9</v>
@@ -57765,7 +57768,7 @@
         <v>2.8840000629425</v>
       </c>
       <c r="G2019" t="s">
-        <v>1495</v>
+        <v>1496</v>
       </c>
       <c r="H2019" t="s">
         <v>9</v>
@@ -57791,7 +57794,7 @@
         <v>2.90199995040894</v>
       </c>
       <c r="G2020" t="s">
-        <v>1496</v>
+        <v>1497</v>
       </c>
       <c r="H2020" t="s">
         <v>9</v>
@@ -57817,7 +57820,7 @@
         <v>2.90400004386902</v>
       </c>
       <c r="G2021" t="s">
-        <v>1497</v>
+        <v>1498</v>
       </c>
       <c r="H2021" t="s">
         <v>9</v>
@@ -57843,7 +57846,7 @@
         <v>2.91000008583069</v>
       </c>
       <c r="G2022" t="s">
-        <v>1498</v>
+        <v>1499</v>
       </c>
       <c r="H2022" t="s">
         <v>9</v>
@@ -57869,7 +57872,7 @@
         <v>2.96799993515015</v>
       </c>
       <c r="G2023" t="s">
-        <v>1499</v>
+        <v>1500</v>
       </c>
       <c r="H2023" t="s">
         <v>9</v>
@@ -57895,7 +57898,7 @@
         <v>2.93400001525879</v>
       </c>
       <c r="G2024" t="s">
-        <v>1500</v>
+        <v>1501</v>
       </c>
       <c r="H2024" t="s">
         <v>9</v>
@@ -57921,7 +57924,7 @@
         <v>2.91599988937378</v>
       </c>
       <c r="G2025" t="s">
-        <v>1501</v>
+        <v>1502</v>
       </c>
       <c r="H2025" t="s">
         <v>9</v>
@@ -57947,7 +57950,7 @@
         <v>2.95799994468689</v>
       </c>
       <c r="G2026" t="s">
-        <v>1502</v>
+        <v>1503</v>
       </c>
       <c r="H2026" t="s">
         <v>9</v>
@@ -57973,7 +57976,7 @@
         <v>3.02999997138977</v>
       </c>
       <c r="G2027" t="s">
-        <v>1503</v>
+        <v>1504</v>
       </c>
       <c r="H2027" t="s">
         <v>9</v>
@@ -57999,7 +58002,7 @@
         <v>3.01799988746643</v>
       </c>
       <c r="G2028" t="s">
-        <v>1504</v>
+        <v>1505</v>
       </c>
       <c r="H2028" t="s">
         <v>9</v>
@@ -58025,7 +58028,7 @@
         <v>2.98000001907349</v>
       </c>
       <c r="G2029" t="s">
-        <v>1505</v>
+        <v>1506</v>
       </c>
       <c r="H2029" t="s">
         <v>9</v>
@@ -58051,7 +58054,7 @@
         <v>3.0239999294281</v>
       </c>
       <c r="G2030" t="s">
-        <v>1506</v>
+        <v>1507</v>
       </c>
       <c r="H2030" t="s">
         <v>9</v>
@@ -58077,7 +58080,7 @@
         <v>3.01399993896484</v>
       </c>
       <c r="G2031" t="s">
-        <v>1507</v>
+        <v>1508</v>
       </c>
       <c r="H2031" t="s">
         <v>9</v>
@@ -58103,7 +58106,7 @@
         <v>2.99399995803833</v>
       </c>
       <c r="G2032" t="s">
-        <v>1508</v>
+        <v>1509</v>
       </c>
       <c r="H2032" t="s">
         <v>9</v>
@@ -58129,7 +58132,7 @@
         <v>3.00999999046326</v>
       </c>
       <c r="G2033" t="s">
-        <v>1509</v>
+        <v>1510</v>
       </c>
       <c r="H2033" t="s">
         <v>9</v>
@@ -58155,7 +58158,7 @@
         <v>2.98200011253357</v>
       </c>
       <c r="G2034" t="s">
-        <v>1510</v>
+        <v>1511</v>
       </c>
       <c r="H2034" t="s">
         <v>9</v>
@@ -58181,7 +58184,7 @@
         <v>2.96399998664856</v>
       </c>
       <c r="G2035" t="s">
-        <v>1511</v>
+        <v>1512</v>
       </c>
       <c r="H2035" t="s">
         <v>9</v>
@@ -58207,7 +58210,7 @@
         <v>2.97199988365173</v>
       </c>
       <c r="G2036" t="s">
-        <v>1512</v>
+        <v>1513</v>
       </c>
       <c r="H2036" t="s">
         <v>9</v>
@@ -58233,7 +58236,7 @@
         <v>2.96000003814697</v>
       </c>
       <c r="G2037" t="s">
-        <v>1513</v>
+        <v>1514</v>
       </c>
       <c r="H2037" t="s">
         <v>9</v>
@@ -58259,7 +58262,7 @@
         <v>2.90599989891052</v>
       </c>
       <c r="G2038" t="s">
-        <v>1493</v>
+        <v>1494</v>
       </c>
       <c r="H2038" t="s">
         <v>9</v>
@@ -58285,7 +58288,7 @@
         <v>2.96199989318848</v>
       </c>
       <c r="G2039" t="s">
-        <v>1514</v>
+        <v>1515</v>
       </c>
       <c r="H2039" t="s">
         <v>9</v>
@@ -58311,7 +58314,7 @@
         <v>2.96799993515015</v>
       </c>
       <c r="G2040" t="s">
-        <v>1499</v>
+        <v>1500</v>
       </c>
       <c r="H2040" t="s">
         <v>9</v>
@@ -58337,7 +58340,7 @@
         <v>2.98399996757507</v>
       </c>
       <c r="G2041" t="s">
-        <v>1515</v>
+        <v>1516</v>
       </c>
       <c r="H2041" t="s">
         <v>9</v>
@@ -58363,7 +58366,7 @@
         <v>3.00600004196167</v>
       </c>
       <c r="G2042" t="s">
-        <v>1516</v>
+        <v>1517</v>
       </c>
       <c r="H2042" t="s">
         <v>9</v>
@@ -58389,7 +58392,7 @@
         <v>3.03999996185303</v>
       </c>
       <c r="G2043" t="s">
-        <v>1517</v>
+        <v>1518</v>
       </c>
       <c r="H2043" t="s">
         <v>9</v>
@@ -58415,7 +58418,7 @@
         <v>2.96600008010864</v>
       </c>
       <c r="G2044" t="s">
-        <v>1518</v>
+        <v>1519</v>
       </c>
       <c r="H2044" t="s">
         <v>9</v>
@@ -58441,7 +58444,7 @@
         <v>3.03999996185303</v>
       </c>
       <c r="G2045" t="s">
-        <v>1517</v>
+        <v>1518</v>
       </c>
       <c r="H2045" t="s">
         <v>9</v>
@@ -58467,7 +58470,7 @@
         <v>3.02999997138977</v>
       </c>
       <c r="G2046" t="s">
-        <v>1503</v>
+        <v>1504</v>
       </c>
       <c r="H2046" t="s">
         <v>9</v>
@@ -58493,7 +58496,7 @@
         <v>3.02600002288818</v>
       </c>
       <c r="G2047" t="s">
-        <v>1519</v>
+        <v>1520</v>
       </c>
       <c r="H2047" t="s">
         <v>9</v>
@@ -58519,7 +58522,7 @@
         <v>2.97000002861023</v>
       </c>
       <c r="G2048" t="s">
-        <v>1520</v>
+        <v>1521</v>
       </c>
       <c r="H2048" t="s">
         <v>9</v>
@@ -58545,7 +58548,7 @@
         <v>2.97000002861023</v>
       </c>
       <c r="G2049" t="s">
-        <v>1520</v>
+        <v>1521</v>
       </c>
       <c r="H2049" t="s">
         <v>9</v>
@@ -58571,7 +58574,7 @@
         <v>2.9760000705719</v>
       </c>
       <c r="G2050" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
       <c r="H2050" t="s">
         <v>9</v>
@@ -58597,7 +58600,7 @@
         <v>2.95600008964539</v>
       </c>
       <c r="G2051" t="s">
-        <v>1522</v>
+        <v>1523</v>
       </c>
       <c r="H2051" t="s">
         <v>9</v>
@@ -58623,7 +58626,7 @@
         <v>2.87199997901917</v>
       </c>
       <c r="G2052" t="s">
-        <v>1523</v>
+        <v>1524</v>
       </c>
       <c r="H2052" t="s">
         <v>9</v>
@@ -58649,7 +58652,7 @@
         <v>2.96199989318848</v>
       </c>
       <c r="G2053" t="s">
-        <v>1514</v>
+        <v>1515</v>
       </c>
       <c r="H2053" t="s">
         <v>9</v>
@@ -58675,7 +58678,7 @@
         <v>3.09999990463257</v>
       </c>
       <c r="G2054" t="s">
-        <v>1524</v>
+        <v>1525</v>
       </c>
       <c r="H2054" t="s">
         <v>9</v>
@@ -58701,7 +58704,7 @@
         <v>3.23600006103516</v>
       </c>
       <c r="G2055" t="s">
-        <v>1525</v>
+        <v>1526</v>
       </c>
       <c r="H2055" t="s">
         <v>9</v>
@@ -58727,7 +58730,7 @@
         <v>3.22399997711182</v>
       </c>
       <c r="G2056" t="s">
-        <v>1526</v>
+        <v>1527</v>
       </c>
       <c r="H2056" t="s">
         <v>9</v>
@@ -58753,7 +58756,7 @@
         <v>3.21199989318848</v>
       </c>
       <c r="G2057" t="s">
-        <v>1527</v>
+        <v>1528</v>
       </c>
       <c r="H2057" t="s">
         <v>9</v>
@@ -58779,7 +58782,7 @@
         <v>3.26999998092651</v>
       </c>
       <c r="G2058" t="s">
-        <v>1528</v>
+        <v>1529</v>
       </c>
       <c r="H2058" t="s">
         <v>9</v>
@@ -58805,7 +58808,7 @@
         <v>3.16599988937378</v>
       </c>
       <c r="G2059" t="s">
-        <v>1529</v>
+        <v>1530</v>
       </c>
       <c r="H2059" t="s">
         <v>9</v>
@@ -58831,7 +58834,7 @@
         <v>3.15400004386902</v>
       </c>
       <c r="G2060" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="H2060" t="s">
         <v>9</v>
@@ -58857,7 +58860,7 @@
         <v>3.10999989509583</v>
       </c>
       <c r="G2061" t="s">
-        <v>1531</v>
+        <v>1532</v>
       </c>
       <c r="H2061" t="s">
         <v>9</v>
@@ -58883,7 +58886,7 @@
         <v>3.13800001144409</v>
       </c>
       <c r="G2062" t="s">
-        <v>1532</v>
+        <v>1533</v>
       </c>
       <c r="H2062" t="s">
         <v>9</v>
@@ -58909,7 +58912,7 @@
         <v>3.15799999237061</v>
       </c>
       <c r="G2063" t="s">
-        <v>1533</v>
+        <v>1534</v>
       </c>
       <c r="H2063" t="s">
         <v>9</v>
@@ -58935,7 +58938,7 @@
         <v>3.13199996948242</v>
       </c>
       <c r="G2064" t="s">
-        <v>1534</v>
+        <v>1535</v>
       </c>
       <c r="H2064" t="s">
         <v>9</v>
@@ -58961,7 +58964,7 @@
         <v>3.05599999427795</v>
       </c>
       <c r="G2065" t="s">
-        <v>1535</v>
+        <v>1536</v>
       </c>
       <c r="H2065" t="s">
         <v>9</v>
@@ -58987,7 +58990,7 @@
         <v>3.09800004959106</v>
       </c>
       <c r="G2066" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
       <c r="H2066" t="s">
         <v>9</v>
@@ -59013,7 +59016,7 @@
         <v>3.1340000629425</v>
       </c>
       <c r="G2067" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="H2067" t="s">
         <v>9</v>
@@ -59039,7 +59042,7 @@
         <v>3.14000010490417</v>
       </c>
       <c r="G2068" t="s">
-        <v>1538</v>
+        <v>1539</v>
       </c>
       <c r="H2068" t="s">
         <v>9</v>
@@ -59065,7 +59068,7 @@
         <v>3.16599988937378</v>
       </c>
       <c r="G2069" t="s">
-        <v>1529</v>
+        <v>1530</v>
       </c>
       <c r="H2069" t="s">
         <v>9</v>
@@ -59091,7 +59094,7 @@
         <v>3.13800001144409</v>
       </c>
       <c r="G2070" t="s">
-        <v>1532</v>
+        <v>1533</v>
       </c>
       <c r="H2070" t="s">
         <v>9</v>
@@ -59117,7 +59120,7 @@
         <v>3.17000007629395</v>
       </c>
       <c r="G2071" t="s">
-        <v>1539</v>
+        <v>1540</v>
       </c>
       <c r="H2071" t="s">
         <v>9</v>
@@ -59143,7 +59146,7 @@
         <v>3.22399997711182</v>
       </c>
       <c r="G2072" t="s">
-        <v>1526</v>
+        <v>1527</v>
       </c>
       <c r="H2072" t="s">
         <v>9</v>
@@ -59169,7 +59172,7 @@
         <v>3.24000000953674</v>
       </c>
       <c r="G2073" t="s">
-        <v>1540</v>
+        <v>1541</v>
       </c>
       <c r="H2073" t="s">
         <v>9</v>
@@ -59195,7 +59198,7 @@
         <v>3.23200011253357</v>
       </c>
       <c r="G2074" t="s">
-        <v>1541</v>
+        <v>1542</v>
       </c>
       <c r="H2074" t="s">
         <v>9</v>
@@ -59221,7 +59224,7 @@
         <v>3.23399996757507</v>
       </c>
       <c r="G2075" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
       <c r="H2075" t="s">
         <v>9</v>
@@ -59247,7 +59250,7 @@
         <v>3.17400002479553</v>
       </c>
       <c r="G2076" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
       <c r="H2076" t="s">
         <v>9</v>
@@ -59273,7 +59276,7 @@
         <v>3.20199990272522</v>
       </c>
       <c r="G2077" t="s">
-        <v>1544</v>
+        <v>1545</v>
       </c>
       <c r="H2077" t="s">
         <v>9</v>
@@ -59299,7 +59302,7 @@
         <v>3.19000005722046</v>
       </c>
       <c r="G2078" t="s">
-        <v>1545</v>
+        <v>1546</v>
       </c>
       <c r="H2078" t="s">
         <v>9</v>
@@ -59325,7 +59328,7 @@
         <v>3.19600009918213</v>
       </c>
       <c r="G2079" t="s">
-        <v>1546</v>
+        <v>1547</v>
       </c>
       <c r="H2079" t="s">
         <v>9</v>
@@ -59351,7 +59354,7 @@
         <v>3.22199988365173</v>
       </c>
       <c r="G2080" t="s">
-        <v>1547</v>
+        <v>1548</v>
       </c>
       <c r="H2080" t="s">
         <v>9</v>
@@ -59377,7 +59380,7 @@
         <v>3.19400000572205</v>
       </c>
       <c r="G2081" t="s">
-        <v>1548</v>
+        <v>1549</v>
       </c>
       <c r="H2081" t="s">
         <v>9</v>
@@ -59403,7 +59406,7 @@
         <v>3.27999997138977</v>
       </c>
       <c r="G2082" t="s">
-        <v>1549</v>
+        <v>1550</v>
       </c>
       <c r="H2082" t="s">
         <v>9</v>
@@ -59429,7 +59432,7 @@
         <v>3.29200005531311</v>
       </c>
       <c r="G2083" t="s">
-        <v>1550</v>
+        <v>1551</v>
       </c>
       <c r="H2083" t="s">
         <v>9</v>
@@ -59455,7 +59458,7 @@
         <v>3.31399989128113</v>
       </c>
       <c r="G2084" t="s">
-        <v>1551</v>
+        <v>1552</v>
       </c>
       <c r="H2084" t="s">
         <v>9</v>
@@ -59481,7 +59484,7 @@
         <v>3.34599995613098</v>
       </c>
       <c r="G2085" t="s">
-        <v>1552</v>
+        <v>1553</v>
       </c>
       <c r="H2085" t="s">
         <v>9</v>
@@ -59507,7 +59510,7 @@
         <v>3.33400011062622</v>
       </c>
       <c r="G2086" t="s">
-        <v>1553</v>
+        <v>1554</v>
       </c>
       <c r="H2086" t="s">
         <v>9</v>
@@ -59533,7 +59536,7 @@
         <v>3.33800005912781</v>
       </c>
       <c r="G2087" t="s">
-        <v>1554</v>
+        <v>1555</v>
       </c>
       <c r="H2087" t="s">
         <v>9</v>
@@ -59559,7 +59562,7 @@
         <v>3.33400011062622</v>
       </c>
       <c r="G2088" t="s">
-        <v>1553</v>
+        <v>1554</v>
       </c>
       <c r="H2088" t="s">
         <v>9</v>
@@ -59585,7 +59588,7 @@
         <v>3.34800004959106</v>
       </c>
       <c r="G2089" t="s">
-        <v>1555</v>
+        <v>1556</v>
       </c>
       <c r="H2089" t="s">
         <v>9</v>
@@ -59611,7 +59614,7 @@
         <v>3.37400007247925</v>
       </c>
       <c r="G2090" t="s">
-        <v>1556</v>
+        <v>1557</v>
       </c>
       <c r="H2090" t="s">
         <v>9</v>
@@ -59637,7 +59640,7 @@
         <v>3.30999994277954</v>
       </c>
       <c r="G2091" t="s">
-        <v>1557</v>
+        <v>1558</v>
       </c>
       <c r="H2091" t="s">
         <v>9</v>
@@ -59663,7 +59666,7 @@
         <v>3.28800010681152</v>
       </c>
       <c r="G2092" t="s">
-        <v>1558</v>
+        <v>1559</v>
       </c>
       <c r="H2092" t="s">
         <v>9</v>
@@ -59689,7 +59692,7 @@
         <v>3.27999997138977</v>
       </c>
       <c r="G2093" t="s">
-        <v>1549</v>
+        <v>1550</v>
       </c>
       <c r="H2093" t="s">
         <v>9</v>
@@ -59715,7 +59718,7 @@
         <v>3.25200009346008</v>
       </c>
       <c r="G2094" t="s">
-        <v>1559</v>
+        <v>1560</v>
       </c>
       <c r="H2094" t="s">
         <v>9</v>
@@ -59741,7 +59744,7 @@
         <v>3.28999996185303</v>
       </c>
       <c r="G2095" t="s">
-        <v>1560</v>
+        <v>1561</v>
       </c>
       <c r="H2095" t="s">
         <v>9</v>
@@ -59767,7 +59770,7 @@
         <v>3.3199999332428</v>
       </c>
       <c r="G2096" t="s">
-        <v>1561</v>
+        <v>1562</v>
       </c>
       <c r="H2096" t="s">
         <v>9</v>
@@ -59793,7 +59796,7 @@
         <v>3.2720000743866</v>
       </c>
       <c r="G2097" t="s">
-        <v>1562</v>
+        <v>1563</v>
       </c>
       <c r="H2097" t="s">
         <v>9</v>
@@ -59819,7 +59822,7 @@
         <v>3.28800010681152</v>
       </c>
       <c r="G2098" t="s">
-        <v>1558</v>
+        <v>1559</v>
       </c>
       <c r="H2098" t="s">
         <v>9</v>
@@ -59845,7 +59848,7 @@
         <v>3.26600003242493</v>
       </c>
       <c r="G2099" t="s">
-        <v>1563</v>
+        <v>1564</v>
       </c>
       <c r="H2099" t="s">
         <v>9</v>
@@ -59871,7 +59874,7 @@
         <v>3.21799993515015</v>
       </c>
       <c r="G2100" t="s">
-        <v>1564</v>
+        <v>1565</v>
       </c>
       <c r="H2100" t="s">
         <v>9</v>
@@ -59897,7 +59900,7 @@
         <v>3.16199994087219</v>
       </c>
       <c r="G2101" t="s">
-        <v>1565</v>
+        <v>1566</v>
       </c>
       <c r="H2101" t="s">
         <v>9</v>
@@ -59923,7 +59926,7 @@
         <v>3.17799997329712</v>
       </c>
       <c r="G2102" t="s">
-        <v>1566</v>
+        <v>1567</v>
       </c>
       <c r="H2102" t="s">
         <v>9</v>
@@ -59949,7 +59952,7 @@
         <v>3.11999988555908</v>
       </c>
       <c r="G2103" t="s">
-        <v>1567</v>
+        <v>1568</v>
       </c>
       <c r="H2103" t="s">
         <v>9</v>
@@ -59975,7 +59978,7 @@
         <v>3.14599990844727</v>
       </c>
       <c r="G2104" t="s">
-        <v>1568</v>
+        <v>1569</v>
       </c>
       <c r="H2104" t="s">
         <v>9</v>
@@ -60001,7 +60004,7 @@
         <v>3.1340000629425</v>
       </c>
       <c r="G2105" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="H2105" t="s">
         <v>9</v>
@@ -60027,7 +60030,7 @@
         <v>3.1340000629425</v>
       </c>
       <c r="G2106" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="H2106" t="s">
         <v>9</v>
@@ -60053,7 +60056,7 @@
         <v>3.14400005340576</v>
       </c>
       <c r="G2107" t="s">
-        <v>1569</v>
+        <v>1570</v>
       </c>
       <c r="H2107" t="s">
         <v>9</v>
@@ -60079,7 +60082,7 @@
         <v>3.16599988937378</v>
       </c>
       <c r="G2108" t="s">
-        <v>1529</v>
+        <v>1530</v>
       </c>
       <c r="H2108" t="s">
         <v>9</v>
@@ -60105,7 +60108,7 @@
         <v>3.16400003433228</v>
       </c>
       <c r="G2109" t="s">
-        <v>1570</v>
+        <v>1571</v>
       </c>
       <c r="H2109" t="s">
         <v>9</v>
@@ -60131,7 +60134,7 @@
         <v>3.11999988555908</v>
       </c>
       <c r="G2110" t="s">
-        <v>1567</v>
+        <v>1568</v>
       </c>
       <c r="H2110" t="s">
         <v>9</v>
@@ -60157,7 +60160,7 @@
         <v>3.13199996948242</v>
       </c>
       <c r="G2111" t="s">
-        <v>1534</v>
+        <v>1535</v>
       </c>
       <c r="H2111" t="s">
         <v>9</v>
@@ -60183,7 +60186,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G2112" t="s">
-        <v>1571</v>
+        <v>1572</v>
       </c>
       <c r="H2112" t="s">
         <v>9</v>
@@ -60209,7 +60212,7 @@
         <v>3.21399998664856</v>
       </c>
       <c r="G2113" t="s">
-        <v>1572</v>
+        <v>1573</v>
       </c>
       <c r="H2113" t="s">
         <v>9</v>
@@ -60235,7 +60238,7 @@
         <v>3.26200008392334</v>
       </c>
       <c r="G2114" t="s">
-        <v>1573</v>
+        <v>1574</v>
       </c>
       <c r="H2114" t="s">
         <v>9</v>
@@ -60261,7 +60264,7 @@
         <v>3.34599995613098</v>
       </c>
       <c r="G2115" t="s">
-        <v>1552</v>
+        <v>1553</v>
       </c>
       <c r="H2115" t="s">
         <v>9</v>
@@ -60287,7 +60290,7 @@
         <v>3.36800003051758</v>
       </c>
       <c r="G2116" t="s">
-        <v>1574</v>
+        <v>1575</v>
       </c>
       <c r="H2116" t="s">
         <v>9</v>
@@ -60313,7 +60316,7 @@
         <v>3.39599990844727</v>
       </c>
       <c r="G2117" t="s">
-        <v>1575</v>
+        <v>1576</v>
       </c>
       <c r="H2117" t="s">
         <v>9</v>
@@ -60339,7 +60342,7 @@
         <v>3.36400008201599</v>
       </c>
       <c r="G2118" t="s">
-        <v>1576</v>
+        <v>1577</v>
       </c>
       <c r="H2118" t="s">
         <v>9</v>
@@ -60365,7 +60368,7 @@
         <v>3.42199993133545</v>
       </c>
       <c r="G2119" t="s">
-        <v>1577</v>
+        <v>1578</v>
       </c>
       <c r="H2119" t="s">
         <v>9</v>
@@ -60391,7 +60394,7 @@
         <v>3.39000010490417</v>
       </c>
       <c r="G2120" t="s">
-        <v>1578</v>
+        <v>1579</v>
       </c>
       <c r="H2120" t="s">
         <v>9</v>
@@ -60417,7 +60420,7 @@
         <v>3.41599988937378</v>
       </c>
       <c r="G2121" t="s">
-        <v>1579</v>
+        <v>1580</v>
       </c>
       <c r="H2121" t="s">
         <v>9</v>
@@ -60443,7 +60446,7 @@
         <v>3.42799997329712</v>
       </c>
       <c r="G2122" t="s">
-        <v>1580</v>
+        <v>1581</v>
       </c>
       <c r="H2122" t="s">
         <v>9</v>
@@ -60469,7 +60472,7 @@
         <v>3.45600008964539</v>
       </c>
       <c r="G2123" t="s">
-        <v>1581</v>
+        <v>1582</v>
       </c>
       <c r="H2123" t="s">
         <v>9</v>
@@ -60495,7 +60498,7 @@
         <v>3.50799989700317</v>
       </c>
       <c r="G2124" t="s">
-        <v>1582</v>
+        <v>1583</v>
       </c>
       <c r="H2124" t="s">
         <v>9</v>
@@ -60521,7 +60524,7 @@
         <v>3.47199988365173</v>
       </c>
       <c r="G2125" t="s">
-        <v>1583</v>
+        <v>1584</v>
       </c>
       <c r="H2125" t="s">
         <v>9</v>
@@ -60547,7 +60550,7 @@
         <v>3.46799993515015</v>
       </c>
       <c r="G2126" t="s">
-        <v>1584</v>
+        <v>1585</v>
       </c>
       <c r="H2126" t="s">
         <v>9</v>
@@ -60573,7 +60576,7 @@
         <v>3.5</v>
       </c>
       <c r="G2127" t="s">
-        <v>1585</v>
+        <v>1586</v>
       </c>
       <c r="H2127" t="s">
         <v>9</v>
@@ -60599,7 +60602,7 @@
         <v>3.56399989128113</v>
       </c>
       <c r="G2128" t="s">
-        <v>1586</v>
+        <v>1587</v>
       </c>
       <c r="H2128" t="s">
         <v>9</v>
@@ -60625,7 +60628,7 @@
         <v>3.53600001335144</v>
       </c>
       <c r="G2129" t="s">
-        <v>1587</v>
+        <v>1588</v>
       </c>
       <c r="H2129" t="s">
         <v>9</v>
@@ -60651,7 +60654,7 @@
         <v>3.49399995803833</v>
       </c>
       <c r="G2130" t="s">
-        <v>1588</v>
+        <v>1589</v>
       </c>
       <c r="H2130" t="s">
         <v>9</v>
@@ -60677,7 +60680,7 @@
         <v>3.47199988365173</v>
       </c>
       <c r="G2131" t="s">
-        <v>1583</v>
+        <v>1584</v>
       </c>
       <c r="H2131" t="s">
         <v>9</v>
@@ -60703,7 +60706,7 @@
         <v>3.47000002861023</v>
       </c>
       <c r="G2132" t="s">
-        <v>1589</v>
+        <v>1590</v>
       </c>
       <c r="H2132" t="s">
         <v>9</v>
@@ -60729,7 +60732,7 @@
         <v>3.43400001525879</v>
       </c>
       <c r="G2133" t="s">
-        <v>1590</v>
+        <v>1591</v>
       </c>
       <c r="H2133" t="s">
         <v>9</v>
@@ -60755,7 +60758,7 @@
         <v>3.41599988937378</v>
       </c>
       <c r="G2134" t="s">
-        <v>1579</v>
+        <v>1580</v>
       </c>
       <c r="H2134" t="s">
         <v>9</v>
@@ -60781,7 +60784,7 @@
         <v>3.37599992752075</v>
       </c>
       <c r="G2135" t="s">
-        <v>1591</v>
+        <v>1592</v>
       </c>
       <c r="H2135" t="s">
         <v>9</v>
@@ -60807,7 +60810,7 @@
         <v>3.32999992370605</v>
       </c>
       <c r="G2136" t="s">
-        <v>1592</v>
+        <v>1593</v>
       </c>
       <c r="H2136" t="s">
         <v>9</v>
@@ -60833,7 +60836,7 @@
         <v>3.33200001716614</v>
       </c>
       <c r="G2137" t="s">
-        <v>1593</v>
+        <v>1594</v>
       </c>
       <c r="H2137" t="s">
         <v>9</v>
@@ -60859,7 +60862,7 @@
         <v>3.35199999809265</v>
       </c>
       <c r="G2138" t="s">
-        <v>1594</v>
+        <v>1595</v>
       </c>
       <c r="H2138" t="s">
         <v>9</v>
@@ -60885,7 +60888,7 @@
         <v>3.32800006866455</v>
       </c>
       <c r="G2139" t="s">
-        <v>1595</v>
+        <v>1596</v>
       </c>
       <c r="H2139" t="s">
         <v>9</v>
@@ -60911,7 +60914,7 @@
         <v>3.31800007820129</v>
       </c>
       <c r="G2140" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="H2140" t="s">
         <v>9</v>
@@ -60937,7 +60940,7 @@
         <v>3.34999990463257</v>
       </c>
       <c r="G2141" t="s">
-        <v>1597</v>
+        <v>1598</v>
       </c>
       <c r="H2141" t="s">
         <v>9</v>
@@ -60963,7 +60966,7 @@
         <v>3.39000010490417</v>
       </c>
       <c r="G2142" t="s">
-        <v>1578</v>
+        <v>1579</v>
       </c>
       <c r="H2142" t="s">
         <v>9</v>
@@ -60989,7 +60992,7 @@
         <v>3.43199992179871</v>
       </c>
       <c r="G2143" t="s">
-        <v>1598</v>
+        <v>1599</v>
       </c>
       <c r="H2143" t="s">
         <v>9</v>
@@ -61015,7 +61018,7 @@
         <v>3.45799994468689</v>
       </c>
       <c r="G2144" t="s">
-        <v>1599</v>
+        <v>1600</v>
       </c>
       <c r="H2144" t="s">
         <v>9</v>
@@ -61041,7 +61044,7 @@
         <v>3.46600008010864</v>
       </c>
       <c r="G2145" t="s">
-        <v>1600</v>
+        <v>1601</v>
       </c>
       <c r="H2145" t="s">
         <v>9</v>
@@ -61067,7 +61070,7 @@
         <v>3.46000003814697</v>
       </c>
       <c r="G2146" t="s">
-        <v>1601</v>
+        <v>1602</v>
       </c>
       <c r="H2146" t="s">
         <v>9</v>
@@ -61093,7 +61096,7 @@
         <v>3.38000011444092</v>
       </c>
       <c r="G2147" t="s">
-        <v>1602</v>
+        <v>1603</v>
       </c>
       <c r="H2147" t="s">
         <v>9</v>
@@ -61119,7 +61122,7 @@
         <v>3.42600011825562</v>
       </c>
       <c r="G2148" t="s">
-        <v>1603</v>
+        <v>1604</v>
       </c>
       <c r="H2148" t="s">
         <v>9</v>
@@ -61145,7 +61148,7 @@
         <v>3.31399989128113</v>
       </c>
       <c r="G2149" t="s">
-        <v>1551</v>
+        <v>1552</v>
       </c>
       <c r="H2149" t="s">
         <v>9</v>
@@ -61171,7 +61174,7 @@
         <v>3.39000010490417</v>
       </c>
       <c r="G2150" t="s">
-        <v>1578</v>
+        <v>1579</v>
       </c>
       <c r="H2150" t="s">
         <v>9</v>
@@ -61197,7 +61200,7 @@
         <v>3.40599989891052</v>
       </c>
       <c r="G2151" t="s">
-        <v>1604</v>
+        <v>1605</v>
       </c>
       <c r="H2151" t="s">
         <v>9</v>
@@ -61223,7 +61226,7 @@
         <v>3.26200008392334</v>
       </c>
       <c r="G2152" t="s">
-        <v>1573</v>
+        <v>1574</v>
       </c>
       <c r="H2152" t="s">
         <v>9</v>
@@ -61249,7 +61252,7 @@
         <v>3.24600005149841</v>
       </c>
       <c r="G2153" t="s">
-        <v>1605</v>
+        <v>1606</v>
       </c>
       <c r="H2153" t="s">
         <v>9</v>
@@ -61275,7 +61278,7 @@
         <v>3.29800009727478</v>
       </c>
       <c r="G2154" t="s">
-        <v>1606</v>
+        <v>1607</v>
       </c>
       <c r="H2154" t="s">
         <v>9</v>
@@ -61301,7 +61304,7 @@
         <v>3.28800010681152</v>
       </c>
       <c r="G2155" t="s">
-        <v>1558</v>
+        <v>1559</v>
       </c>
       <c r="H2155" t="s">
         <v>9</v>
@@ -61327,7 +61330,7 @@
         <v>3.35400009155273</v>
       </c>
       <c r="G2156" t="s">
-        <v>1607</v>
+        <v>1608</v>
       </c>
       <c r="H2156" t="s">
         <v>9</v>
@@ -61353,7 +61356,7 @@
         <v>3.40199995040894</v>
       </c>
       <c r="G2157" t="s">
-        <v>1608</v>
+        <v>1609</v>
       </c>
       <c r="H2157" t="s">
         <v>9</v>
@@ -61379,7 +61382,7 @@
         <v>3.24200010299683</v>
       </c>
       <c r="G2158" t="s">
-        <v>1609</v>
+        <v>1610</v>
       </c>
       <c r="H2158" t="s">
         <v>9</v>
@@ -61405,7 +61408,7 @@
         <v>3.23200011253357</v>
       </c>
       <c r="G2159" t="s">
-        <v>1610</v>
+        <v>1611</v>
       </c>
       <c r="H2159" t="s">
         <v>9</v>
@@ -61431,7 +61434,7 @@
         <v>3.20799994468689</v>
       </c>
       <c r="G2160" t="s">
-        <v>1611</v>
+        <v>1612</v>
       </c>
       <c r="H2160" t="s">
         <v>9</v>
@@ -61457,7 +61460,7 @@
         <v>3.2039999961853</v>
       </c>
       <c r="G2161" t="s">
-        <v>1612</v>
+        <v>1613</v>
       </c>
       <c r="H2161" t="s">
         <v>9</v>
@@ -61483,7 +61486,7 @@
         <v>3.19400000572205</v>
       </c>
       <c r="G2162" t="s">
-        <v>1613</v>
+        <v>1614</v>
       </c>
       <c r="H2162" t="s">
         <v>9</v>
@@ -61509,7 +61512,7 @@
         <v>3.23600006103516</v>
       </c>
       <c r="G2163" t="s">
-        <v>1614</v>
+        <v>1615</v>
       </c>
       <c r="H2163" t="s">
         <v>9</v>
@@ -61535,7 +61538,7 @@
         <v>3.19000005722046</v>
       </c>
       <c r="G2164" t="s">
-        <v>1615</v>
+        <v>1616</v>
       </c>
       <c r="H2164" t="s">
         <v>9</v>
@@ -61561,7 +61564,7 @@
         <v>3.21199989318848</v>
       </c>
       <c r="G2165" t="s">
-        <v>1616</v>
+        <v>1617</v>
       </c>
       <c r="H2165" t="s">
         <v>9</v>
@@ -61587,7 +61590,7 @@
         <v>3.25799989700317</v>
       </c>
       <c r="G2166" t="s">
-        <v>1617</v>
+        <v>1618</v>
       </c>
       <c r="H2166" t="s">
         <v>9</v>
@@ -61613,7 +61616,7 @@
         <v>3.27999997138977</v>
       </c>
       <c r="G2167" t="s">
-        <v>1618</v>
+        <v>1619</v>
       </c>
       <c r="H2167" t="s">
         <v>9</v>
@@ -61639,7 +61642,7 @@
         <v>3.2720000743866</v>
       </c>
       <c r="G2168" t="s">
-        <v>1619</v>
+        <v>1620</v>
       </c>
       <c r="H2168" t="s">
         <v>9</v>
@@ -61665,7 +61668,7 @@
         <v>3.25999999046326</v>
       </c>
       <c r="G2169" t="s">
-        <v>1620</v>
+        <v>1621</v>
       </c>
       <c r="H2169" t="s">
         <v>9</v>
@@ -61691,7 +61694,7 @@
         <v>3.33200001716614</v>
       </c>
       <c r="G2170" t="s">
-        <v>1621</v>
+        <v>1622</v>
       </c>
       <c r="H2170" t="s">
         <v>9</v>
@@ -61717,7 +61720,7 @@
         <v>3.35400009155273</v>
       </c>
       <c r="G2171" t="s">
-        <v>1622</v>
+        <v>1623</v>
       </c>
       <c r="H2171" t="s">
         <v>9</v>
@@ -61743,7 +61746,7 @@
         <v>3.34200000762939</v>
       </c>
       <c r="G2172" t="s">
-        <v>1623</v>
+        <v>1624</v>
       </c>
       <c r="H2172" t="s">
         <v>9</v>
@@ -61769,7 +61772,7 @@
         <v>3.2960000038147</v>
       </c>
       <c r="G2173" t="s">
-        <v>1624</v>
+        <v>1625</v>
       </c>
       <c r="H2173" t="s">
         <v>9</v>
@@ -61795,7 +61798,7 @@
         <v>3.31599998474121</v>
       </c>
       <c r="G2174" t="s">
-        <v>1625</v>
+        <v>1626</v>
       </c>
       <c r="H2174" t="s">
         <v>9</v>
@@ -61821,7 +61824,7 @@
         <v>3.33999991416931</v>
       </c>
       <c r="G2175" t="s">
-        <v>1626</v>
+        <v>1627</v>
       </c>
       <c r="H2175" t="s">
         <v>9</v>
@@ -61847,7 +61850,7 @@
         <v>3.39199995994568</v>
       </c>
       <c r="G2176" t="s">
-        <v>1627</v>
+        <v>1628</v>
       </c>
       <c r="H2176" t="s">
         <v>9</v>
@@ -61873,7 +61876,7 @@
         <v>3.39000010490417</v>
       </c>
       <c r="G2177" t="s">
-        <v>1628</v>
+        <v>1629</v>
       </c>
       <c r="H2177" t="s">
         <v>9</v>
@@ -61899,7 +61902,7 @@
         <v>3.45199990272522</v>
       </c>
       <c r="G2178" t="s">
-        <v>1629</v>
+        <v>1630</v>
       </c>
       <c r="H2178" t="s">
         <v>9</v>
@@ -61925,7 +61928,7 @@
         <v>3.43799996376038</v>
       </c>
       <c r="G2179" t="s">
-        <v>1630</v>
+        <v>1631</v>
       </c>
       <c r="H2179" t="s">
         <v>9</v>
@@ -61951,7 +61954,7 @@
         <v>3.44799995422363</v>
       </c>
       <c r="G2180" t="s">
-        <v>1631</v>
+        <v>1632</v>
       </c>
       <c r="H2180" t="s">
         <v>9</v>
@@ -61977,7 +61980,7 @@
         <v>3.4760000705719</v>
       </c>
       <c r="G2181" t="s">
-        <v>1632</v>
+        <v>1633</v>
       </c>
       <c r="H2181" t="s">
         <v>9</v>
@@ -62003,7 +62006,7 @@
         <v>3.4760000705719</v>
       </c>
       <c r="G2182" t="s">
-        <v>1632</v>
+        <v>1633</v>
       </c>
       <c r="H2182" t="s">
         <v>9</v>
@@ -62029,7 +62032,7 @@
         <v>3.44600009918213</v>
       </c>
       <c r="G2183" t="s">
-        <v>1633</v>
+        <v>1634</v>
       </c>
       <c r="H2183" t="s">
         <v>9</v>
@@ -62055,7 +62058,7 @@
         <v>3.42600011825562</v>
       </c>
       <c r="G2184" t="s">
-        <v>1634</v>
+        <v>1635</v>
       </c>
       <c r="H2184" t="s">
         <v>9</v>
@@ -62081,7 +62084,7 @@
         <v>3.38000011444092</v>
       </c>
       <c r="G2185" t="s">
-        <v>1635</v>
+        <v>1636</v>
       </c>
       <c r="H2185" t="s">
         <v>9</v>
@@ -62107,7 +62110,7 @@
         <v>3.2960000038147</v>
       </c>
       <c r="G2186" t="s">
-        <v>1624</v>
+        <v>1625</v>
       </c>
       <c r="H2186" t="s">
         <v>9</v>
@@ -62133,7 +62136,7 @@
         <v>3.29399991035461</v>
       </c>
       <c r="G2187" t="s">
-        <v>1636</v>
+        <v>1637</v>
       </c>
       <c r="H2187" t="s">
         <v>9</v>
@@ -62159,7 +62162,7 @@
         <v>3.16199994087219</v>
       </c>
       <c r="G2188" t="s">
-        <v>1637</v>
+        <v>1638</v>
       </c>
       <c r="H2188" t="s">
         <v>9</v>
@@ -62185,7 +62188,7 @@
         <v>3.14800000190735</v>
       </c>
       <c r="G2189" t="s">
-        <v>1638</v>
+        <v>1639</v>
       </c>
       <c r="H2189" t="s">
         <v>9</v>
@@ -62211,7 +62214,7 @@
         <v>3.25</v>
       </c>
       <c r="G2190" t="s">
-        <v>1639</v>
+        <v>1640</v>
       </c>
       <c r="H2190" t="s">
         <v>9</v>
@@ -62237,7 +62240,7 @@
         <v>3.26600003242493</v>
       </c>
       <c r="G2191" t="s">
-        <v>1640</v>
+        <v>1641</v>
       </c>
       <c r="H2191" t="s">
         <v>9</v>
@@ -62263,7 +62266,7 @@
         <v>3.28200006484985</v>
       </c>
       <c r="G2192" t="s">
-        <v>1641</v>
+        <v>1642</v>
       </c>
       <c r="H2192" t="s">
         <v>9</v>
@@ -62271,7 +62274,7 @@
     </row>
     <row r="2193">
       <c r="A2193" s="1" t="n">
-        <v>45516.6494907407</v>
+        <v>45516.2916666667</v>
       </c>
       <c r="B2193" t="n">
         <v>1151866</v>
@@ -62289,9 +62292,35 @@
         <v>3.29399991035461</v>
       </c>
       <c r="G2193" t="s">
-        <v>1636</v>
+        <v>1637</v>
       </c>
       <c r="H2193" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2194">
+      <c r="A2194" s="1" t="n">
+        <v>45517.6495023148</v>
+      </c>
+      <c r="B2194" t="n">
+        <v>1498172</v>
+      </c>
+      <c r="C2194" t="n">
+        <v>3.34599995613098</v>
+      </c>
+      <c r="D2194" t="n">
+        <v>3.28600001335144</v>
+      </c>
+      <c r="E2194" t="n">
+        <v>3.28600001335144</v>
+      </c>
+      <c r="F2194" t="n">
+        <v>3.33999991416931</v>
+      </c>
+      <c r="G2194" t="s">
+        <v>1627</v>
+      </c>
+      <c r="H2194" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/HER.MI.xlsx
+++ b/data/HER.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1648" uniqueCount="1648">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1649" uniqueCount="1649">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,106 +38,106 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">1.77115476131439</t>
+    <t xml:space="preserve">1.77115499973297</t>
   </si>
   <si>
     <t xml:space="preserve">HER.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">1.77260446548462</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76970553398132</t>
+    <t xml:space="preserve">1.77260434627533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76970541477203</t>
   </si>
   <si>
     <t xml:space="preserve">1.77405369281769</t>
   </si>
   <si>
-    <t xml:space="preserve">1.75086343288422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78999710083008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85811805725098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86101734638214</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83637714385986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81173777580261</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76680684089661</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83927607536316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81463670730591</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83202922344208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87261235713959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85666942596436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87116289138794</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90304970741272</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88420736789703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.869713306427</t>
+    <t xml:space="preserve">1.75086331367493</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7899968624115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85811829566956</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86101758480072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83637762069702</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81173801422119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76680660247803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83927643299103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81463658809662</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83202946186066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87261247634888</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85666918754578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87116277217865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90304958820343</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88420712947845</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86971366405487</t>
   </si>
   <si>
     <t xml:space="preserve">1.91754341125488</t>
   </si>
   <si>
-    <t xml:space="preserve">1.92479026317596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90884745121002</t>
+    <t xml:space="preserve">1.92479038238525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90884721279144</t>
   </si>
   <si>
     <t xml:space="preserve">1.8914543390274</t>
   </si>
   <si>
-    <t xml:space="preserve">1.89725196361542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79289603233337</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80594038963318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82478213310242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76245844364166</t>
+    <t xml:space="preserve">1.897252202034</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79289567470551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80594003200531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82478249073029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76245868206024</t>
   </si>
   <si>
     <t xml:space="preserve">1.82043445110321</t>
   </si>
   <si>
-    <t xml:space="preserve">1.8624666929245</t>
+    <t xml:space="preserve">1.86246657371521</t>
   </si>
   <si>
     <t xml:space="preserve">1.84942209720612</t>
   </si>
   <si>
-    <t xml:space="preserve">1.84217500686646</t>
+    <t xml:space="preserve">1.84217512607574</t>
   </si>
   <si>
     <t xml:space="preserve">1.86536538600922</t>
@@ -146,73 +146,73 @@
     <t xml:space="preserve">1.86826419830322</t>
   </si>
   <si>
-    <t xml:space="preserve">1.88855576515198</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89870131015778</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85521948337555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83057975769043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81028831005096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80449080467224</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79434537887573</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8088390827179</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79724407196045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82913053035736</t>
+    <t xml:space="preserve">1.88855528831482</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89870119094849</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85521960258484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83057987689972</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81028842926025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80449092388153</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79434514045715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80883932113647</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79724395275116</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82913076877594</t>
   </si>
   <si>
     <t xml:space="preserve">1.84507369995117</t>
   </si>
   <si>
-    <t xml:space="preserve">1.82623159885406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8407256603241</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86391603946686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90594840049744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87840974330902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92623972892761</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91174602508545</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83347868919373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84797251224518</t>
+    <t xml:space="preserve">1.82623171806335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84072577953339</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86391592025757</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90594863891602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8784099817276</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9262398481369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91174554824829</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83347880840302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84797239303589</t>
   </si>
   <si>
     <t xml:space="preserve">1.85377061367035</t>
   </si>
   <si>
-    <t xml:space="preserve">1.84362435340881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84652328491211</t>
+    <t xml:space="preserve">1.84362459182739</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84652304649353</t>
   </si>
   <si>
     <t xml:space="preserve">1.8755110502243</t>
@@ -221,76 +221,76 @@
     <t xml:space="preserve">1.87696051597595</t>
   </si>
   <si>
-    <t xml:space="preserve">1.85956764221191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85087144374847</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82188332080841</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81318736076355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89435315132141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91464459896088</t>
+    <t xml:space="preserve">1.8595677614212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85087132453918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8218834400177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81318747997284</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89435362815857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91464471817017</t>
   </si>
   <si>
     <t xml:space="preserve">1.90015077590942</t>
   </si>
   <si>
-    <t xml:space="preserve">1.91319561004639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89000499248505</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90160012245178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89290380477905</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88130855560303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.827681183815</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79579448699951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80738961696625</t>
+    <t xml:space="preserve">1.91319525241852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89000475406647</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90160048007965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89290404319763</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88130879402161</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82768130302429</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79579484462738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80738949775696</t>
   </si>
   <si>
     <t xml:space="preserve">1.77550315856934</t>
   </si>
   <si>
-    <t xml:space="preserve">1.82295882701874</t>
+    <t xml:space="preserve">1.82295906543732</t>
   </si>
   <si>
     <t xml:space="preserve">1.83949017524719</t>
   </si>
   <si>
-    <t xml:space="preserve">1.8049248456955</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8244616985321</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7673534154892</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73579335212708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.77336454391479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80342173576355</t>
+    <t xml:space="preserve">1.80492460727692</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82446181774139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76735329627991</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73579347133636</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77336490154266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80342197418213</t>
   </si>
   <si>
     <t xml:space="preserve">1.84700441360474</t>
@@ -302,121 +302,118 @@
     <t xml:space="preserve">1.87555861473083</t>
   </si>
   <si>
-    <t xml:space="preserve">1.87856411933899</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85151290893555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84550166130066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79139924049377</t>
+    <t xml:space="preserve">1.87856459617615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85151302814484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84550201892853</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79139876365662</t>
   </si>
   <si>
     <t xml:space="preserve">1.82596468925476</t>
   </si>
   <si>
-    <t xml:space="preserve">1.81093633174896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83648431301117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83197593688965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82746708393097</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83498156070709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84099304676056</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85001003742218</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90561544895172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92665529251099</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91914141178131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90411245822906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93567287921906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89960408210754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91312968730927</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86353588104248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88758158683777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88006711006165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81394195556641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80943322181702</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8334789276123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84249579906464</t>
+    <t xml:space="preserve">1.81093597412109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83648455142975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83197581768036</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82746720314026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83498132228851</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84099292755127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85000991821289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90561556816101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92665565013885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91914129257202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90411269664764</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9356724023819</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89960443973541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91312992572784</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8635356426239</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88758146762848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88006734848022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81394135951996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80943298339844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84249567985535</t>
   </si>
   <si>
     <t xml:space="preserve">1.85752439498901</t>
   </si>
   <si>
-    <t xml:space="preserve">1.8665417432785</t>
+    <t xml:space="preserve">1.86654162406921</t>
   </si>
   <si>
     <t xml:space="preserve">1.85301601886749</t>
   </si>
   <si>
-    <t xml:space="preserve">1.85602152347565</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88307273387909</t>
+    <t xml:space="preserve">1.85602140426636</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88307285308838</t>
   </si>
   <si>
     <t xml:space="preserve">1.82145595550537</t>
   </si>
   <si>
-    <t xml:space="preserve">1.80041599273682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.77035915851593</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80191898345947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.819953083992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.77486729621887</t>
+    <t xml:space="preserve">1.80041587352753</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77035903930664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80191874504089</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81995320320129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77486765384674</t>
   </si>
   <si>
     <t xml:space="preserve">1.77186191082001</t>
   </si>
   <si>
-    <t xml:space="preserve">1.76585030555725</t>
+    <t xml:space="preserve">1.76585066318512</t>
   </si>
   <si>
     <t xml:space="preserve">1.75533044338226</t>
@@ -425,40 +422,40 @@
     <t xml:space="preserve">1.78087878227234</t>
   </si>
   <si>
-    <t xml:space="preserve">1.75983893871307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69221091270447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.66515970230103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65163385868073</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.638108253479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.66065096855164</t>
+    <t xml:space="preserve">1.75983929634094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69221079349518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.66515946388245</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65163362026215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.63810837268829</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.66065108776093</t>
   </si>
   <si>
     <t xml:space="preserve">1.66966784000397</t>
   </si>
   <si>
-    <t xml:space="preserve">1.67417645454407</t>
+    <t xml:space="preserve">1.67417633533478</t>
   </si>
   <si>
     <t xml:space="preserve">1.6816908121109</t>
   </si>
   <si>
-    <t xml:space="preserve">1.69371378421783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.67868530750275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6997252702713</t>
+    <t xml:space="preserve">1.69371366500854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.67868506908417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69972515106201</t>
   </si>
   <si>
     <t xml:space="preserve">1.69822216033936</t>
@@ -467,43 +464,43 @@
     <t xml:space="preserve">1.71174788475037</t>
   </si>
   <si>
-    <t xml:space="preserve">1.68319356441498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.67567944526672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.67718207836151</t>
+    <t xml:space="preserve">1.68319392204285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.67567932605743</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.67718231678009</t>
   </si>
   <si>
     <t xml:space="preserve">1.686199426651</t>
   </si>
   <si>
-    <t xml:space="preserve">1.72377049922943</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73128461837769</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75082182884216</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6531366109848</t>
+    <t xml:space="preserve">1.72377038002014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73128497600555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75082206726074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65313649177551</t>
   </si>
   <si>
     <t xml:space="preserve">1.62458229064941</t>
   </si>
   <si>
-    <t xml:space="preserve">1.62157666683197</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60053670406342</t>
+    <t xml:space="preserve">1.62157678604126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60053694248199</t>
   </si>
   <si>
     <t xml:space="preserve">1.5148743391037</t>
   </si>
   <si>
-    <t xml:space="preserve">1.51787996292114</t>
+    <t xml:space="preserve">1.51788008213043</t>
   </si>
   <si>
     <t xml:space="preserve">1.49984586238861</t>
@@ -512,43 +509,43 @@
     <t xml:space="preserve">1.49909436702728</t>
   </si>
   <si>
-    <t xml:space="preserve">1.50435447692871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.48331439495087</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.47504866123199</t>
+    <t xml:space="preserve">1.50435435771942</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.48331427574158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.47504878044128</t>
   </si>
   <si>
     <t xml:space="preserve">1.44799745082855</t>
   </si>
   <si>
-    <t xml:space="preserve">1.44649457931519</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.46152305603027</t>
+    <t xml:space="preserve">1.4464944601059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.46152317523956</t>
   </si>
   <si>
     <t xml:space="preserve">1.46528017520905</t>
   </si>
   <si>
-    <t xml:space="preserve">1.45025169849396</t>
+    <t xml:space="preserve">1.45025157928467</t>
   </si>
   <si>
     <t xml:space="preserve">1.45400869846344</t>
   </si>
   <si>
-    <t xml:space="preserve">1.45776605606079</t>
+    <t xml:space="preserve">1.45776581764221</t>
   </si>
   <si>
     <t xml:space="preserve">1.46903741359711</t>
   </si>
   <si>
-    <t xml:space="preserve">1.43296885490417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.40967464447021</t>
+    <t xml:space="preserve">1.43296873569489</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.40967488288879</t>
   </si>
   <si>
     <t xml:space="preserve">1.42846047878265</t>
@@ -557,7 +554,7 @@
     <t xml:space="preserve">1.49233150482178</t>
   </si>
   <si>
-    <t xml:space="preserve">1.53591418266296</t>
+    <t xml:space="preserve">1.53591394424438</t>
   </si>
   <si>
     <t xml:space="preserve">1.54793691635132</t>
@@ -569,31 +566,31 @@
     <t xml:space="preserve">1.59001684188843</t>
   </si>
   <si>
-    <t xml:space="preserve">1.58400559425354</t>
+    <t xml:space="preserve">1.58400535583496</t>
   </si>
   <si>
     <t xml:space="preserve">1.55695414543152</t>
   </si>
   <si>
-    <t xml:space="preserve">1.5629655122757</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60654830932617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.61556506156921</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.62909090518951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65013098716736</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.62758803367615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.64712524414062</t>
+    <t xml:space="preserve">1.56296563148499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60654819011688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.61556529998779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.62909078598022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65013086795807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.62758791446686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.64712500572205</t>
   </si>
   <si>
     <t xml:space="preserve">1.66816508769989</t>
@@ -602,133 +599,133 @@
     <t xml:space="preserve">1.65614235401154</t>
   </si>
   <si>
-    <t xml:space="preserve">1.65914797782898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.62307965755463</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.71325075626373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.70273065567017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7147536277771</t>
+    <t xml:space="preserve">1.65914821624756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.62307953834534</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.71325063705444</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.70273089408875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.71475350856781</t>
   </si>
   <si>
     <t xml:space="preserve">1.71625626087189</t>
   </si>
   <si>
-    <t xml:space="preserve">1.72076487541199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.70122766494751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.70423340797424</t>
+    <t xml:space="preserve">1.7207647562027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7012277841568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.70423376560211</t>
   </si>
   <si>
     <t xml:space="preserve">1.6335996389389</t>
   </si>
   <si>
-    <t xml:space="preserve">1.63660538196564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60955381393433</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.64562249183655</t>
+    <t xml:space="preserve">1.63660526275635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60955393314362</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.64562225341797</t>
   </si>
   <si>
     <t xml:space="preserve">1.69070792198181</t>
   </si>
   <si>
-    <t xml:space="preserve">1.7448103427887</t>
+    <t xml:space="preserve">1.74481070041656</t>
   </si>
   <si>
     <t xml:space="preserve">1.72827923297882</t>
   </si>
   <si>
-    <t xml:space="preserve">1.74030196666718</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75382769107819</t>
+    <t xml:space="preserve">1.74030220508575</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75382781028748</t>
   </si>
   <si>
     <t xml:space="preserve">1.75683355331421</t>
   </si>
   <si>
-    <t xml:space="preserve">1.76134216785431</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75833606719971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7778731584549</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79440486431122</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79891335964203</t>
+    <t xml:space="preserve">1.76134204864502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75833630561829</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77787339687347</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79440414905548</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79891324043274</t>
   </si>
   <si>
     <t xml:space="preserve">1.78388476371765</t>
   </si>
   <si>
-    <t xml:space="preserve">1.78839337825775</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.77937591075897</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78238153457642</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80642735958099</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8485072851181</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85451877117157</t>
+    <t xml:space="preserve">1.78839313983917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77937614917755</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78238201141357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80642759799957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84850740432739</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85451853275299</t>
   </si>
   <si>
     <t xml:space="preserve">1.88156998157501</t>
   </si>
   <si>
-    <t xml:space="preserve">1.89810121059418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93867814540863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.97023832798004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.98526668548584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.98676979541779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95070111751556</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94168412685394</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95971822738647</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.97174119949341</t>
+    <t xml:space="preserve">1.89810132980347</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93867826461792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.97023856639862</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.98526692390442</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9867696762085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95070135593414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94168424606323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95971834659576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9717413187027</t>
   </si>
   <si>
     <t xml:space="preserve">1.97624981403351</t>
   </si>
   <si>
-    <t xml:space="preserve">1.98376429080963</t>
+    <t xml:space="preserve">1.98376417160034</t>
   </si>
   <si>
     <t xml:space="preserve">2.01682686805725</t>
@@ -737,40 +734,40 @@
     <t xml:space="preserve">2.00931239128113</t>
   </si>
   <si>
-    <t xml:space="preserve">1.94919848442078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95370674133301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.00029540061951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96873545646667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95821559429169</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.97324430942535</t>
+    <t xml:space="preserve">1.94919860363007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95370638370514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.00029492378235</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96873533725739</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95821535587311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.97324407100677</t>
   </si>
   <si>
     <t xml:space="preserve">1.98827242851257</t>
   </si>
   <si>
-    <t xml:space="preserve">1.99578678607941</t>
+    <t xml:space="preserve">1.99578666687012</t>
   </si>
   <si>
     <t xml:space="preserve">2.00780963897705</t>
   </si>
   <si>
-    <t xml:space="preserve">2.01081538200378</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.02133536338806</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.06942677497864</t>
+    <t xml:space="preserve">2.01081562042236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.02133512496948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.06942629814148</t>
   </si>
   <si>
     <t xml:space="preserve">2.10399198532104</t>
@@ -779,13 +776,13 @@
     <t xml:space="preserve">2.1340491771698</t>
   </si>
   <si>
-    <t xml:space="preserve">2.14607191085815</t>
+    <t xml:space="preserve">2.14607167243958</t>
   </si>
   <si>
     <t xml:space="preserve">2.12803769111633</t>
   </si>
   <si>
-    <t xml:space="preserve">2.18063735961914</t>
+    <t xml:space="preserve">2.18063712120056</t>
   </si>
   <si>
     <t xml:space="preserve">2.14156317710876</t>
@@ -794,73 +791,76 @@
     <t xml:space="preserve">2.11451196670532</t>
   </si>
   <si>
-    <t xml:space="preserve">2.15058016777039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.1641058921814</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.20768880844116</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.19115734100342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.18965482711792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.17913484573364</t>
+    <t xml:space="preserve">2.15058040618896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16410613059998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.20768857002258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.191157579422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.18965458869934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.17913508415222</t>
   </si>
   <si>
     <t xml:space="preserve">2.13104343414307</t>
   </si>
   <si>
-    <t xml:space="preserve">2.16711187362671</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.20167756080627</t>
+    <t xml:space="preserve">2.16711163520813</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.2016773223877</t>
   </si>
   <si>
     <t xml:space="preserve">2.15659165382385</t>
   </si>
   <si>
-    <t xml:space="preserve">2.18214058876038</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.19867181777954</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.18664908409119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.22722601890564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.21219706535339</t>
+    <t xml:space="preserve">2.1821403503418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.19867205619812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.18664884567261</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.22722578048706</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.21219754219055</t>
   </si>
   <si>
     <t xml:space="preserve">2.2347400188446</t>
   </si>
   <si>
-    <t xml:space="preserve">2.22271728515625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.23624300956726</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.24864077568054</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.2594883441925</t>
+    <t xml:space="preserve">2.22271704673767</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.23624277114868</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.24864053726196</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.25948882102966</t>
   </si>
   <si>
     <t xml:space="preserve">2.25328993797302</t>
   </si>
   <si>
+    <t xml:space="preserve">2.2362425327301</t>
+  </si>
+  <si>
     <t xml:space="preserve">2.17735385894775</t>
   </si>
   <si>
-    <t xml:space="preserve">2.1913013458252</t>
+    <t xml:space="preserve">2.19130110740662</t>
   </si>
   <si>
     <t xml:space="preserve">2.14945888519287</t>
@@ -869,16 +869,16 @@
     <t xml:space="preserve">2.13551139831543</t>
   </si>
   <si>
-    <t xml:space="preserve">2.09211945533752</t>
+    <t xml:space="preserve">2.09211921691895</t>
   </si>
   <si>
     <t xml:space="preserve">2.0735228061676</t>
   </si>
   <si>
-    <t xml:space="preserve">2.08592057228088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.08282089233398</t>
+    <t xml:space="preserve">2.08592009544373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.08282113075256</t>
   </si>
   <si>
     <t xml:space="preserve">2.07197308540344</t>
@@ -887,10 +887,10 @@
     <t xml:space="preserve">2.02393174171448</t>
   </si>
   <si>
-    <t xml:space="preserve">2.04407811164856</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.07972145080566</t>
+    <t xml:space="preserve">2.04407787322998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.07972168922424</t>
   </si>
   <si>
     <t xml:space="preserve">2.05647563934326</t>
@@ -899,10 +899,10 @@
     <t xml:space="preserve">2.10606670379639</t>
   </si>
   <si>
-    <t xml:space="preserve">2.12931203842163</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.11536526679993</t>
+    <t xml:space="preserve">2.12931251525879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.11536478996277</t>
   </si>
   <si>
     <t xml:space="preserve">2.10761642456055</t>
@@ -911,7 +911,7 @@
     <t xml:space="preserve">2.12156391143799</t>
   </si>
   <si>
-    <t xml:space="preserve">2.09986758232117</t>
+    <t xml:space="preserve">2.09986805915833</t>
   </si>
   <si>
     <t xml:space="preserve">2.13861083984375</t>
@@ -926,43 +926,43 @@
     <t xml:space="preserve">2.0890200138092</t>
   </si>
   <si>
-    <t xml:space="preserve">2.13086247444153</t>
+    <t xml:space="preserve">2.13086223602295</t>
   </si>
   <si>
     <t xml:space="preserve">2.12001419067383</t>
   </si>
   <si>
-    <t xml:space="preserve">2.11846446990967</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.11226558685303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.12466311454773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.12621307373047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.07662200927734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.13241219520569</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.11071586608887</t>
+    <t xml:space="preserve">2.11846423149109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.11226534843445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.12466359138489</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.12621283531189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.07662224769592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.13241195678711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.11071562767029</t>
   </si>
   <si>
     <t xml:space="preserve">2.06887364387512</t>
   </si>
   <si>
-    <t xml:space="preserve">2.04872727394104</t>
+    <t xml:space="preserve">2.04872751235962</t>
   </si>
   <si>
     <t xml:space="preserve">2.0347797870636</t>
   </si>
   <si>
-    <t xml:space="preserve">2.04097843170166</t>
+    <t xml:space="preserve">2.04097867012024</t>
   </si>
   <si>
     <t xml:space="preserve">2.10141754150391</t>
@@ -974,7 +974,7 @@
     <t xml:space="preserve">2.08437061309814</t>
   </si>
   <si>
-    <t xml:space="preserve">2.0781717300415</t>
+    <t xml:space="preserve">2.07817149162292</t>
   </si>
   <si>
     <t xml:space="preserve">2.15565776824951</t>
@@ -983,19 +983,19 @@
     <t xml:space="preserve">2.09366893768311</t>
   </si>
   <si>
-    <t xml:space="preserve">2.07507228851318</t>
+    <t xml:space="preserve">2.07507252693176</t>
   </si>
   <si>
     <t xml:space="preserve">2.05957531929016</t>
   </si>
   <si>
-    <t xml:space="preserve">2.0611252784729</t>
+    <t xml:space="preserve">2.06112504005432</t>
   </si>
   <si>
     <t xml:space="preserve">2.04562783241272</t>
   </si>
   <si>
-    <t xml:space="preserve">2.09676837921143</t>
+    <t xml:space="preserve">2.09676861763</t>
   </si>
   <si>
     <t xml:space="preserve">2.11381530761719</t>
@@ -1010,10 +1010,10 @@
     <t xml:space="preserve">2.15100860595703</t>
   </si>
   <si>
-    <t xml:space="preserve">2.14326000213623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.14016079902649</t>
+    <t xml:space="preserve">2.14326024055481</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.14016056060791</t>
   </si>
   <si>
     <t xml:space="preserve">2.15255832672119</t>
@@ -1025,22 +1025,22 @@
     <t xml:space="preserve">2.18510246276855</t>
   </si>
   <si>
-    <t xml:space="preserve">2.20369911193848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.23004412651062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.24089241027832</t>
+    <t xml:space="preserve">2.20369935035706</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.2300443649292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.24089193344116</t>
   </si>
   <si>
     <t xml:space="preserve">2.26258826255798</t>
   </si>
   <si>
-    <t xml:space="preserve">2.27808570861816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.26878714561462</t>
+    <t xml:space="preserve">2.27808523178101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.2687873840332</t>
   </si>
   <si>
     <t xml:space="preserve">2.26103854179382</t>
@@ -1049,13 +1049,13 @@
     <t xml:space="preserve">2.24709129333496</t>
   </si>
   <si>
-    <t xml:space="preserve">2.25174021720886</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.27343654632568</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.27498579025269</t>
+    <t xml:space="preserve">2.25173997879028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.2734363079071</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.27498626708984</t>
   </si>
   <si>
     <t xml:space="preserve">2.27653574943542</t>
@@ -1064,13 +1064,13 @@
     <t xml:space="preserve">2.30753016471863</t>
   </si>
   <si>
-    <t xml:space="preserve">2.35557126998901</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.34007406234741</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.34317326545715</t>
+    <t xml:space="preserve">2.35557150840759</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.34007430076599</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.34317350387573</t>
   </si>
   <si>
     <t xml:space="preserve">2.36641931533813</t>
@@ -1082,19 +1082,19 @@
     <t xml:space="preserve">2.3912148475647</t>
   </si>
   <si>
-    <t xml:space="preserve">2.38656544685364</t>
+    <t xml:space="preserve">2.38656568527222</t>
   </si>
   <si>
     <t xml:space="preserve">2.4268581867218</t>
   </si>
   <si>
-    <t xml:space="preserve">2.37416815757751</t>
+    <t xml:space="preserve">2.37416791915894</t>
   </si>
   <si>
     <t xml:space="preserve">2.35867071151733</t>
   </si>
   <si>
-    <t xml:space="preserve">2.38966536521912</t>
+    <t xml:space="preserve">2.3896656036377</t>
   </si>
   <si>
     <t xml:space="preserve">2.40206265449524</t>
@@ -1103,13 +1103,13 @@
     <t xml:space="preserve">2.33852434158325</t>
   </si>
   <si>
-    <t xml:space="preserve">2.34162378311157</t>
+    <t xml:space="preserve">2.34162402153015</t>
   </si>
   <si>
     <t xml:space="preserve">2.36331987380981</t>
   </si>
   <si>
-    <t xml:space="preserve">2.31217956542969</t>
+    <t xml:space="preserve">2.31217908859253</t>
   </si>
   <si>
     <t xml:space="preserve">2.30907988548279</t>
@@ -1118,7 +1118,7 @@
     <t xml:space="preserve">2.30133104324341</t>
   </si>
   <si>
-    <t xml:space="preserve">2.2548394203186</t>
+    <t xml:space="preserve">2.25483965873718</t>
   </si>
   <si>
     <t xml:space="preserve">2.2346932888031</t>
@@ -1130,19 +1130,19 @@
     <t xml:space="preserve">2.34472346305847</t>
   </si>
   <si>
-    <t xml:space="preserve">2.39741373062134</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.32457685470581</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.35402202606201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.32147717475891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.36177039146423</t>
+    <t xml:space="preserve">2.39741396903992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.32457709312439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.35402178764343</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.32147765159607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.36177015304565</t>
   </si>
   <si>
     <t xml:space="preserve">2.37106847763062</t>
@@ -1151,7 +1151,7 @@
     <t xml:space="preserve">2.38501596450806</t>
   </si>
   <si>
-    <t xml:space="preserve">2.33077549934387</t>
+    <t xml:space="preserve">2.33077573776245</t>
   </si>
   <si>
     <t xml:space="preserve">2.36486959457397</t>
@@ -1163,16 +1163,16 @@
     <t xml:space="preserve">2.26568794250488</t>
   </si>
   <si>
-    <t xml:space="preserve">2.2145471572876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.18975138664246</t>
+    <t xml:space="preserve">2.21454691886902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.18975162506104</t>
   </si>
   <si>
     <t xml:space="preserve">2.13396167755127</t>
   </si>
   <si>
-    <t xml:space="preserve">2.10451722145081</t>
+    <t xml:space="preserve">2.10451698303223</t>
   </si>
   <si>
     <t xml:space="preserve">2.17270445823669</t>
@@ -1184,25 +1184,25 @@
     <t xml:space="preserve">2.21299719810486</t>
   </si>
   <si>
-    <t xml:space="preserve">2.17115473747253</t>
+    <t xml:space="preserve">2.17115497589111</t>
   </si>
   <si>
     <t xml:space="preserve">2.14635920524597</t>
   </si>
   <si>
-    <t xml:space="preserve">2.11691474914551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16340637207031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16030716896057</t>
+    <t xml:space="preserve">2.11691498756409</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16340613365173</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16030693054199</t>
   </si>
   <si>
     <t xml:space="preserve">2.15875720977783</t>
   </si>
   <si>
-    <t xml:space="preserve">2.18045330047607</t>
+    <t xml:space="preserve">2.1804530620575</t>
   </si>
   <si>
     <t xml:space="preserve">2.17580413818359</t>
@@ -1211,13 +1211,13 @@
     <t xml:space="preserve">2.199049949646</t>
   </si>
   <si>
-    <t xml:space="preserve">2.29513216018677</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.30443024635315</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.31372904777527</t>
+    <t xml:space="preserve">2.29513239860535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.30443048477173</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.31372928619385</t>
   </si>
   <si>
     <t xml:space="preserve">2.32612657546997</t>
@@ -1232,7 +1232,7 @@
     <t xml:space="preserve">2.33697462081909</t>
   </si>
   <si>
-    <t xml:space="preserve">2.37881755828857</t>
+    <t xml:space="preserve">2.37881684303284</t>
   </si>
   <si>
     <t xml:space="preserve">2.3834662437439</t>
@@ -1241,19 +1241,19 @@
     <t xml:space="preserve">2.36951899528503</t>
   </si>
   <si>
-    <t xml:space="preserve">2.31062960624695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.33542513847351</t>
+    <t xml:space="preserve">2.31062984466553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.33542490005493</t>
   </si>
   <si>
     <t xml:space="preserve">2.22074580192566</t>
   </si>
   <si>
-    <t xml:space="preserve">2.200599193573</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.09831809997559</t>
+    <t xml:space="preserve">2.20059943199158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.09831833839417</t>
   </si>
   <si>
     <t xml:space="preserve">2.019282579422</t>
@@ -1262,10 +1262,10 @@
     <t xml:space="preserve">2.03787922859192</t>
   </si>
   <si>
-    <t xml:space="preserve">2.0549259185791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.04252815246582</t>
+    <t xml:space="preserve">2.05492615699768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.04252791404724</t>
   </si>
   <si>
     <t xml:space="preserve">2.05182671546936</t>
@@ -1274,25 +1274,25 @@
     <t xml:space="preserve">2.02083206176758</t>
   </si>
   <si>
-    <t xml:space="preserve">2.1041088104248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.1378390789032</t>
+    <t xml:space="preserve">2.10410904884338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.13783931732178</t>
   </si>
   <si>
     <t xml:space="preserve">2.14908266067505</t>
   </si>
   <si>
-    <t xml:space="preserve">2.11374616622925</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.11695861816406</t>
+    <t xml:space="preserve">2.11374640464783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.11695837974548</t>
   </si>
   <si>
     <t xml:space="preserve">2.15068864822388</t>
   </si>
   <si>
-    <t xml:space="preserve">2.13623332977295</t>
+    <t xml:space="preserve">2.13623309135437</t>
   </si>
   <si>
     <t xml:space="preserve">2.16675043106079</t>
@@ -1301,13 +1301,13 @@
     <t xml:space="preserve">2.14426398277283</t>
   </si>
   <si>
-    <t xml:space="preserve">2.18441891670227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.21493625640869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.23421049118042</t>
+    <t xml:space="preserve">2.18441867828369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.21493601799011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.234210729599</t>
   </si>
   <si>
     <t xml:space="preserve">2.24063515663147</t>
@@ -1316,7 +1316,7 @@
     <t xml:space="preserve">2.22457337379456</t>
   </si>
   <si>
-    <t xml:space="preserve">2.2165424823761</t>
+    <t xml:space="preserve">2.21654224395752</t>
   </si>
   <si>
     <t xml:space="preserve">2.22778582572937</t>
@@ -1328,7 +1328,7 @@
     <t xml:space="preserve">2.24866628646851</t>
   </si>
   <si>
-    <t xml:space="preserve">2.25348472595215</t>
+    <t xml:space="preserve">2.25348496437073</t>
   </si>
   <si>
     <t xml:space="preserve">2.23260450363159</t>
@@ -1337,13 +1337,13 @@
     <t xml:space="preserve">2.18281245231628</t>
   </si>
   <si>
-    <t xml:space="preserve">2.16996264457703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.28882074356079</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.25187849998474</t>
+    <t xml:space="preserve">2.16996288299561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.28882098197937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.25187873840332</t>
   </si>
   <si>
     <t xml:space="preserve">2.27757787704468</t>
@@ -1358,55 +1358,55 @@
     <t xml:space="preserve">2.29845809936523</t>
   </si>
   <si>
-    <t xml:space="preserve">2.264728307724</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.24384760856628</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.23099803924561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.21172404289246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.20529937744141</t>
+    <t xml:space="preserve">2.26472806930542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.24384784698486</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.23099827766418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.21172380447388</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.20529913902283</t>
   </si>
   <si>
     <t xml:space="preserve">2.19887447357178</t>
   </si>
   <si>
-    <t xml:space="preserve">2.24706029891968</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.23742318153381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.22939205169678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.17478132247925</t>
+    <t xml:space="preserve">2.2470600605011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.23742294311523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.22939229011536</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.17478156089783</t>
   </si>
   <si>
     <t xml:space="preserve">2.17799377441406</t>
   </si>
   <si>
-    <t xml:space="preserve">2.16835689544678</t>
+    <t xml:space="preserve">2.1683566570282</t>
   </si>
   <si>
     <t xml:space="preserve">2.18602466583252</t>
   </si>
   <si>
-    <t xml:space="preserve">2.20369291305542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.20690536499023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.26954698562622</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.28239607810974</t>
+    <t xml:space="preserve">2.203693151474</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.20690512657166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.26954650878906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.2823965549469</t>
   </si>
   <si>
     <t xml:space="preserve">2.27918386459351</t>
@@ -1415,25 +1415,25 @@
     <t xml:space="preserve">2.28400230407715</t>
   </si>
   <si>
-    <t xml:space="preserve">2.2904269695282</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.29363942146301</t>
+    <t xml:space="preserve">2.29042720794678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.29363965988159</t>
   </si>
   <si>
     <t xml:space="preserve">2.25669717788696</t>
   </si>
   <si>
-    <t xml:space="preserve">2.20048069953918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.19566202163696</t>
+    <t xml:space="preserve">2.20048046112061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.19566178321838</t>
   </si>
   <si>
     <t xml:space="preserve">2.15390110015869</t>
   </si>
   <si>
-    <t xml:space="preserve">2.14587020874023</t>
+    <t xml:space="preserve">2.14586973190308</t>
   </si>
   <si>
     <t xml:space="preserve">2.12820219993591</t>
@@ -1445,58 +1445,58 @@
     <t xml:space="preserve">2.03504300117493</t>
   </si>
   <si>
-    <t xml:space="preserve">2.05592322349548</t>
+    <t xml:space="preserve">2.05592346191406</t>
   </si>
   <si>
     <t xml:space="preserve">2.00934410095215</t>
   </si>
   <si>
-    <t xml:space="preserve">1.97400784492493</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93224668502808</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.98685765266418</t>
+    <t xml:space="preserve">1.97400772571564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93224656581879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.98685741424561</t>
   </si>
   <si>
     <t xml:space="preserve">1.94188404083252</t>
   </si>
   <si>
-    <t xml:space="preserve">1.96437060832977</t>
+    <t xml:space="preserve">1.96437048912048</t>
   </si>
   <si>
     <t xml:space="preserve">1.97240173816681</t>
   </si>
   <si>
-    <t xml:space="preserve">1.94027781486511</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92903423309326</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.99970698356628</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96758306026459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96115839481354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94991505146027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95955216884613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95794570446014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.97561383247375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.99328231811523</t>
+    <t xml:space="preserve">1.94027757644653</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92903447151184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.99970686435699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96758317947388</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96115803718567</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94991481304169</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95955204963684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95794582366943</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.97561419010162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.99328196048737</t>
   </si>
   <si>
     <t xml:space="preserve">2.03986144065857</t>
@@ -1508,10 +1508,10 @@
     <t xml:space="preserve">2.05271124839783</t>
   </si>
   <si>
-    <t xml:space="preserve">2.0430736541748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.05110478401184</t>
+    <t xml:space="preserve">2.04307389259338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.05110502243042</t>
   </si>
   <si>
     <t xml:space="preserve">2.01416254043579</t>
@@ -1520,31 +1520,31 @@
     <t xml:space="preserve">2.00291919708252</t>
   </si>
   <si>
-    <t xml:space="preserve">1.99649477005005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.99167585372925</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96276438236237</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.98043251037598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94830882549286</t>
+    <t xml:space="preserve">1.99649465084076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.99167609214783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96276450157166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.98043274879456</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94830858707428</t>
   </si>
   <si>
     <t xml:space="preserve">2.01095008850098</t>
   </si>
   <si>
-    <t xml:space="preserve">1.93867182731628</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.02058720588684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.06074190139771</t>
+    <t xml:space="preserve">1.93867158889771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.02058744430542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.06074213981628</t>
   </si>
   <si>
     <t xml:space="preserve">2.17156910896301</t>
@@ -1559,10 +1559,10 @@
     <t xml:space="preserve">2.17638778686523</t>
   </si>
   <si>
-    <t xml:space="preserve">2.16032552719116</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.27275943756104</t>
+    <t xml:space="preserve">2.16032576560974</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.27275896072388</t>
   </si>
   <si>
     <t xml:space="preserve">2.27597165107727</t>
@@ -1571,13 +1571,13 @@
     <t xml:space="preserve">2.25990962982178</t>
   </si>
   <si>
-    <t xml:space="preserve">2.28721475601196</t>
+    <t xml:space="preserve">2.28721499443054</t>
   </si>
   <si>
     <t xml:space="preserve">2.29203343391418</t>
   </si>
   <si>
-    <t xml:space="preserve">2.31291389465332</t>
+    <t xml:space="preserve">2.3129141330719</t>
   </si>
   <si>
     <t xml:space="preserve">2.28560853004456</t>
@@ -1610,7 +1610,7 @@
     <t xml:space="preserve">2.37555527687073</t>
   </si>
   <si>
-    <t xml:space="preserve">2.35467457771301</t>
+    <t xml:space="preserve">2.35467481613159</t>
   </si>
   <si>
     <t xml:space="preserve">2.34021925926208</t>
@@ -1622,46 +1622,46 @@
     <t xml:space="preserve">2.38840484619141</t>
   </si>
   <si>
-    <t xml:space="preserve">2.386798620224</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.39322352409363</t>
+    <t xml:space="preserve">2.38679885864258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.39322328567505</t>
   </si>
   <si>
     <t xml:space="preserve">2.38358616828918</t>
   </si>
   <si>
-    <t xml:space="preserve">2.3739492893219</t>
+    <t xml:space="preserve">2.37394905090332</t>
   </si>
   <si>
     <t xml:space="preserve">2.34343147277832</t>
   </si>
   <si>
-    <t xml:space="preserve">2.41089153289795</t>
+    <t xml:space="preserve">2.41089177131653</t>
   </si>
   <si>
     <t xml:space="preserve">2.37716174125671</t>
   </si>
   <si>
-    <t xml:space="preserve">2.33861303329468</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.35306835174561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.34985613822937</t>
+    <t xml:space="preserve">2.3386127948761</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.35306859016418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.34985637664795</t>
   </si>
   <si>
     <t xml:space="preserve">2.38519239425659</t>
   </si>
   <si>
-    <t xml:space="preserve">2.38198018074036</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.39964818954468</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.40767908096313</t>
+    <t xml:space="preserve">2.38198041915894</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.3996479511261</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.40767884254456</t>
   </si>
   <si>
     <t xml:space="preserve">2.34182524681091</t>
@@ -1670,22 +1670,22 @@
     <t xml:space="preserve">2.32255101203918</t>
   </si>
   <si>
-    <t xml:space="preserve">2.43177199363708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.46871423721313</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.47032070159912</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.49280738830566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.51850652694702</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.52171874046326</t>
+    <t xml:space="preserve">2.43177223205566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.46871399879456</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.47032046318054</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.49280714988708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.51850605010986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.52171850204468</t>
   </si>
   <si>
     <t xml:space="preserve">2.56829810142517</t>
@@ -1694,19 +1694,19 @@
     <t xml:space="preserve">2.5875723361969</t>
   </si>
   <si>
-    <t xml:space="preserve">2.58275389671326</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.58917880058289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.60202789306641</t>
+    <t xml:space="preserve">2.58275413513184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.58917856216431</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.60202813148499</t>
   </si>
   <si>
     <t xml:space="preserve">2.64378905296326</t>
   </si>
   <si>
-    <t xml:space="preserve">2.61487770080566</t>
+    <t xml:space="preserve">2.61487746238708</t>
   </si>
   <si>
     <t xml:space="preserve">2.59560346603394</t>
@@ -1715,19 +1715,19 @@
     <t xml:space="preserve">2.61005902290344</t>
   </si>
   <si>
-    <t xml:space="preserve">2.55384230613708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.57151055335999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.5570547580719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.52493119239807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.54099297523499</t>
+    <t xml:space="preserve">2.55384254455566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.57151031494141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.55705499649048</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.52493095397949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.54099273681641</t>
   </si>
   <si>
     <t xml:space="preserve">2.54420518875122</t>
@@ -1745,19 +1745,19 @@
     <t xml:space="preserve">2.56347942352295</t>
   </si>
   <si>
-    <t xml:space="preserve">2.55063009262085</t>
+    <t xml:space="preserve">2.55062985420227</t>
   </si>
   <si>
     <t xml:space="preserve">2.51690006256104</t>
   </si>
   <si>
-    <t xml:space="preserve">2.539386510849</t>
+    <t xml:space="preserve">2.53938674926758</t>
   </si>
   <si>
     <t xml:space="preserve">2.52011251449585</t>
   </si>
   <si>
-    <t xml:space="preserve">2.57954144477844</t>
+    <t xml:space="preserve">2.5795419216156</t>
   </si>
   <si>
     <t xml:space="preserve">2.62451457977295</t>
@@ -1769,10 +1769,10 @@
     <t xml:space="preserve">2.6357581615448</t>
   </si>
   <si>
-    <t xml:space="preserve">2.63897037506104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.65182018280029</t>
+    <t xml:space="preserve">2.63897061347961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.65181994438171</t>
   </si>
   <si>
     <t xml:space="preserve">2.65342617034912</t>
@@ -1781,22 +1781,22 @@
     <t xml:space="preserve">2.63093948364258</t>
   </si>
   <si>
-    <t xml:space="preserve">2.62933301925659</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.62290859222412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.61166524887085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.65985107421875</t>
+    <t xml:space="preserve">2.62933349609375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.6229088306427</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.61166548728943</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.65985083580017</t>
   </si>
   <si>
     <t xml:space="preserve">2.68715620040894</t>
   </si>
   <si>
-    <t xml:space="preserve">2.70000576972961</t>
+    <t xml:space="preserve">2.70000553131104</t>
   </si>
   <si>
     <t xml:space="preserve">2.70161199569702</t>
@@ -1805,31 +1805,31 @@
     <t xml:space="preserve">2.6967933177948</t>
   </si>
   <si>
-    <t xml:space="preserve">2.69839954376221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.68554997444153</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.68233752250671</t>
+    <t xml:space="preserve">2.69839930534363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.68555021286011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.68233776092529</t>
   </si>
   <si>
     <t xml:space="preserve">2.74497890472412</t>
   </si>
   <si>
-    <t xml:space="preserve">2.75140404701233</t>
+    <t xml:space="preserve">2.75140380859375</t>
   </si>
   <si>
     <t xml:space="preserve">2.78513383865356</t>
   </si>
   <si>
-    <t xml:space="preserve">2.81725764274597</t>
+    <t xml:space="preserve">2.81725740432739</t>
   </si>
   <si>
     <t xml:space="preserve">2.79741787910461</t>
   </si>
   <si>
-    <t xml:space="preserve">2.77923130989075</t>
+    <t xml:space="preserve">2.77923107147217</t>
   </si>
   <si>
     <t xml:space="preserve">2.78253769874573</t>
@@ -1838,31 +1838,31 @@
     <t xml:space="preserve">2.74947142601013</t>
   </si>
   <si>
-    <t xml:space="preserve">2.78088450431824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.76600480079651</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.83213782310486</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.91645669937134</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.91315007209778</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.88835048675537</t>
+    <t xml:space="preserve">2.78088474273682</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.76600456237793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.8321373462677</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.91645693778992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.91315031051636</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.88835024833679</t>
   </si>
   <si>
     <t xml:space="preserve">2.87677717208862</t>
   </si>
   <si>
-    <t xml:space="preserve">2.88669729232788</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.90157675743103</t>
+    <t xml:space="preserve">2.8866970539093</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.90157699584961</t>
   </si>
   <si>
     <t xml:space="preserve">2.89992356300354</t>
@@ -1874,16 +1874,16 @@
     <t xml:space="preserve">2.91149687767029</t>
   </si>
   <si>
-    <t xml:space="preserve">2.86189723014832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.84701752662659</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.85197758674622</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.83379101753235</t>
+    <t xml:space="preserve">2.86189746856689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.84701728820801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.85197734832764</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.83379077911377</t>
   </si>
   <si>
     <t xml:space="preserve">2.83048415184021</t>
@@ -1895,7 +1895,7 @@
     <t xml:space="preserve">2.76931142807007</t>
   </si>
   <si>
-    <t xml:space="preserve">2.78584480285645</t>
+    <t xml:space="preserve">2.78584456443787</t>
   </si>
   <si>
     <t xml:space="preserve">2.8387508392334</t>
@@ -1904,16 +1904,16 @@
     <t xml:space="preserve">2.81229758262634</t>
   </si>
   <si>
-    <t xml:space="preserve">2.79576468467712</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.80733776092529</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.82883095741272</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.8056845664978</t>
+    <t xml:space="preserve">2.79576444625854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.80733752250671</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.82883071899414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.80568432807922</t>
   </si>
   <si>
     <t xml:space="preserve">2.83709740638733</t>
@@ -1922,13 +1922,13 @@
     <t xml:space="preserve">2.78749799728394</t>
   </si>
   <si>
-    <t xml:space="preserve">2.86520409584045</t>
+    <t xml:space="preserve">2.86520385742188</t>
   </si>
   <si>
     <t xml:space="preserve">2.89165711402893</t>
   </si>
   <si>
-    <t xml:space="preserve">2.88173723220825</t>
+    <t xml:space="preserve">2.88173699378967</t>
   </si>
   <si>
     <t xml:space="preserve">2.89000391960144</t>
@@ -1940,7 +1940,7 @@
     <t xml:space="preserve">2.98920297622681</t>
   </si>
   <si>
-    <t xml:space="preserve">2.98589634895325</t>
+    <t xml:space="preserve">2.98589611053467</t>
   </si>
   <si>
     <t xml:space="preserve">3.02392268180847</t>
@@ -1958,10 +1958,10 @@
     <t xml:space="preserve">3.02557635307312</t>
   </si>
   <si>
-    <t xml:space="preserve">3.00408315658569</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.90488362312317</t>
+    <t xml:space="preserve">3.00408267974854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.90488338470459</t>
   </si>
   <si>
     <t xml:space="preserve">2.89661693572998</t>
@@ -1970,7 +1970,7 @@
     <t xml:space="preserve">2.951176404953</t>
   </si>
   <si>
-    <t xml:space="preserve">2.92306995391846</t>
+    <t xml:space="preserve">2.92307019233704</t>
   </si>
   <si>
     <t xml:space="preserve">2.9263768196106</t>
@@ -1982,40 +1982,40 @@
     <t xml:space="preserve">3.01565599441528</t>
   </si>
   <si>
-    <t xml:space="preserve">3.0123496055603</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.97597646713257</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.0619490146637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.06029558181763</t>
+    <t xml:space="preserve">3.01234936714172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.97597622871399</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.06194877624512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.06029582023621</t>
   </si>
   <si>
     <t xml:space="preserve">3.13304162025452</t>
   </si>
   <si>
-    <t xml:space="preserve">3.07517576217651</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.11320209503174</t>
+    <t xml:space="preserve">3.07517552375793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.11320233345032</t>
   </si>
   <si>
     <t xml:space="preserve">3.06690907478333</t>
   </si>
   <si>
-    <t xml:space="preserve">3.08178877830505</t>
+    <t xml:space="preserve">3.08178901672363</t>
   </si>
   <si>
     <t xml:space="preserve">3.12808179855347</t>
   </si>
   <si>
-    <t xml:space="preserve">3.13469529151917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.1165087223053</t>
+    <t xml:space="preserve">3.13469505310059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.11650848388672</t>
   </si>
   <si>
     <t xml:space="preserve">3.09005546569824</t>
@@ -2024,79 +2024,79 @@
     <t xml:space="preserve">3.11485505104065</t>
   </si>
   <si>
-    <t xml:space="preserve">3.12642884254456</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.09501528739929</t>
+    <t xml:space="preserve">3.12642860412598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.09501552581787</t>
   </si>
   <si>
     <t xml:space="preserve">3.13634848594666</t>
   </si>
   <si>
-    <t xml:space="preserve">3.10824227333069</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.07682871818542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.10493540763855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.11816215515137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.15949487686157</t>
+    <t xml:space="preserve">3.10824179649353</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.076828956604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.10493564605713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.11816191673279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.15949511528015</t>
   </si>
   <si>
     <t xml:space="preserve">3.17272138595581</t>
   </si>
   <si>
-    <t xml:space="preserve">3.16280174255371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.18429493904114</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.14296197891235</t>
+    <t xml:space="preserve">3.16280150413513</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.18429470062256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.14296174049377</t>
   </si>
   <si>
     <t xml:space="preserve">3.16776156425476</t>
   </si>
   <si>
-    <t xml:space="preserve">3.18098783493042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.16610836982727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.18760108947754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.18925476074219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.21570777893066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.29176044464111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.31656050682068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.31325340270996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.33805370330811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.31490707397461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.28018712997437</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.29837369918823</t>
+    <t xml:space="preserve">3.18098831176758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.16610813140869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.18760132789612</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.18925452232361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.21570801734924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.29176068305969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.31656074523926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.31325364112854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.33805346488953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.31490731239319</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.28018736839294</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.29837393760681</t>
   </si>
   <si>
     <t xml:space="preserve">3.27357387542725</t>
@@ -2111,52 +2111,52 @@
     <t xml:space="preserve">3.30994725227356</t>
   </si>
   <si>
-    <t xml:space="preserve">3.17602801322937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.202481508255</t>
+    <t xml:space="preserve">3.17602825164795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.20248126983643</t>
   </si>
   <si>
     <t xml:space="preserve">3.24050760269165</t>
   </si>
   <si>
-    <t xml:space="preserve">3.21736097335815</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.21074771881104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.18594813346863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.21901416778564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.22728085517883</t>
+    <t xml:space="preserve">3.21736121177673</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.21074795722961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.18594789505005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.21901440620422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.22728109359741</t>
   </si>
   <si>
     <t xml:space="preserve">3.17437481880188</t>
   </si>
   <si>
-    <t xml:space="preserve">3.24381446838379</t>
+    <t xml:space="preserve">3.24381422996521</t>
   </si>
   <si>
     <t xml:space="preserve">3.29010725021362</t>
   </si>
   <si>
-    <t xml:space="preserve">3.28680038452148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.28184056282043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.34136009216309</t>
+    <t xml:space="preserve">3.28680062294006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.28184080123901</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.34135985374451</t>
   </si>
   <si>
     <t xml:space="preserve">3.27853417396545</t>
   </si>
   <si>
-    <t xml:space="preserve">3.2834939956665</t>
+    <t xml:space="preserve">3.28349375724792</t>
   </si>
   <si>
     <t xml:space="preserve">3.22397446632385</t>
@@ -2165,7 +2165,7 @@
     <t xml:space="preserve">3.2124011516571</t>
   </si>
   <si>
-    <t xml:space="preserve">3.22232127189636</t>
+    <t xml:space="preserve">3.22232103347778</t>
   </si>
   <si>
     <t xml:space="preserve">3.19586777687073</t>
@@ -2174,7 +2174,7 @@
     <t xml:space="preserve">3.19256138801575</t>
   </si>
   <si>
-    <t xml:space="preserve">3.26034760475159</t>
+    <t xml:space="preserve">3.26034736633301</t>
   </si>
   <si>
     <t xml:space="preserve">3.30498695373535</t>
@@ -2198,10 +2198,10 @@
     <t xml:space="preserve">3.57613158226013</t>
   </si>
   <si>
-    <t xml:space="preserve">3.5744776725769</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.50503873825073</t>
+    <t xml:space="preserve">3.57447838783264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.50503849983215</t>
   </si>
   <si>
     <t xml:space="preserve">3.39095973968506</t>
@@ -2222,88 +2222,88 @@
     <t xml:space="preserve">3.51165223121643</t>
   </si>
   <si>
-    <t xml:space="preserve">3.53645181655884</t>
+    <t xml:space="preserve">3.53645205497742</t>
   </si>
   <si>
     <t xml:space="preserve">3.55463886260986</t>
   </si>
   <si>
-    <t xml:space="preserve">3.56786513328552</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.60754418373108</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.58109164237976</t>
+    <t xml:space="preserve">3.56786465644836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.60754489898682</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.58109140396118</t>
   </si>
   <si>
     <t xml:space="preserve">3.58605170249939</t>
   </si>
   <si>
-    <t xml:space="preserve">3.59927845001221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.68855714797974</t>
+    <t xml:space="preserve">3.59927821159363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.68855738639832</t>
   </si>
   <si>
     <t xml:space="preserve">3.66871762275696</t>
   </si>
   <si>
-    <t xml:space="preserve">3.64722442626953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.46370577812195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.43229269981384</t>
+    <t xml:space="preserve">3.64722466468811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.46370601654053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.43229293823242</t>
   </si>
   <si>
     <t xml:space="preserve">3.46205258369446</t>
   </si>
   <si>
-    <t xml:space="preserve">3.40087985992432</t>
+    <t xml:space="preserve">3.40087962150574</t>
   </si>
   <si>
     <t xml:space="preserve">3.20578789710999</t>
   </si>
   <si>
-    <t xml:space="preserve">3.2289342880249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.38269352912903</t>
+    <t xml:space="preserve">3.22893452644348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.38269305229187</t>
   </si>
   <si>
     <t xml:space="preserve">2.93794989585876</t>
   </si>
   <si>
-    <t xml:space="preserve">2.75773811340332</t>
+    <t xml:space="preserve">2.7577383518219</t>
   </si>
   <si>
     <t xml:space="preserve">2.7908046245575</t>
   </si>
   <si>
-    <t xml:space="preserve">2.30307531356812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.65357899665833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.55768656730652</t>
+    <t xml:space="preserve">2.30307483673096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.6535792350769</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.55768609046936</t>
   </si>
   <si>
     <t xml:space="preserve">2.60397934913635</t>
   </si>
   <si>
-    <t xml:space="preserve">2.61059284210205</t>
+    <t xml:space="preserve">2.61059260368347</t>
   </si>
   <si>
     <t xml:space="preserve">2.55272650718689</t>
   </si>
   <si>
-    <t xml:space="preserve">2.6800320148468</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.53288674354553</t>
+    <t xml:space="preserve">2.68003225326538</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.53288626670837</t>
   </si>
   <si>
     <t xml:space="preserve">2.50808668136597</t>
@@ -2312,7 +2312,7 @@
     <t xml:space="preserve">2.53123331069946</t>
   </si>
   <si>
-    <t xml:space="preserve">2.59571290016174</t>
+    <t xml:space="preserve">2.59571266174316</t>
   </si>
   <si>
     <t xml:space="preserve">2.7197117805481</t>
@@ -2321,52 +2321,52 @@
     <t xml:space="preserve">2.70152497291565</t>
   </si>
   <si>
-    <t xml:space="preserve">2.62216567993164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.66019201278687</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.62547254562378</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.64696574211121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.5510733127594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.67176556587219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.66349864006042</t>
+    <t xml:space="preserve">2.62216591835022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.66019225120544</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.6254723072052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.64696550369263</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.55107307434082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.67176580429077</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.663498878479</t>
   </si>
   <si>
     <t xml:space="preserve">2.64200568199158</t>
   </si>
   <si>
-    <t xml:space="preserve">2.63869881629944</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.70483183860779</t>
+    <t xml:space="preserve">2.63869905471802</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.70483207702637</t>
   </si>
   <si>
     <t xml:space="preserve">2.71805858612061</t>
   </si>
   <si>
-    <t xml:space="preserve">2.61224603652954</t>
+    <t xml:space="preserve">2.61224579811096</t>
   </si>
   <si>
     <t xml:space="preserve">2.6866455078125</t>
   </si>
   <si>
-    <t xml:space="preserve">2.67672514915466</t>
+    <t xml:space="preserve">2.67672538757324</t>
   </si>
   <si>
     <t xml:space="preserve">2.77261805534363</t>
   </si>
   <si>
-    <t xml:space="preserve">2.79245781898499</t>
+    <t xml:space="preserve">2.79245805740356</t>
   </si>
   <si>
     <t xml:space="preserve">2.67507219314575</t>
@@ -2381,22 +2381,22 @@
     <t xml:space="preserve">2.58579277992249</t>
   </si>
   <si>
-    <t xml:space="preserve">2.68829870223999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.71640491485596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.65688538551331</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.5676064491272</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.55437970161438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.60728621482849</t>
+    <t xml:space="preserve">2.68829917907715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.71640515327454</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.65688562393188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.56760621070862</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.55437994003296</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.60728597640991</t>
   </si>
   <si>
     <t xml:space="preserve">2.59405946731567</t>
@@ -2414,10 +2414,10 @@
     <t xml:space="preserve">2.75939154624939</t>
   </si>
   <si>
-    <t xml:space="preserve">2.9577898979187</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.96274971961975</t>
+    <t xml:space="preserve">2.95778965950012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.96274995803833</t>
   </si>
   <si>
     <t xml:space="preserve">2.92141675949097</t>
@@ -2426,10 +2426,10 @@
     <t xml:space="preserve">2.88008379936218</t>
   </si>
   <si>
-    <t xml:space="preserve">2.77757787704468</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.90653681755066</t>
+    <t xml:space="preserve">2.7775776386261</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.90653705596924</t>
   </si>
   <si>
     <t xml:space="preserve">2.89331030845642</t>
@@ -2441,25 +2441,25 @@
     <t xml:space="preserve">2.86024403572083</t>
   </si>
   <si>
-    <t xml:space="preserve">2.85693740844727</t>
+    <t xml:space="preserve">2.85693764686584</t>
   </si>
   <si>
     <t xml:space="preserve">2.78915119171143</t>
   </si>
   <si>
-    <t xml:space="preserve">2.73624491691589</t>
+    <t xml:space="preserve">2.73624467849731</t>
   </si>
   <si>
     <t xml:space="preserve">2.80403113365173</t>
   </si>
   <si>
-    <t xml:space="preserve">2.80072450637817</t>
+    <t xml:space="preserve">2.80072426795959</t>
   </si>
   <si>
     <t xml:space="preserve">2.82717776298523</t>
   </si>
   <si>
-    <t xml:space="preserve">2.84420871734619</t>
+    <t xml:space="preserve">2.84420847892761</t>
   </si>
   <si>
     <t xml:space="preserve">2.7999279499054</t>
@@ -2477,22 +2477,22 @@
     <t xml:space="preserve">2.77438068389893</t>
   </si>
   <si>
-    <t xml:space="preserve">2.7369122505188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.74883389472961</t>
+    <t xml:space="preserve">2.73691248893738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.74883413314819</t>
   </si>
   <si>
     <t xml:space="preserve">2.79481840133667</t>
   </si>
   <si>
-    <t xml:space="preserve">2.83228707313538</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.83569312095642</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.83739638328552</t>
+    <t xml:space="preserve">2.8322868347168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.83569288253784</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.83739614486694</t>
   </si>
   <si>
     <t xml:space="preserve">2.86805248260498</t>
@@ -2513,7 +2513,7 @@
     <t xml:space="preserve">2.80333399772644</t>
   </si>
   <si>
-    <t xml:space="preserve">2.78800559043884</t>
+    <t xml:space="preserve">2.78800582885742</t>
   </si>
   <si>
     <t xml:space="preserve">2.6892249584198</t>
@@ -2522,7 +2522,7 @@
     <t xml:space="preserve">2.70795917510986</t>
   </si>
   <si>
-    <t xml:space="preserve">2.69944381713867</t>
+    <t xml:space="preserve">2.69944357872009</t>
   </si>
   <si>
     <t xml:space="preserve">2.69263100624084</t>
@@ -2531,7 +2531,7 @@
     <t xml:space="preserve">2.68411564826965</t>
   </si>
   <si>
-    <t xml:space="preserve">2.76756858825684</t>
+    <t xml:space="preserve">2.76756834983826</t>
   </si>
   <si>
     <t xml:space="preserve">2.82547450065613</t>
@@ -2540,22 +2540,22 @@
     <t xml:space="preserve">2.89019298553467</t>
   </si>
   <si>
-    <t xml:space="preserve">2.87997436523438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.86123967170715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.76586508750916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.81014633178711</t>
+    <t xml:space="preserve">2.8799741268158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.86123991012573</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.76586532592773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.81014657020569</t>
   </si>
   <si>
     <t xml:space="preserve">2.7828962802887</t>
   </si>
   <si>
-    <t xml:space="preserve">2.76245903968811</t>
+    <t xml:space="preserve">2.76245880126953</t>
   </si>
   <si>
     <t xml:space="preserve">2.85272431373596</t>
@@ -2564,25 +2564,25 @@
     <t xml:space="preserve">2.82377123832703</t>
   </si>
   <si>
-    <t xml:space="preserve">2.74542808532715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.7249903678894</t>
+    <t xml:space="preserve">2.74542784690857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.72499060630798</t>
   </si>
   <si>
     <t xml:space="preserve">2.72669363021851</t>
   </si>
   <si>
-    <t xml:space="preserve">2.71306872367859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.79311513900757</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.69433450698853</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.74713087081909</t>
+    <t xml:space="preserve">2.71306848526001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.79311537742615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.69433426856995</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.74713110923767</t>
   </si>
   <si>
     <t xml:space="preserve">2.7386155128479</t>
@@ -2594,10 +2594,10 @@
     <t xml:space="preserve">2.76416230201721</t>
   </si>
   <si>
-    <t xml:space="preserve">2.77948999404907</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.79822444915771</t>
+    <t xml:space="preserve">2.77949023246765</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.79822468757629</t>
   </si>
   <si>
     <t xml:space="preserve">2.81355261802673</t>
@@ -2606,10 +2606,10 @@
     <t xml:space="preserve">2.7352089881897</t>
   </si>
   <si>
-    <t xml:space="preserve">2.72158432006836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.7045533657074</t>
+    <t xml:space="preserve">2.72158408164978</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.70455288887024</t>
   </si>
   <si>
     <t xml:space="preserve">2.74372482299805</t>
@@ -2618,10 +2618,10 @@
     <t xml:space="preserve">2.72839665412903</t>
   </si>
   <si>
-    <t xml:space="preserve">2.64494395256042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.6534595489502</t>
+    <t xml:space="preserve">2.64494371414185</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.65345931053162</t>
   </si>
   <si>
     <t xml:space="preserve">2.6398344039917</t>
@@ -2642,43 +2642,43 @@
     <t xml:space="preserve">2.51210045814514</t>
   </si>
   <si>
-    <t xml:space="preserve">2.53424096107483</t>
+    <t xml:space="preserve">2.53424119949341</t>
   </si>
   <si>
     <t xml:space="preserve">2.4473819732666</t>
   </si>
   <si>
-    <t xml:space="preserve">2.47292852401733</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.50188183784485</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.55467844009399</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.48485064506531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.46441316604614</t>
+    <t xml:space="preserve">2.47292876243591</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.50188207626343</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.55467867851257</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.48485088348389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.46441340446472</t>
   </si>
   <si>
     <t xml:space="preserve">2.46611618995667</t>
   </si>
   <si>
-    <t xml:space="preserve">2.4013979434967</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.37755417823792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.31794476509094</t>
+    <t xml:space="preserve">2.40139770507812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.37755441665649</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.31794500350952</t>
   </si>
   <si>
     <t xml:space="preserve">2.27877330780029</t>
   </si>
   <si>
-    <t xml:space="preserve">2.29921078681946</t>
+    <t xml:space="preserve">2.29921054840088</t>
   </si>
   <si>
     <t xml:space="preserve">2.31964802742004</t>
@@ -2696,7 +2696,7 @@
     <t xml:space="preserve">2.36563229560852</t>
   </si>
   <si>
-    <t xml:space="preserve">2.54616284370422</t>
+    <t xml:space="preserve">2.5461630821228</t>
   </si>
   <si>
     <t xml:space="preserve">2.51550674438477</t>
@@ -2705,7 +2705,7 @@
     <t xml:space="preserve">2.54105377197266</t>
   </si>
   <si>
-    <t xml:space="preserve">2.58533477783203</t>
+    <t xml:space="preserve">2.58533453941345</t>
   </si>
   <si>
     <t xml:space="preserve">2.57170963287354</t>
@@ -2714,19 +2714,19 @@
     <t xml:space="preserve">2.65686559677124</t>
   </si>
   <si>
-    <t xml:space="preserve">2.60236573219299</t>
+    <t xml:space="preserve">2.60236597061157</t>
   </si>
   <si>
     <t xml:space="preserve">2.58874082565308</t>
   </si>
   <si>
-    <t xml:space="preserve">2.59725666046143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.57341265678406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.56830358505249</t>
+    <t xml:space="preserve">2.59725642204285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.57341289520264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.56830334663391</t>
   </si>
   <si>
     <t xml:space="preserve">2.61599087715149</t>
@@ -2741,16 +2741,16 @@
     <t xml:space="preserve">2.56319427490234</t>
   </si>
   <si>
-    <t xml:space="preserve">2.53083491325378</t>
+    <t xml:space="preserve">2.53083467483521</t>
   </si>
   <si>
     <t xml:space="preserve">2.55978798866272</t>
   </si>
   <si>
-    <t xml:space="preserve">2.53594422340393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.52061629295349</t>
+    <t xml:space="preserve">2.53594398498535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.52061605453491</t>
   </si>
   <si>
     <t xml:space="preserve">2.50528788566589</t>
@@ -2765,13 +2765,13 @@
     <t xml:space="preserve">2.48314738273621</t>
   </si>
   <si>
-    <t xml:space="preserve">2.45419454574585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.49336624145508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.54275679588318</t>
+    <t xml:space="preserve">2.45419430732727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.49336647987366</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.5427565574646</t>
   </si>
   <si>
     <t xml:space="preserve">2.42694449424744</t>
@@ -2786,13 +2786,13 @@
     <t xml:space="preserve">2.55127215385437</t>
   </si>
   <si>
-    <t xml:space="preserve">2.53764748573303</t>
+    <t xml:space="preserve">2.53764724731445</t>
   </si>
   <si>
     <t xml:space="preserve">2.59895968437195</t>
   </si>
   <si>
-    <t xml:space="preserve">2.53253793716431</t>
+    <t xml:space="preserve">2.53253817558289</t>
   </si>
   <si>
     <t xml:space="preserve">2.58363127708435</t>
@@ -2801,16 +2801,16 @@
     <t xml:space="preserve">2.57852220535278</t>
   </si>
   <si>
-    <t xml:space="preserve">2.6909282207489</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.63642835617065</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.46952271461487</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.42353820800781</t>
+    <t xml:space="preserve">2.69092798233032</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.63642811775208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.46952247619629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.42353844642639</t>
   </si>
   <si>
     <t xml:space="preserve">2.4456787109375</t>
@@ -2822,7 +2822,7 @@
     <t xml:space="preserve">2.41672611236572</t>
   </si>
   <si>
-    <t xml:space="preserve">2.56149077415466</t>
+    <t xml:space="preserve">2.56149101257324</t>
   </si>
   <si>
     <t xml:space="preserve">2.58703804016113</t>
@@ -2840,7 +2840,7 @@
     <t xml:space="preserve">2.65005326271057</t>
   </si>
   <si>
-    <t xml:space="preserve">2.68581867218018</t>
+    <t xml:space="preserve">2.68581891059875</t>
   </si>
   <si>
     <t xml:space="preserve">2.6415376663208</t>
@@ -2855,10 +2855,10 @@
     <t xml:space="preserve">2.52231907844543</t>
   </si>
   <si>
-    <t xml:space="preserve">2.49166321754456</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.62280321121216</t>
+    <t xml:space="preserve">2.49166345596313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.62280344963074</t>
   </si>
   <si>
     <t xml:space="preserve">2.65856862068176</t>
@@ -2873,22 +2873,22 @@
     <t xml:space="preserve">2.81695890426636</t>
   </si>
   <si>
-    <t xml:space="preserve">2.78204488754272</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.83058381080627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.80929470062256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.79652118682861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.81270122528076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.8339900970459</t>
+    <t xml:space="preserve">2.78204464912415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.8305835723877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.80929493904114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.79652142524719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.81270098686218</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.83399033546448</t>
   </si>
   <si>
     <t xml:space="preserve">2.87231016159058</t>
@@ -2900,25 +2900,25 @@
     <t xml:space="preserve">2.85698223114014</t>
   </si>
   <si>
-    <t xml:space="preserve">2.85783362388611</t>
+    <t xml:space="preserve">2.85783386230469</t>
   </si>
   <si>
     <t xml:space="preserve">2.85868525505066</t>
   </si>
   <si>
-    <t xml:space="preserve">2.84846639633179</t>
+    <t xml:space="preserve">2.84846663475037</t>
   </si>
   <si>
     <t xml:space="preserve">2.89785695075989</t>
   </si>
   <si>
-    <t xml:space="preserve">2.86549758911133</t>
+    <t xml:space="preserve">2.86549782752991</t>
   </si>
   <si>
     <t xml:space="preserve">2.8697555065155</t>
   </si>
   <si>
-    <t xml:space="preserve">2.90126323699951</t>
+    <t xml:space="preserve">2.90126347541809</t>
   </si>
   <si>
     <t xml:space="preserve">2.94384121894836</t>
@@ -2930,10 +2930,10 @@
     <t xml:space="preserve">2.8757164478302</t>
   </si>
   <si>
-    <t xml:space="preserve">2.86720085144043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.96938824653625</t>
+    <t xml:space="preserve">2.86720108985901</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.96938800811768</t>
   </si>
   <si>
     <t xml:space="preserve">2.93788027763367</t>
@@ -2942,7 +2942,7 @@
     <t xml:space="preserve">2.92766165733337</t>
   </si>
   <si>
-    <t xml:space="preserve">2.9668333530426</t>
+    <t xml:space="preserve">2.96683311462402</t>
   </si>
   <si>
     <t xml:space="preserve">2.98556780815125</t>
@@ -2951,37 +2951,37 @@
     <t xml:space="preserve">2.99067711830139</t>
   </si>
   <si>
-    <t xml:space="preserve">2.99493455886841</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.98982524871826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.97194266319275</t>
+    <t xml:space="preserve">2.99493479728699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.98982548713684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.97194290161133</t>
   </si>
   <si>
     <t xml:space="preserve">2.96768474578857</t>
   </si>
   <si>
-    <t xml:space="preserve">2.97279405593872</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.97023940086365</t>
+    <t xml:space="preserve">2.9727942943573</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.97023963928223</t>
   </si>
   <si>
     <t xml:space="preserve">2.98130989074707</t>
   </si>
   <si>
-    <t xml:space="preserve">3.00515365600586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.04177045822144</t>
+    <t xml:space="preserve">3.00515341758728</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.04177069664001</t>
   </si>
   <si>
     <t xml:space="preserve">3.06902050971985</t>
   </si>
   <si>
-    <t xml:space="preserve">3.08264541625977</t>
+    <t xml:space="preserve">3.08264517784119</t>
   </si>
   <si>
     <t xml:space="preserve">3.13799667358398</t>
@@ -2990,7 +2990,7 @@
     <t xml:space="preserve">3.11670804023743</t>
   </si>
   <si>
-    <t xml:space="preserve">3.12011384963989</t>
+    <t xml:space="preserve">3.12011432647705</t>
   </si>
   <si>
     <t xml:space="preserve">3.15417647361755</t>
@@ -3002,7 +3002,7 @@
     <t xml:space="preserve">3.1592857837677</t>
   </si>
   <si>
-    <t xml:space="preserve">3.13373899459839</t>
+    <t xml:space="preserve">3.13373923301697</t>
   </si>
   <si>
     <t xml:space="preserve">3.1192626953125</t>
@@ -3011,10 +3011,10 @@
     <t xml:space="preserve">3.10052824020386</t>
   </si>
   <si>
-    <t xml:space="preserve">3.0681688785553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.01026320457458</t>
+    <t xml:space="preserve">3.06816864013672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.01026296615601</t>
   </si>
   <si>
     <t xml:space="preserve">3.03240370750427</t>
@@ -3026,7 +3026,7 @@
     <t xml:space="preserve">2.99834108352661</t>
   </si>
   <si>
-    <t xml:space="preserve">2.99919271469116</t>
+    <t xml:space="preserve">2.99919247627258</t>
   </si>
   <si>
     <t xml:space="preserve">2.97364592552185</t>
@@ -3035,13 +3035,13 @@
     <t xml:space="preserve">3.00259876251221</t>
   </si>
   <si>
-    <t xml:space="preserve">3.01754140853882</t>
+    <t xml:space="preserve">3.0175416469574</t>
   </si>
   <si>
     <t xml:space="preserve">3.0043568611145</t>
   </si>
   <si>
-    <t xml:space="preserve">3.0702805519104</t>
+    <t xml:space="preserve">3.07028031349182</t>
   </si>
   <si>
     <t xml:space="preserve">2.97271347045898</t>
@@ -3074,34 +3074,34 @@
     <t xml:space="preserve">3.05709552764893</t>
   </si>
   <si>
-    <t xml:space="preserve">3.11159253120422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.08873867988586</t>
+    <t xml:space="preserve">3.11159229278564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.08873891830444</t>
   </si>
   <si>
     <t xml:space="preserve">3.10192370414734</t>
   </si>
   <si>
-    <t xml:space="preserve">3.14587259292603</t>
+    <t xml:space="preserve">3.1458728313446</t>
   </si>
   <si>
     <t xml:space="preserve">3.17839503288269</t>
   </si>
   <si>
-    <t xml:space="preserve">3.15378379821777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.15817856788635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.13532471656799</t>
+    <t xml:space="preserve">3.15378355979919</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.15817832946777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.13532495498657</t>
   </si>
   <si>
     <t xml:space="preserve">3.12214040756226</t>
   </si>
   <si>
-    <t xml:space="preserve">3.11335062980652</t>
+    <t xml:space="preserve">3.11335039138794</t>
   </si>
   <si>
     <t xml:space="preserve">3.13268804550171</t>
@@ -3113,7 +3113,7 @@
     <t xml:space="preserve">3.14850974082947</t>
   </si>
   <si>
-    <t xml:space="preserve">3.2003698348999</t>
+    <t xml:space="preserve">3.20036959648132</t>
   </si>
   <si>
     <t xml:space="preserve">3.21267533302307</t>
@@ -3125,31 +3125,31 @@
     <t xml:space="preserve">3.26277709007263</t>
   </si>
   <si>
-    <t xml:space="preserve">3.27420401573181</t>
+    <t xml:space="preserve">3.27420377731323</t>
   </si>
   <si>
     <t xml:space="preserve">3.29881548881531</t>
   </si>
   <si>
-    <t xml:space="preserve">3.31551599502563</t>
+    <t xml:space="preserve">3.31551623344421</t>
   </si>
   <si>
     <t xml:space="preserve">3.30408930778503</t>
   </si>
   <si>
-    <t xml:space="preserve">3.30584716796875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.28475165367126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.24607682228088</t>
+    <t xml:space="preserve">3.30584740638733</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.28475189208984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.2460765838623</t>
   </si>
   <si>
     <t xml:space="preserve">3.21707034111023</t>
   </si>
   <si>
-    <t xml:space="preserve">3.23201298713684</t>
+    <t xml:space="preserve">3.23201274871826</t>
   </si>
   <si>
     <t xml:space="preserve">3.22673892974854</t>
@@ -3158,16 +3158,16 @@
     <t xml:space="preserve">3.21970725059509</t>
   </si>
   <si>
-    <t xml:space="preserve">3.25398731231689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.2390444278717</t>
+    <t xml:space="preserve">3.25398707389832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.23904466629028</t>
   </si>
   <si>
     <t xml:space="preserve">3.22586011886597</t>
   </si>
   <si>
-    <t xml:space="preserve">3.24168157577515</t>
+    <t xml:space="preserve">3.24168181419373</t>
   </si>
   <si>
     <t xml:space="preserve">3.19597458839417</t>
@@ -3176,13 +3176,13 @@
     <t xml:space="preserve">3.14938879013062</t>
   </si>
   <si>
-    <t xml:space="preserve">3.18806385993958</t>
+    <t xml:space="preserve">3.18806409835815</t>
   </si>
   <si>
     <t xml:space="preserve">3.21443343162537</t>
   </si>
   <si>
-    <t xml:space="preserve">3.16345238685608</t>
+    <t xml:space="preserve">3.16345262527466</t>
   </si>
   <si>
     <t xml:space="preserve">3.19861149787903</t>
@@ -3191,10 +3191,10 @@
     <t xml:space="preserve">3.15466260910034</t>
   </si>
   <si>
-    <t xml:space="preserve">3.20124840736389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.19773268699646</t>
+    <t xml:space="preserve">3.20124864578247</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.19773244857788</t>
   </si>
   <si>
     <t xml:space="preserve">3.20740127563477</t>
@@ -3203,13 +3203,13 @@
     <t xml:space="preserve">3.13620400428772</t>
   </si>
   <si>
-    <t xml:space="preserve">3.08522319793701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.12653541564941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.10807657241821</t>
+    <t xml:space="preserve">3.08522295951843</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.12653493881226</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.10807681083679</t>
   </si>
   <si>
     <t xml:space="preserve">3.10719776153564</t>
@@ -3221,7 +3221,7 @@
     <t xml:space="preserve">3.11598753929138</t>
   </si>
   <si>
-    <t xml:space="preserve">3.07115936279297</t>
+    <t xml:space="preserve">3.07115912437439</t>
   </si>
   <si>
     <t xml:space="preserve">3.09664988517761</t>
@@ -3230,13 +3230,13 @@
     <t xml:space="preserve">3.01929950714111</t>
   </si>
   <si>
-    <t xml:space="preserve">2.98501920700073</t>
+    <t xml:space="preserve">2.98501896858215</t>
   </si>
   <si>
     <t xml:space="preserve">3.02017855644226</t>
   </si>
   <si>
-    <t xml:space="preserve">3.05533790588379</t>
+    <t xml:space="preserve">3.05533766746521</t>
   </si>
   <si>
     <t xml:space="preserve">3.08610200881958</t>
@@ -3248,19 +3248,19 @@
     <t xml:space="preserve">3.03336310386658</t>
   </si>
   <si>
-    <t xml:space="preserve">3.05357956886292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.11422920227051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.14675188064575</t>
+    <t xml:space="preserve">3.05357980728149</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.11422944068909</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.14675164222717</t>
   </si>
   <si>
     <t xml:space="preserve">3.16257333755493</t>
   </si>
   <si>
-    <t xml:space="preserve">3.13005113601685</t>
+    <t xml:space="preserve">3.13005137443542</t>
   </si>
   <si>
     <t xml:space="preserve">3.16608929634094</t>
@@ -3269,19 +3269,19 @@
     <t xml:space="preserve">3.10895562171936</t>
   </si>
   <si>
-    <t xml:space="preserve">3.12477707862854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.1063187122345</t>
+    <t xml:space="preserve">3.12477731704712</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.10631847381592</t>
   </si>
   <si>
     <t xml:space="preserve">3.14763069152832</t>
   </si>
   <si>
-    <t xml:space="preserve">3.22849702835083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.20828032493591</t>
+    <t xml:space="preserve">3.22849726676941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.20828056335449</t>
   </si>
   <si>
     <t xml:space="preserve">3.1704843044281</t>
@@ -3290,7 +3290,7 @@
     <t xml:space="preserve">3.1291720867157</t>
   </si>
   <si>
-    <t xml:space="preserve">3.17136311531067</t>
+    <t xml:space="preserve">3.17136335372925</t>
   </si>
   <si>
     <t xml:space="preserve">3.18366885185242</t>
@@ -3314,19 +3314,19 @@
     <t xml:space="preserve">2.97710847854614</t>
   </si>
   <si>
-    <t xml:space="preserve">2.9929301738739</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.06764340400696</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.99732494354248</t>
+    <t xml:space="preserve">2.99292993545532</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.06764364242554</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.99732518196106</t>
   </si>
   <si>
     <t xml:space="preserve">3.13796186447144</t>
   </si>
   <si>
-    <t xml:space="preserve">3.0931339263916</t>
+    <t xml:space="preserve">3.09313416481018</t>
   </si>
   <si>
     <t xml:space="preserve">3.12038207054138</t>
@@ -3335,7 +3335,7 @@
     <t xml:space="preserve">3.08961796760559</t>
   </si>
   <si>
-    <t xml:space="preserve">3.11510825157166</t>
+    <t xml:space="preserve">3.11510848999023</t>
   </si>
   <si>
     <t xml:space="preserve">3.13708305358887</t>
@@ -3347,7 +3347,7 @@
     <t xml:space="preserve">3.16433143615723</t>
   </si>
   <si>
-    <t xml:space="preserve">3.17487931251526</t>
+    <t xml:space="preserve">3.17487907409668</t>
   </si>
   <si>
     <t xml:space="preserve">3.23289179801941</t>
@@ -3356,7 +3356,7 @@
     <t xml:space="preserve">3.2179491519928</t>
   </si>
   <si>
-    <t xml:space="preserve">3.25750327110291</t>
+    <t xml:space="preserve">3.25750350952148</t>
   </si>
   <si>
     <t xml:space="preserve">3.22761797904968</t>
@@ -3365,7 +3365,7 @@
     <t xml:space="preserve">3.20212745666504</t>
   </si>
   <si>
-    <t xml:space="preserve">3.13971972465515</t>
+    <t xml:space="preserve">3.13971996307373</t>
   </si>
   <si>
     <t xml:space="preserve">3.12565612792969</t>
@@ -3380,7 +3380,7 @@
     <t xml:space="preserve">3.09225487709045</t>
   </si>
   <si>
-    <t xml:space="preserve">3.05885362625122</t>
+    <t xml:space="preserve">3.0588538646698</t>
   </si>
   <si>
     <t xml:space="preserve">3.01666259765625</t>
@@ -3389,13 +3389,13 @@
     <t xml:space="preserve">3.02633142471313</t>
   </si>
   <si>
-    <t xml:space="preserve">3.08434391021729</t>
+    <t xml:space="preserve">3.08434414863586</t>
   </si>
   <si>
     <t xml:space="preserve">3.19070076942444</t>
   </si>
   <si>
-    <t xml:space="preserve">3.26541423797607</t>
+    <t xml:space="preserve">3.2654139995575</t>
   </si>
   <si>
     <t xml:space="preserve">3.25047159194946</t>
@@ -3407,13 +3407,13 @@
     <t xml:space="preserve">3.04830574989319</t>
   </si>
   <si>
-    <t xml:space="preserve">2.9876561164856</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.02721047401428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.04742693901062</t>
+    <t xml:space="preserve">2.98765635490417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.0272102355957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.04742670059204</t>
   </si>
   <si>
     <t xml:space="preserve">3.03424215316772</t>
@@ -3422,7 +3422,7 @@
     <t xml:space="preserve">2.96656060218811</t>
   </si>
   <si>
-    <t xml:space="preserve">2.99468803405762</t>
+    <t xml:space="preserve">2.9946882724762</t>
   </si>
   <si>
     <t xml:space="preserve">2.97974538803101</t>
@@ -3446,7 +3446,7 @@
     <t xml:space="preserve">2.84262418746948</t>
   </si>
   <si>
-    <t xml:space="preserve">3.04566884040833</t>
+    <t xml:space="preserve">3.0456690788269</t>
   </si>
   <si>
     <t xml:space="preserve">2.93755435943604</t>
@@ -3464,10 +3464,10 @@
     <t xml:space="preserve">2.81273913383484</t>
   </si>
   <si>
-    <t xml:space="preserve">2.87778329849243</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.98414039611816</t>
+    <t xml:space="preserve">2.87778353691101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.98414015769958</t>
   </si>
   <si>
     <t xml:space="preserve">2.97007656097412</t>
@@ -3479,19 +3479,19 @@
     <t xml:space="preserve">2.95777082443237</t>
   </si>
   <si>
-    <t xml:space="preserve">2.92436933517456</t>
+    <t xml:space="preserve">2.92436957359314</t>
   </si>
   <si>
     <t xml:space="preserve">2.96040773391724</t>
   </si>
   <si>
-    <t xml:space="preserve">2.99908304214478</t>
+    <t xml:space="preserve">2.9990828037262</t>
   </si>
   <si>
     <t xml:space="preserve">2.89184737205505</t>
   </si>
   <si>
-    <t xml:space="preserve">2.85932517051697</t>
+    <t xml:space="preserve">2.85932493209839</t>
   </si>
   <si>
     <t xml:space="preserve">2.91909575462341</t>
@@ -3503,7 +3503,7 @@
     <t xml:space="preserve">2.95952892303467</t>
   </si>
   <si>
-    <t xml:space="preserve">2.94107007980347</t>
+    <t xml:space="preserve">2.94107031822205</t>
   </si>
   <si>
     <t xml:space="preserve">2.98326134681702</t>
@@ -3518,13 +3518,13 @@
     <t xml:space="preserve">3.16081523895264</t>
   </si>
   <si>
-    <t xml:space="preserve">3.11686635017395</t>
+    <t xml:space="preserve">3.11686658859253</t>
   </si>
   <si>
     <t xml:space="preserve">3.15729975700378</t>
   </si>
   <si>
-    <t xml:space="preserve">3.17224216461182</t>
+    <t xml:space="preserve">3.1722424030304</t>
   </si>
   <si>
     <t xml:space="preserve">3.12829327583313</t>
@@ -3539,19 +3539,19 @@
     <t xml:space="preserve">3.09489178657532</t>
   </si>
   <si>
-    <t xml:space="preserve">3.06236958503723</t>
+    <t xml:space="preserve">3.06236934661865</t>
   </si>
   <si>
     <t xml:space="preserve">3.09752869606018</t>
   </si>
   <si>
-    <t xml:space="preserve">3.17751598358154</t>
+    <t xml:space="preserve">3.17751622200012</t>
   </si>
   <si>
     <t xml:space="preserve">2.94722294807434</t>
   </si>
   <si>
-    <t xml:space="preserve">2.97183465957642</t>
+    <t xml:space="preserve">2.97183442115784</t>
   </si>
   <si>
     <t xml:space="preserve">3.03863716125488</t>
@@ -3563,7 +3563,7 @@
     <t xml:space="preserve">3.15114665031433</t>
   </si>
   <si>
-    <t xml:space="preserve">3.0992865562439</t>
+    <t xml:space="preserve">3.09928679466248</t>
   </si>
   <si>
     <t xml:space="preserve">3.0764331817627</t>
@@ -3581,13 +3581,13 @@
     <t xml:space="preserve">2.96831870079041</t>
   </si>
   <si>
-    <t xml:space="preserve">2.94282841682434</t>
+    <t xml:space="preserve">2.94282793998718</t>
   </si>
   <si>
     <t xml:space="preserve">2.94458603858948</t>
   </si>
   <si>
-    <t xml:space="preserve">2.8285608291626</t>
+    <t xml:space="preserve">2.82856059074402</t>
   </si>
   <si>
     <t xml:space="preserve">2.62551593780518</t>
@@ -3596,7 +3596,7 @@
     <t xml:space="preserve">2.50685358047485</t>
   </si>
   <si>
-    <t xml:space="preserve">2.44444584846497</t>
+    <t xml:space="preserve">2.44444608688354</t>
   </si>
   <si>
     <t xml:space="preserve">2.54992389678955</t>
@@ -4956,6 +4956,9 @@
   </si>
   <si>
     <t xml:space="preserve">3.39800000190735</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.39599990844727</t>
   </si>
 </sst>
 </file>
@@ -9605,7 +9608,7 @@
         <v>2.44000005722046</v>
       </c>
       <c r="G166" t="s">
-        <v>120</v>
+        <v>62</v>
       </c>
       <c r="H166" t="s">
         <v>9</v>
@@ -9657,7 +9660,7 @@
         <v>2.45199990272522</v>
       </c>
       <c r="G168" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H168" t="s">
         <v>9</v>
@@ -9709,7 +9712,7 @@
         <v>2.47199988365173</v>
       </c>
       <c r="G170" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H170" t="s">
         <v>9</v>
@@ -9735,7 +9738,7 @@
         <v>2.48399996757507</v>
       </c>
       <c r="G171" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H171" t="s">
         <v>9</v>
@@ -9787,7 +9790,7 @@
         <v>2.46600008010864</v>
       </c>
       <c r="G173" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H173" t="s">
         <v>9</v>
@@ -9813,7 +9816,7 @@
         <v>2.47199988365173</v>
       </c>
       <c r="G174" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H174" t="s">
         <v>9</v>
@@ -9839,7 +9842,7 @@
         <v>2.47000002861023</v>
       </c>
       <c r="G175" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H175" t="s">
         <v>9</v>
@@ -9865,7 +9868,7 @@
         <v>2.50600004196167</v>
       </c>
       <c r="G176" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H176" t="s">
         <v>9</v>
@@ -9943,7 +9946,7 @@
         <v>2.42400002479553</v>
       </c>
       <c r="G179" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H179" t="s">
         <v>9</v>
@@ -9969,7 +9972,7 @@
         <v>2.39599990844727</v>
       </c>
       <c r="G180" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H180" t="s">
         <v>9</v>
@@ -10021,7 +10024,7 @@
         <v>2.39599990844727</v>
       </c>
       <c r="G182" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H182" t="s">
         <v>9</v>
@@ -10047,7 +10050,7 @@
         <v>2.35599994659424</v>
       </c>
       <c r="G183" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H183" t="s">
         <v>9</v>
@@ -10073,7 +10076,7 @@
         <v>2.39800000190735</v>
       </c>
       <c r="G184" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H184" t="s">
         <v>9</v>
@@ -10099,7 +10102,7 @@
         <v>2.42199993133545</v>
       </c>
       <c r="G185" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H185" t="s">
         <v>9</v>
@@ -10125,7 +10128,7 @@
         <v>2.39800000190735</v>
       </c>
       <c r="G186" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H186" t="s">
         <v>9</v>
@@ -10151,7 +10154,7 @@
         <v>2.42199993133545</v>
       </c>
       <c r="G187" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H187" t="s">
         <v>9</v>
@@ -10177,7 +10180,7 @@
         <v>2.36199998855591</v>
       </c>
       <c r="G188" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H188" t="s">
         <v>9</v>
@@ -10203,7 +10206,7 @@
         <v>2.35800004005432</v>
       </c>
       <c r="G189" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H189" t="s">
         <v>9</v>
@@ -10229,7 +10232,7 @@
         <v>2.34999990463257</v>
       </c>
       <c r="G190" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H190" t="s">
         <v>9</v>
@@ -10255,7 +10258,7 @@
         <v>2.33599996566772</v>
       </c>
       <c r="G191" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H191" t="s">
         <v>9</v>
@@ -10281,7 +10284,7 @@
         <v>2.36999988555908</v>
       </c>
       <c r="G192" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H192" t="s">
         <v>9</v>
@@ -10307,7 +10310,7 @@
         <v>2.39800000190735</v>
       </c>
       <c r="G193" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H193" t="s">
         <v>9</v>
@@ -10333,7 +10336,7 @@
         <v>2.34200000762939</v>
       </c>
       <c r="G194" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H194" t="s">
         <v>9</v>
@@ -10359,7 +10362,7 @@
         <v>2.25200009346008</v>
       </c>
       <c r="G195" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H195" t="s">
         <v>9</v>
@@ -10385,7 +10388,7 @@
         <v>2.21600008010864</v>
       </c>
       <c r="G196" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H196" t="s">
         <v>9</v>
@@ -10411,7 +10414,7 @@
         <v>2.19799995422363</v>
       </c>
       <c r="G197" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H197" t="s">
         <v>9</v>
@@ -10437,7 +10440,7 @@
         <v>2.1800000667572</v>
       </c>
       <c r="G198" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H198" t="s">
         <v>9</v>
@@ -10463,7 +10466,7 @@
         <v>2.21000003814697</v>
       </c>
       <c r="G199" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H199" t="s">
         <v>9</v>
@@ -10489,7 +10492,7 @@
         <v>2.22199988365173</v>
       </c>
       <c r="G200" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H200" t="s">
         <v>9</v>
@@ -10515,7 +10518,7 @@
         <v>2.2279999256134</v>
       </c>
       <c r="G201" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H201" t="s">
         <v>9</v>
@@ -10541,7 +10544,7 @@
         <v>2.23799991607666</v>
       </c>
       <c r="G202" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H202" t="s">
         <v>9</v>
@@ -10567,7 +10570,7 @@
         <v>2.25399994850159</v>
       </c>
       <c r="G203" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H203" t="s">
         <v>9</v>
@@ -10593,7 +10596,7 @@
         <v>2.23399996757507</v>
       </c>
       <c r="G204" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H204" t="s">
         <v>9</v>
@@ -10619,7 +10622,7 @@
         <v>2.26200008392334</v>
       </c>
       <c r="G205" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H205" t="s">
         <v>9</v>
@@ -10645,7 +10648,7 @@
         <v>2.25999999046326</v>
       </c>
       <c r="G206" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H206" t="s">
         <v>9</v>
@@ -10671,7 +10674,7 @@
         <v>2.27800011634827</v>
       </c>
       <c r="G207" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H207" t="s">
         <v>9</v>
@@ -10697,7 +10700,7 @@
         <v>2.24000000953674</v>
       </c>
       <c r="G208" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H208" t="s">
         <v>9</v>
@@ -10723,7 +10726,7 @@
         <v>2.23000001907349</v>
       </c>
       <c r="G209" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H209" t="s">
         <v>9</v>
@@ -10749,7 +10752,7 @@
         <v>2.23200011253357</v>
       </c>
       <c r="G210" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H210" t="s">
         <v>9</v>
@@ -10775,7 +10778,7 @@
         <v>2.24399995803833</v>
       </c>
       <c r="G211" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H211" t="s">
         <v>9</v>
@@ -10801,7 +10804,7 @@
         <v>2.29399991035461</v>
       </c>
       <c r="G212" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H212" t="s">
         <v>9</v>
@@ -10827,7 +10830,7 @@
         <v>2.30399990081787</v>
       </c>
       <c r="G213" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H213" t="s">
         <v>9</v>
@@ -10853,7 +10856,7 @@
         <v>2.32999992370605</v>
       </c>
       <c r="G214" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H214" t="s">
         <v>9</v>
@@ -10905,7 +10908,7 @@
         <v>2.23200011253357</v>
       </c>
       <c r="G216" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H216" t="s">
         <v>9</v>
@@ -10931,7 +10934,7 @@
         <v>2.24000000953674</v>
       </c>
       <c r="G217" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H217" t="s">
         <v>9</v>
@@ -10957,7 +10960,7 @@
         <v>2.20000004768372</v>
       </c>
       <c r="G218" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H218" t="s">
         <v>9</v>
@@ -10983,7 +10986,7 @@
         <v>2.16199994087219</v>
       </c>
       <c r="G219" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H219" t="s">
         <v>9</v>
@@ -11009,7 +11012,7 @@
         <v>2.15799999237061</v>
       </c>
       <c r="G220" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H220" t="s">
         <v>9</v>
@@ -11035,7 +11038,7 @@
         <v>2.13000011444092</v>
       </c>
       <c r="G221" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H221" t="s">
         <v>9</v>
@@ -11061,7 +11064,7 @@
         <v>2.01600003242493</v>
       </c>
       <c r="G222" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H222" t="s">
         <v>9</v>
@@ -11087,7 +11090,7 @@
         <v>2.01999998092651</v>
       </c>
       <c r="G223" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H223" t="s">
         <v>9</v>
@@ -11113,7 +11116,7 @@
         <v>1.99600005149841</v>
       </c>
       <c r="G224" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H224" t="s">
         <v>9</v>
@@ -11139,7 +11142,7 @@
         <v>1.99500000476837</v>
       </c>
       <c r="G225" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H225" t="s">
         <v>9</v>
@@ -11165,7 +11168,7 @@
         <v>2.00200009346008</v>
       </c>
       <c r="G226" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H226" t="s">
         <v>9</v>
@@ -11191,7 +11194,7 @@
         <v>1.97399997711182</v>
       </c>
       <c r="G227" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H227" t="s">
         <v>9</v>
@@ -11217,7 +11220,7 @@
         <v>1.96300005912781</v>
       </c>
       <c r="G228" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H228" t="s">
         <v>9</v>
@@ -11243,7 +11246,7 @@
         <v>1.92700004577637</v>
       </c>
       <c r="G229" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H229" t="s">
         <v>9</v>
@@ -11269,7 +11272,7 @@
         <v>1.92499995231628</v>
       </c>
       <c r="G230" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H230" t="s">
         <v>9</v>
@@ -11295,7 +11298,7 @@
         <v>1.94500005245209</v>
       </c>
       <c r="G231" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H231" t="s">
         <v>9</v>
@@ -11321,7 +11324,7 @@
         <v>1.95000004768372</v>
       </c>
       <c r="G232" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H232" t="s">
         <v>9</v>
@@ -11347,7 +11350,7 @@
         <v>1.92999994754791</v>
       </c>
       <c r="G233" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H233" t="s">
         <v>9</v>
@@ -11373,7 +11376,7 @@
         <v>1.93499994277954</v>
       </c>
       <c r="G234" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H234" t="s">
         <v>9</v>
@@ -11399,7 +11402,7 @@
         <v>1.94000005722046</v>
       </c>
       <c r="G235" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H235" t="s">
         <v>9</v>
@@ -11425,7 +11428,7 @@
         <v>1.95500004291534</v>
       </c>
       <c r="G236" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H236" t="s">
         <v>9</v>
@@ -11451,7 +11454,7 @@
         <v>1.90699994564056</v>
       </c>
       <c r="G237" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H237" t="s">
         <v>9</v>
@@ -11477,7 +11480,7 @@
         <v>1.87600004673004</v>
       </c>
       <c r="G238" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H238" t="s">
         <v>9</v>
@@ -11503,7 +11506,7 @@
         <v>1.90100002288818</v>
       </c>
       <c r="G239" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H239" t="s">
         <v>9</v>
@@ -11529,7 +11532,7 @@
         <v>1.98599994182587</v>
       </c>
       <c r="G240" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H240" t="s">
         <v>9</v>
@@ -11555,7 +11558,7 @@
         <v>2.01999998092651</v>
       </c>
       <c r="G241" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H241" t="s">
         <v>9</v>
@@ -11581,7 +11584,7 @@
         <v>2.04399991035461</v>
       </c>
       <c r="G242" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H242" t="s">
         <v>9</v>
@@ -11607,7 +11610,7 @@
         <v>2.05999994277954</v>
       </c>
       <c r="G243" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H243" t="s">
         <v>9</v>
@@ -11633,7 +11636,7 @@
         <v>2.04999995231628</v>
       </c>
       <c r="G244" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H244" t="s">
         <v>9</v>
@@ -11659,7 +11662,7 @@
         <v>2.1159999370575</v>
       </c>
       <c r="G245" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H245" t="s">
         <v>9</v>
@@ -11685,7 +11688,7 @@
         <v>2.10800004005432</v>
       </c>
       <c r="G246" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H246" t="s">
         <v>9</v>
@@ -11711,7 +11714,7 @@
         <v>2.07200002670288</v>
       </c>
       <c r="G247" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H247" t="s">
         <v>9</v>
@@ -11737,7 +11740,7 @@
         <v>2.07999992370605</v>
       </c>
       <c r="G248" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H248" t="s">
         <v>9</v>
@@ -11763,7 +11766,7 @@
         <v>2.13800001144409</v>
       </c>
       <c r="G249" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H249" t="s">
         <v>9</v>
@@ -11789,7 +11792,7 @@
         <v>2.15000009536743</v>
       </c>
       <c r="G250" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H250" t="s">
         <v>9</v>
@@ -11815,7 +11818,7 @@
         <v>2.16799998283386</v>
       </c>
       <c r="G251" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H251" t="s">
         <v>9</v>
@@ -11841,7 +11844,7 @@
         <v>2.16799998283386</v>
       </c>
       <c r="G252" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H252" t="s">
         <v>9</v>
@@ -11867,7 +11870,7 @@
         <v>2.16799998283386</v>
       </c>
       <c r="G253" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H253" t="s">
         <v>9</v>
@@ -11893,7 +11896,7 @@
         <v>2.19600009918213</v>
       </c>
       <c r="G254" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H254" t="s">
         <v>9</v>
@@ -11919,7 +11922,7 @@
         <v>2.16599988937378</v>
       </c>
       <c r="G255" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H255" t="s">
         <v>9</v>
@@ -11945,7 +11948,7 @@
         <v>2.1800000667572</v>
       </c>
       <c r="G256" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H256" t="s">
         <v>9</v>
@@ -11971,7 +11974,7 @@
         <v>2.19199991226196</v>
       </c>
       <c r="G257" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H257" t="s">
         <v>9</v>
@@ -11997,7 +12000,7 @@
         <v>2.22000002861023</v>
       </c>
       <c r="G258" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H258" t="s">
         <v>9</v>
@@ -12023,7 +12026,7 @@
         <v>2.21600008010864</v>
       </c>
       <c r="G259" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H259" t="s">
         <v>9</v>
@@ -12049,7 +12052,7 @@
         <v>2.2039999961853</v>
       </c>
       <c r="G260" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H260" t="s">
         <v>9</v>
@@ -12075,7 +12078,7 @@
         <v>2.20799994468689</v>
       </c>
       <c r="G261" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H261" t="s">
         <v>9</v>
@@ -12101,7 +12104,7 @@
         <v>2.19199991226196</v>
       </c>
       <c r="G262" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H262" t="s">
         <v>9</v>
@@ -12127,7 +12130,7 @@
         <v>2.16000008583069</v>
       </c>
       <c r="G263" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H263" t="s">
         <v>9</v>
@@ -12153,7 +12156,7 @@
         <v>2.16199994087219</v>
       </c>
       <c r="G264" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H264" t="s">
         <v>9</v>
@@ -12179,7 +12182,7 @@
         <v>2.23200011253357</v>
       </c>
       <c r="G265" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H265" t="s">
         <v>9</v>
@@ -12205,7 +12208,7 @@
         <v>2.30399990081787</v>
       </c>
       <c r="G266" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H266" t="s">
         <v>9</v>
@@ -12231,7 +12234,7 @@
         <v>2.27999997138977</v>
       </c>
       <c r="G267" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H267" t="s">
         <v>9</v>
@@ -12257,7 +12260,7 @@
         <v>2.27999997138977</v>
       </c>
       <c r="G268" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H268" t="s">
         <v>9</v>
@@ -12283,7 +12286,7 @@
         <v>2.26600003242493</v>
       </c>
       <c r="G269" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H269" t="s">
         <v>9</v>
@@ -12309,7 +12312,7 @@
         <v>2.28200006484985</v>
       </c>
       <c r="G270" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H270" t="s">
         <v>9</v>
@@ -12335,7 +12338,7 @@
         <v>2.28399991989136</v>
       </c>
       <c r="G271" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H271" t="s">
         <v>9</v>
@@ -12361,7 +12364,7 @@
         <v>2.28999996185303</v>
       </c>
       <c r="G272" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H272" t="s">
         <v>9</v>
@@ -12387,7 +12390,7 @@
         <v>2.26399993896484</v>
       </c>
       <c r="G273" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H273" t="s">
         <v>9</v>
@@ -12413,7 +12416,7 @@
         <v>2.29399991035461</v>
       </c>
       <c r="G274" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H274" t="s">
         <v>9</v>
@@ -12439,7 +12442,7 @@
         <v>2.25999999046326</v>
       </c>
       <c r="G275" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H275" t="s">
         <v>9</v>
@@ -12465,7 +12468,7 @@
         <v>2.26799988746643</v>
       </c>
       <c r="G276" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H276" t="s">
         <v>9</v>
@@ -12491,7 +12494,7 @@
         <v>2.24399995803833</v>
       </c>
       <c r="G277" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H277" t="s">
         <v>9</v>
@@ -12517,7 +12520,7 @@
         <v>2.17400002479553</v>
       </c>
       <c r="G278" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H278" t="s">
         <v>9</v>
@@ -12543,7 +12546,7 @@
         <v>2.15799999237061</v>
       </c>
       <c r="G279" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H279" t="s">
         <v>9</v>
@@ -12569,7 +12572,7 @@
         <v>2.1800000667572</v>
       </c>
       <c r="G280" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H280" t="s">
         <v>9</v>
@@ -12595,7 +12598,7 @@
         <v>2.17799997329712</v>
       </c>
       <c r="G281" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H281" t="s">
         <v>9</v>
@@ -12621,7 +12624,7 @@
         <v>2.1800000667572</v>
       </c>
       <c r="G282" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H282" t="s">
         <v>9</v>
@@ -12647,7 +12650,7 @@
         <v>2.14199995994568</v>
       </c>
       <c r="G283" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H283" t="s">
         <v>9</v>
@@ -12673,7 +12676,7 @@
         <v>2.19000005722046</v>
       </c>
       <c r="G284" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="H284" t="s">
         <v>9</v>
@@ -12699,7 +12702,7 @@
         <v>2.25</v>
       </c>
       <c r="G285" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H285" t="s">
         <v>9</v>
@@ -12725,7 +12728,7 @@
         <v>2.25</v>
       </c>
       <c r="G286" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H286" t="s">
         <v>9</v>
@@ -12751,7 +12754,7 @@
         <v>2.22000002861023</v>
       </c>
       <c r="G287" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H287" t="s">
         <v>9</v>
@@ -12777,7 +12780,7 @@
         <v>2.25999999046326</v>
       </c>
       <c r="G288" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H288" t="s">
         <v>9</v>
@@ -12803,7 +12806,7 @@
         <v>2.27999997138977</v>
       </c>
       <c r="G289" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H289" t="s">
         <v>9</v>
@@ -12829,7 +12832,7 @@
         <v>2.27800011634827</v>
       </c>
       <c r="G290" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H290" t="s">
         <v>9</v>
@@ -12855,7 +12858,7 @@
         <v>2.32200002670288</v>
       </c>
       <c r="G291" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H291" t="s">
         <v>9</v>
@@ -12881,7 +12884,7 @@
         <v>2.29999995231628</v>
       </c>
       <c r="G292" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H292" t="s">
         <v>9</v>
@@ -12907,7 +12910,7 @@
         <v>2.31599998474121</v>
       </c>
       <c r="G293" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H293" t="s">
         <v>9</v>
@@ -12933,7 +12936,7 @@
         <v>2.34999990463257</v>
       </c>
       <c r="G294" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H294" t="s">
         <v>9</v>
@@ -12959,7 +12962,7 @@
         <v>2.35800004005432</v>
       </c>
       <c r="G295" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H295" t="s">
         <v>9</v>
@@ -12985,7 +12988,7 @@
         <v>2.33400011062622</v>
       </c>
       <c r="G296" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H296" t="s">
         <v>9</v>
@@ -13011,7 +13014,7 @@
         <v>2.33800005912781</v>
       </c>
       <c r="G297" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H297" t="s">
         <v>9</v>
@@ -13037,7 +13040,7 @@
         <v>2.34400010108948</v>
       </c>
       <c r="G298" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H298" t="s">
         <v>9</v>
@@ -13063,7 +13066,7 @@
         <v>2.33999991416931</v>
       </c>
       <c r="G299" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H299" t="s">
         <v>9</v>
@@ -13115,7 +13118,7 @@
         <v>2.3659999370575</v>
       </c>
       <c r="G301" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H301" t="s">
         <v>9</v>
@@ -13141,7 +13144,7 @@
         <v>2.36999988555908</v>
       </c>
       <c r="G302" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H302" t="s">
         <v>9</v>
@@ -13167,7 +13170,7 @@
         <v>2.38800001144409</v>
       </c>
       <c r="G303" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H303" t="s">
         <v>9</v>
@@ -13193,7 +13196,7 @@
         <v>2.39400005340576</v>
       </c>
       <c r="G304" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H304" t="s">
         <v>9</v>
@@ -13219,7 +13222,7 @@
         <v>2.37400007247925</v>
       </c>
       <c r="G305" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H305" t="s">
         <v>9</v>
@@ -13245,7 +13248,7 @@
         <v>2.38000011444092</v>
       </c>
       <c r="G306" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H306" t="s">
         <v>9</v>
@@ -13271,7 +13274,7 @@
         <v>2.36800003051758</v>
       </c>
       <c r="G307" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H307" t="s">
         <v>9</v>
@@ -13297,7 +13300,7 @@
         <v>2.37199997901917</v>
       </c>
       <c r="G308" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H308" t="s">
         <v>9</v>
@@ -13323,7 +13326,7 @@
         <v>2.40400004386902</v>
       </c>
       <c r="G309" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H309" t="s">
         <v>9</v>
@@ -13349,7 +13352,7 @@
         <v>2.39800000190735</v>
       </c>
       <c r="G310" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H310" t="s">
         <v>9</v>
@@ -13375,7 +13378,7 @@
         <v>2.46000003814697</v>
       </c>
       <c r="G311" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H311" t="s">
         <v>9</v>
@@ -13401,7 +13404,7 @@
         <v>2.46799993515015</v>
       </c>
       <c r="G312" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H312" t="s">
         <v>9</v>
@@ -13427,7 +13430,7 @@
         <v>2.50399994850159</v>
       </c>
       <c r="G313" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H313" t="s">
         <v>9</v>
@@ -13453,7 +13456,7 @@
         <v>2.52600002288818</v>
       </c>
       <c r="G314" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H314" t="s">
         <v>9</v>
@@ -13479,7 +13482,7 @@
         <v>2.57999992370605</v>
       </c>
       <c r="G315" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H315" t="s">
         <v>9</v>
@@ -13505,7 +13508,7 @@
         <v>2.57999992370605</v>
       </c>
       <c r="G316" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H316" t="s">
         <v>9</v>
@@ -13531,7 +13534,7 @@
         <v>2.62199997901917</v>
       </c>
       <c r="G317" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H317" t="s">
         <v>9</v>
@@ -13557,7 +13560,7 @@
         <v>2.64199995994568</v>
       </c>
       <c r="G318" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H318" t="s">
         <v>9</v>
@@ -13583,7 +13586,7 @@
         <v>2.64400005340576</v>
       </c>
       <c r="G319" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H319" t="s">
         <v>9</v>
@@ -13609,7 +13612,7 @@
         <v>2.59599995613098</v>
       </c>
       <c r="G320" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H320" t="s">
         <v>9</v>
@@ -13635,7 +13638,7 @@
         <v>2.58400011062622</v>
       </c>
       <c r="G321" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H321" t="s">
         <v>9</v>
@@ -13661,7 +13664,7 @@
         <v>2.60800004005432</v>
       </c>
       <c r="G322" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H322" t="s">
         <v>9</v>
@@ -13687,7 +13690,7 @@
         <v>2.62400007247925</v>
       </c>
       <c r="G323" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H323" t="s">
         <v>9</v>
@@ -13713,7 +13716,7 @@
         <v>2.63000011444092</v>
       </c>
       <c r="G324" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H324" t="s">
         <v>9</v>
@@ -13739,7 +13742,7 @@
         <v>2.64400005340576</v>
       </c>
       <c r="G325" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H325" t="s">
         <v>9</v>
@@ -13765,7 +13768,7 @@
         <v>2.64400005340576</v>
       </c>
       <c r="G326" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H326" t="s">
         <v>9</v>
@@ -13791,7 +13794,7 @@
         <v>2.64400005340576</v>
       </c>
       <c r="G327" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H327" t="s">
         <v>9</v>
@@ -13817,7 +13820,7 @@
         <v>2.64000010490417</v>
       </c>
       <c r="G328" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H328" t="s">
         <v>9</v>
@@ -13843,7 +13846,7 @@
         <v>2.68400001525879</v>
       </c>
       <c r="G329" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H329" t="s">
         <v>9</v>
@@ -13869,7 +13872,7 @@
         <v>2.67400002479553</v>
       </c>
       <c r="G330" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H330" t="s">
         <v>9</v>
@@ -13895,7 +13898,7 @@
         <v>2.64000010490417</v>
       </c>
       <c r="G331" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H331" t="s">
         <v>9</v>
@@ -13921,7 +13924,7 @@
         <v>2.64400005340576</v>
       </c>
       <c r="G332" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H332" t="s">
         <v>9</v>
@@ -13947,7 +13950,7 @@
         <v>2.59400010108948</v>
       </c>
       <c r="G333" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H333" t="s">
         <v>9</v>
@@ -13973,7 +13976,7 @@
         <v>2.57999992370605</v>
       </c>
       <c r="G334" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H334" t="s">
         <v>9</v>
@@ -13999,7 +14002,7 @@
         <v>2.59999990463257</v>
       </c>
       <c r="G335" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H335" t="s">
         <v>9</v>
@@ -14025,7 +14028,7 @@
         <v>2.66199994087219</v>
       </c>
       <c r="G336" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H336" t="s">
         <v>9</v>
@@ -14051,7 +14054,7 @@
         <v>2.61999988555908</v>
       </c>
       <c r="G337" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H337" t="s">
         <v>9</v>
@@ -14077,7 +14080,7 @@
         <v>2.60599994659424</v>
       </c>
       <c r="G338" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H338" t="s">
         <v>9</v>
@@ -14103,7 +14106,7 @@
         <v>2.62400007247925</v>
       </c>
       <c r="G339" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H339" t="s">
         <v>9</v>
@@ -14129,7 +14132,7 @@
         <v>2.62599992752075</v>
       </c>
       <c r="G340" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H340" t="s">
         <v>9</v>
@@ -14155,7 +14158,7 @@
         <v>2.64599990844727</v>
       </c>
       <c r="G341" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H341" t="s">
         <v>9</v>
@@ -14181,7 +14184,7 @@
         <v>2.65599989891052</v>
       </c>
       <c r="G342" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H342" t="s">
         <v>9</v>
@@ -14207,7 +14210,7 @@
         <v>2.67199993133545</v>
       </c>
       <c r="G343" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H343" t="s">
         <v>9</v>
@@ -14233,7 +14236,7 @@
         <v>2.67600011825562</v>
       </c>
       <c r="G344" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H344" t="s">
         <v>9</v>
@@ -14259,7 +14262,7 @@
         <v>2.69000005722046</v>
       </c>
       <c r="G345" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H345" t="s">
         <v>9</v>
@@ -14285,7 +14288,7 @@
         <v>2.75399994850159</v>
       </c>
       <c r="G346" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H346" t="s">
         <v>9</v>
@@ -14311,7 +14314,7 @@
         <v>2.79999995231628</v>
       </c>
       <c r="G347" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H347" t="s">
         <v>9</v>
@@ -14337,7 +14340,7 @@
         <v>2.83999991416931</v>
       </c>
       <c r="G348" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H348" t="s">
         <v>9</v>
@@ -14363,7 +14366,7 @@
         <v>2.85599994659424</v>
       </c>
       <c r="G349" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H349" t="s">
         <v>9</v>
@@ -14389,7 +14392,7 @@
         <v>2.83200001716614</v>
       </c>
       <c r="G350" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H350" t="s">
         <v>9</v>
@@ -14415,7 +14418,7 @@
         <v>2.90199995040894</v>
       </c>
       <c r="G351" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H351" t="s">
         <v>9</v>
@@ -14441,7 +14444,7 @@
         <v>2.84999990463257</v>
       </c>
       <c r="G352" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H352" t="s">
         <v>9</v>
@@ -14467,7 +14470,7 @@
         <v>2.81399989128113</v>
       </c>
       <c r="G353" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="H353" t="s">
         <v>9</v>
@@ -14493,7 +14496,7 @@
         <v>2.86199998855591</v>
       </c>
       <c r="G354" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H354" t="s">
         <v>9</v>
@@ -14519,7 +14522,7 @@
         <v>2.88000011444092</v>
       </c>
       <c r="G355" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="H355" t="s">
         <v>9</v>
@@ -14545,7 +14548,7 @@
         <v>2.93799996376038</v>
       </c>
       <c r="G356" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H356" t="s">
         <v>9</v>
@@ -14571,7 +14574,7 @@
         <v>2.91599988937378</v>
       </c>
       <c r="G357" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H357" t="s">
         <v>9</v>
@@ -14597,7 +14600,7 @@
         <v>2.91400003433228</v>
       </c>
       <c r="G358" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H358" t="s">
         <v>9</v>
@@ -14623,7 +14626,7 @@
         <v>2.90000009536743</v>
       </c>
       <c r="G359" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H359" t="s">
         <v>9</v>
@@ -14649,7 +14652,7 @@
         <v>2.83599996566772</v>
       </c>
       <c r="G360" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H360" t="s">
         <v>9</v>
@@ -14675,7 +14678,7 @@
         <v>2.8840000629425</v>
       </c>
       <c r="G361" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H361" t="s">
         <v>9</v>
@@ -14701,7 +14704,7 @@
         <v>2.9300000667572</v>
       </c>
       <c r="G362" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H362" t="s">
         <v>9</v>
@@ -14727,7 +14730,7 @@
         <v>2.86999988555908</v>
       </c>
       <c r="G363" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H363" t="s">
         <v>9</v>
@@ -14753,7 +14756,7 @@
         <v>2.88000011444092</v>
       </c>
       <c r="G364" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="H364" t="s">
         <v>9</v>
@@ -14779,7 +14782,7 @@
         <v>2.86199998855591</v>
       </c>
       <c r="G365" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H365" t="s">
         <v>9</v>
@@ -14805,7 +14808,7 @@
         <v>2.90400004386902</v>
       </c>
       <c r="G366" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H366" t="s">
         <v>9</v>
@@ -14831,7 +14834,7 @@
         <v>2.90000009536743</v>
       </c>
       <c r="G367" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H367" t="s">
         <v>9</v>
@@ -14857,7 +14860,7 @@
         <v>2.92600011825562</v>
       </c>
       <c r="G368" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H368" t="s">
         <v>9</v>
@@ -14883,7 +14886,7 @@
         <v>2.91000008583069</v>
       </c>
       <c r="G369" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H369" t="s">
         <v>9</v>
@@ -14909,7 +14912,7 @@
         <v>2.96399998664856</v>
       </c>
       <c r="G370" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H370" t="s">
         <v>9</v>
@@ -14935,7 +14938,7 @@
         <v>2.94400000572205</v>
       </c>
       <c r="G371" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H371" t="s">
         <v>9</v>
@@ -14961,7 +14964,7 @@
         <v>2.97399997711182</v>
       </c>
       <c r="G372" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H372" t="s">
         <v>9</v>
@@ -14987,7 +14990,7 @@
         <v>2.95799994468689</v>
       </c>
       <c r="G373" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H373" t="s">
         <v>9</v>
@@ -15013,7 +15016,7 @@
         <v>2.9760000705719</v>
       </c>
       <c r="G374" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H374" t="s">
         <v>9</v>
@@ -15039,7 +15042,7 @@
         <v>2.90199995040894</v>
       </c>
       <c r="G375" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="H375" t="s">
         <v>9</v>
@@ -15065,7 +15068,7 @@
         <v>2.91599988937378</v>
       </c>
       <c r="G376" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H376" t="s">
         <v>9</v>
@@ -15091,7 +15094,7 @@
         <v>2.90799999237061</v>
       </c>
       <c r="G377" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H377" t="s">
         <v>9</v>
@@ -15117,7 +15120,7 @@
         <v>2.88599991798401</v>
       </c>
       <c r="G378" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="H378" t="s">
         <v>9</v>
@@ -17873,7 +17876,7 @@
         <v>2.90199995040894</v>
       </c>
       <c r="G484" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="H484" t="s">
         <v>9</v>
@@ -17925,7 +17928,7 @@
         <v>2.90799999237061</v>
       </c>
       <c r="G486" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H486" t="s">
         <v>9</v>
@@ -62393,7 +62396,7 @@
     </row>
     <row r="2197">
       <c r="A2197" s="1" t="n">
-        <v>45523.6497453704</v>
+        <v>45523.2916666667</v>
       </c>
       <c r="B2197" t="n">
         <v>1194805</v>
@@ -62414,6 +62417,32 @@
         <v>1647</v>
       </c>
       <c r="H2197" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2198">
+      <c r="A2198" s="1" t="n">
+        <v>45524.651099537</v>
+      </c>
+      <c r="B2198" t="n">
+        <v>1148076</v>
+      </c>
+      <c r="C2198" t="n">
+        <v>3.42400002479553</v>
+      </c>
+      <c r="D2198" t="n">
+        <v>3.39199995994568</v>
+      </c>
+      <c r="E2198" t="n">
+        <v>3.40599989891052</v>
+      </c>
+      <c r="F2198" t="n">
+        <v>3.39599990844727</v>
+      </c>
+      <c r="G2198" t="s">
+        <v>1648</v>
+      </c>
+      <c r="H2198" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/HER.MI.xlsx
+++ b/data/HER.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1650" uniqueCount="1650">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1651" uniqueCount="1651">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,79 +38,79 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">1.77115499973297</t>
+    <t xml:space="preserve">1.77115523815155</t>
   </si>
   <si>
     <t xml:space="preserve">HER.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">1.77260458469391</t>
+    <t xml:space="preserve">1.77260434627533</t>
   </si>
   <si>
     <t xml:space="preserve">1.76970565319061</t>
   </si>
   <si>
-    <t xml:space="preserve">1.77405381202698</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75086331367493</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78999722003937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85811817646027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86101722717285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83637773990631</t>
+    <t xml:space="preserve">1.7740535736084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75086355209351</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78999698162079</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85811853408813</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86101734638214</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83637738227844</t>
   </si>
   <si>
     <t xml:space="preserve">1.8117378950119</t>
   </si>
   <si>
-    <t xml:space="preserve">1.76680672168732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83927655220032</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81463694572449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83202922344208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87261211872101</t>
+    <t xml:space="preserve">1.7668069601059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83927643299103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81463670730591</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83202946186066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87261247634888</t>
   </si>
   <si>
     <t xml:space="preserve">1.8566689491272</t>
   </si>
   <si>
-    <t xml:space="preserve">1.87116277217865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90304934978485</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88420748710632</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86971342563629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91754341125488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92479038238525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90884733200073</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8914543390274</t>
+    <t xml:space="preserve">1.87116265296936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90304946899414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88420724868774</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86971378326416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91754305362701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92479026317596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90884721279144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89145421981812</t>
   </si>
   <si>
     <t xml:space="preserve">1.89725172519684</t>
@@ -119,34 +119,34 @@
     <t xml:space="preserve">1.79289591312408</t>
   </si>
   <si>
-    <t xml:space="preserve">1.80594038963318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82478201389313</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76245856285095</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82043445110321</t>
+    <t xml:space="preserve">1.80594027042389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82478225231171</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76245868206024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82043421268463</t>
   </si>
   <si>
     <t xml:space="preserve">1.86246657371521</t>
   </si>
   <si>
-    <t xml:space="preserve">1.84942209720612</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84217476844788</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86536514759064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86826407909393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88855540752411</t>
+    <t xml:space="preserve">1.84942233562469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84217524528503</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86536526679993</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86826431751251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88855564594269</t>
   </si>
   <si>
     <t xml:space="preserve">1.8987010717392</t>
@@ -155,67 +155,67 @@
     <t xml:space="preserve">1.85521960258484</t>
   </si>
   <si>
-    <t xml:space="preserve">1.8305801153183</t>
+    <t xml:space="preserve">1.83057987689972</t>
   </si>
   <si>
     <t xml:space="preserve">1.81028831005096</t>
   </si>
   <si>
-    <t xml:space="preserve">1.80449080467224</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79434514045715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80883896350861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79724419116974</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82913053035736</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84507393836975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82623159885406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8407256603241</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86391603946686</t>
+    <t xml:space="preserve">1.80449092388153</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79434537887573</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80883932113647</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79724383354187</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82913064956665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84507381916046</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82623183727264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84072554111481</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86391592025757</t>
   </si>
   <si>
     <t xml:space="preserve">1.90594840049744</t>
   </si>
   <si>
-    <t xml:space="preserve">1.8784099817276</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92623996734619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91174554824829</t>
+    <t xml:space="preserve">1.87840974330902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9262398481369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91174578666687</t>
   </si>
   <si>
     <t xml:space="preserve">1.8334789276123</t>
   </si>
   <si>
-    <t xml:space="preserve">1.84797251224518</t>
+    <t xml:space="preserve">1.84797275066376</t>
   </si>
   <si>
     <t xml:space="preserve">1.85377049446106</t>
   </si>
   <si>
-    <t xml:space="preserve">1.8436244726181</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84652352333069</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8755110502243</t>
+    <t xml:space="preserve">1.84362423419952</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84652316570282</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87551116943359</t>
   </si>
   <si>
     <t xml:space="preserve">1.87696039676666</t>
@@ -224,58 +224,58 @@
     <t xml:space="preserve">1.8595677614212</t>
   </si>
   <si>
-    <t xml:space="preserve">1.85087132453918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8218834400177</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81318747997284</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89435303211212</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9146443605423</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90015089511871</t>
+    <t xml:space="preserve">1.8508712053299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82188355922699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81318759918213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89435338973999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91464471817017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90015065670013</t>
   </si>
   <si>
     <t xml:space="preserve">1.91319513320923</t>
   </si>
   <si>
-    <t xml:space="preserve">1.89000523090363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90160024166107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89290404319763</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88130831718445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82768106460571</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7957946062088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80738973617554</t>
+    <t xml:space="preserve">1.89000511169434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90160000324249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89290380477905</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88130867481232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82768142223358</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79579436779022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80738961696625</t>
   </si>
   <si>
     <t xml:space="preserve">1.77550327777863</t>
   </si>
   <si>
-    <t xml:space="preserve">1.82295894622803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83949017524719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80492424964905</t>
+    <t xml:space="preserve">1.82295882701874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83948993682861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80492448806763</t>
   </si>
   <si>
     <t xml:space="preserve">1.82446181774139</t>
@@ -287,22 +287,22 @@
     <t xml:space="preserve">1.73579335212708</t>
   </si>
   <si>
-    <t xml:space="preserve">1.77336490154266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80342173576355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84700429439545</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90261006355286</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87555837631226</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87856423854828</t>
+    <t xml:space="preserve">1.77336478233337</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80342161655426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84700441360474</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90260982513428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87555873394012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87856435775757</t>
   </si>
   <si>
     <t xml:space="preserve">1.85151290893555</t>
@@ -311,10 +311,10 @@
     <t xml:space="preserve">1.84550166130066</t>
   </si>
   <si>
-    <t xml:space="preserve">1.7913990020752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82596457004547</t>
+    <t xml:space="preserve">1.79139888286591</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82596433162689</t>
   </si>
   <si>
     <t xml:space="preserve">1.81093633174896</t>
@@ -323,10 +323,10 @@
     <t xml:space="preserve">1.83648455142975</t>
   </si>
   <si>
-    <t xml:space="preserve">1.83197581768036</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82746732234955</t>
+    <t xml:space="preserve">1.83197605609894</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82746744155884</t>
   </si>
   <si>
     <t xml:space="preserve">1.83498167991638</t>
@@ -335,73 +335,73 @@
     <t xml:space="preserve">1.84099316596985</t>
   </si>
   <si>
-    <t xml:space="preserve">1.85001015663147</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90561580657959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92665529251099</t>
+    <t xml:space="preserve">1.85001003742218</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90561592578888</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92665576934814</t>
   </si>
   <si>
     <t xml:space="preserve">1.91914129257202</t>
   </si>
   <si>
-    <t xml:space="preserve">1.90411293506622</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93567276000977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89960408210754</t>
+    <t xml:space="preserve">1.90411269664764</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93567287921906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89960443973541</t>
   </si>
   <si>
     <t xml:space="preserve">1.91312992572784</t>
   </si>
   <si>
-    <t xml:space="preserve">1.86353600025177</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88758170604706</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88006734848022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81394171714783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80943322181702</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83347880840302</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84249603748322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85752415657043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86654198169708</t>
+    <t xml:space="preserve">1.86353576183319</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88758134841919</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88006746768951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81394159793854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80943298339844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83347868919373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84249567985535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85752427577972</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86654150485992</t>
   </si>
   <si>
     <t xml:space="preserve">1.8530158996582</t>
   </si>
   <si>
-    <t xml:space="preserve">1.85602164268494</t>
+    <t xml:space="preserve">1.85602152347565</t>
   </si>
   <si>
     <t xml:space="preserve">1.88307309150696</t>
   </si>
   <si>
-    <t xml:space="preserve">1.82145607471466</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80041599273682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.77035903930664</t>
+    <t xml:space="preserve">1.82145595550537</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80041611194611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77035892009735</t>
   </si>
   <si>
     <t xml:space="preserve">1.80191886425018</t>
@@ -410,13 +410,13 @@
     <t xml:space="preserve">1.819953083992</t>
   </si>
   <si>
-    <t xml:space="preserve">1.77486789226532</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7718620300293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76585042476654</t>
+    <t xml:space="preserve">1.77486753463745</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77186191082001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76585030555725</t>
   </si>
   <si>
     <t xml:space="preserve">1.75533068180084</t>
@@ -428,37 +428,37 @@
     <t xml:space="preserve">1.75983893871307</t>
   </si>
   <si>
-    <t xml:space="preserve">1.69221091270447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.66515946388245</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65163362026215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.638108253479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.66065096855164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.66966772079468</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.67417645454407</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.68169069290161</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69371378421783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.67868518829346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6997252702713</t>
+    <t xml:space="preserve">1.69221079349518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.66515958309174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65163350105286</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.63810789585114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.66065108776093</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.66966807842255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.67417657375336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.68169093132019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69371354579926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.67868494987488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69972503185272</t>
   </si>
   <si>
     <t xml:space="preserve">1.69822216033936</t>
@@ -476,22 +476,22 @@
     <t xml:space="preserve">1.67718243598938</t>
   </si>
   <si>
-    <t xml:space="preserve">1.68619930744171</t>
+    <t xml:space="preserve">1.686199426651</t>
   </si>
   <si>
     <t xml:space="preserve">1.72377038002014</t>
   </si>
   <si>
-    <t xml:space="preserve">1.73128497600555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75082194805145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6531366109848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6245824098587</t>
+    <t xml:space="preserve">1.73128485679626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75082206726074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65313673019409</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.62458229064941</t>
   </si>
   <si>
     <t xml:space="preserve">1.62157678604126</t>
@@ -500,37 +500,37 @@
     <t xml:space="preserve">1.60053694248199</t>
   </si>
   <si>
-    <t xml:space="preserve">1.51487445831299</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.51787984371185</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.49984586238861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.49909424781799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.50435435771942</t>
+    <t xml:space="preserve">1.5148743391037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.51787996292114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.49984574317932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.49909436702728</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.50435447692871</t>
   </si>
   <si>
     <t xml:space="preserve">1.48331439495087</t>
   </si>
   <si>
-    <t xml:space="preserve">1.47504866123199</t>
+    <t xml:space="preserve">1.47504878044128</t>
   </si>
   <si>
     <t xml:space="preserve">1.44799745082855</t>
   </si>
   <si>
-    <t xml:space="preserve">1.44649469852448</t>
+    <t xml:space="preserve">1.44649457931519</t>
   </si>
   <si>
     <t xml:space="preserve">1.46152305603027</t>
   </si>
   <si>
-    <t xml:space="preserve">1.46528005599976</t>
+    <t xml:space="preserve">1.46528017520905</t>
   </si>
   <si>
     <t xml:space="preserve">1.45025169849396</t>
@@ -539,28 +539,28 @@
     <t xml:space="preserve">1.45400869846344</t>
   </si>
   <si>
-    <t xml:space="preserve">1.45776605606079</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.46903741359711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.4329686164856</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.4096747636795</t>
+    <t xml:space="preserve">1.4577659368515</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.46903729438782</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.43296885490417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.40967464447021</t>
   </si>
   <si>
     <t xml:space="preserve">1.42846035957336</t>
   </si>
   <si>
-    <t xml:space="preserve">1.49233150482178</t>
+    <t xml:space="preserve">1.49233138561249</t>
   </si>
   <si>
     <t xml:space="preserve">1.53591418266296</t>
   </si>
   <si>
-    <t xml:space="preserve">1.54793691635132</t>
+    <t xml:space="preserve">1.54793679714203</t>
   </si>
   <si>
     <t xml:space="preserve">1.54042279720306</t>
@@ -575,31 +575,31 @@
     <t xml:space="preserve">1.55695414543152</t>
   </si>
   <si>
-    <t xml:space="preserve">1.5629655122757</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60654807090759</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.61556541919708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.62909090518951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65013098716736</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.62758803367615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.64712488651276</t>
+    <t xml:space="preserve">1.56296563148499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60654819011688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.61556529998779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6290910243988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65013086795807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.62758791446686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.64712524414062</t>
   </si>
   <si>
     <t xml:space="preserve">1.66816508769989</t>
   </si>
   <si>
-    <t xml:space="preserve">1.65614235401154</t>
+    <t xml:space="preserve">1.65614247322083</t>
   </si>
   <si>
     <t xml:space="preserve">1.65914785861969</t>
@@ -608,157 +608,157 @@
     <t xml:space="preserve">1.62307965755463</t>
   </si>
   <si>
-    <t xml:space="preserve">1.71325063705444</t>
+    <t xml:space="preserve">1.71325075626373</t>
   </si>
   <si>
     <t xml:space="preserve">1.70273077487946</t>
   </si>
   <si>
-    <t xml:space="preserve">1.71475350856781</t>
+    <t xml:space="preserve">1.7147536277771</t>
   </si>
   <si>
     <t xml:space="preserve">1.71625626087189</t>
   </si>
   <si>
-    <t xml:space="preserve">1.72076487541199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.70122766494751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.70423340797424</t>
+    <t xml:space="preserve">1.7207647562027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7012277841568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.70423352718353</t>
   </si>
   <si>
     <t xml:space="preserve">1.6335996389389</t>
   </si>
   <si>
-    <t xml:space="preserve">1.63660526275635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60955405235291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.64562213420868</t>
+    <t xml:space="preserve">1.63660538196564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60955393314362</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.64562249183655</t>
   </si>
   <si>
     <t xml:space="preserve">1.69070792198181</t>
   </si>
   <si>
-    <t xml:space="preserve">1.74481058120728</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.72827923297882</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7403017282486</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75382781028748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75683319568634</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76134192943573</t>
+    <t xml:space="preserve">1.74481046199799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.72827899456024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.74030196666718</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75382769107819</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75683331489563</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76134204864502</t>
   </si>
   <si>
     <t xml:space="preserve">1.758336186409</t>
   </si>
   <si>
-    <t xml:space="preserve">1.77787303924561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79440450668335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79891324043274</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78388464450836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78839349746704</t>
+    <t xml:space="preserve">1.77787339687347</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79440486431122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79891335964203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78388500213623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78839325904846</t>
   </si>
   <si>
     <t xml:space="preserve">1.77937614917755</t>
   </si>
   <si>
-    <t xml:space="preserve">1.782381772995</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80642735958099</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84850740432739</t>
+    <t xml:space="preserve">1.78238165378571</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80642759799957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84850764274597</t>
   </si>
   <si>
     <t xml:space="preserve">1.85451877117157</t>
   </si>
   <si>
-    <t xml:space="preserve">1.88157021999359</t>
+    <t xml:space="preserve">1.8815701007843</t>
   </si>
   <si>
     <t xml:space="preserve">1.89810144901276</t>
   </si>
   <si>
-    <t xml:space="preserve">1.93867826461792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.97023832798004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.98526656627655</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9867696762085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95070087909698</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94168400764465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95971858501434</t>
+    <t xml:space="preserve">1.9386785030365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.97023844718933</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.98526680469513</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.98677003383636</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95070123672485</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94168436527252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95971846580505</t>
   </si>
   <si>
     <t xml:space="preserve">1.97174119949341</t>
   </si>
   <si>
-    <t xml:space="preserve">1.97624981403351</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.98376393318176</t>
+    <t xml:space="preserve">1.97624957561493</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.98376369476318</t>
   </si>
   <si>
     <t xml:space="preserve">2.01682662963867</t>
   </si>
   <si>
-    <t xml:space="preserve">2.00931239128113</t>
+    <t xml:space="preserve">2.00931215286255</t>
   </si>
   <si>
     <t xml:space="preserve">1.94919848442078</t>
   </si>
   <si>
-    <t xml:space="preserve">1.9537068605423</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.00029540061951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96873497962952</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95821523666382</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9732438325882</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.98827242851257</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.99578678607941</t>
+    <t xml:space="preserve">1.95370709896088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.00029516220093</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96873545646667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9582154750824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.97324395179749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.98827230930328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.99578654766083</t>
   </si>
   <si>
     <t xml:space="preserve">2.00780940055847</t>
@@ -767,40 +767,40 @@
     <t xml:space="preserve">2.01081538200378</t>
   </si>
   <si>
-    <t xml:space="preserve">2.02133512496948</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.06942677497864</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.10399174690247</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.13404941558838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.14607167243958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.12803745269775</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.18063759803772</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.14156317710876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.11451172828674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.15058064460754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16410636901855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.20768857002258</t>
+    <t xml:space="preserve">2.02133536338806</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.06942629814148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.10399198532104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.13404893875122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.14607191085815</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.12803769111633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.18063712120056</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.14156365394592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.11451196670532</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.15058040618896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16410613059998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.20768880844116</t>
   </si>
   <si>
     <t xml:space="preserve">2.19115734100342</t>
@@ -809,76 +809,76 @@
     <t xml:space="preserve">2.18965458869934</t>
   </si>
   <si>
-    <t xml:space="preserve">2.17913460731506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.13104343414307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16711187362671</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.20167779922485</t>
+    <t xml:space="preserve">2.17913484573364</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.13104367256165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16711163520813</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.2016773223877</t>
   </si>
   <si>
     <t xml:space="preserve">2.15659189224243</t>
   </si>
   <si>
-    <t xml:space="preserve">2.18214058876038</t>
+    <t xml:space="preserve">2.1821403503418</t>
   </si>
   <si>
     <t xml:space="preserve">2.19867205619812</t>
   </si>
   <si>
-    <t xml:space="preserve">2.18664908409119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.22722601890564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.21219754219055</t>
+    <t xml:space="preserve">2.18664932250977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.22722578048706</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.21219730377197</t>
   </si>
   <si>
     <t xml:space="preserve">2.2347400188446</t>
   </si>
   <si>
-    <t xml:space="preserve">2.22271728515625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.23624300956726</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.24864101409912</t>
+    <t xml:space="preserve">2.22271704673767</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.23624277114868</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.24864053726196</t>
   </si>
   <si>
     <t xml:space="preserve">2.25948882102966</t>
   </si>
   <si>
-    <t xml:space="preserve">2.2532901763916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.17735362052917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.19130110740662</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.14945888519287</t>
+    <t xml:space="preserve">2.25328993797302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1773533821106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1913013458252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.14945864677429</t>
   </si>
   <si>
     <t xml:space="preserve">2.13551139831543</t>
   </si>
   <si>
-    <t xml:space="preserve">2.09211945533752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.0735228061676</t>
+    <t xml:space="preserve">2.09211921691895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.07352304458618</t>
   </si>
   <si>
     <t xml:space="preserve">2.0859203338623</t>
   </si>
   <si>
-    <t xml:space="preserve">2.08282065391541</t>
+    <t xml:space="preserve">2.08282113075256</t>
   </si>
   <si>
     <t xml:space="preserve">2.07197284698486</t>
@@ -893,10 +893,10 @@
     <t xml:space="preserve">2.07972145080566</t>
   </si>
   <si>
-    <t xml:space="preserve">2.05647611618042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.10606694221497</t>
+    <t xml:space="preserve">2.05647587776184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.10606670379639</t>
   </si>
   <si>
     <t xml:space="preserve">2.12931227684021</t>
@@ -905,7 +905,7 @@
     <t xml:space="preserve">2.11536502838135</t>
   </si>
   <si>
-    <t xml:space="preserve">2.10761666297913</t>
+    <t xml:space="preserve">2.10761642456055</t>
   </si>
   <si>
     <t xml:space="preserve">2.12156367301941</t>
@@ -914,19 +914,19 @@
     <t xml:space="preserve">2.09986805915833</t>
   </si>
   <si>
-    <t xml:space="preserve">2.13861083984375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.15410828590393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.10916614532471</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.0890200138092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.13086223602295</t>
+    <t xml:space="preserve">2.13861060142517</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.15410804748535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.10916638374329</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.08901977539062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.13086247444153</t>
   </si>
   <si>
     <t xml:space="preserve">2.12001442909241</t>
@@ -935,13 +935,13 @@
     <t xml:space="preserve">2.11846446990967</t>
   </si>
   <si>
-    <t xml:space="preserve">2.11226558685303</t>
+    <t xml:space="preserve">2.11226582527161</t>
   </si>
   <si>
     <t xml:space="preserve">2.12466335296631</t>
   </si>
   <si>
-    <t xml:space="preserve">2.12621283531189</t>
+    <t xml:space="preserve">2.12621307373047</t>
   </si>
   <si>
     <t xml:space="preserve">2.07662200927734</t>
@@ -950,37 +950,37 @@
     <t xml:space="preserve">2.13241219520569</t>
   </si>
   <si>
-    <t xml:space="preserve">2.11071586608887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.06887340545654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.04872727394104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.03477954864502</t>
+    <t xml:space="preserve">2.11071610450745</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.06887364387512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.04872751235962</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.0347797870636</t>
   </si>
   <si>
     <t xml:space="preserve">2.04097867012024</t>
   </si>
   <si>
-    <t xml:space="preserve">2.10141754150391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.08747005462646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.08437037467957</t>
+    <t xml:space="preserve">2.10141730308533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.08747029304504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.08437085151672</t>
   </si>
   <si>
     <t xml:space="preserve">2.0781717300415</t>
   </si>
   <si>
-    <t xml:space="preserve">2.15565800666809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.09366893768311</t>
+    <t xml:space="preserve">2.15565752983093</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.09366869926453</t>
   </si>
   <si>
     <t xml:space="preserve">2.07507252693176</t>
@@ -989,7 +989,7 @@
     <t xml:space="preserve">2.05957531929016</t>
   </si>
   <si>
-    <t xml:space="preserve">2.06112504005432</t>
+    <t xml:space="preserve">2.0611252784729</t>
   </si>
   <si>
     <t xml:space="preserve">2.04562783241272</t>
@@ -998,16 +998,16 @@
     <t xml:space="preserve">2.09676861763</t>
   </si>
   <si>
-    <t xml:space="preserve">2.11381530761719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.13706088066101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.14790916442871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.15100860595703</t>
+    <t xml:space="preserve">2.11381506919861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.13706135749817</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.14790940284729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.15100812911987</t>
   </si>
   <si>
     <t xml:space="preserve">2.14325976371765</t>
@@ -1022,22 +1022,22 @@
     <t xml:space="preserve">2.16185641288757</t>
   </si>
   <si>
-    <t xml:space="preserve">2.18510222434998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.20369911193848</t>
+    <t xml:space="preserve">2.18510246276855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.2036988735199</t>
   </si>
   <si>
     <t xml:space="preserve">2.23004412651062</t>
   </si>
   <si>
-    <t xml:space="preserve">2.24089193344116</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.2625880241394</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.27808523178101</t>
+    <t xml:space="preserve">2.24089217185974</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.26258826255798</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.27808547019958</t>
   </si>
   <si>
     <t xml:space="preserve">2.26878714561462</t>
@@ -1055,19 +1055,19 @@
     <t xml:space="preserve">2.2734363079071</t>
   </si>
   <si>
-    <t xml:space="preserve">2.27498626708984</t>
+    <t xml:space="preserve">2.27498602867126</t>
   </si>
   <si>
     <t xml:space="preserve">2.27653551101685</t>
   </si>
   <si>
-    <t xml:space="preserve">2.30753016471863</t>
+    <t xml:space="preserve">2.30752992630005</t>
   </si>
   <si>
     <t xml:space="preserve">2.35557126998901</t>
   </si>
   <si>
-    <t xml:space="preserve">2.34007406234741</t>
+    <t xml:space="preserve">2.34007430076599</t>
   </si>
   <si>
     <t xml:space="preserve">2.34317326545715</t>
@@ -1082,31 +1082,31 @@
     <t xml:space="preserve">2.3912148475647</t>
   </si>
   <si>
-    <t xml:space="preserve">2.38656544685364</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.4268581867218</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.37416768074036</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.35867047309875</t>
+    <t xml:space="preserve">2.38656568527222</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.42685866355896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.37416791915894</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.35867071151733</t>
   </si>
   <si>
     <t xml:space="preserve">2.38966536521912</t>
   </si>
   <si>
-    <t xml:space="preserve">2.40206265449524</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.33852410316467</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.34162402153015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.36331987380981</t>
+    <t xml:space="preserve">2.40206289291382</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.33852458000183</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.34162378311157</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.36331963539124</t>
   </si>
   <si>
     <t xml:space="preserve">2.31217932701111</t>
@@ -1121,40 +1121,40 @@
     <t xml:space="preserve">2.25483989715576</t>
   </si>
   <si>
-    <t xml:space="preserve">2.2346932888031</t>
+    <t xml:space="preserve">2.23469305038452</t>
   </si>
   <si>
     <t xml:space="preserve">2.29358243942261</t>
   </si>
   <si>
-    <t xml:space="preserve">2.34472322463989</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.39741373062134</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.32457709312439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.35402178764343</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.32147765159607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.36177015304565</t>
+    <t xml:space="preserve">2.34472346305847</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.39741396903992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.32457685470581</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.35402154922485</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.32147741317749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.36177039146423</t>
   </si>
   <si>
     <t xml:space="preserve">2.37106847763062</t>
   </si>
   <si>
-    <t xml:space="preserve">2.38501572608948</t>
+    <t xml:space="preserve">2.38501596450806</t>
   </si>
   <si>
     <t xml:space="preserve">2.33077573776245</t>
   </si>
   <si>
-    <t xml:space="preserve">2.36487007141113</t>
+    <t xml:space="preserve">2.3648693561554</t>
   </si>
   <si>
     <t xml:space="preserve">2.32922625541687</t>
@@ -1163,16 +1163,16 @@
     <t xml:space="preserve">2.2656877040863</t>
   </si>
   <si>
-    <t xml:space="preserve">2.2145471572876</t>
+    <t xml:space="preserve">2.21454668045044</t>
   </si>
   <si>
     <t xml:space="preserve">2.18975162506104</t>
   </si>
   <si>
-    <t xml:space="preserve">2.13396191596985</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.10451722145081</t>
+    <t xml:space="preserve">2.13396143913269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.10451698303223</t>
   </si>
   <si>
     <t xml:space="preserve">2.17270445823669</t>
@@ -1190,46 +1190,46 @@
     <t xml:space="preserve">2.14635944366455</t>
   </si>
   <si>
-    <t xml:space="preserve">2.11691498756409</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16340613365173</t>
+    <t xml:space="preserve">2.11691474914551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16340637207031</t>
   </si>
   <si>
     <t xml:space="preserve">2.16030693054199</t>
   </si>
   <si>
-    <t xml:space="preserve">2.15875744819641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.18045282363892</t>
+    <t xml:space="preserve">2.15875720977783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.18045330047607</t>
   </si>
   <si>
     <t xml:space="preserve">2.17580413818359</t>
   </si>
   <si>
-    <t xml:space="preserve">2.19905018806458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.29513239860535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.30443048477173</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.31372928619385</t>
+    <t xml:space="preserve">2.19904971122742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.29513216018677</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.30443072319031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.31372880935669</t>
   </si>
   <si>
     <t xml:space="preserve">2.32612681388855</t>
   </si>
   <si>
-    <t xml:space="preserve">2.34782290458679</t>
+    <t xml:space="preserve">2.34782242774963</t>
   </si>
   <si>
     <t xml:space="preserve">2.31837821006775</t>
   </si>
   <si>
-    <t xml:space="preserve">2.33697438240051</t>
+    <t xml:space="preserve">2.33697462081909</t>
   </si>
   <si>
     <t xml:space="preserve">2.37881708145142</t>
@@ -1238,10 +1238,10 @@
     <t xml:space="preserve">2.3834662437439</t>
   </si>
   <si>
-    <t xml:space="preserve">2.36951899528503</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.31062960624695</t>
+    <t xml:space="preserve">2.36951875686646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.31062936782837</t>
   </si>
   <si>
     <t xml:space="preserve">2.33542466163635</t>
@@ -1250,100 +1250,100 @@
     <t xml:space="preserve">2.22074580192566</t>
   </si>
   <si>
-    <t xml:space="preserve">2.20059990882874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.09831809997559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.01928234100342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.03787922859192</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.05492615699768</t>
+    <t xml:space="preserve">2.20059943199158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.09831833839417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.019282579422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.0378794670105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.0549259185791</t>
   </si>
   <si>
     <t xml:space="preserve">2.04252815246582</t>
   </si>
   <si>
-    <t xml:space="preserve">2.05182647705078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.02083253860474</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.10410904884338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.13783931732178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.14908242225647</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.11374616622925</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.11695885658264</t>
+    <t xml:space="preserve">2.05182671546936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.02083230018616</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1041088104248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.13783884048462</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.14908266067505</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.11374640464783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.11695861816406</t>
   </si>
   <si>
     <t xml:space="preserve">2.15068888664246</t>
   </si>
   <si>
-    <t xml:space="preserve">2.13623285293579</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16675043106079</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.14426374435425</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.18441843986511</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.21493625640869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.234210729599</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.24063539505005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.22457361221313</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.21654272079468</t>
+    <t xml:space="preserve">2.13623309135437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16675066947937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.14426398277283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.18441891670227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.21493649482727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.23421049118042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.24063515663147</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.22457337379456</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.21654224395752</t>
   </si>
   <si>
     <t xml:space="preserve">2.22778582572937</t>
   </si>
   <si>
-    <t xml:space="preserve">2.21333003044128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.24866604804993</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.25348520278931</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.23260450363159</t>
+    <t xml:space="preserve">2.21333026885986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.24866628646851</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.25348472595215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.23260426521301</t>
   </si>
   <si>
     <t xml:space="preserve">2.18281245231628</t>
   </si>
   <si>
-    <t xml:space="preserve">2.16996288299561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.28882098197937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.25187849998474</t>
+    <t xml:space="preserve">2.16996264457703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.28882122039795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.25187873840332</t>
   </si>
   <si>
     <t xml:space="preserve">2.27757787704468</t>
@@ -1352,49 +1352,49 @@
     <t xml:space="preserve">2.26794052124023</t>
   </si>
   <si>
-    <t xml:space="preserve">2.30006408691406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.29845833778381</t>
+    <t xml:space="preserve">2.30006456375122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.29845786094666</t>
   </si>
   <si>
     <t xml:space="preserve">2.264728307724</t>
   </si>
   <si>
-    <t xml:space="preserve">2.24384713172913</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.23099803924561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.21172404289246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.20529913902283</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.1988742351532</t>
+    <t xml:space="preserve">2.24384784698486</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.23099827766418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.21172380447388</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.20529937744141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.19887399673462</t>
   </si>
   <si>
     <t xml:space="preserve">2.24706029891968</t>
   </si>
   <si>
-    <t xml:space="preserve">2.23742318153381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.22939205169678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.17478132247925</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.17799401283264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16835713386536</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.18602466583252</t>
+    <t xml:space="preserve">2.23742294311523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.2293918132782</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.17478156089783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.17799377441406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16835689544678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1860249042511</t>
   </si>
   <si>
     <t xml:space="preserve">2.20369291305542</t>
@@ -1406,7 +1406,7 @@
     <t xml:space="preserve">2.26954674720764</t>
   </si>
   <si>
-    <t xml:space="preserve">2.28239607810974</t>
+    <t xml:space="preserve">2.28239631652832</t>
   </si>
   <si>
     <t xml:space="preserve">2.27918386459351</t>
@@ -1415,34 +1415,34 @@
     <t xml:space="preserve">2.28400254249573</t>
   </si>
   <si>
-    <t xml:space="preserve">2.29042720794678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.29363965988159</t>
+    <t xml:space="preserve">2.2904269695282</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.29363942146301</t>
   </si>
   <si>
     <t xml:space="preserve">2.25669693946838</t>
   </si>
   <si>
-    <t xml:space="preserve">2.20048022270203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.19566178321838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.15390110015869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.14587020874023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.12820196151733</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.0896532535553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.03504323959351</t>
+    <t xml:space="preserve">2.20048069953918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.19566202163696</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.15390086174011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.14587044715881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.12820243835449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.08965349197388</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.03504300117493</t>
   </si>
   <si>
     <t xml:space="preserve">2.05592346191406</t>
@@ -1451,25 +1451,25 @@
     <t xml:space="preserve">2.00934433937073</t>
   </si>
   <si>
-    <t xml:space="preserve">1.97400784492493</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93224680423737</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.98685717582703</t>
+    <t xml:space="preserve">1.97400772571564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93224656581879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.98685729503632</t>
   </si>
   <si>
     <t xml:space="preserve">1.94188380241394</t>
   </si>
   <si>
-    <t xml:space="preserve">1.96437072753906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.97240161895752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94027781486511</t>
+    <t xml:space="preserve">1.96437048912048</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.97240149974823</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94027769565582</t>
   </si>
   <si>
     <t xml:space="preserve">1.92903423309326</t>
@@ -1478,28 +1478,28 @@
     <t xml:space="preserve">1.99970674514771</t>
   </si>
   <si>
-    <t xml:space="preserve">1.96758306026459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96115827560425</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94991493225098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95955193042755</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95794570446014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.97561407089233</t>
+    <t xml:space="preserve">1.96758329868317</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96115803718567</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94991505146027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95955181121826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95794606208801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.97561430931091</t>
   </si>
   <si>
     <t xml:space="preserve">1.99328219890594</t>
   </si>
   <si>
-    <t xml:space="preserve">2.03986167907715</t>
+    <t xml:space="preserve">2.03986144065857</t>
   </si>
   <si>
     <t xml:space="preserve">1.99006950855255</t>
@@ -1508,70 +1508,70 @@
     <t xml:space="preserve">2.05271100997925</t>
   </si>
   <si>
-    <t xml:space="preserve">2.04307389259338</t>
+    <t xml:space="preserve">2.0430736541748</t>
   </si>
   <si>
     <t xml:space="preserve">2.05110478401184</t>
   </si>
   <si>
-    <t xml:space="preserve">2.01416230201721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.00291919708252</t>
+    <t xml:space="preserve">2.01416254043579</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.00291895866394</t>
   </si>
   <si>
     <t xml:space="preserve">1.99649453163147</t>
   </si>
   <si>
-    <t xml:space="preserve">1.99167621135712</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96276426315308</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.98043262958527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94830894470215</t>
+    <t xml:space="preserve">1.99167573451996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96276473999023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.98043274879456</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94830882549286</t>
   </si>
   <si>
     <t xml:space="preserve">2.01095008850098</t>
   </si>
   <si>
-    <t xml:space="preserve">1.93867158889771</t>
+    <t xml:space="preserve">1.93867146968842</t>
   </si>
   <si>
     <t xml:space="preserve">2.02058720588684</t>
   </si>
   <si>
-    <t xml:space="preserve">2.06074213981628</t>
+    <t xml:space="preserve">2.06074190139771</t>
   </si>
   <si>
     <t xml:space="preserve">2.17156910896301</t>
   </si>
   <si>
-    <t xml:space="preserve">2.11214017868042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.14265775680542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.17638802528381</t>
+    <t xml:space="preserve">2.112140417099</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.14265727996826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.17638778686523</t>
   </si>
   <si>
     <t xml:space="preserve">2.16032576560974</t>
   </si>
   <si>
-    <t xml:space="preserve">2.27275919914246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.27597188949585</t>
+    <t xml:space="preserve">2.27275896072388</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.27597165107727</t>
   </si>
   <si>
     <t xml:space="preserve">2.2599093914032</t>
   </si>
   <si>
-    <t xml:space="preserve">2.28721475601196</t>
+    <t xml:space="preserve">2.28721499443054</t>
   </si>
   <si>
     <t xml:space="preserve">2.29203343391418</t>
@@ -1586,13 +1586,13 @@
     <t xml:space="preserve">2.28079009056091</t>
   </si>
   <si>
-    <t xml:space="preserve">2.30970168113708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.34503769874573</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.34664392471313</t>
+    <t xml:space="preserve">2.30970144271851</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.34503793716431</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.34664368629456</t>
   </si>
   <si>
     <t xml:space="preserve">2.37073659896851</t>
@@ -1604,61 +1604,61 @@
     <t xml:space="preserve">2.36752438545227</t>
   </si>
   <si>
-    <t xml:space="preserve">2.36913061141968</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.37555527687073</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.35467505455017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.34021902084351</t>
+    <t xml:space="preserve">2.3691303730011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.37555503845215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.35467481613159</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.34021925926208</t>
   </si>
   <si>
     <t xml:space="preserve">2.36591839790344</t>
   </si>
   <si>
-    <t xml:space="preserve">2.38840460777283</t>
+    <t xml:space="preserve">2.38840508460999</t>
   </si>
   <si>
     <t xml:space="preserve">2.38679838180542</t>
   </si>
   <si>
-    <t xml:space="preserve">2.39322352409363</t>
+    <t xml:space="preserve">2.39322328567505</t>
   </si>
   <si>
     <t xml:space="preserve">2.38358640670776</t>
   </si>
   <si>
-    <t xml:space="preserve">2.37394905090332</t>
+    <t xml:space="preserve">2.3739492893219</t>
   </si>
   <si>
     <t xml:space="preserve">2.34343147277832</t>
   </si>
   <si>
-    <t xml:space="preserve">2.41089153289795</t>
+    <t xml:space="preserve">2.41089177131653</t>
   </si>
   <si>
     <t xml:space="preserve">2.37716150283813</t>
   </si>
   <si>
-    <t xml:space="preserve">2.3386127948761</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.35306882858276</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.34985637664795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.38519239425659</t>
+    <t xml:space="preserve">2.33861303329468</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.35306835174561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.34985661506653</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.38519263267517</t>
   </si>
   <si>
     <t xml:space="preserve">2.38197994232178</t>
   </si>
   <si>
-    <t xml:space="preserve">2.3996479511261</t>
+    <t xml:space="preserve">2.39964818954468</t>
   </si>
   <si>
     <t xml:space="preserve">2.40767884254456</t>
@@ -1667,13 +1667,13 @@
     <t xml:space="preserve">2.34182524681091</t>
   </si>
   <si>
-    <t xml:space="preserve">2.32255101203918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.43177223205566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.46871423721313</t>
+    <t xml:space="preserve">2.32255125045776</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.43177175521851</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.46871399879456</t>
   </si>
   <si>
     <t xml:space="preserve">2.47032046318054</t>
@@ -1685,10 +1685,10 @@
     <t xml:space="preserve">2.51850605010986</t>
   </si>
   <si>
-    <t xml:space="preserve">2.52171850204468</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.56829810142517</t>
+    <t xml:space="preserve">2.52171874046326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.56829762458801</t>
   </si>
   <si>
     <t xml:space="preserve">2.5875723361969</t>
@@ -1697,7 +1697,7 @@
     <t xml:space="preserve">2.58275389671326</t>
   </si>
   <si>
-    <t xml:space="preserve">2.58917856216431</t>
+    <t xml:space="preserve">2.58917880058289</t>
   </si>
   <si>
     <t xml:space="preserve">2.60202813148499</t>
@@ -1706,34 +1706,34 @@
     <t xml:space="preserve">2.64378905296326</t>
   </si>
   <si>
-    <t xml:space="preserve">2.61487770080566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.59560370445251</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.6100594997406</t>
+    <t xml:space="preserve">2.61487793922424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.59560346603394</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.61005926132202</t>
   </si>
   <si>
     <t xml:space="preserve">2.55384254455566</t>
   </si>
   <si>
-    <t xml:space="preserve">2.57151055335999</t>
+    <t xml:space="preserve">2.57151079177856</t>
   </si>
   <si>
     <t xml:space="preserve">2.5570547580719</t>
   </si>
   <si>
-    <t xml:space="preserve">2.52493119239807</t>
+    <t xml:space="preserve">2.52493095397949</t>
   </si>
   <si>
     <t xml:space="preserve">2.54099273681641</t>
   </si>
   <si>
-    <t xml:space="preserve">2.54420495033264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.55866122245789</t>
+    <t xml:space="preserve">2.5442054271698</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.55866098403931</t>
   </si>
   <si>
     <t xml:space="preserve">2.53778076171875</t>
@@ -1745,19 +1745,19 @@
     <t xml:space="preserve">2.56347942352295</t>
   </si>
   <si>
-    <t xml:space="preserve">2.55063033103943</t>
+    <t xml:space="preserve">2.55063009262085</t>
   </si>
   <si>
     <t xml:space="preserve">2.51690006256104</t>
   </si>
   <si>
-    <t xml:space="preserve">2.53938698768616</t>
+    <t xml:space="preserve">2.53938674926758</t>
   </si>
   <si>
     <t xml:space="preserve">2.52011227607727</t>
   </si>
   <si>
-    <t xml:space="preserve">2.57954144477844</t>
+    <t xml:space="preserve">2.57954120635986</t>
   </si>
   <si>
     <t xml:space="preserve">2.62451457977295</t>
@@ -1772,7 +1772,7 @@
     <t xml:space="preserve">2.63897061347961</t>
   </si>
   <si>
-    <t xml:space="preserve">2.65181994438171</t>
+    <t xml:space="preserve">2.65182018280029</t>
   </si>
   <si>
     <t xml:space="preserve">2.6534264087677</t>
@@ -1781,13 +1781,13 @@
     <t xml:space="preserve">2.63093948364258</t>
   </si>
   <si>
-    <t xml:space="preserve">2.62933301925659</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.6229088306427</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.61166524887085</t>
+    <t xml:space="preserve">2.62933325767517</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.62290859222412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.61166548728943</t>
   </si>
   <si>
     <t xml:space="preserve">2.65985083580017</t>
@@ -1796,22 +1796,22 @@
     <t xml:space="preserve">2.68715620040894</t>
   </si>
   <si>
-    <t xml:space="preserve">2.70000576972961</t>
+    <t xml:space="preserve">2.70000553131104</t>
   </si>
   <si>
     <t xml:space="preserve">2.70161199569702</t>
   </si>
   <si>
-    <t xml:space="preserve">2.69679355621338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.69839954376221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.68554973602295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.68233752250671</t>
+    <t xml:space="preserve">2.6967933177948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.69839978218079</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.68554997444153</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.68233728408813</t>
   </si>
   <si>
     <t xml:space="preserve">2.74497890472412</t>
@@ -1820,16 +1820,16 @@
     <t xml:space="preserve">2.75140380859375</t>
   </si>
   <si>
-    <t xml:space="preserve">2.78513360023499</t>
+    <t xml:space="preserve">2.78513383865356</t>
   </si>
   <si>
     <t xml:space="preserve">2.81725764274597</t>
   </si>
   <si>
-    <t xml:space="preserve">2.79741811752319</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.77923107147217</t>
+    <t xml:space="preserve">2.79741787910461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.77923130989075</t>
   </si>
   <si>
     <t xml:space="preserve">2.78253769874573</t>
@@ -1841,31 +1841,31 @@
     <t xml:space="preserve">2.78088450431824</t>
   </si>
   <si>
-    <t xml:space="preserve">2.76600456237793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.83213758468628</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.91645693778992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.9131498336792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.88835048675537</t>
+    <t xml:space="preserve">2.76600480079651</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.8321373462677</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.9164571762085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.91315007209778</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.88835024833679</t>
   </si>
   <si>
     <t xml:space="preserve">2.8767774105072</t>
   </si>
   <si>
-    <t xml:space="preserve">2.8866970539093</t>
+    <t xml:space="preserve">2.88669729232788</t>
   </si>
   <si>
     <t xml:space="preserve">2.90157699584961</t>
   </si>
   <si>
-    <t xml:space="preserve">2.89992356300354</t>
+    <t xml:space="preserve">2.89992380142212</t>
   </si>
   <si>
     <t xml:space="preserve">2.93299007415771</t>
@@ -1874,10 +1874,10 @@
     <t xml:space="preserve">2.91149687767029</t>
   </si>
   <si>
-    <t xml:space="preserve">2.86189723014832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.84701752662659</t>
+    <t xml:space="preserve">2.86189746856689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.84701728820801</t>
   </si>
   <si>
     <t xml:space="preserve">2.85197734832764</t>
@@ -1889,10 +1889,10 @@
     <t xml:space="preserve">2.83048415184021</t>
   </si>
   <si>
-    <t xml:space="preserve">2.83544445037842</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.76931118965149</t>
+    <t xml:space="preserve">2.83544421195984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.76931095123291</t>
   </si>
   <si>
     <t xml:space="preserve">2.78584456443787</t>
@@ -1901,31 +1901,31 @@
     <t xml:space="preserve">2.8387508392334</t>
   </si>
   <si>
-    <t xml:space="preserve">2.81229758262634</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.79576444625854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.80733776092529</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.82883071899414</t>
+    <t xml:space="preserve">2.81229782104492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.79576468467712</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.80733728408813</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.82883095741272</t>
   </si>
   <si>
     <t xml:space="preserve">2.8056845664978</t>
   </si>
   <si>
-    <t xml:space="preserve">2.83709764480591</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.78749775886536</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.86520409584045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.89165687561035</t>
+    <t xml:space="preserve">2.83709740638733</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.78749799728394</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.86520385742188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.89165711402893</t>
   </si>
   <si>
     <t xml:space="preserve">2.88173723220825</t>
@@ -1934,7 +1934,7 @@
     <t xml:space="preserve">2.89000368118286</t>
   </si>
   <si>
-    <t xml:space="preserve">2.91811013221741</t>
+    <t xml:space="preserve">2.91810989379883</t>
   </si>
   <si>
     <t xml:space="preserve">2.98920273780823</t>
@@ -1946,22 +1946,22 @@
     <t xml:space="preserve">3.02392268180847</t>
   </si>
   <si>
-    <t xml:space="preserve">2.99912309646606</t>
+    <t xml:space="preserve">2.99912285804749</t>
   </si>
   <si>
     <t xml:space="preserve">2.99416279792786</t>
   </si>
   <si>
-    <t xml:space="preserve">2.9958164691925</t>
+    <t xml:space="preserve">2.99581623077393</t>
   </si>
   <si>
     <t xml:space="preserve">3.02557611465454</t>
   </si>
   <si>
-    <t xml:space="preserve">3.00408267974854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.90488338470459</t>
+    <t xml:space="preserve">3.00408291816711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.90488362312317</t>
   </si>
   <si>
     <t xml:space="preserve">2.89661693572998</t>
@@ -1970,13 +1970,13 @@
     <t xml:space="preserve">2.951176404953</t>
   </si>
   <si>
-    <t xml:space="preserve">2.92307043075562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.9263768196106</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.95282983779907</t>
+    <t xml:space="preserve">2.92306995391846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.92637658119202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.95283007621765</t>
   </si>
   <si>
     <t xml:space="preserve">3.01565599441528</t>
@@ -1991,43 +1991,43 @@
     <t xml:space="preserve">3.0619490146637</t>
   </si>
   <si>
-    <t xml:space="preserve">3.06029558181763</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.13304162025452</t>
+    <t xml:space="preserve">3.06029534339905</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.1330418586731</t>
   </si>
   <si>
     <t xml:space="preserve">3.07517552375793</t>
   </si>
   <si>
-    <t xml:space="preserve">3.11320185661316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.0669093132019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.08178877830505</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.12808203697205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.13469481468201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.1165087223053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.09005522727966</t>
+    <t xml:space="preserve">3.11320209503174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.06690907478333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.08178901672363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.12808179855347</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.13469505310059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.11650848388672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.09005546569824</t>
   </si>
   <si>
     <t xml:space="preserve">3.11485505104065</t>
   </si>
   <si>
-    <t xml:space="preserve">3.1264283657074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.09501528739929</t>
+    <t xml:space="preserve">3.12642860412598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.09501552581787</t>
   </si>
   <si>
     <t xml:space="preserve">3.13634848594666</t>
@@ -2039,13 +2039,13 @@
     <t xml:space="preserve">3.07682871818542</t>
   </si>
   <si>
-    <t xml:space="preserve">3.10493516921997</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.11816191673279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.15949511528015</t>
+    <t xml:space="preserve">3.10493540763855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.11816215515137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.15949487686157</t>
   </si>
   <si>
     <t xml:space="preserve">3.17272138595581</t>
@@ -2054,13 +2054,13 @@
     <t xml:space="preserve">3.16280150413513</t>
   </si>
   <si>
-    <t xml:space="preserve">3.18429470062256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.14296174049377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.16776180267334</t>
+    <t xml:space="preserve">3.18429493904114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.14296197891235</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.16776156425476</t>
   </si>
   <si>
     <t xml:space="preserve">3.180988073349</t>
@@ -2069,34 +2069,34 @@
     <t xml:space="preserve">3.16610813140869</t>
   </si>
   <si>
-    <t xml:space="preserve">3.1876015663147</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.18925499916077</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.21570777893066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.29176068305969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.3165602684021</t>
+    <t xml:space="preserve">3.18760108947754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.18925476074219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.21570801734924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.29176044464111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.31656050682068</t>
   </si>
   <si>
     <t xml:space="preserve">3.31325364112854</t>
   </si>
   <si>
-    <t xml:space="preserve">3.33805370330811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.31490731239319</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.28018736839294</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.29837369918823</t>
+    <t xml:space="preserve">3.33805346488953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.31490707397461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.28018712997437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.29837417602539</t>
   </si>
   <si>
     <t xml:space="preserve">3.27357411384583</t>
@@ -2105,13 +2105,13 @@
     <t xml:space="preserve">3.30333375930786</t>
   </si>
   <si>
-    <t xml:space="preserve">3.29341411590576</t>
+    <t xml:space="preserve">3.29341387748718</t>
   </si>
   <si>
     <t xml:space="preserve">3.30994725227356</t>
   </si>
   <si>
-    <t xml:space="preserve">3.17602801322937</t>
+    <t xml:space="preserve">3.17602825164795</t>
   </si>
   <si>
     <t xml:space="preserve">3.20248126983643</t>
@@ -2120,22 +2120,22 @@
     <t xml:space="preserve">3.24050760269165</t>
   </si>
   <si>
-    <t xml:space="preserve">3.21736121177673</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.21074795722961</t>
+    <t xml:space="preserve">3.21736097335815</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.21074771881104</t>
   </si>
   <si>
     <t xml:space="preserve">3.18594813346863</t>
   </si>
   <si>
-    <t xml:space="preserve">3.2190146446228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.22728133201599</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.1743745803833</t>
+    <t xml:space="preserve">3.21901440620422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.22728109359741</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.17437481880188</t>
   </si>
   <si>
     <t xml:space="preserve">3.24381422996521</t>
@@ -2144,19 +2144,19 @@
     <t xml:space="preserve">3.29010725021362</t>
   </si>
   <si>
-    <t xml:space="preserve">3.28680038452148</t>
+    <t xml:space="preserve">3.28680062294006</t>
   </si>
   <si>
     <t xml:space="preserve">3.28184056282043</t>
   </si>
   <si>
-    <t xml:space="preserve">3.34135985374451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.27853393554688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.28349375724792</t>
+    <t xml:space="preserve">3.34136009216309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.27853417396545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.2834939956665</t>
   </si>
   <si>
     <t xml:space="preserve">3.22397446632385</t>
@@ -2165,25 +2165,25 @@
     <t xml:space="preserve">3.2124011516571</t>
   </si>
   <si>
-    <t xml:space="preserve">3.22232103347778</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.19586753845215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.19256138801575</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.26034736633301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.30498719215393</t>
+    <t xml:space="preserve">3.22232127189636</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.19586777687073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.19256114959717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.26034760475159</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.30498695373535</t>
   </si>
   <si>
     <t xml:space="preserve">3.30168032646179</t>
   </si>
   <si>
-    <t xml:space="preserve">3.24877452850342</t>
+    <t xml:space="preserve">3.24877405166626</t>
   </si>
   <si>
     <t xml:space="preserve">3.39426636695862</t>
@@ -2192,31 +2192,31 @@
     <t xml:space="preserve">3.50338554382324</t>
   </si>
   <si>
-    <t xml:space="preserve">3.43725275993347</t>
+    <t xml:space="preserve">3.43725252151489</t>
   </si>
   <si>
     <t xml:space="preserve">3.57613158226013</t>
   </si>
   <si>
-    <t xml:space="preserve">3.57447838783264</t>
+    <t xml:space="preserve">3.57447814941406</t>
   </si>
   <si>
     <t xml:space="preserve">3.50503849983215</t>
   </si>
   <si>
-    <t xml:space="preserve">3.39095997810364</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.39922642707825</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.4091465473175</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.45709276199341</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.49842524528503</t>
+    <t xml:space="preserve">3.39095973968506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.39922618865967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.40914630889893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.45709252357483</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.49842548370361</t>
   </si>
   <si>
     <t xml:space="preserve">3.51165223121643</t>
@@ -2228,25 +2228,25 @@
     <t xml:space="preserve">3.55463862419128</t>
   </si>
   <si>
-    <t xml:space="preserve">3.56786489486694</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.60754442214966</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.58109140396118</t>
+    <t xml:space="preserve">3.56786513328552</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.60754466056824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.58109164237976</t>
   </si>
   <si>
     <t xml:space="preserve">3.58605146408081</t>
   </si>
   <si>
-    <t xml:space="preserve">3.59927773475647</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.68855738639832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.66871762275696</t>
+    <t xml:space="preserve">3.59927797317505</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.68855714797974</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.66871738433838</t>
   </si>
   <si>
     <t xml:space="preserve">3.64722466468811</t>
@@ -2261,10 +2261,10 @@
     <t xml:space="preserve">3.46205258369446</t>
   </si>
   <si>
-    <t xml:space="preserve">3.40087938308716</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.20578813552856</t>
+    <t xml:space="preserve">3.40087962150574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.20578789710999</t>
   </si>
   <si>
     <t xml:space="preserve">3.2289342880249</t>
@@ -2276,13 +2276,13 @@
     <t xml:space="preserve">2.93795013427734</t>
   </si>
   <si>
-    <t xml:space="preserve">2.75773811340332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.79080438613892</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.30307531356812</t>
+    <t xml:space="preserve">2.7577383518219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.7908046245575</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.30307507514954</t>
   </si>
   <si>
     <t xml:space="preserve">2.65357899665833</t>
@@ -2294,13 +2294,13 @@
     <t xml:space="preserve">2.60397934913635</t>
   </si>
   <si>
-    <t xml:space="preserve">2.61059284210205</t>
+    <t xml:space="preserve">2.61059236526489</t>
   </si>
   <si>
     <t xml:space="preserve">2.55272650718689</t>
   </si>
   <si>
-    <t xml:space="preserve">2.6800320148468</t>
+    <t xml:space="preserve">2.68003225326538</t>
   </si>
   <si>
     <t xml:space="preserve">2.53288650512695</t>
@@ -2309,34 +2309,34 @@
     <t xml:space="preserve">2.50808668136597</t>
   </si>
   <si>
-    <t xml:space="preserve">2.53123307228088</t>
+    <t xml:space="preserve">2.53123331069946</t>
   </si>
   <si>
     <t xml:space="preserve">2.59571266174316</t>
   </si>
   <si>
-    <t xml:space="preserve">2.7197117805481</t>
+    <t xml:space="preserve">2.71971201896667</t>
   </si>
   <si>
     <t xml:space="preserve">2.70152521133423</t>
   </si>
   <si>
-    <t xml:space="preserve">2.62216567993164</t>
+    <t xml:space="preserve">2.62216591835022</t>
   </si>
   <si>
     <t xml:space="preserve">2.66019225120544</t>
   </si>
   <si>
-    <t xml:space="preserve">2.62547278404236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.64696550369263</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.55107307434082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.67176580429077</t>
+    <t xml:space="preserve">2.6254723072052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.64696574211121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.55107283592224</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.67176556587219</t>
   </si>
   <si>
     <t xml:space="preserve">2.663498878479</t>
@@ -2348,13 +2348,13 @@
     <t xml:space="preserve">2.63869881629944</t>
   </si>
   <si>
-    <t xml:space="preserve">2.70483207702637</t>
+    <t xml:space="preserve">2.70483160018921</t>
   </si>
   <si>
     <t xml:space="preserve">2.71805834770203</t>
   </si>
   <si>
-    <t xml:space="preserve">2.61224603652954</t>
+    <t xml:space="preserve">2.61224579811096</t>
   </si>
   <si>
     <t xml:space="preserve">2.6866455078125</t>
@@ -2363,7 +2363,7 @@
     <t xml:space="preserve">2.67672514915466</t>
   </si>
   <si>
-    <t xml:space="preserve">2.77261805534363</t>
+    <t xml:space="preserve">2.77261829376221</t>
   </si>
   <si>
     <t xml:space="preserve">2.79245781898499</t>
@@ -2372,49 +2372,49 @@
     <t xml:space="preserve">2.67507219314575</t>
   </si>
   <si>
-    <t xml:space="preserve">2.66845870018005</t>
+    <t xml:space="preserve">2.66845893859863</t>
   </si>
   <si>
     <t xml:space="preserve">2.61885905265808</t>
   </si>
   <si>
-    <t xml:space="preserve">2.58579301834106</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.68829870223999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.71640539169312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.65688538551331</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.5676064491272</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.55437970161438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.60728597640991</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.59405946731567</t>
+    <t xml:space="preserve">2.58579277992249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.68829894065857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.71640491485596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.65688562393188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.56760621070862</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.55437994003296</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.60728621482849</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.59405970573425</t>
   </si>
   <si>
     <t xml:space="preserve">2.6486189365387</t>
   </si>
   <si>
-    <t xml:space="preserve">2.64365911483765</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.75608491897583</t>
+    <t xml:space="preserve">2.64365887641907</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.75608468055725</t>
   </si>
   <si>
     <t xml:space="preserve">2.75939154624939</t>
   </si>
   <si>
-    <t xml:space="preserve">2.95779013633728</t>
+    <t xml:space="preserve">2.9577898979187</t>
   </si>
   <si>
     <t xml:space="preserve">2.96274995803833</t>
@@ -2423,10 +2423,10 @@
     <t xml:space="preserve">2.92141675949097</t>
   </si>
   <si>
-    <t xml:space="preserve">2.88008403778076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.77757811546326</t>
+    <t xml:space="preserve">2.8800835609436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.77757787704468</t>
   </si>
   <si>
     <t xml:space="preserve">2.90653705596924</t>
@@ -2450,61 +2450,61 @@
     <t xml:space="preserve">2.73624491691589</t>
   </si>
   <si>
-    <t xml:space="preserve">2.80403089523315</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.80072426795959</t>
+    <t xml:space="preserve">2.80403113365173</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.80072450637817</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.82717776298523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.84420847892761</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.79992771148682</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.81525564193726</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.74031853675842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.73180270195007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.77438068389893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.7369122505188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.74883413314819</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.79481840133667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.83228707313538</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.83569312095642</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.83739638328552</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.8680522441864</t>
   </si>
   <si>
     <t xml:space="preserve">2.82717752456665</t>
   </si>
   <si>
-    <t xml:space="preserve">2.84420871734619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.79992771148682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.81525611877441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.74031853675842</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.73180294036865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.7743809223175</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.73691201210022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.74883389472961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.79481863975525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.83228707313538</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.83569312095642</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.83739638328552</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.8680522441864</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.82717728614807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.76075577735901</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.71647477149963</t>
+    <t xml:space="preserve">2.76075601577759</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.71647500991821</t>
   </si>
   <si>
     <t xml:space="preserve">2.73350620269775</t>
@@ -2513,19 +2513,19 @@
     <t xml:space="preserve">2.80333399772644</t>
   </si>
   <si>
-    <t xml:space="preserve">2.78800559043884</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.68922519683838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.70795941352844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.69944357872009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.692631483078</t>
+    <t xml:space="preserve">2.78800582885742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.68922472000122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.70795917510986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.69944381713867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.69263100624084</t>
   </si>
   <si>
     <t xml:space="preserve">2.68411540985107</t>
@@ -2537,19 +2537,19 @@
     <t xml:space="preserve">2.82547450065613</t>
   </si>
   <si>
-    <t xml:space="preserve">2.89019298553467</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.8799741268158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.86124014854431</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.76586508750916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.81014633178711</t>
+    <t xml:space="preserve">2.89019322395325</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.87997436523438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.86123991012573</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.76586532592773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.81014657020569</t>
   </si>
   <si>
     <t xml:space="preserve">2.78289651870728</t>
@@ -2558,37 +2558,37 @@
     <t xml:space="preserve">2.76245903968811</t>
   </si>
   <si>
-    <t xml:space="preserve">2.85272431373596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.82377123832703</t>
+    <t xml:space="preserve">2.85272407531738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.82377147674561</t>
   </si>
   <si>
     <t xml:space="preserve">2.74542760848999</t>
   </si>
   <si>
-    <t xml:space="preserve">2.7249903678894</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.72669339179993</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.71306872367859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.79311513900757</t>
+    <t xml:space="preserve">2.72499060630798</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.72669363021851</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.71306848526001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.79311537742615</t>
   </si>
   <si>
     <t xml:space="preserve">2.69433426856995</t>
   </si>
   <si>
-    <t xml:space="preserve">2.74713110923767</t>
+    <t xml:space="preserve">2.74713087081909</t>
   </si>
   <si>
     <t xml:space="preserve">2.7386155128479</t>
   </si>
   <si>
-    <t xml:space="preserve">2.78119325637817</t>
+    <t xml:space="preserve">2.78119349479675</t>
   </si>
   <si>
     <t xml:space="preserve">2.76416230201721</t>
@@ -2597,28 +2597,28 @@
     <t xml:space="preserve">2.77949023246765</t>
   </si>
   <si>
-    <t xml:space="preserve">2.79822468757629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.81355261802673</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.73520922660828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.72158432006836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.70455312728882</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.74372458457947</t>
+    <t xml:space="preserve">2.79822444915771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.81355237960815</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.7352089881897</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.72158408164978</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.70455288887024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.74372482299805</t>
   </si>
   <si>
     <t xml:space="preserve">2.72839665412903</t>
   </si>
   <si>
-    <t xml:space="preserve">2.64494395256042</t>
+    <t xml:space="preserve">2.64494371414185</t>
   </si>
   <si>
     <t xml:space="preserve">2.65345931053162</t>
@@ -2633,13 +2633,13 @@
     <t xml:space="preserve">2.61428761482239</t>
   </si>
   <si>
-    <t xml:space="preserve">2.59555339813232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.56489729881287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.51210069656372</t>
+    <t xml:space="preserve">2.5955536365509</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.56489753723145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.51210045814514</t>
   </si>
   <si>
     <t xml:space="preserve">2.53424119949341</t>
@@ -2648,19 +2648,19 @@
     <t xml:space="preserve">2.44738221168518</t>
   </si>
   <si>
-    <t xml:space="preserve">2.47292900085449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.50188159942627</t>
+    <t xml:space="preserve">2.47292876243591</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.50188207626343</t>
   </si>
   <si>
     <t xml:space="preserve">2.55467867851257</t>
   </si>
   <si>
-    <t xml:space="preserve">2.48485064506531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.46441340446472</t>
+    <t xml:space="preserve">2.48485088348389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.46441316604614</t>
   </si>
   <si>
     <t xml:space="preserve">2.46611618995667</t>
@@ -2669,7 +2669,7 @@
     <t xml:space="preserve">2.40139770507812</t>
   </si>
   <si>
-    <t xml:space="preserve">2.37755417823792</t>
+    <t xml:space="preserve">2.37755441665649</t>
   </si>
   <si>
     <t xml:space="preserve">2.31794476509094</t>
@@ -2678,7 +2678,7 @@
     <t xml:space="preserve">2.27877330780029</t>
   </si>
   <si>
-    <t xml:space="preserve">2.29921078681946</t>
+    <t xml:space="preserve">2.29921054840088</t>
   </si>
   <si>
     <t xml:space="preserve">2.31964802742004</t>
@@ -2687,28 +2687,28 @@
     <t xml:space="preserve">2.33838248252869</t>
   </si>
   <si>
-    <t xml:space="preserve">2.3962881565094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.39117932319641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.3656325340271</t>
+    <t xml:space="preserve">2.39628839492798</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.39117908477783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.36563229560852</t>
   </si>
   <si>
     <t xml:space="preserve">2.54616284370422</t>
   </si>
   <si>
-    <t xml:space="preserve">2.51550674438477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.54105353355408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.58533477783203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.57170987129211</t>
+    <t xml:space="preserve">2.51550698280334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.54105377197266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.58533453941345</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.57170963287354</t>
   </si>
   <si>
     <t xml:space="preserve">2.65686559677124</t>
@@ -2726,10 +2726,10 @@
     <t xml:space="preserve">2.57341289520264</t>
   </si>
   <si>
-    <t xml:space="preserve">2.56830334663391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.61599087715149</t>
+    <t xml:space="preserve">2.56830358505249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.61599063873291</t>
   </si>
   <si>
     <t xml:space="preserve">2.62961578369141</t>
@@ -2744,10 +2744,10 @@
     <t xml:space="preserve">2.53083467483521</t>
   </si>
   <si>
-    <t xml:space="preserve">2.55978798866272</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.53594422340393</t>
+    <t xml:space="preserve">2.55978775024414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.53594398498535</t>
   </si>
   <si>
     <t xml:space="preserve">2.52061605453491</t>
@@ -2756,7 +2756,7 @@
     <t xml:space="preserve">2.50528788566589</t>
   </si>
   <si>
-    <t xml:space="preserve">2.47803831100464</t>
+    <t xml:space="preserve">2.47803807258606</t>
   </si>
   <si>
     <t xml:space="preserve">2.45249152183533</t>
@@ -2771,7 +2771,7 @@
     <t xml:space="preserve">2.49336624145508</t>
   </si>
   <si>
-    <t xml:space="preserve">2.54275703430176</t>
+    <t xml:space="preserve">2.5427565574646</t>
   </si>
   <si>
     <t xml:space="preserve">2.42694449424744</t>
@@ -2783,16 +2783,16 @@
     <t xml:space="preserve">2.54445958137512</t>
   </si>
   <si>
-    <t xml:space="preserve">2.55127239227295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.53764748573303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.59895992279053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.53253769874573</t>
+    <t xml:space="preserve">2.55127215385437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.53764724731445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.59895968437195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.53253793716431</t>
   </si>
   <si>
     <t xml:space="preserve">2.58363151550293</t>
@@ -2801,16 +2801,16 @@
     <t xml:space="preserve">2.57852244377136</t>
   </si>
   <si>
-    <t xml:space="preserve">2.6909282207489</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.63642811775208</t>
+    <t xml:space="preserve">2.69092798233032</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.63642835617065</t>
   </si>
   <si>
     <t xml:space="preserve">2.46952247619629</t>
   </si>
   <si>
-    <t xml:space="preserve">2.42353820800781</t>
+    <t xml:space="preserve">2.42353844642639</t>
   </si>
   <si>
     <t xml:space="preserve">2.44567894935608</t>
@@ -2819,19 +2819,19 @@
     <t xml:space="preserve">2.45589780807495</t>
   </si>
   <si>
-    <t xml:space="preserve">2.41672587394714</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.56149101257324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.58703804016113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.64835023880005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.60406923294067</t>
+    <t xml:space="preserve">2.41672611236572</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.56149077415466</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.58703780174255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.64835000038147</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.60406899452209</t>
   </si>
   <si>
     <t xml:space="preserve">2.61769390106201</t>
@@ -2840,25 +2840,25 @@
     <t xml:space="preserve">2.65005326271057</t>
   </si>
   <si>
-    <t xml:space="preserve">2.68581867218018</t>
+    <t xml:space="preserve">2.68581891059875</t>
   </si>
   <si>
     <t xml:space="preserve">2.6415376663208</t>
   </si>
   <si>
-    <t xml:space="preserve">2.63131880760193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.61939716339111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.52231931686401</t>
+    <t xml:space="preserve">2.63131904602051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.61939692497253</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.52231907844543</t>
   </si>
   <si>
     <t xml:space="preserve">2.49166321754456</t>
   </si>
   <si>
-    <t xml:space="preserve">2.62280321121216</t>
+    <t xml:space="preserve">2.62280344963074</t>
   </si>
   <si>
     <t xml:space="preserve">2.65856862068176</t>
@@ -2870,13 +2870,13 @@
     <t xml:space="preserve">2.70114684104919</t>
   </si>
   <si>
-    <t xml:space="preserve">2.81695890426636</t>
+    <t xml:space="preserve">2.81695914268494</t>
   </si>
   <si>
     <t xml:space="preserve">2.78204488754272</t>
   </si>
   <si>
-    <t xml:space="preserve">2.83058381080627</t>
+    <t xml:space="preserve">2.8305835723877</t>
   </si>
   <si>
     <t xml:space="preserve">2.80929493904114</t>
@@ -2885,10 +2885,10 @@
     <t xml:space="preserve">2.79652142524719</t>
   </si>
   <si>
-    <t xml:space="preserve">2.8127007484436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.8339900970459</t>
+    <t xml:space="preserve">2.81270098686218</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.83399033546448</t>
   </si>
   <si>
     <t xml:space="preserve">2.87231016159058</t>
@@ -2897,7 +2897,7 @@
     <t xml:space="preserve">2.86379456520081</t>
   </si>
   <si>
-    <t xml:space="preserve">2.85698199272156</t>
+    <t xml:space="preserve">2.85698223114014</t>
   </si>
   <si>
     <t xml:space="preserve">2.85783386230469</t>
@@ -2918,58 +2918,58 @@
     <t xml:space="preserve">2.8697555065155</t>
   </si>
   <si>
-    <t xml:space="preserve">2.90126323699951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.94384121894836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.87401342391968</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.8757164478302</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.86720108985901</t>
+    <t xml:space="preserve">2.90126347541809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.94384145736694</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.8740131855011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.87571668624878</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.86720085144043</t>
   </si>
   <si>
     <t xml:space="preserve">2.96938800811768</t>
   </si>
   <si>
-    <t xml:space="preserve">2.93788051605225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.92766141891479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.96683359146118</t>
+    <t xml:space="preserve">2.93788027763367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.92766165733337</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.96683311462402</t>
   </si>
   <si>
     <t xml:space="preserve">2.98556756973267</t>
   </si>
   <si>
-    <t xml:space="preserve">2.99067711830139</t>
+    <t xml:space="preserve">2.99067687988281</t>
   </si>
   <si>
     <t xml:space="preserve">2.99493479728699</t>
   </si>
   <si>
-    <t xml:space="preserve">2.98982548713684</t>
+    <t xml:space="preserve">2.98982524871826</t>
   </si>
   <si>
     <t xml:space="preserve">2.97194266319275</t>
   </si>
   <si>
-    <t xml:space="preserve">2.96768474578857</t>
+    <t xml:space="preserve">2.96768498420715</t>
   </si>
   <si>
     <t xml:space="preserve">2.9727942943573</t>
   </si>
   <si>
-    <t xml:space="preserve">2.97023940086365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.98130965232849</t>
+    <t xml:space="preserve">2.97023963928223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.98130989074707</t>
   </si>
   <si>
     <t xml:space="preserve">3.00515341758728</t>
@@ -2978,7 +2978,7 @@
     <t xml:space="preserve">3.04177069664001</t>
   </si>
   <si>
-    <t xml:space="preserve">3.06902074813843</t>
+    <t xml:space="preserve">3.06902050971985</t>
   </si>
   <si>
     <t xml:space="preserve">3.08264517784119</t>
@@ -2993,19 +2993,19 @@
     <t xml:space="preserve">3.12011408805847</t>
   </si>
   <si>
-    <t xml:space="preserve">3.15417623519897</t>
+    <t xml:space="preserve">3.15417647361755</t>
   </si>
   <si>
     <t xml:space="preserve">3.13033294677734</t>
   </si>
   <si>
-    <t xml:space="preserve">3.15928602218628</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.13373899459839</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.11926245689392</t>
+    <t xml:space="preserve">3.1592857837677</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.13373923301697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.1192626953125</t>
   </si>
   <si>
     <t xml:space="preserve">3.10052824020386</t>
@@ -3017,37 +3017,37 @@
     <t xml:space="preserve">3.01026296615601</t>
   </si>
   <si>
-    <t xml:space="preserve">3.03240346908569</t>
+    <t xml:space="preserve">3.03240370750427</t>
   </si>
   <si>
     <t xml:space="preserve">3.00345039367676</t>
   </si>
   <si>
-    <t xml:space="preserve">2.99834108352661</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.99919271469116</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.97364568710327</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.00259876251221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.01754140853882</t>
+    <t xml:space="preserve">2.99834084510803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.99919247627258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.97364592552185</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.00259900093079</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.0175416469574</t>
   </si>
   <si>
     <t xml:space="preserve">3.0043568611145</t>
   </si>
   <si>
-    <t xml:space="preserve">3.0702805519104</t>
+    <t xml:space="preserve">3.07028031349182</t>
   </si>
   <si>
     <t xml:space="preserve">2.97271347045898</t>
   </si>
   <si>
-    <t xml:space="preserve">2.97095584869385</t>
+    <t xml:space="preserve">2.97095561027527</t>
   </si>
   <si>
     <t xml:space="preserve">3.04127407073975</t>
@@ -3059,16 +3059,16 @@
     <t xml:space="preserve">3.03072619438171</t>
   </si>
   <si>
-    <t xml:space="preserve">3.00347781181335</t>
+    <t xml:space="preserve">3.00347805023193</t>
   </si>
   <si>
     <t xml:space="preserve">3.03512120246887</t>
   </si>
   <si>
-    <t xml:space="preserve">2.94810199737549</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.95689177513123</t>
+    <t xml:space="preserve">2.94810223579407</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.9568920135498</t>
   </si>
   <si>
     <t xml:space="preserve">3.05709552764893</t>
@@ -3083,7 +3083,7 @@
     <t xml:space="preserve">3.10192370414734</t>
   </si>
   <si>
-    <t xml:space="preserve">3.14587259292603</t>
+    <t xml:space="preserve">3.1458728313446</t>
   </si>
   <si>
     <t xml:space="preserve">3.17839503288269</t>
@@ -3092,22 +3092,22 @@
     <t xml:space="preserve">3.15378355979919</t>
   </si>
   <si>
-    <t xml:space="preserve">3.15817856788635</t>
+    <t xml:space="preserve">3.15817832946777</t>
   </si>
   <si>
     <t xml:space="preserve">3.13532495498657</t>
   </si>
   <si>
-    <t xml:space="preserve">3.12214016914368</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.11335062980652</t>
+    <t xml:space="preserve">3.12214040756226</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.11335039138794</t>
   </si>
   <si>
     <t xml:space="preserve">3.13268804550171</t>
   </si>
   <si>
-    <t xml:space="preserve">3.15993666648865</t>
+    <t xml:space="preserve">3.15993642807007</t>
   </si>
   <si>
     <t xml:space="preserve">3.14850974082947</t>
@@ -3119,28 +3119,28 @@
     <t xml:space="preserve">3.21267533302307</t>
   </si>
   <si>
-    <t xml:space="preserve">3.2478346824646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.26277732849121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.27420401573181</t>
+    <t xml:space="preserve">3.24783444404602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.26277709007263</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.27420377731323</t>
   </si>
   <si>
     <t xml:space="preserve">3.29881548881531</t>
   </si>
   <si>
-    <t xml:space="preserve">3.31551599502563</t>
+    <t xml:space="preserve">3.31551623344421</t>
   </si>
   <si>
     <t xml:space="preserve">3.30408930778503</t>
   </si>
   <si>
-    <t xml:space="preserve">3.30584716796875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.28475165367126</t>
+    <t xml:space="preserve">3.30584740638733</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.28475189208984</t>
   </si>
   <si>
     <t xml:space="preserve">3.2460765838623</t>
@@ -3149,7 +3149,7 @@
     <t xml:space="preserve">3.21707034111023</t>
   </si>
   <si>
-    <t xml:space="preserve">3.23201298713684</t>
+    <t xml:space="preserve">3.23201274871826</t>
   </si>
   <si>
     <t xml:space="preserve">3.22673892974854</t>
@@ -3158,52 +3158,52 @@
     <t xml:space="preserve">3.21970725059509</t>
   </si>
   <si>
-    <t xml:space="preserve">3.25398731231689</t>
+    <t xml:space="preserve">3.25398707389832</t>
   </si>
   <si>
     <t xml:space="preserve">3.23904466629028</t>
   </si>
   <si>
-    <t xml:space="preserve">3.22585988044739</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.24168133735657</t>
+    <t xml:space="preserve">3.22586011886597</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.24168181419373</t>
   </si>
   <si>
     <t xml:space="preserve">3.19597458839417</t>
   </si>
   <si>
-    <t xml:space="preserve">3.14938855171204</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.18806385993958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.21443319320679</t>
+    <t xml:space="preserve">3.14938879013062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.18806409835815</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.21443343162537</t>
   </si>
   <si>
     <t xml:space="preserve">3.16345262527466</t>
   </si>
   <si>
-    <t xml:space="preserve">3.19861173629761</t>
+    <t xml:space="preserve">3.19861149787903</t>
   </si>
   <si>
     <t xml:space="preserve">3.15466260910034</t>
   </si>
   <si>
-    <t xml:space="preserve">3.20124840736389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.19773268699646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.20740151405334</t>
+    <t xml:space="preserve">3.20124864578247</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.19773244857788</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.20740127563477</t>
   </si>
   <si>
     <t xml:space="preserve">3.13620400428772</t>
   </si>
   <si>
-    <t xml:space="preserve">3.08522319793701</t>
+    <t xml:space="preserve">3.08522295951843</t>
   </si>
   <si>
     <t xml:space="preserve">3.12653493881226</t>
@@ -3212,16 +3212,16 @@
     <t xml:space="preserve">3.10807681083679</t>
   </si>
   <si>
-    <t xml:space="preserve">3.10719752311707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.10983467102051</t>
+    <t xml:space="preserve">3.10719776153564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.10983443260193</t>
   </si>
   <si>
     <t xml:space="preserve">3.11598753929138</t>
   </si>
   <si>
-    <t xml:space="preserve">3.07115936279297</t>
+    <t xml:space="preserve">3.07115912437439</t>
   </si>
   <si>
     <t xml:space="preserve">3.09664988517761</t>
@@ -3230,22 +3230,22 @@
     <t xml:space="preserve">3.01929950714111</t>
   </si>
   <si>
-    <t xml:space="preserve">2.98501920700073</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.02017879486084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.05533790588379</t>
+    <t xml:space="preserve">2.98501896858215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.02017855644226</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.05533766746521</t>
   </si>
   <si>
     <t xml:space="preserve">3.08610200881958</t>
   </si>
   <si>
-    <t xml:space="preserve">3.06324863433838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.033362865448</t>
+    <t xml:space="preserve">3.0632483959198</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.03336310386658</t>
   </si>
   <si>
     <t xml:space="preserve">3.05357980728149</t>
@@ -3257,10 +3257,10 @@
     <t xml:space="preserve">3.14675164222717</t>
   </si>
   <si>
-    <t xml:space="preserve">3.16257357597351</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.13005113601685</t>
+    <t xml:space="preserve">3.16257333755493</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.13005137443542</t>
   </si>
   <si>
     <t xml:space="preserve">3.16608929634094</t>
@@ -3275,7 +3275,7 @@
     <t xml:space="preserve">3.10631847381592</t>
   </si>
   <si>
-    <t xml:space="preserve">3.1476309299469</t>
+    <t xml:space="preserve">3.14763069152832</t>
   </si>
   <si>
     <t xml:space="preserve">3.22849726676941</t>
@@ -3287,7 +3287,7 @@
     <t xml:space="preserve">3.1704843044281</t>
   </si>
   <si>
-    <t xml:space="preserve">3.12917232513428</t>
+    <t xml:space="preserve">3.1291720867157</t>
   </si>
   <si>
     <t xml:space="preserve">3.17136335372925</t>
@@ -3302,7 +3302,7 @@
     <t xml:space="preserve">3.14499378204346</t>
   </si>
   <si>
-    <t xml:space="preserve">3.14235663414001</t>
+    <t xml:space="preserve">3.14235687255859</t>
   </si>
   <si>
     <t xml:space="preserve">3.11247134208679</t>
@@ -3317,7 +3317,7 @@
     <t xml:space="preserve">2.99292993545532</t>
   </si>
   <si>
-    <t xml:space="preserve">3.06764340400696</t>
+    <t xml:space="preserve">3.06764364242554</t>
   </si>
   <si>
     <t xml:space="preserve">2.99732518196106</t>
@@ -3329,31 +3329,31 @@
     <t xml:space="preserve">3.09313416481018</t>
   </si>
   <si>
-    <t xml:space="preserve">3.12038230895996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.08961820602417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.11510825157166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.13708281517029</t>
+    <t xml:space="preserve">3.12038207054138</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.08961796760559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.11510848999023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.13708305358887</t>
   </si>
   <si>
     <t xml:space="preserve">3.1590576171875</t>
   </si>
   <si>
-    <t xml:space="preserve">3.16433119773865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.17487931251526</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.23289203643799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.21794939041138</t>
+    <t xml:space="preserve">3.16433143615723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.17487907409668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.23289179801941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.2179491519928</t>
   </si>
   <si>
     <t xml:space="preserve">3.25750350952148</t>
@@ -3362,7 +3362,7 @@
     <t xml:space="preserve">3.22761797904968</t>
   </si>
   <si>
-    <t xml:space="preserve">3.20212769508362</t>
+    <t xml:space="preserve">3.20212745666504</t>
   </si>
   <si>
     <t xml:space="preserve">3.13971996307373</t>
@@ -3377,7 +3377,7 @@
     <t xml:space="preserve">3.081707239151</t>
   </si>
   <si>
-    <t xml:space="preserve">3.09225463867188</t>
+    <t xml:space="preserve">3.09225487709045</t>
   </si>
   <si>
     <t xml:space="preserve">3.0588538646698</t>
@@ -3392,46 +3392,46 @@
     <t xml:space="preserve">3.08434414863586</t>
   </si>
   <si>
-    <t xml:space="preserve">3.19070100784302</t>
+    <t xml:space="preserve">3.19070076942444</t>
   </si>
   <si>
     <t xml:space="preserve">3.2654139995575</t>
   </si>
   <si>
-    <t xml:space="preserve">3.25047135353088</t>
+    <t xml:space="preserve">3.25047159194946</t>
   </si>
   <si>
     <t xml:space="preserve">3.18454790115356</t>
   </si>
   <si>
-    <t xml:space="preserve">3.04830598831177</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.9876561164856</t>
+    <t xml:space="preserve">3.04830574989319</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.98765635490417</t>
   </si>
   <si>
     <t xml:space="preserve">3.0272102355957</t>
   </si>
   <si>
-    <t xml:space="preserve">3.04742693901062</t>
+    <t xml:space="preserve">3.04742670059204</t>
   </si>
   <si>
     <t xml:space="preserve">3.03424215316772</t>
   </si>
   <si>
-    <t xml:space="preserve">2.96656084060669</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.99468803405762</t>
+    <t xml:space="preserve">2.96656060218811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.9946882724762</t>
   </si>
   <si>
     <t xml:space="preserve">2.97974538803101</t>
   </si>
   <si>
-    <t xml:space="preserve">2.94898080825806</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.94370722770691</t>
+    <t xml:space="preserve">2.94898104667664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.94370698928833</t>
   </si>
   <si>
     <t xml:space="preserve">2.90151619911194</t>
@@ -3443,19 +3443,19 @@
     <t xml:space="preserve">2.92964339256287</t>
   </si>
   <si>
-    <t xml:space="preserve">2.84262442588806</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.04566884040833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.93755412101746</t>
+    <t xml:space="preserve">2.84262418746948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.0456690788269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.93755435943604</t>
   </si>
   <si>
     <t xml:space="preserve">2.89360523223877</t>
   </si>
   <si>
-    <t xml:space="preserve">2.86547803878784</t>
+    <t xml:space="preserve">2.86547780036926</t>
   </si>
   <si>
     <t xml:space="preserve">2.79955410957336</t>
@@ -3467,7 +3467,7 @@
     <t xml:space="preserve">2.87778353691101</t>
   </si>
   <si>
-    <t xml:space="preserve">2.98414039611816</t>
+    <t xml:space="preserve">2.98414015769958</t>
   </si>
   <si>
     <t xml:space="preserve">2.97007656097412</t>
@@ -3485,10 +3485,10 @@
     <t xml:space="preserve">2.96040773391724</t>
   </si>
   <si>
-    <t xml:space="preserve">2.99908304214478</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.89184713363647</t>
+    <t xml:space="preserve">2.9990828037262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.89184737205505</t>
   </si>
   <si>
     <t xml:space="preserve">2.85932493209839</t>
@@ -3503,10 +3503,10 @@
     <t xml:space="preserve">2.95952892303467</t>
   </si>
   <si>
-    <t xml:space="preserve">2.94107007980347</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.98326110839844</t>
+    <t xml:space="preserve">2.94107031822205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.98326134681702</t>
   </si>
   <si>
     <t xml:space="preserve">3.0157835483551</t>
@@ -3518,13 +3518,13 @@
     <t xml:space="preserve">3.16081523895264</t>
   </si>
   <si>
-    <t xml:space="preserve">3.11686635017395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.15729928016663</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.17224192619324</t>
+    <t xml:space="preserve">3.11686658859253</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.15729975700378</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.1722424030304</t>
   </si>
   <si>
     <t xml:space="preserve">3.12829327583313</t>
@@ -3539,7 +3539,7 @@
     <t xml:space="preserve">3.09489178657532</t>
   </si>
   <si>
-    <t xml:space="preserve">3.06236958503723</t>
+    <t xml:space="preserve">3.06236934661865</t>
   </si>
   <si>
     <t xml:space="preserve">3.09752869606018</t>
@@ -3572,16 +3572,16 @@
     <t xml:space="preserve">2.99820399284363</t>
   </si>
   <si>
-    <t xml:space="preserve">2.97359228134155</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.9331591129303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.96831846237183</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.94282817840576</t>
+    <t xml:space="preserve">2.97359251976013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.93315935134888</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.96831870079041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.94282793998718</t>
   </si>
   <si>
     <t xml:space="preserve">2.94458603858948</t>
@@ -3596,13 +3596,13 @@
     <t xml:space="preserve">2.50685358047485</t>
   </si>
   <si>
-    <t xml:space="preserve">2.44444584846497</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.54992365837097</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.4778470993042</t>
+    <t xml:space="preserve">2.44444608688354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.54992389678955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.47784733772278</t>
   </si>
   <si>
     <t xml:space="preserve">2.507732629776</t>
@@ -3632,19 +3632,19 @@
     <t xml:space="preserve">2.56829261779785</t>
   </si>
   <si>
-    <t xml:space="preserve">2.5325071811676</t>
+    <t xml:space="preserve">2.53250694274902</t>
   </si>
   <si>
     <t xml:space="preserve">2.58022117614746</t>
   </si>
   <si>
-    <t xml:space="preserve">2.57746815681458</t>
+    <t xml:space="preserve">2.57746839523315</t>
   </si>
   <si>
     <t xml:space="preserve">2.50314474105835</t>
   </si>
   <si>
-    <t xml:space="preserve">2.54902362823486</t>
+    <t xml:space="preserve">2.54902338981628</t>
   </si>
   <si>
     <t xml:space="preserve">2.58389115333557</t>
@@ -3656,7 +3656,7 @@
     <t xml:space="preserve">2.55085849761963</t>
   </si>
   <si>
-    <t xml:space="preserve">2.46368885040283</t>
+    <t xml:space="preserve">2.46368908882141</t>
   </si>
   <si>
     <t xml:space="preserve">2.39028286933899</t>
@@ -3689,10 +3689,10 @@
     <t xml:space="preserve">2.52057862281799</t>
   </si>
   <si>
-    <t xml:space="preserve">2.53801250457764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.60316014289856</t>
+    <t xml:space="preserve">2.53801274299622</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.60316038131714</t>
   </si>
   <si>
     <t xml:space="preserve">2.59857249259949</t>
@@ -3707,10 +3707,10 @@
     <t xml:space="preserve">2.53067183494568</t>
   </si>
   <si>
-    <t xml:space="preserve">2.53434252738953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.56095194816589</t>
+    <t xml:space="preserve">2.53434228897095</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.56095170974731</t>
   </si>
   <si>
     <t xml:space="preserve">2.56737494468689</t>
@@ -3728,13 +3728,13 @@
     <t xml:space="preserve">2.51323819160461</t>
   </si>
   <si>
-    <t xml:space="preserve">2.49396872520447</t>
+    <t xml:space="preserve">2.49396896362305</t>
   </si>
   <si>
     <t xml:space="preserve">2.45726585388184</t>
   </si>
   <si>
-    <t xml:space="preserve">2.38202476501465</t>
+    <t xml:space="preserve">2.38202452659607</t>
   </si>
   <si>
     <t xml:space="preserve">2.44074964523315</t>
@@ -3743,7 +3743,7 @@
     <t xml:space="preserve">2.29393768310547</t>
   </si>
   <si>
-    <t xml:space="preserve">2.29485487937927</t>
+    <t xml:space="preserve">2.29485511779785</t>
   </si>
   <si>
     <t xml:space="preserve">2.32697033882141</t>
@@ -3752,10 +3752,10 @@
     <t xml:space="preserve">2.26641035079956</t>
   </si>
   <si>
-    <t xml:space="preserve">2.14987826347351</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.20768547058105</t>
+    <t xml:space="preserve">2.14987802505493</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.20768523216248</t>
   </si>
   <si>
     <t xml:space="preserve">2.19483947753906</t>
@@ -3773,7 +3773,7 @@
     <t xml:space="preserve">2.22970747947693</t>
   </si>
   <si>
-    <t xml:space="preserve">2.22695446014404</t>
+    <t xml:space="preserve">2.22695469856262</t>
   </si>
   <si>
     <t xml:space="preserve">2.19850969314575</t>
@@ -3791,31 +3791,31 @@
     <t xml:space="preserve">2.11868071556091</t>
   </si>
   <si>
-    <t xml:space="preserve">2.05169796943665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.05812096595764</t>
+    <t xml:space="preserve">2.05169773101807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.05812072753906</t>
   </si>
   <si>
     <t xml:space="preserve">1.94892942905426</t>
   </si>
   <si>
-    <t xml:space="preserve">1.99756073951721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.98746728897095</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.00581932067871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.01682996749878</t>
+    <t xml:space="preserve">1.9975608587265</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.98746752738953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.00581908226013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.0168297290802</t>
   </si>
   <si>
     <t xml:space="preserve">2.07647228240967</t>
   </si>
   <si>
-    <t xml:space="preserve">1.97095119953156</t>
+    <t xml:space="preserve">1.97095108032227</t>
   </si>
   <si>
     <t xml:space="preserve">1.90855598449707</t>
@@ -3827,16 +3827,16 @@
     <t xml:space="preserve">1.93975365161896</t>
   </si>
   <si>
-    <t xml:space="preserve">1.87185299396515</t>
+    <t xml:space="preserve">1.87185311317444</t>
   </si>
   <si>
     <t xml:space="preserve">1.83882033824921</t>
   </si>
   <si>
-    <t xml:space="preserve">1.86726522445679</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8984626531601</t>
+    <t xml:space="preserve">1.86726534366608</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89846277236938</t>
   </si>
   <si>
     <t xml:space="preserve">1.9480117559433</t>
@@ -3854,7 +3854,7 @@
     <t xml:space="preserve">1.92048454284668</t>
   </si>
   <si>
-    <t xml:space="preserve">1.98379731178284</t>
+    <t xml:space="preserve">1.98379719257355</t>
   </si>
   <si>
     <t xml:space="preserve">2.07280206680298</t>
@@ -3869,10 +3869,10 @@
     <t xml:space="preserve">2.21319103240967</t>
   </si>
   <si>
-    <t xml:space="preserve">2.22420191764832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.22236657142639</t>
+    <t xml:space="preserve">2.22420167922974</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.22236680984497</t>
   </si>
   <si>
     <t xml:space="preserve">2.21135592460632</t>
@@ -3887,13 +3887,13 @@
     <t xml:space="preserve">2.31595921516418</t>
   </si>
   <si>
-    <t xml:space="preserve">2.36459064483643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.39395308494568</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.36550855636597</t>
+    <t xml:space="preserve">2.364590883255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.39395332336426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.36550831794739</t>
   </si>
   <si>
     <t xml:space="preserve">2.38477754592896</t>
@@ -3920,10 +3920,10 @@
     <t xml:space="preserve">2.43249130249023</t>
   </si>
   <si>
-    <t xml:space="preserve">2.43799686431885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.41872787475586</t>
+    <t xml:space="preserve">2.43799710273743</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.41872763633728</t>
   </si>
   <si>
     <t xml:space="preserve">2.43065619468689</t>
@@ -3935,16 +3935,16 @@
     <t xml:space="preserve">2.46001863479614</t>
   </si>
   <si>
-    <t xml:space="preserve">2.46827673912048</t>
+    <t xml:space="preserve">2.46827697753906</t>
   </si>
   <si>
     <t xml:space="preserve">2.46460676193237</t>
   </si>
   <si>
-    <t xml:space="preserve">2.5233314037323</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.57288026809692</t>
+    <t xml:space="preserve">2.52333116531372</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.5728805065155</t>
   </si>
   <si>
     <t xml:space="preserve">2.59673738479614</t>
@@ -3965,7 +3965,7 @@
     <t xml:space="preserve">2.3462393283844</t>
   </si>
   <si>
-    <t xml:space="preserve">2.32513523101807</t>
+    <t xml:space="preserve">2.32513499259949</t>
   </si>
   <si>
     <t xml:space="preserve">2.34165143966675</t>
@@ -3974,7 +3974,7 @@
     <t xml:space="preserve">2.33889889717102</t>
   </si>
   <si>
-    <t xml:space="preserve">2.28476166725159</t>
+    <t xml:space="preserve">2.28476190567017</t>
   </si>
   <si>
     <t xml:space="preserve">2.33614611625671</t>
@@ -3989,7 +3989,7 @@
     <t xml:space="preserve">2.37468409538269</t>
   </si>
   <si>
-    <t xml:space="preserve">2.42239809036255</t>
+    <t xml:space="preserve">2.42239832878113</t>
   </si>
   <si>
     <t xml:space="preserve">2.40955185890198</t>
@@ -4001,25 +4001,25 @@
     <t xml:space="preserve">2.54260039329529</t>
   </si>
   <si>
-    <t xml:space="preserve">2.51415538787842</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.51966094970703</t>
+    <t xml:space="preserve">2.514155626297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.51966118812561</t>
   </si>
   <si>
     <t xml:space="preserve">2.49672174453735</t>
   </si>
   <si>
-    <t xml:space="preserve">2.43524432182312</t>
+    <t xml:space="preserve">2.43524408340454</t>
   </si>
   <si>
     <t xml:space="preserve">2.47745251655579</t>
   </si>
   <si>
-    <t xml:space="preserve">2.50406217575073</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.49121618270874</t>
+    <t xml:space="preserve">2.50406241416931</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.49121594429016</t>
   </si>
   <si>
     <t xml:space="preserve">2.48571085929871</t>
@@ -4034,7 +4034,7 @@
     <t xml:space="preserve">2.43157386779785</t>
   </si>
   <si>
-    <t xml:space="preserve">2.50039196014404</t>
+    <t xml:space="preserve">2.50039172172546</t>
   </si>
   <si>
     <t xml:space="preserve">2.45910120010376</t>
@@ -4052,16 +4052,16 @@
     <t xml:space="preserve">2.38569498062134</t>
   </si>
   <si>
-    <t xml:space="preserve">2.3801896572113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.35082745552063</t>
+    <t xml:space="preserve">2.38018989562988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.35082721710205</t>
   </si>
   <si>
     <t xml:space="preserve">2.31779456138611</t>
   </si>
   <si>
-    <t xml:space="preserve">2.30953645706177</t>
+    <t xml:space="preserve">2.30953621864319</t>
   </si>
   <si>
     <t xml:space="preserve">2.30494856834412</t>
@@ -4094,7 +4094,7 @@
     <t xml:space="preserve">2.21686100959778</t>
   </si>
   <si>
-    <t xml:space="preserve">2.20676779747009</t>
+    <t xml:space="preserve">2.20676803588867</t>
   </si>
   <si>
     <t xml:space="preserve">2.19575691223145</t>
@@ -4112,7 +4112,7 @@
     <t xml:space="preserve">2.28567934036255</t>
   </si>
   <si>
-    <t xml:space="preserve">2.2966902256012</t>
+    <t xml:space="preserve">2.29669046401978</t>
   </si>
   <si>
     <t xml:space="preserve">2.32605266571045</t>
@@ -4127,10 +4127,10 @@
     <t xml:space="preserve">2.4921338558197</t>
   </si>
   <si>
-    <t xml:space="preserve">2.51232028007507</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.40588164329529</t>
+    <t xml:space="preserve">2.51232051849365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.40588188171387</t>
   </si>
   <si>
     <t xml:space="preserve">2.48479318618774</t>
@@ -4139,19 +4139,19 @@
     <t xml:space="preserve">2.47928762435913</t>
   </si>
   <si>
-    <t xml:space="preserve">2.56186938285828</t>
+    <t xml:space="preserve">2.56186962127686</t>
   </si>
   <si>
     <t xml:space="preserve">2.59123182296753</t>
   </si>
   <si>
-    <t xml:space="preserve">2.53617715835571</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.58939671516418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.6260998249054</t>
+    <t xml:space="preserve">2.53617739677429</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.58939695358276</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.62609958648682</t>
   </si>
   <si>
     <t xml:space="preserve">2.61692404747009</t>
@@ -4160,10 +4160,10 @@
     <t xml:space="preserve">2.63527536392212</t>
   </si>
   <si>
-    <t xml:space="preserve">2.72152757644653</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.74905490875244</t>
+    <t xml:space="preserve">2.72152781486511</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.74905467033386</t>
   </si>
   <si>
     <t xml:space="preserve">2.77658200263977</t>
@@ -4184,10 +4184,10 @@
     <t xml:space="preserve">2.73070335388184</t>
   </si>
   <si>
-    <t xml:space="preserve">2.71969223022461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.644451379776</t>
+    <t xml:space="preserve">2.71969246864319</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.64445114135742</t>
   </si>
   <si>
     <t xml:space="preserve">2.62242960929871</t>
@@ -4196,10 +4196,10 @@
     <t xml:space="preserve">2.67564868927002</t>
   </si>
   <si>
-    <t xml:space="preserve">2.67748379707336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.7068464756012</t>
+    <t xml:space="preserve">2.67748403549194</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.70684623718262</t>
   </si>
   <si>
     <t xml:space="preserve">2.68298935890198</t>
@@ -4217,7 +4217,7 @@
     <t xml:space="preserve">2.63894581794739</t>
   </si>
   <si>
-    <t xml:space="preserve">2.64812159538269</t>
+    <t xml:space="preserve">2.64812135696411</t>
   </si>
   <si>
     <t xml:space="preserve">2.65913248062134</t>
@@ -4229,7 +4229,7 @@
     <t xml:space="preserve">2.62426447868347</t>
   </si>
   <si>
-    <t xml:space="preserve">2.66463804244995</t>
+    <t xml:space="preserve">2.66463780403137</t>
   </si>
   <si>
     <t xml:space="preserve">2.61190128326416</t>
@@ -4962,6 +4962,9 @@
   </si>
   <si>
     <t xml:space="preserve">3.42000007629395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.41799998283386</t>
   </si>
 </sst>
 </file>
@@ -62503,7 +62506,7 @@
     </row>
     <row r="2201">
       <c r="A2201" s="1" t="n">
-        <v>45527.6512962963</v>
+        <v>45527.2916666667</v>
       </c>
       <c r="B2201" t="n">
         <v>974032</v>
@@ -62524,6 +62527,32 @@
         <v>1649</v>
       </c>
       <c r="H2201" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2202">
+      <c r="A2202" s="1" t="n">
+        <v>45530.6494560185</v>
+      </c>
+      <c r="B2202" t="n">
+        <v>862136</v>
+      </c>
+      <c r="C2202" t="n">
+        <v>3.43400001525879</v>
+      </c>
+      <c r="D2202" t="n">
+        <v>3.39800000190735</v>
+      </c>
+      <c r="E2202" t="n">
+        <v>3.40400004386902</v>
+      </c>
+      <c r="F2202" t="n">
+        <v>3.41799998283386</v>
+      </c>
+      <c r="G2202" t="s">
+        <v>1650</v>
+      </c>
+      <c r="H2202" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/HER.MI.xlsx
+++ b/data/HER.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1650" uniqueCount="1650">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1651" uniqueCount="1651">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -44,85 +44,85 @@
     <t xml:space="preserve">HER.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">1.77260446548462</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76970565319061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.77405393123627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7508636713028</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78999733924866</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85811829566956</t>
+    <t xml:space="preserve">1.7726047039032</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76970529556274</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77405381202698</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75086319446564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78999722003937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85811865329742</t>
   </si>
   <si>
     <t xml:space="preserve">1.86101722717285</t>
   </si>
   <si>
-    <t xml:space="preserve">1.83637750148773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81173825263977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76680684089661</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83927631378174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81463658809662</t>
+    <t xml:space="preserve">1.83637738227844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81173801422119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76680672168732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83927643299103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81463646888733</t>
   </si>
   <si>
     <t xml:space="preserve">1.83202958106995</t>
   </si>
   <si>
-    <t xml:space="preserve">1.87261235713959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85666930675507</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87116301059723</t>
+    <t xml:space="preserve">1.8726122379303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8566689491272</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87116289138794</t>
   </si>
   <si>
     <t xml:space="preserve">1.90304970741272</t>
   </si>
   <si>
-    <t xml:space="preserve">1.88420760631561</t>
+    <t xml:space="preserve">1.88420748710632</t>
   </si>
   <si>
     <t xml:space="preserve">1.86971354484558</t>
   </si>
   <si>
-    <t xml:space="preserve">1.91754341125488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92479026317596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90884733200073</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8914543390274</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89725160598755</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79289591312408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8059401512146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82478225231171</t>
+    <t xml:space="preserve">1.91754329204559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92479050159454</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90884745121002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89145421981812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89725196361542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79289603233337</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80594038963318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82478213310242</t>
   </si>
   <si>
     <t xml:space="preserve">1.76245844364166</t>
@@ -131,52 +131,52 @@
     <t xml:space="preserve">1.82043421268463</t>
   </si>
   <si>
-    <t xml:space="preserve">1.86246657371521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84942221641541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84217536449432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86536538600922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86826407909393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88855576515198</t>
+    <t xml:space="preserve">1.8624666929245</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84942185878754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84217524528503</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86536514759064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86826419830322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88855540752411</t>
   </si>
   <si>
     <t xml:space="preserve">1.8987010717392</t>
   </si>
   <si>
-    <t xml:space="preserve">1.85521960258484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83058023452759</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81028866767883</t>
+    <t xml:space="preserve">1.85521972179413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8305801153183</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81028842926025</t>
   </si>
   <si>
     <t xml:space="preserve">1.80449104309082</t>
   </si>
   <si>
-    <t xml:space="preserve">1.79434525966644</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80883920192719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79724419116974</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82913076877594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84507405757904</t>
+    <t xml:space="preserve">1.79434514045715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8088390827179</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79724383354187</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82913053035736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84507393836975</t>
   </si>
   <si>
     <t xml:space="preserve">1.82623195648193</t>
@@ -185,88 +185,88 @@
     <t xml:space="preserve">1.8407256603241</t>
   </si>
   <si>
-    <t xml:space="preserve">1.86391603946686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90594863891602</t>
+    <t xml:space="preserve">1.86391580104828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90594851970673</t>
   </si>
   <si>
     <t xml:space="preserve">1.87840986251831</t>
   </si>
   <si>
-    <t xml:space="preserve">1.92623972892761</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91174566745758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83347856998444</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84797251224518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85377013683319</t>
+    <t xml:space="preserve">1.9262398481369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91174578666687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8334789276123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84797275066376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85377037525177</t>
   </si>
   <si>
     <t xml:space="preserve">1.84362435340881</t>
   </si>
   <si>
-    <t xml:space="preserve">1.84652352333069</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8755110502243</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87696051597595</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85956752300262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85087144374847</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82188355922699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81318736076355</t>
+    <t xml:space="preserve">1.84652376174927</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87551116943359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87696027755737</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85956764221191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85087132453918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82188367843628</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81318747997284</t>
   </si>
   <si>
     <t xml:space="preserve">1.89435338973999</t>
   </si>
   <si>
-    <t xml:space="preserve">1.91464447975159</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90015053749084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91319537162781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89000511169434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90160024166107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89290392398834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88130867481232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82768142223358</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7957946062088</t>
+    <t xml:space="preserve">1.91464459896088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90015065670013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9131954908371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89000487327576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90160012245178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89290380477905</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88130879402161</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82768130302429</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79579436779022</t>
   </si>
   <si>
     <t xml:space="preserve">1.80738973617554</t>
   </si>
   <si>
-    <t xml:space="preserve">1.77550303936005</t>
+    <t xml:space="preserve">1.77550315856934</t>
   </si>
   <si>
     <t xml:space="preserve">1.82295882701874</t>
@@ -278,76 +278,76 @@
     <t xml:space="preserve">1.80492460727692</t>
   </si>
   <si>
-    <t xml:space="preserve">1.82446181774139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7673534154892</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73579359054565</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.77336442470551</t>
+    <t xml:space="preserve">1.8244616985321</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76735329627991</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73579335212708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77336466312408</t>
   </si>
   <si>
     <t xml:space="preserve">1.80342173576355</t>
   </si>
   <si>
-    <t xml:space="preserve">1.84700441360474</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90260982513428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87555873394012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87856459617615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85151302814484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84550178050995</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7913990020752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82596445083618</t>
+    <t xml:space="preserve">1.84700429439545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90261018276215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87555861473083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87856447696686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85151314735413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84550189971924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79139888286591</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82596480846405</t>
   </si>
   <si>
     <t xml:space="preserve">1.81093597412109</t>
   </si>
   <si>
-    <t xml:space="preserve">1.83648443222046</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83197593688965</t>
+    <t xml:space="preserve">1.83648431301117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83197569847107</t>
   </si>
   <si>
     <t xml:space="preserve">1.82746720314026</t>
   </si>
   <si>
-    <t xml:space="preserve">1.83498156070709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84099292755127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85001015663147</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90561544895172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92665553092957</t>
+    <t xml:space="preserve">1.8349814414978</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84099316596985</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85001039505005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9056156873703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92665565013885</t>
   </si>
   <si>
     <t xml:space="preserve">1.91914141178131</t>
   </si>
   <si>
-    <t xml:space="preserve">1.90411257743835</t>
+    <t xml:space="preserve">1.90411281585693</t>
   </si>
   <si>
     <t xml:space="preserve">1.9356724023819</t>
@@ -356,22 +356,22 @@
     <t xml:space="preserve">1.89960443973541</t>
   </si>
   <si>
-    <t xml:space="preserve">1.91313004493713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86353600025177</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88758146762848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88006711006165</t>
+    <t xml:space="preserve">1.91312968730927</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86353540420532</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88758134841919</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88006734848022</t>
   </si>
   <si>
     <t xml:space="preserve">1.81394171714783</t>
   </si>
   <si>
-    <t xml:space="preserve">1.80943298339844</t>
+    <t xml:space="preserve">1.8094334602356</t>
   </si>
   <si>
     <t xml:space="preserve">1.84249567985535</t>
@@ -380,46 +380,46 @@
     <t xml:space="preserve">1.85752427577972</t>
   </si>
   <si>
-    <t xml:space="preserve">1.86654138565063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85301554203033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85602164268494</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88307297229767</t>
+    <t xml:space="preserve">1.8665417432785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8530158996582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85602152347565</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88307285308838</t>
   </si>
   <si>
     <t xml:space="preserve">1.82145595550537</t>
   </si>
   <si>
-    <t xml:space="preserve">1.80041611194611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.77035915851593</t>
+    <t xml:space="preserve">1.80041599273682</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77035892009735</t>
   </si>
   <si>
     <t xml:space="preserve">1.80191886425018</t>
   </si>
   <si>
-    <t xml:space="preserve">1.819953083992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.77486765384674</t>
+    <t xml:space="preserve">1.81995296478271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77486753463745</t>
   </si>
   <si>
     <t xml:space="preserve">1.77186179161072</t>
   </si>
   <si>
-    <t xml:space="preserve">1.76585042476654</t>
+    <t xml:space="preserve">1.76585054397583</t>
   </si>
   <si>
     <t xml:space="preserve">1.75533056259155</t>
   </si>
   <si>
-    <t xml:space="preserve">1.78087890148163</t>
+    <t xml:space="preserve">1.78087913990021</t>
   </si>
   <si>
     <t xml:space="preserve">1.75983905792236</t>
@@ -428,31 +428,31 @@
     <t xml:space="preserve">1.69221091270447</t>
   </si>
   <si>
-    <t xml:space="preserve">1.66515970230103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65163385868073</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.638108253479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.66065084934235</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.66966784000397</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.67417645454407</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.68169069290161</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69371342658997</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.67868494987488</t>
+    <t xml:space="preserve">1.66515958309174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65163362026215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.63810813426971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.66065108776093</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.66966795921326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.67417621612549</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6816908121109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69371354579926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6786847114563</t>
   </si>
   <si>
     <t xml:space="preserve">1.6997252702713</t>
@@ -464,52 +464,52 @@
     <t xml:space="preserve">1.71174800395966</t>
   </si>
   <si>
-    <t xml:space="preserve">1.68319356441498</t>
+    <t xml:space="preserve">1.68319392204285</t>
   </si>
   <si>
     <t xml:space="preserve">1.67567932605743</t>
   </si>
   <si>
-    <t xml:space="preserve">1.67718207836151</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.686199426651</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.72377049922943</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73128485679626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75082206726074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6531366109848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.62458229064941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.62157666683197</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60053694248199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.51487421989441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.51787996292114</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.49984586238861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.49909436702728</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.50435435771942</t>
+    <t xml:space="preserve">1.67718231678009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.68619918823242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.72377061843872</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73128473758698</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75082170963287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65313673019409</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.62458217144012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.62157678604126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60053706169128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.51487445831299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.51787984371185</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.49984562397003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.49909424781799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.50435447692871</t>
   </si>
   <si>
     <t xml:space="preserve">1.48331439495087</t>
@@ -521,37 +521,37 @@
     <t xml:space="preserve">1.44799745082855</t>
   </si>
   <si>
-    <t xml:space="preserve">1.44649457931519</t>
+    <t xml:space="preserve">1.4464944601059</t>
   </si>
   <si>
     <t xml:space="preserve">1.46152305603027</t>
   </si>
   <si>
-    <t xml:space="preserve">1.46528005599976</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.45025169849396</t>
+    <t xml:space="preserve">1.46528029441833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.45025157928467</t>
   </si>
   <si>
     <t xml:space="preserve">1.45400869846344</t>
   </si>
   <si>
-    <t xml:space="preserve">1.45776605606079</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.46903741359711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.4329686164856</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.40967464447021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.42846035957336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.49233138561249</t>
+    <t xml:space="preserve">1.4577659368515</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.46903729438782</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.43296873569489</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.4096747636795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.42846024036407</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.49233150482178</t>
   </si>
   <si>
     <t xml:space="preserve">1.53591418266296</t>
@@ -560,13 +560,13 @@
     <t xml:space="preserve">1.54793691635132</t>
   </si>
   <si>
-    <t xml:space="preserve">1.54042267799377</t>
+    <t xml:space="preserve">1.54042279720306</t>
   </si>
   <si>
     <t xml:space="preserve">1.59001696109772</t>
   </si>
   <si>
-    <t xml:space="preserve">1.58400547504425</t>
+    <t xml:space="preserve">1.58400535583496</t>
   </si>
   <si>
     <t xml:space="preserve">1.55695426464081</t>
@@ -575,28 +575,28 @@
     <t xml:space="preserve">1.56296539306641</t>
   </si>
   <si>
-    <t xml:space="preserve">1.60654842853546</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.61556541919708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.62909090518951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65013086795807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.62758803367615</t>
+    <t xml:space="preserve">1.60654830932617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.61556553840637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.62909078598022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65013098716736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.62758815288544</t>
   </si>
   <si>
     <t xml:space="preserve">1.64712512493134</t>
   </si>
   <si>
-    <t xml:space="preserve">1.66816508769989</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65614223480225</t>
+    <t xml:space="preserve">1.66816520690918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65614235401154</t>
   </si>
   <si>
     <t xml:space="preserve">1.65914797782898</t>
@@ -608,22 +608,22 @@
     <t xml:space="preserve">1.71325063705444</t>
   </si>
   <si>
-    <t xml:space="preserve">1.70273077487946</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7147536277771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.71625638008118</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.72076487541199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.70122766494751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.70423352718353</t>
+    <t xml:space="preserve">1.70273065567017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.71475374698639</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.71625649929047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.72076499462128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7012277841568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.70423340797424</t>
   </si>
   <si>
     <t xml:space="preserve">1.63359951972961</t>
@@ -632,52 +632,52 @@
     <t xml:space="preserve">1.63660526275635</t>
   </si>
   <si>
-    <t xml:space="preserve">1.60955381393433</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.64562249183655</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69070816040039</t>
+    <t xml:space="preserve">1.60955369472504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.64562225341797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69070780277252</t>
   </si>
   <si>
     <t xml:space="preserve">1.74481070041656</t>
   </si>
   <si>
-    <t xml:space="preserve">1.72827899456024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.74030196666718</t>
+    <t xml:space="preserve">1.72827911376953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.74030220508575</t>
   </si>
   <si>
     <t xml:space="preserve">1.75382769107819</t>
   </si>
   <si>
-    <t xml:space="preserve">1.75683331489563</t>
+    <t xml:space="preserve">1.75683355331421</t>
   </si>
   <si>
     <t xml:space="preserve">1.76134204864502</t>
   </si>
   <si>
-    <t xml:space="preserve">1.758336186409</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.77787327766418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79440450668335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79891335964203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78388488292694</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78839302062988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.77937626838684</t>
+    <t xml:space="preserve">1.75833606719971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77787303924561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79440462589264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79891324043274</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78388452529907</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78839325904846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77937614917755</t>
   </si>
   <si>
     <t xml:space="preserve">1.782381772995</t>
@@ -686,10 +686,10 @@
     <t xml:space="preserve">1.80642747879028</t>
   </si>
   <si>
-    <t xml:space="preserve">1.8485072851181</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85451865196228</t>
+    <t xml:space="preserve">1.84850716590881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85451877117157</t>
   </si>
   <si>
     <t xml:space="preserve">1.88156998157501</t>
@@ -698,82 +698,82 @@
     <t xml:space="preserve">1.89810144901276</t>
   </si>
   <si>
-    <t xml:space="preserve">1.93867862224579</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.97023832798004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.98526668548584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.98676955699921</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95070135593414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94168412685394</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95971846580505</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.97174143791199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.97624981403351</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.98376405239105</t>
+    <t xml:space="preserve">1.93867874145508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.97023808956146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.98526692390442</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9867696762085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95070171356201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94168436527252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95971810817719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.97174119949341</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.97624957561493</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.98376429080963</t>
   </si>
   <si>
     <t xml:space="preserve">2.01682662963867</t>
   </si>
   <si>
-    <t xml:space="preserve">2.00931262969971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9491982460022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95370674133301</t>
+    <t xml:space="preserve">2.00931239128113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94919836521149</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95370697975159</t>
   </si>
   <si>
     <t xml:space="preserve">2.00029516220093</t>
   </si>
   <si>
-    <t xml:space="preserve">1.96873497962952</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95821583271027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.97324430942535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.98827219009399</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.99578678607941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.00780916213989</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.01081538200378</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.02133536338806</t>
+    <t xml:space="preserve">1.9687352180481</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95821523666382</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.97324407100677</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.98827230930328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.99578714370728</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.00780963897705</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.01081514358521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.02133512496948</t>
   </si>
   <si>
     <t xml:space="preserve">2.06942653656006</t>
   </si>
   <si>
-    <t xml:space="preserve">2.10399198532104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.13404893875122</t>
+    <t xml:space="preserve">2.10399222373962</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.13404870033264</t>
   </si>
   <si>
     <t xml:space="preserve">2.14607191085815</t>
@@ -782,10 +782,10 @@
     <t xml:space="preserve">2.12803769111633</t>
   </si>
   <si>
-    <t xml:space="preserve">2.18063712120056</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.14156270027161</t>
+    <t xml:space="preserve">2.18063735961914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.14156341552734</t>
   </si>
   <si>
     <t xml:space="preserve">2.11451196670532</t>
@@ -794,22 +794,22 @@
     <t xml:space="preserve">2.15058064460754</t>
   </si>
   <si>
-    <t xml:space="preserve">2.16410613059998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.20768904685974</t>
+    <t xml:space="preserve">2.16410636901855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.20768880844116</t>
   </si>
   <si>
     <t xml:space="preserve">2.19115734100342</t>
   </si>
   <si>
-    <t xml:space="preserve">2.18965458869934</t>
+    <t xml:space="preserve">2.18965482711792</t>
   </si>
   <si>
     <t xml:space="preserve">2.17913484573364</t>
   </si>
   <si>
-    <t xml:space="preserve">2.13104367256165</t>
+    <t xml:space="preserve">2.13104319572449</t>
   </si>
   <si>
     <t xml:space="preserve">2.16711187362671</t>
@@ -836,55 +836,55 @@
     <t xml:space="preserve">2.21219730377197</t>
   </si>
   <si>
-    <t xml:space="preserve">2.2347400188446</t>
+    <t xml:space="preserve">2.23474025726318</t>
   </si>
   <si>
     <t xml:space="preserve">2.22271728515625</t>
   </si>
   <si>
-    <t xml:space="preserve">2.23624277114868</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.2486412525177</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.25948858261108</t>
+    <t xml:space="preserve">2.23624300956726</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.24864077568054</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.25948882102966</t>
   </si>
   <si>
     <t xml:space="preserve">2.25328993797302</t>
   </si>
   <si>
-    <t xml:space="preserve">2.17735362052917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.1913013458252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.14945888519287</t>
+    <t xml:space="preserve">2.1773533821106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.19130158424377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.14945912361145</t>
   </si>
   <si>
     <t xml:space="preserve">2.13551139831543</t>
   </si>
   <si>
-    <t xml:space="preserve">2.09211921691895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.0735228061676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.08592057228088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.08282089233398</t>
+    <t xml:space="preserve">2.09211945533752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.07352256774902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.0859203338623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.08282113075256</t>
   </si>
   <si>
     <t xml:space="preserve">2.07197284698486</t>
   </si>
   <si>
-    <t xml:space="preserve">2.0239315032959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.04407811164856</t>
+    <t xml:space="preserve">2.02393174171448</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.04407787322998</t>
   </si>
   <si>
     <t xml:space="preserve">2.07972145080566</t>
@@ -893,10 +893,10 @@
     <t xml:space="preserve">2.05647611618042</t>
   </si>
   <si>
-    <t xml:space="preserve">2.10606646537781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.12931227684021</t>
+    <t xml:space="preserve">2.10606670379639</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.12931251525879</t>
   </si>
   <si>
     <t xml:space="preserve">2.11536526679993</t>
@@ -908,19 +908,19 @@
     <t xml:space="preserve">2.12156343460083</t>
   </si>
   <si>
-    <t xml:space="preserve">2.09986758232117</t>
+    <t xml:space="preserve">2.09986805915833</t>
   </si>
   <si>
     <t xml:space="preserve">2.13861083984375</t>
   </si>
   <si>
-    <t xml:space="preserve">2.15410780906677</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.10916614532471</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.0890200138092</t>
+    <t xml:space="preserve">2.15410804748535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.10916590690613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.08901977539062</t>
   </si>
   <si>
     <t xml:space="preserve">2.13086199760437</t>
@@ -929,28 +929,28 @@
     <t xml:space="preserve">2.12001419067383</t>
   </si>
   <si>
-    <t xml:space="preserve">2.11846446990967</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.11226558685303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.12466335296631</t>
+    <t xml:space="preserve">2.11846423149109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.11226606369019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.12466359138489</t>
   </si>
   <si>
     <t xml:space="preserve">2.12621283531189</t>
   </si>
   <si>
-    <t xml:space="preserve">2.07662224769592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.13241219520569</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.11071586608887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.06887364387512</t>
+    <t xml:space="preserve">2.07662200927734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.13241195678711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.11071562767029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.06887340545654</t>
   </si>
   <si>
     <t xml:space="preserve">2.04872727394104</t>
@@ -959,40 +959,40 @@
     <t xml:space="preserve">2.0347797870636</t>
   </si>
   <si>
-    <t xml:space="preserve">2.04097843170166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.10141730308533</t>
+    <t xml:space="preserve">2.04097890853882</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.10141777992249</t>
   </si>
   <si>
     <t xml:space="preserve">2.08747005462646</t>
   </si>
   <si>
-    <t xml:space="preserve">2.08437085151672</t>
+    <t xml:space="preserve">2.08437061309814</t>
   </si>
   <si>
     <t xml:space="preserve">2.07817196846008</t>
   </si>
   <si>
-    <t xml:space="preserve">2.15565776824951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.09366869926453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.07507228851318</t>
+    <t xml:space="preserve">2.15565752983093</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.09366893768311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.0750720500946</t>
   </si>
   <si>
     <t xml:space="preserve">2.05957531929016</t>
   </si>
   <si>
-    <t xml:space="preserve">2.0611252784729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.04562783241272</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.09676861763</t>
+    <t xml:space="preserve">2.06112504005432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.0456280708313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.09676837921143</t>
   </si>
   <si>
     <t xml:space="preserve">2.11381554603577</t>
@@ -1001,40 +1001,40 @@
     <t xml:space="preserve">2.13706111907959</t>
   </si>
   <si>
-    <t xml:space="preserve">2.14790916442871</t>
+    <t xml:space="preserve">2.14790940284729</t>
   </si>
   <si>
     <t xml:space="preserve">2.15100860595703</t>
   </si>
   <si>
-    <t xml:space="preserve">2.14326024055481</t>
+    <t xml:space="preserve">2.14326000213623</t>
   </si>
   <si>
     <t xml:space="preserve">2.14016056060791</t>
   </si>
   <si>
-    <t xml:space="preserve">2.15255832672119</t>
+    <t xml:space="preserve">2.15255808830261</t>
   </si>
   <si>
     <t xml:space="preserve">2.16185688972473</t>
   </si>
   <si>
-    <t xml:space="preserve">2.18510246276855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.2036988735199</t>
+    <t xml:space="preserve">2.18510222434998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.20369935035706</t>
   </si>
   <si>
     <t xml:space="preserve">2.23004412651062</t>
   </si>
   <si>
-    <t xml:space="preserve">2.24089241027832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.2625880241394</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.27808570861816</t>
+    <t xml:space="preserve">2.24089217185974</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.26258850097656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.27808547019958</t>
   </si>
   <si>
     <t xml:space="preserve">2.26878714561462</t>
@@ -1043,25 +1043,25 @@
     <t xml:space="preserve">2.2610387802124</t>
   </si>
   <si>
-    <t xml:space="preserve">2.24709105491638</t>
+    <t xml:space="preserve">2.24709129333496</t>
   </si>
   <si>
     <t xml:space="preserve">2.25174021720886</t>
   </si>
   <si>
-    <t xml:space="preserve">2.27343654632568</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.27498602867126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.27653551101685</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.30753040313721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.35557150840759</t>
+    <t xml:space="preserve">2.27343606948853</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.27498626708984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.27653574943542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.30753016471863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.35557126998901</t>
   </si>
   <si>
     <t xml:space="preserve">2.34007406234741</t>
@@ -1079,22 +1079,22 @@
     <t xml:space="preserve">2.3912148475647</t>
   </si>
   <si>
-    <t xml:space="preserve">2.38656568527222</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.4268581867218</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.37416791915894</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.35867071151733</t>
+    <t xml:space="preserve">2.38656544685364</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.42685842514038</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.37416768074036</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.35867094993591</t>
   </si>
   <si>
     <t xml:space="preserve">2.38966512680054</t>
   </si>
   <si>
-    <t xml:space="preserve">2.40206289291382</t>
+    <t xml:space="preserve">2.40206265449524</t>
   </si>
   <si>
     <t xml:space="preserve">2.33852434158325</t>
@@ -1103,13 +1103,13 @@
     <t xml:space="preserve">2.34162402153015</t>
   </si>
   <si>
-    <t xml:space="preserve">2.36331963539124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.31217932701111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.30907964706421</t>
+    <t xml:space="preserve">2.36332011222839</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.31217956542969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.30907988548279</t>
   </si>
   <si>
     <t xml:space="preserve">2.30133104324341</t>
@@ -1124,7 +1124,7 @@
     <t xml:space="preserve">2.29358267784119</t>
   </si>
   <si>
-    <t xml:space="preserve">2.34472346305847</t>
+    <t xml:space="preserve">2.34472322463989</t>
   </si>
   <si>
     <t xml:space="preserve">2.39741373062134</t>
@@ -1133,37 +1133,37 @@
     <t xml:space="preserve">2.32457709312439</t>
   </si>
   <si>
-    <t xml:space="preserve">2.35402178764343</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.32147741317749</t>
+    <t xml:space="preserve">2.35402202606201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.32147765159607</t>
   </si>
   <si>
     <t xml:space="preserve">2.36177015304565</t>
   </si>
   <si>
-    <t xml:space="preserve">2.37106847763062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.38501644134521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.33077573776245</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.36486959457397</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.32922601699829</t>
+    <t xml:space="preserve">2.37106871604919</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.38501596450806</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.33077549934387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.36486983299255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.32922625541687</t>
   </si>
   <si>
     <t xml:space="preserve">2.26568794250488</t>
   </si>
   <si>
-    <t xml:space="preserve">2.21454739570618</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.18975162506104</t>
+    <t xml:space="preserve">2.2145471572876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.18975138664246</t>
   </si>
   <si>
     <t xml:space="preserve">2.13396167755127</t>
@@ -1175,7 +1175,7 @@
     <t xml:space="preserve">2.17270445823669</t>
   </si>
   <si>
-    <t xml:space="preserve">2.20524859428406</t>
+    <t xml:space="preserve">2.20524883270264</t>
   </si>
   <si>
     <t xml:space="preserve">2.21299719810486</t>
@@ -1184,25 +1184,25 @@
     <t xml:space="preserve">2.17115473747253</t>
   </si>
   <si>
-    <t xml:space="preserve">2.14635920524597</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.11691474914551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16340661048889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16030669212341</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.15875697135925</t>
+    <t xml:space="preserve">2.14635944366455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.11691498756409</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16340637207031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16030716896057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.15875744819641</t>
   </si>
   <si>
     <t xml:space="preserve">2.1804530620575</t>
   </si>
   <si>
-    <t xml:space="preserve">2.17580413818359</t>
+    <t xml:space="preserve">2.17580389976501</t>
   </si>
   <si>
     <t xml:space="preserve">2.19904971122742</t>
@@ -1211,82 +1211,82 @@
     <t xml:space="preserve">2.29513216018677</t>
   </si>
   <si>
-    <t xml:space="preserve">2.30443048477173</t>
+    <t xml:space="preserve">2.30443072319031</t>
   </si>
   <si>
     <t xml:space="preserve">2.31372904777527</t>
   </si>
   <si>
-    <t xml:space="preserve">2.32612681388855</t>
+    <t xml:space="preserve">2.32612657546997</t>
   </si>
   <si>
     <t xml:space="preserve">2.34782290458679</t>
   </si>
   <si>
-    <t xml:space="preserve">2.31837844848633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.33697485923767</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.37881731987</t>
+    <t xml:space="preserve">2.31837821006775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.33697462081909</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.37881708145142</t>
   </si>
   <si>
     <t xml:space="preserve">2.3834662437439</t>
   </si>
   <si>
-    <t xml:space="preserve">2.36951875686646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.31062936782837</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.33542466163635</t>
+    <t xml:space="preserve">2.36951899528503</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.31062960624695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.33542490005493</t>
   </si>
   <si>
     <t xml:space="preserve">2.22074604034424</t>
   </si>
   <si>
-    <t xml:space="preserve">2.20059943199158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.09831833839417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.019282579422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.03787922859192</t>
+    <t xml:space="preserve">2.200599193573</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.09831786155701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.01928234100342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.03787899017334</t>
   </si>
   <si>
     <t xml:space="preserve">2.0549259185791</t>
   </si>
   <si>
-    <t xml:space="preserve">2.04252791404724</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.05182671546936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.02083230018616</t>
+    <t xml:space="preserve">2.04252815246582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.05182647705078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.02083206176758</t>
   </si>
   <si>
     <t xml:space="preserve">2.10410904884338</t>
   </si>
   <si>
-    <t xml:space="preserve">2.13783931732178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.14908266067505</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.11374616622925</t>
+    <t xml:space="preserve">2.1378390789032</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.14908242225647</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.11374592781067</t>
   </si>
   <si>
     <t xml:space="preserve">2.11695861816406</t>
   </si>
   <si>
-    <t xml:space="preserve">2.15068864822388</t>
+    <t xml:space="preserve">2.1506884098053</t>
   </si>
   <si>
     <t xml:space="preserve">2.13623309135437</t>
@@ -1295,7 +1295,7 @@
     <t xml:space="preserve">2.16675043106079</t>
   </si>
   <si>
-    <t xml:space="preserve">2.14426398277283</t>
+    <t xml:space="preserve">2.14426374435425</t>
   </si>
   <si>
     <t xml:space="preserve">2.18441891670227</t>
@@ -1304,10 +1304,10 @@
     <t xml:space="preserve">2.21493625640869</t>
   </si>
   <si>
-    <t xml:space="preserve">2.234210729599</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.24063491821289</t>
+    <t xml:space="preserve">2.23421049118042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.24063563346863</t>
   </si>
   <si>
     <t xml:space="preserve">2.22457337379456</t>
@@ -1316,46 +1316,46 @@
     <t xml:space="preserve">2.2165424823761</t>
   </si>
   <si>
-    <t xml:space="preserve">2.22778582572937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.21333026885986</t>
+    <t xml:space="preserve">2.22778606414795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.21333003044128</t>
   </si>
   <si>
     <t xml:space="preserve">2.24866628646851</t>
   </si>
   <si>
-    <t xml:space="preserve">2.25348472595215</t>
+    <t xml:space="preserve">2.25348496437073</t>
   </si>
   <si>
     <t xml:space="preserve">2.23260450363159</t>
   </si>
   <si>
-    <t xml:space="preserve">2.18281221389771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16996312141418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.28882074356079</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.25187826156616</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.27757787704468</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.26794052124023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.30006432533264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.29845809936523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.264728307724</t>
+    <t xml:space="preserve">2.18281245231628</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16996288299561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.28882122039795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.25187849998474</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.2775776386261</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.26794028282166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.30006456375122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.29845833778381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.26472806930542</t>
   </si>
   <si>
     <t xml:space="preserve">2.24384760856628</t>
@@ -1364,79 +1364,79 @@
     <t xml:space="preserve">2.23099803924561</t>
   </si>
   <si>
-    <t xml:space="preserve">2.21172404289246</t>
+    <t xml:space="preserve">2.21172380447388</t>
   </si>
   <si>
     <t xml:space="preserve">2.20529913902283</t>
   </si>
   <si>
-    <t xml:space="preserve">2.1988742351532</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.24706029891968</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.23742294311523</t>
+    <t xml:space="preserve">2.19887399673462</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.2470600605011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.23742318153381</t>
   </si>
   <si>
     <t xml:space="preserve">2.22939205169678</t>
   </si>
   <si>
-    <t xml:space="preserve">2.17478156089783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.17799377441406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.1683566570282</t>
+    <t xml:space="preserve">2.17478132247925</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.17799401283264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16835689544678</t>
   </si>
   <si>
     <t xml:space="preserve">2.18602466583252</t>
   </si>
   <si>
-    <t xml:space="preserve">2.203693151474</t>
+    <t xml:space="preserve">2.20369267463684</t>
   </si>
   <si>
     <t xml:space="preserve">2.20690536499023</t>
   </si>
   <si>
-    <t xml:space="preserve">2.26954698562622</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.28239607810974</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.27918410301208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.28400230407715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.29042744636536</t>
+    <t xml:space="preserve">2.26954674720764</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.28239631652832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.27918386459351</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.28400278091431</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.29042720794678</t>
   </si>
   <si>
     <t xml:space="preserve">2.29363942146301</t>
   </si>
   <si>
-    <t xml:space="preserve">2.25669717788696</t>
+    <t xml:space="preserve">2.25669693946838</t>
   </si>
   <si>
     <t xml:space="preserve">2.20048046112061</t>
   </si>
   <si>
-    <t xml:space="preserve">2.19566202163696</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.15390086174011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.14586973190308</t>
+    <t xml:space="preserve">2.19566178321838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.15390110015869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.14587020874023</t>
   </si>
   <si>
     <t xml:space="preserve">2.12820219993591</t>
   </si>
   <si>
-    <t xml:space="preserve">2.0896532535553</t>
+    <t xml:space="preserve">2.08965349197388</t>
   </si>
   <si>
     <t xml:space="preserve">2.03504300117493</t>
@@ -1448,64 +1448,64 @@
     <t xml:space="preserve">2.00934410095215</t>
   </si>
   <si>
-    <t xml:space="preserve">1.97400772571564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9322464466095</t>
+    <t xml:space="preserve">1.97400760650635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93224656581879</t>
   </si>
   <si>
     <t xml:space="preserve">1.98685717582703</t>
   </si>
   <si>
-    <t xml:space="preserve">1.94188380241394</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96437036991119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.97240173816681</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94027781486511</t>
+    <t xml:space="preserve">1.94188404083252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96437096595764</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9724018573761</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94027757644653</t>
   </si>
   <si>
     <t xml:space="preserve">1.92903447151184</t>
   </si>
   <si>
-    <t xml:space="preserve">1.99970698356628</t>
+    <t xml:space="preserve">1.99970674514771</t>
   </si>
   <si>
     <t xml:space="preserve">1.96758306026459</t>
   </si>
   <si>
-    <t xml:space="preserve">1.96115815639496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94991481304169</t>
+    <t xml:space="preserve">1.96115803718567</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94991493225098</t>
   </si>
   <si>
     <t xml:space="preserve">1.95955216884613</t>
   </si>
   <si>
-    <t xml:space="preserve">1.95794594287872</t>
+    <t xml:space="preserve">1.95794570446014</t>
   </si>
   <si>
     <t xml:space="preserve">1.97561383247375</t>
   </si>
   <si>
-    <t xml:space="preserve">1.99328207969666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.03986144065857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.99006962776184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.05271100997925</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.04307389259338</t>
+    <t xml:space="preserve">1.99328196048737</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.03986167907715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.99006950855255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.05271077156067</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.0430736541748</t>
   </si>
   <si>
     <t xml:space="preserve">2.05110502243042</t>
@@ -1520,22 +1520,22 @@
     <t xml:space="preserve">1.99649429321289</t>
   </si>
   <si>
-    <t xml:space="preserve">1.99167585372925</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96276438236237</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.98043251037598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94830882549286</t>
+    <t xml:space="preserve">1.99167549610138</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96276426315308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.98043262958527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94830870628357</t>
   </si>
   <si>
     <t xml:space="preserve">2.01095008850098</t>
   </si>
   <si>
-    <t xml:space="preserve">1.93867182731628</t>
+    <t xml:space="preserve">1.93867158889771</t>
   </si>
   <si>
     <t xml:space="preserve">2.02058744430542</t>
@@ -1547,25 +1547,25 @@
     <t xml:space="preserve">2.17156910896301</t>
   </si>
   <si>
-    <t xml:space="preserve">2.112140417099</t>
+    <t xml:space="preserve">2.11213994026184</t>
   </si>
   <si>
     <t xml:space="preserve">2.14265775680542</t>
   </si>
   <si>
-    <t xml:space="preserve">2.17638754844666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16032552719116</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.27275919914246</t>
+    <t xml:space="preserve">2.17638802528381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16032576560974</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.27275896072388</t>
   </si>
   <si>
     <t xml:space="preserve">2.27597165107727</t>
   </si>
   <si>
-    <t xml:space="preserve">2.25990962982178</t>
+    <t xml:space="preserve">2.2599093914032</t>
   </si>
   <si>
     <t xml:space="preserve">2.28721499443054</t>
@@ -1577,19 +1577,19 @@
     <t xml:space="preserve">2.3129141330719</t>
   </si>
   <si>
-    <t xml:space="preserve">2.28560829162598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.28079009056091</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.30970168113708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.34503769874573</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.34664368629456</t>
+    <t xml:space="preserve">2.28560876846313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.28078985214233</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.30970144271851</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.34503793716431</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.34664392471313</t>
   </si>
   <si>
     <t xml:space="preserve">2.37073683738708</t>
@@ -1598,7 +1598,7 @@
     <t xml:space="preserve">2.37876749038696</t>
   </si>
   <si>
-    <t xml:space="preserve">2.36752438545227</t>
+    <t xml:space="preserve">2.36752414703369</t>
   </si>
   <si>
     <t xml:space="preserve">2.3691303730011</t>
@@ -1607,19 +1607,19 @@
     <t xml:space="preserve">2.37555527687073</t>
   </si>
   <si>
-    <t xml:space="preserve">2.35467481613159</t>
+    <t xml:space="preserve">2.35467457771301</t>
   </si>
   <si>
     <t xml:space="preserve">2.34021925926208</t>
   </si>
   <si>
-    <t xml:space="preserve">2.36591839790344</t>
+    <t xml:space="preserve">2.36591815948486</t>
   </si>
   <si>
     <t xml:space="preserve">2.38840484619141</t>
   </si>
   <si>
-    <t xml:space="preserve">2.386798620224</t>
+    <t xml:space="preserve">2.38679838180542</t>
   </si>
   <si>
     <t xml:space="preserve">2.39322352409363</t>
@@ -1631,40 +1631,40 @@
     <t xml:space="preserve">2.37394905090332</t>
   </si>
   <si>
-    <t xml:space="preserve">2.34343147277832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.41089153289795</t>
+    <t xml:space="preserve">2.3434317111969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.41089129447937</t>
   </si>
   <si>
     <t xml:space="preserve">2.37716150283813</t>
   </si>
   <si>
-    <t xml:space="preserve">2.33861303329468</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.35306882858276</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.34985613822937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.38519263267517</t>
+    <t xml:space="preserve">2.3386127948761</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.35306859016418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.34985637664795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.38519239425659</t>
   </si>
   <si>
     <t xml:space="preserve">2.38198018074036</t>
   </si>
   <si>
-    <t xml:space="preserve">2.39964818954468</t>
+    <t xml:space="preserve">2.3996479511261</t>
   </si>
   <si>
     <t xml:space="preserve">2.40767908096313</t>
   </si>
   <si>
-    <t xml:space="preserve">2.34182548522949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.32255125045776</t>
+    <t xml:space="preserve">2.34182524681091</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.32255101203918</t>
   </si>
   <si>
     <t xml:space="preserve">2.43177199363708</t>
@@ -1676,61 +1676,61 @@
     <t xml:space="preserve">2.47032046318054</t>
   </si>
   <si>
-    <t xml:space="preserve">2.49280738830566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.51850628852844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.52171874046326</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.56829833984375</t>
+    <t xml:space="preserve">2.49280714988708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.51850605010986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.52171850204468</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.56829786300659</t>
   </si>
   <si>
     <t xml:space="preserve">2.5875723361969</t>
   </si>
   <si>
-    <t xml:space="preserve">2.58275413513184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.58917880058289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.60202789306641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.64378929138184</t>
+    <t xml:space="preserve">2.58275389671326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.58917856216431</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.60202813148499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.64378905296326</t>
   </si>
   <si>
     <t xml:space="preserve">2.61487770080566</t>
   </si>
   <si>
-    <t xml:space="preserve">2.59560346603394</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.61005902290344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.55384254455566</t>
+    <t xml:space="preserve">2.59560370445251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.61005926132202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.55384230613708</t>
   </si>
   <si>
     <t xml:space="preserve">2.57151055335999</t>
   </si>
   <si>
-    <t xml:space="preserve">2.5570547580719</t>
+    <t xml:space="preserve">2.55705499649048</t>
   </si>
   <si>
     <t xml:space="preserve">2.52493119239807</t>
   </si>
   <si>
-    <t xml:space="preserve">2.54099273681641</t>
+    <t xml:space="preserve">2.54099297523499</t>
   </si>
   <si>
     <t xml:space="preserve">2.54420518875122</t>
   </si>
   <si>
-    <t xml:space="preserve">2.55866098403931</t>
+    <t xml:space="preserve">2.55866122245789</t>
   </si>
   <si>
     <t xml:space="preserve">2.53778052330017</t>
@@ -1739,37 +1739,37 @@
     <t xml:space="preserve">2.54902386665344</t>
   </si>
   <si>
-    <t xml:space="preserve">2.56347942352295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.55063009262085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.51690006256104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.53938674926758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.52011251449585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.57954168319702</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.62451457977295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.63254570960999</t>
+    <t xml:space="preserve">2.56347966194153</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.55063033103943</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.51689982414246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.53938698768616</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.52011227607727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.57954120635986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.62451434135437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.63254594802856</t>
   </si>
   <si>
     <t xml:space="preserve">2.6357581615448</t>
   </si>
   <si>
-    <t xml:space="preserve">2.63897037506104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.65182042121887</t>
+    <t xml:space="preserve">2.63897061347961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.65182018280029</t>
   </si>
   <si>
     <t xml:space="preserve">2.65342617034912</t>
@@ -1778,19 +1778,19 @@
     <t xml:space="preserve">2.63093972206116</t>
   </si>
   <si>
-    <t xml:space="preserve">2.62933325767517</t>
+    <t xml:space="preserve">2.62933301925659</t>
   </si>
   <si>
     <t xml:space="preserve">2.62290859222412</t>
   </si>
   <si>
-    <t xml:space="preserve">2.61166548728943</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.65985107421875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.68715620040894</t>
+    <t xml:space="preserve">2.61166524887085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.65985083580017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.68715596199036</t>
   </si>
   <si>
     <t xml:space="preserve">2.70000576972961</t>
@@ -1808,25 +1808,25 @@
     <t xml:space="preserve">2.68554997444153</t>
   </si>
   <si>
-    <t xml:space="preserve">2.68233728408813</t>
+    <t xml:space="preserve">2.68233776092529</t>
   </si>
   <si>
     <t xml:space="preserve">2.74497890472412</t>
   </si>
   <si>
-    <t xml:space="preserve">2.75140380859375</t>
+    <t xml:space="preserve">2.75140404701233</t>
   </si>
   <si>
     <t xml:space="preserve">2.78513383865356</t>
   </si>
   <si>
-    <t xml:space="preserve">2.81725740432739</t>
+    <t xml:space="preserve">2.81725764274597</t>
   </si>
   <si>
     <t xml:space="preserve">2.79741787910461</t>
   </si>
   <si>
-    <t xml:space="preserve">2.77923107147217</t>
+    <t xml:space="preserve">2.77923130989075</t>
   </si>
   <si>
     <t xml:space="preserve">2.78253769874573</t>
@@ -1835,13 +1835,13 @@
     <t xml:space="preserve">2.74947142601013</t>
   </si>
   <si>
-    <t xml:space="preserve">2.78088450431824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.76600480079651</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.83213758468628</t>
+    <t xml:space="preserve">2.78088474273682</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.76600456237793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.83213782310486</t>
   </si>
   <si>
     <t xml:space="preserve">2.91645693778992</t>
@@ -1850,19 +1850,19 @@
     <t xml:space="preserve">2.91315007209778</t>
   </si>
   <si>
-    <t xml:space="preserve">2.88835048675537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.87677693367004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.88669729232788</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.90157675743103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.89992356300354</t>
+    <t xml:space="preserve">2.88835072517395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.87677717208862</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.8866970539093</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.90157699584961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.89992380142212</t>
   </si>
   <si>
     <t xml:space="preserve">2.93299007415771</t>
@@ -1877,13 +1877,13 @@
     <t xml:space="preserve">2.84701728820801</t>
   </si>
   <si>
-    <t xml:space="preserve">2.85197758674622</t>
+    <t xml:space="preserve">2.85197734832764</t>
   </si>
   <si>
     <t xml:space="preserve">2.83379101753235</t>
   </si>
   <si>
-    <t xml:space="preserve">2.83048439025879</t>
+    <t xml:space="preserve">2.83048415184021</t>
   </si>
   <si>
     <t xml:space="preserve">2.83544397354126</t>
@@ -1892,7 +1892,7 @@
     <t xml:space="preserve">2.76931118965149</t>
   </si>
   <si>
-    <t xml:space="preserve">2.78584480285645</t>
+    <t xml:space="preserve">2.78584456443787</t>
   </si>
   <si>
     <t xml:space="preserve">2.8387508392334</t>
@@ -1901,7 +1901,7 @@
     <t xml:space="preserve">2.81229782104492</t>
   </si>
   <si>
-    <t xml:space="preserve">2.79576468467712</t>
+    <t xml:space="preserve">2.79576444625854</t>
   </si>
   <si>
     <t xml:space="preserve">2.80733776092529</t>
@@ -1910,25 +1910,25 @@
     <t xml:space="preserve">2.82883095741272</t>
   </si>
   <si>
-    <t xml:space="preserve">2.80568432807922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.83709716796875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.78749799728394</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.86520409584045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.89165711402893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.88173699378967</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.89000391960144</t>
+    <t xml:space="preserve">2.8056845664978</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.83709740638733</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.78749752044678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.86520385742188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.89165687561035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.88173723220825</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.89000368118286</t>
   </si>
   <si>
     <t xml:space="preserve">2.91811013221741</t>
@@ -1946,7 +1946,7 @@
     <t xml:space="preserve">2.99912285804749</t>
   </si>
   <si>
-    <t xml:space="preserve">2.99416303634644</t>
+    <t xml:space="preserve">2.99416279792786</t>
   </si>
   <si>
     <t xml:space="preserve">2.99581623077393</t>
@@ -1955,7 +1955,7 @@
     <t xml:space="preserve">3.02557611465454</t>
   </si>
   <si>
-    <t xml:space="preserve">3.00408315658569</t>
+    <t xml:space="preserve">3.00408267974854</t>
   </si>
   <si>
     <t xml:space="preserve">2.90488362312317</t>
@@ -1964,10 +1964,10 @@
     <t xml:space="preserve">2.89661693572998</t>
   </si>
   <si>
-    <t xml:space="preserve">2.95117664337158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.92306995391846</t>
+    <t xml:space="preserve">2.951176404953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.92307019233704</t>
   </si>
   <si>
     <t xml:space="preserve">2.9263768196106</t>
@@ -1976,28 +1976,28 @@
     <t xml:space="preserve">2.95282983779907</t>
   </si>
   <si>
-    <t xml:space="preserve">3.01565599441528</t>
+    <t xml:space="preserve">3.01565623283386</t>
   </si>
   <si>
     <t xml:space="preserve">3.01234936714172</t>
   </si>
   <si>
-    <t xml:space="preserve">2.97597646713257</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.06194877624512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.06029582023621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.13304162025452</t>
+    <t xml:space="preserve">2.97597670555115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.0619490146637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.06029558181763</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.1330418586731</t>
   </si>
   <si>
     <t xml:space="preserve">3.07517576217651</t>
   </si>
   <si>
-    <t xml:space="preserve">3.11320185661316</t>
+    <t xml:space="preserve">3.11320209503174</t>
   </si>
   <si>
     <t xml:space="preserve">3.06690907478333</t>
@@ -2009,34 +2009,34 @@
     <t xml:space="preserve">3.12808179855347</t>
   </si>
   <si>
-    <t xml:space="preserve">3.13469529151917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.1165087223053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.09005546569824</t>
+    <t xml:space="preserve">3.13469505310059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.11650848388672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.09005522727966</t>
   </si>
   <si>
     <t xml:space="preserve">3.11485528945923</t>
   </si>
   <si>
-    <t xml:space="preserve">3.12642884254456</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.09501528739929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.13634824752808</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.10824227333069</t>
+    <t xml:space="preserve">3.12642860412598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.09501552581787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.13634848594666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.10824179649353</t>
   </si>
   <si>
     <t xml:space="preserve">3.07682871818542</t>
   </si>
   <si>
-    <t xml:space="preserve">3.10493564605713</t>
+    <t xml:space="preserve">3.10493540763855</t>
   </si>
   <si>
     <t xml:space="preserve">3.11816191673279</t>
@@ -2045,7 +2045,7 @@
     <t xml:space="preserve">3.15949487686157</t>
   </si>
   <si>
-    <t xml:space="preserve">3.17272186279297</t>
+    <t xml:space="preserve">3.17272162437439</t>
   </si>
   <si>
     <t xml:space="preserve">3.16280174255371</t>
@@ -2054,7 +2054,7 @@
     <t xml:space="preserve">3.18429493904114</t>
   </si>
   <si>
-    <t xml:space="preserve">3.14296197891235</t>
+    <t xml:space="preserve">3.14296174049377</t>
   </si>
   <si>
     <t xml:space="preserve">3.16776156425476</t>
@@ -2063,7 +2063,7 @@
     <t xml:space="preserve">3.180988073349</t>
   </si>
   <si>
-    <t xml:space="preserve">3.16610789299011</t>
+    <t xml:space="preserve">3.16610813140869</t>
   </si>
   <si>
     <t xml:space="preserve">3.18760132789612</t>
@@ -2072,7 +2072,7 @@
     <t xml:space="preserve">3.18925476074219</t>
   </si>
   <si>
-    <t xml:space="preserve">3.21570777893066</t>
+    <t xml:space="preserve">3.21570801734924</t>
   </si>
   <si>
     <t xml:space="preserve">3.29176068305969</t>
@@ -2087,37 +2087,37 @@
     <t xml:space="preserve">3.33805370330811</t>
   </si>
   <si>
-    <t xml:space="preserve">3.31490731239319</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.28018712997437</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.29837346076965</t>
+    <t xml:space="preserve">3.31490707397461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.28018736839294</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.29837369918823</t>
   </si>
   <si>
     <t xml:space="preserve">3.27357411384583</t>
   </si>
   <si>
-    <t xml:space="preserve">3.30333399772644</t>
+    <t xml:space="preserve">3.30333352088928</t>
   </si>
   <si>
     <t xml:space="preserve">3.29341387748718</t>
   </si>
   <si>
-    <t xml:space="preserve">3.30994725227356</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.17602801322937</t>
+    <t xml:space="preserve">3.30994749069214</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.17602825164795</t>
   </si>
   <si>
     <t xml:space="preserve">3.202481508255</t>
   </si>
   <si>
-    <t xml:space="preserve">3.24050760269165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.21736121177673</t>
+    <t xml:space="preserve">3.24050784111023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.21736097335815</t>
   </si>
   <si>
     <t xml:space="preserve">3.21074771881104</t>
@@ -2129,22 +2129,22 @@
     <t xml:space="preserve">3.21901440620422</t>
   </si>
   <si>
-    <t xml:space="preserve">3.22728109359741</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.17437481880188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.24381446838379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.29010701179504</t>
+    <t xml:space="preserve">3.22728085517883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.1743745803833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.24381422996521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.29010725021362</t>
   </si>
   <si>
     <t xml:space="preserve">3.28680062294006</t>
   </si>
   <si>
-    <t xml:space="preserve">3.28184080123901</t>
+    <t xml:space="preserve">3.28184032440186</t>
   </si>
   <si>
     <t xml:space="preserve">3.34136009216309</t>
@@ -2162,7 +2162,7 @@
     <t xml:space="preserve">3.2124011516571</t>
   </si>
   <si>
-    <t xml:space="preserve">3.22232103347778</t>
+    <t xml:space="preserve">3.22232127189636</t>
   </si>
   <si>
     <t xml:space="preserve">3.19586777687073</t>
@@ -2171,13 +2171,13 @@
     <t xml:space="preserve">3.19256138801575</t>
   </si>
   <si>
-    <t xml:space="preserve">3.26034736633301</t>
+    <t xml:space="preserve">3.26034760475159</t>
   </si>
   <si>
     <t xml:space="preserve">3.30498719215393</t>
   </si>
   <si>
-    <t xml:space="preserve">3.30168032646179</t>
+    <t xml:space="preserve">3.30168056488037</t>
   </si>
   <si>
     <t xml:space="preserve">3.24877429008484</t>
@@ -2186,49 +2186,49 @@
     <t xml:space="preserve">3.39426636695862</t>
   </si>
   <si>
-    <t xml:space="preserve">3.50338578224182</t>
+    <t xml:space="preserve">3.50338554382324</t>
   </si>
   <si>
     <t xml:space="preserve">3.43725275993347</t>
   </si>
   <si>
-    <t xml:space="preserve">3.57613205909729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.57447791099548</t>
+    <t xml:space="preserve">3.57613182067871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.57447814941406</t>
   </si>
   <si>
     <t xml:space="preserve">3.50503873825073</t>
   </si>
   <si>
-    <t xml:space="preserve">3.39095997810364</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.39922618865967</t>
+    <t xml:space="preserve">3.39095973968506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.39922642707825</t>
   </si>
   <si>
     <t xml:space="preserve">3.4091465473175</t>
   </si>
   <si>
-    <t xml:space="preserve">3.45709276199341</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.49842548370361</t>
+    <t xml:space="preserve">3.45709300041199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.49842572212219</t>
   </si>
   <si>
     <t xml:space="preserve">3.51165223121643</t>
   </si>
   <si>
-    <t xml:space="preserve">3.53645181655884</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.55463862419128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.5678653717041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.60754418373108</t>
+    <t xml:space="preserve">3.53645205497742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.55463886260986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.56786489486694</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.60754442214966</t>
   </si>
   <si>
     <t xml:space="preserve">3.58109140396118</t>
@@ -2240,19 +2240,19 @@
     <t xml:space="preserve">3.59927821159363</t>
   </si>
   <si>
-    <t xml:space="preserve">3.68855738639832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.66871738433838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.64722442626953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.46370577812195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.43229222297668</t>
+    <t xml:space="preserve">3.68855762481689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.66871762275696</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.64722418785095</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.46370553970337</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.43229246139526</t>
   </si>
   <si>
     <t xml:space="preserve">3.46205258369446</t>
@@ -2261,28 +2261,28 @@
     <t xml:space="preserve">3.40087962150574</t>
   </si>
   <si>
-    <t xml:space="preserve">3.20578813552856</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.22893452644348</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.38269329071045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.93794989585876</t>
+    <t xml:space="preserve">3.20578789710999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.2289342880249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.38269305229187</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.93795013427734</t>
   </si>
   <si>
     <t xml:space="preserve">2.75773811340332</t>
   </si>
   <si>
-    <t xml:space="preserve">2.79080438613892</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.30307507514954</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.6535792350769</t>
+    <t xml:space="preserve">2.7908046245575</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.30307531356812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.65357899665833</t>
   </si>
   <si>
     <t xml:space="preserve">2.55768632888794</t>
@@ -2291,22 +2291,22 @@
     <t xml:space="preserve">2.60397934913635</t>
   </si>
   <si>
-    <t xml:space="preserve">2.61059260368347</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.55272650718689</t>
+    <t xml:space="preserve">2.61059284210205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.55272626876831</t>
   </si>
   <si>
     <t xml:space="preserve">2.68003225326538</t>
   </si>
   <si>
-    <t xml:space="preserve">2.53288674354553</t>
+    <t xml:space="preserve">2.53288650512695</t>
   </si>
   <si>
     <t xml:space="preserve">2.50808668136597</t>
   </si>
   <si>
-    <t xml:space="preserve">2.53123354911804</t>
+    <t xml:space="preserve">2.53123307228088</t>
   </si>
   <si>
     <t xml:space="preserve">2.59571266174316</t>
@@ -2321,10 +2321,10 @@
     <t xml:space="preserve">2.62216567993164</t>
   </si>
   <si>
-    <t xml:space="preserve">2.66019201278687</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.62547254562378</t>
+    <t xml:space="preserve">2.66019225120544</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.62547278404236</t>
   </si>
   <si>
     <t xml:space="preserve">2.64696574211121</t>
@@ -2336,31 +2336,31 @@
     <t xml:space="preserve">2.67176556587219</t>
   </si>
   <si>
-    <t xml:space="preserve">2.663498878479</t>
+    <t xml:space="preserve">2.66349911689758</t>
   </si>
   <si>
     <t xml:space="preserve">2.64200592041016</t>
   </si>
   <si>
-    <t xml:space="preserve">2.63869881629944</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.70483160018921</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.71805858612061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.61224603652954</t>
+    <t xml:space="preserve">2.63869905471802</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.70483183860779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.71805834770203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.61224579811096</t>
   </si>
   <si>
     <t xml:space="preserve">2.6866455078125</t>
   </si>
   <si>
-    <t xml:space="preserve">2.67672538757324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.77261781692505</t>
+    <t xml:space="preserve">2.67672562599182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.77261805534363</t>
   </si>
   <si>
     <t xml:space="preserve">2.79245781898499</t>
@@ -2378,10 +2378,10 @@
     <t xml:space="preserve">2.58579277992249</t>
   </si>
   <si>
-    <t xml:space="preserve">2.68829894065857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.71640491485596</t>
+    <t xml:space="preserve">2.68829846382141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.71640515327454</t>
   </si>
   <si>
     <t xml:space="preserve">2.65688538551331</t>
@@ -2405,40 +2405,40 @@
     <t xml:space="preserve">2.64365911483765</t>
   </si>
   <si>
-    <t xml:space="preserve">2.75608491897583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.75939154624939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.9577898979187</t>
+    <t xml:space="preserve">2.75608468055725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.75939130783081</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.95779013633728</t>
   </si>
   <si>
     <t xml:space="preserve">2.96274995803833</t>
   </si>
   <si>
-    <t xml:space="preserve">2.92141675949097</t>
+    <t xml:space="preserve">2.92141699790955</t>
   </si>
   <si>
     <t xml:space="preserve">2.88008379936218</t>
   </si>
   <si>
-    <t xml:space="preserve">2.77757787704468</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.90653729438782</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.89331007003784</t>
+    <t xml:space="preserve">2.7775776386261</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.90653681755066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.89331030845642</t>
   </si>
   <si>
     <t xml:space="preserve">2.87347054481506</t>
   </si>
   <si>
-    <t xml:space="preserve">2.86024379730225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.85693740844727</t>
+    <t xml:space="preserve">2.86024403572083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.85693717002869</t>
   </si>
   <si>
     <t xml:space="preserve">2.78915119171143</t>
@@ -2453,52 +2453,52 @@
     <t xml:space="preserve">2.80072450637817</t>
   </si>
   <si>
-    <t xml:space="preserve">2.82717752456665</t>
+    <t xml:space="preserve">2.82717728614807</t>
   </si>
   <si>
     <t xml:space="preserve">2.84420871734619</t>
   </si>
   <si>
-    <t xml:space="preserve">2.79992771148682</t>
+    <t xml:space="preserve">2.7999279499054</t>
   </si>
   <si>
     <t xml:space="preserve">2.81525588035583</t>
   </si>
   <si>
-    <t xml:space="preserve">2.74031853675842</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.73180270195007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.77438068389893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.7369122505188</t>
+    <t xml:space="preserve">2.74031829833984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.73180294036865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.7743809223175</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.73691201210022</t>
   </si>
   <si>
     <t xml:space="preserve">2.74883389472961</t>
   </si>
   <si>
-    <t xml:space="preserve">2.79481840133667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.8322868347168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.835693359375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.83739638328552</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.86805248260498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.76075625419617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.71647500991821</t>
+    <t xml:space="preserve">2.79481863975525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.83228707313538</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.83569312095642</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.83739614486694</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.8680522441864</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.76075601577759</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.71647477149963</t>
   </si>
   <si>
     <t xml:space="preserve">2.73350620269775</t>
@@ -2507,7 +2507,7 @@
     <t xml:space="preserve">2.80333399772644</t>
   </si>
   <si>
-    <t xml:space="preserve">2.78800582885742</t>
+    <t xml:space="preserve">2.78800559043884</t>
   </si>
   <si>
     <t xml:space="preserve">2.6892249584198</t>
@@ -2519,37 +2519,37 @@
     <t xml:space="preserve">2.69944381713867</t>
   </si>
   <si>
-    <t xml:space="preserve">2.69263100624084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.68411564826965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.76756858825684</t>
+    <t xml:space="preserve">2.69263124465942</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.68411540985107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.76756834983826</t>
   </si>
   <si>
     <t xml:space="preserve">2.82547450065613</t>
   </si>
   <si>
-    <t xml:space="preserve">2.89019274711609</t>
+    <t xml:space="preserve">2.89019298553467</t>
   </si>
   <si>
     <t xml:space="preserve">2.87997436523438</t>
   </si>
   <si>
-    <t xml:space="preserve">2.86123967170715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.76586532592773</t>
+    <t xml:space="preserve">2.86123991012573</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.76586508750916</t>
   </si>
   <si>
     <t xml:space="preserve">2.81014633178711</t>
   </si>
   <si>
-    <t xml:space="preserve">2.7828962802887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.76245880126953</t>
+    <t xml:space="preserve">2.78289651870728</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.76245927810669</t>
   </si>
   <si>
     <t xml:space="preserve">2.85272431373596</t>
@@ -2558,7 +2558,7 @@
     <t xml:space="preserve">2.82377147674561</t>
   </si>
   <si>
-    <t xml:space="preserve">2.74542808532715</t>
+    <t xml:space="preserve">2.74542784690857</t>
   </si>
   <si>
     <t xml:space="preserve">2.7249903678894</t>
@@ -2567,25 +2567,25 @@
     <t xml:space="preserve">2.72669363021851</t>
   </si>
   <si>
-    <t xml:space="preserve">2.71306848526001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.79311537742615</t>
+    <t xml:space="preserve">2.71306896209717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.79311513900757</t>
   </si>
   <si>
     <t xml:space="preserve">2.69433450698853</t>
   </si>
   <si>
-    <t xml:space="preserve">2.74713087081909</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.73861575126648</t>
+    <t xml:space="preserve">2.74713110923767</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.7386155128479</t>
   </si>
   <si>
     <t xml:space="preserve">2.78119349479675</t>
   </si>
   <si>
-    <t xml:space="preserve">2.76416206359863</t>
+    <t xml:space="preserve">2.76416230201721</t>
   </si>
   <si>
     <t xml:space="preserve">2.77949023246765</t>
@@ -2594,7 +2594,7 @@
     <t xml:space="preserve">2.79822444915771</t>
   </si>
   <si>
-    <t xml:space="preserve">2.81355237960815</t>
+    <t xml:space="preserve">2.81355261802673</t>
   </si>
   <si>
     <t xml:space="preserve">2.7352089881897</t>
@@ -2630,7 +2630,7 @@
     <t xml:space="preserve">2.5955536365509</t>
   </si>
   <si>
-    <t xml:space="preserve">2.56489753723145</t>
+    <t xml:space="preserve">2.56489729881287</t>
   </si>
   <si>
     <t xml:space="preserve">2.51210045814514</t>
@@ -2642,7 +2642,7 @@
     <t xml:space="preserve">2.44738221168518</t>
   </si>
   <si>
-    <t xml:space="preserve">2.47292852401733</t>
+    <t xml:space="preserve">2.47292876243591</t>
   </si>
   <si>
     <t xml:space="preserve">2.50188183784485</t>
@@ -2660,22 +2660,22 @@
     <t xml:space="preserve">2.46611618995667</t>
   </si>
   <si>
-    <t xml:space="preserve">2.4013979434967</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.37755441665649</t>
+    <t xml:space="preserve">2.40139770507812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.37755417823792</t>
   </si>
   <si>
     <t xml:space="preserve">2.31794476509094</t>
   </si>
   <si>
-    <t xml:space="preserve">2.27877354621887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.29921078681946</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.31964802742004</t>
+    <t xml:space="preserve">2.27877330780029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.29921054840088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.31964778900146</t>
   </si>
   <si>
     <t xml:space="preserve">2.33838248252869</t>
@@ -2684,19 +2684,19 @@
     <t xml:space="preserve">2.39628839492798</t>
   </si>
   <si>
-    <t xml:space="preserve">2.39117908477783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.36563229560852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.54616284370422</t>
+    <t xml:space="preserve">2.39117932319641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.3656325340271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.5461630821228</t>
   </si>
   <si>
     <t xml:space="preserve">2.51550674438477</t>
   </si>
   <si>
-    <t xml:space="preserve">2.54105377197266</t>
+    <t xml:space="preserve">2.54105353355408</t>
   </si>
   <si>
     <t xml:space="preserve">2.58533453941345</t>
@@ -2708,7 +2708,7 @@
     <t xml:space="preserve">2.65686559677124</t>
   </si>
   <si>
-    <t xml:space="preserve">2.60236597061157</t>
+    <t xml:space="preserve">2.60236573219299</t>
   </si>
   <si>
     <t xml:space="preserve">2.58874082565308</t>
@@ -2720,10 +2720,10 @@
     <t xml:space="preserve">2.57341265678406</t>
   </si>
   <si>
-    <t xml:space="preserve">2.56830358505249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.61599063873291</t>
+    <t xml:space="preserve">2.56830334663391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.61599111557007</t>
   </si>
   <si>
     <t xml:space="preserve">2.62961578369141</t>
@@ -2735,19 +2735,19 @@
     <t xml:space="preserve">2.56319427490234</t>
   </si>
   <si>
-    <t xml:space="preserve">2.53083467483521</t>
+    <t xml:space="preserve">2.53083491325378</t>
   </si>
   <si>
     <t xml:space="preserve">2.55978798866272</t>
   </si>
   <si>
-    <t xml:space="preserve">2.53594422340393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.52061629295349</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.50528812408447</t>
+    <t xml:space="preserve">2.53594398498535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.52061605453491</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.50528788566589</t>
   </si>
   <si>
     <t xml:space="preserve">2.47803831100464</t>
@@ -2756,10 +2756,10 @@
     <t xml:space="preserve">2.45249152183533</t>
   </si>
   <si>
-    <t xml:space="preserve">2.48314762115479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.45419454574585</t>
+    <t xml:space="preserve">2.48314738273621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.45419430732727</t>
   </si>
   <si>
     <t xml:space="preserve">2.49336624145508</t>
@@ -2783,19 +2783,19 @@
     <t xml:space="preserve">2.53764748573303</t>
   </si>
   <si>
-    <t xml:space="preserve">2.59895968437195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.53253817558289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.58363151550293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.57852220535278</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.6909282207489</t>
+    <t xml:space="preserve">2.59895992279053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.53253793716431</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.58363127708435</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.57852244377136</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.69092798233032</t>
   </si>
   <si>
     <t xml:space="preserve">2.63642835617065</t>
@@ -2804,43 +2804,43 @@
     <t xml:space="preserve">2.46952271461487</t>
   </si>
   <si>
-    <t xml:space="preserve">2.42353820800781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.4456787109375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.45589780807495</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.41672611236572</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.56149077415466</t>
+    <t xml:space="preserve">2.42353844642639</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.44567894935608</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.45589756965637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.41672587394714</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.56149101257324</t>
   </si>
   <si>
     <t xml:space="preserve">2.58703804016113</t>
   </si>
   <si>
-    <t xml:space="preserve">2.64835000038147</t>
+    <t xml:space="preserve">2.64835023880005</t>
   </si>
   <si>
     <t xml:space="preserve">2.60406899452209</t>
   </si>
   <si>
-    <t xml:space="preserve">2.61769390106201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.65005326271057</t>
+    <t xml:space="preserve">2.61769366264343</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.65005302429199</t>
   </si>
   <si>
     <t xml:space="preserve">2.68581867218018</t>
   </si>
   <si>
-    <t xml:space="preserve">2.6415376663208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.63131880760193</t>
+    <t xml:space="preserve">2.64153742790222</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.63131904602051</t>
   </si>
   <si>
     <t xml:space="preserve">2.61939692497253</t>
@@ -2858,16 +2858,16 @@
     <t xml:space="preserve">2.65856862068176</t>
   </si>
   <si>
-    <t xml:space="preserve">2.66538143157959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.70114684104919</t>
+    <t xml:space="preserve">2.66538166999817</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.70114660263062</t>
   </si>
   <si>
     <t xml:space="preserve">2.81695890426636</t>
   </si>
   <si>
-    <t xml:space="preserve">2.78204464912415</t>
+    <t xml:space="preserve">2.78204488754272</t>
   </si>
   <si>
     <t xml:space="preserve">2.83058381080627</t>
@@ -2891,10 +2891,10 @@
     <t xml:space="preserve">2.86379456520081</t>
   </si>
   <si>
-    <t xml:space="preserve">2.85698246955872</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.85783386230469</t>
+    <t xml:space="preserve">2.85698223114014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.85783362388611</t>
   </si>
   <si>
     <t xml:space="preserve">2.85868549346924</t>
@@ -2906,19 +2906,19 @@
     <t xml:space="preserve">2.89785695075989</t>
   </si>
   <si>
-    <t xml:space="preserve">2.86549782752991</t>
+    <t xml:space="preserve">2.86549758911133</t>
   </si>
   <si>
     <t xml:space="preserve">2.8697555065155</t>
   </si>
   <si>
-    <t xml:space="preserve">2.90126347541809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.94384145736694</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.87401366233826</t>
+    <t xml:space="preserve">2.90126323699951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.94384121894836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.87401342391968</t>
   </si>
   <si>
     <t xml:space="preserve">2.8757164478302</t>
@@ -2927,46 +2927,46 @@
     <t xml:space="preserve">2.86720085144043</t>
   </si>
   <si>
-    <t xml:space="preserve">2.96938800811768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.93788027763367</t>
+    <t xml:space="preserve">2.96938824653625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.93788051605225</t>
   </si>
   <si>
     <t xml:space="preserve">2.92766165733337</t>
   </si>
   <si>
-    <t xml:space="preserve">2.9668333530426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.98556780815125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.99067711830139</t>
+    <t xml:space="preserve">2.96683359146118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.98556756973267</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.99067687988281</t>
   </si>
   <si>
     <t xml:space="preserve">2.99493455886841</t>
   </si>
   <si>
-    <t xml:space="preserve">2.98982524871826</t>
+    <t xml:space="preserve">2.98982548713684</t>
   </si>
   <si>
     <t xml:space="preserve">2.97194266319275</t>
   </si>
   <si>
-    <t xml:space="preserve">2.96768450737</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.97279405593872</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.97023963928223</t>
+    <t xml:space="preserve">2.96768474578857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.9727942943573</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.97023940086365</t>
   </si>
   <si>
     <t xml:space="preserve">2.98130989074707</t>
   </si>
   <si>
-    <t xml:space="preserve">3.00515365600586</t>
+    <t xml:space="preserve">3.00515341758728</t>
   </si>
   <si>
     <t xml:space="preserve">3.04177045822144</t>
@@ -2978,40 +2978,40 @@
     <t xml:space="preserve">3.08264541625977</t>
   </si>
   <si>
-    <t xml:space="preserve">3.13799643516541</t>
+    <t xml:space="preserve">3.13799667358398</t>
   </si>
   <si>
     <t xml:space="preserve">3.11670804023743</t>
   </si>
   <si>
-    <t xml:space="preserve">3.12011408805847</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.15417647361755</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.13033270835876</t>
+    <t xml:space="preserve">3.12011384963989</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.15417623519897</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.13033294677734</t>
   </si>
   <si>
     <t xml:space="preserve">3.1592857837677</t>
   </si>
   <si>
-    <t xml:space="preserve">3.13373899459839</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.1192626953125</t>
+    <t xml:space="preserve">3.13373923301697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.11926245689392</t>
   </si>
   <si>
     <t xml:space="preserve">3.10052824020386</t>
   </si>
   <si>
-    <t xml:space="preserve">3.06816864013672</t>
+    <t xml:space="preserve">3.0681688785553</t>
   </si>
   <si>
     <t xml:space="preserve">3.01026296615601</t>
   </si>
   <si>
-    <t xml:space="preserve">3.03240370750427</t>
+    <t xml:space="preserve">3.03240346908569</t>
   </si>
   <si>
     <t xml:space="preserve">3.00345039367676</t>
@@ -3023,10 +3023,10 @@
     <t xml:space="preserve">2.99919271469116</t>
   </si>
   <si>
-    <t xml:space="preserve">2.97364592552185</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.00259876251221</t>
+    <t xml:space="preserve">2.97364568710327</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.00259852409363</t>
   </si>
   <si>
     <t xml:space="preserve">3.01754140853882</t>
@@ -3053,13 +3053,13 @@
     <t xml:space="preserve">3.03072619438171</t>
   </si>
   <si>
-    <t xml:space="preserve">3.00347805023193</t>
+    <t xml:space="preserve">3.00347781181335</t>
   </si>
   <si>
     <t xml:space="preserve">3.03512120246887</t>
   </si>
   <si>
-    <t xml:space="preserve">2.94810223579407</t>
+    <t xml:space="preserve">2.94810199737549</t>
   </si>
   <si>
     <t xml:space="preserve">2.9568920135498</t>
@@ -3077,16 +3077,16 @@
     <t xml:space="preserve">3.10192370414734</t>
   </si>
   <si>
-    <t xml:space="preserve">3.1458728313446</t>
+    <t xml:space="preserve">3.14587259292603</t>
   </si>
   <si>
     <t xml:space="preserve">3.17839503288269</t>
   </si>
   <si>
-    <t xml:space="preserve">3.15378355979919</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.15817832946777</t>
+    <t xml:space="preserve">3.15378379821777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.15817856788635</t>
   </si>
   <si>
     <t xml:space="preserve">3.13532495498657</t>
@@ -3095,13 +3095,13 @@
     <t xml:space="preserve">3.12214040756226</t>
   </si>
   <si>
-    <t xml:space="preserve">3.11335039138794</t>
+    <t xml:space="preserve">3.11335062980652</t>
   </si>
   <si>
     <t xml:space="preserve">3.13268804550171</t>
   </si>
   <si>
-    <t xml:space="preserve">3.15993642807007</t>
+    <t xml:space="preserve">3.15993666648865</t>
   </si>
   <si>
     <t xml:space="preserve">3.14850974082947</t>
@@ -3119,10 +3119,10 @@
     <t xml:space="preserve">3.26277709007263</t>
   </si>
   <si>
-    <t xml:space="preserve">3.27420377731323</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.29881525039673</t>
+    <t xml:space="preserve">3.27420401573181</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.29881548881531</t>
   </si>
   <si>
     <t xml:space="preserve">3.31551599502563</t>
@@ -3131,19 +3131,19 @@
     <t xml:space="preserve">3.30408930778503</t>
   </si>
   <si>
-    <t xml:space="preserve">3.30584716796875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.28475165367126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.24607682228088</t>
+    <t xml:space="preserve">3.30584740638733</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.28475189208984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.2460765838623</t>
   </si>
   <si>
     <t xml:space="preserve">3.21707034111023</t>
   </si>
   <si>
-    <t xml:space="preserve">3.23201274871826</t>
+    <t xml:space="preserve">3.23201298713684</t>
   </si>
   <si>
     <t xml:space="preserve">3.22673892974854</t>
@@ -3152,16 +3152,16 @@
     <t xml:space="preserve">3.21970725059509</t>
   </si>
   <si>
-    <t xml:space="preserve">3.25398707389832</t>
+    <t xml:space="preserve">3.25398731231689</t>
   </si>
   <si>
     <t xml:space="preserve">3.23904466629028</t>
   </si>
   <si>
-    <t xml:space="preserve">3.22586011886597</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.24168181419373</t>
+    <t xml:space="preserve">3.22585988044739</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.24168157577515</t>
   </si>
   <si>
     <t xml:space="preserve">3.19597458839417</t>
@@ -3170,13 +3170,13 @@
     <t xml:space="preserve">3.14938855171204</t>
   </si>
   <si>
-    <t xml:space="preserve">3.18806409835815</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.21443343162537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.16345262527466</t>
+    <t xml:space="preserve">3.18806385993958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.21443319320679</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.16345238685608</t>
   </si>
   <si>
     <t xml:space="preserve">3.19861149787903</t>
@@ -3188,13 +3188,13 @@
     <t xml:space="preserve">3.20124864578247</t>
   </si>
   <si>
-    <t xml:space="preserve">3.19773244857788</t>
+    <t xml:space="preserve">3.19773268699646</t>
   </si>
   <si>
     <t xml:space="preserve">3.20740127563477</t>
   </si>
   <si>
-    <t xml:space="preserve">3.13620376586914</t>
+    <t xml:space="preserve">3.1362042427063</t>
   </si>
   <si>
     <t xml:space="preserve">3.08522295951843</t>
@@ -3209,22 +3209,22 @@
     <t xml:space="preserve">3.10719776153564</t>
   </si>
   <si>
-    <t xml:space="preserve">3.10983443260193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.11598753929138</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.07115936279297</t>
+    <t xml:space="preserve">3.10983467102051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.1159873008728</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.07115960121155</t>
   </si>
   <si>
     <t xml:space="preserve">3.09664988517761</t>
   </si>
   <si>
-    <t xml:space="preserve">3.01929950714111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.98501896858215</t>
+    <t xml:space="preserve">3.01929926872253</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.98501920700073</t>
   </si>
   <si>
     <t xml:space="preserve">3.02017855644226</t>
@@ -3236,22 +3236,22 @@
     <t xml:space="preserve">3.08610200881958</t>
   </si>
   <si>
-    <t xml:space="preserve">3.0632483959198</t>
+    <t xml:space="preserve">3.06324863433838</t>
   </si>
   <si>
     <t xml:space="preserve">3.03336310386658</t>
   </si>
   <si>
-    <t xml:space="preserve">3.05357956886292</t>
+    <t xml:space="preserve">3.05357980728149</t>
   </si>
   <si>
     <t xml:space="preserve">3.11422920227051</t>
   </si>
   <si>
-    <t xml:space="preserve">3.14675188064575</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.16257357597351</t>
+    <t xml:space="preserve">3.14675164222717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.16257333755493</t>
   </si>
   <si>
     <t xml:space="preserve">3.13005113601685</t>
@@ -3260,13 +3260,13 @@
     <t xml:space="preserve">3.16608929634094</t>
   </si>
   <si>
-    <t xml:space="preserve">3.10895538330078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.12477707862854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.1063187122345</t>
+    <t xml:space="preserve">3.10895562171936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.12477731704712</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.10631847381592</t>
   </si>
   <si>
     <t xml:space="preserve">3.14763069152832</t>
@@ -3278,19 +3278,19 @@
     <t xml:space="preserve">3.20828056335449</t>
   </si>
   <si>
-    <t xml:space="preserve">3.1704843044281</t>
+    <t xml:space="preserve">3.17048454284668</t>
   </si>
   <si>
     <t xml:space="preserve">3.1291720867157</t>
   </si>
   <si>
-    <t xml:space="preserve">3.17136311531067</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.183669090271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.18718457221985</t>
+    <t xml:space="preserve">3.17136335372925</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.18366861343384</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.18718481063843</t>
   </si>
   <si>
     <t xml:space="preserve">3.14499378204346</t>
@@ -3299,22 +3299,22 @@
     <t xml:space="preserve">3.14235687255859</t>
   </si>
   <si>
-    <t xml:space="preserve">3.11247158050537</t>
+    <t xml:space="preserve">3.11247134208679</t>
   </si>
   <si>
     <t xml:space="preserve">2.96216559410095</t>
   </si>
   <si>
-    <t xml:space="preserve">2.97710871696472</t>
+    <t xml:space="preserve">2.97710847854614</t>
   </si>
   <si>
     <t xml:space="preserve">2.9929301738739</t>
   </si>
   <si>
-    <t xml:space="preserve">3.06764364242554</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.99732494354248</t>
+    <t xml:space="preserve">3.06764340400696</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.99732518196106</t>
   </si>
   <si>
     <t xml:space="preserve">3.13796186447144</t>
@@ -3323,10 +3323,10 @@
     <t xml:space="preserve">3.0931339263916</t>
   </si>
   <si>
-    <t xml:space="preserve">3.12038207054138</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.08961796760559</t>
+    <t xml:space="preserve">3.12038230895996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.08961820602417</t>
   </si>
   <si>
     <t xml:space="preserve">3.11510825157166</t>
@@ -3341,22 +3341,22 @@
     <t xml:space="preserve">3.16433119773865</t>
   </si>
   <si>
-    <t xml:space="preserve">3.17487907409668</t>
+    <t xml:space="preserve">3.17487931251526</t>
   </si>
   <si>
     <t xml:space="preserve">3.23289179801941</t>
   </si>
   <si>
-    <t xml:space="preserve">3.2179491519928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.25750350952148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.2276177406311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.20212745666504</t>
+    <t xml:space="preserve">3.21794939041138</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.25750327110291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.22761797904968</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.20212769508362</t>
   </si>
   <si>
     <t xml:space="preserve">3.13971996307373</t>
@@ -3365,7 +3365,7 @@
     <t xml:space="preserve">3.12565612792969</t>
   </si>
   <si>
-    <t xml:space="preserve">3.10543966293335</t>
+    <t xml:space="preserve">3.10543990135193</t>
   </si>
   <si>
     <t xml:space="preserve">3.081707239151</t>
@@ -3374,7 +3374,7 @@
     <t xml:space="preserve">3.09225487709045</t>
   </si>
   <si>
-    <t xml:space="preserve">3.05885362625122</t>
+    <t xml:space="preserve">3.0588538646698</t>
   </si>
   <si>
     <t xml:space="preserve">3.01666259765625</t>
@@ -3383,7 +3383,7 @@
     <t xml:space="preserve">3.02633142471313</t>
   </si>
   <si>
-    <t xml:space="preserve">3.08434414863586</t>
+    <t xml:space="preserve">3.08434391021729</t>
   </si>
   <si>
     <t xml:space="preserve">3.19070100784302</t>
@@ -3398,25 +3398,25 @@
     <t xml:space="preserve">3.18454790115356</t>
   </si>
   <si>
-    <t xml:space="preserve">3.04830574989319</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.98765635490417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.0272102355957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.04742670059204</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.0342423915863</t>
+    <t xml:space="preserve">3.04830598831177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.9876561164856</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.02721047401428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.04742693901062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.03424191474915</t>
   </si>
   <si>
     <t xml:space="preserve">2.96656060218811</t>
   </si>
   <si>
-    <t xml:space="preserve">2.9946882724762</t>
+    <t xml:space="preserve">2.99468803405762</t>
   </si>
   <si>
     <t xml:space="preserve">2.97974538803101</t>
@@ -3431,25 +3431,25 @@
     <t xml:space="preserve">2.90151619911194</t>
   </si>
   <si>
-    <t xml:space="preserve">2.91294264793396</t>
+    <t xml:space="preserve">2.91294288635254</t>
   </si>
   <si>
     <t xml:space="preserve">2.92964339256287</t>
   </si>
   <si>
-    <t xml:space="preserve">2.84262418746948</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.0456690788269</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.93755435943604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.89360523223877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.86547803878784</t>
+    <t xml:space="preserve">2.84262442588806</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.04566884040833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.93755412101746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.89360547065735</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.86547780036926</t>
   </si>
   <si>
     <t xml:space="preserve">2.79955410957336</t>
@@ -3458,7 +3458,7 @@
     <t xml:space="preserve">2.81273913383484</t>
   </si>
   <si>
-    <t xml:space="preserve">2.87778329849243</t>
+    <t xml:space="preserve">2.87778353691101</t>
   </si>
   <si>
     <t xml:space="preserve">2.98414015769958</t>
@@ -3473,13 +3473,13 @@
     <t xml:space="preserve">2.95777082443237</t>
   </si>
   <si>
-    <t xml:space="preserve">2.92436933517456</t>
+    <t xml:space="preserve">2.92436957359314</t>
   </si>
   <si>
     <t xml:space="preserve">2.96040773391724</t>
   </si>
   <si>
-    <t xml:space="preserve">2.99908304214478</t>
+    <t xml:space="preserve">2.9990828037262</t>
   </si>
   <si>
     <t xml:space="preserve">2.89184737205505</t>
@@ -3497,10 +3497,10 @@
     <t xml:space="preserve">2.95952892303467</t>
   </si>
   <si>
-    <t xml:space="preserve">2.94107031822205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.9832615852356</t>
+    <t xml:space="preserve">2.94107007980347</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.98326110839844</t>
   </si>
   <si>
     <t xml:space="preserve">3.0157835483551</t>
@@ -3512,10 +3512,10 @@
     <t xml:space="preserve">3.16081523895264</t>
   </si>
   <si>
-    <t xml:space="preserve">3.11686658859253</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.15729975700378</t>
+    <t xml:space="preserve">3.11686635017395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.15729951858521</t>
   </si>
   <si>
     <t xml:space="preserve">3.17224216461182</t>
@@ -3527,7 +3527,7 @@
     <t xml:space="preserve">3.16169428825378</t>
   </si>
   <si>
-    <t xml:space="preserve">3.08346509933472</t>
+    <t xml:space="preserve">3.08346486091614</t>
   </si>
   <si>
     <t xml:space="preserve">3.09489178657532</t>
@@ -3557,7 +3557,7 @@
     <t xml:space="preserve">3.15114665031433</t>
   </si>
   <si>
-    <t xml:space="preserve">3.09928679466248</t>
+    <t xml:space="preserve">3.0992865562439</t>
   </si>
   <si>
     <t xml:space="preserve">3.0764331817627</t>
@@ -3566,16 +3566,16 @@
     <t xml:space="preserve">2.99820399284363</t>
   </si>
   <si>
-    <t xml:space="preserve">2.97359228134155</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.93315935134888</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.96831870079041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.94282817840576</t>
+    <t xml:space="preserve">2.97359251976013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.9331591129303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.96831846237183</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.94282841682434</t>
   </si>
   <si>
     <t xml:space="preserve">2.94458603858948</t>
@@ -3590,16 +3590,16 @@
     <t xml:space="preserve">2.50685358047485</t>
   </si>
   <si>
-    <t xml:space="preserve">2.44444608688354</t>
+    <t xml:space="preserve">2.44444584846497</t>
   </si>
   <si>
     <t xml:space="preserve">2.54992389678955</t>
   </si>
   <si>
-    <t xml:space="preserve">2.47784733772278</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.50773239135742</t>
+    <t xml:space="preserve">2.4778470993042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.507732629776</t>
   </si>
   <si>
     <t xml:space="preserve">2.47102975845337</t>
@@ -3626,19 +3626,19 @@
     <t xml:space="preserve">2.56829261779785</t>
   </si>
   <si>
-    <t xml:space="preserve">2.53250694274902</t>
+    <t xml:space="preserve">2.5325071811676</t>
   </si>
   <si>
     <t xml:space="preserve">2.58022117614746</t>
   </si>
   <si>
-    <t xml:space="preserve">2.57746839523315</t>
+    <t xml:space="preserve">2.57746815681458</t>
   </si>
   <si>
     <t xml:space="preserve">2.50314474105835</t>
   </si>
   <si>
-    <t xml:space="preserve">2.54902338981628</t>
+    <t xml:space="preserve">2.54902362823486</t>
   </si>
   <si>
     <t xml:space="preserve">2.58389115333557</t>
@@ -3650,7 +3650,7 @@
     <t xml:space="preserve">2.55085849761963</t>
   </si>
   <si>
-    <t xml:space="preserve">2.46368908882141</t>
+    <t xml:space="preserve">2.46368885040283</t>
   </si>
   <si>
     <t xml:space="preserve">2.39028286933899</t>
@@ -3683,10 +3683,10 @@
     <t xml:space="preserve">2.52057862281799</t>
   </si>
   <si>
-    <t xml:space="preserve">2.53801274299622</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.60316038131714</t>
+    <t xml:space="preserve">2.53801250457764</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.60316014289856</t>
   </si>
   <si>
     <t xml:space="preserve">2.59857249259949</t>
@@ -3701,10 +3701,10 @@
     <t xml:space="preserve">2.53067183494568</t>
   </si>
   <si>
-    <t xml:space="preserve">2.53434228897095</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.56095170974731</t>
+    <t xml:space="preserve">2.53434252738953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.56095194816589</t>
   </si>
   <si>
     <t xml:space="preserve">2.56737494468689</t>
@@ -3722,13 +3722,13 @@
     <t xml:space="preserve">2.51323819160461</t>
   </si>
   <si>
-    <t xml:space="preserve">2.49396896362305</t>
+    <t xml:space="preserve">2.49396872520447</t>
   </si>
   <si>
     <t xml:space="preserve">2.45726585388184</t>
   </si>
   <si>
-    <t xml:space="preserve">2.38202452659607</t>
+    <t xml:space="preserve">2.38202476501465</t>
   </si>
   <si>
     <t xml:space="preserve">2.44074964523315</t>
@@ -3737,7 +3737,7 @@
     <t xml:space="preserve">2.29393768310547</t>
   </si>
   <si>
-    <t xml:space="preserve">2.29485511779785</t>
+    <t xml:space="preserve">2.29485487937927</t>
   </si>
   <si>
     <t xml:space="preserve">2.32697033882141</t>
@@ -3746,10 +3746,10 @@
     <t xml:space="preserve">2.26641035079956</t>
   </si>
   <si>
-    <t xml:space="preserve">2.14987802505493</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.20768523216248</t>
+    <t xml:space="preserve">2.14987826347351</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.20768547058105</t>
   </si>
   <si>
     <t xml:space="preserve">2.19483947753906</t>
@@ -3767,7 +3767,7 @@
     <t xml:space="preserve">2.22970747947693</t>
   </si>
   <si>
-    <t xml:space="preserve">2.22695469856262</t>
+    <t xml:space="preserve">2.22695446014404</t>
   </si>
   <si>
     <t xml:space="preserve">2.19850969314575</t>
@@ -3785,31 +3785,31 @@
     <t xml:space="preserve">2.11868071556091</t>
   </si>
   <si>
-    <t xml:space="preserve">2.05169773101807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.05812072753906</t>
+    <t xml:space="preserve">2.05169796943665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.05812096595764</t>
   </si>
   <si>
     <t xml:space="preserve">1.94892942905426</t>
   </si>
   <si>
-    <t xml:space="preserve">1.9975608587265</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.98746752738953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.00581908226013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.0168297290802</t>
+    <t xml:space="preserve">1.99756073951721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.98746728897095</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.00581932067871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.01682996749878</t>
   </si>
   <si>
     <t xml:space="preserve">2.07647228240967</t>
   </si>
   <si>
-    <t xml:space="preserve">1.97095108032227</t>
+    <t xml:space="preserve">1.97095119953156</t>
   </si>
   <si>
     <t xml:space="preserve">1.90855598449707</t>
@@ -3821,16 +3821,16 @@
     <t xml:space="preserve">1.93975365161896</t>
   </si>
   <si>
-    <t xml:space="preserve">1.87185311317444</t>
+    <t xml:space="preserve">1.87185299396515</t>
   </si>
   <si>
     <t xml:space="preserve">1.83882033824921</t>
   </si>
   <si>
-    <t xml:space="preserve">1.86726534366608</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89846277236938</t>
+    <t xml:space="preserve">1.86726522445679</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8984626531601</t>
   </si>
   <si>
     <t xml:space="preserve">1.9480117559433</t>
@@ -3848,7 +3848,7 @@
     <t xml:space="preserve">1.92048454284668</t>
   </si>
   <si>
-    <t xml:space="preserve">1.98379719257355</t>
+    <t xml:space="preserve">1.98379731178284</t>
   </si>
   <si>
     <t xml:space="preserve">2.07280206680298</t>
@@ -3863,10 +3863,10 @@
     <t xml:space="preserve">2.21319103240967</t>
   </si>
   <si>
-    <t xml:space="preserve">2.22420167922974</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.22236680984497</t>
+    <t xml:space="preserve">2.22420191764832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.22236657142639</t>
   </si>
   <si>
     <t xml:space="preserve">2.21135592460632</t>
@@ -3881,13 +3881,13 @@
     <t xml:space="preserve">2.31595921516418</t>
   </si>
   <si>
-    <t xml:space="preserve">2.364590883255</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.39395332336426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.36550831794739</t>
+    <t xml:space="preserve">2.36459064483643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.39395308494568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.36550855636597</t>
   </si>
   <si>
     <t xml:space="preserve">2.38477754592896</t>
@@ -3914,10 +3914,10 @@
     <t xml:space="preserve">2.43249130249023</t>
   </si>
   <si>
-    <t xml:space="preserve">2.43799710273743</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.41872763633728</t>
+    <t xml:space="preserve">2.43799686431885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.41872787475586</t>
   </si>
   <si>
     <t xml:space="preserve">2.43065619468689</t>
@@ -3929,16 +3929,16 @@
     <t xml:space="preserve">2.46001863479614</t>
   </si>
   <si>
-    <t xml:space="preserve">2.46827697753906</t>
+    <t xml:space="preserve">2.46827673912048</t>
   </si>
   <si>
     <t xml:space="preserve">2.46460676193237</t>
   </si>
   <si>
-    <t xml:space="preserve">2.52333116531372</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.5728805065155</t>
+    <t xml:space="preserve">2.5233314037323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.57288026809692</t>
   </si>
   <si>
     <t xml:space="preserve">2.59673738479614</t>
@@ -3959,7 +3959,7 @@
     <t xml:space="preserve">2.3462393283844</t>
   </si>
   <si>
-    <t xml:space="preserve">2.32513499259949</t>
+    <t xml:space="preserve">2.32513523101807</t>
   </si>
   <si>
     <t xml:space="preserve">2.34165143966675</t>
@@ -3968,7 +3968,7 @@
     <t xml:space="preserve">2.33889889717102</t>
   </si>
   <si>
-    <t xml:space="preserve">2.28476190567017</t>
+    <t xml:space="preserve">2.28476166725159</t>
   </si>
   <si>
     <t xml:space="preserve">2.33614611625671</t>
@@ -3983,7 +3983,7 @@
     <t xml:space="preserve">2.37468409538269</t>
   </si>
   <si>
-    <t xml:space="preserve">2.42239832878113</t>
+    <t xml:space="preserve">2.42239809036255</t>
   </si>
   <si>
     <t xml:space="preserve">2.40955185890198</t>
@@ -3995,25 +3995,25 @@
     <t xml:space="preserve">2.54260039329529</t>
   </si>
   <si>
-    <t xml:space="preserve">2.514155626297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.51966118812561</t>
+    <t xml:space="preserve">2.51415538787842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.51966094970703</t>
   </si>
   <si>
     <t xml:space="preserve">2.49672174453735</t>
   </si>
   <si>
-    <t xml:space="preserve">2.43524408340454</t>
+    <t xml:space="preserve">2.43524432182312</t>
   </si>
   <si>
     <t xml:space="preserve">2.47745251655579</t>
   </si>
   <si>
-    <t xml:space="preserve">2.50406241416931</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.49121594429016</t>
+    <t xml:space="preserve">2.50406217575073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.49121618270874</t>
   </si>
   <si>
     <t xml:space="preserve">2.48571085929871</t>
@@ -4028,7 +4028,7 @@
     <t xml:space="preserve">2.43157386779785</t>
   </si>
   <si>
-    <t xml:space="preserve">2.50039172172546</t>
+    <t xml:space="preserve">2.50039196014404</t>
   </si>
   <si>
     <t xml:space="preserve">2.45910120010376</t>
@@ -4046,16 +4046,16 @@
     <t xml:space="preserve">2.38569498062134</t>
   </si>
   <si>
-    <t xml:space="preserve">2.38018989562988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.35082721710205</t>
+    <t xml:space="preserve">2.3801896572113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.35082745552063</t>
   </si>
   <si>
     <t xml:space="preserve">2.31779456138611</t>
   </si>
   <si>
-    <t xml:space="preserve">2.30953621864319</t>
+    <t xml:space="preserve">2.30953645706177</t>
   </si>
   <si>
     <t xml:space="preserve">2.30494856834412</t>
@@ -4088,7 +4088,7 @@
     <t xml:space="preserve">2.21686100959778</t>
   </si>
   <si>
-    <t xml:space="preserve">2.20676803588867</t>
+    <t xml:space="preserve">2.20676779747009</t>
   </si>
   <si>
     <t xml:space="preserve">2.19575691223145</t>
@@ -4106,7 +4106,7 @@
     <t xml:space="preserve">2.28567934036255</t>
   </si>
   <si>
-    <t xml:space="preserve">2.29669046401978</t>
+    <t xml:space="preserve">2.2966902256012</t>
   </si>
   <si>
     <t xml:space="preserve">2.32605266571045</t>
@@ -4121,10 +4121,10 @@
     <t xml:space="preserve">2.4921338558197</t>
   </si>
   <si>
-    <t xml:space="preserve">2.51232051849365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.40588188171387</t>
+    <t xml:space="preserve">2.51232028007507</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.40588164329529</t>
   </si>
   <si>
     <t xml:space="preserve">2.48479318618774</t>
@@ -4133,19 +4133,19 @@
     <t xml:space="preserve">2.47928762435913</t>
   </si>
   <si>
-    <t xml:space="preserve">2.56186962127686</t>
+    <t xml:space="preserve">2.56186938285828</t>
   </si>
   <si>
     <t xml:space="preserve">2.59123182296753</t>
   </si>
   <si>
-    <t xml:space="preserve">2.53617739677429</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.58939695358276</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.62609958648682</t>
+    <t xml:space="preserve">2.53617715835571</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.58939671516418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.6260998249054</t>
   </si>
   <si>
     <t xml:space="preserve">2.61692404747009</t>
@@ -4154,10 +4154,10 @@
     <t xml:space="preserve">2.63527536392212</t>
   </si>
   <si>
-    <t xml:space="preserve">2.72152781486511</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.74905467033386</t>
+    <t xml:space="preserve">2.72152757644653</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.74905490875244</t>
   </si>
   <si>
     <t xml:space="preserve">2.77658200263977</t>
@@ -4178,10 +4178,10 @@
     <t xml:space="preserve">2.73070335388184</t>
   </si>
   <si>
-    <t xml:space="preserve">2.71969246864319</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.64445114135742</t>
+    <t xml:space="preserve">2.71969223022461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.644451379776</t>
   </si>
   <si>
     <t xml:space="preserve">2.62242960929871</t>
@@ -4190,10 +4190,10 @@
     <t xml:space="preserve">2.67564868927002</t>
   </si>
   <si>
-    <t xml:space="preserve">2.67748403549194</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.70684623718262</t>
+    <t xml:space="preserve">2.67748379707336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.7068464756012</t>
   </si>
   <si>
     <t xml:space="preserve">2.68298935890198</t>
@@ -4211,7 +4211,7 @@
     <t xml:space="preserve">2.63894581794739</t>
   </si>
   <si>
-    <t xml:space="preserve">2.64812135696411</t>
+    <t xml:space="preserve">2.64812159538269</t>
   </si>
   <si>
     <t xml:space="preserve">2.65913248062134</t>
@@ -4223,7 +4223,7 @@
     <t xml:space="preserve">2.62426447868347</t>
   </si>
   <si>
-    <t xml:space="preserve">2.66463780403137</t>
+    <t xml:space="preserve">2.66463804244995</t>
   </si>
   <si>
     <t xml:space="preserve">2.61190128326416</t>
@@ -4962,6 +4962,9 @@
   </si>
   <si>
     <t xml:space="preserve">3.41199994087219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.48399996757507</t>
   </si>
 </sst>
 </file>
@@ -62555,7 +62558,7 @@
     </row>
     <row r="2203">
       <c r="A2203" s="1" t="n">
-        <v>45531.6494097222</v>
+        <v>45531.2916666667</v>
       </c>
       <c r="B2203" t="n">
         <v>929758</v>
@@ -62576,6 +62579,32 @@
         <v>1649</v>
       </c>
       <c r="H2203" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2204">
+      <c r="A2204" s="1" t="n">
+        <v>45532.6495949074</v>
+      </c>
+      <c r="B2204" t="n">
+        <v>1958698</v>
+      </c>
+      <c r="C2204" t="n">
+        <v>3.49000000953674</v>
+      </c>
+      <c r="D2204" t="n">
+        <v>3.42600011825562</v>
+      </c>
+      <c r="E2204" t="n">
+        <v>3.42600011825562</v>
+      </c>
+      <c r="F2204" t="n">
+        <v>3.48399996757507</v>
+      </c>
+      <c r="G2204" t="s">
+        <v>1650</v>
+      </c>
+      <c r="H2204" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/HER.MI.xlsx
+++ b/data/HER.MI.xlsx
@@ -38,127 +38,127 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">1.77115488052368</t>
+    <t xml:space="preserve">1.77115511894226</t>
   </si>
   <si>
     <t xml:space="preserve">HER.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">1.7726047039032</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76970529556274</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.77405381202698</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75086319446564</t>
+    <t xml:space="preserve">1.77260458469391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76970553398132</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77405393123627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75086331367493</t>
   </si>
   <si>
     <t xml:space="preserve">1.78999722003937</t>
   </si>
   <si>
-    <t xml:space="preserve">1.85811865329742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86101722717285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83637738227844</t>
+    <t xml:space="preserve">1.85811829566956</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86101734638214</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83637726306915</t>
   </si>
   <si>
     <t xml:space="preserve">1.81173801422119</t>
   </si>
   <si>
-    <t xml:space="preserve">1.76680672168732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83927643299103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81463646888733</t>
+    <t xml:space="preserve">1.76680684089661</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83927631378174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81463670730591</t>
   </si>
   <si>
     <t xml:space="preserve">1.83202958106995</t>
   </si>
   <si>
-    <t xml:space="preserve">1.8726122379303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8566689491272</t>
+    <t xml:space="preserve">1.87261235713959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85666906833649</t>
   </si>
   <si>
     <t xml:space="preserve">1.87116289138794</t>
   </si>
   <si>
-    <t xml:space="preserve">1.90304970741272</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88420748710632</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86971354484558</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91754329204559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92479050159454</t>
+    <t xml:space="preserve">1.90304958820343</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8842077255249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86971342563629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9175431728363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92479026317596</t>
   </si>
   <si>
     <t xml:space="preserve">1.90884745121002</t>
   </si>
   <si>
-    <t xml:space="preserve">1.89145421981812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89725196361542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79289603233337</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80594038963318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82478213310242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76245844364166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82043421268463</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8624666929245</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84942185878754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84217524528503</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86536514759064</t>
+    <t xml:space="preserve">1.89145445823669</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89725232124329</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79289579391479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80594027042389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82478260993958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76245868206024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82043445110321</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86246645450592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84942209720612</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84217512607574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86536526679993</t>
   </si>
   <si>
     <t xml:space="preserve">1.86826419830322</t>
   </si>
   <si>
-    <t xml:space="preserve">1.88855540752411</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8987010717392</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85521972179413</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8305801153183</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81028842926025</t>
+    <t xml:space="preserve">1.8885555267334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89870131015778</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85521948337555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83057987689972</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81028866767883</t>
   </si>
   <si>
     <t xml:space="preserve">1.80449104309082</t>
@@ -167,61 +167,61 @@
     <t xml:space="preserve">1.79434514045715</t>
   </si>
   <si>
-    <t xml:space="preserve">1.8088390827179</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79724383354187</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82913053035736</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84507393836975</t>
+    <t xml:space="preserve">1.80883896350861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79724442958832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82913088798523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84507381916046</t>
   </si>
   <si>
     <t xml:space="preserve">1.82623195648193</t>
   </si>
   <si>
-    <t xml:space="preserve">1.8407256603241</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86391580104828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90594851970673</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87840986251831</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9262398481369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91174578666687</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8334789276123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84797275066376</t>
+    <t xml:space="preserve">1.84072577953339</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86391603946686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90594828128815</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87840974330902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92623972892761</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91174602508545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83347868919373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84797286987305</t>
   </si>
   <si>
     <t xml:space="preserve">1.85377037525177</t>
   </si>
   <si>
-    <t xml:space="preserve">1.84362435340881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84652376174927</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87551116943359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87696027755737</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85956764221191</t>
+    <t xml:space="preserve">1.8436244726181</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8465234041214</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87551128864288</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87696039676666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8595677614212</t>
   </si>
   <si>
     <t xml:space="preserve">1.85087132453918</t>
@@ -230,43 +230,43 @@
     <t xml:space="preserve">1.82188367843628</t>
   </si>
   <si>
-    <t xml:space="preserve">1.81318747997284</t>
+    <t xml:space="preserve">1.81318759918213</t>
   </si>
   <si>
     <t xml:space="preserve">1.89435338973999</t>
   </si>
   <si>
-    <t xml:space="preserve">1.91464459896088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90015065670013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9131954908371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89000487327576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90160012245178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89290380477905</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88130879402161</t>
+    <t xml:space="preserve">1.91464471817017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90015089511871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91319537162781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89000511169434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90160000324249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89290356636047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88130867481232</t>
   </si>
   <si>
     <t xml:space="preserve">1.82768130302429</t>
   </si>
   <si>
-    <t xml:space="preserve">1.79579436779022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80738973617554</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.77550315856934</t>
+    <t xml:space="preserve">1.79579484462738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80738949775696</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77550327777863</t>
   </si>
   <si>
     <t xml:space="preserve">1.82295882701874</t>
@@ -275,244 +275,244 @@
     <t xml:space="preserve">1.83949029445648</t>
   </si>
   <si>
-    <t xml:space="preserve">1.80492460727692</t>
+    <t xml:space="preserve">1.8049248456955</t>
   </si>
   <si>
     <t xml:space="preserve">1.8244616985321</t>
   </si>
   <si>
-    <t xml:space="preserve">1.76735329627991</t>
+    <t xml:space="preserve">1.7673534154892</t>
   </si>
   <si>
     <t xml:space="preserve">1.73579335212708</t>
   </si>
   <si>
-    <t xml:space="preserve">1.77336466312408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80342173576355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84700429439545</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90261018276215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87555861473083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87856447696686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85151314735413</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84550189971924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79139888286591</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82596480846405</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81093597412109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83648431301117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83197569847107</t>
+    <t xml:space="preserve">1.77336478233337</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80342185497284</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84700417518616</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90260994434357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87555849552155</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87856435775757</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85151302814484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84550154209137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7913990020752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82596457004547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81093609333038</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83648455142975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83197593688965</t>
   </si>
   <si>
     <t xml:space="preserve">1.82746720314026</t>
   </si>
   <si>
-    <t xml:space="preserve">1.8349814414978</t>
+    <t xml:space="preserve">1.83498167991638</t>
   </si>
   <si>
     <t xml:space="preserve">1.84099316596985</t>
   </si>
   <si>
-    <t xml:space="preserve">1.85001039505005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9056156873703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92665565013885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91914141178131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90411281585693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9356724023819</t>
+    <t xml:space="preserve">1.85001015663147</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90561556816101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92665553092957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91914105415344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90411245822906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93567287921906</t>
   </si>
   <si>
     <t xml:space="preserve">1.89960443973541</t>
   </si>
   <si>
-    <t xml:space="preserve">1.91312968730927</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86353540420532</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88758134841919</t>
+    <t xml:space="preserve">1.91312980651855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86353611946106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88758146762848</t>
   </si>
   <si>
     <t xml:space="preserve">1.88006734848022</t>
   </si>
   <si>
-    <t xml:space="preserve">1.81394171714783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8094334602356</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84249567985535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85752427577972</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8665417432785</t>
+    <t xml:space="preserve">1.81394159793854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80943334102631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84249603748322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85752439498901</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86654150485992</t>
   </si>
   <si>
     <t xml:space="preserve">1.8530158996582</t>
   </si>
   <si>
-    <t xml:space="preserve">1.85602152347565</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88307285308838</t>
+    <t xml:space="preserve">1.85602164268494</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88307297229767</t>
   </si>
   <si>
     <t xml:space="preserve">1.82145595550537</t>
   </si>
   <si>
-    <t xml:space="preserve">1.80041599273682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.77035892009735</t>
+    <t xml:space="preserve">1.80041587352753</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77035927772522</t>
   </si>
   <si>
     <t xml:space="preserve">1.80191886425018</t>
   </si>
   <si>
-    <t xml:space="preserve">1.81995296478271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.77486753463745</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.77186179161072</t>
+    <t xml:space="preserve">1.819953083992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77486717700958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7718620300293</t>
   </si>
   <si>
     <t xml:space="preserve">1.76585054397583</t>
   </si>
   <si>
-    <t xml:space="preserve">1.75533056259155</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78087913990021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75983905792236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69221091270447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.66515958309174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65163362026215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.63810813426971</t>
+    <t xml:space="preserve">1.75533032417297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78087878227234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75983893871307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69221079349518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.66515946388245</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65163373947144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.638108253479</t>
   </si>
   <si>
     <t xml:space="preserve">1.66065108776093</t>
   </si>
   <si>
-    <t xml:space="preserve">1.66966795921326</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.67417621612549</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6816908121109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69371354579926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6786847114563</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6997252702713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69822204113007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.71174800395966</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.68319392204285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.67567932605743</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.67718231678009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.68619918823242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.72377061843872</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73128473758698</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75082170963287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65313673019409</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.62458217144012</t>
+    <t xml:space="preserve">1.66966784000397</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.67417669296265</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.68169069290161</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69371366500854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.67868518829346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69972515106201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69822227954865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.71174788475037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6831933259964</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.67567944526672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.67718243598938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.68619906902313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.72377049922943</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73128461837769</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75082182884216</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65313649177551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.62458229064941</t>
   </si>
   <si>
     <t xml:space="preserve">1.62157678604126</t>
   </si>
   <si>
-    <t xml:space="preserve">1.60053706169128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.51487445831299</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.51787984371185</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.49984562397003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.49909424781799</t>
+    <t xml:space="preserve">1.60053670406342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5148743391037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.51787996292114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.49984574317932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.49909436702728</t>
   </si>
   <si>
     <t xml:space="preserve">1.50435447692871</t>
   </si>
   <si>
-    <t xml:space="preserve">1.48331439495087</t>
+    <t xml:space="preserve">1.48331451416016</t>
   </si>
   <si>
     <t xml:space="preserve">1.47504878044128</t>
@@ -521,19 +521,19 @@
     <t xml:space="preserve">1.44799745082855</t>
   </si>
   <si>
-    <t xml:space="preserve">1.4464944601059</t>
+    <t xml:space="preserve">1.44649469852448</t>
   </si>
   <si>
     <t xml:space="preserve">1.46152305603027</t>
   </si>
   <si>
-    <t xml:space="preserve">1.46528029441833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.45025157928467</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.45400869846344</t>
+    <t xml:space="preserve">1.46528017520905</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.45025169849396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.45400881767273</t>
   </si>
   <si>
     <t xml:space="preserve">1.4577659368515</t>
@@ -554,19 +554,19 @@
     <t xml:space="preserve">1.49233150482178</t>
   </si>
   <si>
-    <t xml:space="preserve">1.53591418266296</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54793691635132</t>
+    <t xml:space="preserve">1.53591406345367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54793703556061</t>
   </si>
   <si>
     <t xml:space="preserve">1.54042279720306</t>
   </si>
   <si>
-    <t xml:space="preserve">1.59001696109772</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.58400535583496</t>
+    <t xml:space="preserve">1.59001672267914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.58400547504425</t>
   </si>
   <si>
     <t xml:space="preserve">1.55695426464081</t>
@@ -575,31 +575,31 @@
     <t xml:space="preserve">1.56296539306641</t>
   </si>
   <si>
-    <t xml:space="preserve">1.60654830932617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.61556553840637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.62909078598022</t>
+    <t xml:space="preserve">1.60654842853546</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6155651807785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6290910243988</t>
   </si>
   <si>
     <t xml:space="preserve">1.65013098716736</t>
   </si>
   <si>
-    <t xml:space="preserve">1.62758815288544</t>
+    <t xml:space="preserve">1.62758803367615</t>
   </si>
   <si>
     <t xml:space="preserve">1.64712512493134</t>
   </si>
   <si>
-    <t xml:space="preserve">1.66816520690918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65614235401154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65914797782898</t>
+    <t xml:space="preserve">1.66816508769989</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65614223480225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65914809703827</t>
   </si>
   <si>
     <t xml:space="preserve">1.62307965755463</t>
@@ -608,22 +608,22 @@
     <t xml:space="preserve">1.71325063705444</t>
   </si>
   <si>
-    <t xml:space="preserve">1.70273065567017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.71475374698639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.71625649929047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.72076499462128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7012277841568</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.70423340797424</t>
+    <t xml:space="preserve">1.70273077487946</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7147536277771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7162561416626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.72076487541199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.70122754573822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.70423352718353</t>
   </si>
   <si>
     <t xml:space="preserve">1.63359951972961</t>
@@ -632,100 +632,100 @@
     <t xml:space="preserve">1.63660526275635</t>
   </si>
   <si>
-    <t xml:space="preserve">1.60955369472504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.64562225341797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69070780277252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.74481070041656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.72827911376953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.74030220508575</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75382769107819</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75683355331421</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76134204864502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75833606719971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.77787303924561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79440462589264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79891324043274</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78388452529907</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78839325904846</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.77937614917755</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.782381772995</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80642747879028</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84850716590881</t>
+    <t xml:space="preserve">1.60955393314362</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.64562237262726</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69070792198181</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.74481046199799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.72827923297882</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.74030196666718</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75382792949677</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75683331489563</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76134192943573</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75833594799042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77787327766418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79440450668335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79891312122345</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78388464450836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78839313983917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77937626838684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78238189220428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80642759799957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84850752353668</t>
   </si>
   <si>
     <t xml:space="preserve">1.85451877117157</t>
   </si>
   <si>
-    <t xml:space="preserve">1.88156998157501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89810144901276</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93867874145508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.97023808956146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.98526692390442</t>
+    <t xml:space="preserve">1.88157021999359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89810132980347</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93867826461792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.97023832798004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.98526668548584</t>
   </si>
   <si>
     <t xml:space="preserve">1.9867696762085</t>
   </si>
   <si>
-    <t xml:space="preserve">1.95070171356201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94168436527252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95971810817719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.97174119949341</t>
+    <t xml:space="preserve">1.95070111751556</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94168412685394</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95971834659576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9717413187027</t>
   </si>
   <si>
     <t xml:space="preserve">1.97624957561493</t>
   </si>
   <si>
-    <t xml:space="preserve">1.98376429080963</t>
+    <t xml:space="preserve">1.98376417160034</t>
   </si>
   <si>
     <t xml:space="preserve">2.01682662963867</t>
@@ -737,25 +737,25 @@
     <t xml:space="preserve">1.94919836521149</t>
   </si>
   <si>
-    <t xml:space="preserve">1.95370697975159</t>
+    <t xml:space="preserve">1.95370709896088</t>
   </si>
   <si>
     <t xml:space="preserve">2.00029516220093</t>
   </si>
   <si>
-    <t xml:space="preserve">1.9687352180481</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95821523666382</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.97324407100677</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.98827230930328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.99578714370728</t>
+    <t xml:space="preserve">1.96873533725739</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95821535587311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9732438325882</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.98827242851257</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.99578642845154</t>
   </si>
   <si>
     <t xml:space="preserve">2.00780963897705</t>
@@ -773,16 +773,16 @@
     <t xml:space="preserve">2.10399222373962</t>
   </si>
   <si>
-    <t xml:space="preserve">2.13404870033264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.14607191085815</t>
+    <t xml:space="preserve">2.13404893875122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.14607167243958</t>
   </si>
   <si>
     <t xml:space="preserve">2.12803769111633</t>
   </si>
   <si>
-    <t xml:space="preserve">2.18063735961914</t>
+    <t xml:space="preserve">2.18063759803772</t>
   </si>
   <si>
     <t xml:space="preserve">2.14156341552734</t>
@@ -791,10 +791,10 @@
     <t xml:space="preserve">2.11451196670532</t>
   </si>
   <si>
-    <t xml:space="preserve">2.15058064460754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16410636901855</t>
+    <t xml:space="preserve">2.15058016777039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1641058921814</t>
   </si>
   <si>
     <t xml:space="preserve">2.20768880844116</t>
@@ -803,10 +803,10 @@
     <t xml:space="preserve">2.19115734100342</t>
   </si>
   <si>
-    <t xml:space="preserve">2.18965482711792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.17913484573364</t>
+    <t xml:space="preserve">2.18965458869934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.17913460731506</t>
   </si>
   <si>
     <t xml:space="preserve">2.13104319572449</t>
@@ -815,19 +815,19 @@
     <t xml:space="preserve">2.16711187362671</t>
   </si>
   <si>
-    <t xml:space="preserve">2.2016773223877</t>
+    <t xml:space="preserve">2.20167756080627</t>
   </si>
   <si>
     <t xml:space="preserve">2.15659165382385</t>
   </si>
   <si>
-    <t xml:space="preserve">2.1821403503418</t>
+    <t xml:space="preserve">2.18214058876038</t>
   </si>
   <si>
     <t xml:space="preserve">2.19867181777954</t>
   </si>
   <si>
-    <t xml:space="preserve">2.18664884567261</t>
+    <t xml:space="preserve">2.18664932250977</t>
   </si>
   <si>
     <t xml:space="preserve">2.22722601890564</t>
@@ -836,40 +836,40 @@
     <t xml:space="preserve">2.21219730377197</t>
   </si>
   <si>
-    <t xml:space="preserve">2.23474025726318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.22271728515625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.23624300956726</t>
+    <t xml:space="preserve">2.23473978042603</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.22271704673767</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.23624277114868</t>
   </si>
   <si>
     <t xml:space="preserve">2.24864077568054</t>
   </si>
   <si>
-    <t xml:space="preserve">2.25948882102966</t>
+    <t xml:space="preserve">2.25948858261108</t>
   </si>
   <si>
     <t xml:space="preserve">2.25328993797302</t>
   </si>
   <si>
-    <t xml:space="preserve">2.1773533821106</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.19130158424377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.14945912361145</t>
+    <t xml:space="preserve">2.17735362052917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.19130110740662</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.14945888519287</t>
   </si>
   <si>
     <t xml:space="preserve">2.13551139831543</t>
   </si>
   <si>
-    <t xml:space="preserve">2.09211945533752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.07352256774902</t>
+    <t xml:space="preserve">2.09211897850037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.0735228061676</t>
   </si>
   <si>
     <t xml:space="preserve">2.0859203338623</t>
@@ -878,19 +878,19 @@
     <t xml:space="preserve">2.08282113075256</t>
   </si>
   <si>
-    <t xml:space="preserve">2.07197284698486</t>
+    <t xml:space="preserve">2.07197308540344</t>
   </si>
   <si>
     <t xml:space="preserve">2.02393174171448</t>
   </si>
   <si>
-    <t xml:space="preserve">2.04407787322998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.07972145080566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.05647611618042</t>
+    <t xml:space="preserve">2.04407835006714</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.07972168922424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.05647587776184</t>
   </si>
   <si>
     <t xml:space="preserve">2.10606670379639</t>
@@ -902,52 +902,52 @@
     <t xml:space="preserve">2.11536526679993</t>
   </si>
   <si>
-    <t xml:space="preserve">2.10761666297913</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.12156343460083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.09986805915833</t>
+    <t xml:space="preserve">2.10761642456055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.12156367301941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.09986782073975</t>
   </si>
   <si>
     <t xml:space="preserve">2.13861083984375</t>
   </si>
   <si>
-    <t xml:space="preserve">2.15410804748535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.10916590690613</t>
+    <t xml:space="preserve">2.15410780906677</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.10916638374329</t>
   </si>
   <si>
     <t xml:space="preserve">2.08901977539062</t>
   </si>
   <si>
-    <t xml:space="preserve">2.13086199760437</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.12001419067383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.11846423149109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.11226606369019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.12466359138489</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.12621283531189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.07662200927734</t>
+    <t xml:space="preserve">2.13086223602295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.12001442909241</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.11846446990967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.11226582527161</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.12466335296631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.12621307373047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.07662224769592</t>
   </si>
   <si>
     <t xml:space="preserve">2.13241195678711</t>
   </si>
   <si>
-    <t xml:space="preserve">2.11071562767029</t>
+    <t xml:space="preserve">2.11071586608887</t>
   </si>
   <si>
     <t xml:space="preserve">2.06887340545654</t>
@@ -959,28 +959,28 @@
     <t xml:space="preserve">2.0347797870636</t>
   </si>
   <si>
-    <t xml:space="preserve">2.04097890853882</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.10141777992249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.08747005462646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.08437061309814</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.07817196846008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.15565752983093</t>
+    <t xml:space="preserve">2.04097867012024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.10141706466675</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.08747029304504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.08437085151672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.0781717300415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.15565776824951</t>
   </si>
   <si>
     <t xml:space="preserve">2.09366893768311</t>
   </si>
   <si>
-    <t xml:space="preserve">2.0750720500946</t>
+    <t xml:space="preserve">2.07507228851318</t>
   </si>
   <si>
     <t xml:space="preserve">2.05957531929016</t>
@@ -989,22 +989,22 @@
     <t xml:space="preserve">2.06112504005432</t>
   </si>
   <si>
-    <t xml:space="preserve">2.0456280708313</t>
+    <t xml:space="preserve">2.04562783241272</t>
   </si>
   <si>
     <t xml:space="preserve">2.09676837921143</t>
   </si>
   <si>
-    <t xml:space="preserve">2.11381554603577</t>
+    <t xml:space="preserve">2.11381530761719</t>
   </si>
   <si>
     <t xml:space="preserve">2.13706111907959</t>
   </si>
   <si>
-    <t xml:space="preserve">2.14790940284729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.15100860595703</t>
+    <t xml:space="preserve">2.14790916442871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.15100836753845</t>
   </si>
   <si>
     <t xml:space="preserve">2.14326000213623</t>
@@ -1013,16 +1013,16 @@
     <t xml:space="preserve">2.14016056060791</t>
   </si>
   <si>
-    <t xml:space="preserve">2.15255808830261</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16185688972473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.18510222434998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.20369935035706</t>
+    <t xml:space="preserve">2.15255856513977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16185641288757</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.18510270118713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.20369911193848</t>
   </si>
   <si>
     <t xml:space="preserve">2.23004412651062</t>
@@ -1031,7 +1031,7 @@
     <t xml:space="preserve">2.24089217185974</t>
   </si>
   <si>
-    <t xml:space="preserve">2.26258850097656</t>
+    <t xml:space="preserve">2.2625880241394</t>
   </si>
   <si>
     <t xml:space="preserve">2.27808547019958</t>
@@ -1040,13 +1040,13 @@
     <t xml:space="preserve">2.26878714561462</t>
   </si>
   <si>
-    <t xml:space="preserve">2.2610387802124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.24709129333496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.25174021720886</t>
+    <t xml:space="preserve">2.26103830337524</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.2470908164978</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.25173997879028</t>
   </si>
   <si>
     <t xml:space="preserve">2.27343606948853</t>
@@ -1055,73 +1055,73 @@
     <t xml:space="preserve">2.27498626708984</t>
   </si>
   <si>
-    <t xml:space="preserve">2.27653574943542</t>
+    <t xml:space="preserve">2.27653551101685</t>
   </si>
   <si>
     <t xml:space="preserve">2.30753016471863</t>
   </si>
   <si>
-    <t xml:space="preserve">2.35557126998901</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.34007406234741</t>
+    <t xml:space="preserve">2.35557103157043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.34007453918457</t>
   </si>
   <si>
     <t xml:space="preserve">2.34317350387573</t>
   </si>
   <si>
-    <t xml:space="preserve">2.36641955375671</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.38036680221558</t>
+    <t xml:space="preserve">2.36641931533813</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.38036704063416</t>
   </si>
   <si>
     <t xml:space="preserve">2.3912148475647</t>
   </si>
   <si>
-    <t xml:space="preserve">2.38656544685364</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.42685842514038</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.37416768074036</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.35867094993591</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.38966512680054</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.40206265449524</t>
+    <t xml:space="preserve">2.38656568527222</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.4268581867218</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.37416791915894</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.35867047309875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.38966536521912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.40206289291382</t>
   </si>
   <si>
     <t xml:space="preserve">2.33852434158325</t>
   </si>
   <si>
-    <t xml:space="preserve">2.34162402153015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.36332011222839</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.31217956542969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.30907988548279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.30133104324341</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.25483965873718</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.2346932888031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.29358267784119</t>
+    <t xml:space="preserve">2.34162378311157</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.36331963539124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.31217908859253</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.30907964706421</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.30133128166199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.25483989715576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.23469352722168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.29358291625977</t>
   </si>
   <si>
     <t xml:space="preserve">2.34472322463989</t>
@@ -1133,22 +1133,22 @@
     <t xml:space="preserve">2.32457709312439</t>
   </si>
   <si>
-    <t xml:space="preserve">2.35402202606201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.32147765159607</t>
+    <t xml:space="preserve">2.35402178764343</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.32147741317749</t>
   </si>
   <si>
     <t xml:space="preserve">2.36177015304565</t>
   </si>
   <si>
-    <t xml:space="preserve">2.37106871604919</t>
+    <t xml:space="preserve">2.37106847763062</t>
   </si>
   <si>
     <t xml:space="preserve">2.38501596450806</t>
   </si>
   <si>
-    <t xml:space="preserve">2.33077549934387</t>
+    <t xml:space="preserve">2.33077573776245</t>
   </si>
   <si>
     <t xml:space="preserve">2.36486983299255</t>
@@ -1157,7 +1157,7 @@
     <t xml:space="preserve">2.32922625541687</t>
   </si>
   <si>
-    <t xml:space="preserve">2.26568794250488</t>
+    <t xml:space="preserve">2.2656877040863</t>
   </si>
   <si>
     <t xml:space="preserve">2.2145471572876</t>
@@ -1172,10 +1172,10 @@
     <t xml:space="preserve">2.10451722145081</t>
   </si>
   <si>
-    <t xml:space="preserve">2.17270445823669</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.20524883270264</t>
+    <t xml:space="preserve">2.17270469665527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.20524907112122</t>
   </si>
   <si>
     <t xml:space="preserve">2.21299719810486</t>
@@ -1187,16 +1187,16 @@
     <t xml:space="preserve">2.14635944366455</t>
   </si>
   <si>
-    <t xml:space="preserve">2.11691498756409</t>
+    <t xml:space="preserve">2.11691474914551</t>
   </si>
   <si>
     <t xml:space="preserve">2.16340637207031</t>
   </si>
   <si>
-    <t xml:space="preserve">2.16030716896057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.15875744819641</t>
+    <t xml:space="preserve">2.16030693054199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.15875720977783</t>
   </si>
   <si>
     <t xml:space="preserve">2.1804530620575</t>
@@ -1205,67 +1205,67 @@
     <t xml:space="preserve">2.17580389976501</t>
   </si>
   <si>
-    <t xml:space="preserve">2.19904971122742</t>
+    <t xml:space="preserve">2.199049949646</t>
   </si>
   <si>
     <t xml:space="preserve">2.29513216018677</t>
   </si>
   <si>
-    <t xml:space="preserve">2.30443072319031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.31372904777527</t>
+    <t xml:space="preserve">2.30443096160889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.31372928619385</t>
   </si>
   <si>
     <t xml:space="preserve">2.32612657546997</t>
   </si>
   <si>
-    <t xml:space="preserve">2.34782290458679</t>
+    <t xml:space="preserve">2.34782266616821</t>
   </si>
   <si>
     <t xml:space="preserve">2.31837821006775</t>
   </si>
   <si>
-    <t xml:space="preserve">2.33697462081909</t>
+    <t xml:space="preserve">2.33697485923767</t>
   </si>
   <si>
     <t xml:space="preserve">2.37881708145142</t>
   </si>
   <si>
-    <t xml:space="preserve">2.3834662437439</t>
+    <t xml:space="preserve">2.38346648216248</t>
   </si>
   <si>
     <t xml:space="preserve">2.36951899528503</t>
   </si>
   <si>
-    <t xml:space="preserve">2.31062960624695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.33542490005493</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.22074604034424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.200599193573</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.09831786155701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.01928234100342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.03787899017334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.0549259185791</t>
+    <t xml:space="preserve">2.31062984466553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.33542513847351</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.22074580192566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.20059943199158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.09831809997559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.019282579422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.03787922859192</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.05492615699768</t>
   </si>
   <si>
     <t xml:space="preserve">2.04252815246582</t>
   </si>
   <si>
-    <t xml:space="preserve">2.05182647705078</t>
+    <t xml:space="preserve">2.05182671546936</t>
   </si>
   <si>
     <t xml:space="preserve">2.02083206176758</t>
@@ -1274,19 +1274,19 @@
     <t xml:space="preserve">2.10410904884338</t>
   </si>
   <si>
-    <t xml:space="preserve">2.1378390789032</t>
+    <t xml:space="preserve">2.13783931732178</t>
   </si>
   <si>
     <t xml:space="preserve">2.14908242225647</t>
   </si>
   <si>
-    <t xml:space="preserve">2.11374592781067</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.11695861816406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.1506884098053</t>
+    <t xml:space="preserve">2.11374640464783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.11695837974548</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.15068864822388</t>
   </si>
   <si>
     <t xml:space="preserve">2.13623309135437</t>
@@ -1298,37 +1298,37 @@
     <t xml:space="preserve">2.14426374435425</t>
   </si>
   <si>
-    <t xml:space="preserve">2.18441891670227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.21493625640869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.23421049118042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.24063563346863</t>
+    <t xml:space="preserve">2.18441867828369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.21493649482727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.234210729599</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.24063515663147</t>
   </si>
   <si>
     <t xml:space="preserve">2.22457337379456</t>
   </si>
   <si>
-    <t xml:space="preserve">2.2165424823761</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.22778606414795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.21333003044128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.24866628646851</t>
+    <t xml:space="preserve">2.21654224395752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.22778582572937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.21333026885986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.24866604804993</t>
   </si>
   <si>
     <t xml:space="preserve">2.25348496437073</t>
   </si>
   <si>
-    <t xml:space="preserve">2.23260450363159</t>
+    <t xml:space="preserve">2.23260426521301</t>
   </si>
   <si>
     <t xml:space="preserve">2.18281245231628</t>
@@ -1337,31 +1337,31 @@
     <t xml:space="preserve">2.16996288299561</t>
   </si>
   <si>
-    <t xml:space="preserve">2.28882122039795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.25187849998474</t>
+    <t xml:space="preserve">2.28882098197937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.25187873840332</t>
   </si>
   <si>
     <t xml:space="preserve">2.2775776386261</t>
   </si>
   <si>
-    <t xml:space="preserve">2.26794028282166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.30006456375122</t>
+    <t xml:space="preserve">2.26794052124023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.30006432533264</t>
   </si>
   <si>
     <t xml:space="preserve">2.29845833778381</t>
   </si>
   <si>
-    <t xml:space="preserve">2.26472806930542</t>
+    <t xml:space="preserve">2.26472854614258</t>
   </si>
   <si>
     <t xml:space="preserve">2.24384760856628</t>
   </si>
   <si>
-    <t xml:space="preserve">2.23099803924561</t>
+    <t xml:space="preserve">2.23099851608276</t>
   </si>
   <si>
     <t xml:space="preserve">2.21172380447388</t>
@@ -1370,46 +1370,46 @@
     <t xml:space="preserve">2.20529913902283</t>
   </si>
   <si>
-    <t xml:space="preserve">2.19887399673462</t>
+    <t xml:space="preserve">2.1988742351532</t>
   </si>
   <si>
     <t xml:space="preserve">2.2470600605011</t>
   </si>
   <si>
-    <t xml:space="preserve">2.23742318153381</t>
+    <t xml:space="preserve">2.23742294311523</t>
   </si>
   <si>
     <t xml:space="preserve">2.22939205169678</t>
   </si>
   <si>
-    <t xml:space="preserve">2.17478132247925</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.17799401283264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16835689544678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.18602466583252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.20369267463684</t>
+    <t xml:space="preserve">2.17478156089783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.17799377441406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1683566570282</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.18602514266968</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.203693151474</t>
   </si>
   <si>
     <t xml:space="preserve">2.20690536499023</t>
   </si>
   <si>
-    <t xml:space="preserve">2.26954674720764</t>
+    <t xml:space="preserve">2.26954650878906</t>
   </si>
   <si>
     <t xml:space="preserve">2.28239631652832</t>
   </si>
   <si>
-    <t xml:space="preserve">2.27918386459351</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.28400278091431</t>
+    <t xml:space="preserve">2.27918410301208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.28400230407715</t>
   </si>
   <si>
     <t xml:space="preserve">2.29042720794678</t>
@@ -1418,10 +1418,10 @@
     <t xml:space="preserve">2.29363942146301</t>
   </si>
   <si>
-    <t xml:space="preserve">2.25669693946838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.20048046112061</t>
+    <t xml:space="preserve">2.25669717788696</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.20048093795776</t>
   </si>
   <si>
     <t xml:space="preserve">2.19566178321838</t>
@@ -1430,79 +1430,79 @@
     <t xml:space="preserve">2.15390110015869</t>
   </si>
   <si>
-    <t xml:space="preserve">2.14587020874023</t>
+    <t xml:space="preserve">2.14586997032166</t>
   </si>
   <si>
     <t xml:space="preserve">2.12820219993591</t>
   </si>
   <si>
-    <t xml:space="preserve">2.08965349197388</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.03504300117493</t>
+    <t xml:space="preserve">2.08965301513672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.03504276275635</t>
   </si>
   <si>
     <t xml:space="preserve">2.05592346191406</t>
   </si>
   <si>
-    <t xml:space="preserve">2.00934410095215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.97400760650635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93224656581879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.98685717582703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94188404083252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96437096595764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9724018573761</t>
+    <t xml:space="preserve">2.00934433937073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.97400772571564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93224668502808</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.98685741424561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94188392162323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96437072753906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.97240173816681</t>
   </si>
   <si>
     <t xml:space="preserve">1.94027757644653</t>
   </si>
   <si>
-    <t xml:space="preserve">1.92903447151184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.99970674514771</t>
+    <t xml:space="preserve">1.92903423309326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.99970662593842</t>
   </si>
   <si>
     <t xml:space="preserve">1.96758306026459</t>
   </si>
   <si>
-    <t xml:space="preserve">1.96115803718567</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94991493225098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95955216884613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95794570446014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.97561383247375</t>
+    <t xml:space="preserve">1.96115827560425</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94991505146027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95955181121826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95794606208801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.97561419010162</t>
   </si>
   <si>
     <t xml:space="preserve">1.99328196048737</t>
   </si>
   <si>
-    <t xml:space="preserve">2.03986167907715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.99006950855255</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.05271077156067</t>
+    <t xml:space="preserve">2.03986144065857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.99006938934326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.05271124839783</t>
   </si>
   <si>
     <t xml:space="preserve">2.0430736541748</t>
@@ -1514,31 +1514,31 @@
     <t xml:space="preserve">2.01416254043579</t>
   </si>
   <si>
-    <t xml:space="preserve">2.0029194355011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.99649429321289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.99167549610138</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96276426315308</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.98043262958527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94830870628357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.01095008850098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93867158889771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.02058744430542</t>
+    <t xml:space="preserve">2.00291919708252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.99649441242218</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.99167585372925</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96276450157166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.98043274879456</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94830882549286</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.0109498500824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93867135047913</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.02058696746826</t>
   </si>
   <si>
     <t xml:space="preserve">2.06074190139771</t>
@@ -1547,22 +1547,22 @@
     <t xml:space="preserve">2.17156910896301</t>
   </si>
   <si>
-    <t xml:space="preserve">2.11213994026184</t>
+    <t xml:space="preserve">2.11214017868042</t>
   </si>
   <si>
     <t xml:space="preserve">2.14265775680542</t>
   </si>
   <si>
-    <t xml:space="preserve">2.17638802528381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16032576560974</t>
+    <t xml:space="preserve">2.17638778686523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16032600402832</t>
   </si>
   <si>
     <t xml:space="preserve">2.27275896072388</t>
   </si>
   <si>
-    <t xml:space="preserve">2.27597165107727</t>
+    <t xml:space="preserve">2.27597188949585</t>
   </si>
   <si>
     <t xml:space="preserve">2.2599093914032</t>
@@ -1586,13 +1586,13 @@
     <t xml:space="preserve">2.30970144271851</t>
   </si>
   <si>
-    <t xml:space="preserve">2.34503793716431</t>
+    <t xml:space="preserve">2.34503746032715</t>
   </si>
   <si>
     <t xml:space="preserve">2.34664392471313</t>
   </si>
   <si>
-    <t xml:space="preserve">2.37073683738708</t>
+    <t xml:space="preserve">2.37073659896851</t>
   </si>
   <si>
     <t xml:space="preserve">2.37876749038696</t>
@@ -1601,16 +1601,16 @@
     <t xml:space="preserve">2.36752414703369</t>
   </si>
   <si>
-    <t xml:space="preserve">2.3691303730011</t>
+    <t xml:space="preserve">2.36913061141968</t>
   </si>
   <si>
     <t xml:space="preserve">2.37555527687073</t>
   </si>
   <si>
-    <t xml:space="preserve">2.35467457771301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.34021925926208</t>
+    <t xml:space="preserve">2.35467481613159</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.34021902084351</t>
   </si>
   <si>
     <t xml:space="preserve">2.36591815948486</t>
@@ -1619,31 +1619,31 @@
     <t xml:space="preserve">2.38840484619141</t>
   </si>
   <si>
-    <t xml:space="preserve">2.38679838180542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.39322352409363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.38358640670776</t>
+    <t xml:space="preserve">2.386798620224</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.39322304725647</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.38358616828918</t>
   </si>
   <si>
     <t xml:space="preserve">2.37394905090332</t>
   </si>
   <si>
-    <t xml:space="preserve">2.3434317111969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.41089129447937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.37716150283813</t>
+    <t xml:space="preserve">2.34343147277832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.41089153289795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.37716197967529</t>
   </si>
   <si>
     <t xml:space="preserve">2.3386127948761</t>
   </si>
   <si>
-    <t xml:space="preserve">2.35306859016418</t>
+    <t xml:space="preserve">2.35306882858276</t>
   </si>
   <si>
     <t xml:space="preserve">2.34985637664795</t>
@@ -1652,7 +1652,7 @@
     <t xml:space="preserve">2.38519239425659</t>
   </si>
   <si>
-    <t xml:space="preserve">2.38198018074036</t>
+    <t xml:space="preserve">2.38197994232178</t>
   </si>
   <si>
     <t xml:space="preserve">2.3996479511261</t>
@@ -1661,19 +1661,19 @@
     <t xml:space="preserve">2.40767908096313</t>
   </si>
   <si>
-    <t xml:space="preserve">2.34182524681091</t>
+    <t xml:space="preserve">2.34182500839233</t>
   </si>
   <si>
     <t xml:space="preserve">2.32255101203918</t>
   </si>
   <si>
-    <t xml:space="preserve">2.43177199363708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.46871423721313</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.47032046318054</t>
+    <t xml:space="preserve">2.43177223205566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.46871399879456</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.47032070159912</t>
   </si>
   <si>
     <t xml:space="preserve">2.49280714988708</t>
@@ -1685,16 +1685,16 @@
     <t xml:space="preserve">2.52171850204468</t>
   </si>
   <si>
-    <t xml:space="preserve">2.56829786300659</t>
+    <t xml:space="preserve">2.56829810142517</t>
   </si>
   <si>
     <t xml:space="preserve">2.5875723361969</t>
   </si>
   <si>
-    <t xml:space="preserve">2.58275389671326</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.58917856216431</t>
+    <t xml:space="preserve">2.58275413513184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.58917880058289</t>
   </si>
   <si>
     <t xml:space="preserve">2.60202813148499</t>
@@ -1703,22 +1703,22 @@
     <t xml:space="preserve">2.64378905296326</t>
   </si>
   <si>
-    <t xml:space="preserve">2.61487770080566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.59560370445251</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.61005926132202</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.55384230613708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.57151055335999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.55705499649048</t>
+    <t xml:space="preserve">2.61487793922424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.59560322761536</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.61005902290344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.55384254455566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.57151031494141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.5570547580719</t>
   </si>
   <si>
     <t xml:space="preserve">2.52493119239807</t>
@@ -1727,13 +1727,13 @@
     <t xml:space="preserve">2.54099297523499</t>
   </si>
   <si>
-    <t xml:space="preserve">2.54420518875122</t>
+    <t xml:space="preserve">2.54420495033264</t>
   </si>
   <si>
     <t xml:space="preserve">2.55866122245789</t>
   </si>
   <si>
-    <t xml:space="preserve">2.53778052330017</t>
+    <t xml:space="preserve">2.53778076171875</t>
   </si>
   <si>
     <t xml:space="preserve">2.54902386665344</t>
@@ -1742,13 +1742,13 @@
     <t xml:space="preserve">2.56347966194153</t>
   </si>
   <si>
-    <t xml:space="preserve">2.55063033103943</t>
+    <t xml:space="preserve">2.55062985420227</t>
   </si>
   <si>
     <t xml:space="preserve">2.51689982414246</t>
   </si>
   <si>
-    <t xml:space="preserve">2.53938698768616</t>
+    <t xml:space="preserve">2.53938674926758</t>
   </si>
   <si>
     <t xml:space="preserve">2.52011227607727</t>
@@ -1757,10 +1757,10 @@
     <t xml:space="preserve">2.57954120635986</t>
   </si>
   <si>
-    <t xml:space="preserve">2.62451434135437</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.63254594802856</t>
+    <t xml:space="preserve">2.62451457977295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.63254570960999</t>
   </si>
   <si>
     <t xml:space="preserve">2.6357581615448</t>
@@ -1769,19 +1769,19 @@
     <t xml:space="preserve">2.63897061347961</t>
   </si>
   <si>
-    <t xml:space="preserve">2.65182018280029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.65342617034912</t>
+    <t xml:space="preserve">2.65181994438171</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.6534264087677</t>
   </si>
   <si>
     <t xml:space="preserve">2.63093972206116</t>
   </si>
   <si>
-    <t xml:space="preserve">2.62933301925659</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.62290859222412</t>
+    <t xml:space="preserve">2.62933325767517</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.62290835380554</t>
   </si>
   <si>
     <t xml:space="preserve">2.61166524887085</t>
@@ -1790,10 +1790,10 @@
     <t xml:space="preserve">2.65985083580017</t>
   </si>
   <si>
-    <t xml:space="preserve">2.68715596199036</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.70000576972961</t>
+    <t xml:space="preserve">2.68715643882751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.70000553131104</t>
   </si>
   <si>
     <t xml:space="preserve">2.70161199569702</t>
@@ -1802,28 +1802,28 @@
     <t xml:space="preserve">2.6967933177948</t>
   </si>
   <si>
-    <t xml:space="preserve">2.69839930534363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.68554997444153</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.68233776092529</t>
+    <t xml:space="preserve">2.69839954376221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.68555021286011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.68233752250671</t>
   </si>
   <si>
     <t xml:space="preserve">2.74497890472412</t>
   </si>
   <si>
-    <t xml:space="preserve">2.75140404701233</t>
+    <t xml:space="preserve">2.75140380859375</t>
   </si>
   <si>
     <t xml:space="preserve">2.78513383865356</t>
   </si>
   <si>
-    <t xml:space="preserve">2.81725764274597</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.79741787910461</t>
+    <t xml:space="preserve">2.81725740432739</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.79741811752319</t>
   </si>
   <si>
     <t xml:space="preserve">2.77923130989075</t>
@@ -1832,13 +1832,13 @@
     <t xml:space="preserve">2.78253769874573</t>
   </si>
   <si>
-    <t xml:space="preserve">2.74947142601013</t>
+    <t xml:space="preserve">2.74947166442871</t>
   </si>
   <si>
     <t xml:space="preserve">2.78088474273682</t>
   </si>
   <si>
-    <t xml:space="preserve">2.76600456237793</t>
+    <t xml:space="preserve">2.76600480079651</t>
   </si>
   <si>
     <t xml:space="preserve">2.83213782310486</t>
@@ -1847,46 +1847,46 @@
     <t xml:space="preserve">2.91645693778992</t>
   </si>
   <si>
-    <t xml:space="preserve">2.91315007209778</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.88835072517395</t>
+    <t xml:space="preserve">2.91315031051636</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.88835048675537</t>
   </si>
   <si>
     <t xml:space="preserve">2.87677717208862</t>
   </si>
   <si>
-    <t xml:space="preserve">2.8866970539093</t>
+    <t xml:space="preserve">2.88669681549072</t>
   </si>
   <si>
     <t xml:space="preserve">2.90157699584961</t>
   </si>
   <si>
-    <t xml:space="preserve">2.89992380142212</t>
+    <t xml:space="preserve">2.89992332458496</t>
   </si>
   <si>
     <t xml:space="preserve">2.93299007415771</t>
   </si>
   <si>
-    <t xml:space="preserve">2.91149687767029</t>
+    <t xml:space="preserve">2.91149711608887</t>
   </si>
   <si>
     <t xml:space="preserve">2.86189723014832</t>
   </si>
   <si>
-    <t xml:space="preserve">2.84701728820801</t>
+    <t xml:space="preserve">2.84701752662659</t>
   </si>
   <si>
     <t xml:space="preserve">2.85197734832764</t>
   </si>
   <si>
-    <t xml:space="preserve">2.83379101753235</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.83048415184021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.83544397354126</t>
+    <t xml:space="preserve">2.83379054069519</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.83048439025879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.83544421195984</t>
   </si>
   <si>
     <t xml:space="preserve">2.76931118965149</t>
@@ -1895,10 +1895,10 @@
     <t xml:space="preserve">2.78584456443787</t>
   </si>
   <si>
-    <t xml:space="preserve">2.8387508392334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.81229782104492</t>
+    <t xml:space="preserve">2.83875107765198</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.81229758262634</t>
   </si>
   <si>
     <t xml:space="preserve">2.79576444625854</t>
@@ -1910,25 +1910,25 @@
     <t xml:space="preserve">2.82883095741272</t>
   </si>
   <si>
-    <t xml:space="preserve">2.8056845664978</t>
+    <t xml:space="preserve">2.80568432807922</t>
   </si>
   <si>
     <t xml:space="preserve">2.83709740638733</t>
   </si>
   <si>
-    <t xml:space="preserve">2.78749752044678</t>
+    <t xml:space="preserve">2.78749799728394</t>
   </si>
   <si>
     <t xml:space="preserve">2.86520385742188</t>
   </si>
   <si>
-    <t xml:space="preserve">2.89165687561035</t>
+    <t xml:space="preserve">2.89165711402893</t>
   </si>
   <si>
     <t xml:space="preserve">2.88173723220825</t>
   </si>
   <si>
-    <t xml:space="preserve">2.89000368118286</t>
+    <t xml:space="preserve">2.89000391960144</t>
   </si>
   <si>
     <t xml:space="preserve">2.91811013221741</t>
@@ -1940,7 +1940,7 @@
     <t xml:space="preserve">2.98589634895325</t>
   </si>
   <si>
-    <t xml:space="preserve">3.02392268180847</t>
+    <t xml:space="preserve">3.02392244338989</t>
   </si>
   <si>
     <t xml:space="preserve">2.99912285804749</t>
@@ -1955,13 +1955,13 @@
     <t xml:space="preserve">3.02557611465454</t>
   </si>
   <si>
-    <t xml:space="preserve">3.00408267974854</t>
+    <t xml:space="preserve">3.00408291816711</t>
   </si>
   <si>
     <t xml:space="preserve">2.90488362312317</t>
   </si>
   <si>
-    <t xml:space="preserve">2.89661693572998</t>
+    <t xml:space="preserve">2.89661717414856</t>
   </si>
   <si>
     <t xml:space="preserve">2.951176404953</t>
@@ -1973,28 +1973,28 @@
     <t xml:space="preserve">2.9263768196106</t>
   </si>
   <si>
-    <t xml:space="preserve">2.95282983779907</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.01565623283386</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.01234936714172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.97597670555115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.0619490146637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.06029558181763</t>
+    <t xml:space="preserve">2.95283007621765</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.01565599441528</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.0123496055603</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.97597622871399</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.06194877624512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.06029582023621</t>
   </si>
   <si>
     <t xml:space="preserve">3.1330418586731</t>
   </si>
   <si>
-    <t xml:space="preserve">3.07517576217651</t>
+    <t xml:space="preserve">3.07517552375793</t>
   </si>
   <si>
     <t xml:space="preserve">3.11320209503174</t>
@@ -2006,10 +2006,10 @@
     <t xml:space="preserve">3.08178877830505</t>
   </si>
   <si>
-    <t xml:space="preserve">3.12808179855347</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.13469505310059</t>
+    <t xml:space="preserve">3.12808156013489</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.13469529151917</t>
   </si>
   <si>
     <t xml:space="preserve">3.11650848388672</t>
@@ -2021,22 +2021,22 @@
     <t xml:space="preserve">3.11485528945923</t>
   </si>
   <si>
-    <t xml:space="preserve">3.12642860412598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.09501552581787</t>
+    <t xml:space="preserve">3.12642884254456</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.09501528739929</t>
   </si>
   <si>
     <t xml:space="preserve">3.13634848594666</t>
   </si>
   <si>
-    <t xml:space="preserve">3.10824179649353</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.07682871818542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.10493540763855</t>
+    <t xml:space="preserve">3.10824203491211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.076828956604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.10493516921997</t>
   </si>
   <si>
     <t xml:space="preserve">3.11816191673279</t>
@@ -2048,13 +2048,13 @@
     <t xml:space="preserve">3.17272162437439</t>
   </si>
   <si>
-    <t xml:space="preserve">3.16280174255371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.18429493904114</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.14296174049377</t>
+    <t xml:space="preserve">3.16280126571655</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.18429446220398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.14296197891235</t>
   </si>
   <si>
     <t xml:space="preserve">3.16776156425476</t>
@@ -2081,7 +2081,7 @@
     <t xml:space="preserve">3.3165602684021</t>
   </si>
   <si>
-    <t xml:space="preserve">3.31325364112854</t>
+    <t xml:space="preserve">3.31325387954712</t>
   </si>
   <si>
     <t xml:space="preserve">3.33805370330811</t>
@@ -2093,22 +2093,22 @@
     <t xml:space="preserve">3.28018736839294</t>
   </si>
   <si>
-    <t xml:space="preserve">3.29837369918823</t>
+    <t xml:space="preserve">3.29837346076965</t>
   </si>
   <si>
     <t xml:space="preserve">3.27357411384583</t>
   </si>
   <si>
-    <t xml:space="preserve">3.30333352088928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.29341387748718</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.30994749069214</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.17602825164795</t>
+    <t xml:space="preserve">3.30333399772644</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.2934136390686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.30994725227356</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.17602801322937</t>
   </si>
   <si>
     <t xml:space="preserve">3.202481508255</t>
@@ -2132,7 +2132,7 @@
     <t xml:space="preserve">3.22728085517883</t>
   </si>
   <si>
-    <t xml:space="preserve">3.1743745803833</t>
+    <t xml:space="preserve">3.17437481880188</t>
   </si>
   <si>
     <t xml:space="preserve">3.24381422996521</t>
@@ -2141,43 +2141,43 @@
     <t xml:space="preserve">3.29010725021362</t>
   </si>
   <si>
-    <t xml:space="preserve">3.28680062294006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.28184032440186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.34136009216309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.27853393554688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.2834939956665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.22397446632385</t>
+    <t xml:space="preserve">3.28680038452148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.28184056282043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.34135985374451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.27853417396545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.28349375724792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.22397470474243</t>
   </si>
   <si>
     <t xml:space="preserve">3.2124011516571</t>
   </si>
   <si>
-    <t xml:space="preserve">3.22232127189636</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.19586777687073</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.19256138801575</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.26034760475159</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.30498719215393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.30168056488037</t>
+    <t xml:space="preserve">3.22232103347778</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.19586801528931</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.19256114959717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.26034736633301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.30498695373535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.30168032646179</t>
   </si>
   <si>
     <t xml:space="preserve">3.24877429008484</t>
@@ -2189,49 +2189,49 @@
     <t xml:space="preserve">3.50338554382324</t>
   </si>
   <si>
-    <t xml:space="preserve">3.43725275993347</t>
+    <t xml:space="preserve">3.43725252151489</t>
   </si>
   <si>
     <t xml:space="preserve">3.57613182067871</t>
   </si>
   <si>
-    <t xml:space="preserve">3.57447814941406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.50503873825073</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.39095973968506</t>
+    <t xml:space="preserve">3.57447838783264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.50503849983215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.39095997810364</t>
   </si>
   <si>
     <t xml:space="preserve">3.39922642707825</t>
   </si>
   <si>
-    <t xml:space="preserve">3.4091465473175</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.45709300041199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.49842572212219</t>
+    <t xml:space="preserve">3.40914607048035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.45709276199341</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.49842548370361</t>
   </si>
   <si>
     <t xml:space="preserve">3.51165223121643</t>
   </si>
   <si>
-    <t xml:space="preserve">3.53645205497742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.55463886260986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.56786489486694</t>
+    <t xml:space="preserve">3.53645181655884</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.55463862419128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.56786513328552</t>
   </si>
   <si>
     <t xml:space="preserve">3.60754442214966</t>
   </si>
   <si>
-    <t xml:space="preserve">3.58109140396118</t>
+    <t xml:space="preserve">3.58109188079834</t>
   </si>
   <si>
     <t xml:space="preserve">3.58605146408081</t>
@@ -2243,13 +2243,13 @@
     <t xml:space="preserve">3.68855762481689</t>
   </si>
   <si>
-    <t xml:space="preserve">3.66871762275696</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.64722418785095</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.46370553970337</t>
+    <t xml:space="preserve">3.66871809959412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.64722466468811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.46370577812195</t>
   </si>
   <si>
     <t xml:space="preserve">3.43229246139526</t>
@@ -2264,13 +2264,13 @@
     <t xml:space="preserve">3.20578789710999</t>
   </si>
   <si>
-    <t xml:space="preserve">3.2289342880249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.38269305229187</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.93795013427734</t>
+    <t xml:space="preserve">3.22893404960632</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.38269329071045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.93794989585876</t>
   </si>
   <si>
     <t xml:space="preserve">2.75773811340332</t>
@@ -2285,19 +2285,19 @@
     <t xml:space="preserve">2.65357899665833</t>
   </si>
   <si>
-    <t xml:space="preserve">2.55768632888794</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.60397934913635</t>
+    <t xml:space="preserve">2.55768609046936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.60397958755493</t>
   </si>
   <si>
     <t xml:space="preserve">2.61059284210205</t>
   </si>
   <si>
-    <t xml:space="preserve">2.55272626876831</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.68003225326538</t>
+    <t xml:space="preserve">2.55272650718689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.6800320148468</t>
   </si>
   <si>
     <t xml:space="preserve">2.53288650512695</t>
@@ -2306,7 +2306,7 @@
     <t xml:space="preserve">2.50808668136597</t>
   </si>
   <si>
-    <t xml:space="preserve">2.53123307228088</t>
+    <t xml:space="preserve">2.53123354911804</t>
   </si>
   <si>
     <t xml:space="preserve">2.59571266174316</t>
@@ -2315,7 +2315,7 @@
     <t xml:space="preserve">2.7197117805481</t>
   </si>
   <si>
-    <t xml:space="preserve">2.70152497291565</t>
+    <t xml:space="preserve">2.70152521133423</t>
   </si>
   <si>
     <t xml:space="preserve">2.62216567993164</t>
@@ -2327,16 +2327,16 @@
     <t xml:space="preserve">2.62547278404236</t>
   </si>
   <si>
-    <t xml:space="preserve">2.64696574211121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.55107307434082</t>
+    <t xml:space="preserve">2.64696550369263</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.55107283592224</t>
   </si>
   <si>
     <t xml:space="preserve">2.67176556587219</t>
   </si>
   <si>
-    <t xml:space="preserve">2.66349911689758</t>
+    <t xml:space="preserve">2.66349864006042</t>
   </si>
   <si>
     <t xml:space="preserve">2.64200592041016</t>
@@ -2348,13 +2348,13 @@
     <t xml:space="preserve">2.70483183860779</t>
   </si>
   <si>
-    <t xml:space="preserve">2.71805834770203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.61224579811096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.6866455078125</t>
+    <t xml:space="preserve">2.71805858612061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.61224603652954</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.68664526939392</t>
   </si>
   <si>
     <t xml:space="preserve">2.67672562599182</t>
@@ -2363,25 +2363,25 @@
     <t xml:space="preserve">2.77261805534363</t>
   </si>
   <si>
-    <t xml:space="preserve">2.79245781898499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.67507219314575</t>
+    <t xml:space="preserve">2.79245805740356</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.67507195472717</t>
   </si>
   <si>
     <t xml:space="preserve">2.66845870018005</t>
   </si>
   <si>
-    <t xml:space="preserve">2.61885905265808</t>
+    <t xml:space="preserve">2.61885929107666</t>
   </si>
   <si>
     <t xml:space="preserve">2.58579277992249</t>
   </si>
   <si>
-    <t xml:space="preserve">2.68829846382141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.71640515327454</t>
+    <t xml:space="preserve">2.68829870223999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.71640491485596</t>
   </si>
   <si>
     <t xml:space="preserve">2.65688538551331</t>
@@ -2399,46 +2399,46 @@
     <t xml:space="preserve">2.59405946731567</t>
   </si>
   <si>
-    <t xml:space="preserve">2.6486189365387</t>
+    <t xml:space="preserve">2.64861917495728</t>
   </si>
   <si>
     <t xml:space="preserve">2.64365911483765</t>
   </si>
   <si>
-    <t xml:space="preserve">2.75608468055725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.75939130783081</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.95779013633728</t>
+    <t xml:space="preserve">2.75608491897583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.75939178466797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.95778965950012</t>
   </si>
   <si>
     <t xml:space="preserve">2.96274995803833</t>
   </si>
   <si>
-    <t xml:space="preserve">2.92141699790955</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.88008379936218</t>
+    <t xml:space="preserve">2.92141652107239</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.88008403778076</t>
   </si>
   <si>
     <t xml:space="preserve">2.7775776386261</t>
   </si>
   <si>
-    <t xml:space="preserve">2.90653681755066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.89331030845642</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.87347054481506</t>
+    <t xml:space="preserve">2.90653705596924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.89331007003784</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.87347102165222</t>
   </si>
   <si>
     <t xml:space="preserve">2.86024403572083</t>
   </si>
   <si>
-    <t xml:space="preserve">2.85693717002869</t>
+    <t xml:space="preserve">2.85693740844727</t>
   </si>
   <si>
     <t xml:space="preserve">2.78915119171143</t>
@@ -2462,40 +2462,40 @@
     <t xml:space="preserve">2.7999279499054</t>
   </si>
   <si>
-    <t xml:space="preserve">2.81525588035583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.74031829833984</t>
+    <t xml:space="preserve">2.81525564193726</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.74031853675842</t>
   </si>
   <si>
     <t xml:space="preserve">2.73180294036865</t>
   </si>
   <si>
-    <t xml:space="preserve">2.7743809223175</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.73691201210022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.74883389472961</t>
+    <t xml:space="preserve">2.77438068389893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.7369122505188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.74883413314819</t>
   </si>
   <si>
     <t xml:space="preserve">2.79481863975525</t>
   </si>
   <si>
-    <t xml:space="preserve">2.83228707313538</t>
+    <t xml:space="preserve">2.8322868347168</t>
   </si>
   <si>
     <t xml:space="preserve">2.83569312095642</t>
   </si>
   <si>
-    <t xml:space="preserve">2.83739614486694</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.8680522441864</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.76075601577759</t>
+    <t xml:space="preserve">2.83739638328552</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.86805248260498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.76075577735901</t>
   </si>
   <si>
     <t xml:space="preserve">2.71647477149963</t>
@@ -2507,7 +2507,7 @@
     <t xml:space="preserve">2.80333399772644</t>
   </si>
   <si>
-    <t xml:space="preserve">2.78800559043884</t>
+    <t xml:space="preserve">2.78800582885742</t>
   </si>
   <si>
     <t xml:space="preserve">2.6892249584198</t>
@@ -2516,13 +2516,13 @@
     <t xml:space="preserve">2.70795917510986</t>
   </si>
   <si>
-    <t xml:space="preserve">2.69944381713867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.69263124465942</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.68411540985107</t>
+    <t xml:space="preserve">2.69944357872009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.69263100624084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.68411588668823</t>
   </si>
   <si>
     <t xml:space="preserve">2.76756834983826</t>
@@ -2531,52 +2531,52 @@
     <t xml:space="preserve">2.82547450065613</t>
   </si>
   <si>
-    <t xml:space="preserve">2.89019298553467</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.87997436523438</t>
+    <t xml:space="preserve">2.89019274711609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.8799741268158</t>
   </si>
   <si>
     <t xml:space="preserve">2.86123991012573</t>
   </si>
   <si>
-    <t xml:space="preserve">2.76586508750916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.81014633178711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.78289651870728</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.76245927810669</t>
+    <t xml:space="preserve">2.76586532592773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.81014657020569</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.7828962802887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.76245903968811</t>
   </si>
   <si>
     <t xml:space="preserve">2.85272431373596</t>
   </si>
   <si>
-    <t xml:space="preserve">2.82377147674561</t>
+    <t xml:space="preserve">2.82377123832703</t>
   </si>
   <si>
     <t xml:space="preserve">2.74542784690857</t>
   </si>
   <si>
-    <t xml:space="preserve">2.7249903678894</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.72669363021851</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.71306896209717</t>
+    <t xml:space="preserve">2.72499060630798</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.72669339179993</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.71306872367859</t>
   </si>
   <si>
     <t xml:space="preserve">2.79311513900757</t>
   </si>
   <si>
-    <t xml:space="preserve">2.69433450698853</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.74713110923767</t>
+    <t xml:space="preserve">2.69433426856995</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.74713134765625</t>
   </si>
   <si>
     <t xml:space="preserve">2.7386155128479</t>
@@ -2585,19 +2585,19 @@
     <t xml:space="preserve">2.78119349479675</t>
   </si>
   <si>
-    <t xml:space="preserve">2.76416230201721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.77949023246765</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.79822444915771</t>
+    <t xml:space="preserve">2.76416206359863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.77948999404907</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.79822468757629</t>
   </si>
   <si>
     <t xml:space="preserve">2.81355261802673</t>
   </si>
   <si>
-    <t xml:space="preserve">2.7352089881897</t>
+    <t xml:space="preserve">2.73520922660828</t>
   </si>
   <si>
     <t xml:space="preserve">2.72158432006836</t>
@@ -2609,52 +2609,52 @@
     <t xml:space="preserve">2.74372482299805</t>
   </si>
   <si>
-    <t xml:space="preserve">2.72839665412903</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.64494395256042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.6534595489502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.6398344039917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.60747528076172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.61428785324097</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.5955536365509</t>
+    <t xml:space="preserve">2.72839689254761</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.64494371414185</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.65345931053162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.63983416557312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.6074755191803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.61428761482239</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.59555339813232</t>
   </si>
   <si>
     <t xml:space="preserve">2.56489729881287</t>
   </si>
   <si>
-    <t xml:space="preserve">2.51210045814514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.53424096107483</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.44738221168518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.47292876243591</t>
+    <t xml:space="preserve">2.51210069656372</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.53424119949341</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.4473819732666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.47292900085449</t>
   </si>
   <si>
     <t xml:space="preserve">2.50188183784485</t>
   </si>
   <si>
-    <t xml:space="preserve">2.55467844009399</t>
+    <t xml:space="preserve">2.55467867851257</t>
   </si>
   <si>
     <t xml:space="preserve">2.48485064506531</t>
   </si>
   <si>
-    <t xml:space="preserve">2.46441340446472</t>
+    <t xml:space="preserve">2.46441316604614</t>
   </si>
   <si>
     <t xml:space="preserve">2.46611618995667</t>
@@ -2663,19 +2663,19 @@
     <t xml:space="preserve">2.40139770507812</t>
   </si>
   <si>
-    <t xml:space="preserve">2.37755417823792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.31794476509094</t>
+    <t xml:space="preserve">2.37755441665649</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.31794500350952</t>
   </si>
   <si>
     <t xml:space="preserve">2.27877330780029</t>
   </si>
   <si>
-    <t xml:space="preserve">2.29921054840088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.31964778900146</t>
+    <t xml:space="preserve">2.29921078681946</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.31964802742004</t>
   </si>
   <si>
     <t xml:space="preserve">2.33838248252869</t>
@@ -2690,16 +2690,16 @@
     <t xml:space="preserve">2.3656325340271</t>
   </si>
   <si>
-    <t xml:space="preserve">2.5461630821228</t>
+    <t xml:space="preserve">2.54616284370422</t>
   </si>
   <si>
     <t xml:space="preserve">2.51550674438477</t>
   </si>
   <si>
-    <t xml:space="preserve">2.54105353355408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.58533453941345</t>
+    <t xml:space="preserve">2.54105377197266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.58533477783203</t>
   </si>
   <si>
     <t xml:space="preserve">2.57170963287354</t>
@@ -2714,7 +2714,7 @@
     <t xml:space="preserve">2.58874082565308</t>
   </si>
   <si>
-    <t xml:space="preserve">2.59725666046143</t>
+    <t xml:space="preserve">2.59725642204285</t>
   </si>
   <si>
     <t xml:space="preserve">2.57341265678406</t>
@@ -2723,13 +2723,13 @@
     <t xml:space="preserve">2.56830334663391</t>
   </si>
   <si>
-    <t xml:space="preserve">2.61599111557007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.62961578369141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.60577201843262</t>
+    <t xml:space="preserve">2.61599087715149</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.62961554527283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.6057722568512</t>
   </si>
   <si>
     <t xml:space="preserve">2.56319427490234</t>
@@ -2738,10 +2738,10 @@
     <t xml:space="preserve">2.53083491325378</t>
   </si>
   <si>
-    <t xml:space="preserve">2.55978798866272</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.53594398498535</t>
+    <t xml:space="preserve">2.5597882270813</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.53594422340393</t>
   </si>
   <si>
     <t xml:space="preserve">2.52061605453491</t>
@@ -2750,7 +2750,7 @@
     <t xml:space="preserve">2.50528788566589</t>
   </si>
   <si>
-    <t xml:space="preserve">2.47803831100464</t>
+    <t xml:space="preserve">2.47803854942322</t>
   </si>
   <si>
     <t xml:space="preserve">2.45249152183533</t>
@@ -2759,10 +2759,10 @@
     <t xml:space="preserve">2.48314738273621</t>
   </si>
   <si>
-    <t xml:space="preserve">2.45419430732727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.49336624145508</t>
+    <t xml:space="preserve">2.45419454574585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.49336647987366</t>
   </si>
   <si>
     <t xml:space="preserve">2.54275679588318</t>
@@ -2777,40 +2777,40 @@
     <t xml:space="preserve">2.54445958137512</t>
   </si>
   <si>
-    <t xml:space="preserve">2.55127215385437</t>
+    <t xml:space="preserve">2.55127239227295</t>
   </si>
   <si>
     <t xml:space="preserve">2.53764748573303</t>
   </si>
   <si>
-    <t xml:space="preserve">2.59895992279053</t>
+    <t xml:space="preserve">2.59895968437195</t>
   </si>
   <si>
     <t xml:space="preserve">2.53253793716431</t>
   </si>
   <si>
-    <t xml:space="preserve">2.58363127708435</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.57852244377136</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.69092798233032</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.63642835617065</t>
+    <t xml:space="preserve">2.58363151550293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.57852220535278</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.6909282207489</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.63642811775208</t>
   </si>
   <si>
     <t xml:space="preserve">2.46952271461487</t>
   </si>
   <si>
-    <t xml:space="preserve">2.42353844642639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.44567894935608</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.45589756965637</t>
+    <t xml:space="preserve">2.42353820800781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.4456787109375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.45589780807495</t>
   </si>
   <si>
     <t xml:space="preserve">2.41672587394714</t>
@@ -2819,40 +2819,40 @@
     <t xml:space="preserve">2.56149101257324</t>
   </si>
   <si>
-    <t xml:space="preserve">2.58703804016113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.64835023880005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.60406899452209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.61769366264343</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.65005302429199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.68581867218018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.64153742790222</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.63131904602051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.61939692497253</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.52231907844543</t>
+    <t xml:space="preserve">2.58703780174255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.64835000038147</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.60406923294067</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.61769390106201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.65005326271057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.68581891059875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.6415376663208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.63131880760193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.61939716339111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.52231931686401</t>
   </si>
   <si>
     <t xml:space="preserve">2.49166321754456</t>
   </si>
   <si>
-    <t xml:space="preserve">2.62280321121216</t>
+    <t xml:space="preserve">2.62280344963074</t>
   </si>
   <si>
     <t xml:space="preserve">2.65856862068176</t>
@@ -2870,10 +2870,10 @@
     <t xml:space="preserve">2.78204488754272</t>
   </si>
   <si>
-    <t xml:space="preserve">2.83058381080627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.80929470062256</t>
+    <t xml:space="preserve">2.8305835723877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.80929517745972</t>
   </si>
   <si>
     <t xml:space="preserve">2.79652142524719</t>
@@ -2885,28 +2885,28 @@
     <t xml:space="preserve">2.8339900970459</t>
   </si>
   <si>
-    <t xml:space="preserve">2.87231016159058</t>
+    <t xml:space="preserve">2.87231040000916</t>
   </si>
   <si>
     <t xml:space="preserve">2.86379456520081</t>
   </si>
   <si>
-    <t xml:space="preserve">2.85698223114014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.85783362388611</t>
+    <t xml:space="preserve">2.85698199272156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.85783386230469</t>
   </si>
   <si>
     <t xml:space="preserve">2.85868549346924</t>
   </si>
   <si>
-    <t xml:space="preserve">2.84846639633179</t>
+    <t xml:space="preserve">2.84846687316895</t>
   </si>
   <si>
     <t xml:space="preserve">2.89785695075989</t>
   </si>
   <si>
-    <t xml:space="preserve">2.86549758911133</t>
+    <t xml:space="preserve">2.86549782752991</t>
   </si>
   <si>
     <t xml:space="preserve">2.8697555065155</t>
@@ -2921,31 +2921,31 @@
     <t xml:space="preserve">2.87401342391968</t>
   </si>
   <si>
-    <t xml:space="preserve">2.8757164478302</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.86720085144043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.96938824653625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.93788051605225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.92766165733337</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.96683359146118</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.98556756973267</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.99067687988281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.99493455886841</t>
+    <t xml:space="preserve">2.87571620941162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.86720108985901</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.96938800811768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.93788027763367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.92766141891479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.9668333530426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.98556780815125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.99067711830139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.99493479728699</t>
   </si>
   <si>
     <t xml:space="preserve">2.98982548713684</t>
@@ -2954,7 +2954,7 @@
     <t xml:space="preserve">2.97194266319275</t>
   </si>
   <si>
-    <t xml:space="preserve">2.96768474578857</t>
+    <t xml:space="preserve">2.96768498420715</t>
   </si>
   <si>
     <t xml:space="preserve">2.9727942943573</t>
@@ -2963,19 +2963,19 @@
     <t xml:space="preserve">2.97023940086365</t>
   </si>
   <si>
-    <t xml:space="preserve">2.98130989074707</t>
+    <t xml:space="preserve">2.98130965232849</t>
   </si>
   <si>
     <t xml:space="preserve">3.00515341758728</t>
   </si>
   <si>
-    <t xml:space="preserve">3.04177045822144</t>
+    <t xml:space="preserve">3.04177069664001</t>
   </si>
   <si>
     <t xml:space="preserve">3.06902050971985</t>
   </si>
   <si>
-    <t xml:space="preserve">3.08264541625977</t>
+    <t xml:space="preserve">3.08264517784119</t>
   </si>
   <si>
     <t xml:space="preserve">3.13799667358398</t>
@@ -2984,49 +2984,49 @@
     <t xml:space="preserve">3.11670804023743</t>
   </si>
   <si>
-    <t xml:space="preserve">3.12011384963989</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.15417623519897</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.13033294677734</t>
+    <t xml:space="preserve">3.12011408805847</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.15417647361755</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.13033270835876</t>
   </si>
   <si>
     <t xml:space="preserve">3.1592857837677</t>
   </si>
   <si>
-    <t xml:space="preserve">3.13373923301697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.11926245689392</t>
+    <t xml:space="preserve">3.13373899459839</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.1192626953125</t>
   </si>
   <si>
     <t xml:space="preserve">3.10052824020386</t>
   </si>
   <si>
-    <t xml:space="preserve">3.0681688785553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.01026296615601</t>
+    <t xml:space="preserve">3.06816864013672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.01026272773743</t>
   </si>
   <si>
     <t xml:space="preserve">3.03240346908569</t>
   </si>
   <si>
-    <t xml:space="preserve">3.00345039367676</t>
+    <t xml:space="preserve">3.00345015525818</t>
   </si>
   <si>
     <t xml:space="preserve">2.99834108352661</t>
   </si>
   <si>
-    <t xml:space="preserve">2.99919271469116</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.97364568710327</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.00259852409363</t>
+    <t xml:space="preserve">2.99919247627258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.97364592552185</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.00259876251221</t>
   </si>
   <si>
     <t xml:space="preserve">3.01754140853882</t>
@@ -3041,7 +3041,7 @@
     <t xml:space="preserve">2.97271347045898</t>
   </si>
   <si>
-    <t xml:space="preserve">2.97095561027527</t>
+    <t xml:space="preserve">2.97095584869385</t>
   </si>
   <si>
     <t xml:space="preserve">3.04127407073975</t>
@@ -3062,13 +3062,13 @@
     <t xml:space="preserve">2.94810199737549</t>
   </si>
   <si>
-    <t xml:space="preserve">2.9568920135498</t>
+    <t xml:space="preserve">2.95689177513123</t>
   </si>
   <si>
     <t xml:space="preserve">3.05709552764893</t>
   </si>
   <si>
-    <t xml:space="preserve">3.11159253120422</t>
+    <t xml:space="preserve">3.11159229278564</t>
   </si>
   <si>
     <t xml:space="preserve">3.08873891830444</t>
@@ -3083,7 +3083,7 @@
     <t xml:space="preserve">3.17839503288269</t>
   </si>
   <si>
-    <t xml:space="preserve">3.15378379821777</t>
+    <t xml:space="preserve">3.15378355979919</t>
   </si>
   <si>
     <t xml:space="preserve">3.15817856788635</t>
@@ -3092,7 +3092,7 @@
     <t xml:space="preserve">3.13532495498657</t>
   </si>
   <si>
-    <t xml:space="preserve">3.12214040756226</t>
+    <t xml:space="preserve">3.12214016914368</t>
   </si>
   <si>
     <t xml:space="preserve">3.11335062980652</t>
@@ -3113,10 +3113,10 @@
     <t xml:space="preserve">3.21267533302307</t>
   </si>
   <si>
-    <t xml:space="preserve">3.24783444404602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.26277709007263</t>
+    <t xml:space="preserve">3.2478346824646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.26277732849121</t>
   </si>
   <si>
     <t xml:space="preserve">3.27420401573181</t>
@@ -3131,10 +3131,10 @@
     <t xml:space="preserve">3.30408930778503</t>
   </si>
   <si>
-    <t xml:space="preserve">3.30584740638733</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.28475189208984</t>
+    <t xml:space="preserve">3.30584716796875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.28475165367126</t>
   </si>
   <si>
     <t xml:space="preserve">3.2460765838623</t>
@@ -3161,7 +3161,7 @@
     <t xml:space="preserve">3.22585988044739</t>
   </si>
   <si>
-    <t xml:space="preserve">3.24168157577515</t>
+    <t xml:space="preserve">3.24168133735657</t>
   </si>
   <si>
     <t xml:space="preserve">3.19597458839417</t>
@@ -3176,58 +3176,58 @@
     <t xml:space="preserve">3.21443319320679</t>
   </si>
   <si>
-    <t xml:space="preserve">3.16345238685608</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.19861149787903</t>
+    <t xml:space="preserve">3.16345262527466</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.19861173629761</t>
   </si>
   <si>
     <t xml:space="preserve">3.15466260910034</t>
   </si>
   <si>
-    <t xml:space="preserve">3.20124864578247</t>
+    <t xml:space="preserve">3.20124840736389</t>
   </si>
   <si>
     <t xml:space="preserve">3.19773268699646</t>
   </si>
   <si>
-    <t xml:space="preserve">3.20740127563477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.1362042427063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.08522295951843</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.12653517723083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.10807657241821</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.10719776153564</t>
+    <t xml:space="preserve">3.20740151405334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.13620400428772</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.08522319793701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.12653493881226</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.10807681083679</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.10719752311707</t>
   </si>
   <si>
     <t xml:space="preserve">3.10983467102051</t>
   </si>
   <si>
-    <t xml:space="preserve">3.1159873008728</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.07115960121155</t>
+    <t xml:space="preserve">3.11598753929138</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.07115936279297</t>
   </si>
   <si>
     <t xml:space="preserve">3.09664988517761</t>
   </si>
   <si>
-    <t xml:space="preserve">3.01929926872253</t>
+    <t xml:space="preserve">3.01929950714111</t>
   </si>
   <si>
     <t xml:space="preserve">2.98501920700073</t>
   </si>
   <si>
-    <t xml:space="preserve">3.02017855644226</t>
+    <t xml:space="preserve">3.02017879486084</t>
   </si>
   <si>
     <t xml:space="preserve">3.05533790588379</t>
@@ -3239,19 +3239,19 @@
     <t xml:space="preserve">3.06324863433838</t>
   </si>
   <si>
-    <t xml:space="preserve">3.03336310386658</t>
+    <t xml:space="preserve">3.033362865448</t>
   </si>
   <si>
     <t xml:space="preserve">3.05357980728149</t>
   </si>
   <si>
-    <t xml:space="preserve">3.11422920227051</t>
+    <t xml:space="preserve">3.11422944068909</t>
   </si>
   <si>
     <t xml:space="preserve">3.14675164222717</t>
   </si>
   <si>
-    <t xml:space="preserve">3.16257333755493</t>
+    <t xml:space="preserve">3.16257357597351</t>
   </si>
   <si>
     <t xml:space="preserve">3.13005113601685</t>
@@ -3269,25 +3269,25 @@
     <t xml:space="preserve">3.10631847381592</t>
   </si>
   <si>
-    <t xml:space="preserve">3.14763069152832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.22849702835083</t>
+    <t xml:space="preserve">3.1476309299469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.22849726676941</t>
   </si>
   <si>
     <t xml:space="preserve">3.20828056335449</t>
   </si>
   <si>
-    <t xml:space="preserve">3.17048454284668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.1291720867157</t>
+    <t xml:space="preserve">3.1704843044281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.12917232513428</t>
   </si>
   <si>
     <t xml:space="preserve">3.17136335372925</t>
   </si>
   <si>
-    <t xml:space="preserve">3.18366861343384</t>
+    <t xml:space="preserve">3.18366885185242</t>
   </si>
   <si>
     <t xml:space="preserve">3.18718481063843</t>
@@ -3296,7 +3296,7 @@
     <t xml:space="preserve">3.14499378204346</t>
   </si>
   <si>
-    <t xml:space="preserve">3.14235687255859</t>
+    <t xml:space="preserve">3.14235663414001</t>
   </si>
   <si>
     <t xml:space="preserve">3.11247134208679</t>
@@ -3308,7 +3308,7 @@
     <t xml:space="preserve">2.97710847854614</t>
   </si>
   <si>
-    <t xml:space="preserve">2.9929301738739</t>
+    <t xml:space="preserve">2.99292993545532</t>
   </si>
   <si>
     <t xml:space="preserve">3.06764340400696</t>
@@ -3320,7 +3320,7 @@
     <t xml:space="preserve">3.13796186447144</t>
   </si>
   <si>
-    <t xml:space="preserve">3.0931339263916</t>
+    <t xml:space="preserve">3.09313416481018</t>
   </si>
   <si>
     <t xml:space="preserve">3.12038230895996</t>
@@ -3332,7 +3332,7 @@
     <t xml:space="preserve">3.11510825157166</t>
   </si>
   <si>
-    <t xml:space="preserve">3.13708305358887</t>
+    <t xml:space="preserve">3.13708281517029</t>
   </si>
   <si>
     <t xml:space="preserve">3.1590576171875</t>
@@ -3344,13 +3344,13 @@
     <t xml:space="preserve">3.17487931251526</t>
   </si>
   <si>
-    <t xml:space="preserve">3.23289179801941</t>
+    <t xml:space="preserve">3.23289203643799</t>
   </si>
   <si>
     <t xml:space="preserve">3.21794939041138</t>
   </si>
   <si>
-    <t xml:space="preserve">3.25750327110291</t>
+    <t xml:space="preserve">3.25750350952148</t>
   </si>
   <si>
     <t xml:space="preserve">3.22761797904968</t>
@@ -3365,13 +3365,13 @@
     <t xml:space="preserve">3.12565612792969</t>
   </si>
   <si>
-    <t xml:space="preserve">3.10543990135193</t>
+    <t xml:space="preserve">3.10543966293335</t>
   </si>
   <si>
     <t xml:space="preserve">3.081707239151</t>
   </si>
   <si>
-    <t xml:space="preserve">3.09225487709045</t>
+    <t xml:space="preserve">3.09225463867188</t>
   </si>
   <si>
     <t xml:space="preserve">3.0588538646698</t>
@@ -3383,7 +3383,7 @@
     <t xml:space="preserve">3.02633142471313</t>
   </si>
   <si>
-    <t xml:space="preserve">3.08434391021729</t>
+    <t xml:space="preserve">3.08434414863586</t>
   </si>
   <si>
     <t xml:space="preserve">3.19070100784302</t>
@@ -3392,7 +3392,7 @@
     <t xml:space="preserve">3.2654139995575</t>
   </si>
   <si>
-    <t xml:space="preserve">3.25047159194946</t>
+    <t xml:space="preserve">3.25047135353088</t>
   </si>
   <si>
     <t xml:space="preserve">3.18454790115356</t>
@@ -3404,16 +3404,16 @@
     <t xml:space="preserve">2.9876561164856</t>
   </si>
   <si>
-    <t xml:space="preserve">3.02721047401428</t>
+    <t xml:space="preserve">3.0272102355957</t>
   </si>
   <si>
     <t xml:space="preserve">3.04742693901062</t>
   </si>
   <si>
-    <t xml:space="preserve">3.03424191474915</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.96656060218811</t>
+    <t xml:space="preserve">3.03424215316772</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.96656084060669</t>
   </si>
   <si>
     <t xml:space="preserve">2.99468803405762</t>
@@ -3422,7 +3422,7 @@
     <t xml:space="preserve">2.97974538803101</t>
   </si>
   <si>
-    <t xml:space="preserve">2.94898104667664</t>
+    <t xml:space="preserve">2.94898080825806</t>
   </si>
   <si>
     <t xml:space="preserve">2.94370722770691</t>
@@ -3431,7 +3431,7 @@
     <t xml:space="preserve">2.90151619911194</t>
   </si>
   <si>
-    <t xml:space="preserve">2.91294288635254</t>
+    <t xml:space="preserve">2.91294264793396</t>
   </si>
   <si>
     <t xml:space="preserve">2.92964339256287</t>
@@ -3446,10 +3446,10 @@
     <t xml:space="preserve">2.93755412101746</t>
   </si>
   <si>
-    <t xml:space="preserve">2.89360547065735</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.86547780036926</t>
+    <t xml:space="preserve">2.89360523223877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.86547803878784</t>
   </si>
   <si>
     <t xml:space="preserve">2.79955410957336</t>
@@ -3461,7 +3461,7 @@
     <t xml:space="preserve">2.87778353691101</t>
   </si>
   <si>
-    <t xml:space="preserve">2.98414015769958</t>
+    <t xml:space="preserve">2.98414039611816</t>
   </si>
   <si>
     <t xml:space="preserve">2.97007656097412</t>
@@ -3479,13 +3479,13 @@
     <t xml:space="preserve">2.96040773391724</t>
   </si>
   <si>
-    <t xml:space="preserve">2.9990828037262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.89184737205505</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.85932517051697</t>
+    <t xml:space="preserve">2.99908304214478</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.89184713363647</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.85932493209839</t>
   </si>
   <si>
     <t xml:space="preserve">2.91909575462341</t>
@@ -3515,10 +3515,10 @@
     <t xml:space="preserve">3.11686635017395</t>
   </si>
   <si>
-    <t xml:space="preserve">3.15729951858521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.17224216461182</t>
+    <t xml:space="preserve">3.15729928016663</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.17224192619324</t>
   </si>
   <si>
     <t xml:space="preserve">3.12829327583313</t>
@@ -3527,7 +3527,7 @@
     <t xml:space="preserve">3.16169428825378</t>
   </si>
   <si>
-    <t xml:space="preserve">3.08346486091614</t>
+    <t xml:space="preserve">3.08346509933472</t>
   </si>
   <si>
     <t xml:space="preserve">3.09489178657532</t>
@@ -3539,13 +3539,13 @@
     <t xml:space="preserve">3.09752869606018</t>
   </si>
   <si>
-    <t xml:space="preserve">3.17751598358154</t>
+    <t xml:space="preserve">3.17751622200012</t>
   </si>
   <si>
     <t xml:space="preserve">2.94722294807434</t>
   </si>
   <si>
-    <t xml:space="preserve">2.97183465957642</t>
+    <t xml:space="preserve">2.97183442115784</t>
   </si>
   <si>
     <t xml:space="preserve">3.03863716125488</t>
@@ -3557,7 +3557,7 @@
     <t xml:space="preserve">3.15114665031433</t>
   </si>
   <si>
-    <t xml:space="preserve">3.0992865562439</t>
+    <t xml:space="preserve">3.09928679466248</t>
   </si>
   <si>
     <t xml:space="preserve">3.0764331817627</t>
@@ -3566,7 +3566,7 @@
     <t xml:space="preserve">2.99820399284363</t>
   </si>
   <si>
-    <t xml:space="preserve">2.97359251976013</t>
+    <t xml:space="preserve">2.97359228134155</t>
   </si>
   <si>
     <t xml:space="preserve">2.9331591129303</t>
@@ -3575,7 +3575,7 @@
     <t xml:space="preserve">2.96831846237183</t>
   </si>
   <si>
-    <t xml:space="preserve">2.94282841682434</t>
+    <t xml:space="preserve">2.94282817840576</t>
   </si>
   <si>
     <t xml:space="preserve">2.94458603858948</t>
@@ -3593,7 +3593,7 @@
     <t xml:space="preserve">2.44444584846497</t>
   </si>
   <si>
-    <t xml:space="preserve">2.54992389678955</t>
+    <t xml:space="preserve">2.54992365837097</t>
   </si>
   <si>
     <t xml:space="preserve">2.4778470993042</t>
@@ -62584,7 +62584,7 @@
     </row>
     <row r="2204">
       <c r="A2204" s="1" t="n">
-        <v>45532.6495949074</v>
+        <v>45532.2916666667</v>
       </c>
       <c r="B2204" t="n">
         <v>1958698</v>
@@ -62605,6 +62605,32 @@
         <v>1650</v>
       </c>
       <c r="H2204" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2205">
+      <c r="A2205" s="1" t="n">
+        <v>45533.6516435185</v>
+      </c>
+      <c r="B2205" t="n">
+        <v>1082103</v>
+      </c>
+      <c r="C2205" t="n">
+        <v>3.49200010299683</v>
+      </c>
+      <c r="D2205" t="n">
+        <v>3.43799996376038</v>
+      </c>
+      <c r="E2205" t="n">
+        <v>3.48399996757507</v>
+      </c>
+      <c r="F2205" t="n">
+        <v>3.44600009918213</v>
+      </c>
+      <c r="G2205" t="s">
+        <v>1634</v>
+      </c>
+      <c r="H2205" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/HER.MI.xlsx
+++ b/data/HER.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1651" uniqueCount="1651">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1652" uniqueCount="1652">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,25 +38,25 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">1.77115511894226</t>
+    <t xml:space="preserve">1.77115488052368</t>
   </si>
   <si>
     <t xml:space="preserve">HER.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">1.77260458469391</t>
+    <t xml:space="preserve">1.77260434627533</t>
   </si>
   <si>
     <t xml:space="preserve">1.76970553398132</t>
   </si>
   <si>
-    <t xml:space="preserve">1.77405393123627</t>
+    <t xml:space="preserve">1.7740535736084</t>
   </si>
   <si>
     <t xml:space="preserve">1.75086331367493</t>
   </si>
   <si>
-    <t xml:space="preserve">1.78999722003937</t>
+    <t xml:space="preserve">1.78999698162079</t>
   </si>
   <si>
     <t xml:space="preserve">1.85811829566956</t>
@@ -65,70 +65,70 @@
     <t xml:space="preserve">1.86101734638214</t>
   </si>
   <si>
-    <t xml:space="preserve">1.83637726306915</t>
+    <t xml:space="preserve">1.83637762069702</t>
   </si>
   <si>
     <t xml:space="preserve">1.81173801422119</t>
   </si>
   <si>
-    <t xml:space="preserve">1.76680684089661</t>
+    <t xml:space="preserve">1.76680672168732</t>
   </si>
   <si>
     <t xml:space="preserve">1.83927631378174</t>
   </si>
   <si>
-    <t xml:space="preserve">1.81463670730591</t>
+    <t xml:space="preserve">1.81463694572449</t>
   </si>
   <si>
     <t xml:space="preserve">1.83202958106995</t>
   </si>
   <si>
-    <t xml:space="preserve">1.87261235713959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85666906833649</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87116289138794</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90304958820343</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8842077255249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86971342563629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9175431728363</t>
+    <t xml:space="preserve">1.87261247634888</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85666918754578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87116312980652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90304934978485</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88420712947845</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86971366405487</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91754329204559</t>
   </si>
   <si>
     <t xml:space="preserve">1.92479026317596</t>
   </si>
   <si>
-    <t xml:space="preserve">1.90884745121002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89145445823669</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89725232124329</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79289579391479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80594027042389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82478260993958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76245868206024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82043445110321</t>
+    <t xml:space="preserve">1.90884733200073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89145421981812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89725184440613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79289591312408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80594038963318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82478213310242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76245856285095</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82043421268463</t>
   </si>
   <si>
     <t xml:space="preserve">1.86246645450592</t>
@@ -140,55 +140,55 @@
     <t xml:space="preserve">1.84217512607574</t>
   </si>
   <si>
-    <t xml:space="preserve">1.86536526679993</t>
+    <t xml:space="preserve">1.86536502838135</t>
   </si>
   <si>
     <t xml:space="preserve">1.86826419830322</t>
   </si>
   <si>
-    <t xml:space="preserve">1.8885555267334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89870131015778</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85521948337555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83057987689972</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81028866767883</t>
+    <t xml:space="preserve">1.88855564594269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89870142936707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85521972179413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83057999610901</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81028854846954</t>
   </si>
   <si>
     <t xml:space="preserve">1.80449104309082</t>
   </si>
   <si>
-    <t xml:space="preserve">1.79434514045715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80883896350861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79724442958832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82913088798523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84507381916046</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82623195648193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84072577953339</t>
+    <t xml:space="preserve">1.79434549808502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80883932113647</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79724407196045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82913076877594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84507393836975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82623159885406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84072542190552</t>
   </si>
   <si>
     <t xml:space="preserve">1.86391603946686</t>
   </si>
   <si>
-    <t xml:space="preserve">1.90594828128815</t>
+    <t xml:space="preserve">1.90594840049744</t>
   </si>
   <si>
     <t xml:space="preserve">1.87840974330902</t>
@@ -197,49 +197,49 @@
     <t xml:space="preserve">1.92623972892761</t>
   </si>
   <si>
-    <t xml:space="preserve">1.91174602508545</t>
+    <t xml:space="preserve">1.91174578666687</t>
   </si>
   <si>
     <t xml:space="preserve">1.83347868919373</t>
   </si>
   <si>
-    <t xml:space="preserve">1.84797286987305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85377037525177</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8436244726181</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8465234041214</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87551128864288</t>
+    <t xml:space="preserve">1.84797263145447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85377025604248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84362435340881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84652304649353</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8755110502243</t>
   </si>
   <si>
     <t xml:space="preserve">1.87696039676666</t>
   </si>
   <si>
-    <t xml:space="preserve">1.8595677614212</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85087132453918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82188367843628</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81318759918213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89435338973999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91464471817017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90015089511871</t>
+    <t xml:space="preserve">1.85956764221191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85087168216705</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82188332080841</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81318747997284</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89435315132141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91464459896088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90015065670013</t>
   </si>
   <si>
     <t xml:space="preserve">1.91319537162781</t>
@@ -248,121 +248,121 @@
     <t xml:space="preserve">1.89000511169434</t>
   </si>
   <si>
-    <t xml:space="preserve">1.90160000324249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89290356636047</t>
+    <t xml:space="preserve">1.90160024166107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89290404319763</t>
   </si>
   <si>
     <t xml:space="preserve">1.88130867481232</t>
   </si>
   <si>
-    <t xml:space="preserve">1.82768130302429</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79579484462738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80738949775696</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.77550327777863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82295882701874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83949029445648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8049248456955</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8244616985321</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7673534154892</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73579335212708</t>
+    <t xml:space="preserve">1.82768106460571</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79579472541809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80738973617554</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77550339698792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82295906543732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83949017524719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80492448806763</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82446157932281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76735317707062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73579370975494</t>
   </si>
   <si>
     <t xml:space="preserve">1.77336478233337</t>
   </si>
   <si>
-    <t xml:space="preserve">1.80342185497284</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84700417518616</t>
+    <t xml:space="preserve">1.80342197418213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84700465202332</t>
   </si>
   <si>
     <t xml:space="preserve">1.90260994434357</t>
   </si>
   <si>
-    <t xml:space="preserve">1.87555849552155</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87856435775757</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85151302814484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84550154209137</t>
+    <t xml:space="preserve">1.87555885314941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87856459617615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85151290893555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84550189971924</t>
   </si>
   <si>
     <t xml:space="preserve">1.7913990020752</t>
   </si>
   <si>
-    <t xml:space="preserve">1.82596457004547</t>
+    <t xml:space="preserve">1.82596480846405</t>
   </si>
   <si>
     <t xml:space="preserve">1.81093609333038</t>
   </si>
   <si>
-    <t xml:space="preserve">1.83648455142975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83197593688965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82746720314026</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83498167991638</t>
+    <t xml:space="preserve">1.83648419380188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83197581768036</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82746744155884</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8349814414978</t>
   </si>
   <si>
     <t xml:space="preserve">1.84099316596985</t>
   </si>
   <si>
-    <t xml:space="preserve">1.85001015663147</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90561556816101</t>
+    <t xml:space="preserve">1.85001027584076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9056156873703</t>
   </si>
   <si>
     <t xml:space="preserve">1.92665553092957</t>
   </si>
   <si>
-    <t xml:space="preserve">1.91914105415344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90411245822906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93567287921906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89960443973541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91312980651855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86353611946106</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88758146762848</t>
+    <t xml:space="preserve">1.9191415309906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90411281585693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93567264080048</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89960432052612</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91312992572784</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86353576183319</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88758158683777</t>
   </si>
   <si>
     <t xml:space="preserve">1.88006734848022</t>
@@ -371,67 +371,67 @@
     <t xml:space="preserve">1.81394159793854</t>
   </si>
   <si>
-    <t xml:space="preserve">1.80943334102631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84249603748322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85752439498901</t>
+    <t xml:space="preserve">1.80943298339844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84249579906464</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85752427577972</t>
   </si>
   <si>
     <t xml:space="preserve">1.86654150485992</t>
   </si>
   <si>
-    <t xml:space="preserve">1.8530158996582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85602164268494</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88307297229767</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82145595550537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80041587352753</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.77035927772522</t>
+    <t xml:space="preserve">1.85301578044891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85602152347565</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88307285308838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82145607471466</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8004162311554</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77035903930664</t>
   </si>
   <si>
     <t xml:space="preserve">1.80191886425018</t>
   </si>
   <si>
-    <t xml:space="preserve">1.819953083992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.77486717700958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7718620300293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76585054397583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75533032417297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78087878227234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75983893871307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69221079349518</t>
+    <t xml:space="preserve">1.81995332241058</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77486789226532</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77186191082001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76585018634796</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75533080101013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78087902069092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75983881950378</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69221067428589</t>
   </si>
   <si>
     <t xml:space="preserve">1.66515946388245</t>
   </si>
   <si>
-    <t xml:space="preserve">1.65163373947144</t>
+    <t xml:space="preserve">1.65163385868073</t>
   </si>
   <si>
     <t xml:space="preserve">1.638108253479</t>
@@ -440,91 +440,91 @@
     <t xml:space="preserve">1.66065108776093</t>
   </si>
   <si>
-    <t xml:space="preserve">1.66966784000397</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.67417669296265</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.68169069290161</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69371366500854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.67868518829346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69972515106201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69822227954865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.71174788475037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6831933259964</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.67567944526672</t>
+    <t xml:space="preserve">1.66966795921326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.67417645454407</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.68169057369232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69371342658997</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.67868506908417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6997252702713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69822239875793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.71174776554108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.68319368362427</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.67567932605743</t>
   </si>
   <si>
     <t xml:space="preserve">1.67718243598938</t>
   </si>
   <si>
-    <t xml:space="preserve">1.68619906902313</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.72377049922943</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73128461837769</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75082182884216</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65313649177551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.62458229064941</t>
+    <t xml:space="preserve">1.68619930744171</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.72377038002014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73128473758698</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75082206726074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65313673019409</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.62458264827728</t>
   </si>
   <si>
     <t xml:space="preserve">1.62157678604126</t>
   </si>
   <si>
-    <t xml:space="preserve">1.60053670406342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5148743391037</t>
+    <t xml:space="preserve">1.60053694248199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.51487421989441</t>
   </si>
   <si>
     <t xml:space="preserve">1.51787996292114</t>
   </si>
   <si>
-    <t xml:space="preserve">1.49984574317932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.49909436702728</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.50435447692871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.48331451416016</t>
+    <t xml:space="preserve">1.49984586238861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.49909424781799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.50435435771942</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.48331439495087</t>
   </si>
   <si>
     <t xml:space="preserve">1.47504878044128</t>
   </si>
   <si>
-    <t xml:space="preserve">1.44799745082855</t>
+    <t xml:space="preserve">1.44799757003784</t>
   </si>
   <si>
     <t xml:space="preserve">1.44649469852448</t>
   </si>
   <si>
-    <t xml:space="preserve">1.46152305603027</t>
+    <t xml:space="preserve">1.46152293682098</t>
   </si>
   <si>
     <t xml:space="preserve">1.46528017520905</t>
@@ -533,31 +533,31 @@
     <t xml:space="preserve">1.45025169849396</t>
   </si>
   <si>
-    <t xml:space="preserve">1.45400881767273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.4577659368515</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.46903729438782</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.43296873569489</t>
+    <t xml:space="preserve">1.45400857925415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.45776605606079</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.46903741359711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.43296897411346</t>
   </si>
   <si>
     <t xml:space="preserve">1.4096747636795</t>
   </si>
   <si>
-    <t xml:space="preserve">1.42846024036407</t>
+    <t xml:space="preserve">1.42846035957336</t>
   </si>
   <si>
     <t xml:space="preserve">1.49233150482178</t>
   </si>
   <si>
-    <t xml:space="preserve">1.53591406345367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54793703556061</t>
+    <t xml:space="preserve">1.53591418266296</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54793691635132</t>
   </si>
   <si>
     <t xml:space="preserve">1.54042279720306</t>
@@ -566,34 +566,34 @@
     <t xml:space="preserve">1.59001672267914</t>
   </si>
   <si>
-    <t xml:space="preserve">1.58400547504425</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55695426464081</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.56296539306641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60654842853546</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6155651807785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6290910243988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65013098716736</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.62758803367615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.64712512493134</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.66816508769989</t>
+    <t xml:space="preserve">1.58400559425354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55695414543152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5629655122757</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60654819011688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.61556541919708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.62909090518951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65013086795807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.62758791446686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.64712500572205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.66816520690918</t>
   </si>
   <si>
     <t xml:space="preserve">1.65614223480225</t>
@@ -605,34 +605,34 @@
     <t xml:space="preserve">1.62307965755463</t>
   </si>
   <si>
-    <t xml:space="preserve">1.71325063705444</t>
+    <t xml:space="preserve">1.71325051784515</t>
   </si>
   <si>
     <t xml:space="preserve">1.70273077487946</t>
   </si>
   <si>
-    <t xml:space="preserve">1.7147536277771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7162561416626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.72076487541199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.70122754573822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.70423352718353</t>
+    <t xml:space="preserve">1.71475350856781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.71625649929047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.72076463699341</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.70122766494751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.70423340797424</t>
   </si>
   <si>
     <t xml:space="preserve">1.63359951972961</t>
   </si>
   <si>
-    <t xml:space="preserve">1.63660526275635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60955393314362</t>
+    <t xml:space="preserve">1.63660514354706</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60955369472504</t>
   </si>
   <si>
     <t xml:space="preserve">1.64562237262726</t>
@@ -647,19 +647,19 @@
     <t xml:space="preserve">1.72827923297882</t>
   </si>
   <si>
-    <t xml:space="preserve">1.74030196666718</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75382792949677</t>
+    <t xml:space="preserve">1.74030184745789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75382781028748</t>
   </si>
   <si>
     <t xml:space="preserve">1.75683331489563</t>
   </si>
   <si>
-    <t xml:space="preserve">1.76134192943573</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75833594799042</t>
+    <t xml:space="preserve">1.76134204864502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75833606719971</t>
   </si>
   <si>
     <t xml:space="preserve">1.77787327766418</t>
@@ -674,94 +674,94 @@
     <t xml:space="preserve">1.78388464450836</t>
   </si>
   <si>
-    <t xml:space="preserve">1.78839313983917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.77937626838684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78238189220428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80642759799957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84850752353668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85451877117157</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88157021999359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89810132980347</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93867826461792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.97023832798004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.98526668548584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9867696762085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95070111751556</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94168412685394</t>
+    <t xml:space="preserve">1.78839349746704</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77937602996826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.782381772995</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80642747879028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84850740432739</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8545184135437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8815701007843</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89810168743134</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9386785030365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.97023844718933</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.98526644706726</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.98676955699921</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95070123672485</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94168436527252</t>
   </si>
   <si>
     <t xml:space="preserve">1.95971834659576</t>
   </si>
   <si>
-    <t xml:space="preserve">1.9717413187027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.97624957561493</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.98376417160034</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.01682662963867</t>
+    <t xml:space="preserve">1.97174119949341</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.97624969482422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.98376369476318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.01682686805725</t>
   </si>
   <si>
     <t xml:space="preserve">2.00931239128113</t>
   </si>
   <si>
-    <t xml:space="preserve">1.94919836521149</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95370709896088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.00029516220093</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96873533725739</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95821535587311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9732438325882</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.98827242851257</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.99578642845154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.00780963897705</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.01081514358521</t>
+    <t xml:space="preserve">1.94919860363007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9537068605423</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.00029540061951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96873557567596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9582154750824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.97324407100677</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.98827254772186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.99578666687012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.00780940055847</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.01081538200378</t>
   </si>
   <si>
     <t xml:space="preserve">2.02133512496948</t>
@@ -770,46 +770,46 @@
     <t xml:space="preserve">2.06942653656006</t>
   </si>
   <si>
-    <t xml:space="preserve">2.10399222373962</t>
+    <t xml:space="preserve">2.10399174690247</t>
   </si>
   <si>
     <t xml:space="preserve">2.13404893875122</t>
   </si>
   <si>
-    <t xml:space="preserve">2.14607167243958</t>
+    <t xml:space="preserve">2.14607191085815</t>
   </si>
   <si>
     <t xml:space="preserve">2.12803769111633</t>
   </si>
   <si>
-    <t xml:space="preserve">2.18063759803772</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.14156341552734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.11451196670532</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.15058016777039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.1641058921814</t>
+    <t xml:space="preserve">2.18063735961914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.14156317710876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.11451172828674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.15058064460754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16410636901855</t>
   </si>
   <si>
     <t xml:space="preserve">2.20768880844116</t>
   </si>
   <si>
-    <t xml:space="preserve">2.19115734100342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.18965458869934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.17913460731506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.13104319572449</t>
+    <t xml:space="preserve">2.191157579422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.18965482711792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.17913484573364</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.13104367256165</t>
   </si>
   <si>
     <t xml:space="preserve">2.16711187362671</t>
@@ -818,7 +818,7 @@
     <t xml:space="preserve">2.20167756080627</t>
   </si>
   <si>
-    <t xml:space="preserve">2.15659165382385</t>
+    <t xml:space="preserve">2.15659213066101</t>
   </si>
   <si>
     <t xml:space="preserve">2.18214058876038</t>
@@ -827,67 +827,67 @@
     <t xml:space="preserve">2.19867181777954</t>
   </si>
   <si>
-    <t xml:space="preserve">2.18664932250977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.22722601890564</t>
+    <t xml:space="preserve">2.18664884567261</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.22722554206848</t>
   </si>
   <si>
     <t xml:space="preserve">2.21219730377197</t>
   </si>
   <si>
-    <t xml:space="preserve">2.23473978042603</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.22271704673767</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.23624277114868</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.24864077568054</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.25948858261108</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.25328993797302</t>
+    <t xml:space="preserve">2.23474025726318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.22271728515625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.23624300956726</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.24864101409912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.25948882102966</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.2532901763916</t>
   </si>
   <si>
     <t xml:space="preserve">2.17735362052917</t>
   </si>
   <si>
-    <t xml:space="preserve">2.19130110740662</t>
+    <t xml:space="preserve">2.1913013458252</t>
   </si>
   <si>
     <t xml:space="preserve">2.14945888519287</t>
   </si>
   <si>
-    <t xml:space="preserve">2.13551139831543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.09211897850037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.0735228061676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.0859203338623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.08282113075256</t>
+    <t xml:space="preserve">2.13551115989685</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.09211921691895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.07352304458618</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.08592057228088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.08282065391541</t>
   </si>
   <si>
     <t xml:space="preserve">2.07197308540344</t>
   </si>
   <si>
-    <t xml:space="preserve">2.02393174171448</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.04407835006714</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.07972168922424</t>
+    <t xml:space="preserve">2.02393198013306</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.04407787322998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.07972145080566</t>
   </si>
   <si>
     <t xml:space="preserve">2.05647587776184</t>
@@ -896,34 +896,34 @@
     <t xml:space="preserve">2.10606670379639</t>
   </si>
   <si>
-    <t xml:space="preserve">2.12931251525879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.11536526679993</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.10761642456055</t>
+    <t xml:space="preserve">2.12931227684021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.11536502838135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.10761618614197</t>
   </si>
   <si>
     <t xml:space="preserve">2.12156367301941</t>
   </si>
   <si>
-    <t xml:space="preserve">2.09986782073975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.13861083984375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.15410780906677</t>
+    <t xml:space="preserve">2.09986805915833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.13861107826233</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.15410804748535</t>
   </si>
   <si>
     <t xml:space="preserve">2.10916638374329</t>
   </si>
   <si>
-    <t xml:space="preserve">2.08901977539062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.13086223602295</t>
+    <t xml:space="preserve">2.0890200138092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.13086247444153</t>
   </si>
   <si>
     <t xml:space="preserve">2.12001442909241</t>
@@ -941,16 +941,16 @@
     <t xml:space="preserve">2.12621307373047</t>
   </si>
   <si>
-    <t xml:space="preserve">2.07662224769592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.13241195678711</t>
+    <t xml:space="preserve">2.07662200927734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.13241219520569</t>
   </si>
   <si>
     <t xml:space="preserve">2.11071586608887</t>
   </si>
   <si>
-    <t xml:space="preserve">2.06887340545654</t>
+    <t xml:space="preserve">2.06887364387512</t>
   </si>
   <si>
     <t xml:space="preserve">2.04872727394104</t>
@@ -962,13 +962,13 @@
     <t xml:space="preserve">2.04097867012024</t>
   </si>
   <si>
-    <t xml:space="preserve">2.10141706466675</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.08747029304504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.08437085151672</t>
+    <t xml:space="preserve">2.10141777992249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.08746981620789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.08437061309814</t>
   </si>
   <si>
     <t xml:space="preserve">2.0781717300415</t>
@@ -977,13 +977,13 @@
     <t xml:space="preserve">2.15565776824951</t>
   </si>
   <si>
-    <t xml:space="preserve">2.09366893768311</t>
+    <t xml:space="preserve">2.09366917610168</t>
   </si>
   <si>
     <t xml:space="preserve">2.07507228851318</t>
   </si>
   <si>
-    <t xml:space="preserve">2.05957531929016</t>
+    <t xml:space="preserve">2.05957508087158</t>
   </si>
   <si>
     <t xml:space="preserve">2.06112504005432</t>
@@ -992,19 +992,19 @@
     <t xml:space="preserve">2.04562783241272</t>
   </si>
   <si>
-    <t xml:space="preserve">2.09676837921143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.11381530761719</t>
+    <t xml:space="preserve">2.09676861763</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.11381506919861</t>
   </si>
   <si>
     <t xml:space="preserve">2.13706111907959</t>
   </si>
   <si>
-    <t xml:space="preserve">2.14790916442871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.15100836753845</t>
+    <t xml:space="preserve">2.14790940284729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.15100860595703</t>
   </si>
   <si>
     <t xml:space="preserve">2.14326000213623</t>
@@ -1013,25 +1013,25 @@
     <t xml:space="preserve">2.14016056060791</t>
   </si>
   <si>
-    <t xml:space="preserve">2.15255856513977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16185641288757</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.18510270118713</t>
+    <t xml:space="preserve">2.15255832672119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16185617446899</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.18510246276855</t>
   </si>
   <si>
     <t xml:space="preserve">2.20369911193848</t>
   </si>
   <si>
-    <t xml:space="preserve">2.23004412651062</t>
+    <t xml:space="preserve">2.23004388809204</t>
   </si>
   <si>
     <t xml:space="preserve">2.24089217185974</t>
   </si>
   <si>
-    <t xml:space="preserve">2.2625880241394</t>
+    <t xml:space="preserve">2.26258826255798</t>
   </si>
   <si>
     <t xml:space="preserve">2.27808547019958</t>
@@ -1043,31 +1043,31 @@
     <t xml:space="preserve">2.26103830337524</t>
   </si>
   <si>
-    <t xml:space="preserve">2.2470908164978</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.25173997879028</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.27343606948853</t>
+    <t xml:space="preserve">2.24709105491638</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.25174021720886</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.2734363079071</t>
   </si>
   <si>
     <t xml:space="preserve">2.27498626708984</t>
   </si>
   <si>
-    <t xml:space="preserve">2.27653551101685</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.30753016471863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.35557103157043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.34007453918457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.34317350387573</t>
+    <t xml:space="preserve">2.27653527259827</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.30752992630005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.35557126998901</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.34007382392883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.34317374229431</t>
   </si>
   <si>
     <t xml:space="preserve">2.36641931533813</t>
@@ -1076,73 +1076,73 @@
     <t xml:space="preserve">2.38036704063416</t>
   </si>
   <si>
-    <t xml:space="preserve">2.3912148475647</t>
+    <t xml:space="preserve">2.39121508598328</t>
   </si>
   <si>
     <t xml:space="preserve">2.38656568527222</t>
   </si>
   <si>
-    <t xml:space="preserve">2.4268581867218</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.37416791915894</t>
+    <t xml:space="preserve">2.42685842514038</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.37416768074036</t>
   </si>
   <si>
     <t xml:space="preserve">2.35867047309875</t>
   </si>
   <si>
-    <t xml:space="preserve">2.38966536521912</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.40206289291382</t>
+    <t xml:space="preserve">2.38966512680054</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.40206265449524</t>
   </si>
   <si>
     <t xml:space="preserve">2.33852434158325</t>
   </si>
   <si>
-    <t xml:space="preserve">2.34162378311157</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.36331963539124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.31217908859253</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.30907964706421</t>
+    <t xml:space="preserve">2.34162402153015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.36332011222839</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.31217932701111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.30907988548279</t>
   </si>
   <si>
     <t xml:space="preserve">2.30133128166199</t>
   </si>
   <si>
-    <t xml:space="preserve">2.25483989715576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.23469352722168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.29358291625977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.34472322463989</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.39741373062134</t>
+    <t xml:space="preserve">2.25483965873718</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.2346932888031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.29358267784119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.34472346305847</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.39741349220276</t>
   </si>
   <si>
     <t xml:space="preserve">2.32457709312439</t>
   </si>
   <si>
-    <t xml:space="preserve">2.35402178764343</t>
+    <t xml:space="preserve">2.35402154922485</t>
   </si>
   <si>
     <t xml:space="preserve">2.32147741317749</t>
   </si>
   <si>
-    <t xml:space="preserve">2.36177015304565</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.37106847763062</t>
+    <t xml:space="preserve">2.36177039146423</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.37106871604919</t>
   </si>
   <si>
     <t xml:space="preserve">2.38501596450806</t>
@@ -1160,64 +1160,64 @@
     <t xml:space="preserve">2.2656877040863</t>
   </si>
   <si>
-    <t xml:space="preserve">2.2145471572876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.18975138664246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.13396167755127</t>
+    <t xml:space="preserve">2.21454691886902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.18975162506104</t>
+  </s